--- a/Project/code/intermediate/models/0003_ViT_strong_2/results_0.0000_max_val/individual_clip_results.xlsx
+++ b/Project/code/intermediate/models/0003_ViT_strong_2/results_0.0000_max_val/individual_clip_results.xlsx
@@ -605,11 +605,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.319036602973938, 0.3578190207481384, 0.1894885003566742, 0.17476786673069, 0.1902504414319992, 0.24737019836902618, 0.19072583317756653, 0.17939013242721558, 0.2819429337978363, 0.2848341166973114, 0.2129509001970291, 0.19380603730678558, 0.2123090922832489, 0.259257972240448, 0.24262124300003052, 0.40258342027664185, 0.42512908577919006, 0.2713561952114105, 0.20613417029380798, 0.17525087296962738, 0.5231002569198608, 0.22467286884784698, 0.35018983483314514, 0.48145994544029236, 0.31226739287376404, 0.4605000615119934, 0.25527846813201904, 0.1743386834859848, 0.23022472858428955, 0.2831686735153198, 0.3021872639656067, 0.27328476309776306, 0.18657588958740234, 0.15803499519824982, 0.2254827618598938, 0.30498093366622925, 0.18128152191638947, 0.18517594039440155, 0.15136723220348358, 0.10342001914978027, 0.10626600682735443, 0.11376313865184784, 0.11462400108575821, 0.15741045773029327, 0.1989923119544983, 0.24773776531219482, 0.3103823959827423, 0.27652543783187866, 0.19127929210662842, 0.29520562291145325, 0.26001739501953125, 0.3103726804256439, 0.5699803233146667, 0.22289250791072845, 0.16218212246894836, 0.16070742905139923, 0.2997584342956543, 0.24037538468837738, 0.22266407310962677, 0.23728717863559723, 0.21529562771320343, 0.2463577538728714, 0.2756870985031128, 0.24832549691200256, 0.16401790082454681, 0.19223640859127045, 0.1496599167585373, 0.14287707209587097, 0.19226740300655365, 0.20502087473869324, 0.21483920514583588, 0.2283613085746765, 0.252103716135025, 0.3629758954048157, 0.33567988872528076, 0.270320326089859, 0.19259852170944214, 0.2411264032125473, 0.21511715650558472, 0.27561283111572266, 0.13017795979976654, 0.18526190519332886, 0.1548432856798172, 0.18663999438285828, 0.13144899904727936, 0.1320427805185318, 0.1393716037273407, 0.14925168454647064, 0.1606876105070114, 0.20978444814682007, 0.20682179927825928, 0.12563544511795044, 0.13254468142986298, 0.23196803033351898, 0.18396411836147308, 0.2167057991027832, 0.11515174061059952, 0.16857509315013885, 0.19377392530441284, 0.14711500704288483, 0.1513475477695465, 0.15362654626369476, 0.10938640683889389, 0.16870658099651337, 0.2004660665988922, 0.2271302193403244, 0.1994355320930481, 0.38312292098999023, 0.376093327999115, 0.44606730341911316, 0.4862399995326996, 0.2766183018684387, 0.264810174703598, 0.1669960767030716, 0.13595013320446014, 0.15277719497680664, 0.2644561529159546, 0.26766741275787354, 0.3040687143802643, 0.31130778789520264, 0.32381048798561096, 0.38834071159362793, 0.5132082104682922, 0.3675544559955597, 0.43857014179229736, 0.23227931559085846, 0.18698576092720032, 0.22642748057842255, 0.48222965002059937, 0.4593810737133026, 0.37984904646873474, 0.2429075390100479, 0.29194948077201843, 0.3226136863231659, 0.5069131255149841, 0.33228185772895813, 0.272789865732193, 0.2738703191280365, 0.25968363881111145, 0.27916038036346436, 0.45295944809913635, 0.4181329309940338, 0.47516337037086487, 0.46896496415138245, 0.4681374430656433, 0.46612659096717834]</t>
+          <t>[0.5916182398796082, 0.6732205152511597, 0.14215458929538727, 0.1184392049908638, 0.12969954311847687, 0.32920336723327637, 0.1834985315799713, 0.14712747931480408, 0.2927035987377167, 0.3027466833591461, 0.24934744834899902, 0.158525750041008, 0.19685277342796326, 0.3055554926395416, 0.4155874252319336, 0.6073855757713318, 0.6594908833503723, 0.43874624371528625, 0.29273954033851624, 0.25864219665527344, 0.6259242296218872, 0.24024921655654907, 0.43053117394447327, 0.423262357711792, 0.2171497792005539, 0.31996598839759827, 0.25293534994125366, 0.17530441284179688, 0.29722654819488525, 0.24446170032024384, 0.26577720046043396, 0.27927136421203613, 0.1850842535495758, 0.15716330707073212, 0.23658250272274017, 0.44505810737609863, 0.2464175522327423, 0.25097906589508057, 0.2409568428993225, 0.15673868358135223, 0.1728038787841797, 0.11714271456003189, 0.07582191377878189, 0.09428343176841736, 0.18991531431674957, 0.2643297612667084, 0.3910121023654938, 0.43677592277526855, 0.29681557416915894, 0.5522710084915161, 0.4199528992176056, 0.38416022062301636, 0.7002842426300049, 0.23687197268009186, 0.1467243880033493, 0.12867437303066254, 0.27431681752204895, 0.22060845792293549, 0.23652227222919464, 0.21103408932685852, 0.201395645737648, 0.2471630722284317, 0.34388530254364014, 0.29152828454971313, 0.12719298899173737, 0.1464955359697342, 0.11231866478919983, 0.09768328815698624, 0.21449048817157745, 0.22645652294158936, 0.21744881570339203, 0.213354229927063, 0.3176744878292084, 0.4485536515712738, 0.38484710454940796, 0.2617857754230499, 0.1633252650499344, 0.25593793392181396, 0.21365906298160553, 0.2967667579650879, 0.10043936967849731, 0.14222680032253265, 0.11497650295495987, 0.15418729186058044, 0.08218102902173996, 0.07266227900981903, 0.13961200416088104, 0.1519801914691925, 0.1898784190416336, 0.20381926000118256, 0.18623565137386322, 0.12855857610702515, 0.11885973811149597, 0.21697333455085754, 0.150948628783226, 0.1237945482134819, 0.05477113276720047, 0.08996127545833588, 0.10300394147634506, 0.0784502923488617, 0.10794506222009659, 0.11617019027471542, 0.06185317039489746, 0.09194912016391754, 0.16432084143161774, 0.27204224467277527, 0.23021300137043, 0.6003470420837402, 0.6344605088233948, 0.675508439540863, 0.6884807348251343, 0.42284467816352844, 0.4558747112751007, 0.22090710699558258, 0.15596625208854675, 0.15749582648277283, 0.30151209235191345, 0.31027042865753174, 0.34984496235847473, 0.38120758533477783, 0.3846888244152069, 0.49121958017349243, 0.6874178647994995, 0.5758129954338074, 0.6590230464935303, 0.34208714962005615, 0.26283398270606995, 0.3795689642429352, 0.7259146571159363, 0.7270708680152893, 0.6268441677093506, 0.43679431080818176, 0.48596879839897156, 0.47794032096862793, 0.7822091579437256, 0.6097005605697632, 0.49038025736808777, 0.32866334915161133, 0.3676011264324188, 0.3288867473602295, 0.5271046757698059, 0.5711017847061157, 0.6178803443908691, 0.5478387475013733, 0.5246997475624084, 0.5287606120109558]</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.5699803233146667</v>
+        <v>0.7822091579437256</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -623,10 +623,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.286052400013432</v>
+        <v>1.280206500014174</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00880857808228378</v>
+        <v>0.008768537671329957</v>
       </c>
     </row>
     <row r="3">
@@ -645,11 +645,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.3355354070663452, 0.3999955356121063, 0.3579413592815399, 0.4248630404472351, 0.4457584619522095, 0.47110021114349365, 0.3499563932418823, 0.2637527585029602, 0.27361389994621277, 0.3664343059062958, 0.3393076956272125, 0.31813985109329224, 0.30621975660324097, 0.356832891702652, 0.44713833928108215, 0.3092436194419861, 0.3300277590751648, 0.41856521368026733, 0.34130868315696716, 0.24918773770332336, 0.22968584299087524, 0.23923029005527496, 0.24891753494739532, 0.2809124290943146, 0.15117815136909485, 0.17689020931720734, 0.20222200453281403, 0.2585231363773346, 0.2449648231267929, 0.3011569678783417, 0.15332305431365967, 0.15306738018989563, 0.23309187591075897, 0.27167630195617676, 0.2506607472896576, 0.239951491355896, 0.25220930576324463, 0.2463422417640686, 0.22561322152614594, 0.19287793338298798, 0.2117539495229721, 0.3025878667831421, 0.2888405919075012, 0.15782228112220764, 0.126962348818779, 0.17243653535842896, 0.22007784247398376, 0.30939987301826477, 0.31899914145469666, 0.3716471493244171, 0.3944900631904602, 0.30718010663986206, 0.27009621262550354, 0.34821373224258423, 0.26444610953330994, 0.2586289346218109, 0.24822065234184265, 0.2851189374923706, 0.30692237615585327, 0.31586262583732605, 0.3153190016746521, 0.20961469411849976, 0.33269625902175903, 0.1920628398656845, 0.2702343165874481, 0.19779770076274872, 0.23700179159641266, 0.22035285830497742, 0.2646789252758026, 0.24173128604888916, 0.2490767389535904, 0.22981472313404083, 0.15731385350227356, 0.14101241528987885, 0.13754598796367645, 0.20924469828605652, 0.20891091227531433, 0.2919853925704956, 0.5454432368278503, 0.4434557855129242, 0.21634702384471893, 0.2068091481924057, 0.34242311120033264, 0.327751487493515, 0.542622447013855, 0.5643450617790222, 0.5387924909591675, 0.43734923005104065, 0.34464719891548157, 0.32762059569358826, 0.27124616503715515, 0.1468571275472641, 0.1543874889612198, 0.1823316514492035, 0.1717599332332611, 0.20456582307815552, 0.2876965403556824, 0.2682145833969116, 0.34581267833709717, 0.5902707576751709, 0.48058366775512695, 0.3969450294971466, 0.3077552914619446, 0.25113531947135925, 0.22524641454219818, 0.18205052614212036, 0.15961599349975586, 0.17300638556480408, 0.1388596147298813, 0.12938347458839417, 0.12371617555618286, 0.11213595420122147, 0.10903619974851608, 0.10869129002094269, 0.2343491017818451, 0.20277617871761322, 0.16925598680973053, 0.23948270082473755, 0.3842308819293976, 0.4993322491645813, 0.19678373634815216, 0.14485055208206177, 0.21058188378810883, 0.393947035074234, 0.31270915269851685, 0.3511703312397003, 0.3026459217071533, 0.19278745353221893, 0.1771163046360016, 0.14833366870880127, 0.12778839468955994, 0.2463272362947464, 0.14851199090480804, 0.12938575446605682, 0.16467013955116272, 0.2272208034992218, 0.26526448130607605, 0.42818528413772583, 0.27924302220344543, 0.19050613045692444, 0.21844419836997986, 0.3959234058856964, 0.473226398229599, 0.5554766058921814, 0.3617175221443176, 0.3657418191432953, 0.47383278608322144, 0.4165452718734741, 0.45159003138542175, 0.5999577641487122, 0.39089077711105347, 0.28135445713996887, 0.27680331468582153, 0.34292373061180115, 0.42431241273880005, 0.5143300890922546, 0.49835479259490967, 0.4128296971321106, 0.573458731174469, 0.30323705077171326, 0.22784197330474854, 0.24638189375400543, 0.7237492799758911, 0.788359522819519, 0.8183646202087402, 0.8610440492630005, 0.7951433658599854, 0.8060810565948486, 0.485440731048584, 0.25127819180488586, 0.20116838812828064, 0.4036005437374115, 0.3712509274482727, 0.5645358562469482, 0.6721567511558533, 0.5798170566558838, 0.7451271414756775, 0.7593993544578552, 0.6773945093154907, 0.5771682858467102, 0.9057809710502625, 0.900070071220398, 0.9126541614532471, 0.42026928067207336, 0.398423433303833, 0.359050452709198, 0.44474777579307556, 0.4157332479953766, 0.3940817415714264, 0.43125754594802856, 0.40255293250083923, 0.35946160554885864, 0.5113515853881836, 0.43725845217704773, 0.5239701271057129, 0.526791512966156]</t>
+          <t>[0.6753525733947754, 0.7204527854919434, 0.6520072817802429, 0.6587733626365662, 0.6561635136604309, 0.7085943222045898, 0.6538088321685791, 0.41722390055656433, 0.4146045744419098, 0.6684561967849731, 0.5899755358695984, 0.6380364298820496, 0.5541940331459045, 0.6206684112548828, 0.7262067198753357, 0.5432950854301453, 0.6231468915939331, 0.6591794490814209, 0.7397602796554565, 0.5721328854560852, 0.4846436679363251, 0.5329629778862, 0.6448642015457153, 0.6593928337097168, 0.27911922335624695, 0.32713472843170166, 0.36205950379371643, 0.41424286365509033, 0.4396517276763916, 0.6542441248893738, 0.37176451086997986, 0.4162006080150604, 0.5874171257019043, 0.5750101208686829, 0.4144228994846344, 0.3952721357345581, 0.4614335596561432, 0.4486269950866699, 0.5007975697517395, 0.3768186867237091, 0.3728945553302765, 0.5509316921234131, 0.6408065557479858, 0.31310275197029114, 0.16301800310611725, 0.1779792755842209, 0.23518550395965576, 0.4037298560142517, 0.6098262071609497, 0.6320880055427551, 0.6237876415252686, 0.5001904964447021, 0.4814351201057434, 0.6228119730949402, 0.6103585362434387, 0.5998673439025879, 0.4823736548423767, 0.4242537021636963, 0.5361914038658142, 0.5440288186073303, 0.3929726779460907, 0.21692891418933868, 0.38059887290000916, 0.24628059566020966, 0.4690024256706238, 0.27513793110847473, 0.39533495903015137, 0.32888543605804443, 0.40487802028656006, 0.4083039164543152, 0.41431325674057007, 0.38981735706329346, 0.24230898916721344, 0.23717282712459564, 0.22673320770263672, 0.40644726157188416, 0.40003570914268494, 0.5332573652267456, 0.7458802461624146, 0.628997802734375, 0.4881206154823303, 0.4736928641796112, 0.5999731421470642, 0.5490730404853821, 0.7927586436271667, 0.7573239207267761, 0.7675390243530273, 0.6843802332878113, 0.5625969171524048, 0.5421146154403687, 0.3905133605003357, 0.21835552155971527, 0.26809680461883545, 0.3124820590019226, 0.2679224908351898, 0.29409581422805786, 0.4036965072154999, 0.3605573773384094, 0.5468640327453613, 0.8571771383285522, 0.729941189289093, 0.6687191128730774, 0.5161424875259399, 0.41001516580581665, 0.42071405053138733, 0.3334856331348419, 0.21694053709506989, 0.23472800850868225, 0.17407220602035522, 0.17607267200946808, 0.16265161335468292, 0.14149397611618042, 0.13707031309604645, 0.14981605112552643, 0.40540024638175964, 0.2920706868171692, 0.25058242678642273, 0.43641412258148193, 0.6259984970092773, 0.765114426612854, 0.3494633734226227, 0.25322771072387695, 0.29866382479667664, 0.48049846291542053, 0.32872274518013, 0.35703086853027344, 0.36845216155052185, 0.3120875656604767, 0.31598541140556335, 0.2567170262336731, 0.2095918506383896, 0.5393132567405701, 0.1993812918663025, 0.1825392097234726, 0.28055429458618164, 0.27541425824165344, 0.23248951137065887, 0.4243229627609253, 0.3461519777774811, 0.25905996561050415, 0.3720403015613556, 0.5837013721466064, 0.7143089771270752, 0.7905085682868958, 0.46310126781463623, 0.42246392369270325, 0.5578257441520691, 0.5790044665336609, 0.6898578405380249, 0.8040080666542053, 0.5570754408836365, 0.4414331316947937, 0.3800947070121765, 0.39459526538848877, 0.5701231956481934, 0.693428099155426, 0.6879526972770691, 0.4770587086677551, 0.6635484099388123, 0.4611419439315796, 0.31464824080467224, 0.27806010842323303, 0.8456248044967651, 0.8654382228851318, 0.8643991351127625, 0.94234699010849, 0.8596338629722595, 0.8895888924598694, 0.5625255107879639, 0.260364830493927, 0.16323067247867584, 0.48524579405784607, 0.4202781617641449, 0.5994027853012085, 0.7825441956520081, 0.7048738598823547, 0.8527928590774536, 0.8407414555549622, 0.7514876127243042, 0.664524257183075, 0.9371719360351562, 0.9284030199050903, 0.9125897288322449, 0.360960990190506, 0.4385952055454254, 0.46422693133354187, 0.5955343246459961, 0.5794312357902527, 0.5924243927001953, 0.550472617149353, 0.5512263774871826, 0.5086284279823303, 0.6600871682167053, 0.581607460975647, 0.6724324822425842, 0.6736027598381042]</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9126541614532471</v>
+        <v>0.94234699010849</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1.194304700009525</v>
+        <v>1.20839210000122</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006093391326579208</v>
+        <v>0.006165265816332754</v>
       </c>
     </row>
     <row r="4">
@@ -685,11 +685,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.13837027549743652, 0.12492768466472626, 0.11633220314979553, 0.1180267333984375, 0.08713433146476746, 0.08448563516139984, 0.1042001023888588, 0.08674538135528564, 0.07959578931331635, 0.06181877478957176, 0.0690496638417244, 0.06155545637011528, 0.07048756629228592, 0.07015511393547058, 0.0625084936618805, 0.06202229484915733, 0.058237187564373016, 0.05211352929472923, 0.05798426270484924, 0.0729118064045906, 0.06431283801794052, 0.05268777161836624, 0.09651151299476624, 0.11103413254022598, 0.10178658366203308, 0.14500974118709564, 0.1486300230026245, 0.11564816534519196, 0.07209311425685883, 0.0716683641076088, 0.060155004262924194, 0.06624554097652435, 0.08966076374053955, 0.04035964980721474, 0.03754166141152382, 0.035573966801166534, 0.037117984145879745, 0.06105656921863556, 0.05883209779858589, 0.060925405472517014, 0.05970476195216179, 0.0564960353076458, 0.05341572314500809, 0.053386203944683075, 0.04464290663599968, 0.049299564212560654, 0.05808010697364807, 0.05965723842382431, 0.05417643114924431, 0.053968265652656555, 0.04516499489545822, 0.050153426826000214, 0.06407926976680756, 0.059492871165275574, 0.06272582709789276, 0.03969709575176239, 0.04080069810152054, 0.03814803063869476, 0.04649534076452255, 0.04642806947231293, 0.06843719631433487, 0.13424570858478546, 0.08342373371124268, 0.07189234346151352, 0.05965278297662735, 0.054288238286972046, 0.05270843580365181, 0.06521350890398026, 0.06038042902946472, 0.06358832865953445, 0.05532752349972725, 0.05154295265674591, 0.08386727422475815, 0.10058912634849548, 0.0939544290304184, 0.09592194855213165, 0.06607624143362045, 0.06867258250713348, 0.08310093730688095, 0.06029688939452171, 0.05063476040959358, 0.048913609236478806, 0.05737387761473656, 0.05657006800174713, 0.05494001507759094, 0.05799509584903717, 0.06389603018760681, 0.07480228692293167, 0.10401469469070435, 0.11614031344652176, 0.12687131762504578, 0.12738928198814392, 0.08783776313066483, 0.08342947065830231, 0.07284022122621536, 0.07439519464969635, 0.09026729315519333, 0.10436205565929413, 0.09508386254310608, 0.12221457064151764, 0.13045628368854523, 0.08519933372735977, 0.06078670918941498, 0.08547095209360123, 0.08190084248781204, 0.06824095547199249, 0.06933794915676117, 0.053548190742731094, 0.059902627021074295, 0.07264923304319382, 0.056856971234083176, 0.050595659762620926, 0.05660545453429222, 0.04839230701327324, 0.053919896483421326, 0.055460650473833084, 0.04878830909729004, 0.04754345118999481, 0.07155945152044296, 0.06364746391773224, 0.05325428023934364, 0.04355687275528908, 0.04998549446463585, 0.05476834997534752, 0.08557295054197311, 0.09626078605651855, 0.08515664935112, 0.08069684356451035, 0.06303400546312332, 0.06003356724977493, 0.049613434821367264, 0.04977237060666084, 0.049384646117687225, 0.051940035074949265, 0.05376426503062248, 0.053029414266347885, 0.06959186494350433, 0.06688765436410904, 0.057585518807172775, 0.06881293654441833, 0.07927428930997849, 0.06436615437269211, 0.05324345454573631, 0.06236867979168892, 0.06709568947553635, 0.09535808116197586, 0.1373685747385025, 0.1424209475517273, 0.08218309283256531, 0.06831851601600647, 0.0608605295419693, 0.05959485471248627, 0.05311962962150574, 0.048022422939538956, 0.05092955008149147, 0.04495106264948845, 0.04980156943202019, 0.06787494570016861, 0.06951113790273666, 0.0773806944489479, 0.06728216260671616, 0.06446332484483719, 0.06238141655921936, 0.06492570042610168, 0.0581454299390316, 0.0496392548084259, 0.06082797050476074, 0.08225063234567642, 0.0762348547577858, 0.059941262006759644, 0.05742696300148964, 0.05684301257133484, 0.04081073775887489, 0.0444975271821022, 0.04596944525837898, 0.06278027594089508, 0.06436025351285934, 0.06780176609754562, 0.06418187916278839, 0.07519643753767014, 0.08234728127717972, 0.08168604224920273, 0.06968538463115692, 0.06664221733808517, 0.06959804147481918, 0.07003773748874664, 0.06560859084129333, 0.045735009014606476, 0.048943303525447845, 0.056568704545497894, 0.04344693571329117, 0.04112313315272331, 0.047194890677928925, 0.043829578906297684, 0.04382042586803436]</t>
+          <t>[0.13071832060813904, 0.09517320990562439, 0.07674801349639893, 0.07365931570529938, 0.07425788044929504, 0.08291962742805481, 0.12465481460094452, 0.07168896496295929, 0.05568910762667656, 0.04908737912774086, 0.04409988969564438, 0.03114122711122036, 0.030853232368826866, 0.03464045748114586, 0.030547838658094406, 0.027086999267339706, 0.02994616888463497, 0.03018186055123806, 0.03401179984211922, 0.060322657227516174, 0.056667618453502655, 0.037594933062791824, 0.09298501163721085, 0.09957463294267654, 0.06784085929393768, 0.08982867002487183, 0.10348767042160034, 0.07656322419643402, 0.04466653987765312, 0.05167161300778389, 0.03730613365769386, 0.05098496004939079, 0.08179157972335815, 0.030649226158857346, 0.0193452350795269, 0.0172071885317564, 0.015044678002595901, 0.02889835275709629, 0.02689662203192711, 0.02354097180068493, 0.02710987813770771, 0.02558143436908722, 0.02463747002184391, 0.029345259070396423, 0.025563985109329224, 0.026562049984931946, 0.02183924987912178, 0.02271481603384018, 0.019764235243201256, 0.01906394585967064, 0.01595466583967209, 0.01859687827527523, 0.02550182305276394, 0.02276572212576866, 0.025028562173247337, 0.015133875422179699, 0.014348476193845272, 0.013418000191450119, 0.018115727230906487, 0.017878279089927673, 0.02723713219165802, 0.05257585272192955, 0.028452953323721886, 0.029619267210364342, 0.028347428888082504, 0.024291308596730232, 0.02591368928551674, 0.02901703119277954, 0.024509556591510773, 0.028423821553587914, 0.024915874004364014, 0.025089824572205544, 0.05356798321008682, 0.08787021040916443, 0.08284322172403336, 0.06760205328464508, 0.030336743220686913, 0.03431997820734978, 0.046953748911619186, 0.020904194563627243, 0.021086523309350014, 0.02350882813334465, 0.031104251742362976, 0.028925422579050064, 0.026554051786661148, 0.02593241259455681, 0.03153577074408531, 0.03904518857598305, 0.07799587398767471, 0.08809635788202286, 0.13020113110542297, 0.09352666884660721, 0.0602889321744442, 0.05503357946872711, 0.04955520108342171, 0.05586085841059685, 0.09660139679908752, 0.0910632312297821, 0.08122115582227707, 0.11671988666057587, 0.11287722736597061, 0.041315168142318726, 0.024644989520311356, 0.05038435757160187, 0.051374200731515884, 0.03483845293521881, 0.03265174478292465, 0.02841041423380375, 0.028710348531603813, 0.04255177080631256, 0.03845013678073883, 0.041940536350011826, 0.04034368321299553, 0.033992353826761246, 0.03522234037518501, 0.028066931292414665, 0.021549206227064133, 0.01923651434481144, 0.03571191802620888, 0.033043231815099716, 0.025878475978970528, 0.022362077608704567, 0.025957399979233742, 0.028896190226078033, 0.0497167594730854, 0.05546648055315018, 0.048651594668626785, 0.05296006426215172, 0.0376603789627552, 0.03589161857962608, 0.031367428600788116, 0.028792304918169975, 0.02947247214615345, 0.023674150928854942, 0.02238239161670208, 0.024867897853255272, 0.04012211039662361, 0.039960283786058426, 0.028929274529218674, 0.04615407809615135, 0.0536181665956974, 0.04625982791185379, 0.03489203378558159, 0.05269526317715645, 0.05145157501101494, 0.07212624698877335, 0.14158202707767487, 0.13564403355121613, 0.061727795749902725, 0.049745623022317886, 0.04144761338829994, 0.037926170974969864, 0.023524289950728416, 0.022639626637101173, 0.022090483456850052, 0.01902156136929989, 0.028420723974704742, 0.03534369543194771, 0.0392930768430233, 0.051846943795681, 0.041515570133924484, 0.04047495499253273, 0.02668631635606289, 0.027455918490886688, 0.03397464379668236, 0.02624780498445034, 0.03736785799264908, 0.054991889744997025, 0.060868192464113235, 0.039158426225185394, 0.03293441981077194, 0.030338577926158905, 0.019444912672042847, 0.024593187496066093, 0.02136915549635887, 0.040259502828121185, 0.04236392304301262, 0.04387372359633446, 0.03691575303673744, 0.04931335151195526, 0.05926758795976639, 0.04797516390681267, 0.03888275474309921, 0.0379183329641819, 0.04755097255110741, 0.051306527107954025, 0.03616425767540932, 0.0278351828455925, 0.03246478736400604, 0.03765950724482536, 0.02233639545738697, 0.0254743043333292, 0.02801763266324997, 0.027845120057463646, 0.02775813825428486]</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1486300230026245</v>
+        <v>0.1415820270776749</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.162203199986834</v>
+        <v>1.151079099989147</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005960016410188893</v>
+        <v>0.005902969743534087</v>
       </c>
     </row>
     <row r="5">
@@ -725,11 +725,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.7030020952224731, 0.6573055982589722, 0.7099741101264954, 0.6597957015037537, 0.5641276240348816, 0.5352897644042969, 0.33803069591522217, 0.34942129254341125, 0.2785594165325165, 0.2825911045074463, 0.31153547763824463, 0.26849690079689026, 0.23012347519397736, 0.2434578388929367, 0.3118460476398468, 0.2781515419483185, 0.28118637204170227, 0.2346399873495102, 0.17222799360752106, 0.16027602553367615, 0.14845852553844452, 0.2519221603870392, 0.24089954793453217, 0.23467518389225006, 0.15984824299812317, 0.165983185172081, 0.211868017911911, 0.2573779225349426, 0.26358357071876526, 0.20946067571640015, 0.27440330386161804, 0.30099403858184814, 0.32454153895378113, 0.46002835035324097, 0.4901866614818573, 0.7655755877494812, 0.9543562531471252, 0.9375715255737305, 0.8603132963180542, 0.46090269088745117, 0.30926331877708435, 0.2997041940689087, 0.3156309723854065, 0.28213950991630554, 0.34453681111335754, 0.297863632440567, 0.3250378668308258, 0.3670063614845276, 0.4848484992980957, 0.4206025004386902, 0.3472142815589905, 0.21246688067913055, 0.21020378172397614, 0.2468181997537613, 0.5736505389213562, 0.47525209188461304, 0.37906673550605774, 0.5582022666931152, 0.4403356909751892, 0.5377528667449951, 0.3867650628089905, 0.24686497449874878, 0.22251608967781067, 0.20548862218856812, 0.20137567818164825, 0.2185141146183014, 0.18129117786884308, 0.1701526790857315, 0.17907385528087616, 0.2098979353904724, 0.21051031351089478, 0.21050512790679932, 0.23503272235393524, 0.23224759101867676, 0.21202988922595978, 0.2050275206565857, 0.20667439699172974, 0.1983785778284073, 0.18526574969291687, 0.19370238482952118, 0.23808661103248596, 0.314768522977829, 0.3118360936641693, 0.2983565926551819, 0.28905218839645386, 0.28017961978912354, 0.26708659529685974, 0.23215146362781525, 0.2089197039604187, 0.22812624275684357, 0.23291707038879395, 0.24058760702610016, 0.20808006823062897, 0.2073807418346405, 0.2091270238161087, 0.22624051570892334, 0.2200862020254135, 0.2395479679107666, 0.20123536884784698, 0.16793552041053772, 0.17895150184631348, 0.19141553342342377, 0.1762680858373642, 0.20993837714195251, 0.2341759353876114, 0.2291254997253418, 0.24010321497917175, 0.26149463653564453, 0.35775578022003174, 0.4105578064918518, 0.51827472448349, 0.4463517665863037, 0.3998793661594391, 0.3824729025363922, 0.27065885066986084, 0.25229912996292114, 0.2785506844520569, 0.27668219804763794, 0.3180852234363556, 0.3875691592693329, 0.3419971168041229, 0.22505556046962738, 0.26273682713508606, 0.3992774486541748, 0.3971211314201355, 0.3063991963863373, 0.29894018173217773, 0.29613766074180603, 0.2930646240711212, 0.29944247007369995, 0.2673240303993225, 0.2767643630504608, 0.27441370487213135, 0.329973429441452, 0.3869142234325409, 0.23766304552555084, 0.17926837503910065, 0.1758621782064438, 0.5368897318840027, 0.8769257068634033, 0.9823509454727173, 0.9885282516479492, 0.9809492230415344, 0.9870957136154175, 0.9621273279190063, 0.7980220913887024, 0.8241486549377441, 0.6880670785903931, 0.7555323839187622, 0.9018481969833374, 0.9712089896202087, 0.7703619003295898, 0.6592618823051453, 0.2791440486907959, 0.22848452627658844, 0.19164445996284485, 0.2657213509082794, 0.30040764808654785, 0.23811592161655426, 0.19746428728103638, 0.2566370666027069, 0.2876259386539459, 0.385816365480423, 0.44693997502326965, 0.5027890205383301, 0.6599889397621155, 0.4661079943180084, 0.4043148458003998, 0.39901965856552124, 0.38359522819519043, 0.3205024003982544, 0.27261337637901306, 0.25531741976737976, 0.2453676164150238, 0.2566312253475189, 0.255998820066452, 0.2569819688796997, 0.29208600521087646, 0.25315338373184204, 0.2929832637310028, 0.3059151768684387, 0.3408670723438263, 0.2407274693250656, 0.1954590231180191, 0.183980330824852, 0.23349319398403168, 0.257380872964859, 0.23234698176383972, 0.2921020984649658, 0.3736126720905304, 0.32327163219451904, 0.25690582394599915, 0.4645663797855377, 0.3913941979408264, 0.3521050214767456, 0.35520079731941223]</t>
+          <t>[0.8251515626907349, 0.7712838649749756, 0.7889419198036194, 0.7264631390571594, 0.6628314852714539, 0.6379686594009399, 0.423664391040802, 0.5082114338874817, 0.3857486844062805, 0.3991928696632385, 0.43323636054992676, 0.3553081750869751, 0.3030814230442047, 0.2827814817428589, 0.3347851037979126, 0.30575230717658997, 0.3539530634880066, 0.27498286962509155, 0.1731135994195938, 0.19460831582546234, 0.21447183191776276, 0.38547173142433167, 0.3149735629558563, 0.29122379422187805, 0.17876741290092468, 0.20386289060115814, 0.27880266308784485, 0.3142791986465454, 0.26990532875061035, 0.19731289148330688, 0.27188438177108765, 0.24898403882980347, 0.2857030928134918, 0.6065593361854553, 0.6185755133628845, 0.9168371558189392, 0.986296534538269, 0.9777252674102783, 0.9572491645812988, 0.44161710143089294, 0.26010534167289734, 0.25977644324302673, 0.29819104075431824, 0.26186466217041016, 0.37020760774612427, 0.29071539640426636, 0.33647421002388, 0.39657387137413025, 0.6553011536598206, 0.6641251444816589, 0.5837963819503784, 0.3109676241874695, 0.22571974992752075, 0.30372098088264465, 0.7102046608924866, 0.642229437828064, 0.6217619180679321, 0.8296348452568054, 0.6540026664733887, 0.7490128874778748, 0.6512475609779358, 0.38081952929496765, 0.3142719268798828, 0.1803622841835022, 0.15266111493110657, 0.15564313530921936, 0.14228229224681854, 0.1261441856622696, 0.13267359137535095, 0.1843390017747879, 0.1839471161365509, 0.17961978912353516, 0.1994771510362625, 0.15966874361038208, 0.1478622555732727, 0.18043088912963867, 0.16988824307918549, 0.14587466418743134, 0.14332106709480286, 0.1484498679637909, 0.21000444889068604, 0.28033503890037537, 0.2584163248538971, 0.24807609617710114, 0.24432441592216492, 0.24160043895244598, 0.20142026245594025, 0.15896500647068024, 0.1397891789674759, 0.1687706708908081, 0.1855194866657257, 0.19266778230667114, 0.17080114781856537, 0.1865156590938568, 0.20964664220809937, 0.24019750952720642, 0.2030874490737915, 0.20621797442436218, 0.20309464633464813, 0.13805468380451202, 0.14676417410373688, 0.1663268655538559, 0.17562732100486755, 0.19198177754878998, 0.2098255306482315, 0.18904417753219604, 0.19263744354248047, 0.21226419508457184, 0.3235512375831604, 0.44077345728874207, 0.5777714848518372, 0.49820566177368164, 0.4622846841812134, 0.4703826308250427, 0.3349672555923462, 0.29793602228164673, 0.3749474883079529, 0.35352274775505066, 0.36330708861351013, 0.4110478460788727, 0.4768916964530945, 0.27026599645614624, 0.3394317626953125, 0.6299636960029602, 0.5765494108200073, 0.4165372848510742, 0.379682332277298, 0.3638102412223816, 0.33313602209091187, 0.3678557574748993, 0.3160305619239807, 0.32405543327331543, 0.28381699323654175, 0.4454280436038971, 0.49973538517951965, 0.2812415659427643, 0.1749236285686493, 0.18262745440006256, 0.6291756629943848, 0.946725070476532, 0.9912142157554626, 0.9926500916481018, 0.9892148375511169, 0.9902026653289795, 0.9691480398178101, 0.7965027689933777, 0.8431664109230042, 0.7315575480461121, 0.8251070976257324, 0.943580150604248, 0.983669102191925, 0.8387366533279419, 0.695050835609436, 0.20606353878974915, 0.17911666631698608, 0.16327165067195892, 0.2457689791917801, 0.31977084279060364, 0.2501372992992401, 0.21340912580490112, 0.28546804189682007, 0.3094887435436249, 0.42900609970092773, 0.4907459616661072, 0.49348628520965576, 0.6876190304756165, 0.473588764667511, 0.4100966453552246, 0.4003966450691223, 0.43679898977279663, 0.35352814197540283, 0.3946995437145233, 0.43536874651908875, 0.4775412380695343, 0.4279422163963318, 0.39265236258506775, 0.38250648975372314, 0.4007173180580139, 0.3904936611652374, 0.502534806728363, 0.49851006269454956, 0.5455614924430847, 0.34744977951049805, 0.2531287968158722, 0.23384368419647217, 0.3010682761669159, 0.42747244238853455, 0.3790441155433655, 0.4748826026916504, 0.6106805801391602, 0.546942412853241, 0.4192894697189331, 0.5634748339653015, 0.45776310563087463, 0.37060338258743286, 0.37387603521347046]</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.9885282516479492</v>
+        <v>0.9926500916481018</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1.137613700004295</v>
+        <v>1.208248100010678</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005804151530634156</v>
+        <v>0.00616453112250346</v>
       </c>
     </row>
     <row r="6">
@@ -765,11 +765,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.19743512570858002, 0.1790069043636322, 0.16595359146595, 0.15960991382598877, 0.16758397221565247, 0.15439312160015106, 0.16864188015460968, 0.2061685472726822, 0.21538695693016052, 0.18717104196548462, 0.16882677376270294, 0.1857742965221405, 0.2108365297317505, 0.17492298781871796, 0.17633891105651855, 0.1685773730278015, 0.12586785852909088, 0.13583268225193024, 0.13179844617843628, 0.1102275401353836, 0.09942492097616196, 0.07888751477003098, 0.08296109735965729, 0.09753655642271042, 0.12202449142932892, 0.12458567321300507, 0.11842009425163269, 0.13214397430419922, 0.16594140231609344, 0.20566819608211517, 0.18923601508140564, 0.20459577441215515, 0.26681452989578247, 0.2562063932418823, 0.2805495858192444, 0.2618672847747803, 0.3132360279560089, 0.1984601467847824, 0.2055802047252655, 0.22481778264045715, 0.21008576452732086, 0.1862194985151291, 0.1614479422569275, 0.18578216433525085, 0.21741922199726105, 0.2418334037065506, 0.21622782945632935, 0.22139765322208405, 0.19497835636138916, 0.16407090425491333, 0.18351860344409943, 0.20941577851772308, 0.202037513256073, 0.17287372052669525, 0.20240405201911926, 0.20081493258476257, 0.18162019550800323, 0.15979035198688507, 0.12092653661966324, 0.11638575047254562, 0.09264391660690308, 0.07108800858259201, 0.10899246484041214, 0.14877699315547943, 0.18288558721542358, 0.15874333679676056, 0.15834428369998932, 0.14921835064888, 0.17356818914413452, 0.18816618621349335, 0.18480539321899414, 0.16227604448795319, 0.10999655723571777, 0.10628211498260498, 0.1147325187921524, 0.08811143785715103, 0.09464866667985916, 0.1120821163058281, 0.1689743548631668, 0.15639472007751465, 0.14831390976905823, 0.15398187935352325, 0.15399858355522156, 0.15508151054382324, 0.19222618639469147, 0.22562232613563538, 0.2783445417881012, 0.28494420647621155, 0.23604093492031097, 0.28281572461128235, 0.32212212681770325, 0.22625091671943665, 0.17897790670394897, 0.16201888024806976, 0.13970701396465302, 0.15852123498916626, 0.19228899478912354, 0.14967358112335205, 0.11926180869340897, 0.1256261169910431, 0.15161320567131042, 0.18051555752754211, 0.19844485819339752, 0.21568386256694794, 0.22478069365024567, 0.132264643907547, 0.12113110721111298, 0.11979525536298752, 0.2850313186645508, 0.268749475479126, 0.25582972168922424, 0.14180783927440643, 0.11243288964033127, 0.15051601827144623, 0.267029345035553, 0.16807875037193298, 0.15173958241939545, 0.1524232029914856]</t>
+          <t>[0.037277426570653915, 0.03686659038066864, 0.03335040435194969, 0.03673418611288071, 0.048444509506225586, 0.04474245384335518, 0.03866991773247719, 0.05637725815176964, 0.06041797250509262, 0.06040098890662193, 0.05608494207262993, 0.06024385243654251, 0.0692564845085144, 0.05025624856352806, 0.04851580783724785, 0.03857765346765518, 0.02168768271803856, 0.02313801646232605, 0.029232025146484375, 0.02429903671145439, 0.022462811321020126, 0.017245164141058922, 0.017479004338383675, 0.020218046382069588, 0.025317445397377014, 0.0266384519636631, 0.02421126514673233, 0.028630565851926804, 0.04188363626599312, 0.056715045124292374, 0.0500815212726593, 0.05590258911252022, 0.07081112265586853, 0.06953520327806473, 0.0864495113492012, 0.07218042016029358, 0.09105362743139267, 0.049059417098760605, 0.04970504716038704, 0.04935246333479881, 0.049926917999982834, 0.045296646654605865, 0.03667773678898811, 0.042325153946876526, 0.05055711418390274, 0.06404602527618408, 0.04945836961269379, 0.05471251159906387, 0.036344729363918304, 0.030554601922631264, 0.03488781303167343, 0.04274817928671837, 0.04494985193014145, 0.03590255603194237, 0.03771359100937843, 0.04156681150197983, 0.037052035331726074, 0.03795180097222328, 0.02846541814506054, 0.027172157540917397, 0.021019505336880684, 0.014612991362810135, 0.021902333945035934, 0.025512848049402237, 0.034859299659729004, 0.029011806473135948, 0.0385771207511425, 0.034858040511608124, 0.03682182356715202, 0.03439272567629814, 0.035535573959350586, 0.030326630920171738, 0.018818069249391556, 0.018520565703511238, 0.020185023546218872, 0.01421216782182455, 0.01673881523311138, 0.020336084067821503, 0.031761832535266876, 0.03165942803025246, 0.03029664047062397, 0.034823425114154816, 0.028358936309814453, 0.030911849811673164, 0.047264549881219864, 0.05510471388697624, 0.07690108567476273, 0.07763196527957916, 0.06689770519733429, 0.07792050391435623, 0.08898308128118515, 0.05073435977101326, 0.037554483860731125, 0.03426188975572586, 0.03025701269507408, 0.030660321936011314, 0.039230506867170334, 0.032087747007608414, 0.024752605706453323, 0.028169400990009308, 0.0322670042514801, 0.043414320796728134, 0.04712827876210213, 0.046268053352832794, 0.05071335658431053, 0.03056984581053257, 0.029352271929383278, 0.030536994338035583, 0.07519109547138214, 0.06883221119642258, 0.06338173151016235, 0.022854063659906387, 0.018156617879867554, 0.023682592436671257, 0.05036482959985733, 0.03503565862774849, 0.030739128589630127, 0.03063906915485859]</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3221221268177032</v>
+        <v>0.09105362743139267</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -783,10 +783,10 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.6735329999937676</v>
+        <v>0.6646437000017613</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0057079067796082</v>
+        <v>0.005632573728828486</v>
       </c>
     </row>
     <row r="7">
@@ -805,11 +805,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[0.11426062136888504, 0.13198301196098328, 0.1563510149717331, 0.12243649363517761, 0.10602287203073502, 0.07719148695468903, 0.07247018814086914, 0.10749126225709915, 0.16207684576511383, 0.09427567571401596, 0.11834277957677841, 0.14930763840675354, 0.1483127921819687, 0.1202695369720459, 0.1512439101934433, 0.09486722946166992, 0.09430334717035294, 0.10893259197473526, 0.10343676060438156, 0.0856502428650856, 0.07096531987190247, 0.14705277979373932, 0.1808309108018875, 0.1896131932735443, 0.23998695611953735, 0.2492210865020752, 0.16753441095352173, 0.19081230461597443, 0.25780734419822693, 0.3263692855834961, 0.2206396460533142, 0.1743752360343933, 0.141863152384758, 0.3833981156349182, 0.4519664943218231, 0.4927821159362793, 0.4007326364517212, 0.28664931654930115, 0.3341178596019745, 0.3471511900424957, 0.245781809091568, 0.20049375295639038, 0.15886349976062775, 0.264186292886734, 0.39911431074142456, 0.29178303480148315, 0.15502360463142395, 0.15950466692447662, 0.13383477926254272, 0.18775762617588043, 0.17675144970417023, 0.12578290700912476, 0.10868334770202637, 0.11094073206186295, 0.10988622903823853, 0.10809403657913208, 0.09212881326675415, 0.07367032766342163, 0.06369532644748688, 0.08125964552164078, 0.11270114779472351, 0.09807443618774414, 0.08116989582777023, 0.09183964878320694, 0.16598260402679443, 0.23047280311584473, 0.24459469318389893, 0.3540220856666565, 0.16398613154888153, 0.0798136442899704, 0.060059804469347, 0.07242019474506378, 0.1725713312625885, 0.13506466150283813, 0.12622293829917908, 0.11053489148616791, 0.10339415818452835, 0.10823383927345276, 0.09680094569921494, 0.09067031741142273, 0.10042053461074829, 0.10281664878129959, 0.09692002832889557, 0.08552761375904083, 0.07871771603822708, 0.0716618150472641, 0.06478558480739594, 0.06244513764977455, 0.06537717580795288, 0.0643661841750145, 0.05137694254517555, 0.060641512274742126, 0.08392103761434555, 0.05605555698275566, 0.05769350379705429, 0.07145486027002335, 0.06748132407665253, 0.056339893490076065, 0.06328056007623672, 0.05236707255244255, 0.05204927921295166, 0.051710035651922226, 0.06334543973207474, 0.05961320549249649, 0.07492699474096298, 0.1019798293709755, 0.08449452370405197, 0.06392313539981842, 0.09195611625909805, 0.09950233995914459, 0.11878200620412827, 0.20410627126693726, 0.1567356437444687, 0.17306630313396454, 0.09932239353656769, 0.0904984399676323, 0.09325549006462097, 0.07536081969738007, 0.07880283147096634, 0.0848933756351471, 0.19298090040683746, 0.13456760346889496, 0.13680671155452728]</t>
+          <t>[0.06744520366191864, 0.07398152351379395, 0.10963970422744751, 0.08852693438529968, 0.07100675255060196, 0.046003397554159164, 0.04527528956532478, 0.056144800037145615, 0.10069102793931961, 0.03677678853273392, 0.0560125857591629, 0.08260363340377808, 0.09903158247470856, 0.07142487168312073, 0.11625787615776062, 0.04793102294206619, 0.044669512659311295, 0.05925343185663223, 0.040470439940690994, 0.02813880890607834, 0.02416096068918705, 0.11931051313877106, 0.15571098029613495, 0.12577560544013977, 0.10951973497867584, 0.11851383000612259, 0.08431032299995422, 0.13070577383041382, 0.19004325568675995, 0.23200663924217224, 0.21754270792007446, 0.10391067713499069, 0.06567385792732239, 0.24376258254051208, 0.3329724371433258, 0.3934224843978882, 0.2998966574668884, 0.17781944572925568, 0.19712534546852112, 0.17598162591457367, 0.10880942642688751, 0.10837327688932419, 0.06668735295534134, 0.14097248017787933, 0.21111461520195007, 0.12489621341228485, 0.07576712965965271, 0.08980458974838257, 0.07421931624412537, 0.11196068674325943, 0.09470440447330475, 0.05111679807305336, 0.06143602356314659, 0.05567178875207901, 0.08339943736791611, 0.07349197566509247, 0.05817420408129692, 0.03692900389432907, 0.03131892532110214, 0.0406380258500576, 0.05255476385354996, 0.04894759878516197, 0.03769069164991379, 0.05876205116510391, 0.15583167970180511, 0.2082112729549408, 0.17263947427272797, 0.28345534205436707, 0.11000143736600876, 0.034519512206315994, 0.021029196679592133, 0.02684897743165493, 0.07407928258180618, 0.07375835627317429, 0.08566552400588989, 0.08954019844532013, 0.07578830420970917, 0.07837611436843872, 0.040795646607875824, 0.032016169279813766, 0.04259014502167702, 0.05542362481355667, 0.043769918382167816, 0.03901679813861847, 0.035253699868917465, 0.03284252807497978, 0.026800526306033134, 0.036941833794116974, 0.028690293431282043, 0.024369753897190094, 0.01809922233223915, 0.027943270280957222, 0.04222514480352402, 0.017324991524219513, 0.01719556376338005, 0.02673807553946972, 0.029217299073934555, 0.02111905813217163, 0.024218887090682983, 0.01844058744609356, 0.017405420541763306, 0.020291222259402275, 0.033219337463378906, 0.028312183916568756, 0.035493046045303345, 0.04716860130429268, 0.04195074737071991, 0.029195217415690422, 0.04748735576868057, 0.05690384656190872, 0.08227419853210449, 0.17358599603176117, 0.11871346086263657, 0.13631224632263184, 0.09226628392934799, 0.05742069333791733, 0.04652935639023781, 0.03527931496500969, 0.03707242012023926, 0.040545783936977386, 0.122336745262146, 0.0650678426027298, 0.06672065705060959]</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.4927821159362793</v>
+        <v>0.3934224843978882</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.695120999997016</v>
+        <v>0.7257411000027787</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005651390243878179</v>
+        <v>0.005900334146364055</v>
       </c>
     </row>
     <row r="8">
@@ -845,11 +845,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0.2026786357164383, 0.2047470360994339, 0.21893922984600067, 0.15566539764404297, 0.20581230521202087, 0.1632830798625946, 0.15048068761825562, 0.14925740659236908, 0.1227908506989479, 0.12275443226099014, 0.10815076529979706, 0.12527985870838165, 0.11129434406757355, 0.12768246233463287, 0.13762561976909637, 0.1828906089067459, 0.18418176472187042, 0.23372523486614227, 0.22354385256767273, 0.19836506247520447, 0.14823058247566223, 0.23562225699424744, 0.18223944306373596, 0.10928627103567123, 0.08260542154312134, 0.11442907899618149, 0.20762750506401062, 0.13595746457576752, 0.12193841487169266, 0.07659348100423813, 0.08691412955522537, 0.09885745495557785, 0.11952377110719681, 0.21232783794403076, 0.30585977435112, 0.19912828505039215, 0.12921170890331268, 0.08203503489494324, 0.06784016638994217, 0.07184843719005585, 0.098422110080719, 0.08838500827550888, 0.12401239573955536, 0.08735896646976471, 0.07960524410009384, 0.08105149865150452, 0.10928183794021606, 0.09092287719249725, 0.07178596407175064, 0.06435854732990265, 0.06182852014899254, 0.08049623668193817, 0.07475998252630234, 0.14037327468395233, 0.1557357758283615, 0.13987690210342407, 0.0904461070895195, 0.07002128660678864, 0.08421165496110916, 0.1209007054567337, 0.136172816157341, 0.15672942996025085, 0.078031025826931, 0.10915672779083252, 0.1138850599527359, 0.09799697250127792, 0.10401678085327148, 0.09551998227834702, 0.10199087858200073, 0.11573872715234756, 0.11252107471227646, 0.10352914035320282, 0.11861304938793182, 0.13455015420913696, 0.12005431205034256, 0.13208208978176117, 0.13380424678325653, 0.15153458714485168, 0.17218635976314545, 0.16069744527339935, 0.15737955272197723, 0.1562693566083908, 0.21610991656780243, 0.1496894210577011, 0.17680363357067108, 0.1617821902036667, 0.13475310802459717, 0.13268516957759857, 0.13647906482219696, 0.13272778689861298, 0.13962475955486298, 0.13450779020786285, 0.1127600222826004, 0.11013546586036682, 0.11685920506715775, 0.10528876632452011, 0.10824800282716751, 0.1030149981379509, 0.16102534532546997, 0.2011864185333252, 0.18476879596710205, 0.16158877313137054, 0.14336800575256348, 0.11177346110343933, 0.13093845546245575, 0.13047069311141968, 0.14643320441246033, 0.13258875906467438, 0.14071564376354218, 0.10488655418157578, 0.2003983110189438, 0.21462783217430115, 0.24495920538902283, 0.13079281151294708, 0.1643693447113037, 0.14372889697551727, 0.20627093315124512, 0.21367010474205017, 0.2242632955312729, 0.23971344530582428, 0.1840008646249771, 0.17441698908805847, 0.17532910406589508]</t>
+          <t>[0.101388119161129, 0.09562494605779648, 0.0980943888425827, 0.06194261461496353, 0.10098344087600708, 0.0609818734228611, 0.057294055819511414, 0.0678410530090332, 0.062253184616565704, 0.05410449206829071, 0.047410253435373306, 0.05828622728586197, 0.04738176614046097, 0.057129520922899246, 0.06619267165660858, 0.09382075071334839, 0.106089286506176, 0.13935284316539764, 0.12181343138217926, 0.08932822942733765, 0.07178651541471481, 0.13915066421031952, 0.10399500280618668, 0.03884664550423622, 0.030000215396285057, 0.04272855818271637, 0.09557293355464935, 0.052691034972667694, 0.04288574308156967, 0.02587687224149704, 0.03478281572461128, 0.037048812955617905, 0.04984278604388237, 0.09291507303714752, 0.15986894071102142, 0.08962619304656982, 0.05926154553890228, 0.036436840891838074, 0.023491371423006058, 0.02810269221663475, 0.04316411912441254, 0.03692815452814102, 0.04763825237751007, 0.028325136750936508, 0.027742423117160797, 0.03124697133898735, 0.0433378741145134, 0.04282616078853607, 0.029467105865478516, 0.027321945875883102, 0.025731926783919334, 0.02950884960591793, 0.023986520245671272, 0.058758094906806946, 0.06840827316045761, 0.06855471432209015, 0.03320405259728432, 0.024450724944472313, 0.03029901720583439, 0.04492853954434395, 0.05761508643627167, 0.059120479971170425, 0.02551235817372799, 0.04158852994441986, 0.04308032616972923, 0.034711915999650955, 0.037751927971839905, 0.03675715625286102, 0.035428836941719055, 0.046362657099962234, 0.0507434643805027, 0.041711460798978806, 0.05003755912184715, 0.05755946785211563, 0.042850617319345474, 0.04735221341252327, 0.0506926029920578, 0.07056445628404617, 0.0911170020699501, 0.08012434095144272, 0.07609283179044724, 0.07739414274692535, 0.1151360422372818, 0.06870272755622864, 0.0900101587176323, 0.07793772220611572, 0.06577219069004059, 0.07096370309591293, 0.07132779061794281, 0.06303487718105316, 0.0758519321680069, 0.05958207696676254, 0.04278472438454628, 0.03930004686117172, 0.04927098751068115, 0.040499988943338394, 0.0403280146420002, 0.03766154497861862, 0.054789312183856964, 0.08454078435897827, 0.0831456407904625, 0.0676230639219284, 0.0558280423283577, 0.036723941564559937, 0.04204864427447319, 0.04474376142024994, 0.05195114016532898, 0.04808046668767929, 0.07150254398584366, 0.043869391083717346, 0.0738167017698288, 0.08492881804704666, 0.09529049694538116, 0.046807944774627686, 0.05947784706950188, 0.0507194809615612, 0.0773472711443901, 0.08446056395769119, 0.10733769834041595, 0.10572734475135803, 0.07257424294948578, 0.06489884108304977, 0.06471285969018936]</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.30585977435112</v>
+        <v>0.1598689407110214</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.7082265999924857</v>
+        <v>0.7390750000049593</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005757939837337282</v>
+        <v>0.006008739837438694</v>
       </c>
     </row>
     <row r="9">
@@ -885,11 +885,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[0.058187086135149, 0.0501096248626709, 0.06490421295166016, 0.10451491177082062, 0.1076282188296318, 0.08267689496278763, 0.07919909060001373, 0.09524727612733841, 0.08116806298494339, 0.04845879599452019, 0.04625536873936653, 0.06972187012434006, 0.09870261698961258, 0.1540730744600296, 0.15355370938777924, 0.10725393146276474, 0.08636204898357391, 0.08425687253475189, 0.08297401666641235, 0.07681301236152649, 0.07600357383489609, 0.1686638444662094, 0.14845676720142365, 0.0944766029715538, 0.10079143941402435, 0.0864219069480896, 0.08597911894321442, 0.07099296897649765, 0.06356097012758255, 0.0805121585726738, 0.09004367887973785, 0.08259224146604538, 0.08159393817186356, 0.06015901267528534, 0.0556349940598011, 0.06405039876699448, 0.08273456990718842, 0.07204024493694305, 0.06685727834701538, 0.08793000131845474, 0.10617844760417938, 0.1136513203382492, 0.17910705506801605, 0.19577376544475555, 0.19918936491012573, 0.1341000199317932, 0.130469411611557, 0.13849827647209167, 0.15295958518981934, 0.1558212786912918, 0.2011301964521408, 0.18762196600437164, 0.14026713371276855, 0.1486840844154358, 0.10214447975158691, 0.07604651153087616, 0.08023234456777573, 0.11092012375593185, 0.13214027881622314, 0.12644356489181519, 0.12829232215881348, 0.12674079835414886, 0.1393139511346817, 0.1325531005859375, 0.11972270905971527, 0.10527124255895615, 0.10621755570173264, 0.10564868897199631, 0.1356772929430008, 0.10976070910692215, 0.12783201038837433, 0.15275320410728455, 0.09920717775821686, 0.09945949167013168, 0.08225865662097931, 0.1258414089679718, 0.08648226410150528, 0.0784771740436554, 0.08645859360694885, 0.08184091001749039, 0.09113775938749313, 0.08113229274749756, 0.07035240530967712, 0.06692220270633698, 0.047050513327121735, 0.04284641891717911, 0.049830902367830276, 0.0950908362865448, 0.10412377864122391, 0.09933742880821228, 0.08615735173225403, 0.07084225118160248, 0.07357486337423325, 0.054509520530700684, 0.05451132357120514, 0.05678216740489006, 0.04801791533827782, 0.05651044473052025, 0.06774228066205978, 0.060211025178432465, 0.06462529301643372, 0.06851077079772949, 0.06889093667268753, 0.07012611627578735, 0.07413551211357117, 0.11948274821043015, 0.13629679381847382, 0.14042553305625916, 0.07855957746505737, 0.06960885971784592, 0.06445816904306412, 0.07303199917078018, 0.10308191180229187, 0.08583755046129227, 0.05737944319844246, 0.06053433194756508, 0.07270357757806778, 0.08436842262744904, 0.07870103418827057, 0.08185148239135742, 0.0899672657251358, 0.07697181403636932, 0.05715969577431679, 0.05763304606080055]</t>
+          <t>[0.019609106704592705, 0.01885419897735119, 0.03012462519109249, 0.05303385108709335, 0.05429892614483833, 0.038370292633771896, 0.03893578052520752, 0.05455375090241432, 0.04368528351187706, 0.020671235397458076, 0.02028273232281208, 0.03347758576273918, 0.05317651480436325, 0.10387606173753738, 0.12010413408279419, 0.08817679435014725, 0.06401607394218445, 0.04726024717092514, 0.05640668049454689, 0.05402937904000282, 0.05364106968045235, 0.13689060509204865, 0.12509384751319885, 0.06412983685731888, 0.051134780049324036, 0.04284023120999336, 0.044522229582071304, 0.034645844250917435, 0.030961835756897926, 0.04227413982152939, 0.0493636280298233, 0.03986702859401703, 0.032748062163591385, 0.034952618181705475, 0.04169446602463722, 0.043875496834516525, 0.0524824894964695, 0.04630116745829582, 0.03871261700987816, 0.04747464880347252, 0.0541527085006237, 0.06044233217835426, 0.08468908071517944, 0.09815686196088791, 0.08582905679941177, 0.06520622223615646, 0.060441285371780396, 0.0702623799443245, 0.06859215348958969, 0.07842708379030228, 0.106730617582798, 0.0795317217707634, 0.06887447834014893, 0.06843066215515137, 0.04590243473649025, 0.040560830384492874, 0.045156773179769516, 0.049439333379268646, 0.06723935157060623, 0.06477462500333786, 0.06308982521295547, 0.07128813117742538, 0.08407261222600937, 0.07011530548334122, 0.06388933956623077, 0.051709048449993134, 0.05552871525287628, 0.058976199477910995, 0.08690083771944046, 0.05585421621799469, 0.07875597476959229, 0.10499188303947449, 0.05968455970287323, 0.05075230076909065, 0.043859343975782394, 0.07170054316520691, 0.051927052438259125, 0.048794277012348175, 0.07066667079925537, 0.05880827084183693, 0.053803786635398865, 0.04321013763546944, 0.03862856328487396, 0.03529142588376999, 0.02320992201566696, 0.022150317206978798, 0.027711372822523117, 0.043635375797748566, 0.05913427844643593, 0.05765226483345032, 0.04968930035829544, 0.03428622707724571, 0.035040657967329025, 0.028016356751322746, 0.02556152269244194, 0.023852508515119553, 0.01985122822225094, 0.022181006148457527, 0.028318064287304878, 0.025645960122346878, 0.029930507764220238, 0.032287146896123886, 0.03617578744888306, 0.03435276448726654, 0.0352054201066494, 0.05192521587014198, 0.058878831565380096, 0.06800003349781036, 0.02917368710041046, 0.026419490575790405, 0.0249093696475029, 0.03989069163799286, 0.07890225201845169, 0.053284354507923126, 0.02826312556862831, 0.03067551925778389, 0.03595703840255737, 0.04464372992515564, 0.04162334278225899, 0.04852979630231857, 0.042548175901174545, 0.0388823039829731, 0.024424130097031593, 0.02459000237286091]</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2011301964521408</v>
+        <v>0.1368906050920486</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.7159220000030473</v>
+        <v>0.695619699996314</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005773564516153607</v>
+        <v>0.005609836290292855</v>
       </c>
     </row>
     <row r="10">
@@ -925,11 +925,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[0.12763890624046326, 0.2570100724697113, 0.23489385843276978, 0.23599563539028168, 0.2811528444290161, 0.19437219202518463, 0.11220326274633408, 0.05806758254766464, 0.08352094888687134, 0.15145771205425262, 0.09300200641155243, 0.11210007965564728, 0.12161164730787277, 0.10712000727653503, 0.0972181111574173, 0.10896045714616776, 0.1256764978170395, 0.1174556240439415, 0.1337854117155075, 0.13613279163837433, 0.13214421272277832, 0.1505756676197052, 0.16738347709178925, 0.161793515086174, 0.16424715518951416, 0.12013160437345505, 0.13599999248981476, 0.13848328590393066, 0.15495876967906952, 0.1335149109363556, 0.15755777060985565, 0.11751371622085571, 0.10089001804590225, 0.09482387453317642, 0.14388324320316315, 0.20213671028614044, 0.22368024289608002, 0.11676464974880219, 0.12625424563884735, 0.11871687322854996, 0.09283366054296494, 0.08474181592464447, 0.08820022642612457, 0.07921094447374344, 0.09303891658782959, 0.1556512713432312, 0.19979506731033325, 0.16743311285972595, 0.19165459275245667, 0.11674205213785172, 0.1195898950099945, 0.11931916326284409, 0.14897088706493378, 0.09806875884532928, 0.11026502400636673, 0.17301295697689056, 0.12955421209335327, 0.17289310693740845, 0.37670525908470154, 0.2647075355052948, 0.3064735233783722, 0.11253339052200317, 0.12685301899909973, 0.16347268223762512, 0.17463234066963196, 0.1126045510172844, 0.07361650466918945, 0.5798753499984741, 0.7518446445465088, 0.762457013130188, 0.6849021911621094, 0.35553357005119324, 0.6636447906494141, 0.4836786091327667, 0.38540568947792053, 0.3495773673057556, 0.7518229484558105, 0.8471213579177856, 0.8310632705688477, 0.3078560531139374, 0.2958356440067291, 0.14665882289409637, 0.11470256745815277, 0.12530483305454254, 0.1527155041694641, 0.18508027493953705, 0.42627885937690735, 0.3362264037132263, 0.27296045422554016, 0.22976969182491302, 0.151820570230484, 0.07679175585508347, 0.047090090811252594, 0.04294035583734512, 0.03988921269774437, 0.04573078826069832, 0.061837781220674515, 0.0686349868774414, 0.0698702409863472, 0.07372549176216125, 0.07126171886920929, 0.07140593975782394, 0.07666376233100891, 0.13407011330127716, 0.1006966084241867, 0.0800662711262703, 0.06080000102519989, 0.0598335862159729, 0.056955307722091675, 0.057275354862213135, 0.05508486554026604, 0.054951105266809464, 0.06526388972997665, 0.06482336670160294, 0.07762321829795837, 0.05120113119482994, 0.04645421355962753, 0.04324563592672348, 0.0456426665186882, 0.051227252930402756, 0.04750800132751465, 0.045537300407886505, 0.04630209505558014, 0.0464143306016922]</t>
+          <t>[0.03888606280088425, 0.09039290994405746, 0.0990302637219429, 0.0888553038239479, 0.07988051325082779, 0.07050345838069916, 0.04514271020889282, 0.01856060139834881, 0.022848380729556084, 0.05273614823818207, 0.038663677871227264, 0.047752462327480316, 0.06459566205739975, 0.05323797091841698, 0.04109003394842148, 0.0426948182284832, 0.04175776615738869, 0.04348026216030121, 0.057471368461847305, 0.06344995647668839, 0.06561396270990372, 0.0764816403388977, 0.07429404556751251, 0.067750483751297, 0.07104286551475525, 0.05051075294613838, 0.06634482741355896, 0.07095548510551453, 0.07284078001976013, 0.06865723431110382, 0.08235058188438416, 0.048522572964429855, 0.0514557920396328, 0.05172381177544594, 0.0834270641207695, 0.10512388497591019, 0.11681955307722092, 0.052801165729761124, 0.06440816819667816, 0.055483296513557434, 0.040915779769420624, 0.04132736101746559, 0.04617774114012718, 0.04089450463652611, 0.049508485943078995, 0.10150941461324692, 0.11198771744966507, 0.07056203484535217, 0.06929914653301239, 0.03727545216679573, 0.04267354682087898, 0.04874217137694359, 0.05742413550615311, 0.03889821842312813, 0.04154878854751587, 0.061435822397470474, 0.05257590115070343, 0.07671179622411728, 0.23589226603507996, 0.10173366218805313, 0.12997683882713318, 0.042440641671419144, 0.06333445757627487, 0.0839884802699089, 0.08898802846670151, 0.04574592411518097, 0.02735586278140545, 0.3994283974170685, 0.593598484992981, 0.5400199294090271, 0.43668070435523987, 0.17292214930057526, 0.4533800184726715, 0.3002470135688782, 0.26575353741645813, 0.24159319698810577, 0.540334939956665, 0.7009537816047668, 0.6822472810745239, 0.1710597276687622, 0.22452959418296814, 0.08865953981876373, 0.08883053809404373, 0.1053696721792221, 0.1332825869321823, 0.163075789809227, 0.521369218826294, 0.3362785577774048, 0.17303813993930817, 0.154788076877594, 0.10763432830572128, 0.05454361438751221, 0.030778776854276657, 0.02554192580282688, 0.023867662996053696, 0.02695568837225437, 0.038591597229242325, 0.034288253635168076, 0.042672596871852875, 0.050439391285181046, 0.04021785780787468, 0.040218695998191833, 0.04190154746174812, 0.09208960086107254, 0.0640597715973854, 0.051888708025217056, 0.03610842302441597, 0.033935293555259705, 0.030083468183875084, 0.025194624438881874, 0.02469991333782673, 0.02478785440325737, 0.034530166536569595, 0.032041046768426895, 0.038214631378650665, 0.01985533908009529, 0.02007250301539898, 0.0187514740973711, 0.01842636615037918, 0.02648639678955078, 0.023184198886156082, 0.023038489744067192, 0.022779813036322594, 0.022996218875050545]</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.8471213579177856</v>
+        <v>0.7009537816047668</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.7078964000102133</v>
+        <v>0.7028291000024183</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005708841935566236</v>
+        <v>0.005667976612922728</v>
       </c>
     </row>
     <row r="11">
@@ -965,11 +965,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[0.18823498487472534, 0.13539041578769684, 0.11162369698286057, 0.11826469749212265, 0.10377712547779083, 0.09807510673999786, 0.11287306994199753, 0.12402451783418655, 0.09748535603284836, 0.07867312431335449, 0.09956315159797668, 0.10797619819641113, 0.09346035867929459, 0.10329791158437729, 0.10213177651166916, 0.10230400413274765, 0.07072831690311432, 0.07643255591392517, 0.08340872824192047, 0.11144118010997772, 0.12372731417417526, 0.11464408785104752, 0.12433791160583496, 0.13745445013046265, 0.1171201765537262, 0.1403798609972, 0.12108296900987625, 0.11881456524133682, 0.13173799216747284, 0.1678406298160553, 0.1316344290971756, 0.13095200061798096, 0.12836113572120667, 0.14002417027950287, 0.15300056338310242, 0.13892298936843872, 0.10323868691921234, 0.1482471227645874, 0.1402379870414734, 0.12693819403648376, 0.14267772436141968, 0.11284027248620987, 0.11373316496610641, 0.13275985419750214, 0.1321704387664795, 0.09224258363246918, 0.08748336881399155, 0.08203155547380447, 0.07193760573863983, 0.07379715889692307, 0.07596706598997116, 0.06746510416269302, 0.07811256498098373, 0.08285635709762573, 0.08788580447435379, 0.11307282745838165, 0.10972188413143158, 0.10261665284633636, 0.13784681260585785, 0.16871191561222076, 0.11826841533184052, 0.18221017718315125, 0.14011986553668976, 0.21754130721092224, 0.17371635138988495, 0.18519648909568787, 0.13849347829818726, 0.18253770470619202, 0.14143331348896027, 0.12412165105342865, 0.15091998875141144, 0.15803253650665283, 0.18255774676799774, 0.16588538885116577, 0.15321879088878632, 0.14299893379211426, 0.127899169921875, 0.12739571928977966, 0.1300695538520813, 0.09913097321987152, 0.08770211786031723, 0.09600114822387695, 0.11729435622692108, 0.10640960186719894, 0.1269409954547882, 0.11247476190328598, 0.1260913759469986, 0.12744472920894623, 0.10550018399953842, 0.10884905606508255, 0.09186658263206482, 0.09066756814718246, 0.13781064748764038, 0.15385793149471283, 0.10919066518545151, 0.14433176815509796, 0.11810687184333801, 0.1395316869020462, 0.1504642218351364, 0.13400974869728088, 0.14320115745067596, 0.12432926893234253, 0.12346133589744568, 0.17166529595851898, 0.13607722520828247, 0.14829546213150024, 0.24917487800121307, 0.2681538462638855, 0.3192542791366577, 0.26007169485092163, 0.22354044020175934, 0.14359335601329803, 0.11043891310691833, 0.11166065186262131, 0.10609536617994308, 0.10270804166793823, 0.11604882776737213, 0.11415845155715942, 0.09646438807249069, 0.087562695145607, 0.09879522025585175, 0.12349642813205719, 0.1108778566122055, 0.09117361158132553, 0.13010667264461517, 0.1329060196876526, 0.15375901758670807, 0.14145097136497498, 0.13757537305355072, 0.14402320981025696, 0.1438443958759308]</t>
+          <t>[0.05385741963982582, 0.02892591431736946, 0.024879969656467438, 0.030435873195528984, 0.03633813187479973, 0.03348381444811821, 0.03852017968893051, 0.035810843110084534, 0.025198934599757195, 0.020699279382824898, 0.0575101412832737, 0.03714993596076965, 0.02907704934477806, 0.023952525109052658, 0.029803384095430374, 0.033481448888778687, 0.025932999327778816, 0.025560971349477768, 0.022025788202881813, 0.03380509838461876, 0.03244584798812866, 0.032238300889730453, 0.029201552271842957, 0.034425076097249985, 0.030330419540405273, 0.033572159707546234, 0.0337543860077858, 0.03177476301789284, 0.04023899510502815, 0.0564124658703804, 0.04141460359096527, 0.04936732351779938, 0.04602700099349022, 0.04248405247926712, 0.05179261416196823, 0.05245769023895264, 0.04088854417204857, 0.061194464564323425, 0.06311098486185074, 0.04985356330871582, 0.05028942599892616, 0.04246857389807701, 0.05047762766480446, 0.07205408811569214, 0.08928551524877548, 0.06119327247142792, 0.027675015851855278, 0.028353240340948105, 0.025885673239827156, 0.027612196281552315, 0.03311915695667267, 0.029952021315693855, 0.04358837008476257, 0.038451988250017166, 0.0490545928478241, 0.05344611033797264, 0.050291452556848526, 0.04642198607325554, 0.07885902374982834, 0.10448303073644638, 0.05313996225595474, 0.1227051392197609, 0.09183228760957718, 0.17695875465869904, 0.09477865695953369, 0.10518743842840195, 0.05523212254047394, 0.06666483730077744, 0.05203544721007347, 0.04268663376569748, 0.05600414797663689, 0.06013841554522514, 0.0855124443769455, 0.08686572313308716, 0.08151909708976746, 0.07965357601642609, 0.050457652658224106, 0.04328198358416557, 0.04252225160598755, 0.045844171196222305, 0.03394903987646103, 0.03342844545841217, 0.04686591029167175, 0.05191937834024429, 0.07409051805734634, 0.06205853447318077, 0.07767421752214432, 0.08551190793514252, 0.04037059098482132, 0.04201439023017883, 0.039527878165245056, 0.031609222292900085, 0.061433371156454086, 0.0646718218922615, 0.04902441427111626, 0.08265135437250137, 0.03848982974886894, 0.041132763028144836, 0.04793691635131836, 0.04552227631211281, 0.05871192365884781, 0.045267023146152496, 0.03971017524600029, 0.09735312312841415, 0.06219252198934555, 0.06996069848537445, 0.1340700089931488, 0.12852825224399567, 0.17274735867977142, 0.120182104408741, 0.0804695263504982, 0.05513366684317589, 0.040828216820955276, 0.03752113878726959, 0.03352572023868561, 0.028794968500733376, 0.05030572786927223, 0.039022382348775864, 0.03533831983804703, 0.0317041389644146, 0.03884447365999222, 0.05271761491894722, 0.04635072499513626, 0.038944654166698456, 0.06132720410823822, 0.06323172897100449, 0.08382825553417206, 0.07863672077655792, 0.06480184942483902, 0.0672113373875618, 0.06667016446590424]</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3192542791366577</v>
+        <v>0.176958754658699</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.7465813000162598</v>
+        <v>0.7380973999970593</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005699093893253892</v>
+        <v>0.005634331297687476</v>
       </c>
     </row>
     <row r="12">
@@ -1005,11 +1005,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[0.061843376606702805, 0.07689104974269867, 0.08141741901636124, 0.08662459999322891, 0.07411178201436996, 0.07920540124177933, 0.06709147244691849, 0.06944536417722702, 0.07703574746847153, 0.07891642302274704, 0.08445257693529129, 0.08211216330528259, 0.08931449055671692, 0.08805356174707413, 0.0828545019030571, 0.0780850425362587, 0.07446813583374023, 0.07399110496044159, 0.08119114488363266, 0.07425890117883682, 0.07283049076795578, 0.07453545182943344, 0.07672277837991714, 0.08038382977247238, 0.08262055367231369, 0.07267150282859802, 0.0671916976571083, 0.06509877741336823, 0.06224047392606735, 0.06571971625089645, 0.0656757578253746, 0.06507261097431183, 0.07060642540454865, 0.06707125157117844, 0.06645168364048004, 0.06655766069889069, 0.06269767880439758, 0.06330008059740067, 0.06503833085298538, 0.06747590750455856, 0.08304394781589508, 0.08610409498214722, 0.07152295112609863, 0.06226421520113945, 0.06364291161298752, 0.07691521942615509, 0.0767003521323204, 0.07731457054615021, 0.06488467752933502, 0.06549505889415741, 0.0637088194489479, 0.06595386564731598, 0.06471453607082367, 0.06846398860216141, 0.06227560341358185, 0.06403724104166031, 0.07155903428792953, 0.06674706935882568, 0.06030914932489395, 0.06037420406937599, 0.054779551923274994, 0.05401932820677757, 0.052097249776124954, 0.06701996177434921, 0.0679863765835762, 0.07418053597211838, 0.06809737533330917, 0.06933647394180298, 0.07313704490661621, 0.07203584909439087, 0.07642371952533722, 0.07903937995433807, 0.08611799776554108, 0.07661158591508865, 0.06882836669683456, 0.061675045639276505, 0.05751410871744156, 0.05492196977138519, 0.06213390454649925, 0.06912704557180405, 0.06210244446992874, 0.06943318992853165, 0.07201020419597626, 0.08014702796936035, 0.0996418371796608, 0.10570322722196579, 0.10291069746017456, 0.08872941136360168, 0.07190404087305069, 0.07541980594396591, 0.07440423220396042, 0.07462400197982788, 0.07632284611463547, 0.07734305411577225, 0.07513836771249771, 0.06908494234085083, 0.06308705359697342, 0.05779881030321121, 0.05857385694980621, 0.06930594146251678, 0.07331570982933044, 0.07380858063697815, 0.07375386357307434, 0.07928034663200378, 0.06675345450639725, 0.06678261607885361, 0.09186297655105591, 0.08496563881635666, 0.07095395028591156, 0.06862271577119827, 0.06052572652697563, 0.0673576071858406, 0.07671734690666199, 0.08043090254068375, 0.08882395178079605, 0.08917701989412308, 0.08531736582517624, 0.06809616088867188, 0.06687973439693451, 0.07117708772420883, 0.07389521598815918, 0.06906546652317047, 0.07085327059030533, 0.07907314598560333, 0.07696730643510818, 0.07621179521083832, 0.07800538092851639, 0.07479388266801834, 0.07872311770915985, 0.06492510437965393, 0.06508462131023407]</t>
+          <t>[0.022244632244110107, 0.02688773162662983, 0.025899207219481468, 0.025171134620904922, 0.02278115600347519, 0.02304021269083023, 0.02020934410393238, 0.02175222523510456, 0.02605614811182022, 0.027409126982092857, 0.02945181354880333, 0.03117223270237446, 0.032057568430900574, 0.029197873547673225, 0.026587074622511864, 0.02651134319603443, 0.026600219309329987, 0.02622348815202713, 0.03417740762233734, 0.028457200154662132, 0.03296435996890068, 0.030465666204690933, 0.032164063304662704, 0.03025202825665474, 0.024535266682505608, 0.02088460698723793, 0.017584988847374916, 0.017656097188591957, 0.019676191732287407, 0.019701045006513596, 0.022770926356315613, 0.02286558784544468, 0.025644993409514427, 0.024840140715241432, 0.02288123033940792, 0.02385924942791462, 0.024547506123781204, 0.025406613945961, 0.028907041996717453, 0.03059988282620907, 0.034019261598587036, 0.027936549857258797, 0.023041876032948494, 0.0197099968791008, 0.02040356956422329, 0.0324690006673336, 0.037259455770254135, 0.04026443138718605, 0.02433328703045845, 0.020906897261738777, 0.020232809707522392, 0.023891698569059372, 0.021215088665485382, 0.023894034326076508, 0.02330435812473297, 0.02381788194179535, 0.02839767187833786, 0.02341092750430107, 0.019733695313334465, 0.019403204321861267, 0.01914551854133606, 0.01898656226694584, 0.017786161974072456, 0.02006492018699646, 0.021677503362298012, 0.02696637623012066, 0.03318658098578453, 0.03477748483419418, 0.038548629730939865, 0.03389164060354233, 0.03614344447851181, 0.03411037474870682, 0.03645040839910507, 0.03479466214776039, 0.028667891398072243, 0.02407350204885006, 0.017798738554120064, 0.01638496294617653, 0.018507298082113266, 0.02143341489136219, 0.021711193025112152, 0.0323466882109642, 0.033005550503730774, 0.03896419703960419, 0.06841479241847992, 0.08598152548074722, 0.08644866198301315, 0.09589923918247223, 0.04212835058569908, 0.0507839173078537, 0.03632577136158943, 0.032807376235723495, 0.03281306102871895, 0.029719660058617592, 0.030003707855939865, 0.02384061925113201, 0.022942744195461273, 0.02211846224963665, 0.02272450178861618, 0.024334074929356575, 0.026994092389941216, 0.02755466289818287, 0.023474745452404022, 0.02734886109828949, 0.02391972951591015, 0.02266673929989338, 0.03347793594002724, 0.031394097954034805, 0.029696520417928696, 0.029673723503947258, 0.027778105810284615, 0.027094360440969467, 0.03258296847343445, 0.030250951647758484, 0.03513361141085625, 0.0388663075864315, 0.029931342229247093, 0.024417739361524582, 0.028377721086144447, 0.03825610876083374, 0.03983085975050926, 0.029000837355852127, 0.027807194739580154, 0.031221937388181686, 0.0290757454931736, 0.02960527502000332, 0.03005036525428295, 0.031208785250782967, 0.031246177852153778, 0.021972978487610817, 0.021932480856776237]</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1057032272219658</v>
+        <v>0.09589923918247223</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.7206669999868609</v>
+        <v>0.7395383999974001</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005501274809060007</v>
+        <v>0.005645331297690077</v>
       </c>
     </row>
     <row r="13">
@@ -1045,11 +1045,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[0.15704254806041718, 0.1363004595041275, 0.13091857731342316, 0.1288491040468216, 0.11124302446842194, 0.1241697296500206, 0.13468827307224274, 0.14961259067058563, 0.2373344451189041, 0.17898045480251312, 0.13940761983394623, 0.15105904638767242, 0.09334312379360199, 0.114799365401268, 0.2474316507577896, 0.26933392882347107, 0.13697487115859985, 0.11782355606555939, 0.11945488303899765, 0.1347891092300415, 0.14378531277179718, 0.14974217116832733, 0.1510765701532364, 0.08802584558725357, 0.08250836282968521, 0.09748851507902145, 0.1322902888059616, 0.11660870909690857, 0.10057120770215988, 0.08188679814338684, 0.09116938710212708, 0.09455211460590363, 0.13575109839439392, 0.11384241282939911, 0.10088618844747543, 0.14700333774089813, 0.19939088821411133, 0.2242322862148285, 0.10851303488016129, 0.11405662447214127, 0.12097086012363434, 0.19119708240032196, 0.22948652505874634, 0.1794484257698059, 0.11658240854740143, 0.11995495110750198, 0.13584992289543152, 0.14822730422019958, 0.16807185113430023, 0.16188271343708038, 0.13229578733444214, 0.13778716325759888, 0.11929851770401001, 0.11702310293912888, 0.12087326496839523, 0.13420037925243378, 0.18826328217983246, 0.16786916553974152, 0.14195391535758972, 0.13020069897174835, 0.129664808511734, 0.14078985154628754, 0.12689882516860962, 0.1360204964876175, 0.16655653715133667, 0.12530091404914856, 0.13999393582344055, 0.10595494508743286, 0.09529172629117966, 0.08585233241319656, 0.1002834215760231, 0.1249922439455986, 0.12263191491365433, 0.12492487579584122, 0.14941972494125366, 0.14877748489379883, 0.14345750212669373, 0.09577672928571701, 0.10373342037200928, 0.13873815536499023, 0.5061157941818237, 0.27789729833602905, 0.18162313103675842, 0.14392082393169403, 0.1390562206506729, 0.12361472100019455, 0.20517133176326752, 0.21037527918815613, 0.15830837190151215, 0.12679214775562286, 0.120060496032238, 0.11729439347982407, 0.1255267709493637, 0.18354688584804535, 0.15102612972259521, 0.19774580001831055, 0.20982781052589417, 0.2423945963382721, 0.4668194353580475, 0.5726611018180847, 0.4237082600593567, 0.47964540123939514, 0.42585980892181396, 0.5675051808357239, 0.5448256731033325, 0.32582342624664307, 0.3916219174861908, 0.19659510254859924, 0.17356733977794647, 0.12456023693084717, 0.1236209124326706, 0.14061523973941803, 0.1642475575208664, 0.11577890068292618, 0.11281762272119522, 0.10223286598920822, 0.13799354434013367, 0.1304476261138916, 0.1451737880706787, 0.10697352141141891, 0.11278240382671356, 0.11563596874475479, 0.12321317195892334, 0.14288605749607086, 0.14046870172023773, 0.13852381706237793, 0.1429266780614853, 0.12678644061088562, 0.10740124434232712, 0.10908078402280807, 0.10887923836708069]</t>
+          <t>[0.07095778733491898, 0.05355626344680786, 0.0688757672905922, 0.08014363050460815, 0.0632934495806694, 0.059548478573560715, 0.07781383395195007, 0.0805840715765953, 0.18380627036094666, 0.08126465976238251, 0.059999678283929825, 0.06609417498111725, 0.032519057393074036, 0.057520996779203415, 0.2763552665710449, 0.3156445622444153, 0.11275581270456314, 0.06422273814678192, 0.07405277341604233, 0.07860658317804337, 0.11426665633916855, 0.12107913941144943, 0.12195488065481186, 0.049526505172252655, 0.0443824827671051, 0.045167505741119385, 0.08391477912664413, 0.06839581578969955, 0.055912744253873825, 0.06251106411218643, 0.09451530873775482, 0.08725626766681671, 0.061932530254125595, 0.045060835778713226, 0.03444403037428856, 0.06057574972510338, 0.08750937879085541, 0.1226731687784195, 0.04214853420853615, 0.05214696750044823, 0.05385192856192589, 0.12928509712219238, 0.2578175663948059, 0.14203907549381256, 0.057015273720026016, 0.04752035811543465, 0.055364008992910385, 0.07301294803619385, 0.07717982679605484, 0.06523559987545013, 0.04716144874691963, 0.052180107682943344, 0.04619774594902992, 0.05778937041759491, 0.06987518072128296, 0.07642558217048645, 0.19672463834285736, 0.120768703520298, 0.08572012931108475, 0.07224506139755249, 0.07705255597829819, 0.09135356545448303, 0.09205164760351181, 0.1403309553861618, 0.23823614418506622, 0.08622418344020844, 0.08723614364862442, 0.055959757417440414, 0.04935247823596001, 0.04540861397981644, 0.05695902928709984, 0.12074834108352661, 0.13635197281837463, 0.1611752212047577, 0.15525618195533752, 0.12143515050411224, 0.1056937649846077, 0.05386795103549957, 0.06361925601959229, 0.12443599104881287, 0.7453036904335022, 0.4718593657016754, 0.1852676272392273, 0.11364657431840897, 0.10982988029718399, 0.09881629794836044, 0.2269885390996933, 0.2525527775287628, 0.17413698136806488, 0.12115264683961868, 0.10610213875770569, 0.0953822135925293, 0.15864521265029907, 0.2189408838748932, 0.15733085572719574, 0.20650207996368408, 0.27410781383514404, 0.27947965264320374, 0.5831069350242615, 0.657401978969574, 0.531798243522644, 0.49032115936279297, 0.4223155379295349, 0.6364574432373047, 0.7574024200439453, 0.5177491903305054, 0.5635727643966675, 0.1622522473335266, 0.1255602240562439, 0.06308095902204514, 0.05814570561051369, 0.06618335843086243, 0.08523308485746384, 0.05281426012516022, 0.062175262719392776, 0.05568143352866173, 0.08659040182828903, 0.09383706748485565, 0.0937422588467598, 0.049641456454992294, 0.048402220010757446, 0.05291707068681717, 0.06650500744581223, 0.07168138772249222, 0.06333347409963608, 0.0786498486995697, 0.08537324517965317, 0.060161590576171875, 0.04359281435608864, 0.04139319434762001, 0.041040219366550446]</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5726611018180847</v>
+        <v>0.7574024200439453</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.7480636000109371</v>
+        <v>0.7367224999907194</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005710409160388833</v>
+        <v>0.005623835877791751</v>
       </c>
     </row>
     <row r="14">
@@ -1085,11 +1085,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[0.16078786551952362, 0.15719541907310486, 0.15655973553657532, 0.14227327704429626, 0.14904192090034485, 0.1414507031440735, 0.17080478370189667, 0.16810207068920135, 0.18014532327651978, 0.15708507597446442, 0.14593662321567535, 0.13011765480041504, 0.11976534128189087, 0.12351695448160172, 0.125859797000885, 0.12465502321720123, 0.15260955691337585, 0.14251242578029633, 0.13871391117572784, 0.14164999127388, 0.15719552338123322, 0.18345484137535095, 0.15534910559654236, 0.14627723395824432, 0.13411176204681396, 0.13458772003650665, 0.13409306108951569, 0.1737702190876007, 0.18504877388477325, 0.1875176876783371, 0.1679287850856781, 0.1653284728527069, 0.14811567962169647, 0.14405612647533417, 0.15247438848018646, 0.1541849672794342, 0.16490337252616882, 0.17288240790367126, 0.15362057089805603, 0.14390164613723755, 0.1421150416135788, 0.13873259723186493, 0.11504905670881271, 0.11563253402709961, 0.11677979677915573, 0.13549433648586273, 0.14109821617603302, 0.1781754046678543, 0.17996621131896973, 0.18312343955039978, 0.17432165145874023, 0.16856443881988525, 0.17089851200580597, 0.15343131124973297, 0.16010776162147522, 0.1554780751466751, 0.1509046107530594, 0.1390226036310196, 0.16277481615543365, 0.16371771693229675, 0.15666308999061584, 0.16375011205673218, 0.16353414952754974, 0.16861259937286377, 0.17648957669734955, 0.19212499260902405, 0.19217988848686218, 0.18448102474212646, 0.17859885096549988, 0.1649363487958908, 0.15618112683296204, 0.14336590468883514, 0.1373538076877594, 0.16754506528377533, 0.18430276215076447, 0.21928909420967102, 0.21464945375919342, 0.19902119040489197, 0.18622614443302155, 0.1678745150566101, 0.15221694111824036, 0.13877849280834198, 0.13508234918117523, 0.13519780337810516, 0.13308539986610413, 0.13846616446971893, 0.13961085677146912, 0.12429370731115341, 0.1373727172613144, 0.13870930671691895, 0.13095922768115997, 0.1246018186211586, 0.12086744606494904, 0.1186734214425087, 0.1171296238899231, 0.11396684497594833, 0.1125379353761673, 0.11994443833827972, 0.11254928261041641, 0.11483695358037949, 0.1156824603676796, 0.12318763881921768, 0.11131180077791214, 0.10820239037275314, 0.10263227671384811, 0.11891967058181763, 0.13371291756629944, 0.1246781200170517, 0.13417820632457733, 0.13043256103992462, 0.11407718062400818, 0.10010842233896255, 0.10862599313259125, 0.1007613092660904, 0.08609659224748611, 0.08345147967338562, 0.08306685090065002, 0.08433975279331207, 0.09473038464784622, 0.11390160024166107, 0.1143566444516182, 0.10823539644479752, 0.0962143987417221, 0.10254741460084915, 0.1000773161649704, 0.10672084242105484, 0.08627587556838989, 0.08562420308589935, 0.07939359545707703, 0.07938133925199509, 0.0796455517411232]</t>
+          <t>[0.153087317943573, 0.16106602549552917, 0.1587797850370407, 0.13564825057983398, 0.13510499894618988, 0.1354459822177887, 0.12772703170776367, 0.12060397118330002, 0.13105109333992004, 0.11401248723268509, 0.12077627331018448, 0.12078168243169785, 0.09791114926338196, 0.10545345395803452, 0.1047808825969696, 0.09990669041872025, 0.11251084506511688, 0.098807692527771, 0.11329899728298187, 0.13379347324371338, 0.136300191283226, 0.19052402675151825, 0.146707221865654, 0.14227619767189026, 0.13277208805084229, 0.1300560086965561, 0.12946844100952148, 0.16442608833312988, 0.18769030272960663, 0.19407688081264496, 0.15711350739002228, 0.12998250126838684, 0.10818492621183395, 0.11000312864780426, 0.1325433999300003, 0.1344911754131317, 0.13440489768981934, 0.14714914560317993, 0.1261281818151474, 0.10723425447940826, 0.09967628121376038, 0.10001596063375473, 0.09187562763690948, 0.09503941982984543, 0.09283522516489029, 0.1153625100851059, 0.11475422978401184, 0.15717704594135284, 0.14584223926067352, 0.16233810782432556, 0.1593041718006134, 0.14405624568462372, 0.15451712906360626, 0.12802447378635406, 0.15251605212688446, 0.16338826715946198, 0.15736711025238037, 0.1206393912434578, 0.12844248116016388, 0.14660663902759552, 0.13419552147388458, 0.15587174892425537, 0.15148259699344635, 0.13641853630542755, 0.14370465278625488, 0.16068142652511597, 0.2138352394104004, 0.20020045340061188, 0.16833597421646118, 0.14687854051589966, 0.13826501369476318, 0.12137976288795471, 0.10521997511386871, 0.13991716504096985, 0.1563916653394699, 0.16766709089279175, 0.16992449760437012, 0.15861940383911133, 0.15707489848136902, 0.1415015012025833, 0.12432055920362473, 0.10563167184591293, 0.10703541338443756, 0.10933392494916916, 0.1433418244123459, 0.1458117663860321, 0.13633733987808228, 0.12388084083795547, 0.13167612254619598, 0.1103232353925705, 0.09227217733860016, 0.10148795694112778, 0.09637880325317383, 0.09740188717842102, 0.1020372286438942, 0.1109553650021553, 0.11030856519937515, 0.11162742972373962, 0.10909103602170944, 0.10950906574726105, 0.10896223783493042, 0.11199682205915451, 0.097360759973526, 0.0913538709282875, 0.08358866721391678, 0.09424746781587601, 0.10634694248437881, 0.09878557920455933, 0.11139535158872604, 0.10418777912855148, 0.09005156904459, 0.07109077274799347, 0.07943075150251389, 0.08039695769548416, 0.07029431313276291, 0.0777260884642601, 0.07505558431148529, 0.049517784267663956, 0.05552660673856735, 0.07599753886461258, 0.09779474139213562, 0.09361395239830017, 0.07111451029777527, 0.07241185009479523, 0.06852921843528748, 0.06987562030553818, 0.06046350672841072, 0.06830719858407974, 0.05929911509156227, 0.05731769651174545, 0.05757462978363037]</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.219289094209671</v>
+        <v>0.2138352394104004</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.7281361000204924</v>
+        <v>0.7175686999980826</v>
       </c>
       <c r="J14" t="n">
-        <v>0.005558290839851088</v>
+        <v>0.005477623664107501</v>
       </c>
     </row>
     <row r="15">
@@ -1125,11 +1125,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0.06514479219913483, 0.06889532506465912, 0.05579399690032005, 0.11079995334148407, 0.10713662952184677, 0.05814002826809883, 0.08954530954360962, 0.07912536710500717, 0.0721857026219368, 0.060068946331739426, 0.134286567568779, 0.0621468685567379, 0.06056723743677139, 0.06478296965360641, 0.056820955127477646, 0.04069065675139427, 0.05094160512089729, 0.0407257154583931, 0.06180178374052048, 0.06897798925638199, 0.05484693497419357, 0.05781104043126106, 0.05395859107375145, 0.04155757650732994, 0.04092462360858917, 0.03392229974269867, 0.03202120214700699, 0.0356818251311779, 0.02879156544804573, 0.03708398714661598, 0.02984132431447506, 0.03189307078719139, 0.04651690274477005, 0.041551623493433, 0.03513990715146065, 0.05097920447587967, 0.046416182070970535, 0.07332079857587814, 0.05650115758180618, 0.08355878293514252, 0.07158398628234863, 0.05737556517124176, 0.058565035462379456, 0.060556236654520035, 0.06178510934114456, 0.09186425805091858, 0.06778310239315033, 0.07839733362197876, 0.09321293234825134, 0.07011869549751282, 0.06923863291740417, 0.06118857115507126, 0.07018577307462692, 0.05447729676961899, 0.04600539058446884, 0.03842901811003685, 0.04687092825770378, 0.06108631566166878, 0.08289175480604172, 0.05248919129371643, 0.055218130350112915, 0.12592200934886932, 0.06742458790540695, 0.08966641128063202, 0.04152732342481613, 0.05390635132789612, 0.057362351566553116, 0.0556245855987072, 0.04039869084954262, 0.0430305190384388, 0.04043387621641159, 0.05877895653247833, 0.06579195708036423, 0.06044813618063927, 0.053879935294389725, 0.06885141134262085, 0.04877782613039017, 0.06081777811050415, 0.04525075480341911, 0.05979456380009651, 0.08786718547344208, 0.07777553796768188, 0.04591144993901253, 0.05146082118153572, 0.053275465965270996, 0.05663057789206505, 0.04761826992034912, 0.04104781150817871, 0.04291415214538574, 0.04384873807430267, 0.048225969076156616, 0.0518372617661953, 0.05149339884519577, 0.04973987862467766, 0.06059826537966728, 0.05972440913319588, 0.04140442982316017, 0.04478727653622627, 0.03938348963856697, 0.040189895778894424, 0.0372735932469368, 0.05008837953209877, 0.04617811366915703, 0.06768085807561874, 0.06977209448814392, 0.06644884496927261, 0.058467403054237366, 0.06573657691478729, 0.0768653005361557, 0.0729820504784584, 0.07303653657436371, 0.07082691788673401, 0.05137750133872032, 0.05546725541353226, 0.060112159699201584, 0.04980688542127609, 0.042598653584718704, 0.061981916427612305, 0.04405228793621063, 0.051113028079271317, 0.06579574197530746, 0.056867826730012894, 0.07171725481748581, 0.07144060730934143]</t>
+          <t>[0.06154170259833336, 0.06297972053289413, 0.05302060395479202, 0.12389296293258667, 0.09392774105072021, 0.04304361715912819, 0.07825693488121033, 0.06593622267246246, 0.07860282063484192, 0.07380355894565582, 0.1524229198694229, 0.056862059980630875, 0.05342641472816467, 0.0653156042098999, 0.03666450455784798, 0.02608054131269455, 0.040796056389808655, 0.026898790150880814, 0.048858627676963806, 0.06889569759368896, 0.040937867015600204, 0.04567461088299751, 0.04098076373338699, 0.025706153362989426, 0.031188154593110085, 0.018368635326623917, 0.0230951476842165, 0.024415764957666397, 0.01707594282925129, 0.021873917430639267, 0.018778085708618164, 0.02163120172917843, 0.03813261166214943, 0.030138371512293816, 0.028391065075993538, 0.041637420654296875, 0.035445686429739, 0.05567876994609833, 0.043394409120082855, 0.07440230995416641, 0.038493018597364426, 0.03603382781147957, 0.030103260651230812, 0.040906257927417755, 0.038522157818078995, 0.059363510459661484, 0.04475797340273857, 0.06814996153116226, 0.07346507906913757, 0.03993447124958038, 0.0345890037715435, 0.023766616359353065, 0.03541189432144165, 0.030871469527482986, 0.019686423242092133, 0.019666915759444237, 0.023620257154107094, 0.03676767647266388, 0.04578565061092377, 0.03091149963438511, 0.03716381639242172, 0.08979272842407227, 0.056790247559547424, 0.09032037854194641, 0.027084676548838615, 0.03896264731884003, 0.03830645605921745, 0.031482718884944916, 0.01794423907995224, 0.021395966410636902, 0.022009221836924553, 0.03874937444925308, 0.04748198762536049, 0.049154628068208694, 0.03896128386259079, 0.04797942191362381, 0.032494477927684784, 0.04459340125322342, 0.0277017243206501, 0.04134165123105049, 0.0832408219575882, 0.07365210354328156, 0.02652055397629738, 0.031000137329101562, 0.02727368101477623, 0.03454416245222092, 0.026371289044618607, 0.02658550627529621, 0.02012464962899685, 0.025289194658398628, 0.03353859484195709, 0.03699226304888725, 0.036659084260463715, 0.04335649684071541, 0.06271660327911377, 0.05331208184361458, 0.022577613592147827, 0.025552649050951004, 0.02675672620534897, 0.025611216202378273, 0.02741766907274723, 0.05166487768292427, 0.032261136919260025, 0.06638586521148682, 0.06995729357004166, 0.044059090316295624, 0.03218836709856987, 0.04479486867785454, 0.06050635874271393, 0.045297808945178986, 0.0567595399916172, 0.049527306109666824, 0.036607421934604645, 0.034622982144355774, 0.044384971261024475, 0.0346599780023098, 0.028765611350536346, 0.03931623697280884, 0.02776840329170227, 0.037945836782455444, 0.04022015631198883, 0.03591325134038925, 0.03230481594800949, 0.032290514558553696]</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.134286567568779</v>
+        <v>0.1524229198694229</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.7277810999948997</v>
+        <v>0.717216200006078</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005869202419313707</v>
+        <v>0.005784001612952242</v>
       </c>
     </row>
     <row r="16">
@@ -1165,11 +1165,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[0.407716304063797, 0.28116998076438904, 0.1360035240650177, 0.24310484528541565, 0.2577730417251587, 0.22721096873283386, 0.17548908293247223, 0.2755872309207916, 0.27703580260276794, 0.2743435502052307, 0.18367606401443481, 0.16473208367824554, 0.11360710114240646, 0.1930016577243805, 0.20323283970355988, 0.1408168375492096, 0.10002961754798889, 0.14345432817935944, 0.28374922275543213, 0.18132460117340088, 0.15468506515026093, 0.2130683958530426, 0.21272830665111542, 0.060034267604351044, 0.09594790637493134, 0.11026626825332642, 0.1937684416770935, 0.23544692993164062, 0.06445338577032089, 0.05734456330537796, 0.10918605327606201, 0.23794135451316833, 0.13654661178588867, 0.13453347980976105, 0.15552575886249542, 0.11273445188999176, 0.16616739332675934, 0.4376223385334015, 0.37706899642944336, 0.5534206032752991, 0.6023333668708801, 0.35048696398735046, 0.24941980838775635, 0.1850455105304718, 0.18612521886825562, 0.25120437145233154, 0.23575083911418915, 0.4044862389564514, 0.2581649720668793, 0.1919366717338562, 0.49188292026519775, 0.3716380298137665, 0.2613045275211334, 0.5571563839912415, 0.5997986197471619, 0.2939978241920471, 0.11747352033853531, 0.2476794570684433, 0.2494955211877823, 0.16231127083301544, 0.12320526689291, 0.12422239780426025, 0.10900977998971939, 0.1657581925392151, 0.27105656266212463, 0.14386723935604095, 0.1809009462594986, 0.23572516441345215, 0.25579845905303955, 0.13796135783195496, 0.13944482803344727, 0.4735811948776245, 0.24723079800605774, 0.11101836711168289, 0.1331995278596878, 0.1468319445848465, 0.10294324159622192, 0.15851400792598724, 0.18182365596294403, 0.2678997814655304, 0.1809411495923996, 0.20434415340423584, 0.34764575958251953, 0.2597601115703583, 0.5188152194023132, 0.23454220592975616, 0.47702279686927795, 0.5314406156539917, 0.4012114405632019, 0.19354820251464844, 0.15034300088882446, 0.12858304381370544, 0.23738430440425873, 0.33065900206565857, 0.3278767764568329, 0.4290316700935364, 0.3570576310157776, 0.17133761942386627, 0.09504413604736328, 0.307064950466156, 0.3389531970024109, 0.25542157888412476, 0.09404807537794113, 0.09387948364019394, 0.14547285437583923, 0.19150908291339874, 0.20018258690834045, 0.3525778353214264, 0.29772722721099854, 0.23476964235305786, 0.4291340410709381, 0.28619521856307983, 0.10526711493730545, 0.17467336356639862, 0.29765552282333374, 0.30235540866851807, 0.3321641683578491, 0.28651174902915955, 0.29780206084251404, 0.340445339679718, 0.1865324079990387, 0.25767451524734497, 0.3682054877281189, 0.6199712157249451, 0.621027946472168]</t>
+          <t>[0.27594873309135437, 0.1550983041524887, 0.07416936010122299, 0.152186319231987, 0.23224306106567383, 0.18297000229358673, 0.08253645151853561, 0.1531774401664734, 0.11658215522766113, 0.11608055979013443, 0.06872842460870743, 0.09787003695964813, 0.04150816798210144, 0.10429214686155319, 0.10922317206859589, 0.04048097878694534, 0.031125383451581, 0.07076132297515869, 0.20691290497779846, 0.10332977026700974, 0.07436572015285492, 0.16464385390281677, 0.13022099435329437, 0.029580693691968918, 0.043001554906368256, 0.03639163449406624, 0.056178949773311615, 0.07834421098232269, 0.0179691631346941, 0.014651301316916943, 0.03958960622549057, 0.1074332669377327, 0.0702672004699707, 0.11862055212259293, 0.1205231249332428, 0.07082761079072952, 0.13193781673908234, 0.4159512221813202, 0.28997480869293213, 0.3651534914970398, 0.4893478751182556, 0.14608272910118103, 0.07738545536994934, 0.0930943563580513, 0.08406233042478561, 0.15820685029029846, 0.11072633415460587, 0.20943352580070496, 0.0976024940609932, 0.0838930532336235, 0.33748435974121094, 0.257567822933197, 0.10324005782604218, 0.3371918499469757, 0.5157954096794128, 0.1595299243927002, 0.031443122774362564, 0.13398167490959167, 0.14022444188594818, 0.05967634543776512, 0.04636571556329727, 0.03849060833454132, 0.03440821170806885, 0.04725262150168419, 0.13364683091640472, 0.04847640171647072, 0.08543435484170914, 0.09380871057510376, 0.11013215035200119, 0.027231484651565552, 0.025477781891822815, 0.22250568866729736, 0.11963264644145966, 0.04218081384897232, 0.040913816541433334, 0.05648675560951233, 0.032216064631938934, 0.08208909630775452, 0.0872524082660675, 0.17863745987415314, 0.11237265914678574, 0.11005613952875137, 0.1916419416666031, 0.10011021047830582, 0.23412133753299713, 0.07788832485675812, 0.31694814562797546, 0.34794071316719055, 0.2385418564081192, 0.07848614454269409, 0.039248593151569366, 0.041560787707567215, 0.10251136869192123, 0.13549835979938507, 0.16323301196098328, 0.22300437092781067, 0.2571600675582886, 0.07928682863712311, 0.030074480921030045, 0.21467630565166473, 0.2807997465133667, 0.26872357726097107, 0.0606369823217392, 0.0587015226483345, 0.06361465156078339, 0.09489400684833527, 0.14662323892116547, 0.322448194026947, 0.23181717097759247, 0.10417462140321732, 0.21505557000637054, 0.12378793209791183, 0.0327642522752285, 0.09543704986572266, 0.18847259879112244, 0.13552723824977875, 0.20432035624980927, 0.10935508459806442, 0.13099612295627594, 0.18637622892856598, 0.06559864431619644, 0.11024150252342224, 0.1476801633834839, 0.38690418004989624, 0.3892325460910797]</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.621027946472168</v>
+        <v>0.5157954096794128</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.8749714000150561</v>
+        <v>0.8439054000045871</v>
       </c>
       <c r="J16" t="n">
-        <v>0.006999771200120449</v>
+        <v>0.006751243200036697</v>
       </c>
     </row>
     <row r="17">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[0.028225643560290337, 0.03039000742137432, 0.028299251571297646, 0.034341130405664444, 0.037089087069034576, 0.0268211979418993, 0.022825300693511963, 0.020895490422844887, 0.03006196767091751, 0.03780268877744675, 0.0699014663696289, 0.05625659227371216, 0.07167065143585205, 0.048954322934150696, 0.06442169845104218, 0.030550159513950348, 0.04143234342336655, 0.046594053506851196, 0.056997645646333694, 0.08471353352069855, 0.08137232065200806, 0.07507962733507156, 0.059096354991197586, 0.04444112256169319, 0.05548734590411186, 0.08510249108076096, 0.08039724081754684, 0.10980395972728729, 0.09664055705070496, 0.10241135209798813, 0.05020315572619438, 0.08934949338436127, 0.06265988200902939, 0.06364401429891586, 0.053271546959877014, 0.06709615141153336, 0.03415767103433609, 0.049414582550525665, 0.061028920114040375, 0.04419397935271263, 0.03500046581029892, 0.032519932836294174, 0.04181891307234764, 0.05457625910639763, 0.026244601234793663, 0.025613438338041306, 0.02449704334139824, 0.028844406828284264, 0.030866965651512146, 0.02839615009725094, 0.03385690972208977, 0.045310381799936295, 0.035377439111471176, 0.02486695535480976, 0.023430870845913887, 0.030950622633099556, 0.025624200701713562, 0.02996416948735714, 0.04406006634235382, 0.051148030906915665, 0.04992501437664032, 0.034458596259355545, 0.025500008836388588, 0.02432645484805107, 0.02621125616133213, 0.03723214939236641, 0.03670636564493179, 0.04438386112451553, 0.03214775770902634, 0.032610829919576645, 0.02718493714928627, 0.03076312690973282, 0.04973156377673149, 0.04461003467440605, 0.03218912333250046, 0.02980225905776024, 0.028164228424429893, 0.02654634229838848, 0.02647177129983902, 0.02837122604250908, 0.023469487205147743, 0.024469241499900818, 0.023916136473417282, 0.025857554748654366, 0.027554038912057877, 0.02891579456627369, 0.03338105231523514, 0.03419161215424538, 0.03377414494752884, 0.03612556308507919, 0.040499139577150345, 0.03145180642604828, 0.029489342123270035, 0.03258245065808296, 0.03558427095413208, 0.04019971936941147, 0.028174784034490585, 0.03865649923682213, 0.030470672994852066, 0.04938274249434471, 0.04067184776067734, 0.03376653790473938, 0.038999270647764206, 0.034780122339725494, 0.04391056299209595, 0.04965434968471527, 0.056943003088235855, 0.036823347210884094, 0.027346255257725716, 0.03341086208820343, 0.03650713711977005, 0.03858702629804611, 0.0369974747300148, 0.0435270294547081, 0.06466645747423172, 0.037373777478933334, 0.03703158721327782, 0.028997501358389854, 0.032712943851947784, 0.035383887588977814, 0.04811980947852135, 0.03998181223869324, 0.03304058685898781, 0.032982636243104935]</t>
+          <t>[0.0064433966763317585, 0.010202700272202492, 0.006376017350703478, 0.006443302147090435, 0.007010909263044596, 0.005578181706368923, 0.004759080708026886, 0.004265764728188515, 0.006706682965159416, 0.00865583959966898, 0.01946434937417507, 0.015360797755420208, 0.020290633663535118, 0.011358511634171009, 0.023557445034384727, 0.009247133508324623, 0.014708898961544037, 0.018703961744904518, 0.02159975655376911, 0.03415711969137192, 0.027373917400836945, 0.023296529427170753, 0.012587852776050568, 0.011382654309272766, 0.012987577356398106, 0.029007788747549057, 0.031071381643414497, 0.036196377128362656, 0.03719751536846161, 0.05370716378092766, 0.01602897420525551, 0.04078825190663338, 0.02290424518287182, 0.023854661732912064, 0.01578550972044468, 0.01630510203540325, 0.011610230430960655, 0.018055563792586327, 0.020333126187324524, 0.013628127053380013, 0.010173997841775417, 0.009895806200802326, 0.014253532513976097, 0.018088098615407944, 0.00803455151617527, 0.006783975753933191, 0.0047808000817894936, 0.005733110476285219, 0.005032039247453213, 0.00577544467523694, 0.008402983658015728, 0.012110273353755474, 0.00700165331363678, 0.005032652989029884, 0.004598313942551613, 0.005815588403493166, 0.006126406602561474, 0.006727707106620073, 0.01010133232921362, 0.02062532864511013, 0.021000228822231293, 0.008257227949798107, 0.004715414252132177, 0.004963052459061146, 0.005879195407032967, 0.006576424930244684, 0.007684567477554083, 0.009969738312065601, 0.005971673876047134, 0.007218533661216497, 0.007353500463068485, 0.00671287439763546, 0.012274334207177162, 0.010813443921506405, 0.009989971294999123, 0.0060378131456673145, 0.005871290806680918, 0.005014232359826565, 0.00545801967382431, 0.004480416886508465, 0.0033203980419784784, 0.0042563811875879765, 0.0037614840548485518, 0.00422735046595335, 0.004103768151253462, 0.003983138129115105, 0.006415983662009239, 0.006290474906563759, 0.005796472541987896, 0.008659941144287586, 0.008406968787312508, 0.006735917180776596, 0.00608876021578908, 0.005418430548161268, 0.006612052675336599, 0.007871181704103947, 0.005599512252956629, 0.007393769919872284, 0.00565962353721261, 0.009136517532169819, 0.007294282782822847, 0.006026814691722393, 0.0068397531285882, 0.0058776820078492165, 0.006566684693098068, 0.010102896951138973, 0.015344001352787018, 0.009824561886489391, 0.007712801452726126, 0.006496998481452465, 0.007868531160056591, 0.007631621323525906, 0.007760242559015751, 0.010476439259946346, 0.01846071518957615, 0.007706615142524242, 0.007460685912519693, 0.005009505432099104, 0.005636935122311115, 0.005499686114490032, 0.00919447559863329, 0.009891164489090443, 0.007469993084669113, 0.007454978302121162]</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1098039597272873</v>
+        <v>0.05370716378092766</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.6986386000062339</v>
+        <v>0.7114772999921115</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00563418225811479</v>
+        <v>0.005737720161226706</v>
       </c>
     </row>
     <row r="18">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[0.03835715353488922, 0.050461024045944214, 0.049114976078271866, 0.06180637329816818, 0.0932558923959732, 0.07464633882045746, 0.1204470843076706, 0.09119487553834915, 0.08108443021774292, 0.0574445016682148, 0.09704800695180893, 0.11362362653017044, 0.07559509575366974, 0.10904409736394882, 0.21859346330165863, 0.06589358299970627, 0.05917319282889366, 0.058990489691495895, 0.05720299482345581, 0.07872015237808228, 0.04948300123214722, 0.09786352515220642, 0.2265504002571106, 0.07819779217243195, 0.07649390399456024, 0.07205324620008469, 0.11363917589187622, 0.05455046519637108, 0.07750921696424484, 0.07562897354364395, 0.10280608385801315, 0.11696556955575943, 0.1552228331565857, 0.17681466042995453, 0.10493263602256775, 0.1760016828775406, 0.10206998139619827, 0.10034595429897308, 0.09068011492490768, 0.16341781616210938, 0.1919577419757843, 0.45884525775909424, 0.22033648192882538, 0.3328368663787842, 0.25660043954849243, 0.35818377137184143, 0.24585402011871338, 0.1519896537065506, 0.13448870182037354, 0.2999469041824341, 0.14173537492752075, 0.12251829355955124, 0.0876961350440979, 0.07238811999559402, 0.054170459508895874, 0.054367732256650925, 0.06868752837181091, 0.04729314148426056, 0.061890870332717896, 0.0814499482512474, 0.06944446265697479, 0.17810286581516266, 0.13791464269161224, 0.14561107754707336, 0.07347732037305832, 0.11164592206478119, 0.0872906818985939, 0.081886425614357, 0.11206977814435959, 0.06521128118038177, 0.10831986367702484, 0.06581506878137589, 0.06420785933732986, 0.056436993181705475, 0.03595844656229019, 0.034761544317007065, 0.03523179888725281, 0.06536922603845596, 0.043440911918878555, 0.05560062453150749, 0.050535984337329865, 0.09689748287200928, 0.07599618285894394, 0.06798353791236877, 0.07894293963909149, 0.05250563472509384, 0.14136122167110443, 0.11296010762453079, 0.08421554416418076, 0.07169877737760544, 0.05483812466263771, 0.07691787928342819, 0.0486505888402462, 0.07070046663284302, 0.05587155371904373, 0.07947879284620285, 0.07636012881994247, 0.10903267562389374, 0.05245118588209152, 0.04403742775321007, 0.05839164927601814, 0.05702640488743782, 0.051629845052957535, 0.0434979610145092, 0.05108409747481346, 0.053608398884534836, 0.05249404162168503, 0.044745590537786484, 0.04360860213637352, 0.06758350878953934, 0.09416328370571136, 0.08420071750879288, 0.06609070301055908, 0.03742380440235138, 0.04138961806893349, 0.09501462429761887, 0.11038583517074585, 0.20662160217761993, 0.08017587661743164, 0.06074851378798485, 0.1188080906867981, 0.10085970163345337, 0.0797857940196991, 0.07953253388404846]</t>
+          <t>[0.02065952867269516, 0.03153594583272934, 0.03261712193489075, 0.05088914930820465, 0.1536685675382614, 0.08437445014715195, 0.11448846757411957, 0.11944809556007385, 0.07636886835098267, 0.04340273514389992, 0.09194356203079224, 0.09770503640174866, 0.07394514232873917, 0.13687659800052643, 0.2327972650527954, 0.05674241855740547, 0.04728471860289574, 0.04365672171115875, 0.04864856228232384, 0.060581229627132416, 0.04363445192575455, 0.12483003735542297, 0.2831190228462219, 0.07616101205348969, 0.0662139356136322, 0.04991551861166954, 0.09893792122602463, 0.036587875336408615, 0.0866055116057396, 0.08660490810871124, 0.08789840340614319, 0.07057732343673706, 0.11511202901601791, 0.1514986902475357, 0.10616030544042587, 0.17000727355480194, 0.10325708985328674, 0.10974480956792831, 0.12928980588912964, 0.2308458685874939, 0.22157414257526398, 0.39087796211242676, 0.14601542055606842, 0.36279967427253723, 0.24055808782577515, 0.3263409435749054, 0.23085859417915344, 0.1545608639717102, 0.16270297765731812, 0.2322232723236084, 0.12665009498596191, 0.13618800044059753, 0.07446867227554321, 0.042618632316589355, 0.028169602155685425, 0.02634357288479805, 0.04066386818885803, 0.026426587253808975, 0.053219277411699295, 0.05796632915735245, 0.044479791074991226, 0.15026509761810303, 0.09339533746242523, 0.15821105241775513, 0.06571453809738159, 0.11488784104585648, 0.07087972015142441, 0.05140407010912895, 0.09296949207782745, 0.05451451614499092, 0.11382264643907547, 0.06721185892820358, 0.057953912764787674, 0.06677187979221344, 0.028478965163230896, 0.028179900720715523, 0.018439924344420433, 0.034240949898958206, 0.03339839354157448, 0.04093719646334648, 0.049813177436590195, 0.11098528653383255, 0.07179272919893265, 0.06530878692865372, 0.07978031784296036, 0.02834276482462883, 0.14575950801372528, 0.09823695570230484, 0.06192178651690483, 0.0626409649848938, 0.05270915478467941, 0.10474454611539841, 0.02827019989490509, 0.06699804961681366, 0.049536291509866714, 0.06712557375431061, 0.06042971834540367, 0.04649857431650162, 0.025697341188788414, 0.02551986649632454, 0.03525479882955551, 0.04502534121274948, 0.04105289652943611, 0.032862283289432526, 0.026351511478424072, 0.03334338590502739, 0.03015790320932865, 0.03310134634375572, 0.025090711191296577, 0.057131022214889526, 0.12872067093849182, 0.07778481394052505, 0.029451290145516396, 0.021720610558986664, 0.035051845014095306, 0.08500499278306961, 0.09391926974058151, 0.16476218402385712, 0.04985607787966728, 0.04147667810320854, 0.07405443489551544, 0.09919306635856628, 0.09514162689447403, 0.09516189247369766]</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.4588452577590942</v>
+        <v>0.3908779621124268</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.6977890999987721</v>
+        <v>0.715345000004163</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005627331451603001</v>
+        <v>0.005768911290356153</v>
       </c>
     </row>
     <row r="19">
@@ -1285,11 +1285,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[0.01472252607345581, 0.020880814641714096, 0.01861412636935711, 0.017589371651411057, 0.017353549599647522, 0.019934779033064842, 0.020648743957281113, 0.023049524053931236, 0.019058549776673317, 0.04508814215660095, 0.05422505363821983, 0.0467454195022583, 0.02128455974161625, 0.0337587408721447, 0.02301093377172947, 0.03052901290357113, 0.027382005006074905, 0.036406055092811584, 0.042877886444330215, 0.035961370915174484, 0.04489525780081749, 0.03582218661904335, 0.038536686450242996, 0.040236711502075195, 0.048921287059783936, 0.04804627224802971, 0.054502639919519424, 0.05300423130393028, 0.046239133924245834, 0.07082470506429672, 0.06288542598485947, 0.08794600516557693, 0.06607387959957123, 0.05459818243980408, 0.05909580737352371, 0.07901335507631302, 0.07902146875858307, 0.06586214900016785, 0.07797934114933014, 0.052409619092941284, 0.058627113699913025, 0.06524777412414551, 0.09325932711362839, 0.08749521523714066, 0.08954127132892609, 0.07306127995252609, 0.06872887909412384, 0.055056992918252945, 0.03412048891186714, 0.03963902220129967, 0.04299505054950714, 0.03291178494691849, 0.022815579548478127, 0.020995043218135834, 0.025708088651299477, 0.01869009993970394, 0.0320327952504158, 0.03087468259036541, 0.03211596980690956, 0.03475693613290787, 0.03346719220280647, 0.03942184895277023, 0.036586783826351166, 0.05151964724063873, 0.052507806569337845, 0.032999563962221146, 0.02492416463792324, 0.0439741276204586, 0.04152219742536545, 0.034167345613241196, 0.029720040038228035, 0.020024919882416725, 0.020893247798085213, 0.043213918805122375, 0.02825656346976757, 0.045763641595840454, 0.04727194085717201, 0.036734141409397125, 0.02814445085823536, 0.0296107679605484, 0.03506689518690109, 0.03417688608169556, 0.03227812051773071, 0.03221823647618294, 0.031522657722234726, 0.037761103361845016, 0.05307018756866455, 0.05280338227748871, 0.07955669611692429, 0.06114013493061066, 0.0443255677819252, 0.03387799486517906, 0.031388815492391586, 0.03793007880449295, 0.05094017833471298, 0.042059265077114105, 0.08035651594400406, 0.04537847638130188, 0.05399726703763008, 0.06768596172332764, 0.17091074585914612, 0.14803791046142578, 0.13705360889434814, 0.09512196481227875, 0.11274164170026779, 0.1307472139596939, 0.11387988179922104, 0.10995808243751526, 0.11001326888799667, 0.05220433324575424, 0.042204756289720535, 0.042454034090042114, 0.03083685226738453, 0.029943495988845825, 0.0271548293530941, 0.025244737043976784, 0.02060667984187603, 0.030925363302230835, 0.06236208230257034, 0.04690179228782654, 0.02459629811346531, 0.024091342464089394, 0.025407761335372925, 0.025165818631649017]</t>
+          <t>[0.007815533317625523, 0.009773915633559227, 0.008952133357524872, 0.010329030454158783, 0.011980600655078888, 0.013956057839095592, 0.01172466017305851, 0.008779856376349926, 0.007979300804436207, 0.025766411796212196, 0.03570357710123062, 0.02808578498661518, 0.012812424451112747, 0.018240557983517647, 0.011783316731452942, 0.014733335003256798, 0.012650452554225922, 0.018877103924751282, 0.027109643444418907, 0.02196500636637211, 0.0321427658200264, 0.023207681253552437, 0.03414040431380272, 0.03483652323484421, 0.04740198701620102, 0.02900020033121109, 0.036825817078351974, 0.033659081906080246, 0.02886529080569744, 0.04229767993092537, 0.04271755740046501, 0.07459575682878494, 0.03980156034231186, 0.04405949264764786, 0.06819089502096176, 0.07012451440095901, 0.06306860595941544, 0.04859993979334831, 0.06424949318170547, 0.0367097444832325, 0.04196601361036301, 0.06704901158809662, 0.11051513254642487, 0.09187562763690948, 0.07814055681228638, 0.0509679839015007, 0.05649898201227188, 0.03470790386199951, 0.018554601818323135, 0.019691485911607742, 0.02088739536702633, 0.01629565842449665, 0.010874396190047264, 0.008389603346586227, 0.009178833104670048, 0.0060292743146419525, 0.010601573623716831, 0.009646659716963768, 0.009936483576893806, 0.013152958825230598, 0.012450585141777992, 0.021262330934405327, 0.021595697849988937, 0.03802324831485748, 0.03061351738870144, 0.0228195171803236, 0.011257716454565525, 0.028552701696753502, 0.024195566773414612, 0.023437215015292168, 0.018782926723361015, 0.01129891537129879, 0.010542502626776695, 0.020233839750289917, 0.008786045014858246, 0.024188678711652756, 0.022197378799319267, 0.021513385698199272, 0.013542929664254189, 0.015292052179574966, 0.022353967651724815, 0.027792252600193024, 0.026370054110884666, 0.02575184963643551, 0.02706177532672882, 0.027984917163848877, 0.04558126628398895, 0.050757996737957, 0.07024607062339783, 0.04418417066335678, 0.03259212523698807, 0.019559424370527267, 0.02163005992770195, 0.025705458596348763, 0.04616489261388779, 0.04430757462978363, 0.07505162060260773, 0.03574545308947563, 0.05526324361562729, 0.0631481260061264, 0.17063269019126892, 0.17307907342910767, 0.12655583024024963, 0.06868737190961838, 0.09295269846916199, 0.12098151445388794, 0.1062142550945282, 0.10719821602106094, 0.1271953135728836, 0.04484349861741066, 0.038990359753370285, 0.032400455325841904, 0.01814594864845276, 0.02140182815492153, 0.020211830735206604, 0.023030882701277733, 0.012829654850065708, 0.015826618298888206, 0.03823266923427582, 0.026804834604263306, 0.011932572349905968, 0.012322362512350082, 0.014473358169198036, 0.01418348215520382]</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1709107458591461</v>
+        <v>0.1730790734291077</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.6991877999971621</v>
+        <v>0.721284300001571</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005638611290299694</v>
+        <v>0.005816808870980411</v>
       </c>
     </row>
     <row r="20">
@@ -1325,11 +1325,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[0.09115426987409592, 0.09692329913377762, 0.08334580808877945, 0.16450735926628113, 0.19703428447246552, 0.1612156331539154, 0.05788090452551842, 0.09807762503623962, 0.08603796362876892, 0.14462538063526154, 0.24815532565116882, 0.12706083059310913, 0.08594098687171936, 0.09202495962381363, 0.09996828436851501, 0.07890498638153076, 0.06844417005777359, 0.10588197410106659, 0.15309534966945648, 0.13301917910575867, 0.18531391024589539, 0.16772659122943878, 0.1392943114042282, 0.10557212680578232, 0.09743278473615646, 0.0443439818918705, 0.03310464322566986, 0.06041570007801056, 0.10216294974088669, 0.10375148057937622, 0.14451448619365692, 0.1517675220966339, 0.2992415130138397, 0.1596294790506363, 0.13790729641914368, 0.1300046443939209, 0.13018466532230377, 0.11037639528512955, 0.0840824618935585, 0.0966666042804718, 0.08255593478679657, 0.054100070148706436, 0.07138838618993759, 0.07979618012905121, 0.05880211293697357, 0.08500254899263382, 0.060179729014635086, 0.13943704962730408, 0.06719242036342621, 0.08665262907743454, 0.06018318980932236, 0.09605356305837631, 0.12909510731697083, 0.09736308455467224, 0.08247947692871094, 0.08052773028612137, 0.09030410647392273, 0.061574786901474, 0.05485481023788452, 0.08285729587078094, 0.13120579719543457, 0.10964906215667725, 0.18130484223365784, 0.06774865090847015, 0.07889281958341599, 0.095972441136837, 0.06677473336458206, 0.05863957107067108, 0.07811246067285538, 0.04852842167019844, 0.04576504975557327, 0.03874152526259422, 0.04575095698237419, 0.05469754338264465, 0.10348066687583923, 0.09361805766820908, 0.10728347301483154, 0.0900270938873291, 0.09128887206315994, 0.08512509614229202, 0.0806194320321083, 0.060038965195417404, 0.03276914730668068, 0.04262068122625351, 0.05881698057055473, 0.04728660732507706, 0.08232796937227249, 0.07043910771608353, 0.08391541987657547, 0.14264853298664093, 0.22391138970851898, 0.19078315794467926, 0.15560570359230042, 0.1213022992014885, 0.09196994453668594, 0.06406901776790619, 0.06803754717111588, 0.11122968047857285, 0.11628515273332596, 0.12080933153629303, 0.14546042680740356, 0.11307651549577713, 0.07870694249868393, 0.07047540694475174, 0.0771506130695343, 0.06072450801730156, 0.1340910792350769, 0.11686699837446213, 0.19212333858013153, 0.17718809843063354, 0.18175695836544037, 0.13440704345703125, 0.13543139398097992, 0.1744702011346817, 0.13815374672412872, 0.09775412827730179, 0.13217365741729736, 0.23768401145935059, 0.251496285200119, 0.2033599317073822, 0.22358132898807526, 0.28775277733802795, 0.18227200210094452, 0.18258902430534363]</t>
+          <t>[0.053197845816612244, 0.06724144518375397, 0.05141960829496384, 0.11783036589622498, 0.13206452131271362, 0.09281079471111298, 0.032339952886104584, 0.04906311258673668, 0.035499319434165955, 0.059112053364515305, 0.1720988005399704, 0.07026609033346176, 0.044320158660411835, 0.05892818421125412, 0.08204171806573868, 0.045263972133398056, 0.03706218674778938, 0.08439543098211288, 0.08544434607028961, 0.06109476462006569, 0.10364354401826859, 0.1012505516409874, 0.054498881101608276, 0.03595883026719093, 0.039512306451797485, 0.01654973067343235, 0.014209695160388947, 0.029743961989879608, 0.06019566208124161, 0.03919875994324684, 0.06286688148975372, 0.07092657685279846, 0.23546963930130005, 0.059009257704019547, 0.06845451146364212, 0.07506981492042542, 0.05996386334300041, 0.046729374676942825, 0.030433326959609985, 0.038278479129076004, 0.039286334067583084, 0.025170696899294853, 0.02895757183432579, 0.029124915599822998, 0.023169884458184242, 0.029089579358696938, 0.02008773945271969, 0.09154096990823746, 0.030908919870853424, 0.044075243175029755, 0.025803502649068832, 0.041567496955394745, 0.041293665766716, 0.04311887174844742, 0.027741964906454086, 0.030502617359161377, 0.04020526260137558, 0.021722132340073586, 0.019884278997778893, 0.025056885555386543, 0.05655617639422417, 0.06168825924396515, 0.0853925570845604, 0.023274367675185204, 0.02529841475188732, 0.043719299137592316, 0.025866739451885223, 0.025346538051962852, 0.03823203220963478, 0.020191321149468422, 0.018025338649749756, 0.01478003989905119, 0.013432955369353294, 0.023108139634132385, 0.05349963158369064, 0.0512303002178669, 0.05267016962170601, 0.05359809100627899, 0.04061323404312134, 0.03660263866186142, 0.04127633944153786, 0.028154535219073296, 0.014133745804429054, 0.017429349943995476, 0.02006298489868641, 0.01954619400203228, 0.04825608432292938, 0.037245072424411774, 0.07479141652584076, 0.08945219218730927, 0.17954042553901672, 0.19812610745429993, 0.1558370739221573, 0.09403114020824432, 0.05230553820729256, 0.03199760243296623, 0.03392781317234039, 0.058758411556482315, 0.057069867849349976, 0.06962074339389801, 0.05429309234023094, 0.03532761335372925, 0.02517211250960827, 0.022163456305861473, 0.03612635284662247, 0.020438676699995995, 0.05849667266011238, 0.04920997470617294, 0.08250083774328232, 0.07319088280200958, 0.07228691130876541, 0.05325690656900406, 0.058844029903411865, 0.08829104155302048, 0.06494133919477463, 0.039184387773275375, 0.05178654193878174, 0.08895831555128098, 0.0915134996175766, 0.08900760114192963, 0.11512739211320877, 0.1541450023651123, 0.06230902671813965, 0.06271734833717346]</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2992415130138397</v>
+        <v>0.2354696393013</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.6988988999801222</v>
+        <v>0.6998838999861619</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005636281451452598</v>
+        <v>0.005644224999888402</v>
       </c>
     </row>
     <row r="21">
@@ -1365,11 +1365,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[0.14070872962474823, 0.08381203562021255, 0.20441514253616333, 0.31027093529701233, 0.10695812106132507, 0.07557053864002228, 0.059968236833810806, 0.13113659620285034, 0.12139236181974411, 0.08715682476758957, 0.036701787263154984, 0.04766266420483589, 0.06930728256702423, 0.04759354516863823, 0.0886804461479187, 0.058796484023332596, 0.13644176721572876, 0.07941892743110657, 0.12892350554466248, 0.07109624147415161, 0.04447072744369507, 0.18283286690711975, 0.08869661390781403, 0.14965488016605377, 0.23339281976222992, 0.10307779163122177, 0.054798197001218796, 0.03273662552237511, 0.04171375185251236, 0.0262607391923666, 0.05890509858727455, 0.09983527660369873, 0.07886025309562683, 0.1257409304380417, 0.04646521434187889, 0.18987299501895905, 0.19322696328163147, 0.18303321301937103, 0.0746883898973465, 0.060644786804914474, 0.21982522308826447, 0.07407889515161514, 0.057320039719343185, 0.06450348347425461, 0.04293052852153778, 0.036145590245723724, 0.05551000311970711, 0.07382997125387192, 0.06734246760606766, 0.05175533890724182, 0.04288732260465622, 0.038215313106775284, 0.0989130288362503, 0.04545063152909279, 0.05116822198033333, 0.10868009179830551, 0.026179496198892593, 0.052160099148750305, 0.034783314913511276, 0.06074771285057068, 0.06361536681652069, 0.08906048536300659, 0.060023896396160126, 0.017774295061826706, 0.02614104375243187, 0.07001178711652756, 0.027223505079746246, 0.038793954998254776, 0.07259557396173477, 0.09691760689020157, 0.13063004612922668, 0.14018359780311584, 0.11603687703609467, 0.058509938418865204, 0.0450020432472229, 0.07482646405696869, 0.1476164162158966, 0.0669742152094841, 0.11196433752775192, 0.15996399521827698, 0.08706174790859222, 0.13150206208229065, 0.24965159595012665, 0.12736345827579498, 0.05091696232557297, 0.07411512732505798, 0.062029559165239334, 0.04828302189707756, 0.0639331266283989, 0.09826197475194931, 0.15628372132778168, 0.06949709355831146, 0.059464264661073685, 0.18288695812225342, 0.27850690484046936, 0.33139583468437195, 0.2028079479932785, 0.08804910629987717, 0.26714497804641724, 0.18809820711612701, 0.1456812024116516, 0.20726411044597626, 0.13989874720573425, 0.11585121601819992, 0.060860976576805115, 0.05946662649512291, 0.04214216768741608, 0.034597620368003845, 0.054909348487854004, 0.06106438860297203, 0.03834785893559456, 0.039922963827848434, 0.05440032482147217, 0.0778721272945404, 0.043518830090761185, 0.07238326966762543, 0.07956556230783463, 0.12738136947155, 0.10477942228317261, 0.1215943843126297, 0.10573524981737137, 0.06651493161916733, 0.044988129287958145, 0.0448661670088768]</t>
+          <t>[0.11151979118585587, 0.06386707723140717, 0.17162635922431946, 0.19290749728679657, 0.11821408569812775, 0.11096369475126266, 0.07612181454896927, 0.21250687539577484, 0.20323853194713593, 0.14662784337997437, 0.027565758675336838, 0.04268679767847061, 0.06643445789813995, 0.05602755397558212, 0.08753605931997299, 0.05494050681591034, 0.07561570405960083, 0.06173603981733322, 0.15574121475219727, 0.07590308785438538, 0.05951230600476265, 0.32818034291267395, 0.10193327069282532, 0.14143294095993042, 0.22373487055301666, 0.1261005997657776, 0.03690464422106743, 0.032760072499513626, 0.046802934259176254, 0.018158769235014915, 0.05232114717364311, 0.07619544118642807, 0.04918249696493149, 0.13042975962162018, 0.03549787402153015, 0.13990706205368042, 0.15784506499767303, 0.10444331169128418, 0.04209144040942192, 0.03672005236148834, 0.16117452085018158, 0.07302262634038925, 0.04054810106754303, 0.036387331783771515, 0.03745143115520477, 0.018932316452264786, 0.034763213247060776, 0.05794042721390724, 0.06844571232795715, 0.04639945179224014, 0.022282933816313744, 0.02691558748483658, 0.057471051812171936, 0.031322840601205826, 0.024019526317715645, 0.07593093067407608, 0.01667226292192936, 0.039156991988420486, 0.01692495495080948, 0.030728839337825775, 0.045082684606313705, 0.059079159051179886, 0.053256917744874954, 0.01362715382128954, 0.0312093123793602, 0.09945599734783173, 0.03303898870944977, 0.03626646101474762, 0.0481228344142437, 0.06421041488647461, 0.05874089151620865, 0.10684523731470108, 0.08585865795612335, 0.04254530370235443, 0.03230028972029686, 0.05748171731829643, 0.20373784005641937, 0.08182104676961899, 0.17899660766124725, 0.20386165380477905, 0.1231904849410057, 0.12622344493865967, 0.3327622711658478, 0.17672127485275269, 0.06919806450605392, 0.05685890093445778, 0.04864533990621567, 0.05150998383760452, 0.04183448478579521, 0.10678457468748093, 0.17211484909057617, 0.07384148985147476, 0.0710948184132576, 0.257093220949173, 0.23622235655784607, 0.3469098210334778, 0.29167309403419495, 0.0960368737578392, 0.34462887048721313, 0.16134965419769287, 0.13825327157974243, 0.20409590005874634, 0.11748345196247101, 0.06927308440208435, 0.04390299692749977, 0.049273088574409485, 0.0374477244913578, 0.03267970308661461, 0.061119165271520615, 0.039094626903533936, 0.03332442790269852, 0.022397803142666817, 0.03530405834317207, 0.04387872666120529, 0.02477024495601654, 0.05848667025566101, 0.048921793699264526, 0.13166888058185577, 0.13535143435001373, 0.1714632213115692, 0.12009912729263306, 0.05404990538954735, 0.03960761800408363, 0.03952806070446968]</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3313958346843719</v>
+        <v>0.3469098210334778</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.701353399985237</v>
+        <v>0.7026366999925813</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005656075806332557</v>
+        <v>0.005666424999940171</v>
       </c>
     </row>
     <row r="22">
@@ -1405,11 +1405,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[0.11138704419136047, 0.1027183085680008, 0.08863381296396255, 0.11095539480447769, 0.06496111303567886, 0.0788954496383667, 0.08271830528974533, 0.07679175585508347, 0.08525771647691727, 0.07277203351259232, 0.09658785164356232, 0.14668099582195282, 0.07392536848783493, 0.08090240508317947, 0.1371084451675415, 0.17033754289150238, 0.08387025445699692, 0.07882168143987656, 0.04880743473768234, 0.07798262685537338, 0.11907532066106796, 0.12642572820186615, 0.14031623303890228, 0.17041364312171936, 0.14084574580192566, 0.21115942299365997, 0.12625141441822052, 0.15177272260189056, 0.21991947293281555, 0.18582545220851898, 0.3330700099468231, 0.25135520100593567, 0.40018799901008606, 0.3001807630062103, 0.49512916803359985, 0.41333404183387756, 0.39103907346725464, 0.3742446005344391, 0.2570742666721344, 0.3489042818546295, 0.19388143718242645, 0.14688245952129364, 0.0851953774690628, 0.05163983628153801, 0.06048667058348656, 0.09899123013019562, 0.08874594420194626, 0.08167258650064468, 0.0637698620557785, 0.08283311873674393, 0.06901942193508148, 0.07639749348163605, 0.10034860670566559, 0.1140671968460083, 0.12147946655750275, 0.12424597144126892, 0.15750716626644135, 0.08644303679466248, 0.07325539737939835, 0.12563955783843994, 0.12632401287555695, 0.13945691287517548, 0.12372802197933197, 0.23013657331466675, 0.1471090465784073, 0.10189726203680038, 0.08815142512321472, 0.12385820597410202, 0.15179629623889923, 0.2021908462047577, 0.20775732398033142, 0.19493402540683746, 0.16352742910385132, 0.1386222243309021, 0.1580020785331726, 0.18073172867298126, 0.1259094476699829, 0.12275547534227371, 0.22734397649765015, 0.1654280126094818, 0.2539087235927582, 0.09627287834882736, 0.09917256236076355, 0.163826122879982, 0.20525303483009338, 0.08902184665203094, 0.10307420790195465, 0.11697115749120712, 0.1059436947107315, 0.16231980919837952, 0.11186528205871582, 0.14697065949440002, 0.15985053777694702, 0.1504017412662506, 0.24716214835643768, 0.3792971670627594, 0.46074777841567993, 0.34321296215057373, 0.21533139050006866, 0.17594559490680695, 0.16235136985778809, 0.27738600969314575, 0.2531086802482605, 0.13637195527553558, 0.18305422365665436, 0.4498862326145172, 0.3038341999053955, 0.44537824392318726, 0.3123696744441986, 0.41006404161453247, 0.21997494995594025, 0.3524464964866638, 0.25432735681533813, 0.19618786871433258, 0.10652387887239456, 0.07319509983062744, 0.1468934714794159, 0.17132878303527832, 0.10070396214723587, 0.08117945492267609, 0.0958462581038475, 0.0639011412858963, 0.09444943070411682, 0.09436225146055222]</t>
+          <t>[0.15862414240837097, 0.11716382950544357, 0.09425735473632812, 0.11043966561555862, 0.059346795082092285, 0.0849439948797226, 0.14181512594223022, 0.0828365683555603, 0.04723670706152916, 0.05266054347157478, 0.07644204795360565, 0.09830331802368164, 0.0585804209113121, 0.07463153451681137, 0.2011256217956543, 0.2250456064939499, 0.09802072495222092, 0.05880584195256233, 0.034509655088186264, 0.05021332949399948, 0.09268997609615326, 0.10461264103651047, 0.11997531354427338, 0.1410650908946991, 0.10388289391994476, 0.1585645079612732, 0.07562746852636337, 0.13993099331855774, 0.20663170516490936, 0.1463203877210617, 0.2641938030719757, 0.18254728615283966, 0.30610960721969604, 0.26272186636924744, 0.4194416403770447, 0.33021509647369385, 0.33128249645233154, 0.2928619086742401, 0.18631939589977264, 0.2917574942111969, 0.1074581891298294, 0.07093243300914764, 0.04686155542731285, 0.022252297028899193, 0.02472568117082119, 0.08090665191411972, 0.050837524235248566, 0.047585345804691315, 0.041293587535619736, 0.05607977136969566, 0.0390649288892746, 0.053379449993371964, 0.07482252269983292, 0.10643787682056427, 0.12855121493339539, 0.1109219342470169, 0.144365593791008, 0.04556002467870712, 0.042327046394348145, 0.09736395627260208, 0.14176888763904572, 0.12081673741340637, 0.10401547700166702, 0.2314194291830063, 0.08558009564876556, 0.06406418979167938, 0.06219365447759628, 0.08722023665904999, 0.20233067870140076, 0.32071825861930847, 0.28549709916114807, 0.2332633137702942, 0.17566576600074768, 0.13557404279708862, 0.14030033349990845, 0.17063187062740326, 0.09895353019237518, 0.11917486786842346, 0.2708567976951599, 0.2007322907447815, 0.22319000959396362, 0.10456103831529617, 0.07658112794160843, 0.16367706656455994, 0.23646368086338043, 0.04934601113200188, 0.08114183694124222, 0.08637195080518723, 0.08047626912593842, 0.08640899509191513, 0.05501576140522957, 0.07091990113258362, 0.07930199056863785, 0.0817921906709671, 0.15119515359401703, 0.21933014690876007, 0.2260928601026535, 0.18737632036209106, 0.11076336354017258, 0.09365904331207275, 0.06463170051574707, 0.15247605741024017, 0.11201102286577225, 0.05194693058729172, 0.08178406208753586, 0.22375145554542542, 0.15869015455245972, 0.3429304361343384, 0.20444826781749725, 0.35795000195503235, 0.1721523255109787, 0.35446417331695557, 0.22727906703948975, 0.17381320893764496, 0.07135828584432602, 0.058934956789016724, 0.11958127468824387, 0.17276617884635925, 0.11607326567173004, 0.07013064622879028, 0.08526824414730072, 0.04781283810734749, 0.09612349420785904, 0.09613510221242905]</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.4951291680335999</v>
+        <v>0.4194416403770447</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -1423,10 +1423,10 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.7061850000172853</v>
+        <v>0.6968026999966241</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005695040322720043</v>
+        <v>0.005619376612876001</v>
       </c>
     </row>
     <row r="23">
@@ -1445,11 +1445,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[0.06481366604566574, 0.07042448967695236, 0.09282054007053375, 0.07029762119054794, 0.06396123766899109, 0.06735564023256302, 0.0864623486995697, 0.0838690772652626, 0.08055078983306885, 0.08822821825742722, 0.07623433321714401, 0.09306290000677109, 0.07307161390781403, 0.07544572651386261, 0.09014002978801727, 0.08378159254789352, 0.06928950548171997, 0.06190454214811325, 0.07411069422960281, 0.08064296841621399, 0.08654607832431793, 0.08605819940567017, 0.1030694916844368, 0.08722296357154846, 0.08938009291887283, 0.08706483244895935, 0.07742942124605179, 0.09689531475305557, 0.09084184467792511, 0.0949113592505455, 0.09828022867441177, 0.08264371752738953, 0.10296432673931122, 0.08964702486991882, 0.08399264514446259, 0.07002639025449753, 0.07604226469993591, 0.08137102425098419, 0.07708484679460526, 0.0798354372382164, 0.07105087488889694, 0.07691100239753723, 0.09374970942735672, 0.06567053496837616, 0.060383375734090805, 0.054201606661081314, 0.05494363233447075, 0.07208113372325897, 0.07089634984731674, 0.06645742803812027, 0.06377889215946198, 0.07738432288169861, 0.0865563154220581, 0.08375908434391022, 0.07169714570045471, 0.07538286596536636, 0.06998609751462936, 0.06686048954725266, 0.06603524833917618, 0.058071233332157135, 0.06104991212487221, 0.06461261212825775, 0.06726555526256561, 0.0662277489900589, 0.053480058908462524, 0.09306872636079788, 0.064057357609272, 0.0551200732588768, 0.04836198315024376, 0.045852191746234894, 0.05708150193095207, 0.06174802407622337, 0.054152969270944595, 0.052992064505815506, 0.05178673565387726, 0.0516166053712368, 0.0494147427380085, 0.05526995286345482, 0.06287480890750885, 0.06594480574131012, 0.0625525563955307, 0.06431472301483154, 0.049237657338380814, 0.05175808072090149, 0.0469653345644474, 0.041611846536397934, 0.04637868329882622, 0.046971697360277176, 0.04837255924940109, 0.055916015058755875, 0.06193990260362625, 0.0641249418258667, 0.054434120655059814, 0.06315865367650986, 0.06313358247280121, 0.06438342481851578, 0.0574302114546299, 0.06268011033535004, 0.06582605093717575, 0.07128726691007614, 0.092769093811512, 0.0948193371295929, 0.08583977818489075, 0.08199145644903183, 0.082791768014431, 0.10430408269166946, 0.08582459390163422, 0.08677691221237183, 0.0754207968711853, 0.0740223154425621, 0.08941105008125305, 0.08291000872850418, 0.06449577957391739, 0.05677821859717369, 0.0624387226998806, 0.05226282402873039, 0.05105116218328476, 0.06004107743501663, 0.08014674484729767, 0.08665655553340912, 0.08912535756826401, 0.06376390904188156, 0.06344125419855118, 0.0632428377866745]</t>
+          <t>[0.02722254954278469, 0.026546822860836983, 0.036362502723932266, 0.03430233150720596, 0.022858615964651108, 0.02407132461667061, 0.03651760146021843, 0.038125913590192795, 0.038433756679296494, 0.03671981394290924, 0.03239890933036804, 0.04280754178762436, 0.028034545481204987, 0.033309608697891235, 0.044035639613866806, 0.03539961576461792, 0.02683785930275917, 0.025151539593935013, 0.03336339443922043, 0.035709258168935776, 0.04101751372218132, 0.03437763452529907, 0.04297409951686859, 0.034706540405750275, 0.036622077226638794, 0.035106196999549866, 0.03637763112783432, 0.0365753211081028, 0.035376131534576416, 0.03422946482896805, 0.03954754397273064, 0.03316846862435341, 0.03473431617021561, 0.0374164916574955, 0.02916148118674755, 0.023960188031196594, 0.0226031094789505, 0.02643699012696743, 0.025880586355924606, 0.026179831475019455, 0.020662443712353706, 0.025577226653695107, 0.027423646301031113, 0.022631647065281868, 0.02416517212986946, 0.02270958013832569, 0.0226752832531929, 0.029170552268624306, 0.0335773266851902, 0.027164896950125694, 0.020618664100766182, 0.028141535818576813, 0.03613438084721565, 0.03021901659667492, 0.02714427560567856, 0.030195031315088272, 0.02822284586727619, 0.025796307250857353, 0.02263064682483673, 0.019789859652519226, 0.01813781075179577, 0.022117743268609047, 0.030864354223012924, 0.029226483777165413, 0.0301860012114048, 0.04804842919111252, 0.02979796752333641, 0.026369525119662285, 0.026112645864486694, 0.022353854030370712, 0.023883160203695297, 0.02206098847091198, 0.019202567636966705, 0.019592948257923126, 0.01966646872460842, 0.018891574814915657, 0.017883460968732834, 0.022374585270881653, 0.02375398762524128, 0.019016925245523453, 0.01983727142214775, 0.02039472572505474, 0.014292731881141663, 0.014387027360498905, 0.013236310333013535, 0.015002059750258923, 0.015847591683268547, 0.01517646573483944, 0.014952057041227818, 0.019644394516944885, 0.019216271117329597, 0.017346542328596115, 0.017779840156435966, 0.020070286467671394, 0.02111051045358181, 0.02433176524937153, 0.02029654197394848, 0.022580653429031372, 0.020138977095484734, 0.01922300085425377, 0.028874095529317856, 0.032383453100919724, 0.030055342242121696, 0.03169136866927147, 0.02576345019042492, 0.02798295207321644, 0.027107808738946915, 0.026261350139975548, 0.02735552191734314, 0.025589976459741592, 0.032551273703575134, 0.02746722660958767, 0.02170887589454651, 0.01896703615784645, 0.02521236054599285, 0.02009313553571701, 0.018970169126987457, 0.0194365493953228, 0.02831483632326126, 0.032680850476026535, 0.03370806202292442, 0.02195253223180771, 0.02518187277019024, 0.02498447149991989]</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1043040826916695</v>
+        <v>0.04804842919111252</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.7017726999765728</v>
+        <v>0.6781614999927115</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005659457257875587</v>
+        <v>0.005469044354779931</v>
       </c>
     </row>
     <row r="24">
@@ -1485,11 +1485,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0.4296206533908844, 0.4090527296066284, 0.24400494992733002, 0.3949517011642456, 0.2049180567264557, 0.38324007391929626, 0.1220841333270073, 0.15513908863067627, 0.17090636491775513, 0.2661670744419098, 0.16936616599559784, 0.5883455276489258, 0.16650031507015228, 0.2655799984931946, 0.08073805272579193, 0.07821884006261826, 0.08181699365377426, 0.07598507404327393, 0.0749073177576065, 0.0858691856265068, 0.07067505270242691, 0.08045803010463715, 0.11100128293037415, 0.08699794113636017, 0.06437883526086807, 0.06940838694572449, 0.055134255439043045, 0.05174974352121353, 0.04362892359495163, 0.04979667440056801, 0.05515938624739647, 0.057869087904691696, 0.053292978554964066, 0.18614274263381958, 0.5241703987121582, 0.26264646649360657, 0.2704481780529022, 0.3137854039669037, 0.164734348654747, 0.35226869583129883, 0.29209569096565247, 0.34956806898117065, 0.4456515908241272, 0.20300349593162537, 0.32169386744499207, 0.198409765958786, 0.20523320138454437, 0.19380752742290497, 0.22350366413593292, 0.17159655690193176, 0.15900783240795135, 0.15505704283714294, 0.3014182448387146, 0.43709877133369446, 0.4565599262714386, 0.4207933247089386, 0.2715912163257599, 0.35214364528656006, 0.2597072422504425, 0.3324934244155884, 0.36790329217910767, 0.3255882263183594, 0.4048222005367279, 0.2733873724937439, 0.22662189602851868, 0.31442806124687195, 0.1634824573993683, 0.22009257972240448, 0.24682016670703888, 0.2668090760707855, 0.4334334135055542, 0.19631429016590118, 0.31773045659065247, 0.15174798667430878, 0.24421298503875732, 0.27740010619163513, 0.3268458843231201, 0.17391999065876007, 0.14078626036643982, 0.3258068561553955, 0.2638590931892395, 0.18281731009483337, 0.1183631494641304, 0.10184401273727417, 0.07809282839298248, 0.07216037809848785, 0.05911819264292717, 0.06478920578956604, 0.053622592240571976, 0.0671122744679451, 0.07556326687335968, 0.0746348425745964, 0.058275800198316574, 0.04317670688033104, 0.05815345048904419, 0.06175146624445915, 0.0463702566921711, 0.05942997708916664, 0.08546516299247742, 0.06939820200204849, 0.07264875620603561, 0.05017321556806564, 0.03709573298692703, 0.060351673513650894, 0.062129102647304535, 0.07852046936750412, 0.0576648972928524, 0.06196799874305725, 0.07232777774333954, 0.060660868883132935, 0.08537351340055466, 0.07327739894390106, 0.0809992328286171, 0.24673530459403992, 0.5248696208000183, 0.3226148188114166, 0.1930740475654602, 0.261724591255188, 0.21403469145298004, 0.16923479735851288, 0.16349032521247864, 0.5220853686332703, 0.4799019396305084, 0.478314071893692]</t>
+          <t>[0.4061388373374939, 0.4444220960140228, 0.23398888111114502, 0.4886087477207184, 0.2772906720638275, 0.5186471939086914, 0.1228167712688446, 0.1236727386713028, 0.22240354120731354, 0.3555004596710205, 0.19672520458698273, 0.7061751484870911, 0.284960001707077, 0.3372887969017029, 0.0703747570514679, 0.06478580087423325, 0.07356557250022888, 0.14355169236660004, 0.0779993087053299, 0.11607688665390015, 0.07182099670171738, 0.07795253396034241, 0.11387212574481964, 0.062426358461380005, 0.048753559589385986, 0.046984653919935226, 0.06072230637073517, 0.05144702270627022, 0.03270280361175537, 0.04700460657477379, 0.0494537279009819, 0.0540761835873127, 0.044207412749528885, 0.2709638476371765, 0.7125077843666077, 0.3629513382911682, 0.3653378486633301, 0.4829314947128296, 0.2109430581331253, 0.40087777376174927, 0.4254510700702667, 0.4082513749599457, 0.4710831642150879, 0.19093181192874908, 0.3130025565624237, 0.2036212831735611, 0.17864638566970825, 0.166203573346138, 0.21573378145694733, 0.14432215690612793, 0.12490460276603699, 0.09546814858913422, 0.27932029962539673, 0.4566654860973358, 0.4339241087436676, 0.33272960782051086, 0.17918969690799713, 0.3321003019809723, 0.2225550264120102, 0.3623240888118744, 0.3683662414550781, 0.31112638115882874, 0.41829627752304077, 0.31571701169013977, 0.2682676911354065, 0.4025934338569641, 0.15582965314388275, 0.28244462609291077, 0.28908395767211914, 0.26258471608161926, 0.5559720396995544, 0.17045889794826508, 0.3741435110569, 0.11133576184511185, 0.281985342502594, 0.3521353304386139, 0.48655426502227783, 0.17564302682876587, 0.17303945124149323, 0.4368772506713867, 0.3214867115020752, 0.2282707840204239, 0.13265655934810638, 0.23950394988059998, 0.10775953531265259, 0.10353383421897888, 0.054325904697179794, 0.049732521176338196, 0.03954814746975899, 0.04726545512676239, 0.052916545420885086, 0.08202070742845535, 0.05197518691420555, 0.028092293068766594, 0.024619344621896744, 0.027902593836188316, 0.019624872133135796, 0.04045143350958824, 0.1311466097831726, 0.041170038282871246, 0.05514485761523247, 0.03993226960301399, 0.032248690724372864, 0.06798943132162094, 0.04678947106003761, 0.06261932849884033, 0.03672467917203903, 0.06119224429130554, 0.0640992596745491, 0.0470198430120945, 0.09225406497716904, 0.07750990241765976, 0.1311175376176834, 0.42565232515335083, 0.774749219417572, 0.5130073428153992, 0.2828037142753601, 0.4104776978492737, 0.305623322725296, 0.2511579990386963, 0.2269841730594635, 0.6834948062896729, 0.6068210601806641, 0.6066700220108032]</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.5883455276489258</v>
+        <v>0.774749219417572</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.7003351000021212</v>
+        <v>0.6939200000051642</v>
       </c>
       <c r="J24" t="n">
-        <v>0.005647863709694526</v>
+        <v>0.005596129032299712</v>
       </c>
     </row>
     <row r="25">
@@ -1525,11 +1525,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[0.7693276405334473, 0.845344603061676, 0.6151913404464722, 0.24670423567295074, 0.22612851858139038, 0.2853235900402069, 0.5880000591278076, 0.7955392599105835, 0.4760114848613739, 0.30426645278930664, 0.294259637594223, 0.5334186553955078, 0.23547449707984924, 0.2129691243171692, 0.19024658203125, 0.12935876846313477, 0.10464244335889816, 0.0814196988940239, 0.1155812218785286, 0.11034853756427765, 0.13048239052295685, 0.18042442202568054, 0.764356255531311, 0.9847682118415833, 0.9920042157173157, 0.9898861646652222, 0.989471971988678, 0.9724322557449341, 0.8408780694007874, 0.7020479440689087, 0.6761998534202576, 0.8916100263595581, 0.9755517840385437, 0.9826086759567261, 0.9817575812339783, 0.9794270992279053, 0.9772326350212097, 0.8556651473045349, 0.9011682868003845, 0.879146158695221, 0.7758769989013672, 0.941826343536377, 0.8355449438095093, 0.7996089458465576, 0.7077717185020447, 0.7234495878219604, 0.7052781581878662, 0.9870209097862244, 0.9110573530197144, 0.9109123349189758, 0.8996943831443787, 0.9911761283874512, 0.9875423312187195, 0.965209424495697, 0.9833697080612183, 0.9840436577796936, 0.9865598678588867, 0.9853608012199402, 0.9533337950706482, 0.9565895199775696, 0.9570983648300171, 0.9593155384063721, 0.9390491843223572, 0.9186694622039795, 0.8788567781448364, 0.8604168891906738, 0.8829504251480103, 0.7356458306312561, 0.7895837426185608, 0.6706544756889343, 0.5669296979904175, 0.5006577372550964, 0.770982027053833, 0.9705576300621033, 0.9755833148956299, 0.9799883365631104, 0.9625386595726013, 0.9514267444610596, 0.918056070804596, 0.8881435990333557, 0.9122779369354248, 0.8134349584579468, 0.6308013200759888, 0.8508973121643066, 0.8498985171318054, 0.7646437883377075, 0.6281102895736694, 0.4586271047592163, 0.2572171688079834, 0.28333529829978943, 0.20214536786079407, 0.28668341040611267, 0.3325318396091461, 0.3674888014793396, 0.3377446234226227, 0.47686177492141724, 0.8178610801696777, 0.8510878682136536, 0.8503826260566711, 0.864428699016571, 0.9238165616989136, 0.9803581237792969, 0.9833059906959534, 0.7935500741004944, 0.7964444160461426, 0.7831814289093018, 0.8819485902786255, 0.8747661113739014, 0.9643745422363281, 0.9685853719711304, 0.964978814125061, 0.9562695622444153, 0.9837709665298462, 0.9851675629615784, 0.9820289611816406, 0.9810741543769836, 0.953219473361969, 0.9665996432304382, 0.9645835757255554, 0.9731534719467163, 0.9571650624275208]</t>
+          <t>[0.9277297258377075, 0.9450885653495789, 0.9174543619155884, 0.3747963011264801, 0.27893832325935364, 0.38672319054603577, 0.7605237364768982, 0.8926968574523926, 0.6023362278938293, 0.4368615448474884, 0.4283846318721771, 0.8246470093727112, 0.2669571042060852, 0.21185466647148132, 0.1963726431131363, 0.1542290896177292, 0.18086378276348114, 0.05621650815010071, 0.09260614216327667, 0.08321797102689743, 0.1583070158958435, 0.48910462856292725, 0.9696095585823059, 0.9944915771484375, 0.9963845014572144, 0.9957349300384521, 0.9941589832305908, 0.9792237281799316, 0.9065326452255249, 0.8378903269767761, 0.8033173680305481, 0.928658664226532, 0.9734180569648743, 0.9784446358680725, 0.9780529141426086, 0.9740480780601501, 0.9767207503318787, 0.8519444465637207, 0.9315779805183411, 0.9132505059242249, 0.8595227003097534, 0.9691337943077087, 0.895569920539856, 0.8623027801513672, 0.7503407597541809, 0.7966725826263428, 0.7831966876983643, 0.9867203235626221, 0.9368867874145508, 0.9315977096557617, 0.9052181839942932, 0.9885684251785278, 0.9806233644485474, 0.9593892693519592, 0.9796832203865051, 0.9703981876373291, 0.9786444902420044, 0.9810039401054382, 0.9023009538650513, 0.9091048836708069, 0.9145721197128296, 0.9360024333000183, 0.9080920219421387, 0.9098730087280273, 0.8671313524246216, 0.8587456345558167, 0.912988007068634, 0.7228564023971558, 0.8101391792297363, 0.7151580452919006, 0.5998145341873169, 0.5701971650123596, 0.8116346001625061, 0.9717712998390198, 0.9746149182319641, 0.9771533012390137, 0.9619911313056946, 0.9499445557594299, 0.9264019727706909, 0.9310340285301208, 0.9372764229774475, 0.8836656808853149, 0.7490898966789246, 0.9201786518096924, 0.9171949625015259, 0.8876822590827942, 0.857774019241333, 0.5703873634338379, 0.2359078824520111, 0.2590876519680023, 0.145021453499794, 0.22831764817237854, 0.2919158935546875, 0.3318566381931305, 0.28008973598480225, 0.48157817125320435, 0.8246213793754578, 0.8846861124038696, 0.8638164401054382, 0.8823155760765076, 0.9353650212287903, 0.9823147058486938, 0.9833367466926575, 0.7439289689064026, 0.7596323490142822, 0.744941234588623, 0.882505476474762, 0.7672854661941528, 0.9326002597808838, 0.9465202689170837, 0.9382138848304749, 0.9506629705429077, 0.9773136973381042, 0.9630991220474243, 0.9534838795661926, 0.9584383368492126, 0.9237931370735168, 0.959093451499939, 0.9683074355125427, 0.9682571291923523, 0.9536827802658081]</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.9920042157173157</v>
+        <v>0.9963845014572144</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.6736989000055473</v>
+        <v>0.6915678999939701</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005567759504178077</v>
+        <v>0.00571543719003281</v>
       </c>
     </row>
     <row r="26">
@@ -1565,11 +1565,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0.9464237689971924, 0.9607036709785461, 0.9110808968544006, 0.7768089175224304, 0.6966238021850586, 0.6909343004226685, 0.6021921634674072, 0.6209812164306641, 0.8274624347686768, 0.942569375038147, 0.967825174331665, 0.9808336496353149, 0.9920693635940552, 0.9930118918418884, 0.9941158294677734, 0.9923835396766663, 0.9414207935333252, 0.38276833295822144, 0.5400485992431641, 0.6099691390991211, 0.46616989374160767, 0.28004562854766846, 0.21698690950870514, 0.42281195521354675, 0.3625842034816742, 0.3947127163410187, 0.3408631980419159, 0.2962733805179596, 0.2620498538017273, 0.25864487886428833, 0.21391239762306213, 0.23570090532302856, 0.2749256193637848, 0.1694081574678421, 0.1522306501865387, 0.16474387049674988, 0.1749138981103897, 0.14321160316467285, 0.1635083109140396, 0.17214281857013702, 0.14428828656673431, 0.1506316214799881, 0.1444854587316513, 0.15587680041790009, 0.1516248732805252, 0.15520846843719482, 0.1584157943725586, 0.21569840610027313, 0.26156559586524963, 0.27723172307014465, 0.27575039863586426, 0.1838802546262741, 0.12279532104730606, 0.10484394431114197, 0.11610911041498184, 0.1105649545788765, 0.13797052204608917, 0.1974438577890396, 0.21967478096485138, 0.2750273644924164, 0.2892885208129883, 0.2694648206233978, 0.17934268712997437, 0.15995970368385315, 0.14067097008228302, 0.16622228920459747, 0.2562853991985321, 0.3998527526855469, 0.42170020937919617, 0.3407217860221863, 0.32914912700653076, 0.31310218572616577, 0.3597106635570526, 0.21076855063438416, 0.2026892751455307, 0.17994776368141174, 0.13909360766410828, 0.1251022070646286, 0.1589655578136444, 0.14845971763134003, 0.1712774932384491, 0.3401646316051483, 0.34246131777763367, 0.24469098448753357, 0.23984386026859283, 0.23764443397521973, 0.24059750139713287, 0.2011730968952179, 0.1844252645969391, 0.16297610104084015, 0.15655702352523804, 0.1900423914194107, 0.3100733458995819, 0.4149077236652374, 0.4181641638278961, 0.39987343549728394, 0.20120710134506226, 0.21449077129364014, 0.18249192833900452, 0.19749191403388977, 0.21315279603004456, 0.21085169911384583, 0.16585411131381989, 0.13710612058639526, 0.14455333352088928, 0.15207336843013763, 0.16588056087493896, 0.17706826329231262, 0.20496414601802826, 0.1984037458896637, 0.21787241101264954, 0.24270302057266235, 0.24526475369930267, 0.16056197881698608, 0.131288543343544, 0.13108651340007782, 0.10475239157676697, 0.14475570619106293, 0.27447623014450073, 0.32592350244522095, 0.32853803038597107, 0.3293997645378113]</t>
+          <t>[0.9448384046554565, 0.953930139541626, 0.9001256823539734, 0.7782831192016602, 0.715996503829956, 0.7197349667549133, 0.7453190684318542, 0.6975500583648682, 0.8509101271629333, 0.9620205760002136, 0.9764420986175537, 0.9886139631271362, 0.9931780099868774, 0.9948811531066895, 0.99591463804245, 0.9941960573196411, 0.971479594707489, 0.36895763874053955, 0.6103081107139587, 0.6754187345504761, 0.4717733860015869, 0.2105693519115448, 0.22016629576683044, 0.5023350715637207, 0.4879970848560333, 0.5256426334381104, 0.4167863130569458, 0.38920825719833374, 0.4435840845108032, 0.40880686044692993, 0.2935877740383148, 0.32447466254234314, 0.3699846863746643, 0.12126537412405014, 0.09965155273675919, 0.1074567586183548, 0.12048464268445969, 0.1017085537314415, 0.16916608810424805, 0.19129322469234467, 0.1358630210161209, 0.14269040524959564, 0.13892899453639984, 0.12491682916879654, 0.11417503654956818, 0.11989565938711166, 0.13019637763500214, 0.1693827509880066, 0.2266366332769394, 0.27142801880836487, 0.2798168361186981, 0.11302406340837479, 0.08820105344057083, 0.056108370423316956, 0.06029950827360153, 0.05641843378543854, 0.0964944139122963, 0.12949508428573608, 0.17565862834453583, 0.2408856302499771, 0.2572906017303467, 0.23357932269573212, 0.10264391452074051, 0.07190585881471634, 0.0626976415514946, 0.0760834738612175, 0.15457244217395782, 0.45499035716056824, 0.5375562906265259, 0.41563281416893005, 0.4176657497882843, 0.3232641816139221, 0.36382076144218445, 0.20331259071826935, 0.19419880211353302, 0.15155093371868134, 0.12012173980474472, 0.07696785032749176, 0.11034147441387177, 0.0969979465007782, 0.11232884973287582, 0.3479835093021393, 0.3234192430973053, 0.20839610695838928, 0.20747561752796173, 0.21032282710075378, 0.23466457426548004, 0.20510010421276093, 0.1470647007226944, 0.12451862543821335, 0.12068503350019455, 0.1349719613790512, 0.23843182623386383, 0.5149126648902893, 0.48012736439704895, 0.4958556294441223, 0.15141019225120544, 0.15074872970581055, 0.1468326300382614, 0.15702180564403534, 0.1742793321609497, 0.142309308052063, 0.10956636816263199, 0.08496885746717453, 0.09171216934919357, 0.0983038917183876, 0.10889770090579987, 0.11615687608718872, 0.1939469575881958, 0.17056173086166382, 0.20044225454330444, 0.19261972606182098, 0.1659424602985382, 0.10976039618253708, 0.07757079601287842, 0.08315679430961609, 0.07792285829782486, 0.137161985039711, 0.248604878783226, 0.3023413121700287, 0.29208943247795105, 0.32603010535240173]</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.9941158294677734</v>
+        <v>0.99591463804245</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1583,10 +1583,10 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.6737998000171501</v>
+        <v>0.6629186999925878</v>
       </c>
       <c r="J26" t="n">
-        <v>0.005522949180468443</v>
+        <v>0.005433759836004818</v>
       </c>
     </row>
     <row r="27">
@@ -1605,11 +1605,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[0.14232555031776428, 0.13700343668460846, 0.17620950937271118, 0.07735078036785126, 0.09395486116409302, 0.038958143442869186, 0.03839098662137985, 0.04253634810447693, 0.049192339181900024, 0.05272989347577095, 0.040651556104421616, 0.03708488866686821, 0.03141801804304123, 0.0492490716278553, 0.05508981645107269, 0.05810454487800598, 0.05582517758011818, 0.0697159543633461, 0.1254948377609253, 0.07133425772190094, 0.06873776018619537, 0.08038788288831711, 0.09559150785207748, 0.09640543162822723, 0.09699124842882156, 0.066302590072155, 0.07783511281013489, 0.06891629844903946, 0.06466997414827347, 0.04588911309838295, 0.0733230710029602, 0.07365721464157104, 0.08453761786222458, 0.09897609055042267, 0.08819962292909622, 0.11238215863704681, 0.08531097322702408, 0.08719459921121597, 0.061347562819719315, 0.1411089450120926, 0.052425142377614975, 0.055992111563682556, 0.03990332409739494, 0.03847649320960045, 0.041472177952528, 0.053680114448070526, 0.0576859749853611, 0.045514609664678574, 0.052656300365924835, 0.06229053810238838, 0.09275492280721664, 0.10822449624538422, 0.11098708212375641, 0.11663124710321426, 0.13054220378398895, 0.08647166937589645, 0.07164325565099716, 0.07130515575408936, 0.1091502234339714, 0.06375356018543243, 0.061668455600738525, 0.0640391856431961, 0.0653713196516037, 0.04674229025840759, 0.04051345959305763, 0.03249654546380043, 0.03220667317509651, 0.03333763778209686, 0.04438329488039017, 0.05791868641972542, 0.09070104360580444, 0.08200334757566452, 0.07547680288553238, 0.09174905717372894, 0.06707989424467087, 0.09767314046621323, 0.06926190853118896, 0.09789089113473892, 0.28287473320961, 0.08015455305576324, 0.104716956615448, 0.07874234020709991, 0.09555373340845108, 0.619446337223053, 0.6796451210975647, 0.8031059503555298, 0.6542903184890747, 0.5258089303970337, 0.16705356538295746, 0.8332722783088684, 0.8144289255142212, 0.7824167013168335, 0.5633972883224487, 0.050245530903339386, 0.05333498492836952, 0.0601254440844059, 0.06416331976652145, 0.07073560357093811, 0.09220971912145615, 0.056015320122241974, 0.03653545305132866, 0.0431351363658905, 0.04286057874560356, 0.05628630146384239, 0.056547731161117554, 0.04848768562078476, 0.044332437217235565, 0.04158349335193634, 0.05236029252409935, 0.1241438239812851, 0.08216170221567154, 0.08365495502948761, 0.08641960471868515, 0.09602965414524078, 0.09986411780118942, 0.05984117463231087, 0.0629340410232544, 0.0492100864648819, 0.062412213534116745, 0.12416122108697891, 0.17123247683048248, 0.15984873473644257]</t>
+          <t>[0.08715631067752838, 0.07771256566047668, 0.11969433724880219, 0.029183300212025642, 0.03809037059545517, 0.013485817238688469, 0.015161884017288685, 0.016415782272815704, 0.025059029459953308, 0.02429386042058468, 0.01664905995130539, 0.012754004448652267, 0.011430284008383751, 0.018665282055735588, 0.021393710747361183, 0.019530845806002617, 0.0175149068236351, 0.02652646042406559, 0.07934284210205078, 0.03176417201757431, 0.03339791297912598, 0.045413509011268616, 0.053493235260248184, 0.043454527854919434, 0.04495455324649811, 0.020100116729736328, 0.02448202855885029, 0.02138952910900116, 0.022998478263616562, 0.01637631095945835, 0.027703316882252693, 0.025740228593349457, 0.028560154139995575, 0.02915237843990326, 0.024590443819761276, 0.05257769301533699, 0.03481176868081093, 0.03586761653423309, 0.023007135838270187, 0.10232047736644745, 0.020583171397447586, 0.03238817676901817, 0.017410364001989365, 0.012596087530255318, 0.017562536522746086, 0.03265929967164993, 0.03812989965081215, 0.02041635289788246, 0.020694518461823463, 0.025088828057050705, 0.0331864207983017, 0.03986368328332901, 0.03495359793305397, 0.03308933600783348, 0.040402524173259735, 0.028058309108018875, 0.021826796233654022, 0.0201688501983881, 0.04825163632631302, 0.022278591990470886, 0.02010948397219181, 0.019375205039978027, 0.021107519045472145, 0.013058248907327652, 0.012525573372840881, 0.007620849646627903, 0.0076319752261042595, 0.009333915077149868, 0.016908101737499237, 0.027198564261198044, 0.03509339317679405, 0.029409265145659447, 0.024221254512667656, 0.03517299145460129, 0.027022698894143105, 0.03095117211341858, 0.022030765190720558, 0.028011102229356766, 0.06838615238666534, 0.026349125429987907, 0.03617038577795029, 0.024930255487561226, 0.03352763131260872, 0.26681163907051086, 0.4367862939834595, 0.679265022277832, 0.524104654788971, 0.40868714451789856, 0.10282230377197266, 0.7750437259674072, 0.7217089533805847, 0.7410582304000854, 0.4546012580394745, 0.015961959958076477, 0.022270282730460167, 0.02475411631166935, 0.02536514587700367, 0.03309663385152817, 0.043588411062955856, 0.02797231264412403, 0.01277473010122776, 0.014852587133646011, 0.014212949201464653, 0.027551893144845963, 0.022291768342256546, 0.014131905511021614, 0.012006621807813644, 0.010990353301167488, 0.013832672499120235, 0.04366563260555267, 0.024615589529275894, 0.023861221969127655, 0.02770746499300003, 0.03384009748697281, 0.05896281823515892, 0.026698458939790726, 0.0307291429489851, 0.021356437355279922, 0.02204756811261177, 0.052676428109407425, 0.09201357513666153, 0.08615513890981674]</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.8332722783088684</v>
+        <v>0.7750437259674072</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0.6914286999963224</v>
+        <v>0.689020799996797</v>
       </c>
       <c r="J27" t="n">
-        <v>0.005667448360625593</v>
+        <v>0.005647711475383582</v>
       </c>
     </row>
     <row r="28">
@@ -1645,11 +1645,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[0.10524418950080872, 0.1136060431599617, 0.12057271599769592, 0.10491116344928741, 0.09906785190105438, 0.09326682984828949, 0.09157180786132812, 0.0912896990776062, 0.08074156939983368, 0.07031117379665375, 0.07219337671995163, 0.07861842215061188, 0.058784157037734985, 0.05808808654546738, 0.06844712793827057, 0.06935487687587738, 0.07820340245962143, 0.05568363144993782, 0.03235520049929619, 0.050073277205228806, 0.05219968408346176, 0.054404761642217636, 0.06371471285820007, 0.08119845390319824, 0.08726641535758972, 0.09542211145162582, 0.09912828356027603, 0.10237107425928116, 0.11884845793247223, 0.13386060297489166, 0.1350606381893158, 0.1326301395893097, 0.10945726931095123, 0.09625332057476044, 0.08764755725860596, 0.08945851773023605, 0.07938017696142197, 0.10182052850723267, 0.08193010091781616, 0.05763426050543785, 0.06621278077363968, 0.06031353026628494, 0.07134801149368286, 0.06784825772047043, 0.06906043738126755, 0.07938313484191895, 0.06564012914896011, 0.07299619168043137, 0.10579702258110046, 0.07866452634334564, 0.07201151549816132, 0.07489228248596191, 0.12035735696554184, 0.10854463279247284, 0.09189819544553757, 0.08693986386060715, 0.08458239585161209, 0.07447739690542221, 0.07278961688280106, 0.06980929523706436, 0.07361985743045807, 0.07585597038269043, 0.09294634312391281, 0.08291648328304291, 0.05651853233575821, 0.05402050539851189, 0.05564220994710922, 0.057834964245557785, 0.06469275057315826, 0.07769224792718887, 0.07673689723014832, 0.08512633293867111, 0.10570665448904037, 0.08080066740512848, 0.0682549849152565, 0.06376219540834427, 0.06074800714850426, 0.0669499933719635, 0.0780690461397171, 0.05591576546430588, 0.0542406402528286, 0.057861123234033585, 0.07269354164600372, 0.07460464537143707, 0.055880315601825714, 0.05862841010093689, 0.061573613435029984, 0.06668918579816818, 0.05260983854532242, 0.04325474053621292, 0.04002007097005844, 0.039430778473615646, 0.03911088407039642, 0.045138563960790634, 0.043194178491830826, 0.04331502690911293, 0.04457651451230049, 0.031142951920628548, 0.03701946511864662, 0.04067227616906166, 0.04341777414083481, 0.045946598052978516, 0.05459108576178551, 0.0555320680141449, 0.0523998849093914, 0.062056176364421844, 0.08474156260490417, 0.09383978694677353, 0.0650312602519989, 0.06050510331988335, 0.05114053934812546, 0.05455850064754486, 0.04805431514978409, 0.041905179619789124, 0.038225769996643066, 0.03812471404671669, 0.039713211357593536, 0.04014626145362854, 0.03569365665316582, 0.03308811038732529, 0.03328182175755501]</t>
+          <t>[0.04601321741938591, 0.055110711604356766, 0.05041171982884407, 0.04975127428770065, 0.04397112876176834, 0.04016291722655296, 0.041707735508680344, 0.03017142228782177, 0.029633289203047752, 0.024675648659467697, 0.023018227890133858, 0.025686297565698624, 0.021372172981500626, 0.02340071089565754, 0.030804108828306198, 0.03068382665514946, 0.03127467259764671, 0.018698466941714287, 0.00950532965362072, 0.01827496849000454, 0.020646721124649048, 0.02177276276051998, 0.03433915600180626, 0.046333298087120056, 0.03891231119632721, 0.04362299293279648, 0.04717126116156578, 0.033343203365802765, 0.03677564859390259, 0.04655173048377037, 0.0436408631503582, 0.048934172838926315, 0.06392968446016312, 0.054770275950431824, 0.048833828419446945, 0.05884028971195221, 0.04913609102368355, 0.06668677181005478, 0.04544421285390854, 0.026748694479465485, 0.034513700753450394, 0.03071899153292179, 0.035853855311870575, 0.02610047534108162, 0.026792064309120178, 0.030681027099490166, 0.027605947107076645, 0.026648560538887978, 0.06999026238918304, 0.048752542585134506, 0.04380703717470169, 0.04559233412146568, 0.07890918105840683, 0.0763498917222023, 0.06597568839788437, 0.05599123612046242, 0.05672536790370941, 0.0459587424993515, 0.03437375649809837, 0.029435401782393456, 0.031087011098861694, 0.03036484122276306, 0.04371090978384018, 0.05273612216114998, 0.0345640629529953, 0.03039790317416191, 0.034886088222265244, 0.030788497999310493, 0.03217567130923271, 0.03983399644494057, 0.037283752113580704, 0.04897211492061615, 0.06543095409870148, 0.04099645838141441, 0.031531210988759995, 0.025888923555612564, 0.02749447338283062, 0.028600191697478294, 0.060938164591789246, 0.028041576966643333, 0.026620684191584587, 0.028468351811170578, 0.03087364323437214, 0.03523412346839905, 0.025863701477646828, 0.027408607304096222, 0.02752229943871498, 0.03607913479208946, 0.032850317656993866, 0.024368513375520706, 0.023017654195427895, 0.022982584312558174, 0.020385373383760452, 0.021968746557831764, 0.02463436871767044, 0.02368399314582348, 0.02682592160999775, 0.015993988141417503, 0.01667204312980175, 0.020214524120092392, 0.02250855229794979, 0.023998456075787544, 0.028952552005648613, 0.0323510505259037, 0.029670605435967445, 0.04372774437069893, 0.06418409943580627, 0.06363857537508011, 0.034203361719846725, 0.029765354469418526, 0.02126563899219036, 0.026390401646494865, 0.020844463258981705, 0.018092621117830276, 0.014817998744547367, 0.015431811101734638, 0.016713956370949745, 0.01852625608444214, 0.013346299529075623, 0.013488348573446274, 0.01431666873395443]</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1350606381893158</v>
+        <v>0.07890918105840683</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0.6752163000055589</v>
+        <v>0.6641005000128644</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005580300000045941</v>
+        <v>0.005488433884403838</v>
       </c>
     </row>
     <row r="29">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[0.08603513240814209, 0.08271956443786621, 0.08234953135251999, 0.12083686888217926, 0.12791718542575836, 0.10873883217573166, 0.09718692302703857, 0.10066356509923935, 0.10642607510089874, 0.16442367434501648, 0.16599324345588684, 0.14436128735542297, 0.15512877702713013, 0.11879274994134903, 0.1149103119969368, 0.12017099559307098, 0.12072119116783142, 0.12063475698232651, 0.15813830494880676, 0.14406712353229523, 0.11287222802639008, 0.10710727423429489, 0.1006702184677124, 0.13985897600650787, 0.10663509368896484, 0.13308025896549225, 0.1157194972038269, 0.12433105707168579, 0.08214084804058075, 0.0806831419467926, 0.09761509299278259, 0.10350212454795837, 0.09904267638921738, 0.0996001735329628, 0.0902559831738472, 0.09074977040290833, 0.10619664192199707, 0.15576350688934326, 0.20899024605751038, 0.09786319732666016, 0.09672516584396362, 0.07559872418642044, 0.11178336292505264, 0.13680656254291534, 0.1569637954235077, 0.20747268199920654, 0.21819205582141876, 0.20377910137176514, 0.21091803908348083, 0.1706870049238205, 0.20504677295684814, 0.18795017898082733, 0.22836123406887054, 0.18137279152870178, 0.1496545821428299, 0.1744505763053894, 0.1537533402442932, 0.14503517746925354, 0.1029384434223175, 0.09449634701013565, 0.15742245316505432, 0.18232160806655884, 0.1854792982339859, 0.16635757684707642, 0.128788024187088, 0.13123540580272675, 0.14465434849262238, 0.11901023238897324, 0.07666566967964172, 0.07202597707509995, 0.0703369528055191, 0.06823387742042542, 0.07097454369068146, 0.06971028447151184, 0.0552544966340065, 0.05154282599687576, 0.051764003932476044, 0.05328290909528732, 0.0646439716219902, 0.08097293227910995, 0.08883237093687057, 0.09229785948991776, 0.08884599804878235, 0.07629012316465378, 0.07594171911478043, 0.05741116777062416, 0.05726287141442299, 0.055534444749355316, 0.06699775904417038, 0.06255453079938889, 0.07704611122608185, 0.08551900833845139, 0.09058330208063126, 0.09365025162696838, 0.12773385643959045, 0.11774836480617523, 0.1114107072353363, 0.12347736209630966, 0.11331744492053986, 0.10303690284490585, 0.07365277409553528, 0.06513243913650513, 0.06304417550563812, 0.08824842423200607, 0.06457483768463135, 0.046087391674518585, 0.047557879239320755, 0.046175241470336914, 0.045051973313093185, 0.0728103369474411, 0.06701139360666275, 0.057686418294906616, 0.05897176265716553, 0.06237179413437843, 0.08994311839342117, 0.1350025236606598, 0.13467013835906982, 0.13448359072208405, 0.09574441611766815, 0.0837814137339592, 0.07908637076616287]</t>
+          <t>[0.06322964280843735, 0.05160423740744591, 0.05210937559604645, 0.08616953343153, 0.08696161210536957, 0.060580119490623474, 0.05040208622813225, 0.052754610776901245, 0.06800306588411331, 0.08941328525543213, 0.08530574291944504, 0.07410624623298645, 0.08031939715147018, 0.04880203679203987, 0.05436597764492035, 0.08234383910894394, 0.08841262757778168, 0.07401823252439499, 0.09684178978204727, 0.11037026345729828, 0.07566985487937927, 0.06820717453956604, 0.05792344734072685, 0.07260013371706009, 0.0533810630440712, 0.07988559454679489, 0.06309550255537033, 0.0741409957408905, 0.03618757799267769, 0.055843450129032135, 0.0745149627327919, 0.08482872694730759, 0.0855923518538475, 0.05995680391788483, 0.037113893777132034, 0.048588190227746964, 0.0732336938381195, 0.14499960839748383, 0.13841411471366882, 0.045746710151433945, 0.04607664793729782, 0.03580542281270027, 0.07363766431808472, 0.1135515570640564, 0.09681158512830734, 0.15663982927799225, 0.1639440357685089, 0.1514081507921219, 0.11981631070375443, 0.06977620720863342, 0.07765569537878036, 0.07975831627845764, 0.11883273720741272, 0.1052829921245575, 0.07259248942136765, 0.10316871106624603, 0.07536949962377548, 0.07418275624513626, 0.04128357768058777, 0.03142305463552475, 0.09961549192667007, 0.1488964706659317, 0.15117688477039337, 0.14049839973449707, 0.07269960641860962, 0.08855639398097992, 0.0931934341788292, 0.058797452598810196, 0.02645133063197136, 0.022076651453971863, 0.02620105817914009, 0.024683941155672073, 0.02722572721540928, 0.02484472282230854, 0.021662389859557152, 0.01587645895779133, 0.016232822090387344, 0.016711298376321793, 0.01916331797838211, 0.028627751395106316, 0.03697296604514122, 0.0419265516102314, 0.03696894645690918, 0.02718241885304451, 0.028898203745484352, 0.01652795821428299, 0.016956496983766556, 0.01769067533314228, 0.020128563046455383, 0.017727123573422432, 0.029563600197434425, 0.03575059399008751, 0.04091719537973404, 0.04353024438023567, 0.08311107754707336, 0.09273101389408112, 0.07301023602485657, 0.0806717500090599, 0.05568745732307434, 0.043530069291591644, 0.024376280605793, 0.020053865388035774, 0.020221825689077377, 0.03652733191847801, 0.026694510132074356, 0.014174378477036953, 0.013538433238863945, 0.01306026428937912, 0.016760947182774544, 0.030264347791671753, 0.025543224066495895, 0.02019529417157173, 0.0206912774592638, 0.02499074675142765, 0.04251685366034508, 0.07443295419216156, 0.07497165352106094, 0.07451482862234116, 0.045035213232040405, 0.026245001703500748, 0.027386177331209183]</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2283612340688705</v>
+        <v>0.1639440357685089</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1703,10 +1703,10 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0.6671805999940261</v>
+        <v>0.6609909000108019</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005513889256148976</v>
+        <v>0.005462734710833073</v>
       </c>
     </row>
     <row r="30">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[0.055409450083971024, 0.04481150954961777, 0.0409957692027092, 0.032833654433488846, 0.03102807141840458, 0.03505585342645645, 0.03079233691096306, 0.028301699087023735, 0.024747174233198166, 0.024150323122739792, 0.04564724862575531, 0.042007431387901306, 0.041604578495025635, 0.04149957746267319, 0.03628811612725258, 0.053918465971946716, 0.12656037509441376, 0.13854476809501648, 0.10475961863994598, 0.07003860175609589, 0.08355589956045151, 0.07917207479476929, 0.0754641741514206, 0.06841722875833511, 0.06056967005133629, 0.043166421353816986, 0.04506127908825874, 0.04729593172669411, 0.054769691079854965, 0.05179361626505852, 0.05457308888435364, 0.06105551868677139, 0.059448644518852234, 0.06079809367656708, 0.0702495202422142, 0.04968781769275665, 0.03561202436685562, 0.03236512094736099, 0.03700059652328491, 0.03944943845272064, 0.042824260890483856, 0.03829753398895264, 0.040326815098524094, 0.04196613281965256, 0.03994164615869522, 0.03282076120376587, 0.04725625365972519, 0.047045134007930756, 0.04352225363254547, 0.048841528594493866, 0.0495181567966938, 0.044287487864494324, 0.04815886169672012, 0.05113768205046654, 0.05372394993901253, 0.06922836601734161, 0.05767737329006195, 0.059114232659339905, 0.049613673239946365, 0.07363181561231613, 0.0652003213763237, 0.06806103885173798, 0.06222919374704361, 0.06622201949357986, 0.04529133811593056, 0.03942505642771721, 0.042859092354774475, 0.04306228086352348, 0.053368233144283295, 0.051889993250370026, 0.047819677740335464, 0.03120272420346737, 0.03296230733394623, 0.034066326916217804, 0.03299456462264061, 0.06281028687953949, 0.11548827588558197, 0.10921010375022888, 0.08259982615709305, 0.06699966639280319, 0.06319551914930344, 0.037187688052654266, 0.03753335028886795, 0.03745191544294357, 0.05212051793932915, 0.07948257774114609, 0.10536667704582214, 0.10528159886598587, 0.10447005182504654, 0.07513734698295593, 0.038162101060152054, 0.04554148390889168, 0.04523523524403572, 0.04642235487699509, 0.046513479202985764, 0.040787339210510254, 0.033752989023923874, 0.03188006952404976, 0.03318791091442108, 0.036285046488046646, 0.045852504670619965, 0.04670726880431175, 0.04762808606028557, 0.049625687301158905, 0.05619700625538826, 0.05022723972797394, 0.05248919874429703, 0.05341300368309021, 0.043976590037345886, 0.04212403669953346, 0.07360338419675827, 0.05026784539222717, 0.04924720525741577, 0.05314908176660538, 0.04458872601389885, 0.059425078332424164, 0.03858451545238495, 0.03643794730305672, 0.03775419294834137, 0.03847697377204895, 0.033242855221033096]</t>
+          <t>[0.039158035069704056, 0.03159136697649956, 0.025576047599315643, 0.017468906939029694, 0.015184948220849037, 0.014086801558732986, 0.015480280853807926, 0.014365184120833874, 0.012066341005265713, 0.009491942822933197, 0.02495514042675495, 0.017950113862752914, 0.016414297744631767, 0.01611746847629547, 0.013267125934362411, 0.025911185890436172, 0.08035533130168915, 0.0974535197019577, 0.059209827333688736, 0.036794230341911316, 0.03611951321363449, 0.041682127863168716, 0.03695954009890556, 0.030825721099972725, 0.02901601605117321, 0.02119528502225876, 0.016838833689689636, 0.015349861234426498, 0.019922543317079544, 0.018363339826464653, 0.021637488156557083, 0.02818475291132927, 0.028463736176490784, 0.032255616039037704, 0.03362324833869934, 0.023951921612024307, 0.011478700675070286, 0.010498731397092342, 0.013150589540600777, 0.02024637721478939, 0.02135971374809742, 0.019045036286115646, 0.021658504381775856, 0.02328232116997242, 0.018936285749077797, 0.014085158705711365, 0.017723368480801582, 0.017868928611278534, 0.015563851222395897, 0.01956835389137268, 0.024360215291380882, 0.02045740932226181, 0.023371227085590363, 0.02576981857419014, 0.02299947664141655, 0.030897106975317, 0.03208349645137787, 0.03717141970992088, 0.02897360734641552, 0.05508294329047203, 0.040659237653017044, 0.03434429690241814, 0.03026723675429821, 0.03493544086813927, 0.016897134482860565, 0.014135254546999931, 0.018159355968236923, 0.01831982098519802, 0.023558026179671288, 0.0251863282173872, 0.021525384858250618, 0.016345679759979248, 0.019834011793136597, 0.02024122327566147, 0.02326667495071888, 0.04892973229289055, 0.07343000173568726, 0.07093293219804764, 0.045625604689121246, 0.03353053331375122, 0.02599942311644554, 0.016832850873470306, 0.01722775585949421, 0.01605820469558239, 0.026463979855179787, 0.03864780068397522, 0.05871544033288956, 0.06140153110027313, 0.06059817224740982, 0.026939477771520615, 0.01065091323107481, 0.013625000603497028, 0.013783147558569908, 0.013968006707727909, 0.015123375691473484, 0.01042262651026249, 0.008752583526074886, 0.00880183931440115, 0.0097719831392169, 0.009433325380086899, 0.014663780108094215, 0.015434781089425087, 0.014864061959087849, 0.01495283655822277, 0.01722237654030323, 0.019353000447154045, 0.022798312827944756, 0.025259433314204216, 0.020652996376156807, 0.018633704632520676, 0.034411441534757614, 0.014863727614283562, 0.016731353476643562, 0.018879182636737823, 0.014754031784832478, 0.025482429191470146, 0.016681263223290443, 0.015706434845924377, 0.01751880533993244, 0.018756814301013947, 0.013261683285236359]</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1385447680950165</v>
+        <v>0.0974535197019577</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1743,10 +1743,10 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.6748175999964587</v>
+        <v>0.6759555000026012</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005577004958648419</v>
+        <v>0.005586409090930588</v>
       </c>
     </row>
     <row r="31">
@@ -1765,11 +1765,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[0.06593112647533417, 0.07226016372442245, 0.07288426160812378, 0.07327040284872055, 0.07427474111318588, 0.07576456665992737, 0.06566288322210312, 0.06754690408706665, 0.06451155990362167, 0.07497852295637131, 0.0929037407040596, 0.09249240905046463, 0.10469139367341995, 0.052383650094270706, 0.0657782256603241, 0.062013667076826096, 0.07643138617277145, 0.0836113840341568, 0.08486587554216385, 0.08440054953098297, 0.0786573737859726, 0.06962788105010986, 0.06715846806764603, 0.06862381845712662, 0.061891015619039536, 0.04308413714170456, 0.04991820454597473, 0.05455071106553078, 0.05560152232646942, 0.04514293372631073, 0.04257530719041824, 0.04389218986034393, 0.0436999648809433, 0.05882503464818001, 0.061858613044023514, 0.07580757141113281, 0.08317268639802933, 0.08884372562170029, 0.07389291375875473, 0.051002636551856995, 0.04998970031738281, 0.05701658874750137, 0.05784417316317558, 0.07647665590047836, 0.08279186487197876, 0.08081956207752228, 0.07935986667871475, 0.07052820175886154, 0.059647154062986374, 0.0694180577993393, 0.07129284739494324, 0.07111139595508575, 0.06663576513528824, 0.06508079171180725, 0.08779864758253098, 0.07570090144872665, 0.06381084769964218, 0.06606892496347427, 0.057325247675180435, 0.05642319098114967, 0.04833365976810455, 0.045225393027067184, 0.04884634166955948, 0.059775445610284805, 0.06924448907375336, 0.0851864442229271, 0.08696217834949493, 0.10017137974500656, 0.10368018597364426, 0.12970520555973053, 0.08372288942337036, 0.07401775568723679, 0.07363970577716827, 0.1048850268125534, 0.09411773830652237, 0.08081034570932388, 0.0772835984826088, 0.08659137785434723, 0.0963413193821907, 0.08456279337406158, 0.07338269799947739, 0.07579723000526428, 0.07332291454076767, 0.08240296691656113, 0.07917354255914688, 0.06714747846126556, 0.0677584633231163, 0.07352960109710693, 0.10541080683469772, 0.10610873997211456, 0.0941590964794159, 0.10228697955608368, 0.11577852815389633, 0.10240190476179123, 0.07912400364875793, 0.08164750039577484, 0.07299946993589401, 0.06503715366125107, 0.07143846154212952, 0.07370154559612274, 0.08583209663629532, 0.09812235832214355, 0.0739341452717781, 0.06717602908611298, 0.08555388450622559, 0.07213088870048523, 0.07616084069013596, 0.07208677381277084, 0.07827774435281754, 0.07657879590988159, 0.0645328015089035, 0.0617835633456707, 0.05275975912809372, 0.036638736724853516, 0.034761324524879456, 0.04310720041394234, 0.03951163962483406, 0.03872109204530716, 0.04622678831219673, 0.05403992161154747, 0.07372845709323883]</t>
+          <t>[0.05085130035877228, 0.05491938069462776, 0.05614132434129715, 0.04850773140788078, 0.04939720779657364, 0.0587090328335762, 0.045788977295160294, 0.04308891296386719, 0.047030553221702576, 0.04822082817554474, 0.05250087007880211, 0.049549948424100876, 0.061215244233608246, 0.028857318684458733, 0.045419588685035706, 0.04588492214679718, 0.06187380477786064, 0.07061274349689484, 0.07650824636220932, 0.0888042002916336, 0.0960475280880928, 0.06919035315513611, 0.06509234011173248, 0.048880092799663544, 0.030974730849266052, 0.019945265725255013, 0.02601376734673977, 0.029736364260315895, 0.02326747588813305, 0.024208132177591324, 0.01784577965736389, 0.019440507516264915, 0.019887715578079224, 0.05231722071766853, 0.06423132121562958, 0.0862947627902031, 0.09596925228834152, 0.11185512691736221, 0.05869883671402931, 0.028905929997563362, 0.02563980035483837, 0.03314125910401344, 0.03456564247608185, 0.06181543320417404, 0.0737743079662323, 0.046252742409706116, 0.04096482694149017, 0.03036963753402233, 0.02808377519249916, 0.05062243342399597, 0.06310006231069565, 0.05693702772259712, 0.04875117540359497, 0.041674964129924774, 0.06354586780071259, 0.040558524429798126, 0.03241785243153572, 0.03543906286358833, 0.025347108021378517, 0.032345060259103775, 0.023006968200206757, 0.01956692896783352, 0.023418495431542397, 0.029518606141209602, 0.04428615793585777, 0.056758709251880646, 0.05929258465766907, 0.07060006260871887, 0.07342881709337234, 0.09678592532873154, 0.05004441365599632, 0.03685930371284485, 0.03803768381476402, 0.06174513325095177, 0.03868597745895386, 0.03919804096221924, 0.03441457822918892, 0.03718915581703186, 0.04685436934232712, 0.051638178527355194, 0.04022124409675598, 0.040835000574588776, 0.03805586323142052, 0.06490624696016312, 0.05880708247423172, 0.036688048392534256, 0.029649272561073303, 0.03794166073203087, 0.07143591344356537, 0.08655521273612976, 0.06148814409971237, 0.06958450376987457, 0.07380222529172897, 0.0627150759100914, 0.04846612736582756, 0.044184256345033646, 0.03442380204796791, 0.03349173441529274, 0.039888765662908554, 0.051120515912771225, 0.06471985578536987, 0.0737353265285492, 0.05247165635228157, 0.04190962016582489, 0.053936589509248734, 0.04020534083247185, 0.047034818679094315, 0.050422586500644684, 0.05280259624123573, 0.056392114609479904, 0.03731954097747803, 0.03228757530450821, 0.026748182252049446, 0.013997280038893223, 0.01429953332990408, 0.0194123312830925, 0.01882922649383545, 0.017463164404034615, 0.02209840528666973, 0.03577655553817749, 0.051744937896728516]</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1297052055597305</v>
+        <v>0.1118551269173622</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0.6814014000119641</v>
+        <v>0.6836064999952214</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005631416529024497</v>
+        <v>0.005649640495828276</v>
       </c>
     </row>
     <row r="32">
@@ -1805,11 +1805,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[0.053339969366788864, 0.06104663386940956, 0.043553002178668976, 0.053538404405117035, 0.05737105756998062, 0.05358101800084114, 0.03475223109126091, 0.033202581107616425, 0.02910972200334072, 0.029352864250540733, 0.029597226530313492, 0.0360758975148201, 0.054102618247270584, 0.04594014957547188, 0.04404878243803978, 0.03226058557629585, 0.038670096546411514, 0.04549318552017212, 0.047870755195617676, 0.04878520220518112, 0.043525371700525284, 0.051957547664642334, 0.05408934876322746, 0.04956015571951866, 0.0465686209499836, 0.06299960613250732, 0.05758942663669586, 0.05511192977428436, 0.057366952300071716, 0.05822821706533432, 0.055742669850587845, 0.04140489920973778, 0.03786855936050415, 0.042710479348897934, 0.04924856126308441, 0.07212767750024796, 0.06279926747083664, 0.08023172616958618, 0.08266769349575043, 0.08370641618967056, 0.07947778701782227, 0.08746840059757233, 0.08877305686473846, 0.10694870352745056, 0.10202265530824661, 0.09547682851552963, 0.07174704968929291, 0.06895072758197784, 0.05665867030620575, 0.07424317300319672, 0.06263219565153122, 0.0633830577135086, 0.0609300434589386, 0.05706582963466644, 0.05688177049160004, 0.06454980373382568, 0.034975308924913406, 0.03249083831906319, 0.03126131743192673, 0.030833862721920013, 0.026958812028169632, 0.04110831022262573, 0.05092727765440941, 0.04825754463672638, 0.049150776118040085, 0.04802459105849266, 0.04461764544248581, 0.055052872747182846, 0.05285900458693504, 0.07096472382545471, 0.08395203202962875, 0.05594637244939804, 0.045832354575395584, 0.041805900633335114, 0.038017064332962036, 0.04506366699934006, 0.0495484285056591, 0.058386728167533875, 0.057714417576789856, 0.05456018075346947, 0.0721212774515152, 0.0750625729560852, 0.0648934617638588, 0.05976619943976402, 0.05833227559924126, 0.07217715680599213, 0.09201090037822723, 0.0691085159778595, 0.06691806763410568, 0.06334057450294495, 0.07631475478410721, 0.0937006026506424, 0.07045267522335052, 0.06728886812925339, 0.06470786035060883, 0.04527701810002327, 0.049124155193567276, 0.06764448434114456, 0.0645994171500206, 0.06929002702236176, 0.13163791596889496, 0.17315272986888885, 0.11018157005310059, 0.12139565497636795, 0.12578880786895752, 0.09541352838277817, 0.1496942639350891, 0.18058443069458008, 0.20710352063179016, 0.2011573314666748, 0.1399693340063095, 0.11882021278142929, 0.09837476909160614, 0.09387101978063583, 0.09338712692260742, 0.10144583880901337, 0.09028565883636475, 0.09690524637699127, 0.10209264606237411, 0.11266713589429855, 0.10456961393356323]</t>
+          <t>[0.03809613361954689, 0.03589852899312973, 0.021442605182528496, 0.02869851514697075, 0.027987835928797722, 0.03282463550567627, 0.01591605320572853, 0.015057112090289593, 0.013524997048079967, 0.013504348695278168, 0.011715066619217396, 0.016384147107601166, 0.05437847599387169, 0.06188436597585678, 0.03704371675848961, 0.015063379891216755, 0.019486334174871445, 0.021034274250268936, 0.023697247728705406, 0.02492145262658596, 0.022393586114048958, 0.028122540563344955, 0.04384665936231613, 0.03134430944919586, 0.01978287659585476, 0.030775662511587143, 0.02279800921678543, 0.01881147176027298, 0.021212831139564514, 0.021204452961683273, 0.018048929050564766, 0.015090369619429111, 0.014892073348164558, 0.018374444916844368, 0.01919722557067871, 0.03610629215836525, 0.020318299531936646, 0.02558876946568489, 0.029068652540445328, 0.02872678078711033, 0.025310669094324112, 0.02926681376993656, 0.02560741826891899, 0.0303052868694067, 0.028171466663479805, 0.03537720441818237, 0.025773951783776283, 0.027709439396858215, 0.022481927648186684, 0.02687852829694748, 0.024650814011693, 0.023946961387991905, 0.025571897625923157, 0.02169543132185936, 0.02278744801878929, 0.022162631154060364, 0.009206215851008892, 0.009429353289306164, 0.009215111844241619, 0.009019470773637295, 0.007027746178209782, 0.010586204007267952, 0.013222082518041134, 0.012502592988312244, 0.01300372276455164, 0.01224022638052702, 0.009700828231871128, 0.013765477575361729, 0.013582463376224041, 0.020126808434724808, 0.022059019654989243, 0.013946842402219772, 0.01183474250137806, 0.010448023676872253, 0.009130471386015415, 0.012003239244222641, 0.013578707352280617, 0.01648671366274357, 0.016153546050190926, 0.01504144910722971, 0.023391513153910637, 0.03246593102812767, 0.023038137704133987, 0.020348723977804184, 0.019633382558822632, 0.026946377009153366, 0.037971485406160355, 0.027760867029428482, 0.03067571483552456, 0.02637728489935398, 0.037098534405231476, 0.05213357135653496, 0.03398018702864647, 0.029083963483572006, 0.0246603824198246, 0.01408630982041359, 0.014180350117385387, 0.021019384264945984, 0.020390620455145836, 0.022030971944332123, 0.05749255418777466, 0.05818823724985123, 0.04351413995027542, 0.049607351422309875, 0.04887360334396362, 0.034352995455265045, 0.05743610858917236, 0.08556769043207169, 0.10917350649833679, 0.11457651108503342, 0.054043687880039215, 0.05011702701449394, 0.039112403988838196, 0.035487547516822815, 0.03401333466172218, 0.037893179804086685, 0.027490895241498947, 0.029737018048763275, 0.032819170504808426, 0.04022439196705818, 0.03875558823347092]</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.2071035206317902</v>
+        <v>0.1145765110850334</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.6594722000008915</v>
+        <v>0.6726681000000099</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005450183471081747</v>
+        <v>0.00555924049586785</v>
       </c>
     </row>
     <row r="33">
@@ -1845,11 +1845,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[0.19295677542686462, 0.25231119990348816, 0.1739521622657776, 0.15021000802516937, 0.17746007442474365, 0.14992226660251617, 0.12655292451381683, 0.12019385397434235, 0.11439374089241028, 0.11517077684402466, 0.10905753076076508, 0.1849505603313446, 0.17027047276496887, 0.16846294701099396, 0.1468181610107422, 0.12493874132633209, 0.10188490152359009, 0.1607751101255417, 0.17520561814308167, 0.16894102096557617, 0.19410084187984467, 0.18767137825489044, 0.1683240383863449, 0.18697623908519745, 0.195632666349411, 0.1793174296617508, 0.18270458281040192, 0.17725731432437897, 0.17151784896850586, 0.16140934824943542, 0.14976482093334198, 0.15582793951034546, 0.16434346139431, 0.1757572591304779, 0.16339297592639923, 0.13228903710842133, 0.134124755859375, 0.14245615899562836, 0.15129417181015015, 0.13911743462085724, 0.1289931833744049, 0.12689292430877686, 0.10361091792583466, 0.10453946143388748, 0.10700029879808426, 0.11236736178398132, 0.12681658565998077, 0.14286254346370697, 0.14617761969566345, 0.15974842011928558, 0.15731464326381683, 0.1845754235982895, 0.20853325724601746, 0.23434486985206604, 0.24687440693378448, 0.2197525054216385, 0.15230917930603027, 0.1231057271361351, 0.1538439244031906, 0.13065233826637268, 0.18706431984901428, 0.26013657450675964, 0.20506909489631653, 0.1982942819595337, 0.17468056082725525, 0.13931196928024292, 0.13437290489673615, 0.13056974112987518, 0.12707698345184326, 0.1324358582496643, 0.1397138386964798, 0.17039602994918823, 0.1742938607931137, 0.18859392404556274, 0.18343909084796906, 0.19436901807785034, 0.15828698873519897, 0.15006123483181, 0.14828819036483765, 0.1411273181438446, 0.13809272646903992, 0.1405113786458969, 0.14886091649532318, 0.15559059381484985, 0.149640291929245, 0.1637200117111206, 0.16144666075706482, 0.14947952330112457, 0.154188871383667, 0.13911934196949005, 0.15020336210727692, 0.18401728570461273, 0.16567698121070862, 0.17151525616645813, 0.17188552021980286, 0.15093116462230682, 0.16427452862262726, 0.13308154046535492, 0.134285107254982, 0.13999925553798676, 0.12619242072105408, 0.1363610476255417, 0.16831882297992706, 0.17192992568016052, 0.1676413118839264, 0.18015815317630768, 0.18577450513839722, 0.1780916303396225, 0.17335867881774902, 0.17474675178527832, 0.17195340991020203, 0.17624711990356445, 0.1486150026321411, 0.16051027178764343, 0.14875897765159607, 0.18564119935035706, 0.20846666395664215, 0.19001616537570953, 0.1900797337293625, 0.19029028713703156, 0.15106330811977386]</t>
+          <t>[0.17005525529384613, 0.2016683667898178, 0.11789878457784653, 0.08382216840982437, 0.11114413291215897, 0.07001976668834686, 0.05891828238964081, 0.05486930161714554, 0.061600543558597565, 0.0636085793375969, 0.057567354291677475, 0.1539672166109085, 0.14237938821315765, 0.14573591947555542, 0.10531997680664062, 0.07901117205619812, 0.056962594389915466, 0.10531356185674667, 0.11468064039945602, 0.10418737679719925, 0.1774153709411621, 0.17013207077980042, 0.10243194550275803, 0.12480718642473221, 0.14836837351322174, 0.1156139075756073, 0.13892050087451935, 0.13750752806663513, 0.12814569473266602, 0.1060994490981102, 0.0749787762761116, 0.07417647540569305, 0.07801582664251328, 0.08057419955730438, 0.07137995958328247, 0.05234970524907112, 0.07392143458127975, 0.07928524911403656, 0.09398682415485382, 0.0803317129611969, 0.07283323258161545, 0.07342387735843658, 0.053654178977012634, 0.054421961307525635, 0.05570433288812637, 0.0668209046125412, 0.09598634392023087, 0.08680937439203262, 0.08435479551553726, 0.09701988101005554, 0.10412847250699997, 0.15586355328559875, 0.22751618921756744, 0.27464020252227783, 0.28696978092193604, 0.2905394434928894, 0.1191595271229744, 0.08053161203861237, 0.10652555525302887, 0.07826059311628342, 0.16692017018795013, 0.3837469816207886, 0.2302551567554474, 0.2148280292749405, 0.17170079052448273, 0.08573190122842789, 0.07628913223743439, 0.05812559649348259, 0.05544629693031311, 0.06127769500017166, 0.06730494648218155, 0.0828535184264183, 0.0818084105849266, 0.09286035597324371, 0.0872238427400589, 0.09253967553377151, 0.061678022146224976, 0.06384754925966263, 0.062493350356817245, 0.06307976692914963, 0.0521581806242466, 0.06156647950410843, 0.07283437997102737, 0.08081267029047012, 0.07996179163455963, 0.090765081346035, 0.09427790343761444, 0.072930246591568, 0.07521476596593857, 0.06005241721868515, 0.06687038391828537, 0.09793972969055176, 0.09553708881139755, 0.08820902556180954, 0.08903712034225464, 0.07191737741231918, 0.08229265362024307, 0.05531815439462662, 0.053793612867593765, 0.05725795030593872, 0.05302811041474342, 0.06373479962348938, 0.07101425528526306, 0.0814797431230545, 0.08438941836357117, 0.09008214622735977, 0.09261750429868698, 0.07653197646141052, 0.07974876463413239, 0.09085562825202942, 0.09104866534471512, 0.10071775317192078, 0.09028763324022293, 0.08936944603919983, 0.08985041081905365, 0.14494071900844574, 0.13237254321575165, 0.10501183569431305, 0.10252396762371063, 0.1043732762336731, 0.0717470794916153]</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2601365745067596</v>
+        <v>0.3837469816207886</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.6560795000114013</v>
+        <v>0.6549653999973089</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005422144628193399</v>
+        <v>0.005412937190060404</v>
       </c>
     </row>
     <row r="34">
@@ -1885,11 +1885,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[0.0684206634759903, 0.070237897336483, 0.07056806981563568, 0.063468798995018, 0.0722980871796608, 0.07705939561128616, 0.07396984845399857, 0.07191676646471024, 0.07293505221605301, 0.0716133788228035, 0.09811531007289886, 0.10478474944829941, 0.10224774479866028, 0.08177453279495239, 0.07983338832855225, 0.08556539565324783, 0.09247416257858276, 0.09873585402965546, 0.09204601496458054, 0.07231564819812775, 0.08349072933197021, 0.0835568830370903, 0.0827040746808052, 0.11041732132434845, 0.08366105705499649, 0.06370911002159119, 0.06469528377056122, 0.05966610834002495, 0.052647825330495834, 0.06076425313949585, 0.062391091138124466, 0.05793653801083565, 0.05531299114227295, 0.0505719855427742, 0.04726055637001991, 0.06797368824481964, 0.07376232743263245, 0.07627811282873154, 0.08757707476615906, 0.15057122707366943, 0.11174198240041733, 0.13371098041534424, 0.12777817249298096, 0.12610861659049988, 0.1475733369588852, 0.12560683488845825, 0.11470088362693787, 0.13219515979290009, 0.09414515644311905, 0.12759564816951752, 0.1456659734249115, 0.19096210598945618, 0.16183938086032867, 0.11476393043994904, 0.13624823093414307, 0.1289256066083908, 0.12389414012432098, 0.11729814857244492, 0.11182871460914612, 0.12396524101495743, 0.11902353912591934, 0.10938599705696106, 0.12285134941339493, 0.12834620475769043, 0.07363760471343994, 0.06211474910378456, 0.06737028062343597, 0.0691453143954277, 0.06602448225021362, 0.07488436251878738, 0.06994028389453888, 0.06590089201927185, 0.061696603894233704, 0.07026265561580658, 0.06620211899280548, 0.06691623479127884, 0.06086289882659912, 0.06545337289571762, 0.06622736901044846, 0.05939145386219025, 0.060725439339876175, 0.05792383849620819, 0.06066560000181198, 0.08209104835987091, 0.0825348049402237, 0.06982003152370453, 0.06903143227100372, 0.06605256348848343, 0.06781813502311707, 0.06407838314771652, 0.06260930001735687, 0.06277063488960266, 0.05503296107053757, 0.054239243268966675, 0.06327833235263824, 0.06515980511903763, 0.06396748870611191, 0.06483893096446991, 0.08278216421604156, 0.07193825393915176, 0.0967492088675499, 0.10774523764848709, 0.10555892437696457, 0.09475141763687134, 0.1301741898059845, 0.11592066287994385, 0.12449678778648376, 0.13419491052627563, 0.15607678890228271, 0.09617704898118973, 0.11861729621887207, 0.1207355409860611, 0.1413988620042801, 0.1044691950082779, 0.11337412893772125, 0.09525231271982193, 0.08623693883419037, 0.09768166393041611, 0.09094417095184326, 0.07031592726707458, 0.07076171040534973]</t>
+          <t>[0.05030001327395439, 0.05653674155473709, 0.0552724152803421, 0.0460442490875721, 0.05421454459428787, 0.05375860258936882, 0.047161612659692764, 0.05201553925871849, 0.052270956337451935, 0.05204574018716812, 0.08817099034786224, 0.10099156200885773, 0.12705956399440765, 0.08226165920495987, 0.09488341212272644, 0.07961133867502213, 0.08131705224514008, 0.0956006571650505, 0.07393807172775269, 0.06279578059911728, 0.09003941714763641, 0.08944465965032578, 0.0913766548037529, 0.16298983991146088, 0.06795531511306763, 0.04071531444787979, 0.04433675855398178, 0.04075397551059723, 0.02834073081612587, 0.030816232785582542, 0.031134169548749924, 0.029389072209596634, 0.02649148553609848, 0.027833279222249985, 0.02261887677013874, 0.031919315457344055, 0.03646913915872574, 0.037407245486974716, 0.059205472469329834, 0.14965476095676422, 0.1005423292517662, 0.16209948062896729, 0.14565066993236542, 0.17410743236541748, 0.2480049580335617, 0.16906112432479858, 0.14657074213027954, 0.182756707072258, 0.09532182663679123, 0.16319714486598969, 0.1784590482711792, 0.25039538741111755, 0.20769837498664856, 0.10579530894756317, 0.123619943857193, 0.11768200248479843, 0.10344260185956955, 0.09935619682073593, 0.08144830912351608, 0.101631760597229, 0.10667075961828232, 0.09017691761255264, 0.11816082894802094, 0.11642663925886154, 0.03851703554391861, 0.029373299330472946, 0.03406963869929314, 0.03326500952243805, 0.031236805021762848, 0.0443352647125721, 0.04986231401562691, 0.04157445579767227, 0.03485289588570595, 0.0420791357755661, 0.03990425169467926, 0.04122801125049591, 0.03570273891091347, 0.038967013359069824, 0.03387192636728287, 0.026560239493846893, 0.027612412348389626, 0.028251631185412407, 0.031653713434934616, 0.060292456299066544, 0.06215021759271622, 0.044808000326156616, 0.041483551263809204, 0.038475681096315384, 0.03809962794184685, 0.04040239751338959, 0.04314134269952774, 0.03963012620806694, 0.031168699264526367, 0.03232385963201523, 0.03876709192991257, 0.04017544165253639, 0.038381535559892654, 0.04507660120725632, 0.05983983725309372, 0.048505749553442, 0.07095932215452194, 0.08123347908258438, 0.08305607736110687, 0.06371204555034637, 0.09801211208105087, 0.0733521580696106, 0.08350985497236252, 0.09440915286540985, 0.10772348195314407, 0.054417647421360016, 0.06816913187503815, 0.07335752248764038, 0.09886136651039124, 0.06618291884660721, 0.06390693038702011, 0.051096025854349136, 0.04898061975836754, 0.06036360189318657, 0.061127763241529465, 0.04791855439543724, 0.052016016095876694]</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1909621059894562</v>
+        <v>0.2503953874111176</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1903,10 +1903,10 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.6542649999901187</v>
+        <v>0.6558625000034226</v>
       </c>
       <c r="J34" t="n">
-        <v>0.005407148760248915</v>
+        <v>0.005420351239697707</v>
       </c>
     </row>
     <row r="35">
@@ -1925,11 +1925,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[0.04372263327240944, 0.04401267319917679, 0.04294166713953018, 0.0480504110455513, 0.0614749975502491, 0.06373035162687302, 0.06568149477243423, 0.07679559290409088, 0.08853001892566681, 0.05608581751585007, 0.0628833919763565, 0.06080130487680435, 0.0694914385676384, 0.0827200636267662, 0.1396917700767517, 0.1312883049249649, 0.11141611635684967, 0.0708838477730751, 0.06696897000074387, 0.06043801084160805, 0.06007341295480728, 0.05181288719177246, 0.05980899930000305, 0.06428977847099304, 0.06588868051767349, 0.0638289600610733, 0.05994373559951782, 0.06401833146810532, 0.07542525231838226, 0.08520469069480896, 0.0842970460653305, 0.08077725768089294, 0.07785335928201675, 0.06396623700857162, 0.06348545104265213, 0.06593886762857437, 0.0626354068517685, 0.09409111738204956, 0.12203068286180496, 0.09840836375951767, 0.09882323443889618, 0.09703755378723145, 0.08204745501279831, 0.06434568762779236, 0.06827551871538162, 0.06243057921528816, 0.06026099994778633, 0.061349429190158844, 0.07010827958583832, 0.08023829758167267, 0.07597750425338745, 0.0798877626657486, 0.08730857819318771, 0.09442158043384552, 0.09938021004199982, 0.10632353276014328, 0.10655410587787628, 0.10179286450147629, 0.10670677572488785, 0.1081242635846138, 0.0991508737206459, 0.09809484332799911, 0.09777916222810745, 0.11484530568122864, 0.10488519817590714, 0.1104540005326271, 0.10683073103427887, 0.0810873955488205, 0.07935686409473419, 0.0831785574555397, 0.0838807076215744, 0.08035054057836533, 0.07789089530706406, 0.0808417871594429, 0.10252444446086884, 0.10423630475997925, 0.10336090624332428, 0.14517366886138916, 0.09123164415359497, 0.09016834944486618, 0.09222434461116791, 0.08059734851121902, 0.0603494867682457, 0.06035299599170685, 0.07925448566675186, 0.07594563812017441, 0.0742257684469223, 0.058580778539180756, 0.09295623749494553, 0.100166916847229, 0.11207801103591919, 0.10314857959747314, 0.08154571801424026, 0.07129883766174316, 0.05428382754325867, 0.05632423609495163, 0.06796306371688843, 0.07928471267223358, 0.07823111861944199, 0.08176086843013763, 0.0803983211517334, 0.08533662557601929, 0.07639797776937485, 0.07229050993919373, 0.07228203862905502, 0.067296102643013, 0.07009532302618027, 0.08056798577308655, 0.0759337916970253, 0.07817614823579788, 0.07693096995353699, 0.07668542116880417, 0.0792791098356247, 0.08378645032644272, 0.08620058745145798, 0.08910298347473145, 0.0892539992928505, 0.09454678744077682, 0.09838395565748215, 0.0968511551618576, 0.09602658450603485]</t>
+          <t>[0.023110009729862213, 0.02016298472881317, 0.015736473724246025, 0.023122215643525124, 0.03176736831665039, 0.033919744193553925, 0.03641056269407272, 0.0485868826508522, 0.05451061576604843, 0.03336698189377785, 0.041839599609375, 0.041586123406887054, 0.05187175050377846, 0.07048618048429489, 0.22092106938362122, 0.14571785926818848, 0.11377551406621933, 0.05927639454603195, 0.03999733552336693, 0.03587866947054863, 0.03078543394804001, 0.02247033640742302, 0.033922940492630005, 0.049953047186136246, 0.05690208077430725, 0.05682767555117607, 0.047670647501945496, 0.047142691910266876, 0.07566368579864502, 0.088652603328228, 0.09362119436264038, 0.09101101756095886, 0.07879118621349335, 0.060804177075624466, 0.059114620089530945, 0.059938278049230576, 0.05332823097705841, 0.09721534699201584, 0.12799383699893951, 0.08651769161224365, 0.08411265909671783, 0.08549338579177856, 0.07990097999572754, 0.0500570647418499, 0.05169636011123657, 0.045559003949165344, 0.03885887563228607, 0.037589654326438904, 0.04138346388936043, 0.04783635213971138, 0.045949503779411316, 0.050436001271009445, 0.06154320016503334, 0.07657948136329651, 0.07225494086742401, 0.0799875408411026, 0.08443255722522736, 0.07659365236759186, 0.09003425389528275, 0.08857501298189163, 0.07240355759859085, 0.07193998992443085, 0.07082008570432663, 0.11022112518548965, 0.10329050570726395, 0.1126590222120285, 0.10421385616064072, 0.08920405060052872, 0.06357566267251968, 0.06230548396706581, 0.06387408077716827, 0.059539202600717545, 0.05245380476117134, 0.05022216588258743, 0.0908951386809349, 0.0963161438703537, 0.11013402044773102, 0.18280163407325745, 0.08638971298933029, 0.07726132869720459, 0.07896190881729126, 0.05760287865996361, 0.02852887287735939, 0.025204749777913094, 0.03996846452355385, 0.03634299710392952, 0.03670468181371689, 0.023255329579114914, 0.0639888197183609, 0.0748719573020935, 0.09648896008729935, 0.08893100172281265, 0.053128935396671295, 0.03629040718078613, 0.02210194431245327, 0.024300845339894295, 0.03341648727655411, 0.054252296686172485, 0.06298831105232239, 0.06645466387271881, 0.06160448119044304, 0.07079558074474335, 0.05959853529930115, 0.05855441093444824, 0.061140596866607666, 0.051958538591861725, 0.05732785537838936, 0.06243931129574776, 0.06138245761394501, 0.059983398765325546, 0.06016087904572487, 0.05878989398479462, 0.062088366597890854, 0.0706702470779419, 0.07940907031297684, 0.08362050354480743, 0.08254212141036987, 0.09339477121829987, 0.10315047949552536, 0.08922100812196732, 0.08827614039182663]</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1451736688613892</v>
+        <v>0.2209210693836212</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0.6510242999938782</v>
+        <v>0.6484945999982301</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005380366115651886</v>
+        <v>0.005359459504117604</v>
       </c>
     </row>
     <row r="36">
@@ -1965,11 +1965,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[0.4334397614002228, 0.4576789140701294, 0.4587220549583435, 0.5946275591850281, 0.5650410056114197, 0.7023884057998657, 0.451755166053772, 0.3901652991771698, 0.40056318044662476, 0.32847127318382263, 0.25486689805984497, 0.21911390125751495, 0.24277125298976898, 0.2952421009540558, 0.2408083826303482, 0.29560279846191406, 0.36349067091941833, 0.36365726590156555, 0.3869354724884033, 0.4238036572933197, 0.5870676636695862, 0.7392410039901733, 0.6337320804595947, 0.6236721873283386, 0.6659406423568726, 0.524202287197113, 0.4889858663082123, 0.45545440912246704, 0.44312989711761475, 0.5543574094772339, 0.40287283062934875, 0.45938679575920105, 0.5706402063369751, 0.5727006196975708, 0.4759860932826996, 0.7826778292655945, 0.794915497303009, 0.7907758355140686, 0.768119215965271, 0.7782027125358582, 0.27059200406074524, 0.35136547684669495, 0.39406782388687134, 0.36391955614089966, 0.44210225343704224, 0.4060676693916321, 0.37697598338127136, 0.3783118426799774, 0.358508825302124, 0.31568828225135803, 0.40405139327049255, 0.42899784445762634, 0.4833836555480957, 0.43452081084251404, 0.3593979775905609, 0.38241398334503174, 0.3056715130805969, 0.37118497490882874, 0.37152746319770813, 0.4195358157157898, 0.3444991409778595, 0.3639049828052521, 0.3558616042137146, 0.36851930618286133, 0.42672622203826904, 0.3671098053455353, 0.4181808829307556, 0.41229334473609924, 0.38318827748298645, 0.34551501274108887, 0.3793618381023407, 0.39867451786994934, 0.3889361023902893, 0.387871116399765, 0.45962104201316833, 0.3970615863800049, 0.40198999643325806, 0.31160932779312134, 0.3078458309173584, 0.30191218852996826, 0.2746303677558899, 0.3720972537994385, 0.39978086948394775, 0.44861462712287903, 0.5041385293006897, 0.40683597326278687, 0.46916767954826355, 0.47406941652297974, 0.43560612201690674, 0.5205407738685608, 0.6154143810272217, 0.5761243104934692, 0.581275224685669, 0.540481448173523, 0.6870900392532349, 0.9010106325149536, 0.9057249426841736, 0.8797178864479065, 0.808609664440155, 0.7017055749893188, 0.585989236831665, 0.5213127732276917, 0.5032888054847717, 0.4484255313873291, 0.48314368724823, 0.5877751111984253, 0.7563605308532715, 0.7748124599456787, 0.7999752759933472, 0.7326583862304688, 0.5939335227012634, 0.7737707495689392, 0.7791961431503296, 0.7775782942771912, 0.8790853023529053, 0.9074913859367371, 0.748840868473053, 0.6272752285003662, 0.5482394695281982, 0.7577486038208008, 0.9048835635185242]</t>
+          <t>[0.49807313084602356, 0.4977741241455078, 0.5028401017189026, 0.6503448486328125, 0.6231099963188171, 0.653170645236969, 0.4731856882572174, 0.40924519300460815, 0.42259249091148376, 0.3513616919517517, 0.23955194652080536, 0.2371920496225357, 0.24910196661949158, 0.31649184226989746, 0.2787984311580658, 0.26015400886535645, 0.3183443248271942, 0.3311905264854431, 0.3548385202884674, 0.39966171979904175, 0.5965981483459473, 0.758401095867157, 0.6267009973526001, 0.596865177154541, 0.6487826108932495, 0.5010854005813599, 0.4661147892475128, 0.46595919132232666, 0.4457648694515228, 0.5375945568084717, 0.38684001564979553, 0.3949398696422577, 0.5027864575386047, 0.48749080300331116, 0.4375934600830078, 0.6704947352409363, 0.7786762714385986, 0.7566754221916199, 0.7463879585266113, 0.719398021697998, 0.22342374920845032, 0.3198345899581909, 0.37192633748054504, 0.35949862003326416, 0.3771785795688629, 0.3414200246334076, 0.38295263051986694, 0.39728450775146484, 0.37215787172317505, 0.35432085394859314, 0.41353556513786316, 0.379187673330307, 0.4341157376766205, 0.3990466296672821, 0.32489287853240967, 0.28289613127708435, 0.22283995151519775, 0.28554272651672363, 0.2916049063205719, 0.3666912615299225, 0.2968067526817322, 0.38163745403289795, 0.3843449354171753, 0.38306471705436707, 0.39441585540771484, 0.3668910562992096, 0.39453378319740295, 0.3798745572566986, 0.36717718839645386, 0.263698011636734, 0.34087780117988586, 0.3619973957538605, 0.3411027193069458, 0.33453747630119324, 0.4065326154232025, 0.3673437237739563, 0.3859298527240753, 0.307081937789917, 0.3316974341869354, 0.3101414144039154, 0.2911626100540161, 0.3444087505340576, 0.36428752541542053, 0.43729063868522644, 0.5087569355964661, 0.43767985701560974, 0.4991287291049957, 0.5348129868507385, 0.561127781867981, 0.640823483467102, 0.6248885989189148, 0.580880880355835, 0.6332303881645203, 0.5523934960365295, 0.724531352519989, 0.8774476051330566, 0.8645123243331909, 0.826718270778656, 0.7354522943496704, 0.6114963889122009, 0.5947123169898987, 0.5545674562454224, 0.5552757382392883, 0.4489148259162903, 0.4575510621070862, 0.6509361863136292, 0.760862410068512, 0.7726361751556396, 0.8130112886428833, 0.7740136981010437, 0.6728048324584961, 0.7476952075958252, 0.7775158882141113, 0.7588499784469604, 0.8515088558197021, 0.874234139919281, 0.821878969669342, 0.7264719009399414, 0.6297237277030945, 0.7707860469818115, 0.8687736988067627]</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.9074913859367371</v>
+        <v>0.8774476051330566</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1983,10 +1983,10 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0.6733053999778349</v>
+        <v>0.6845934000011766</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005564507437833347</v>
+        <v>0.0056577966942246</v>
       </c>
     </row>
     <row r="37">
@@ -2005,11 +2005,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[0.4853585958480835, 0.5173922181129456, 0.5030426979064941, 0.7927864193916321, 0.7365910410881042, 0.7588698863983154, 0.8245449066162109, 0.8717730045318604, 0.5895647406578064, 0.5157800912857056, 0.3575914204120636, 0.3039104640483856, 0.34177151322364807, 0.23900890350341797, 0.11177684366703033, 0.10351452231407166, 0.11765069514513016, 0.2413560152053833, 0.1593727171421051, 0.20165923237800598, 0.2630039155483246, 0.2561073303222656, 0.33156582713127136, 0.6524486541748047, 0.7800865769386292, 0.7329159379005432, 0.6900423765182495, 0.5340709090232849, 0.4294545650482178, 0.468142569065094, 0.37768295407295227, 0.36402130126953125, 0.3046070337295532, 0.34563928842544556, 0.3705753982067108, 0.3385045528411865, 0.2812817692756653, 0.2933882474899292, 0.21260854601860046, 0.37766411900520325, 0.40765365958213806, 0.38788291811943054, 0.2830105423927307, 0.23384761810302734, 0.6827971935272217, 0.8619822859764099, 0.8336742520332336, 0.8235136270523071, 0.5464008450508118, 0.4499273896217346, 0.332956463098526, 0.30715301632881165, 0.18738655745983124, 0.09665460884571075, 0.21314814686775208, 0.2864926755428314, 0.3178291320800781, 0.2718825340270996, 0.46605774760246277, 0.25405800342559814, 0.24982640147209167, 0.2567957639694214, 0.31240296363830566, 0.34858518838882446, 0.45184221863746643, 0.36102089285850525, 0.3327052891254425, 0.31507956981658936, 0.3492681682109833, 0.23829056322574615, 0.23002557456493378, 0.25497981905937195, 0.3112918436527252, 0.3237009644508362, 0.2808888554573059, 0.30876538157463074, 0.30139029026031494, 0.2263515740633011, 0.2724749743938446, 0.5748374462127686, 0.6351774334907532, 0.6426163911819458, 0.441576212644577, 0.6891024112701416, 0.9412015080451965, 0.8294292092323303, 0.8216261863708496, 0.5799736380577087, 0.6204900145530701, 0.589304506778717, 0.6357149481773376, 0.5979852676391602, 0.7209724187850952, 0.7685210108757019, 0.3670964539051056, 0.3404935300350189, 0.34293609857559204, 0.4833143949508667, 0.3053191602230072, 0.25454193353652954, 0.3408868908882141, 0.3130039572715759, 0.2953068017959595, 0.2500847578048706, 0.29110822081565857, 0.29502901434898376, 0.32301065325737, 0.3340323269367218, 0.19807173311710358, 0.2606653869152069, 0.39642593264579773, 0.35210350155830383, 0.3474883735179901, 0.40179869532585144, 0.45298534631729126, 0.4490596055984497, 0.5140575766563416, 0.49515610933303833, 0.27442115545272827, 0.2987082004547119, 0.2965187728404999]</t>
+          <t>[0.36211878061294556, 0.36442211270332336, 0.356556236743927, 0.6391641497612, 0.6142404079437256, 0.6500142216682434, 0.6980820298194885, 0.7878962755203247, 0.44996050000190735, 0.3870735168457031, 0.2329426258802414, 0.15912416577339172, 0.1720302850008011, 0.14834067225456238, 0.06873134523630142, 0.061846159398555756, 0.0679025948047638, 0.1450091302394867, 0.09721222519874573, 0.12686936557292938, 0.1984655112028122, 0.18876080214977264, 0.2653018534183502, 0.3460688292980194, 0.4954244792461395, 0.4445580840110779, 0.4403528869152069, 0.34848642349243164, 0.26215487718582153, 0.2646380662918091, 0.23271030187606812, 0.20613564550876617, 0.1490452140569687, 0.1839544177055359, 0.23020033538341522, 0.184043750166893, 0.14771464467048645, 0.18997694551944733, 0.18289849162101746, 0.2661490738391876, 0.27063268423080444, 0.2425931990146637, 0.1390077769756317, 0.11368148773908615, 0.51497882604599, 0.693476140499115, 0.6612851023674011, 0.6110466122627258, 0.288066565990448, 0.20097801089286804, 0.14174412190914154, 0.13417422771453857, 0.07853240519762039, 0.038914214819669724, 0.09687499701976776, 0.13574470579624176, 0.17298297584056854, 0.133970707654953, 0.3100503981113434, 0.14214378595352173, 0.13199852406978607, 0.1416010558605194, 0.20842498540878296, 0.22511273622512817, 0.23750858008861542, 0.17066042125225067, 0.15293344855308533, 0.14891068637371063, 0.1824924647808075, 0.16711753606796265, 0.15005122125148773, 0.1776963323354721, 0.21269488334655762, 0.22363784909248352, 0.15991456806659698, 0.19630925357341766, 0.17796160280704498, 0.0878731906414032, 0.1219601035118103, 0.36568233370780945, 0.3970077633857727, 0.4251879155635834, 0.2108370065689087, 0.45536932349205017, 0.8364595174789429, 0.5231450796127319, 0.5078833699226379, 0.36839285492897034, 0.5763747096061707, 0.49913692474365234, 0.5559571385383606, 0.5130832195281982, 0.5309831500053406, 0.48691311478614807, 0.20260624587535858, 0.1675918847322464, 0.1732906699180603, 0.23442010581493378, 0.14350683987140656, 0.11544091999530792, 0.19616971909999847, 0.17783430218696594, 0.1622118502855301, 0.1439245492219925, 0.13993002474308014, 0.16022233664989471, 0.18877534568309784, 0.20191915333271027, 0.12668421864509583, 0.1972101777791977, 0.3143072724342346, 0.3014856278896332, 0.28787583112716675, 0.3250860273838043, 0.4001421332359314, 0.41614603996276855, 0.4931458532810211, 0.41841065883636475, 0.1596003621816635, 0.188473179936409, 0.1783728003501892]</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.9412015080451965</v>
+        <v>0.8364595174789429</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0.688148099987302</v>
+        <v>0.68734219999169</v>
       </c>
       <c r="J37" t="n">
-        <v>0.005687174380060347</v>
+        <v>0.005680514049518099</v>
       </c>
     </row>
     <row r="38">
@@ -2045,11 +2045,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[0.19047811627388, 0.27262750267982483, 0.30685439705848694, 0.3501623272895813, 0.42510467767715454, 0.3718089163303375, 0.2665351927280426, 0.2197621911764145, 0.19405530393123627, 0.23461680114269257, 0.34203025698661804, 0.2143099159002304, 0.17977717518806458, 0.18413850665092468, 0.26761990785598755, 0.4851278066635132, 0.44398173689842224, 0.4874240756034851, 0.5068790912628174, 0.414752334356308, 0.6251618266105652, 0.47487562894821167, 0.5814849734306335, 0.5367622971534729, 0.471067875623703, 0.5977778434753418, 0.6059536337852478, 0.5671738386154175, 0.5544314980506897, 0.7099901437759399, 0.6225864291191101, 0.19198019802570343, 0.16530677676200867, 0.19556041061878204, 0.1393284946680069, 0.0772504135966301, 0.08804137259721756, 0.10483018308877945, 0.11752539873123169, 0.15874382853507996, 0.1631758064031601, 0.1478443592786789, 0.13351644575595856, 0.11706811934709549, 0.11849485337734222, 0.12955354154109955, 0.2609153091907501, 0.20899280905723572, 0.18869277834892273, 0.18008601665496826, 0.279817134141922, 0.23984494805335999, 0.15341098606586456, 0.14421036839485168, 0.08215858787298203, 0.12518064677715302, 0.1029602661728859, 0.11093658953905106, 0.12069015949964523, 0.1812392771244049, 0.319019079208374, 0.4368332624435425, 0.4908201992511749, 0.4180602729320526, 0.503257155418396, 0.31310001015663147, 0.24185098707675934, 0.3121289610862732, 0.3169030547142029, 0.323304682970047, 0.2865551710128784, 0.8045319318771362, 0.8534378409385681, 0.8369297385215759, 0.8455330729484558, 0.8090628385543823, 0.6440578699111938, 0.49774158000946045, 0.5769129991531372, 0.6163497567176819, 0.4537290632724762, 0.5094838738441467, 0.6635792851448059, 0.5261123180389404, 0.26631611585617065, 0.3132624328136444, 0.5928125977516174, 0.7334417104721069, 0.8256891369819641, 0.781018078327179, 0.7882653474807739, 0.5919328927993774, 0.5036331415176392, 0.43834301829338074, 0.3681562840938568, 0.6469632983207703, 0.25286322832107544, 0.24769243597984314, 0.2822495102882385, 0.3117077350616455, 0.3039034605026245, 0.35002219676971436, 0.34818798303604126, 0.4207301735877991, 0.4928564131259918, 0.6992709636688232, 0.5975481271743774, 0.6331753134727478, 0.7532885074615479, 0.6924121379852295, 0.5513120889663696, 0.5576770901679993, 0.4899868667125702, 0.4280271530151367, 0.4106774926185608, 0.13215669989585876, 0.3435550630092621, 0.37024715542793274, 0.39817652106285095, 0.330048143863678, 0.2932824194431305, 0.4023324251174927]</t>
+          <t>[0.18947985768318176, 0.21550440788269043, 0.2537029981613159, 0.2845245897769928, 0.35390806198120117, 0.3434073030948639, 0.3068063259124756, 0.26330259442329407, 0.2578805685043335, 0.2914462089538574, 0.39340075850486755, 0.27401190996170044, 0.21332472562789917, 0.20641526579856873, 0.27940481901168823, 0.48945844173431396, 0.42646729946136475, 0.5190743207931519, 0.5593337416648865, 0.4949396252632141, 0.6296972036361694, 0.44832131266593933, 0.5305043458938599, 0.50267094373703, 0.4646030068397522, 0.5661888718605042, 0.5621659755706787, 0.5545787811279297, 0.5374724864959717, 0.7147679924964905, 0.6563547849655151, 0.2522992193698883, 0.19681674242019653, 0.2372828722000122, 0.2208992838859558, 0.10046002268791199, 0.11857982724905014, 0.14633949100971222, 0.17561882734298706, 0.16950160264968872, 0.1460573971271515, 0.14414513111114502, 0.11270706355571747, 0.10786851495504379, 0.13465683162212372, 0.12440866976976395, 0.22695648670196533, 0.1712905466556549, 0.15649119019508362, 0.11332325637340546, 0.24740706384181976, 0.21627791225910187, 0.12358061969280243, 0.09735597670078278, 0.03560083732008934, 0.0583820566534996, 0.04400721192359924, 0.053117357194423676, 0.05398327484726906, 0.09991990774869919, 0.19882027804851532, 0.3264768719673157, 0.34117522835731506, 0.28828129172325134, 0.39251720905303955, 0.20957809686660767, 0.14210298657417297, 0.2098943591117859, 0.21364110708236694, 0.23287369310855865, 0.1714930534362793, 0.5369579792022705, 0.5942241549491882, 0.5724525451660156, 0.6176496744155884, 0.7026876211166382, 0.5579719543457031, 0.41618308424949646, 0.5046944618225098, 0.5363094210624695, 0.49583640694618225, 0.5975921750068665, 0.7343757152557373, 0.584995687007904, 0.2792584002017975, 0.44821232557296753, 0.6117566823959351, 0.7355194091796875, 0.8140590190887451, 0.7832897305488586, 0.7530819773674011, 0.47025826573371887, 0.39340806007385254, 0.3517243266105652, 0.3445208966732025, 0.6074137091636658, 0.12634776532649994, 0.1238582581281662, 0.15525686740875244, 0.21960172057151794, 0.13538752496242523, 0.22872263193130493, 0.18830326199531555, 0.25222644209861755, 0.40951573848724365, 0.7005192637443542, 0.5479438900947571, 0.5940929651260376, 0.6739869713783264, 0.6151735186576843, 0.40084436535835266, 0.46402668952941895, 0.40649503469467163, 0.35491275787353516, 0.2790353000164032, 0.07772236317396164, 0.15702158212661743, 0.15387378633022308, 0.19319328665733337, 0.158207505941391, 0.15033341944217682, 0.19625133275985718]</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.8534378409385681</v>
+        <v>0.8140590190887451</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0.6901735000137705</v>
+        <v>0.6973995000007562</v>
       </c>
       <c r="J38" t="n">
-        <v>0.005657159836178447</v>
+        <v>0.005716389344268494</v>
       </c>
     </row>
     <row r="39">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[0.28519943356513977, 0.42353060841560364, 0.6783843636512756, 0.46799591183662415, 0.5046847462654114, 0.688118577003479, 0.8944621086120605, 0.6496996879577637, 0.894957423210144, 0.5333203077316284, 0.7833207845687866, 0.8361719846725464, 0.9216893315315247, 0.6035017371177673, 0.31550630927085876, 0.523547351360321, 0.8575885891914368, 0.932048499584198, 0.7941002249717712, 0.302039235830307, 0.6169438362121582, 0.8784037232398987, 0.7926866412162781, 0.46491876244544983, 0.38498592376708984, 0.2832883298397064, 0.24487949907779694, 0.3667992651462555, 0.21431846916675568, 0.16367480158805847, 0.21365724503993988, 0.34781354665756226, 0.3866748809814453, 0.27475643157958984, 0.35687312483787537, 0.8570349216461182, 0.35923606157302856, 0.6831533908843994, 0.313751220703125, 0.4976236820220947, 0.2456374317407608, 0.5333824753761292, 0.3800865113735199, 0.3405819535255432, 0.6151041984558105, 0.5186564326286316, 0.31653180718421936, 0.21463192999362946, 0.25674885511398315, 0.3687576949596405, 0.34490787982940674, 0.5002972483634949, 0.7156639695167542, 0.21977798640727997, 0.9010761380195618, 0.43853020668029785, 0.43633466958999634, 0.4470202326774597, 0.16369517147541046, 0.25304216146469116, 0.21531762182712555, 0.17495331168174744, 0.19450335204601288, 0.16114521026611328, 0.24855288863182068, 0.22016727924346924, 0.35987991094589233, 0.6132961511611938, 0.7220563292503357, 0.7026018500328064, 0.6511731147766113, 0.8367035388946533, 0.6784458160400391, 0.7256618142127991, 0.3239488899707794, 0.2752539813518524, 0.23718979954719543, 0.9569138288497925, 0.964913547039032, 0.47876399755477905, 0.24675393104553223, 0.29982131719589233, 0.233912855386734, 0.42340484261512756, 0.21090391278266907, 0.1135115846991539, 0.22850088775157928, 0.12434609979391098, 0.24216710031032562, 0.10997755080461502, 0.11814020574092865, 0.16904576122760773, 0.2777477502822876, 0.45601925253868103, 0.3171480894088745, 0.317552775144577, 0.2034308910369873, 0.4015730023384094, 0.5539930462837219, 0.20173458755016327, 0.2345775067806244, 0.7158453464508057, 0.6579188704490662, 0.7102319002151489, 0.2623072862625122, 0.4743002653121948, 0.30999770760536194, 0.16609762609004974, 0.5952701568603516, 0.5048940777778625, 0.5326532125473022, 0.5710079669952393, 0.694330096244812, 0.37347540259361267, 0.23277142643928528, 0.4942934513092041, 0.5630050301551819, 0.5177325010299683, 0.6548579931259155, 0.6599698662757874, 0.6115149855613708, 0.5057264566421509, 0.29433196783065796, 0.49792954325675964, 0.507296085357666, 0.6145193576812744, 0.691911518573761, 0.361780047416687, 0.44771715998649597, 0.42751702666282654, 0.28153160214424133, 0.2816639244556427]</t>
+          <t>[0.14369334280490875, 0.2805692255496979, 0.5353090763092041, 0.37087684869766235, 0.5304721593856812, 0.611921489238739, 0.8173646926879883, 0.43727731704711914, 0.8031217455863953, 0.3960827887058258, 0.6202473044395447, 0.6584945917129517, 0.9022016525268555, 0.304090678691864, 0.13010480999946594, 0.17486019432544708, 0.5913004279136658, 0.9325149655342102, 0.7769452333450317, 0.16993223130702972, 0.5261116623878479, 0.8990752696990967, 0.7611658573150635, 0.46386951208114624, 0.1607891321182251, 0.267039954662323, 0.134041428565979, 0.2766548991203308, 0.08675578981637955, 0.055590882897377014, 0.11364605277776718, 0.2567654252052307, 0.23098213970661163, 0.11375416815280914, 0.12416041642427444, 0.6860281229019165, 0.13731183111667633, 0.47302302718162537, 0.12216440588235855, 0.2511313855648041, 0.10898479074239731, 0.29759466648101807, 0.1270698457956314, 0.10454098135232925, 0.3459424674510956, 0.24022682011127472, 0.12587028741836548, 0.06875164061784744, 0.0628548413515091, 0.13518527150154114, 0.14336057007312775, 0.1334104686975479, 0.4002760946750641, 0.04125481843948364, 0.7787219882011414, 0.16745349764823914, 0.10523409396409988, 0.08022891730070114, 0.08279956877231598, 0.14254984259605408, 0.05738842487335205, 0.08799441903829575, 0.05777107924222946, 0.04057878628373146, 0.05927393212914467, 0.04565907642245293, 0.11605384200811386, 0.37960007786750793, 0.5062199234962463, 0.6741830706596375, 0.4956572651863098, 0.5414480566978455, 0.4319950342178345, 0.540594756603241, 0.10248517990112305, 0.10726908594369888, 0.07489261776208878, 0.9689512252807617, 0.9538483619689941, 0.34343934059143066, 0.17578637599945068, 0.27196916937828064, 0.161118283867836, 0.26673465967178345, 0.06128346547484398, 0.029461238533258438, 0.07473268359899521, 0.03738468140363693, 0.05399472266435623, 0.02821650169789791, 0.026538899168372154, 0.05660560354590416, 0.09207653999328613, 0.23159298300743103, 0.10512572526931763, 0.0794510468840599, 0.05891406536102295, 0.1858164519071579, 0.35812729597091675, 0.0729195773601532, 0.06638006120920181, 0.5321462750434875, 0.43411725759506226, 0.5357270240783691, 0.11832503974437714, 0.2888046205043793, 0.1900874674320221, 0.05561155453324318, 0.33371129631996155, 0.21782003343105316, 0.29092785716056824, 0.3176480829715729, 0.4826653301715851, 0.11854913085699081, 0.08035439997911453, 0.2802313268184662, 0.26040077209472656, 0.2032289057970047, 0.28823134303092957, 0.46664124727249146, 0.3828764259815216, 0.2556527554988861, 0.11623013019561768, 0.36163467168807983, 0.31560420989990234, 0.31259486079216003, 0.5632642507553101, 0.16440533101558685, 0.2155744582414627, 0.13265641033649445, 0.12534014880657196, 0.12509988248348236]</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.964913547039032</v>
+        <v>0.9689512252807617</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0.8837418000039179</v>
+        <v>0.8740638999879593</v>
       </c>
       <c r="J39" t="n">
-        <v>0.006695013636393317</v>
+        <v>0.006621696212029995</v>
       </c>
     </row>
     <row r="40">
@@ -2125,11 +2125,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[0.33698728680610657, 0.1046975627541542, 0.028471671044826508, 0.04248305410146713, 0.9611305594444275, 0.6709413528442383, 0.04547441750764847, 0.05896816775202751, 0.05265920236706734, 0.06665285676717758, 0.1100747212767601, 0.06336963176727295, 0.061363231390714645, 0.05596892163157463, 0.09513388574123383, 0.046411387622356415, 0.07818049937486649, 0.05315146595239639, 0.04961840435862541, 0.05745747685432434, 0.03775980323553085, 0.07645902037620544, 0.1085302084684372, 0.0543849915266037, 0.07365692406892776, 0.047530271112918854, 0.05202732980251312, 0.06627731025218964, 0.04587879776954651, 0.04993949458003044, 0.04110639914870262, 0.042182184755802155, 0.05083523690700531, 0.044961847364902496, 0.09551766514778137, 0.4280478358268738, 0.127214252948761, 0.14450159668922424, 0.38997918367385864, 0.17641466856002808, 0.3616415858268738, 0.16631734371185303, 0.23113477230072021, 0.1683855652809143, 0.18483072519302368, 0.27082359790802, 0.3498913049697876, 0.3328397572040558, 0.0647101178765297, 0.11307675391435623, 0.24872495234012604, 0.08343777805566788, 0.10007628798484802, 0.11201989650726318, 0.08119352906942368, 0.17372427880764008, 0.16517764329910278, 0.2221042364835739, 0.47524821758270264, 0.8291919827461243, 0.9829496145248413, 0.9875327944755554, 0.9964104294776917, 0.8033157587051392, 0.1717466413974762, 0.437476247549057, 0.041897084563970566, 0.055537234991788864, 0.05852392688393593, 0.0313277505338192, 0.05605559051036835, 0.07529610395431519, 0.05750834196805954, 0.10986575484275818, 0.10759375244379044, 0.43873703479766846, 0.4462336599826813, 0.23446613550186157, 0.3199433982372284, 0.12118074297904968, 0.18869470059871674, 0.12274052202701569, 0.11887160688638687, 0.28045737743377686, 0.12509116530418396, 0.11616168171167374, 0.061784371733665466, 0.07035379856824875, 0.10145355015993118, 0.5842068195343018, 0.16149264574050903, 0.08775703608989716, 0.05338439717888832, 0.10697191208600998, 0.1359165459871292, 0.3610799014568329, 0.14042939245700836, 0.12860623002052307, 0.25710204243659973, 0.6565096974372864, 0.12892501056194305, 0.10570661723613739, 0.558270275592804, 0.22354380786418915, 0.08159144222736359, 0.09723901748657227, 0.10486218333244324, 0.3132878243923187, 0.6840887665748596, 0.14841346442699432, 0.2719910144805908, 0.18404924869537354, 0.17786510288715363, 0.1802605539560318, 0.19263003766536713, 0.15928664803504944, 0.22277265787124634, 0.07224306464195251, 0.06012258678674698, 0.3366521894931793, 0.2571013867855072, 0.13726170361042023, 0.13295398652553558, 0.09832802414894104, 0.16350747644901276, 0.12010940164327621, 0.2312527596950531, 0.7788906693458557, 0.08210659772157669, 0.03839479386806488, 0.20957517623901367, 0.2074613869190216]</t>
+          <t>[0.5667981505393982, 0.03770899400115013, 0.008805446326732635, 0.018039988353848457, 0.983370304107666, 0.8368402719497681, 0.012836704961955547, 0.01805642433464527, 0.019634993746876717, 0.0349443182349205, 0.05837029963731766, 0.012817461043596268, 0.024101486429572105, 0.030900567770004272, 0.0431688167154789, 0.019891617819666862, 0.04193307086825371, 0.029279254376888275, 0.025715170428156853, 0.028121458366513252, 0.029098300263285637, 0.06308044493198395, 0.09597573429346085, 0.029347456991672516, 0.03249078243970871, 0.01512353215366602, 0.02960507571697235, 0.02438582479953766, 0.016497356817126274, 0.023074911907315254, 0.020117806270718575, 0.02170872874557972, 0.02059716358780861, 0.021429909393191338, 0.055703505873680115, 0.3028208613395691, 0.07701040804386139, 0.053899362683296204, 0.4513334035873413, 0.06605084985494614, 0.24770066142082214, 0.07081025838851929, 0.12022725492715836, 0.08758991956710815, 0.11468155682086945, 0.23320060968399048, 0.27003756165504456, 0.35352712869644165, 0.04827595129609108, 0.0979064404964447, 0.23090557754039764, 0.04599987715482712, 0.05224097520112991, 0.07734104990959167, 0.04286379739642143, 0.08304422348737717, 0.10281471163034439, 0.18441027402877808, 0.6409815549850464, 0.9315940141677856, 0.9923134446144104, 0.9953743815422058, 0.9987409710884094, 0.9412420392036438, 0.20727165043354034, 0.6829059720039368, 0.02078220807015896, 0.03333375230431557, 0.033498555421829224, 0.014574626460671425, 0.020602019503712654, 0.06173689290881157, 0.031438760459423065, 0.08405192196369171, 0.061696648597717285, 0.35175463557243347, 0.36115503311157227, 0.1909438520669937, 0.7920845150947571, 0.11951161175966263, 0.27121827006340027, 0.09462664276361465, 0.09995522350072861, 0.22159937024116516, 0.0802706778049469, 0.055946167558431625, 0.023030493408441544, 0.01660403609275818, 0.047590672969818115, 0.7864768505096436, 0.36155328154563904, 0.04413790628314018, 0.014934208244085312, 0.05594254285097122, 0.06911870092153549, 0.32407012581825256, 0.11580277234315872, 0.1779179722070694, 0.2705373764038086, 0.6134762763977051, 0.10449516773223877, 0.05775011330842972, 0.319254994392395, 0.16635079681873322, 0.05294150114059448, 0.07883104681968689, 0.05530994012951851, 0.31721535325050354, 0.7426937222480774, 0.05377337336540222, 0.03982557728886604, 0.04143490642309189, 0.060411371290683746, 0.0915585532784462, 0.15259931981563568, 0.12546364963054657, 0.20688651502132416, 0.055152129381895065, 0.034626469016075134, 0.43900826573371887, 0.38806450366973877, 0.1817503720521927, 0.14394085109233856, 0.04771248996257782, 0.1070217564702034, 0.08120618015527725, 0.21694087982177734, 0.8764278888702393, 0.050357840955257416, 0.01638808287680149, 0.16009695827960968, 0.15642844140529633]</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.9964104294776917</v>
+        <v>0.9987409710884094</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -2143,10 +2143,10 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0.7307899999723304</v>
+        <v>0.7397257999982685</v>
       </c>
       <c r="J40" t="n">
-        <v>0.00553628787857826</v>
+        <v>0.005603983333320216</v>
       </c>
     </row>
     <row r="41">
@@ -2165,11 +2165,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[0.05688285455107689, 0.10086236149072647, 0.08579926192760468, 0.08536133170127869, 0.060882896184921265, 0.10572350025177002, 0.046425577253103256, 0.06852312386035919, 0.09251110255718231, 0.17136500775814056, 0.1938716620206833, 0.2415524423122406, 0.24466019868850708, 0.16355054080486298, 0.18304330110549927, 0.09060313552618027, 0.0759798139333725, 0.0674455538392067, 0.05027789995074272, 0.0807008296251297, 0.3202381730079651, 0.8688280582427979, 0.9685266613960266, 0.9909417033195496, 0.986415445804596, 0.9939770698547363, 0.98387211561203, 0.9459968209266663, 0.9443680644035339, 0.6305482387542725, 0.9179190397262573, 0.8403052687644958, 0.7056572437286377, 0.1251908391714096, 0.7196864485740662, 0.9800845384597778, 0.9916236996650696, 0.9928626418113708, 0.9757250547409058, 0.8494153618812561, 0.04972689971327782, 0.06281044334173203, 0.06627795845270157, 0.08150487393140793, 0.08757321536540985, 0.07291310280561447, 0.120526023209095, 0.09332797676324844, 0.22054019570350647, 0.3437468409538269, 0.39371606707572937, 0.1357971429824829, 0.1894885003566742, 0.3302447199821472, 0.4316205680370331, 0.1552412211894989, 0.05842088907957077, 0.04033338651061058, 0.03798926994204521, 0.03507127985358238, 0.11582730710506439, 0.1995551437139511, 0.1420261710882187, 0.3168753385543823, 0.9898802042007446, 0.0448441356420517, 0.02106902003288269, 0.4869493246078491, 0.9120104908943176, 0.9701523780822754, 0.8840204477310181, 0.5327054858207703, 0.7562852501869202, 0.9246085286140442, 0.965501606464386, 0.9798542857170105, 0.4030251204967499, 0.1194898784160614, 0.06541777402162552, 0.05493174120783806, 0.03736003115773201, 0.03986004739999771, 0.05629805102944374, 0.08262878656387329, 0.04199836403131485, 0.05167769268155098, 0.10501491278409958, 0.5193529725074768, 0.2270929515361786, 0.07710454612970352, 0.1424463391304016, 0.14635950326919556, 0.36607205867767334, 0.16952258348464966, 0.19432753324508667, 0.05786669999361038, 0.03568362817168236, 0.0664130374789238, 0.12758316099643707, 0.12358997762203217, 0.09179319441318512, 0.3093067705631256, 0.12680573761463165, 0.7216249108314514, 0.9762460589408875, 0.9472588300704956, 0.5352650284767151, 0.9110525250434875, 0.9740393161773682, 0.964219868183136, 0.9774255156517029, 0.9951342940330505, 0.9962737560272217, 0.9940463304519653, 0.9507129192352295, 0.39482825994491577, 0.22932890057563782, 0.13007009029388428, 0.08546385169029236, 0.11890111863613129, 0.23592261970043182, 0.1642472892999649, 0.4158450663089752, 0.486084520816803, 0.17002129554748535, 0.18710178136825562, 0.9587846398353577, 0.983651340007782, 0.9950751662254333, 0.9941784143447876, 0.9884048700332642, 0.9883984923362732]</t>
+          <t>[0.04028470441699028, 0.051585208624601364, 0.05367915704846382, 0.050180353224277496, 0.04172391816973686, 0.09317121654748917, 0.04147576913237572, 0.05185000225901604, 0.06543486565351486, 0.11246613413095474, 0.2683310806751251, 0.43635597825050354, 0.3748804032802582, 0.2008529156446457, 0.4228441119194031, 0.17821785807609558, 0.09053146839141846, 0.06293255090713501, 0.04647459089756012, 0.10958444327116013, 0.5595311522483826, 0.9136965870857239, 0.975982666015625, 0.9951216578483582, 0.9939205646514893, 0.9974448680877686, 0.9887190461158752, 0.9750000834465027, 0.9757779836654663, 0.6468105316162109, 0.9768721461296082, 0.964540958404541, 0.8994089365005493, 0.3274887502193451, 0.7959610223770142, 0.986515998840332, 0.9943546056747437, 0.9949799180030823, 0.9819833040237427, 0.9052285552024841, 0.01798791065812111, 0.03362707793712616, 0.0442582368850708, 0.06418600678443909, 0.10734516382217407, 0.08353693038225174, 0.2357829362154007, 0.12891539931297302, 0.20485450327396393, 0.20939692854881287, 0.18620194494724274, 0.05241823196411133, 0.14546284079551697, 0.3011714220046997, 0.38722410798072815, 0.08760417252779007, 0.029247380793094635, 0.020839091390371323, 0.030904283747076988, 0.011199724860489368, 0.0685727521777153, 0.20511537790298462, 0.1475992053747177, 0.5465028882026672, 0.994697093963623, 0.12345932424068451, 0.017085934057831764, 0.7752865552902222, 0.9569794535636902, 0.9845637083053589, 0.8913957476615906, 0.5393217206001282, 0.8140761852264404, 0.9597445726394653, 0.9769257307052612, 0.9846677184104919, 0.6811287999153137, 0.21196210384368896, 0.054878175258636475, 0.04412464797496796, 0.018949223682284355, 0.021883098408579826, 0.03571483492851257, 0.0696839690208435, 0.0299217589199543, 0.04331044480204582, 0.07176856696605682, 0.5125007629394531, 0.19260495901107788, 0.04238487780094147, 0.11496828496456146, 0.2055654078722, 0.43505924940109253, 0.20433267951011658, 0.3433433175086975, 0.06013156473636627, 0.027662567794322968, 0.07227015495300293, 0.14242425560951233, 0.07428073137998581, 0.0816732719540596, 0.35781723260879517, 0.1284434199333191, 0.8067414164543152, 0.9910174608230591, 0.971800684928894, 0.6898241639137268, 0.9730662107467651, 0.9875613451004028, 0.9820064902305603, 0.9816026091575623, 0.9948034882545471, 0.9980925917625427, 0.9966039657592773, 0.937221884727478, 0.2745799422264099, 0.2007593959569931, 0.09735528379678726, 0.07129552215337753, 0.12037590146064758, 0.33820080757141113, 0.22218485176563263, 0.4505276083946228, 0.4344370663166046, 0.19360356032848358, 0.15850263833999634, 0.9693276286125183, 0.99058997631073, 0.9970307350158691, 0.9961185455322266, 0.9915135502815247, 0.9915021657943726]</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.9962737560272217</v>
+        <v>0.9980925917625427</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0.7474399000057019</v>
+        <v>0.7501404999929946</v>
       </c>
       <c r="J41" t="n">
-        <v>0.005662423484891681</v>
+        <v>0.005682882575704504</v>
       </c>
     </row>
     <row r="42">
@@ -2205,11 +2205,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[0.9946736693382263, 0.9928237199783325, 0.9523882269859314, 0.9893781542778015, 0.9932284951210022, 0.9872716069221497, 0.9945732951164246, 0.9970749616622925, 0.9957903027534485, 0.996117115020752, 0.9931744933128357, 0.9952366352081299, 0.9982231259346008, 0.9701617956161499, 0.9964984655380249, 0.5029097199440002, 0.9519881010055542, 0.9585054516792297, 0.11555580794811249, 0.08930327743291855, 0.07330930978059769, 0.09618628770112991, 0.0841277688741684, 0.9613772630691528, 0.9964542388916016, 0.9956193566322327, 0.995376467704773, 0.9942580461502075, 0.9962474703788757, 0.9897174835205078, 0.9954965114593506, 0.9911361932754517, 0.9970147609710693, 0.9948680400848389, 0.9982438087463379, 0.9985619187355042, 0.9957992434501648, 0.9984136819839478, 0.9985606074333191, 0.998580813407898, 0.9947038292884827, 0.9794237613677979, 0.9979839324951172, 0.9984992742538452, 0.9975123405456543, 0.9930989146232605, 0.9932030439376831, 0.9941818118095398, 0.9965121150016785, 0.9965628981590271, 0.9893906712532043, 0.9959075450897217, 0.9944676160812378, 0.9974133372306824, 0.9940650463104248, 0.9924474954605103, 0.9943878054618835, 0.992027223110199, 0.9952496290206909, 0.996381402015686, 0.9988616704940796, 0.9982557892799377, 0.9960795044898987, 0.9746479988098145, 0.9751682877540588, 0.9943206310272217, 0.9975550770759583, 0.9973927736282349, 0.9857454299926758, 0.9966261386871338, 0.9906932711601257, 0.9971672892570496, 0.9411794543266296, 0.9921748042106628, 0.9969493746757507, 0.9907113909721375, 0.9937562942504883, 0.9824271202087402, 0.9871689081192017, 0.9942889213562012, 0.9976077079772949, 0.9971491694450378, 0.9860827326774597, 0.928295373916626, 0.8842775821685791, 0.902118444442749, 0.9848107099533081, 0.9900978803634644, 0.9969101548194885, 0.996875524520874, 0.9963290095329285, 0.9975695013999939, 0.9960414171218872, 0.9971292614936829, 0.9981895089149475, 0.9987107515335083, 0.9987896084785461, 0.9983991980552673, 0.998757004737854, 0.9870522618293762, 0.9969764947891235, 0.983770489692688, 0.9964337348937988, 0.996189296245575, 0.9977610111236572, 0.9978664517402649, 0.9885707497596741, 0.9776721596717834, 0.6860533952713013, 0.934712290763855, 0.9844143390655518, 0.9909700155258179, 0.987089216709137, 0.9919324517250061, 0.99400794506073, 0.9651522040367126, 0.9961493015289307, 0.9860926270484924, 0.9963435530662537, 0.9968649744987488, 0.9940893650054932, 0.9004813432693481, 0.8877972364425659, 0.9958803653717041, 0.9948787689208984, 0.9974240064620972, 0.9941745400428772, 0.9714415073394775, 0.9927753210067749, 0.9952334761619568, 0.9984145164489746, 0.9984152317047119]</t>
+          <t>[0.9954097867012024, 0.9950856566429138, 0.9351948499679565, 0.9879097938537598, 0.9925563931465149, 0.9868659377098083, 0.9935348033905029, 0.996911883354187, 0.9948228597640991, 0.9953860640525818, 0.9938797950744629, 0.9955775737762451, 0.9987758994102478, 0.9760192036628723, 0.99759441614151, 0.6955841183662415, 0.9532642364501953, 0.9834057092666626, 0.07418498396873474, 0.07126086950302124, 0.0547456294298172, 0.04666301608085632, 0.056703776121139526, 0.9859787821769714, 0.9972450733184814, 0.9970560073852539, 0.9962389469146729, 0.993902325630188, 0.9966070652008057, 0.9936984777450562, 0.998119056224823, 0.9963524341583252, 0.9987457990646362, 0.9974119067192078, 0.9989627599716187, 0.9991401433944702, 0.9962447285652161, 0.9990921020507812, 0.9994372725486755, 0.9991626739501953, 0.9960302710533142, 0.9790999293327332, 0.9987050294876099, 0.9988613128662109, 0.9987533092498779, 0.9971785545349121, 0.9979040622711182, 0.997448742389679, 0.9988780617713928, 0.9984378218650818, 0.9952556490898132, 0.9981825351715088, 0.996673583984375, 0.9985052347183228, 0.9970436692237854, 0.9968907237052917, 0.9981855750083923, 0.9972297549247742, 0.9986439347267151, 0.9984662532806396, 0.999505877494812, 0.9990550875663757, 0.9937599301338196, 0.9810282588005066, 0.9781699180603027, 0.9967575669288635, 0.9984934329986572, 0.9972723126411438, 0.9909887909889221, 0.9987414479255676, 0.9948996901512146, 0.9979832172393799, 0.9436426758766174, 0.9953565001487732, 0.9989668130874634, 0.9968451261520386, 0.997470498085022, 0.9925315976142883, 0.9943389296531677, 0.9959061145782471, 0.9968785047531128, 0.9975066781044006, 0.990839421749115, 0.9385184049606323, 0.9615923762321472, 0.9292745590209961, 0.978219747543335, 0.9842404127120972, 0.9973959922790527, 0.9980435371398926, 0.9971146583557129, 0.9984210729598999, 0.9969118237495422, 0.9987655878067017, 0.9993317723274231, 0.9995612502098083, 0.9996519088745117, 0.9994522929191589, 0.9993571639060974, 0.9909533262252808, 0.9973638653755188, 0.9944800138473511, 0.9978158473968506, 0.9986693859100342, 0.9983787536621094, 0.9973553419113159, 0.974907398223877, 0.9652144312858582, 0.6816087365150452, 0.9539849162101746, 0.987701952457428, 0.9932922124862671, 0.9905471205711365, 0.9945465326309204, 0.9951226115226746, 0.9679074287414551, 0.9950355291366577, 0.9865575432777405, 0.9980325102806091, 0.9985363483428955, 0.9966004490852356, 0.9641477465629578, 0.917846143245697, 0.9977394342422485, 0.9972007274627686, 0.9981372356414795, 0.9964596629142761, 0.985153317451477, 0.9965812563896179, 0.9979199767112732, 0.9993249177932739, 0.9993252754211426]</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.9988616704940796</v>
+        <v>0.9996519088745117</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0.7299754999985453</v>
+        <v>0.7541845000087051</v>
       </c>
       <c r="J42" t="n">
-        <v>0.005530117424231404</v>
+        <v>0.005713518939459887</v>
       </c>
     </row>
     <row r="43">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[0.7874489426612854, 0.5850509405136108, 0.9273077845573425, 0.549595296382904, 0.4195283353328705, 0.4604826867580414, 0.9681344628334045, 0.9945808053016663, 0.996009111404419, 0.9917781352996826, 0.9712517261505127, 0.9845085144042969, 0.9592100977897644, 0.9750263690948486, 0.9895681738853455, 0.9779753684997559, 0.9366992115974426, 0.15162786841392517, 0.981609046459198, 0.9901857376098633, 0.9710395932197571, 0.9862913489341736, 0.2571942210197449, 0.06601019948720932, 0.07261792570352554, 0.3399597406387329, 0.953467607498169, 0.9729620218276978, 0.9821844100952148, 0.9789287447929382, 0.9820646643638611, 0.9831655025482178, 0.9586747288703918, 0.961937665939331, 0.9712536334991455, 0.9826065897941589, 0.9453731775283813, 0.9475194811820984, 0.9384675025939941, 0.8995141386985779, 0.951675534248352, 0.9811197519302368, 0.9408599138259888, 0.9708903431892395, 0.9450438618659973, 0.9080962538719177, 0.7639283537864685, 0.8186649680137634, 0.6188631057739258, 0.6105489730834961, 0.6751490831375122, 0.38726189732551575, 0.8143318295478821, 0.6147345304489136, 0.7047743201255798, 0.7078847885131836, 0.8592261075973511, 0.8051481246948242, 0.6866325736045837, 0.9340592622756958, 0.896755039691925, 0.9435123801231384, 0.9518928527832031, 0.9907626509666443, 0.9919961094856262, 0.9784656167030334, 0.9609344601631165, 0.9936437606811523, 0.977645754814148, 0.6711528301239014, 0.9064733982086182, 0.9701545238494873, 0.9926939010620117, 0.9959067106246948, 0.9927994012832642, 0.9897390007972717, 0.9853277802467346, 0.9936647415161133, 0.9909212589263916, 0.9631003737449646, 0.969663143157959, 0.9890873432159424, 0.9341027736663818, 0.9818004369735718, 0.9914321899414062, 0.9873360991477966, 0.9833797812461853, 0.9960436820983887, 0.9967148303985596, 0.8863690495491028, 0.9931911826133728, 0.9801392555236816, 0.9813148379325867, 0.983231782913208, 0.9674959778785706, 0.984069287776947, 0.9200006127357483, 0.9426068663597107, 0.9873069524765015, 0.9881916642189026, 0.9843015074729919, 0.9283848404884338, 0.9942359328269958, 0.996914267539978, 0.9962150454521179, 0.9876933693885803, 0.9928925037384033, 0.9882720112800598, 0.9986189603805542, 0.9935415983200073, 0.9971989393234253, 0.966621458530426, 0.5250608325004578, 0.9039444327354431, 0.9904354810714722, 0.9922263622283936, 0.9934828877449036, 0.9971402883529663, 0.9987727999687195, 0.9977474808692932, 0.9987888932228088, 0.9837989807128906, 0.9420596957206726, 0.993298351764679, 0.9830397963523865, 0.9730352759361267, 0.9163470268249512, 0.9544637203216553, 0.8832122683525085, 0.8451272249221802, 0.9857372045516968, 0.9856861233711243]</t>
+          <t>[0.9206644892692566, 0.7718117833137512, 0.967552661895752, 0.7528657913208008, 0.6950876712799072, 0.6982895135879517, 0.9839507341384888, 0.9968776702880859, 0.9978109002113342, 0.9956533908843994, 0.9812198281288147, 0.9933112859725952, 0.9792187809944153, 0.9863341450691223, 0.9967003464698792, 0.9918978214263916, 0.9583616852760315, 0.3342565596103668, 0.9861781597137451, 0.994269847869873, 0.9789760708808899, 0.9908413887023926, 0.27098652720451355, 0.04319287836551666, 0.049385566264390945, 0.531887948513031, 0.9668765068054199, 0.9889801740646362, 0.9930205941200256, 0.9904428124427795, 0.9930375218391418, 0.9950213432312012, 0.9883262515068054, 0.9896034002304077, 0.9895525574684143, 0.993532657623291, 0.9823766946792603, 0.9844480752944946, 0.9714328050613403, 0.9700873494148254, 0.988183856010437, 0.9952362179756165, 0.9857400059700012, 0.994629442691803, 0.9870196580886841, 0.9738975167274475, 0.8949461579322815, 0.9081206917762756, 0.827120304107666, 0.7663457989692688, 0.8175787925720215, 0.498293399810791, 0.9195199608802795, 0.8231655955314636, 0.8509429097175598, 0.8631715774536133, 0.9473918080329895, 0.9166477918624878, 0.795310378074646, 0.9692278504371643, 0.9402157664299011, 0.9827185273170471, 0.9838343858718872, 0.994549572467804, 0.9951993823051453, 0.9914700388908386, 0.9921660423278809, 0.9972801208496094, 0.992598295211792, 0.8457324504852295, 0.964241087436676, 0.9916506409645081, 0.997686505317688, 0.9985817670822144, 0.9969304203987122, 0.9929401874542236, 0.9958861470222473, 0.9973153471946716, 0.9965693950653076, 0.988184928894043, 0.9899043440818787, 0.9961661100387573, 0.9771423935890198, 0.9936603903770447, 0.9975600242614746, 0.9934988021850586, 0.9894077181816101, 0.9976147413253784, 0.9988586902618408, 0.972260057926178, 0.9981040954589844, 0.9967155456542969, 0.997073769569397, 0.9957460761070251, 0.9936256408691406, 0.996776282787323, 0.98440021276474, 0.9884099960327148, 0.9972823858261108, 0.9961810111999512, 0.9967688322067261, 0.9905223250389099, 0.9986491799354553, 0.9987598657608032, 0.9988849759101868, 0.9966949224472046, 0.9966999888420105, 0.993267297744751, 0.9993109703063965, 0.9961109757423401, 0.9986096620559692, 0.9914957284927368, 0.7433474063873291, 0.962727427482605, 0.9961714148521423, 0.9972773194313049, 0.9967233538627625, 0.9987645149230957, 0.9994315505027771, 0.9987983703613281, 0.9994303584098816, 0.9932422041893005, 0.9779217839241028, 0.997501790523529, 0.9948845505714417, 0.9933672547340393, 0.9764877557754517, 0.9883407354354858, 0.9632353782653809, 0.931343674659729, 0.9933432340621948, 0.9933212399482727]</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.9987888932228088</v>
+        <v>0.9994315505027771</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0.7494199000066146</v>
+        <v>0.7441926999890711</v>
       </c>
       <c r="J43" t="n">
-        <v>0.005677423484898595</v>
+        <v>0.00563782348476569</v>
       </c>
     </row>
     <row r="44">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[0.03360094875097275, 0.03285130858421326, 0.1273656040430069, 0.10772749036550522, 0.07591957598924637, 0.05645858123898506, 0.03665653243660927, 0.06642861664295197, 0.05759043246507645, 0.12375544011592865, 0.09016623347997665, 0.06330037862062454, 0.03586787357926369, 0.026361338794231415, 0.018129048869013786, 0.024560242891311646, 0.018285194411873817, 0.04541453719139099, 0.0761449858546257, 0.06538794934749603, 0.0755595937371254, 0.06409186869859695, 0.06477681547403336, 0.086338110268116, 0.059671077877283096, 0.029005365446209908, 0.035690173506736755, 0.049594249576330185, 0.04860144108533859, 0.029498474672436714, 0.030392339453101158, 0.17182014882564545, 0.06221005693078041, 0.04168090969324112, 0.11171455681324005, 0.16685646772384644, 0.0849250853061676, 0.0767892599105835, 0.03319390490651131, 0.049386054277420044, 0.10639199614524841, 0.0819827988743782, 0.049050167202949524, 0.03334715589880943, 0.13577042520046234, 0.27857205271720886, 0.11440616101026535, 0.14433611929416656, 0.14093787968158722, 0.10014314949512482, 0.383623868227005, 0.980328381061554, 0.9912304878234863, 0.989973783493042, 0.975977897644043, 0.9940096139907837, 0.9921852946281433, 0.9939063191413879, 0.9832566380500793, 0.07923418283462524, 0.3459005355834961, 0.1632232367992401, 0.015508358366787434, 0.43505042791366577, 0.05274885892868042, 0.03293495997786522, 0.049730412662029266, 0.06796488910913467, 0.06966233998537064, 0.24014075100421906, 0.056632548570632935, 0.12982892990112305, 0.06935080885887146, 0.052917059510946274, 0.08291113376617432, 0.40633073449134827, 0.8383679389953613, 0.3646124601364136, 0.11263950169086456, 0.06486798077821732, 0.29808589816093445, 0.27620837092399597, 0.05137820169329643, 0.024116648361086845, 0.014349663630127907, 0.025061555206775665, 0.012919123284518719, 0.02643568068742752, 0.03281893953680992, 0.03818371891975403, 0.05726330727338791, 0.9957347512245178, 0.9277659058570862, 0.44856032729148865, 0.34606799483299255, 0.9808264970779419, 0.25420841574668884, 0.8991147875785828, 0.9365659952163696, 0.9591854214668274, 0.9947308301925659, 0.9927303194999695, 0.9795393943786621, 0.990574061870575, 0.11932571232318878, 0.10947235673666, 0.9874361753463745, 0.9551823139190674, 0.052323952317237854, 0.08148811012506485, 0.41001877188682556, 0.9493870139122009, 0.29106709361076355, 0.029422124847769737, 0.07843796163797379, 0.9158502817153931, 0.996379554271698, 0.9838628172874451, 0.9920070171356201, 0.9949063062667847, 0.995695948600769, 0.9963265061378479, 0.21512749791145325, 0.9695225954055786, 0.9972736239433289, 0.9935262203216553, 0.9909085631370544, 0.9665058851242065, 0.030245112255215645, 0.7864033579826355, 0.531502366065979, 0.5320594310760498]</t>
+          <t>[0.009203881025314331, 0.018431447446346283, 0.0907597690820694, 0.0891856923699379, 0.0528351366519928, 0.031185505911707878, 0.022188708186149597, 0.044742926955223083, 0.040119994431734085, 0.06588849425315857, 0.05680713802576065, 0.03350818529725075, 0.018126988783478737, 0.009912017732858658, 0.009476926177740097, 0.015539008192718029, 0.0070137744769454, 0.01568884402513504, 0.04305088520050049, 0.023426948115229607, 0.038495808839797974, 0.023183584213256836, 0.02153369039297104, 0.03187749534845352, 0.011587128974497318, 0.004780287388712168, 0.007994934916496277, 0.014577507972717285, 0.011614903807640076, 0.009064875543117523, 0.006346627604216337, 0.07037679105997086, 0.022417375817894936, 0.01165077555924654, 0.055215105414390564, 0.10276135802268982, 0.060130342841148376, 0.049756549298763275, 0.02209809608757496, 0.035450343042612076, 0.09368924796581268, 0.0753934383392334, 0.017942097038030624, 0.019718879833817482, 0.0779997929930687, 0.2206384688615799, 0.08351096510887146, 0.09253406524658203, 0.07751196622848511, 0.05746302753686905, 0.38057851791381836, 0.9791015386581421, 0.9910723567008972, 0.9905129671096802, 0.9792948961257935, 0.9949914813041687, 0.9924956560134888, 0.9942765831947327, 0.9882130026817322, 0.030551768839359283, 0.26965242624282837, 0.1726960390806198, 0.014287116937339306, 0.4644099473953247, 0.08343776315450668, 0.04180274158716202, 0.06149591878056526, 0.06041530892252922, 0.04119569808244705, 0.19758211076259613, 0.021210238337516785, 0.061155419796705246, 0.028366319835186005, 0.023462362587451935, 0.06112361699342728, 0.4669780731201172, 0.7721289396286011, 0.23677058517932892, 0.09324533492326736, 0.04466802999377251, 0.3020668029785156, 0.3292941153049469, 0.04171137884259224, 0.008090403862297535, 0.006472557317465544, 0.009279074147343636, 0.003807582426816225, 0.007923082448542118, 0.010618520900607109, 0.017441177740693092, 0.03128302842378616, 0.9974339604377747, 0.9428346157073975, 0.4313143193721771, 0.34305909276008606, 0.9708375334739685, 0.23957717418670654, 0.8698679208755493, 0.9224845767021179, 0.8802593350410461, 0.9954583644866943, 0.9957681894302368, 0.9774842858314514, 0.9932330250740051, 0.11261048167943954, 0.08482959866523743, 0.9905531406402588, 0.9790228009223938, 0.06268015503883362, 0.11291004717350006, 0.6532840728759766, 0.9526712894439697, 0.18170328438282013, 0.01339259184896946, 0.022460058331489563, 0.927351176738739, 0.9977388381958008, 0.9926316738128662, 0.994460940361023, 0.9966230392456055, 0.9972665309906006, 0.9970076680183411, 0.18220843374729156, 0.9643107056617737, 0.997765064239502, 0.9933011531829834, 0.9860084652900696, 0.9432737231254578, 0.018461590632796288, 0.7749983072280884, 0.34607622027397156, 0.3466154932975769]</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.9972736239433289</v>
+        <v>0.997765064239502</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -2303,10 +2303,10 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0.7407493999926373</v>
+        <v>0.792466400002013</v>
       </c>
       <c r="J44" t="n">
-        <v>0.005611737878732101</v>
+        <v>0.006003533333348583</v>
       </c>
     </row>
     <row r="45">
@@ -2325,11 +2325,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[0.25718945264816284, 0.251823753118515, 0.40116235613822937, 0.6920128464698792, 0.5480687618255615, 0.5231959223747253, 0.5491201877593994, 0.23251564800739288, 0.3745773732662201, 0.6773186922073364, 0.398746132850647, 0.42718416452407837, 0.6324272751808167, 0.6732608079910278, 0.52314293384552, 0.6643807291984558, 0.5111117362976074, 0.6758905649185181, 0.27939078211784363, 0.3639656901359558, 0.41049835085868835, 0.32610592246055603, 0.7663277983665466, 0.7080113887786865, 0.509708821773529, 0.3781757950782776, 0.29695403575897217, 0.4354046881198883, 0.6750801205635071, 0.650028645992279, 0.4589586853981018, 0.18782123923301697, 0.13853420317173004, 0.09190025925636292, 0.0959632620215416, 0.1051553413271904, 0.0956224650144577, 0.3912232220172882, 0.3107122778892517, 0.18180732429027557, 0.10968057811260223, 0.09398920834064484, 0.08532259613275528, 0.10581996291875839, 0.03446768969297409, 0.1251886636018753, 0.10100489854812622, 0.24572613835334778, 0.20833821594715118, 0.055172163993120193, 0.12006719410419464, 0.1912943720817566, 0.15570876002311707, 0.2647622227668762, 0.12492683529853821, 0.03414046764373779, 0.033354997634887695, 0.05028831586241722, 0.0213303379714489, 0.02583710476756096, 0.01440492458641529, 0.045548275113105774, 0.05356183275580406, 0.1501370221376419, 0.3208138942718506, 0.3483037054538727, 0.3171272873878479, 0.46421441435813904, 0.19022144377231598, 0.18642325699329376, 0.2579391896724701, 0.24935896694660187, 0.11271112412214279, 0.08955360949039459, 0.13489428162574768, 0.08000534027814865, 0.20024411380290985, 0.40688392519950867, 0.16195812821388245, 0.16393259167671204, 0.07638341933488846, 0.09426675736904144, 0.31557801365852356, 0.10782330483198166, 0.061320167034864426, 0.052407026290893555, 0.07570561021566391, 0.06180917099118233, 0.03512688726186752, 0.04843037948012352, 0.10605797916650772, 0.21025335788726807, 0.2732379734516144, 0.1293378621339798, 0.1442217081785202, 0.3195154070854187, 0.15390409529209137, 0.07850175350904465, 0.08123234659433365, 0.04674307256937027, 0.07156006246805191, 0.0956246629357338, 0.13088078796863556, 0.05960550904273987, 0.14136965572834015, 0.15027061104774475, 0.2970718741416931, 0.2575783431529999, 0.15843035280704498, 0.5072949528694153, 0.4751342833042145, 0.2813694477081299, 0.23674528300762177, 0.10556462407112122, 0.17275038361549377, 0.21754363179206848, 0.24523824453353882, 0.15379810333251953, 0.11572229117155075, 0.08497101813554764, 0.195998877286911, 0.2864599823951721, 0.13403770327568054, 0.15378102660179138, 0.42203450202941895, 0.32902562618255615, 0.1810242086648941, 0.09726668894290924, 0.18959833681583405, 0.09262856096029282, 0.0920225977897644]</t>
+          <t>[0.16919876635074615, 0.18815794587135315, 0.2902469038963318, 0.7032416462898254, 0.37118515372276306, 0.4016401469707489, 0.526370108127594, 0.09414443373680115, 0.21347112953662872, 0.514628529548645, 0.2294120043516159, 0.37698283791542053, 0.6519047617912292, 0.6540426015853882, 0.4645426571369171, 0.5119941830635071, 0.2942410111427307, 0.47452080249786377, 0.10972144454717636, 0.30720770359039307, 0.3554612100124359, 0.24189814925193787, 0.5650559663772583, 0.5387910604476929, 0.3723672330379486, 0.27838584780693054, 0.2525574862957001, 0.3406980633735657, 0.593525767326355, 0.6271185278892517, 0.39264991879463196, 0.2816562354564667, 0.09239860624074936, 0.03167648985981941, 0.03611874580383301, 0.04947672039270401, 0.08259909600019455, 0.3583826422691345, 0.23666127026081085, 0.09257692098617554, 0.053725022822618484, 0.0461343415081501, 0.05869300290942192, 0.08276667445898056, 0.01882017031311989, 0.066818006336689, 0.04671357199549675, 0.18554170429706573, 0.10610869526863098, 0.04535718634724617, 0.08214383572340012, 0.09600011259317398, 0.08936779201030731, 0.14894475042819977, 0.06265829503536224, 0.022431904450058937, 0.020072152838110924, 0.04075505957007408, 0.018760420382022858, 0.0179126113653183, 0.009503507055342197, 0.038792867213487625, 0.02990935556590557, 0.06892437487840652, 0.2780621647834778, 0.3114396333694458, 0.3017098903656006, 0.3816295564174652, 0.09761228412389755, 0.09790531545877457, 0.09401697665452957, 0.11983910948038101, 0.06203879788517952, 0.06677992641925812, 0.0848303884267807, 0.05444503203034401, 0.0899687260389328, 0.2799748480319977, 0.06497630476951599, 0.04341121017932892, 0.02665592171251774, 0.02835020422935486, 0.17680759727954865, 0.05678296089172363, 0.025345396250486374, 0.024251431226730347, 0.04421265795826912, 0.038667187094688416, 0.015909548848867416, 0.0352662019431591, 0.0834599956870079, 0.20392808318138123, 0.28483104705810547, 0.14449526369571686, 0.07169470191001892, 0.18861114978790283, 0.06760133802890778, 0.0333421491086483, 0.03310787305235863, 0.01708025112748146, 0.020220765843987465, 0.03972680866718292, 0.056340474635362625, 0.022389311343431473, 0.07067327946424484, 0.06455264985561371, 0.19662518799304962, 0.14814110100269318, 0.09357412904500961, 0.37878209352493286, 0.3160771131515503, 0.1494167447090149, 0.15512384474277496, 0.04324796795845032, 0.10084268450737, 0.13338379561901093, 0.14439086616039276, 0.09288959950208664, 0.05857199802994728, 0.04395563155412674, 0.10008004307746887, 0.15661117434501648, 0.10562469065189362, 0.08311827480792999, 0.5184969902038574, 0.3872559070587158, 0.13730981945991516, 0.09572623670101166, 0.20737092196941376, 0.11131202429533005, 0.10976900160312653]</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.7663277983665466</v>
+        <v>0.7032416462898254</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0.7419144999876153</v>
+        <v>0.7483847000112291</v>
       </c>
       <c r="J45" t="n">
-        <v>0.005663469465554315</v>
+        <v>0.00571286030542923</v>
       </c>
     </row>
     <row r="46">
@@ -2365,11 +2365,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[0.3529662489891052, 0.3976967930793762, 0.2388816475868225, 0.4500584304332733, 0.6314024925231934, 0.5078678131103516, 0.269918292760849, 0.16286717355251312, 0.33706921339035034, 0.7419778108596802, 0.9456619620323181, 0.3175935447216034, 0.3753794729709625, 0.40518033504486084, 0.13779796659946442, 0.07403792440891266, 0.9710733890533447, 0.9666719436645508, 0.9403438568115234, 0.8473716378211975, 0.6434724926948547, 0.9592565894126892, 0.8987260460853577, 0.847216784954071, 0.9900015592575073, 0.9681301712989807, 0.07133930176496506, 0.36176052689552307, 0.16871878504753113, 0.26923176646232605, 0.9861859083175659, 0.9937759637832642, 0.9934431314468384, 0.9893677830696106, 0.9908689260482788, 0.6477773785591125, 0.15872149169445038, 0.14127016067504883, 0.08307469636201859, 0.046771299093961716, 0.1462896168231964, 0.06607567518949509, 0.05045954883098602, 0.22274243831634521, 0.13011199235916138, 0.996353268623352, 0.9125658273696899, 0.6361530423164368, 0.7828480005264282, 0.3399565815925598, 0.122979536652565, 0.8724523782730103, 0.7343698143959045, 0.6060254573822021, 0.7352486252784729, 0.6145855784416199, 0.641793966293335, 0.8671156167984009, 0.9924575090408325, 0.9956755042076111, 0.9971430897712708, 0.9979233145713806, 0.9877699017524719, 0.6570736765861511, 0.8536409139633179, 0.9953209757804871, 0.49393925070762634, 0.03632223978638649, 0.027948230504989624, 0.09023931622505188, 0.15254314243793488, 0.47701334953308105, 0.19622552394866943, 0.3331146240234375, 0.10853099077939987, 0.9826397895812988, 0.9910513162612915, 0.9918885827064514, 0.7496116757392883, 0.9354866743087769, 0.10390477627515793, 0.11500600725412369, 0.11839842796325684, 0.07826119661331177, 0.0786677747964859, 0.5417265295982361, 0.7554054260253906, 0.9727884531021118, 0.9888936877250671, 0.9931596517562866, 0.9959114789962769, 0.9950219392776489, 0.9812160134315491, 0.9570971131324768, 0.7579255700111389, 0.1641644984483719, 0.10299377888441086, 0.17809835076332092, 0.07151089608669281, 0.13918375968933105, 0.09240182489156723, 0.08957677334547043, 0.36940839886665344, 0.39590784907341003, 0.162993922829628, 0.46788084506988525, 0.622459888458252, 0.7889135479927063, 0.7880204916000366, 0.9847181439399719, 0.9811705350875854, 0.9912140965461731, 0.9952303171157837, 0.9940354824066162, 0.9879390001296997, 0.9938361048698425, 0.9960301518440247, 0.9775886535644531, 0.45064234733581543, 0.9251638650894165, 0.8826277256011963, 0.7947907447814941, 0.7981284856796265, 0.651854395866394, 0.3380354046821594, 0.6605607867240906, 0.9943816065788269, 0.995033860206604, 0.9929676055908203, 0.9972711205482483, 0.9972777962684631]</t>
+          <t>[0.6140329837799072, 0.6591427326202393, 0.21111327409744263, 0.3979138433933258, 0.416951060295105, 0.44298243522644043, 0.12355761229991913, 0.06880471855401993, 0.2557670474052429, 0.5463039875030518, 0.8632038235664368, 0.21398748457431793, 0.26279568672180176, 0.3292986750602722, 0.08446551859378815, 0.04264982044696808, 0.9844369888305664, 0.9815358519554138, 0.9637948274612427, 0.9199264645576477, 0.834297776222229, 0.9740484952926636, 0.9578384160995483, 0.8084436655044556, 0.991959273815155, 0.9793440699577332, 0.055615149438381195, 0.5388116240501404, 0.09344732761383057, 0.2695305347442627, 0.9883714318275452, 0.9949523210525513, 0.9953303337097168, 0.9936110377311707, 0.9942728877067566, 0.7439310550689697, 0.0974220260977745, 0.06636127084493637, 0.039515212178230286, 0.021176181733608246, 0.08045144379138947, 0.02952991984784603, 0.025430193170905113, 0.18671929836273193, 0.15308618545532227, 0.9976479411125183, 0.9349257349967957, 0.6438888907432556, 0.787623941898346, 0.13915111124515533, 0.05112522467970848, 0.8741229176521301, 0.6130615472793579, 0.5694639682769775, 0.6852906346321106, 0.4405333399772644, 0.6312916874885559, 0.8973284959793091, 0.9936331510543823, 0.9964107871055603, 0.9978783130645752, 0.9989563226699829, 0.9918827414512634, 0.606590986251831, 0.8374069929122925, 0.9961637258529663, 0.34376204013824463, 0.013310115784406662, 0.01040401216596365, 0.05896522104740143, 0.10561380535364151, 0.32232019305229187, 0.10223086178302765, 0.19692909717559814, 0.05257895216345787, 0.9830579161643982, 0.9921621680259705, 0.9941814541816711, 0.664793848991394, 0.9115793108940125, 0.0632229894399643, 0.04649456590414047, 0.049101829528808594, 0.048195887356996536, 0.04388342425227165, 0.521615207195282, 0.5909463763237, 0.9758898019790649, 0.9922686219215393, 0.99715256690979, 0.9980440139770508, 0.9976304769515991, 0.9873474836349487, 0.9711869955062866, 0.812401533126831, 0.08852088451385498, 0.06037662550806999, 0.11993099004030228, 0.018093198537826538, 0.07828007638454437, 0.04028761014342308, 0.04022691771388054, 0.30483412742614746, 0.24952727556228638, 0.09649099409580231, 0.29128456115722656, 0.6170889735221863, 0.739210844039917, 0.810804009437561, 0.9931413531303406, 0.9934539794921875, 0.9958274960517883, 0.9980123043060303, 0.9976602792739868, 0.9951569437980652, 0.9977333545684814, 0.9984449744224548, 0.9876028895378113, 0.6186978220939636, 0.960211992263794, 0.8993875980377197, 0.7451630234718323, 0.6676439642906189, 0.4136919379234314, 0.20749415457248688, 0.5766370296478271, 0.996248185634613, 0.9968888163566589, 0.9948746562004089, 0.9984643459320068, 0.9984676241874695]</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.9979233145713806</v>
+        <v>0.9989563226699829</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0.7471290999965277</v>
+        <v>0.7523682999890298</v>
       </c>
       <c r="J46" t="n">
-        <v>0.005703275572492577</v>
+        <v>0.005743269465565113</v>
       </c>
     </row>
     <row r="47">
@@ -2405,11 +2405,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[0.9162490367889404, 0.4847092032432556, 0.3246668577194214, 0.32051360607147217, 0.13537494838237762, 0.1263238489627838, 0.20527584850788116, 0.21922457218170166, 0.21069584786891937, 0.15332715213298798, 0.10255081206560135, 0.11282630264759064, 0.19128334522247314, 0.27123650908470154, 0.19710944592952728, 0.13374675810337067, 0.06594651937484741, 0.16170161962509155, 0.18306197226047516, 0.32309287786483765, 0.3496972620487213, 0.3919084370136261, 0.23014278709888458, 0.14965102076530457, 0.09917654097080231, 0.11318521201610565, 0.4058007001876831, 0.1414109766483307, 0.06633085757493973, 0.22287681698799133, 0.8927107453346252, 0.9723283052444458, 0.9608089923858643, 0.40541622042655945, 0.6458460092544556, 0.6722244620323181, 0.9741004109382629, 0.9867717623710632, 0.9946998357772827, 0.9907945990562439, 0.9928723573684692, 0.9963780045509338, 0.2812843918800354, 0.08705569803714752, 0.06663274019956589, 0.11458824574947357, 0.20680947601795197, 0.03474493697285652, 0.1798190325498581, 0.146583691239357, 0.0754772499203682, 0.13932746648788452, 0.16167722642421722, 0.20048534870147705, 0.37101584672927856, 0.6410285830497742, 0.996322751045227, 0.995712399482727, 0.9802224040031433, 0.9631553292274475, 0.9514946341514587, 0.6333568692207336, 0.7803714871406555, 0.9125924110412598, 0.6005784869194031, 0.8540055751800537, 0.604442298412323, 0.6457741856575012, 0.4031634032726288, 0.1845998466014862, 0.9626463651657104, 0.8649926781654358, 0.9091487526893616, 0.8721032738685608, 0.7851978540420532, 0.9816252589225769, 0.9114540219306946, 0.5679762363433838, 0.7047831416130066, 0.62848961353302, 0.8369351625442505, 0.38387417793273926, 0.3558657467365265, 0.7570050954818726, 0.4184954762458801, 0.6722756028175354, 0.6624845266342163, 0.28610166907310486, 0.32946425676345825, 0.48008856177330017, 0.6016156673431396, 0.5532684326171875, 0.35820716619491577, 0.3912161886692047, 0.6417863368988037, 0.444037526845932, 0.3128465414047241, 0.190655916929245, 0.6946030855178833, 0.5436573028564453, 0.6200741529464722, 0.8889069557189941, 0.8118450045585632, 0.5380842089653015, 0.8308310508728027, 0.755409300327301, 0.15695305168628693, 0.13147203624248505, 0.20826588571071625, 0.3500969409942627, 0.4297104775905609, 0.8337114453315735, 0.9682506322860718, 0.718313992023468, 0.3452033996582031, 0.6094635725021362, 0.31002867221832275, 0.46718737483024597, 0.5150166749954224, 0.6896092295646667, 0.4518769681453705, 0.3374564051628113, 0.33433470129966736, 0.5435908436775208, 0.6577314138412476, 0.38584640622138977, 0.32818979024887085, 0.7106693983078003, 0.6408807039260864, 0.6014307737350464, 0.47349271178245544, 0.47314319014549255]</t>
+          <t>[0.9216225147247314, 0.4956256151199341, 0.16742578148841858, 0.39051076769828796, 0.05381447449326515, 0.0647687241435051, 0.16179312765598297, 0.13004355132579803, 0.10731802135705948, 0.19382672011852264, 0.08503890782594681, 0.08620385080575943, 0.19787371158599854, 0.2620062232017517, 0.3015279173851013, 0.12916015088558197, 0.081861712038517, 0.1369863599538803, 0.16155722737312317, 0.27799922227859497, 0.19269463419914246, 0.25277963280677795, 0.1246502548456192, 0.1187216192483902, 0.035501375794410706, 0.07475738972425461, 0.38035547733306885, 0.17583470046520233, 0.039287276566028595, 0.17769715189933777, 0.8901093602180481, 0.9850578904151917, 0.9388255476951599, 0.10612603276968002, 0.6165700554847717, 0.5454221963882446, 0.981472373008728, 0.989357054233551, 0.9956685304641724, 0.9923204779624939, 0.992870032787323, 0.9964325428009033, 0.19594019651412964, 0.062149468809366226, 0.030847840011119843, 0.07804764807224274, 0.11838056892156601, 0.011984010227024555, 0.13831974565982819, 0.08365356922149658, 0.021498819813132286, 0.04298623278737068, 0.06586313992738724, 0.10610660165548325, 0.33117008209228516, 0.6702587008476257, 0.9968492388725281, 0.9980379939079285, 0.9891710877418518, 0.985410213470459, 0.9798582792282104, 0.7279970645904541, 0.8555701971054077, 0.9425150156021118, 0.5304232835769653, 0.806787371635437, 0.45602571964263916, 0.7444056868553162, 0.37337711453437805, 0.057796936482191086, 0.9624735116958618, 0.8362113237380981, 0.8847528696060181, 0.8441300392150879, 0.6990911960601807, 0.9716489911079407, 0.9529336094856262, 0.5343342423439026, 0.4112509489059448, 0.44957494735717773, 0.7066501379013062, 0.3561747074127197, 0.3185727000236511, 0.643134593963623, 0.125484898686409, 0.4495214819908142, 0.36691105365753174, 0.11858084797859192, 0.14750678837299347, 0.2019038200378418, 0.3700914978981018, 0.34877845644950867, 0.151310995221138, 0.16960470378398895, 0.49314481019973755, 0.1753322333097458, 0.15471531450748444, 0.10020588338375092, 0.5171513557434082, 0.4072525203227997, 0.5466994047164917, 0.9410995244979858, 0.8493551015853882, 0.5437353849411011, 0.6009920239448547, 0.5019484758377075, 0.0551125630736351, 0.030577365309000015, 0.061569999903440475, 0.15089358389377594, 0.17897845804691315, 0.8211475014686584, 0.9843465089797974, 0.7727636694908142, 0.16485953330993652, 0.27589038014411926, 0.08888665586709976, 0.2554009258747101, 0.36043602228164673, 0.5348029136657715, 0.24403980374336243, 0.18004897236824036, 0.21719707548618317, 0.4221450686454773, 0.6496954560279846, 0.372984379529953, 0.24227899312973022, 0.7024231553077698, 0.6884798407554626, 0.7153467535972595, 0.45215660333633423, 0.4516077935695648]</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.9963780045509338</v>
+        <v>0.9980379939079285</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -2423,10 +2423,10 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0.7442910999816377</v>
+        <v>0.7542652999982238</v>
       </c>
       <c r="J47" t="n">
-        <v>0.005638568939254831</v>
+        <v>0.005714131060592605</v>
       </c>
     </row>
     <row r="48">
@@ -2445,11 +2445,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[0.2529738247394562, 0.41012734174728394, 0.3042075037956238, 0.3007422685623169, 0.08161367475986481, 0.31696587800979614, 0.5056981444358826, 0.9181457161903381, 0.3231457471847534, 0.3179889917373657, 0.19053149223327637, 0.25524744391441345, 0.1680428832769394, 0.20702871680259705, 0.2191251516342163, 0.30541369318962097, 0.2382536232471466, 0.16857214272022247, 0.14571182429790497, 0.20926804840564728, 0.27965474128723145, 0.33900269865989685, 0.27102455496788025, 0.181862011551857, 0.37086308002471924, 0.8156097531318665, 0.6952472925186157, 0.6896466016769409, 0.44057878851890564, 0.31190264225006104, 0.19590647518634796, 0.36629214882850647, 0.5614179968833923, 0.6715600490570068, 0.6501869559288025, 0.5662412643432617, 0.6549415588378906, 0.6788432598114014, 0.5978301167488098, 0.8014589548110962, 0.3698034882545471, 0.3916984498500824, 0.09597961604595184, 0.052449990063905716, 0.6167683005332947, 0.21558643877506256, 0.36720389127731323, 0.21355892717838287, 0.49938511848449707, 0.3299064040184021, 0.5004357099533081, 0.31563737988471985, 0.6927886605262756, 0.30120691657066345, 0.30619537830352783, 0.4134483337402344, 0.17105434834957123, 0.7683952450752258, 0.23936866223812103, 0.5647929906845093, 0.7185811996459961, 0.7469868659973145, 0.7984236478805542, 0.4150562882423401, 0.547059178352356, 0.33163851499557495, 0.8080738186836243, 0.5064490437507629, 0.7318258881568909, 0.8915004134178162, 0.6509523987770081, 0.061106499284505844, 0.30862125754356384, 0.10628963261842728, 0.31828072667121887, 0.12853893637657166, 0.07868321239948273, 0.6800896525382996, 0.12186559289693832, 0.13098835945129395, 0.15125904977321625, 0.19949370622634888, 0.4303719699382782, 0.10018846392631531, 0.16605642437934875, 0.6723940372467041, 0.4550548791885376, 0.2891657054424286, 0.44178497791290283, 0.35899946093559265, 0.13641446828842163, 0.12556593120098114, 0.300577312707901, 0.2551353871822357, 0.5871155858039856, 0.8972985148429871, 0.3182116150856018, 0.41820254921913147, 0.35938408970832825, 0.8873243927955627, 0.4593604505062103, 0.7204452753067017, 0.47082021832466125, 0.7289280891418457, 0.9257837533950806, 0.8286405205726624, 0.8998469114303589, 0.9579991102218628, 0.6792956590652466, 0.7493071556091309, 0.9074272513389587, 0.8255718350410461, 0.8827506303787231, 0.7379019260406494, 0.3407028019428253, 0.5422706007957458, 0.4824589490890503, 0.36604782938957214, 0.45949670672416687, 0.4829513132572174, 0.869020402431488, 0.8871578574180603, 0.5787205100059509, 0.578997015953064]</t>
+          <t>[0.14139926433563232, 0.25487029552459717, 0.1875537931919098, 0.17941129207611084, 0.043317344039678574, 0.6303448677062988, 0.7506827712059021, 0.9190887808799744, 0.20024076104164124, 0.2251484990119934, 0.08150758594274521, 0.14475788176059723, 0.1257980763912201, 0.22133569419384003, 0.18365706503391266, 0.2643064856529236, 0.11741620302200317, 0.07096012681722641, 0.06726082414388657, 0.0771326795220375, 0.1573224663734436, 0.17013637721538544, 0.1373031735420227, 0.07296855747699738, 0.15233147144317627, 0.6333686709403992, 0.35585707426071167, 0.44856730103492737, 0.26101288199424744, 0.1620340496301651, 0.10708539187908173, 0.4045548141002655, 0.6149381995201111, 0.6296323537826538, 0.8079997897148132, 0.7361667156219482, 0.7558481097221375, 0.7540639638900757, 0.6493949890136719, 0.8397716283798218, 0.29858553409576416, 0.33334478735923767, 0.05732952803373337, 0.024601953104138374, 0.6537936329841614, 0.13924328982830048, 0.2627839148044586, 0.20540201663970947, 0.5290103554725647, 0.36301231384277344, 0.3671123683452606, 0.20715437829494476, 0.5499302744865417, 0.14513728022575378, 0.1324060559272766, 0.145077645778656, 0.08773016929626465, 0.4591888189315796, 0.1289735585451126, 0.36417582631111145, 0.48818421363830566, 0.5473427772521973, 0.7010982632637024, 0.2844840884208679, 0.35559722781181335, 0.19570142030715942, 0.8180311918258667, 0.4279806613922119, 0.7866255640983582, 0.9042342901229858, 0.4893050789833069, 0.04074158892035484, 0.15588171780109406, 0.10234276950359344, 0.3358284533023834, 0.1624230146408081, 0.062453996390104294, 0.5878679156303406, 0.060818858444690704, 0.07259205728769302, 0.08352108299732208, 0.16728711128234863, 0.45619410276412964, 0.09182054549455643, 0.15461184084415436, 0.5230811834335327, 0.3610866963863373, 0.13806121051311493, 0.28951552510261536, 0.39936593174934387, 0.06279487162828445, 0.09195060282945633, 0.27262401580810547, 0.3017905354499817, 0.717444121837616, 0.9095653295516968, 0.23185451328754425, 0.3400498032569885, 0.2513490915298462, 0.8802447319030762, 0.34484928846359253, 0.6433173418045044, 0.3213682770729065, 0.634467363357544, 0.8374219536781311, 0.7667988538742065, 0.926889955997467, 0.9460868835449219, 0.8221929669380188, 0.657666027545929, 0.8776400089263916, 0.8066690564155579, 0.906894862651825, 0.6940208077430725, 0.36143842339515686, 0.7364407181739807, 0.5231062173843384, 0.364177405834198, 0.5913298726081848, 0.466157466173172, 0.8920885920524597, 0.893751323223114, 0.4854346215724945, 0.4859564006328583]</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.9579991102218628</v>
+        <v>0.9460868835449219</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0.7086128999944776</v>
+        <v>0.7097103999985848</v>
       </c>
       <c r="J48" t="n">
-        <v>0.005714620161245788</v>
+        <v>0.005723470967730522</v>
       </c>
     </row>
     <row r="49">
@@ -2485,11 +2485,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[0.411523699760437, 0.1787102371454239, 0.39511579275131226, 0.21883316338062286, 0.25949254631996155, 0.21414169669151306, 0.3383873403072357, 0.22621415555477142, 0.2234053611755371, 0.08530174195766449, 0.058683522045612335, 0.06121404841542244, 0.060295220464468, 0.057664841413497925, 0.05230237543582916, 0.14889198541641235, 0.09465224295854568, 0.17541593313217163, 0.10929162800312042, 0.08038788288831711, 0.10014417767524719, 0.041719455271959305, 0.0931241512298584, 0.055415231734514236, 0.07710276544094086, 0.059854406863451004, 0.06309941411018372, 0.05648393556475639, 0.03439782187342644, 0.03882520645856857, 0.059007205069065094, 0.07598011195659637, 0.07698477804660797, 0.07444658875465393, 0.057877156883478165, 0.05309547111392021, 0.06499974429607391, 0.06964897364377975, 0.11308640986680984, 0.152991384267807, 0.055228341370821, 0.04396152123808861, 0.06788298487663269, 0.0813145786523819, 0.13171988725662231, 0.06523461639881134, 0.1311391144990921, 0.18019036948680878, 0.1742294281721115, 0.22219663858413696, 0.2490932196378708, 0.4342327415943146, 0.49443840980529785, 0.39287349581718445, 0.3243564963340759, 0.48342546820640564, 0.25814610719680786, 0.3435753881931305, 0.4107285439968109, 0.2677053213119507, 0.18037952482700348, 0.1972338855266571, 0.27486690878868103, 0.4928867518901825, 0.35195595026016235, 0.23805533349514008, 0.15874892473220825, 0.16790089011192322, 0.2760583162307739, 0.37640658020973206, 0.7926422953605652, 0.7868202924728394, 0.542215883731842, 0.6788119077682495, 0.7061230540275574, 0.5897291898727417, 0.17851577699184418, 0.23658820986747742, 0.5423183441162109, 0.30738961696624756, 0.29432645440101624, 0.37838315963745117, 0.1700982004404068, 0.23523969948291779, 0.23156951367855072, 0.3884556293487549, 0.2010515183210373, 0.11020107567310333, 0.21035583317279816, 0.8034594655036926, 0.23778243362903595, 0.4821546971797943, 0.8117210865020752, 0.9227791428565979, 0.8966290950775146, 0.7289131283760071, 0.7555311322212219, 0.5822994709014893, 0.6236169338226318, 0.4379550516605377, 0.07789692282676697, 0.06381363421678543, 0.08048893511295319, 0.08462417125701904, 0.09081662446260452, 0.07780489325523376, 0.07941316068172455, 0.07151477783918381, 0.0718129351735115, 0.13630366325378418, 0.07122163474559784, 0.05821162834763527, 0.029272031038999557, 0.08518388867378235, 0.07136784493923187, 0.05779412016272545, 0.04823845252394676, 0.07081805169582367, 0.04850185662508011, 0.05922624468803406, 0.09155674278736115, 0.0707501471042633, 0.11796244233846664, 0.05514964461326599, 0.055237460881471634]</t>
+          <t>[0.35140448808670044, 0.10466895997524261, 0.1555008590221405, 0.07732664793729782, 0.12896274030208588, 0.1260705590248108, 0.24030929803848267, 0.14771075546741486, 0.1610194593667984, 0.04795736446976662, 0.03114524856209755, 0.03212694078683853, 0.03756465017795563, 0.025267915800213814, 0.03725600987672806, 0.1621096432209015, 0.13015706837177277, 0.2953815460205078, 0.0986868143081665, 0.046463217586278915, 0.08513946831226349, 0.016300369054079056, 0.031677279621362686, 0.021038467064499855, 0.04199227690696716, 0.032976072281599045, 0.029371855780482292, 0.024448847398161888, 0.01496426947414875, 0.01484987884759903, 0.022831469774246216, 0.03066813014447689, 0.030253930017352104, 0.02899998612701893, 0.02645464800298214, 0.017919080331921577, 0.028565092012286186, 0.023016152903437614, 0.04458649456501007, 0.07662080973386765, 0.020448582246899605, 0.01659313030540943, 0.025564882904291153, 0.02844027616083622, 0.03787057846784592, 0.019895542412996292, 0.08579391986131668, 0.11231788992881775, 0.10623984038829803, 0.14105328917503357, 0.22404956817626953, 0.518574059009552, 0.4927159249782562, 0.3294382095336914, 0.3122868239879608, 0.46168434619903564, 0.24393397569656372, 0.4295414090156555, 0.4912151098251343, 0.26805469393730164, 0.10820215940475464, 0.10376287251710892, 0.24176917970180511, 0.38932594656944275, 0.18665233254432678, 0.15835222601890564, 0.10217795521020889, 0.08282917737960815, 0.14994944632053375, 0.25828155875205994, 0.9203417897224426, 0.844896137714386, 0.5632548332214355, 0.7206867933273315, 0.6733525991439819, 0.43484991788864136, 0.11477939784526825, 0.15500769019126892, 0.6406397223472595, 0.2668318748474121, 0.343179851770401, 0.3773825168609619, 0.14857856929302216, 0.27402883768081665, 0.21844546496868134, 0.3862224221229553, 0.19316968321800232, 0.1052515059709549, 0.1843702495098114, 0.8813744187355042, 0.24197763204574585, 0.5034390091896057, 0.6221705079078674, 0.9198800921440125, 0.9059707522392273, 0.6671246886253357, 0.6962764263153076, 0.5440647602081299, 0.6898733973503113, 0.5276724100112915, 0.054107751697301865, 0.044111739844083786, 0.06623216718435287, 0.07613841444253922, 0.059151843190193176, 0.05370697006583214, 0.04034934565424919, 0.048070602118968964, 0.045487914234399796, 0.08353311568498611, 0.045086633414030075, 0.03441356495022774, 0.014167909510433674, 0.04439789056777954, 0.03176579251885414, 0.01881992630660534, 0.015619897283613682, 0.02501676417887211, 0.015472854487597942, 0.025345057249069214, 0.043562907725572586, 0.029894718900322914, 0.07417760789394379, 0.01219948660582304, 0.012211951427161694]</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.9227791428565979</v>
+        <v>0.9203417897224426</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0.7031085999915376</v>
+        <v>0.7141226999956416</v>
       </c>
       <c r="J49" t="n">
-        <v>0.005624868799932301</v>
+        <v>0.005712981599965133</v>
       </c>
     </row>
     <row r="50">
@@ -2525,11 +2525,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[0.9960480332374573, 0.9975601434707642, 0.9980395436286926, 0.9981833100318909, 0.9986082911491394, 0.9985972046852112, 0.9990739822387695, 0.998868465423584, 0.997956395149231, 0.9951980710029602, 0.9960362315177917, 0.9988045692443848, 0.9989296793937683, 0.99782794713974, 0.9983880519866943, 0.9988846182823181, 0.9967966675758362, 0.9978569149971008, 0.9432059526443481, 0.9826042056083679, 0.9908496141433716, 0.9743123054504395, 0.9974848031997681, 0.9953790903091431, 0.9954161643981934, 0.9987190961837769, 0.9974104762077332, 0.9981495141983032, 0.9989264607429504, 0.9985986351966858, 0.9973082542419434, 0.9982293248176575, 0.9984582662582397, 0.9949095845222473, 0.9985672235488892, 0.9980313181877136, 0.9970709085464478, 0.9981632828712463, 0.9976270794868469, 0.9963487386703491, 0.9984993934631348, 0.9985478520393372, 0.9981393814086914, 0.9990468621253967, 0.9983432292938232, 0.9962523579597473, 0.9986059069633484, 0.9965355396270752, 0.9987769722938538, 0.9991838335990906, 0.9986282587051392, 0.9963439106941223, 0.9917219281196594, 0.9672640562057495, 0.9986421465873718, 0.9963791966438293, 0.9980029463768005, 0.9981110095977783, 0.9953338503837585, 0.9964632391929626, 0.9928145408630371, 0.9945505261421204, 0.9873344898223877, 0.9959580302238464, 0.9982520937919617, 0.9973462820053101, 0.9988864064216614, 0.9973198771476746, 0.997586727142334, 0.9974191188812256, 0.9972013235092163, 0.9983966946601868, 0.9955933690071106, 0.9985717535018921, 0.9969977140426636, 0.9982489347457886, 0.9978988170623779, 0.9988155364990234, 0.9989091157913208, 0.9991023540496826, 0.9985101819038391, 0.998450756072998, 0.9986461997032166, 0.999054491519928, 0.9970300197601318, 0.996360719203949, 0.8918275237083435, 0.9778345823287964, 0.9879997372627258, 0.9754570722579956, 0.6346305012702942, 0.9943314790725708, 0.992294192314148, 0.9987086057662964, 0.9978004097938538, 0.9986578226089478, 0.9922858476638794, 0.9989873766899109, 0.9989884495735168, 0.9991920590400696, 0.9983289837837219, 0.9983623623847961, 0.9990270137786865, 0.9989253878593445, 0.9986976385116577, 0.9922294020652771, 0.9970728158950806, 0.9988316893577576, 0.998802900314331, 0.9987022876739502, 0.9971135854721069, 0.9978147745132446, 0.999204695224762, 0.997491717338562, 0.9842993021011353, 0.9501848220825195, 0.8679240345954895, 0.9534240365028381, 0.8806800842285156, 0.44627007842063904, 0.9884343147277832, 0.9688088893890381, 0.9973022937774658, 0.9973114728927612]</t>
+          <t>[0.9990088939666748, 0.9991918206214905, 0.9993591904640198, 0.9992189407348633, 0.9994416832923889, 0.9995983242988586, 0.9997276663780212, 0.9996210336685181, 0.9994775652885437, 0.9991099238395691, 0.9991509914398193, 0.9995962977409363, 0.9995962977409363, 0.9994335770606995, 0.9996016621589661, 0.9996973276138306, 0.9991208910942078, 0.999085545539856, 0.9865643978118896, 0.9972507357597351, 0.9980459213256836, 0.9954723715782166, 0.9988332390785217, 0.9977357387542725, 0.9984492063522339, 0.9995583891868591, 0.9992936849594116, 0.9994072914123535, 0.9996733665466309, 0.9995507597923279, 0.9991710186004639, 0.9993261098861694, 0.9994839429855347, 0.9989000558853149, 0.9994351267814636, 0.9993124008178711, 0.9989762306213379, 0.9995273351669312, 0.9994891881942749, 0.9993265867233276, 0.999594509601593, 0.9995379447937012, 0.9995487332344055, 0.9997506737709045, 0.9996058344841003, 0.9989233613014221, 0.9995301961898804, 0.998837411403656, 0.999583899974823, 0.9997789263725281, 0.9996421337127686, 0.998927891254425, 0.9981104135513306, 0.9951089024543762, 0.9996607303619385, 0.9991532564163208, 0.9994704127311707, 0.9994578957557678, 0.9988313317298889, 0.9989100694656372, 0.9970471262931824, 0.9964308738708496, 0.9941385984420776, 0.9986342787742615, 0.9994778037071228, 0.9993983507156372, 0.9996892213821411, 0.9992378950119019, 0.9994507431983948, 0.9993041753768921, 0.9991320967674255, 0.9995550513267517, 0.9989952445030212, 0.9995971322059631, 0.9994248151779175, 0.9994614720344543, 0.9994333386421204, 0.999671220779419, 0.9996644258499146, 0.9996102452278137, 0.999584972858429, 0.9995408058166504, 0.9995027780532837, 0.9996628761291504, 0.9989983439445496, 0.99870765209198, 0.985805332660675, 0.9955928921699524, 0.9965859651565552, 0.9969364404678345, 0.9714098572731018, 0.9984745383262634, 0.9979017972946167, 0.9995189905166626, 0.9993102550506592, 0.9995885491371155, 0.9980167150497437, 0.9997426867485046, 0.999714195728302, 0.9998005032539368, 0.9994680285453796, 0.9993879795074463, 0.9997038245201111, 0.9997109770774841, 0.999630331993103, 0.9984834790229797, 0.999062716960907, 0.9995444416999817, 0.9996390342712402, 0.9995675683021545, 0.9990653395652771, 0.9993458390235901, 0.9996978044509888, 0.9990732669830322, 0.9956790804862976, 0.9930976033210754, 0.986156165599823, 0.9950785636901855, 0.986884355545044, 0.9130512475967407, 0.996764063835144, 0.9946645498275757, 0.9989920258522034, 0.9989959597587585]</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.999204695224762</v>
+        <v>0.9998005032539368</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0.6887419999984559</v>
+        <v>0.7070043999992777</v>
       </c>
       <c r="J50" t="n">
-        <v>0.005554370967729483</v>
+        <v>0.005701648387090949</v>
       </c>
     </row>
     <row r="51">
@@ -2565,11 +2565,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[0.9830396771430969, 0.9857656955718994, 0.9905588626861572, 0.9938589930534363, 0.9689754247665405, 0.9617465138435364, 0.9775843024253845, 0.9743267297744751, 0.9920859932899475, 0.9959348440170288, 0.994014322757721, 0.9963156580924988, 0.9798807501792908, 0.9933052659034729, 0.9905036091804504, 0.9943768382072449, 0.9963608384132385, 0.9948242902755737, 0.994708776473999, 0.9958590865135193, 0.993160605430603, 0.9931867122650146, 0.9898611307144165, 0.9939316511154175, 0.9951815009117126, 0.9852942228317261, 0.9934145212173462, 0.9838788509368896, 0.983518123626709, 0.9724550247192383, 0.987730085849762, 0.9939038157463074, 0.9835720658302307, 0.9926128387451172, 0.9953145980834961, 0.9908938407897949, 0.9233100414276123, 0.984435498714447, 0.9876461625099182, 0.9036449193954468, 0.8302211165428162, 0.9524831771850586, 0.9831631779670715, 0.9860564470291138, 0.9902355074882507, 0.9846509695053101, 0.9940736889839172, 0.9962965846061707, 0.9959469437599182, 0.9979031085968018, 0.998434841632843, 0.9956595301628113, 0.9921929240226746, 0.9912620782852173, 0.9905526638031006, 0.986107349395752, 0.9765377640724182, 0.982172429561615, 0.9676607847213745, 0.9847870469093323, 0.9624453186988831, 0.9905984997749329, 0.9942988157272339, 0.9916468858718872, 0.9663271903991699, 0.9851220846176147, 0.9900224804878235, 0.9887292385101318, 0.9847208857536316, 0.9816464781761169, 0.9737234711647034, 0.976239025592804, 0.9690176844596863, 0.9443677067756653, 0.9288491010665894, 0.968230664730072, 0.966882050037384, 0.9480822682380676, 0.9840449094772339, 0.9711341261863708, 0.9967792630195618, 0.9965033531188965, 0.9913303852081299, 0.9577611088752747, 0.9951502680778503, 0.9951344132423401, 0.9885308742523193, 0.9675189256668091, 0.9789517521858215, 0.9240772724151611, 0.9850986003875732, 0.9916281700134277, 0.991686999797821, 0.9441539645195007, 0.7811095714569092, 0.8989710211753845, 0.9692989587783813, 0.9332308769226074, 0.9799363613128662, 0.9956333041191101, 0.9934262037277222, 0.9874808192253113, 0.9844920635223389, 0.993671178817749, 0.992281973361969, 0.9820559620857239, 0.9910566806793213, 0.9852986335754395, 0.9908393025398254, 0.9614256620407104, 0.8145811557769775, 0.7263458371162415, 0.5626307725906372, 0.9669768214225769, 0.8880732655525208, 0.9780098795890808, 0.939698338508606, 0.9936244487762451, 0.9950551986694336, 0.9944964051246643, 0.9915696978569031, 0.990504801273346, 0.9936588406562805, 0.9936298727989197]</t>
+          <t>[0.9963845014572144, 0.9970405697822571, 0.9967831373214722, 0.9974147081375122, 0.9876295328140259, 0.9892339706420898, 0.9925030469894409, 0.9919775128364563, 0.9963752627372742, 0.9982579350471497, 0.9970376491546631, 0.9987899661064148, 0.9914008975028992, 0.9971957206726074, 0.9959433674812317, 0.9982559084892273, 0.998796820640564, 0.9985852241516113, 0.9986757636070251, 0.9986781477928162, 0.9976882934570312, 0.9980044960975647, 0.9968728423118591, 0.9978492259979248, 0.9988202452659607, 0.996113657951355, 0.998439371585846, 0.9961053729057312, 0.9950823783874512, 0.9914914965629578, 0.9978061318397522, 0.998173713684082, 0.9953036308288574, 0.9978998899459839, 0.9988547563552856, 0.9973395466804504, 0.9862796068191528, 0.9964706897735596, 0.9965556859970093, 0.980573832988739, 0.9616801738739014, 0.9912893772125244, 0.995631217956543, 0.9969147443771362, 0.997244119644165, 0.996644914150238, 0.9984573125839233, 0.998870313167572, 0.9986369013786316, 0.9993777275085449, 0.9994679093360901, 0.9989826083183289, 0.9976714253425598, 0.9977524876594543, 0.9966956377029419, 0.9962822794914246, 0.9934008717536926, 0.9951183795928955, 0.9911156892776489, 0.9946527481079102, 0.9875189661979675, 0.9971471428871155, 0.9986081719398499, 0.9989104270935059, 0.99366694688797, 0.996519923210144, 0.9969726800918579, 0.9973217844963074, 0.9954473376274109, 0.9965769648551941, 0.995884120464325, 0.99454665184021, 0.9928804039955139, 0.9901195764541626, 0.9871134757995605, 0.9932190775871277, 0.993453860282898, 0.9921830296516418, 0.9926936626434326, 0.9913280606269836, 0.9986276626586914, 0.99896240234375, 0.9975988268852234, 0.9878138303756714, 0.9982628226280212, 0.9981162548065186, 0.9957318902015686, 0.9906517267227173, 0.9950005412101746, 0.9918290972709656, 0.9970259070396423, 0.9980410933494568, 0.9982383251190186, 0.9851858019828796, 0.9651375412940979, 0.9821871519088745, 0.9913362264633179, 0.9829553961753845, 0.9950451850891113, 0.999061644077301, 0.998636782169342, 0.9967466592788696, 0.9959826469421387, 0.9980820417404175, 0.9977206587791443, 0.9940783977508545, 0.9979019165039062, 0.9972495436668396, 0.9982481002807617, 0.9927976727485657, 0.968845784664154, 0.9363389015197754, 0.9295834898948669, 0.9915904402732849, 0.9757277965545654, 0.9933985471725464, 0.9822997450828552, 0.9980485439300537, 0.9982202649116516, 0.99763023853302, 0.9975882768630981, 0.9972598552703857, 0.997593104839325, 0.9975792765617371]</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.998434841632843</v>
+        <v>0.9994679093360901</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -2583,10 +2583,10 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0.6968967000138946</v>
+        <v>0.7025995000003604</v>
       </c>
       <c r="J51" t="n">
-        <v>0.005620134677531408</v>
+        <v>0.005666125000002907</v>
       </c>
     </row>
     <row r="52">
@@ -2605,11 +2605,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[0.9977753758430481, 0.9965468049049377, 0.997505247592926, 0.993285596370697, 0.995768666267395, 0.9939467310905457, 0.9956012964248657, 0.9959039092063904, 0.9975780844688416, 0.9950658082962036, 0.9968898892402649, 0.9963971972465515, 0.9965773224830627, 0.9922325611114502, 0.995671272277832, 0.9980834722518921, 0.997309684753418, 0.9968934059143066, 0.9981904625892639, 0.9967713952064514, 0.993230938911438, 0.9934195876121521, 0.9912683963775635, 0.9970493316650391, 0.9933887720108032, 0.9966975450515747, 0.997658371925354, 0.9943367838859558, 0.9979648590087891, 0.9865321516990662, 0.9971349239349365, 0.997595489025116, 0.9980520009994507, 0.9982119798660278, 0.9980633854866028, 0.9957718253135681, 0.9938463568687439, 0.9931318163871765, 0.9941708445549011, 0.9976574182510376, 0.9977546334266663, 0.9983623623847961, 0.9966956377029419, 0.996539831161499, 0.997137188911438, 0.9980995059013367, 0.9957053065299988, 0.9919098019599915, 0.9952033758163452, 0.9965936541557312, 0.9960499405860901, 0.9961257576942444, 0.9977962970733643, 0.9963614344596863, 0.9977726340293884, 0.9982591271400452, 0.9955254197120667, 0.9911318421363831, 0.9923458099365234, 0.9953587651252747, 0.9959536790847778, 0.9975284934043884, 0.9982789754867554, 0.9984533786773682, 0.9944491386413574, 0.9967202544212341, 0.9989612102508545, 0.9981556534767151, 0.9982078075408936, 0.9965906143188477, 0.9825901389122009, 0.9956921935081482, 0.9954423904418945, 0.994845986366272, 0.9908896088600159, 0.9960545301437378, 0.99741530418396, 0.9942530989646912, 0.995805025100708, 0.995090126991272, 0.9925381541252136, 0.9915639162063599, 0.9933924078941345, 0.9973639845848083, 0.9972535967826843, 0.9951620697975159, 0.9947606921195984, 0.9971135854721069, 0.9979047775268555, 0.9981734752655029, 0.9981670379638672, 0.9984159469604492, 0.9964867830276489, 0.9891327023506165, 0.9969832301139832, 0.9968369007110596, 0.9988314509391785, 0.9983015060424805, 0.9954735636711121, 0.9983453750610352, 0.9965792298316956, 0.9961191415786743, 0.9864858388900757, 0.9945734143257141, 0.9978973865509033, 0.9959398508071899, 0.9883705377578735, 0.9950220584869385, 0.9977211356163025, 0.9979416728019714, 0.9987072944641113, 0.9978119134902954, 0.9971756935119629, 0.9906103014945984, 0.9894702434539795, 0.9983673691749573, 0.997998058795929, 0.9952821135520935, 0.9971622824668884, 0.9973089694976807, 0.9955809712409973, 0.9966155886650085, 0.9976779818534851, 0.9976683259010315]</t>
+          <t>[0.999360978603363, 0.9989914298057556, 0.9992440938949585, 0.9978277087211609, 0.9982802867889404, 0.9983470439910889, 0.9988610744476318, 0.9992284774780273, 0.9993864297866821, 0.9985625147819519, 0.9987826943397522, 0.9989116191864014, 0.9989713430404663, 0.9956274032592773, 0.9985938668251038, 0.9990177154541016, 0.9989537000656128, 0.9991071820259094, 0.9994140863418579, 0.9991047978401184, 0.9984063506126404, 0.9980549812316895, 0.9975685477256775, 0.9988075494766235, 0.9961032867431641, 0.9984226226806641, 0.9989853501319885, 0.998214840888977, 0.9991936087608337, 0.9954259991645813, 0.9989733695983887, 0.999075174331665, 0.9992573857307434, 0.9993441700935364, 0.9993680119514465, 0.9977713823318481, 0.9963619112968445, 0.9959924817085266, 0.9956650137901306, 0.9988646507263184, 0.9989857077598572, 0.9991821646690369, 0.9986728429794312, 0.998021125793457, 0.9988897442817688, 0.999174177646637, 0.9975281357765198, 0.9956595301628113, 0.9977426528930664, 0.9978712797164917, 0.9983691573143005, 0.9985895752906799, 0.9990161657333374, 0.998237133026123, 0.9989562034606934, 0.9992294311523438, 0.998117208480835, 0.9965963959693909, 0.9953383207321167, 0.9981233477592468, 0.9983141422271729, 0.9988687634468079, 0.9991220831871033, 0.9994242191314697, 0.9979597330093384, 0.9987354874610901, 0.9995467066764832, 0.9992035031318665, 0.9993550181388855, 0.9983308911323547, 0.9908170700073242, 0.9964454770088196, 0.9971400499343872, 0.9972658157348633, 0.9957376718521118, 0.9978919625282288, 0.9987615346908569, 0.9980930685997009, 0.9977453351020813, 0.9976235032081604, 0.9960070252418518, 0.9963938593864441, 0.9967389702796936, 0.999079704284668, 0.9990398287773132, 0.9984242916107178, 0.9981635212898254, 0.9986990690231323, 0.999241828918457, 0.9994471669197083, 0.9993877410888672, 0.999406099319458, 0.9990015625953674, 0.996830403804779, 0.9988172650337219, 0.9990129470825195, 0.9996172189712524, 0.9995323419570923, 0.9985479712486267, 0.9994545578956604, 0.9985577464103699, 0.9984257221221924, 0.992668867111206, 0.9973042011260986, 0.999193012714386, 0.9977555871009827, 0.9945393204689026, 0.997641921043396, 0.9986332058906555, 0.9990468621253967, 0.9994494318962097, 0.9989504218101501, 0.9988081455230713, 0.9963239431381226, 0.9959225654602051, 0.999351441860199, 0.9989890456199646, 0.9982207417488098, 0.9985752105712891, 0.9985893368721008, 0.9978247880935669, 0.9987053871154785, 0.9987305998802185, 0.9987279772758484]</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.9989612102508545</v>
+        <v>0.9996172189712524</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -2623,10 +2623,10 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0.6984405999828596</v>
+        <v>0.7069618999958038</v>
       </c>
       <c r="J52" t="n">
-        <v>0.005632585483732739</v>
+        <v>0.00570130564512745</v>
       </c>
     </row>
     <row r="53">
@@ -2645,11 +2645,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[0.9882575869560242, 0.9865191578865051, 0.9930731654167175, 0.9972367286682129, 0.9973652958869934, 0.9974063038825989, 0.9970695972442627, 0.9958928823471069, 0.9945400357246399, 0.9964610934257507, 0.9970274567604065, 0.997139573097229, 0.9960705041885376, 0.995743453502655, 0.9936994314193726, 0.9959665536880493, 0.997006356716156, 0.997437596321106, 0.997840166091919, 0.9986444115638733, 0.9955042004585266, 0.9740777015686035, 0.9829688668251038, 0.989310622215271, 0.9948580265045166, 0.995403528213501, 0.9918666481971741, 0.9952967762947083, 0.9954159259796143, 0.9933650493621826, 0.9957817792892456, 0.9960209727287292, 0.9840201139450073, 0.9923962950706482, 0.9944143295288086, 0.994522213935852, 0.9908558130264282, 0.995165228843689, 0.9931060671806335, 0.9928503036499023, 0.9976189732551575, 0.9973505735397339, 0.9967965483665466, 0.9964092373847961, 0.996553897857666, 0.9958168864250183, 0.9908766150474548, 0.9919924736022949, 0.9874342083930969, 0.9938656687736511, 0.9680675268173218, 0.9745060205459595, 0.988858699798584, 0.9952808022499084, 0.9970129728317261, 0.9967103004455566, 0.9933810234069824, 0.9950267672538757, 0.9931614398956299, 0.99406498670578, 0.992741584777832, 0.9944321513175964, 0.9967477321624756, 0.9905540347099304, 0.9930094480514526, 0.996227502822876, 0.996932864189148, 0.9978950023651123, 0.9973160624504089, 0.9957488775253296, 0.9962062835693359, 0.996362030506134, 0.9954845905303955, 0.996669352054596, 0.9908424615859985, 0.9773658514022827, 0.9909823536872864, 0.993392288684845, 0.992561399936676, 0.9911590218544006, 0.9898017048835754, 0.9946137070655823, 0.9917832612991333, 0.9932397603988647, 0.9931626319885254, 0.9916648268699646, 0.9802346229553223, 0.9970507621765137, 0.9965483546257019, 0.9964871406555176, 0.9966856837272644, 0.9913614392280579, 0.9927164912223816, 0.9963498115539551, 0.9950124621391296, 0.993606686592102, 0.9931828379631042, 0.9893561005592346, 0.9836788773536682, 0.9778662323951721, 0.9947320222854614, 0.9969398975372314, 0.989316463470459, 0.9883115887641907, 0.9946788549423218, 0.9930684566497803, 0.9959622025489807, 0.9949589967727661, 0.9971689581871033, 0.9970409274101257, 0.9974817633628845, 0.9980250597000122, 0.9982869029045105, 0.9969359636306763, 0.9928092956542969, 0.9940529465675354, 0.9956417083740234, 0.9922521710395813, 0.9867842793464661, 0.9897407293319702, 0.9950987696647644, 0.9965680837631226, 0.9934170246124268, 0.9933450222015381]</t>
+          <t>[0.9942548871040344, 0.9939403533935547, 0.9979217648506165, 0.9989891648292542, 0.9991835951805115, 0.9990693926811218, 0.9985947012901306, 0.9983534812927246, 0.9986201524734497, 0.9988818764686584, 0.9987555742263794, 0.9988685846328735, 0.9986415505409241, 0.9989680051803589, 0.9980586171150208, 0.9988406300544739, 0.9991195797920227, 0.9992542862892151, 0.9993075132369995, 0.9995574355125427, 0.9983103275299072, 0.9931378960609436, 0.9963441491127014, 0.9972643852233887, 0.9985747337341309, 0.9985570311546326, 0.9982014894485474, 0.9985440969467163, 0.9983717799186707, 0.9977713823318481, 0.9988161325454712, 0.9983816146850586, 0.9951358437538147, 0.9963474869728088, 0.9980050921440125, 0.9969965219497681, 0.994586706161499, 0.9973940849304199, 0.9976255297660828, 0.996853768825531, 0.9988455772399902, 0.9989030361175537, 0.9982916712760925, 0.9984869956970215, 0.9980930685997009, 0.997893750667572, 0.9965080618858337, 0.9973942041397095, 0.9962326884269714, 0.9978035092353821, 0.9905779361724854, 0.992192804813385, 0.9965816140174866, 0.9982635378837585, 0.9987586736679077, 0.9985186457633972, 0.9976714253425598, 0.9980331063270569, 0.998319685459137, 0.9977805018424988, 0.9967291355133057, 0.9980112314224243, 0.9990226030349731, 0.9969911575317383, 0.9968895316123962, 0.998450756072998, 0.9990972280502319, 0.9992808699607849, 0.9988172650337219, 0.9979252815246582, 0.9980230331420898, 0.9986401200294495, 0.9983453750610352, 0.9988448619842529, 0.9965205192565918, 0.9872887134552002, 0.9951556921005249, 0.9947894811630249, 0.9944663643836975, 0.9944954514503479, 0.9960418939590454, 0.997814416885376, 0.9973199963569641, 0.9979338645935059, 0.9981982111930847, 0.9975895881652832, 0.9949306845664978, 0.9989079236984253, 0.9988448619842529, 0.9988265633583069, 0.9987756609916687, 0.9965763688087463, 0.9963940978050232, 0.9985411167144775, 0.9982001781463623, 0.9979619979858398, 0.9982013702392578, 0.9967467784881592, 0.9943114519119263, 0.990402340888977, 0.9981138706207275, 0.9987803101539612, 0.9956945180892944, 0.9953193068504333, 0.9980104565620422, 0.9975080490112305, 0.9984128475189209, 0.9983854293823242, 0.9991031885147095, 0.9988234639167786, 0.9991273283958435, 0.9993773102760315, 0.9993764758110046, 0.9987223744392395, 0.9977216124534607, 0.9982479810714722, 0.998108983039856, 0.9969148635864258, 0.9950992465019226, 0.9952629804611206, 0.9983904361724854, 0.9984422326087952, 0.9966933727264404, 0.9966620206832886]</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.9986444115638733</v>
+        <v>0.9995574355125427</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0.7008338999876287</v>
+        <v>0.7095568000077037</v>
       </c>
       <c r="J53" t="n">
-        <v>0.005651886290222812</v>
+        <v>0.005722232258126643</v>
       </c>
     </row>
     <row r="54">
@@ -2685,11 +2685,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0.17889538407325745, 0.16379784047603607, 0.1395377367734909, 0.14068478345870972, 0.18212643265724182, 0.1240229383111, 0.19441302120685577, 0.205511212348938, 0.21296562254428864, 0.22903986275196075, 0.17353229224681854, 0.20481376349925995, 0.3129473626613617, 0.3929262161254883, 0.26867541670799255, 0.1882396638393402, 0.27466848492622375, 0.6793051362037659, 0.7269526720046997, 0.8010660409927368, 0.9123769402503967, 0.8320862054824829, 0.6466004848480225, 0.6961713433265686, 0.8221615552902222, 0.3386119306087494, 0.28594520688056946, 0.24222306907176971, 0.4037306010723114, 0.4696778953075409, 0.4423109292984009, 0.3028010129928589, 0.27388909459114075, 0.3541213572025299, 0.27923107147216797, 0.3284202516078949, 0.39000561833381653, 0.34266117215156555, 0.2950531840324402, 0.28819480538368225, 0.2753685712814331, 0.21500596404075623, 0.21770046651363373, 0.17888513207435608, 0.16497790813446045, 0.20059111714363098, 0.20163637399673462, 0.2224871665239334, 0.20563054084777832, 0.18962730467319489, 0.18055129051208496, 0.151797354221344, 0.12824863195419312, 0.11082319170236588, 0.10210829228162766, 0.10652273893356323, 0.08999432623386383, 0.10070044547319412, 0.1069740578532219, 0.09608802944421768, 0.08955968171358109, 0.1071789413690567, 0.11548770219087601, 0.10617496818304062, 0.1124313473701477, 0.14451242983341217, 0.156590536236763, 0.13691429793834686, 0.12807528674602509, 0.12036822736263275, 0.13149665296077728, 0.12549708783626556, 0.10251933336257935, 0.10620854794979095, 0.09778571873903275, 0.14854027330875397, 0.14822746813297272, 0.22025352716445923, 0.136692076921463, 0.13319262862205505, 0.1462334543466568, 0.10022813081741333, 0.11444433033466339, 0.13412897288799286, 0.2146105021238327, 0.24803538620471954, 0.41992804408073425, 0.3955039381980896, 0.3675645589828491, 0.2668874263763428, 0.33088839054107666, 0.24843744933605194, 0.24777176976203918, 0.19925501942634583, 0.3044479191303253, 0.35148704051971436, 0.28716129064559937, 0.17168807983398438, 0.14890405535697937, 0.18724912405014038, 0.2621505856513977, 0.23118510842323303, 0.1762510985136032, 0.17347046732902527, 0.19479849934577942, 0.25085482001304626, 0.3936670124530792, 0.2729880213737488, 0.19109447300434113, 0.19553230702877045, 0.18645930290222168, 0.22345484793186188, 0.2608794569969177, 0.30267512798309326, 0.3834351599216461, 0.3893164098262787, 0.39928966760635376, 0.5975514650344849, 0.43672725558280945, 0.41021227836608887, 0.5207768082618713, 0.5673792362213135, 0.6046128869056702, 0.5076205730438232, 0.6516129374504089, 0.6527246236801147]</t>
+          <t>[0.12762807309627533, 0.11591736227273941, 0.09129748493432999, 0.09104663878679276, 0.11984119564294815, 0.07699225842952728, 0.16892066597938538, 0.20884697139263153, 0.20422901213169098, 0.19752678275108337, 0.15378834307193756, 0.18897387385368347, 0.31721413135528564, 0.3340587615966797, 0.2223675400018692, 0.1631363332271576, 0.32516974210739136, 0.7304031252861023, 0.764490008354187, 0.8497704267501831, 0.9207724332809448, 0.845910370349884, 0.648047924041748, 0.6447402238845825, 0.8642182350158691, 0.46554166078567505, 0.33974000811576843, 0.28464242815971375, 0.38312268257141113, 0.39785149693489075, 0.4493136405944824, 0.30643677711486816, 0.27901336550712585, 0.34454938769340515, 0.24230223894119263, 0.2890695333480835, 0.2591496407985687, 0.2370915710926056, 0.20026107132434845, 0.20698508620262146, 0.2141120880842209, 0.16517025232315063, 0.1599321961402893, 0.1493893265724182, 0.13391727209091187, 0.18455615639686584, 0.1689261943101883, 0.15204927325248718, 0.13006466627120972, 0.11259466409683228, 0.10356111079454422, 0.09162411838769913, 0.07147309929132462, 0.056443680077791214, 0.042932674288749695, 0.044237058609724045, 0.03689854219555855, 0.04432959854602814, 0.05211741104722023, 0.04568639397621155, 0.050893157720565796, 0.06750839948654175, 0.07346475124359131, 0.060225311666727066, 0.06775373220443726, 0.10613492876291275, 0.10252341628074646, 0.0883302316069603, 0.0849224403500557, 0.08643808215856552, 0.08611473441123962, 0.058737579733133316, 0.042210325598716736, 0.05247441306710243, 0.04117722436785698, 0.09190213680267334, 0.08895906060934067, 0.14903807640075684, 0.09326884150505066, 0.08363180607557297, 0.0796550065279007, 0.06477488577365875, 0.08546621352434158, 0.11123926937580109, 0.19339396059513092, 0.2799459397792816, 0.5655203461647034, 0.48526841402053833, 0.44426411390304565, 0.31740057468414307, 0.43222707509994507, 0.4018721580505371, 0.40319231152534485, 0.2744496464729309, 0.52386075258255, 0.4715058207511902, 0.23874250054359436, 0.1142304390668869, 0.07939928770065308, 0.09048275649547577, 0.18466387689113617, 0.18658646941184998, 0.13077716529369354, 0.11320213973522186, 0.1370343565940857, 0.18484053015708923, 0.37344473600387573, 0.2126101404428482, 0.11943307518959045, 0.14396584033966064, 0.13421252369880676, 0.14032648503780365, 0.15536083281040192, 0.21130551397800446, 0.26747074723243713, 0.3223724663257599, 0.4010937809944153, 0.5629042983055115, 0.3956536054611206, 0.28789791464805603, 0.36737164855003357, 0.4591694474220276, 0.4867132306098938, 0.35716724395751953, 0.5031602382659912, 0.5048726201057434]</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.9123769402503967</v>
+        <v>0.9207724332809448</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
@@ -2703,10 +2703,10 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0.6925019000191242</v>
+        <v>0.7484802000108175</v>
       </c>
       <c r="J54" t="n">
-        <v>0.005496046825548604</v>
+        <v>0.005940319047704901</v>
       </c>
     </row>
     <row r="55">
@@ -2725,11 +2725,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[0.187981978058815, 0.1692533791065216, 0.1902197003364563, 0.2035711258649826, 0.21029826998710632, 0.23283043503761292, 0.3165310025215149, 0.39277929067611694, 0.4324074983596802, 0.4528467655181885, 0.48862650990486145, 0.5170153975486755, 0.5588786005973816, 0.67059725522995, 0.7160939574241638, 0.7014564275741577, 0.6238217949867249, 0.4800930321216583, 0.36561551690101624, 0.34214961528778076, 0.3048322796821594, 0.22816430032253265, 0.18384738266468048, 0.1625872403383255, 0.16900625824928284, 0.20705685019493103, 0.27616673707962036, 0.35504037141799927, 0.3052856922149658, 0.3516675531864166, 0.3655315041542053, 0.3198408782482147, 0.26802095770835876, 0.3094300329685211, 0.3030974268913269, 0.2952632009983063, 0.226450577378273, 0.18242038786411285, 0.1722404658794403, 0.2457197904586792, 0.3072120249271393, 0.3335154354572296, 0.30955666303634644, 0.3636741042137146, 0.3511059880256653, 0.33435505628585815, 0.35906049609184265, 0.38428550958633423, 0.22077611088752747, 0.24788381159305573, 0.32225117087364197, 0.3213880658149719, 0.27343785762786865, 0.4042105972766876, 0.39925670623779297, 0.324004203081131, 0.45881032943725586, 0.4398397207260132, 0.31138816475868225, 0.3095858097076416, 0.2988526225090027, 0.30998098850250244, 0.34836357831954956, 0.3335403501987457, 0.3017365634441376, 0.3235943019390106, 0.3247828781604767, 0.36989626288414, 0.4025610089302063, 0.4324033558368683, 0.42757299542427063, 0.4818558394908905, 0.45111432671546936, 0.4201618731021881, 0.40969040989875793, 0.46982115507125854, 0.45249736309051514, 0.40242141485214233, 0.3327442407608032, 0.332714319229126, 0.2702363431453705, 0.2678680419921875, 0.22813843190670013, 0.24821700155735016, 0.27401065826416016, 0.2596035897731781, 0.2898920178413391, 0.30172643065452576, 0.3182159662246704, 0.36242738366127014, 0.39146292209625244, 0.43708789348602295, 0.398474782705307, 0.379360169172287, 0.398158460855484, 0.45260167121887207, 0.4288550615310669, 0.3969196379184723, 0.3821452558040619, 0.3673635721206665, 0.3950469493865967, 0.43716195225715637, 0.37674108147621155, 0.34373506903648376, 0.3285883963108063, 0.4057449698448181, 0.41253483295440674, 0.39246615767478943, 0.39170798659324646, 0.34682053327560425, 0.33679044246673584, 0.317486435174942, 0.34147799015045166, 0.33139052987098694, 0.4033999443054199, 0.42182210087776184, 0.44482967257499695, 0.5144054293632507, 0.545763373374939, 0.5561685562133789, 0.47916096448898315, 0.47672972083091736, 0.48285961151123047, 0.5335038900375366, 0.5710142254829407, 0.5171381831169128, 0.5222105979919434, 0.5228548645973206, 0.47497108578681946, 0.48299315571784973, 0.5183538794517517, 0.530545711517334, 0.5299445390701294, 0.4820128083229065, 0.48251578211784363, 0.48336219787597656, 0.4042459726333618, 0.37997984886169434, 0.4199535548686981, 0.47588205337524414, 0.51222163438797, 0.5027454495429993, 0.5355907678604126, 0.5020167827606201, 0.48399069905281067, 0.45413053035736084, 0.36228886246681213, 0.4672624468803406, 0.5048195719718933, 0.49137696623802185, 0.46305525302886963, 0.35726261138916016, 0.39980384707450867, 0.5175012350082397, 0.5426238179206848, 0.47649139165878296, 0.6247353553771973, 0.6274304389953613, 0.5556223392486572, 0.636400580406189, 0.6512446999549866, 0.6925808191299438, 0.7684804201126099, 0.7974130511283875, 0.7759572863578796, 0.7329119443893433, 0.6838079690933228, 0.6658539175987244, 0.5518500208854675, 0.4997856020927429, 0.42526379227638245, 0.40101179480552673, 0.3420318067073822, 0.3225116729736328, 0.3692501485347748, 0.32150858640670776, 0.3066670000553131, 0.30262109637260437, 0.33118897676467896, 0.39886635541915894, 0.42116522789001465, 0.4586568772792816, 0.4050685167312622, 0.40950340032577515, 0.42712655663490295, 0.5800378918647766, 0.5279279947280884, 0.5515972375869751, 0.5813841819763184, 0.5289856791496277, 0.3903866708278656, 0.34647634625434875, 0.3625286817550659, 0.43137621879577637, 0.4976744055747986, 0.5149435997009277, 0.562146782875061, 0.5453458428382874, 0.5096359848976135, 0.5993168950080872, 0.6038625240325928, 0.5509986281394958, 0.5845105648040771, 0.5915149450302124, 0.5116287469863892, 0.47128617763519287, 0.43526923656463623, 0.33552080392837524, 0.2882710099220276, 0.35279569029808044, 0.3666490912437439, 0.4397954046726227, 0.440054327249527, 0.5417688488960266]</t>
+          <t>[0.04955816641449928, 0.04625532776117325, 0.06557602435350418, 0.07551039010286331, 0.07129060477018356, 0.08362334221601486, 0.12003660947084427, 0.17877192795276642, 0.19006197154521942, 0.266490638256073, 0.31038615107536316, 0.30437594652175903, 0.35076215863227844, 0.4079631567001343, 0.45336148142814636, 0.42690715193748474, 0.32833853363990784, 0.19087326526641846, 0.12122341990470886, 0.11102815717458725, 0.10930462926626205, 0.07961337268352509, 0.060908786952495575, 0.045315682888031006, 0.04162785783410072, 0.046304378658533096, 0.06931203603744507, 0.09580212086439133, 0.09716031700372696, 0.12165578454732895, 0.1276584267616272, 0.098106250166893, 0.07958909869194031, 0.11137085407972336, 0.10878849774599075, 0.10386622697114944, 0.07600944489240646, 0.05326901748776436, 0.05204278975725174, 0.09555132687091827, 0.14872834086418152, 0.16477574408054352, 0.15993881225585938, 0.18780279159545898, 0.15360110998153687, 0.12907926738262177, 0.1480480432510376, 0.1331595778465271, 0.038355614989995956, 0.06694298982620239, 0.1377898007631302, 0.13948240876197815, 0.0887061133980751, 0.14400114119052887, 0.12831032276153564, 0.10250003635883331, 0.15173929929733276, 0.15135237574577332, 0.08609872311353683, 0.09026645123958588, 0.08339577913284302, 0.08972987532615662, 0.12425870448350906, 0.12433350086212158, 0.12812162935733795, 0.1462193727493286, 0.14879287779331207, 0.17422379553318024, 0.1996554583311081, 0.22293782234191895, 0.1977488398551941, 0.25490304827690125, 0.23939965665340424, 0.22241920232772827, 0.22663766145706177, 0.29699987173080444, 0.24627673625946045, 0.18540100753307343, 0.13851183652877808, 0.1462646871805191, 0.0931830182671547, 0.0909089669585228, 0.06636935472488403, 0.08024458587169647, 0.09080452471971512, 0.09093990921974182, 0.111909419298172, 0.1272668093442917, 0.14465031027793884, 0.19235147535800934, 0.2137066274881363, 0.2665513753890991, 0.26055198907852173, 0.2344394326210022, 0.24640904366970062, 0.2951015830039978, 0.285241961479187, 0.25255417823791504, 0.24492472410202026, 0.22106792032718658, 0.2446560263633728, 0.3126653730869293, 0.22831681370735168, 0.19172385334968567, 0.20175547897815704, 0.2799428403377533, 0.26199328899383545, 0.24374079704284668, 0.2697482109069824, 0.22358117997646332, 0.22940866649150848, 0.19202663004398346, 0.21489232778549194, 0.20251163840293884, 0.2619743347167969, 0.27356162667274475, 0.28061482310295105, 0.3649618625640869, 0.3814425766468048, 0.39642080664634705, 0.32937344908714294, 0.31773313879966736, 0.34146571159362793, 0.4176715016365051, 0.4141835570335388, 0.37921005487442017, 0.3952071964740753, 0.3587622344493866, 0.3117663562297821, 0.322917640209198, 0.3649577498435974, 0.3773370385169983, 0.3916407525539398, 0.3560408055782318, 0.36332815885543823, 0.3319590985774994, 0.2082739770412445, 0.19907598197460175, 0.2912331223487854, 0.36805155873298645, 0.40435510873794556, 0.3645298182964325, 0.36739590764045715, 0.35818132758140564, 0.36598360538482666, 0.2950316071510315, 0.22028300166130066, 0.295971155166626, 0.34490180015563965, 0.345784991979599, 0.31705695390701294, 0.20716731250286102, 0.23888784646987915, 0.30440858006477356, 0.3150712847709656, 0.2877108156681061, 0.5540269613265991, 0.5619990229606628, 0.46965155005455017, 0.552682638168335, 0.60873943567276, 0.625889778137207, 0.7089952826499939, 0.7293556928634644, 0.6670541763305664, 0.5466728210449219, 0.5188596844673157, 0.5006729960441589, 0.37736976146698, 0.333370566368103, 0.23359663784503937, 0.23660974204540253, 0.18186624348163605, 0.1723862737417221, 0.18853794038295746, 0.1339244395494461, 0.13607117533683777, 0.1250949651002884, 0.1292114406824112, 0.1914241462945938, 0.2383936047554016, 0.3232981860637665, 0.25828230381011963, 0.22978544235229492, 0.2698253393173218, 0.3560088574886322, 0.3022574484348297, 0.322133868932724, 0.3590100407600403, 0.3098782002925873, 0.1608930379152298, 0.12046724557876587, 0.11228638887405396, 0.13304051756858826, 0.18264226615428925, 0.2403828650712967, 0.24860985577106476, 0.25325268507003784, 0.22885537147521973, 0.2554837465286255, 0.21963754296302795, 0.17228788137435913, 0.19549210369586945, 0.21195758879184723, 0.14731651544570923, 0.11288367211818695, 0.09446030110120773, 0.04550796002149582, 0.03676247596740723, 0.05070267617702484, 0.057673536241054535, 0.08546183258295059, 0.11024198681116104, 0.1628262996673584]</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.7974130511283875</v>
+        <v>0.7293556928634644</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1.212518100015586</v>
+        <v>1.212848600000143</v>
       </c>
       <c r="J55" t="n">
-        <v>0.005665972429979375</v>
+        <v>0.005667516822430575</v>
       </c>
     </row>
     <row r="56">
@@ -2765,11 +2765,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[0.6321719884872437, 0.5906814932823181, 0.5485891103744507, 0.567188024520874, 0.5393219590187073, 0.5620057582855225, 0.5391849875450134, 0.5037476420402527, 0.5064517259597778, 0.6609752178192139, 0.6272860765457153, 0.6176256537437439, 0.5559335947036743, 0.4532042443752289, 0.4595172703266144, 0.45368558168411255, 0.4827911853790283, 0.6160833835601807, 0.7147324681282043, 0.6362144947052002, 0.5927913188934326, 0.4848896861076355, 0.5583539605140686, 0.6202503442764282, 0.6123587489128113, 0.6356981992721558, 0.7579062581062317, 0.7764848470687866, 0.7701931595802307, 0.7273611426353455, 0.7372175455093384, 0.7724344730377197, 0.7230859398841858, 0.5794905424118042, 0.5114355683326721, 0.45573389530181885, 0.39107081294059753, 0.36258503794670105, 0.3392041325569153, 0.4021040201187134, 0.4771120548248291, 0.4355713427066803, 0.4514595568180084, 0.4961664080619812, 0.5593507885932922, 0.5368543267250061, 0.4880203902721405, 0.49372491240501404, 0.5945209264755249, 0.6470767855644226, 0.6711532473564148, 0.5957589745521545, 0.567563533782959, 0.5587033033370972, 0.5526487827301025, 0.48120689392089844, 0.46830999851226807, 0.4408438205718994, 0.4498327374458313, 0.44769787788391113, 0.39137256145477295, 0.3871392011642456, 0.4041890799999237, 0.40356242656707764, 0.43622973561286926, 0.4607808589935303, 0.4346373975276947, 0.44164949655532837, 0.35194894671440125, 0.3768651783466339, 0.4349580407142639, 0.48215141892433167, 0.3836672604084015, 0.4308816194534302, 0.3913072347640991, 0.45990821719169617, 0.4800148606300354, 0.5060377717018127, 0.39409416913986206, 0.4338937997817993, 0.49658718705177307, 0.4594552218914032, 0.4135536253452301, 0.3760095238685608, 0.35896429419517517, 0.36473923921585083, 0.3871471583843231, 0.38708195090293884, 0.4012942910194397, 0.4601978361606598, 0.5024420022964478, 0.5592737793922424, 0.71866774559021, 0.7584515810012817, 0.6656128168106079, 0.8525513410568237, 0.736588716506958, 0.41307586431503296, 0.2844746708869934, 0.314166784286499, 0.3179903030395508, 0.3856281340122223, 0.4125957787036896, 0.4442606568336487, 0.4183955788612366, 0.4092754125595093, 0.4631999433040619, 0.5028971433639526, 0.4881328344345093, 0.4871290624141693, 0.5512393712997437, 0.6654973030090332, 0.6893028616905212, 0.7115759253501892, 0.6279464364051819, 0.5202690362930298, 0.6419141888618469, 0.48443642258644104, 0.405148983001709, 0.4517839252948761, 0.34623342752456665, 0.3116220235824585, 0.35260918736457825, 0.3615490794181824, 0.5325676798820496, 0.8522201776504517, 0.9167016744613647, 0.9317396879196167, 0.9147850275039673, 0.9348870515823364, 0.9428539872169495, 0.9411147832870483, 0.9296249151229858, 0.9145971536636353, 0.8962538242340088, 0.8914300203323364, 0.9126216173171997, 0.9300158619880676, 0.8915437459945679, 0.8457139730453491, 0.8103499412536621, 0.8076741099357605, 0.7796557545661926, 0.6886574625968933, 0.6214680671691895, 0.77070552110672, 0.6491419076919556, 0.6155726313591003, 0.6025558710098267, 0.5874101519584656, 0.5850954055786133, 0.6109481453895569, 0.5519074201583862, 0.43375515937805176, 0.3887493312358856, 0.3831435441970825, 0.5245257019996643, 0.5233173370361328, 0.7182626128196716, 0.7444383502006531, 0.7030300498008728, 0.6980370879173279, 0.8062702417373657, 0.7423480153083801, 0.6148238182067871, 0.559898316860199, 0.8363155722618103, 0.8227101564407349, 0.7891344428062439, 0.7874826192855835, 0.7151448726654053, 0.7211562991142273, 0.8065885305404663, 0.8074526190757751, 0.8199418187141418, 0.7642943859100342, 0.6142249703407288, 0.5225912928581238, 0.42254623770713806, 0.42826008796691895, 0.37941551208496094, 0.48783349990844727, 0.6260054111480713, 0.6488428711891174, 0.716963529586792, 0.6417351365089417, 0.5507715940475464, 0.4955688416957855, 0.502938985824585, 0.5214154720306396, 0.49533748626708984, 0.5060269236564636, 0.5231143236160278, 0.574447512626648, 0.5711851119995117, 0.7909738421440125, 0.7406430840492249, 0.5478463768959045, 0.44437310099601746, 0.3369828760623932, 0.3806140720844269, 0.3670286238193512, 0.36295050382614136, 0.3606283962726593, 0.41120803356170654, 0.5375848412513733, 0.4881953001022339, 0.3533399999141693]</t>
+          <t>[0.63832026720047, 0.5965365767478943, 0.4749080538749695, 0.5294868350028992, 0.4504501223564148, 0.483004629611969, 0.44057512283325195, 0.46015408635139465, 0.4528975188732147, 0.6015522480010986, 0.588765561580658, 0.6138407588005066, 0.5332723259925842, 0.398221880197525, 0.3984448313713074, 0.36770498752593994, 0.4453885853290558, 0.5725828409194946, 0.6702281832695007, 0.5145953297615051, 0.5385414958000183, 0.4661688208580017, 0.5371690988540649, 0.6061553359031677, 0.5377109050750732, 0.5120494365692139, 0.6894739270210266, 0.6959215998649597, 0.6998704671859741, 0.6728932857513428, 0.715988039970398, 0.8069097399711609, 0.7048351168632507, 0.5293559432029724, 0.45773017406463623, 0.37099477648735046, 0.26193588972091675, 0.20085540413856506, 0.18613851070404053, 0.2695333957672119, 0.4741433262825012, 0.4035876989364624, 0.449764221906662, 0.5115772485733032, 0.5414413213729858, 0.5102789998054504, 0.476736843585968, 0.4536033868789673, 0.6040306687355042, 0.6909974813461304, 0.7032328248023987, 0.643740713596344, 0.5787975192070007, 0.5307567715644836, 0.5127881765365601, 0.4351080358028412, 0.44152143597602844, 0.3996189832687378, 0.47306954860687256, 0.42355436086654663, 0.35737448930740356, 0.3411821722984314, 0.3540039658546448, 0.3526225686073303, 0.41885390877723694, 0.4420996606349945, 0.4142819344997406, 0.3998122811317444, 0.3722815215587616, 0.40911534428596497, 0.4760810136795044, 0.5796293020248413, 0.3681453764438629, 0.3789921700954437, 0.3528207838535309, 0.4304119050502777, 0.43507862091064453, 0.43079638481140137, 0.32244405150413513, 0.3750704824924469, 0.4932948350906372, 0.4561742842197418, 0.37870755791664124, 0.3293377459049225, 0.31497490406036377, 0.29057127237319946, 0.3023696839809418, 0.27688363194465637, 0.24693571031093597, 0.3244096040725708, 0.36990121006965637, 0.5094650387763977, 0.7148234844207764, 0.8018308281898499, 0.7348623275756836, 0.8909410238265991, 0.7400627136230469, 0.2270238697528839, 0.15910600125789642, 0.1838102638721466, 0.1908787339925766, 0.2744690775871277, 0.3371405303478241, 0.30531778931617737, 0.2693796753883362, 0.23924610018730164, 0.2976601719856262, 0.40104931592941284, 0.32344621419906616, 0.2896267771720886, 0.38378238677978516, 0.5637011528015137, 0.6266727447509766, 0.680237889289856, 0.5568342804908752, 0.39375656843185425, 0.5859348773956299, 0.33473899960517883, 0.24736151099205017, 0.3012102246284485, 0.17533361911773682, 0.14609189331531525, 0.16554783284664154, 0.2071099579334259, 0.4212915897369385, 0.8526424765586853, 0.9306026697158813, 0.9495932459831238, 0.9390847086906433, 0.9623166918754578, 0.9651138186454773, 0.9671428203582764, 0.9578726291656494, 0.9373729825019836, 0.9256218075752258, 0.9267805814743042, 0.9181585907936096, 0.9296557307243347, 0.8910543918609619, 0.8540105819702148, 0.819040834903717, 0.7963462471961975, 0.7791641354560852, 0.6833571195602417, 0.5584854483604431, 0.7473874688148499, 0.6542918086051941, 0.5789726376533508, 0.5545288324356079, 0.5378590226173401, 0.5545340180397034, 0.6122972965240479, 0.5553910732269287, 0.36231014132499695, 0.3277456760406494, 0.34499263763427734, 0.5529048442840576, 0.48723456263542175, 0.6757070422172546, 0.6810380220413208, 0.5916361808776855, 0.5586227178573608, 0.7301755547523499, 0.6259371042251587, 0.4740981459617615, 0.41981008648872375, 0.8284637331962585, 0.8210435509681702, 0.7856132388114929, 0.7699640989303589, 0.6967684030532837, 0.6680952906608582, 0.7700854539871216, 0.7826222777366638, 0.7483699321746826, 0.6920985579490662, 0.3820309340953827, 0.2913018465042114, 0.18958476185798645, 0.19257260859012604, 0.1538372039794922, 0.27963095903396606, 0.5089513659477234, 0.5376716256141663, 0.5949745178222656, 0.48785823583602905, 0.43511947989463806, 0.3713768720626831, 0.3737815320491791, 0.4098092317581177, 0.3565557301044464, 0.334870845079422, 0.3868754804134369, 0.4242715537548065, 0.3773673176765442, 0.7332914471626282, 0.6367738246917725, 0.33343610167503357, 0.26123514771461487, 0.16837160289287567, 0.13648834824562073, 0.13059177994728088, 0.1641969531774521, 0.19245220720767975, 0.23778502643108368, 0.5202929377555847, 0.3878060281276703, 0.19215118885040283]</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.9428539872169495</v>
+        <v>0.9671428203582764</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -2783,10 +2783,10 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1.157058100012364</v>
+        <v>1.146110800007591</v>
       </c>
       <c r="J56" t="n">
-        <v>0.005562779326982519</v>
+        <v>0.005510148076959572</v>
       </c>
     </row>
     <row r="57">
@@ -2805,11 +2805,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>[0.9738991260528564, 0.9429417848587036, 0.9635069966316223, 0.9666011929512024, 0.969854474067688, 0.9801661372184753, 0.9828647375106812, 0.9786723852157593, 0.9531034827232361, 0.8788684606552124, 0.7123237252235413, 0.5413225293159485, 0.5812200307846069, 0.5092766284942627, 0.4972107410430908, 0.520760715007782, 0.5634557008743286, 0.6906763315200806, 0.6829366683959961, 0.7599115371704102, 0.744432270526886, 0.7206388115882874, 0.6387631297111511, 0.5671020150184631, 0.4986177086830139, 0.4432806968688965, 0.5352856516838074, 0.848269522190094, 0.9793311953544617, 0.9858561754226685, 0.9859098196029663, 0.9896112680435181, 0.9897701740264893, 0.9905703067779541, 0.9882289171218872, 0.9835826754570007, 0.96941077709198, 0.9738658666610718, 0.963988184928894, 0.8786882162094116, 0.9331287145614624, 0.966835618019104, 0.9820345640182495, 0.9741600155830383, 0.986054003238678, 0.9147876501083374, 0.947955310344696, 0.9854429960250854, 0.9677722454071045, 0.9794268608093262, 0.9777482748031616, 0.9809778928756714, 0.9842227101325989, 0.9886554479598999, 0.990317702293396, 0.9910169839859009, 0.9917199611663818, 0.9912279844284058, 0.9884827733039856, 0.9908965229988098, 0.9912554025650024, 0.9908706545829773, 0.988970160484314, 0.9844332933425903, 0.9847009181976318, 0.9917077422142029, 0.9862778782844543, 0.9895937442779541, 0.9926387071609497, 0.9927438497543335, 0.9920328259468079, 0.9888960123062134, 0.9902196526527405, 0.9914833903312683, 0.9925381541252136, 0.988675594329834, 0.9862446188926697, 0.9721388816833496, 0.9712216854095459, 0.9797753095626831, 0.9859153032302856, 0.9850037097930908, 0.9834327101707458, 0.986735463142395, 0.976669192314148, 0.9779624938964844, 0.969527542591095, 0.9712543487548828, 0.9636446833610535, 0.9706822633743286, 0.9838483929634094, 0.9833362102508545, 0.9850630760192871, 0.9876264929771423, 0.9903426170349121, 0.9855471849441528, 0.972323477268219, 0.9628832340240479, 0.9444023966789246, 0.9414021968841553, 0.9529511332511902, 0.957276463508606, 0.9679610729217529, 0.955323338508606, 0.9491706490516663, 0.9754133224487305, 0.9825646281242371, 0.9809385538101196, 0.9901219010353088, 0.9892917275428772, 0.9879041314125061, 0.9820730686187744, 0.9786230325698853, 0.9825145602226257, 0.9761837720870972, 0.9695252776145935, 0.9697414636611938, 0.9748834371566772, 0.9782710671424866, 0.9799349904060364, 0.9721193313598633, 0.9658303260803223, 0.9521557092666626, 0.9474557042121887, 0.9447389245033264, 0.9459518194198608, 0.9381576776504517, 0.9510269165039062, 0.9404593706130981, 0.9065625071525574, 0.9154695868492126, 0.9421524405479431, 0.9721540212631226, 0.9785729050636292, 0.9848565459251404, 0.7711729407310486, 0.8536481857299805, 0.9824714064598083, 0.9904423356056213, 0.9899402260780334, 0.9887683391571045, 0.9811683893203735, 0.9775813817977905, 0.9861640334129333, 0.9842840433120728, 0.9860846400260925, 0.9852745532989502, 0.977250874042511, 0.9755802750587463, 0.9753937721252441, 0.983318567276001, 0.9903982877731323, 0.9917209148406982, 0.9893269538879395, 0.9906003475189209, 0.9873700141906738, 0.9748334884643555, 0.9769108891487122, 0.9836275577545166, 0.9889916181564331, 0.9917873740196228, 0.9936931133270264, 0.9925703406333923, 0.9935899972915649, 0.9897794127464294, 0.9890751838684082, 0.9860846996307373, 0.9792181253433228, 0.9749336838722229, 0.9806159734725952, 0.9860526323318481, 0.9835088849067688, 0.9845579266548157, 0.9854995012283325, 0.9867069125175476, 0.9933925271034241, 0.9943110942840576, 0.993979811668396, 0.9924692511558533, 0.992642343044281, 0.9933280944824219, 0.9933155179023743]</t>
+          <t>[0.985678493976593, 0.9574583768844604, 0.9751421809196472, 0.9799586534500122, 0.979834258556366, 0.9861461520195007, 0.9873171448707581, 0.9862191081047058, 0.9652488231658936, 0.9034360647201538, 0.7169278860092163, 0.5274710059165955, 0.6012495160102844, 0.5709460973739624, 0.6037606596946716, 0.6605228185653687, 0.6793873310089111, 0.7745548486709595, 0.7443837523460388, 0.8176273703575134, 0.8398507237434387, 0.8375207781791687, 0.6409293413162231, 0.4734641909599304, 0.4300793409347534, 0.39266929030418396, 0.5978772044181824, 0.8822871446609497, 0.9854702949523926, 0.9903533458709717, 0.9910105466842651, 0.993817150592804, 0.9949198365211487, 0.9956673383712769, 0.9939753413200378, 0.9888210296630859, 0.9771630764007568, 0.9840505719184875, 0.9733819961547852, 0.9401320219039917, 0.9763073921203613, 0.9901953339576721, 0.9936152696609497, 0.9911795258522034, 0.9926335215568542, 0.9595959186553955, 0.9702104926109314, 0.9905862212181091, 0.9793663620948792, 0.9867597222328186, 0.9843223690986633, 0.9866161346435547, 0.9886350631713867, 0.9939310550689697, 0.9946070313453674, 0.9948321580886841, 0.9948723912239075, 0.9948977828025818, 0.9934760928153992, 0.9959535598754883, 0.996336817741394, 0.995937705039978, 0.9949324727058411, 0.9923399686813354, 0.9921882152557373, 0.9948692321777344, 0.9902377724647522, 0.9935723543167114, 0.9959595799446106, 0.9972942471504211, 0.9968497157096863, 0.9956666231155396, 0.9959359169006348, 0.9952743053436279, 0.9958435893058777, 0.9947059750556946, 0.9934110045433044, 0.9816164970397949, 0.9758061170578003, 0.9788814783096313, 0.9854926466941833, 0.9836830496788025, 0.9829294681549072, 0.9893849492073059, 0.9767557382583618, 0.9794111847877502, 0.9762272834777832, 0.981941819190979, 0.9782370924949646, 0.9853304624557495, 0.9933793544769287, 0.9921956062316895, 0.9913831353187561, 0.9932164549827576, 0.9954323768615723, 0.9935640692710876, 0.9862892627716064, 0.9805349707603455, 0.9694187045097351, 0.9694988131523132, 0.9782021641731262, 0.9757627248764038, 0.9821045994758606, 0.973899781703949, 0.9673946499824524, 0.9861389994621277, 0.9904698133468628, 0.9901076555252075, 0.9955220222473145, 0.9947356581687927, 0.9959061145782471, 0.9926960468292236, 0.9894599914550781, 0.9909048676490784, 0.9861047863960266, 0.9839704632759094, 0.9826144576072693, 0.9864510297775269, 0.9887757301330566, 0.9905552268028259, 0.9876407980918884, 0.9857738018035889, 0.9811495542526245, 0.9745508432388306, 0.9648486971855164, 0.9668971300125122, 0.9571546912193298, 0.9610400199890137, 0.9548434615135193, 0.9114248156547546, 0.9311812520027161, 0.9606068730354309, 0.9843220114707947, 0.9885061979293823, 0.9928802847862244, 0.8047437071800232, 0.8658994436264038, 0.989043116569519, 0.9957485795021057, 0.9962131977081299, 0.9945138692855835, 0.9907722473144531, 0.988922119140625, 0.9938289523124695, 0.9919077157974243, 0.9922376275062561, 0.9927142262458801, 0.9874047636985779, 0.9840224981307983, 0.9856154918670654, 0.9905827045440674, 0.9946240782737732, 0.9960042834281921, 0.9946666955947876, 0.9956796765327454, 0.9937020540237427, 0.987092912197113, 0.9868109822273254, 0.9911031723022461, 0.9946740865707397, 0.9964489936828613, 0.996231734752655, 0.9953271150588989, 0.9955037236213684, 0.9920616149902344, 0.991513192653656, 0.9880708456039429, 0.9793804287910461, 0.9770811200141907, 0.9860203862190247, 0.99156254529953, 0.9906468391418457, 0.991551399230957, 0.9927495718002319, 0.9934079647064209, 0.9966926574707031, 0.9968067407608032, 0.9957347512245178, 0.9944420456886292, 0.9946322441101074, 0.9951674938201904, 0.9951592087745667]</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.9943110942840576</v>
+        <v>0.9972942471504211</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1.01200419999077</v>
+        <v>1.027130700007547</v>
       </c>
       <c r="J57" t="n">
-        <v>0.005560462637311922</v>
+        <v>0.00564357527476674</v>
       </c>
     </row>
     <row r="58">
@@ -2845,11 +2845,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[0.9960160851478577, 0.9976747632026672, 0.9977589845657349, 0.9973347783088684, 0.9965254664421082, 0.9961982369422913, 0.996159553527832, 0.996591329574585, 0.9965129494667053, 0.9967018961906433, 0.995859682559967, 0.9951086640357971, 0.9956331849098206, 0.9966225624084473, 0.9963556528091431, 0.995205283164978, 0.9949581027030945, 0.9957798719406128, 0.9962530136108398, 0.9954667091369629, 0.9943687319755554, 0.9945476055145264, 0.99433434009552, 0.9930713772773743, 0.9942692518234253, 0.9950002431869507, 0.9913251399993896, 0.9927525520324707, 0.9928290247917175, 0.9910750389099121, 0.992656409740448, 0.9892104864120483, 0.9883762001991272, 0.9861630797386169, 0.9872021079063416, 0.9871137142181396, 0.9868720769882202, 0.9878110289573669, 0.9867476224899292, 0.9888660311698914, 0.9894528388977051, 0.9923751950263977, 0.9903503060340881, 0.9885806441307068, 0.9929141998291016, 0.9911904335021973, 0.9913021326065063, 0.9920148849487305, 0.9925411939620972, 0.9933859705924988, 0.9900438785552979, 0.9812979698181152, 0.986349880695343, 0.9883902072906494, 0.987135112285614, 0.9837133884429932, 0.9855498671531677, 0.9893977642059326, 0.99403977394104, 0.9929337501525879, 0.9885820746421814, 0.9910747408866882, 0.9938154220581055, 0.9952402114868164, 0.9944410920143127, 0.9920429587364197, 0.9924032688140869, 0.9949713945388794, 0.99533611536026, 0.9946934580802917, 0.9944162368774414, 0.9942365288734436, 0.9934443235397339, 0.9937421679496765, 0.9907926321029663, 0.9924536347389221, 0.9908993244171143, 0.9920547008514404, 0.9921572208404541, 0.9911563396453857, 0.9938725233078003, 0.9954458475112915, 0.9957247972488403, 0.9948170781135559, 0.9944869875907898, 0.9939894676208496, 0.993623673915863, 0.9943825006484985, 0.9935925602912903, 0.9937788844108582, 0.9929942488670349, 0.9942733645439148, 0.9943715333938599, 0.9949625730514526, 0.9957895874977112, 0.9953340888023376, 0.9947063326835632, 0.9955561757087708, 0.9945055842399597, 0.9954609274864197, 0.996356725692749, 0.9956504702568054, 0.9948760867118835, 0.9945307374000549, 0.9959048628807068, 0.9962466359138489, 0.9956158399581909, 0.9960687160491943, 0.9958189129829407, 0.9961689114570618, 0.9953054785728455, 0.9944816827774048, 0.9949040412902832, 0.9946085214614868, 0.9946087598800659, 0.9946622252464294, 0.994867205619812, 0.9948128461837769, 0.9943751096725464, 0.9946664571762085, 0.9951247572898865, 0.9953325390815735, 0.9962654709815979, 0.9954349398612976, 0.9949841499328613, 0.994457483291626, 0.9936872124671936, 0.9911283254623413, 0.990725576877594, 0.9931026697158813, 0.9933856129646301, 0.9939608573913574, 0.9944579601287842, 0.9938802719116211, 0.993489146232605, 0.9937762022018433, 0.995093584060669, 0.9944902658462524, 0.9954715967178345, 0.9955600500106812, 0.9946563243865967, 0.9949167966842651, 0.9949369430541992, 0.9954403638839722, 0.9956125020980835, 0.9951487183570862, 0.99488765001297, 0.9961733222007751, 0.9968146681785583, 0.9964665174484253, 0.9962359070777893, 0.9968938827514648, 0.9964798092842102, 0.9965386390686035, 0.9968155026435852, 0.9960840940475464, 0.9952991008758545, 0.9951269626617432, 0.995254635810852, 0.9958701729774475, 0.9965169429779053, 0.997080385684967, 0.996654748916626, 0.9964278340339661, 0.9977272152900696, 0.9979454874992371, 0.9973904490470886, 0.9976517558097839, 0.9981911778450012, 0.9980120658874512, 0.9978501796722412, 0.9974337220191956, 0.996510922908783, 0.9959782361984253, 0.9959766268730164, 0.9949306845664978, 0.9916660189628601, 0.99204021692276, 0.9916533827781677, 0.99189692735672, 0.9914781451225281, 0.9931352138519287, 0.9949681162834167, 0.995162844657898, 0.9945197701454163, 0.9938509464263916, 0.9957113265991211, 0.9961552023887634, 0.9957324862480164, 0.9959049820899963, 0.996112048625946, 0.9962583780288696, 0.9965236783027649, 0.9962183833122253, 0.9954540729522705, 0.995522141456604, 0.9951731562614441, 0.9951711297035217, 0.9956355690956116, 0.9961118102073669, 0.995108425617218, 0.9958316683769226, 0.9961523413658142, 0.9962689876556396, 0.9963757395744324, 0.996006190776825, 0.9963704347610474, 0.995930016040802, 0.9959906935691833, 0.9954701662063599, 0.9949324727058411, 0.9950025677680969, 0.9936625957489014, 0.9927445650100708, 0.9927653670310974]</t>
+          <t>[0.997858464717865, 0.9989008903503418, 0.9990062117576599, 0.9988234639167786, 0.998573899269104, 0.9981852173805237, 0.9981029033660889, 0.9985540509223938, 0.9986727237701416, 0.9987479448318481, 0.998160183429718, 0.9975422620773315, 0.99802565574646, 0.998479425907135, 0.9983968138694763, 0.9978274703025818, 0.9974355101585388, 0.997718870639801, 0.9980161190032959, 0.9976271986961365, 0.9962742328643799, 0.9959778189659119, 0.9953110814094543, 0.9940592050552368, 0.9960160851478577, 0.9967461824417114, 0.9940442442893982, 0.9952641725540161, 0.9949212670326233, 0.9938516616821289, 0.9963340759277344, 0.993804931640625, 0.992626965045929, 0.9897204041481018, 0.9903110265731812, 0.9910634756088257, 0.9901776909828186, 0.9892616271972656, 0.9898608922958374, 0.9923116564750671, 0.9925314784049988, 0.99437415599823, 0.9914310574531555, 0.9906741976737976, 0.9949971437454224, 0.9941775798797607, 0.9938820600509644, 0.9932481050491333, 0.9938176274299622, 0.9944268465042114, 0.9916568994522095, 0.9798765182495117, 0.9850253462791443, 0.9872732162475586, 0.9868886470794678, 0.9834039807319641, 0.9845601320266724, 0.991662859916687, 0.9967824220657349, 0.9959849119186401, 0.9932621121406555, 0.9946263432502747, 0.9961286783218384, 0.997038722038269, 0.9963728189468384, 0.9939547181129456, 0.9941838383674622, 0.9968926310539246, 0.9975345134735107, 0.9968173503875732, 0.9961692690849304, 0.9965274930000305, 0.9952840209007263, 0.9958798885345459, 0.9939437508583069, 0.9957039952278137, 0.9933488965034485, 0.9937440752983093, 0.9942532181739807, 0.9929527640342712, 0.9943448305130005, 0.9968885779380798, 0.997681736946106, 0.9972164630889893, 0.9972766041755676, 0.9967646598815918, 0.996699869632721, 0.99727863073349, 0.9965798258781433, 0.9964653253555298, 0.9957908391952515, 0.9966237545013428, 0.9964773058891296, 0.9968084692955017, 0.9972594976425171, 0.9969022274017334, 0.9960774779319763, 0.9967771172523499, 0.9959635734558105, 0.9968698620796204, 0.9977245926856995, 0.9967502355575562, 0.9961585402488708, 0.9963341951370239, 0.9977191090583801, 0.9981266856193542, 0.9975273013114929, 0.9976372718811035, 0.9971855282783508, 0.9972910284996033, 0.9966962337493896, 0.9961354732513428, 0.9962576627731323, 0.9950445890426636, 0.9951803684234619, 0.9951291084289551, 0.9951741099357605, 0.995315670967102, 0.99534010887146, 0.996199905872345, 0.9969087243080139, 0.9966393709182739, 0.9980267882347107, 0.9972110390663147, 0.9966727495193481, 0.9956430196762085, 0.9948117733001709, 0.9922007918357849, 0.9927825927734375, 0.9958252906799316, 0.995849609375, 0.9957090616226196, 0.9957497119903564, 0.9955554604530334, 0.9956529140472412, 0.9963862895965576, 0.9969887137413025, 0.9967293739318848, 0.997498095035553, 0.9974898099899292, 0.9968717694282532, 0.9970117807388306, 0.9970694184303284, 0.9968448877334595, 0.9966907501220703, 0.9958949089050293, 0.9959155917167664, 0.9973071813583374, 0.9980562925338745, 0.9978764057159424, 0.9976735711097717, 0.9979984164237976, 0.9975716471672058, 0.9975594282150269, 0.9978612065315247, 0.996956467628479, 0.9960571527481079, 0.9958421587944031, 0.9963506460189819, 0.9970057606697083, 0.9976639747619629, 0.9983236193656921, 0.9978244304656982, 0.9973770380020142, 0.9983538389205933, 0.9985197186470032, 0.9982445240020752, 0.9987176656723022, 0.9991375207901001, 0.9989109039306641, 0.9988254904747009, 0.9983624815940857, 0.9973748922348022, 0.9966145157814026, 0.996667206287384, 0.9957239627838135, 0.9925158619880676, 0.9930784106254578, 0.9935943484306335, 0.9936639070510864, 0.9932934045791626, 0.9942671656608582, 0.9961346387863159, 0.9960998296737671, 0.9955233335494995, 0.9945840239524841, 0.9967093467712402, 0.9970313310623169, 0.9965560436248779, 0.996841311454773, 0.997160792350769, 0.9971848130226135, 0.9977388381958008, 0.9974921941757202, 0.9967783093452454, 0.9972360730171204, 0.997112512588501, 0.997177243232727, 0.9975625276565552, 0.9979022741317749, 0.9970963001251221, 0.9975422620773315, 0.9976128339767456, 0.9976044297218323, 0.9976847171783447, 0.9975564479827881, 0.9978546500205994, 0.9976861476898193, 0.9976565837860107, 0.997166097164154, 0.9965845346450806, 0.9967196583747864, 0.995157778263092, 0.9939033389091492, 0.9939168095588684]</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.9981911778450012</v>
+        <v>0.9991375207901001</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1.206349999993108</v>
+        <v>1.205460500001209</v>
       </c>
       <c r="J58" t="n">
-        <v>0.005610930232526084</v>
+        <v>0.005606793023261437</v>
       </c>
     </row>
     <row r="59">
@@ -2885,11 +2885,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[0.6497741937637329, 0.7436875104904175, 0.6701211333274841, 0.5398885011672974, 0.5777914524078369, 0.4317628741264343, 0.46186941862106323, 0.45585712790489197, 0.5081357955932617, 0.6551824808120728, 0.7198890447616577, 0.6686267852783203, 0.5147541165351868, 0.5361751317977905, 0.5390990972518921, 0.48115670680999756, 0.48490068316459656, 0.6368455290794373, 0.7245418429374695, 0.6461000442504883, 0.49702757596969604, 0.515713095664978, 0.45431146025657654, 0.6237347722053528, 0.7567410469055176, 0.8477091789245605, 0.852063000202179, 0.7931995391845703, 0.8474574089050293, 0.9325551986694336, 0.9580358862876892, 0.9739442467689514, 0.9636253118515015, 0.950223445892334, 0.9402986168861389, 0.9495330452919006, 0.9246731400489807, 0.9257447123527527, 0.9377951622009277, 0.880652129650116, 0.9030874967575073, 0.8847784399986267, 0.8278046250343323, 0.8032922744750977, 0.7799524664878845, 0.7571417093276978, 0.7178189754486084, 0.7045159935951233, 0.7424555420875549, 0.9388446807861328, 0.969682514667511, 0.9663768410682678, 0.946599006652832, 0.9105557799339294, 0.8873693943023682, 0.8290627598762512, 0.8299508094787598, 0.8333808183670044, 0.837770938873291, 0.8417831063270569, 0.839743971824646, 0.8766944408416748, 0.8908358216285706, 0.8639286160469055, 0.7902010083198547, 0.7270824909210205, 0.8829634189605713, 0.9718068838119507, 0.9284108281135559, 0.9526025056838989, 0.9523881077766418, 0.9308850169181824, 0.9003087878227234, 0.9274811744689941, 0.8682144284248352, 0.8788623213768005, 0.8263050317764282, 0.8350253701210022, 0.8738299012184143, 0.9337761402130127, 0.9287750720977783, 0.9097955822944641, 0.8532981872558594, 0.8250324130058289, 0.71023029088974, 0.7690666913986206, 0.8477878570556641, 0.8066731691360474, 0.7689184546470642, 0.8261431455612183, 0.7853230237960815, 0.7800742387771606, 0.7945718169212341, 0.9220302104949951, 0.9719274640083313, 0.9419494271278381, 0.8544690608978271, 0.8817346096038818, 0.6329241394996643, 0.5503126978874207, 0.4487580358982086, 0.46698909997940063, 0.4153384268283844, 0.36014389991760254, 0.3911621868610382, 0.6051729917526245, 0.8204215168952942, 0.8711733222007751, 0.800778329372406, 0.7625174522399902, 0.7936912178993225, 0.8442355990409851, 0.9138224720954895, 0.819983720779419, 0.7744271159172058, 0.6746545433998108, 0.7221496105194092, 0.7559767365455627, 0.8502573370933533, 0.7205846309661865, 0.6462154388427734, 0.6425487399101257, 0.7450259327888489, 0.8110013604164124, 0.7902520895004272, 0.870966911315918, 0.8884271383285522, 0.7995203733444214, 0.7782560586929321, 0.6868473291397095, 0.6641021966934204, 0.6134793758392334, 0.6493541598320007, 0.6944600343704224, 0.7903542518615723, 0.7964111566543579, 0.826183021068573, 0.8761175870895386, 0.9123257398605347, 0.9577530026435852, 0.9358601570129395, 0.8841384053230286, 0.9331920742988586, 0.8960383534431458, 0.9284659624099731, 0.911746621131897, 0.96757572889328, 0.971339225769043, 0.9786428213119507, 0.9715671539306641, 0.9389328360557556, 0.8820992112159729, 0.873920202255249, 0.8533421754837036, 0.8278193473815918, 0.721442461013794, 0.6567394137382507, 0.7373115420341492, 0.8128440380096436, 0.8476284742355347, 0.8815011978149414, 0.7735818028450012, 0.6583765745162964, 0.6391919255256653, 0.7150062322616577, 0.8437964916229248, 0.810438871383667, 0.8198807239532471, 0.8192722201347351, 0.8018102645874023, 0.8095873594284058, 0.8357720971107483, 0.8484973311424255, 0.7785129547119141, 0.7615621089935303, 0.8050798177719116, 0.7195600867271423, 0.6063841581344604, 0.44569218158721924, 0.4748925268650055, 0.3773576617240906, 0.38502609729766846, 0.33679965138435364, 0.5479553937911987, 0.6669902205467224, 0.8547306656837463, 0.9169058799743652, 0.8812797665596008, 0.7666430473327637, 0.8589999675750732, 0.9464332461357117, 0.9602158665657043, 0.9523946046829224, 0.9350910186767578, 0.9294865727424622, 0.9240497946739197, 0.8964160680770874, 0.724304735660553, 0.7155343294143677, 0.7470932602882385, 0.75495445728302, 0.8167087435722351, 0.833017110824585, 0.874565839767456, 0.8952063322067261, 0.8040332794189453, 0.7162342071533203, 0.8144041895866394, 0.8964977264404297, 0.8896414637565613, 0.9193167090415955, 0.9245582818984985, 0.9723429679870605, 0.9740580916404724]</t>
+          <t>[0.2977854311466217, 0.4075997471809387, 0.31572237610816956, 0.23625251650810242, 0.28985291719436646, 0.21787020564079285, 0.2819065749645233, 0.2897438108921051, 0.31348916888237, 0.4890117645263672, 0.5317723751068115, 0.4005295932292938, 0.2872130870819092, 0.32470569014549255, 0.3385005593299866, 0.25554579496383667, 0.28184446692466736, 0.4708961248397827, 0.5193563103675842, 0.41381338238716125, 0.2832282781600952, 0.34372249245643616, 0.26839637756347656, 0.4476433992385864, 0.5910562872886658, 0.7962661385536194, 0.8130123019218445, 0.7393364906311035, 0.8396401405334473, 0.9337722063064575, 0.9562627077102661, 0.9694145917892456, 0.9578840136528015, 0.9379375576972961, 0.9111219644546509, 0.9281349182128906, 0.8926629424095154, 0.8971331715583801, 0.9067183136940002, 0.74916011095047, 0.8144183158874512, 0.8164235353469849, 0.7865695953369141, 0.7500906586647034, 0.6726650595664978, 0.6206605434417725, 0.568618655204773, 0.5469213128089905, 0.6506842970848083, 0.9329965114593506, 0.9672466516494751, 0.9668824076652527, 0.9401246309280396, 0.8630633354187012, 0.8457121849060059, 0.7345895171165466, 0.7358324527740479, 0.7489787340164185, 0.7707268595695496, 0.7697120308876038, 0.7627071738243103, 0.8392910957336426, 0.8587939143180847, 0.8306726217269897, 0.7619913220405579, 0.694164514541626, 0.8697240948677063, 0.948549747467041, 0.8908981680870056, 0.9090141654014587, 0.9165514707565308, 0.8478732109069824, 0.8165908455848694, 0.8463548421859741, 0.72514408826828, 0.7682963609695435, 0.6331585049629211, 0.5794355869293213, 0.6967592239379883, 0.8660294413566589, 0.8776008486747742, 0.8296597003936768, 0.6631592512130737, 0.5650205612182617, 0.38119104504585266, 0.5139172077178955, 0.6919311285018921, 0.6835317611694336, 0.59141606092453, 0.639639139175415, 0.5832827687263489, 0.5676572918891907, 0.6552265882492065, 0.9132616519927979, 0.9665752649307251, 0.9093415141105652, 0.7678189873695374, 0.779112696647644, 0.4012511372566223, 0.26699724793434143, 0.18551373481750488, 0.19417113065719604, 0.1569601148366928, 0.14109791815280914, 0.18559880554676056, 0.4308023750782013, 0.7155191898345947, 0.7824298739433289, 0.6361202001571655, 0.6182065606117249, 0.6422207355499268, 0.7554271817207336, 0.8523676991462708, 0.6693670749664307, 0.6638047099113464, 0.5237279534339905, 0.5667495131492615, 0.5706920027732849, 0.7739474177360535, 0.6134349703788757, 0.49176889657974243, 0.521914541721344, 0.7355931401252747, 0.8811869621276855, 0.8245418071746826, 0.8723128437995911, 0.8939841985702515, 0.8029798269271851, 0.7551992535591125, 0.6655610799789429, 0.6265256404876709, 0.4010474979877472, 0.4611230790615082, 0.5337090492248535, 0.680387556552887, 0.6301973462104797, 0.6508861780166626, 0.8214430809020996, 0.912312924861908, 0.9702208638191223, 0.9468972086906433, 0.8928943872451782, 0.9286761283874512, 0.8741622567176819, 0.8535836935043335, 0.9166944622993469, 0.96793133020401, 0.9674193263053894, 0.973863959312439, 0.9594391584396362, 0.9058741331100464, 0.774150550365448, 0.7601008415222168, 0.7884464263916016, 0.7253599762916565, 0.5127705931663513, 0.39508163928985596, 0.4958730638027191, 0.6602734923362732, 0.7323043346405029, 0.8134333491325378, 0.5679267048835754, 0.37931790947914124, 0.38860809803009033, 0.47599369287490845, 0.7150148153305054, 0.719671368598938, 0.7508069276809692, 0.7436496019363403, 0.6833855509757996, 0.6945606470108032, 0.7373550534248352, 0.7741534113883972, 0.642521321773529, 0.6236995458602905, 0.6725525856018066, 0.512228786945343, 0.3620302677154541, 0.23864030838012695, 0.30025556683540344, 0.1579984426498413, 0.14297732710838318, 0.1160936951637268, 0.2755025327205658, 0.43339064717292786, 0.7701568007469177, 0.8782346248626709, 0.8254420161247253, 0.6399088501930237, 0.7749963998794556, 0.9333757162094116, 0.9535895586013794, 0.9451362490653992, 0.9147244095802307, 0.9066469669342041, 0.8868530988693237, 0.8770450353622437, 0.5565981268882751, 0.525886058807373, 0.5906422138214111, 0.6287814378738403, 0.73385089635849, 0.7741997241973877, 0.8098730444908142, 0.8461453318595886, 0.6537864804267883, 0.5927150845527649, 0.7332620024681091, 0.8662496209144592, 0.8079444169998169, 0.8234357237815857, 0.8469678163528442, 0.9646816253662109, 0.9665746092796326]</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.9786428213119507</v>
+        <v>0.973863959312439</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -2903,10 +2903,10 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1.208281200000783</v>
+        <v>1.186102899999241</v>
       </c>
       <c r="J59" t="n">
-        <v>0.005646173831779362</v>
+        <v>0.005542536915884306</v>
       </c>
     </row>
     <row r="60">
@@ -2925,11 +2925,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[0.7478721737861633, 0.7293623685836792, 0.7054730653762817, 0.7593269348144531, 0.73700350522995, 0.6228973865509033, 0.5705868601799011, 0.36223089694976807, 0.4100911617279053, 0.34448277950286865, 0.29416605830192566, 0.30759677290916443, 0.35073092579841614, 0.6104174852371216, 0.6184230446815491, 0.540902316570282, 0.5098012089729309, 0.609836220741272, 0.7155357599258423, 0.8327214121818542, 0.9039656519889832, 0.8952025175094604, 0.8277236819267273, 0.5727701187133789, 0.589055597782135, 0.716616690158844, 0.5615438222885132, 0.5956134796142578, 0.3561897873878479, 0.3076234459877014, 0.5254883766174316, 0.5812094211578369, 0.6870871186256409, 0.852196216583252, 0.5804592370986938, 0.7003094553947449, 0.8273599743843079, 0.9308242797851562, 0.747657835483551, 0.7018508315086365, 0.750419020652771, 0.6799334287643433, 0.7965275645256042, 0.6811503767967224, 0.4728860557079315, 0.5795884132385254, 0.8613601326942444, 0.8187105059623718, 0.7806379199028015, 0.5347887873649597, 0.6626681685447693, 0.5821395516395569, 0.48289424180984497, 0.4184875786304474, 0.4049357771873474, 0.472773939371109, 0.3191874027252197, 0.29878950119018555, 0.3734436333179474, 0.31054455041885376, 0.2681683599948883, 0.2742585837841034, 0.2960088551044464, 0.298647403717041, 0.2575116455554962, 0.24281223118305206, 0.25200846791267395, 0.3015279769897461, 0.27217233180999756, 0.3101333975791931, 0.41792815923690796, 0.4481852352619171, 0.41995176672935486, 0.5930021405220032, 0.672940731048584, 0.8737387657165527, 0.8672757148742676, 0.7561694979667664, 0.8134413361549377, 0.6415731310844421, 0.7468369007110596, 0.63995361328125, 0.6663520336151123, 0.6912556290626526, 0.6825584173202515, 0.6792472004890442, 0.6562954187393188, 0.5742248296737671, 0.4778747856616974, 0.4567861258983612, 0.4900253713130951, 0.5335260033607483, 0.4519217312335968, 0.3394065499305725, 0.20404072105884552, 0.29641398787498474, 0.30421334505081177, 0.23390987515449524, 0.20751799643039703, 0.17352168262004852, 0.1533960998058319, 0.24674031138420105, 0.3629550039768219, 0.3338291347026825, 0.3797159492969513, 0.3763037323951721, 0.32806292176246643, 0.36511850357055664, 0.3242112696170807, 0.44227761030197144, 0.3873278498649597, 0.4000340700149536, 0.45145514607429504, 0.5413967370986938, 0.45921072363853455, 0.4547516405582428, 0.540198802947998, 0.5720906853675842, 0.5208149552345276, 0.5503194332122803, 0.5907870531082153, 0.5723168849945068, 0.5894961357116699, 0.5599969625473022, 0.4533756673336029, 0.5116187334060669, 0.490205854177475, 0.5378524661064148, 0.6647872924804688, 0.4942997395992279, 0.4269860088825226, 0.4270210564136505, 0.42872941493988037, 0.34787237644195557, 0.2331467717885971, 0.1611214280128479, 0.14259950816631317, 0.1938592791557312, 0.15549054741859436, 0.14070965349674225, 0.17150308191776276, 0.20760910212993622, 0.22318415343761444, 0.14107519388198853, 0.22883440554141998, 0.28078335523605347, 0.3559786379337311, 0.22668921947479248, 0.1848578304052353, 0.28538748621940613, 0.1880824714899063, 0.2480853646993637, 0.21891508996486664, 0.22573482990264893, 0.2653256058692932, 0.2600361108779907, 0.2362648993730545, 0.16847747564315796, 0.3183981478214264, 0.28378191590309143, 0.32246339321136475, 0.41676652431488037, 0.4729641079902649, 0.4751451909542084, 0.3975982367992401, 0.36471447348594666, 0.26426711678504944, 0.18584927916526794, 0.18580366671085358]</t>
+          <t>[0.7322515845298767, 0.8172281384468079, 0.7478430867195129, 0.8382967710494995, 0.7954115867614746, 0.6394641399383545, 0.5862088799476624, 0.2498922049999237, 0.21888461709022522, 0.2418401539325714, 0.20017533004283905, 0.21648681163787842, 0.43537142872810364, 0.7308698892593384, 0.6160194873809814, 0.44875839352607727, 0.2873469591140747, 0.6441223621368408, 0.5960609912872314, 0.8507732152938843, 0.9009004235267639, 0.8886561393737793, 0.8651872277259827, 0.4092540740966797, 0.29871466755867004, 0.519165575504303, 0.49417001008987427, 0.6221085786819458, 0.31832826137542725, 0.17089560627937317, 0.38649946451187134, 0.4889228343963623, 0.6775499582290649, 0.8047612905502319, 0.5724475979804993, 0.6715420484542847, 0.7896382808685303, 0.8997055292129517, 0.691328227519989, 0.4551694095134735, 0.5124920010566711, 0.5103858113288879, 0.6971324682235718, 0.5227174758911133, 0.2621290981769562, 0.41578254103660583, 0.8387860655784607, 0.7722124457359314, 0.7445940971374512, 0.4484614133834839, 0.6298927664756775, 0.5288179516792297, 0.3502730429172516, 0.26387742161750793, 0.2883918583393097, 0.3198590576648712, 0.1586875021457672, 0.13241742551326752, 0.1562529355287552, 0.11085420846939087, 0.12538906931877136, 0.13321833312511444, 0.13384565711021423, 0.11948606371879578, 0.09332676231861115, 0.09656272083520889, 0.13143542408943176, 0.18386830389499664, 0.20593813061714172, 0.28023675084114075, 0.3372807502746582, 0.33069944381713867, 0.3144429624080658, 0.7181701064109802, 0.7595261931419373, 0.8950831890106201, 0.9208012223243713, 0.7575801014900208, 0.7948867678642273, 0.4281828701496124, 0.6166869401931763, 0.4932235777378082, 0.436029851436615, 0.376156210899353, 0.5130941271781921, 0.5910125970840454, 0.45197099447250366, 0.42767134308815, 0.366528183221817, 0.3971974551677704, 0.3606574535369873, 0.4345475137233734, 0.20914989709854126, 0.14438757300376892, 0.06820781528949738, 0.09257695823907852, 0.08120376616716385, 0.05488104373216629, 0.04524996131658554, 0.04421886056661606, 0.03974980488419533, 0.08463767915964127, 0.1466364860534668, 0.11658015847206116, 0.1477919965982437, 0.14938272535800934, 0.11869830638170242, 0.15089762210845947, 0.12645632028579712, 0.1921447366476059, 0.12397350370883942, 0.12587952613830566, 0.20295651257038116, 0.31413763761520386, 0.2426096647977829, 0.1465846747159958, 0.23060692846775055, 0.2648802399635315, 0.21508359909057617, 0.23243959248065948, 0.32492968440055847, 0.36856645345687866, 0.404246062040329, 0.377160906791687, 0.20187360048294067, 0.2834812104701996, 0.3014707565307617, 0.3669798970222473, 0.39400777220726013, 0.2185869961977005, 0.15866850316524506, 0.17759385704994202, 0.12439166009426117, 0.0971095860004425, 0.058122340589761734, 0.04095647111535072, 0.024613523855805397, 0.048409603536129, 0.053990159183740616, 0.04540206119418144, 0.043704546988010406, 0.06317606568336487, 0.06428239494562149, 0.04074261710047722, 0.06492763012647629, 0.10852353274822235, 0.16737599670886993, 0.06303411722183228, 0.04713813215494156, 0.10472646355628967, 0.0516318753361702, 0.07201956957578659, 0.07264357805252075, 0.07523072510957718, 0.10831797122955322, 0.11020205169916153, 0.11622314900159836, 0.07654254138469696, 0.1832040697336197, 0.18170975148677826, 0.18217827379703522, 0.18735066056251526, 0.2765565812587738, 0.2580419182777405, 0.22368671000003815, 0.19151942431926727, 0.11740253865718842, 0.06907320767641068, 0.06930103898048401]</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.9308242797851562</v>
+        <v>0.9208012223243713</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -2943,10 +2943,10 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1.06377199999406</v>
+        <v>0.9771384999912698</v>
       </c>
       <c r="J60" t="n">
-        <v>0.006294508875704498</v>
+        <v>0.005781884615332957</v>
       </c>
     </row>
     <row r="61">
@@ -2965,11 +2965,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[0.1616675853729248, 0.19555847346782684, 0.33448565006256104, 0.3196839690208435, 0.34108680486679077, 0.2740805745124817, 0.3228147029876709, 0.4187261164188385, 0.43624362349510193, 0.6521835923194885, 0.544602632522583, 0.42902714014053345, 0.441252201795578, 0.4310018718242645, 0.3514654338359833, 0.5034547448158264, 0.3411238193511963, 0.2943098545074463, 0.2517474591732025, 0.12956766784191132, 0.20573225617408752, 0.3460857570171356, 0.3310527503490448, 0.23799672722816467, 0.27730923891067505, 0.2423650026321411, 0.18979910016059875, 0.15366509556770325, 0.13818486034870148, 0.2996622920036316, 0.25851911306381226, 0.3075200021266937, 0.29338520765304565, 0.2992844879627228, 0.38895636796951294, 0.4166375398635864, 0.5309129357337952, 0.5164350271224976, 0.5442913770675659, 0.6521901488304138, 0.7080338597297668, 0.7321501970291138, 0.7678375244140625, 0.728737473487854, 0.5973225831985474, 0.5221883058547974, 0.41913264989852905, 0.4330301880836487, 0.44687843322753906, 0.6017910838127136, 0.6595577001571655, 0.47200074791908264, 0.3476469814777374, 0.34299567341804504, 0.43790876865386963, 0.4998597204685211, 0.4874386787414551, 0.5087287425994873, 0.37910395860671997, 0.3482573330402374, 0.6254534721374512, 0.4208124279975891, 0.4437619149684906, 0.34201690554618835, 0.5196202993392944, 0.5480139851570129, 0.47778424620628357, 0.4838990569114685, 0.34162816405296326, 0.341657429933548, 0.2304857224225998, 0.18677636981010437, 0.16938447952270508, 0.18761597573757172, 0.135774165391922, 0.14187274873256683, 0.1909557729959488, 0.22069533169269562, 0.15937106311321259, 0.12619489431381226, 0.1119484230875969, 0.08142896741628647, 0.07109247148036957, 0.13233710825443268, 0.20043082535266876, 0.18437394499778748, 0.20968098938465118, 0.3099502921104431, 0.35224783420562744, 0.5861610174179077, 0.7753440737724304, 0.4824775755405426, 0.4408448338508606, 0.40268778800964355, 0.5035125613212585, 0.44277554750442505, 0.43200647830963135, 0.5104131698608398, 0.6465951204299927, 0.6938722729682922, 0.4606330394744873, 0.4645668864250183, 0.34375032782554626, 0.3707398772239685, 0.3960668444633484, 0.48096296191215515, 0.2681458294391632, 0.2914904057979584, 0.3886972963809967, 0.530195415019989, 0.6395865082740784, 0.42431187629699707, 0.5113678574562073, 0.5121991634368896, 0.5045987367630005, 0.5146957635879517, 0.46168261766433716, 0.4822314381599426, 0.2943170964717865, 0.4103090763092041, 0.5674275159835815, 0.4321777820587158, 0.4960354268550873, 0.5772935152053833, 0.7460920214653015, 0.6070436239242554, 0.3819691836833954, 0.42377588152885437, 0.37560173869132996, 0.397707998752594, 0.37979206442832947, 0.4167936146259308, 0.4555642604827881, 0.5543567538261414, 0.4821681082248688, 0.45712366700172424, 0.3361692428588867, 0.24306738376617432, 0.26434358954429626, 0.18658936023712158, 0.12638011574745178, 0.10509052127599716, 0.21738943457603455, 0.16302883625030518, 0.18674592673778534, 0.23475103080272675, 0.24821121990680695, 0.27884146571159363, 0.304450124502182, 0.30942976474761963, 0.24978460371494293, 0.21711871027946472, 0.25508853793144226, 0.27218741178512573, 0.17378610372543335, 0.1992972046136856, 0.30758655071258545, 0.35696685314178467, 0.35096290707588196, 0.19261275231838226, 0.08774113655090332, 0.12897707521915436, 0.17886973917484283, 0.2449919581413269, 0.27199897170066833, 0.26662182807922363, 0.25052428245544434, 0.37373027205467224, 0.4155139625072479, 0.3507547080516815, 0.42132773995399475, 0.44025132060050964, 0.4016743004322052, 0.35622403025627136, 0.30237871408462524, 0.22727450728416443, 0.20843923091888428, 0.1718442738056183, 0.18822665512561798, 0.15620599687099457, 0.13708984851837158, 0.13781923055648804]</t>
+          <t>[0.05843733996152878, 0.09008911997079849, 0.18017300963401794, 0.16792142391204834, 0.16496926546096802, 0.12271537631750107, 0.16851063072681427, 0.3073429763317108, 0.31654980778694153, 0.4681929349899292, 0.2967228293418884, 0.18136243522167206, 0.18925152719020844, 0.30536702275276184, 0.15069696307182312, 0.3320343792438507, 0.19658686220645905, 0.1286064088344574, 0.08843865990638733, 0.046753592789173126, 0.08003748953342438, 0.18695330619812012, 0.13136759400367737, 0.07115008682012558, 0.11365696787834167, 0.09311206638813019, 0.059648070484399796, 0.06389081478118896, 0.04453570395708084, 0.1540662795305252, 0.0936804935336113, 0.11134646832942963, 0.07129353284835815, 0.07709818333387375, 0.13447509706020355, 0.15977534651756287, 0.24878892302513123, 0.23049165308475494, 0.2935568392276764, 0.48386478424072266, 0.5957111716270447, 0.603789210319519, 0.5834575295448303, 0.49821123480796814, 0.29264792799949646, 0.24284054338932037, 0.12951086461544037, 0.17452974617481232, 0.1391579955816269, 0.2722923755645752, 0.3656700551509857, 0.24919314682483673, 0.15839454531669617, 0.16020524501800537, 0.23425275087356567, 0.32501816749572754, 0.29323089122772217, 0.2777564227581024, 0.15200944244861603, 0.12878797948360443, 0.3841233253479004, 0.20634888112545013, 0.24169212579727173, 0.2405693680047989, 0.44772276282310486, 0.4726659059524536, 0.3596060574054718, 0.27408722043037415, 0.16263772547245026, 0.17905287444591522, 0.09415142983198166, 0.08486159890890121, 0.08212827146053314, 0.08430726081132889, 0.041083648800849915, 0.03715253993868828, 0.07396592199802399, 0.09104817360639572, 0.05237296223640442, 0.03660008683800697, 0.028720881789922714, 0.01562531664967537, 0.014793578535318375, 0.03869669511914253, 0.057923994958400726, 0.05371477082371712, 0.06403021514415741, 0.15280529856681824, 0.20695123076438904, 0.42404651641845703, 0.7192895412445068, 0.33101171255111694, 0.2763284742832184, 0.271550714969635, 0.34740257263183594, 0.31844866275787354, 0.2511495351791382, 0.384823203086853, 0.5543367862701416, 0.575955867767334, 0.2226564735174179, 0.16022904217243195, 0.08647855371236801, 0.07641525566577911, 0.09672843664884567, 0.18198926746845245, 0.0698772594332695, 0.08374153077602386, 0.1427994966506958, 0.23423771560192108, 0.397278368473053, 0.1669643372297287, 0.3414374887943268, 0.3319801092147827, 0.23333954811096191, 0.31041690707206726, 0.3271958827972412, 0.34256696701049805, 0.17407456040382385, 0.22858068346977234, 0.4824356436729431, 0.3772387206554413, 0.33382436633110046, 0.4207616448402405, 0.6253109574317932, 0.46573904156684875, 0.21938709914684296, 0.19107109308242798, 0.18962402641773224, 0.11920291930437088, 0.13622839748859406, 0.18491819500923157, 0.2610994875431061, 0.38550063967704773, 0.26197582483291626, 0.3244858682155609, 0.1632784903049469, 0.06845922768115997, 0.06279794871807098, 0.050720859318971634, 0.02797514945268631, 0.018758995458483696, 0.08781702816486359, 0.0433364100754261, 0.0501776747405529, 0.08046060800552368, 0.08160877227783203, 0.14626121520996094, 0.16037152707576752, 0.11182750761508942, 0.08485385775566101, 0.0600244514644146, 0.06992605328559875, 0.06999576836824417, 0.035634055733680725, 0.06228754669427872, 0.09163299947977066, 0.11140572279691696, 0.12033872306346893, 0.06617545336484909, 0.02358747459948063, 0.02676001563668251, 0.04799183830618858, 0.07936527580022812, 0.09810028970241547, 0.08568468689918518, 0.06505175679922104, 0.14986099302768707, 0.16271798312664032, 0.10985342413187027, 0.1730709969997406, 0.18739239871501923, 0.18959994614124298, 0.15341968834400177, 0.10620845854282379, 0.07944809645414352, 0.07110264152288437, 0.06211403012275696, 0.062442343682050705, 0.04805297777056694, 0.04277030751109123, 0.043159883469343185]</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.7753440737724304</v>
+        <v>0.7192895412445068</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -2983,10 +2983,10 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1.154164700012188</v>
+        <v>1.157127099999343</v>
       </c>
       <c r="J61" t="n">
-        <v>0.006341564285781255</v>
+        <v>0.0063578412087876</v>
       </c>
     </row>
     <row r="62">
@@ -3005,11 +3005,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[0.20892620086669922, 0.30345049500465393, 0.16344815492630005, 0.1991174966096878, 0.1819572150707245, 0.28647488355636597, 0.3914766311645508, 0.2721141278743744, 0.13983072340488434, 0.12461536377668381, 0.06698805093765259, 0.11098425090312958, 0.12003946304321289, 0.17304867506027222, 0.08639615774154663, 0.10770414769649506, 0.12440527230501175, 0.11033056676387787, 0.0701223760843277, 0.11331282556056976, 0.15330415964126587, 0.12917101383209229, 0.11857417970895767, 0.1909223049879074, 0.1660127341747284, 0.17432953417301178, 0.2160797119140625, 0.31737861037254333, 0.23860274255275726, 0.3016442060470581, 0.28690436482429504, 0.38656750321388245, 0.219650536775589, 0.33461621403694153, 0.24434658885002136, 0.22590461373329163, 0.35575056076049805, 0.35563671588897705, 0.28719252347946167, 0.13296261429786682, 0.26705434918403625, 0.16610778868198395, 0.2577444911003113, 0.44769468903541565, 0.4092409908771515, 0.23612099885940552, 0.2026263326406479, 0.19283248484134674, 0.17420126497745514, 0.3677181601524353, 0.3476329445838928, 0.1752016395330429, 0.10451322048902512, 0.11668270081281662, 0.14747896790504456, 0.22446760535240173, 0.17810600996017456, 0.12541837990283966, 0.17615431547164917, 0.15092696249485016, 0.20030653476715088, 0.2770548462867737, 0.1657518893480301, 0.29191794991493225, 0.11438318341970444, 0.11919106543064117, 0.10541442781686783, 0.07986734062433243, 0.09413816779851913, 0.09120835363864899, 0.21559135615825653, 0.5589877367019653, 0.4603162705898285, 0.4072043299674988, 0.31369149684906006, 0.37711405754089355, 0.2994115352630615, 0.25087836384773254, 0.082160085439682, 0.19112983345985413, 0.20317897200584412, 0.15334254503250122, 0.0996691882610321, 0.07487854361534119, 0.1554272174835205, 0.12020513415336609, 0.2843591570854187, 0.22399376332759857, 0.24722981452941895, 0.14540165662765503, 0.0503527894616127, 0.3325463831424713, 0.13183483481407166, 0.16567637026309967, 0.08005686849355698, 0.07966144382953644, 0.07514625787734985, 0.09460484981536865, 0.048136334866285324, 0.041655175387859344, 0.07889560610055923, 0.08380100876092911, 0.05030518397688866, 0.04645487293601036, 0.07346727699041367, 0.08964768797159195, 0.06149729713797569, 0.06821147352457047, 0.10511783510446548, 0.09840148687362671, 0.08086629956960678, 0.08230079710483551, 0.040909092873334885, 0.07206708937883377, 0.040590569376945496, 0.08602479845285416, 0.04134329408407211, 0.055519282817840576, 0.07425934076309204, 0.06300961971282959, 0.056525640189647675, 0.05513523891568184, 0.03340388461947441, 0.044071171432733536, 0.06044197455048561, 0.051521968096494675, 0.06417545676231384, 0.08695974946022034, 0.04974258318543434, 0.07066824287176132, 0.13052210211753845, 0.08929626643657684, 0.06418173015117645, 0.03384865075349808, 0.06871367990970612, 0.1581149399280548, 0.10606595873832703, 0.11865182220935822, 0.11199916154146194, 0.16092734038829803, 0.17218078672885895, 0.1326102614402771, 0.2547157406806946, 0.09101619571447372, 0.18628142774105072, 0.23363348841667175, 0.15637031197547913, 0.16073408722877502, 0.2201284021139145, 0.2510186731815338, 0.11384562402963638, 0.1052444577217102, 0.11920792609453201, 0.1137312650680542, 0.10031259804964066, 0.09533312171697617, 0.11174558103084564, 0.11254727095365524, 0.07394259423017502, 0.12104976177215576, 0.06504181772470474, 0.06398701667785645, 0.03919058293104172, 0.046609554439783096, 0.04458480328321457, 0.042538851499557495, 0.06917393952608109, 0.06386571377515793, 0.0847654715180397, 0.11987265944480896, 0.13515202701091766, 0.11147976666688919, 0.09552322328090668, 0.13072040677070618, 0.15720561146736145, 0.143873929977417, 0.08292877674102783, 0.22885288298130035, 0.53047776222229, 0.3373502194881439, 0.3371519446372986]</t>
+          <t>[0.20944282412528992, 0.3855776786804199, 0.22261381149291992, 0.2927302420139313, 0.24974559247493744, 0.37717798352241516, 0.7244665026664734, 0.5566272139549255, 0.3007517158985138, 0.1838362067937851, 0.06944772601127625, 0.1071174293756485, 0.14666645228862762, 0.23311610519886017, 0.09470096230506897, 0.0916145071387291, 0.11168298870325089, 0.14034022390842438, 0.06349197775125504, 0.15977896749973297, 0.19117291271686554, 0.1119188740849495, 0.12127716839313507, 0.2781354486942291, 0.23798881471157074, 0.2837594151496887, 0.3928970694541931, 0.44442036747932434, 0.4048404395580292, 0.5983850359916687, 0.5602419972419739, 0.525218665599823, 0.2733435332775116, 0.445824533700943, 0.2579796016216278, 0.22397851943969727, 0.4997790455818176, 0.5429214835166931, 0.5818293690681458, 0.1805747151374817, 0.5096840262413025, 0.2064342349767685, 0.41048169136047363, 0.6497388482093811, 0.6533536911010742, 0.5228639841079712, 0.47384113073349, 0.3447614312171936, 0.29663556814193726, 0.5670074224472046, 0.6128188967704773, 0.249342679977417, 0.12806817889213562, 0.1391923725605011, 0.13353601098060608, 0.2579745948314667, 0.24275925755500793, 0.25282058119773865, 0.3654128611087799, 0.23561131954193115, 0.2046928107738495, 0.37803369760513306, 0.34307095408439636, 0.46629732847213745, 0.10401391983032227, 0.09169236570596695, 0.058789800852537155, 0.055113840848207474, 0.053042761981487274, 0.048822514712810516, 0.20853586494922638, 0.5971860885620117, 0.49876317381858826, 0.45241254568099976, 0.581336498260498, 0.5699138641357422, 0.3403487205505371, 0.3345746099948883, 0.06467346101999283, 0.21467521786689758, 0.2631615400314331, 0.21663226187229156, 0.0869884341955185, 0.07144270092248917, 0.20204882323741913, 0.12090703099966049, 0.41696199774742126, 0.4496752917766571, 0.3057672679424286, 0.13953344523906708, 0.04044729843735695, 0.6568103432655334, 0.2984652519226074, 0.19165140390396118, 0.04461974278092384, 0.0518200658261776, 0.047262564301490784, 0.07518399506807327, 0.028785323724150658, 0.024172842502593994, 0.037689995020627975, 0.05483440309762955, 0.02934330143034458, 0.0292478259652853, 0.06461357325315475, 0.09694736450910568, 0.05551111325621605, 0.07221837341785431, 0.14185871183872223, 0.11358854174613953, 0.10275068879127502, 0.13023529946804047, 0.03789922595024109, 0.08186951279640198, 0.0328565277159214, 0.11296272277832031, 0.045825473964214325, 0.0704900473356247, 0.07614708691835403, 0.07426529377698898, 0.08183375746011734, 0.053737565875053406, 0.028568413108587265, 0.041941750794649124, 0.07735873758792877, 0.046144548803567886, 0.07180441170930862, 0.1608562171459198, 0.055203601717948914, 0.06855147331953049, 0.13268424570560455, 0.07008200138807297, 0.055574122816324234, 0.017982017248868942, 0.06567103415727615, 0.2423483431339264, 0.09459076821804047, 0.238173246383667, 0.23518964648246765, 0.29552149772644043, 0.27404236793518066, 0.1849476397037506, 0.4768070876598358, 0.0803653821349144, 0.24384376406669617, 0.22052203118801117, 0.18876759707927704, 0.28082510828971863, 0.3962535560131073, 0.3480643332004547, 0.14969255030155182, 0.09846827387809753, 0.11195407807826996, 0.0967317447066307, 0.08157311379909515, 0.09156260639429092, 0.13824428617954254, 0.10236434638500214, 0.07990247011184692, 0.18173211812973022, 0.055496539920568466, 0.05940042436122894, 0.0239320807158947, 0.026943322271108627, 0.030800458043813705, 0.02951076626777649, 0.08910499513149261, 0.0872044488787651, 0.12399832904338837, 0.21513621509075165, 0.2277030348777771, 0.17106229066848755, 0.11854665726423264, 0.17791426181793213, 0.22331880033016205, 0.15606087446212769, 0.06216810643672943, 0.4239080548286438, 0.6481640338897705, 0.31203505396842957, 0.31187477707862854]</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.5589877367019653</v>
+        <v>0.7244665026664734</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1.025292399979662</v>
+        <v>0.9988149999990128</v>
       </c>
       <c r="J62" t="n">
-        <v>0.005664598894915261</v>
+        <v>0.005518314917121618</v>
       </c>
     </row>
     <row r="63">
@@ -3045,11 +3045,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[0.21325089037418365, 0.1991724669933319, 0.12177067250013351, 0.3178219497203827, 0.3787362575531006, 0.3037548065185547, 0.3840799331665039, 0.34394943714141846, 0.31651124358177185, 0.17014789581298828, 0.248540997505188, 0.25896066427230835, 0.35130438208580017, 0.25135406851768494, 0.24607963860034943, 0.16537536680698395, 0.31497204303741455, 0.18806692957878113, 0.17982791364192963, 0.29762765765190125, 0.2965715527534485, 0.30189573764801025, 0.1870928704738617, 0.20332692563533783, 0.10782314091920853, 0.1480550467967987, 0.11287404596805573, 0.10234124213457108, 0.11543576419353485, 0.07407867908477783, 0.06933578103780746, 0.05277935042977333, 0.08805669844150543, 0.14297036826610565, 0.16838084161281586, 0.18177446722984314, 0.1120915412902832, 0.06064184382557869, 0.0886274129152298, 0.12072379887104034, 0.08408542722463608, 0.10788934677839279, 0.15062052011489868, 0.08924604207277298, 0.10476350784301758, 0.10150469094514847, 0.1596819907426834, 0.21691258251667023, 0.10713393986225128, 0.1689148098230362, 0.15698468685150146, 0.10050725936889648, 0.07093117386102676, 0.08898691833019257, 0.12687554955482483, 0.17254312336444855, 0.21206219494342804, 0.20403890311717987, 0.18592071533203125, 0.08763764798641205, 0.133045494556427, 0.15200650691986084, 0.26004624366760254, 0.14291055500507355, 0.14718201756477356, 0.1953442096710205, 0.22599677741527557, 0.24394555389881134, 0.12100129574537277, 0.05125860869884491, 0.0606575571000576, 0.1362764537334442, 0.08304210752248764, 0.1526632457971573, 0.13415713608264923, 0.1165250688791275, 0.1565239280462265, 0.2687694728374481, 0.11928330361843109, 0.13615922629833221, 0.1550968736410141, 0.09886720031499863, 0.12126713246107101, 0.17308878898620605, 0.2977788746356964, 0.24690495431423187, 0.10645110160112381, 0.10011541843414307, 0.18575364351272583, 0.36606326699256897, 0.2333754003047943, 0.13360607624053955, 0.4649360775947571, 0.6422513723373413, 0.42396843433380127, 0.29162997007369995, 0.19727742671966553, 0.1102357730269432, 0.07618172466754913, 0.07290764153003693, 0.0922427624464035, 0.12062929570674896, 0.1879625767469406, 0.260440856218338, 0.2340315878391266, 0.16007108986377716, 0.15117233991622925, 0.329241007566452, 0.19774316251277924, 0.09041811525821686, 0.09525617957115173, 0.0557120107114315, 0.08001219481229782, 0.053775325417518616, 0.03992835804820061, 0.07054458558559418, 0.09469227492809296, 0.1759360283613205, 0.09658875316381454, 0.16235558688640594, 0.1989591121673584, 0.14267583191394806, 0.13005781173706055, 0.12692737579345703, 0.13750728964805603, 0.12260947376489639, 0.08536799252033234, 0.1626519113779068, 0.16798852384090424, 0.17523905634880066, 0.15184444189071655, 0.11808998137712479, 0.07149627804756165, 0.08923429995775223, 0.2738451063632965, 0.12070191651582718, 0.09891608357429504, 0.08999919146299362, 0.11765504628419876, 0.18076808750629425, 0.15337851643562317, 0.18834732472896576, 0.14578314125537872, 0.05497852712869644, 0.045426756143569946, 0.08229077607393265, 0.1268765777349472, 0.11886148154735565, 0.1141551285982132, 0.31290677189826965, 0.2237222045660019, 0.23432771861553192, 0.13447216153144836, 0.07430654019117355, 0.11308165639638901, 0.2210824340581894, 0.14194729924201965, 0.16602596640586853, 0.07832550257444382, 0.10433535277843475, 0.09828414767980576, 0.04958045855164528, 0.04990990087389946, 0.038981422781944275, 0.037967633455991745, 0.08935911953449249, 0.05468643829226494, 0.09329339861869812, 0.10884355008602142, 0.07144621759653091, 0.048084862530231476, 0.0761079341173172, 0.05443315580487251, 0.06333061307668686, 0.052967265248298645, 0.07872030884027481, 0.08662685751914978, 0.13388977944850922, 0.191026970744133, 0.08767392486333847, 0.08771539479494095]</t>
+          <t>[0.15638799965381622, 0.1862918883562088, 0.07411804795265198, 0.3623823821544647, 0.4256719946861267, 0.28017595410346985, 0.5326098203659058, 0.3991274833679199, 0.22848665714263916, 0.1076713502407074, 0.2528759241104126, 0.27057456970214844, 0.45853155851364136, 0.28960806131362915, 0.2476116418838501, 0.2992994487285614, 0.45704132318496704, 0.2584882974624634, 0.18227839469909668, 0.37966328859329224, 0.43159377574920654, 0.37768885493278503, 0.2241668701171875, 0.31362536549568176, 0.10354727506637573, 0.10749571025371552, 0.09355585277080536, 0.10292499512434006, 0.10659873485565186, 0.04196159541606903, 0.02870963141322136, 0.03177498281002045, 0.057985685765743256, 0.0904872938990593, 0.13476528227329254, 0.14754655957221985, 0.11304543167352676, 0.03995044529438019, 0.06090839207172394, 0.08994757384061813, 0.047915197908878326, 0.07912532985210419, 0.1398710310459137, 0.08998725563287735, 0.09037291258573532, 0.09084371477365494, 0.18680135905742645, 0.20381838083267212, 0.11577695608139038, 0.16861547529697418, 0.18592731654644012, 0.08093256503343582, 0.051998309791088104, 0.061131637543439865, 0.08770740777254105, 0.1027744933962822, 0.18284325301647186, 0.1528136134147644, 0.20168599486351013, 0.09069178998470306, 0.12100217491388321, 0.1293717920780182, 0.32284829020500183, 0.09360875189304352, 0.09843716025352478, 0.18480715155601501, 0.19622206687927246, 0.2152278870344162, 0.06667393445968628, 0.020484965294599533, 0.023618552833795547, 0.04065068066120148, 0.023496167734265327, 0.05786646157503128, 0.05267193913459778, 0.05444880947470665, 0.06373083591461182, 0.1853751391172409, 0.049172285944223404, 0.0894894078373909, 0.0844564214348793, 0.07196898013353348, 0.09581009298563004, 0.14927051961421967, 0.2328861802816391, 0.18868669867515564, 0.07105724513530731, 0.08691789209842682, 0.18481296300888062, 0.5039514899253845, 0.22799941897392273, 0.07242435961961746, 0.5051670074462891, 0.8023863434791565, 0.4797746539115906, 0.2549193501472473, 0.15311330556869507, 0.06682492792606354, 0.030491521582007408, 0.04551739990711212, 0.09392236918210983, 0.07324623316526413, 0.14706790447235107, 0.2150813490152359, 0.2845103144645691, 0.1946038454771042, 0.18497133255004883, 0.4773900806903839, 0.2328178435564041, 0.06956106424331665, 0.06288335472345352, 0.036318499594926834, 0.057184770703315735, 0.03683357313275337, 0.026301970705389977, 0.03819189593195915, 0.057651862502098083, 0.13808825612068176, 0.06274794042110443, 0.10889369249343872, 0.1204129233956337, 0.07793059945106506, 0.0685298964381218, 0.07918398082256317, 0.11463742703199387, 0.06281457841396332, 0.033341649919748306, 0.09088077396154404, 0.13758425414562225, 0.09715954214334488, 0.09764456003904343, 0.11330827325582504, 0.0521925613284111, 0.07028370350599289, 0.3134271502494812, 0.11029092967510223, 0.10050439089536667, 0.07381990551948547, 0.18997852504253387, 0.37287601828575134, 0.30909422039985657, 0.23990872502326965, 0.14055535197257996, 0.04324911907315254, 0.05015168711543083, 0.14065927267074585, 0.13465550541877747, 0.0996372178196907, 0.1314079314470291, 0.5213841795921326, 0.42781245708465576, 0.5180894136428833, 0.14979669451713562, 0.06531419605016708, 0.09574414789676666, 0.2296709269285202, 0.2470100224018097, 0.25319376587867737, 0.10010301321744919, 0.08741278946399689, 0.1243799552321434, 0.0387742817401886, 0.04026379808783531, 0.027331002056598663, 0.030689062550663948, 0.13734017312526703, 0.04794532060623169, 0.13090358674526215, 0.18105557560920715, 0.10150008648633957, 0.07487497478723526, 0.1178784966468811, 0.08502095937728882, 0.090178482234478, 0.05136226862668991, 0.07339667528867722, 0.10972936451435089, 0.10806430876255035, 0.24120056629180908, 0.07689737528562546, 0.07676971703767776]</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.6422513723373413</v>
+        <v>0.8023863434791565</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1.00090509999427</v>
+        <v>1.007522900006734</v>
       </c>
       <c r="J63" t="n">
-        <v>0.00552986243090757</v>
+        <v>0.005566424861915656</v>
       </c>
     </row>
     <row r="64">
@@ -3085,11 +3085,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>[0.10964850336313248, 0.21141117811203003, 0.2837408185005188, 0.13398419320583344, 0.12410217523574829, 0.3256373703479767, 0.25619447231292725, 0.12669432163238525, 0.2379222959280014, 0.09142845869064331, 0.15665993094444275, 0.12807413935661316, 0.19549715518951416, 0.1945977360010147, 0.38777825236320496, 0.16271108388900757, 0.18467307090759277, 0.2192298024892807, 0.11933286488056183, 0.13896878063678741, 0.12181390076875687, 0.11335346102714539, 0.09001164883375168, 0.07799314707517624, 0.11621803790330887, 0.19891740381717682, 0.14348767697811127, 0.09901024401187897, 0.06572801619768143, 0.13126124441623688, 0.28554248809814453, 0.12811662256717682, 0.11757050454616547, 0.13812357187271118, 0.12719225883483887, 0.09933354705572128, 0.15893736481666565, 0.23178210854530334, 0.3765568733215332, 0.5156942009925842, 0.5879484415054321, 0.39878636598587036, 0.5158414840698242, 0.4860116243362427, 0.24003708362579346, 0.19337603449821472, 0.17498408257961273, 0.1917581856250763, 0.287411630153656, 0.21173346042633057, 0.2863759994506836, 0.17447014153003693, 0.6744927167892456, 0.6231421232223511, 0.30650460720062256, 0.26102331280708313, 0.3048359155654907, 0.4439806342124939, 0.3086496591567993, 0.6587514281272888, 0.434787780046463, 0.7357186675071716, 0.601073145866394, 0.3905430734157562, 0.8214870691299438, 0.6429343223571777, 0.5837539434432983, 0.6479821801185608, 0.6817582249641418, 0.36495399475097656, 0.4055408835411072, 0.49024540185928345, 0.40302330255508423, 0.39635124802589417, 0.4714786410331726, 0.7153003811836243, 0.666857898235321, 0.5699900388717651, 0.6110919713973999, 0.6055177450180054, 0.6850077509880066, 0.8153702020645142, 0.8048070669174194, 0.604507327079773, 0.9220168590545654, 0.9454180002212524, 0.8854673504829407, 0.8301772475242615, 0.40431633591651917, 0.4180825650691986, 0.4547145962715149, 0.5485284924507141, 0.22236298024654388, 0.30333212018013, 0.699339747428894, 0.6126468777656555, 0.5999278426170349, 0.4738517999649048, 0.2128397524356842, 0.15325182676315308, 0.4238492548465729, 0.14743372797966003, 0.18228471279144287, 0.1030815914273262, 0.13664810359477997, 0.09264746308326721, 0.11520864069461823, 0.20177294313907623, 0.20388877391815186, 0.21441377699375153, 0.2162725180387497, 0.14355862140655518, 0.2535897195339203, 0.2959960699081421, 0.9065741896629333, 0.9757947325706482, 0.9909489750862122, 0.9935118556022644, 0.9941456317901611, 0.9881608486175537, 0.987338662147522, 0.9833819270133972, 0.9891322255134583, 0.9849681258201599, 0.9340346455574036, 0.9188615679740906, 0.4982389211654663, 0.2114211916923523, 0.31167301535606384, 0.30194589495658875, 0.17899352312088013, 0.27358460426330566, 0.3121646046638489, 0.2641112506389618, 0.23321235179901123, 0.1941693127155304, 0.3430398404598236, 0.8402069211006165, 0.8107724189758301, 0.8711270093917847, 0.7178362607955933, 0.7985015511512756, 0.9376356601715088, 0.43482375144958496, 0.5255308747291565, 0.3501906394958496, 0.3984617590904236, 0.3413598835468292, 0.3511987030506134, 0.38289380073547363, 0.41763779520988464, 0.4292412996292114, 0.272664338350296, 0.4086572825908661, 0.589564859867096, 0.637471079826355, 0.38639986515045166, 0.20804256200790405, 0.5332504510879517, 0.6991241574287415, 0.7371134757995605, 0.39139091968536377, 0.8379893898963928, 0.8590402603149414, 0.8259673118591309, 0.864922821521759, 0.4852306842803955, 0.528215229511261, 0.7599650025367737, 0.36338430643081665, 0.22753925621509552, 0.20783863961696625, 0.15293321013450623, 0.35730671882629395, 0.4349789619445801, 0.6464927196502686, 0.26898589730262756, 0.2977621555328369, 0.24578407406806946, 0.20509330928325653, 0.25870513916015625, 0.2583799362182617]</t>
+          <t>[0.039266735315322876, 0.11858789622783661, 0.14661292731761932, 0.05441295728087425, 0.06139019504189491, 0.2731438875198364, 0.20347674190998077, 0.08330634236335754, 0.1475319117307663, 0.0389922596514225, 0.08172499388456345, 0.055133819580078125, 0.07716543227434158, 0.07662131637334824, 0.23342570662498474, 0.0790710598230362, 0.07759469747543335, 0.10678944736719131, 0.0769796222448349, 0.0735434889793396, 0.06065167486667633, 0.05269575119018555, 0.03160277009010315, 0.028492869809269905, 0.0406034030020237, 0.1270560324192047, 0.07692835479974747, 0.05459070950746536, 0.0290408656001091, 0.08513499051332474, 0.26654574275016785, 0.08226949721574783, 0.061666328459978104, 0.07158926874399185, 0.04514055326581001, 0.028542784973978996, 0.11488404124975204, 0.16803401708602905, 0.3061196208000183, 0.341518759727478, 0.520909309387207, 0.3452877700328827, 0.5393075942993164, 0.4131728410720825, 0.22459480166435242, 0.1035161241889, 0.09512322396039963, 0.13350194692611694, 0.18305301666259766, 0.1397857964038849, 0.17178234457969666, 0.12403987348079681, 0.5854020118713379, 0.5717811584472656, 0.19957411289215088, 0.22226271033287048, 0.237191841006279, 0.381416380405426, 0.17021186649799347, 0.5224877595901489, 0.32543209195137024, 0.6263741254806519, 0.5223942995071411, 0.31675055623054504, 0.6603924036026001, 0.44585126638412476, 0.6450498104095459, 0.555719256401062, 0.65004563331604, 0.4068191349506378, 0.41946470737457275, 0.33226457238197327, 0.3156895041465759, 0.25283414125442505, 0.2803809940814972, 0.5979875922203064, 0.7084125876426697, 0.5500084757804871, 0.6616439819335938, 0.5109586119651794, 0.7432912588119507, 0.856356143951416, 0.7929989695549011, 0.5673448443412781, 0.9072195291519165, 0.9321640729904175, 0.8816233277320862, 0.8413122892379761, 0.2517004907131195, 0.329656183719635, 0.3597199618816376, 0.42092782258987427, 0.10937022417783737, 0.23581774532794952, 0.6714391708374023, 0.43201756477355957, 0.5998894572257996, 0.35257720947265625, 0.14811165630817413, 0.11342024803161621, 0.24669864773750305, 0.07470343261957169, 0.1356346756219864, 0.04682042449712753, 0.07597961276769638, 0.04543275013566017, 0.06446219235658646, 0.16114795207977295, 0.1838817447423935, 0.12395168840885162, 0.1265498548746109, 0.08457086980342865, 0.23302137851715088, 0.29927539825439453, 0.9475828409194946, 0.9892232418060303, 0.9943825006484985, 0.9961726069450378, 0.9963621497154236, 0.9910637140274048, 0.9908644556999207, 0.9836428165435791, 0.9903417825698853, 0.9859561920166016, 0.9463742971420288, 0.9365394115447998, 0.42092689871788025, 0.13728255033493042, 0.28054773807525635, 0.2128511220216751, 0.08556544780731201, 0.16137562692165375, 0.24338695406913757, 0.2869695723056793, 0.1498912125825882, 0.1374620944261551, 0.186412051320076, 0.8376087546348572, 0.8413974642753601, 0.8952240943908691, 0.6353093385696411, 0.8541436791419983, 0.9650497436523438, 0.37759673595428467, 0.5171626806259155, 0.3038562834262848, 0.3535265326499939, 0.3474123179912567, 0.26965391635894775, 0.2587534785270691, 0.33340272307395935, 0.3956696689128876, 0.2026912122964859, 0.3031349778175354, 0.6706663966178894, 0.6428385376930237, 0.24856358766555786, 0.11095156520605087, 0.37596017122268677, 0.5811704397201538, 0.5825405120849609, 0.23853696882724762, 0.6050766706466675, 0.757407546043396, 0.7347655296325684, 0.7568992972373962, 0.2792745530605316, 0.3950529396533966, 0.7176754474639893, 0.26655176281929016, 0.11525101214647293, 0.18184597790241241, 0.06480549275875092, 0.3133178651332855, 0.38137954473495483, 0.5924913883209229, 0.0932776927947998, 0.10014094412326813, 0.09138092398643494, 0.08840850740671158, 0.08723047375679016, 0.08712153136730194]</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.9941456317901611</v>
+        <v>0.9963621497154236</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
@@ -3103,10 +3103,10 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1.013081600016449</v>
+        <v>1.020548800006509</v>
       </c>
       <c r="J64" t="n">
-        <v>0.005566382417672795</v>
+        <v>0.005607410989046752</v>
       </c>
     </row>
     <row r="65">
@@ -3125,11 +3125,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>[0.927960216999054, 0.9520057439804077, 0.9269619584083557, 0.954626202583313, 0.9527456164360046, 0.7308878898620605, 0.6096915602684021, 0.7178934216499329, 0.9341701865196228, 0.92393958568573, 0.8719663023948669, 0.8028151988983154, 0.5316863656044006, 0.5180401802062988, 0.7182608842849731, 0.6867914795875549, 0.26683396100997925, 0.16151942312717438, 0.41445931792259216, 0.5321422815322876, 0.7379841804504395, 0.7664523124694824, 0.9355544447898865, 0.8993548154830933, 0.9610896706581116, 0.8994389176368713, 0.8438042402267456, 0.8704399466514587, 0.8079656362533569, 0.9394550919532776, 0.920705258846283, 0.8234462738037109, 0.7826332449913025, 0.8006357550621033, 0.8883727192878723, 0.92307049036026, 0.8045582175254822, 0.5505701303482056, 0.9450857043266296, 0.9760074019432068, 0.9732677340507507, 0.9364148378372192, 0.741095244884491, 0.9720330238342285, 0.944029688835144, 0.9581525325775146, 0.7984844446182251, 0.8286378979682922, 0.8492490649223328, 0.6356729865074158, 0.40017935633659363, 0.5114863514900208, 0.4115198254585266, 0.17744457721710205, 0.28304779529571533, 0.8853702545166016, 0.9170616865158081, 0.9201674461364746, 0.8363603949546814, 0.8932750225067139, 0.810421884059906, 0.641934335231781, 0.6565927267074585, 0.7346104383468628, 0.3640899062156677, 0.5415555834770203, 0.3517799377441406, 0.3725264370441437, 0.27654197812080383, 0.23201397061347961, 0.2727702856063843, 0.6997865438461304, 0.33335667848587036, 0.43884536623954773, 0.3626520037651062, 0.40622273087501526, 0.483356237411499, 0.5279123783111572, 0.3876267671585083, 0.48264265060424805, 0.37800654768943787, 0.3922841250896454, 0.3280024528503418, 0.3286474347114563, 0.46986469626426697, 0.28161635994911194, 0.3685959577560425, 0.43427103757858276, 0.45982682704925537, 0.3414044976234436, 0.22399690747261047, 0.3626759350299835, 0.3884977102279663, 0.1692388653755188, 0.19069667160511017, 0.3447040021419525, 0.20790311694145203, 0.35310566425323486, 0.5351482629776001, 0.37786951661109924, 0.3328695595264435, 0.4498251676559448, 0.49093911051750183, 0.20761920511722565, 0.33990249037742615, 0.25155624747276306, 0.4096417725086212, 0.573514461517334, 0.7831327319145203, 0.38274848461151123, 0.3350406587123871, 0.4187461733818054, 0.31211915612220764, 0.18195059895515442, 0.16958455741405487, 0.49716511368751526, 0.3891456425189972, 0.5918582677841187, 0.11199589818716049, 0.38214021921157837, 0.1887412667274475, 0.38804522156715393, 0.3649265766143799, 0.33224552869796753, 0.6512992978096008, 0.293732613325119, 0.25496071577072144, 0.3114187717437744, 0.5112231969833374, 0.28087595105171204, 0.555347204208374, 0.5637556910514832, 0.4535932242870331, 0.6316474676132202, 0.43912023305892944, 0.38302189111709595, 0.9251532554626465, 0.7193779945373535, 0.6065506339073181, 0.3818640410900116, 0.18775996565818787, 0.6039906144142151, 0.14074330031871796, 0.08617308735847473, 0.1500793844461441, 0.34326454997062683, 0.4546768069267273, 0.22157682478427887, 0.6613755226135254, 0.4077836871147156, 0.23319217562675476, 0.5234737396240234, 0.440289705991745, 0.3329872190952301, 0.4601554572582245, 0.3202674984931946, 0.10694219172000885, 0.3274260461330414, 0.33438172936439514, 0.2029687762260437, 0.20167650282382965, 0.3555366098880768, 0.34071245789527893, 0.2941009998321533, 0.38423994183540344, 0.8397353291511536, 0.6390330791473389, 0.8147060871124268, 0.8711254596710205, 0.7721318006515503, 0.7286845445632935, 0.8318904042243958, 0.9060884118080139, 0.8977228999137878, 0.8334267735481262, 0.9441422820091248, 0.8268822431564331, 0.7200917601585388, 0.7690171003341675, 0.7549928426742554, 0.7552695274353027]</t>
+          <t>[0.9081270098686218, 0.9205753207206726, 0.8769715428352356, 0.9404323697090149, 0.9474095106124878, 0.6008552312850952, 0.4068865478038788, 0.33310163021087646, 0.7538813352584839, 0.6860173940658569, 0.484257310628891, 0.5214260816574097, 0.24820619821548462, 0.17334894835948944, 0.5270929336547852, 0.4072149097919464, 0.07789230346679688, 0.047006890177726746, 0.1440565139055252, 0.2880486249923706, 0.34237968921661377, 0.496532142162323, 0.8398820757865906, 0.6898527145385742, 0.9145134687423706, 0.6750770807266235, 0.5243052840232849, 0.6989825367927551, 0.5340584516525269, 0.8333890438079834, 0.8646084070205688, 0.7131083011627197, 0.5948114395141602, 0.6732816100120544, 0.8032553195953369, 0.7995539307594299, 0.6848248243331909, 0.2952151298522949, 0.8985835313796997, 0.9475200176239014, 0.9607651829719543, 0.8951011896133423, 0.5263234376907349, 0.962296187877655, 0.9084651470184326, 0.9317023158073425, 0.5203081369400024, 0.6648208498954773, 0.5842180848121643, 0.2726755738258362, 0.22472727298736572, 0.28303658962249756, 0.1250738799571991, 0.03677954524755478, 0.14517547190189362, 0.6357146501541138, 0.5757554173469543, 0.6946247220039368, 0.6020362377166748, 0.7306059002876282, 0.5333625078201294, 0.3048776686191559, 0.20792879164218903, 0.5273990035057068, 0.25277847051620483, 0.5331484079360962, 0.2223360389471054, 0.2710421085357666, 0.18337874114513397, 0.09714960306882858, 0.1445886194705963, 0.5436850190162659, 0.19872744381427765, 0.1956031322479248, 0.18092291057109833, 0.1490638554096222, 0.17965269088745117, 0.2793169915676117, 0.1831703633069992, 0.22457529604434967, 0.14124540984630585, 0.14754965901374817, 0.10811078548431396, 0.11849378049373627, 0.1801535040140152, 0.08369191735982895, 0.12204702943563461, 0.1800546944141388, 0.25399282574653625, 0.1602429449558258, 0.0779540166258812, 0.16100601851940155, 0.2193244993686676, 0.0760236606001854, 0.08059237897396088, 0.1916235387325287, 0.0814986452460289, 0.15272623300552368, 0.27103736996650696, 0.20982182025909424, 0.1546042412519455, 0.2741355001926422, 0.24984924495220184, 0.08499973267316818, 0.15318717062473297, 0.12592658400535583, 0.1823655515909195, 0.2619783878326416, 0.5753006339073181, 0.108590267598629, 0.12913013994693756, 0.22702562808990479, 0.11463503539562225, 0.06623956561088562, 0.0393986739218235, 0.07541105896234512, 0.05428358539938927, 0.16572894155979156, 0.030213650315999985, 0.1505318284034729, 0.06175452843308449, 0.20118027925491333, 0.13221387565135956, 0.18389371037483215, 0.3765670359134674, 0.08622116595506668, 0.10091830790042877, 0.14477789402008057, 0.2270692139863968, 0.10519680380821228, 0.23856455087661743, 0.19091477990150452, 0.1301925778388977, 0.34024420380592346, 0.18203534185886383, 0.14433720707893372, 0.6533864736557007, 0.34564560651779175, 0.22712630033493042, 0.06875771284103394, 0.06242702901363373, 0.22477255761623383, 0.03754859417676926, 0.01500666793435812, 0.042702559381723404, 0.08428879082202911, 0.16787469387054443, 0.04674626514315605, 0.4505402445793152, 0.21249009668827057, 0.10146965086460114, 0.2830604612827301, 0.1862284243106842, 0.19733260571956635, 0.29680925607681274, 0.18221639096736908, 0.04144911840558052, 0.2311730831861496, 0.22768113017082214, 0.1080406978726387, 0.09027308225631714, 0.1711885929107666, 0.16016116738319397, 0.14490675926208496, 0.1690511703491211, 0.6860284209251404, 0.5981224775314331, 0.7969619035720825, 0.771806538105011, 0.5475144386291504, 0.5605621933937073, 0.6637051701545715, 0.7053717970848083, 0.7142950296401978, 0.7353091835975647, 0.8382896780967712, 0.652786374092102, 0.5134586095809937, 0.4722265303134918, 0.7063789367675781, 0.7066322565078735]</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.9760074019432068</v>
+        <v>0.962296187877655</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1.004147499974351</v>
+        <v>1.010089600007632</v>
       </c>
       <c r="J65" t="n">
-        <v>0.005547776242952217</v>
+        <v>0.005580605524904044</v>
       </c>
     </row>
     <row r="66">
@@ -3165,11 +3165,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[0.3825297951698303, 0.5384947061538696, 0.555914580821991, 0.4923475980758667, 0.6222177743911743, 0.3911372721195221, 0.369492769241333, 0.3201652765274048, 0.29509425163269043, 0.4839518368244171, 0.4367717206478119, 0.5459938645362854, 0.6469460725784302, 0.39546290040016174, 0.5180308818817139, 0.5539100170135498, 0.41215717792510986, 0.614874541759491, 0.475068598985672, 0.6044184565544128, 0.7825508117675781, 0.43681415915489197, 0.7382603287696838, 0.941435694694519, 0.86078941822052, 0.8464288711547852, 0.8025989532470703, 0.8879489302635193, 0.45794790983200073, 0.18434162437915802, 0.4352891743183136, 0.7074360251426697, 0.6876400709152222, 0.7541539072990417, 0.7295366525650024, 0.2848515510559082, 0.43940556049346924, 0.35117360949516296, 0.15800006687641144, 0.5811565518379211, 0.456663578748703, 0.6431668400764465, 0.652045488357544, 0.47188085317611694, 0.5620814561843872, 0.9501851797103882, 0.9670236110687256, 0.9413827657699585, 0.9761903882026672, 0.9795706272125244, 0.9536075592041016, 0.8764368295669556, 0.6784631013870239, 0.5658393502235413, 0.8598183393478394, 0.9116415977478027, 0.9223697781562805, 0.7768850922584534, 0.5127858519554138, 0.688711404800415, 0.3908473551273346, 0.5630605816841125, 0.12816686928272247, 0.24451711773872375, 0.23005139827728271, 0.22013604640960693, 0.329242467880249, 0.289224773645401, 0.5014251470565796, 0.30906057357788086, 0.6200458407402039, 0.9729761481285095, 0.9787203073501587, 0.9238417744636536, 0.9940925240516663, 0.9888033270835876, 0.9802682399749756, 0.670196533203125, 0.8002862930297852, 0.7003638744354248, 0.19424599409103394, 0.5494914650917053, 0.3100944757461548, 0.16468967497348785, 0.18577465415000916, 0.37460872530937195, 0.43425166606903076, 0.889290988445282, 0.7727312445640564, 0.22440356016159058, 0.5782153010368347, 0.7830619215965271, 0.6833542585372925, 0.9403598308563232, 0.9042161107063293, 0.4750167727470398, 0.6720900535583496, 0.5107854604721069, 0.8092859387397766, 0.6117157936096191, 0.6766058206558228, 0.35264259576797485, 0.24919411540031433, 0.3480359613895416, 0.2228829562664032, 0.22895723581314087, 0.31929317116737366, 0.19465279579162598, 0.6993328928947449, 0.6084688305854797, 0.6982935667037964, 0.8657183051109314, 0.6972455978393555, 0.5828145146369934, 0.3480280637741089, 0.09841956943273544, 0.1968717873096466, 0.2840898334980011, 0.1571551412343979, 0.38505393266677856, 0.5618093609809875, 0.6176906228065491, 0.655585765838623, 0.5993377566337585, 0.42668962478637695, 0.2920804023742676, 0.25680625438690186, 0.292672336101532, 0.25664764642715454, 0.5116598010063171, 0.43881335854530334, 0.6820835471153259, 0.6226143836975098, 0.7861286997795105, 0.6386653780937195, 0.5220495462417603, 0.6966558694839478, 0.6044753193855286, 0.710185170173645, 0.38304054737091064, 0.6894969940185547, 0.8447949886322021, 0.5400263071060181, 0.31679055094718933, 0.5578469634056091, 0.7176807522773743, 0.47189614176750183, 0.42511430382728577, 0.43676164746284485, 0.335501492023468, 0.32327717542648315, 0.4902891218662262, 0.5243536233901978, 0.5695124864578247, 0.6989586353302002, 0.731715977191925, 0.4600253701210022, 0.8728204369544983, 0.6697892546653748, 0.7602713704109192, 0.528452455997467, 0.8071499466896057, 0.8026385307312012, 0.970212996006012, 0.9109113216400146, 0.5969207882881165, 0.15195196866989136, 0.0836002379655838, 0.03601491078734398, 0.07217659801244736, 0.09793753176927567, 0.3647712469100952, 0.4311836361885071, 0.1739819347858429, 0.6790128946304321, 0.8756430745124817, 0.5634722709655762, 0.6174539923667908, 0.6631196141242981, 0.5234900712966919, 0.38672059774398804, 0.38347160816192627]</t>
+          <t>[0.3984873592853546, 0.4868927001953125, 0.42965519428253174, 0.31716349720954895, 0.41067785024642944, 0.14797551929950714, 0.19300764799118042, 0.16661100089550018, 0.20090897381305695, 0.5206422209739685, 0.43894729018211365, 0.6481546759605408, 0.7143798470497131, 0.4899345934391022, 0.5259878039360046, 0.6431811451911926, 0.455469012260437, 0.6315809488296509, 0.553752064704895, 0.7207015752792358, 0.8428359627723694, 0.6448517441749573, 0.8266693949699402, 0.9699974656105042, 0.8807054162025452, 0.8536136150360107, 0.916759192943573, 0.8998095989227295, 0.5085004568099976, 0.21121154725551605, 0.5774503350257874, 0.8616408705711365, 0.7212913036346436, 0.6429066061973572, 0.7633983492851257, 0.3166449964046478, 0.30246618390083313, 0.28736555576324463, 0.10633251070976257, 0.585106372833252, 0.42810186743736267, 0.6506937146186829, 0.41956326365470886, 0.39573585987091064, 0.5982716083526611, 0.9314565062522888, 0.9520986676216125, 0.9204238653182983, 0.9722917079925537, 0.9654244780540466, 0.9474186897277832, 0.9233822226524353, 0.775969922542572, 0.6812408566474915, 0.8233984708786011, 0.9096264839172363, 0.8831770420074463, 0.8368930220603943, 0.523248553276062, 0.6230717301368713, 0.1957913041114807, 0.4341248869895935, 0.05804857611656189, 0.17887647449970245, 0.2818639874458313, 0.18161559104919434, 0.24704979360103607, 0.22468185424804688, 0.2044549584388733, 0.22839553654193878, 0.650888979434967, 0.9783245921134949, 0.9845119714736938, 0.9278391003608704, 0.9948081374168396, 0.9917599558830261, 0.9846410155296326, 0.7258317470550537, 0.7544359564781189, 0.7835254669189453, 0.12388923764228821, 0.5839760899543762, 0.21842250227928162, 0.09485887736082077, 0.12666258215904236, 0.31704822182655334, 0.3914754390716553, 0.7979896664619446, 0.46661847829818726, 0.08451960980892181, 0.5708135366439819, 0.7077839970588684, 0.42668721079826355, 0.8413345813751221, 0.7514793872833252, 0.12759356200695038, 0.17511510848999023, 0.33394673466682434, 0.6747779250144958, 0.34823763370513916, 0.4921947419643402, 0.1789213865995407, 0.1091277152299881, 0.17679795622825623, 0.10835501551628113, 0.0745842382311821, 0.10147309303283691, 0.09074864536523819, 0.6171950697898865, 0.3911915421485901, 0.5849201083183289, 0.7319305539131165, 0.642130434513092, 0.43937817215919495, 0.20029129087924957, 0.024282582104206085, 0.11053990572690964, 0.18838420510292053, 0.11723313480615616, 0.3790681064128876, 0.37820106744766235, 0.53376305103302, 0.5381274819374084, 0.42151832580566406, 0.14065729081630707, 0.13828298449516296, 0.18884098529815674, 0.28564023971557617, 0.22803349792957306, 0.3874300718307495, 0.475737988948822, 0.7110238671302795, 0.525471031665802, 0.7819826006889343, 0.6892042756080627, 0.4902243912220001, 0.7376586198806763, 0.4867936372756958, 0.5230152010917664, 0.15780401229858398, 0.6188265085220337, 0.8131767511367798, 0.5146850347518921, 0.2148454487323761, 0.4205453395843506, 0.3220922350883484, 0.3194248378276825, 0.2391311228275299, 0.3258649706840515, 0.0887167677283287, 0.13138844072818756, 0.39075741171836853, 0.28262293338775635, 0.25834938883781433, 0.654406726360321, 0.7160741090774536, 0.5479118824005127, 0.8709665536880493, 0.6249016523361206, 0.7529600858688354, 0.45735305547714233, 0.82441645860672, 0.8786855340003967, 0.9737457036972046, 0.8913949131965637, 0.5860351324081421, 0.06868206709623337, 0.03642728179693222, 0.009379294700920582, 0.021611208096146584, 0.04446950927376747, 0.13577613234519958, 0.40043312311172485, 0.13752064108848572, 0.6814000010490417, 0.8521682620048523, 0.6529977917671204, 0.6761130690574646, 0.7449198961257935, 0.5064062476158142, 0.45925673842430115, 0.45675334334373474]</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.9940925240516663</v>
+        <v>0.9948081374168396</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -3183,10 +3183,10 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1.013030800007982</v>
+        <v>1.022541600003024</v>
       </c>
       <c r="J66" t="n">
-        <v>0.005566103296747155</v>
+        <v>0.005618360439577053</v>
       </c>
     </row>
     <row r="67">
@@ -3205,11 +3205,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>[0.4594508409500122, 0.7743919491767883, 0.6810938715934753, 0.6190235018730164, 0.7118698358535767, 0.5630522966384888, 0.1994568258523941, 0.17008011043071747, 0.5302267670631409, 0.4538675546646118, 0.3095668852329254, 0.5361372232437134, 0.6763098835945129, 0.4737006723880768, 0.28875502943992615, 0.2240431308746338, 0.40255847573280334, 0.5070474743843079, 0.34602218866348267, 0.4561019837856293, 0.3559555113315582, 0.18492433428764343, 0.3070111870765686, 0.7017306685447693, 0.5871015787124634, 0.8209912776947021, 0.46435287594795227, 0.5896344184875488, 0.21602463722229004, 0.3274838626384735, 0.31273573637008667, 0.20832984149456024, 0.13726156949996948, 0.2078845500946045, 0.1657906025648117, 0.23065121471881866, 0.19858631491661072, 0.2744368612766266, 0.3157312870025635, 0.7819489240646362, 0.6847243905067444, 0.511788010597229, 0.3826960623264313, 0.34187784790992737, 0.2072862684726715, 0.1838337928056717, 0.11462707072496414, 0.3109675645828247, 0.228866845369339, 0.16171443462371826, 0.17737291753292084, 0.2757883369922638, 0.09399371594190598, 0.17707322537899017, 0.3092242181301117, 0.13363713026046753, 0.14129973948001862, 0.24954853951931, 0.5743810534477234, 0.5532750487327576, 0.6592510342597961, 0.677722156047821, 0.6504530310630798, 0.27511200308799744, 0.2678423523902893, 0.24673055112361908, 0.2829201817512512, 0.4627220630645752, 0.7302344441413879, 0.6787304878234863, 0.6280995011329651, 0.29042068123817444, 0.18857768177986145, 0.3943578898906708, 0.297823041677475, 0.19045253098011017, 0.3926561772823334, 0.6626645922660828, 0.6340636610984802, 0.670987606048584, 0.8447622060775757, 0.550040066242218, 0.7204280495643616, 0.7399283647537231, 0.4768095910549164, 0.7710301280021667, 0.267843097448349, 0.2651360332965851, 0.21925131976604462, 0.23702473938465118, 0.1892869472503662, 0.4460839629173279, 0.12725630402565002, 0.30810365080833435, 0.3442251980304718, 0.3634241223335266, 0.4794214069843292, 0.5815089344978333, 0.5025988817214966, 0.3406558632850647, 0.9513378739356995, 0.9758938550949097, 0.9919982552528381, 0.9898210763931274, 0.9888302683830261, 0.9928594827651978, 0.978097677230835, 0.900627076625824, 0.9797006845474243, 0.9796503782272339, 0.9334763884544373, 0.5873093008995056, 0.4831709861755371, 0.3905150294303894, 0.3278783857822418, 0.8007138967514038, 0.6906404495239258, 0.5729622840881348, 0.568854033946991, 0.756362795829773, 0.3727090656757355, 0.42948904633522034, 0.8776615858078003, 0.724730908870697, 0.544557511806488, 0.9293996691703796, 0.6024351119995117, 0.18255673348903656, 0.10788389295339584, 0.18138077855110168, 0.18855585157871246, 0.14647100865840912, 0.4080854058265686, 0.3374713659286499, 0.40785515308380127, 0.5754601955413818, 0.07007957249879837, 0.3633118271827698, 0.45501527190208435, 0.41457200050354004, 0.20479299128055573, 0.16450391709804535, 0.2956724762916565, 0.26845452189445496, 0.2310829907655716, 0.0997232124209404, 0.174266517162323, 0.4222779870033264, 0.13081131875514984, 0.23474785685539246, 0.2492951899766922, 0.18752942979335785, 0.33375486731529236, 0.5754899382591248, 0.41136983036994934, 0.2885192036628723, 0.33472999930381775, 0.32119879126548767, 0.14508754014968872, 0.2280881404876709, 0.13155482709407806, 0.1126355305314064, 0.1393800526857376, 0.19408981502056122, 0.04711436480283737, 0.09813008457422256, 0.045609984546899796, 0.12291581928730011, 0.11759978532791138, 0.13098576664924622, 0.21513713896274567, 0.10703272372484207, 0.373426228761673, 0.293319433927536, 0.24078010022640228, 0.25556445121765137, 0.5518515110015869, 0.32558193802833557, 0.5103453397750854, 0.49962979555130005, 0.6702671647071838, 0.6697853803634644]</t>
+          <t>[0.4461512565612793, 0.7039899826049805, 0.6123011112213135, 0.6465592980384827, 0.6423222422599792, 0.3258166015148163, 0.1278534084558487, 0.0676189586520195, 0.3580191433429718, 0.27448639273643494, 0.22141911089420319, 0.42376670241355896, 0.5164903402328491, 0.18936967849731445, 0.1629735678434372, 0.1816849708557129, 0.2029646635055542, 0.49640247225761414, 0.2900882065296173, 0.39829424023628235, 0.2611318826675415, 0.10420489311218262, 0.2042839229106903, 0.58549565076828, 0.3406156003475189, 0.5383219718933105, 0.2304573506116867, 0.18185220658779144, 0.046987343579530716, 0.12256591767072678, 0.20695379376411438, 0.08256426453590393, 0.09366528689861298, 0.08892420679330826, 0.1057043969631195, 0.1224292516708374, 0.06072738766670227, 0.25939834117889404, 0.2766454517841339, 0.8206032514572144, 0.6374915838241577, 0.44104552268981934, 0.2700481712818146, 0.19276131689548492, 0.12052541226148605, 0.16954462230205536, 0.096437968313694, 0.38850507140159607, 0.2045065015554428, 0.15188029408454895, 0.17115065455436707, 0.21195363998413086, 0.11152208596467972, 0.1817106306552887, 0.37876754999160767, 0.12958921492099762, 0.1515025794506073, 0.2707163393497467, 0.49155062437057495, 0.46886107325553894, 0.5856274366378784, 0.5357858538627625, 0.4176064133644104, 0.1265460103750229, 0.10702807456254959, 0.12782393395900726, 0.14946028590202332, 0.32848840951919556, 0.7695483565330505, 0.6842816472053528, 0.41813036799430847, 0.3277570307254791, 0.326059490442276, 0.45516982674598694, 0.24305357038974762, 0.14114466309547424, 0.33131492137908936, 0.7461979985237122, 0.47715136408805847, 0.6369024515151978, 0.714651882648468, 0.5925691723823547, 0.5718637704849243, 0.7743908762931824, 0.5859888792037964, 0.7478144764900208, 0.094268798828125, 0.12214882671833038, 0.12297225743532181, 0.2056104689836502, 0.14685948193073273, 0.5513696670532227, 0.08054010570049286, 0.2083885371685028, 0.2643815875053406, 0.4096147418022156, 0.6105027794837952, 0.6847368478775024, 0.4356819987297058, 0.2585943639278412, 0.9511333107948303, 0.9723377823829651, 0.991877555847168, 0.9872031807899475, 0.9909324645996094, 0.9959750771522522, 0.9798687100410461, 0.9178734421730042, 0.9914578795433044, 0.9873098731040955, 0.9639098048210144, 0.6211996674537659, 0.43467575311660767, 0.3316781520843506, 0.1802709549665451, 0.7739639282226562, 0.6215819716453552, 0.5197734236717224, 0.303619384765625, 0.6415858864784241, 0.20282809436321259, 0.3544437289237976, 0.8261808156967163, 0.7271847128868103, 0.430819571018219, 0.9103142619132996, 0.5934038758277893, 0.10475414246320724, 0.0319097526371479, 0.06440220773220062, 0.10258965939283371, 0.08929582685232162, 0.1813480257987976, 0.23613697290420532, 0.16205303370952606, 0.22785033285617828, 0.02147260494530201, 0.16771870851516724, 0.23561623692512512, 0.24548016488552094, 0.05577035993337631, 0.054744888097047806, 0.18403036892414093, 0.21245643496513367, 0.09903045743703842, 0.05266265943646431, 0.09056978672742844, 0.19233348965644836, 0.034342288970947266, 0.10220249742269516, 0.19031494855880737, 0.13176032900810242, 0.2706313133239746, 0.3967518210411072, 0.28091269731521606, 0.20293410122394562, 0.2263813018798828, 0.30870115756988525, 0.1049153059720993, 0.2126646339893341, 0.0979796051979065, 0.11726988106966019, 0.1363183706998825, 0.09848067164421082, 0.013994069769978523, 0.03579343110322952, 0.012251611799001694, 0.06354016065597534, 0.04613696038722992, 0.06362684071063995, 0.0869549959897995, 0.06170136481523514, 0.3852861523628235, 0.21487748622894287, 0.20465081930160522, 0.18357068300247192, 0.4726608097553253, 0.29173949360847473, 0.4597628116607666, 0.5014866590499878, 0.43030214309692383, 0.43098342418670654]</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.9928594827651978</v>
+        <v>0.9959750771522522</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -3223,10 +3223,10 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1.018417300016154</v>
+        <v>1.036697799994727</v>
       </c>
       <c r="J67" t="n">
-        <v>0.005595699450638206</v>
+        <v>0.005696141758212784</v>
       </c>
     </row>
     <row r="68">
@@ -3245,11 +3245,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[0.0590822696685791, 0.10725870728492737, 0.07656662166118622, 0.09828357398509979, 0.1440475583076477, 0.20420509576797485, 0.1482822448015213, 0.12202522158622742, 0.15088418126106262, 0.18834389746189117, 0.12714943289756775, 0.10630203038454056, 0.11095263808965683, 0.27858966588974, 0.15770506858825684, 0.08605603128671646, 0.07670030742883682, 0.10953031480312347, 0.14966201782226562, 0.09924861788749695, 0.07914472371339798, 0.09178345650434494, 0.10535896569490433, 0.09357316046953201, 0.08786794543266296, 0.06813348829746246, 0.086772620677948, 0.0922425240278244, 0.1506197452545166, 0.28506749868392944, 0.20134001970291138, 0.14937137067317963, 0.171148419380188, 0.2331918478012085, 0.18435996770858765, 0.1711094081401825, 0.17775411903858185, 0.23141545057296753, 0.2275414913892746, 0.2256542593240738, 0.26404663920402527, 0.27671653032302856, 0.18548889458179474, 0.15023265779018402, 0.14916856586933136, 0.1518738865852356, 0.1298673301935196, 0.1277599036693573, 0.23204568028450012, 0.2823755741119385, 0.20952606201171875, 0.1772385537624359, 0.19412684440612793, 0.21097016334533691, 0.27540647983551025, 0.3203575909137726, 0.24850289523601532, 0.3358108103275299, 0.31374678015708923, 0.30173319578170776, 0.30751630663871765, 0.2435857355594635, 0.2531358301639557, 0.2605549097061157, 0.173665389418602, 0.16883714497089386, 0.20312951505184174, 0.28035399317741394, 0.3211044669151306, 0.4890432059764862, 0.5725557208061218, 0.3939597010612488, 0.38272640109062195, 0.3626400828361511, 0.36097535490989685, 0.333116739988327, 0.3758394122123718, 0.45987385511398315, 0.43569496273994446, 0.45353785157203674, 0.3479246199131012, 0.25686201453208923, 0.17296405136585236, 0.13748799264431, 0.12595875561237335, 0.11410082876682281, 0.10116102546453476, 0.09535195678472519, 0.10231561213731766, 0.13699263334274292, 0.13648280501365662, 0.1704225093126297, 0.28070521354675293, 0.2938510775566101, 0.26131317019462585, 0.22495883703231812, 0.2659717798233032, 0.2844715416431427, 0.30016449093818665, 0.1967359036207199, 0.15091215074062347, 0.12562084197998047, 0.15342311561107635, 0.15747037529945374, 0.14011457562446594, 0.10364795476198196, 0.10588730126619339, 0.14543187618255615, 0.3117189109325409, 0.3123854398727417, 0.3287670314311981, 0.44936689734458923, 0.5268694162368774, 0.4871928095817566, 0.4392632246017456, 0.29247191548347473, 0.34353765845298767, 0.33139368891716003, 0.37462520599365234, 0.29712772369384766, 0.4462777376174927, 0.37413710355758667, 0.4121871590614319, 0.40833529829978943, 0.31406310200691223, 0.24519950151443481, 0.24271754920482635, 0.21141661703586578, 0.1603551208972931, 0.11327481269836426, 0.11395040154457092, 0.20508389174938202, 0.26066854596138, 0.44434574246406555, 0.49049296975135803, 0.6395432949066162, 0.5621009469032288, 0.6208688020706177, 0.5619595646858215, 0.2856718599796295, 0.26559320092201233, 0.2841031551361084, 0.17763036489486694, 0.14814800024032593, 0.12869001924991608, 0.13256897032260895, 0.12239478528499603, 0.11221127212047577, 0.14212560653686523, 0.3534907400608063, 0.33400958776474, 0.45612576603889465, 0.5402529239654541, 0.5322919487953186, 0.5957469344139099, 0.33736127614974976, 0.27377408742904663, 0.295756995677948, 0.18917597830295563, 0.1656004935503006, 0.18001677095890045, 0.1403052657842636, 0.10660768300294876, 0.10076497495174408, 0.131256103515625, 0.15122376382350922, 0.12863796949386597, 0.10987237840890884, 0.09571757167577744, 0.11903152614831924, 0.14597997069358826, 0.20643611252307892, 0.16592781245708466, 0.2426316738128662, 0.30909809470176697, 0.24328409135341644, 0.2865176200866699, 0.15704424679279327, 0.15603256225585938, 0.1528494507074356, 0.15544599294662476, 0.15505827963352203]</t>
+          <t>[0.06936242431402206, 0.22684043645858765, 0.12784115970134735, 0.11911704391241074, 0.16181831061840057, 0.2839892506599426, 0.22848235070705414, 0.25963959097862244, 0.3202141225337982, 0.3093564510345459, 0.1598767787218094, 0.11935360729694366, 0.1205155998468399, 0.4504457414150238, 0.2259140908718109, 0.08126788586378098, 0.06418559700250626, 0.10387515276670456, 0.11842701584100723, 0.07354604452848434, 0.06858837604522705, 0.09749126434326172, 0.13233572244644165, 0.13505589962005615, 0.14228150248527527, 0.11332190781831741, 0.13093341886997223, 0.1483219712972641, 0.17943572998046875, 0.31936028599739075, 0.241579070687294, 0.1600104719400406, 0.17410051822662354, 0.26889997720718384, 0.2175854593515396, 0.19182302057743073, 0.22085775434970856, 0.2212335616350174, 0.17536938190460205, 0.16872620582580566, 0.2180054783821106, 0.23860043287277222, 0.15555264055728912, 0.11868452280759811, 0.1360415369272232, 0.15834537148475647, 0.12501473724842072, 0.14019595086574554, 0.3010055422782898, 0.37203285098075867, 0.19867713749408722, 0.17350368201732635, 0.22086754441261292, 0.21952976286411285, 0.283523827791214, 0.33745765686035156, 0.19725853204727173, 0.31374865770339966, 0.33144745230674744, 0.3603341281414032, 0.411647230386734, 0.31001681089401245, 0.311482697725296, 0.2978886663913727, 0.18571491539478302, 0.1614633947610855, 0.20869465172290802, 0.32425767183303833, 0.4330481290817261, 0.5917636156082153, 0.6753094792366028, 0.49744948744773865, 0.5140643119812012, 0.47258099913597107, 0.4769512116909027, 0.39038413763046265, 0.4682990610599518, 0.5832367539405823, 0.550355076789856, 0.5189723968505859, 0.3750685453414917, 0.3442457318305969, 0.23622119426727295, 0.14623428881168365, 0.13451986014842987, 0.10884550958871841, 0.08561795949935913, 0.07081837952136993, 0.07574199885129929, 0.1153244599699974, 0.10189484804868698, 0.16780400276184082, 0.3059031069278717, 0.3166866600513458, 0.2742004990577698, 0.2542290985584259, 0.34663933515548706, 0.3723490238189697, 0.39487284421920776, 0.19665685296058655, 0.14563322067260742, 0.11913604289293289, 0.1566081941127777, 0.16810639202594757, 0.15245667099952698, 0.09683947265148163, 0.08927777409553528, 0.14208689332008362, 0.381369024515152, 0.3359602093696594, 0.3785070478916168, 0.579764723777771, 0.6360980272293091, 0.6035953760147095, 0.5571163892745972, 0.3564373552799225, 0.40536317229270935, 0.421013742685318, 0.4816748797893524, 0.3982430398464203, 0.597091794013977, 0.4900802969932556, 0.5473317503929138, 0.4517698585987091, 0.3724433481693268, 0.2724982798099518, 0.2561257779598236, 0.24325861036777496, 0.180403470993042, 0.12341243773698807, 0.1279166042804718, 0.3300701081752777, 0.44277483224868774, 0.5894149541854858, 0.6262396574020386, 0.808924674987793, 0.7469147443771362, 0.8477990031242371, 0.8028066158294678, 0.41733449697494507, 0.3303978741168976, 0.38003987073898315, 0.2004018872976303, 0.18305645883083344, 0.11508294939994812, 0.11166870594024658, 0.11541398614645004, 0.1340876966714859, 0.2205692082643509, 0.5295543074607849, 0.5206547975540161, 0.665054440498352, 0.702539324760437, 0.7254289388656616, 0.8109762668609619, 0.6318691968917847, 0.4291130304336548, 0.39877086877822876, 0.2917509078979492, 0.2447364330291748, 0.2846224009990692, 0.17415852844715118, 0.11467843502759933, 0.09439190477132797, 0.13585896790027618, 0.17132702469825745, 0.13851074874401093, 0.11463295668363571, 0.10091188549995422, 0.13454249501228333, 0.1716056764125824, 0.2828608453273773, 0.2141510248184204, 0.32974183559417725, 0.45315858721733093, 0.3972531259059906, 0.4878034293651581, 0.28367897868156433, 0.22527387738227844, 0.27659842371940613, 0.2735743820667267, 0.27311867475509644]</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.6395432949066162</v>
+        <v>0.8477990031242371</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1.014810599997872</v>
+        <v>1.024382799994783</v>
       </c>
       <c r="J68" t="n">
-        <v>0.005575882417570728</v>
+        <v>0.005628476923048255</v>
       </c>
     </row>
     <row r="69">
@@ -3285,11 +3285,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[0.1402224749326706, 0.12425129860639572, 0.11912208050489426, 0.15780694782733917, 0.05569051578640938, 0.057301342487335205, 0.05488111823797226, 0.061127834022045135, 0.08576583862304688, 0.10896161943674088, 0.07477453351020813, 0.1526215821504593, 0.11532848328351974, 0.08233155310153961, 0.08221253007650375, 0.08596648275852203, 0.06861739605665207, 0.0794697031378746, 0.0851735919713974, 0.09948498755693436, 0.09325365722179413, 0.1045357808470726, 0.09687095880508423, 0.0751010850071907, 0.07432384788990021, 0.10228370875120163, 0.18519291281700134, 0.24222803115844727, 0.27373287081718445, 0.21277004480361938, 0.19690117239952087, 0.18598748743534088, 0.1615438461303711, 0.10127026587724686, 0.08027662336826324, 0.07039153575897217, 0.05722754821181297, 0.05942469835281372, 0.047882597893476486, 0.05576545372605324, 0.06979181617498398, 0.08330870419740677, 0.06875976920127869, 0.06036565080285072, 0.05663761496543884, 0.05491796135902405, 0.0788334533572197, 0.08730052411556244, 0.10132378339767456, 0.07275906950235367, 0.08525775372982025, 0.0815066546201706, 0.12915745377540588, 0.12506666779518127, 0.11126423627138138, 0.0883687287569046, 0.11885673552751541, 0.11520908772945404, 0.12761898338794708, 0.1345733404159546, 0.11234201490879059, 0.06980281323194504, 0.07356168329715729, 0.10145445168018341, 0.11563651263713837, 0.09987454116344452, 0.10647197812795639, 0.0901825800538063, 0.09746197611093521, 0.12183761596679688, 0.15419161319732666, 0.13304342329502106, 0.10233698785305023, 0.09897490590810776, 0.08176136761903763, 0.0804184153676033, 0.13802003860473633, 0.12029460072517395, 0.08137648552656174, 0.06606148928403854, 0.043705206364393234, 0.03047780692577362, 0.032521724700927734, 0.046566642820835114, 0.06533298641443253, 0.10203136503696442, 0.1352865844964981, 0.06923931837081909, 0.03621184453368187, 0.040482047945261, 0.0774414986371994, 0.0716630145907402, 0.06833531707525253, 0.05652358755469322, 0.060560960322618484, 0.06550363451242447, 0.05918635427951813, 0.043563470244407654, 0.04260307177901268, 0.05248028412461281, 0.046762291342020035, 0.047771770507097244, 0.055015720427036285, 0.05056826025247574, 0.061970215290784836, 0.05667679384350777, 0.04590980336070061, 0.0416414812207222, 0.04129905253648758, 0.043544214218854904, 0.042192067950963974, 0.03435574099421501, 0.03244132548570633, 0.03007618524134159, 0.025242548435926437, 0.024990933015942574, 0.027799708768725395, 0.033824458718299866, 0.032292526215314865, 0.03589232265949249, 0.029109179973602295, 0.02802763320505619, 0.0288314800709486, 0.04757434502243996, 0.055343128740787506, 0.04871847853064537, 0.03967202827334404, 0.03220204636454582, 0.03293650597333908, 0.042241912335157394, 0.05565386265516281, 0.045824021100997925, 0.02875518798828125, 0.03672570362687111, 0.045365672558546066, 0.037398405373096466, 0.029724564403295517, 0.024419579654932022, 0.025726450607180595, 0.026063136756420135, 0.04944334924221039, 0.05509250983595848, 0.05144578218460083, 0.05643117427825928, 0.05822351202368736, 0.05154211074113846, 0.05196697637438774, 0.03930746018886566, 0.04358084127306938, 0.047946568578481674, 0.03667858988046646, 0.04437365382909775, 0.04454658925533295, 0.045862119644880295, 0.04390783980488777, 0.04741832613945007, 0.0477604977786541, 0.05428234860301018, 0.06448981165885925, 0.06810318678617477, 0.06672102212905884, 0.06138603016734123, 0.07068037986755371, 0.06798293441534042, 0.05713661015033722, 0.12128883600234985, 0.1129964217543602, 0.11985211819410324, 0.13273797929286957, 0.17790035903453827, 0.19278746843338013, 0.1599733531475067, 0.0908912792801857, 0.08452785760164261, 0.07170125842094421, 0.06667160242795944, 0.05755643546581268, 0.07844091206789017, 0.0710219293832779, 0.06686197221279144, 0.05365835130214691, 0.05327529087662697]</t>
+          <t>[0.1305803656578064, 0.11194181442260742, 0.11077717691659927, 0.12581878900527954, 0.05068344622850418, 0.054551322013139725, 0.05181041359901428, 0.05823906511068344, 0.11221417039632797, 0.09187750518321991, 0.045500967651605606, 0.10325067490339279, 0.0988103523850441, 0.06556769460439682, 0.05653338134288788, 0.05849941819906235, 0.04614344611763954, 0.05391683429479599, 0.05556599050760269, 0.07841529697179794, 0.06641647964715958, 0.06779967993497849, 0.06303966790437698, 0.04323846846818924, 0.032803528010845184, 0.04540872201323509, 0.11682245880365372, 0.2034243792295456, 0.24419553577899933, 0.1703024059534073, 0.23678582906723022, 0.2677781581878662, 0.18307648599147797, 0.07821939885616302, 0.07844935357570648, 0.06479032337665558, 0.05275508016347885, 0.06448144465684891, 0.04184381663799286, 0.047284696251153946, 0.06263890862464905, 0.07398389279842377, 0.06393270194530487, 0.04645717144012451, 0.033943746238946915, 0.037859100848436356, 0.05865297466516495, 0.05907493084669113, 0.07688836008310318, 0.04544122889637947, 0.07679418474435806, 0.07944758981466293, 0.11974073201417923, 0.1126629114151001, 0.08685913681983948, 0.05287978798151016, 0.0790185034275055, 0.08254247903823853, 0.10979224741458893, 0.10289444029331207, 0.08320622146129608, 0.05873553454875946, 0.06698936223983765, 0.07367721945047379, 0.09214137494564056, 0.10436122119426727, 0.09315793216228485, 0.0760834738612175, 0.06775417178869247, 0.1047801598906517, 0.12952223420143127, 0.0824439525604248, 0.056915223598480225, 0.06988975405693054, 0.061945755034685135, 0.056090157479047775, 0.08724185824394226, 0.0734722912311554, 0.050453849136829376, 0.03724430128931999, 0.022443469613790512, 0.017064599320292473, 0.014072682708501816, 0.03350008279085159, 0.047095153480768204, 0.0552203543484211, 0.09201417863368988, 0.036912575364112854, 0.011115601286292076, 0.012136418372392654, 0.025586426258087158, 0.021906204521656036, 0.0238319244235754, 0.018399454653263092, 0.018486276268959045, 0.018732814118266106, 0.015783021226525307, 0.010160349309444427, 0.011934100650250912, 0.016915054991841316, 0.014332207851111889, 0.015230603516101837, 0.016136018559336662, 0.015251543372869492, 0.022148936986923218, 0.021110402420163155, 0.014225603081285954, 0.013603939674794674, 0.013493561185896397, 0.015146361663937569, 0.015874886885285378, 0.012592434883117676, 0.012123093008995056, 0.011918413452804089, 0.009802691638469696, 0.009413864463567734, 0.011575497686862946, 0.014033629558980465, 0.012506897561252117, 0.01405197475105524, 0.009650190360844135, 0.008012137375772, 0.008831333369016647, 0.017915215343236923, 0.02608971856534481, 0.026620958000421524, 0.022122398018836975, 0.015667421743273735, 0.013736622408032417, 0.01773049496114254, 0.02324056066572666, 0.0198045764118433, 0.010888858698308468, 0.01168858539313078, 0.015924016013741493, 0.012064062058925629, 0.008402974344789982, 0.0069586727768182755, 0.007002946455031633, 0.007602763827890158, 0.016859861090779305, 0.023596294224262238, 0.020763404667377472, 0.023992672562599182, 0.030254986137151718, 0.025153744965791702, 0.021311674267053604, 0.02394864521920681, 0.02827008068561554, 0.029086191207170486, 0.02616121619939804, 0.03111869841814041, 0.022739501670002937, 0.021027587354183197, 0.024203157052397728, 0.027333738282322884, 0.025513535365462303, 0.024540282785892487, 0.027532413601875305, 0.0290982723236084, 0.034293439239263535, 0.03967001661658287, 0.0542193166911602, 0.039188627153635025, 0.029520751908421516, 0.0946941152215004, 0.08296123147010803, 0.06956081092357635, 0.06921819597482681, 0.12013525515794754, 0.13367770612239838, 0.10079209506511688, 0.0484342947602272, 0.04681175574660301, 0.04097730293869972, 0.03602004796266556, 0.02531721070408821, 0.04506273195147514, 0.04094872623682022, 0.035012416541576385, 0.02917875163257122, 0.02885669842362404]</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.2737328708171844</v>
+        <v>0.2677781581878662</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -3303,10 +3303,10 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0.9947111000074074</v>
+        <v>0.998774499996216</v>
       </c>
       <c r="J69" t="n">
-        <v>0.005465445604436304</v>
+        <v>0.005487771978001187</v>
       </c>
     </row>
     <row r="70">
@@ -3325,11 +3325,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[0.13654755055904388, 0.17211122810840607, 0.10822533816099167, 0.10642389208078384, 0.11364863067865372, 0.08360498398542404, 0.08844524621963501, 0.08175202459096909, 0.1379801332950592, 0.14047883450984955, 0.14141041040420532, 0.07714025676250458, 0.08026444911956787, 0.08030162006616592, 0.0687062069773674, 0.09806152433156967, 0.11368471384048462, 0.06069495901465416, 0.054414112120866776, 0.07261233031749725, 0.0754801407456398, 0.04437577351927757, 0.04794488847255707, 0.08691291511058807, 0.07012833654880524, 0.12216682732105255, 0.12874774634838104, 0.14147908985614777, 0.09431983530521393, 0.09298571199178696, 0.11213838309049606, 0.16913647949695587, 0.14262229204177856, 0.1693543791770935, 0.23493702709674835, 0.3004594147205353, 0.1582484394311905, 0.12574005126953125, 0.10732448101043701, 0.09421993792057037, 0.09668044745922089, 0.0937032699584961, 0.10048463195562363, 0.08848188817501068, 0.10010210424661636, 0.12441826611757278, 0.18560440838336945, 0.14239639043807983, 0.08600238710641861, 0.18415279686450958, 0.21580633521080017, 0.10947117209434509, 0.09934233129024506, 0.08525803685188293, 0.09851517528295517, 0.10359713435173035, 0.09208399057388306, 0.041867680847644806, 0.04770507290959358, 0.05138026177883148, 0.1285397708415985, 0.058507904410362244, 0.06242542341351509, 0.07262866199016571, 0.07708944380283356, 0.08741500973701477, 0.13252481818199158, 0.07809751480817795, 0.08051533997058868, 0.053352802991867065, 0.061297185719013214, 0.03307979181408882, 0.02652660943567753, 0.027044344693422318, 0.029886063188314438, 0.027501637116074562, 0.027568142861127853, 0.026845015585422516, 0.03238314017653465, 0.03582283854484558, 0.033945608884096146, 0.04006186127662659, 0.03620320186018944, 0.035182006657123566, 0.037563666701316833, 0.03437485545873642, 0.03952929005026817, 0.032610490918159485, 0.03759341314435005, 0.04644869267940521, 0.035808634012937546, 0.049983762204647064, 0.04512248560786247, 0.04197379946708679, 0.10969376564025879, 0.06100666522979736, 0.043257903307676315, 0.03981749713420868, 0.04242195934057236, 0.04428795352578163, 0.03590003401041031, 0.02635820582509041, 0.026256835088133812, 0.025991244241595268, 0.048378828912973404, 0.041355203837156296, 0.039898116141557693, 0.04740918055176735, 0.042930036783218384, 0.05104806646704674, 0.059452250599861145, 0.06731538474559784, 0.09517033398151398, 0.08654097467660904, 0.06576906889677048, 0.06480832397937775, 0.055104728788137436, 0.04013035446405411, 0.05039205029606819, 0.037939611822366714, 0.042635153979063034, 0.04390694200992584, 0.05450475215911865, 0.05780553072690964, 0.06087067723274231, 0.054614659398794174, 0.027823874726891518, 0.029357988387346268, 0.03052254021167755, 0.036152951419353485, 0.03491535782814026, 0.04348869249224663, 0.04174117371439934, 0.05156891420483589, 0.046866510063409805, 0.057136327028274536, 0.06608741730451584, 0.10002090036869049, 0.12984445691108704, 0.10789217799901962, 0.0829165130853653, 0.09169776737689972, 0.12372589111328125, 0.08953007310628891, 0.04751722887158394, 0.03725452348589897, 0.03708791360259056, 0.07201644033193588, 0.07874826341867447, 0.05033233016729355, 0.04508211836218834, 0.03800975903868675, 0.04271194338798523, 0.053237996995449066, 0.05514206364750862, 0.06182955577969551, 0.09237051755189896, 0.06725715100765228, 0.07883871346712112, 0.060979995876550674, 0.046897318214178085, 0.04311930015683174, 0.040544819086790085, 0.030312402173876762, 0.022836051881313324, 0.02383865974843502, 0.028606731444597244, 0.03847358003258705, 0.037479594349861145, 0.04615627974271774, 0.051325246691703796, 0.06033530458807945, 0.046821851283311844, 0.035195522010326385, 0.024724530056118965, 0.020713932812213898, 0.024230502545833588, 0.031083334237337112, 0.04394061118364334, 0.05838126689195633, 0.052100274711847305, 0.05227471515536308]</t>
+          <t>[0.08857856690883636, 0.12429780513048172, 0.06984778493642807, 0.08608338236808777, 0.11035813391208649, 0.07737851142883301, 0.07478974759578705, 0.06381712108850479, 0.10808622092008591, 0.06503600627183914, 0.06236303225159645, 0.023985208943486214, 0.03059689886868, 0.028134454041719437, 0.026125315576791763, 0.052344534546136856, 0.0710136890411377, 0.033631693571805954, 0.02980656549334526, 0.04518752172589302, 0.03947978839278221, 0.019391003996133804, 0.022261712700128555, 0.05881665274500847, 0.04102877154946327, 0.07555034756660461, 0.08378585427999496, 0.08354206383228302, 0.05019402503967285, 0.05551336333155632, 0.07303836196660995, 0.13692623376846313, 0.10460080206394196, 0.11289729923009872, 0.20934650301933289, 0.378828763961792, 0.13184194266796112, 0.10406365245580673, 0.06573773920536041, 0.04251832142472267, 0.04524042457342148, 0.04542979225516319, 0.04941107705235481, 0.06324072182178497, 0.0662636011838913, 0.07282248139381409, 0.14097538590431213, 0.1271916925907135, 0.0749480202794075, 0.14506779611110687, 0.20171210169792175, 0.06427580118179321, 0.04920667037367821, 0.035592105239629745, 0.0477001816034317, 0.06198366358876228, 0.04655181244015694, 0.015336684882640839, 0.015116550959646702, 0.018357880413532257, 0.0773727148771286, 0.02704375796020031, 0.0366487018764019, 0.038736410439014435, 0.043143704533576965, 0.05175330862402916, 0.11137433350086212, 0.04606150835752487, 0.044126782566308975, 0.04604145511984825, 0.0599900558590889, 0.019637061282992363, 0.01436514314264059, 0.012059197761118412, 0.014308064244687557, 0.012687288224697113, 0.012613446451723576, 0.010819336399435997, 0.016212452203035355, 0.018187180161476135, 0.01939842477440834, 0.024104762822389603, 0.021646667271852493, 0.018180962651968002, 0.027808161452412605, 0.025800121948122978, 0.021872544661164284, 0.01148696057498455, 0.01382131315767765, 0.021415425464510918, 0.015836188569664955, 0.02511478401720524, 0.022774221375584602, 0.01879747584462166, 0.05919882655143738, 0.036288198083639145, 0.02437298744916916, 0.027400381863117218, 0.02898065745830536, 0.028949890285730362, 0.019447123631834984, 0.011783715337514877, 0.011356804519891739, 0.013027508743107319, 0.025775259360671043, 0.01749994605779648, 0.01824761927127838, 0.027207471430301666, 0.017505817115306854, 0.021946147084236145, 0.024906080216169357, 0.029255086556077003, 0.04844370484352112, 0.0372709184885025, 0.02977849915623665, 0.02879505418241024, 0.027187904343008995, 0.02062922902405262, 0.024331310763955116, 0.019374681636691093, 0.01927810162305832, 0.01859317533671856, 0.025289520621299744, 0.03022897057235241, 0.03160674124956131, 0.03548656031489372, 0.01502638217061758, 0.012264025397598743, 0.011092201806604862, 0.012880034744739532, 0.011824175715446472, 0.01608239859342575, 0.01731075905263424, 0.02484552189707756, 0.02570837177336216, 0.036792051047086716, 0.03844131529331207, 0.0676904171705246, 0.08673766255378723, 0.0576631985604763, 0.05250179395079613, 0.05188748240470886, 0.0756140947341919, 0.05570684000849724, 0.02847001515328884, 0.021446481347084045, 0.02219061553478241, 0.05016293749213219, 0.06022554263472557, 0.03200702741742134, 0.029695162549614906, 0.023139197379350662, 0.024808010086417198, 0.02658158913254738, 0.03226638212800026, 0.036778710782527924, 0.050015538930892944, 0.03862091153860092, 0.04812299460172653, 0.02861844375729561, 0.019909139722585678, 0.019146809354424477, 0.017901821061968803, 0.011996579356491566, 0.009981336072087288, 0.010546617209911346, 0.012250065803527832, 0.016104212030768394, 0.014397883787751198, 0.01792699471116066, 0.020361362025141716, 0.024804648011922836, 0.019811447709798813, 0.012546710669994354, 0.008012475445866585, 0.006559766363352537, 0.007719745859503746, 0.011284838430583477, 0.01897173561155796, 0.02701508067548275, 0.023900028318166733, 0.02391449175775051]</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.3004594147205353</v>
+        <v>0.378828763961792</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1.00927340000635</v>
+        <v>1.01669820000825</v>
       </c>
       <c r="J70" t="n">
-        <v>0.005545458241793133</v>
+        <v>0.005586253846199175</v>
       </c>
     </row>
     <row r="71">
@@ -3365,11 +3365,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[0.9518322348594666, 0.7757037878036499, 0.874140202999115, 0.6671944856643677, 0.8657938241958618, 0.9727687239646912, 0.9650068879127502, 0.9565519690513611, 0.8968283534049988, 0.9233995079994202, 0.8240450620651245, 0.8290007710456848, 0.7444649934768677, 0.8863627314567566, 0.8888856768608093, 0.6534147262573242, 0.2847960293292999, 0.13429120182991028, 0.7228714823722839, 0.7764979004859924, 0.934485673904419, 0.5705147981643677, 0.5557894706726074, 0.6614551544189453, 0.746571958065033, 0.6528102159500122, 0.32794755697250366, 0.37357455492019653, 0.223307266831398, 0.13014627993106842, 0.10950218886137009, 0.47029781341552734, 0.16617004573345184, 0.1485915184020996, 0.3807705342769623, 0.4898833930492401, 0.4060927629470825, 0.45949241518974304, 0.5978180766105652, 0.6582109928131104, 0.7523030638694763, 0.40753328800201416, 0.37100061774253845, 0.4799474775791168, 0.5331330895423889, 0.5535858869552612, 0.49862203001976013, 0.7818982601165771, 0.7779676914215088, 0.7486787438392639, 0.42738911509513855, 0.4039479196071625, 0.4764336347579956, 0.4649337828159332, 0.5251372456550598, 0.33333730697631836, 0.30773866176605225, 0.456303209066391, 0.29288429021835327, 0.2890997529029846, 0.31258687376976013, 0.4147549569606781, 0.48091018199920654, 0.5422857999801636, 0.37547945976257324, 0.6160558462142944, 0.39060625433921814, 0.557046115398407, 0.4771214723587036, 0.19770675897598267, 0.2499227374792099, 0.4672965705394745, 0.20389536023139954, 0.1289869248867035, 0.308933287858963, 0.31392577290534973, 0.7169317603111267, 0.419368177652359, 0.528605580329895, 0.28842267394065857, 0.2391953319311142, 0.3354370892047882, 0.6143701076507568, 0.6101786494255066, 0.7814554572105408, 0.8508210182189941, 0.7345743179321289, 0.7147016525268555, 0.7990637421607971, 0.9674197435379028, 0.9825713038444519, 0.9947981834411621, 0.9904553294181824, 0.9915165901184082, 0.9872286319732666, 0.9882110953330994, 0.9919850826263428, 0.9934965372085571, 0.9860948324203491, 0.9857471585273743, 0.9901357293128967, 0.9720413684844971, 0.952987551689148, 0.9459799528121948, 0.9432551860809326, 0.9606069922447205, 0.8966761231422424, 0.6991691589355469, 0.5744897127151489, 0.8824341893196106, 0.9598116874694824, 0.9782926440238953, 0.8694762587547302, 0.9733787178993225, 0.9708888530731201, 0.9754451513290405, 0.9733580350875854, 0.9847049713134766, 0.9604272842407227, 0.9518170356750488, 0.959917426109314, 0.8438180685043335, 0.730074942111969, 0.8869183659553528, 0.8379108309745789, 0.7925494313240051, 0.772369384765625, 0.7529116868972778, 0.8833922743797302, 0.9426382780075073, 0.8574301600456238, 0.9147830605506897, 0.8940196633338928, 0.8558743000030518, 0.5441094040870667, 0.6953904032707214, 0.73907870054245, 0.9039000272750854, 0.7868157625198364, 0.7715560793876648, 0.7835090160369873, 0.9032800197601318, 0.9332111477851868, 0.8495096564292908, 0.4436490535736084, 0.2683221399784088, 0.24894416332244873, 0.3891448974609375, 0.7658935189247131, 0.7405831813812256, 0.7397838234901428, 0.4245501160621643, 0.4631836712360382, 0.4176207184791565, 0.39041024446487427, 0.47536537051200867, 0.6425899267196655, 0.5734830498695374, 0.7153139114379883, 0.7266562581062317, 0.5148592591285706, 0.447523295879364, 0.1350381225347519, 0.16407234966754913, 0.2459651529788971, 0.2717394530773163, 0.3299919366836548, 0.4034810960292816, 0.1178150475025177, 0.12043380737304688, 0.1884821504354477, 0.23727178573608398, 0.5281035304069519, 0.5786365270614624, 0.5106524229049683, 0.47084829211235046, 0.3275390863418579, 0.44087567925453186, 0.37391453981399536, 0.36872386932373047, 0.5285611748695374, 0.526502251625061]</t>
+          <t>[0.9691357016563416, 0.8411367535591125, 0.9043046832084656, 0.7168577909469604, 0.8912832140922546, 0.9769639372825623, 0.9767702221870422, 0.9658408761024475, 0.9444341659545898, 0.9414204359054565, 0.8883280754089355, 0.8099668622016907, 0.6942157745361328, 0.8860793709754944, 0.905034065246582, 0.7530174851417542, 0.30132994055747986, 0.13407002389431, 0.8477118611335754, 0.8850951790809631, 0.9527547359466553, 0.7296534776687622, 0.6196043491363525, 0.6544332504272461, 0.7082762122154236, 0.5948560833930969, 0.32229363918304443, 0.29552796483039856, 0.15446211397647858, 0.11211498081684113, 0.08683538436889648, 0.34328508377075195, 0.07625367492437363, 0.059036534279584885, 0.254305362701416, 0.41831931471824646, 0.326915979385376, 0.527769923210144, 0.5529934167861938, 0.7038972973823547, 0.826032280921936, 0.47643688321113586, 0.4014129638671875, 0.6537561416625977, 0.6087915301322937, 0.6865967512130737, 0.6159791350364685, 0.8407764434814453, 0.8933678269386292, 0.8740240335464478, 0.6018725037574768, 0.4364355802536011, 0.536165177822113, 0.40296536684036255, 0.5941210389137268, 0.339667946100235, 0.2444295585155487, 0.35731184482574463, 0.1717301309108734, 0.3162236213684082, 0.2725520431995392, 0.31144818663597107, 0.44173625111579895, 0.5911210179328918, 0.38815754652023315, 0.6268060207366943, 0.4633632004261017, 0.5520448684692383, 0.548627495765686, 0.12640418112277985, 0.16593503952026367, 0.4391791820526123, 0.2639891505241394, 0.07464666664600372, 0.19697241485118866, 0.21806862950325012, 0.7063009142875671, 0.2977134585380554, 0.3539462387561798, 0.23451566696166992, 0.2464657574892044, 0.4549846947193146, 0.7198984622955322, 0.6162170171737671, 0.8653058409690857, 0.8705278038978577, 0.8207076787948608, 0.7091819047927856, 0.8243095874786377, 0.9835604429244995, 0.9920552372932434, 0.9978095889091492, 0.9953939914703369, 0.9930395483970642, 0.9905919432640076, 0.9903382658958435, 0.9936416745185852, 0.995477020740509, 0.9891920685768127, 0.9903720617294312, 0.9936742782592773, 0.9839860200881958, 0.9585968255996704, 0.961596667766571, 0.9583933353424072, 0.9721196293830872, 0.907635509967804, 0.6347139477729797, 0.5239176750183105, 0.9189091920852661, 0.9750813245773315, 0.9860824346542358, 0.9093783497810364, 0.9798392653465271, 0.9695717692375183, 0.9751416444778442, 0.9761930108070374, 0.9911481142044067, 0.9727817177772522, 0.9704116582870483, 0.9776091575622559, 0.8741546273231506, 0.7822788953781128, 0.8552663326263428, 0.8956343531608582, 0.857414722442627, 0.8668399453163147, 0.8414161205291748, 0.9452940225601196, 0.9640668630599976, 0.8597651124000549, 0.935070276260376, 0.9311623573303223, 0.923080325126648, 0.6507444977760315, 0.7687798738479614, 0.7351270914077759, 0.8862540125846863, 0.7103325128555298, 0.7802430391311646, 0.7949692010879517, 0.9089924693107605, 0.9474242329597473, 0.911249577999115, 0.5599780678749084, 0.1857142597436905, 0.13935638964176178, 0.309567928314209, 0.6921640038490295, 0.6471014022827148, 0.6612392663955688, 0.3024601340293884, 0.3545030355453491, 0.3512003719806671, 0.3118508756160736, 0.36021843552589417, 0.5759060978889465, 0.4519757926464081, 0.6666626334190369, 0.6825204491615295, 0.48826277256011963, 0.3996555209159851, 0.0917327031493187, 0.13595178723335266, 0.24636928737163544, 0.2548646628856659, 0.30237895250320435, 0.4155905544757843, 0.07052148133516312, 0.08105454593896866, 0.13350911438465118, 0.1608179211616516, 0.6011584997177124, 0.6753718256950378, 0.5675748586654663, 0.5604643821716309, 0.22774727642536163, 0.3060988187789917, 0.31718724966049194, 0.26794445514678955, 0.5550276637077332, 0.5524765253067017]</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.9947981834411621</v>
+        <v>0.9978095889091492</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -3383,10 +3383,10 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1.003851199988276</v>
+        <v>1.003464099994744</v>
       </c>
       <c r="J71" t="n">
-        <v>0.005515665934001515</v>
+        <v>0.005513539010960133</v>
       </c>
     </row>
     <row r="72">
@@ -3405,11 +3405,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>[0.8183707594871521, 0.6910844445228577, 0.7170248031616211, 0.7237249612808228, 0.7378076910972595, 0.7220287919044495, 0.6071176528930664, 0.6462478637695312, 0.3910324275493622, 0.5589690208435059, 0.38679492473602295, 0.4189068377017975, 0.27694329619407654, 0.24979019165039062, 0.41837891936302185, 0.4446142017841339, 0.4757203459739685, 0.5726642608642578, 0.6108666062355042, 0.5102603435516357, 0.4895995855331421, 0.6321248412132263, 0.6291557550430298, 0.591530442237854, 0.39940401911735535, 0.5161479711532593, 0.49452611804008484, 0.5641410946846008, 0.49728068709373474, 0.3345472514629364, 0.35937315225601196, 0.34664127230644226, 0.3074198067188263, 0.3648281991481781, 0.36566007137298584, 0.4214169383049011, 0.4752636253833771, 0.559956431388855, 0.574374794960022, 0.44234901666641235, 0.4191187024116516, 0.46491193771362305, 0.38753050565719604, 0.2507251799106598, 0.2308444380760193, 0.33870837092399597, 0.3017406463623047, 0.1842212677001953, 0.20579403638839722, 0.12949509918689728, 0.19372698664665222, 0.24022571742534637, 0.4868842661380768, 0.6155470609664917, 0.6286625862121582, 0.6748505234718323, 0.38499584794044495, 0.5824346542358398, 0.4501156210899353, 0.5965774655342102, 0.4323217272758484, 0.5315621495246887, 0.29691511392593384, 0.29379069805145264, 0.5427549481391907, 0.4092089831829071, 0.44514551758766174, 0.38468486070632935, 0.1251334547996521, 0.19072917103767395, 0.1487714797258377, 0.199684739112854, 0.31988850235939026, 0.41724681854248047, 0.6537075638771057, 0.44231024384498596, 0.37429675459861755, 0.2141166776418686, 0.3087122142314911, 0.23871420323848724, 0.28520214557647705, 0.32905951142311096, 0.17224963009357452, 0.1979331523180008, 0.25870421528816223, 0.1727837771177292, 0.11135849356651306, 0.10185509920120239, 0.15815405547618866, 0.4908618927001953, 0.49933359026908875, 0.6113258004188538, 0.4695209562778473, 0.5923461318016052, 0.5392529368400574, 0.5638020634651184, 0.27719053626060486, 0.1906500905752182, 0.23500284552574158, 0.21604669094085693, 0.1666657030582428, 0.18830853700637817, 0.14572495222091675, 0.1268102079629898, 0.1577528566122055, 0.21248477697372437, 0.2685451805591583, 0.2500677704811096, 0.26336976885795593, 0.30980950593948364, 0.25001633167266846, 0.28671810030937195, 0.3579349219799042, 0.4353994131088257, 0.3841507136821747, 0.265784353017807, 0.3254895508289337, 0.35276558995246887, 0.34582388401031494, 0.37701520323753357, 0.5679976344108582, 0.4379294812679291, 0.37329888343811035, 0.30176234245300293, 0.40453311800956726, 0.3184104859828949, 0.5008397102355957, 0.4492710828781128, 0.2714473605155945, 0.3389899432659149, 0.31153807044029236, 0.2919151782989502, 0.4485298693180084, 0.5228604078292847, 0.5798146724700928, 0.39096033573150635, 0.15671786665916443, 0.2609151303768158, 0.19915060698986053, 0.18922609090805054, 0.24506212770938873, 0.1529964953660965, 0.11278838664293289, 0.09578582644462585, 0.09007970988750458, 0.28546473383903503, 0.21960286796092987, 0.11523761600255966, 0.1773342490196228, 0.15934514999389648, 0.09359727054834366, 0.06985161453485489, 0.10838749259710312, 0.15307870507240295, 0.15953877568244934, 0.2212594449520111, 0.5753113627433777, 0.29940474033355713, 0.2559657096862793, 0.34485235810279846, 0.1471378058195114, 0.218359112739563, 0.21776148676872253, 0.3781545162200928, 0.3604201674461365, 0.3422994613647461, 0.20373474061489105, 0.18480797111988068, 0.20874151587486267, 0.10782387107610703, 0.18523994088172913, 0.18836547434329987, 0.21162104606628418, 0.18084542453289032, 0.08890186995267868, 0.07303903251886368, 0.10617313534021378, 0.13682669401168823, 0.16727444529533386, 0.15164761245250702, 0.23069480061531067, 0.2301364541053772]</t>
+          <t>[0.7739195823669434, 0.6563194394111633, 0.6974642276763916, 0.6774274110794067, 0.6974271535873413, 0.7243154048919678, 0.5525940656661987, 0.5879711508750916, 0.2942787706851959, 0.5175362229347229, 0.33731594681739807, 0.34306958317756653, 0.2096680998802185, 0.1502877175807953, 0.23302000761032104, 0.27295371890068054, 0.33081918954849243, 0.5285600423812866, 0.5826334357261658, 0.5040993094444275, 0.46186363697052, 0.6261929869651794, 0.5460846424102783, 0.5126826167106628, 0.3441200852394104, 0.4311133921146393, 0.42676329612731934, 0.5426502823829651, 0.504400908946991, 0.28142234683036804, 0.3084065914154053, 0.26308780908584595, 0.2495100051164627, 0.34055042266845703, 0.3638215661048889, 0.4529058039188385, 0.4562092423439026, 0.5675805807113647, 0.5952065587043762, 0.4099636971950531, 0.41813260316848755, 0.4230901300907135, 0.4127786457538605, 0.27369704842567444, 0.2897231876850128, 0.379298597574234, 0.34788209199905396, 0.2062869817018509, 0.2197251319885254, 0.11885704100131989, 0.1977083832025528, 0.19454126060009003, 0.4161433279514313, 0.5038903951644897, 0.5141540169715881, 0.46650058031082153, 0.3101027309894562, 0.5095916986465454, 0.3550686836242676, 0.46361804008483887, 0.38388657569885254, 0.3993269205093384, 0.24212980270385742, 0.2936502993106842, 0.5340170860290527, 0.3595905601978302, 0.4414308965206146, 0.42808082699775696, 0.12497493624687195, 0.22974824905395508, 0.1338609755039215, 0.2173980474472046, 0.3698093295097351, 0.49190911650657654, 0.7752099633216858, 0.6256378293037415, 0.6246597766876221, 0.36065202951431274, 0.5448751449584961, 0.3921564519405365, 0.5859872102737427, 0.6543947458267212, 0.35115721821784973, 0.3202245235443115, 0.36117181181907654, 0.31032422184944153, 0.15017755329608917, 0.15520250797271729, 0.27803102135658264, 0.719907820224762, 0.6967090964317322, 0.8159542679786682, 0.681712806224823, 0.6874723434448242, 0.5184771418571472, 0.5653825998306274, 0.19651935994625092, 0.12374553084373474, 0.1459534615278244, 0.13533452153205872, 0.1245354637503624, 0.13965383172035217, 0.0862380713224411, 0.07195884734392166, 0.08221162855625153, 0.12747304141521454, 0.18768316507339478, 0.1611122339963913, 0.18875861167907715, 0.2228022962808609, 0.18088942766189575, 0.18184363842010498, 0.27012887597084045, 0.3568330705165863, 0.33058276772499084, 0.2080167979001999, 0.24707211554050446, 0.24982109665870667, 0.22171056270599365, 0.25487571954727173, 0.4205428957939148, 0.24894104897975922, 0.17905403673648834, 0.1122610792517662, 0.20435364544391632, 0.16717372834682465, 0.3605727255344391, 0.2942328155040741, 0.18364745378494263, 0.26561665534973145, 0.220658540725708, 0.19449417293071747, 0.3270675539970398, 0.39982596039772034, 0.533230721950531, 0.33611956238746643, 0.11798468232154846, 0.1672135442495346, 0.1197081208229065, 0.10989019274711609, 0.1448853462934494, 0.09061545133590698, 0.06480145454406738, 0.05954871326684952, 0.0607522651553154, 0.21459369361400604, 0.1404072791337967, 0.06830433756113052, 0.09260840713977814, 0.09135936945676804, 0.06519210338592529, 0.03841559216380119, 0.05589858442544937, 0.08411555737257004, 0.0971207469701767, 0.14427562057971954, 0.39624297618865967, 0.23233093321323395, 0.15584489703178406, 0.27110323309898376, 0.0869104340672493, 0.1690331995487213, 0.18473312258720398, 0.3567984700202942, 0.2863485515117645, 0.2395402491092682, 0.13680918514728546, 0.1225069910287857, 0.0891193225979805, 0.0781405121088028, 0.1446428894996643, 0.1454431414604187, 0.18070846796035767, 0.15162970125675201, 0.05875585600733757, 0.037703145295381546, 0.06430307775735855, 0.07753723114728928, 0.1111956462264061, 0.09024814516305923, 0.16050055623054504, 0.15989375114440918]</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.8183707594871521</v>
+        <v>0.8159542679786682</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1.036405100021511</v>
+        <v>1.037397499996587</v>
       </c>
       <c r="J72" t="n">
-        <v>0.005694533516601711</v>
+        <v>0.005699986263717509</v>
       </c>
     </row>
     <row r="73">
@@ -3445,11 +3445,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[0.12022190541028976, 0.10607973486185074, 0.06598594784736633, 0.2990087866783142, 0.08714912086725235, 0.43996843695640564, 0.26565665006637573, 0.09383390098810196, 0.3239011764526367, 0.2148011475801468, 0.33608534932136536, 0.08846893906593323, 0.08989143371582031, 0.07654638588428497, 0.20186679065227509, 0.14551012217998505, 0.14630424976348877, 0.15011551976203918, 0.1474454551935196, 0.2727073132991791, 0.16045041382312775, 0.11971121281385422, 0.1501215398311615, 0.07155513763427734, 0.16844481229782104, 0.21953098475933075, 0.08575794100761414, 0.0934431254863739, 0.08980687707662582, 0.13297484815120697, 0.051418647170066833, 0.03690219670534134, 0.04109713435173035, 0.05956236273050308, 0.059993594884872437, 0.07074591517448425, 0.05262182652950287, 0.045446280390024185, 0.06310661882162094, 0.06549866497516632, 0.08552208542823792, 0.05093424767255783, 0.0741330161690712, 0.06645044684410095, 0.06203582510352135, 0.06276275217533112, 0.029856348410248756, 0.05818457901477814, 0.054635751992464066, 0.08024586737155914, 0.04271985962986946, 0.0465192049741745, 0.026412345468997955, 0.05019485577940941, 0.040010470896959305, 0.031690388917922974, 0.024684572592377663, 0.022589290514588356, 0.03167648985981941, 0.05429459735751152, 0.06075679510831833, 0.04170083627104759, 0.04279712587594986, 0.02891242317855358, 0.025171155110001564, 0.025242341682314873, 0.03669947758316994, 0.03742818906903267, 0.04520639777183533, 0.03452073782682419, 0.03597518056631088, 0.039881475269794464, 0.035662341862916946, 0.021241599693894386, 0.03073776327073574, 0.02589155174791813, 0.023323409259319305, 0.020848581567406654, 0.03321601077914238, 0.04469546303153038, 0.03858384117484093, 0.044255468994379044, 0.05750583857297897, 0.06266748160123825, 0.031780920922756195, 0.042132578790187836, 0.027952328324317932, 0.23467609286308289, 0.0484994612634182, 0.03650760278105736, 0.03541628271341324, 0.045799002051353455, 0.025588354095816612, 0.02663443610072136, 0.03559165447950363, 0.07025521248579025, 0.027640171349048615, 0.02872493863105774, 0.02921663597226143, 0.05047352612018585, 0.05464717000722885, 0.059172920882701874, 0.04358868673443794, 0.027934711426496506, 0.07167921215295792, 0.07024041563272476, 0.07909375429153442, 0.07949621975421906, 0.05867163836956024, 0.05264964699745178, 0.03829742595553398, 0.06306896358728409, 0.04658665135502815, 0.05108452960848808, 0.0740668773651123, 0.033645909279584885, 0.04416932910680771, 0.04431440308690071]</t>
+          <t>[0.11335552483797073, 0.08836658298969269, 0.0675126239657402, 0.3763508200645447, 0.04556688293814659, 0.5097277760505676, 0.3550577759742737, 0.05881360545754433, 0.4133065640926361, 0.2361423522233963, 0.40619683265686035, 0.06964807957410812, 0.052195318043231964, 0.048745740205049515, 0.22735679149627686, 0.10777207463979721, 0.1419580727815628, 0.1251729279756546, 0.17247508466243744, 0.31288108229637146, 0.12432818114757538, 0.07995966821908951, 0.11346178501844406, 0.032302211970090866, 0.0785221979022026, 0.1581963747739792, 0.06039080023765564, 0.05596500635147095, 0.0626249685883522, 0.06184167042374611, 0.032107509672641754, 0.014216150157153606, 0.016589941456913948, 0.045960575342178345, 0.04924416542053223, 0.060873132199048996, 0.05328887328505516, 0.02416808344423771, 0.05032738670706749, 0.06992298364639282, 0.07456053048372269, 0.033748820424079895, 0.039096489548683167, 0.028285399079322815, 0.03512074425816536, 0.0363643541932106, 0.013778858818113804, 0.029263900592923164, 0.029094044119119644, 0.05035703256726265, 0.015970943495631218, 0.01818077452480793, 0.010407174937427044, 0.023157287389039993, 0.021404806524515152, 0.01077786460518837, 0.00847797654569149, 0.006563813891261816, 0.010754918679594994, 0.019632479175925255, 0.022919021546840668, 0.017304975539445877, 0.016355402767658234, 0.01165508758276701, 0.011766049079596996, 0.012615698389708996, 0.01263604685664177, 0.01368076354265213, 0.019771745428442955, 0.01440258789807558, 0.015493215061724186, 0.015090223401784897, 0.015157967805862427, 0.00986094493418932, 0.013964164070785046, 0.00891683530062437, 0.008372738026082516, 0.0066480813547968864, 0.011618797667324543, 0.03298252820968628, 0.022070135921239853, 0.015687370672822, 0.018575353547930717, 0.025531845167279243, 0.011427445337176323, 0.019902294501662254, 0.011460615321993828, 0.16133947670459747, 0.02178473398089409, 0.017671940848231316, 0.017472321167588234, 0.02451716922223568, 0.010508251376450062, 0.011985241435468197, 0.018586888909339905, 0.041528407484292984, 0.01782180182635784, 0.012706139124929905, 0.0126255564391613, 0.0314728319644928, 0.025104057043790817, 0.030118562281131744, 0.023489002138376236, 0.014873198233544827, 0.043890129774808884, 0.03521334007382393, 0.04103777930140495, 0.055723439902067184, 0.024414150044322014, 0.026117533445358276, 0.015811650082468987, 0.037012193351984024, 0.024432366713881493, 0.022138141095638275, 0.03413109481334686, 0.015690596774220467, 0.015135766938328743, 0.015128575265407562]</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.4399684369564056</v>
+        <v>0.5097277760505676</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -3463,10 +3463,10 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0.6656542000127956</v>
+        <v>0.7041402000031667</v>
       </c>
       <c r="J73" t="n">
-        <v>0.005641137288244031</v>
+        <v>0.005967289830535311</v>
       </c>
     </row>
     <row r="74">
@@ -3485,11 +3485,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[0.12107206135988235, 0.21334072947502136, 0.11391475796699524, 0.1287337988615036, 0.06320853531360626, 0.08958445489406586, 0.33777570724487305, 0.17803308367729187, 0.1322571486234665, 0.09359002858400345, 0.3317488729953766, 0.408554345369339, 0.2569337487220764, 0.1483108401298523, 0.2460298091173172, 0.13566739857196808, 0.5634424090385437, 0.30471479892730713, 0.5243532657623291, 0.6547834873199463, 0.47561296820640564, 0.3820917010307312, 0.13957276940345764, 0.17859815061092377, 0.3984355032444, 0.2466168850660324, 0.28268611431121826, 0.3912723958492279, 0.20095063745975494, 0.5238428711891174, 0.35869869589805603, 0.21759888529777527, 0.26659122109413147, 0.6819412708282471, 0.3565368056297302, 0.3188500702381134, 0.6104169487953186, 0.7721127271652222, 0.6507197618484497, 0.5752308964729309, 0.21545308828353882, 0.3665347993373871, 0.42446431517601013, 0.510617733001709, 0.2573472857475281, 0.14115798473358154, 0.17937898635864258, 0.47563982009887695, 0.2159220427274704, 0.23440620303153992, 0.37571918964385986, 0.748823344707489, 0.35793912410736084, 0.2844257354736328, 0.21725015342235565, 0.18213513493537903, 0.19092991948127747, 0.35020217299461365, 0.18970289826393127, 0.2441386878490448, 0.32925593852996826, 0.30744999647140503, 0.586407482624054, 0.8193968534469604, 0.23493142426013947, 0.1107158213853836, 0.13609902560710907, 0.4731072187423706, 0.70995032787323, 0.3736497759819031, 0.1991785317659378, 0.18235436081886292, 0.12039164453744888, 0.24238009750843048, 0.36782315373420715, 0.5246161222457886, 0.20240601897239685, 0.2197393923997879, 0.12751153111457825, 0.15701806545257568, 0.4402042031288147, 0.1722768098115921, 0.6131980419158936, 0.17723821103572845, 0.08978971093893051, 0.12015444785356522, 0.1677430272102356, 0.5355907082557678, 0.42152106761932373, 0.39708858728408813, 0.18510733544826508, 0.23958641290664673, 0.22494450211524963, 0.31853675842285156, 0.5863816142082214, 0.4718581736087799, 0.22977012395858765, 0.3051471412181854, 0.2549639344215393, 0.47683578729629517, 0.6734893918037415, 0.4346158802509308, 0.7434265613555908, 0.7401850819587708, 0.33302074670791626, 0.40466979146003723, 0.4609621465206146, 0.18661627173423767, 0.29783716797828674, 0.08750926703214645, 0.15428835153579712, 0.32369038462638855, 0.14643393456935883, 0.17969460785388947, 0.27812033891677856, 0.5030924081802368, 0.3859594166278839, 0.3849201798439026]</t>
+          <t>[0.07390160858631134, 0.23116029798984528, 0.0754423514008522, 0.07244665920734406, 0.024987179785966873, 0.03528326004743576, 0.1230282261967659, 0.0899328738451004, 0.05903991311788559, 0.04157748445868492, 0.17549730837345123, 0.2048262059688568, 0.2280258685350418, 0.06842293590307236, 0.14164434373378754, 0.04503611847758293, 0.27959540486335754, 0.09876475483179092, 0.3356376886367798, 0.6989389657974243, 0.3439548909664154, 0.28156790137290955, 0.025887222960591316, 0.054249104112386703, 0.17842797935009003, 0.17293834686279297, 0.18129387497901917, 0.2807711660861969, 0.13068604469299316, 0.3649718761444092, 0.3043636977672577, 0.1440410315990448, 0.15591548383235931, 0.4804466664791107, 0.23377764225006104, 0.2030191570520401, 0.4908214807510376, 0.603049099445343, 0.6023618578910828, 0.5617870688438416, 0.20743294060230255, 0.35147473216056824, 0.435988187789917, 0.5152150988578796, 0.13572095334529877, 0.06672484427690506, 0.16320712864398956, 0.5129392147064209, 0.221725732088089, 0.2141854465007782, 0.23416151106357574, 0.7130458950996399, 0.45092278718948364, 0.242002472281456, 0.10651097446680069, 0.11000806838274002, 0.10644307732582092, 0.28176334500312805, 0.09538692235946655, 0.11432899534702301, 0.10756950825452805, 0.25677037239074707, 0.3112521469593048, 0.7620695233345032, 0.13445411622524261, 0.05131920054554939, 0.06416016072034836, 0.33028051257133484, 0.4725843369960785, 0.23079073429107666, 0.0841606855392456, 0.09060515463352203, 0.036997511982917786, 0.07907618582248688, 0.18681392073631287, 0.41129690408706665, 0.11809440702199936, 0.08556611090898514, 0.052862998098134995, 0.0642545074224472, 0.26994091272354126, 0.09416794031858444, 0.40208661556243896, 0.06620888411998749, 0.023051349446177483, 0.04818516969680786, 0.1006610319018364, 0.48755183815956116, 0.28802552819252014, 0.213471457362175, 0.0993330180644989, 0.18028835952281952, 0.10215158760547638, 0.18118466436862946, 0.33283931016921997, 0.24172164499759674, 0.08621882647275925, 0.08976513147354126, 0.10039103776216507, 0.25470051169395447, 0.612273097038269, 0.13173642754554749, 0.5352858901023865, 0.4686415493488312, 0.22158503532409668, 0.2268342226743698, 0.24533845484256744, 0.08684173971414566, 0.15157832205295563, 0.034984566271305084, 0.05791804939508438, 0.2273637354373932, 0.04839913919568062, 0.10382550954818726, 0.12774957716464996, 0.23880241811275482, 0.20537793636322021, 0.20418766140937805]</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.8193968534469604</v>
+        <v>0.7620695233345032</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -3503,10 +3503,10 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0.670631000015419</v>
+        <v>0.6823089999961667</v>
       </c>
       <c r="J74" t="n">
-        <v>0.005683313559452704</v>
+        <v>0.005782279660984464</v>
       </c>
     </row>
     <row r="75">
@@ -3525,11 +3525,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[0.36746564507484436, 0.1806073933839798, 0.36179664731025696, 0.41011714935302734, 0.08741144090890884, 0.10968253761529922, 0.11177734285593033, 0.07219155877828598, 0.03634355217218399, 0.04424353316426277, 0.028423210605978966, 0.08369597047567368, 0.08952274173498154, 0.302921861410141, 0.13408948481082916, 0.2712145745754242, 0.1112750694155693, 0.23036040365695953, 0.16444754600524902, 0.43425294756889343, 0.6581604480743408, 0.7254049777984619, 0.2122756838798523, 0.4286110997200012, 0.31123805046081543, 0.7027862668037415, 0.25170987844467163, 0.18419651687145233, 0.4772317111492157, 0.21192072331905365, 0.14623567461967468, 0.1250627487897873, 0.10602039843797684, 0.1309446394443512, 0.08331369608640671, 0.10450723767280579, 0.23411758244037628, 0.182668998837471, 0.11682865023612976, 0.19217124581336975, 0.1045902669429779, 0.5074533224105835, 0.2564741373062134, 0.1803031712770462, 0.27725398540496826, 0.17444437742233276, 0.32765626907348633, 0.09631916880607605, 0.20777560770511627, 0.16841305792331696, 0.33573436737060547, 0.11886831372976303, 0.2676050662994385, 0.17966462671756744, 0.23409204185009003, 0.22716207802295685, 0.11372912675142288, 0.2887006103992462, 0.662054717540741, 0.12630213797092438, 0.12983740866184235, 0.09509754925966263, 0.3104076087474823, 0.41192492842674255, 0.2625236213207245, 0.12209223210811615, 0.18750515580177307, 0.2923688590526581, 0.1369827538728714, 0.38498735427856445, 0.2429082691669464, 0.11170068383216858, 0.17477336525917053, 0.09910635650157928, 0.05900263041257858, 0.12446454912424088, 0.10317094624042511, 0.06911803781986237, 0.15397199988365173, 0.087315134704113, 0.1268293410539627, 0.11471108347177505, 0.15205499529838562, 0.23691031336784363, 0.1181248351931572, 0.11016693711280823, 0.25492799282073975, 0.5072885155677795, 0.7065617442131042, 0.25333288311958313, 0.3898727595806122, 0.4479660391807556, 0.7943896651268005, 0.3947810232639313, 0.26203855872154236, 0.569216251373291, 0.5177090764045715, 0.3038542866706848, 0.14800703525543213, 0.1054086908698082, 0.2933153808116913, 0.3138098418712616, 0.2639322578907013, 0.2471233755350113, 0.19765335321426392, 0.09309167414903641, 0.1107167899608612, 0.09077708423137665, 0.11779752373695374, 0.09731991589069366, 0.12674333155155182, 0.15460596978664398, 0.12326642870903015, 0.044868625700473785, 0.09654400497674942, 0.24355649948120117, 0.22459933161735535, 0.2239852398633957]</t>
+          <t>[0.1850472241640091, 0.06778419017791748, 0.24685527384281158, 0.16223129630088806, 0.03223439306020737, 0.04255586490035057, 0.05393701419234276, 0.04782239347696304, 0.011858546175062656, 0.015743551775813103, 0.007459626533091068, 0.0486016683280468, 0.041129544377326965, 0.10794390738010406, 0.03823965787887573, 0.12865078449249268, 0.05697392299771309, 0.13579292595386505, 0.06525380909442902, 0.37517860531806946, 0.47246551513671875, 0.4920450448989868, 0.08121077716350555, 0.1747262179851532, 0.09955847263336182, 0.5620404481887817, 0.09824413806200027, 0.07201018929481506, 0.503162145614624, 0.11734031140804291, 0.05502218008041382, 0.033553171902894974, 0.02443539910018444, 0.040839407593011856, 0.022549400106072426, 0.029591795057058334, 0.05128795653581619, 0.08560341596603394, 0.05641685798764229, 0.11097563803195953, 0.032655272632837296, 0.4573972225189209, 0.11804371327161789, 0.09714147448539734, 0.17305304110050201, 0.09866338968276978, 0.3259413540363312, 0.05523539334535599, 0.1472906768321991, 0.0975177139043808, 0.30200833082199097, 0.062021296471357346, 0.15164591372013092, 0.12305376678705215, 0.21118849515914917, 0.12374269217252731, 0.08944957703351974, 0.2042178064584732, 0.646370530128479, 0.09877384454011917, 0.12870055437088013, 0.06106998398900032, 0.35454678535461426, 0.3609858751296997, 0.23421691358089447, 0.04688215255737305, 0.06903617084026337, 0.1865939050912857, 0.07732831686735153, 0.2800109386444092, 0.17870751023292542, 0.07913114130496979, 0.16570034623146057, 0.040755052119493484, 0.018790924921631813, 0.0826561227440834, 0.047749221324920654, 0.021237360313534737, 0.09321168810129166, 0.03076799027621746, 0.07090651988983154, 0.07562023401260376, 0.06661605834960938, 0.15454572439193726, 0.07202146202325821, 0.0590389184653759, 0.1987513303756714, 0.4137451946735382, 0.49487173557281494, 0.18761645257472992, 0.2276424765586853, 0.29878881573677063, 0.7506288290023804, 0.4560413956642151, 0.19020342826843262, 0.4914191663265228, 0.510282039642334, 0.1262843906879425, 0.05576736107468605, 0.03273529186844826, 0.17365328967571259, 0.13281695544719696, 0.12214422971010208, 0.16677045822143555, 0.09245055168867111, 0.04755277559161186, 0.04465823248028755, 0.030542325228452682, 0.04471930116415024, 0.023469574749469757, 0.03737880289554596, 0.04355353116989136, 0.03185774013400078, 0.010259470902383327, 0.04642434045672417, 0.22104845941066742, 0.16537339985370636, 0.16535420715808868]</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.7943896651268005</v>
+        <v>0.7506288290023804</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -3543,10 +3543,10 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0.6656974999932572</v>
+        <v>0.6764767999993637</v>
       </c>
       <c r="J75" t="n">
-        <v>0.005641504237230994</v>
+        <v>0.005732854237282744</v>
       </c>
     </row>
     <row r="76">
@@ -3565,11 +3565,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>[0.05664516240358353, 0.06188786029815674, 0.05343364551663399, 0.06772823631763458, 0.07584887742996216, 0.03890477120876312, 0.051276545971632004, 0.0525771863758564, 0.08551908284425735, 0.07346037775278091, 0.0500730499625206, 0.05981508269906044, 0.07110843807458878, 0.10084044933319092, 0.10114233940839767, 0.04834706708788872, 0.06281065195798874, 0.11514317989349365, 0.1282578855752945, 0.07374650985002518, 0.07986873388290405, 0.055032163858413696, 0.055002301931381226, 0.045298751443624496, 0.04706848785281181, 0.06337681412696838, 0.2172669917345047, 0.12479361891746521, 0.13078920543193817, 0.15639939904212952, 0.09621580690145493, 0.4070550203323364, 0.24970979988574982, 0.07427781075239182, 0.115263432264328, 0.27784961462020874, 0.2089800387620926, 0.16001024842262268, 0.2010120004415512, 0.07893744856119156, 0.13028974831104279, 0.06801196932792664, 0.0794895589351654, 0.11392602324485779, 0.09554146975278854, 0.26536795496940613, 0.30716925859451294, 0.09239409863948822, 0.15623436868190765, 0.21706347167491913, 0.2838270366191864, 0.41970670223236084, 0.2808264195919037, 0.5802403092384338, 0.4969029724597931, 0.08565948158502579, 0.0795823484659195, 0.2242850810289383, 0.08640331774950027, 0.0489032007753849, 0.13153333961963654, 0.045456454157829285, 0.057676661759614944, 0.09541300684213638, 0.13271544873714447, 0.3695192337036133, 0.3282526433467865, 0.16774135828018188, 0.1328573226928711, 0.1538771688938141, 0.2208305150270462, 0.4009528160095215, 0.18537189066410065, 0.1714286208152771, 0.18267782032489777, 0.10466397553682327, 0.13250000774860382, 0.17095737159252167, 0.17590069770812988, 0.25405266880989075, 0.12673833966255188, 0.14479009807109833, 0.11731719225645065, 0.2569941580295563, 0.43728333711624146, 0.471658855676651, 0.40945684909820557, 0.41505295038223267, 0.5068415403366089, 0.3626486659049988, 0.49527493119239807, 0.6272643208503723, 0.22263215482234955, 0.5466678142547607, 0.4546041190624237, 0.5406718850135803, 0.5650051832199097, 0.4586867392063141, 0.23734059929847717, 0.1923133134841919, 0.19349320232868195, 0.5812100172042847, 0.11492447555065155, 0.17966963350772858, 0.19136296212673187, 0.14168749749660492, 0.147750586271286, 0.20175661146640778, 0.24966517090797424, 0.5672392249107361, 0.16514994204044342, 0.11844174563884735, 0.18900105357170105, 0.10298173874616623, 0.09490001201629639, 0.23805087804794312, 0.17406538128852844, 0.17424285411834717]</t>
+          <t>[0.03878075256943703, 0.03384348005056381, 0.027765661478042603, 0.019775914028286934, 0.027672020718455315, 0.012398255057632923, 0.023666290566325188, 0.04775644838809967, 0.0443386510014534, 0.055186230689287186, 0.03611648082733154, 0.04277809336781502, 0.04163206368684769, 0.09819050878286362, 0.12817072868347168, 0.05108983442187309, 0.05014042556285858, 0.14177677035331726, 0.12977688014507294, 0.04175442084670067, 0.11196443438529968, 0.06119709089398384, 0.06447223573923111, 0.027286812663078308, 0.02151702530682087, 0.03601142391562462, 0.28604722023010254, 0.13382786512374878, 0.12514036893844604, 0.16069835424423218, 0.04538966342806816, 0.3672299385070801, 0.23684406280517578, 0.0466429777443409, 0.100192591547966, 0.4176761209964752, 0.20365840196609497, 0.22387556731700897, 0.35770243406295776, 0.057519081979990005, 0.19109156727790833, 0.04816385731101036, 0.039544444531202316, 0.055355727672576904, 0.053232528269290924, 0.3160388767719269, 0.24703629314899445, 0.07028569281101227, 0.18415561318397522, 0.21012166142463684, 0.23949265480041504, 0.4289129376411438, 0.15599408745765686, 0.31309545040130615, 0.46492844820022583, 0.04368821904063225, 0.06736256182193756, 0.2644803822040558, 0.05820973217487335, 0.0397418849170208, 0.09100271016359329, 0.015021207742393017, 0.03540009632706642, 0.06621481478214264, 0.13490858674049377, 0.33757632970809937, 0.2195325791835785, 0.146869957447052, 0.08076313138008118, 0.09919492900371552, 0.15795554220676422, 0.3196011781692505, 0.14226029813289642, 0.17095349729061127, 0.16005979478359222, 0.06389928609132767, 0.07862111181020737, 0.15155257284641266, 0.27654746174812317, 0.37438827753067017, 0.10693632811307907, 0.1033327579498291, 0.08524345606565475, 0.2492721974849701, 0.4741831123828888, 0.5405551791191101, 0.40404048562049866, 0.3109796345233917, 0.4525316655635834, 0.4272190034389496, 0.733484148979187, 0.7419825792312622, 0.20723369717597961, 0.5602128505706787, 0.510255753993988, 0.5753467679023743, 0.6838478446006775, 0.4917357861995697, 0.23705530166625977, 0.1736477166414261, 0.1998140811920166, 0.4975098669528961, 0.053664106875658035, 0.129752516746521, 0.11632473021745682, 0.09685489535331726, 0.11288557201623917, 0.25168055295944214, 0.2047041803598404, 0.3906609117984772, 0.09523219615221024, 0.07339540868997574, 0.1701030731201172, 0.07523882389068604, 0.05887599289417267, 0.242865651845932, 0.12111534178256989, 0.12128934264183044]</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.6272643208503723</v>
+        <v>0.7419825792312622</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
@@ -3583,10 +3583,10 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0.6652547999983653</v>
+        <v>0.6913689999928465</v>
       </c>
       <c r="J76" t="n">
-        <v>0.005637752542359029</v>
+        <v>0.005859059321973275</v>
       </c>
     </row>
     <row r="77">
@@ -3605,11 +3605,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>[0.08156538009643555, 0.13481047749519348, 0.05861584469676018, 0.0713619589805603, 0.13756707310676575, 0.05367071554064751, 0.05773642659187317, 0.06841393560171127, 0.04774513840675354, 0.07585936784744263, 0.11432657390832901, 0.15765756368637085, 0.05143894627690315, 0.10277458280324936, 0.059106506407260895, 0.055530983954668045, 0.14813444018363953, 0.10543166846036911, 0.11601275950670242, 0.09873863309621811, 0.09904862195253372, 0.07643763720989227, 0.12119187414646149, 0.0862683430314064, 0.09565989673137665, 0.033014118671417236, 0.08593164384365082, 0.0583924874663353, 0.106690414249897, 0.049017272889614105, 0.07508015632629395, 0.09656538814306259, 0.07291605323553085, 0.5440027117729187, 0.24599355459213257, 0.08455266803503036, 0.5322198271751404, 0.11712418496608734, 0.12950795888900757, 0.09865783900022507, 0.10431604087352753, 0.11283619701862335, 0.05547467619180679, 0.0567244328558445, 0.12208785861730576, 0.045890603214502335, 0.07259783148765564, 0.08571421355009079, 0.0888185128569603, 0.03630944713950157, 0.03398723900318146, 0.039725471287965775, 0.05243148282170296, 0.10515069216489792, 0.0921323224902153, 0.09234870970249176, 0.05481681227684021, 0.19456656277179718, 0.10962271690368652, 0.15356601774692535, 0.10179241746664047, 0.2857905626296997, 0.2295914590358734, 0.29034924507141113, 0.08770917356014252, 0.07009292393922806, 0.09721045941114426, 0.36404091119766235, 0.3843250870704651, 0.09528700262308121, 0.46109092235565186, 0.15652817487716675, 0.07758518308401108, 0.04801670089364052, 0.09425967931747437, 0.06267067044973373, 0.07117501646280289, 0.029625222086906433, 0.026044121012091637, 0.02240152470767498, 0.01473030261695385, 0.013739556074142456, 0.025955693796277046, 0.09611116349697113, 0.20567770302295685, 0.20901180803775787, 0.20424038171768188, 0.1994129717350006, 0.1985151618719101, 0.19240762293338776, 0.18867088854312897, 0.18966326117515564, 0.19292497634887695, 0.19022560119628906, 0.19241099059581757, 0.19324332475662231, 0.19071121513843536, 0.19105064868927002, 0.18947620689868927, 0.18918170034885406, 0.18830543756484985, 0.19058361649513245, 0.1884542554616928, 0.19103452563285828, 0.18984626233577728, 0.19454701244831085, 0.1936458945274353, 0.19608338177204132, 0.19782328605651855, 0.1988174468278885, 0.19669011235237122, 0.19514919817447662, 0.19275744259357452, 0.19183528423309326, 0.1948131024837494, 0.19448824226856232, 0.19626231491565704, 0.19626231491565704]</t>
+          <t>[0.05909367650747299, 0.09575638175010681, 0.036251261830329895, 0.03198393061757088, 0.19506946206092834, 0.02795744501054287, 0.022237515076994896, 0.0328228622674942, 0.023718124255537987, 0.04359424486756325, 0.05021124705672264, 0.08443646878004074, 0.02344752475619316, 0.04862501472234726, 0.01820405200123787, 0.02180807664990425, 0.12977945804595947, 0.06418436020612717, 0.09791719913482666, 0.05562850460410118, 0.049375537782907486, 0.04954195022583008, 0.08836289495229721, 0.06919172406196594, 0.09042670577764511, 0.01491569448262453, 0.03436720743775368, 0.02872515469789505, 0.055590782314538956, 0.022779101505875587, 0.05664839968085289, 0.14114604890346527, 0.07909809798002243, 0.7795723080635071, 0.42739778757095337, 0.08647914975881577, 0.5509350895881653, 0.06375105679035187, 0.10824792087078094, 0.08594024181365967, 0.0810454711318016, 0.09266145527362823, 0.028319597244262695, 0.02973340079188347, 0.13882699608802795, 0.03142566606402397, 0.05058976262807846, 0.0524960532784462, 0.037638161331415176, 0.01884809508919716, 0.020407643169164658, 0.01707877777516842, 0.025598209351301193, 0.06334955245256424, 0.05869832634925842, 0.04486684128642082, 0.03030971996486187, 0.12690341472625732, 0.06749604642391205, 0.09793753176927567, 0.039597220718860626, 0.14373478293418884, 0.17577455937862396, 0.2610744833946228, 0.05922028049826622, 0.035816505551338196, 0.03945690393447876, 0.22467926144599915, 0.21363218128681183, 0.026695536449551582, 0.39044758677482605, 0.09316985309123993, 0.03691907599568367, 0.019637035205960274, 0.04061337187886238, 0.034058962017297745, 0.030900252982974052, 0.008848601020872593, 0.006534464657306671, 0.006839247420430183, 0.005021193530410528, 0.004918522667139769, 0.007346292492002249, 0.04121358320116997, 0.11228050291538239, 0.1197497546672821, 0.11923646181821823, 0.11225859820842743, 0.1089969128370285, 0.10224783420562744, 0.09841982275247574, 0.09888245910406113, 0.10100694000720978, 0.09784922003746033, 0.10024865716695786, 0.10041019320487976, 0.0987170934677124, 0.09936774522066116, 0.09879524260759354, 0.09863290935754776, 0.09751511365175247, 0.10100041329860687, 0.09938708692789078, 0.1022011786699295, 0.10116660594940186, 0.10492022335529327, 0.10385553538799286, 0.10665129125118256, 0.10869283974170685, 0.1093597412109375, 0.10663820058107376, 0.10375185310840607, 0.10288234055042267, 0.101183220744133, 0.10352559387683868, 0.10374017804861069, 0.10591640323400497, 0.10591640323400497]</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.5440027117729187</v>
+        <v>0.7795723080635071</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0.6415114999981597</v>
+        <v>0.6714074999908917</v>
       </c>
       <c r="J77" t="n">
-        <v>0.005436538135577625</v>
+        <v>0.005689894067719421</v>
       </c>
     </row>
     <row r="78">
@@ -3645,11 +3645,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[0.2247612178325653, 0.24624507129192352, 0.22303268313407898, 0.15000782907009125, 0.12000882625579834, 0.11789482831954956, 0.10747573524713516, 0.13339295983314514, 0.12168960273265839, 0.09299655258655548, 0.1251617819070816, 0.13018859922885895, 0.18778841197490692, 0.21690724790096283, 0.15176616609096527, 0.1682848483324051, 0.3078502118587494, 0.3860035538673401, 0.269050270318985, 0.27310416102409363, 0.2318267524242401, 0.20103615522384644, 0.21259476244449615, 0.13988423347473145, 0.18251405656337738, 0.1376984566450119, 0.2264832705259323, 0.23506438732147217, 0.10676099359989166, 0.09477225691080093, 0.11481473594903946, 0.13459175825119019, 0.16038824617862701, 0.20643967390060425, 0.14508122205734253, 0.12720181047916412, 0.32151758670806885, 0.11623187363147736, 0.07307032495737076, 0.07868857681751251, 0.06027752161026001, 0.04419349133968353, 0.08333713561296463, 0.06438429653644562, 0.05661141127347946, 0.07986342906951904, 0.08918200433254242, 0.13061313331127167, 0.13597902655601501, 0.11261302977800369, 0.1047235056757927, 0.28668081760406494, 0.06287768483161926, 0.04156693071126938, 0.06074870377779007, 0.04147719591856003, 0.019414609298110008, 0.03711334988474846, 0.041730426251888275, 0.03012881986796856, 0.03238242119550705, 0.038661640137434006, 0.035858653485774994, 0.045054011046886444, 0.05442675203084946, 0.032861754298210144, 0.03403811156749725, 0.02633456140756607, 0.016369584947824478, 0.037293218076229095, 0.0979890525341034, 0.04465620592236519, 0.08141117542982101, 0.0844532772898674, 0.07918740063905716, 0.09263696521520615, 0.10019384324550629, 0.38158515095710754, 0.343301922082901, 0.09163088351488113, 0.10269010066986084, 0.05734284594655037, 0.0633634626865387, 0.046214282512664795, 0.1325494349002838, 0.08948618173599243, 0.12117450684309006, 0.04747011885046959, 0.05486397072672844, 0.04662436619400978, 0.04539376497268677, 0.04893701523542404, 0.0498906672000885, 0.09313637018203735, 0.14531537890434265, 0.11087357252836227, 0.08946837484836578, 0.054672978818416595, 0.06573767215013504, 0.11022109538316727, 0.05765468627214432, 0.10501376539468765, 0.0926903635263443, 0.17992621660232544, 0.3691990077495575, 0.7182639837265015, 0.3511554002761841, 0.2411714792251587, 0.3279208540916443, 0.09430474787950516, 0.2721150517463684, 0.3489132225513458, 0.6761153340339661, 0.17260318994522095, 0.4238084852695465, 0.2746201455593109, 0.0795634537935257, 0.19826431572437286, 0.11756429821252823, 0.042188502848148346, 0.07018052786588669, 0.055150892585515976, 0.0588766410946846, 0.07209723442792892, 0.05149082466959953, 0.05295032262802124, 0.13331928849220276, 0.07809695601463318, 0.12026198208332062, 0.11666840314865112, 0.11665911227464676]</t>
+          <t>[0.26626574993133545, 0.35622480511665344, 0.20527321100234985, 0.10342615097761154, 0.07353710383176804, 0.07029391080141068, 0.06916564702987671, 0.1423795223236084, 0.06429406255483627, 0.06461748480796814, 0.10720250755548477, 0.1298862248659134, 0.1321859061717987, 0.258167564868927, 0.27720510959625244, 0.2170237898826599, 0.5017393827438354, 0.46535971760749817, 0.3383270800113678, 0.33384644985198975, 0.33052557706832886, 0.2552036643028259, 0.26555079221725464, 0.09718771278858185, 0.18707209825515747, 0.2910771071910858, 0.4766637980937958, 0.35620996356010437, 0.16280920803546906, 0.13505585491657257, 0.2295176386833191, 0.2931945323944092, 0.2647017240524292, 0.3222320079803467, 0.19892239570617676, 0.11864852905273438, 0.43465933203697205, 0.14927305281162262, 0.05716990679502487, 0.08590143173933029, 0.08955272287130356, 0.044870033860206604, 0.1544426679611206, 0.0745101049542427, 0.07798703014850616, 0.1420210599899292, 0.1877737045288086, 0.2102690190076828, 0.18170122802257538, 0.20551571249961853, 0.19998377561569214, 0.4914681315422058, 0.09869373589754105, 0.04796980693936348, 0.043221063911914825, 0.02422424405813217, 0.009222197346389294, 0.018129421398043633, 0.03651249781250954, 0.021792352199554443, 0.02027646079659462, 0.02591204270720482, 0.01687009260058403, 0.030947240069508553, 0.03996125981211662, 0.027207016944885254, 0.030381692573428154, 0.019290493801236153, 0.007462105248123407, 0.021761642768979073, 0.06801360100507736, 0.024167494848370552, 0.059075675904750824, 0.06835464388132095, 0.06942670792341232, 0.09084660559892654, 0.09789026528596878, 0.3656937777996063, 0.3783760666847229, 0.12926094233989716, 0.1703024059534073, 0.06550884991884232, 0.0999196469783783, 0.06126602739095688, 0.2662511169910431, 0.09716165065765381, 0.14263613522052765, 0.026988700032234192, 0.02203514613211155, 0.019175102934241295, 0.019840531051158905, 0.028813354671001434, 0.036449648439884186, 0.06905828416347504, 0.15358251333236694, 0.1458110362291336, 0.1455371379852295, 0.0696050226688385, 0.0803118646144867, 0.15570077300071716, 0.053237348794937134, 0.1176442801952362, 0.08416582643985748, 0.11005926877260208, 0.44583287835121155, 0.6022555232048035, 0.3271383047103882, 0.24886637926101685, 0.3664093315601349, 0.10862236469984055, 0.19253592193126678, 0.2620398700237274, 0.6049773693084717, 0.1327410638332367, 0.31292808055877686, 0.10054951906204224, 0.03636439889669418, 0.1186893880367279, 0.0344851091504097, 0.009742210619151592, 0.022119928151369095, 0.019576678052544594, 0.027622420340776443, 0.029705071821808815, 0.01245336513966322, 0.011762591078877449, 0.0366532988846302, 0.02179589495062828, 0.04202837869524956, 0.047847386449575424, 0.047846321016550064]</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.7182639837265015</v>
+        <v>0.6049773693084717</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
@@ -3663,10 +3663,10 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0.7367704999924172</v>
+        <v>0.7720968999929028</v>
       </c>
       <c r="J78" t="n">
-        <v>0.005624202290018452</v>
+        <v>0.005893869465594678</v>
       </c>
     </row>
     <row r="79">
@@ -3685,11 +3685,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>[0.2276277393102646, 0.13013790547847748, 0.23246045410633087, 0.13823817670345306, 0.13893036544322968, 0.17010225355625153, 0.5534573793411255, 0.18790745735168457, 0.12099896371364594, 0.32952171564102173, 0.5827639102935791, 0.3770737648010254, 0.5971662998199463, 0.7596290111541748, 0.488052099943161, 0.20949070155620575, 0.14617790281772614, 0.07808834314346313, 0.14434389770030975, 0.1281619518995285, 0.1397174596786499, 0.18862277269363403, 0.15901750326156616, 0.11115595698356628, 0.3834957182407379, 0.07350574433803558, 0.05255792662501335, 0.05842317268252373, 0.1362125724554062, 0.31493839621543884, 0.32887983322143555, 0.40580928325653076, 0.4851365387439728, 0.4880012273788452, 0.6094865798950195, 0.7400020956993103, 0.7051695585250854, 0.8052218556404114, 0.3631448745727539, 0.17446959018707275, 0.7076568007469177, 0.8559520840644836, 0.433065801858902, 0.7588293552398682, 0.6639323830604553, 0.07205402106046677, 0.04176294058561325, 0.06204185262322426, 0.10425446927547455, 0.054499898105859756, 0.05495801195502281, 0.057394932955503464, 0.10444150865077972, 0.3014236390590668, 0.07999544590711594, 0.10111817717552185, 0.06393637508153915, 0.061823904514312744, 0.16056527197360992, 0.1622522473335266, 0.24545076489448547, 0.3756980895996094, 0.1782369166612625, 0.32630953192710876, 0.5563730597496033, 0.28561630845069885, 0.1417568027973175, 0.27515485882759094, 0.11643186211585999, 0.15327370166778564, 0.18524669110774994, 0.13828593492507935, 0.394187867641449, 0.14076371490955353, 0.13222169876098633, 0.7354416251182556, 0.06561744958162308, 0.30317988991737366, 0.19707618653774261, 0.06340794265270233, 0.035004470497369766, 0.055161669850349426, 0.0888991579413414, 0.3254179358482361, 0.10842835903167725, 0.094576396048069, 0.12739881873130798, 0.09139861911535263, 0.1132672056555748, 0.10641937702894211, 0.11233754456043243, 0.11252983659505844, 0.06320250779390335, 0.06570626050233841, 0.16348181664943695, 0.08878050744533539, 0.057539988309144974, 0.15448102355003357, 0.08487659692764282, 0.040719375014305115, 0.055029284209012985, 0.0588466040790081, 0.07585225999355316, 0.06770900636911392, 0.09939973801374435, 0.12741802632808685, 0.16743788123130798, 0.047249749302864075, 0.06384944915771484, 0.16479268670082092, 0.10003900527954102, 0.17277222871780396, 0.15039315819740295, 0.3163970112800598, 0.17336419224739075, 0.10070465505123138, 0.08862169086933136, 0.06916563957929611, 0.0684167742729187, 0.02613990753889084, 0.025542860850691795, 0.05644271522760391, 0.030004728585481644, 0.038023583590984344, 0.033268533647060394, 0.04505494609475136, 0.06255961209535599, 0.09176507592201233, 0.1531418412923813, 0.11611444503068924, 0.11609718948602676]</t>
+          <t>[0.20439471304416656, 0.07189107686281204, 0.12090326845645905, 0.08818845450878143, 0.08433067798614502, 0.1335430145263672, 0.2387273758649826, 0.13486477732658386, 0.16459797322750092, 0.33658912777900696, 0.43336257338523865, 0.24323849380016327, 0.5259591937065125, 0.6333283185958862, 0.29231691360473633, 0.14163661003112793, 0.18077348172664642, 0.07634757459163666, 0.091136634349823, 0.07582852989435196, 0.09387838840484619, 0.16239622235298157, 0.1462850570678711, 0.11751854419708252, 0.39644575119018555, 0.04440902918577194, 0.03425481915473938, 0.026916364207863808, 0.06526447832584381, 0.19464638829231262, 0.14949187636375427, 0.2516796588897705, 0.27661705017089844, 0.3391343951225281, 0.3667924106121063, 0.5700663924217224, 0.4619984030723572, 0.5706030130386353, 0.27368083596229553, 0.08881872147321701, 0.5437850952148438, 0.5359344482421875, 0.41849517822265625, 0.7254366278648376, 0.5749111771583557, 0.049555882811546326, 0.01503812987357378, 0.04312095046043396, 0.08062383532524109, 0.030891409143805504, 0.028732676059007645, 0.030436158180236816, 0.04420612007379532, 0.1588660329580307, 0.03159249946475029, 0.06930955499410629, 0.037087298929691315, 0.033794380724430084, 0.11270186305046082, 0.11142793297767639, 0.25061190128326416, 0.4005407989025116, 0.18414299190044403, 0.3156385123729706, 0.4170686602592468, 0.29838207364082336, 0.13840040564537048, 0.20966443419456482, 0.06596702337265015, 0.09595707058906555, 0.12629267573356628, 0.09414864331483841, 0.4376445710659027, 0.07336138933897018, 0.07114856690168381, 0.544817328453064, 0.029430905357003212, 0.20744463801383972, 0.18510498106479645, 0.04452256113290787, 0.01564594730734825, 0.046979326754808426, 0.06022220849990845, 0.37089699506759644, 0.119781993329525, 0.09213794767856598, 0.0995672345161438, 0.04516048729419708, 0.0848509669303894, 0.1044355109333992, 0.07488682121038437, 0.07572194933891296, 0.035481322556734085, 0.04289604350924492, 0.21424482762813568, 0.08767347782850266, 0.036961883306503296, 0.11122911423444748, 0.07548627257347107, 0.024856412783265114, 0.017988163977861404, 0.02527250349521637, 0.03418434038758278, 0.028767062351107597, 0.04642254859209061, 0.06579504162073135, 0.14306584000587463, 0.01989225298166275, 0.03873579204082489, 0.15255089104175568, 0.0492810383439064, 0.16676780581474304, 0.17367833852767944, 0.41208991408348083, 0.2004156857728958, 0.09177228063344955, 0.07747209072113037, 0.06698688864707947, 0.05576689541339874, 0.008784106932580471, 0.009949383325874805, 0.03142029419541359, 0.021008340641856194, 0.031101370230317116, 0.02280110865831375, 0.03696659579873085, 0.054642099887132645, 0.09035123884677887, 0.13372935354709625, 0.08152291178703308, 0.08154518157243729]</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.8559520840644836</v>
+        <v>0.7254366278648376</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
@@ -3703,10 +3703,10 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0.7428033000032883</v>
+        <v>0.8592817000026116</v>
       </c>
       <c r="J79" t="n">
-        <v>0.005670254198498384</v>
+        <v>0.006559402290096272</v>
       </c>
     </row>
     <row r="80">
@@ -3725,11 +3725,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[0.06419640779495239, 0.14375543594360352, 0.33032312989234924, 0.14063124358654022, 0.17737945914268494, 0.07575922459363937, 0.11053234338760376, 0.5429254770278931, 0.17222459614276886, 0.09747084975242615, 0.4303511083126068, 0.08700563758611679, 0.0542888343334198, 0.07528857886791229, 0.09083891659975052, 0.09067540615797043, 0.07394509762525558, 0.0651724636554718, 0.055788710713386536, 0.0816083773970604, 0.24535033106803894, 0.26052767038345337, 0.22208115458488464, 0.15068389475345612, 0.35470882058143616, 0.27138540148735046, 0.19612914323806763, 0.4361657500267029, 0.5966053009033203, 0.17117437720298767, 0.19855496287345886, 0.08110906928777695, 0.3360268175601959, 0.06341566890478134, 0.0366099588572979, 0.07595498859882355, 0.038941532373428345, 0.06996134668588638, 0.07748176157474518, 0.05766483023762703, 0.07842815667390823, 0.08702930063009262, 0.15528781712055206, 0.033474378287792206, 0.053389448672533035, 0.06679049134254456, 0.11428039520978928, 0.11856352537870407, 0.09423486888408661, 0.11092443019151688, 0.0652599111199379, 0.07628277689218521, 0.16104339063167572, 0.16350875794887543, 0.1530340313911438, 0.056254517287015915, 0.08050422370433807, 0.07639632374048233, 0.07042118161916733, 0.11363817006349564, 0.08557405322790146, 0.0913890078663826, 0.18457713723182678, 0.10835259407758713, 0.47683632373809814, 0.1649450659751892, 0.23729905486106873, 0.11359390616416931, 0.042558737099170685, 0.04294208064675331, 0.031148651614785194, 0.02136538177728653, 0.02807321399450302, 0.06646154075860977, 0.03517431765794754, 0.10749931633472443, 0.06653487682342529, 0.06476686149835587, 0.04931109398603439, 0.05486186966300011, 0.04535830765962601, 0.4582420885562897, 0.3536933958530426, 0.2523788511753082, 0.09121082723140717, 0.6117294430732727, 0.5097875595092773, 0.2737789452075958, 0.6684172749519348, 0.3687194585800171, 0.6848118305206299, 0.42597758769989014, 0.925083577632904, 0.8443776369094849, 0.5357236862182617, 0.3461083471775055, 0.4994956851005554, 0.8487535119056702, 0.7917532324790955, 0.16880451142787933, 0.29108133912086487, 0.10605098307132721, 0.24901850521564484, 0.0717683807015419, 0.18952342867851257, 0.06883697956800461, 0.07160159945487976, 0.07835397869348526, 0.18447452783584595, 0.10226935148239136, 0.3494795262813568, 0.2021765261888504, 0.17262792587280273, 0.5323062539100647, 0.2571408152580261, 0.2012321501970291, 0.5600389838218689, 0.874524712562561, 0.690727710723877, 0.917293906211853, 0.6716169118881226, 0.8117987513542175, 0.9426367282867432, 0.26362156867980957, 0.12274190038442612, 0.14344079792499542, 0.04509463161230087, 0.04189134016633034, 0.08494315296411514, 0.05052465572953224, 0.05026240646839142]</t>
+          <t>[0.040838152170181274, 0.18538619577884674, 0.43302401900291443, 0.14188756048679352, 0.271527498960495, 0.059018589556217194, 0.1020885780453682, 0.49658989906311035, 0.2924933135509491, 0.1358395665884018, 0.5957640409469604, 0.08095330744981766, 0.03690318763256073, 0.09491299092769623, 0.06813901662826538, 0.10975898057222366, 0.04800260439515114, 0.037507303059101105, 0.026335280388593674, 0.04006050527095795, 0.22428946197032928, 0.39580148458480835, 0.20664013922214508, 0.09608151018619537, 0.3652481734752655, 0.2944996953010559, 0.1873193085193634, 0.6555196046829224, 0.6905180215835571, 0.13679946959018707, 0.19412733614444733, 0.1002744808793068, 0.35857662558555603, 0.06541217863559723, 0.027691766619682312, 0.12184138596057892, 0.035663604736328125, 0.04601835831999779, 0.07476885616779327, 0.04349843040108681, 0.03485961630940437, 0.05086318776011467, 0.13979464769363403, 0.014900315552949905, 0.03057454340159893, 0.03715970739722252, 0.0867660641670227, 0.0830121859908104, 0.06532394886016846, 0.07185938209295273, 0.04721258208155632, 0.059246424585580826, 0.1562058925628662, 0.16984878480434418, 0.11776754260063171, 0.034121427685022354, 0.05462060496211052, 0.058006010949611664, 0.049957677721977234, 0.08407789468765259, 0.05457117035984993, 0.06617996841669083, 0.19907154142856598, 0.12545470893383026, 0.464093416929245, 0.21005922555923462, 0.2199568897485733, 0.17075733840465546, 0.026692373678088188, 0.026488956063985825, 0.01873658411204815, 0.008838511072099209, 0.012666923925280571, 0.05415388196706772, 0.0367506667971611, 0.17119960486888885, 0.09836205095052719, 0.0958247184753418, 0.07679528743028641, 0.08368930220603943, 0.03982159495353699, 0.5718805193901062, 0.4585842788219452, 0.6013314723968506, 0.23529866337776184, 0.6531540751457214, 0.5631030797958374, 0.44976305961608887, 0.7244688272476196, 0.5404578447341919, 0.9209126234054565, 0.598368227481842, 0.9595258831977844, 0.9263952374458313, 0.6623591780662537, 0.6810585856437683, 0.7624781727790833, 0.9326414465904236, 0.9255366325378418, 0.38031888008117676, 0.38070353865623474, 0.10372654348611832, 0.3797887861728668, 0.1503617912530899, 0.3390091359615326, 0.04749078303575516, 0.07724972814321518, 0.12029233574867249, 0.3919006586074829, 0.08951425552368164, 0.5316455960273743, 0.2614118456840515, 0.31170639395713806, 0.8686980605125427, 0.4022156000137329, 0.2765055000782013, 0.8702297210693359, 0.9364661574363708, 0.8458423018455505, 0.9844815731048584, 0.9401385188102722, 0.9805857539176941, 0.9817612767219543, 0.38853180408477783, 0.1988343596458435, 0.3422646224498749, 0.05676596611738205, 0.05900583416223526, 0.09758607298135757, 0.06645490229129791, 0.06591059267520905]</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.9426367282867432</v>
+        <v>0.9844815731048584</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -3743,10 +3743,10 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0.7393735999939963</v>
+        <v>0.8417386999935843</v>
       </c>
       <c r="J80" t="n">
-        <v>0.005644073282396919</v>
+        <v>0.00642548625949301</v>
       </c>
     </row>
     <row r="81">
@@ -3765,11 +3765,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[0.06619803607463837, 0.02343497797846794, 0.044550951570272446, 0.055824801325798035, 0.03452986106276512, 0.026606697589159012, 0.03281354904174805, 0.07864779233932495, 0.2057688981294632, 0.47204825282096863, 0.28456029295921326, 0.12818817794322968, 0.1164013147354126, 0.06126139312982559, 0.17039625346660614, 0.1804097443819046, 0.2526243031024933, 0.05941878259181976, 0.1215512678027153, 0.4013466536998749, 0.10050631314516068, 0.05772603303194046, 0.036297671496868134, 0.0910896584391594, 0.11202728003263474, 0.06822327524423599, 0.04466276243329048, 0.06815168261528015, 0.03082105703651905, 0.07717473059892654, 0.07737371325492859, 0.04110642150044441, 0.41903263330459595, 0.12949620187282562, 0.34202903509140015, 0.05809476226568222, 0.08829827606678009, 0.06543384492397308, 0.056902553886175156, 0.052871014922857285, 0.10325054079294205, 0.07619820535182953, 0.05564869940280914, 0.025091806426644325, 0.062146857380867004, 0.024079840630292892, 0.04415946453809738, 0.033062372356653214, 0.027597717940807343, 0.0389588363468647, 0.048022348433732986, 0.049792103469371796, 0.07009159028530121, 0.299342542886734, 0.09045407921075821, 0.34058403968811035, 0.19443577527999878, 0.44436734914779663, 0.0777520164847374, 0.08839531987905502, 0.223454087972641, 0.1192096397280693, 0.09532452374696732, 0.07079610228538513, 0.034606631845235825, 0.14765523374080658, 0.1611861288547516, 0.04477705433964729, 0.058246783912181854, 0.04055944085121155, 0.042332012206315994, 0.04912024363875389, 0.03602731600403786, 0.10415006428956985, 0.13724485039710999, 0.24237795174121857, 0.130361407995224, 0.21029032766819, 0.09897720068693161, 0.1204923689365387, 0.045538149774074554, 0.0916382297873497, 0.048611536622047424, 0.04082656279206276, 0.09401046484708786, 0.04642253741621971, 0.057553328573703766, 0.11642113327980042, 0.3770395517349243, 0.05813031643629074, 0.09931813180446625, 0.09342996031045914, 0.08473323285579681, 0.03447314724326134, 0.03033182956278324, 0.06725449115037918, 0.07268230617046356, 0.05313011258840561, 0.2465410828590393, 0.03996121883392334, 0.10487937182188034, 0.02035338245332241, 0.03425440937280655, 0.09873352944850922, 0.07148662209510803, 0.08830422908067703, 0.056848254054784775, 0.07500134408473969, 0.051681097596883774, 0.10840911418199539, 0.17976228892803192, 0.07816888391971588, 0.07171707600355148, 0.0702180489897728, 0.06034138798713684, 0.058606989681720734, 0.06730325520038605, 0.06684990227222443, 0.04123406112194061, 0.05672979727387428, 0.03150701895356178, 0.06995751708745956, 0.06852494925260544, 0.08779548108577728, 0.04025581479072571, 0.10749112069606781, 0.09484229981899261, 0.08886560797691345, 0.04510079324245453, 0.06621519476175308, 0.0661977007985115, 0.06637987494468689]</t>
+          <t>[0.02136833779513836, 0.008969723246991634, 0.01601742021739483, 0.023677678778767586, 0.009244726970791817, 0.010644071735441685, 0.01048852689564228, 0.06408119946718216, 0.21434667706489563, 0.6871029734611511, 0.5383194088935852, 0.17541326582431793, 0.10459159314632416, 0.03272202983498573, 0.3081631064414978, 0.32584714889526367, 0.3840256631374359, 0.055784545838832855, 0.09826955199241638, 0.34990325570106506, 0.13078589737415314, 0.06591025739908218, 0.024212172254920006, 0.07116789370775223, 0.0952547937631607, 0.04421653226017952, 0.022095074877142906, 0.04439559206366539, 0.016048086807131767, 0.07411928474903107, 0.051811583340168, 0.04190279543399811, 0.3027436137199402, 0.11202757805585861, 0.364994615316391, 0.05183963105082512, 0.06847389787435532, 0.055705588310956955, 0.02811671979725361, 0.02255459502339363, 0.08055371791124344, 0.03769825026392937, 0.027798883616924286, 0.014015006832778454, 0.03266415745019913, 0.012944492511451244, 0.027966652065515518, 0.014460515230894089, 0.009809507057070732, 0.022394374012947083, 0.03392963856458664, 0.022199857980012894, 0.029728705063462257, 0.32219260931015015, 0.14944322407245636, 0.4686044752597809, 0.2177773416042328, 0.47111597657203674, 0.06520882248878479, 0.05618777871131897, 0.16126340627670288, 0.1009589284658432, 0.07699578255414963, 0.08988133072853088, 0.024220939725637436, 0.1359415352344513, 0.17095975577831268, 0.05462057143449783, 0.09621787071228027, 0.027007848024368286, 0.02672298438847065, 0.03468310460448265, 0.027645176276564598, 0.08819848299026489, 0.1460377275943756, 0.3286047875881195, 0.1068754717707634, 0.16286508738994598, 0.10654132068157196, 0.1484251618385315, 0.03661094233393669, 0.10096625983715057, 0.03671618551015854, 0.033795394003391266, 0.11286889016628265, 0.04965092986822128, 0.052840132266283035, 0.10618219524621964, 0.3695226311683655, 0.041731543838977814, 0.08533374220132828, 0.06884018331766129, 0.05140472203493118, 0.01961922086775303, 0.011722007766366005, 0.04119163006544113, 0.05111648887395859, 0.028930243104696274, 0.2902103662490845, 0.03345101326704025, 0.0791511982679367, 0.012114472687244415, 0.017712678760290146, 0.06912905722856522, 0.0659770742058754, 0.058242183178663254, 0.039390433579683304, 0.054551657289266586, 0.0353841595351696, 0.08845409005880356, 0.16989688575267792, 0.06605686247348785, 0.07784579694271088, 0.06509151309728622, 0.052236758172512054, 0.043609246611595154, 0.07613958418369293, 0.08648914098739624, 0.032886866480112076, 0.05944042652845383, 0.023137858137488365, 0.0808512344956398, 0.06308899819850922, 0.08465367555618286, 0.01915067248046398, 0.06593377143144608, 0.08833006024360657, 0.09379209578037262, 0.03883608803153038, 0.05791069567203522, 0.038216304033994675, 0.038721997290849686]</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.4720482528209686</v>
+        <v>0.6871029734611511</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -3783,10 +3783,10 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0.7408322000119369</v>
+        <v>0.7396096000011312</v>
       </c>
       <c r="J81" t="n">
-        <v>0.005612365151605583</v>
+        <v>0.005603103030311599</v>
       </c>
     </row>
     <row r="82">
@@ -3805,11 +3805,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[0.050724443048238754, 0.13617649674415588, 0.13144806027412415, 0.10780291259288788, 0.12352021038532257, 0.051986902952194214, 0.12427936494350433, 0.09414312988519669, 0.10415852069854736, 0.10301052778959274, 0.051543548703193665, 0.07639385759830475, 0.06893040239810944, 0.036709509789943695, 0.07148823142051697, 0.06657275557518005, 0.035589393228292465, 0.11857353895902634, 0.052081625908613205, 0.07504040002822876, 0.048427775502204895, 0.11118676513433456, 0.036501865833997726, 0.05228016898036003, 0.028605226427316666, 0.02427002601325512, 0.020787416025996208, 0.024246620014309883, 0.06674689054489136, 0.048907771706581116, 0.020495444536209106, 0.0929352194070816, 0.03262442350387573, 0.033162035048007965, 0.039182595908641815, 0.06110600382089615, 0.07923862338066101, 0.08642751723527908, 0.02632293663918972, 0.02992696687579155, 0.07663850486278534, 0.08761562407016754, 0.1037110760807991, 0.1308932602405548, 0.6318072080612183, 0.1775575876235962, 0.07538627833127975, 0.0428171306848526, 0.07445719838142395, 0.028739256784319878, 0.04707697778940201, 0.027242030948400497, 0.04147328808903694, 0.044800836592912674, 0.03334106504917145, 0.052317190915346146, 0.04242395609617233, 0.04062385484576225, 0.02891797199845314, 0.027709679678082466, 0.05668830871582031, 0.10460229218006134, 0.048751216381788254, 0.055889979004859924, 0.04162570834159851, 0.0725293830037117, 0.8888619542121887, 0.07330132275819778, 0.0956028401851654, 0.04488319531083107, 0.12549765408039093, 0.20665161311626434, 0.09886664152145386, 0.12084630876779556, 0.09133259952068329, 0.18448832631111145, 0.21129460632801056, 0.33297809958457947, 0.11781173199415207, 0.11010067909955978, 0.07916408032178879, 0.06032491847872734, 0.15133720636367798, 0.2841688394546509, 0.16067813336849213, 0.17548689246177673, 0.09894393384456635, 0.05950425937771797, 0.05295155569911003, 0.0693022683262825, 0.12062909454107285, 0.04910504072904587, 0.03909669443964958, 0.23900233209133148, 0.08656398952007294, 0.07116076350212097, 0.19612877070903778, 0.1772041618824005, 0.12607039511203766, 0.06960953027009964, 0.2220768928527832, 0.08663459867238998, 0.08240204304456711, 0.12581691145896912, 0.10710841417312622, 0.06586772948503494, 0.2793988883495331, 0.9516215920448303, 0.9926372766494751, 0.984849214553833, 0.9835730195045471, 0.9837135076522827, 0.9819506406784058, 0.6608047485351562, 0.2282981276512146, 0.04942481592297554, 0.05944397673010826, 0.050984613597393036, 0.08240710198879242, 0.09136950224637985, 0.063214972615242, 0.05647951737046242, 0.0363357849419117, 0.03211348131299019, 0.09051461517810822, 0.05074453353881836, 0.06472697108983994, 0.06330028176307678, 0.05362303555011749, 0.038202811032533646, 0.05873706936836243, 0.05861029401421547]</t>
+          <t>[0.04543657973408699, 0.178147554397583, 0.10965937376022339, 0.1215939074754715, 0.1178070679306984, 0.046737488359212875, 0.11848115921020508, 0.15873081982135773, 0.14639411866664886, 0.20715519785881042, 0.06563963741064072, 0.08577372133731842, 0.04503759369254112, 0.020591339096426964, 0.058624424040317535, 0.06954765319824219, 0.02874535508453846, 0.1419837325811386, 0.04060365632176399, 0.04968925192952156, 0.02880570851266384, 0.16281260550022125, 0.01622157357633114, 0.04560648277401924, 0.018985893577337265, 0.012810856103897095, 0.00997637677937746, 0.013590706512331963, 0.06290965527296066, 0.03971119597554207, 0.009742018766701221, 0.08984371274709702, 0.018422074615955353, 0.01790625788271427, 0.02839888073503971, 0.042977865785360336, 0.047940969467163086, 0.06423087418079376, 0.017415734007954597, 0.0176803357899189, 0.08703894913196564, 0.10249496251344681, 0.06678159534931183, 0.09367431700229645, 0.6690769791603088, 0.2368754893541336, 0.05964651703834534, 0.05108359083533287, 0.07830779999494553, 0.015297429636120796, 0.038314081728458405, 0.01334403082728386, 0.027079904451966286, 0.027321558445692062, 0.017674855887889862, 0.04101106524467468, 0.02247372455894947, 0.030483858659863472, 0.011557038873434067, 0.008179089985787868, 0.029750801622867584, 0.05872306600213051, 0.01807538978755474, 0.025126133114099503, 0.019950328394770622, 0.04769530147314072, 0.9352896213531494, 0.07299850136041641, 0.11411749571561813, 0.04139616712927818, 0.2889813780784607, 0.29895445704460144, 0.07708721607923508, 0.11900120228528976, 0.09837322682142258, 0.1501542180776596, 0.24800948798656464, 0.4470038115978241, 0.16623477637767792, 0.09097809344530106, 0.12299413233995438, 0.06437823176383972, 0.24700883030891418, 0.40995314717292786, 0.188024640083313, 0.141372412443161, 0.11798307299613953, 0.041760433465242386, 0.035188641399145126, 0.03090798854827881, 0.1312919557094574, 0.026022516191005707, 0.02990897372364998, 0.28481727838516235, 0.11275403946638107, 0.07406613975763321, 0.1867891401052475, 0.19966425001621246, 0.18288502097129822, 0.1107834205031395, 0.232659712433815, 0.06589207798242569, 0.07151268422603607, 0.07885961979627609, 0.09237518161535263, 0.050772517919540405, 0.3417559564113617, 0.974646270275116, 0.9971883893013, 0.9924433827400208, 0.9878906011581421, 0.9879107475280762, 0.981139600276947, 0.6881920099258423, 0.13869395852088928, 0.017595285549759865, 0.03887180984020233, 0.049349043518304825, 0.06531514972448349, 0.05281490087509155, 0.04542073979973793, 0.037268828600645065, 0.020091407001018524, 0.017887815833091736, 0.05314270779490471, 0.056734971702098846, 0.05405073240399361, 0.04474262148141861, 0.0327303484082222, 0.03121890500187874, 0.04955451563000679, 0.04934432730078697]</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.9926372766494751</v>
+        <v>0.9971883893013</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -3823,10 +3823,10 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0.8569997000158764</v>
+        <v>0.9411917000106769</v>
       </c>
       <c r="J82" t="n">
-        <v>0.006492421969817246</v>
+        <v>0.007130240151596037</v>
       </c>
     </row>
     <row r="83">
@@ -3845,11 +3845,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[0.26409611105918884, 0.31273236870765686, 0.5085644721984863, 0.3223971426486969, 0.24499322474002838, 0.06931140273809433, 0.2027416229248047, 0.36800724267959595, 0.36627647280693054, 0.528866171836853, 0.5346863269805908, 0.1680908203125, 0.41408801078796387, 0.6832822561264038, 0.7033666372299194, 0.07782509177923203, 0.42838698625564575, 0.18001794815063477, 0.32389771938323975, 0.6947653293609619, 0.37177717685699463, 0.3027597665786743, 0.22178791463375092, 0.21160687506198883, 0.17692118883132935, 0.6537100672721863, 0.22216641902923584, 0.2707481384277344, 0.13841266930103302, 0.5418760776519775, 0.49057674407958984, 0.5336487889289856, 0.1676638424396515, 0.5045692920684814, 0.24741825461387634, 0.4731111228466034, 0.4981011152267456, 0.5042277574539185, 0.341020792722702, 0.1731344610452652, 0.15915891528129578, 0.09055935591459274, 0.10647515952587128, 0.10788615792989731, 0.15252724289894104, 0.39535093307495117, 0.40018314123153687, 0.10939988493919373, 0.053985845297575, 0.3275098502635956, 0.1891428530216217, 0.18507954478263855, 0.21685189008712769, 0.3987811505794525, 0.4799236059188843, 0.6206205487251282, 0.22519412636756897, 0.29006409645080566, 0.3452169895172119, 0.7366935014724731, 0.5099708437919617, 0.1315990388393402, 0.2427464872598648, 0.23023056983947754, 0.5290589928627014, 0.46107247471809387, 0.8203550577163696, 0.6502118706703186, 0.610177218914032, 0.2523229718208313, 0.464785099029541, 0.16393470764160156, 0.6979891657829285, 0.37424537539482117, 0.16637110710144043, 0.16458822786808014, 0.10063173621892929, 0.23046353459358215, 0.13848978281021118, 0.05506755784153938, 0.0661519318819046, 0.0803353562951088, 0.07157271355390549, 0.02378244698047638, 0.08302190899848938, 0.39971300959587097, 0.14576567709445953, 0.2258598506450653, 0.22083348035812378, 0.1725343018770218, 0.6404449343681335, 0.772230863571167, 0.32069265842437744, 0.38949260115623474, 0.4708726406097412, 0.8483477830886841, 0.8357319235801697, 0.5560999512672424, 0.5668479204177856, 0.8457726240158081, 0.8115713596343994, 0.9307159781455994, 0.5728025436401367, 0.17058496177196503, 0.6186544299125671, 0.11297792941331863, 0.036661915481090546, 0.03341521695256233, 0.07674875110387802, 0.11554818600416183, 0.27757829427719116, 0.798366129398346, 0.690108597278595, 0.22437191009521484, 0.12119297683238983, 0.07187801599502563, 0.08426925539970398, 0.5290731191635132, 0.12952537834644318, 0.41139599680900574, 0.5100823640823364, 0.49366676807403564, 0.8035938739776611, 0.8841999173164368, 0.6982408761978149, 0.6451711058616638, 0.3016701340675354, 0.17040996253490448, 0.6957389712333679, 0.6513764262199402, 0.4187179207801819, 0.4127870202064514]</t>
+          <t>[0.274352490901947, 0.399416983127594, 0.41691017150878906, 0.30108556151390076, 0.2886365056037903, 0.06344954669475555, 0.2078901082277298, 0.4279491603374481, 0.3497271239757538, 0.6316652297973633, 0.6078042387962341, 0.2134237140417099, 0.38973289728164673, 0.5623350143432617, 0.3208981156349182, 0.032679978758096695, 0.40302303433418274, 0.1838369518518448, 0.2564869523048401, 0.40594327449798584, 0.25652095675468445, 0.24204804003238678, 0.13799041509628296, 0.2159101963043213, 0.13332225382328033, 0.7617130279541016, 0.4514073133468628, 0.3707466125488281, 0.1983756721019745, 0.48246437311172485, 0.44106918573379517, 0.5359373092651367, 0.21843890845775604, 0.4707426428794861, 0.2172473818063736, 0.513746440410614, 0.5122650265693665, 0.5783714652061462, 0.5211396217346191, 0.24019062519073486, 0.19528590142726898, 0.1081579253077507, 0.11539138853549957, 0.07136175781488419, 0.123818539083004, 0.320381760597229, 0.19633479416370392, 0.05516323447227478, 0.03569405898451805, 0.29195353388786316, 0.21645531058311462, 0.22979086637496948, 0.3542136549949646, 0.5189245343208313, 0.6207183003425598, 0.6833740472793579, 0.27114567160606384, 0.28238216042518616, 0.3199390172958374, 0.6733841896057129, 0.541702926158905, 0.1115785464644432, 0.2223760187625885, 0.19503846764564514, 0.4857689440250397, 0.5941142439842224, 0.8046659827232361, 0.7251319289207458, 0.6804636120796204, 0.35252857208251953, 0.5886976718902588, 0.3163049817085266, 0.8168156147003174, 0.601543664932251, 0.30364468693733215, 0.19212086498737335, 0.06437856703996658, 0.24093769490718842, 0.08888005465269089, 0.04177173227071762, 0.0539247952401638, 0.04793490096926689, 0.05027017369866371, 0.01937377266585827, 0.13862673938274384, 0.35233548283576965, 0.2081308811903, 0.47755172848701477, 0.3417346477508545, 0.24077796936035156, 0.5796557664871216, 0.7741180062294006, 0.3801548480987549, 0.47645774483680725, 0.46654778718948364, 0.7438111901283264, 0.832631528377533, 0.6630218625068665, 0.6365174055099487, 0.8083359599113464, 0.7798298001289368, 0.9298586249351501, 0.6826055645942688, 0.1871839016675949, 0.3231014013290405, 0.06126754730939865, 0.014156864956021309, 0.01229197159409523, 0.027521764859557152, 0.06360740214586258, 0.22286856174468994, 0.8344020247459412, 0.6406441926956177, 0.20245911180973053, 0.08397860080003738, 0.04104218631982803, 0.04147438704967499, 0.5175789594650269, 0.1395178586244583, 0.45091888308525085, 0.54144686460495, 0.38733646273612976, 0.788845419883728, 0.817147970199585, 0.6116189360618591, 0.5307585597038269, 0.23594820499420166, 0.1529819518327713, 0.8438751697540283, 0.7396795153617859, 0.42732688784599304, 0.4248825013637543]</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.9307159781455994</v>
+        <v>0.9298586249351501</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -3863,10 +3863,10 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0.745549299987033</v>
+        <v>0.8042770000029122</v>
       </c>
       <c r="J83" t="n">
-        <v>0.005648100757477523</v>
+        <v>0.006093007575779638</v>
       </c>
     </row>
     <row r="84">
@@ -3885,11 +3885,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[0.22587987780570984, 0.26931726932525635, 0.686546266078949, 0.21793325245380402, 0.4527853727340698, 0.4641360938549042, 0.15353354811668396, 0.21127250790596008, 0.12175319343805313, 0.1721547394990921, 0.8277274370193481, 0.28254565596580505, 0.10201852768659592, 0.16835160553455353, 0.2581596374511719, 0.2694220244884491, 0.0913299173116684, 0.5645862221717834, 0.08746590465307236, 0.7740051746368408, 0.8414198756217957, 0.19908513128757477, 0.16699588298797607, 0.4349484443664551, 0.06672649085521698, 0.10958827286958694, 0.24395181238651276, 0.8613489866256714, 0.5938314199447632, 0.5123603940010071, 0.24162815511226654, 0.7846048474311829, 0.22599662840366364, 0.1456802487373352, 0.6687152981758118, 0.8980146646499634, 0.4948047995567322, 0.6447815299034119, 0.1721390038728714, 0.32672926783561707, 0.31171494722366333, 0.09286566078662872, 0.39024975895881653, 0.2315981686115265, 0.23528727889060974, 0.08300232887268066, 0.060950253158807755, 0.11483680456876755, 0.40670034289360046, 0.27213552594184875, 0.2403302788734436, 0.3544310927391052, 0.3958755433559418, 0.6962063312530518, 0.910771906375885, 0.5849196910858154, 0.8264124393463135, 0.3321071267127991, 0.7716689705848694, 0.16125498712062836, 0.2892281711101532, 0.11271870136260986, 0.39656445384025574, 0.6341754794120789, 0.2410959154367447, 0.4723502993583679, 0.03061382845044136, 0.25246772170066833, 0.04034639894962311, 0.08850091695785522, 0.23811200261116028, 0.05869915708899498, 0.2419542372226715, 0.32122960686683655, 0.2870716154575348, 0.06474968791007996, 0.09532678872346878, 0.14513520896434784, 0.44471579790115356, 0.27118805050849915, 0.15235453844070435, 0.47680792212486267, 0.20462071895599365, 0.09999392181634903, 0.12491802126169205, 0.12628242373466492, 0.22213253378868103, 0.3463987410068512, 0.2200714349746704, 0.19608676433563232, 0.11255955696105957, 0.4348309636116028, 0.2750709056854248, 0.18549075722694397, 0.3610725700855255, 0.12334799766540527, 0.048789650201797485, 0.08825430274009705, 0.09171010553836823, 0.6491053104400635, 0.9479824900627136, 0.07496101409196854, 0.06015412136912346, 0.28289127349853516, 0.4027787148952484, 0.5441573858261108, 0.6114636063575745, 0.8529871106147766, 0.5086397528648376, 0.54823899269104, 0.5763593316078186, 0.48485541343688965, 0.5686216354370117, 0.5010320544242859, 0.5199766755104065, 0.2713793218135834, 0.5531470775604248, 0.4958556890487671, 0.33635884523391724, 0.4111168384552002, 0.26068609952926636, 0.25041672587394714, 0.19290542602539062, 0.3980126678943634, 0.38026946783065796, 0.7409857511520386, 0.6824992895126343, 0.29578641057014465, 0.18972785770893097, 0.0814535915851593, 0.06118589639663696, 0.06068893149495125]</t>
+          <t>[0.34137222170829773, 0.2332022339105606, 0.7358959913253784, 0.29490193724632263, 0.5281450152397156, 0.5328249931335449, 0.2821728587150574, 0.20317187905311584, 0.05890759080648422, 0.14564211666584015, 0.708342432975769, 0.30339741706848145, 0.05096723511815071, 0.10364238917827606, 0.27910172939300537, 0.16418053209781647, 0.0598142109811306, 0.33853471279144287, 0.06425982713699341, 0.8145048022270203, 0.7907066345214844, 0.16746367514133453, 0.22929410636425018, 0.5939443111419678, 0.054997608065605164, 0.09766487777233124, 0.2551390528678894, 0.8704303503036499, 0.6415636539459229, 0.6758603453636169, 0.26694732904434204, 0.7567307949066162, 0.2606193721294403, 0.08806826174259186, 0.6450886726379395, 0.8239417672157288, 0.3899238109588623, 0.6643164753913879, 0.16680730879306793, 0.26021862030029297, 0.28726726770401, 0.10421153157949448, 0.551464319229126, 0.2511102557182312, 0.29603397846221924, 0.09908834099769592, 0.03781750053167343, 0.13014283776283264, 0.5706690549850464, 0.4186454713344574, 0.3039575517177582, 0.5568647980690002, 0.5415129661560059, 0.8559389114379883, 0.9138641953468323, 0.6119017004966736, 0.8852413296699524, 0.3386049270629883, 0.8293905854225159, 0.3237282633781433, 0.3713362514972687, 0.1373024582862854, 0.7615349888801575, 0.8542884588241577, 0.47494223713874817, 0.6742029190063477, 0.014701521955430508, 0.16200952231884003, 0.018978534266352654, 0.07232613861560822, 0.20280224084854126, 0.051150593906641006, 0.5163558125495911, 0.5829220414161682, 0.180708110332489, 0.035037726163864136, 0.06086978316307068, 0.08574661612510681, 0.3109613060951233, 0.19331058859825134, 0.1337772011756897, 0.35297462344169617, 0.1902419775724411, 0.15098176896572113, 0.13953623175621033, 0.06431914865970612, 0.17289119958877563, 0.19668008387088776, 0.10484573245048523, 0.13895010948181152, 0.04569009691476822, 0.46234747767448425, 0.2952149510383606, 0.16948647797107697, 0.3980150520801544, 0.11529844999313354, 0.022483743727207184, 0.05628890544176102, 0.056133657693862915, 0.724493682384491, 0.93165123462677, 0.037505295127630234, 0.03645407035946846, 0.2680867612361908, 0.24146074056625366, 0.3173401355743408, 0.4124692678451538, 0.8429319262504578, 0.5040977597236633, 0.6814064979553223, 0.4867851436138153, 0.40149834752082825, 0.4665219485759735, 0.5376996397972107, 0.6089648008346558, 0.3441289961338043, 0.6022853851318359, 0.5469649434089661, 0.28653398156166077, 0.42258939146995544, 0.28994205594062805, 0.2877713441848755, 0.2712767720222473, 0.4984365999698639, 0.2520001530647278, 0.42910927534103394, 0.3817938566207886, 0.15578268468379974, 0.1791130155324936, 0.06919268518686295, 0.05447174608707428, 0.05339965969324112]</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.9479824900627136</v>
+        <v>0.93165123462677</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0.7468763000215404</v>
+        <v>0.7456596999982139</v>
       </c>
       <c r="J84" t="n">
-        <v>0.005658153788041973</v>
+        <v>0.00564893712119859</v>
       </c>
     </row>
     <row r="85">
@@ -3925,11 +3925,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[0.4158296585083008, 0.849197506904602, 0.4604385197162628, 0.637242317199707, 0.5924723744392395, 0.46954840421676636, 0.8970164656639099, 0.4845609962940216, 0.7636702656745911, 0.8635944128036499, 0.8186520338058472, 0.8208605647087097, 0.4565054178237915, 0.2635687589645386, 0.5835371613502502, 0.3718736469745636, 0.6831579208374023, 0.34949687123298645, 0.819370448589325, 0.3680936396121979, 0.28341981768608093, 0.7055801153182983, 0.39762842655181885, 0.4544833302497864, 0.4033675193786621, 0.3766305446624756, 0.42146775126457214, 0.44852951169013977, 0.8142644166946411, 0.6964494585990906, 0.2805790603160858, 0.3119131922721863, 0.4203909933567047, 0.33815857768058777, 0.4241581857204437, 0.33511072397232056, 0.19507312774658203, 0.310912549495697, 0.22766457498073578, 0.681999683380127, 0.26963070034980774, 0.20246350765228271, 0.2174871861934662, 0.13506142795085907, 0.19554559886455536, 0.3433961868286133, 0.09051942825317383, 0.26559001207351685, 0.22761377692222595, 0.5683351159095764, 0.3624042570590973, 0.5314239859580994, 0.18683940172195435, 0.144969180226326, 0.24763038754463196, 0.6945138573646545, 0.5782690048217773, 0.8228466510772705, 0.385287880897522, 0.43825578689575195, 0.2742520570755005, 0.5374202132225037, 0.6731387376785278, 0.6901257038116455, 0.6986162662506104, 0.5823315978050232, 0.4995056688785553, 0.536220371723175, 0.3673361837863922, 0.8411611914634705, 0.44542479515075684, 0.15168315172195435, 0.6206575036048889, 0.2855023443698883, 0.6101476550102234, 0.25976574420928955, 0.5446688532829285, 0.5275105834007263, 0.31653720140457153, 0.13856928050518036, 0.1215231865644455, 0.2937667667865753, 0.7106887102127075, 0.24270303547382355, 0.2849440276622772, 0.21849040687084198, 0.21330253779888153, 0.5472248792648315, 0.6458345651626587, 0.1317863017320633, 0.09304839372634888, 0.2776857316493988, 0.5051422715187073, 0.7357161045074463, 0.48541542887687683, 0.2318168580532074, 0.13380230963230133, 0.3004966676235199, 0.3903038203716278, 0.22108511626720428, 0.32336267828941345, 0.26997846364974976, 0.4545978903770447, 0.16701564192771912, 0.26782357692718506, 0.7945757508277893, 0.8002004027366638, 0.3299078345298767, 0.7627899646759033, 0.17683696746826172, 0.09137158840894699, 0.18004325032234192, 0.3483908772468567, 0.4479810297489166, 0.27912837266921997, 0.2944430410861969, 0.4874674379825592, 0.8680397868156433, 0.771828830242157, 0.20519906282424927, 0.1439630687236786, 0.5060040354728699, 0.8542688488960266, 0.26612457633018494, 0.5865199565887451, 0.8159695863723755, 0.8052692413330078, 0.30543744564056396, 0.6915790438652039, 0.18357568979263306, 0.10730133205652237, 0.10666843503713608]</t>
+          <t>[0.5039669871330261, 0.864582896232605, 0.47574615478515625, 0.6823940277099609, 0.5430763959884644, 0.288044273853302, 0.8552764654159546, 0.2934921681880951, 0.5572934150695801, 0.7711530923843384, 0.7719802260398865, 0.6482120156288147, 0.20107263326644897, 0.17370159924030304, 0.3678412437438965, 0.261764258146286, 0.6012609601020813, 0.26865097880363464, 0.8002803921699524, 0.5546528100967407, 0.22856850922107697, 0.5406782627105713, 0.3219859302043915, 0.4084864556789398, 0.305922269821167, 0.3164483308792114, 0.32300618290901184, 0.37667959928512573, 0.7274660468101501, 0.44368165731430054, 0.18352431058883667, 0.24580037593841553, 0.27566468715667725, 0.28677383065223694, 0.3590295612812042, 0.257096529006958, 0.1367248147726059, 0.20650270581245422, 0.1808946579694748, 0.7039359211921692, 0.19243364036083221, 0.07928920537233353, 0.1477893888950348, 0.06444533169269562, 0.17415151000022888, 0.3292776644229889, 0.07101872563362122, 0.2681824266910553, 0.19077539443969727, 0.46600857377052307, 0.2760538160800934, 0.48433271050453186, 0.09932324290275574, 0.11640138924121857, 0.15906056761741638, 0.5600859522819519, 0.4196072518825531, 0.7414968013763428, 0.42914193868637085, 0.44566458463668823, 0.3180057406425476, 0.40976864099502563, 0.5015885829925537, 0.6220491528511047, 0.6531026363372803, 0.43939393758773804, 0.46492239832878113, 0.5330522060394287, 0.3123921751976013, 0.7749863266944885, 0.2893940806388855, 0.09706379473209381, 0.5346874594688416, 0.2509962022304535, 0.6743823885917664, 0.2547305226325989, 0.6416683793067932, 0.5195199251174927, 0.3067614436149597, 0.12498895823955536, 0.10700105130672455, 0.25803783535957336, 0.6402043700218201, 0.23950135707855225, 0.32579857110977173, 0.17648503184318542, 0.14838190376758575, 0.5751673579216003, 0.6001327633857727, 0.09316781163215637, 0.06884950399398804, 0.2267037183046341, 0.6250869631767273, 0.6548372507095337, 0.5212416052818298, 0.21697042882442474, 0.12859532237052917, 0.25285863876342773, 0.40581393241882324, 0.1908680647611618, 0.24323111772537231, 0.21318450570106506, 0.33580106496810913, 0.14615149796009064, 0.31423401832580566, 0.801081120967865, 0.7549062371253967, 0.4697997272014618, 0.8629308938980103, 0.1592894345521927, 0.03619034215807915, 0.10150178521871567, 0.2202993929386139, 0.17548927664756775, 0.16572688519954681, 0.12567898631095886, 0.30008450150489807, 0.5812397003173828, 0.3835294544696808, 0.08789408951997757, 0.04552767053246498, 0.37266477942466736, 0.7463346719741821, 0.1262218952178955, 0.5539515018463135, 0.6586418151855469, 0.6351031064987183, 0.2546008825302124, 0.7159377336502075, 0.05999375879764557, 0.03857717290520668, 0.03815634176135063]</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.8970164656639099</v>
+        <v>0.864582896232605</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -3943,10 +3943,10 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0.7503091999969911</v>
+        <v>0.745194499992067</v>
       </c>
       <c r="J85" t="n">
-        <v>0.005684160606037811</v>
+        <v>0.00564541287872778</v>
       </c>
     </row>
     <row r="86">
@@ -3965,11 +3965,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[0.17268362641334534, 0.32951194047927856, 0.12750698626041412, 0.18814274668693542, 0.3016525208950043, 0.229937344789505, 0.13001617789268494, 0.15320079028606415, 0.412489116191864, 0.32648998498916626, 0.18293413519859314, 0.10704062879085541, 0.17550213634967804, 0.12808021903038025, 0.1639745980501175, 0.27076491713523865, 0.28815731406211853, 0.4108342230319977, 0.2346007227897644, 0.2188258320093155, 0.13091018795967102, 0.1526639461517334, 0.30390802025794983, 0.8158954381942749, 0.576701819896698, 0.5391296744346619, 0.5636153817176819, 0.8610024452209473, 0.622194230556488, 0.8622333407402039, 0.5764238834381104, 0.3468145430088043, 0.15683329105377197, 0.27935755252838135, 0.08926796168088913, 0.19342529773712158, 0.3939354419708252, 0.4272047281265259, 0.6226567029953003, 0.7658718228340149, 0.4522406756877899, 0.18800628185272217, 0.1757950633764267, 0.3316033184528351, 0.37103891372680664, 0.30273059010505676, 0.7644986510276794, 0.49268728494644165, 0.5871762633323669, 0.09452567249536514, 0.7089817523956299, 0.1764916032552719, 0.21081764996051788, 0.10442192852497101, 0.1752595752477646, 0.2977798283100128, 0.661384642124176, 0.20714743435382843, 0.5234366059303284, 0.3329734802246094, 0.2326890528202057, 0.1912696808576584, 0.37742704153060913, 0.6246485710144043, 0.5586766600608826, 0.68105149269104, 0.8963890075683594, 0.8237606883049011, 0.7821996808052063, 0.295646995306015, 0.13777822256088257, 0.19243434071540833, 0.3398008942604065, 0.39212968945503235, 0.3956144452095032, 0.264558345079422, 0.12386561185121536, 0.6567796468734741, 0.8107156157493591, 0.5605930685997009, 0.6155636310577393, 0.25931084156036377, 0.4075146019458771, 0.4493877589702606, 0.29944950342178345, 0.23356133699417114, 0.3908598721027374, 0.23321817815303802, 0.26099666953086853, 0.6139762997627258, 0.2976420223712921, 0.19993948936462402, 0.9029152393341064, 0.29078805446624756, 0.45229002833366394, 0.2897355556488037, 0.2164020836353302, 0.09167834371328354, 0.09002957493066788, 0.10144644975662231, 0.17162638902664185, 0.0592624805867672, 0.0560467392206192, 0.05784056335687637, 0.0629035234451294, 0.11553346365690231, 0.0666881799697876, 0.10151137411594391, 0.08616257458925247, 0.09024735540151596, 0.10588421672582626, 0.07195624709129333, 0.38963332772254944, 0.06089504063129425, 0.09268395602703094, 0.22271491587162018, 0.047882694751024246, 0.04239875450730324, 0.5113111734390259, 0.35174256563186646, 0.15073499083518982, 0.09672774374485016, 0.12620797753334045, 0.016278987750411034, 0.025047950446605682, 0.1581565886735916, 0.09127215296030045, 0.07098338752985, 0.1368674635887146, 0.123753622174263, 0.12385623157024384]</t>
+          <t>[0.3501586616039276, 0.46756064891815186, 0.277061402797699, 0.45057234168052673, 0.5487023591995239, 0.5218976736068726, 0.29177597165107727, 0.2544249892234802, 0.7220430970191956, 0.6486070156097412, 0.4992109537124634, 0.3411405682563782, 0.39720621705055237, 0.33212578296661377, 0.4033493399620056, 0.6278586983680725, 0.5656291842460632, 0.7025703191757202, 0.4455462098121643, 0.32997938990592957, 0.15312866866588593, 0.23507289588451385, 0.5065825581550598, 0.9055185317993164, 0.7298130989074707, 0.7702868580818176, 0.5822266340255737, 0.8586813807487488, 0.6852530837059021, 0.9166833758354187, 0.7692325115203857, 0.5910400748252869, 0.41538265347480774, 0.6861823201179504, 0.11914977431297302, 0.3351929485797882, 0.7721141576766968, 0.7231575846672058, 0.866340160369873, 0.8623945713043213, 0.47314995527267456, 0.3239973187446594, 0.3254823386669159, 0.4621410369873047, 0.6030410528182983, 0.46472620964050293, 0.8227370977401733, 0.6447013020515442, 0.7819766998291016, 0.08310973644256592, 0.7952044010162354, 0.3741811513900757, 0.4222658574581146, 0.1702403873205185, 0.3046075999736786, 0.5456503033638, 0.8453874588012695, 0.569182813167572, 0.8317784667015076, 0.7209466695785522, 0.44606730341911316, 0.45878562331199646, 0.7918282747268677, 0.8164278864860535, 0.7542387843132019, 0.831106424331665, 0.921522855758667, 0.9360812902450562, 0.924358606338501, 0.5903359055519104, 0.271090567111969, 0.34964996576309204, 0.6968569755554199, 0.525908887386322, 0.7245966792106628, 0.4955858290195465, 0.22668614983558655, 0.859431266784668, 0.8786395192146301, 0.7137095928192139, 0.7653230428695679, 0.4674895107746124, 0.6879837512969971, 0.5825985670089722, 0.6205028891563416, 0.233792245388031, 0.46441492438316345, 0.36675116419792175, 0.41131868958473206, 0.745825469493866, 0.49157580733299255, 0.41373294591903687, 0.9303752779960632, 0.4205208420753479, 0.7712662816047668, 0.622461199760437, 0.45657792687416077, 0.19004082679748535, 0.12272463738918304, 0.1044771671295166, 0.22863303124904633, 0.033820655196905136, 0.02857901342213154, 0.03302443027496338, 0.03702922910451889, 0.20604893565177917, 0.06472735852003098, 0.13133123517036438, 0.12517932057380676, 0.2472233772277832, 0.20125935971736908, 0.06610271334648132, 0.4084594249725342, 0.06374239176511765, 0.08474288880825043, 0.17969733476638794, 0.052416808903217316, 0.01943773590028286, 0.6449623703956604, 0.37386977672576904, 0.12475939840078354, 0.0568934828042984, 0.0477667935192585, 0.008561313152313232, 0.01829082891345024, 0.15760822594165802, 0.10359881073236465, 0.045053593814373016, 0.06997249275445938, 0.04612986370921135, 0.046234000474214554]</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.9029152393341064</v>
+        <v>0.9360812902450562</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -3983,10 +3983,10 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0.7293689000071026</v>
+        <v>0.7414136000006692</v>
       </c>
       <c r="J86" t="n">
-        <v>0.005567701526771776</v>
+        <v>0.005659645801531827</v>
       </c>
     </row>
     <row r="87">
@@ -4005,11 +4005,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>[0.17728464305400848, 0.11550403386354446, 0.26878827810287476, 0.15273359417915344, 0.10824262350797653, 0.12191060930490494, 0.19977912306785583, 0.14696471393108368, 0.14112648367881775, 0.07029618322849274, 0.04650405794382095, 0.0493643656373024, 0.1454693078994751, 0.0870199128985405, 0.05360255762934685, 0.07140515744686127, 0.10894645750522614, 0.07781897485256195, 0.19888748228549957, 0.14010849595069885, 0.059764087200164795, 0.09826605021953583, 0.08985523134469986, 0.10097312927246094, 0.16559696197509766, 0.18237081170082092, 0.15300650894641876, 0.11390337347984314, 0.48592981696128845, 0.13411693274974823, 0.12847590446472168, 0.6437979340553284, 0.1828427016735077, 0.8377024531364441, 0.5199299454689026, 0.304408460855484, 0.3483733534812927, 0.09795360267162323, 0.06761331856250763, 0.47049403190612793, 0.3477511703968048, 0.18698562681674957, 0.09052970260381699, 0.15271632373332977, 0.19281844794750214, 0.07770351320505142, 0.10455399751663208, 0.11192256957292557, 0.0787457749247551, 0.12764987349510193, 0.4319411814212799, 0.20983988046646118, 0.31809377670288086, 0.3313552439212799, 0.12347311526536942, 0.26270902156829834, 0.10380079597234726, 0.24652887880802155, 0.04276949167251587, 0.07194437086582184, 0.07365148514509201, 0.11744418740272522, 0.06923555582761765, 0.12412650138139725, 0.40059739351272583, 0.35154396295547485, 0.5334066152572632, 0.1883147656917572, 0.10003922134637833, 0.19616565108299255, 0.1870826631784439, 0.43280044198036194, 0.08618273586034775, 0.3213980495929718, 0.21112819015979767, 0.3162139058113098, 0.5575668215751648, 0.8032239079475403, 0.3420591354370117, 0.22071798145771027, 0.22840097546577454, 0.20455943048000336, 0.2209097146987915, 0.27288198471069336, 0.15376481413841248, 0.11286642402410507, 0.12697747349739075, 0.07772249728441238, 0.11627639085054398, 0.15161769092082977, 0.13112741708755493, 0.22191700339317322, 0.17811614274978638, 0.11172524839639664, 0.10891308635473251, 0.10830476135015488, 0.0704817920923233, 0.1410117745399475, 0.0645764023065567, 0.08085206151008606, 0.14466486871242523, 0.15168984234333038, 0.10173188894987106, 0.0769106075167656, 0.05020144581794739, 0.08043672144412994, 0.11599491536617279, 0.059833135455846786, 0.08564476668834686, 0.07918637245893478, 0.3670784533023834, 0.06629427522420883, 0.1709323674440384, 0.062434203922748566, 0.06810108572244644, 0.22266903519630432, 0.1773102730512619, 0.17298279702663422, 0.1729997843503952, 0.17391739785671234, 0.17441526055335999, 0.17471159994602203, 0.17511841654777527, 0.17465439438819885, 0.17483921349048615, 0.17356184124946594, 0.17250488698482513, 0.17321093380451202, 0.17379140853881836, 0.17349493503570557, 0.17282898724079132]</t>
+          <t>[0.13419821858406067, 0.10664033889770508, 0.18023580312728882, 0.17297039926052094, 0.11897406727075577, 0.14329920709133148, 0.22090314328670502, 0.15272939205169678, 0.14376457035541534, 0.11531466990709305, 0.05707862228155136, 0.04107135534286499, 0.2625928223133087, 0.2767418324947357, 0.048591308295726776, 0.05712344869971275, 0.14532305300235748, 0.09195728600025177, 0.34470808506011963, 0.21717147529125214, 0.06076112762093544, 0.1781081259250641, 0.14953817427158356, 0.11565401405096054, 0.23660799860954285, 0.23186643421649933, 0.2369702160358429, 0.1403399556875229, 0.6855379939079285, 0.1855544000864029, 0.15485702455043793, 0.5339080095291138, 0.2587122321128845, 0.8577765822410583, 0.3427763283252716, 0.16395992040634155, 0.22839955985546112, 0.10205429047346115, 0.040288105607032776, 0.4701031446456909, 0.4545961022377014, 0.2803768217563629, 0.1272200644016266, 0.2643110752105713, 0.34163832664489746, 0.1342148333787918, 0.2217831015586853, 0.17773938179016113, 0.1441597193479538, 0.1877506524324417, 0.5704112648963928, 0.220170259475708, 0.3514804244041443, 0.46340441703796387, 0.13996119797229767, 0.49068111181259155, 0.11100897938013077, 0.3781984746456146, 0.038149669766426086, 0.09474223852157593, 0.13980470597743988, 0.17542092502117157, 0.08659043908119202, 0.22019575536251068, 0.4473056197166443, 0.21491554379463196, 0.46094194054603577, 0.14193813502788544, 0.07083149254322052, 0.14244025945663452, 0.11154869198799133, 0.32980644702911377, 0.07064530998468399, 0.23458409309387207, 0.18240374326705933, 0.3174601197242737, 0.6121305823326111, 0.7466697692871094, 0.44750285148620605, 0.4038933217525482, 0.3425842821598053, 0.26960161328315735, 0.1581421196460724, 0.27840036153793335, 0.20240889489650726, 0.18039239943027496, 0.15625759959220886, 0.09292972832918167, 0.18459556996822357, 0.18957197666168213, 0.16814401745796204, 0.22519515454769135, 0.2143312245607376, 0.16281281411647797, 0.203126922249794, 0.23072387278079987, 0.10376974195241928, 0.22516748309135437, 0.06510644406080246, 0.06324214488267899, 0.19457359611988068, 0.21814949810504913, 0.15771205723285675, 0.08214005082845688, 0.07617057114839554, 0.10119099169969559, 0.14897045493125916, 0.09523729979991913, 0.09345849603414536, 0.12447293847799301, 0.40017399191856384, 0.09527319669723511, 0.4363945424556732, 0.057225633412599564, 0.05609967187047005, 0.12542890012264252, 0.08888830989599228, 0.0852431058883667, 0.08502820134162903, 0.08543721586465836, 0.08596834540367126, 0.08619407564401627, 0.08637048304080963, 0.08620147407054901, 0.08623071014881134, 0.08507070690393448, 0.08444298803806305, 0.0852278620004654, 0.08579442650079727, 0.08547082543373108, 0.08477605879306793]</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.8377024531364441</v>
+        <v>0.8577765822410583</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -4023,10 +4023,10 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0.7326911000127438</v>
+        <v>0.7403896000032546</v>
       </c>
       <c r="J87" t="n">
-        <v>0.00559306183215835</v>
+        <v>0.005651829007658432</v>
       </c>
     </row>
     <row r="88">
@@ -4045,11 +4045,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[0.7204912900924683, 0.864879846572876, 0.956915020942688, 0.9598440527915955, 0.9624191522598267, 0.9550032019615173, 0.9615029096603394, 0.8596312999725342, 0.628279983997345, 0.45488375425338745, 0.8066862225532532, 0.926980197429657, 0.9616838693618774, 0.9329421520233154, 0.838287889957428, 0.9154858589172363, 0.9578132629394531, 0.8267884254455566, 0.8793922662734985, 0.9524284601211548, 0.6668670177459717, 0.828327476978302, 0.9189778566360474, 0.6558753252029419, 0.4868414103984833, 0.28791743516921997, 0.23449000716209412, 0.5304222106933594, 0.3897190988063812, 0.5513017177581787, 0.6223273873329163, 0.7694108486175537, 0.9571710824966431, 0.9588045477867126, 0.7683077454566956, 0.9596129059791565, 0.9791386723518372, 0.9538028240203857, 0.9550688862800598, 0.9911803603172302, 0.9777815341949463, 0.9826543927192688, 0.9791929721832275, 0.9605588912963867, 0.9742178320884705, 0.9803697466850281, 0.9777469038963318, 0.9875620603561401, 0.9755653142929077, 0.9866828918457031, 0.9744861721992493, 0.974307119846344, 0.9396844506263733, 0.9740301966667175, 0.9660025835037231, 0.9394121170043945, 0.964187741279602, 0.9656925201416016, 0.9484374523162842, 0.8717747330665588, 0.9052203297615051, 0.8747919797897339, 0.6939144730567932, 0.5981462597846985, 0.48679178953170776, 0.315029501914978, 0.6816351413726807, 0.5711745619773865, 0.8016482591629028, 0.9175329208374023, 0.9409210085868835, 0.6929987072944641, 0.5933124423027039, 0.5469832420349121, 0.6094031929969788, 0.7410492897033691, 0.8780686855316162, 0.9174264669418335, 0.945671021938324, 0.8730738759040833, 0.3962309956550598, 0.9116803407669067, 0.8788861632347107, 0.8629503846168518, 0.9342133402824402, 0.866028368473053, 0.8174610733985901, 0.9396354556083679, 0.9547068476676941, 0.8940666317939758, 0.9541086554527283, 0.8672072291374207, 0.8284928798675537, 0.6187878847122192, 0.7771767377853394, 0.8216916918754578, 0.8006657361984253, 0.7440887689590454, 0.9707775115966797, 0.9840304851531982, 0.9771422743797302, 0.9775688052177429, 0.9624900221824646, 0.9785355925559998, 0.9698930382728577, 0.9673242568969727, 0.9816141128540039, 0.9333329200744629, 0.9405487775802612, 0.9337403178215027, 0.913642942905426, 0.7636650204658508, 0.7181851267814636, 0.8916785717010498, 0.8248670697212219, 0.842512309551239, 0.7512949109077454, 0.6464977264404297, 0.7476964592933655, 0.6537083387374878, 0.7904507517814636, 0.6045725345611572, 0.4825253486633301, 0.2810118794441223, 0.37740516662597656, 0.5243883728981018, 0.4665803015232086, 0.4288519024848938, 0.18266510963439941, 0.10986191779375076, 0.1270635575056076, 0.09450713545084, 0.11573591828346252, 0.0855911523103714, 0.10285529494285583, 0.06347505003213882, 0.06754008680582047, 0.06475911289453506, 0.07756022363901138, 0.15027396380901337, 0.16279718279838562, 0.16782236099243164, 0.175273135304451, 0.20170584321022034, 0.21109293401241302, 0.21105988323688507, 0.20964904129505157, 0.1893434375524521, 0.19069749116897583, 0.2502821683883667, 0.2331668734550476, 0.17967602610588074, 0.157118022441864, 0.14514373242855072, 0.21745796501636505, 0.5113875865936279, 0.22060930728912354, 0.22118423879146576]</t>
+          <t>[0.774694561958313, 0.9025846123695374, 0.9695594310760498, 0.9773787260055542, 0.9747843146324158, 0.9750047922134399, 0.9704959392547607, 0.8902180194854736, 0.7257240414619446, 0.5216543078422546, 0.808451771736145, 0.9458085894584656, 0.9729315638542175, 0.9317842125892639, 0.7767554521560669, 0.9274647831916809, 0.9590859413146973, 0.8891982436180115, 0.9291388988494873, 0.9739251136779785, 0.7154372334480286, 0.8606630563735962, 0.9457006454467773, 0.6971656680107117, 0.6596335172653198, 0.371549129486084, 0.45150819420814514, 0.6905477643013, 0.44638627767562866, 0.7287852168083191, 0.7444319128990173, 0.8476609587669373, 0.9731340408325195, 0.9635803699493408, 0.8688623309135437, 0.9817360043525696, 0.987312376499176, 0.9712443351745605, 0.9738460779190063, 0.9946696162223816, 0.9885276556015015, 0.987811267375946, 0.9884867668151855, 0.9770511984825134, 0.9820533990859985, 0.9839672446250916, 0.9888235926628113, 0.9928508996963501, 0.9837468266487122, 0.9924452900886536, 0.9825599789619446, 0.9802711009979248, 0.9422797560691833, 0.9824432134628296, 0.9773119688034058, 0.949603796005249, 0.9619126319885254, 0.9731864333152771, 0.9595618844032288, 0.8957870006561279, 0.9318390488624573, 0.9114754796028137, 0.8246479630470276, 0.7742058634757996, 0.5748783946037292, 0.3751412630081177, 0.8288870453834534, 0.6736608743667603, 0.8551760315895081, 0.9346286654472351, 0.9583878517150879, 0.788037121295929, 0.7489827871322632, 0.600083589553833, 0.6950473189353943, 0.7961470484733582, 0.9057333469390869, 0.9360149502754211, 0.9509854912757874, 0.871876060962677, 0.3950861692428589, 0.9473677277565002, 0.9046624302864075, 0.9139760136604309, 0.9654473662376404, 0.9316056966781616, 0.8680711388587952, 0.9521559476852417, 0.9555512070655823, 0.9368693232536316, 0.9708449244499207, 0.9048171639442444, 0.8791153430938721, 0.6506254076957703, 0.7697517275810242, 0.8222863078117371, 0.8671786785125732, 0.8438113331794739, 0.9820569753646851, 0.990921676158905, 0.9897670149803162, 0.9815985560417175, 0.9665040969848633, 0.9857931733131409, 0.9786665439605713, 0.9780290722846985, 0.9872758984565735, 0.9637819528579712, 0.956203818321228, 0.9601261615753174, 0.9314849376678467, 0.8631818890571594, 0.7101167440414429, 0.8916559219360352, 0.8805575966835022, 0.9007624387741089, 0.8444907069206238, 0.7284290790557861, 0.8572080731391907, 0.8393585681915283, 0.9230997562408447, 0.7039937973022461, 0.5098990201950073, 0.3738754689693451, 0.6084601879119873, 0.8236405253410339, 0.7059322595596313, 0.7018942832946777, 0.47850969433784485, 0.11017820984125137, 0.2530267536640167, 0.07258307933807373, 0.05919159576296806, 0.04092486947774887, 0.09060414135456085, 0.02416388876736164, 0.02550637535750866, 0.018839333206415176, 0.02591058984398842, 0.07777541875839233, 0.10244032740592957, 0.0953361764550209, 0.09843701124191284, 0.1056339219212532, 0.1294255405664444, 0.12444761395454407, 0.12386838346719742, 0.11439807713031769, 0.10200084000825882, 0.14061567187309265, 0.156930610537529, 0.12168601155281067, 0.09548346698284149, 0.1695374846458435, 0.3535803556442261, 0.7752000093460083, 0.4401397109031677, 0.44157060980796814]</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.9911803603172302</v>
+        <v>0.9946696162223816</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0.892877199978102</v>
+        <v>0.9230879999959143</v>
       </c>
       <c r="J88" t="n">
-        <v>0.005651121518848747</v>
+        <v>0.005842329113898191</v>
       </c>
     </row>
     <row r="89">
@@ -4085,11 +4085,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>[0.2865079641342163, 0.21298934519290924, 0.3410753607749939, 0.5529133081436157, 0.42890626192092896, 0.6213188767433167, 0.5201746821403503, 0.8633649945259094, 0.5371211767196655, 0.8374072313308716, 0.878587007522583, 0.522325873374939, 0.4584316611289978, 0.4852219223976135, 0.5144291520118713, 0.32517457008361816, 0.47372546792030334, 0.8028141856193542, 0.5064698457717896, 0.7061362862586975, 0.5117256045341492, 0.43482139706611633, 0.34550613164901733, 0.438902348279953, 0.6595668196678162, 0.5962790846824646, 0.7992374897003174, 0.8824430704116821, 0.8759117126464844, 0.782410204410553, 0.566107451915741, 0.64132159948349, 0.9201095104217529, 0.8594208359718323, 0.4037103056907654, 0.3460530936717987, 0.46016156673431396, 0.6744604110717773, 0.6126553416252136, 0.7064498066902161, 0.355106383562088, 0.5203955173492432, 0.48009851574897766, 0.8849002122879028, 0.6665239930152893, 0.8105257153511047, 0.4353863000869751, 0.4669283926486969, 0.2785070240497589, 0.27584701776504517, 0.6751106381416321, 0.3157481551170349, 0.46635857224464417, 0.6298990249633789, 0.7009357213973999, 0.7273684740066528, 0.9137995839118958, 0.5255364775657654, 0.8741838335990906, 0.40188586711883545, 0.6812679767608643, 0.4444362223148346, 0.5367247462272644, 0.5334698557853699, 0.8595991730690002, 0.9416463971138, 0.7124304175376892, 0.7648045420646667, 0.2552436590194702, 0.1411883682012558, 0.17158783972263336, 0.17569340765476227, 0.16108445823192596, 0.1598787009716034, 0.2058974951505661, 0.11227864772081375, 0.11002588272094727, 0.132371723651886, 0.13835184276103973, 0.17042119801044464, 0.43089577555656433, 0.2263413965702057, 0.2234201729297638, 0.2328374981880188, 0.1564764678478241, 0.24961303174495697, 0.12251102179288864, 0.16298113763332367, 0.2096935659646988, 0.6786851286888123, 0.8138020634651184, 0.8483338952064514, 0.745846688747406, 0.7866489887237549, 0.49590954184532166, 0.2110452502965927, 0.10850011557340622, 0.10879487544298172, 0.1736115962266922, 0.16890883445739746, 0.17083223164081573, 0.17360390722751617, 0.18175436556339264, 0.14243248105049133, 0.07944832742214203, 0.07410687953233719, 0.1425650715827942, 0.16832973062992096, 0.05542176961898804, 0.061303943395614624, 0.05713328346610069, 0.9953485131263733, 0.9924157857894897, 0.2738949656486511, 0.21792413294315338, 0.19924069941043854, 0.19996437430381775, 0.1941920518875122, 0.1821921318769455, 0.20361144840717316, 0.21799063682556152, 0.21366101503372192, 0.22051124274730682, 0.22073639929294586, 0.23971229791641235, 0.26141050457954407, 0.28331226110458374, 0.26913824677467346, 0.2582516074180603, 0.23912252485752106, 0.2515754699707031, 0.24092616140842438, 0.27149277925491333, 0.23953089118003845, 0.2517557144165039, 0.2387634962797165, 0.24449849128723145, 0.2255152463912964, 0.22093737125396729, 0.21769121289253235, 0.21420322358608246, 0.19703121483325958, 0.19467182457447052, 0.20535750687122345, 0.1983058750629425, 0.1991935521364212, 0.19755060970783234, 0.201690673828125, 0.18972741067409515, 0.1883956640958786, 0.19568458199501038, 0.42728832364082336, 0.45168063044548035, 0.15836435556411743, 0.14200134575366974, 0.05840937793254852, 0.03161349892616272, 0.031624384224414825]</t>
+          <t>[0.13630074262619019, 0.07052301615476608, 0.18288613855838776, 0.43691980838775635, 0.3303109109401703, 0.5446618795394897, 0.38671231269836426, 0.7783427834510803, 0.30939194560050964, 0.8142569065093994, 0.7931279540061951, 0.37223371863365173, 0.3484145700931549, 0.48833245038986206, 0.4693208634853363, 0.18215090036392212, 0.2303791642189026, 0.7130252122879028, 0.29194867610931396, 0.560920774936676, 0.2817200720310211, 0.3264385759830475, 0.20802873373031616, 0.4218646287918091, 0.624850332736969, 0.5698855519294739, 0.7238027453422546, 0.8225434422492981, 0.8048503398895264, 0.6074127554893494, 0.3562268614768982, 0.44098907709121704, 0.8435031771659851, 0.7858394980430603, 0.2706989049911499, 0.23492899537086487, 0.2411373108625412, 0.4203280806541443, 0.31222882866859436, 0.3407600224018097, 0.12677043676376343, 0.44999760389328003, 0.1598106473684311, 0.7287436723709106, 0.48452362418174744, 0.6541345119476318, 0.17351356148719788, 0.11476178467273712, 0.05946921557188034, 0.05913194268941879, 0.3781326711177826, 0.08350099623203278, 0.16268357634544373, 0.30501461029052734, 0.48928529024124146, 0.5060897469520569, 0.8377671241760254, 0.5224209427833557, 0.8629027605056763, 0.2289135903120041, 0.6528245806694031, 0.3691466450691223, 0.41014963388442993, 0.3134618103504181, 0.7447459101676941, 0.9266252517700195, 0.7463142275810242, 0.9147499203681946, 0.20007282495498657, 0.09040500223636627, 0.11082199215888977, 0.1098649725317955, 0.09841286391019821, 0.0943920686841011, 0.15220987796783447, 0.05722806230187416, 0.043862372636795044, 0.066562220454216, 0.07480619102716446, 0.15516293048858643, 0.5354478359222412, 0.23647432029247284, 0.22591756284236908, 0.1989285796880722, 0.11820917576551437, 0.19425615668296814, 0.03934143856167793, 0.13886061310768127, 0.11101074516773224, 0.8537755608558655, 0.9228066802024841, 0.9470336437225342, 0.785301685333252, 0.777730405330658, 0.501752495765686, 0.22831296920776367, 0.05265888199210167, 0.049123235046863556, 0.11984722316265106, 0.07803046703338623, 0.06677335500717163, 0.07615062594413757, 0.08259369432926178, 0.06613630801439285, 0.056684236973524094, 0.031546980142593384, 0.07137580960988998, 0.07343608140945435, 0.03949693217873573, 0.03794039040803909, 0.04287727549672127, 0.9978845715522766, 0.9940178394317627, 0.36502915620803833, 0.2071036696434021, 0.15991950035095215, 0.15467014908790588, 0.16078448295593262, 0.13308151066303253, 0.15233318507671356, 0.17745889723300934, 0.16483008861541748, 0.1809619814157486, 0.18107682466506958, 0.21572943031787872, 0.2739214301109314, 0.30402106046676636, 0.2891819179058075, 0.28706812858581543, 0.24895651638507843, 0.24111482501029968, 0.24220110476016998, 0.25017786026000977, 0.22283636033535004, 0.20947019755840302, 0.23178164660930634, 0.21497094631195068, 0.20343655347824097, 0.1888551414012909, 0.20124118030071259, 0.19169706106185913, 0.16523757576942444, 0.15640929341316223, 0.16970838606357574, 0.16071867942810059, 0.16158844530582428, 0.14570441842079163, 0.16129542887210846, 0.1454307734966278, 0.1309845745563507, 0.1363202929496765, 0.5914803743362427, 0.5089349150657654, 0.13152125477790833, 0.09348191320896149, 0.025364981964230537, 0.014157610945403576, 0.01411836501210928]</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.9953485131263733</v>
+        <v>0.9978845715522766</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -4103,10 +4103,10 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0.8760792000102811</v>
+        <v>0.8673153999989154</v>
       </c>
       <c r="J89" t="n">
-        <v>0.005544805063356209</v>
+        <v>0.00548933797467668</v>
       </c>
     </row>
     <row r="90">
@@ -4125,11 +4125,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[0.8676893711090088, 0.7963562607765198, 0.7750780582427979, 0.8629509210586548, 0.9020400643348694, 0.6656174063682556, 0.6946895122528076, 0.6350203156471252, 0.9030217528343201, 0.7097354531288147, 0.6167728304862976, 0.6848925948143005, 0.5568845272064209, 0.5932289958000183, 0.8327856063842773, 0.8620830774307251, 0.8030657768249512, 0.7189983129501343, 0.8339848518371582, 0.8868056535720825, 0.826595664024353, 0.8326008915901184, 0.8127294182777405, 0.7535630464553833, 0.8389554619789124, 0.7137444019317627, 0.7725504636764526, 0.7445968389511108, 0.7748094797134399, 0.6305208206176758, 0.6213085055351257, 0.4766065180301666, 0.500199556350708, 0.6836668848991394, 0.6319391131401062, 0.545757532119751, 0.45004206895828247, 0.3997659683227539, 0.7035343647003174, 0.5606815814971924, 0.7176634073257446, 0.8075966238975525, 0.7600511908531189, 0.5939471125602722, 0.6938157081604004, 0.7207891345024109, 0.6446155905723572, 0.5762410163879395, 0.5076581239700317, 0.5857426524162292, 0.45072129368782043, 0.678116500377655, 0.8543519377708435, 0.8410705327987671, 0.7574341297149658, 0.8245715498924255, 0.8440485596656799, 0.736173152923584, 0.6608437299728394, 0.7039213180541992, 0.6433184146881104, 0.5974888801574707, 0.6986435651779175, 0.7299531102180481, 0.5774891376495361, 0.5095336437225342, 0.704124391078949, 0.6790961623191833, 0.7160562872886658, 0.6590708494186401, 0.7275794148445129, 0.8294082880020142, 0.7566636204719543, 0.6435186862945557, 0.719439685344696, 0.3668520152568817, 0.4638788402080536, 0.450855553150177, 0.4577704071998596, 0.5080431699752808, 0.6593469977378845, 0.5347676277160645, 0.5613119006156921, 0.4997582733631134, 0.6761911511421204, 0.47497642040252686, 0.4328020215034485, 0.47052690386772156, 0.5248392224311829, 0.5249963402748108, 0.4756946563720703, 0.37612882256507874, 0.42231613397598267, 0.505561113357544, 0.5888538956642151, 0.6980845928192139, 0.35402408242225647, 0.44422951340675354, 0.43073737621307373, 0.7365860939025879, 0.5188916325569153, 0.4558808505535126, 0.664470911026001, 0.7341614365577698, 0.7590832710266113, 0.8631173968315125, 0.783829391002655, 0.9005801677703857, 0.9209626913070679, 0.9335283041000366, 0.8811286091804504, 0.9119206070899963, 0.7162476778030396, 0.79411780834198, 0.874334990978241, 0.8883506655693054, 0.8432360291481018, 0.8323501348495483, 0.6942161321640015, 0.7275092601776123, 0.7722073197364807, 0.8257352709770203, 0.8114075660705566, 0.7975484132766724, 0.6360692977905273, 0.37763601541519165, 0.46388715505599976, 0.5825820565223694, 0.4255952835083008, 0.4373466670513153, 0.6245635151863098, 0.4850752353668213, 0.52745121717453, 0.5507922768592834, 0.7349710464477539, 0.8796504735946655, 0.6999201774597168, 0.8610377907752991, 0.6764006614685059, 0.7579364776611328, 0.690274715423584, 0.7508212924003601, 0.7484154105186462, 0.8820872902870178, 0.8239144682884216, 0.740986168384552, 0.6477402448654175, 0.7865177989006042, 0.8479273319244385, 0.6907152533531189, 0.7634432911872864, 0.5575347542762756, 0.5453222393989563, 0.5445186495780945, 0.7478341460227966, 0.5882174968719482, 0.6443109512329102, 0.6456261873245239]</t>
+          <t>[0.8330032825469971, 0.790346622467041, 0.8197611570358276, 0.8610754013061523, 0.9183619022369385, 0.7713404893875122, 0.766575813293457, 0.6566715836524963, 0.9446693658828735, 0.6958392262458801, 0.5751016736030579, 0.6936559677124023, 0.49608373641967773, 0.5120080709457397, 0.8218061327934265, 0.9013677835464478, 0.8501088619232178, 0.629261314868927, 0.8082137107849121, 0.8909251093864441, 0.8402078151702881, 0.7847534418106079, 0.8316757678985596, 0.8006236553192139, 0.8517061471939087, 0.6226286888122559, 0.7729438543319702, 0.7465537786483765, 0.7063835859298706, 0.4851303994655609, 0.49170002341270447, 0.37229737639427185, 0.477800577878952, 0.5803242325782776, 0.5673146843910217, 0.4401508867740631, 0.29241928458213806, 0.26363691687583923, 0.6298949718475342, 0.4400448799133301, 0.6399624943733215, 0.6773195862770081, 0.6256188750267029, 0.41616982221603394, 0.6367620825767517, 0.6788421273231506, 0.6110095977783203, 0.5459734797477722, 0.411283940076828, 0.4339675307273865, 0.3459770083427429, 0.6238430738449097, 0.8099300861358643, 0.8288364410400391, 0.7550222277641296, 0.8015509247779846, 0.7994539737701416, 0.6584475040435791, 0.47627517580986023, 0.5841901898384094, 0.470547080039978, 0.4847668707370758, 0.6069132685661316, 0.7007977366447449, 0.43856000900268555, 0.42117300629615784, 0.6130892038345337, 0.536309540271759, 0.6276665925979614, 0.6063222885131836, 0.6731351017951965, 0.7979937791824341, 0.6493775248527527, 0.5201610326766968, 0.5392395257949829, 0.25029557943344116, 0.31440049409866333, 0.2815532684326172, 0.37995821237564087, 0.36395856738090515, 0.563204824924469, 0.3568100929260254, 0.42332980036735535, 0.3475101888179779, 0.5833926200866699, 0.3757156431674957, 0.3531002998352051, 0.40035563707351685, 0.44327211380004883, 0.4388531446456909, 0.4067409932613373, 0.1962818205356598, 0.26216447353363037, 0.3847147822380066, 0.4482535421848297, 0.5725115537643433, 0.2360910177230835, 0.3478509187698364, 0.3355534076690674, 0.5796334147453308, 0.3350696265697479, 0.2974242866039276, 0.5378891229629517, 0.6090211868286133, 0.6692333221435547, 0.8088563680648804, 0.6959969401359558, 0.8943076133728027, 0.9290726184844971, 0.9503517150878906, 0.8743128776550293, 0.913348376750946, 0.703709602355957, 0.7375286817550659, 0.875618577003479, 0.8990877270698547, 0.7775892615318298, 0.7958271503448486, 0.5611210465431213, 0.575468122959137, 0.7263650298118591, 0.791839599609375, 0.805528998374939, 0.6776152849197388, 0.5587031841278076, 0.3297153413295746, 0.4488440155982971, 0.5342745184898376, 0.3412255346775055, 0.3459595739841461, 0.5811391472816467, 0.41949278116226196, 0.49402809143066406, 0.5567847490310669, 0.7507479786872864, 0.894343376159668, 0.6073643565177917, 0.8372990489006042, 0.6185392737388611, 0.755710780620575, 0.6190759539604187, 0.7296720147132874, 0.758004367351532, 0.818649172782898, 0.7686691880226135, 0.7033726572990417, 0.6425502300262451, 0.7686988711357117, 0.7963246703147888, 0.6823044419288635, 0.6131311655044556, 0.3873763978481293, 0.36440953612327576, 0.44710394740104675, 0.5436714291572571, 0.4070104956626892, 0.43320125341415405, 0.4340701401233673]</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.9335283041000366</v>
+        <v>0.9503517150878906</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -4143,10 +4143,10 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0.9012118999962695</v>
+        <v>0.9079750999953831</v>
       </c>
       <c r="J90" t="n">
-        <v>0.005703872784786516</v>
+        <v>0.005746677848072044</v>
       </c>
     </row>
     <row r="91">
@@ -4165,11 +4165,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[0.914160966873169, 0.9545936584472656, 0.9520155787467957, 0.8761319518089294, 0.8884193301200867, 0.8974202275276184, 0.886553943157196, 0.9457454681396484, 0.9388403296470642, 0.9254170060157776, 0.9188536405563354, 0.9145793914794922, 0.8861507773399353, 0.9464585781097412, 0.9413930177688599, 0.9714040160179138, 0.9665172100067139, 0.9624683856964111, 0.95955890417099, 0.961708128452301, 0.9712526202201843, 0.9168580770492554, 0.8571760058403015, 0.8777297735214233, 0.9183110594749451, 0.8849107623100281, 0.8908968567848206, 0.8949868679046631, 0.8850101828575134, 0.6204686164855957, 0.7647609710693359, 0.8686187863349915, 0.8556665778160095, 0.987846314907074, 0.9911808967590332, 0.996641993522644, 0.9921647310256958, 0.8771790266036987, 0.6889401078224182, 0.7974016070365906, 0.8662446737289429, 0.8488243818283081, 0.6603751182556152, 0.7194370031356812, 0.8270591497421265, 0.9169734716415405, 0.9144311547279358, 0.9417855143547058, 0.9628576040267944, 0.9136472344398499, 0.9492658376693726, 0.8592299818992615, 0.8928900957107544, 0.9794754981994629, 0.9833768606185913, 0.9818404316902161, 0.9861828088760376, 0.9835492372512817, 0.9915997982025146, 0.9921610951423645, 0.9883825182914734, 0.9815549254417419, 0.9534642696380615, 0.9746175408363342, 0.9518916606903076, 0.9532302021980286, 0.9459014534950256, 0.9653186202049255, 0.9591025114059448, 0.9286284446716309, 0.9377416968345642, 0.9646095037460327, 0.9537747502326965, 0.9756313562393188, 0.9493828415870667, 0.9581979513168335, 0.9036365151405334, 0.923884391784668, 0.9801884889602661, 0.9836844205856323, 0.9803988337516785, 0.9740384221076965, 0.9763466119766235, 0.9632081985473633, 0.9397299289703369, 0.9423637390136719, 0.9754315614700317, 0.9404268860816956, 0.935975968837738, 0.942915141582489, 0.8845553398132324, 0.9337867498397827, 0.8714771270751953, 0.9528179168701172, 0.9690821766853333, 0.9823044538497925, 0.9773617386817932, 0.9862371683120728, 0.9801121950149536, 0.9664551019668579, 0.9687303304672241, 0.934428334236145, 0.9776982665061951, 0.9701846241950989, 0.9608100652694702, 0.9882842302322388, 0.9836269617080688, 0.9665384888648987, 0.9113883376121521, 0.929927408695221, 0.9583200812339783, 0.8821771740913391, 0.8564503788948059, 0.7473017573356628, 0.754783034324646, 0.7926533222198486, 0.8409461975097656, 0.925407886505127, 0.8973042964935303, 0.961119532585144, 0.975641667842865, 0.9684999585151672, 0.973443329334259, 0.9728182554244995, 0.9634163975715637, 0.9664243459701538, 0.9755837917327881, 0.9657283425331116, 0.8909590840339661, 0.937707781791687, 0.9264456033706665, 0.9228032231330872, 0.9291865825653076, 0.9227378368377686, 0.9669026732444763, 0.9534476399421692, 0.9773545861244202, 0.9706821441650391, 0.9813036918640137, 0.9484697580337524, 0.8719841837882996, 0.6251298785209656, 0.2179010510444641, 0.18524496257305145, 0.1615840345621109, 0.1694001406431198, 0.17056666314601898, 0.18680021166801453, 0.17821335792541504, 0.1742226928472519, 0.17744016647338867, 0.05737154185771942, 0.11824864894151688, 0.11671343445777893, 0.20085154473781586, 0.2743648886680603, 0.4838225245475769, 0.48268094658851624]</t>
+          <t>[0.8401016592979431, 0.8930575251579285, 0.9013394117355347, 0.6667777299880981, 0.656501054763794, 0.7432371973991394, 0.7899066805839539, 0.8671179413795471, 0.8478851914405823, 0.8680163621902466, 0.8470456600189209, 0.8272192478179932, 0.7322348356246948, 0.9011216163635254, 0.8972752094268799, 0.9709285497665405, 0.9434724450111389, 0.9372330904006958, 0.9312031865119934, 0.9377094507217407, 0.956876277923584, 0.8664638996124268, 0.7945849895477295, 0.8008872270584106, 0.876623272895813, 0.8317040801048279, 0.8291792869567871, 0.7964279651641846, 0.7824141383171082, 0.3733973801136017, 0.5016098022460938, 0.6291583776473999, 0.6161405444145203, 0.9802922606468201, 0.987356424331665, 0.9966875910758972, 0.9914088845252991, 0.852672815322876, 0.5193280577659607, 0.7292510271072388, 0.7309483885765076, 0.7394981384277344, 0.5279924273490906, 0.5599696040153503, 0.706376850605011, 0.864155650138855, 0.9063363671302795, 0.8814944624900818, 0.9229989051818848, 0.8727921843528748, 0.8675032258033752, 0.7998680472373962, 0.8370651006698608, 0.9692779183387756, 0.972375750541687, 0.960253119468689, 0.9757000803947449, 0.9683536887168884, 0.9873292446136475, 0.9877410531044006, 0.9806263446807861, 0.973355233669281, 0.934772253036499, 0.9625939726829529, 0.9450521469116211, 0.9266072511672974, 0.9411932826042175, 0.9487979412078857, 0.9406750202178955, 0.8824182152748108, 0.9172598123550415, 0.9506615400314331, 0.9431182742118835, 0.9694860577583313, 0.9450503587722778, 0.9301671981811523, 0.8524844646453857, 0.8433189988136292, 0.9665047526359558, 0.9754671454429626, 0.965675950050354, 0.9346834421157837, 0.9513657093048096, 0.936576783657074, 0.9134308099746704, 0.9342241883277893, 0.9610177874565125, 0.906130850315094, 0.9011762142181396, 0.9205620884895325, 0.8421123027801514, 0.871425449848175, 0.7555529475212097, 0.9289294481277466, 0.9574006795883179, 0.9765715599060059, 0.9689597487449646, 0.9802462458610535, 0.9661240577697754, 0.9470834732055664, 0.9483077526092529, 0.9030698537826538, 0.9674030542373657, 0.9523873925209045, 0.9319073557853699, 0.9850916266441345, 0.9805769324302673, 0.9462777972221375, 0.8232547044754028, 0.8662912845611572, 0.9199693202972412, 0.746580958366394, 0.7760521769523621, 0.6204177737236023, 0.6007840037345886, 0.5979434847831726, 0.6922063827514648, 0.808804988861084, 0.7701138257980347, 0.955808699131012, 0.9637562036514282, 0.9529825448989868, 0.9681486487388611, 0.9529269933700562, 0.9439617991447449, 0.9309849143028259, 0.9633781909942627, 0.9087374210357666, 0.803446888923645, 0.8600728511810303, 0.8373087048530579, 0.8491429090499878, 0.8721168637275696, 0.8997771739959717, 0.9517760872840881, 0.927855372428894, 0.964496374130249, 0.9609591364860535, 0.9726917147636414, 0.957028329372406, 0.9010707139968872, 0.6661393642425537, 0.1588028520345688, 0.34756332635879517, 0.0786600187420845, 0.07835189998149872, 0.08578097820281982, 0.09688495844602585, 0.08432456851005554, 0.08252546936273575, 0.09003441780805588, 0.027053959667682648, 0.12521888315677643, 0.08012495189905167, 0.1783292144536972, 0.2835002541542053, 0.5665931701660156, 0.5646345615386963]</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.996641993522644</v>
+        <v>0.9966875910758972</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0.8934809000056703</v>
+        <v>0.9057304000016302</v>
       </c>
       <c r="J91" t="n">
-        <v>0.005654942405099179</v>
+        <v>0.005732470886086267</v>
       </c>
     </row>
     <row r="92">
@@ -4205,11 +4205,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[0.5638585686683655, 0.46822232007980347, 0.189988911151886, 0.13044416904449463, 0.2103954702615738, 0.2764328420162201, 0.22623518109321594, 0.2119389772415161, 0.1546051949262619, 0.1993803232908249, 0.2210947573184967, 0.1564774513244629, 0.47250691056251526, 0.2530045211315155, 0.22933465242385864, 0.23028813302516937, 0.18769660592079163, 0.188821941614151, 0.13212767243385315, 0.14149737358093262, 0.10147996991872787, 0.1602829098701477, 0.1432807594537735, 0.1737508624792099, 0.1599058359861374, 0.1531844437122345, 0.25192099809646606, 0.29345259070396423, 0.29269224405288696, 0.22817961871623993, 0.175096794962883, 0.21032282710075378, 0.2504362165927887, 0.1877651810646057, 0.1512749344110489, 0.21475185453891754, 0.16194488108158112, 0.14381220936775208, 0.16490165889263153, 0.08235219866037369, 0.10059201717376709, 0.21349477767944336, 0.20976512134075165, 0.23646663129329681, 0.28737738728523254, 0.25176531076431274, 0.13593098521232605, 0.28153008222579956, 0.46828219294548035, 0.281558632850647, 0.3274964690208435, 0.3883947730064392, 0.2575123906135559, 0.38155627250671387, 0.5160952210426331, 0.42416784167289734, 0.19581246376037598, 0.2748742699623108, 0.1670621633529663, 0.24901464581489563, 0.387410968542099, 0.31746378540992737, 0.20572540163993835, 0.20432700216770172, 0.22810426354408264, 0.24127930402755737, 0.2901519536972046, 0.25340044498443604, 0.13939884305000305, 0.13939493894577026, 0.1956166923046112, 0.15638059377670288, 0.12997935712337494, 0.22927291691303253, 0.1717105656862259, 0.14046509563922882, 0.19151818752288818, 0.12742924690246582, 0.10491279512643814, 0.07396092265844345, 0.15601973235607147, 0.2963145971298218, 0.439473420381546, 0.1448630690574646, 0.12294057011604309, 0.08044448494911194, 0.12436195462942123, 0.1232195720076561, 0.1529146283864975, 0.1006917655467987, 0.12675821781158447, 0.12220574170351028, 0.2912227511405945, 0.29176321625709534, 0.2351275086402893, 0.2685847878456116, 0.21243715286254883, 0.1944071650505066, 0.12175936996936798, 0.19186222553253174, 0.1787722259759903, 0.2097962647676468, 0.21258483827114105, 0.25731831789016724, 0.26878198981285095, 0.19495676457881927, 0.2336592674255371, 0.14881277084350586, 0.15793459117412567, 0.14051233232021332, 0.12428759783506393, 0.16770143806934357, 0.2955741286277771, 0.160169318318367, 0.14708440005779266, 0.0867212563753128, 0.12245985120534897, 0.13369643688201904, 0.16441623866558075, 0.2410464584827423, 0.14918480813503265, 0.12934744358062744, 0.153082475066185, 0.1626412570476532, 0.1810433268547058, 0.33413049578666687, 0.26682424545288086, 0.14445261657238007, 0.3318817913532257, 0.5213789939880371, 0.23947706818580627, 0.18450069427490234, 0.23541763424873352, 0.10656590014696121, 0.13897162675857544, 0.2288600653409958, 0.08983787894248962, 0.2709065079689026, 0.19154410064220428, 0.08341426402330399, 0.11415866762399673, 0.15038034319877625, 0.15219607949256897, 0.10589222609996796, 0.1561334878206253, 0.14835315942764282, 0.14262628555297852, 0.12345166504383087, 0.08065181225538254, 0.08239126205444336, 0.05961579084396362, 0.054391294717788696, 0.06413969397544861, 0.06505686044692993, 0.07882413268089294, 0.06563068181276321, 0.07735700160264969, 0.0774005651473999]</t>
+          <t>[0.5508730411529541, 0.5141538977622986, 0.1915573924779892, 0.1569131314754486, 0.17714403569698334, 0.22155407071113586, 0.13095229864120483, 0.11422479897737503, 0.06055466830730438, 0.09292253106832504, 0.09538435190916061, 0.08480976521968842, 0.36494216322898865, 0.24311847984790802, 0.21222807466983795, 0.16399022936820984, 0.14140331745147705, 0.14575514197349548, 0.08320337533950806, 0.10475253313779831, 0.09093062579631805, 0.11957960575819016, 0.1706603616476059, 0.1767314374446869, 0.13881437480449677, 0.12900133430957794, 0.19929753243923187, 0.28669634461402893, 0.29500648379325867, 0.2263236939907074, 0.12335853278636932, 0.18378321826457977, 0.24080248177051544, 0.17421658337116241, 0.1274155080318451, 0.13902674615383148, 0.12430950999259949, 0.1678425669670105, 0.2509939670562744, 0.09016602486371994, 0.09702163934707642, 0.22322264313697815, 0.21511241793632507, 0.24567346274852753, 0.22096365690231323, 0.181423157453537, 0.06985209882259369, 0.2124307006597519, 0.335888534784317, 0.24669145047664642, 0.3179807662963867, 0.38383686542510986, 0.19116954505443573, 0.31018945574760437, 0.563874363899231, 0.501984715461731, 0.25993356108665466, 0.27830126881599426, 0.1392611563205719, 0.2600975036621094, 0.3488256633281708, 0.23178033530712128, 0.15308444201946259, 0.1844882369041443, 0.2277572602033615, 0.2388535737991333, 0.26401448249816895, 0.21695484220981598, 0.09901697188615799, 0.1087225154042244, 0.1551503986120224, 0.12952791154384613, 0.09385544061660767, 0.16285040974617004, 0.13520541787147522, 0.1116618886590004, 0.17337694764137268, 0.12489059567451477, 0.08995991200208664, 0.06570582836866379, 0.15048134326934814, 0.33033400774002075, 0.4115881323814392, 0.13485446572303772, 0.14276878535747528, 0.06188299506902695, 0.08198641240596771, 0.06482046097517014, 0.07736138999462128, 0.05444801598787308, 0.09264644235372543, 0.09467153251171112, 0.36261990666389465, 0.3141104280948639, 0.2779306173324585, 0.2202288806438446, 0.1604893058538437, 0.1650983691215515, 0.08122110366821289, 0.16069135069847107, 0.1206139400601387, 0.18968063592910767, 0.27833759784698486, 0.29468414187431335, 0.20159770548343658, 0.1381666511297226, 0.24342840909957886, 0.12678053975105286, 0.13832567632198334, 0.14838552474975586, 0.12077685445547104, 0.16107498109340668, 0.3025873601436615, 0.15103577077388763, 0.14819608628749847, 0.06734432280063629, 0.08190874010324478, 0.12926535308361053, 0.18547660112380981, 0.23501521348953247, 0.14340639114379883, 0.09901531040668488, 0.12703320384025574, 0.12323639541864395, 0.16499176621437073, 0.37944743037223816, 0.23061488568782806, 0.11259284615516663, 0.3444681763648987, 0.5512098670005798, 0.2537417709827423, 0.18483687937259674, 0.23582321405410767, 0.07379250228404999, 0.06261815130710602, 0.09247778356075287, 0.0405338853597641, 0.1963086873292923, 0.13425709307193756, 0.039046868681907654, 0.05854438990354538, 0.11099295318126678, 0.08513833582401276, 0.057311128824949265, 0.09017451107501984, 0.0926581472158432, 0.10198811441659927, 0.09885042905807495, 0.049408528953790665, 0.04841768741607666, 0.034864336252212524, 0.02440200001001358, 0.03462763875722885, 0.02971463091671467, 0.03399495780467987, 0.03357293829321861, 0.048551373183727264, 0.04846630617976189]</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.5638585686683655</v>
+        <v>0.563874363899231</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -4223,10 +4223,10 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0.8959080999775324</v>
+        <v>0.9208328999957303</v>
       </c>
       <c r="J92" t="n">
-        <v>0.005670304430237547</v>
+        <v>0.0058280563290869</v>
       </c>
     </row>
     <row r="93">
@@ -4245,11 +4245,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[0.19436989724636078, 0.4469001591205597, 0.35988008975982666, 0.38382792472839355, 0.3295629620552063, 0.28067389130592346, 0.3180197477340698, 0.3032768964767456, 0.29283222556114197, 0.4571307599544525, 0.4933325946331024, 0.43229541182518005, 0.33593684434890747, 0.40781790018081665, 0.40397387742996216, 0.3347841501235962, 0.48420289158821106, 0.4896562695503235, 0.4545564651489258, 0.2313970923423767, 0.28617653250694275, 0.2628607451915741, 0.16237294673919678, 0.1543886810541153, 0.199720099568367, 0.11931808292865753, 0.10963853448629379, 0.08309490978717804, 0.11359860748052597, 0.17878687381744385, 0.19466057419776917, 0.13501986861228943, 0.07491045445203781, 0.07994415611028671, 0.15896789729595184, 0.11085477471351624, 0.16926665604114532, 0.12093306332826614, 0.2434610277414322, 0.33909693360328674, 0.22051747143268585, 0.25074177980422974, 0.17542679607868195, 0.11224003881216049, 0.12112061679363251, 0.15244226157665253, 0.208963543176651, 0.15144145488739014, 0.10611404478549957, 0.39939066767692566, 0.277939110994339, 0.18486222624778748, 0.36000677943229675, 0.43332013487815857, 0.14744536578655243, 0.09871882200241089, 0.0889335572719574, 0.07185927778482437, 0.08541479706764221, 0.14038953185081482, 0.18291206657886505, 0.2464722990989685, 0.36418694257736206, 0.38282540440559387, 0.23004303872585297, 0.37683355808258057, 0.3494856655597687, 0.4492532014846802, 0.29156941175460815, 0.14978007972240448, 0.15138955414295197, 0.2300160825252533, 0.2572935223579407, 0.29550179839134216, 0.28249719738960266, 0.1920531988143921, 0.2258664220571518, 0.38275986909866333, 0.3482232093811035, 0.8438254594802856, 0.29490935802459717, 0.5540482401847839, 0.3933286666870117, 0.4131895899772644, 0.24844539165496826, 0.3017018139362335, 0.3522171676158905, 0.2655450105667114, 0.20612335205078125, 0.4237937927246094, 0.25462672114372253, 0.16527248919010162, 0.5216366648674011, 0.3081333339214325, 0.4078485071659088, 0.13049905002117157, 0.27101588249206543, 0.2895262539386749, 0.26404598355293274, 0.4061286449432373, 0.40725910663604736, 0.5777534246444702, 0.31323888897895813, 0.1965617835521698, 0.1647609919309616, 0.10845727473497391, 0.20000377297401428, 0.224809467792511, 0.4689529240131378, 0.24422313272953033, 0.3299475610256195, 0.2361256629228592, 0.17263436317443848, 0.12833642959594727, 0.21120543777942657, 0.26112329959869385, 0.3832970857620239, 0.5156727433204651, 0.49907952547073364, 0.37239038944244385, 0.3377165198326111, 0.18017777800559998, 0.2355172038078308, 0.1358739286661148, 0.25578510761260986, 0.1924446076154709, 0.3415743410587311, 0.4585977792739868, 0.14955100417137146, 0.20994192361831665, 0.30803734064102173, 0.278745174407959, 0.398607075214386, 0.2973410189151764, 0.3536438047885895, 0.18881040811538696, 0.18748873472213745, 0.10830630362033844, 0.1276954561471939, 0.11867904663085938, 0.20742589235305786, 0.12169376760721207, 0.13771913945674896, 0.16812042891979218, 0.17373766005039215, 0.21824795007705688, 0.238942950963974, 0.4679604768753052, 0.5183857679367065, 0.5831257700920105, 0.242269828915596, 0.29758527874946594, 0.2237192541360855, 0.19911521673202515, 0.12978039681911469, 0.19892558455467224, 0.19926023483276367]</t>
+          <t>[0.16267584264278412, 0.37262842059135437, 0.3562081456184387, 0.3345978856086731, 0.2152857929468155, 0.19098244607448578, 0.24377955496311188, 0.23903091251850128, 0.24697478115558624, 0.4275439381599426, 0.5704452991485596, 0.4037644863128662, 0.2793714702129364, 0.325772762298584, 0.3175320625305176, 0.2560841143131256, 0.3905232548713684, 0.5081042647361755, 0.46917372941970825, 0.31299543380737305, 0.3266652226448059, 0.3104003071784973, 0.15998052060604095, 0.18410564959049225, 0.22603854537010193, 0.11372288316488266, 0.11720593273639679, 0.07166656851768494, 0.09232769161462784, 0.17188367247581482, 0.2066499888896942, 0.10189996659755707, 0.04396433010697365, 0.04850822314620018, 0.09549851715564728, 0.086551733314991, 0.14699217677116394, 0.12762168049812317, 0.2377966344356537, 0.36288154125213623, 0.2892271876335144, 0.23927682638168335, 0.1284608691930771, 0.12147585302591324, 0.08899692445993423, 0.12758786976337433, 0.27892005443573, 0.16943393647670746, 0.09418276697397232, 0.29887309670448303, 0.2706648111343384, 0.1911475509405136, 0.3332570493221283, 0.4030005633831024, 0.10414618253707886, 0.07341300696134567, 0.06779982149600983, 0.05834939330816269, 0.0770033597946167, 0.1065552830696106, 0.15202894806861877, 0.20447035133838654, 0.39292046427726746, 0.32031410932540894, 0.15397807955741882, 0.26655054092407227, 0.31463122367858887, 0.4690135419368744, 0.26752373576164246, 0.12515601515769958, 0.1330719292163849, 0.23410317301750183, 0.269864946603775, 0.2902718484401703, 0.3082427978515625, 0.20853789150714874, 0.2927112579345703, 0.4248972535133362, 0.37547871470451355, 0.8245113492012024, 0.2843256890773773, 0.5407761335372925, 0.37571072578430176, 0.40990617871284485, 0.15854378044605255, 0.29200443625450134, 0.3954686224460602, 0.2236383855342865, 0.17766010761260986, 0.400151789188385, 0.3004077970981598, 0.15893545746803284, 0.5586450695991516, 0.26976868510246277, 0.32106640934944153, 0.05735670402646065, 0.1509777158498764, 0.18066392838954926, 0.16119728982448578, 0.2712659239768982, 0.2002628743648529, 0.3479807376861572, 0.15650273859500885, 0.10310070961713791, 0.07994413375854492, 0.041782770305871964, 0.10041974484920502, 0.12012180685997009, 0.26311278343200684, 0.09294164180755615, 0.10762757062911987, 0.08416116237640381, 0.08145808428525925, 0.05957530811429024, 0.11241740733385086, 0.19266024231910706, 0.2561524510383606, 0.3605758249759674, 0.26035651564598083, 0.2531525790691376, 0.163062185049057, 0.09676539897918701, 0.1248728558421135, 0.05911112204194069, 0.10715517401695251, 0.08209554851055145, 0.16736985743045807, 0.3530366122722626, 0.0954020619392395, 0.18195152282714844, 0.21544964611530304, 0.18132416903972626, 0.3954981565475464, 0.3112499415874481, 0.5191618204116821, 0.2502663731575012, 0.2028965950012207, 0.088512122631073, 0.0809650868177414, 0.05757177248597145, 0.11659367382526398, 0.05454697459936142, 0.0806247815489769, 0.12364670634269714, 0.12520530819892883, 0.1367909014225006, 0.1661185920238495, 0.3770682215690613, 0.34236249327659607, 0.3812490403652191, 0.13396476209163666, 0.2326694279909134, 0.09901849180459976, 0.09554851055145264, 0.07084867358207703, 0.11685363948345184, 0.11693347990512848]</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.8438254594802856</v>
+        <v>0.8245113492012024</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0.8916688000026625</v>
+        <v>0.9066210000019055</v>
       </c>
       <c r="J93" t="n">
-        <v>0.005679419108297213</v>
+        <v>0.005774656050967551</v>
       </c>
     </row>
     <row r="94">
@@ -4285,11 +4285,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[0.5602449774742126, 0.3323749005794525, 0.28687548637390137, 0.25406983494758606, 0.2601556181907654, 0.2482307255268097, 0.16985756158828735, 0.19301655888557434, 0.305703341960907, 0.29759272933006287, 0.5429751873016357, 0.5487836003303528, 0.7110468149185181, 0.7810830473899841, 0.7163692116737366, 0.804654598236084, 0.7017216682434082, 0.5537619590759277, 0.4721953868865967, 0.25849831104278564, 0.1470448523759842, 0.15841706097126007, 0.1548142284154892, 0.1271272450685501, 0.2364141345024109, 0.22707438468933105, 0.1949865221977234, 0.33049720525741577, 0.29167640209198, 0.2225247621536255, 0.17695413529872894, 0.3166351318359375, 0.16142308712005615, 0.11701381951570511, 0.15229983627796173, 0.3427829146385193, 0.3470572829246521, 0.6163167357444763, 0.7068198323249817, 0.4859550893306732, 0.36556193232536316, 0.465842604637146, 0.5065653324127197, 0.6709750294685364, 0.3729637861251831, 0.39467892050743103, 0.45582565665245056, 0.43671441078186035, 0.39709338545799255, 0.38840922713279724, 0.4115999639034271, 0.43314918875694275, 0.5653584003448486, 0.5944098830223083, 0.4388260245323181, 0.5441898107528687, 0.5531536936759949, 0.5769897699356079, 0.6441337466239929, 0.7651638388633728, 0.8158597350120544, 0.8309373259544373, 0.5326750874519348, 0.672524631023407, 0.7364802956581116, 0.6118571758270264, 0.63520747423172, 0.7717223167419434, 0.7131815552711487, 0.5649113655090332, 0.6120743155479431, 0.5104770064353943, 0.3521827459335327, 0.3522356152534485, 0.4263503849506378, 0.28556716442108154, 0.2980336844921112, 0.27847209572792053, 0.15198145806789398, 0.2651335299015045, 0.4948078393936157, 0.4951302707195282, 0.6353636384010315, 0.5103570222854614, 0.3023024797439575, 0.26677101850509644, 0.35249587893486023, 0.45802873373031616, 0.24882596731185913, 0.35637691617012024, 0.32002919912338257, 0.5419251322746277, 0.3887883424758911, 0.2847774624824524, 0.18618713319301605, 0.19095326960086823, 0.1709422469139099, 0.22650575637817383, 0.18437811732292175, 0.14224004745483398, 0.13287746906280518, 0.07964696735143661, 0.13665275275707245, 0.2810410261154175, 0.2980535626411438, 0.4922530949115753, 0.5014371871948242, 0.27677252888679504, 0.4106552302837372, 0.517626941204071, 0.2795613408088684, 0.23827160894870758, 0.18318158388137817, 0.08806906640529633, 0.09072951227426529, 0.10110126435756683, 0.09752975404262543, 0.13275733590126038, 0.14913715422153473, 0.20153838396072388, 0.18076932430267334, 0.13797709345817566, 0.2391669899225235, 0.5060004591941833, 0.31938299536705017, 0.44826653599739075, 0.6437013745307922, 0.5857449173927307, 0.7147906422615051, 0.7445898056030273, 0.56769198179245, 0.646661639213562, 0.47238409519195557, 0.6094628572463989, 0.4198322296142578, 0.3016042113304138, 0.19752930104732513, 0.19773627817630768, 0.3807239234447479, 0.4365774095058441, 0.32208389043807983, 0.30134284496307373, 0.4738732576370239, 0.4261621832847595, 0.4357699751853943, 0.29751309752464294, 0.2122538834810257, 0.17100584506988525, 0.1973545253276825, 0.2672804296016693, 0.29273006319999695, 0.2774443030357361, 0.24711959064006805, 0.19025762379169464, 0.17192859947681427, 0.1972593367099762, 0.16393478214740753, 0.1636391580104828]</t>
+          <t>[0.38151273131370544, 0.2260473072528839, 0.18056736886501312, 0.1639343500137329, 0.17653141915798187, 0.20963966846466064, 0.13348351418972015, 0.12902618944644928, 0.2718050181865692, 0.20127274096012115, 0.5083768367767334, 0.49186062812805176, 0.7136926651000977, 0.7671767473220825, 0.6234123110771179, 0.6859837174415588, 0.4685949981212616, 0.47600358724594116, 0.3029358983039856, 0.16311316192150116, 0.09716180711984634, 0.1450669765472412, 0.11295750737190247, 0.08518628776073456, 0.1632315218448639, 0.165363609790802, 0.12593303620815277, 0.339280366897583, 0.20638158917427063, 0.14572791755199432, 0.16158947348594666, 0.16820049285888672, 0.07847106456756592, 0.07422877848148346, 0.0799722746014595, 0.1838960349559784, 0.1777154803276062, 0.5207943916320801, 0.4444143772125244, 0.2855031490325928, 0.17409619688987732, 0.3206387162208557, 0.32125869393348694, 0.5675245523452759, 0.22373338043689728, 0.24064494669437408, 0.3190561532974243, 0.2602701485157013, 0.2148575484752655, 0.26204437017440796, 0.27021315693855286, 0.25378185510635376, 0.3621438145637512, 0.4777161478996277, 0.4050995111465454, 0.4826483726501465, 0.41587117314338684, 0.46462488174438477, 0.45942893624305725, 0.7411537766456604, 0.7965763211250305, 0.8456906080245972, 0.5857018232345581, 0.7090669274330139, 0.808336079120636, 0.6165942549705505, 0.5348829627037048, 0.6686051487922668, 0.6249496340751648, 0.5129995346069336, 0.5235694050788879, 0.4936158359050751, 0.32873445749282837, 0.311685174703598, 0.39820626378059387, 0.3133680522441864, 0.25879740715026855, 0.2885909378528595, 0.10186590999364853, 0.26427051424980164, 0.46404939889907837, 0.4403916299343109, 0.6551926136016846, 0.571110725402832, 0.284862220287323, 0.2599550485610962, 0.4169932007789612, 0.49695441126823425, 0.22105097770690918, 0.4025869071483612, 0.4016949236392975, 0.5681686401367188, 0.4068363308906555, 0.20693720877170563, 0.11233145743608475, 0.10562863200902939, 0.10429137200117111, 0.15341612696647644, 0.12800545990467072, 0.09839531779289246, 0.0859580710530281, 0.04217051714658737, 0.0905396118760109, 0.25265899300575256, 0.2639652490615845, 0.4966672956943512, 0.46906405687332153, 0.23635782301425934, 0.4069748520851135, 0.5030149221420288, 0.27165013551712036, 0.18275918066501617, 0.10994324088096619, 0.037147391587495804, 0.033170029520988464, 0.038454730063676834, 0.03410273417830467, 0.049067962914705276, 0.06520976126194, 0.1329597532749176, 0.11927133798599243, 0.08313555270433426, 0.18175610899925232, 0.4923522174358368, 0.3062494993209839, 0.5005180239677429, 0.6841983199119568, 0.5940325260162354, 0.651128888130188, 0.770519495010376, 0.5655906200408936, 0.47228527069091797, 0.34181106090545654, 0.5272364616394043, 0.37028148770332336, 0.236256942152977, 0.1443113386631012, 0.13279134035110474, 0.3616533875465393, 0.34469982981681824, 0.27152019739151, 0.24044917523860931, 0.5327627658843994, 0.4467222988605499, 0.436218798160553, 0.2614019811153412, 0.17125409841537476, 0.11792252212762833, 0.15691781044006348, 0.2234334498643875, 0.25174692273139954, 0.2877334654331207, 0.2087242603302002, 0.15494762361049652, 0.10813412815332413, 0.13128075003623962, 0.08592376112937927, 0.08574073016643524]</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.8309373259544373</v>
+        <v>0.8456906080245972</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -4303,10 +4303,10 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0.9277783999859821</v>
+        <v>0.9002563000103692</v>
       </c>
       <c r="J94" t="n">
-        <v>0.005872015189784697</v>
+        <v>0.005697824683609931</v>
       </c>
     </row>
     <row r="95">
@@ -4325,11 +4325,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[0.7616695761680603, 0.8352103233337402, 0.3957211673259735, 0.43710213899612427, 0.7582653760910034, 0.8359804153442383, 0.8968110084533691, 0.8683933615684509, 0.9752344489097595, 0.9457776546478271, 0.9338629841804504, 0.9606292843818665, 0.9711540341377258, 0.987111508846283, 0.9895736575126648, 0.9882469773292542, 0.9648976922035217, 0.7954095005989075, 0.6421349048614502, 0.7169920206069946, 0.8301610350608826, 0.8218483924865723, 0.935426652431488, 0.9040817022323608, 0.9274605512619019, 0.9600564241409302, 0.9821648597717285, 0.9944798946380615, 0.9767157435417175, 0.8960927128791809, 0.8210840821266174, 0.859255313873291, 0.6634550094604492, 0.7768714427947998, 0.7619773149490356, 0.9458540081977844, 0.8499074578285217, 0.7604547142982483, 0.7710830569267273, 0.8401336073875427, 0.884626030921936, 0.9261805415153503, 0.9600789546966553, 0.8843346834182739, 0.8038584589958191, 0.773608922958374, 0.909358561038971, 0.7306045293807983, 0.6954926252365112, 0.8619586229324341, 0.6935291290283203, 0.470307320356369, 0.568143367767334, 0.19866608083248138, 0.4754005968570709, 0.927540123462677, 0.9510125517845154, 0.9714965224266052, 0.9548290967941284, 0.7584225535392761, 0.683469831943512, 0.43840935826301575, 0.3443675637245178, 0.2708560824394226, 0.29471665620803833, 0.4630453288555145, 0.7353243231773376, 0.9618240594863892, 0.9699580073356628, 0.9751397967338562, 0.9774250984191895, 0.9784053564071655, 0.9459894895553589, 0.9713082909584045, 0.9918414354324341, 0.9928523898124695, 0.9946950078010559, 0.9933139681816101, 0.9917259216308594, 0.9889658093452454, 0.9767181277275085, 0.9438881874084473, 0.8434730768203735, 0.6536544561386108, 0.6157695055007935, 0.8085162043571472, 0.9441426396369934, 0.9864403605461121, 0.9884294271469116, 0.977579653263092, 0.954808235168457, 0.9847463369369507, 0.985089123249054, 0.9901700615882874, 0.956925630569458, 0.8937074542045593, 0.9549570083618164, 0.9673889875411987, 0.9499530792236328, 0.9656168222427368, 0.964848518371582, 0.969879150390625, 0.8397243618965149, 0.8788983225822449, 0.9049091339111328, 0.9414007067680359, 0.9026113152503967, 0.802338719367981, 0.9073156714439392, 0.739037275314331, 0.8730828762054443, 0.9451180696487427, 0.9564186334609985, 0.6516274213790894, 0.6760614514350891, 0.6052424311637878, 0.6763955950737, 0.480995237827301, 0.815095841884613, 0.9103967547416687, 0.7799093127250671, 0.6963939070701599, 0.8994628190994263, 0.6855137944221497, 0.4817928373813629, 0.7580435276031494, 0.7687708735466003, 0.8766012787818909, 0.8447495698928833, 0.6888139247894287, 0.5387290120124817, 0.8606302738189697, 0.8854660391807556, 0.9486463069915771, 0.8134042024612427, 0.9321706295013428, 0.9842442274093628, 0.9868602156639099, 0.9895843863487244, 0.9776394367218018, 0.9760861396789551, 0.975288450717926, 0.9859944581985474, 0.9661232829093933, 0.9656418561935425, 0.9702174663543701, 0.9847351312637329, 0.9701579809188843, 0.9434864521026611, 0.7035840153694153, 0.7988764643669128, 0.8328654766082764, 0.896716296672821, 0.8925880193710327, 0.88355553150177, 0.9085211157798767, 0.9383754134178162, 0.9383438229560852]</t>
+          <t>[0.665757954120636, 0.7925272583961487, 0.31039804220199585, 0.3764377236366272, 0.6155834197998047, 0.8181016445159912, 0.8955519199371338, 0.899528443813324, 0.9811117053031921, 0.9447545409202576, 0.9074828624725342, 0.9593061804771423, 0.9732660055160522, 0.9911717772483826, 0.9915796518325806, 0.9903078675270081, 0.9780879020690918, 0.8657508492469788, 0.7095865607261658, 0.6867095828056335, 0.892737627029419, 0.8210716247558594, 0.9456890225410461, 0.9152203798294067, 0.9464184045791626, 0.9799601435661316, 0.9860975742340088, 0.9957232475280762, 0.9854710102081299, 0.9492279887199402, 0.8657824993133545, 0.8904849886894226, 0.6558087468147278, 0.780284583568573, 0.7368733286857605, 0.9249531030654907, 0.8186042904853821, 0.6679714322090149, 0.6034836769104004, 0.7379601001739502, 0.8385489583015442, 0.9141703248023987, 0.9679921269416809, 0.8834812045097351, 0.8175019025802612, 0.7783004641532898, 0.8915157914161682, 0.7084872722625732, 0.6542298197746277, 0.8763074278831482, 0.6737864017486572, 0.3832724392414093, 0.5368046164512634, 0.09291316568851471, 0.4003431797027588, 0.9079461693763733, 0.9417770504951477, 0.969730794429779, 0.9408771991729736, 0.6430192589759827, 0.4844684600830078, 0.17029350996017456, 0.14830102026462555, 0.10795920342206955, 0.10865189880132675, 0.2852971851825714, 0.5917378067970276, 0.9613690376281738, 0.9711297154426575, 0.9731252193450928, 0.9674925208091736, 0.9730774760246277, 0.953713595867157, 0.9700679183006287, 0.9921869039535522, 0.9930309653282166, 0.9944084286689758, 0.9947186708450317, 0.9921054840087891, 0.9932336211204529, 0.9679220914840698, 0.9496346116065979, 0.7744388580322266, 0.6663542985916138, 0.6234206557273865, 0.8249083161354065, 0.9259129166603088, 0.9809876680374146, 0.9824986457824707, 0.959540605545044, 0.9187341928482056, 0.9790600538253784, 0.9803855419158936, 0.9882319569587708, 0.9523741602897644, 0.9033449292182922, 0.9617278575897217, 0.9546194672584534, 0.9510765075683594, 0.9617794752120972, 0.9699025750160217, 0.9704757332801819, 0.8005706071853638, 0.9016991257667542, 0.8868048191070557, 0.9549750685691833, 0.9359038472175598, 0.8169662952423096, 0.9103178381919861, 0.7487857937812805, 0.8987881541252136, 0.9531891942024231, 0.9613973498344421, 0.7041465044021606, 0.7088550329208374, 0.49311426281929016, 0.6729356646537781, 0.3458157479763031, 0.7471452355384827, 0.9068902730941772, 0.7121485471725464, 0.6133555173873901, 0.8883888125419617, 0.416858971118927, 0.20874236524105072, 0.5319173336029053, 0.6992019414901733, 0.8353025913238525, 0.7783914804458618, 0.4900319278240204, 0.3575543165206909, 0.7029449939727783, 0.7257948517799377, 0.9038386940956116, 0.7063301205635071, 0.8920559883117676, 0.9827091693878174, 0.9844702482223511, 0.9886230826377869, 0.9801982045173645, 0.9758672714233398, 0.9699347615242004, 0.9843717217445374, 0.9336644411087036, 0.9541743993759155, 0.9747089147567749, 0.9846193194389343, 0.9726287722587585, 0.9568740725517273, 0.7472671866416931, 0.7868514060974121, 0.8107285499572754, 0.9037165641784668, 0.8724841475486755, 0.8665779232978821, 0.8857690095901489, 0.8722892999649048, 0.8725202083587646]</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.9946950078010559</v>
+        <v>0.9957232475280762</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0.8923548999882769</v>
+        <v>0.9038670000009006</v>
       </c>
       <c r="J95" t="n">
-        <v>0.005647815822710613</v>
+        <v>0.005720677215195574</v>
       </c>
     </row>
     <row r="96">
@@ -4365,11 +4365,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[0.47945284843444824, 0.3591342270374298, 0.47235044836997986, 0.7112459540367126, 0.6955395340919495, 0.33327367901802063, 0.40395060181617737, 0.2700563967227936, 0.26374927163124084, 0.49518322944641113, 0.32244348526000977, 0.27139660716056824, 0.5584971904754639, 0.39657580852508545, 0.12638996541500092, 0.12554031610488892, 0.17629766464233398, 0.24658170342445374, 0.31508171558380127, 0.4304152727127075, 0.4718073010444641, 0.46400442719459534, 0.5025789737701416, 0.5165939927101135, 0.6799448132514954, 0.8002892732620239, 0.9045313000679016, 0.922630250453949, 0.9102518558502197, 0.9181508421897888, 0.9269958734512329, 0.7627274990081787, 0.6958029866218567, 0.3720114827156067, 0.3809036910533905, 0.2088669091463089, 0.20313261449337006, 0.2704859673976898, 0.44022494554519653, 0.5104795694351196, 0.5813765525817871, 0.2904430627822876, 0.30572760105133057, 0.2878791093826294, 0.47153836488723755, 0.33706194162368774, 0.43287840485572815, 0.19582439959049225, 0.23096731305122375, 0.2316776067018509, 0.2210899144411087, 0.29287558794021606, 0.3528836965560913, 0.30633866786956787, 0.5015122890472412, 0.3062262237071991, 0.32788437604904175, 0.25050267577171326, 0.3449774980545044, 0.3343193531036377, 0.2346966564655304, 0.23724043369293213, 0.17452633380889893, 0.18027688562870026, 0.16833005845546722, 0.3414308428764343, 0.34305670857429504, 0.3094041645526886, 0.1842135488986969, 0.14686736464500427, 0.252795547246933, 0.2438419610261917, 0.29309189319610596, 0.35251230001449585, 0.22849531471729279, 0.24017611145973206, 0.2472817748785019, 0.22181616723537445, 0.21523432433605194, 0.19902968406677246, 0.280769944190979, 0.3177371323108673, 0.3606114685535431, 0.3753068745136261, 0.4459531307220459, 0.4764798879623413, 0.5168242454528809, 0.4716607928276062, 0.7308672666549683, 0.7904438972473145, 0.7562003135681152, 0.4726947247982025, 0.5836181640625, 0.7685388922691345, 0.7680785059928894, 0.2284388542175293, 0.4037635028362274, 0.40381139516830444, 0.5618945360183716, 0.3995731770992279, 0.4007113575935364, 0.3479904532432556, 0.23549121618270874, 0.4004335403442383, 0.48340314626693726, 0.4278333783149719, 0.43226590752601624, 0.3266121745109558, 0.33562448620796204, 0.5115233659744263, 0.5624317526817322, 0.649971604347229, 0.6128937602043152, 0.6064115762710571, 0.7361813187599182, 0.6486021876335144, 0.48126018047332764, 0.3493192493915558, 0.44708773493766785, 0.3378288447856903, 0.45661434531211853, 0.47542834281921387, 0.6552615761756897, 0.5743173360824585, 0.3128020763397217, 0.3651401102542877, 0.6413471698760986, 0.6377831101417542, 0.5165244340896606, 0.5623412728309631, 0.6169962286949158, 0.5451562404632568, 0.6631176471710205, 0.6994274854660034, 0.6530551314353943, 0.7080706357955933, 0.48885273933410645, 0.6663321256637573, 0.63627690076828, 0.40380972623825073, 0.42763280868530273, 0.3338482677936554, 0.5488960146903992, 0.41058340668678284, 0.19739629328250885, 0.12656590342521667, 0.2010052502155304, 0.3785306215286255, 0.39821404218673706, 0.3669828772544861, 0.2396443486213684, 0.30554091930389404, 0.33646833896636963, 0.43115270137786865, 0.40831008553504944, 0.30808693170547485, 0.5119935870170593, 0.5133705139160156]</t>
+          <t>[0.656166136264801, 0.5438964366912842, 0.6706783771514893, 0.7779111266136169, 0.8249764442443848, 0.3593175709247589, 0.3964003920555115, 0.22244293987751007, 0.27820339798927307, 0.5048043727874756, 0.347246378660202, 0.24611954391002655, 0.5665165185928345, 0.2905156910419464, 0.11070869117975235, 0.11282657086849213, 0.1611478328704834, 0.22146153450012207, 0.4432922303676605, 0.4488479793071747, 0.5314591526985168, 0.5233575105667114, 0.6260093450546265, 0.6051124930381775, 0.7728902697563171, 0.8589720726013184, 0.8814538717269897, 0.9315396547317505, 0.9343417286872864, 0.9013967514038086, 0.9204332828521729, 0.6659044027328491, 0.7305129170417786, 0.3737053871154785, 0.26657184958457947, 0.1587783545255661, 0.1616952270269394, 0.26272135972976685, 0.4229334890842438, 0.5414196848869324, 0.5848187208175659, 0.2460910677909851, 0.2991679012775421, 0.14105452597141266, 0.44010674953460693, 0.26199811697006226, 0.34998035430908203, 0.19183073937892914, 0.2367982417345047, 0.1752174198627472, 0.2101001888513565, 0.23192353546619415, 0.2679446041584015, 0.19034528732299805, 0.4320462644100189, 0.31127363443374634, 0.32572799921035767, 0.2617732882499695, 0.3401985466480255, 0.28627580404281616, 0.12042571604251862, 0.18212908506393433, 0.08959463983774185, 0.07652832567691803, 0.10850870609283447, 0.28213196992874146, 0.32966938614845276, 0.37671881914138794, 0.16490060091018677, 0.07505781203508377, 0.17929895222187042, 0.16686512529850006, 0.2704044580459595, 0.26229631900787354, 0.14200490713119507, 0.19090835750102997, 0.27673062682151794, 0.25056058168411255, 0.22081737220287323, 0.20422686636447906, 0.35739612579345703, 0.2629428505897522, 0.24818985164165497, 0.3278779089450836, 0.36238980293273926, 0.5156456232070923, 0.5707237720489502, 0.5304518342018127, 0.7738445997238159, 0.8069725036621094, 0.8266994953155518, 0.484459787607193, 0.503424346446991, 0.6646960973739624, 0.6836836934089661, 0.2251310497522354, 0.5227718353271484, 0.4611322283744812, 0.6195653676986694, 0.4203292727470398, 0.4188062846660614, 0.35194385051727295, 0.1648004949092865, 0.25188541412353516, 0.5049274563789368, 0.4595445692539215, 0.5047057867050171, 0.42744436860084534, 0.41302040219306946, 0.5845597386360168, 0.5708855986595154, 0.6856673359870911, 0.5955649614334106, 0.5508190393447876, 0.5679168105125427, 0.5676155090332031, 0.4041368365287781, 0.3937782049179077, 0.5080401301383972, 0.35903286933898926, 0.5155438184738159, 0.5026978254318237, 0.6453704833984375, 0.40356630086898804, 0.1842205822467804, 0.34932172298431396, 0.636681854724884, 0.72148597240448, 0.46324798464775085, 0.746316134929657, 0.6766495108604431, 0.4933830797672272, 0.7159268856048584, 0.7332226037979126, 0.6083657741546631, 0.653148889541626, 0.43447238206863403, 0.6575953960418701, 0.6822380423545837, 0.42348265647888184, 0.46423542499542236, 0.4339771568775177, 0.6519795060157776, 0.45154011249542236, 0.1270512044429779, 0.06020983308553696, 0.10763141512870789, 0.3702491223812103, 0.3957458436489105, 0.42794832587242126, 0.21644863486289978, 0.25973665714263916, 0.3018031716346741, 0.44343510270118713, 0.5023143291473389, 0.3478580117225647, 0.4954903721809387, 0.4965400993824005]</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.9269958734512329</v>
+        <v>0.9343417286872864</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0.8943601000064518</v>
+        <v>0.8972616999963066</v>
       </c>
       <c r="J96" t="n">
-        <v>0.005660506962066151</v>
+        <v>0.005678871518963966</v>
       </c>
     </row>
     <row r="97">
@@ -4405,11 +4405,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[0.22756722569465637, 0.18953965604305267, 0.25337323546409607, 0.2170993685722351, 0.16354584693908691, 0.2010270208120346, 0.2661866247653961, 0.43593183159828186, 0.45995911955833435, 0.24969086050987244, 0.2573026418685913, 0.22639232873916626, 0.551909327507019, 0.5500539541244507, 0.569530189037323, 0.7462908625602722, 0.7765157222747803, 0.8479790091514587, 0.289124459028244, 0.43450087308883667, 0.5612156987190247, 0.6023690700531006, 0.5871270298957825, 0.3435570299625397, 0.24693800508975983, 0.4138904809951782, 0.5584124326705933, 0.5320319533348083, 0.6335493922233582, 0.39530184864997864, 0.5416006445884705, 0.5751187801361084, 0.6751592755317688, 0.7341480851173401, 0.6356065273284912, 0.13098739087581635, 0.2863081395626068, 0.4186321794986725, 0.6348322033882141, 0.37096697092056274, 0.2607690095901489, 0.35222458839416504, 0.34238752722740173, 0.30231449007987976, 0.2532328963279724, 0.5011610984802246, 0.5140815377235413, 0.5937029123306274, 0.6853820085525513, 0.5987087488174438, 0.4420558512210846, 0.48020461201667786, 0.45415952801704407, 0.47574886679649353, 0.7884418368339539, 0.5194776654243469, 0.7926849126815796, 0.6187856197357178, 0.8064955472946167, 0.6928806304931641, 0.7761127948760986, 0.7931532859802246, 0.8302469849586487, 0.7610449194908142, 0.4997226595878601, 0.5021355748176575, 0.1333804428577423, 0.23475472629070282, 0.1980094164609909, 0.378339558839798, 0.506454586982727, 0.40428173542022705, 0.33962854743003845, 0.5578063726425171, 0.5966113209724426, 0.722051203250885, 0.904573917388916, 0.8046567440032959, 0.8230680823326111, 0.8722037672996521, 0.36703628301620483, 0.309045672416687, 0.1746392548084259, 0.32942652702331543, 0.3644964098930359, 0.6550685167312622, 0.7446107864379883, 0.4457496106624603, 0.6073494553565979, 0.6861218810081482, 0.8258428573608398, 0.8245285749435425, 0.7462387084960938, 0.6335546374320984, 0.8501383066177368, 0.9070190191268921, 0.856816828250885, 0.7358806729316711, 0.5350236296653748, 0.601762592792511, 0.6615620851516724, 0.47226202487945557, 0.7268189787864685, 0.7588030099868774, 0.6511963605880737, 0.6128284335136414, 0.4868731200695038, 0.5160629749298096, 0.3733258545398712, 0.503652036190033, 0.44895970821380615, 0.5984069108963013, 0.5105933547019958, 0.31259289383888245, 0.611974835395813, 0.4887361526489258, 0.669110119342804, 0.5990824103355408, 0.8180853724479675, 0.7441177368164062, 0.6058743596076965, 0.8239277005195618, 0.80399090051651, 0.8620218634605408, 0.7125376462936401, 0.8744168877601624, 0.7716308236122131, 0.6345254778862, 0.5554441213607788, 0.2909984290599823, 0.3623436689376831, 0.5283210873603821, 0.4479832053184509, 0.4243556261062622, 0.30319148302078247, 0.5959416627883911, 0.7834197282791138, 0.7168940305709839, 0.8714041709899902, 0.673588216304779, 0.5271542072296143, 0.920524001121521, 0.8752058148384094, 0.5565045475959778, 0.6766873002052307, 0.5257201194763184, 0.6972299218177795, 0.6651188731193542, 0.37596970796585083, 0.4758338928222656, 0.5982435345649719, 0.35413065552711487, 0.47243186831474304, 0.4820519983768463, 0.4647097587585449, 0.6146556735038757, 0.5091710090637207, 0.5093125700950623]</t>
+          <t>[0.07188590615987778, 0.08759621530771255, 0.09039243310689926, 0.08004415035247803, 0.05423026159405708, 0.06007671728730202, 0.1265517622232437, 0.24360182881355286, 0.2070838063955307, 0.143849179148674, 0.11651037633419037, 0.08359768241643906, 0.31081271171569824, 0.3761501908302307, 0.35883039236068726, 0.5630735158920288, 0.6431628465652466, 0.7441801428794861, 0.10491136461496353, 0.2474442571401596, 0.3378288149833679, 0.3180634081363678, 0.2733601927757263, 0.10567556321620941, 0.10689452290534973, 0.18909220397472382, 0.2848706543445587, 0.37205588817596436, 0.38851621747016907, 0.21743884682655334, 0.3240472674369812, 0.3261622190475464, 0.3418572247028351, 0.4087911546230316, 0.31960952281951904, 0.03867637366056442, 0.10201627761125565, 0.15847088396549225, 0.3234610855579376, 0.16463512182235718, 0.09220536053180695, 0.16470327973365784, 0.1525103747844696, 0.13137245178222656, 0.10360310971736908, 0.2845469117164612, 0.27282288670539856, 0.4786534607410431, 0.46806490421295166, 0.42211413383483887, 0.28746297955513, 0.23439501225948334, 0.19134265184402466, 0.19942688941955566, 0.6530147790908813, 0.42108702659606934, 0.6119924187660217, 0.4033306837081909, 0.6303693056106567, 0.44838908314704895, 0.5564350485801697, 0.6451438665390015, 0.5969181060791016, 0.41302046179771423, 0.22871367633342743, 0.26561081409454346, 0.030316373333334923, 0.05451977998018265, 0.04530780017375946, 0.1436934918165207, 0.16152366995811462, 0.11950042843818665, 0.12052556127309799, 0.24734696745872498, 0.3347277045249939, 0.46440646052360535, 0.8245372772216797, 0.623013436794281, 0.6683056354522705, 0.6815305948257446, 0.2087509036064148, 0.19130884110927582, 0.09824003279209137, 0.17403967678546906, 0.2039192020893097, 0.523006021976471, 0.4722543954849243, 0.18590985238552094, 0.345726877450943, 0.41840213537216187, 0.7152705788612366, 0.6354851126670837, 0.5148884057998657, 0.42375949025154114, 0.5910423398017883, 0.7723491787910461, 0.6372846364974976, 0.4201619625091553, 0.26329734921455383, 0.35729914903640747, 0.34295710921287537, 0.25162777304649353, 0.5522556900978088, 0.6539321541786194, 0.5859690308570862, 0.6161121726036072, 0.4483121931552887, 0.44192588329315186, 0.2799084484577179, 0.34317460656166077, 0.23690249025821686, 0.32198968529701233, 0.2478785365819931, 0.12650048732757568, 0.3086163103580475, 0.24512732028961182, 0.336978942155838, 0.3547581434249878, 0.6672523021697998, 0.5780898332595825, 0.45202481746673584, 0.7469931840896606, 0.7226294875144958, 0.7006090879440308, 0.4972258508205414, 0.7663052082061768, 0.6718711256980896, 0.40625903010368347, 0.29272356629371643, 0.10195641219615936, 0.12128067016601562, 0.29989758133888245, 0.23275698721408844, 0.2735590934753418, 0.1318867802619934, 0.3472772538661957, 0.48114240169525146, 0.5716063380241394, 0.7404030561447144, 0.5569234490394592, 0.42685186862945557, 0.832629382610321, 0.799408495426178, 0.35616132616996765, 0.4463989734649658, 0.3352939784526825, 0.5052757263183594, 0.4614081084728241, 0.1914854645729065, 0.21892257034778595, 0.384365051984787, 0.20203936100006104, 0.35609185695648193, 0.29095810651779175, 0.2040219008922577, 0.3642563223838806, 0.28163573145866394, 0.28038570284843445]</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.920524001121521</v>
+        <v>0.832629382610321</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
@@ -4423,10 +4423,10 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0.9003070000035223</v>
+        <v>0.9038951999973506</v>
       </c>
       <c r="J97" t="n">
-        <v>0.005698145569642546</v>
+        <v>0.005720855696185763</v>
       </c>
     </row>
     <row r="98">
@@ -4445,11 +4445,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[0.05351613089442253, 0.03869711235165596, 0.3029661476612091, 0.11964650452136993, 0.14228592813014984, 0.19514958560466766, 0.040370360016822815, 0.060462936758995056, 0.05659551918506622, 0.06914277374744415, 0.35866376757621765, 0.4914165437221527, 0.824825644493103, 0.37969970703125, 0.14781470596790314, 0.1438198983669281, 0.5870125889778137, 0.9644064903259277, 0.9145269393920898, 0.8204894065856934, 0.7320759296417236, 0.857533872127533, 0.9340962171554565, 0.9481777548789978, 0.8992133140563965, 0.9454522132873535, 0.9624627828598022, 0.9726081490516663, 0.9845507740974426, 0.9873008728027344, 0.9249297976493835, 0.8212946057319641, 0.7346557974815369, 0.7551008462905884, 0.5914076566696167, 0.3773157000541687, 0.4713761806488037, 0.06642109155654907, 0.08143609762191772, 0.046004291623830795, 0.04726480692625046, 0.026986941695213318, 0.050035394728183746, 0.04526100307703018, 0.022469984367489815, 0.11279590427875519, 0.06989730894565582, 0.059246085584163666, 0.06711079925298691, 0.21620383858680725, 0.5125845670700073, 0.7553036212921143, 0.5419742465019226, 0.9755052924156189, 0.9890328645706177, 0.9449180364608765, 0.8209490180015564, 0.8698257207870483, 0.8938869833946228, 0.9168323278427124, 0.8774703741073608, 0.9594757556915283, 0.9698180556297302, 0.9313018321990967, 0.9881201982498169, 0.9793269634246826, 0.9539547562599182, 0.9722006320953369, 0.6155062913894653, 0.7069929838180542, 0.6300302147865295, 0.6153083443641663, 0.6536905169487, 0.3265369236469269, 0.34601330757141113, 0.8128059506416321, 0.8848795890808105, 0.12189149111509323, 0.05575627461075783, 0.12594875693321228, 0.2722899615764618, 0.060656119138002396, 0.1386423110961914, 0.10195479542016983, 0.14961570501327515, 0.19267679750919342, 0.20530016720294952, 0.1900506466627121, 0.27463409304618835, 0.1779739260673523, 0.18728186190128326, 0.5087507963180542, 0.32060831785202026, 0.2890419065952301, 0.15656031668186188, 0.1946370005607605, 0.15117032825946808, 0.4620186984539032, 0.5180270671844482, 0.4768046736717224, 0.31344953179359436, 0.36584505438804626, 0.2695677876472473, 0.19700586795806885, 0.15435761213302612, 0.27407145500183105, 0.2700057029724121, 0.6158567070960999, 0.9865782856941223, 0.9867110848426819, 0.9678527116775513, 0.9380393028259277, 0.9653952717781067, 0.9863980412483215, 0.9805957078933716, 0.9605427384376526, 0.9496284127235413, 0.9559656381607056, 0.9240496754646301, 0.9786155223846436, 0.963783860206604, 0.8351086378097534, 0.7707934379577637, 0.35002565383911133, 0.33019980788230896, 0.8043128252029419, 0.8584017753601074, 0.13779152929782867, 0.12649962306022644, 0.1373429149389267, 0.09839197248220444, 0.04665006324648857, 0.10146074742078781, 0.052804842591285706, 0.042096562683582306, 0.04180125892162323, 0.06153130158782005, 0.045939866453409195, 0.06573737412691116, 0.1274910569190979, 0.06839907169342041, 0.0718691349029541, 0.07668551802635193, 0.1275395005941391, 0.1147589460015297, 0.09030923247337341, 0.06120571121573448, 0.047662824392318726, 0.044446881860494614, 0.0697515457868576, 0.04596808925271034, 0.05978589877486229, 0.06921764463186264, 0.06904365122318268, 0.17686569690704346, 0.21942569315433502, 0.14940521121025085, 0.1459222137928009]</t>
+          <t>[0.06321970373392105, 0.027316763997077942, 0.5264050960540771, 0.2171541005373001, 0.24081633985042572, 0.19525840878486633, 0.038079287856817245, 0.04544929042458534, 0.04589436948299408, 0.07702445983886719, 0.4541061818599701, 0.47349226474761963, 0.7794098258018494, 0.37139561772346497, 0.17344483733177185, 0.16763761639595032, 0.6072191596031189, 0.9608165621757507, 0.8868104815483093, 0.7502686977386475, 0.7279316782951355, 0.9218887686729431, 0.9432592391967773, 0.9554840326309204, 0.9354865550994873, 0.927983283996582, 0.9610055685043335, 0.9745520949363708, 0.985883891582489, 0.9874575734138489, 0.9135445356369019, 0.7550025582313538, 0.6391066908836365, 0.7065967321395874, 0.574039876461029, 0.3296235203742981, 0.5130144357681274, 0.04085410758852959, 0.057185254991054535, 0.02974446304142475, 0.03139418736100197, 0.008894865401089191, 0.019552001729607582, 0.01917441003024578, 0.008506330661475658, 0.07947482168674469, 0.04673425108194351, 0.03623215854167938, 0.03877337649464607, 0.1786336898803711, 0.5099091529846191, 0.7230237126350403, 0.4713124930858612, 0.957557201385498, 0.9897339940071106, 0.9564788341522217, 0.7640447616577148, 0.885700523853302, 0.7918945550918579, 0.8445771336555481, 0.7384371757507324, 0.9543852210044861, 0.9670146107673645, 0.919465184211731, 0.989231288433075, 0.9752920866012573, 0.9569721221923828, 0.9701187610626221, 0.44477519392967224, 0.6429435014724731, 0.5647403597831726, 0.5974946022033691, 0.6094316840171814, 0.26341870427131653, 0.31284448504447937, 0.8156086802482605, 0.895559549331665, 0.12211201339960098, 0.04602077230811119, 0.20038630068302155, 0.3796776533126831, 0.037098489701747894, 0.19605667889118195, 0.13867144286632538, 0.18941599130630493, 0.30153682827949524, 0.33117473125457764, 0.12783995270729065, 0.1792730838060379, 0.12214934080839157, 0.18586713075637817, 0.5234730243682861, 0.2939634919166565, 0.3550516366958618, 0.1609167456626892, 0.1923172026872635, 0.14301687479019165, 0.4719392955303192, 0.5231907963752747, 0.5751858949661255, 0.3378957509994507, 0.29991328716278076, 0.2512595057487488, 0.20236648619174957, 0.12676826119422913, 0.32995110750198364, 0.3315032124519348, 0.6654475331306458, 0.9793358445167542, 0.9883594512939453, 0.9580636620521545, 0.9295229315757751, 0.9524261951446533, 0.9779856204986572, 0.9628498554229736, 0.9410415291786194, 0.9397207498550415, 0.9425886273384094, 0.9439738988876343, 0.9875144958496094, 0.9734373688697815, 0.8180688619613647, 0.6367266178131104, 0.35850217938423157, 0.34491240978240967, 0.7866075038909912, 0.8206404447555542, 0.07005339115858078, 0.07359230518341064, 0.07211261987686157, 0.0534420907497406, 0.019032355397939682, 0.07365600764751434, 0.024205274879932404, 0.017625553533434868, 0.025266284123063087, 0.04629947245121002, 0.026625925675034523, 0.05079794302582741, 0.11604664474725723, 0.046731624752283096, 0.04072508215904236, 0.04665111005306244, 0.0998813807964325, 0.06125494837760925, 0.07266365736722946, 0.03606274351477623, 0.02383612096309662, 0.023704398423433304, 0.04106133431196213, 0.026311710476875305, 0.03556748479604721, 0.062138818204402924, 0.061761077493429184, 0.17620132863521576, 0.23262672126293182, 0.1705629825592041, 0.16562190651893616]</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.9890328645706177</v>
+        <v>0.9897339940071106</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0.8951261999900453</v>
+        <v>0.8928251000033924</v>
       </c>
       <c r="J98" t="n">
-        <v>0.005665355696139527</v>
+        <v>0.00565079177217337</v>
       </c>
     </row>
     <row r="99">
@@ -4485,11 +4485,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[0.9929479360580444, 0.9835323095321655, 0.986011803150177, 0.9887199997901917, 0.9902862906455994, 0.9870980381965637, 0.9914041757583618, 0.9769968390464783, 0.9127382040023804, 0.9722663164138794, 0.9836011528968811, 0.9933627843856812, 0.9891452193260193, 0.9938515424728394, 0.9927828311920166, 0.9928275942802429, 0.9970930814743042, 0.9972136616706848, 0.9973969459533691, 0.9973069429397583, 0.9910620450973511, 0.9930614829063416, 0.9943608641624451, 0.9914048910140991, 0.9624654054641724, 0.9773333072662354, 0.9643361568450928, 0.9623469710350037, 0.9851037859916687, 0.9260092973709106, 0.9935511350631714, 0.9809577465057373, 0.9578757882118225, 0.9908761382102966, 0.9885410666465759, 0.9844106435775757, 0.846681535243988, 0.927446186542511, 0.9876725077629089, 0.9914116859436035, 0.9891113638877869, 0.9923473596572876, 0.9159128665924072, 0.9594081044197083, 0.9481796622276306, 0.9225620031356812, 0.8903303742408752, 0.6915644407272339, 0.9537273645401001, 0.8443967700004578, 0.9030129313468933, 0.9623889923095703, 0.985192060470581, 0.9949251413345337, 0.9907848834991455, 0.9937011003494263, 0.9936841130256653, 0.9820773601531982, 0.984931468963623, 0.9868214726448059, 0.9830952286720276, 0.9782155156135559, 0.8443349599838257, 0.9118677377700806, 0.8558486104011536, 0.6097822785377502, 0.6980254650115967, 0.8291530013084412, 0.6089233160018921, 0.5667448043823242, 0.5107951760292053, 0.3503662049770355, 0.9111660122871399, 0.8400634527206421, 0.9585246443748474, 0.796355128288269, 0.4805445373058319, 0.6561764478683472, 0.5053406357765198, 0.9319413304328918, 0.9877966046333313, 0.9920418858528137, 0.9575753211975098, 0.9186229705810547, 0.9400100111961365, 0.9428990483283997, 0.4154297709465027, 0.7619627118110657, 0.9384077787399292, 0.8567233085632324, 0.18506386876106262, 0.32352617383003235, 0.20626814663410187, 0.5049353837966919, 0.8486595749855042, 0.8261877298355103, 0.235263392329216, 0.6912123560905457, 0.894461989402771, 0.9355272650718689, 0.9741019010543823, 0.9249836206436157, 0.6322086453437805, 0.6550111174583435, 0.716568648815155, 0.8274441361427307, 0.9077343940734863, 0.9580073356628418, 0.9440400004386902, 0.6528927683830261, 0.9427682757377625, 0.9364880919456482, 0.8123617172241211, 0.7800449728965759, 0.9495846629142761, 0.991489052772522, 0.988800048828125, 0.9892328977584839, 0.9937133193016052, 0.9964273571968079, 0.9886831641197205, 0.9917694330215454, 0.9894212484359741, 0.9439327120780945, 0.8553459048271179, 0.7076230645179749, 0.6893309950828552, 0.9836624264717102, 0.9647977948188782, 0.9805029630661011, 0.9720067977905273, 0.9735625386238098, 0.9893396496772766, 0.9734235405921936, 0.8053839206695557, 0.8811442852020264, 0.9828494191169739, 0.9886236190795898, 0.9909307360649109, 0.982822835445404, 0.9133575558662415, 0.8328163623809814, 0.9499842524528503, 0.9934113621711731, 0.9937835931777954, 0.9958330988883972, 0.9953048229217529, 0.995092511177063, 0.9935558438301086, 0.9949445128440857, 0.9917123317718506, 0.9796494841575623, 0.865809440612793, 0.8585275411605835, 0.3389616906642914, 0.8072875142097473, 0.993028461933136, 0.9930105805397034]</t>
+          <t>[0.9967918992042542, 0.9924087524414062, 0.9957503080368042, 0.996561586856842, 0.9965566396713257, 0.9958763122558594, 0.9972875118255615, 0.9931020736694336, 0.9736460447311401, 0.98967045545578, 0.9949618577957153, 0.9981683492660522, 0.9966386556625366, 0.9981561303138733, 0.9979444146156311, 0.9973069429397583, 0.9985918402671814, 0.9990134239196777, 0.9987518787384033, 0.9987056255340576, 0.9960926175117493, 0.9963439106941223, 0.9977211356163025, 0.995751142501831, 0.985225260257721, 0.9848423004150391, 0.9823018312454224, 0.9851136207580566, 0.9930697083473206, 0.9733022451400757, 0.9967637062072754, 0.9876683354377747, 0.9763554930686951, 0.9948090314865112, 0.9915602803230286, 0.9884917736053467, 0.9200610518455505, 0.9667190909385681, 0.992994487285614, 0.995246946811676, 0.9939695596694946, 0.9957733750343323, 0.9731131196022034, 0.9811907410621643, 0.9783218502998352, 0.9775471687316895, 0.9591028690338135, 0.7842181921005249, 0.9625248312950134, 0.8971474170684814, 0.9255099892616272, 0.9737421870231628, 0.9935420751571655, 0.9978808164596558, 0.9955470561981201, 0.9972435235977173, 0.9973320960998535, 0.9918274879455566, 0.9920961856842041, 0.9903811812400818, 0.9881234765052795, 0.9587597250938416, 0.8609785437583923, 0.914728581905365, 0.866427481174469, 0.630393922328949, 0.693793773651123, 0.8749675750732422, 0.5459587574005127, 0.4787425994873047, 0.36700886487960815, 0.3460216820240021, 0.8953129649162292, 0.8456815481185913, 0.9660146832466125, 0.7881585359573364, 0.5465092062950134, 0.6446114182472229, 0.43788936734199524, 0.9421609044075012, 0.990514874458313, 0.9944937825202942, 0.971920371055603, 0.9462240934371948, 0.9126505851745605, 0.9483513832092285, 0.37858152389526367, 0.7484451532363892, 0.9526394605636597, 0.8671512603759766, 0.12976177036762238, 0.26533299684524536, 0.24214379489421844, 0.5812718868255615, 0.7851518392562866, 0.8213995695114136, 0.10770879685878754, 0.553545355796814, 0.9152200818061829, 0.9467267990112305, 0.9766502380371094, 0.9206717014312744, 0.6721066236495972, 0.820798397064209, 0.803838312625885, 0.8906209468841553, 0.8907127380371094, 0.9452155232429504, 0.9465181827545166, 0.7600947618484497, 0.9691699743270874, 0.9654566049575806, 0.8807011246681213, 0.8919464945793152, 0.9820231795310974, 0.9961156845092773, 0.9966333508491516, 0.9961956739425659, 0.996635377407074, 0.9987183809280396, 0.9965912103652954, 0.9963685274124146, 0.9951098561286926, 0.9654707908630371, 0.8573712110519409, 0.6855607628822327, 0.7142184376716614, 0.9826017618179321, 0.965043842792511, 0.983004093170166, 0.9798215627670288, 0.9831348657608032, 0.9917505383491516, 0.9728119373321533, 0.7768037915229797, 0.8863003849983215, 0.9913702011108398, 0.9928996562957764, 0.9948211908340454, 0.992480993270874, 0.9567893743515015, 0.8899755477905273, 0.959455668926239, 0.9962448477745056, 0.9974218606948853, 0.9981334805488586, 0.9977668523788452, 0.997470498085022, 0.9958921670913696, 0.9977868795394897, 0.9973969459533691, 0.9930177927017212, 0.941628098487854, 0.9072083234786987, 0.4664246737957001, 0.9349140524864197, 0.9974495768547058, 0.9974486231803894]</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.9973969459533691</v>
+        <v>0.9990134239196777</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
@@ -4503,10 +4503,10 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0.8935124000126962</v>
+        <v>0.8952019999996992</v>
       </c>
       <c r="J99" t="n">
-        <v>0.005655141772232255</v>
+        <v>0.005665835443036071</v>
       </c>
     </row>
     <row r="100">
@@ -4525,11 +4525,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[0.7150627374649048, 0.6396678686141968, 0.8779959082603455, 0.6846199631690979, 0.9220423102378845, 0.8289116024971008, 0.5881112813949585, 0.8652026653289795, 0.8163710236549377, 0.880554735660553, 0.9573532938957214, 0.9644755125045776, 0.7531459927558899, 0.5089947581291199, 0.8077235221862793, 0.7068364024162292, 0.9582338333129883, 0.9177566766738892, 0.9546144008636475, 0.9723197817802429, 0.8887871503829956, 0.8897031545639038, 0.7089802026748657, 0.739453136920929, 0.7734221816062927, 0.8347615599632263, 0.9676436185836792, 0.6368382573127747, 0.7271661758422852, 0.9530070424079895, 0.9611015915870667, 0.9565039873123169, 0.9474388957023621, 0.8997071981430054, 0.6719065308570862, 0.8723705410957336, 0.9012749195098877, 0.8595529198646545, 0.8184448480606079, 0.8612505793571472, 0.7955779433250427, 0.3168586194515228, 0.60372394323349, 0.5949360728263855, 0.22159245610237122, 0.1263629049062729, 0.20811249315738678, 0.09825941920280457, 0.5611705183982849, 0.6690939664840698, 0.7128982543945312, 0.8441486954689026, 0.8005730509757996, 0.8002300262451172, 0.6909890174865723, 0.6739696860313416, 0.7749620676040649, 0.9314858913421631, 0.7944438457489014, 0.9015122056007385, 0.8728276491165161, 0.7756518721580505, 0.41306859254837036, 0.18731628358364105, 0.18472862243652344, 0.19017869234085083, 0.25864025950431824, 0.2167462706565857, 0.5217490196228027, 0.926486611366272, 0.9765912294387817, 0.9716684222221375, 0.9429460167884827, 0.7582474946975708, 0.8088914752006531, 0.936721920967102, 0.9401735067367554, 0.7485362887382507, 0.6374801993370056, 0.5610320568084717, 0.5349369645118713, 0.31534066796302795, 0.4865892827510834, 0.3550696074962616, 0.6937963366508484, 0.7325345873832703, 0.5530698299407959, 0.3179112672805786, 0.740115225315094, 0.5192398428916931, 0.44813695549964905, 0.4028606712818146, 0.7433270812034607, 0.7206553816795349, 0.9387685656547546, 0.9460808038711548, 0.9652387499809265, 0.9124547243118286, 0.8658986687660217, 0.518810510635376, 0.44508251547813416, 0.656927227973938, 0.5565065145492554, 0.3185156285762787, 0.18325041234493256, 0.2739379107952118, 0.11529028415679932, 0.2563702464103699, 0.5953549742698669, 0.4873068332672119, 0.35396236181259155, 0.29501914978027344, 0.32855337858200073, 0.27379223704338074, 0.22600045800209045, 0.16723912954330444, 0.24180138111114502, 0.3018970489501953, 0.15700282156467438, 0.19198010861873627, 0.13859757781028748, 0.2732293903827667, 0.27363553643226624, 0.3094685673713684, 0.40849921107292175, 0.14616885781288147, 0.1448766440153122, 0.6697559356689453, 0.5117657780647278, 0.6105673909187317, 0.8739911317825317, 0.5174967050552368, 0.717872142791748, 0.8844521641731262, 0.9090573787689209, 0.8261957764625549, 0.8280332684516907, 0.7062724232673645, 0.8443740606307983, 0.874269425868988, 0.8747550845146179, 0.9381869435310364, 0.9142731428146362, 0.882512629032135, 0.7125031352043152, 0.7516933083534241, 0.7823041081428528, 0.7912651896476746, 0.8827078938484192, 0.9258402585983276, 0.9157642126083374, 0.9470235705375671, 0.9342595338821411, 0.9614232182502747, 0.9709286689758301, 0.9002322554588318, 0.8890817165374756, 0.8900505304336548]</t>
+          <t>[0.5426238775253296, 0.5039673447608948, 0.7708836197853088, 0.5677787065505981, 0.8316231966018677, 0.5145806074142456, 0.33119678497314453, 0.7304629683494568, 0.6091284155845642, 0.7811511754989624, 0.893169641494751, 0.8996242880821228, 0.5457607507705688, 0.33603012561798096, 0.5204693675041199, 0.4697560966014862, 0.9013770818710327, 0.8703964948654175, 0.9305383563041687, 0.9482893943786621, 0.8107468485832214, 0.6795485019683838, 0.4109595715999603, 0.47917991876602173, 0.49332138895988464, 0.624061107635498, 0.9308158159255981, 0.5060518980026245, 0.684795618057251, 0.9231200814247131, 0.9456436634063721, 0.9496581554412842, 0.925487220287323, 0.8187552690505981, 0.5614370703697205, 0.7508809566497803, 0.7930687069892883, 0.6858049631118774, 0.6846567988395691, 0.7400546669960022, 0.6762407422065735, 0.21768005192279816, 0.4316588342189789, 0.30090513825416565, 0.0898578017950058, 0.03681637719273567, 0.04639594629406929, 0.03003172017633915, 0.2833142578601837, 0.40434351563453674, 0.4299686551094055, 0.6481677889823914, 0.4669475555419922, 0.5736542344093323, 0.4103703796863556, 0.35799044370651245, 0.4978436231613159, 0.7890802621841431, 0.5062643885612488, 0.6798151135444641, 0.6647884249687195, 0.4952520728111267, 0.17271338403224945, 0.08977359533309937, 0.054049573838710785, 0.09979825466871262, 0.13785375654697418, 0.09382068365812302, 0.22935862839221954, 0.7866417169570923, 0.9404311180114746, 0.9374248385429382, 0.88813316822052, 0.6015012264251709, 0.6753469705581665, 0.8953384160995483, 0.905544638633728, 0.5958684682846069, 0.5929656028747559, 0.39117902517318726, 0.4169132709503174, 0.28658488392829895, 0.3221566081047058, 0.24165619909763336, 0.5650638341903687, 0.6383938789367676, 0.4130474328994751, 0.21586358547210693, 0.6283529996871948, 0.5725688934326172, 0.5057014226913452, 0.3694603741168976, 0.6599453687667847, 0.6900361776351929, 0.9206571578979492, 0.9235440492630005, 0.9516354203224182, 0.8350912928581238, 0.8298223614692688, 0.5283008217811584, 0.4622425436973572, 0.5511987805366516, 0.4591107964515686, 0.2736389636993408, 0.11955452710390091, 0.19424690306186676, 0.07743233442306519, 0.1621689796447754, 0.41298750042915344, 0.37028151750564575, 0.2803080379962921, 0.2612837255001068, 0.19757018983364105, 0.16356803476810455, 0.14505630731582642, 0.1309524029493332, 0.12755076587200165, 0.2096424698829651, 0.10571903735399246, 0.13672585785388947, 0.08477367460727692, 0.23518036305904388, 0.17326290905475616, 0.15578404068946838, 0.21546564996242523, 0.06338868290185928, 0.0822819396853447, 0.3206859827041626, 0.2290797084569931, 0.3932085931301117, 0.6848548650741577, 0.4034212529659271, 0.5972591042518616, 0.7936493158340454, 0.7963775396347046, 0.7378529906272888, 0.7213957905769348, 0.5676669478416443, 0.7246263027191162, 0.7755624055862427, 0.7209997773170471, 0.893881618976593, 0.8591443300247192, 0.8516785502433777, 0.6198485493659973, 0.5966793298721313, 0.6520475149154663, 0.6358805894851685, 0.8084313869476318, 0.8136760592460632, 0.8819172382354736, 0.934063732624054, 0.9245611429214478, 0.939934492111206, 0.9562219381332397, 0.8795822858810425, 0.8664444088935852, 0.8676239252090454]</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.9765912294387817</v>
+        <v>0.9562219381332397</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0.8815229999891017</v>
+        <v>0.8844055999943521</v>
       </c>
       <c r="J100" t="n">
-        <v>0.005579259493601909</v>
+        <v>0.005597503797432608</v>
       </c>
     </row>
     <row r="101">
@@ -4565,11 +4565,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[0.12642288208007812, 0.09829258173704147, 0.15373671054840088, 0.1649986207485199, 0.19458064436912537, 0.20134493708610535, 0.19400359690189362, 0.4643327593803406, 0.24707402288913727, 0.19653312861919403, 0.17057624459266663, 0.31138941645622253, 0.3758147060871124, 0.4242178201675415, 0.3602753281593323, 0.32092031836509705, 0.3080422580242157, 0.24692243337631226, 0.21446534991264343, 0.37555813789367676, 0.31021469831466675, 0.24215833842754364, 0.23187965154647827, 0.18757624924182892, 0.20370766520500183, 0.16486573219299316, 0.13181734085083008, 0.14853036403656006, 0.13482791185379028, 0.11557384580373764, 0.16062206029891968, 0.28349828720092773, 0.11824462562799454, 0.17239004373550415, 0.18669135868549347, 0.15696905553340912, 0.15250420570373535, 0.234669029712677, 0.17523178458213806, 0.23800265789031982, 0.1297503113746643, 0.12293200194835663, 0.11040067672729492, 0.21830885112285614, 0.2686542272567749, 0.251867413520813, 0.3051546812057495, 0.29228004813194275, 0.4813214838504791, 0.24515120685100555, 0.17662742733955383, 0.2029799371957779, 0.27503064274787903, 0.1677340567111969, 0.30814534425735474, 0.4172983169555664, 0.2645781934261322, 0.3777649998664856, 0.2536821663379669, 0.16505979001522064, 0.4263274073600769, 0.4523313045501709, 0.49045124650001526, 0.2206500917673111, 0.2968786954879761, 0.2658661901950836, 0.20256903767585754, 0.22289544343948364, 0.16443809866905212, 0.16941256821155548, 0.1814931035041809, 0.19178910553455353, 0.2869519591331482, 0.23815232515335083, 0.21129682660102844, 0.4562404751777649, 0.6850699186325073, 0.6201283931732178, 0.45562979578971863, 0.41041460633277893, 0.20657120645046234, 0.1993924081325531, 0.10827989876270294, 0.26523593068122864, 0.21658554673194885, 0.26320505142211914, 0.15026243031024933, 0.21907342970371246, 0.1305677741765976, 0.4054567813873291, 0.2631968855857849, 0.20447394251823425, 0.16215959191322327, 0.17824198305606842, 0.18239380419254303, 0.14594273269176483, 0.1458001583814621, 0.1644127517938614, 0.14511096477508545, 0.20828963816165924, 0.24773554503917694, 0.2144348919391632, 0.12463691085577011, 0.21578457951545715, 0.27338042855262756, 0.2689560055732727, 0.22589920461177826, 0.18600502610206604, 0.15640991926193237, 0.12265176326036453, 0.12513555586338043, 0.1735834777355194, 0.11957883089780807, 0.144174262881279, 0.16725066304206848, 0.2632133662700653, 0.35650306940078735, 0.3561263680458069]</t>
+          <t>[0.03436391428112984, 0.02232591062784195, 0.04247650131583214, 0.04283718764781952, 0.10296332091093063, 0.08461719751358032, 0.0567413754761219, 0.2682912051677704, 0.09503842890262604, 0.07450088113546371, 0.07583047449588776, 0.18302978575229645, 0.2849782109260559, 0.27682551741600037, 0.12545180320739746, 0.177003875374794, 0.1318955272436142, 0.08785732835531235, 0.10271506011486053, 0.19089825451374054, 0.13516157865524292, 0.08945520967245102, 0.10131876915693283, 0.08150152862071991, 0.08272691816091537, 0.06178877502679825, 0.038990020751953125, 0.04509013146162033, 0.05018087849020958, 0.04097503051161766, 0.06817545741796494, 0.16093048453330994, 0.034613121300935745, 0.06698043644428253, 0.08711244910955429, 0.0736033245921135, 0.07553612440824509, 0.11886873841285706, 0.053041283041238785, 0.0888056680560112, 0.06022040545940399, 0.04263899847865105, 0.026109838858246803, 0.1022585853934288, 0.15797346830368042, 0.1351887583732605, 0.12834443151950836, 0.10775495320558548, 0.25287505984306335, 0.16308917105197906, 0.0893457755446434, 0.11916878819465637, 0.17907214164733887, 0.10923529416322708, 0.3071320354938507, 0.298106849193573, 0.13596250116825104, 0.14849457144737244, 0.1407141238451004, 0.07397160679101944, 0.16169561445713043, 0.24143026769161224, 0.25317084789276123, 0.062192920595407486, 0.09924785047769547, 0.09037204831838608, 0.057734500616788864, 0.065781369805336, 0.04760124906897545, 0.03597171977162361, 0.047622717916965485, 0.046570707112550735, 0.11275734752416611, 0.07288840413093567, 0.09488716721534729, 0.3688323497772217, 0.5987372994422913, 0.5808950662612915, 0.26528501510620117, 0.29618388414382935, 0.10239268094301224, 0.1042676791548729, 0.042129289358854294, 0.1151656061410904, 0.07266965508460999, 0.15355020761489868, 0.06018626317381859, 0.10234741121530533, 0.05078635364770889, 0.19085060060024261, 0.07947888225317001, 0.06588173657655716, 0.06010262668132782, 0.06998799741268158, 0.069980189204216, 0.05916108563542366, 0.06877885013818741, 0.07753336429595947, 0.05720706284046173, 0.07448433339595795, 0.12161648273468018, 0.11467622965574265, 0.04547477141022682, 0.07461531460285187, 0.10117018222808838, 0.15709583461284637, 0.11108942329883575, 0.08967697620391846, 0.05272890254855156, 0.04078466445207596, 0.04518348351120949, 0.07423002272844315, 0.04657057300209999, 0.07604533433914185, 0.05581877753138542, 0.14683274924755096, 0.17352886497974396, 0.1732146143913269]</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.6850699186325073</v>
+        <v>0.5987372994422913</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0.6734587000100873</v>
+        <v>0.7045025999977952</v>
       </c>
       <c r="J101" t="n">
-        <v>0.005707277118729554</v>
+        <v>0.005970361016930468</v>
       </c>
     </row>
     <row r="102">
@@ -4605,11 +4605,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[0.14272315800189972, 0.13436131179332733, 0.12868931889533997, 0.1531061977148056, 0.1301853507757187, 0.09466732293367386, 0.155826136469841, 0.1292722374200821, 0.12259738147258759, 0.16719754040241241, 0.1611912101507187, 0.1744537204504013, 0.15229062736034393, 0.08193723857402802, 0.19068172574043274, 0.2204565554857254, 0.19093956053256989, 0.19353191554546356, 0.3134976923465729, 0.19614434242248535, 0.15054894983768463, 0.17669785022735596, 0.24499768018722534, 0.2123626172542572, 0.1975494772195816, 0.14881691336631775, 0.11394192278385162, 0.1369369477033615, 0.11390750855207443, 0.15889130532741547, 0.08425327390432358, 0.08251507580280304, 0.11788157373666763, 0.08682718127965927, 0.09196136891841888, 0.08445554226636887, 0.08574724942445755, 0.09892231225967407, 0.07219807803630829, 0.059220246970653534, 0.11418335139751434, 0.0943964496254921, 0.26523691415786743, 0.12127774953842163, 0.1886342316865921, 0.10629325360059738, 0.18626436591148376, 0.09262586385011673, 0.11104630678892136, 0.11525381356477737, 0.092347152531147, 0.08897049725055695, 0.12426412850618362, 0.15810896456241608, 0.18341368436813354, 0.2234809398651123, 0.18724139034748077, 0.13601498305797577, 0.1297045201063156, 0.10162115842103958, 0.14322684705257416, 0.2926994860172272, 0.16770292818546295, 0.1868518888950348, 0.15471094846725464, 0.08975624293088913, 0.27620381116867065, 0.333701491355896, 0.15574350953102112, 0.11115407198667526, 0.1591884046792984, 0.13326247036457062, 0.1443188190460205, 0.22668345272541046, 0.10285406559705734, 0.12791123986244202, 0.0911499410867691, 0.11143212765455246, 0.18997465074062347, 0.14502018690109253, 0.17699633538722992, 0.2317606806755066, 0.25681206583976746, 0.1321449726819992, 0.1520444005727768, 0.08873205631971359, 0.0904836356639862, 0.11622538417577744, 0.10791371762752533, 0.08656395971775055, 0.05752820894122124, 0.1264648139476776, 0.10362677276134491, 0.17000265419483185, 0.22163957357406616, 0.3354637324810028, 0.1880880743265152, 0.1288897842168808, 0.09036450833082199, 0.1382056176662445, 0.11488170176744461, 0.3506104350090027, 0.12518218159675598, 0.24749404191970825, 0.3688402771949768, 0.6371092796325684, 0.7341433763504028, 0.3237674832344055, 0.3134998083114624, 0.22394779324531555, 0.19464947283267975, 0.14162980020046234, 0.15422192215919495, 0.12510791420936584, 0.12651732563972473, 0.095437191426754, 0.17139294743537903, 0.17111213505268097]</t>
+          <t>[0.06914439797401428, 0.051819201558828354, 0.042696427553892136, 0.06639862060546875, 0.05635259300470352, 0.037879232317209244, 0.0774059072136879, 0.05094832181930542, 0.051980625838041306, 0.07441319525241852, 0.07614793628454208, 0.0908447802066803, 0.07589375972747803, 0.031191511079669, 0.08176230639219284, 0.10277456045150757, 0.10132493078708649, 0.10237850248813629, 0.12987232208251953, 0.0835491493344307, 0.06231275945901871, 0.08669321238994598, 0.12301582098007202, 0.10753854364156723, 0.10022232681512833, 0.05584586411714554, 0.04976090043783188, 0.060015443712472916, 0.05438271537423134, 0.08242499828338623, 0.03970381245017052, 0.03466246649622917, 0.03977631404995918, 0.033688466995954514, 0.038823921233415604, 0.04624568298459053, 0.040476832538843155, 0.04397173970937729, 0.035637371242046356, 0.0292320866137743, 0.056832317262887955, 0.04164325073361397, 0.12035170197486877, 0.05846145749092102, 0.07829845696687698, 0.03697001561522484, 0.11690037697553635, 0.041524991393089294, 0.05947152152657509, 0.04768714681267738, 0.039602603763341904, 0.03184322267770767, 0.05241745710372925, 0.081236332654953, 0.10233000665903091, 0.12719334661960602, 0.08006840944290161, 0.049518242478370667, 0.0660342425107956, 0.05290631949901581, 0.06609606742858887, 0.11445845663547516, 0.06399174779653549, 0.09526452422142029, 0.08105975389480591, 0.04089656472206116, 0.21254275739192963, 0.1773761510848999, 0.08181554079055786, 0.04674543812870979, 0.06020144745707512, 0.040427908301353455, 0.05268748104572296, 0.11155381053686142, 0.03198305517435074, 0.056446000933647156, 0.03673728182911873, 0.046982619911432266, 0.11886473745107651, 0.058331284672021866, 0.06037139147520065, 0.08732729405164719, 0.09338147938251495, 0.0354398638010025, 0.04741140082478523, 0.02591153420507908, 0.022642027586698532, 0.03162861242890358, 0.02974078245460987, 0.022734204307198524, 0.015387865714728832, 0.04306957870721817, 0.024204125627875328, 0.06063224747776985, 0.07802805304527283, 0.12917248904705048, 0.08616885542869568, 0.055740732699632645, 0.045150741934776306, 0.05429685115814209, 0.050562676042318344, 0.2566167116165161, 0.05472886189818382, 0.1384878158569336, 0.20152747631072998, 0.5021135807037354, 0.5251314043998718, 0.19925163686275482, 0.1543923318386078, 0.1283435821533203, 0.06721992045640945, 0.053718265146017075, 0.05314059555530548, 0.046576451510190964, 0.035247113555669785, 0.032063987106084824, 0.07812788337469101, 0.07793769240379333]</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.7341433763504028</v>
+        <v>0.5251314043998718</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
@@ -4623,10 +4623,10 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0.7727829999930691</v>
+        <v>0.7697917999903439</v>
       </c>
       <c r="J102" t="n">
-        <v>0.006549008474517535</v>
+        <v>0.006523659321952067</v>
       </c>
     </row>
     <row r="103">
@@ -4645,11 +4645,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[0.5245351195335388, 0.6061443090438843, 0.6560258269309998, 0.560370147228241, 0.4816739559173584, 0.527808427810669, 0.5760204792022705, 0.4818984270095825, 0.4083048701286316, 0.4115036427974701, 0.44983041286468506, 0.5698139071464539, 0.526077926158905, 0.47992998361587524, 0.8479816913604736, 0.8794509172439575, 0.7217001914978027, 0.6843696236610413, 0.7397290468215942, 0.8419445157051086, 0.9267105460166931, 0.8798514008522034, 0.9026840925216675, 0.9799372553825378, 0.9717815518379211, 0.9833998084068298, 0.991245687007904, 0.9798904657363892, 0.9670830368995667, 0.947668731212616, 0.9133599996566772, 0.8417140245437622, 0.8159021139144897, 0.870145320892334, 0.7909954786300659, 0.6399775147438049, 0.5841571688652039, 0.4619615972042084, 0.4942938983440399, 0.34117668867111206, 0.3700259029865265, 0.7095556855201721, 0.8587216734886169, 0.9429457783699036, 0.9271219968795776, 0.9760662317276001, 0.972788393497467, 0.9635259509086609, 0.9772787690162659, 0.9172236323356628, 0.8458929657936096, 0.6984428763389587, 0.8489026427268982, 0.854289174079895, 0.8412545323371887, 0.8766471147537231, 0.21114914119243622, 0.30781981348991394, 0.3988800346851349, 0.5040192008018494, 0.3810206949710846, 0.7208203077316284, 0.6003809571266174, 0.40781843662261963, 0.3626168966293335, 0.37620773911476135, 0.40081778168678284, 0.6631485819816589, 0.6434440016746521, 0.5398767590522766, 0.4413442015647888, 0.5192052125930786, 0.5975639224052429, 0.39824149012565613, 0.38146281242370605, 0.36563390493392944, 0.3584529459476471, 0.3950003981590271, 0.4759117662906647, 0.6337960362434387, 0.7796312570571899, 0.6129770278930664, 0.5008546710014343, 0.3869319260120392, 0.49135592579841614, 0.647522509098053, 0.6326338052749634, 0.8130686283111572, 0.896378755569458, 0.9568773508071899, 0.8911987543106079, 0.9101836085319519, 0.6678091287612915, 0.6376177668571472, 0.8841468691825867, 0.7678187489509583, 0.6054906249046326, 0.7975115180015564, 0.6289681792259216, 0.6076850891113281, 0.6128298044204712, 0.44315341114997864, 0.6723312735557556, 0.7067253589630127, 0.8243305087089539, 0.8730316162109375, 0.9091743230819702, 0.611467719078064, 0.7415854930877686, 0.6935761570930481, 0.8025622963905334, 0.7275514006614685, 0.6408449411392212, 0.6336811780929565, 0.4455162286758423, 0.48682284355163574, 0.39761045575141907, 0.39748191833496094]</t>
+          <t>[0.5478395819664001, 0.5603037476539612, 0.5938948392868042, 0.44304192066192627, 0.3796985149383545, 0.5782209634780884, 0.66863614320755, 0.47113609313964844, 0.28187134861946106, 0.2901781499385834, 0.3324792981147766, 0.49590080976486206, 0.4262602627277374, 0.4096660315990448, 0.872943103313446, 0.912676215171814, 0.7220020294189453, 0.7077667713165283, 0.8013152480125427, 0.8436709046363831, 0.9227988719940186, 0.8845191597938538, 0.9137759804725647, 0.9891440272331238, 0.9854317307472229, 0.9920753240585327, 0.9958683252334595, 0.9864742159843445, 0.9828962683677673, 0.9764901399612427, 0.9537554383277893, 0.9015984535217285, 0.8453339338302612, 0.8636953830718994, 0.8188445568084717, 0.6571627855300903, 0.5993210673332214, 0.4580022096633911, 0.4372897446155548, 0.1901184767484665, 0.21409077942371368, 0.7606129050254822, 0.9099533557891846, 0.9704289436340332, 0.9615468978881836, 0.9895930290222168, 0.982920229434967, 0.9730775952339172, 0.9852688908576965, 0.8769153952598572, 0.8486250638961792, 0.7714780569076538, 0.9018685817718506, 0.8155773878097534, 0.8073716163635254, 0.9010930061340332, 0.10167954117059708, 0.2158820778131485, 0.23817294836044312, 0.4093749523162842, 0.2543163001537323, 0.7646471858024597, 0.5981836318969727, 0.3144542872905731, 0.3608241379261017, 0.2570696473121643, 0.2308589220046997, 0.7238877415657043, 0.7496986389160156, 0.467776358127594, 0.41293200850486755, 0.5295854210853577, 0.7961207628250122, 0.45469218492507935, 0.2972211539745331, 0.3248573839664459, 0.3700958490371704, 0.29843008518218994, 0.34645915031433105, 0.6366003751754761, 0.8175767660140991, 0.6842186450958252, 0.5991576313972473, 0.2836471199989319, 0.4120092988014221, 0.7169926166534424, 0.6098645925521851, 0.828687310218811, 0.9287311434745789, 0.9728202819824219, 0.9437894225120544, 0.9527290463447571, 0.657742440700531, 0.6911799311637878, 0.9232506155967712, 0.7692025899887085, 0.5924657583236694, 0.8822062611579895, 0.6115814447402954, 0.47914764285087585, 0.6029587984085083, 0.2685302793979645, 0.725890576839447, 0.7598896026611328, 0.871181070804596, 0.8780025243759155, 0.9236799478530884, 0.5714163780212402, 0.6651050448417664, 0.6270701885223389, 0.7796382904052734, 0.6537637114524841, 0.5808594822883606, 0.4909721910953522, 0.3000562787055969, 0.3323497474193573, 0.2415202260017395, 0.24162064492702484]</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.9912456870079041</v>
+        <v>0.9958683252334595</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0.668319699994754</v>
+        <v>0.6692093000019668</v>
       </c>
       <c r="J103" t="n">
-        <v>0.005663726271141984</v>
+        <v>0.005671265254253956</v>
       </c>
     </row>
     <row r="104">
@@ -4685,11 +4685,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[0.5613561868667603, 0.5277066230773926, 0.4959947168827057, 0.4518375098705292, 0.3362748920917511, 0.2893025875091553, 0.39768749475479126, 0.4379716217517853, 0.4682948887348175, 0.22361958026885986, 0.37744730710983276, 0.3579519987106323, 0.5887136459350586, 0.8407407999038696, 0.8091362118721008, 0.3807365298271179, 0.36271050572395325, 0.7838403582572937, 0.5979321599006653, 0.6503505110740662, 0.5545874238014221, 0.6316616535186768, 0.464598685503006, 0.42165613174438477, 0.5113489031791687, 0.2828501760959625, 0.43988198041915894, 0.617633044719696, 0.32887914776802063, 0.23013901710510254, 0.5132592916488647, 0.4623807668685913, 0.5130961537361145, 0.36083099246025085, 0.41481736302375793, 0.6315057873725891, 0.504215657711029, 0.31887003779411316, 0.3520336449146271, 0.6654018759727478, 0.5429278612136841, 0.6718651056289673, 0.5031630992889404, 0.5002927184104919, 0.26778775453567505, 0.547894299030304, 0.44290679693222046, 0.453856885433197, 0.8043321371078491, 0.5288166999816895, 0.5593721866607666, 0.44682082533836365, 0.46085870265960693, 0.53785240650177, 0.6420366168022156, 0.9442911148071289, 0.8024137020111084, 0.7650559544563293, 0.46859994530677795, 0.5093656778335571, 0.6399798393249512, 0.7935805320739746, 0.5712838172912598, 0.6226811408996582, 0.6362772583961487, 0.6885868906974792, 0.611560583114624, 0.5865848660469055, 0.7772870659828186, 0.5338549613952637, 0.6255959868431091, 0.48765474557876587, 0.7893750071525574, 0.8551729917526245, 0.8003069162368774, 0.668815016746521, 0.694559633731842, 0.6579568982124329, 0.757727324962616, 0.7725901007652283, 0.7976012229919434, 0.5063597559928894, 0.5064035654067993, 0.7953755259513855, 0.8436385989189148, 0.5586981773376465, 0.8402724862098694, 0.6190159320831299, 0.7449608445167542, 0.5279610753059387, 0.9379912614822388, 0.6726278066635132, 0.6798402070999146, 0.5860410332679749, 0.5702857375144958, 0.6809432506561279, 0.5301089286804199, 0.9196711778640747, 0.9224552512168884, 0.7643377184867859, 0.6817130446434021, 0.8022222518920898, 0.7555642127990723, 0.3597395718097687, 0.2190781533718109, 0.4734944701194763, 0.6496819257736206, 0.6620338559150696, 0.7892493009567261, 0.6264677047729492, 0.6057618260383606, 0.49422845244407654, 0.3516848087310791, 0.49614182114601135, 0.49742552638053894]</t>
+          <t>[0.7160897850990295, 0.6903898119926453, 0.6321008801460266, 0.48040565848350525, 0.2917521595954895, 0.27229976654052734, 0.43050962686538696, 0.5039507746696472, 0.4611716866493225, 0.17654204368591309, 0.32184651494026184, 0.42449474334716797, 0.8011149764060974, 0.9235470294952393, 0.8977651596069336, 0.4610317051410675, 0.3234649896621704, 0.873511791229248, 0.7522762417793274, 0.7725554704666138, 0.6914297342300415, 0.7673207521438599, 0.49251842498779297, 0.4218291640281677, 0.42741742730140686, 0.18796269595623016, 0.36729124188423157, 0.6412259340286255, 0.3892315924167633, 0.1649976223707199, 0.5825139880180359, 0.5772857666015625, 0.6621185541152954, 0.31934911012649536, 0.40842577815055847, 0.6754152774810791, 0.5007124543190002, 0.3177533447742462, 0.34487947821617126, 0.8044043183326721, 0.7718738913536072, 0.7464240789413452, 0.6127961874008179, 0.7375686168670654, 0.2142248898744583, 0.6791986227035522, 0.5287339687347412, 0.49574193358421326, 0.840781569480896, 0.5122279524803162, 0.583101749420166, 0.2691558301448822, 0.40419986844062805, 0.49438443779945374, 0.51554274559021, 0.9541431665420532, 0.8453009128570557, 0.8177704215049744, 0.48385486006736755, 0.6424392461776733, 0.7372684478759766, 0.8951809406280518, 0.6367433667182922, 0.7749049663543701, 0.8172916769981384, 0.8069045543670654, 0.6658768057823181, 0.7837188243865967, 0.8501379489898682, 0.6783417463302612, 0.7920269966125488, 0.5965557098388672, 0.8603161573410034, 0.9302356243133545, 0.9141173362731934, 0.7027072310447693, 0.7357669472694397, 0.8246136903762817, 0.8254276514053345, 0.9200495481491089, 0.9062082767486572, 0.6737750768661499, 0.5748292803764343, 0.8156489133834839, 0.8275240659713745, 0.6685078740119934, 0.9036678671836853, 0.5932500958442688, 0.723164439201355, 0.4762822985649109, 0.961268424987793, 0.7912655472755432, 0.7130563259124756, 0.5117586255073547, 0.7941257953643799, 0.7408517599105835, 0.5279494524002075, 0.9417062401771545, 0.9540761709213257, 0.7827330231666565, 0.8440696597099304, 0.8995968103408813, 0.8938331604003906, 0.42890340089797974, 0.21765856444835663, 0.36905646324157715, 0.6377820372581482, 0.7347946763038635, 0.8203915953636169, 0.6650879383087158, 0.7186254262924194, 0.43445733189582825, 0.3324325382709503, 0.5243955254554749, 0.5253562927246094]</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.9442911148071289</v>
+        <v>0.961268424987793</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
@@ -4703,10 +4703,10 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0.6543692999985069</v>
+        <v>0.6588515000039479</v>
       </c>
       <c r="J104" t="n">
-        <v>0.005690167826073973</v>
+        <v>0.005729143478295198</v>
       </c>
     </row>
     <row r="105">
@@ -4725,11 +4725,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>[0.9378215074539185, 0.9719915986061096, 0.9318227171897888, 0.9390692710876465, 0.8250282406806946, 0.18112951517105103, 0.09860814362764359, 0.2898799180984497, 0.3553929030895233, 0.5640614032745361, 0.691903829574585, 0.7635629773139954, 0.5571034550666809, 0.7492799758911133, 0.7485588788986206, 0.30361485481262207, 0.3321440815925598, 0.38764944672584534, 0.7939937114715576, 0.6792558431625366, 0.5949368476867676, 0.30043020844459534, 0.4023344814777374, 0.3195344805717468, 0.5799832344055176, 0.9078958630561829, 0.8989303708076477, 0.7826910614967346, 0.6697360277175903, 0.5106561779975891, 0.21432121098041534, 0.43893787264823914, 0.6342068910598755, 0.6877209544181824, 0.5907483696937561, 0.6915029287338257, 0.5078192949295044, 0.48082420229911804, 0.8098342418670654, 0.32240167260169983, 0.38712841272354126, 0.6217572689056396, 0.4923449754714966, 0.5040993690490723, 0.9112720489501953, 0.7002767324447632, 0.2837306261062622, 0.1517905741930008, 0.29488080739974976, 0.6800908446311951, 0.7842695116996765, 0.7966890335083008, 0.8446665406227112, 0.9593051075935364, 0.9661761522293091, 0.9019712805747986, 0.8260223269462585, 0.9508739113807678, 0.9331342577934265, 0.9231511354446411, 0.8996553421020508, 0.8353831171989441, 0.8237708210945129, 0.9372851252555847, 0.9455963969230652, 0.9839956164360046, 0.9737153053283691, 0.9358651041984558, 0.8568560481071472, 0.7991704940795898, 0.887858510017395, 0.6590973138809204, 0.9337140917778015, 0.9543207287788391, 0.9523665308952332, 0.881236732006073, 0.8944077491760254, 0.7586130499839783, 0.7172199487686157, 0.785898745059967, 0.8160240650177002, 0.790181577205658, 0.288386732339859, 0.3684697449207306, 0.3479941189289093, 0.24844467639923096, 0.5413631796836853, 0.7632718086242676, 0.9041802287101746, 0.837538480758667, 0.6377388834953308, 0.32503822445869446, 0.36499524116516113, 0.7966264486312866, 0.7765849828720093, 0.8704387545585632, 0.9051439762115479, 0.8854156732559204, 0.857217013835907, 0.6843715310096741, 0.5578939914703369, 0.7793543934822083, 0.9438731074333191, 0.970150351524353, 0.8856171369552612, 0.836245596408844, 0.9046823382377625, 0.8957189917564392, 0.6625757813453674, 0.9268010854721069, 0.8844743967056274, 0.8079974055290222, 0.8850119709968567, 0.7537445425987244, 0.7116947770118713, 0.9419676065444946, 0.8909363150596619, 0.8907526731491089]</t>
+          <t>[0.9312424659729004, 0.9732049107551575, 0.9096716642379761, 0.9289084672927856, 0.7389354109764099, 0.06917556375265121, 0.04673638567328453, 0.15789204835891724, 0.22195777297019958, 0.4852413237094879, 0.7302529215812683, 0.6945851445198059, 0.5695432424545288, 0.717232346534729, 0.7058596014976501, 0.18344354629516602, 0.2614571154117584, 0.16421228647232056, 0.5679464936256409, 0.482443630695343, 0.3039599359035492, 0.20659680664539337, 0.31805285811424255, 0.23847544193267822, 0.4805043637752533, 0.9152730107307434, 0.9091820120811462, 0.7827008962631226, 0.5513430237770081, 0.32850614190101624, 0.1336951106786728, 0.39141759276390076, 0.5917696356773376, 0.42741358280181885, 0.50108802318573, 0.5478851199150085, 0.4568069577217102, 0.42526745796203613, 0.7669724225997925, 0.28601816296577454, 0.519324541091919, 0.6385278701782227, 0.4053046405315399, 0.3425561487674713, 0.9103977680206299, 0.6467459201812744, 0.2789609730243683, 0.09319932013750076, 0.1516900211572647, 0.49567097425460815, 0.6795843839645386, 0.8078559637069702, 0.8230311870574951, 0.966214656829834, 0.9700352549552917, 0.9141260981559753, 0.8232592344284058, 0.9467945098876953, 0.9284607768058777, 0.898861825466156, 0.8814173936843872, 0.858902096748352, 0.7296714782714844, 0.943124532699585, 0.9532687664031982, 0.9873707294464111, 0.9808949828147888, 0.9431454539299011, 0.812553882598877, 0.8021809458732605, 0.9064049124717712, 0.661071240901947, 0.9259705543518066, 0.9533364772796631, 0.9477757811546326, 0.9059054255485535, 0.8947636485099792, 0.6264182925224304, 0.6828364729881287, 0.6898804306983948, 0.7700531482696533, 0.6345623135566711, 0.10888417065143585, 0.2077498584985733, 0.30601200461387634, 0.11549446731805801, 0.5200380682945251, 0.6641298532485962, 0.8206692934036255, 0.8333315849304199, 0.46527960896492004, 0.18697939813137054, 0.31822270154953003, 0.7692584991455078, 0.8164233565330505, 0.8606712222099304, 0.887778103351593, 0.8432137370109558, 0.8518397808074951, 0.6793487668037415, 0.3822731375694275, 0.6590241193771362, 0.9295153021812439, 0.9736521244049072, 0.8999045491218567, 0.8706718683242798, 0.8805390000343323, 0.8721529841423035, 0.4505312442779541, 0.8976797461509705, 0.8731404542922974, 0.8268393278121948, 0.8913177847862244, 0.7290921807289124, 0.6629423499107361, 0.9554078578948975, 0.8800403475761414, 0.8800309300422668]</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.9839956164360046</v>
+        <v>0.9873707294464111</v>
       </c>
       <c r="F105" t="n">
         <v>1</v>
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0.6732219000114128</v>
+        <v>0.6782335000025341</v>
       </c>
       <c r="J105" t="n">
-        <v>0.00570527033907977</v>
+        <v>0.005747741525445204</v>
       </c>
     </row>
     <row r="106">
@@ -4765,11 +4765,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>[0.759220540523529, 0.464563250541687, 0.5269812941551208, 0.5101950764656067, 0.48264238238334656, 0.3494689464569092, 0.5135445594787598, 0.2601182162761688, 0.3734413981437683, 0.1953607201576233, 0.29032543301582336, 0.32418951392173767, 0.2016628384590149, 0.24585282802581787, 0.3837626874446869, 0.4025634825229645, 0.8180812001228333, 0.3923749625682831, 0.37472039461135864, 0.1522836536169052, 0.2506304681301117, 0.3009812831878662, 0.8133091330528259, 0.5643693804740906, 0.37366509437561035, 0.27550774812698364, 0.3105981945991516, 0.3195365071296692, 0.416815847158432, 0.8123230338096619, 0.6363013386726379, 0.5670676827430725, 0.568079948425293, 0.5402827262878418, 0.6788449287414551, 0.7101891040802002, 0.5231831669807434, 0.417707234621048, 0.4088903069496155, 0.4445362985134125, 0.49920544028282166, 0.6645482182502747, 0.5843780040740967, 0.8446125984191895, 0.6897023320198059, 0.5032321810722351, 0.7062460780143738, 0.6412895321846008, 0.6877260804176331, 0.4211958944797516, 0.5015321373939514, 0.7593495845794678, 0.6345202922821045, 0.6551375389099121, 0.4812633693218231, 0.41995370388031006, 0.3929731249809265, 0.7074524164199829, 0.7637363076210022, 0.8022427558898926, 0.6326290369033813, 0.8215067386627197, 0.8229160904884338, 0.7479830980300903, 0.3039008378982544, 0.20707716047763824, 0.2489662617444992, 0.1798029989004135, 0.2056264728307724, 0.3982597887516022, 0.27448570728302, 0.14750085771083832, 0.1087627112865448, 0.13090720772743225, 0.2561384439468384, 0.17739666998386383, 0.3342664837837219, 0.4080803394317627, 0.2216474860906601, 0.41179874539375305, 0.2962576150894165, 0.3683927655220032, 0.3978990316390991, 0.723393976688385, 0.5254567861557007, 0.49794137477874756, 0.7081466913223267, 0.41937288641929626, 0.45714834332466125, 0.6852409839630127, 0.5358666777610779, 0.44119367003440857, 0.566083550453186, 0.30455124378204346, 0.4134935438632965, 0.48800310492515564, 0.6309138536453247, 0.27848556637763977, 0.5386083722114563, 0.5313394069671631, 0.47895923256874084, 0.23679184913635254, 0.2040509581565857, 0.5450125336647034, 0.31233519315719604, 0.33033487200737, 0.45979711413383484, 0.649684727191925, 0.7882084846496582, 0.7490379214286804, 0.6732311844825745, 0.2175336331129074, 0.35459083318710327, 0.3661711513996124, 0.30017781257629395, 0.3296225070953369, 0.2143564224243164, 0.21458689868450165]</t>
+          <t>[0.7130028009414673, 0.3684127926826477, 0.3878324031829834, 0.40627115964889526, 0.39394447207450867, 0.2417428195476532, 0.34882673621177673, 0.1474522054195404, 0.29352959990501404, 0.10788850486278534, 0.14072035253047943, 0.1351986825466156, 0.07474488019943237, 0.13634136319160461, 0.22362501919269562, 0.31948304176330566, 0.7966596484184265, 0.3898181617259979, 0.2390815019607544, 0.11590363830327988, 0.11870145052671432, 0.235553577542305, 0.8246204257011414, 0.47681954503059387, 0.28691592812538147, 0.18613646924495697, 0.174480140209198, 0.253652423620224, 0.2868918776512146, 0.7252805829048157, 0.482422411441803, 0.4743686616420746, 0.5490185618400574, 0.4410071074962616, 0.5602644085884094, 0.6812533140182495, 0.3592541813850403, 0.32986289262771606, 0.28227511048316956, 0.3055831789970398, 0.3914805054664612, 0.5809197425842285, 0.4796123504638672, 0.8031732439994812, 0.6738471984863281, 0.33467546105384827, 0.6216310858726501, 0.49858447909355164, 0.7035221457481384, 0.3289759159088135, 0.391691118478775, 0.6551178693771362, 0.6296819448471069, 0.5632250308990479, 0.3514191806316376, 0.41237324476242065, 0.42835551500320435, 0.616655707359314, 0.7141123414039612, 0.7583216428756714, 0.547927737236023, 0.7562620043754578, 0.8660515546798706, 0.6729063987731934, 0.2752869129180908, 0.16072438657283783, 0.14328037202358246, 0.10058148205280304, 0.12307378649711609, 0.19642756879329681, 0.1788930743932724, 0.09680105000734329, 0.04823627322912216, 0.06133574992418289, 0.14737555384635925, 0.09373482316732407, 0.16545650362968445, 0.24487002193927765, 0.1260799914598465, 0.3487861454486847, 0.15493805706501007, 0.20647267997264862, 0.26829394698143005, 0.52950119972229, 0.28151869773864746, 0.2877863943576813, 0.4944755733013153, 0.19537819921970367, 0.3317011296749115, 0.5749413967132568, 0.2944607138633728, 0.2626905143260956, 0.4007732570171356, 0.2120431512594223, 0.22892509400844574, 0.3494507074356079, 0.45193469524383545, 0.1120394766330719, 0.36485522985458374, 0.4128875434398651, 0.26605239510536194, 0.12064700573682785, 0.13851062953472137, 0.4420778453350067, 0.2051740437746048, 0.21054619550704956, 0.2587859332561493, 0.5474277138710022, 0.5891034603118896, 0.5838828682899475, 0.5349223017692566, 0.1540626883506775, 0.2864318788051605, 0.3001502752304077, 0.3147764503955841, 0.23958392441272736, 0.13458189368247986, 0.13524730503559113]</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.8446125984191895</v>
+        <v>0.8660515546798706</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
@@ -4783,10 +4783,10 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0.6684471000044141</v>
+        <v>0.6702477000071667</v>
       </c>
       <c r="J106" t="n">
-        <v>0.005664805932240798</v>
+        <v>0.005680065254298023</v>
       </c>
     </row>
     <row r="107">
@@ -4805,11 +4805,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[0.07417210191488266, 0.0820472240447998, 0.09508872032165527, 0.3283780813217163, 0.25656479597091675, 0.20848402380943298, 0.6158459782600403, 0.12391729652881622, 0.22185996174812317, 0.09239505976438522, 0.17093734443187714, 0.12078846246004105, 0.2856661081314087, 0.07311898469924927, 0.09934240579605103, 0.11259140819311142, 0.1199762374162674, 0.09933344274759293, 0.0988122820854187, 0.2033415138721466, 0.1576004922389984, 0.10951078683137894, 0.2614404261112213, 0.07244911044836044, 0.051096655428409576, 0.0978645533323288, 0.03738769516348839, 0.03787250816822052, 0.03151167556643486, 0.05389773100614548, 0.046507760882377625, 0.07061869651079178, 0.04635121673345566, 0.04309805482625961, 0.04092814400792122, 0.03549870103597641, 0.049217600375413895, 0.07604248076677322, 0.06372494995594025, 0.07257066667079926, 0.09082144498825073, 0.054421406239271164, 0.03519553691148758, 0.035561852157115936, 0.044743720442056656, 0.048198748379945755, 0.03427997604012489, 0.02985846810042858, 0.05692693963646889, 0.04065893217921257, 0.07596294581890106, 0.07435887306928635, 0.08559753745794296, 0.0567462295293808, 0.07394815981388092, 0.11146146804094315, 0.1155933141708374, 0.048754289746284485, 0.11369330435991287, 0.15922218561172485, 0.20022155344486237, 0.18482421338558197, 0.15248636901378632, 0.08482787013053894, 0.12180083245038986, 0.1656615287065506, 0.06327441334724426, 0.06518778204917908, 0.12535059452056885, 0.20294755697250366, 0.11768598854541779, 0.21524663269519806, 0.19281606376171112, 0.10558880865573883, 0.21787333488464355, 0.15254229307174683, 0.09449530392885208, 0.30523446202278137, 0.40820246934890747, 0.5363112092018127, 0.20180056989192963, 0.1106024980545044, 0.15182729065418243, 0.12229041755199432, 0.1580522358417511, 0.15782883763313293, 0.09550711512565613, 0.15852154791355133, 0.1580871045589447, 0.3640376031398773, 0.2937144935131073, 0.11009996384382248, 0.13481804728507996, 0.1683165580034256, 0.17507867515087128, 0.12981584668159485, 0.16520552337169647, 0.09671974182128906, 0.10143757611513138, 0.17518030107021332, 0.07900919765233994, 0.06554125994443893, 0.07234620302915573, 0.08679363876581192, 0.13336870074272156, 0.07683396339416504, 0.0742998719215393, 0.0584992915391922, 0.05851384252309799, 0.07748036831617355, 0.04212512448430061, 0.04581466689705849, 0.06220234930515289, 0.14223746955394745, 0.07720860093832016, 0.060249052941799164, 0.1443052440881729, 0.144738107919693]</t>
+          <t>[0.04313620552420616, 0.058000557124614716, 0.047458209097385406, 0.3006202280521393, 0.2250542938709259, 0.1534143090248108, 0.5225461721420288, 0.076425701379776, 0.1402718424797058, 0.06730354577302933, 0.12407498061656952, 0.0860566571354866, 0.19792227447032928, 0.05366409197449684, 0.06223137304186821, 0.07616206258535385, 0.09356523305177689, 0.0838155448436737, 0.07276464998722076, 0.12347680330276489, 0.10327813774347305, 0.07695942372083664, 0.17156289517879486, 0.04672925919294357, 0.03690917044878006, 0.04928414523601532, 0.01620372384786606, 0.01692822389304638, 0.012442415580153465, 0.028688378632068634, 0.018344540148973465, 0.044751062989234924, 0.02222377434372902, 0.026225609704852104, 0.02156979590654373, 0.02018146775662899, 0.021685762330889702, 0.0498584508895874, 0.03920736163854599, 0.03652568906545639, 0.0405874028801918, 0.024833552539348602, 0.020831070840358734, 0.020595531910657883, 0.02885005809366703, 0.022958945482969284, 0.01677791401743889, 0.01397103350609541, 0.02612815983593464, 0.018429825082421303, 0.047279227524995804, 0.06361177563667297, 0.057923439890146255, 0.029414698481559753, 0.053442999720573425, 0.10146067291498184, 0.1504439264535904, 0.05203081667423248, 0.1033899337053299, 0.13473494350910187, 0.17344903945922852, 0.11282052844762802, 0.10133901238441467, 0.07356256246566772, 0.12946905195713043, 0.1342993527650833, 0.03865453228354454, 0.04130145162343979, 0.07646128535270691, 0.18001069128513336, 0.09050315618515015, 0.1747055947780609, 0.17330633103847504, 0.12737105786800385, 0.18348641693592072, 0.11030219495296478, 0.07756265997886658, 0.2339179813861847, 0.338042676448822, 0.4479520916938782, 0.13767507672309875, 0.07688659429550171, 0.09266269207000732, 0.09825966507196426, 0.1005411446094513, 0.09235867857933044, 0.06522785872220993, 0.12033216655254364, 0.1062426045536995, 0.3749300539493561, 0.24962568283081055, 0.08866702020168304, 0.09731145948171616, 0.16808272898197174, 0.1423943042755127, 0.12966524064540863, 0.10388877242803574, 0.06221200153231621, 0.08236277103424072, 0.1635429710149765, 0.07051307708024979, 0.04530785232782364, 0.038737598806619644, 0.05342965945601463, 0.09304799139499664, 0.04491782188415527, 0.03944674879312515, 0.036004796624183655, 0.04034049063920975, 0.05724276974797249, 0.02625839225947857, 0.028617655858397484, 0.02979368157684803, 0.07610505074262619, 0.043809227645397186, 0.02473996952176094, 0.07009176164865494, 0.07034686952829361]</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.6158459782600403</v>
+        <v>0.5225461721420288</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0.6754797000030521</v>
+        <v>0.6859324999968521</v>
       </c>
       <c r="J107" t="n">
-        <v>0.005724404237314001</v>
+        <v>0.005812987288108916</v>
       </c>
     </row>
     <row r="108">
@@ -4845,11 +4845,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>[0.24834977090358734, 0.3021416962146759, 0.27821508049964905, 0.17291082441806793, 0.08760884404182434, 0.10750485211610794, 0.051395583897829056, 0.0564906932413578, 0.07095933705568314, 0.07021047174930573, 0.1935218721628189, 0.08393590152263641, 0.26049768924713135, 0.15811288356781006, 0.24803030490875244, 0.4423518180847168, 0.20038224756717682, 0.205379456281662, 0.22295072674751282, 0.18523754179477692, 0.2005288302898407, 0.26851385831832886, 0.17007577419281006, 0.45818212628364563, 0.2718707323074341, 0.12212201207876205, 0.09927773475646973, 0.12844659388065338, 0.08300723880529404, 0.09970838576555252, 0.07166067510843277, 0.07325680553913116, 0.09980458766222, 0.13160143792629242, 0.1738356500864029, 0.20930005609989166, 0.11447776854038239, 0.03280225768685341, 0.07223794609308243, 0.11494643241167068, 0.14787234365940094, 0.09033352881669998, 0.028240961953997612, 0.03154163435101509, 0.03143293783068657, 0.03197528049349785, 0.030041104182600975, 0.026422841474413872, 0.03606104478240013, 0.04550566151738167, 0.03464749455451965, 0.057181794196367264, 0.05072871223092079, 0.04231898859143257, 0.026527097448706627, 0.0431104376912117, 0.07021868973970413, 0.0704847201704979, 0.15012435615062714, 0.1750943511724472, 0.1027299165725708, 0.18399949371814728, 0.20933984220027924, 0.12493926286697388, 0.3067252039909363, 0.21005147695541382, 0.18897798657417297, 0.1418081372976303, 0.08548606187105179, 0.12263980507850647, 0.10922256857156754, 0.09950122982263565, 0.11802992969751358, 0.412975549697876, 0.13474853336811066, 0.1391461044549942, 0.12133914232254028, 0.12090343981981277, 0.09508897364139557, 0.18131732940673828, 0.33317968249320984, 0.15514470636844635, 0.5006780028343201, 0.2264452874660492, 0.2461027354001999, 0.08592462539672852, 0.07227969169616699, 0.14769606292247772, 0.16332651674747467, 0.37721696496009827, 0.3207211494445801, 0.6512707471847534, 0.7329156994819641, 0.39275917410850525, 0.45374947786331177, 0.3560311198234558, 0.2860201597213745, 0.11485171318054199, 0.16424934566020966, 0.33615344762802124, 0.11234786361455917, 0.09077834337949753, 0.08323770761489868, 0.058394625782966614, 0.11850260943174362, 0.11647799611091614, 0.11804049462080002, 0.11957802623510361, 0.5080055594444275, 0.12901224195957184, 0.21261167526245117, 0.1863902360200882, 0.29361656308174133, 0.2743702530860901, 0.09144651889801025, 0.14424507319927216, 0.2049366682767868, 0.20369958877563477]</t>
+          <t>[0.13032734394073486, 0.24492456018924713, 0.1474965512752533, 0.08339464664459229, 0.04296683520078659, 0.05958852916955948, 0.019667157903313637, 0.027683790773153305, 0.030141161754727364, 0.026626931503415108, 0.1471620798110962, 0.03959212824702263, 0.13102580606937408, 0.08041039854288101, 0.12099416553974152, 0.24359464645385742, 0.09927868098020554, 0.10149837285280228, 0.09573658555746078, 0.05554524064064026, 0.07756862789392471, 0.10751990228891373, 0.06107824668288231, 0.3065432608127594, 0.15251563489437103, 0.0998789593577385, 0.05272381007671356, 0.0453396700322628, 0.02423369325697422, 0.03168617561459541, 0.028561480343341827, 0.030268890783190727, 0.07725943624973297, 0.08644746989011765, 0.08566681295633316, 0.1140950545668602, 0.06497024744749069, 0.007725946605205536, 0.023581942543387413, 0.05119664967060089, 0.05621572956442833, 0.036170218139886856, 0.006841800641268492, 0.008892746642231941, 0.011289943009614944, 0.013787866570055485, 0.010621794499456882, 0.007613095920532942, 0.010154817253351212, 0.01667954958975315, 0.011557376012206078, 0.01960788667201996, 0.02094271034002304, 0.016547054052352905, 0.01013122871518135, 0.018153339624404907, 0.025210727006196976, 0.02560100518167019, 0.07131294161081314, 0.09817032516002655, 0.037874847650527954, 0.08287205547094345, 0.10850465297698975, 0.03803477808833122, 0.1092715710401535, 0.12712231278419495, 0.059979114681482315, 0.034780628979206085, 0.019769366830587387, 0.031346395611763, 0.04702558368444443, 0.045493923127651215, 0.0403689481317997, 0.23887862265110016, 0.05325387418270111, 0.03927062824368477, 0.030136218294501305, 0.03951525688171387, 0.022108016535639763, 0.09188021719455719, 0.13086023926734924, 0.038281820714473724, 0.18338772654533386, 0.04599864408373833, 0.060202378779649734, 0.02856297232210636, 0.030239885672926903, 0.05032660439610481, 0.061600442975759506, 0.2567799687385559, 0.35320693254470825, 0.6294476389884949, 0.5468494296073914, 0.17016907036304474, 0.27486881613731384, 0.22166027128696442, 0.16463425755500793, 0.030031420290470123, 0.0626131221652031, 0.162781223654747, 0.03326088935136795, 0.02649189531803131, 0.02225884608924389, 0.01865631528198719, 0.025818772614002228, 0.03954886645078659, 0.04796759784221649, 0.02908078022301197, 0.1804862767457962, 0.03563756123185158, 0.05132365971803665, 0.09685024619102478, 0.13820385932922363, 0.12645676732063293, 0.037311796098947525, 0.0573640838265419, 0.09128281474113464, 0.09042847156524658]</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.7329156994819641</v>
+        <v>0.6294476389884949</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
@@ -4863,10 +4863,10 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0.6664569999848027</v>
+        <v>0.6684900999971433</v>
       </c>
       <c r="J108" t="n">
-        <v>0.005647940677837311</v>
+        <v>0.005665170338958841</v>
       </c>
     </row>
     <row r="109">
@@ -4885,11 +4885,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[0.26191335916519165, 0.17538712918758392, 0.05510279908776283, 0.1001458540558815, 0.0856659784913063, 0.060515254735946655, 0.0984547808766365, 0.10849235206842422, 0.19647566974163055, 0.1862027645111084, 0.42968547344207764, 0.15962091088294983, 0.17605099081993103, 0.12862125039100647, 0.3823931813240051, 0.5933613181114197, 0.1638628989458084, 0.2626974284648895, 0.39015549421310425, 0.780312716960907, 0.41877663135528564, 0.738191545009613, 0.7967153787612915, 0.8429372310638428, 0.9136123657226562, 0.8856016993522644, 0.9612774848937988, 0.9702309370040894, 0.9000362753868103, 0.9459473490715027, 0.9364120960235596, 0.9460433721542358, 0.9715055227279663, 0.9746711850166321, 0.9369944930076599, 0.9636608362197876, 0.9542232155799866, 0.9038949608802795, 0.9240460395812988, 0.9746035933494568, 0.9252156019210815, 0.6358343362808228, 0.8721140027046204, 0.8854045867919922, 0.7307325601577759, 0.8668015599250793, 0.9680313467979431, 0.9665949940681458, 0.9804518818855286, 0.8899762034416199, 0.46833133697509766, 0.2895635962486267, 0.5095181465148926, 0.17843593657016754, 0.086027592420578, 0.08810839056968689, 0.1178194209933281, 0.19172117114067078, 0.24010495841503143, 0.20438694953918457, 0.20665356516838074, 0.227968230843544, 0.09862257540225983, 0.2089427411556244, 0.11191301792860031, 0.085774727165699, 0.16666118800640106, 0.10035605728626251, 0.07896097004413605, 0.14960500597953796, 0.18232278525829315, 0.2142162173986435, 0.21753405034542084, 0.5649999976158142, 0.2261662483215332, 0.2980830669403076, 0.1979634314775467, 0.5903096795082092, 0.733669638633728, 0.941175639629364, 0.9269368648529053, 0.9699268341064453, 0.9707772135734558, 0.9766365885734558, 0.9785329699516296, 0.96478670835495, 0.8509284257888794, 0.9386491775512695, 0.9923189282417297, 0.9853894710540771, 0.9817976951599121, 0.9450861215591431, 0.9389382600784302, 0.9771023988723755, 0.8554964661598206, 0.6776924133300781, 0.9466278553009033, 0.8571835160255432, 0.9485971927642822, 0.9461965560913086, 0.9682229161262512, 0.9633811712265015, 0.9794901013374329, 0.9817580580711365, 0.850988507270813, 0.3898654878139496, 0.5612241625785828, 0.37527769804000854, 0.20126579701900482, 0.4019414186477661, 0.10115375369787216, 0.10796832293272018, 0.10384158045053482, 0.1827312856912613, 0.16117557883262634, 0.17895333468914032, 0.5800427794456482, 0.5842446684837341]</t>
+          <t>[0.22463583946228027, 0.10631358623504639, 0.027975985780358315, 0.07461388409137726, 0.03856971859931946, 0.02397901378571987, 0.040641143918037415, 0.08180700242519379, 0.24938970804214478, 0.2003403753042221, 0.32117709517478943, 0.09917941689491272, 0.07646198570728302, 0.06086460128426552, 0.2178472876548767, 0.32675638794898987, 0.10875272005796432, 0.11500894278287888, 0.2359755039215088, 0.7481371760368347, 0.19200579822063446, 0.6430490016937256, 0.6856918931007385, 0.8176574110984802, 0.8875803351402283, 0.8140163421630859, 0.9347964525222778, 0.9558593034744263, 0.8338708281517029, 0.9375647902488708, 0.8858011960983276, 0.9268427491188049, 0.9646727442741394, 0.9708886742591858, 0.926497757434845, 0.9583762884140015, 0.9514247179031372, 0.9114004373550415, 0.9353145360946655, 0.9821729063987732, 0.8807951211929321, 0.4995420277118683, 0.7877845764160156, 0.8281914591789246, 0.621289849281311, 0.809573769569397, 0.9730185270309448, 0.9780726432800293, 0.988650918006897, 0.8729789853096008, 0.3845749795436859, 0.1085389032959938, 0.28850647807121277, 0.062260858714580536, 0.03620758280158043, 0.04223528131842613, 0.04611310735344887, 0.11356444656848907, 0.1549835503101349, 0.10550573468208313, 0.18014147877693176, 0.3046627640724182, 0.1122814416885376, 0.25381383299827576, 0.08480363339185715, 0.058631978929042816, 0.09206558763980865, 0.0610785037279129, 0.058360323309898376, 0.10298525542020798, 0.12742890417575836, 0.11195799708366394, 0.10609377175569534, 0.3981189429759979, 0.17488130927085876, 0.23897066712379456, 0.0892658606171608, 0.4584551751613617, 0.6633783578872681, 0.9397602081298828, 0.9194812774658203, 0.961892306804657, 0.9675301313400269, 0.982860803604126, 0.9886701107025146, 0.9723404049873352, 0.8042845129966736, 0.9461840987205505, 0.9944410920143127, 0.9890072345733643, 0.9875110387802124, 0.9486978054046631, 0.9299185276031494, 0.9856134057044983, 0.8750519156455994, 0.655735969543457, 0.97420334815979, 0.9064704179763794, 0.9670628905296326, 0.9403536319732666, 0.9795206785202026, 0.9684334993362427, 0.989682674407959, 0.9888551831245422, 0.8883066773414612, 0.3553217649459839, 0.557284414768219, 0.2971753180027008, 0.1411348581314087, 0.2249491661787033, 0.03520460054278374, 0.05223610997200012, 0.05895746499300003, 0.18198610842227936, 0.24786727130413055, 0.1983523666858673, 0.537269651889801, 0.5428740978240967]</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.9923189282417297</v>
+        <v>0.9944410920143127</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
@@ -4903,10 +4903,10 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0.6710098999901675</v>
+        <v>0.6707084000081522</v>
       </c>
       <c r="J109" t="n">
-        <v>0.00568652457618786</v>
+        <v>0.00568396949159451</v>
       </c>
     </row>
     <row r="110">
@@ -4925,11 +4925,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>[0.5376867055892944, 0.5526348352432251, 0.30075421929359436, 0.2961300015449524, 0.4692956209182739, 0.22801505029201508, 0.4226105213165283, 0.5821571350097656, 0.821388304233551, 0.8389440178871155, 0.8927873969078064, 0.8382561802864075, 0.8184471130371094, 0.8588128089904785, 0.9015757441520691, 0.9154947400093079, 0.9691464304924011, 0.9902364611625671, 0.9681006073951721, 0.9718698263168335, 0.9489327073097229, 0.9456654787063599, 0.9142162799835205, 0.6620903611183167, 0.79466712474823, 0.572303056716919, 0.785993754863739, 0.9380802512168884, 0.9633360505104065, 0.9642490744590759, 0.9590516686439514, 0.9299145936965942, 0.8142222166061401, 0.6692780256271362, 0.6786850094795227, 0.8257219791412354, 0.8633403182029724, 0.8851871490478516, 0.7968961596488953, 0.8632894158363342, 0.8510589599609375, 0.9453121423721313, 0.9715213775634766, 0.9769371747970581, 0.8758593797683716, 0.8663772940635681, 0.5458658933639526, 0.8187400698661804, 0.8367558717727661, 0.7635283470153809, 0.8469691872596741, 0.9541569352149963, 0.6480172276496887, 0.6199615597724915, 0.11185190081596375, 0.272359699010849, 0.28129151463508606, 0.210458442568779, 0.15545536577701569, 0.6080228686332703, 0.5051904320716858, 0.20017805695533752, 0.17956899106502533, 0.19666138291358948, 0.5742195844650269, 0.7226428985595703, 0.5108866095542908, 0.9195549488067627, 0.8770771622657776, 0.8164052367210388, 0.9446353912353516, 0.9144983291625977, 0.8394917845726013, 0.6944447755813599, 0.773190438747406, 0.9686420559883118, 0.9802693724632263, 0.9473165273666382, 0.9494455456733704, 0.9256848692893982, 0.9529025554656982, 0.9597991108894348, 0.9685777425765991, 0.9849536418914795, 0.9891000390052795, 0.9897395968437195, 0.9814250469207764, 0.9848731756210327, 0.9886151552200317, 0.9871469736099243, 0.982464611530304, 0.9863259196281433, 0.9636545181274414, 0.9734218716621399, 0.9576812982559204, 0.9731325507164001, 0.9603157639503479, 0.9735345244407654, 0.9605717658996582, 0.9838109612464905, 0.9757661819458008, 0.9878227114677429, 0.9876876473426819, 0.989869236946106, 0.9268798828125, 0.9142357110977173, 0.8119756579399109, 0.5790168046951294, 0.5964998006820679, 0.44498229026794434, 0.6216685175895691, 0.7886579632759094, 0.7543119788169861, 0.8348470330238342, 0.8940390944480896, 0.8424604535102844, 0.8537974953651428, 0.7008379101753235, 0.7010464072227478]</t>
+          <t>[0.4020502269268036, 0.4840559959411621, 0.35538721084594727, 0.21923138201236725, 0.34508049488067627, 0.13944154977798462, 0.23140819370746613, 0.450165331363678, 0.7951765060424805, 0.763244092464447, 0.8124866485595703, 0.832726001739502, 0.8002966046333313, 0.8182903528213501, 0.8575706481933594, 0.9131130576133728, 0.968485951423645, 0.9916945099830627, 0.9779144525527954, 0.97805255651474, 0.9485405683517456, 0.9372076988220215, 0.883632242679596, 0.5927818417549133, 0.7781730890274048, 0.5021072626113892, 0.7273775339126587, 0.931416392326355, 0.9638149738311768, 0.9721632599830627, 0.9746738076210022, 0.9431668519973755, 0.7749006748199463, 0.6084639430046082, 0.6836982369422913, 0.8127868175506592, 0.8695379495620728, 0.8969452977180481, 0.8216494917869568, 0.8492937088012695, 0.8076512813568115, 0.9187346696853638, 0.9693841934204102, 0.9833937287330627, 0.881210446357727, 0.7555298209190369, 0.45510944724082947, 0.7887306809425354, 0.7766810655593872, 0.7680022716522217, 0.7833751440048218, 0.9321265816688538, 0.40892890095710754, 0.40272942185401917, 0.029073603451251984, 0.12821531295776367, 0.19177648425102234, 0.12393351644277573, 0.03796461969614029, 0.2771640419960022, 0.20560579001903534, 0.05855716019868851, 0.09830934554338455, 0.12846677005290985, 0.43066635727882385, 0.5443413853645325, 0.3472575545310974, 0.9024254083633423, 0.784216046333313, 0.7313588261604309, 0.8903096318244934, 0.7576826810836792, 0.7958225607872009, 0.4418003559112549, 0.5937872529029846, 0.9455893635749817, 0.9829406142234802, 0.9132466316223145, 0.9101279377937317, 0.9218080639839172, 0.9616713523864746, 0.9683852195739746, 0.9629634618759155, 0.9852985143661499, 0.9899716377258301, 0.9931158423423767, 0.9862905144691467, 0.9897834658622742, 0.9928123354911804, 0.9926167130470276, 0.9877529144287109, 0.9903014898300171, 0.9613980054855347, 0.9825683832168579, 0.9763104915618896, 0.9795056581497192, 0.9636504650115967, 0.9776296615600586, 0.9691213965415955, 0.9864833950996399, 0.9822355508804321, 0.9937199354171753, 0.9930261373519897, 0.9925329685211182, 0.9270229935646057, 0.8212050795555115, 0.7645350098609924, 0.3025631308555603, 0.39258697628974915, 0.3304106295108795, 0.4518263339996338, 0.6871799230575562, 0.5723323822021484, 0.7689060568809509, 0.8605616092681885, 0.8516197800636292, 0.7973549365997314, 0.5777260661125183, 0.5773735046386719]</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.9902364611625671</v>
+        <v>0.9937199354171753</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
@@ -4943,10 +4943,10 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0.7077300000237301</v>
+        <v>0.6779117999976734</v>
       </c>
       <c r="J110" t="n">
-        <v>0.005947310924569161</v>
+        <v>0.005696737815106499</v>
       </c>
     </row>
     <row r="111">
@@ -4965,11 +4965,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[0.031427472829818726, 0.016952810809016228, 0.018349573016166687, 0.0160142183303833, 0.02814469300210476, 0.035893071442842484, 0.03954026475548744, 0.02461954951286316, 0.029187200590968132, 0.0330020897090435, 0.019720515236258507, 0.01773131638765335, 0.028296273201704025, 0.01937732845544815, 0.020722560584545135, 0.026321476325392723, 0.0313572958111763, 0.017200985923409462, 0.02281549572944641, 0.020354924723505974, 0.04541623964905739, 0.030913488939404488, 0.03617490828037262, 0.0611923411488533, 0.035364747047424316, 0.04768160358071327, 0.014785004779696465, 0.027865948155522346, 0.03642645478248596, 0.036211732774972916, 0.0665525421500206, 0.02340831235051155, 0.024423254653811455, 0.01712886244058609, 0.04006735980510712, 0.0370950847864151, 0.04061947762966156, 0.03527618944644928, 0.04410991445183754, 0.025974782183766365, 0.017830325290560722, 0.01806098408997059, 0.03641101345419884, 0.03261280059814453, 0.03614125773310661, 0.042001690715551376, 0.03635065630078316, 0.020943595096468925, 0.01603323221206665, 0.024708591401576996, 0.023260779678821564, 0.014063212089240551, 0.016456663608551025, 0.016931748017668724, 0.01722622849047184, 0.022518930956721306, 0.022535545751452446, 0.02084486559033394, 0.024357344955205917, 0.032558973878622055, 0.023335671052336693, 0.029473602771759033, 0.02389967441558838, 0.020053254440426826, 0.018002986907958984, 0.02284804917871952, 0.03434968739748001, 0.02578066661953926, 0.021769942715764046, 0.030328186228871346, 0.024182332679629326, 0.021941928192973137, 0.02358127199113369, 0.03389192000031471, 0.017851948738098145, 0.04151226207613945, 0.033186111599206924, 0.031192973256111145, 0.05072317644953728, 0.05520465970039368, 0.0868985578417778, 0.040074821561574936, 0.022052941843867302, 0.06779748946428299, 0.0264124758541584, 0.03699840232729912, 0.034623440355062485, 0.05802106112241745, 0.167387917637825, 0.04671955481171608, 0.03904632478952408, 0.014343014918267727, 0.084359310567379, 0.02753748558461666, 0.03899189829826355, 0.05183710530400276, 0.10452400147914886, 0.03634669631719589, 0.029714146628975868, 0.017246365547180176, 0.014329700730741024, 0.014569181948900223, 0.014946705661714077, 0.014243271201848984, 0.021532896906137466, 0.028636548668146133, 0.02242041751742363, 0.026841696351766586, 0.027651432901620865, 0.02069610357284546, 0.015177654102444649, 0.01989302597939968, 0.017159106209874153, 0.02078850008547306, 0.022767383605241776, 0.02597895823419094, 0.024519221857190132, 0.024524420499801636]</t>
+          <t>[0.011952980421483517, 0.004730238579213619, 0.004289774224162102, 0.0035723433829844, 0.008489204570651054, 0.008612391538918018, 0.010794049128890038, 0.00652404734864831, 0.0072546955198049545, 0.008931655436754227, 0.005313596222549677, 0.0048662167973816395, 0.006006778217852116, 0.004213874693959951, 0.005284465849399567, 0.00671344343572855, 0.007886121980845928, 0.0045174844563007355, 0.007508829236030579, 0.0048446995206177235, 0.012947643175721169, 0.007538049481809139, 0.006670624483376741, 0.01249638944864273, 0.008517083711922169, 0.008773835375905037, 0.003496174467727542, 0.006517578847706318, 0.010170085355639458, 0.009872250258922577, 0.02176458016037941, 0.004751387517899275, 0.0063234721310436726, 0.0050045824609696865, 0.011828845366835594, 0.007742803543806076, 0.009897670708596706, 0.008027934469282627, 0.008400166407227516, 0.006734340917319059, 0.004365910310298204, 0.005483690649271011, 0.007872571237385273, 0.009104249998927116, 0.00802108645439148, 0.00918637402355671, 0.010905391536653042, 0.007662338204681873, 0.005237273871898651, 0.007631462067365646, 0.008882720954716206, 0.004487294238060713, 0.00498065073043108, 0.004189569968730211, 0.0042482041753828526, 0.005563755985349417, 0.006124388892203569, 0.005378758534789085, 0.008668238297104836, 0.00981293898075819, 0.005862703081220388, 0.006804118398576975, 0.005957498215138912, 0.005078841932117939, 0.004355187062174082, 0.005199845880270004, 0.008471538312733173, 0.00737555930390954, 0.006932651158422232, 0.008936835452914238, 0.007403356954455376, 0.008485407568514347, 0.009097401052713394, 0.009467902593314648, 0.005167289637029171, 0.0077170729637146, 0.011333517730236053, 0.010345797054469585, 0.010831191204488277, 0.01599307917058468, 0.015102573670446873, 0.009242155589163303, 0.006250747945159674, 0.017405688762664795, 0.0070122005417943, 0.012438185513019562, 0.011009817942976952, 0.02842674031853676, 0.1339220106601715, 0.015409165062010288, 0.009781081229448318, 0.003616148605942726, 0.015634790062904358, 0.006086844485253096, 0.00823415070772171, 0.010768137872219086, 0.022892048582434654, 0.008504304103553295, 0.006045926362276077, 0.004606947768479586, 0.004391039721667767, 0.004387947265058756, 0.0038990890607237816, 0.003029485233128071, 0.005042735952883959, 0.007283138111233711, 0.005833500064909458, 0.007393507286906242, 0.0070962742902338505, 0.004451347514986992, 0.003560018492862582, 0.005464579444378614, 0.00420248880982399, 0.004939098376780748, 0.007819795049726963, 0.007545561995357275, 0.006753688212484121, 0.006755927111953497]</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.167387917637825</v>
+        <v>0.1339220106601715</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0.6688037000130862</v>
+        <v>0.6748561999993399</v>
       </c>
       <c r="J111" t="n">
-        <v>0.005667827966212595</v>
+        <v>0.005719120338977457</v>
       </c>
     </row>
     <row r="112">
@@ -5005,11 +5005,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>[0.03414636477828026, 0.03550389036536217, 0.04893530532717705, 0.04792060703039169, 0.06587567925453186, 0.06134166568517685, 0.02299562282860279, 0.042669184505939484, 0.03920823708176613, 0.0937054306268692, 0.10406824946403503, 0.1461757868528366, 0.04403187707066536, 0.06433875113725662, 0.08493396639823914, 0.07204483449459076, 0.053112976253032684, 0.05794548615813255, 0.025240981951355934, 0.03658945858478546, 0.02263503707945347, 0.07221037894487381, 0.024069806560873985, 0.11571792513132095, 0.13938243687152863, 0.048000335693359375, 0.21252605319023132, 0.03591476008296013, 0.0605386346578598, 0.06865181028842926, 0.2963219881057739, 0.6383864879608154, 0.3506808280944824, 0.5724144577980042, 0.757032573223114, 0.4178161919116974, 0.09019026160240173, 0.22957025468349457, 0.1561829000711441, 0.38247644901275635, 0.5809880495071411, 0.5764757990837097, 0.6734904646873474, 0.8275206089019775, 0.8323214054107666, 0.9808512926101685, 0.9899249076843262, 0.9898170232772827, 0.9918990135192871, 0.9697813987731934, 0.9896718263626099, 0.9726731181144714, 0.8328931331634521, 0.8149493932723999, 0.6853980422019958, 0.7230516076087952, 0.49750852584838867, 0.11229581385850906, 0.15160495042800903, 0.04201659560203552, 0.15228237211704254, 0.14104901254177094, 0.2413412630558014, 0.4368472397327423, 0.743441641330719, 0.4948819577693939, 0.7335798144340515, 0.3580893874168396, 0.3976925015449524, 0.4557558298110962, 0.23808690905570984, 0.1404542624950409, 0.06214360520243645, 0.15874038636684418, 0.11390979588031769, 0.061663005501031876, 0.058176830410957336, 0.03886787220835686, 0.03742438554763794, 0.04026934131979942, 0.033990927040576935, 0.02110626921057701, 0.019307535141706467, 0.02223718725144863, 0.037300240248441696, 0.0287360567599535, 0.04572758823633194, 0.030516497790813446, 0.037707291543483734, 0.050402216613292694, 0.028023866936564445, 0.03679156303405762, 0.1515652984380722, 0.04561702907085419, 0.05236644297838211, 0.05179787054657936, 0.0758129432797432, 0.1788243055343628, 0.10699886083602905, 0.08702275156974792, 0.039529185742139816, 0.0454714372754097, 0.03771674633026123, 0.027960484847426414, 0.03369949385523796, 0.027800802141427994, 0.036111824214458466, 0.04679090902209282, 0.034825608134269714, 0.1708260327577591, 0.05087488517165184, 0.05467725917696953, 0.08239567279815674, 0.05013091862201691, 0.08678293228149414, 0.09605071693658829, 0.07393527030944824, 0.07735336571931839, 0.07720047980546951]</t>
+          <t>[0.012428912334144115, 0.008434724994003773, 0.02043471857905388, 0.022416355088353157, 0.0320822037756443, 0.019045662134885788, 0.006426923908293247, 0.014990127645432949, 0.008781757205724716, 0.031870681792497635, 0.0515642873942852, 0.0688650831580162, 0.013656243681907654, 0.016172615811228752, 0.019322659820318222, 0.02209431491792202, 0.021518206223845482, 0.02411910705268383, 0.008331379853188992, 0.009849493391811848, 0.005691422615200281, 0.013553413562476635, 0.008050129748880863, 0.0313849039375782, 0.03163972869515419, 0.01066870428621769, 0.05980457365512848, 0.011604591272771358, 0.017271842807531357, 0.022779854014515877, 0.07727231830358505, 0.3534485995769501, 0.1337364912033081, 0.29236721992492676, 0.44502055644989014, 0.30001240968704224, 0.037157874554395676, 0.10032317787408829, 0.056404322385787964, 0.15548260509967804, 0.21304693818092346, 0.1627199649810791, 0.36167392134666443, 0.6322131752967834, 0.7317248582839966, 0.969847559928894, 0.9861057996749878, 0.9898408055305481, 0.9913280606269836, 0.9233434200286865, 0.9920996427536011, 0.9710012674331665, 0.7229666113853455, 0.7937667369842529, 0.6177965998649597, 0.7288917303085327, 0.4609123468399048, 0.07381096482276917, 0.07647893577814102, 0.01599918305873871, 0.052936479449272156, 0.0814366564154625, 0.1510162502527237, 0.3555375933647156, 0.6104357242584229, 0.3457505404949188, 0.5316333174705505, 0.1719399094581604, 0.18251053988933563, 0.23510728776454926, 0.16113713383674622, 0.07248684763908386, 0.02348928153514862, 0.057729680091142654, 0.03993072360754013, 0.024981139227747917, 0.022765202447772026, 0.010949141345918179, 0.008760075084865093, 0.010000400245189667, 0.007395816966891289, 0.005328925792127848, 0.004956545773893595, 0.007099274545907974, 0.014301946386694908, 0.0092179449275136, 0.013572679832577705, 0.006956047378480434, 0.01610563136637211, 0.016624828800559044, 0.00774944806471467, 0.009922448545694351, 0.031475357711315155, 0.014047453179955482, 0.01323592010885477, 0.013416661880910397, 0.024245532229542732, 0.07360988855361938, 0.0337991900742054, 0.029372619464993477, 0.018653225153684616, 0.012666559778153896, 0.013163788244128227, 0.010893250815570354, 0.01215299591422081, 0.01752205565571785, 0.018691135570406914, 0.03234853968024254, 0.02114526741206646, 0.07659105956554413, 0.01743418350815773, 0.019422031939029694, 0.07056650519371033, 0.02424113266170025, 0.06824339181184769, 0.06855607777833939, 0.04200984165072441, 0.047352083027362823, 0.04751373454928398]</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.9918990135192871</v>
+        <v>0.9920996427536011</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0.6791396999906283</v>
+        <v>0.6809739000018453</v>
       </c>
       <c r="J112" t="n">
-        <v>0.005707056302442255</v>
+        <v>0.005722469747914667</v>
       </c>
     </row>
     <row r="113">
@@ -5045,11 +5045,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[0.5407618880271912, 0.6895628571510315, 0.7576397657394409, 0.7561284899711609, 0.7610483765602112, 0.8652341961860657, 0.7651864886283875, 0.8901389241218567, 0.3330066204071045, 0.4872671365737915, 0.5146930813789368, 0.36241477727890015, 0.387290358543396, 0.3177028000354767, 0.38802003860473633, 0.42614051699638367, 0.6676138043403625, 0.7737436294555664, 0.6839747428894043, 0.5314462780952454, 0.4676748514175415, 0.6951672434806824, 0.5580891370773315, 0.40204545855522156, 0.2624826431274414, 0.5858891606330872, 0.4310506582260132, 0.4796035587787628, 0.5813673138618469, 0.5324442386627197, 0.7004193663597107, 0.562876284122467, 0.22151456773281097, 0.3396289646625519, 0.35807985067367554, 0.6861673593521118, 0.36252498626708984, 0.26767653226852417, 0.4684317111968994, 0.5135363340377808, 0.6591448187828064, 0.6380596160888672, 0.6908605694770813, 0.5134310126304626, 0.4841945767402649, 0.48809871077537537, 0.36010873317718506, 0.5971067547798157, 0.5209833383560181, 0.2894221842288971, 0.3639141917228699, 0.6559471487998962, 0.737994372844696, 0.7315940260887146, 0.6908825635910034, 0.5852883458137512, 0.7220268845558167, 0.7212433218955994, 0.716208815574646, 0.5675438642501831, 0.7310152649879456, 0.35056862235069275, 0.5783586502075195, 0.8484137058258057, 0.8351355195045471, 0.7899966835975647, 0.7167320251464844, 0.4354957044124603, 0.738966703414917, 0.4495088458061218, 0.8509624004364014, 0.7424713969230652, 0.8347023129463196, 0.9169912934303284, 0.7521868944168091, 0.7287244200706482, 0.47659048438072205, 0.6308250427246094, 0.604936957359314, 0.4284197688102722, 0.572150468826294, 0.3740006387233734, 0.18654434382915497, 0.2691778838634491, 0.6590949296951294, 0.9096239805221558, 0.6377496123313904, 0.5129095911979675, 0.7779590487480164, 0.7996222972869873, 0.6151683330535889, 0.5832183957099915, 0.6802759766578674, 0.7590259313583374, 0.8137641549110413, 0.7684754133224487, 0.4688907861709595, 0.8569374084472656, 0.8524196147918701, 0.9532768130302429, 0.8496518731117249, 0.9006937742233276, 0.7644557356834412, 0.9143092036247253, 0.8284454345703125, 0.7850610613822937, 0.9182075262069702, 0.9210061430931091, 0.7443751096725464, 0.17028215527534485, 0.18132944405078888, 0.09691338241100311, 0.21982891857624054, 0.23699010908603668, 0.25234946608543396, 0.29761597514152527, 0.37850427627563477, 0.24547427892684937, 0.27009838819503784, 0.23643769323825836, 0.302475243806839, 0.28342434763908386, 0.2568420171737671, 0.24454502761363983, 0.3650491535663605, 0.2458626627922058, 0.2381642460823059, 0.2761230766773224, 0.2611066997051239, 0.2691912353038788, 0.24410763382911682, 0.24427258968353271]</t>
+          <t>[0.4930093586444855, 0.4354834258556366, 0.5512097477912903, 0.5070299506187439, 0.6308838129043579, 0.804425835609436, 0.6277475953102112, 0.8482459783554077, 0.1974148154258728, 0.3960425853729248, 0.3375469148159027, 0.3240692615509033, 0.25167351961135864, 0.15423725545406342, 0.2899891436100006, 0.28355735540390015, 0.6030963063240051, 0.7608447074890137, 0.7410346865653992, 0.4509958326816559, 0.43917855620384216, 0.644608736038208, 0.5100731253623962, 0.38158026337623596, 0.19598419964313507, 0.5456220507621765, 0.4984287917613983, 0.573708176612854, 0.5140136480331421, 0.44863229990005493, 0.6180960536003113, 0.580093264579773, 0.19067715108394623, 0.3865443766117096, 0.4677184522151947, 0.7400708794593811, 0.37159526348114014, 0.24114775657653809, 0.438321977853775, 0.4278852343559265, 0.5994125008583069, 0.5402942895889282, 0.692101240158081, 0.568700909614563, 0.46824559569358826, 0.3849072754383087, 0.29917454719543457, 0.4885493814945221, 0.49721357226371765, 0.3063543438911438, 0.4100739061832428, 0.7283498048782349, 0.7535330057144165, 0.7211477160453796, 0.7362159490585327, 0.6631727814674377, 0.5873251557350159, 0.6670856475830078, 0.6085593104362488, 0.35293281078338623, 0.6013695597648621, 0.27586373686790466, 0.46102645993232727, 0.745355486869812, 0.7656922340393066, 0.6747127771377563, 0.5671401619911194, 0.42815306782722473, 0.7167507410049438, 0.33570706844329834, 0.8167830109596252, 0.6198341250419617, 0.6925570964813232, 0.8897917866706848, 0.7111537456512451, 0.6781421899795532, 0.314363032579422, 0.630268931388855, 0.6728046536445618, 0.4622824788093567, 0.5696452856063843, 0.4347793161869049, 0.15819640457630157, 0.19012854993343353, 0.6906802654266357, 0.9387565851211548, 0.8226692080497742, 0.6372310519218445, 0.8187393546104431, 0.8126057386398315, 0.5745627880096436, 0.6381497383117676, 0.7817016839981079, 0.831181526184082, 0.8611528873443604, 0.7822133898735046, 0.3899425268173218, 0.902827262878418, 0.8971654176712036, 0.9766520261764526, 0.8814043402671814, 0.9041022658348083, 0.7567281126976013, 0.908964216709137, 0.8498210310935974, 0.8157941102981567, 0.9109686017036438, 0.9168744087219238, 0.8774682879447937, 0.265791118144989, 0.22053058445453644, 0.07057920098304749, 0.1733846813440323, 0.18267951905727386, 0.2042894959449768, 0.2599811255931854, 0.3486554026603699, 0.19202138483524323, 0.1926613748073578, 0.19050872325897217, 0.23907744884490967, 0.24170434474945068, 0.20490770041942596, 0.19992823898792267, 0.31692248582839966, 0.19226054847240448, 0.18697503209114075, 0.22298939526081085, 0.20859451591968536, 0.20563121140003204, 0.17760460078716278, 0.17756058275699615]</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.9532768130302429</v>
+        <v>0.9766520261764526</v>
       </c>
       <c r="F113" t="n">
         <v>1</v>
@@ -5063,10 +5063,10 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0.7518079000001308</v>
+        <v>0.7783332999970298</v>
       </c>
       <c r="J113" t="n">
-        <v>0.005695514393940384</v>
+        <v>0.005896464393916893</v>
       </c>
     </row>
     <row r="114">
@@ -5085,11 +5085,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>[0.07646048814058304, 0.07608020305633545, 0.11270314455032349, 0.20722803473472595, 0.1987723708152771, 0.16877491772174835, 0.3007854223251343, 0.8566574454307556, 0.8982329964637756, 0.7863580584526062, 0.8116409778594971, 0.7258992791175842, 0.7370884418487549, 0.8434459567070007, 0.9189155101776123, 0.9815418720245361, 0.9596344232559204, 0.8489341735839844, 0.9241727590560913, 0.8198286294937134, 0.4374464452266693, 0.09995425492525101, 0.1506456583738327, 0.17904652655124664, 0.12045299261808395, 0.1489345282316208, 0.10187175124883652, 0.16252878308296204, 0.10500917583703995, 0.07511043548583984, 0.0915064811706543, 0.08405403792858124, 0.09352294355630875, 0.4375528395175934, 0.08393701910972595, 0.17432156205177307, 0.08616381883621216, 0.2637304961681366, 0.16389237344264984, 0.15970198810100555, 0.08691906183958054, 0.08810675889253616, 0.08265501260757446, 0.10970940440893173, 0.07474550604820251, 0.1055462658405304, 0.12236995249986649, 0.12546168267726898, 0.14599160850048065, 0.6945515871047974, 0.15047812461853027, 0.13810575008392334, 0.15674467384815216, 0.10369064658880234, 0.19839134812355042, 0.2313469499349594, 0.3073768615722656, 0.2962588667869568, 0.20877937972545624, 0.45149287581443787, 0.9547332525253296, 0.9146550893783569, 0.4049675166606903, 0.26468560099601746, 0.20468606054782867, 0.3015695810317993, 0.15591713786125183, 0.09504278749227524, 0.09380826354026794, 0.08033827692270279, 0.12780524790287018, 0.19436946511268616, 0.49529677629470825, 0.9043731093406677, 0.967715859413147, 0.9856533408164978, 0.9761214256286621, 0.962863564491272, 0.9579907059669495, 0.8268558382987976, 0.8541324138641357, 0.802875280380249, 0.9595772624015808, 0.9334677457809448, 0.935657799243927, 0.9078265428543091, 0.9432348012924194, 0.8421280980110168, 0.2680986225605011, 0.10986893624067307, 0.09689623862504959, 0.13597624003887177, 0.15368251502513885, 0.16735634207725525, 0.2537204623222351, 0.18600478768348694, 0.1198786050081253, 0.10268951207399368, 0.1133231371641159, 0.25415512919425964, 0.153782919049263, 0.1760532706975937, 0.10868685692548752, 0.17308655381202698, 0.16904769837856293, 0.13427577912807465, 0.08654284477233887, 0.10970663279294968, 0.1101769432425499, 0.07798464596271515, 0.1721341758966446, 0.07754015177488327, 0.05934565141797066, 0.060447052121162415, 0.11219703406095505, 0.2820001542568207, 0.23062045872211456, 0.19238388538360596, 0.30528661608695984, 0.1554023027420044, 0.1155453473329544, 0.15677319467067719, 0.16266939043998718, 0.12690716981887817, 0.15089397132396698, 0.36575645208358765, 0.7802810668945312, 0.8724212646484375, 0.3277270197868347, 0.48625579476356506, 0.3955519497394562, 0.40899062156677246]</t>
+          <t>[0.03841937705874443, 0.03476860746741295, 0.04066283628344536, 0.10213715583086014, 0.1283460557460785, 0.3884807229042053, 0.44345542788505554, 0.9311742782592773, 0.9379987120628357, 0.8146150708198547, 0.8250530362129211, 0.7050708532333374, 0.7891383171081543, 0.8976701498031616, 0.9633049964904785, 0.9931282997131348, 0.9862072467803955, 0.94896000623703, 0.9734438061714172, 0.9234762787818909, 0.6286963820457458, 0.09616430848836899, 0.1571151465177536, 0.1554710566997528, 0.07875370979309082, 0.13341104984283447, 0.07764113694429398, 0.11323422938585281, 0.08896172791719437, 0.04918652027845383, 0.06405403465032578, 0.06537546962499619, 0.06842028349637985, 0.5032252073287964, 0.06999426335096359, 0.18377816677093506, 0.04207048565149307, 0.3712172210216522, 0.1468765288591385, 0.1506759077310562, 0.044844239950180054, 0.07996497303247452, 0.05307193100452423, 0.0665087178349495, 0.030755408108234406, 0.061402272433042526, 0.13753992319107056, 0.06993918120861053, 0.09295370429754257, 0.6945369839668274, 0.08139891177415848, 0.07508677244186401, 0.07373996078968048, 0.0583827942609787, 0.12206011265516281, 0.23398245871067047, 0.5137073993682861, 0.5595102310180664, 0.4182613790035248, 0.689160943031311, 0.967776358127594, 0.9361661672592163, 0.5703113675117493, 0.5929489731788635, 0.3639078736305237, 0.30724745988845825, 0.15869981050491333, 0.0912148505449295, 0.07104302942752838, 0.05644884333014488, 0.1181299164891243, 0.23405632376670837, 0.662010133266449, 0.9071506261825562, 0.9696226716041565, 0.9771118760108948, 0.958277702331543, 0.911741316318512, 0.8872683048248291, 0.6379581689834595, 0.7858229279518127, 0.7575199604034424, 0.9599056839942932, 0.9503382444381714, 0.9574372172355652, 0.9267531633377075, 0.9698749780654907, 0.901991069316864, 0.3609750270843506, 0.08311647176742554, 0.06177978962659836, 0.13237281143665314, 0.1024872362613678, 0.1881192922592163, 0.16656970977783203, 0.14064042270183563, 0.09387239813804626, 0.10329293459653854, 0.12489859014749527, 0.2941338121891022, 0.18020479381084442, 0.12072212249040604, 0.09867560118436813, 0.17570604383945465, 0.1607695370912552, 0.18748365342617035, 0.06375498324632645, 0.13339155912399292, 0.08931012451648712, 0.05497049540281296, 0.1349889189004898, 0.04638238251209259, 0.029553906992077827, 0.03308143839240074, 0.058367982506752014, 0.22818894684314728, 0.16282100975513458, 0.13533656299114227, 0.3300793468952179, 0.11779582500457764, 0.08555343747138977, 0.18450650572776794, 0.16565023362636566, 0.14554397761821747, 0.1716843992471695, 0.44356054067611694, 0.7845632433891296, 0.8786641955375671, 0.5915058255195618, 0.6031509041786194, 0.6873591542243958, 0.7160957455635071]</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.9856533408164978</v>
+        <v>0.9931282997131348</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
@@ -5103,10 +5103,10 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0.7482428000075743</v>
+        <v>0.7476403000036953</v>
       </c>
       <c r="J114" t="n">
-        <v>0.005668506060663442</v>
+        <v>0.005663941666694662</v>
       </c>
     </row>
     <row r="115">
@@ -5125,11 +5125,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>[0.6245460510253906, 0.4704870581626892, 0.8822925090789795, 0.9601170420646667, 0.9019458889961243, 0.9769015908241272, 0.9536760449409485, 0.9559186697006226, 0.9819691777229309, 0.7252574563026428, 0.9366191029548645, 0.9509526491165161, 0.9494096636772156, 0.9234639406204224, 0.9291797876358032, 0.7934021949768066, 0.8290417790412903, 0.906578004360199, 0.6249154210090637, 0.8985814452171326, 0.8012321591377258, 0.5724811553955078, 0.47280898690223694, 0.9190371632575989, 0.8369966149330139, 0.2025172859430313, 0.5457398891448975, 0.8765472769737244, 0.9110714793205261, 0.6856445670127869, 0.5121245980262756, 0.8854000568389893, 0.5957838296890259, 0.734707236289978, 0.6855698227882385, 0.8641159534454346, 0.7386993169784546, 0.40230047702789307, 0.8209012746810913, 0.8707624077796936, 0.9644911885261536, 0.9793379306793213, 0.938910961151123, 0.9639567732810974, 0.8382115364074707, 0.795005738735199, 0.6140581369400024, 0.7883518934249878, 0.6978992819786072, 0.9061486721038818, 0.9654401540756226, 0.8819804787635803, 0.8780998587608337, 0.7272135019302368, 0.9345595836639404, 0.8968366980552673, 0.9764788150787354, 0.8871791362762451, 0.7115858793258667, 0.9183069467544556, 0.9108376502990723, 0.9803977608680725, 0.9445035457611084, 0.8968653678894043, 0.7246053814888, 0.6986069679260254, 0.9070241451263428, 0.8365856409072876, 0.8572953343391418, 0.9435443878173828, 0.9852097630500793, 0.663435697555542, 0.8086769580841064, 0.8972664475440979, 0.9342893958091736, 0.8063071370124817, 0.7259472608566284, 0.9446526169776917, 0.816288948059082, 0.8148570656776428, 0.8482351303100586, 0.9409561157226562, 0.9817522764205933, 0.988897979259491, 0.9599591493606567, 0.7365323305130005, 0.9692302346229553, 0.9286184310913086, 0.7605066299438477, 0.711300253868103, 0.8149438500404358, 0.8618203997612, 0.881043553352356, 0.9249193668365479, 0.8610026240348816, 0.7111007571220398, 0.5494763851165771, 0.4040571451187134, 0.19922500848770142, 0.3936186134815216, 0.7696832418441772, 0.9848143458366394, 0.8589298725128174, 0.9173452854156494, 0.7613844275474548, 0.9393429756164551, 0.8836538195610046, 0.858191728591919, 0.9029815196990967, 0.8846748471260071, 0.8671505451202393, 0.7585279941558838, 0.6860278844833374, 0.4548507332801819, 0.7796621322631836, 0.9085211157798767, 0.5735583305358887, 0.38453638553619385, 0.46070191264152527, 0.346669465303421, 0.936721682548523, 0.9648759365081787, 0.9546824097633362, 0.7020938396453857, 0.8704609870910645, 0.9167003035545349, 0.9503846168518066, 0.8761588931083679, 0.9565802216529846, 0.9503363966941833, 0.9544799327850342, 0.9546173214912415]</t>
+          <t>[0.45318931341171265, 0.3768377900123596, 0.7968459725379944, 0.9448955655097961, 0.8152862787246704, 0.967002809047699, 0.9002779126167297, 0.8804139494895935, 0.9765908718109131, 0.5389717221260071, 0.82561194896698, 0.9128606915473938, 0.9342366456985474, 0.8994230031967163, 0.8545506000518799, 0.6195578575134277, 0.7522542476654053, 0.852942168712616, 0.4564442038536072, 0.775065541267395, 0.6424680948257446, 0.5034837126731873, 0.29159051179885864, 0.9022892117500305, 0.7879621386528015, 0.09113281965255737, 0.3351203203201294, 0.6556436419487, 0.8317707180976868, 0.473003089427948, 0.22419041395187378, 0.766200065612793, 0.4821043014526367, 0.6657620072364807, 0.5604233145713806, 0.7619267702102661, 0.6370072364807129, 0.2612445056438446, 0.6966454386711121, 0.7597317695617676, 0.9375854730606079, 0.9698266983032227, 0.8700531721115112, 0.9517953991889954, 0.7701118588447571, 0.7662659287452698, 0.4061455726623535, 0.6407462954521179, 0.5485407114028931, 0.7628225088119507, 0.9297631978988647, 0.7856499552726746, 0.7114430665969849, 0.5084655284881592, 0.6766608357429504, 0.722669780254364, 0.9442307353019714, 0.8173191547393799, 0.4696715176105499, 0.8880399465560913, 0.7680986523628235, 0.9623648524284363, 0.793943464756012, 0.805793046951294, 0.582736611366272, 0.5893070697784424, 0.7769079804420471, 0.7639021277427673, 0.7100701928138733, 0.8223787546157837, 0.970270574092865, 0.3957119584083557, 0.6264243721961975, 0.8464280962944031, 0.9175344109535217, 0.7380183339118958, 0.47547873854637146, 0.9187999963760376, 0.7681795954704285, 0.765488862991333, 0.7995443344116211, 0.8763634562492371, 0.9612995982170105, 0.974053144454956, 0.9432233572006226, 0.6737929582595825, 0.9547004103660583, 0.8966791033744812, 0.554261326789856, 0.46462714672088623, 0.8045441508293152, 0.7939861416816711, 0.7361040115356445, 0.7295656204223633, 0.6023551821708679, 0.3201800286769867, 0.31153181195259094, 0.24289806187152863, 0.11810597032308578, 0.18816912174224854, 0.46150270104408264, 0.9789642691612244, 0.747994065284729, 0.8158805966377258, 0.595311164855957, 0.9194847345352173, 0.6626985669136047, 0.626297652721405, 0.8389826416969299, 0.78791743516922, 0.6988822221755981, 0.6737763285636902, 0.5279315710067749, 0.4512445032596588, 0.7984382510185242, 0.9396196007728577, 0.6910123825073242, 0.466913104057312, 0.42853647470474243, 0.20907776057720184, 0.844673752784729, 0.8999338150024414, 0.9225615859031677, 0.6388707756996155, 0.8194286823272705, 0.8652061820030212, 0.9138126969337463, 0.7581889033317566, 0.9421147704124451, 0.9347996711730957, 0.9198174476623535, 0.9201818704605103]</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.988897979259491</v>
+        <v>0.9789642691612244</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
@@ -5143,10 +5143,10 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>0.7544464000093285</v>
+        <v>0.7831084000063129</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0057155030303737</v>
+        <v>0.005932639393987219</v>
       </c>
     </row>
     <row r="116">
@@ -5165,11 +5165,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[0.38757872581481934, 0.1676715612411499, 0.5876227021217346, 0.9138673543930054, 0.8875822424888611, 0.7556686401367188, 0.5906324982643127, 0.7847412824630737, 0.9272930026054382, 0.9721719026565552, 0.9826217889785767, 0.9872887134552002, 0.9619920253753662, 0.9733338952064514, 0.9527921676635742, 0.8727689981460571, 0.9264472126960754, 0.6835440993309021, 0.7016386985778809, 0.9444219470024109, 0.965796709060669, 0.8757208585739136, 0.9742997884750366, 0.942968487739563, 0.7316893935203552, 0.9469374418258667, 0.9601102471351624, 0.9154809713363647, 0.9080461859703064, 0.14048267900943756, 0.8193525075912476, 0.34477508068084717, 0.41979217529296875, 0.3382374048233032, 0.580622673034668, 0.3445310592651367, 0.26371246576309204, 0.5524564981460571, 0.934798002243042, 0.8715434074401855, 0.484500914812088, 0.6452600359916687, 0.4475468099117279, 0.3185909688472748, 0.5836579203605652, 0.3003256022930145, 0.2561599016189575, 0.3371144235134125, 0.22502084076404572, 0.5834333300590515, 0.2592720091342926, 0.2520831823348999, 0.14574363827705383, 0.1031549796462059, 0.17201575636863708, 0.1743975430727005, 0.13332340121269226, 0.30706220865249634, 0.2671061158180237, 0.6184051036834717, 0.5614891052246094, 0.5709061026573181, 0.9542551636695862, 0.9459407329559326, 0.966616690158844, 0.9505940079689026, 0.976321280002594, 0.966853678226471, 0.9800730347633362, 0.9270249605178833, 0.276489794254303, 0.5867887139320374, 0.6186863780021667, 0.7499995231628418, 0.8394473195075989, 0.9470088481903076, 0.9926517605781555, 0.9956952333450317, 0.9930375218391418, 0.9909083247184753, 0.9910767078399658, 0.9797365069389343, 0.985077440738678, 0.9865179657936096, 0.9901295304298401, 0.9822787046432495, 0.985440194606781, 0.992519736289978, 0.9922575950622559, 0.9798353910446167, 0.9817101359367371, 0.9707027077674866, 0.9479929804801941, 0.5320964455604553, 0.4240712523460388, 0.6693661212921143, 0.6035966873168945, 0.9525421261787415, 0.8987886309623718, 0.9716988205909729, 0.9908460974693298, 0.9812658429145813, 0.9481345415115356, 0.984862208366394, 0.9756267070770264, 0.98201984167099, 0.5708043575286865, 0.871277928352356, 0.6709619164466858, 0.26726892590522766, 0.5918589234352112, 0.3763536810874939, 0.8529857397079468, 0.9344123005867004, 0.9791842699050903, 0.9227790832519531, 0.9109848141670227, 0.933323085308075, 0.9225999116897583, 0.9890530705451965, 0.9618798494338989, 0.9583136439323425, 0.990352213382721, 0.9658180475234985, 0.9859078526496887, 0.9812411665916443, 0.9612806439399719, 0.9633569717407227, 0.9601091146469116, 0.9690432548522949, 0.42302650213241577, 0.42219337821006775]</t>
+          <t>[0.3302949368953705, 0.11907339096069336, 0.38875824213027954, 0.8762900233268738, 0.8335511684417725, 0.8264696002006531, 0.7104086875915527, 0.7434317469596863, 0.9477910995483398, 0.9829952120780945, 0.9881382584571838, 0.9864132404327393, 0.9656065106391907, 0.9595758318901062, 0.9457129240036011, 0.8457474112510681, 0.9199503660202026, 0.8010204434394836, 0.745008647441864, 0.9502438306808472, 0.9730913639068604, 0.9306547045707703, 0.9868884682655334, 0.9569088220596313, 0.7086319327354431, 0.9547166228294373, 0.9635586738586426, 0.8996763825416565, 0.8553177714347839, 0.11102568358182907, 0.7676909565925598, 0.18781763315200806, 0.27303075790405273, 0.18202248215675354, 0.46331754326820374, 0.3530244529247284, 0.15874086320400238, 0.5212686061859131, 0.9536970853805542, 0.9098285436630249, 0.4216146469116211, 0.6610754132270813, 0.3907909095287323, 0.38308924436569214, 0.5563585758209229, 0.2003893107175827, 0.12598870694637299, 0.2832227945327759, 0.21585404872894287, 0.6421365737915039, 0.22698041796684265, 0.13275735080242157, 0.047970447689294815, 0.06622927635908127, 0.09296704083681107, 0.11681580543518066, 0.07016997039318085, 0.2845643162727356, 0.17316201329231262, 0.6395641565322876, 0.586345911026001, 0.6294359564781189, 0.9634495973587036, 0.9663564562797546, 0.9702408313751221, 0.954958975315094, 0.9654213786125183, 0.9166723489761353, 0.9597461819648743, 0.6448963284492493, 0.1235411986708641, 0.3787231743335724, 0.4579808712005615, 0.7374975085258484, 0.7185280919075012, 0.9431641101837158, 0.990096926689148, 0.9964554309844971, 0.9930521249771118, 0.9859530925750732, 0.9898555278778076, 0.9825853109359741, 0.9803845882415771, 0.9799095988273621, 0.9895920157432556, 0.9691761136054993, 0.9762337803840637, 0.9897727370262146, 0.991204023361206, 0.9432346224784851, 0.9376499056816101, 0.8136481046676636, 0.742594838142395, 0.16419853270053864, 0.11865220218896866, 0.16724400222301483, 0.1855560541152954, 0.803363561630249, 0.7474341988563538, 0.9055646657943726, 0.9877960681915283, 0.9724144339561462, 0.9125586748123169, 0.9805311560630798, 0.9482747316360474, 0.9594780206680298, 0.21577434241771698, 0.6407926082611084, 0.37419232726097107, 0.1716776043176651, 0.34620732069015503, 0.15020819008350372, 0.6197928786277771, 0.8036090135574341, 0.9751307368278503, 0.9047491550445557, 0.8885762691497803, 0.9548109173774719, 0.8472149968147278, 0.9878249168395996, 0.9527510404586792, 0.9449061155319214, 0.9896129965782166, 0.9293032884597778, 0.9779770374298096, 0.9714055061340332, 0.9237165451049805, 0.9303046464920044, 0.8808460831642151, 0.9514843821525574, 0.4318367838859558, 0.4295504689216614]</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.9956952333450317</v>
+        <v>0.9964554309844971</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
@@ -5183,10 +5183,10 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0.7487943999876734</v>
+        <v>0.7578897999919718</v>
       </c>
       <c r="J116" t="n">
-        <v>0.005672684848391465</v>
+        <v>0.005741589393878574</v>
       </c>
     </row>
     <row r="117">
@@ -5205,11 +5205,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[0.9150745272636414, 0.6576037406921387, 0.708767831325531, 0.5791468024253845, 0.57498699426651, 0.3222863972187042, 0.6488490104675293, 0.4615147113800049, 0.46682313084602356, 0.6319999098777771, 0.6912478804588318, 0.6266424655914307, 0.9479203820228577, 0.701258659362793, 0.46088650822639465, 0.7568254470825195, 0.7566352486610413, 0.9081723093986511, 0.9434416890144348, 0.9082673192024231, 0.576799213886261, 0.7378538250923157, 0.4410371780395508, 0.35400164127349854, 0.5051414966583252, 0.37028923630714417, 0.5569410920143127, 0.764663577079773, 0.9050701260566711, 0.8668001294136047, 0.5065909028053284, 0.5547125935554504, 0.5596401691436768, 0.9703514575958252, 0.7917158007621765, 0.8343318104743958, 0.8392171263694763, 0.569007396697998, 0.17516997456550598, 0.1423395872116089, 0.2780919671058655, 0.16480368375778198, 0.1127353087067604, 0.13826553523540497, 0.15977808833122253, 0.5128573179244995, 0.2077348679304123, 0.3291148543357849, 0.28213852643966675, 0.09422169625759125, 0.2188614308834076, 0.49475035071372986, 0.30259206891059875, 0.41266506910324097, 0.6385020613670349, 0.774854838848114, 0.8998309373855591, 0.8519465327262878, 0.9151696562767029, 0.4936531186103821, 0.5541706085205078, 0.7958932518959045, 0.6702052354812622, 0.7698261737823486, 0.23152148723602295, 0.2196435183286667, 0.21462741494178772, 0.11743401736021042, 0.4843262732028961, 0.5200513601303101, 0.29163500666618347, 0.2986702024936676, 0.4094272255897522, 0.1808832436800003, 0.15060460567474365, 0.09747517108917236, 0.15024203062057495, 0.12847663462162018, 0.2069881558418274, 0.13694292306900024, 0.32810017466545105, 0.16326330602169037, 0.10842779278755188, 0.2463071495294571, 0.3784656822681427, 0.6548526883125305, 0.6696910858154297, 0.20866693556308746, 0.2823761999607086, 0.2644590139389038, 0.27096816897392273, 0.6348835825920105, 0.8912755846977234, 0.7628055810928345, 0.72885662317276, 0.8859502077102661, 0.552130401134491, 0.46254417300224304, 0.4170987606048584, 0.7172419428825378, 0.2783694565296173, 0.6263176798820496, 0.2507053017616272, 0.6051193475723267, 0.44175824522972107, 0.39469602704048157, 0.3609338402748108, 0.4944191873073578, 0.6592903733253479, 0.7083132863044739, 0.46327728033065796, 0.31957754492759705, 0.26472747325897217, 0.22845590114593506, 0.22792263329029083, 0.4908028244972229, 0.5058116316795349, 0.794436514377594, 0.28939563035964966, 0.5760594010353088, 0.5254932045936584, 0.6167609691619873, 0.7699599862098694, 0.4495961666107178, 0.7243765592575073, 0.6324816346168518, 0.8934153318405151, 0.5231503844261169, 0.7958847880363464, 0.8781211376190186, 0.925182580947876, 0.9259778261184692]</t>
+          <t>[0.936409592628479, 0.7650529742240906, 0.8278719782829285, 0.681865394115448, 0.7728922963142395, 0.37981560826301575, 0.7082620859146118, 0.541956901550293, 0.5833389759063721, 0.6300917267799377, 0.7262299656867981, 0.8071800470352173, 0.9679085612297058, 0.6535246968269348, 0.37429308891296387, 0.720517098903656, 0.8179222345352173, 0.9204824566841125, 0.9602266550064087, 0.9668008685112, 0.883893609046936, 0.9225367307662964, 0.413166880607605, 0.23560906946659088, 0.39663901925086975, 0.27506721019744873, 0.3971421718597412, 0.622261643409729, 0.7786256670951843, 0.8599583506584167, 0.5267369747161865, 0.4006979167461395, 0.6972436904907227, 0.9612396955490112, 0.7848743200302124, 0.8851235508918762, 0.8174184560775757, 0.488590806722641, 0.1234065592288971, 0.07907013595104218, 0.19188784062862396, 0.13169679045677185, 0.04980619624257088, 0.07201672345399857, 0.08391156792640686, 0.6450257897377014, 0.11354925483465195, 0.19832387566566467, 0.2908668518066406, 0.06298524886369705, 0.12820783257484436, 0.5176700353622437, 0.4163326323032379, 0.7434831261634827, 0.8303185701370239, 0.8645532727241516, 0.9317257404327393, 0.9162681698799133, 0.9603868126869202, 0.8101444244384766, 0.8424602746963501, 0.8792715668678284, 0.8377014398574829, 0.9250833988189697, 0.4413485527038574, 0.20671148598194122, 0.1588008850812912, 0.1087629646062851, 0.22337891161441803, 0.5071414113044739, 0.3114908039569855, 0.20867538452148438, 0.17644217610359192, 0.13546030223369598, 0.17039526998996735, 0.06578687578439713, 0.09862066060304642, 0.05756831914186478, 0.12704281508922577, 0.06312283128499985, 0.1519020050764084, 0.07517598569393158, 0.062386494129896164, 0.20597022771835327, 0.24611103534698486, 0.5905123949050903, 0.6141332983970642, 0.18708811700344086, 0.19134414196014404, 0.1712946593761444, 0.39415377378463745, 0.8354406952857971, 0.9560655355453491, 0.9160681366920471, 0.9124258756637573, 0.9476956725120544, 0.7338904738426208, 0.6620058417320251, 0.594464898109436, 0.9249845147132874, 0.6156086921691895, 0.8868296146392822, 0.5129722952842712, 0.8144667744636536, 0.5998160243034363, 0.5516427755355835, 0.5210882425308228, 0.6753350496292114, 0.8011530637741089, 0.8573276400566101, 0.5465226769447327, 0.44836631417274475, 0.4961462616920471, 0.36106371879577637, 0.38503435254096985, 0.6351289749145508, 0.6793904900550842, 0.767535924911499, 0.45232629776000977, 0.7419926524162292, 0.6457323431968689, 0.8639128804206848, 0.8791310787200928, 0.631017804145813, 0.7866487503051758, 0.5718634128570557, 0.8995020985603333, 0.5314652919769287, 0.6392929553985596, 0.8510254621505737, 0.9358457922935486, 0.9361922144889832]</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.9703514575958252</v>
+        <v>0.9679085612297058</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
@@ -5223,10 +5223,10 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0.7498366000072565</v>
+        <v>0.7501129000011133</v>
       </c>
       <c r="J117" t="n">
-        <v>0.005680580303085277</v>
+        <v>0.005682673484856919</v>
       </c>
     </row>
     <row r="118">
@@ -5245,11 +5245,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[0.8172030448913574, 0.9550220370292664, 0.9013662338256836, 0.9573556780815125, 0.9687198400497437, 0.7644047141075134, 0.8581064939498901, 0.9759618639945984, 0.9243584871292114, 0.9132384061813354, 0.8845081329345703, 0.958210825920105, 0.825993001461029, 0.8859748840332031, 0.8317640423774719, 0.9836577773094177, 0.9947275519371033, 0.9748006463050842, 0.9505528807640076, 0.9587936997413635, 0.9766735434532166, 0.8646208643913269, 0.8638213276863098, 0.7982450723648071, 0.6357462406158447, 0.7012026309967041, 0.7952209711074829, 0.9630363583564758, 0.7828084826469421, 0.7648419737815857, 0.8233570456504822, 0.9400319457054138, 0.8055781126022339, 0.49077534675598145, 0.8481196165084839, 0.6031941771507263, 0.848366379737854, 0.8895570039749146, 0.5490552186965942, 0.7665402293205261, 0.8941170573234558, 0.940643846988678, 0.9064907431602478, 0.8139774799346924, 0.9414645433425903, 0.9614081382751465, 0.9512001872062683, 0.9233373999595642, 0.9715996980667114, 0.9720155596733093, 0.988473117351532, 0.9889389276504517, 0.9439582824707031, 0.6640123724937439, 0.9294672012329102, 0.990741491317749, 0.975700318813324, 0.9835814237594604, 0.9761890172958374, 0.9340945482254028, 0.8851548433303833, 0.9609383940696716, 0.9043353199958801, 0.7851179242134094, 0.5757980942726135, 0.9393154978752136, 0.769245982170105, 0.9850381016731262, 0.9622659087181091, 0.9567685723304749, 0.8825598955154419, 0.7259364128112793, 0.7508389949798584, 0.7899641990661621, 0.9446197748184204, 0.9724177122116089, 0.9330238103866577, 0.6125361323356628, 0.7947498559951782, 0.559804379940033, 0.73940110206604, 0.7977634072303772, 0.8139826655387878, 0.9120821356773376, 0.8244566321372986, 0.9214096069335938, 0.9046411514282227, 0.8855347633361816, 0.8865319490432739, 0.8174813985824585, 0.9775011539459229, 0.8515923023223877, 0.736697256565094, 0.5472207069396973, 0.9548958539962769, 0.5410051345825195, 0.37455686926841736, 0.8708740472793579, 0.7926361560821533, 0.6620362997055054, 0.7035393118858337, 0.6684988737106323, 0.794655978679657, 0.9091957211494446, 0.9462470412254333, 0.8963824510574341, 0.9531104564666748, 0.8616483807563782, 0.9401968121528625, 0.8253006339073181, 0.8269715309143066, 0.6194738745689392, 0.45063459873199463, 0.790282666683197, 0.4022635221481323, 0.6109973788261414, 0.378669410943985, 0.7164809703826904, 0.9158852100372314, 0.929446816444397, 0.9533756971359253, 0.9710058569908142, 0.9782837629318237, 0.9872744083404541, 0.9935081005096436, 0.8758681416511536, 0.9660047888755798, 0.9869387149810791, 0.9822654724121094, 0.9896442890167236, 0.781489908695221, 0.7862148284912109]</t>
+          <t>[0.6662107110023499, 0.9442117810249329, 0.8413439393043518, 0.8383306264877319, 0.8783770799636841, 0.4098469018936157, 0.5206791758537292, 0.9459974765777588, 0.8583180904388428, 0.846380352973938, 0.761847198009491, 0.9291750192642212, 0.5703592896461487, 0.8528151512145996, 0.7032878994941711, 0.982490062713623, 0.9947143197059631, 0.9735468029975891, 0.933490514755249, 0.955411434173584, 0.9784901738166809, 0.8169147968292236, 0.7531067728996277, 0.7256920337677002, 0.563681423664093, 0.6037192940711975, 0.6167231798171997, 0.9326470494270325, 0.586673378944397, 0.6875079274177551, 0.6875796318054199, 0.8934837579727173, 0.7305433750152588, 0.30447399616241455, 0.7578431367874146, 0.48459893465042114, 0.7581560015678406, 0.7604329586029053, 0.40226343274116516, 0.6320582628250122, 0.8541992902755737, 0.9295803308486938, 0.868520975112915, 0.782586395740509, 0.9343631863594055, 0.951645016670227, 0.9230716824531555, 0.90670245885849, 0.9606641530990601, 0.9681140184402466, 0.9879492521286011, 0.9922389984130859, 0.9247433543205261, 0.6660776734352112, 0.931341826915741, 0.9936927556991577, 0.9766802191734314, 0.968316376209259, 0.9596007466316223, 0.8982632160186768, 0.8082590699195862, 0.9535704851150513, 0.7905315160751343, 0.7452317476272583, 0.41592976450920105, 0.9061794281005859, 0.636201024055481, 0.9799385070800781, 0.931678831577301, 0.8946072459220886, 0.741462767124176, 0.4445697069168091, 0.4475446939468384, 0.5624814033508301, 0.868588387966156, 0.9148262143135071, 0.8799087405204773, 0.41747376322746277, 0.6038187742233276, 0.43209108710289, 0.4312542974948883, 0.6366757750511169, 0.8111168146133423, 0.9136765599250793, 0.8255454301834106, 0.937747597694397, 0.9250780940055847, 0.8529821634292603, 0.848650336265564, 0.7408220171928406, 0.9638131856918335, 0.8090776801109314, 0.6946149468421936, 0.5667933225631714, 0.9101178646087646, 0.38721007108688354, 0.22891369462013245, 0.7478518486022949, 0.7670820355415344, 0.5856944918632507, 0.5171220302581787, 0.4775191843509674, 0.6437863111495972, 0.8707123398780823, 0.905633807182312, 0.8116250038146973, 0.922450065612793, 0.7684343457221985, 0.9197189807891846, 0.903763473033905, 0.7786096930503845, 0.4555446207523346, 0.3292829096317291, 0.6579791307449341, 0.271290123462677, 0.5515146851539612, 0.2155461460351944, 0.46167251467704773, 0.8572948575019836, 0.8218986392021179, 0.886854887008667, 0.9448637366294861, 0.9642523527145386, 0.9889525175094604, 0.9922788143157959, 0.7098535299301147, 0.9335672855377197, 0.9851993322372437, 0.9806489944458008, 0.9759420156478882, 0.5015520453453064, 0.5074265003204346]</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.9947275519371033</v>
+        <v>0.9947143197059631</v>
       </c>
       <c r="F118" t="n">
         <v>1</v>
@@ -5263,10 +5263,10 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0.7470488999970257</v>
+        <v>0.7677513000089675</v>
       </c>
       <c r="J118" t="n">
-        <v>0.005659461363613831</v>
+        <v>0.005816297727340663</v>
       </c>
     </row>
     <row r="119">
@@ -5285,11 +5285,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>[0.3704240918159485, 0.3392663300037384, 0.2482365071773529, 0.318450927734375, 0.5170410871505737, 0.2825210392475128, 0.24005357921123505, 0.31316938996315, 0.20998260378837585, 0.2916959822177887, 0.39988812804222107, 0.9648501873016357, 0.6532888412475586, 0.4141526520252228, 0.10388360172510147, 0.24939429759979248, 0.11262062937021255, 0.1416233628988266, 0.1004229485988617, 0.07089705020189285, 0.09085674583911896, 0.08931220322847366, 0.14489048719406128, 0.12823273241519928, 0.1423860490322113, 0.09497683495283127, 0.1526941955089569, 0.23063932359218597, 0.21695579588413239, 0.07991054654121399, 0.12063466757535934, 0.06781083345413208, 0.05791362002491951, 0.0574796088039875, 0.08218597620725632, 0.0765465646982193, 0.17415162920951843, 0.13032709062099457, 0.11602979898452759, 0.0972021073102951, 0.055058255791664124, 0.14861641824245453, 0.21356579661369324, 0.18792414665222168, 0.2900947332382202, 0.27199357748031616, 0.17626352608203888, 0.11660858988761902, 0.14477424323558807, 0.10575108230113983, 0.16386361420154572, 0.1088358461856842, 0.11889280378818512, 0.10739406943321228, 0.30494794249534607, 0.33071964979171753, 0.21440830826759338, 0.1742323935031891, 0.281812846660614, 0.26519832015037537, 0.26165124773979187, 0.2704562544822693, 0.3376532196998596, 0.22452746331691742, 0.26157134771347046, 0.24401210248470306, 0.19361239671707153, 0.20259830355644226, 0.30826058983802795, 0.3344915807247162, 0.2627348005771637, 0.11995654553174973, 0.2643643021583557, 0.1479085385799408, 0.12272023409605026, 0.11602893471717834, 0.11259957402944565, 0.2528280019760132, 0.4633830785751343, 0.374479204416275, 0.1527443677186966, 0.24189132452011108, 0.11911318451166153, 0.24381643533706665, 0.12131377309560776, 0.23490826785564423, 0.11107989400625229, 0.12942242622375488, 0.09647535532712936, 0.17599594593048096, 0.34880924224853516, 0.24414491653442383, 0.4056605398654938, 0.2629765272140503, 0.11019109934568405, 0.2823728024959564, 0.14875678718090057, 0.09926910698413849, 0.17026500403881073, 0.09249668568372726, 0.12884539365768433, 0.22555145621299744, 0.29375654458999634, 0.343082070350647, 0.3383833169937134, 0.3761424720287323, 0.2016545981168747, 0.22699342668056488, 0.5245174169540405, 0.508217453956604, 0.4438205659389496, 0.20966587960720062, 0.08216749131679535, 0.06967118382453918, 0.1303025186061859, 0.11494668573141098, 0.2666044533252716, 0.21860472857952118, 0.14508958160877228, 0.15133211016654968, 0.13154932856559753, 0.2141750007867813, 0.09166152775287628, 0.0836421400308609, 0.2596904933452606, 0.11130816489458084, 0.24137136340141296, 0.15886354446411133, 0.09081140905618668, 0.10691981017589569, 0.147145077586174, 0.15025615692138672]</t>
+          <t>[0.38282182812690735, 0.316565603017807, 0.2916947305202484, 0.33920013904571533, 0.5873736143112183, 0.3358181118965149, 0.22012370824813843, 0.3437259793281555, 0.13071036338806152, 0.19945178925991058, 0.2909211218357086, 0.9804227948188782, 0.8022433519363403, 0.40657371282577515, 0.08279094845056534, 0.37859830260276794, 0.1281992495059967, 0.11137662082910538, 0.10325241833925247, 0.06245334446430206, 0.0813431590795517, 0.09571545571088791, 0.15943636000156403, 0.11454612016677856, 0.09961728751659393, 0.04483208432793617, 0.11094996333122253, 0.20772716403007507, 0.2368752807378769, 0.04954061657190323, 0.12244454771280289, 0.06445767730474472, 0.07455926388502121, 0.04766007512807846, 0.09695713222026825, 0.07003360241651535, 0.18099823594093323, 0.09896080195903778, 0.12609852850437164, 0.11275764554738998, 0.04082349315285683, 0.14523887634277344, 0.22158673405647278, 0.27474305033683777, 0.3080137073993683, 0.26328250765800476, 0.1514744609594345, 0.07618942856788635, 0.0938921794295311, 0.09150934219360352, 0.18318024277687073, 0.114332415163517, 0.12296021729707718, 0.09457177668809891, 0.32213515043258667, 0.43472108244895935, 0.3126492500305176, 0.21035584807395935, 0.3397018611431122, 0.2889428436756134, 0.2758249044418335, 0.1959867924451828, 0.40189456939697266, 0.2743844985961914, 0.2343352735042572, 0.19154326617717743, 0.1604643166065216, 0.1653752624988556, 0.2514006197452545, 0.3081604242324829, 0.17618907988071442, 0.05587580427527428, 0.12778402864933014, 0.07692324370145798, 0.05794741213321686, 0.10140669345855713, 0.10728016495704651, 0.23903971910476685, 0.5089204907417297, 0.5197628736495972, 0.14256294071674347, 0.17657604813575745, 0.10339035838842392, 0.24704499542713165, 0.09872601181268692, 0.2119242399930954, 0.09450642019510269, 0.1137579008936882, 0.06288563460111618, 0.10208901762962341, 0.3306550085544586, 0.18534746766090393, 0.40219032764434814, 0.25110578536987305, 0.07032861560583115, 0.22685471177101135, 0.13703076541423798, 0.11878519505262375, 0.21531471610069275, 0.10568968206644058, 0.12633445858955383, 0.1874074786901474, 0.3299081325531006, 0.2808305025100708, 0.2620565593242645, 0.4591522216796875, 0.2002766728401184, 0.26397737860679626, 0.5232337713241577, 0.44238853454589844, 0.4494531452655792, 0.23811770975589752, 0.04750201851129532, 0.0399642139673233, 0.11346136778593063, 0.08979681879281998, 0.3071996867656708, 0.21180282533168793, 0.15828615427017212, 0.13372033834457397, 0.1178290843963623, 0.22482940554618835, 0.07086628675460815, 0.08159664273262024, 0.1898033171892166, 0.10473475605249405, 0.3656215965747833, 0.16646511852741241, 0.08112549781799316, 0.07546203583478928, 0.09848339855670929, 0.10037040710449219]</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.9648501873016357</v>
+        <v>0.9804227948188782</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0.7348176000232343</v>
+        <v>0.7689161000016611</v>
       </c>
       <c r="J119" t="n">
-        <v>0.005566800000176017</v>
+        <v>0.005825121969709554</v>
       </c>
     </row>
     <row r="120">
@@ -5325,11 +5325,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>[0.625503659248352, 0.31204497814178467, 0.6818476915359497, 0.8204746246337891, 0.8982197642326355, 0.9035995602607727, 0.9690986275672913, 0.9499626159667969, 0.7475519776344299, 0.8150526881217957, 0.9545362591743469, 0.9803978800773621, 0.9694409966468811, 0.9518038630485535, 0.9569754004478455, 0.77155601978302, 0.5077691078186035, 0.41757580637931824, 0.7924596667289734, 0.5112987756729126, 0.9300594329833984, 0.9734015464782715, 0.9672203063964844, 0.9415234923362732, 0.9554073214530945, 0.9821773767471313, 0.9723497629165649, 0.9699215292930603, 0.9314702749252319, 0.9656808972358704, 0.960324227809906, 0.9895583391189575, 0.8457185626029968, 0.6116460561752319, 0.7891292572021484, 0.7566314339637756, 0.7859259843826294, 0.7583391666412354, 0.7647783756256104, 0.8763121962547302, 0.7886032462120056, 0.6852302551269531, 0.8815170526504517, 0.935243546962738, 0.966745138168335, 0.726396381855011, 0.25567111372947693, 0.9350617527961731, 0.9620404839515686, 0.5508024096488953, 0.954914927482605, 0.9818726181983948, 0.9863225221633911, 0.9732174873352051, 0.9525377750396729, 0.9862014651298523, 0.7297500371932983, 0.9681769013404846, 0.9748732447624207, 0.9835157990455627, 0.9692436456680298, 0.9101672172546387, 0.5369287133216858, 0.7820111513137817, 0.5740995407104492, 0.9539371728897095, 0.8891460299491882, 0.9882025122642517, 0.6653162837028503, 0.6567814946174622, 0.299013614654541, 0.8611727356910706, 0.627373456954956, 0.46961724758148193, 0.9369187355041504, 0.8846395611763, 0.8514781594276428, 0.8763809204101562, 0.9742808938026428, 0.8779807090759277, 0.9365893006324768, 0.8412367701530457, 0.49890372157096863, 0.21111656725406647, 0.3637116849422455, 0.6428669691085815, 0.7199341654777527, 0.716507613658905, 0.7822591662406921, 0.8835251331329346, 0.4641641676425934, 0.9368881583213806, 0.8577249050140381, 0.6884484887123108, 0.9570427536964417, 0.6410999894142151, 0.3084205090999603, 0.8539559841156006, 0.8632705807685852, 0.8154420256614685, 0.7675336599349976, 0.7357591390609741, 0.8173573017120361, 0.766717255115509, 0.6013389229774475, 0.8399301767349243, 0.9361053109169006, 0.2049015313386917, 0.06500081717967987, 0.22192876040935516, 0.9128845930099487, 0.9406533241271973, 0.9857844710350037, 0.9919519424438477, 0.9862154722213745, 0.975364625453949, 0.9623464941978455, 0.9362072348594666, 0.954734742641449, 0.8903294801712036, 0.9028583765029907, 0.9866190552711487, 0.9515774250030518, 0.8026279807090759, 0.7397221922874451, 0.9712634086608887, 0.9364817142486572, 0.9732792377471924, 0.9124689102172852, 0.9427931904792786, 0.9502424001693726, 0.9503250122070312]</t>
+          <t>[0.1896035373210907, 0.09748347848653793, 0.2272331267595291, 0.532723605632782, 0.789661705493927, 0.7374196648597717, 0.910118818283081, 0.8380678296089172, 0.37286823987960815, 0.4455792009830475, 0.8610581159591675, 0.9688330292701721, 0.936342179775238, 0.9352363348007202, 0.9426007270812988, 0.4933922290802002, 0.2358664721250534, 0.15864817798137665, 0.37283289432525635, 0.1598421037197113, 0.7120086550712585, 0.9466754794120789, 0.9547494053840637, 0.9141185283660889, 0.9366365671157837, 0.9598681926727295, 0.9397059082984924, 0.9258397221565247, 0.8541597127914429, 0.9390899538993835, 0.8704941868782043, 0.9832803010940552, 0.73031085729599, 0.6429185271263123, 0.8689866662025452, 0.7949941158294678, 0.7333665490150452, 0.6337271332740784, 0.7468891143798828, 0.8002199530601501, 0.5887357592582703, 0.3130991756916046, 0.7349229454994202, 0.9096301198005676, 0.8974217772483826, 0.4998356103897095, 0.15743181109428406, 0.8861978650093079, 0.9109880924224854, 0.2795950472354889, 0.8912084102630615, 0.978727400302887, 0.9839680194854736, 0.95467609167099, 0.9075770974159241, 0.9830520153045654, 0.8258326053619385, 0.973334014415741, 0.9673704504966736, 0.9704387187957764, 0.9243906736373901, 0.7325963973999023, 0.17419008910655975, 0.3118515610694885, 0.24047796428203583, 0.8459039926528931, 0.5361893177032471, 0.9716178178787231, 0.3703009784221649, 0.2898332476615906, 0.11919718235731125, 0.6039959788322449, 0.3723973035812378, 0.21223463118076324, 0.7221202254295349, 0.578811764717102, 0.6491401195526123, 0.7251654267311096, 0.9475299715995789, 0.6771831512451172, 0.674233615398407, 0.4990135431289673, 0.1864176094532013, 0.03778842091560364, 0.07077979296445847, 0.25370651483535767, 0.43879684805870056, 0.3940961956977844, 0.38032686710357666, 0.6149362325668335, 0.14620450139045715, 0.7602805495262146, 0.5756608247756958, 0.4130988121032715, 0.8952091336250305, 0.5342851877212524, 0.08665873110294342, 0.7233375906944275, 0.8513225317001343, 0.6325175166130066, 0.5987419486045837, 0.4275299608707428, 0.4497472643852234, 0.4868343770503998, 0.29862430691719055, 0.5643347501754761, 0.8625332117080688, 0.08458608388900757, 0.013558322563767433, 0.09562956541776657, 0.7859686017036438, 0.7659733891487122, 0.9625275731086731, 0.9820782542228699, 0.9566071629524231, 0.900406002998352, 0.8110166788101196, 0.6649767160415649, 0.6792459487915039, 0.5820826888084412, 0.6953431963920593, 0.970090925693512, 0.8466929793357849, 0.5220924019813538, 0.3152950704097748, 0.8518584370613098, 0.7878785729408264, 0.92490154504776, 0.654171884059906, 0.8436225652694702, 0.9036619663238525, 0.9038863182067871]</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.9919519424438477</v>
+        <v>0.9839680194854736</v>
       </c>
       <c r="F120" t="n">
         <v>1</v>
@@ -5343,10 +5343,10 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0.7551973999943584</v>
+        <v>0.7659370999899693</v>
       </c>
       <c r="J120" t="n">
-        <v>0.005721192424199685</v>
+        <v>0.005802553787802797</v>
       </c>
     </row>
     <row r="121">
@@ -5365,11 +5365,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>[0.9158164858818054, 0.9850963950157166, 0.8526002168655396, 0.46034154295921326, 0.11771812289953232, 0.13546088337898254, 0.0844029039144516, 0.2390153706073761, 0.6616486310958862, 0.9635162949562073, 0.8707994818687439, 0.9348127841949463, 0.14989352226257324, 0.12005073577165604, 0.2806105315685272, 0.8482854962348938, 0.957266092300415, 0.9424007534980774, 0.792645275592804, 0.7287053465843201, 0.31952813267707825, 0.4867776930332184, 0.2738751471042633, 0.9245327115058899, 0.21946142613887787, 0.434541791677475, 0.7332622408866882, 0.9315819144248962, 0.16150310635566711, 0.7333803772926331, 0.8709868788719177, 0.541412353515625, 0.7869670987129211, 0.8714615702629089, 0.38412559032440186, 0.7789950966835022, 0.855181097984314, 0.9643383622169495, 0.9406045079231262, 0.9857629537582397, 0.9553589820861816, 0.8364520072937012, 0.9274560213088989, 0.3868219256401062, 0.5195790529251099, 0.264572411775589, 0.663912832736969, 0.7546859383583069, 0.9062775373458862, 0.5439724326133728, 0.26450464129447937, 0.6116717457771301, 0.582747220993042, 0.7381412982940674, 0.9634444713592529, 0.8859372138977051, 0.4980717897415161, 0.6772032976150513, 0.2525637447834015, 0.2813185155391693, 0.12622115015983582, 0.8745490312576294, 0.20450708270072937, 0.782524049282074, 0.7809364199638367, 0.7037035822868347, 0.5562677383422852, 0.7053256630897522, 0.7161498665809631, 0.7006996870040894, 0.16003698110580444, 0.3671756684780121, 0.03149651736021042, 0.5099678635597229, 0.5093895792961121, 0.6216052174568176, 0.5954161286354065, 0.9521595239639282, 0.8292117714881897, 0.4376872181892395, 0.32008665800094604, 0.08335473388433456, 0.6275148391723633, 0.7894237637519836, 0.33779439330101013, 0.07573490589857101, 0.9105620980262756, 0.15654589235782623, 0.4018632769584656, 0.3240005075931549, 0.8101006746292114, 0.34117862582206726, 0.13531799614429474, 0.18487392365932465, 0.215932697057724, 0.5889919996261597, 0.9132590889930725, 0.6148194670677185, 0.424241840839386, 0.3550027310848236, 0.32742735743522644, 0.2554682493209839, 0.8663894534111023, 0.5504459738731384, 0.2528969347476959, 0.44437500834465027, 0.33058443665504456, 0.3430226445198059, 0.78655606508255, 0.17999505996704102, 0.5384274125099182, 0.5363898873329163, 0.05346744880080223, 0.13163217902183533, 0.5917607545852661, 0.5065955519676208, 0.8178569078445435, 0.87416011095047, 0.6900993585586548, 0.7577252388000488, 0.3474557399749756, 0.4806067943572998, 0.26750174164772034, 0.6212789416313171, 0.3026720881462097, 0.46711233258247375, 0.3923813998699188, 0.22607387602329254, 0.11815376579761505, 0.13935939967632294, 0.1398303210735321]</t>
+          <t>[0.8199946880340576, 0.9734451174736023, 0.6200133562088013, 0.1566915363073349, 0.019519157707691193, 0.047871291637420654, 0.034026239067316055, 0.11551035195589066, 0.4779546558856964, 0.9332438707351685, 0.5237091183662415, 0.7165178656578064, 0.03395013511180878, 0.02659967541694641, 0.04636410251259804, 0.48473796248435974, 0.8470266461372375, 0.654861330986023, 0.4127615690231323, 0.24199289083480835, 0.09061162173748016, 0.10032275319099426, 0.0526730939745903, 0.7527650594711304, 0.04690822586417198, 0.1261219084262848, 0.48254579305648804, 0.6361430883407593, 0.02456587180495262, 0.18897105753421783, 0.3652227818965912, 0.10753651708364487, 0.20600278675556183, 0.6346985697746277, 0.12220631539821625, 0.3958073854446411, 0.673954963684082, 0.9242601990699768, 0.8617174029350281, 0.9521359205245972, 0.8122327327728271, 0.45122140645980835, 0.805269181728363, 0.09556692093610764, 0.10720782727003098, 0.03446384519338608, 0.21030710637569427, 0.5200629234313965, 0.772609531879425, 0.3151518702507019, 0.11627396941184998, 0.4575026333332062, 0.35515743494033813, 0.298002690076828, 0.9410808086395264, 0.753601610660553, 0.16092786192893982, 0.4708250164985657, 0.10559647530317307, 0.13354292511940002, 0.04031486064195633, 0.788950502872467, 0.07687392830848694, 0.5714240074157715, 0.31654903292655945, 0.397716224193573, 0.19864808022975922, 0.20345300436019897, 0.24871595203876495, 0.3003484904766083, 0.030996333807706833, 0.19608326256275177, 0.006869048811495304, 0.12535828351974487, 0.17498986423015594, 0.17535997927188873, 0.29616016149520874, 0.891068696975708, 0.4969908893108368, 0.06780199706554413, 0.038038469851017, 0.019597357138991356, 0.16806288063526154, 0.40210434794425964, 0.05332009494304657, 0.0174484271556139, 0.6721952557563782, 0.026931779459118843, 0.06177203357219696, 0.08164828270673752, 0.49823135137557983, 0.05845903977751732, 0.017342152073979378, 0.033418938517570496, 0.03417888283729553, 0.2043767124414444, 0.5758646130561829, 0.23324938118457794, 0.19255541265010834, 0.12061387300491333, 0.06496647000312805, 0.05713827162981033, 0.6673317551612854, 0.15002894401550293, 0.0714133158326149, 0.07890906929969788, 0.12269099801778793, 0.0920046716928482, 0.19823727011680603, 0.05555257946252823, 0.13177861273288727, 0.1971537172794342, 0.014263344928622246, 0.033077020198106766, 0.2843465209007263, 0.3519403338432312, 0.5504079461097717, 0.557128369808197, 0.30235549807548523, 0.4571497440338135, 0.07914502918720245, 0.12237832695245743, 0.06338121742010117, 0.32785212993621826, 0.13142099976539612, 0.0885072574019432, 0.21930375695228577, 0.08966086804866791, 0.0427430123090744, 0.07807143777608871, 0.07852407544851303]</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.9857629537582397</v>
+        <v>0.9734451174736023</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
@@ -5383,10 +5383,10 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0.7417480000003707</v>
+        <v>0.7389960000000428</v>
       </c>
       <c r="J121" t="n">
-        <v>0.005662198473285272</v>
+        <v>0.005641190839694984</v>
       </c>
     </row>
     <row r="122">
@@ -5405,11 +5405,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>[0.5186232328414917, 0.18028897047042847, 0.10119631886482239, 0.2956404983997345, 0.34735026955604553, 0.0873086079955101, 0.07385103404521942, 0.05570850893855095, 0.12732930481433868, 0.24332813918590546, 0.19560720026493073, 0.43751078844070435, 0.16421177983283997, 0.5649503469467163, 0.8681573867797852, 0.7548515796661377, 0.7674785256385803, 0.7839397192001343, 0.8035935759544373, 0.7298951745033264, 0.5183425545692444, 0.5801549553871155, 0.11650262773036957, 0.6381075382232666, 0.872090756893158, 0.6758564710617065, 0.9688205122947693, 0.7918544411659241, 0.42763081192970276, 0.3549705743789673, 0.45496490597724915, 0.14733059704303741, 0.257748007774353, 0.1362590491771698, 0.22117003798484802, 0.16124498844146729, 0.45886003971099854, 0.3090301752090454, 0.12703271210193634, 0.20076440274715424, 0.23630309104919434, 0.16551294922828674, 0.13218188285827637, 0.10864487290382385, 0.12428438663482666, 0.18001921474933624, 0.37693727016448975, 0.37407439947128296, 0.5484126210212708, 0.5593061447143555, 0.6966167688369751, 0.9029021859169006, 0.7272220849990845, 0.2441522479057312, 0.8218727111816406, 0.6437802910804749, 0.46940430998802185, 0.2893213927745819, 0.28775346279144287, 0.11602538079023361, 0.07831833511590958, 0.2302781343460083, 0.35942521691322327, 0.28380098938941956, 0.5927531123161316, 0.5876744985580444, 0.5818848609924316, 0.7333215475082397, 0.5955685377120972, 0.4306594729423523, 0.6269774436950684, 0.16930432617664337, 0.21597717702388763, 0.1908738911151886, 0.0497354157269001, 0.10317299515008926, 0.0884411558508873, 0.47077658772468567, 0.3391282558441162, 0.1371145099401474, 0.19667913019657135, 0.22860613465309143, 0.7269940972328186, 0.40377914905548096, 0.759154736995697, 0.5085226893424988, 0.42283809185028076, 0.46360698342323303, 0.36574411392211914, 0.054960645735263824, 0.18134614825248718, 0.07943829894065857, 0.12478736788034439, 0.1306271255016327, 0.16776849329471588, 0.16184593737125397, 0.2910803258419037, 0.12131784111261368, 0.17684046924114227, 0.0710739716887474, 0.1810581088066101, 0.16057369112968445, 0.13732492923736572, 0.2884431481361389, 0.16138722002506256, 0.0835062712430954, 0.13420350849628448, 0.14229239523410797, 0.1121283695101738, 0.14064694941043854, 0.08912146836519241, 0.050912823528051376, 0.06954070925712585, 0.1859893798828125, 0.23683099448680878, 0.22461619973182678, 0.25630855560302734, 0.2911767363548279, 0.17529302835464478, 0.405670702457428, 0.4385524094104767, 0.6460273861885071, 0.5624309778213501, 0.4187208116054535, 0.31141823530197144, 0.6547675132751465, 0.34957292675971985, 0.3232247531414032, 0.7187119722366333, 0.6982751488685608, 0.30194997787475586, 0.3022112548351288]</t>
+          <t>[0.70635986328125, 0.26645374298095703, 0.08549100905656815, 0.41848164796829224, 0.3688511252403259, 0.10987303406000137, 0.058035045862197876, 0.050463732331991196, 0.10143344849348068, 0.21565210819244385, 0.20406216382980347, 0.48945146799087524, 0.15796972811222076, 0.4914917051792145, 0.9365189075469971, 0.7745583057403564, 0.8249943852424622, 0.8423292636871338, 0.7114968299865723, 0.6672531366348267, 0.49922946095466614, 0.48407620191574097, 0.14893236756324768, 0.6105813384056091, 0.7998287081718445, 0.5029011964797974, 0.9167312383651733, 0.5008835792541504, 0.34083136916160583, 0.2132590115070343, 0.2839212715625763, 0.06461017578840256, 0.1319074034690857, 0.1056985855102539, 0.17387840151786804, 0.11151736974716187, 0.32511746883392334, 0.22738085687160492, 0.07909715920686722, 0.26271384954452515, 0.32890117168426514, 0.17135964334011078, 0.16764914989471436, 0.10461266338825226, 0.15186184644699097, 0.20583005249500275, 0.540227472782135, 0.5421097278594971, 0.6417304277420044, 0.5159388184547424, 0.6289973258972168, 0.8630322813987732, 0.5852399468421936, 0.28562822937965393, 0.7954458594322205, 0.6684731841087341, 0.42535850405693054, 0.259453684091568, 0.2133774608373642, 0.10749351233243942, 0.07694326341152191, 0.28365767002105713, 0.5366885662078857, 0.27260178327560425, 0.43903419375419617, 0.6990363001823425, 0.5575164556503296, 0.6176784038543701, 0.6480875611305237, 0.4666898250579834, 0.6406887173652649, 0.21996541321277618, 0.22119848430156708, 0.14963705837726593, 0.021645773202180862, 0.05138234794139862, 0.053868357092142105, 0.2766183614730835, 0.2116188257932663, 0.11596684902906418, 0.23565591871738434, 0.21721550822257996, 0.6927027106285095, 0.34787365794181824, 0.5350146293640137, 0.2479839026927948, 0.19142262637615204, 0.2779252231121063, 0.16126085817813873, 0.03165487200021744, 0.11807770282030106, 0.039289139211177826, 0.06276006251573563, 0.0909789428114891, 0.1343669891357422, 0.0976317897439003, 0.30322057008743286, 0.13891692459583282, 0.19513553380966187, 0.08278288692235947, 0.08808909356594086, 0.07073547691106796, 0.10208477824926376, 0.11409240961074829, 0.13810482621192932, 0.0533275231719017, 0.11527629941701889, 0.15068396925926208, 0.13836725056171417, 0.15036669373512268, 0.09586469829082489, 0.04814958944916725, 0.0705023780465126, 0.32570138573646545, 0.2764156758785248, 0.26394370198249817, 0.3423106372356415, 0.22153225541114807, 0.12943246960639954, 0.2608048915863037, 0.3211228847503662, 0.5799838900566101, 0.5093134045600891, 0.4111206531524658, 0.2160453051328659, 0.6139547824859619, 0.20069903135299683, 0.21087822318077087, 0.6151764988899231, 0.5723677277565002, 0.27160510420799255, 0.2717398405075073]</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.9688205122947693</v>
+        <v>0.9365189075469971</v>
       </c>
       <c r="F122" t="n">
         <v>1</v>
@@ -5423,10 +5423,10 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0.7463555000140332</v>
+        <v>0.7529465999978129</v>
       </c>
       <c r="J122" t="n">
-        <v>0.005654208333439645</v>
+        <v>0.00570414090907434</v>
       </c>
     </row>
     <row r="123">
@@ -5445,11 +5445,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>[0.12550996243953705, 0.1585463434457779, 0.1346948891878128, 0.16745519638061523, 0.12520040571689606, 0.14397257566452026, 0.07856898754835129, 0.07290048897266388, 0.11752744019031525, 0.09754621982574463, 0.09007907658815384, 0.12204486131668091, 0.12859578430652618, 0.14225129783153534, 0.10998206585645676, 0.1863725632429123, 0.2613596022129059, 0.23017650842666626, 0.22194334864616394, 0.15378667414188385, 0.17046983540058136, 0.13689202070236206, 0.1656949520111084, 0.11587334424257278, 0.2112015038728714, 0.21634966135025024, 0.16773176193237305, 0.2109794020652771, 0.21665175259113312, 0.24204480648040771, 0.13230404257774353, 0.2450878918170929, 0.1914168894290924, 0.19782251119613647, 0.2753407657146454, 0.21531210839748383, 0.2385505586862564, 0.38235992193222046, 0.15097728371620178, 0.13718591630458832, 0.14328399300575256, 0.12766864895820618, 0.13490746915340424, 0.22806546092033386, 0.1877714842557907, 0.08807665854692459, 0.10452976077795029, 0.13056251406669617, 0.169362410902977, 0.15640734136104584, 0.19940190017223358, 0.13391567766666412, 0.113142229616642, 0.0957610085606575, 0.11905068904161453, 0.13270975649356842, 0.1724875420331955, 0.1685313582420349, 0.15672089159488678, 0.1348389834165573, 0.17097489535808563, 0.13616757094860077, 0.14582090079784393, 0.22962811589241028, 0.20521290600299835, 0.18321101367473602, 0.11427848041057587, 0.1639329493045807, 0.20131796598434448, 0.2579362094402313, 0.190632164478302, 0.15671581029891968, 0.39466649293899536, 0.2396107167005539, 0.1332167387008667, 0.17901642620563507, 0.11884742975234985, 0.13434962928295135, 0.16993626952171326, 0.25361713767051697, 0.3910747766494751, 0.7558037042617798, 0.637554407119751, 0.6164116263389587, 0.24341490864753723, 0.29032739996910095, 0.1750280112028122, 0.11090850830078125, 0.18316008150577545, 0.14308752119541168, 0.15115420520305634, 0.3390936851501465, 0.3087047040462494, 0.2684939503669739, 0.23924905061721802, 0.2744269073009491, 0.8859648108482361, 0.9692904353141785, 0.15634620189666748, 0.10348909348249435, 0.1523927003145218, 0.10057620704174042, 0.2985745966434479, 0.12374329566955566, 0.1225137710571289, 0.16844969987869263, 0.12565878033638, 0.10668448358774185, 0.10725948214530945, 0.10321847349405289, 0.10840929299592972, 0.08709289878606796, 0.11201342195272446, 0.10651353746652603, 0.12449485808610916, 0.17383258044719696, 0.10256008058786392, 0.14792802929878235, 0.17852209508419037, 0.2416752129793167, 0.20859289169311523, 0.2802243232727051, 0.17587946355342865, 0.14315927028656006, 0.1539808064699173, 0.13171535730361938, 0.19502419233322144, 0.3901253640651703, 0.24327005445957184, 0.1481432467699051, 0.17251060903072357, 0.17247802019119263]</t>
+          <t>[0.16845332086086273, 0.1618107110261917, 0.08658434450626373, 0.1442548781633377, 0.10767479985952377, 0.12503500282764435, 0.03815388306975365, 0.03913760930299759, 0.09006320685148239, 0.07061884552240372, 0.050502341240644455, 0.08868400752544403, 0.07732024043798447, 0.1157560646533966, 0.09220627695322037, 0.23897482454776764, 0.28969818353652954, 0.22056710720062256, 0.1853388100862503, 0.14806120097637177, 0.12872029840946198, 0.11319131404161453, 0.14330342411994934, 0.06985421478748322, 0.28813788294792175, 0.31880539655685425, 0.13764022290706635, 0.19993920624256134, 0.3005368113517761, 0.29208800196647644, 0.09877610951662064, 0.4106875956058502, 0.2775925397872925, 0.31473129987716675, 0.45325157046318054, 0.36373642086982727, 0.472877562046051, 0.608302116394043, 0.1779283881187439, 0.12467446178197861, 0.13108544051647186, 0.13332103192806244, 0.12066807597875595, 0.2887204587459564, 0.2908754050731659, 0.07098222523927689, 0.05614956468343735, 0.08832511305809021, 0.15982306003570557, 0.18455538153648376, 0.3722734749317169, 0.15313316881656647, 0.10439427942037582, 0.09255809336900711, 0.09393239766359329, 0.12554104626178741, 0.17991651594638824, 0.12481065094470978, 0.09810735285282135, 0.08024857938289642, 0.12858062982559204, 0.06457825750112534, 0.14775723218917847, 0.535753607749939, 0.4114745259284973, 0.17158620059490204, 0.1412660777568817, 0.12301596254110336, 0.2514094412326813, 0.44322752952575684, 0.22736132144927979, 0.14221036434173584, 0.5272630453109741, 0.2683377265930176, 0.12628714740276337, 0.3589317500591278, 0.17810174822807312, 0.12481224536895752, 0.18631315231323242, 0.6025727987289429, 0.7715758085250854, 0.9378787279129028, 0.8989635109901428, 0.8136178255081177, 0.4580899775028229, 0.43707671761512756, 0.2470388412475586, 0.09544932842254639, 0.17707960307598114, 0.12485802918672562, 0.12317445874214172, 0.3449142575263977, 0.3359014391899109, 0.3552425801753998, 0.35564038157463074, 0.45986446738243103, 0.9390654563903809, 0.9910081028938293, 0.19600223004817963, 0.08020436763763428, 0.22203025221824646, 0.09101571142673492, 0.4202226400375366, 0.11611814796924591, 0.1776582896709442, 0.2724494934082031, 0.10069836676120758, 0.10000727325677872, 0.09747961163520813, 0.07927928119897842, 0.06842544674873352, 0.045349523425102234, 0.08449489623308182, 0.08338674157857895, 0.10429031401872635, 0.559302568435669, 0.10807771980762482, 0.14856187999248505, 0.198706716299057, 0.2552640438079834, 0.2460537999868393, 0.22400909662246704, 0.24151934683322906, 0.14100785553455353, 0.23147189617156982, 0.17115779221057892, 0.27652379870414734, 0.7705711126327515, 0.43429920077323914, 0.18549694120883942, 0.24096466600894928, 0.24177880585193634]</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.9692904353141785</v>
+        <v>0.9910081028938293</v>
       </c>
       <c r="F123" t="n">
         <v>1</v>
@@ -5463,10 +5463,10 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0.7292909999960102</v>
+        <v>0.7401585999905365</v>
       </c>
       <c r="J123" t="n">
-        <v>0.005524931818151593</v>
+        <v>0.005607262121140428</v>
       </c>
     </row>
     <row r="124">
@@ -5485,11 +5485,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>[0.3176366984844208, 0.11814257502555847, 0.12842969596385956, 0.0934908464550972, 0.10257662832736969, 0.11384788155555725, 0.167397603392601, 0.2236456573009491, 0.34157001972198486, 0.16895045340061188, 0.27095934748649597, 0.1717519313097, 0.11734465509653091, 0.13243776559829712, 0.24309226870536804, 0.2162945568561554, 0.14229221642017365, 0.12562061846256256, 0.27774783968925476, 0.1513274759054184, 0.16657599806785583, 0.1617245376110077, 0.15144070982933044, 0.11889021098613739, 0.2495010495185852, 0.29531726241111755, 0.4258725643157959, 0.40603259205818176, 0.25850483775138855, 0.1669483631849289, 0.28269848227500916, 0.13529929518699646, 0.14932048320770264, 0.23363922536373138, 0.2707643210887909, 0.2227422147989273, 0.1706990897655487, 0.15331177413463593, 0.2584519386291504, 0.43402689695358276, 0.3536509573459625, 0.38891470432281494, 0.3828378915786743, 0.13533665239810944, 0.15118664503097534, 0.18241888284683228, 0.19819307327270508, 0.2676558494567871, 0.20347841084003448, 0.1208188459277153, 0.14403674006462097, 0.1966385394334793, 0.22832870483398438, 0.17913000285625458, 0.21194379031658173, 0.16136842966079712, 0.1568397879600525, 0.15769074857234955, 0.142968088388443, 0.11909543722867966, 0.09172329306602478, 0.10694709420204163, 0.14325390756130219, 0.12903966009616852, 0.11998142302036285, 0.16992810368537903, 0.09547766298055649, 0.14070457220077515, 0.05183593928813934, 0.1213771179318428, 0.08334534615278244, 0.20440568029880524, 0.17440809309482574, 0.1416577696800232, 0.10003587603569031, 0.08666912466287613, 0.1144554391503334, 0.12817884981632233, 0.09303265810012817, 0.1684274524450302, 0.24516542255878448, 0.2803547978401184, 0.22140789031982422, 0.34683892130851746, 0.1699231117963791, 0.5448493361473083, 0.14582128822803497, 0.1274033635854721, 0.18922002613544464, 0.13016022741794586, 0.24057504534721375, 0.14056141674518585, 0.12870462238788605, 0.23473070561885834, 0.16704794764518738, 0.17356771230697632, 0.08431517332792282, 0.07320550829172134, 0.07306347787380219, 0.10164544731378555, 0.13342146575450897, 0.18824946880340576, 0.09400103986263275, 0.14516061544418335, 0.16588178277015686, 0.11495032906532288, 0.1630430668592453, 0.18222418427467346, 0.1367274522781372, 0.14705632627010345, 0.1245940625667572, 0.1613195538520813, 0.10406573116779327, 0.09671901911497116, 0.1431894153356552, 0.11489666998386383, 0.2357770800590515, 0.163165882229805, 0.10886364430189133, 0.12253359705209732, 0.2325110137462616, 0.41390976309776306, 0.17344708740711212, 0.208690345287323, 0.16062268614768982, 0.18487977981567383, 0.16795776784420013, 0.12620195746421814, 0.15306474268436432, 0.14900974929332733, 0.21995913982391357, 0.2219838798046112]</t>
+          <t>[0.5288869738578796, 0.08368455618619919, 0.1384744644165039, 0.07243967056274414, 0.08139349520206451, 0.1377628743648529, 0.24084441363811493, 0.27635741233825684, 0.353546142578125, 0.1939450353384018, 0.39716047048568726, 0.2921149730682373, 0.10703793168067932, 0.09591569006443024, 0.3229117691516876, 0.3863956332206726, 0.2746100127696991, 0.16426579654216766, 0.5589706897735596, 0.22155898809432983, 0.2972019910812378, 0.2517818510532379, 0.1801874190568924, 0.1505860835313797, 0.4704805612564087, 0.5232375264167786, 0.7196806073188782, 0.7235378623008728, 0.45282864570617676, 0.23330698907375336, 0.38261619210243225, 0.12087628990411758, 0.1381564438343048, 0.2578374743461609, 0.39496907591819763, 0.3329062759876251, 0.1637153923511505, 0.17156654596328735, 0.43001002073287964, 0.5676895380020142, 0.4759620428085327, 0.6519457101821899, 0.4110352396965027, 0.11962513625621796, 0.12410011887550354, 0.23067812621593475, 0.24959741532802582, 0.4239269495010376, 0.3690071105957031, 0.09570880234241486, 0.12976542115211487, 0.20631413161754608, 0.30029720067977905, 0.18409571051597595, 0.3156614601612091, 0.22600813210010529, 0.1802361160516739, 0.15978816151618958, 0.10545200109481812, 0.14881035685539246, 0.08267105370759964, 0.06727363914251328, 0.2025737315416336, 0.16126669943332672, 0.13623499870300293, 0.2886693477630615, 0.07001204788684845, 0.10539773851633072, 0.037045542150735855, 0.08989083021879196, 0.06441240012645721, 0.16202323138713837, 0.22073277831077576, 0.17054425179958344, 0.0768851712346077, 0.06091491878032684, 0.07495320588350296, 0.09388650208711624, 0.06613731384277344, 0.23666860163211823, 0.3364940881729126, 0.5300694108009338, 0.31575703620910645, 0.5436261296272278, 0.32014283537864685, 0.7948884963989258, 0.2228613644838333, 0.2752034068107605, 0.2532592713832855, 0.16404667496681213, 0.3646380603313446, 0.24008412659168243, 0.16533184051513672, 0.3450183868408203, 0.2290639579296112, 0.18479479849338531, 0.07655426114797592, 0.057274237275123596, 0.08008770644664764, 0.09842108190059662, 0.15993258357048035, 0.2833442986011505, 0.05891831964254379, 0.1839154213666916, 0.12383832037448883, 0.08249332010746002, 0.10713550448417664, 0.16562241315841675, 0.13978351652622223, 0.24442143738269806, 0.12641888856887817, 0.1776244193315506, 0.09500681608915329, 0.10200745612382889, 0.16673806309700012, 0.14316079020500183, 0.37953272461891174, 0.3103508949279785, 0.11545949429273605, 0.08668252825737, 0.2606022357940674, 0.5441698431968689, 0.22017769515514374, 0.23978345096111298, 0.15959928929805756, 0.21208684146404266, 0.18175768852233887, 0.14064432680606842, 0.1489923745393753, 0.13924458622932434, 0.31226566433906555, 0.3166758120059967]</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.5448493361473083</v>
+        <v>0.7948884963989258</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
@@ -5503,10 +5503,10 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0.7285543000034522</v>
+        <v>0.73270720000437</v>
       </c>
       <c r="J124" t="n">
-        <v>0.005519350757601911</v>
+        <v>0.005550812121245227</v>
       </c>
     </row>
     <row r="125">
@@ -5525,11 +5525,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>[0.15387576818466187, 0.24409034848213196, 0.3658183515071869, 0.5588418841362, 0.7310039401054382, 0.21546950936317444, 0.3165842294692993, 0.20951834321022034, 0.2391727864742279, 0.33359256386756897, 0.39601629972457886, 0.5078139305114746, 0.5231276154518127, 0.2864222824573517, 0.2843705117702484, 0.3858701288700104, 0.20146191120147705, 0.2544790804386139, 0.4375897943973541, 0.36799386143684387, 0.19690251350402832, 0.15592774748802185, 0.6295371055603027, 0.44590553641319275, 0.18394792079925537, 0.16755962371826172, 0.6016362309455872, 0.20248261094093323, 0.302460640668869, 0.2874341309070587, 0.1462726891040802, 0.2918457090854645, 0.2733079791069031, 0.3984280526638031, 0.25911745429039, 0.456197053194046, 0.34178638458251953, 0.4117666780948639, 0.23572109639644623, 0.31831204891204834, 0.15185055136680603, 0.14251333475112915, 0.18818862736225128, 0.2724938690662384, 0.31271064281463623, 0.46362125873565674, 0.15443696081638336, 0.175047367811203, 0.21600334346294403, 0.13364723324775696, 0.7664721012115479, 0.848450779914856, 0.7159380912780762, 0.42772194743156433, 0.3118290603160858, 0.34940147399902344, 0.2926735281944275, 0.285177081823349, 0.4042849540710449, 0.3381947875022888, 0.12079911679029465, 0.17223502695560455, 0.19685965776443481, 0.5091544985771179, 0.12292834371328354, 0.15279649198055267, 0.21187782287597656, 0.18170608580112457, 0.11675424873828888, 0.16009123623371124, 0.13342835009098053, 0.1266830563545227, 0.08637964725494385, 0.10690339654684067, 0.1380261331796646, 0.14827466011047363, 0.21495948731899261, 0.2553897202014923, 0.7020334005355835, 0.4222325086593628, 0.4495468735694885, 0.2604620158672333, 0.17092368006706238, 0.1669299602508545, 0.3024125099182129, 0.23767325282096863, 0.4560638964176178, 0.366268515586853, 0.2055666446685791, 0.1273234635591507, 0.12844422459602356, 0.09970734268426895, 0.1869760900735855, 0.1510753184556961, 0.12018454819917679, 0.21041251718997955, 0.12157896906137466, 0.08743856102228165, 0.07670769095420837, 0.06657784432172775, 0.1481415182352066, 0.14978401362895966, 0.4344269037246704, 0.27510109543800354, 0.144256129860878, 0.10808851569890976, 0.21762777864933014, 0.12507939338684082, 0.24705623090267181, 0.3520856499671936, 0.3313583433628082, 0.19952915608882904, 0.21411561965942383, 0.15140335261821747, 0.24967136979103088, 0.19220781326293945, 0.16364645957946777, 0.27488842606544495, 0.24538668990135193, 0.23981502652168274, 0.1044505313038826, 0.12424864619970322, 0.13290968537330627, 0.1761808842420578, 0.13055412471294403, 0.1841672956943512, 0.4272283613681793, 0.18717725574970245, 0.3167067766189575, 0.3686405122280121, 0.1837369203567505, 0.18431603908538818]</t>
+          <t>[0.18430478870868683, 0.25445905327796936, 0.4739357829093933, 0.6752992868423462, 0.8296633362770081, 0.382784903049469, 0.39807525277137756, 0.23581147193908691, 0.27691715955734253, 0.32495611906051636, 0.7224449515342712, 0.6628322601318359, 0.7598551511764526, 0.2720315158367157, 0.3154030442237854, 0.5046183466911316, 0.2479352056980133, 0.34141919016838074, 0.573347270488739, 0.39662301540374756, 0.16858354210853577, 0.1415286511182785, 0.7288246154785156, 0.5794196128845215, 0.15103758871555328, 0.14298932254314423, 0.5681596398353577, 0.1678955852985382, 0.22415262460708618, 0.22700797021389008, 0.08531762659549713, 0.3576511740684509, 0.26984184980392456, 0.31209245324134827, 0.19864694774150848, 0.6439091563224792, 0.3277041018009186, 0.4397512674331665, 0.22586432099342346, 0.3857530951499939, 0.15495172142982483, 0.14788921177387238, 0.25987449288368225, 0.3820580244064331, 0.47441843152046204, 0.6695261001586914, 0.18493954837322235, 0.2859898805618286, 0.294655978679657, 0.26065191626548767, 0.9510192275047302, 0.9728671312332153, 0.9325636625289917, 0.5981525778770447, 0.3099096417427063, 0.47076311707496643, 0.43949365615844727, 0.3227120041847229, 0.4986899793148041, 0.3467225134372711, 0.07966139912605286, 0.3153727948665619, 0.22200872004032135, 0.8908491730690002, 0.1426919549703598, 0.13808758556842804, 0.273023396730423, 0.23270632326602936, 0.13138124346733093, 0.187118798494339, 0.21318376064300537, 0.17732316255569458, 0.047967419028282166, 0.09863504767417908, 0.1562032848596573, 0.09461008012294769, 0.19326075911521912, 0.47574734687805176, 0.7807891368865967, 0.6002038717269897, 0.6035650372505188, 0.3641403317451477, 0.22071169316768646, 0.20424392819404602, 0.5632104277610779, 0.46743616461753845, 0.7203567624092102, 0.4031798541545868, 0.19077177345752716, 0.09099417179822922, 0.09548820555210114, 0.08076853305101395, 0.26085102558135986, 0.18419688940048218, 0.09450899064540863, 0.3648454248905182, 0.17632685601711273, 0.06298859417438507, 0.045845139771699905, 0.041985996067523956, 0.13499568402767181, 0.11135555803775787, 0.5552959442138672, 0.3457944095134735, 0.11239656805992126, 0.06370080262422562, 0.18508446216583252, 0.08879996091127396, 0.33868226408958435, 0.6144894361495972, 0.6226312518119812, 0.19046707451343536, 0.20829330384731293, 0.11939907819032669, 0.35103631019592285, 0.1594110131263733, 0.12935170531272888, 0.30913981795310974, 0.22148224711418152, 0.2106289267539978, 0.09689655154943466, 0.06863004714250565, 0.13642530143260956, 0.10906054079532623, 0.07463566213846207, 0.16500422358512878, 0.5706197023391724, 0.18860071897506714, 0.4273005425930023, 0.5127426981925964, 0.13717611134052277, 0.1372518092393875]</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.848450779914856</v>
+        <v>0.9728671312332153</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
@@ -5543,10 +5543,10 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0.7319889000209514</v>
+        <v>0.7390463999909116</v>
       </c>
       <c r="J125" t="n">
-        <v>0.005545370454704177</v>
+        <v>0.005598836363567512</v>
       </c>
     </row>
     <row r="126">
@@ -5565,11 +5565,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>[0.24690072238445282, 0.12326736748218536, 0.2221832424402237, 0.22790484130382538, 0.20192961394786835, 0.17602312564849854, 0.1252484768629074, 0.20453882217407227, 0.2600514888763428, 0.2122688889503479, 0.16541688144207, 0.1778159737586975, 0.13026902079582214, 0.1953161656856537, 0.12756888568401337, 0.16532328724861145, 0.1676834374666214, 0.2089102864265442, 0.14497590065002441, 0.1433994621038437, 0.11851171404123306, 0.13184571266174316, 0.147323876619339, 0.12605680525302887, 0.1545894593000412, 0.1455850452184677, 0.1313416212797165, 0.16312532126903534, 0.12237369269132614, 0.17549960315227509, 0.16286559402942657, 0.19588899612426758, 0.192513570189476, 0.16950634121894836, 0.22443033754825592, 0.2519278824329376, 0.14356712996959686, 0.20580388605594635, 0.17168517410755157, 0.2605857253074646, 0.3149585723876953, 0.24700187146663666, 0.2494632601737976, 0.18902471661567688, 0.23988673090934753, 0.666323184967041, 0.3278537690639496, 0.32535845041275024, 0.6042081117630005, 0.2967180609703064, 0.40819650888442993, 0.35810819268226624, 0.24651697278022766, 0.42320287227630615, 0.3797401189804077, 0.2182098776102066, 0.2383594512939453, 0.3437044322490692, 0.2981853187084198, 0.23487521708011627, 0.2559586763381958, 0.23766222596168518, 0.22157086431980133, 0.22900661826133728, 0.18743650615215302, 0.22621679306030273, 0.17825442552566528, 0.2734871804714203, 0.22579123079776764, 0.2167581021785736, 0.26858431100845337, 0.1590825468301773, 0.13863921165466309, 0.16867901384830475, 0.1354045867919922, 0.17614102363586426, 0.19236545264720917, 0.20354627072811127, 0.10051747411489487, 0.16365604102611542, 0.22822502255439758, 0.24311873316764832, 0.19832156598567963, 0.26992401480674744, 0.2241566926240921, 0.3561815023422241, 0.22721461951732635, 0.2682136297225952, 0.16516289114952087, 0.16702064871788025, 0.18220804631710052, 0.2193409502506256, 0.20924678444862366, 0.3669697046279907, 0.39662232995033264, 0.2610011696815491, 0.2668546736240387, 0.2938716411590576, 0.35647884011268616, 0.4490772485733032, 0.312985360622406, 0.505228579044342, 0.32929277420043945, 0.15228331089019775, 0.23254086077213287, 0.3954007923603058, 0.6278421878814697, 0.2902660667896271, 0.25203484296798706, 0.3813531696796417, 0.518782377243042, 0.6448920965194702, 0.7804633378982544, 0.44122812151908875, 0.6511626243591309, 0.42876967787742615, 0.27782711386680603, 0.4535960555076599, 0.5337277054786682, 0.33870357275009155, 0.16353584825992584, 0.1547836810350418, 0.2703409790992737, 0.7106770277023315, 0.2505423128604889, 0.17610520124435425, 0.03683586046099663, 0.04890700802206993, 0.09314090013504028, 0.05651307478547096, 0.06889231503009796, 0.06890399754047394]</t>
+          <t>[0.11845491081476212, 0.08957771956920624, 0.20433638989925385, 0.1417526751756668, 0.2538811266422272, 0.1531922072172165, 0.08580765873193741, 0.12616077065467834, 0.17452563345432281, 0.1729416698217392, 0.11595945060253143, 0.11238362640142441, 0.08754431456327438, 0.17887094616889954, 0.07829402387142181, 0.11778193712234497, 0.14197933673858643, 0.18055309355258942, 0.1008145734667778, 0.0762084424495697, 0.07448186725378036, 0.07194846123456955, 0.11651742458343506, 0.10057487338781357, 0.14831611514091492, 0.1318514347076416, 0.12034288793802261, 0.17522133886814117, 0.07997576892375946, 0.1666017472743988, 0.10720259696245193, 0.12152095884084702, 0.1398223340511322, 0.1254226416349411, 0.2127673625946045, 0.19542808830738068, 0.11800826340913773, 0.1743379831314087, 0.12828989326953888, 0.21596665680408478, 0.3338298797607422, 0.17408451437950134, 0.24548782408237457, 0.12470271438360214, 0.2833441495895386, 0.8773189783096313, 0.4219404458999634, 0.355906218290329, 0.6179805994033813, 0.20213507115840912, 0.30832087993621826, 0.3480953574180603, 0.26847273111343384, 0.5298380851745605, 0.5444382429122925, 0.22589446604251862, 0.14241620898246765, 0.5503879189491272, 0.26818105578422546, 0.18740159273147583, 0.2045685350894928, 0.2000940591096878, 0.12238619476556778, 0.23543666303157806, 0.15329620242118835, 0.24970267713069916, 0.15778802335262299, 0.2801896333694458, 0.18715132772922516, 0.19311384856700897, 0.2562514841556549, 0.11605311185121536, 0.1051812544465065, 0.13399335741996765, 0.11194510757923126, 0.1631963849067688, 0.1992563009262085, 0.2620595395565033, 0.0968131497502327, 0.21981464326381683, 0.3635806739330292, 0.44761648774147034, 0.21392777562141418, 0.37547603249549866, 0.34873369336128235, 0.691964328289032, 0.2566400468349457, 0.5310910940170288, 0.320266455411911, 0.2650434970855713, 0.27541598677635193, 0.3783789575099945, 0.4327852725982666, 0.6439783573150635, 0.7360404133796692, 0.3593914806842804, 0.28624922037124634, 0.4319436550140381, 0.45094045996665955, 0.40856897830963135, 0.4139208197593689, 0.5113461017608643, 0.45281293988227844, 0.21010702848434448, 0.4319184124469757, 0.6005647778511047, 0.7516622543334961, 0.47679656744003296, 0.23689578473567963, 0.4894413948059082, 0.600175678730011, 0.6581258773803711, 0.7723379135131836, 0.3794574439525604, 0.8206195831298828, 0.32719171047210693, 0.162643164396286, 0.4866948425769806, 0.6950013637542725, 0.5849663615226746, 0.2358652800321579, 0.29748255014419556, 0.3873785436153412, 0.9397709369659424, 0.32464662194252014, 0.33478209376335144, 0.013859456405043602, 0.014542056247591972, 0.030285438522696495, 0.024518867954611778, 0.02039899304509163, 0.020415211096405983]</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.7804633378982544</v>
+        <v>0.9397709369659424</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0.8561979000223801</v>
+        <v>0.8580071999895154</v>
       </c>
       <c r="J126" t="n">
-        <v>0.006486347727442273</v>
+        <v>0.006500054545375116</v>
       </c>
     </row>
     <row r="127">
@@ -5605,11 +5605,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[0.6823872923851013, 0.1988784521818161, 0.048858579248189926, 0.09025710076093674, 0.691051185131073, 0.5849080681800842, 0.6243144869804382, 0.8915484547615051, 0.8045552968978882, 0.9491617679595947, 0.8424122333526611, 0.1841319501399994, 0.2344294786453247, 0.2245071530342102, 0.18549132347106934, 0.058399464935064316, 0.2409108579158783, 0.12875740230083466, 0.49664536118507385, 0.7757550477981567, 0.9030014276504517, 0.8754953145980835, 0.916830837726593, 0.9877272844314575, 0.9967446327209473, 0.996972918510437, 0.9580271244049072, 0.8919297456741333, 0.608856737613678, 0.8735928535461426, 0.9719218611717224, 0.9781079888343811, 0.9772706627845764, 0.35555121302604675, 0.9439285397529602, 0.9360408186912537, 0.9920550584793091, 0.945708155632019, 0.4895859956741333, 0.08815892040729523, 0.1297338902950287, 0.8836621046066284, 0.8261616826057434, 0.15929801762104034, 0.20341551303863525, 0.496446430683136, 0.14529775083065033, 0.1421147882938385, 0.339525043964386, 0.27835342288017273, 0.28792983293533325, 0.14847899973392487, 0.313300758600235, 0.15798847377300262, 0.8141017556190491, 0.6388561725616455, 0.26647067070007324, 0.25318261981010437, 0.13167716562747955, 0.1750691533088684, 0.20735175907611847, 0.4578656554222107, 0.1942111849784851, 0.4296411871910095, 0.22653894126415253, 0.6421548128128052, 0.4568338096141815, 0.5783779621124268, 0.8027901649475098, 0.9605185389518738, 0.9423699378967285, 0.966854989528656, 0.9800033569335938, 0.7961401343345642, 0.6289516091346741, 0.8952693939208984, 0.2042810320854187, 0.27576279640197754, 0.12023940682411194, 0.136366069316864, 0.08104367554187775, 0.06718957424163818, 0.7229278087615967, 0.8919776082038879, 0.9177972078323364, 0.18868158757686615, 0.17355012893676758, 0.241173654794693, 0.655622661113739, 0.18220074474811554, 0.19500985741615295, 0.9254984855651855, 0.4369664490222931, 0.537662923336029, 0.7330122590065002, 0.8769288063049316, 0.962158739566803, 0.9265548586845398, 0.9705215692520142, 0.931074321269989, 0.9829099774360657, 0.8702686429023743, 0.4316875636577606, 0.2211233526468277, 0.31997114419937134, 0.16135992109775543, 0.09275909513235092, 0.13192543387413025, 0.17527954280376434, 0.06674513965845108, 0.0936780646443367, 0.1449558585882187, 0.23778516054153442, 0.2130521535873413, 0.18034186959266663, 0.1598241627216339, 0.6249085664749146, 0.8078375458717346, 0.9893480539321899, 0.9870479702949524, 0.7964884638786316, 0.348069965839386, 0.6451007723808289, 0.7334271669387817, 0.9456167817115784, 0.9565456509590149, 0.9688748717308044, 0.6319645643234253, 0.1467227041721344, 0.05157290771603584, 0.049569860100746155, 0.05034579336643219]</t>
+          <t>[0.7489479780197144, 0.3680587112903595, 0.07827935367822647, 0.1730259656906128, 0.7959017753601074, 0.7818137407302856, 0.8514545559883118, 0.9699546098709106, 0.9092456698417664, 0.9787938594818115, 0.928817629814148, 0.15716484189033508, 0.14847350120544434, 0.2213728129863739, 0.15075336396694183, 0.04194438084959984, 0.291333943605423, 0.07416218519210815, 0.4615277349948883, 0.7663742303848267, 0.8872784376144409, 0.8996444940567017, 0.9285978078842163, 0.9843951463699341, 0.9980736970901489, 0.9982590079307556, 0.968452513217926, 0.7859067916870117, 0.4123833477497101, 0.9470232725143433, 0.9922930002212524, 0.9920238256454468, 0.992331862449646, 0.6880306601524353, 0.9781272411346436, 0.9506377577781677, 0.9935221076011658, 0.9404105544090271, 0.5239663124084473, 0.09336809068918228, 0.2672290503978729, 0.9429457187652588, 0.8954270482063293, 0.2635059058666229, 0.26323559880256653, 0.44157731533050537, 0.229814350605011, 0.19280143082141876, 0.27210965752601624, 0.33023080229759216, 0.3263698220252991, 0.18894343078136444, 0.4854634404182434, 0.2573515474796295, 0.8670148253440857, 0.6535501480102539, 0.3392021059989929, 0.17205627262592316, 0.11845892667770386, 0.13623684644699097, 0.1511755734682083, 0.620354413986206, 0.2216128259897232, 0.576355516910553, 0.3940817415714264, 0.6650866866111755, 0.6284745335578918, 0.6458067893981934, 0.8312824964523315, 0.980451762676239, 0.9628461003303528, 0.968237042427063, 0.9825804829597473, 0.733508825302124, 0.530919075012207, 0.8819233775138855, 0.3247717618942261, 0.20392373204231262, 0.051269497722387314, 0.06271117180585861, 0.039081819355487823, 0.03173786774277687, 0.6326026320457458, 0.8709401488304138, 0.9043216705322266, 0.1644556075334549, 0.1326310783624649, 0.24256952106952667, 0.8289356827735901, 0.35367056727409363, 0.14882072806358337, 0.9741212129592896, 0.5449143648147583, 0.7838396430015564, 0.8158717155456543, 0.9299439787864685, 0.9735394716262817, 0.9641473889350891, 0.986383855342865, 0.982233464717865, 0.9932366013526917, 0.8677616119384766, 0.41544389724731445, 0.23598426580429077, 0.2832657992839813, 0.23168440163135529, 0.0864357203245163, 0.12309252470731735, 0.15108048915863037, 0.05070134997367859, 0.07031217962503433, 0.1680905520915985, 0.2286553531885147, 0.27000707387924194, 0.43895575404167175, 0.1619107872247696, 0.6722419261932373, 0.6644668579101562, 0.9935711622238159, 0.9923731684684753, 0.840743362903595, 0.41473862528800964, 0.7856537103652954, 0.8208670020103455, 0.9789245128631592, 0.970301628112793, 0.9624622464179993, 0.5232298374176025, 0.1092226505279541, 0.01572018302977085, 0.015706408768892288, 0.01614837907254696]</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.996972918510437</v>
+        <v>0.9982590079307556</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
@@ -5623,10 +5623,10 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0.7340242000063881</v>
+        <v>0.7351229999912903</v>
       </c>
       <c r="J127" t="n">
-        <v>0.005560789393987789</v>
+        <v>0.005569113636297654</v>
       </c>
     </row>
     <row r="128">
@@ -5645,11 +5645,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>[0.19131740927696228, 0.249810591340065, 0.8083067536354065, 0.8277081251144409, 0.7557869553565979, 0.6597873568534851, 0.8924459218978882, 0.9493221044540405, 0.6070786714553833, 0.5603252649307251, 0.4143240451812744, 0.524825930595398, 0.39009687304496765, 0.7111278176307678, 0.5468916893005371, 0.5074695944786072, 0.6036319732666016, 0.5492417812347412, 0.25060173869132996, 0.2647233009338379, 0.6255561113357544, 0.7122135162353516, 0.7101939916610718, 0.38025614619255066, 0.3494543135166168, 0.5200229287147522, 0.3706200420856476, 0.5256174206733704, 0.42661798000335693, 0.3898496627807617, 0.5952180624008179, 0.44701287150382996, 0.2344561070203781, 0.2054472267627716, 0.3816153109073639, 0.16790370643138885, 0.13508404791355133, 0.1253214031457901, 0.1715894192457199, 0.13525588810443878, 0.11412274837493896, 0.11372561007738113, 0.18839968740940094, 0.10587374120950699, 0.1603102833032608, 0.15376825630664825, 0.22386392951011658, 0.09765344858169556, 0.09640723466873169, 0.1522868573665619, 0.1266518086194992, 0.1765013337135315, 0.10455454885959625, 0.1392984241247177, 0.20291271805763245, 0.15853126347064972, 0.1094665676355362, 0.11144350469112396, 0.19842149317264557, 0.1733948290348053, 0.10672959685325623, 0.09653930366039276, 0.12497547268867493, 0.13067865371704102, 0.18252113461494446, 0.18177583813667297, 0.48525363206863403, 0.6876358985900879, 0.4302557110786438, 0.8372435569763184, 0.7234477996826172, 0.5522016286849976, 0.3496226966381073, 0.48373088240623474, 0.20904327929019928, 0.13632413744926453, 0.2236536145210266, 0.09673299640417099, 0.12063237279653549, 0.1288425475358963, 0.09679822623729706, 0.12785600125789642, 0.18703895807266235, 0.237704798579216, 0.19855637848377228, 0.18642915785312653, 0.19965150952339172, 0.17715118825435638, 0.16638368368148804, 0.3126607835292816, 0.5521979331970215, 0.6865956783294678, 0.46936169266700745, 0.3913578987121582, 0.4057461619377136, 0.45452389121055603, 0.62147057056427, 0.19069616496562958, 0.16935746371746063, 0.13993777334690094, 0.17194053530693054, 0.17253288626670837]</t>
+          <t>[0.3330799639225006, 0.36384838819503784, 0.7875358462333679, 0.7996193170547485, 0.7987025380134583, 0.7167137861251831, 0.9458099603652954, 0.9601724147796631, 0.6398965716362, 0.5910908579826355, 0.43287697434425354, 0.5349220037460327, 0.40256887674331665, 0.7551880478858948, 0.5901297926902771, 0.5843759179115295, 0.5889953970909119, 0.5019895434379578, 0.21908344328403473, 0.3156440854072571, 0.7240865230560303, 0.8200551867485046, 0.8251048922538757, 0.45773184299468994, 0.5843673348426819, 0.7929797768592834, 0.501125156879425, 0.637879490852356, 0.6209009885787964, 0.6145752668380737, 0.8058183789253235, 0.698394775390625, 0.3454890847206116, 0.42565467953681946, 0.6442022919654846, 0.28712230920791626, 0.2398182898759842, 0.1435113251209259, 0.21322502195835114, 0.2040482610464096, 0.2525486946105957, 0.26409459114074707, 0.4545647203922272, 0.2677287757396698, 0.24998891353607178, 0.24910123646259308, 0.4399329423904419, 0.2023017555475235, 0.11834777891635895, 0.29379382729530334, 0.18153691291809082, 0.20011554658412933, 0.13409635424613953, 0.23993493616580963, 0.2989678978919983, 0.21614566445350647, 0.17314843833446503, 0.15146999061107635, 0.3191470503807068, 0.17751556634902954, 0.12963822484016418, 0.12082210928201675, 0.2943829298019409, 0.22502653300762177, 0.34067949652671814, 0.22655965387821198, 0.8069625496864319, 0.8558046221733093, 0.6099640130996704, 0.9083423614501953, 0.8509559631347656, 0.6459900736808777, 0.41702380776405334, 0.4239468574523926, 0.15658582746982574, 0.10046844929456711, 0.2235657125711441, 0.06319092214107513, 0.10005548596382141, 0.09278924763202667, 0.06275157630443573, 0.08752673864364624, 0.13863040506839752, 0.2528272569179535, 0.3844882845878601, 0.24660111963748932, 0.38093632459640503, 0.2610419988632202, 0.2991941273212433, 0.46068158745765686, 0.8042397499084473, 0.8670137524604797, 0.7446150779724121, 0.7079026699066162, 0.47545042634010315, 0.6682943105697632, 0.7424193024635315, 0.22909149527549744, 0.13633941113948822, 0.08568418771028519, 0.1970776468515396, 0.19722247123718262]</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.9493221044540405</v>
+        <v>0.9601724147796631</v>
       </c>
       <c r="F128" t="n">
         <v>1</v>
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0.5789362999785226</v>
+        <v>0.5981632000039099</v>
       </c>
       <c r="J128" t="n">
-        <v>0.00567584607822081</v>
+        <v>0.005864345098077548</v>
       </c>
     </row>
     <row r="129">
@@ -5685,11 +5685,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>[0.4276715815067291, 0.20433178544044495, 0.18099217116832733, 0.22270512580871582, 0.9216383099555969, 0.993327260017395, 0.9853721261024475, 0.9664045572280884, 0.8374615907669067, 0.8683763146400452, 0.4615345001220703, 0.4081551134586334, 0.41625985503196716, 0.226048544049263, 0.4038642644882202, 0.18472148478031158, 0.2403576374053955, 0.30487531423568726, 0.5220215320587158, 0.26701390743255615, 0.1742783486843109, 0.18061259388923645, 0.28451529145240784, 0.23784089088439941, 0.4425545632839203, 0.5290477275848389, 0.528220534324646, 0.5599649548530579, 0.49840378761291504, 0.4739738404750824, 0.49248337745666504, 0.3095703721046448, 0.3586653769016266, 0.2564789056777954, 0.22071132063865662, 0.786896824836731, 0.6887034773826599, 0.9864633083343506, 0.9897839426994324, 0.9907411336898804, 0.9906319379806519, 0.8992717862129211, 0.9709954261779785, 0.8644802570343018, 0.9083261489868164, 0.7246628403663635, 0.3540102541446686, 0.18713605403900146, 0.2602086663246155, 0.22902657091617584, 0.1956016570329666, 0.31372833251953125, 0.28429049253463745, 0.16759179532527924, 0.24436068534851074, 0.11250653862953186, 0.08800314366817474, 0.07222186028957367, 0.08917604386806488, 0.3704180121421814, 0.39505624771118164, 0.30670681595802307, 0.2976263761520386, 0.2575058341026306, 0.36574018001556396, 0.7324959635734558, 0.7906871438026428, 0.5560500025749207, 0.8884205222129822, 0.7231544852256775, 0.9942923784255981, 0.9847124814987183, 0.8139455914497375, 0.8091886043548584, 0.22635520994663239, 0.39421388506889343, 0.48491784930229187, 0.9354637265205383, 0.5744380950927734, 0.2912827730178833, 0.2794819474220276, 0.49839165806770325, 0.2919362187385559, 0.26110756397247314, 0.2268228679895401, 0.34575310349464417, 0.4851132929325104, 0.650842547416687, 0.905490517616272, 0.9337491393089294, 0.9525389075279236, 0.8569701313972473, 0.6370116472244263, 0.6353081464767456, 0.4231770932674408, 0.6815804243087769, 0.6089714765548706, 0.8180901408195496, 0.6431741714477539, 0.6571023464202881, 0.9405558705329895, 0.8954200148582458, 0.8954140543937683]</t>
+          <t>[0.43201911449432373, 0.1457502692937851, 0.16035661101341248, 0.1808624267578125, 0.9532850384712219, 0.996911883354187, 0.9918434023857117, 0.9808372855186462, 0.959882915019989, 0.953025221824646, 0.6352732181549072, 0.5409210324287415, 0.4371129870414734, 0.3963000178337097, 0.7315685749053955, 0.1255018264055252, 0.23834703862667084, 0.45657044649124146, 0.6947235465049744, 0.33787110447883606, 0.10887923836708069, 0.15604561567306519, 0.2632010877132416, 0.17100341618061066, 0.4987776279449463, 0.6590465307235718, 0.7853590250015259, 0.7496564388275146, 0.7974867820739746, 0.5322030186653137, 0.7074094414710999, 0.48957473039627075, 0.4877292513847351, 0.45224347710609436, 0.4062938690185547, 0.9083454012870789, 0.7144809365272522, 0.9904449582099915, 0.9948697090148926, 0.9945583343505859, 0.9909301400184631, 0.9279579520225525, 0.9893438816070557, 0.924908459186554, 0.9443327784538269, 0.8581517338752747, 0.3481934666633606, 0.1110554113984108, 0.18137216567993164, 0.15799251198768616, 0.12344886362552643, 0.281158983707428, 0.384372740983963, 0.1585092842578888, 0.1633707731962204, 0.06173386797308922, 0.031245138496160507, 0.02814391627907753, 0.03186400979757309, 0.41809991002082825, 0.667147696018219, 0.4425123929977417, 0.18035730719566345, 0.2583320140838623, 0.2748427391052246, 0.714732825756073, 0.7371610999107361, 0.6330715417861938, 0.938831627368927, 0.9378079771995544, 0.9975517392158508, 0.9911372661590576, 0.8850309252738953, 0.8870517611503601, 0.19915997982025146, 0.401889830827713, 0.3088340163230896, 0.9717656970024109, 0.618262529373169, 0.44186216592788696, 0.4007806181907654, 0.5355377793312073, 0.3165856897830963, 0.39832764863967896, 0.3058072328567505, 0.612392246723175, 0.5245957970619202, 0.7585607767105103, 0.9606782793998718, 0.9788969159126282, 0.9778726100921631, 0.9439817667007446, 0.8167387843132019, 0.6344008445739746, 0.38787928223609924, 0.7216230630874634, 0.7768170237541199, 0.898847758769989, 0.8071291446685791, 0.8105996251106262, 0.9820812344551086, 0.9593515396118164, 0.9593324065208435]</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.9942923784255981</v>
+        <v>0.9975517392158508</v>
       </c>
       <c r="F129" t="n">
         <v>1</v>
@@ -5703,10 +5703,10 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0.6141192000068258</v>
+        <v>0.5906617000000551</v>
       </c>
       <c r="J129" t="n">
-        <v>0.005962322330163358</v>
+        <v>0.005734579611651021</v>
       </c>
     </row>
     <row r="130">
@@ -5725,11 +5725,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>[0.9981130361557007, 0.9973897337913513, 0.9971991777420044, 0.9958861470222473, 0.9982434511184692, 0.9975468516349792, 0.998997151851654, 0.9985886216163635, 0.9968118071556091, 0.9966442584991455, 0.9977565407752991, 0.9974541068077087, 0.9954128861427307, 0.99504554271698, 0.9910263419151306, 0.987808346748352, 0.9968944787979126, 0.9971615076065063, 0.9960867166519165, 0.9958206415176392, 0.9949630498886108, 0.9964784979820251, 0.9976950287818909, 0.9965083003044128, 0.9968834519386292, 0.9979798197746277, 0.9936913251876831, 0.9917047023773193, 0.9946314096450806, 0.9945278763771057, 0.9925146698951721, 0.9945812821388245, 0.9962926506996155, 0.994445264339447, 0.9971572160720825, 0.9979599714279175, 0.9920634627342224, 0.9942784309387207, 0.9945912957191467, 0.9959535598754883, 0.9935348033905029, 0.9943682551383972, 0.9979323148727417, 0.9973611235618591, 0.9935652613639832, 0.9959663152694702, 0.9981544613838196, 0.9974604845046997, 0.9981314539909363, 0.9965031147003174, 0.9888014793395996, 0.9962827563285828, 0.9984068274497986, 0.9978446960449219, 0.9969286322593689, 0.9970851540565491, 0.9971730709075928, 0.9978862404823303, 0.9957303404808044, 0.996367335319519, 0.9916287660598755, 0.9963184595108032, 0.9962841868400574, 0.9956271648406982, 0.9975556135177612, 0.9978267550468445, 0.9975541234016418, 0.9986361861228943, 0.9984859824180603, 0.9981576800346375, 0.9984908103942871, 0.997366726398468, 0.9978839755058289, 0.9970523118972778, 0.9958446621894836, 0.9885390400886536, 0.9971760511398315, 0.9952125549316406, 0.9936273097991943, 0.9927263259887695, 0.9929792284965515, 0.9884381890296936, 0.9959422945976257, 0.9934280514717102, 0.9987881779670715, 0.9986737966537476, 0.9984721541404724, 0.9984403252601624, 0.9975833892822266, 0.9980921149253845, 0.9985068440437317, 0.9958844780921936, 0.996727705001831, 0.991917073726654, 0.9932597279548645, 0.9983075857162476, 0.9971737861633301, 0.9936057329177856, 0.9879849553108215, 0.9958159327507019, 0.9965496063232422, 0.9932685494422913, 0.99327152967453]</t>
+          <t>[0.9992671608924866, 0.9991486072540283, 0.9988289475440979, 0.9980061650276184, 0.9992650151252747, 0.9989118576049805, 0.9994823932647705, 0.9993125200271606, 0.9985195994377136, 0.9980378746986389, 0.9987723231315613, 0.9985758066177368, 0.9969654679298401, 0.9970480799674988, 0.9939188957214355, 0.992268979549408, 0.998600423336029, 0.9987800717353821, 0.9984329342842102, 0.9984083771705627, 0.9978795051574707, 0.9980992674827576, 0.9989206790924072, 0.9984777569770813, 0.9985396862030029, 0.9989472031593323, 0.9956762194633484, 0.995288610458374, 0.9969496130943298, 0.9973495006561279, 0.9968165755271912, 0.9972827434539795, 0.9980523586273193, 0.9965741634368896, 0.9987346529960632, 0.998870313167572, 0.9946171641349792, 0.9974397420883179, 0.997601330280304, 0.9977976083755493, 0.9957679510116577, 0.9967517852783203, 0.9990686774253845, 0.9988013505935669, 0.9976588487625122, 0.9981696605682373, 0.9991453886032104, 0.998623251914978, 0.9991577863693237, 0.9983651041984558, 0.9914729595184326, 0.9979216456413269, 0.9993237257003784, 0.9990195035934448, 0.9987040758132935, 0.9986962676048279, 0.998683512210846, 0.9991031885147095, 0.9980467557907104, 0.9984341263771057, 0.9957515001296997, 0.9981056451797485, 0.9981300234794617, 0.9983553290367126, 0.9989481568336487, 0.9990666508674622, 0.9987125396728516, 0.9993083477020264, 0.9993450045585632, 0.9992337226867676, 0.9992918968200684, 0.9987931251525879, 0.9991303086280823, 0.9983987212181091, 0.9980239868164062, 0.9931035041809082, 0.9986664056777954, 0.9975377321243286, 0.9955332279205322, 0.9951667785644531, 0.9944859147071838, 0.9915383458137512, 0.9981067180633545, 0.9960592985153198, 0.9994165897369385, 0.9993162155151367, 0.9991503953933716, 0.9990235567092896, 0.9986221790313721, 0.9989544153213501, 0.999158501625061, 0.9973769187927246, 0.9977371692657471, 0.9951995611190796, 0.9958264231681824, 0.9988769888877869, 0.9982284903526306, 0.9944379329681396, 0.9898081421852112, 0.9971176385879517, 0.9977619647979736, 0.9947969317436218, 0.9948004484176636]</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.9989971518516541</v>
+        <v>0.9994823932647705</v>
       </c>
       <c r="F130" t="n">
         <v>1</v>
@@ -5743,10 +5743,10 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0.5868434000003617</v>
+        <v>0.5800766000029398</v>
       </c>
       <c r="J130" t="n">
-        <v>0.00569750873786759</v>
+        <v>0.005631811650513979</v>
       </c>
     </row>
     <row r="131">
@@ -5765,11 +5765,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>[0.8819793462753296, 0.9599085450172424, 0.9041568636894226, 0.8337691426277161, 0.8561225533485413, 0.8431177139282227, 0.9653500318527222, 0.8257042765617371, 0.8629516363143921, 0.8808850049972534, 0.9679703116416931, 0.9546673893928528, 0.8010879755020142, 0.5281420946121216, 0.34647417068481445, 0.4370364248752594, 0.11898597329854965, 0.0884123221039772, 0.2759743630886078, 0.4262355864048004, 0.2631000578403473, 0.3415585458278656, 0.165366992354393, 0.25603166222572327, 0.15658922493457794, 0.14790116250514984, 0.08821363002061844, 0.1675088107585907, 0.12074088305234909, 0.17295502126216888, 0.2602959871292114, 0.6157695055007935, 0.32012829184532166, 0.18116524815559387, 0.1900501400232315, 0.38762620091438293, 0.5905567407608032, 0.5466364622116089, 0.6755154728889465, 0.9035385251045227, 0.9040141105651855, 0.5048408508300781, 0.36212819814682007, 0.9536905884742737, 0.8389124870300293, 0.8979123830795288, 0.8698188066482544, 0.9163593053817749, 0.9660879373550415, 0.8866810202598572, 0.8855461478233337, 0.7323288917541504, 0.7838460803031921, 0.3958178162574768, 0.7626800537109375, 0.8103983998298645, 0.5970751047134399, 0.8259862065315247, 0.841947615146637, 0.702131450176239, 0.7360377311706543, 0.938500165939331, 0.8882946372032166, 0.9478467702865601, 0.8700800538063049, 0.8382878303527832, 0.7678729891777039, 0.7815356254577637, 0.5163426399230957, 0.6247017979621887, 0.7342419624328613, 0.7702682614326477, 0.8288056254386902, 0.9008633494377136, 0.9460022449493408, 0.9247045516967773, 0.9361138343811035, 0.9361190795898438]</t>
+          <t>[0.8965201377868652, 0.970314085483551, 0.9337363243103027, 0.892070472240448, 0.8504136800765991, 0.901080310344696, 0.9774684906005859, 0.9086553454399109, 0.8941543102264404, 0.9302455186843872, 0.9850482940673828, 0.9719139933586121, 0.8733438849449158, 0.6050925254821777, 0.39854830503463745, 0.39532461762428284, 0.09176173061132431, 0.04300815984606743, 0.13683554530143738, 0.30704638361930847, 0.10254094749689102, 0.2836236357688904, 0.07768896967172623, 0.3890331983566284, 0.16114327311515808, 0.12426868826150894, 0.03923603519797325, 0.09843612462282181, 0.062056396156549454, 0.07016326487064362, 0.09559237211942673, 0.38369545340538025, 0.1596727818250656, 0.07951881736516953, 0.12831173837184906, 0.2821544110774994, 0.43482884764671326, 0.7316631078720093, 0.6614505052566528, 0.8822659850120544, 0.8963437676429749, 0.5418615937232971, 0.24550564587116241, 0.9754164814949036, 0.8201304078102112, 0.885206401348114, 0.9094963073730469, 0.9475905895233154, 0.9683051109313965, 0.9054792523384094, 0.9024688005447388, 0.683198869228363, 0.7746223211288452, 0.2955889105796814, 0.8036937117576599, 0.8297539949417114, 0.5440110564231873, 0.8716273903846741, 0.8454198837280273, 0.7730596661567688, 0.6556854248046875, 0.9589616060256958, 0.9407988786697388, 0.9744539260864258, 0.9322442412376404, 0.8854452967643738, 0.8022834062576294, 0.8935808539390564, 0.6657631993293762, 0.7332146763801575, 0.6958470344543457, 0.8327794075012207, 0.8580477833747864, 0.958237886428833, 0.960640549659729, 0.9181791543960571, 0.954127311706543, 0.9538114070892334]</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.9679703116416931</v>
+        <v>0.9850482940673828</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
@@ -5783,10 +5783,10 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0.4495363000023644</v>
+        <v>0.4589801999973133</v>
       </c>
       <c r="J131" t="n">
-        <v>0.005763285897466211</v>
+        <v>0.005884361538427094</v>
       </c>
     </row>
     <row r="132">
@@ -5805,11 +5805,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>[0.5059675574302673, 0.6416006684303284, 0.24298380315303802, 0.16618742048740387, 0.248605877161026, 0.253057062625885, 0.21252380311489105, 0.683346688747406, 0.6008654236793518, 0.4572497606277466, 0.48176801204681396, 0.8109484910964966, 0.9317734241485596, 0.9838232398033142, 0.9903479814529419, 0.9903135299682617, 0.99679034948349, 0.9955930113792419, 0.995755672454834, 0.9944296479225159, 0.9955195188522339, 0.9708579778671265, 0.9960352778434753, 0.988596498966217, 0.9963347911834717, 0.9937278032302856, 0.9519889950752258, 0.9389949440956116, 0.3216940760612488, 0.40503445267677307, 0.4400026798248291, 0.2740296423435211, 0.5019983053207397, 0.5250195860862732, 0.5106737613677979, 0.5037432312965393, 0.5505933165550232, 0.29351288080215454, 0.4286818504333496, 0.4512149691581726, 0.32333651185035706, 0.4190838932991028, 0.41753944754600525, 0.3489059507846832, 0.23212206363677979, 0.3724933862686157, 0.35113289952278137, 0.6936518549919128, 0.42401552200317383, 0.23058924078941345, 0.28857627511024475, 0.8187682032585144, 0.7146627306938171, 0.9056815505027771, 0.3316129148006439, 0.4146134853363037, 0.7595908045768738, 0.9245502352714539, 0.9543154239654541, 0.941752016544342, 0.9478416442871094, 0.8238380551338196, 0.5824019312858582, 0.9078071117401123, 0.8635420203208923, 0.9100919961929321, 0.9483347535133362, 0.9612635970115662, 0.937400221824646, 0.9496945142745972, 0.9698465466499329, 0.9824277758598328, 0.937648355960846, 0.9155279397964478, 0.9818688035011292, 0.9579099416732788, 0.9781896471977234, 0.8244097828865051, 0.33782002329826355, 0.1604844331741333, 0.37271007895469666, 0.36677491664886475, 0.3520975112915039, 0.427304208278656, 0.39025935530662537, 0.38640227913856506, 0.22963836789131165, 0.10677603632211685, 0.11747708171606064, 0.13206443190574646, 0.06948012858629227, 0.1924160122871399, 0.24354150891304016, 0.23816488683223724, 0.40039730072021484, 0.6756817698478699, 0.5754782557487488, 0.9856958985328674, 0.9954879879951477, 0.9923129677772522, 0.9755052924156189, 0.9860353469848633, 0.9480104446411133, 0.9703350067138672, 0.8942617177963257, 0.9473602771759033, 0.955978274345398, 0.9027301073074341, 0.9556263089179993, 0.9845300912857056, 0.9825406670570374, 0.9827819466590881]</t>
+          <t>[0.7144483327865601, 0.7437100410461426, 0.2799699306488037, 0.17643527686595917, 0.39829546213150024, 0.34934672713279724, 0.31172654032707214, 0.8656869530677795, 0.7959544658660889, 0.5794124007225037, 0.6743581891059875, 0.8582403659820557, 0.9768303632736206, 0.9919347763061523, 0.9959473013877869, 0.9962292313575745, 0.9988611936569214, 0.9985412359237671, 0.9982158541679382, 0.9972295165061951, 0.9980722665786743, 0.9875274300575256, 0.9985833168029785, 0.9966592788696289, 0.9987805485725403, 0.9978371262550354, 0.983932375907898, 0.9681153297424316, 0.35048720240592957, 0.5465764999389648, 0.6568139791488647, 0.3624594807624817, 0.7107314467430115, 0.5865886211395264, 0.6970975995063782, 0.7042115330696106, 0.7883167862892151, 0.450484961271286, 0.7720625400543213, 0.7125404477119446, 0.5374525785446167, 0.632050633430481, 0.6769704818725586, 0.5673752427101135, 0.43438324332237244, 0.5642223954200745, 0.5077508091926575, 0.8527148365974426, 0.6619917154312134, 0.3263810873031616, 0.41509079933166504, 0.9491967558860779, 0.8848916888237, 0.9642537832260132, 0.4299594461917877, 0.5887233018875122, 0.8781280517578125, 0.975767195224762, 0.9808338284492493, 0.9801592826843262, 0.9897170066833496, 0.9655898213386536, 0.841280996799469, 0.9472748041152954, 0.9105649590492249, 0.9694343209266663, 0.9844398498535156, 0.9880347847938538, 0.9835246801376343, 0.9906244874000549, 0.9888349175453186, 0.9961745738983154, 0.9866799712181091, 0.9772635102272034, 0.993440568447113, 0.9863262176513672, 0.993705689907074, 0.9863635897636414, 0.7744182348251343, 0.1746961921453476, 0.3888239860534668, 0.39692071080207825, 0.4247930645942688, 0.5012476444244385, 0.45109620690345764, 0.39267900586128235, 0.24034546315670013, 0.14225497841835022, 0.14673542976379395, 0.16712260246276855, 0.09946094453334808, 0.33516889810562134, 0.3738521933555603, 0.34901559352874756, 0.7104035019874573, 0.8191856145858765, 0.8187156319618225, 0.993669331073761, 0.9979540109634399, 0.9954511523246765, 0.9926232099533081, 0.9930363297462463, 0.9662911295890808, 0.9888392090797424, 0.9343651533126831, 0.9837766289710999, 0.9916316866874695, 0.9695817232131958, 0.9828685522079468, 0.9924066662788391, 0.9903632998466492, 0.9904683232307434]</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.99679034948349</v>
+        <v>0.9988611936569214</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
@@ -5823,10 +5823,10 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0.6158539000025485</v>
+        <v>0.6210707999998704</v>
       </c>
       <c r="J132" t="n">
-        <v>0.00549869553573704</v>
+        <v>0.005545274999998843</v>
       </c>
     </row>
     <row r="133">
@@ -5845,11 +5845,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>[0.09202244877815247, 0.11262930929660797, 0.09307437390089035, 0.09088213741779327, 0.09901265054941177, 0.19139550626277924, 0.16722626984119415, 0.21054349839687347, 0.24060840904712677, 0.32320576906204224, 0.47342154383659363, 0.38667598366737366, 0.3230695128440857, 0.340084046125412, 0.15078911185264587, 0.09308232367038727, 0.054743342101573944, 0.0646546334028244, 0.10403471440076828, 0.08925072103738785, 0.10442348569631577, 0.10020939260721207, 0.15492939949035645, 0.13761091232299805, 0.14445561170578003, 0.11372877657413483, 0.11489831656217575, 0.14177481830120087, 0.12154559046030045, 0.1257576048374176, 0.2596091330051422, 0.15877532958984375, 0.10813573747873306, 0.08091209828853607, 0.1126999706029892, 0.07201887667179108, 0.07372026890516281, 0.0812903344631195, 0.1107071116566658, 0.1270972043275833, 0.13854897022247314, 0.12006423622369766, 0.18291591107845306, 0.23008757829666138, 0.17323949933052063, 0.23321634531021118, 0.14316822588443756, 0.18787385523319244, 0.24695856869220734, 0.2369433343410492, 0.1371610164642334, 0.17733247578144073, 0.16529731452465057, 0.1581372320652008, 0.10004935413599014, 0.07981779426336288, 0.08237654715776443, 0.12065421789884567, 0.1107984259724617, 0.14269527792930603, 0.09307678043842316, 0.055972106754779816, 0.06334345042705536, 0.18006065487861633, 0.8140313029289246, 0.9816379547119141, 0.4099770784378052, 0.11672517657279968, 0.2074432671070099, 0.10262607783079147, 0.10990288108587265, 0.22348618507385254, 0.11969377845525742, 0.4840238094329834, 0.17674897611141205, 0.35593169927597046, 0.8445565700531006, 0.3584313690662384, 0.10103005170822144, 0.09542224556207657, 0.11988577246665955, 0.12527936697006226, 0.11497972905635834, 0.16918228566646576, 0.14013786613941193, 0.14598701894283295, 0.10087678581476212, 0.383497029542923, 0.7854481339454651, 0.1061551570892334, 0.1278754472732544, 0.11535488814115524, 0.17387868463993073, 0.21202610433101654, 0.1648748368024826, 0.16530194878578186, 0.147761732339859, 0.5486835837364197, 0.5422598719596863, 0.1890859305858612, 0.15042033791542053, 0.16337423026561737, 0.21590709686279297, 0.1767451912164688, 0.8591948747634888, 0.944482147693634, 0.92011559009552, 0.948495090007782, 0.9935168027877808, 0.9710580110549927, 0.9711543321609497]</t>
+          <t>[0.04646628722548485, 0.06128770858049393, 0.04992210492491722, 0.052584677934646606, 0.06466769427061081, 0.10813101381063461, 0.10731775313615799, 0.11859026551246643, 0.1824294477701187, 0.32904040813446045, 0.8779920339584351, 0.47300267219543457, 0.28309184312820435, 0.3195967376232147, 0.07208569347858429, 0.06146126985549927, 0.022132692858576775, 0.028562353923916817, 0.06662917882204056, 0.07813163846731186, 0.07388649880886078, 0.068598173558712, 0.13128691911697388, 0.10046521574258804, 0.0849754586815834, 0.14425282180309296, 0.08871051669120789, 0.1466335505247116, 0.11892059445381165, 0.10154373198747635, 0.25465214252471924, 0.1145683154463768, 0.058125805109739304, 0.024779614061117172, 0.0449892021715641, 0.04981738701462746, 0.04155978932976723, 0.0463358536362648, 0.051517654210329056, 0.06909248977899551, 0.10473140329122543, 0.12580524384975433, 0.15394751727581024, 0.20846368372440338, 0.13090740144252777, 0.1907249242067337, 0.09889394789934158, 0.2199087291955948, 0.22428803145885468, 0.23002448678016663, 0.16987791657447815, 0.21310311555862427, 0.19472381472587585, 0.17092323303222656, 0.07497068494558334, 0.0654817745089531, 0.05856868997216225, 0.11382244527339935, 0.1320050209760666, 0.15400487184524536, 0.09698536247015, 0.03515443205833435, 0.03730899468064308, 0.13122187554836273, 0.911750316619873, 0.984968364238739, 0.4924634099006653, 0.05687708780169487, 0.1328085958957672, 0.05566917732357979, 0.06291669607162476, 0.13282464444637299, 0.0818333625793457, 0.42472007870674133, 0.2503654658794403, 0.35377174615859985, 0.818265974521637, 0.4436385929584503, 0.05229778215289116, 0.050949424505233765, 0.10338996350765228, 0.12515167891979218, 0.11894265562295914, 0.1337495744228363, 0.12257885932922363, 0.0971452072262764, 0.0649319440126419, 0.3731510639190674, 0.7820466756820679, 0.06278431415557861, 0.06147283315658569, 0.07839712500572205, 0.07843536138534546, 0.13826408982276917, 0.09829073399305344, 0.1299007683992386, 0.1109137162566185, 0.8544736504554749, 0.7132195830345154, 0.14215293526649475, 0.09510066360235214, 0.10980414599180222, 0.5018957853317261, 0.23385334014892578, 0.9743576049804688, 0.9789314866065979, 0.9802170991897583, 0.987594485282898, 0.9967304468154907, 0.9860936403274536, 0.9860801100730896]</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.9935168027877808</v>
+        <v>0.9967304468154907</v>
       </c>
       <c r="F133" t="n">
         <v>1</v>
@@ -5863,10 +5863,10 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0.6310900000098627</v>
+        <v>0.6317494000104489</v>
       </c>
       <c r="J133" t="n">
-        <v>0.005685495495584348</v>
+        <v>0.00569143603613017</v>
       </c>
     </row>
     <row r="134">
@@ -5885,11 +5885,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>[0.99824059009552, 0.9958943128585815, 0.989364743232727, 0.9082434177398682, 0.985874593257904, 0.986404538154602, 0.9922729730606079, 0.9960598349571228, 0.991942286491394, 0.9900188446044922, 0.9855098724365234, 0.988515317440033, 0.9860179424285889, 0.9890011548995972, 0.9946980476379395, 0.9955020546913147, 0.9966092109680176, 0.9955374002456665, 0.9802430272102356, 0.9536640048027039, 0.9784437417984009, 0.984274685382843, 0.9876952171325684, 0.9826898574829102, 0.9611422419548035, 0.9745854735374451, 0.9801552891731262, 0.994907557964325, 0.9936083555221558, 0.9977292418479919, 0.9985149502754211, 0.9981630444526672, 0.9984257221221924, 0.9976969361305237, 0.9978787899017334, 0.9969610571861267, 0.9990445971488953, 0.9987502098083496, 0.9961807727813721, 0.9901183247566223, 0.969512939453125, 0.5573476552963257, 0.9889242053031921, 0.8771994113922119, 0.9926303625106812, 0.8941200375556946, 0.9880359768867493, 0.9921736717224121, 0.9077149629592896, 0.5907542705535889, 0.3573983907699585, 0.9264941811561584, 0.9826958179473877, 0.9955589771270752, 0.993743360042572, 0.9909005165100098, 0.99493008852005, 0.9988391995429993, 0.9991493225097656, 0.998802661895752, 0.9986417889595032, 0.9933435916900635, 0.9980006814002991, 0.9975282549858093, 0.9967241883277893, 0.9949560761451721, 0.9951346516609192, 0.996170699596405, 0.9948397278785706, 0.9978126287460327, 0.9972817897796631, 0.9983349442481995, 0.9974657297134399, 0.9978233575820923, 0.9981597065925598, 0.9982298016548157, 0.9984244108200073, 0.9979133009910583, 0.9981221556663513, 0.9979602098464966, 0.9979591369628906, 0.9978227615356445, 0.998724639415741, 0.9968335032463074, 0.9919288158416748, 0.9113492369651794, 0.9897764921188354, 0.9912678599357605, 0.9907953143119812, 0.9953823685646057, 0.9785853624343872, 0.9872841835021973, 0.9780338406562805, 0.9426795244216919, 0.10117769986391068, 0.10580513626337051, 0.41946348547935486, 0.6305206418037415, 0.2606290280818939, 0.17647415399551392, 0.14037473499774933, 0.1211358904838562, 0.09863436967134476, 0.21437057852745056, 0.16035249829292297, 0.20205585658550262, 0.451751172542572, 0.9904767274856567, 0.9910767078399658, 0.9901902079582214, 0.9903291463851929]</t>
+          <t>[0.9993322491645813, 0.9983347058296204, 0.9933030605316162, 0.92167729139328, 0.9875822067260742, 0.9915522336959839, 0.9943254590034485, 0.9963549375534058, 0.992294430732727, 0.9923582673072815, 0.992055356502533, 0.9927524328231812, 0.9875866174697876, 0.9939175248146057, 0.996199905872345, 0.9959845542907715, 0.9976004958152771, 0.9968372583389282, 0.9827808141708374, 0.9707992076873779, 0.984794557094574, 0.9862029552459717, 0.9928312301635742, 0.9835789203643799, 0.9706676602363586, 0.9896835088729858, 0.9906607270240784, 0.9976167678833008, 0.9976596832275391, 0.9992075562477112, 0.9993860721588135, 0.9991633892059326, 0.9994555115699768, 0.9990874528884888, 0.9991542100906372, 0.9985479712486267, 0.9995620846748352, 0.9994630217552185, 0.9975215792655945, 0.9888402819633484, 0.9546661972999573, 0.6785205602645874, 0.9892140030860901, 0.9284864068031311, 0.9946013689041138, 0.9680832624435425, 0.9952883720397949, 0.9950265288352966, 0.9505674839019775, 0.5565385222434998, 0.19662979245185852, 0.9256372451782227, 0.9805388450622559, 0.9955857992172241, 0.9964224100112915, 0.9889716506004333, 0.9973288774490356, 0.9994244575500488, 0.999667763710022, 0.999549925327301, 0.9994489550590515, 0.99745112657547, 0.9990112781524658, 0.9989296793937683, 0.9989098310470581, 0.9976766705513, 0.9978511333465576, 0.9980968832969666, 0.9958999752998352, 0.9989963173866272, 0.9988282322883606, 0.9992782473564148, 0.9989878535270691, 0.9992035031318665, 0.9992876648902893, 0.999170184135437, 0.9992992877960205, 0.999295711517334, 0.9994000196456909, 0.9991331696510315, 0.9991932511329651, 0.9990516304969788, 0.9994825124740601, 0.9988935589790344, 0.995536208152771, 0.9502642750740051, 0.995051920413971, 0.9954251646995544, 0.993409276008606, 0.9971826076507568, 0.9814892411231995, 0.9869586825370789, 0.9889707565307617, 0.9815694093704224, 0.057399578392505646, 0.056781984865665436, 0.5999807715415955, 0.7170546054840088, 0.3488066792488098, 0.14321374893188477, 0.10521005839109421, 0.14265984296798706, 0.05257643759250641, 0.13890230655670166, 0.15747834742069244, 0.13084354996681213, 0.5988283753395081, 0.9956356883049011, 0.9957538843154907, 0.9966208934783936, 0.9966660141944885]</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.9991493225097656</v>
+        <v>0.999667763710022</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
@@ -5903,10 +5903,10 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0.6352344000188168</v>
+        <v>0.644378199998755</v>
       </c>
       <c r="J134" t="n">
-        <v>0.005722832432601953</v>
+        <v>0.005805209008997793</v>
       </c>
     </row>
     <row r="135">
@@ -5925,11 +5925,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[0.8622937798500061, 0.8208739757537842, 0.9400738477706909, 0.8595815300941467, 0.7738344073295593, 0.7352664470672607, 0.6933978199958801, 0.61454176902771, 0.7249728441238403, 0.4794922173023224, 0.3253362476825714, 0.425119012594223, 0.5573342442512512, 0.9686528444290161, 0.7514114379882812, 0.7966916561126709, 0.4965113401412964, 0.5673635005950928, 0.8043361902236938, 0.3655731976032257, 0.6875975728034973, 0.6428924798965454, 0.7235444188117981, 0.5529267191886902, 0.7898427844047546, 0.9418696165084839, 0.9704657793045044, 0.7121044397354126, 0.3910345435142517, 0.7020744681358337, 0.44122380018234253, 0.6132168769836426, 0.3804232180118561, 0.8020585179328918, 0.389151006937027, 0.6205393075942993, 0.7355316281318665, 0.8546791076660156, 0.649571418762207, 0.9101323485374451, 0.6410319805145264, 0.8228849172592163, 0.5017449259757996, 0.40335768461227417, 0.8849635124206543, 0.9327755570411682, 0.8981296420097351, 0.820327877998352, 0.7566113471984863, 0.6633394360542297, 0.7695515751838684, 0.6071999669075012, 0.8901300430297852, 0.8520673513412476, 0.6865532994270325, 0.5219588875770569, 0.7291073799133301, 0.43002116680145264, 0.2137846052646637, 0.2977125942707062, 0.4585883319377899, 0.4436049163341522, 0.7216501235961914, 0.5089872479438782, 0.42330700159072876, 0.44391775131225586, 0.39385297894477844, 0.3522399067878723, 0.4170440435409546, 0.6515526175498962, 0.28113025426864624, 0.5960189700126648, 0.6157755255699158, 0.6056667566299438, 0.2708718478679657, 0.3960005044937134, 0.4426422119140625, 0.34596890211105347, 0.32390648126602173, 0.6474409699440002, 0.6965078115463257, 0.8885439038276672, 0.8369506001472473, 0.9618152379989624, 0.9809600114822388, 0.9590685367584229, 0.9172186255455017, 0.8209203481674194, 0.6260581612586975, 0.6383844614028931, 0.8346328735351562, 0.9139347076416016, 0.9568637013435364, 0.2958958148956299, 0.392964243888855, 0.6565219163894653, 0.32387861609458923, 0.6174120903015137, 0.4452734887599945, 0.3745417296886444, 0.36415165662765503, 0.37423428893089294, 0.2886809706687927, 0.6232137680053711, 0.5542182326316833, 0.5722616910934448, 0.8380608558654785, 0.8907879590988159, 0.7660951018333435, 0.887162446975708, 0.9494401216506958, 0.9493345618247986]</t>
+          <t>[0.9542394280433655, 0.9633090496063232, 0.9721255898475647, 0.9549576640129089, 0.9270207285881042, 0.9508421421051025, 0.7785572409629822, 0.6512792110443115, 0.8940688371658325, 0.5764811635017395, 0.3774007260799408, 0.6731372475624084, 0.9001386165618896, 0.992272138595581, 0.9418928623199463, 0.9408715963363647, 0.7531157732009888, 0.6905649900436401, 0.9697406888008118, 0.420681357383728, 0.8258731365203857, 0.7574751973152161, 0.8875287175178528, 0.6458061337471008, 0.9615824818611145, 0.9889572262763977, 0.9943080544471741, 0.9008917808532715, 0.6633856296539307, 0.9149866700172424, 0.6297836899757385, 0.8686349391937256, 0.4533134996891022, 0.961113452911377, 0.5420213937759399, 0.686105489730835, 0.9400713443756104, 0.9629716873168945, 0.7722444534301758, 0.9659797549247742, 0.7358304262161255, 0.8682958483695984, 0.5221779346466064, 0.42043885588645935, 0.9727188944816589, 0.9866847395896912, 0.9723787903785706, 0.9597923159599304, 0.9355763792991638, 0.8911786079406738, 0.9233471751213074, 0.8032776117324829, 0.9505460858345032, 0.9484977722167969, 0.8373314142227173, 0.5826339721679688, 0.8366117477416992, 0.37312519550323486, 0.16810880601406097, 0.25963371992111206, 0.5134645104408264, 0.5376439690589905, 0.8149152398109436, 0.5063984990119934, 0.38303330540657043, 0.43789321184158325, 0.5138698816299438, 0.4180415868759155, 0.5940359830856323, 0.9330138564109802, 0.3841562569141388, 0.9233158826828003, 0.7775092720985413, 0.7528590559959412, 0.26186603307724, 0.5354145169258118, 0.5869596004486084, 0.5209183096885681, 0.34173762798309326, 0.8336845636367798, 0.913686215877533, 0.9692107439041138, 0.9796153903007507, 0.9942378997802734, 0.9963808655738831, 0.9898219108581543, 0.9660165905952454, 0.8715375065803528, 0.7351599931716919, 0.6865272521972656, 0.9538909792900085, 0.9552508592605591, 0.9893409609794617, 0.3242243528366089, 0.4028920829296112, 0.7984603047370911, 0.4131060838699341, 0.727066159248352, 0.5977141857147217, 0.4247974157333374, 0.39989954233169556, 0.5411897897720337, 0.3622898757457733, 0.8283488750457764, 0.8322854042053223, 0.7814720869064331, 0.9677090048789978, 0.9826003909111023, 0.9613911509513855, 0.9787536859512329, 0.9942305088043213, 0.9942232966423035]</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.9809600114822388</v>
+        <v>0.9963808655738831</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
@@ -5943,10 +5943,10 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0.6165630000177771</v>
+        <v>0.6182944000029238</v>
       </c>
       <c r="J135" t="n">
-        <v>0.00550502678587301</v>
+        <v>0.005520485714311819</v>
       </c>
     </row>
     <row r="136">
@@ -5965,11 +5965,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[0.9972631931304932, 0.9948404431343079, 0.9909616112709045, 0.993697464466095, 0.9574767351150513, 0.9724250435829163, 0.9567075371742249, 0.9266349077224731, 0.6884294748306274, 0.9254699945449829, 0.9847354888916016, 0.9936997890472412, 0.9978694915771484, 0.9959075450897217, 0.9964478015899658, 0.9922659993171692, 0.9972250461578369, 0.9968047142028809, 0.9767442941665649, 0.9914852976799011, 0.9928015470504761, 0.9897320866584778, 0.9972050786018372, 0.9951114058494568, 0.9944475889205933, 0.9958215951919556, 0.9964939951896667, 0.9872593283653259, 0.9929155111312866, 0.9958528280258179, 0.9981029033660889, 0.9968294501304626, 0.9911638498306274, 0.9888022541999817, 0.989859402179718, 0.9942301511764526, 0.994472324848175, 0.9822670817375183, 0.9953624606132507, 0.9973003268241882, 0.9952285289764404, 0.9954755902290344, 0.9976286292076111, 0.9960017800331116, 0.9976562261581421, 0.9973769187927246, 0.995018720626831, 0.9471427798271179, 0.9860838055610657, 0.9926284551620483, 0.9941146969795227, 0.8546568155288696, 0.7552478313446045, 0.5184437036514282, 0.9092919230461121, 0.6895028948783875, 0.9813015460968018, 0.978238582611084, 0.9932164549827576, 0.9885454773902893, 0.9913751482963562, 0.8905690908432007, 0.8343498706817627, 0.9174043536186218, 0.5751389861106873, 0.1848447024822235, 0.4119093418121338, 0.726970374584198, 0.9228541851043701, 0.994703471660614, 0.9878655076026917, 0.9971401691436768, 0.9960122108459473, 0.9976085424423218, 0.996483564376831, 0.9972224235534668, 0.9960635304450989, 0.9950079917907715, 0.9985724687576294, 0.9987101554870605, 0.9973940849304199, 0.9915317893028259, 0.9800552129745483, 0.9914970993995667, 0.9904046058654785, 0.9952231049537659, 0.9949448704719543, 0.990666925907135, 0.9899694323539734, 0.9908532500267029, 0.9903884530067444, 0.9860436916351318, 0.9894731640815735, 0.9930874705314636, 0.9927045702934265, 0.9925314784049988, 0.9945420622825623, 0.9960435628890991, 0.9966977834701538, 0.9953677654266357, 0.9970369338989258, 0.9973059892654419, 0.9934093952178955, 0.9748899340629578, 0.8728026747703552, 0.8896754384040833, 0.9538969397544861, 0.926377534866333, 0.5353732109069824, 0.9107075929641724, 0.9348413348197937, 0.9352997541427612]</t>
+          <t>[0.9984777569770813, 0.9936708211898804, 0.9887479543685913, 0.9949264526367188, 0.9127237796783447, 0.9640355110168457, 0.9349626302719116, 0.8835495710372925, 0.6889224052429199, 0.940362811088562, 0.9889590740203857, 0.9956823587417603, 0.9986239671707153, 0.997118353843689, 0.9973541498184204, 0.9943398833274841, 0.9976407289505005, 0.9977309107780457, 0.9862295389175415, 0.9935051202774048, 0.9942891597747803, 0.9928914308547974, 0.9980208873748779, 0.9967783093452454, 0.9944116473197937, 0.9963292479515076, 0.9969123601913452, 0.9899657964706421, 0.9937175512313843, 0.9977084398269653, 0.9986660480499268, 0.996752142906189, 0.9869192242622375, 0.9836940169334412, 0.9856153726577759, 0.9929596781730652, 0.9933792352676392, 0.9762750267982483, 0.9955663084983826, 0.9981630444526672, 0.9972599744796753, 0.9976180195808411, 0.9985827207565308, 0.9975985884666443, 0.9987930059432983, 0.9984498023986816, 0.9952560067176819, 0.9360528588294983, 0.9892687201499939, 0.9925556778907776, 0.9934326410293579, 0.8393173217773438, 0.6677595973014832, 0.49355506896972656, 0.9309431910514832, 0.6304418444633484, 0.9854788780212402, 0.9871435761451721, 0.9947749376296997, 0.987758457660675, 0.9870122075080872, 0.8958137035369873, 0.8441164493560791, 0.9378660917282104, 0.7059975862503052, 0.1287349909543991, 0.6243484020233154, 0.8200415968894958, 0.9295012950897217, 0.9951567053794861, 0.9910522103309631, 0.9977155923843384, 0.9967256784439087, 0.9982155561447144, 0.9969684481620789, 0.9980181455612183, 0.9975184202194214, 0.9948524832725525, 0.9991214871406555, 0.9989913105964661, 0.9980723857879639, 0.9940451383590698, 0.9852290749549866, 0.9898480772972107, 0.9903200268745422, 0.9943829774856567, 0.9952352643013, 0.987585186958313, 0.9899963140487671, 0.9918138980865479, 0.9870631098747253, 0.9806321859359741, 0.9903503060340881, 0.9939401149749756, 0.9944478273391724, 0.9909831285476685, 0.9950307607650757, 0.9966177344322205, 0.9964853525161743, 0.9946871995925903, 0.9971363544464111, 0.9979216456413269, 0.992902934551239, 0.9681394696235657, 0.8591660857200623, 0.8826881051063538, 0.973383367061615, 0.906492292881012, 0.39726492762565613, 0.8436185717582703, 0.9140753149986267, 0.9146683216094971]</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.9987101554870605</v>
+        <v>0.9991214871406555</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
@@ -5983,10 +5983,10 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0.6365227999922354</v>
+        <v>0.6477243000117596</v>
       </c>
       <c r="J136" t="n">
-        <v>0.005683239285644959</v>
+        <v>0.005783252678676425</v>
       </c>
     </row>
     <row r="137">
@@ -6005,11 +6005,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>[0.25349536538124084, 0.9260221719741821, 0.8717826008796692, 0.8838544487953186, 0.2850063443183899, 0.43652790784835815, 0.7531420588493347, 0.6333339214324951, 0.17684975266456604, 0.30446577072143555, 0.15553297102451324, 0.2702333629131317, 0.2958395481109619, 0.44803503155708313, 0.18632300198078156, 0.16190418601036072, 0.30596765875816345, 0.3790260851383209, 0.6505180597305298, 0.26296094059944153, 0.5272276997566223, 0.3701586425304413, 0.8168718218803406, 0.5463270545005798, 0.25985491275787354, 0.3797541856765747, 0.991496205329895, 0.9937952756881714, 0.3480818569660187, 0.20384910702705383, 0.5111362338066101, 0.8625832200050354, 0.482060045003891, 0.6147471070289612, 0.1990433931350708, 0.96273273229599, 0.9816746115684509, 0.8049036860466003, 0.4645822048187256, 0.601189911365509, 0.45786088705062866, 0.09282565861940384, 0.14021411538124084, 0.09106887876987457, 0.20875310897827148, 0.3541697859764099, 0.20887663960456848, 0.35277655720710754, 0.5153398513793945, 0.3160073459148407, 0.39414283633232117, 0.9010936617851257, 0.7525739073753357, 0.5198394656181335, 0.1826295554637909, 0.27531808614730835, 0.38160794973373413, 0.11335058510303497, 0.5781022310256958, 0.21884854137897491, 0.3206959068775177, 0.22006599605083466, 0.4596301019191742, 0.4508453607559204, 0.2354494333267212, 0.49418964982032776, 0.5358811020851135, 0.29893550276756287, 0.433174192905426, 0.5742965340614319, 0.35062676668167114, 0.29991480708122253, 0.7356299757957458, 0.2575792670249939, 0.30493083596229553, 0.5562471747398376, 0.2629053294658661, 0.28546687960624695, 0.29565078020095825, 0.8131161332130432, 0.9532105326652527, 0.8349356055259705, 0.8338631391525269, 0.5080342888832092, 0.6412894129753113, 0.9868372678756714, 0.9819017052650452, 0.984720766544342, 0.978708803653717, 0.9979110360145569, 0.993498682975769, 0.9970359802246094, 0.9977545142173767, 0.9942029118537903, 0.9712632298469543, 0.6436582803726196, 0.5781501531600952, 0.8048900365829468, 0.8534299731254578, 0.3275613784790039, 0.1933950036764145, 0.190511092543602, 0.19097916781902313, 0.24545834958553314, 0.9111049771308899, 0.29960906505584717, 0.7911462783813477, 0.5420567989349365, 0.4355698823928833, 0.9423506855964661, 0.9422774314880371]</t>
+          <t>[0.2121109515428543, 0.9062186479568481, 0.917343258857727, 0.9375548362731934, 0.28116288781166077, 0.41213297843933105, 0.8676087856292725, 0.7282418608665466, 0.1616498827934265, 0.48312556743621826, 0.14564701914787292, 0.271464079618454, 0.24093158543109894, 0.32338759303092957, 0.21670310199260712, 0.12666621804237366, 0.21903379261493683, 0.36892014741897583, 0.6553691625595093, 0.17584580183029175, 0.3591262996196747, 0.3889211118221283, 0.8608575463294983, 0.5089799761772156, 0.21629475057125092, 0.3378146290779114, 0.993560791015625, 0.9963562488555908, 0.23776355385780334, 0.1690402328968048, 0.634445309638977, 0.9168212413787842, 0.6853953003883362, 0.7341570854187012, 0.13746093213558197, 0.9797605872154236, 0.9916154742240906, 0.9022914171218872, 0.3143151104450226, 0.5176129341125488, 0.370017409324646, 0.06997448951005936, 0.1031440943479538, 0.04463109001517296, 0.14676634967327118, 0.4546796381473541, 0.15525799989700317, 0.5206483602523804, 0.4732310175895691, 0.30514276027679443, 0.3156162202358246, 0.9394770860671997, 0.7371527552604675, 0.5372387170791626, 0.14500151574611664, 0.23352079093456268, 0.33750954270362854, 0.0915214791893959, 0.5467023253440857, 0.17924420535564423, 0.4105999767780304, 0.252190500497818, 0.4616205096244812, 0.4331432282924652, 0.1262771636247635, 0.49912458658218384, 0.7254047393798828, 0.25384989380836487, 0.2426787167787552, 0.6008886098861694, 0.2374071478843689, 0.16583260893821716, 0.6412602663040161, 0.10748088359832764, 0.1746697574853897, 0.387957364320755, 0.14759249985218048, 0.25070568919181824, 0.2174495905637741, 0.8847048878669739, 0.9724646210670471, 0.9085878133773804, 0.8563990592956543, 0.5369548797607422, 0.6868919134140015, 0.9886932969093323, 0.987097442150116, 0.9904323220252991, 0.9854883551597595, 0.998986542224884, 0.9962388277053833, 0.9985308647155762, 0.998468816280365, 0.9975778460502625, 0.9804273247718811, 0.770447313785553, 0.6949572563171387, 0.8704134821891785, 0.8697367906570435, 0.41997578740119934, 0.3166007995605469, 0.22247041761875153, 0.24485744535923004, 0.2545900344848633, 0.9402733445167542, 0.27321958541870117, 0.8363023996353149, 0.44035694003105164, 0.3875003755092621, 0.956684410572052, 0.9566723108291626]</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.9979110360145569</v>
+        <v>0.998986542224884</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
@@ -6023,10 +6023,10 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0.6273751000117045</v>
+        <v>0.6405720000038855</v>
       </c>
       <c r="J137" t="n">
-        <v>0.005652027928033374</v>
+        <v>0.005770918918953923</v>
       </c>
     </row>
     <row r="138">
@@ -6045,11 +6045,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[0.9926009774208069, 0.9965685606002808, 0.992860734462738, 0.9942102432250977, 0.9920729994773865, 0.9831972122192383, 0.9875926375389099, 0.9929021000862122, 0.998264729976654, 0.9969713687896729, 0.9973320960998535, 0.9831567406654358, 0.997424840927124, 0.9921472668647766, 0.994828999042511, 0.9965842962265015, 0.9842650890350342, 0.9821533560752869, 0.9930490255355835, 0.9922846555709839, 0.9924418926239014, 0.9644414782524109, 0.9905548691749573, 0.995867133140564, 0.9946168065071106, 0.990037202835083, 0.9974332451820374, 0.9958502054214478, 0.9952539205551147, 0.9976451992988586, 0.9983363747596741, 0.9956823587417603, 0.9972890615463257, 0.9957482218742371, 0.9954391121864319, 0.9678794145584106, 0.9913197159767151, 0.9969620108604431, 0.9960429668426514, 0.9785699844360352, 0.9949207901954651, 0.9965728521347046, 0.9978783130645752, 0.993463397026062, 0.997735857963562, 0.9912971258163452, 0.9929748773574829, 0.9945640563964844, 0.9979029893875122, 0.9880487322807312, 0.9976804256439209, 0.9973330497741699, 0.9945176243782043, 0.9969909191131592, 0.9970763921737671, 0.9931255578994751, 0.9977436065673828, 0.9950433969497681, 0.9962326884269714, 0.9951252341270447, 0.9943423271179199, 0.9926884174346924, 0.994472324848175, 0.9962711334228516, 0.9955671429634094, 0.9944435954093933, 0.9963341951370239, 0.9983879327774048, 0.9980910420417786, 0.9978359341621399, 0.9963904023170471, 0.9974259734153748, 0.9967219233512878, 0.9971112012863159, 0.9972877502441406, 0.9965524673461914, 0.9931540489196777, 0.9945995807647705, 0.9789944291114807, 0.9918510317802429, 0.9418013095855713, 0.9944650530815125, 0.996847927570343, 0.9974628686904907, 0.9981460571289062, 0.9858627915382385, 0.98325115442276, 0.9870395064353943, 0.987095057964325, 0.9949522018432617, 0.9981098175048828, 0.9971914887428284, 0.9983510971069336, 0.9980646967887878, 0.9986433386802673, 0.9931944608688354, 0.9969784021377563, 0.9986819624900818, 0.99834144115448, 0.998418927192688, 0.997252881526947, 0.9975632429122925, 0.9975121021270752, 0.9969863295555115, 0.9964229464530945, 0.9971646666526794, 0.9978949427604675, 0.9987096786499023, 0.994508683681488, 0.9906063079833984, 0.9906161427497864]</t>
+          <t>[0.9973646998405457, 0.998473584651947, 0.9974372386932373, 0.9980182647705078, 0.9975426197052002, 0.9912633895874023, 0.9935913681983948, 0.9963172674179077, 0.9991556406021118, 0.9983204007148743, 0.9985087513923645, 0.9888885617256165, 0.9992027878761292, 0.9959218502044678, 0.9977329969406128, 0.9980695843696594, 0.9937898516654968, 0.9904533624649048, 0.9943702816963196, 0.994805634021759, 0.9930389523506165, 0.9659865498542786, 0.9856566190719604, 0.9950438737869263, 0.9949700236320496, 0.9925883412361145, 0.9982241988182068, 0.997373104095459, 0.9969412684440613, 0.9986227750778198, 0.9988622665405273, 0.9970948696136475, 0.9984161853790283, 0.996279776096344, 0.9943720102310181, 0.9717831611633301, 0.9945412278175354, 0.998077392578125, 0.9981879591941833, 0.9869824051856995, 0.9981223940849304, 0.9985577464103699, 0.9990358352661133, 0.997647225856781, 0.9990602135658264, 0.9954755902290344, 0.997461199760437, 0.9977381229400635, 0.9990745782852173, 0.9937800765037537, 0.9989012479782104, 0.9984398484230042, 0.9968253374099731, 0.9983696341514587, 0.9970154762268066, 0.9946022629737854, 0.9989302754402161, 0.997945249080658, 0.9973291158676147, 0.9963235855102539, 0.9974864721298218, 0.9953775405883789, 0.9962228536605835, 0.9962558746337891, 0.9940049052238464, 0.9938369393348694, 0.9973613619804382, 0.9991821646690369, 0.9987094402313232, 0.9983780384063721, 0.9968680739402771, 0.9979755282402039, 0.9976389408111572, 0.9975003600120544, 0.998323380947113, 0.9973993301391602, 0.9936395287513733, 0.9969218373298645, 0.9786851406097412, 0.993922233581543, 0.9450908899307251, 0.9973135590553284, 0.9986085295677185, 0.9988154172897339, 0.9992160797119141, 0.9948251247406006, 0.9930470585823059, 0.995559573173523, 0.9963550567626953, 0.9975966811180115, 0.9992390871047974, 0.9986526966094971, 0.9994908571243286, 0.9992696642875671, 0.9994526505470276, 0.9966586828231812, 0.9983093738555908, 0.9993149042129517, 0.9992997646331787, 0.9992365837097168, 0.9989352822303772, 0.9986972212791443, 0.9992480874061584, 0.999014139175415, 0.9977275729179382, 0.9986947178840637, 0.999110758304596, 0.9995430707931519, 0.9950828552246094, 0.9950928688049316, 0.9950968623161316]</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.9987096786499023</v>
+        <v>0.9995430707931519</v>
       </c>
       <c r="F138" t="n">
         <v>1</v>
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0.6286236000014469</v>
+        <v>0.6393272999994224</v>
       </c>
       <c r="J138" t="n">
-        <v>0.00566327567568871</v>
+        <v>0.005759705405400202</v>
       </c>
     </row>
     <row r="139">
@@ -6085,11 +6085,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[0.9172918200492859, 0.3626244068145752, 0.19208994507789612, 0.21578621864318848, 0.965904951095581, 0.9329046607017517, 0.2274957150220871, 0.5750598311424255, 0.06731460243463516, 0.051338616758584976, 0.1781153827905655, 0.20692768692970276, 0.1061679944396019, 0.21937838196754456, 0.13732148706912994, 0.1967206746339798, 0.474590539932251, 0.18056781589984894, 0.05065452307462692, 0.15126927196979523, 0.12723945081233978, 0.15379618108272552, 0.09588175266981125, 0.18550963699817657, 0.5823206901550293, 0.25306105613708496, 0.3144373297691345, 0.18125921487808228, 0.07743579894304276, 0.1890244036912918, 0.09434033185243607, 0.2235555797815323, 0.31697672605514526, 0.5317882299423218, 0.17417478561401367, 0.1592908799648285, 0.2588174343109131, 0.4037289321422577, 0.3296819031238556, 0.2562473714351654, 0.5281463265419006, 0.4143746495246887, 0.5358690023422241, 0.8576714396476746, 0.9596443176269531, 0.9455661177635193, 0.9659215807914734, 0.984175980091095, 0.9943384528160095, 0.9872849583625793, 0.9471812844276428, 0.23551173508167267, 0.0957208052277565, 0.06319202482700348, 0.06572960317134857, 0.05518560856580734, 0.09343068301677704, 0.1863282471895218, 0.6708950400352478, 0.2284080982208252, 0.8237791061401367, 0.22562184929847717, 0.730966329574585, 0.8525681495666504, 0.7633951902389526, 0.4844275116920471, 0.21595393121242523, 0.15296971797943115, 0.09038157016038895, 0.09078699350357056, 0.21609872579574585, 0.4150386452674866, 0.30050304532051086, 0.13756130635738373, 0.15273360908031464, 0.07323894649744034, 0.06288395076990128, 0.09717392176389694, 0.21145732700824738, 0.11383567005395889, 0.1945534199476242, 0.2532656788825989, 0.7782199382781982, 0.04204084351658821, 0.04821309074759483, 0.066185861825943, 0.05723213031888008, 0.11490591615438461, 0.08534012734889984, 0.05553426221013069, 0.053299400955438614, 0.03938397392630577, 0.04992210492491722, 0.06499265879392624, 0.15071997046470642, 0.1004706472158432, 0.10453762859106064, 0.09589842706918716, 0.12486602365970612, 0.0953901931643486, 0.103244848549366, 0.09695322066545486, 0.07997220009565353, 0.08234457671642303, 0.17692726850509644, 0.16847652196884155, 0.16379137337207794, 0.1287948042154312, 0.4799755811691284, 0.30452629923820496, 0.3045025169849396]</t>
+          <t>[0.9770876169204712, 0.5222607851028442, 0.34014952182769775, 0.3330729901790619, 0.9841779470443726, 0.9807182550430298, 0.25602254271507263, 0.5374006628990173, 0.056304413825273514, 0.037880104035139084, 0.25031426548957825, 0.3880501389503479, 0.1165916696190834, 0.26851174235343933, 0.09450612962245941, 0.22338241338729858, 0.6501550078392029, 0.23675599694252014, 0.05249030143022537, 0.3623696565628052, 0.18072426319122314, 0.2682572305202484, 0.13354399800300598, 0.25071853399276733, 0.6762657761573792, 0.20493392646312714, 0.6124051213264465, 0.20114226639270782, 0.06783732771873474, 0.18054689466953278, 0.07840434461832047, 0.3239918053150177, 0.680316686630249, 0.7763891220092773, 0.17821285128593445, 0.2864488959312439, 0.48225152492523193, 0.7515189051628113, 0.5859158039093018, 0.6496805548667908, 0.8058696985244751, 0.5444421768188477, 0.8092204928398132, 0.9380323886871338, 0.9881312847137451, 0.986255407333374, 0.9925729036331177, 0.9950172305107117, 0.9980018734931946, 0.997519314289093, 0.9844829440116882, 0.3348008990287781, 0.052093684673309326, 0.03423762694001198, 0.05153666064143181, 0.036717385053634644, 0.09187881648540497, 0.3069278299808502, 0.9005802869796753, 0.3476526737213135, 0.9245870113372803, 0.18958859145641327, 0.6974897384643555, 0.9518094658851624, 0.8955199718475342, 0.4830971658229828, 0.20555713772773743, 0.22302153706550598, 0.09778880327939987, 0.09308625012636185, 0.2956121861934662, 0.4327833652496338, 0.31001806259155273, 0.15415939688682556, 0.09739720821380615, 0.05174027383327484, 0.045678913593292236, 0.11046355962753296, 0.1446985900402069, 0.07968141883611679, 0.14016129076480865, 0.2275499552488327, 0.837796151638031, 0.027164481580257416, 0.030137721449136734, 0.05863798037171364, 0.044642459601163864, 0.06543069332838058, 0.06321409344673157, 0.042878758162260056, 0.037525396794080734, 0.021351395174860954, 0.04105069488286972, 0.058412812650203705, 0.15184558928012848, 0.07658517360687256, 0.0967809408903122, 0.07367212325334549, 0.09795321524143219, 0.0413149893283844, 0.06780393421649933, 0.059980589896440506, 0.03625667467713356, 0.04055604711174965, 0.15868978202342987, 0.11722072958946228, 0.13246910274028778, 0.1388310045003891, 0.5483919382095337, 0.3678772747516632, 0.3678585886955261]</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.9943384528160095</v>
+        <v>0.9980018734931946</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0.640430200000992</v>
+        <v>0.637241600008565</v>
       </c>
       <c r="J139" t="n">
-        <v>0.005769641441450379</v>
+        <v>0.005740915315392478</v>
       </c>
     </row>
     <row r="140">
@@ -6125,11 +6125,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>[0.15450483560562134, 0.18850423395633698, 0.31244003772735596, 0.2268596589565277, 0.2204309105873108, 0.2533894181251526, 0.5902442932128906, 0.8226986527442932, 0.6060487627983093, 0.3383663296699524, 0.17769506573677063, 0.3133520483970642, 0.12038840353488922, 0.33468198776245117, 0.08385491371154785, 0.12832964956760406, 0.23570004105567932, 0.09702996909618378, 0.0885254368185997, 0.33051449060440063, 0.2413792908191681, 0.17936955392360687, 0.13357974588871002, 0.07434366643428802, 0.047296084463596344, 0.09064331650733948, 0.06207934021949768, 0.0890766978263855, 0.09703420847654343, 0.0921734943985939, 0.10852519422769547, 0.11495854705572128, 0.09529715031385422, 0.08394889533519745, 0.10138186812400818, 0.15798835456371307, 0.11996334046125412, 0.09767681360244751, 0.12553659081459045, 0.04872428998351097, 0.06663490831851959, 0.3275395929813385, 0.06789261847734451, 0.13908088207244873, 0.4892880320549011, 0.633970320224762, 0.6588111519813538, 0.8636324405670166, 0.5359305739402771, 0.08547694981098175, 0.0551084466278553, 0.07736910879611969, 0.11164220422506332, 0.13625375926494598, 0.48949217796325684, 0.28537970781326294, 0.09372133016586304, 0.07822515815496445, 0.08070314675569534, 0.06773165613412857, 0.06016401946544647, 0.05301328003406525, 0.07117542624473572, 0.09694694727659225, 0.050996843725442886, 0.043198175728321075, 0.08052852749824524, 0.09395280480384827, 0.07635358721017838, 0.08065744489431381, 0.1677381545305252, 0.1396772563457489, 0.07100386917591095, 0.06402082741260529, 0.07797542959451675, 0.08526191115379333, 0.16164612770080566, 0.1523563116788864, 0.06982439756393433, 0.25049498677253723, 0.09486474841833115, 0.37560439109802246, 0.5441464781761169, 0.12986139953136444, 0.058415357023477554, 0.08206316828727722, 0.159819558262825, 0.09668838232755661, 0.07788402587175369, 0.49925848841667175, 0.2150067687034607, 0.09387769550085068, 0.11821304261684418, 0.3254849314689636, 0.9063214063644409, 0.9906127452850342, 0.54310542345047, 0.09578779339790344, 0.13085585832595825, 0.09468115121126175, 0.06434667110443115, 0.13315115869045258, 0.04648194462060928, 0.06676233559846878, 0.732960045337677, 0.5929155349731445, 0.11737305670976639, 0.06827668100595474, 0.055708713829517365, 0.05851735174655914, 0.078664630651474, 0.07882877439260483]</t>
+          <t>[0.06893932819366455, 0.08562885969877243, 0.24644829332828522, 0.17945802211761475, 0.1992509365081787, 0.2014111578464508, 0.7613609433174133, 0.8563063144683838, 0.6092242002487183, 0.2973758578300476, 0.19572022557258606, 0.26180601119995117, 0.10794620215892792, 0.2733203172683716, 0.04921974986791611, 0.06006450206041336, 0.1382274180650711, 0.0638592466711998, 0.04870236665010452, 0.20357747375965118, 0.19665588438510895, 0.09852121025323868, 0.09827660769224167, 0.03145347535610199, 0.019953740760684013, 0.06720659136772156, 0.033569589257240295, 0.0483468659222126, 0.05711141228675842, 0.05126721411943436, 0.07036980986595154, 0.04921715334057808, 0.06539075821638107, 0.06186753511428833, 0.0760757327079773, 0.09836006164550781, 0.0785701647400856, 0.05183818191289902, 0.049224767833948135, 0.019603366032242775, 0.033160217106342316, 0.2083129584789276, 0.043933283537626266, 0.12139525264501572, 0.5115585327148438, 0.6364472508430481, 0.6532870531082153, 0.8574931621551514, 0.3502171039581299, 0.04341007396578789, 0.028307773172855377, 0.045571617782115936, 0.05488908290863037, 0.06865223497152328, 0.43687739968299866, 0.43664297461509705, 0.09537312388420105, 0.07303868234157562, 0.03865208849310875, 0.03694736585021019, 0.0344211719930172, 0.028687074780464172, 0.045889295637607574, 0.08390852063894272, 0.035954784601926804, 0.036682337522506714, 0.06057851389050484, 0.052430376410484314, 0.0364605151116848, 0.0676938071846962, 0.10205280035734177, 0.07750429213047028, 0.0351131372153759, 0.032624226063489914, 0.04571202024817467, 0.05499929189682007, 0.17444992065429688, 0.1728539913892746, 0.05089821293950081, 0.22902297973632812, 0.045636359602212906, 0.2863324284553528, 0.6070207357406616, 0.18135783076286316, 0.05189451202750206, 0.0949103906750679, 0.278169721364975, 0.11136432737112045, 0.10197889804840088, 0.5241315960884094, 0.19754177331924438, 0.0641988143324852, 0.13124388456344604, 0.4775349795818329, 0.8666617274284363, 0.9964737296104431, 0.4914664626121521, 0.12579432129859924, 0.1358090490102768, 0.048665713518857956, 0.032655078917741776, 0.07694613188505173, 0.024449696764349937, 0.046334199607372284, 0.6659863591194153, 0.5000885128974915, 0.09042029827833176, 0.044085822999477386, 0.05053076148033142, 0.02928263321518898, 0.029551664367318153, 0.02947172150015831]</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.9906127452850342</v>
+        <v>0.9964737296104431</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
@@ -6143,10 +6143,10 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0.648230999999214</v>
+        <v>0.6591786999924807</v>
       </c>
       <c r="J140" t="n">
-        <v>0.005787776785707267</v>
+        <v>0.00588552410707572</v>
       </c>
     </row>
     <row r="141">
@@ -6165,11 +6165,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>[0.04433893412351608, 0.043606944382190704, 0.06716516613960266, 0.06383132189512253, 0.05978468433022499, 0.19660402834415436, 0.11085521429777145, 0.09767939895391464, 0.11684627830982208, 0.07299993187189102, 0.0782710611820221, 0.06388414651155472, 0.08645724505186081, 0.06177934259176254, 0.04701581969857216, 0.08084127306938171, 0.05692210793495178, 0.08139975368976593, 0.08803769201040268, 0.09383302927017212, 0.09689005464315414, 0.06698489189147949, 0.04349818453192711, 0.04955923184752464, 0.07693503051996231, 0.06029800698161125, 0.07367122173309326, 0.06956212222576141, 0.081398606300354, 0.12710817158222198, 0.05842523276805878, 0.056438643485307693, 0.06386009603738785, 0.07023008912801743, 0.07448486983776093, 0.09987299889326096, 0.08153378218412399, 0.060064684599637985, 0.05756272375583649, 0.055126309394836426, 0.0962105467915535, 0.09452425688505173, 0.08082615584135056, 0.062116384506225586, 0.0713251382112503, 0.048560649156570435, 0.050067439675331116, 0.062349043786525726, 0.049885090440511703, 0.07821451872587204, 0.08665147423744202, 0.09398085623979568, 0.12016323953866959, 0.11812158674001694, 0.10424506664276123, 0.08194199204444885, 0.0550660640001297, 0.05615208297967911, 0.053430311381816864, 0.07065854221582413, 0.07193164527416229, 0.0832073763012886, 0.08648467063903809, 0.056834615767002106, 0.05353955551981926, 0.0546928346157074, 0.07333960384130478, 0.10471653938293457, 0.07449343800544739, 0.04354577139019966, 0.054063692688941956, 0.06336818635463715, 0.054570961743593216, 0.059779927134513855, 0.08837758749723434, 0.10875824838876724, 0.058080174028873444, 0.0698358342051506, 0.11121895909309387, 0.08880127221345901, 0.07469360530376434, 0.14246319234371185, 0.13225014507770538, 0.1098225861787796, 0.14328111708164215, 0.1046946793794632, 0.07473461329936981, 0.11636344343423843, 0.14211218059062958, 0.12670274078845978, 0.09433766454458237, 0.10699260234832764, 0.09346065670251846, 0.08734356611967087, 0.08520630747079849, 0.09264662116765976, 0.06796754896640778, 0.05642053857445717, 0.05827439948916435, 0.06220702454447746, 0.05120263248682022, 0.046310704201459885, 0.04238678514957428, 0.04901201277971268, 0.057190634310245514, 0.059225499629974365, 0.06387361139059067, 0.05643172562122345, 0.06592431664466858, 0.04823678731918335, 0.08688200265169144, 0.08676671236753464]</t>
+          <t>[0.033429283648729324, 0.035795390605926514, 0.06582694500684738, 0.06817428022623062, 0.07222446799278259, 0.34282419085502625, 0.1530200093984604, 0.128285750746727, 0.23772010207176208, 0.11107489466667175, 0.08098948746919632, 0.09015917778015137, 0.08663957566022873, 0.06010143831372261, 0.035351160913705826, 0.059280190616846085, 0.053658559918403625, 0.05801898241043091, 0.05397844314575195, 0.06979936361312866, 0.06364215910434723, 0.036441072821617126, 0.025127863511443138, 0.033269938081502914, 0.04827428236603737, 0.03847229853272438, 0.04796759784221649, 0.05227275565266609, 0.041331641376018524, 0.07834231853485107, 0.025365930050611496, 0.02523057721555233, 0.036830827593803406, 0.035207346081733704, 0.04538581147789955, 0.07332950830459595, 0.058923956006765366, 0.03461315110325813, 0.03721407428383827, 0.03919101133942604, 0.08637497574090958, 0.06721580028533936, 0.05912530794739723, 0.038953278213739395, 0.037224508821964264, 0.019305618479847908, 0.025027286261320114, 0.03570980951189995, 0.02964187227189541, 0.05727608501911163, 0.04149993136525154, 0.05567365884780884, 0.08825064450502396, 0.09312529861927032, 0.13146880269050598, 0.06651555001735687, 0.033022500574588776, 0.041882410645484924, 0.046033330261707306, 0.05760633572936058, 0.05056661739945412, 0.060138218104839325, 0.051066674292087555, 0.027906732633709908, 0.02367510087788105, 0.034081004559993744, 0.0521220788359642, 0.128529891371727, 0.06309843808412552, 0.015764491632580757, 0.018856720998883247, 0.03526319935917854, 0.026992682367563248, 0.035776689648628235, 0.09509202092885971, 0.1197350025177002, 0.045074790716171265, 0.07103033363819122, 0.21749533712863922, 0.14235630631446838, 0.13217999041080475, 0.18877176940441132, 0.14848560094833374, 0.08560013025999069, 0.14331872761249542, 0.07509391754865646, 0.05634896084666252, 0.11686594784259796, 0.20478768646717072, 0.14177395403385162, 0.10156664997339249, 0.14672008156776428, 0.07522983103990555, 0.10188868641853333, 0.08709768950939178, 0.09116698801517487, 0.05544497072696686, 0.04442114010453224, 0.048596613109111786, 0.06449872255325317, 0.03987264260649681, 0.03188401088118553, 0.025191690772771835, 0.033802542835474014, 0.05711788684129715, 0.07153141498565674, 0.051812075078487396, 0.04426940903067589, 0.057155169546604156, 0.03371149301528931, 0.08001202344894409, 0.07993033528327942]</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.1966040283441544</v>
+        <v>0.3428241908550262</v>
       </c>
       <c r="F141" t="n">
         <v>1</v>
@@ -6183,10 +6183,10 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0.612947699992219</v>
+        <v>0.6200800999940839</v>
       </c>
       <c r="J141" t="n">
-        <v>0.005472747321359098</v>
+        <v>0.005536429464232892</v>
       </c>
     </row>
     <row r="142">
@@ -6205,11 +6205,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>[0.0734882652759552, 0.0694536566734314, 0.06812520325183868, 0.11966289579868317, 0.09015262126922607, 0.07190275192260742, 0.09577812254428864, 0.0751393660902977, 0.0777391791343689, 0.0809759721159935, 0.09400706738233566, 0.10096435993909836, 0.09159895032644272, 0.0858134925365448, 0.0730913057923317, 0.09461351484060287, 0.0816178247332573, 0.07236554473638535, 0.09267964959144592, 0.08971939980983734, 0.07531894743442535, 0.044965244829654694, 0.09851294010877609, 0.07594941556453705, 0.11466462165117264, 0.15098407864570618, 0.09793215245008469, 0.09111753106117249, 0.12769754230976105, 0.09499555081129074, 0.10162069648504257, 0.09437095373868942, 0.10681406408548355, 0.09106853604316711, 0.10712531954050064, 0.07317639887332916, 0.06355173885822296, 0.09263025224208832, 0.08069507777690887, 0.10506856441497803, 0.10580462962388992, 0.08707527816295624, 0.07389423251152039, 0.06693772226572037, 0.041504986584186554, 0.0507672093808651, 0.05663914978504181, 0.0625743567943573, 0.12905757129192352, 0.10307993739843369, 0.06265237182378769, 0.064441978931427, 0.07712162286043167, 0.06934172660112381, 0.07586056739091873, 0.046168405562639236, 0.046244390308856964, 0.04987252503633499, 0.05953696742653847, 0.05309152603149414, 0.05856708437204361, 0.048188719898462296, 0.052237607538700104, 0.07056128233671188, 0.0728083923459053, 0.059650108218193054, 0.07005024701356888, 0.06456650048494339, 0.07536910474300385, 0.07873567938804626, 0.05502529442310333, 0.04964732751250267, 0.03475179895758629, 0.04688296839594841, 0.05125175416469574, 0.07129798084497452, 0.07132706046104431, 0.06953772157430649, 0.06321874260902405, 0.0471808984875679, 0.058509521186351776, 0.10556238144636154, 0.06483448296785355, 0.08192422986030579, 0.07632842659950256, 0.0981346145272255, 0.10473815351724625, 0.09508584439754486, 0.10255348682403564, 0.07802937179803848, 0.11145764589309692, 0.07626832276582718, 0.07686237245798111, 0.07894498854875565, 0.10123686492443085, 0.07775941491127014, 0.09247651696205139, 0.07126671075820923, 0.06809801608324051, 0.10694201290607452, 0.07937277108430862, 0.06152239069342613, 0.09731803089380264, 0.13175331056118011, 0.11898346245288849, 0.12503919005393982, 0.15933619439601898, 0.07177076488733292, 0.10491704195737839, 0.07792432606220245, 0.0778249204158783]</t>
+          <t>[0.04327449947595596, 0.03905680775642395, 0.03298959508538246, 0.11115291714668274, 0.051681261509656906, 0.05327499285340309, 0.1105160042643547, 0.06891664862632751, 0.06356969475746155, 0.07290764153003693, 0.09777021408081055, 0.09690862894058228, 0.05681229382753372, 0.05938892439007759, 0.07052654772996902, 0.08661697059869766, 0.056861791759729385, 0.05760256201028824, 0.09219526499509811, 0.09775596857070923, 0.057461127638816833, 0.030443770810961723, 0.06773260980844498, 0.0693003237247467, 0.13207899034023285, 0.2334459275007248, 0.13259823620319366, 0.07143999636173248, 0.10967569053173065, 0.09008698910474777, 0.09157007932662964, 0.07576935738325119, 0.11761277914047241, 0.0808180719614029, 0.12440230697393417, 0.06219593808054924, 0.054477617144584656, 0.09328018873929977, 0.0627301037311554, 0.07432395219802856, 0.08080369234085083, 0.08775993436574936, 0.07189123332500458, 0.042152322828769684, 0.02821735292673111, 0.02989334985613823, 0.035227783024311066, 0.038956377655267715, 0.12737172842025757, 0.08025334030389786, 0.04922362416982651, 0.039744164794683456, 0.06162404268980026, 0.05629780516028404, 0.06099115312099457, 0.04315080866217613, 0.04016013815999031, 0.044114042073488235, 0.0522572323679924, 0.03615767881274223, 0.04812108725309372, 0.040892478078603745, 0.05116192623972893, 0.06544064730405807, 0.07161722332239151, 0.060050949454307556, 0.0506150983273983, 0.04781952127814293, 0.04637190327048302, 0.059180669486522675, 0.035008084028959274, 0.027934400364756584, 0.022173544391989708, 0.04080268740653992, 0.04145687073469162, 0.06597032397985458, 0.06286861002445221, 0.062100403010845184, 0.06421034783124924, 0.03747827559709549, 0.06447062641382217, 0.11008716374635696, 0.06475455313920975, 0.06923522055149078, 0.08523385226726532, 0.10038354247808456, 0.10153014957904816, 0.09135358035564423, 0.10388027131557465, 0.05893574655056, 0.09042663127183914, 0.05457942932844162, 0.06732062250375748, 0.07742249220609665, 0.11602441966533661, 0.09547943621873856, 0.10276034474372864, 0.05822305381298065, 0.04385354369878769, 0.07847791910171509, 0.04411838948726654, 0.03575516119599342, 0.07125340402126312, 0.1191008985042572, 0.15297777950763702, 0.1315319538116455, 0.22956669330596924, 0.052911631762981415, 0.11955727636814117, 0.05634569376707077, 0.05623853579163551]</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.159336194396019</v>
+        <v>0.2334459275007248</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
@@ -6223,10 +6223,10 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0.6063554000284057</v>
+        <v>0.6073857999872416</v>
       </c>
       <c r="J142" t="n">
-        <v>0.005462661261517169</v>
+        <v>0.005471944144029204</v>
       </c>
     </row>
     <row r="143">
@@ -6245,11 +6245,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>[0.10236522555351257, 0.07878279685974121, 0.14873932301998138, 0.10004386305809021, 0.09706168621778488, 0.07492166757583618, 0.04448234662413597, 0.06256361305713654, 0.10160591453313828, 0.06571470201015472, 0.06765834987163544, 0.0673682689666748, 0.4473922848701477, 0.8870120048522949, 0.7823119759559631, 0.8241909146308899, 0.6499131321907043, 0.947047233581543, 0.3087003529071808, 0.4546253979206085, 0.4989440143108368, 0.5570640563964844, 0.4010416269302368, 0.6654611825942993, 0.9924942255020142, 0.9883497953414917, 0.9933880567550659, 0.9956811666488647, 0.9224176406860352, 0.9784103035926819, 0.3646391034126282, 0.3682219684123993, 0.2028706967830658, 0.9967395663261414, 0.8354313373565674, 0.991287887096405, 0.9876933693885803, 0.9949461817741394, 0.9753658771514893, 0.2532220780849457, 0.10470016300678253, 0.11908639967441559, 0.27899956703186035, 0.13636939227581024, 0.05995912849903107, 0.07289104163646698, 0.10082963109016418, 0.11623740941286087, 0.13156937062740326, 0.14871925115585327, 0.14228907227516174, 0.09764400124549866, 0.07107663154602051, 0.10951736569404602, 0.9601817727088928, 0.14043276011943817, 0.9370805025100708, 0.26003289222717285, 0.4636984169483185, 0.9750972986221313, 0.9467719793319702, 0.7912610173225403, 0.9398876428604126, 0.8198135495185852, 0.8958306312561035, 0.9400278925895691, 0.6235226392745972, 0.8645131587982178, 0.7705925703048706, 0.7309255599975586, 0.1753341406583786, 0.5326838493347168, 0.8916617035865784, 0.11600740253925323, 0.07123133540153503, 0.2099931240081787, 0.10352758318185806, 0.08081178367137909, 0.07245402783155441, 0.08331617712974548, 0.10010022670030594, 0.1580454409122467, 0.0765116959810257, 0.07402496039867401, 0.4463382661342621, 0.8182493448257446, 0.11563872545957565, 0.495648056268692, 0.06388425827026367, 0.10613995045423508, 0.05504634976387024, 0.06680172681808472, 0.6607584953308105, 0.13370347023010254, 0.9328027367591858, 0.11613201349973679, 0.14343111217021942, 0.09837102890014648, 0.06933452188968658, 0.1080598309636116, 0.0857805609703064, 0.10099900513887405, 0.09884463995695114, 0.12977580726146698, 0.9674815535545349, 0.2066473811864853, 0.1476600170135498, 0.20272816717624664, 0.1392776072025299, 0.08716706931591034, 0.08696509897708893]</t>
+          <t>[0.05381688103079796, 0.049249593168497086, 0.07918300479650497, 0.0808134526014328, 0.12597568333148956, 0.062477800995111465, 0.030720936134457588, 0.0530419796705246, 0.10991118848323822, 0.06082860007882118, 0.0417959988117218, 0.038396984338760376, 0.6504421234130859, 0.9886096715927124, 0.8806245923042297, 0.9416457414627075, 0.8927283883094788, 0.985383927822113, 0.6796467900276184, 0.8237959742546082, 0.7226921916007996, 0.531760573387146, 0.5994507670402527, 0.8551990389823914, 0.9981220364570618, 0.9945064187049866, 0.9958544969558716, 0.9989833235740662, 0.9774371385574341, 0.9891101121902466, 0.7174052000045776, 0.6507590413093567, 0.335073322057724, 0.9983443021774292, 0.9695113897323608, 0.9968543648719788, 0.9944286346435547, 0.9966123700141907, 0.9832451343536377, 0.45316165685653687, 0.09462594240903854, 0.17826904356479645, 0.7201479077339172, 0.19333939254283905, 0.05330431088805199, 0.0801745355129242, 0.09730848670005798, 0.1258583813905716, 0.15344588458538055, 0.1522836983203888, 0.18248972296714783, 0.09625176340341568, 0.03786206617951393, 0.20225977897644043, 0.9846621751785278, 0.2923966646194458, 0.969150960445404, 0.534256637096405, 0.8252455592155457, 0.9931824803352356, 0.9889026284217834, 0.9715889692306519, 0.9877017140388489, 0.9636403918266296, 0.9519771933555603, 0.9763295650482178, 0.8537618517875671, 0.9408532381057739, 0.9640766382217407, 0.9723549485206604, 0.4435640871524811, 0.910702109336853, 0.9944854378700256, 0.2961178421974182, 0.07062035799026489, 0.43313267827033997, 0.13049691915512085, 0.12821821868419647, 0.08881425112485886, 0.1264379620552063, 0.1136627197265625, 0.17140792310237885, 0.06030458211898804, 0.06046003848314285, 0.9183538556098938, 0.9710076451301575, 0.18534311652183533, 0.9011611342430115, 0.09982180595397949, 0.2080795168876648, 0.044393327087163925, 0.054349128156900406, 0.8602188229560852, 0.25898313522338867, 0.9847761392593384, 0.12483542412519455, 0.19218508899211884, 0.12573301792144775, 0.0541333332657814, 0.0918717086315155, 0.0699077770113945, 0.06204839050769806, 0.10185426473617554, 0.13005007803440094, 0.9856299757957458, 0.3131294548511505, 0.16754022240638733, 0.6061455011367798, 0.41401517391204834, 0.11993914842605591, 0.11953184753656387]</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.9967395663261414</v>
+        <v>0.9989833235740662</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
@@ -6263,10 +6263,10 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0.6124680999782868</v>
+        <v>0.6163139999989653</v>
       </c>
       <c r="J143" t="n">
-        <v>0.005517730630435016</v>
+        <v>0.005552378378369057</v>
       </c>
     </row>
     <row r="144">
@@ -6285,11 +6285,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>[0.9964349269866943, 0.9850446581840515, 0.42552250623703003, 0.9001572132110596, 0.9818873405456543, 0.9968794584274292, 0.9388415217399597, 0.7119035720825195, 0.6938190460205078, 0.5550123453140259, 0.976885199546814, 0.994080126285553, 0.5177429914474487, 0.556908369064331, 0.696945071220398, 0.24716851115226746, 0.5563137531280518, 0.9118470549583435, 0.43027621507644653, 0.8222879767417908, 0.4938417375087738, 0.3133624196052551, 0.5429601669311523, 0.5280935764312744, 0.3657936155796051, 0.6188315153121948, 0.31473931670188904, 0.7206544280052185, 0.220297172665596, 0.34667354822158813, 0.6725494861602783, 0.6045464873313904, 0.6016117334365845, 0.16137836873531342, 0.14125466346740723, 0.3502877950668335, 0.5571262240409851, 0.4436348080635071, 0.09041139483451843, 0.07920379936695099, 0.08096462488174438, 0.11669206619262695, 0.37649670243263245, 0.10501860827207565, 0.09307651966810226, 0.06695114076137543, 0.10980039834976196, 0.08712185174226761, 0.1867825835943222, 0.11979147791862488, 0.1246332973241806, 0.0906815230846405, 0.07722300291061401, 0.07569784671068192, 0.11185882240533829, 0.09182396531105042, 0.12084461003541946, 0.09638582170009613, 0.09688365459442139, 0.2183302491903305, 0.13596881926059723, 0.547389030456543, 0.09497750550508499, 0.09849462658166885, 0.4636259973049164, 0.3466669023036957, 0.12628650665283203, 0.15658293664455414, 0.7792222499847412, 0.5793137550354004, 0.33114510774612427, 0.09442855417728424, 0.6203452944755554, 0.924117386341095, 0.9684858322143555, 0.9506380558013916, 0.5772057771682739, 0.5071101188659668, 0.7134726047515869, 0.5653513669967651, 0.766368567943573, 0.9704801440238953, 0.9055616855621338, 0.7648377418518066, 0.3459237217903137, 0.5482474565505981, 0.9698036909103394, 0.9898882508277893, 0.8829001188278198, 0.5258924961090088, 0.6089811325073242, 0.1688920557498932, 0.4024163782596588, 0.8212986588478088, 0.8315106630325317, 0.9007167816162109, 0.2538738250732422, 0.39646339416503906, 0.6727402210235596, 0.6022485494613647, 0.7446725964546204, 0.7073847055435181, 0.40121716260910034, 0.6325286030769348, 0.08505947142839432, 0.053367286920547485, 0.1143985167145729, 0.32696911692619324, 0.0811242014169693, 0.7968616485595703, 0.7941100001335144]</t>
+          <t>[0.9963845014572144, 0.9937431216239929, 0.6801885366439819, 0.9632143974304199, 0.9899747967720032, 0.9976316690444946, 0.9511700868606567, 0.9059064984321594, 0.9373366236686707, 0.7053396105766296, 0.9963051080703735, 0.9966796636581421, 0.8263794183731079, 0.8539292216300964, 0.8771156668663025, 0.5475061535835266, 0.872267484664917, 0.9857745170593262, 0.6806129813194275, 0.9480953216552734, 0.8316773772239685, 0.7891422510147095, 0.9044983386993408, 0.83148592710495, 0.7432419657707214, 0.8683733344078064, 0.6440003514289856, 0.904898464679718, 0.5091530084609985, 0.6633315086364746, 0.8110447525978088, 0.7835028767585754, 0.8690714836120605, 0.2975597381591797, 0.24881702661514282, 0.678151547908783, 0.7558718323707581, 0.7581124901771545, 0.21929167211055756, 0.13960015773773193, 0.12429793924093246, 0.25271743535995483, 0.7020502686500549, 0.18054291605949402, 0.25686967372894287, 0.142340287566185, 0.29124176502227783, 0.1479775458574295, 0.24517929553985596, 0.16069090366363525, 0.1442481428384781, 0.11179251223802567, 0.10464612394571304, 0.1153811663389206, 0.1993250846862793, 0.16223599016666412, 0.26837655901908875, 0.188825786113739, 0.27962934970855713, 0.4498217701911926, 0.3097187876701355, 0.7649639844894409, 0.13699868321418762, 0.3370940685272217, 0.7274136543273926, 0.4808879792690277, 0.14820152521133423, 0.2757735848426819, 0.9447404146194458, 0.8521133661270142, 0.6887974739074707, 0.16467225551605225, 0.9094874262809753, 0.9819091558456421, 0.993104875087738, 0.9917703866958618, 0.8750495910644531, 0.7261962294578552, 0.8827436566352844, 0.7991021275520325, 0.9135140776634216, 0.9931535720825195, 0.963754415512085, 0.9475840330123901, 0.7845107316970825, 0.9042410254478455, 0.9920028448104858, 0.9970502853393555, 0.9721152186393738, 0.7843500971794128, 0.7872260212898254, 0.3334643244743347, 0.6943851709365845, 0.9477577805519104, 0.9665504097938538, 0.97868812084198, 0.46633967757225037, 0.6062780022621155, 0.8772611618041992, 0.8953062891960144, 0.9628722071647644, 0.8983248472213745, 0.7585798501968384, 0.8432607054710388, 0.20057393610477448, 0.08675125986337662, 0.2692806124687195, 0.5795741677284241, 0.1111021637916565, 0.9444416165351868, 0.9435917735099792]</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.9968794584274292</v>
+        <v>0.9976316690444946</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
@@ -6303,10 +6303,10 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0.624762700026622</v>
+        <v>0.6295446000003722</v>
       </c>
       <c r="J144" t="n">
-        <v>0.005628492793032631</v>
+        <v>0.005671572972976326</v>
       </c>
     </row>
     <row r="145">
@@ -6325,11 +6325,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>[0.0669960156083107, 0.05924401804804802, 0.07562526315450668, 0.09570185840129852, 0.05365239456295967, 0.07016617804765701, 0.09727709740400314, 0.10450039058923721, 0.28699997067451477, 0.08852965384721756, 0.23303356766700745, 0.2307930439710617, 0.16202476620674133, 0.17796951532363892, 0.16110585629940033, 0.13379231095314026, 0.07119618356227875, 0.1230047419667244, 0.17052944004535675, 0.16530397534370422, 0.11893489956855774, 0.09771281480789185, 0.1269160360097885, 0.8121387362480164, 0.15574730932712555, 0.18174198269844055, 0.1319551318883896, 0.10790833085775375, 0.07489001005887985, 0.05705126002430916, 0.10287143290042877, 0.06533876061439514, 0.07980021089315414, 0.08408268541097641, 0.09326234459877014, 0.11353398859500885, 0.17947272956371307, 0.06411173939704895, 0.0724204033613205, 0.06373010575771332, 0.08133486658334732, 0.07584470510482788, 0.060392770916223526, 0.12160486727952957, 0.08858073502779007, 0.08542997390031815, 0.07113977521657944, 0.07132504135370255, 0.08527414500713348, 0.12700238823890686, 0.25380945205688477, 0.10422559082508087, 0.22369350492954254, 0.18585413694381714, 0.08562128245830536, 0.10032255947589874, 0.11927706748247147, 0.1747666448354721, 0.2560034990310669, 0.08896780014038086, 0.21796056628227234, 0.10120788216590881, 0.12311889976263046, 0.11190485209226608, 0.08072909712791443, 0.07273487001657486, 0.08405725657939911, 0.10821150243282318, 0.1686021387577057, 0.14229042828083038, 0.364217072725296, 0.07793323695659637, 0.10265941917896271, 0.1294315755367279, 0.1350976675748825, 0.06787056475877762, 0.08860686421394348, 0.07725197076797485, 0.09487075358629227, 0.06130341812968254, 0.08318659663200378, 0.48117750883102417, 0.3443034291267395, 0.20487080514431, 0.14733374118804932, 0.07281984388828278, 0.15467801690101624, 0.23863385617733002, 0.19558598101139069, 0.21342697739601135, 0.25475364923477173, 0.15107057988643646, 0.07825951278209686, 0.11912251263856888, 0.1377038061618805, 0.1585393249988556, 0.23610985279083252, 0.09986798465251923, 0.22636745870113373, 0.6824924349784851, 0.8064836263656616, 0.30383387207984924, 0.24727842211723328, 0.5269818305969238, 0.35117512941360474, 0.21695607900619507, 0.15924996137619019, 0.08983010798692703, 0.1195148453116417, 0.19529370963573456, 0.11072363704442978, 0.5527693033218384, 0.09627482295036316, 0.1546565443277359, 0.16907356679439545, 0.24246351420879364, 0.13548867404460907, 0.35956820845603943, 0.9135038256645203, 0.8558955788612366, 0.5488073825836182, 0.2092408984899521, 0.20661437511444092, 0.32902586460113525, 0.12370516359806061, 0.14447349309921265, 0.11685046553611755, 0.15314249694347382, 0.13921241462230682, 0.14544332027435303, 0.1457768678665161]</t>
+          <t>[0.05369121953845024, 0.04926687479019165, 0.07082891464233398, 0.19928069412708282, 0.03979416564106941, 0.03725399821996689, 0.12305247038602829, 0.22233395278453827, 0.6513875126838684, 0.1127394512295723, 0.6345594525337219, 0.5561658143997192, 0.2778562903404236, 0.5706683397293091, 0.5662921071052551, 0.17429636418819427, 0.07499537616968155, 0.2639627456665039, 0.564098596572876, 0.47033461928367615, 0.12577909231185913, 0.1081242635846138, 0.23879140615463257, 0.9457541108131409, 0.24499274790287018, 0.34204673767089844, 0.30549734830856323, 0.1398075371980667, 0.06714341044425964, 0.0317775160074234, 0.08570221066474915, 0.04401874169707298, 0.0540926568210125, 0.13453440368175507, 0.07476753741502762, 0.0738813728094101, 0.41788357496261597, 0.06786344200372696, 0.06521641463041306, 0.034683700650930405, 0.041333455592393875, 0.042565956711769104, 0.033904001116752625, 0.22446571290493011, 0.07816851884126663, 0.09162517637014389, 0.09002833813428879, 0.08590011298656464, 0.08621560037136078, 0.1529746800661087, 0.5275964736938477, 0.1464988738298416, 0.470136821269989, 0.3496367633342743, 0.06269272416830063, 0.19219838082790375, 0.19478052854537964, 0.3057587444782257, 0.40489494800567627, 0.07167258858680725, 0.4611644148826599, 0.148935467004776, 0.10192997753620148, 0.1055341511964798, 0.05952739343047142, 0.038475215435028076, 0.059560056775808334, 0.11288246512413025, 0.2697792053222656, 0.2506706416606903, 0.6486350893974304, 0.07093070447444916, 0.14026077091693878, 0.18162265419960022, 0.20548991858959198, 0.05746058374643326, 0.07905475050210953, 0.09905721992254257, 0.10420271754264832, 0.06890667229890823, 0.1429840326309204, 0.8743988871574402, 0.6385383009910583, 0.5037880539894104, 0.2664719820022583, 0.10614821314811707, 0.2702569365501404, 0.6407228112220764, 0.48850148916244507, 0.3311561346054077, 0.5338789820671082, 0.3164876699447632, 0.059145644307136536, 0.20158648490905762, 0.3409453332424164, 0.4339280128479004, 0.3490338623523712, 0.10665194690227509, 0.4248652458190918, 0.9110534191131592, 0.9433791041374207, 0.5521387457847595, 0.22162999212741852, 0.8246710300445557, 0.6728013753890991, 0.37175866961479187, 0.3425704836845398, 0.16600103676319122, 0.22509299218654633, 0.6429030299186707, 0.29181984066963196, 0.8491909503936768, 0.11574385315179825, 0.6493220329284668, 0.2783908247947693, 0.31641054153442383, 0.11934305727481842, 0.3172333836555481, 0.9221880435943604, 0.8072585463523865, 0.6334280967712402, 0.17581161856651306, 0.27441370487213135, 0.5108034610748291, 0.08261533081531525, 0.11399567127227783, 0.10006707906723022, 0.1092846691608429, 0.08345840871334076, 0.10493272542953491, 0.10494177043437958]</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.9135038256645203</v>
+        <v>0.9457541108131409</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0.7411060000013094</v>
+        <v>0.7721657000074629</v>
       </c>
       <c r="J145" t="n">
-        <v>0.00565729770993366</v>
+        <v>0.005894394656545518</v>
       </c>
     </row>
     <row r="146">
@@ -6365,11 +6365,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>[0.4181388318538666, 0.4841020405292511, 0.5984798073768616, 0.39300277829170227, 0.4518052637577057, 0.5089912414550781, 0.41248252987861633, 0.49708685278892517, 0.2832939922809601, 0.2934560775756836, 0.35204175114631653, 0.3358416259288788, 0.23482750356197357, 0.34129512310028076, 0.3359213173389435, 0.2512698769569397, 0.23805846273899078, 0.24225717782974243, 0.2000652551651001, 0.3994702994823456, 0.31398805975914, 0.4862699508666992, 0.5389326810836792, 0.4470385015010834, 0.6893953084945679, 0.5732863545417786, 0.5618064403533936, 0.6212437152862549, 0.5481409430503845, 0.3702262043952942, 0.5714121460914612, 0.524859607219696, 0.6991914510726929, 0.7698867917060852, 0.8844543099403381, 0.9128652215003967, 0.9451618194580078, 0.8925768733024597, 0.7299849390983582, 0.6891229748725891, 0.5531827211380005, 0.5978856086730957, 0.7896859645843506, 0.794197678565979, 0.4163318872451782, 0.4190099835395813, 0.5763300061225891, 0.40805158019065857, 0.6413251161575317, 0.5591593980789185, 0.7058055996894836, 0.487567275762558, 0.6276925206184387, 0.36715465784072876, 0.48742932081222534, 0.2987835705280304, 0.4038429260253906, 0.4944954514503479, 0.3338264524936676, 0.30022993683815, 0.17488916218280792, 0.5884202718734741, 0.25638052821159363, 0.17721059918403625, 0.51736980676651, 0.6463724970817566, 0.6547581553459167, 0.6209719777107239, 0.5721099972724915, 0.40964290499687195, 0.21003852784633636, 0.18417175114154816, 0.293107271194458, 0.5523346066474915, 0.7567471265792847, 0.6185539960861206, 0.46899324655532837, 0.7117482423782349, 0.5180110931396484, 0.538492739200592, 0.5037538409233093, 0.4297510087490082, 0.5110129117965698, 0.2505975067615509, 0.5728120803833008, 0.7780371308326721, 0.5988194942474365, 0.3897007405757904, 0.5827803611755371, 0.8779668211936951, 0.6960575580596924, 0.6468846201896667, 0.6097896695137024, 0.5775086879730225, 0.4967759847640991, 0.5150241255760193, 0.6610485315322876, 0.7369405031204224, 0.5632773637771606, 0.5952721834182739, 0.45898184180259705, 0.4533271789550781, 0.7137414813041687, 0.6584284901618958, 0.7266472578048706, 0.8855459094047546, 0.80867600440979, 0.6939191222190857, 0.5023413300514221, 0.8619571328163147, 0.6477903127670288, 0.6759083271026611, 0.6212695837020874, 0.7229399681091309, 0.6454626321792603, 0.421043336391449, 0.4102398157119751, 0.8084951639175415, 0.6468797326087952, 0.6625916957855225, 0.3664488196372986, 0.2897173762321472, 0.37536412477493286, 0.7202185392379761, 0.41183269023895264, 0.582902193069458, 0.3868767321109772, 0.39254939556121826, 0.6099405884742737, 0.6185576319694519, 0.6182364821434021]</t>
+          <t>[0.6193224787712097, 0.680385172367096, 0.8459470272064209, 0.6491888761520386, 0.6143231391906738, 0.6612713932991028, 0.4673997461795807, 0.642772376537323, 0.34068575501441956, 0.29001584649086, 0.40331801772117615, 0.46392694115638733, 0.23271909356117249, 0.4547494649887085, 0.4844116270542145, 0.30645835399627686, 0.2116190493106842, 0.18479450047016144, 0.18781962990760803, 0.4223821759223938, 0.23236183822155, 0.5339416861534119, 0.5452324151992798, 0.4536071717739105, 0.7059771418571472, 0.6761136651039124, 0.6389049291610718, 0.7247384786605835, 0.6549751162528992, 0.32472696900367737, 0.5892112255096436, 0.48326972126960754, 0.8445623517036438, 0.845885694026947, 0.9409632086753845, 0.9564433693885803, 0.9597094058990479, 0.9167904853820801, 0.80922532081604, 0.7797784805297852, 0.6276261210441589, 0.5843074321746826, 0.795083224773407, 0.8020433187484741, 0.3968663215637207, 0.36107900738716125, 0.674821674823761, 0.4778707027435303, 0.8044154047966003, 0.6216321587562561, 0.7857204675674438, 0.5250803828239441, 0.6286454200744629, 0.3626839220523834, 0.3684704303741455, 0.2610560357570648, 0.32938918471336365, 0.485771507024765, 0.21835246682167053, 0.3049492835998535, 0.09513694792985916, 0.47872185707092285, 0.244348406791687, 0.1615985929965973, 0.42527496814727783, 0.5726169347763062, 0.6029780507087708, 0.5708249807357788, 0.5982879996299744, 0.42726045846939087, 0.151985764503479, 0.12704823911190033, 0.17760474979877472, 0.44848838448524475, 0.7987674474716187, 0.6719513535499573, 0.3776286840438843, 0.719330370426178, 0.447138249874115, 0.6291943788528442, 0.5082322955131531, 0.5000767707824707, 0.583698034286499, 0.2510240077972412, 0.5520907640457153, 0.7891141176223755, 0.7301044464111328, 0.4663476347923279, 0.6252254247665405, 0.8978533744812012, 0.8066830039024353, 0.601887583732605, 0.5454050898551941, 0.521959662437439, 0.5293077826499939, 0.34363803267478943, 0.651125431060791, 0.8034646511077881, 0.5930338501930237, 0.6998845338821411, 0.4276178479194641, 0.44894739985466003, 0.7462578415870667, 0.6666486263275146, 0.7163039445877075, 0.8017727732658386, 0.6651172041893005, 0.6881604194641113, 0.41009053587913513, 0.7893421053886414, 0.6049758791923523, 0.6760118007659912, 0.6125823259353638, 0.7549013495445251, 0.6593025326728821, 0.515238881111145, 0.45637261867523193, 0.8036461472511292, 0.7282481789588928, 0.5560439229011536, 0.3214394152164459, 0.26506897807121277, 0.2929850220680237, 0.5865435600280762, 0.34678635001182556, 0.6282861828804016, 0.38738641142845154, 0.413776159286499, 0.49876463413238525, 0.5854204297065735, 0.5847890973091125]</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.9451618194580078</v>
+        <v>0.9597094058990479</v>
       </c>
       <c r="F146" t="n">
         <v>1</v>
@@ -6383,10 +6383,10 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0.7411267999850679</v>
+        <v>0.7527782999968622</v>
       </c>
       <c r="J146" t="n">
-        <v>0.005657456488435633</v>
+        <v>0.005746399236617268</v>
       </c>
     </row>
     <row r="147">
@@ -6405,11 +6405,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[0.945091962814331, 0.9047837257385254, 0.8831367492675781, 0.850715696811676, 0.6640670895576477, 0.9397838115692139, 0.9408118724822998, 0.8532999753952026, 0.5931223034858704, 0.5550784468650818, 0.6778104305267334, 0.39151012897491455, 0.8615776896476746, 0.8839095234870911, 0.915867269039154, 0.905576229095459, 0.9388396143913269, 0.7593926191329956, 0.9534213542938232, 0.9680363535881042, 0.9636374711990356, 0.994390070438385, 0.5144404768943787, 0.8910846710205078, 0.9466081857681274, 0.996802568435669, 0.9836848974227905, 0.9744861721992493, 0.7311932444572449, 0.36822381615638733, 0.28810515999794006, 0.652205765247345, 0.5922794342041016, 0.2993922531604767, 0.5117003321647644, 0.887523353099823, 0.9722476601600647, 0.6897987127304077, 0.4960532486438751, 0.7838217616081238, 0.9649646878242493, 0.9567689895629883, 0.9560143351554871, 0.8849745392799377, 0.4523407220840454, 0.6809934377670288, 0.4131968915462494, 0.8691550493240356, 0.8520376682281494, 0.5608394742012024, 0.7406296730041504, 0.4453394114971161, 0.4373408854007721, 0.6117911338806152, 0.7160685062408447, 0.7414091229438782, 0.5990992784500122, 0.595441997051239, 0.5259283781051636, 0.9177101850509644, 0.9842934012413025, 0.9802804589271545, 0.995196521282196, 0.9952457547187805, 0.9808056354522705, 0.4062451422214508, 0.7256057858467102, 0.8458072543144226, 0.8840586543083191, 0.7161217927932739, 0.5239287614822388, 0.7403088808059692, 0.9527422785758972, 0.9954783320426941, 0.9957101345062256, 0.9619885087013245, 0.5276426076889038, 0.5586604475975037, 0.7068419456481934, 0.7963681817054749, 0.7731788754463196, 0.9714672565460205, 0.825082004070282, 0.7055122256278992, 0.41979071497917175, 0.37675032019615173, 0.5438404679298401, 0.39715811610221863, 0.39210206270217896, 0.3331536054611206, 0.3476516604423523, 0.16597089171409607, 0.1887427419424057, 0.35555464029312134, 0.8201863169670105, 0.8594212532043457, 0.8798721432685852, 0.979850172996521, 0.9941408038139343, 0.965280294418335, 0.9863314628601074, 0.9957318902015686, 0.9966532588005066, 0.9927238821983337, 0.8132938742637634, 0.21389718353748322, 0.26673978567123413, 0.17087966203689575, 0.2742435932159424, 0.5136842727661133, 0.4223681688308716, 0.18483994901180267, 0.25866439938545227, 0.3924090266227722, 0.2617851197719574, 0.2954014539718628, 0.2452654391527176, 0.6204580068588257, 0.4465930163860321, 0.29746484756469727, 0.17179091274738312, 0.20589786767959595, 0.15037035942077637, 0.20016346871852875, 0.28715279698371887, 0.14717331528663635, 0.13257914781570435, 0.17114612460136414, 0.13942714035511017, 0.15269950032234192, 0.21617914736270905, 0.2156422883272171]</t>
+          <t>[0.9181137681007385, 0.90291428565979, 0.9192357659339905, 0.8685164451599121, 0.6334151029586792, 0.942592442035675, 0.9420799612998962, 0.8204902410507202, 0.6749222874641418, 0.6581963896751404, 0.7081707119941711, 0.5461993217468262, 0.946725070476532, 0.9601161479949951, 0.9488512873649597, 0.9451581835746765, 0.980743944644928, 0.8464815020561218, 0.9703576564788818, 0.9734008312225342, 0.9660038948059082, 0.9955529570579529, 0.6237369179725647, 0.8926817178726196, 0.9719347953796387, 0.9980206489562988, 0.986764132976532, 0.9682868719100952, 0.8455904126167297, 0.3208887577056885, 0.19859839975833893, 0.740498960018158, 0.5439341068267822, 0.1879643052816391, 0.44940561056137085, 0.9169321656227112, 0.9849087595939636, 0.8714582324028015, 0.5887835621833801, 0.8483743667602539, 0.969267725944519, 0.9426982402801514, 0.9640191197395325, 0.8825516700744629, 0.5042009353637695, 0.740086019039154, 0.4539952278137207, 0.9175175428390503, 0.8789161443710327, 0.6761980652809143, 0.7650961875915527, 0.5009475946426392, 0.4193032383918762, 0.7085054516792297, 0.851970911026001, 0.8578415513038635, 0.6494321227073669, 0.5352166891098022, 0.526125431060791, 0.9188178777694702, 0.9848799705505371, 0.9739116430282593, 0.9961827397346497, 0.9967032074928284, 0.9836002588272095, 0.4543007016181946, 0.7435720562934875, 0.8460094332695007, 0.8915218114852905, 0.7071051597595215, 0.5232875943183899, 0.7456712126731873, 0.9357503652572632, 0.9961956739425659, 0.9953179359436035, 0.9531109929084778, 0.592582106590271, 0.6863345503807068, 0.8607103824615479, 0.9111419916152954, 0.9032044410705566, 0.9871494174003601, 0.9247727394104004, 0.8297065496444702, 0.40495944023132324, 0.4793090522289276, 0.6058335900306702, 0.4877055585384369, 0.2761805057525635, 0.19166913628578186, 0.371837854385376, 0.1435783952474594, 0.2575458586215973, 0.34498268365859985, 0.8928713798522949, 0.8939570784568787, 0.9127532839775085, 0.9834660291671753, 0.9945821166038513, 0.960252046585083, 0.9894918203353882, 0.9973600506782532, 0.9981525540351868, 0.9968632459640503, 0.9076384902000427, 0.1403130143880844, 0.1677621454000473, 0.08263959735631943, 0.2347678691148758, 0.5477860569953918, 0.47741591930389404, 0.11720547080039978, 0.1939081996679306, 0.3890661895275116, 0.2584654688835144, 0.22367890179157257, 0.17273549735546112, 0.7464559078216553, 0.6395213603973389, 0.21924181282520294, 0.10462075471878052, 0.13340497016906738, 0.1519714593887329, 0.12711985409259796, 0.15620897710323334, 0.10117840021848679, 0.1191602498292923, 0.19091257452964783, 0.06862512230873108, 0.06699240952730179, 0.09452036023139954, 0.09460663050413132]</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.9968025684356689</v>
+        <v>0.9981525540351868</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
@@ -6423,10 +6423,10 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0.746786500007147</v>
+        <v>0.7520231999951648</v>
       </c>
       <c r="J147" t="n">
-        <v>0.005657473484902628</v>
+        <v>0.005697145454508824</v>
       </c>
     </row>
     <row r="148">
@@ -6445,11 +6445,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[0.13680483400821686, 0.10528162121772766, 0.13260185718536377, 0.15009434521198273, 0.10672963410615921, 0.13861271739006042, 0.1168673038482666, 0.08610230684280396, 0.07749202847480774, 0.10398460924625397, 0.11837098747491837, 0.08359777182340622, 0.10920172184705734, 0.15822651982307434, 0.14061832427978516, 0.24075078964233398, 0.23935943841934204, 0.2774679362773895, 0.19220280647277832, 0.158659890294075, 0.11498244851827621, 0.1554582267999649, 0.1541862040758133, 0.16635902225971222, 0.18225765228271484, 0.18952108919620514, 0.29370346665382385, 0.12227147817611694, 0.15514381229877472, 0.21996502578258514, 0.26560917496681213, 0.22505219280719757, 0.19248007237911224, 0.11071725189685822, 0.14706489443778992, 0.1835179179906845, 0.16690096259117126, 0.19736997783184052, 0.15145301818847656, 0.19420795142650604, 0.13236702978610992, 0.1281737983226776, 0.19443942606449127, 0.15463581681251526, 0.2010677009820938, 0.27802491188049316, 0.21412599086761475, 0.20619577169418335, 0.16946637630462646, 0.13643445074558258, 0.11657021939754486, 0.10602837055921555, 0.12290045619010925, 0.28556856513023376, 0.40951430797576904, 0.32014742493629456, 0.23737190663814545, 0.1225493848323822, 0.163650780916214, 0.1626082956790924, 0.16001586616039276, 0.10215993970632553, 0.08666500449180603, 0.1761859655380249, 0.21390366554260254, 0.2287563979625702, 0.19474640488624573, 0.19735050201416016, 0.15922114253044128, 0.1336762011051178, 0.11148732155561447, 0.1709197461605072, 0.1469815969467163, 0.21421656012535095, 0.15212060511112213, 0.1456398218870163, 0.11669791489839554, 0.3404606282711029, 0.29239150881767273, 0.30262258648872375, 0.42019122838974, 0.2850138247013092, 0.4047423005104065, 0.18812961876392365, 0.5140321850776672, 0.2490559220314026, 0.2784848213195801, 0.4899817109107971, 0.18256855010986328, 0.1294584721326828, 0.18901269137859344, 0.2858548164367676, 0.2578198313713074, 0.1378859579563141, 0.18980717658996582, 0.14277341961860657, 0.13370752334594727, 0.21254462003707886, 0.1510055512189865, 0.13992008566856384, 0.1375073492527008, 0.1194319874048233, 0.20813028514385223, 0.16810519993305206, 0.13129685819149017, 0.09704083204269409, 0.14663627743721008, 0.1946396678686142, 0.12402836233377457, 0.09896570444107056, 0.10682951658964157, 0.11661890149116516, 0.20419731736183167, 0.1981186419725418, 0.19451476633548737, 0.17997734248638153, 0.13850337266921997, 0.1083919107913971, 0.1475936323404312, 0.10911010950803757, 0.1768174171447754, 0.20389220118522644, 0.2735443413257599, 0.1440887153148651, 0.137314110994339, 0.18969784677028656, 0.1579531878232956, 0.16025730967521667, 0.3353836238384247, 0.2116415798664093, 0.13478116691112518, 0.13400742411613464]</t>
+          <t>[0.1004883199930191, 0.09040389955043793, 0.08070981502532959, 0.08890462666749954, 0.038269538432359695, 0.06619177013635635, 0.06256190687417984, 0.03756064176559448, 0.037102166563272476, 0.05715613439679146, 0.058440640568733215, 0.049208126962184906, 0.053004827350378036, 0.10560180991888046, 0.11207231879234314, 0.30843549966812134, 0.37924015522003174, 0.2458045333623886, 0.17393621802330017, 0.11869895458221436, 0.08352495729923248, 0.12626846134662628, 0.10231319814920425, 0.12972590327262878, 0.16686075925827026, 0.1994231641292572, 0.4672204554080963, 0.1093350201845169, 0.17562545835971832, 0.3407048285007477, 0.37963229417800903, 0.28185588121414185, 0.27474838495254517, 0.09113268554210663, 0.13543900847434998, 0.21938499808311462, 0.18537530303001404, 0.19847320020198822, 0.16907280683517456, 0.23468990623950958, 0.13100293278694153, 0.09846290200948715, 0.13204744458198547, 0.1333416998386383, 0.20359058678150177, 0.3217988610267639, 0.22102946043014526, 0.164057195186615, 0.1918724924325943, 0.11132229119539261, 0.09011578559875488, 0.11258970201015472, 0.11580560356378555, 0.34207868576049805, 0.5431825518608093, 0.4831951856613159, 0.26774469017982483, 0.09476194530725479, 0.16133470833301544, 0.1387261152267456, 0.14666539430618286, 0.06832630187273026, 0.04655875638127327, 0.15320579707622528, 0.24807721376419067, 0.22250446677207947, 0.1746991127729416, 0.16195006668567657, 0.12647120654582977, 0.08661098033189774, 0.0875927284359932, 0.16044189035892487, 0.15511198341846466, 0.28486666083335876, 0.1117624044418335, 0.11697618663311005, 0.10582970827817917, 0.3683842122554779, 0.3143557012081146, 0.38192057609558105, 0.4899200201034546, 0.28732267022132874, 0.4211435914039612, 0.22415904700756073, 0.5134652853012085, 0.20967864990234375, 0.24468055367469788, 0.38368621468544006, 0.13450616598129272, 0.07810467481613159, 0.1708548218011856, 0.3181709945201874, 0.2875201106071472, 0.08870882540941238, 0.18721051514148712, 0.12153966724872589, 0.10605408996343613, 0.36449289321899414, 0.15930311381816864, 0.12551359832286835, 0.11925153434276581, 0.08185350894927979, 0.16478656232357025, 0.22457456588745117, 0.136794775724411, 0.07340534031391144, 0.1008809357881546, 0.19281350076198578, 0.09564412385225296, 0.06141211465001106, 0.04962828755378723, 0.09586852788925171, 0.28348883986473083, 0.20519502460956573, 0.28874221444129944, 0.19135065376758575, 0.16633780300617218, 0.08735659718513489, 0.13641102612018585, 0.11709187179803848, 0.22299312055110931, 0.31067657470703125, 0.3232525587081909, 0.12458225339651108, 0.11386364698410034, 0.21976600587368011, 0.1824665665626526, 0.20064060389995575, 0.4139103293418884, 0.19346202909946442, 0.1010594516992569, 0.10018644481897354]</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.5140321850776672</v>
+        <v>0.5431825518608093</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
@@ -6463,10 +6463,10 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0.7306822999962606</v>
+        <v>0.7430392999958713</v>
       </c>
       <c r="J148" t="n">
-        <v>0.005535471969668641</v>
+        <v>0.005629085606029328</v>
       </c>
     </row>
     <row r="149">
@@ -6485,11 +6485,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[0.29415008425712585, 0.15281714498996735, 0.12343017011880875, 0.13782326877117157, 0.18516208231449127, 0.06611523032188416, 0.0903019905090332, 0.0776982307434082, 0.18909576535224915, 0.18953368067741394, 0.7872025370597839, 0.24716462194919586, 0.6931856870651245, 0.7961798310279846, 0.4754071831703186, 0.278753399848938, 0.7094687223434448, 0.9880887866020203, 0.6406098008155823, 0.19310633838176727, 0.28626757860183716, 0.2889252305030823, 0.4438309669494629, 0.16156192123889923, 0.5530758500099182, 0.28386420011520386, 0.269356369972229, 0.2947668731212616, 0.12058985233306885, 0.227620929479599, 0.9921770691871643, 0.38813161849975586, 0.5866534113883972, 0.6432264447212219, 0.7292441725730896, 0.5560861825942993, 0.19189754128456116, 0.2982925772666931, 0.35873475670814514, 0.2650262117385864, 0.15076902508735657, 0.17784444987773895, 0.21630220115184784, 0.12852534651756287, 0.27829107642173767, 0.23416121304035187, 0.2821228802204132, 0.11465191096067429, 0.06990759819746017, 0.04294360801577568, 0.06373259425163269, 0.048415809869766235, 0.06847315281629562, 0.08220244944095612, 0.14983321726322174, 0.1561908721923828, 0.07497579604387283, 0.10191583633422852, 0.16110418736934662, 0.05390647053718567, 0.05589745566248894, 0.05491660535335541, 0.04880698397755623, 0.04900943860411644, 0.10774635523557663, 0.03693213313817978, 0.030295521020889282, 0.09867198765277863, 0.07443094998598099, 0.15645872056484222, 0.5134571194648743, 0.18247492611408234, 0.1605258733034134, 0.6138533353805542, 0.3214395344257355, 0.3035471737384796, 0.1052638590335846, 0.19339440762996674, 0.32999637722969055, 0.46462348103523254, 0.44914013147354126, 0.1568237692117691, 0.17604947090148926, 0.10897985845804214, 0.10581694543361664, 0.09248250722885132, 0.0748799592256546, 0.09751875698566437, 0.11116772890090942, 0.15429382026195526, 0.08506014943122864, 0.3430197238922119, 0.3339560329914093, 0.07296252250671387, 0.12226258218288422, 0.08670414239168167, 0.04873022064566612, 0.05088913440704346, 0.032766301184892654, 0.057240065187215805, 0.045732878148555756, 0.026579689234495163, 0.056510474532842636, 0.21462851762771606, 0.08596073091030121, 0.4067647159099579, 0.18614406883716583, 0.06330101937055588, 0.04568718746304512, 0.04943882301449776, 0.0450005903840065, 0.036603476852178574, 0.039942666888237, 0.12284592539072037, 0.13108183443546295, 0.06972307711839676, 0.09059366583824158, 0.3230628967285156, 0.5513972640037537, 0.4753168225288391, 0.2923182547092438, 0.16454187035560608, 0.23692980408668518, 0.09525509178638458, 0.059852488338947296, 0.10779894888401031, 0.10561513900756836, 0.11976254731416702, 0.10483121871948242, 0.16233934462070465, 0.16114863753318787]</t>
+          <t>[0.4162929952144623, 0.19873875379562378, 0.15093883872032166, 0.32807642221450806, 0.3456074893474579, 0.03824774548411369, 0.1000186949968338, 0.060456447303295135, 0.14628781378269196, 0.18808239698410034, 0.8972657322883606, 0.3672657310962677, 0.8782431483268738, 0.912431538105011, 0.6507594585418701, 0.4820384681224823, 0.8296287655830383, 0.9929050803184509, 0.7186002135276794, 0.26327475905418396, 0.40426069498062134, 0.4222022593021393, 0.6110888123512268, 0.1639348715543747, 0.6808465123176575, 0.3442923128604889, 0.18921750783920288, 0.3215049207210541, 0.17137590050697327, 0.6719675660133362, 0.9977803826332092, 0.5411179661750793, 0.7606858015060425, 0.8606916666030884, 0.8626806139945984, 0.8346868753433228, 0.2879015803337097, 0.532803475856781, 0.5050461888313293, 0.4943842887878418, 0.3555561304092407, 0.29969000816345215, 0.36327606439590454, 0.1767110824584961, 0.3652794659137726, 0.36401763558387756, 0.4661654829978943, 0.21632760763168335, 0.12142223864793777, 0.03254881128668785, 0.06466057151556015, 0.04696769639849663, 0.07000555843114853, 0.12294773012399673, 0.20376445353031158, 0.21119864284992218, 0.08809111267328262, 0.11876065284013748, 0.37221822142601013, 0.060676779597997665, 0.0677589476108551, 0.041082434356212616, 0.059457503259181976, 0.037849850952625275, 0.1979624629020691, 0.022800978273153305, 0.022749654948711395, 0.16726377606391907, 0.1148293986916542, 0.3155727684497833, 0.8482643961906433, 0.5515341758728027, 0.5253192186355591, 0.8795871138572693, 0.7564871907234192, 0.5039130449295044, 0.1906978189945221, 0.36457663774490356, 0.6569533348083496, 0.7016715407371521, 0.8189843893051147, 0.3188539147377014, 0.33916938304901123, 0.11266796290874481, 0.14129780232906342, 0.13673263788223267, 0.04106926918029785, 0.1441352367401123, 0.15786613523960114, 0.2723853290081024, 0.09155947715044022, 0.5104905366897583, 0.4662512242794037, 0.11327311396598816, 0.26619020104408264, 0.17936040461063385, 0.07829911261796951, 0.053040191531181335, 0.03421531245112419, 0.06633966416120529, 0.03711272031068802, 0.019861336797475815, 0.06364743411540985, 0.4234555661678314, 0.2017488181591034, 0.6800621151924133, 0.409609854221344, 0.14763489365577698, 0.042239997535943985, 0.05366874858736992, 0.0514565147459507, 0.03084510937333107, 0.03857436031103134, 0.196485698223114, 0.2728886902332306, 0.0795019119977951, 0.08364037424325943, 0.5027483701705933, 0.7865375876426697, 0.7429220080375671, 0.3452000021934509, 0.28841695189476013, 0.39759233593940735, 0.11523385345935822, 0.05489959940314293, 0.12920668721199036, 0.13439910113811493, 0.21419833600521088, 0.1389157772064209, 0.20184287428855896, 0.19961880147457123]</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.9921770691871643</v>
+        <v>0.9977803826332092</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
@@ -6503,10 +6503,10 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0.8642074000090361</v>
+        <v>0.8473022000107449</v>
       </c>
       <c r="J149" t="n">
-        <v>0.006597003053504092</v>
+        <v>0.006467955725272862</v>
       </c>
     </row>
     <row r="150">
@@ -6525,11 +6525,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>[0.5789720416069031, 0.8448851108551025, 0.7794058322906494, 0.940652072429657, 0.8631882667541504, 0.892037570476532, 0.5079590082168579, 0.2768594026565552, 0.46317461133003235, 0.33111149072647095, 0.398144006729126, 0.5951243042945862, 0.805506706237793, 0.6104786992073059, 0.4707980751991272, 0.8023965954780579, 0.41985419392585754, 0.4920659363269806, 0.5322773456573486, 0.7231932878494263, 0.8581673502922058, 0.7576032876968384, 0.8664683699607849, 0.885438859462738, 0.8771742582321167, 0.9135391712188721, 0.8615784049034119, 0.6970290541648865, 0.8144599795341492, 0.8230727910995483, 0.7444993257522583, 0.8664012551307678, 0.8710079789161682, 0.8902265429496765, 0.8231938481330872, 0.9636099338531494, 0.9409686923027039, 0.9454983472824097, 0.9638491868972778, 0.9759052395820618, 0.9320790767669678, 0.9824811816215515, 0.9734166860580444, 0.9404811263084412, 0.9856552481651306, 0.8279847502708435, 0.9329987168312073, 0.8832255601882935, 0.8687686920166016, 0.9171870350837708, 0.7446714639663696, 0.8973813056945801, 0.8222118616104126, 0.887444019317627, 0.908794641494751, 0.9432867765426636, 0.8704706430435181, 0.8933941125869751, 0.9294141530990601, 0.9774342775344849, 0.9476321935653687, 0.871745765209198, 0.7983809113502502, 0.7385720014572144, 0.7518841624259949, 0.8490406274795532, 0.7113273739814758, 0.7013452053070068, 0.7156605124473572, 0.8690277338027954, 0.8829943537712097, 0.8883416056632996, 0.8097115755081177, 0.6995952129364014, 0.7511531710624695, 0.7442424297332764, 0.6944625973701477, 0.7645973563194275, 0.6106989979743958, 0.7156890034675598, 0.706580400466919, 0.6091827154159546, 0.7212648987770081, 0.6247519254684448, 0.5553179383277893, 0.6478098630905151, 0.43356066942214966, 0.40521883964538574, 0.49608269333839417, 0.1852288395166397, 0.401572048664093, 0.5945452451705933, 0.41644027829170227, 0.6038311123847961, 0.7278611660003662, 0.6345852613449097, 0.7105473279953003, 0.525790810585022, 0.7670800089836121, 0.6076736450195312, 0.5645307302474976, 0.5916633009910583, 0.8219608664512634, 0.5152590870857239, 0.2998003363609314, 0.4303128719329834, 0.5301249027252197, 0.5995105504989624, 0.46756651997566223, 0.7123596668243408, 0.43407776951789856, 0.7769991755485535, 0.7579160928726196, 0.452218234539032, 0.7147104144096375, 0.7939411997795105, 0.6317586302757263, 0.3879162669181824, 0.6979374289512634, 0.6478146910667419, 0.7444559931755066, 0.8009045720100403, 0.7427610158920288, 0.857661247253418, 0.8407954573631287, 0.7228779196739197, 0.29741722345352173, 0.5367757081985474, 0.7125208973884583, 0.7602323293685913, 0.7608036398887634]</t>
+          <t>[0.4643477499485016, 0.8256070613861084, 0.5888791084289551, 0.890821635723114, 0.8009503483772278, 0.8446112275123596, 0.47155410051345825, 0.19955933094024658, 0.3477969169616699, 0.16538524627685547, 0.2182655930519104, 0.4634711444377899, 0.7230048179626465, 0.48562780022621155, 0.2798166275024414, 0.7400547862052917, 0.24216216802597046, 0.4064295291900635, 0.46413666009902954, 0.565158486366272, 0.8462387323379517, 0.6863248944282532, 0.7743943929672241, 0.8687270283699036, 0.8392317295074463, 0.8688638210296631, 0.8713526725769043, 0.6668742299079895, 0.8182315230369568, 0.8018678426742554, 0.6654110550880432, 0.8396465182304382, 0.8638472557067871, 0.9343379735946655, 0.8515132665634155, 0.9710125923156738, 0.9588208794593811, 0.9767099022865295, 0.9861406087875366, 0.9892894625663757, 0.9567859172821045, 0.991696298122406, 0.9892828464508057, 0.974721372127533, 0.9922142624855042, 0.943023681640625, 0.9551048874855042, 0.9222350716590881, 0.9387533664703369, 0.9477427005767822, 0.8197566866874695, 0.8941999673843384, 0.8802769780158997, 0.9391130805015564, 0.9434205889701843, 0.9599599242210388, 0.9093908667564392, 0.9267727136611938, 0.9761950373649597, 0.9894540309906006, 0.9636742472648621, 0.8559576869010925, 0.6306009292602539, 0.7113837599754333, 0.6131883263587952, 0.742030918598175, 0.7611531019210815, 0.8211957812309265, 0.8436508774757385, 0.9320341944694519, 0.9162881374359131, 0.9128730893135071, 0.8383995890617371, 0.8099547028541565, 0.8262653946876526, 0.7786746025085449, 0.6156308054924011, 0.7733349204063416, 0.6610419154167175, 0.7537954449653625, 0.6854137182235718, 0.6309841275215149, 0.742372453212738, 0.6491599082946777, 0.6990941166877747, 0.6930803656578064, 0.26328566670417786, 0.2799844741821289, 0.3840895891189575, 0.11434423923492432, 0.3214743137359619, 0.5513392686843872, 0.3627126216888428, 0.5412834286689758, 0.7143929600715637, 0.5709729790687561, 0.5885267853736877, 0.447419136762619, 0.7573490738868713, 0.6467618346214294, 0.5330939888954163, 0.5943173766136169, 0.6980802416801453, 0.42484402656555176, 0.1901044249534607, 0.35475030541419983, 0.4282419681549072, 0.47230756282806396, 0.3421288728713989, 0.5466827750205994, 0.24010339379310608, 0.7001497745513916, 0.6844043731689453, 0.20785056054592133, 0.5809271931648254, 0.7489518523216248, 0.5754582285881042, 0.30501577258110046, 0.7157856225967407, 0.604875385761261, 0.7959790229797363, 0.817319393157959, 0.7860394716262817, 0.808961808681488, 0.8545458912849426, 0.7088028192520142, 0.19547411799430847, 0.40016481280326843, 0.6281395554542542, 0.7701008915901184, 0.7715744972229004]</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.9856552481651306</v>
+        <v>0.9922142624855042</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
@@ -6543,10 +6543,10 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0.7451922000036575</v>
+        <v>0.7506111999973655</v>
       </c>
       <c r="J150" t="n">
-        <v>0.005688490076363797</v>
+        <v>0.005729856488529508</v>
       </c>
     </row>
     <row r="151">
@@ -6565,11 +6565,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>[0.9744866490364075, 0.9823678731918335, 0.9913831353187561, 0.9729648232460022, 0.9825724363327026, 0.9604568481445312, 0.9863193035125732, 0.9373745322227478, 0.9460116624832153, 0.9786224961280823, 0.9830728769302368, 0.9877146482467651, 0.9856890439987183, 0.969679594039917, 0.9726073145866394, 0.9868539571762085, 0.9643529057502747, 0.9831283092498779, 0.9491766691207886, 0.9438239336013794, 0.8276665806770325, 0.8038175702095032, 0.8244442939758301, 0.7495332360267639, 0.4340093433856964, 0.6614547967910767, 0.7927852869033813, 0.8473021388053894, 0.9077252745628357, 0.9130619764328003, 0.7473717927932739, 0.8302910327911377, 0.7192163467407227, 0.8573262095451355, 0.9495974183082581, 0.9105265140533447, 0.7066501379013062, 0.7029141783714294, 0.8456107378005981, 0.8994854092597961, 0.9542727470397949, 0.902309775352478, 0.9523544907569885, 0.9816340804100037, 0.9561168551445007, 0.9568888545036316, 0.9590994715690613, 0.9259263873100281, 0.9750961661338806, 0.9629102945327759, 0.9669212102890015, 0.966230571269989, 0.9680837988853455, 0.9167711138725281, 0.9455851316452026, 0.9023224115371704, 0.9226619601249695, 0.8521010279655457, 0.8913806080818176, 0.8623342514038086, 0.9292365908622742, 0.8745331764221191, 0.8430514335632324, 0.8381549119949341, 0.9568607807159424, 0.9422639012336731, 0.7396968603134155, 0.939283013343811, 0.9043183326721191, 0.9476007223129272, 0.9531406760215759, 0.9717358946800232, 0.9317514896392822, 0.9774479866027832, 0.9301081299781799, 0.9131989479064941, 0.8842976689338684, 0.9428152441978455, 0.9647782444953918, 0.984067976474762, 0.9347160458564758, 0.9156059622764587, 0.663342297077179, 0.8829160928726196, 0.8475270867347717, 0.9234450459480286, 0.9679794907569885, 0.9727585911750793, 0.9408162832260132, 0.9465039372444153, 0.8806705474853516, 0.9042092561721802, 0.9508069157600403, 0.9238379001617432, 0.8727603554725647, 0.7991884350776672, 0.9403984546661377, 0.7074121832847595, 0.9173641204833984, 0.8748577237129211, 0.8639758825302124, 0.835425615310669, 0.9603103995323181, 0.9793495535850525, 0.9565154314041138, 0.9794460535049438, 0.9166229963302612, 0.8812025785446167, 0.8010550141334534, 0.9452838897705078, 0.7274459004402161, 0.8996599316596985, 0.7682128548622131, 0.9322305917739868, 0.9248123168945312, 0.9496446251869202, 0.8331937789916992, 0.9009217023849487, 0.653609037399292, 0.740713894367218, 0.7580586075782776, 0.9486213326454163, 0.97223299741745, 0.9388306736946106, 0.9532561898231506, 0.8175016641616821, 0.9444488883018494, 0.9055503010749817, 0.7260459065437317, 0.6824131011962891, 0.5542659759521484, 0.548457145690918]</t>
+          <t>[0.9708351492881775, 0.9841883182525635, 0.9910883903503418, 0.9735901951789856, 0.9841013550758362, 0.9731400012969971, 0.9903675317764282, 0.9525319933891296, 0.9650267362594604, 0.9904202818870544, 0.9814335703849792, 0.9876810312271118, 0.9824633598327637, 0.967843234539032, 0.9746986031532288, 0.9851107597351074, 0.9723852276802063, 0.9857833385467529, 0.9553276896476746, 0.9585883021354675, 0.8463137745857239, 0.8070400953292847, 0.8731144666671753, 0.8044067025184631, 0.553412675857544, 0.7865609526634216, 0.8891106843948364, 0.8980840444564819, 0.9275601506233215, 0.930211067199707, 0.7197374701499939, 0.8165358901023865, 0.7381806373596191, 0.8518091440200806, 0.9706398248672485, 0.9485925436019897, 0.6708453893661499, 0.6512157320976257, 0.8725542426109314, 0.910631000995636, 0.9580376148223877, 0.8806554079055786, 0.9211090207099915, 0.9831341505050659, 0.9446187019348145, 0.947099506855011, 0.9597048163414001, 0.9351144433021545, 0.9762541055679321, 0.9709675312042236, 0.9617039561271667, 0.9671526551246643, 0.9638342261314392, 0.8649939894676208, 0.9173492193222046, 0.8597996830940247, 0.8875537514686584, 0.809105634689331, 0.8897802829742432, 0.821962833404541, 0.9197017550468445, 0.855533242225647, 0.8321788311004639, 0.8258128762245178, 0.9357598423957825, 0.9396190643310547, 0.583348274230957, 0.9158191680908203, 0.8768499493598938, 0.9495828151702881, 0.9348891377449036, 0.9742442965507507, 0.9052802920341492, 0.9771939516067505, 0.9272382855415344, 0.9127810001373291, 0.9071288704872131, 0.9383218884468079, 0.9525146484375, 0.9769911170005798, 0.9414144158363342, 0.9270261526107788, 0.7162600755691528, 0.8786439299583435, 0.8199369311332703, 0.8617799282073975, 0.960840106010437, 0.9646677374839783, 0.9249668717384338, 0.9395425319671631, 0.8116912245750427, 0.8686279654502869, 0.9333573579788208, 0.9373254179954529, 0.8315691947937012, 0.7363123297691345, 0.9395567774772644, 0.7034212946891785, 0.9306333661079407, 0.8777072429656982, 0.8659805655479431, 0.8467596173286438, 0.9590898156166077, 0.9766091704368591, 0.9381818771362305, 0.9802416563034058, 0.9360498189926147, 0.8808350563049316, 0.8088958263397217, 0.9362700581550598, 0.6717534065246582, 0.8938118815422058, 0.7800060510635376, 0.9377695918083191, 0.8793123364448547, 0.949913501739502, 0.8769814968109131, 0.9062638282775879, 0.7493600249290466, 0.8653006553649902, 0.7698020935058594, 0.9621669054031372, 0.9818112254142761, 0.9609439373016357, 0.9674699902534485, 0.8766530752182007, 0.9546282887458801, 0.9115610718727112, 0.8080121278762817, 0.7101966142654419, 0.5874188542366028, 0.5816280841827393]</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.9913831353187561</v>
+        <v>0.9910883903503418</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -6583,10 +6583,10 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0.755177899991395</v>
+        <v>0.7538140999968164</v>
       </c>
       <c r="J151" t="n">
-        <v>0.005721044696904507</v>
+        <v>0.00571071287876376</v>
       </c>
     </row>
     <row r="152">
@@ -6605,11 +6605,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>[0.7921431064605713, 0.641559362411499, 0.8878182768821716, 0.7023366689682007, 0.6261882185935974, 0.4399689733982086, 0.31718316674232483, 0.7121524810791016, 0.5412498712539673, 0.48111581802368164, 0.10595718771219254, 0.23691105842590332, 0.3687340021133423, 0.8708276748657227, 0.7017197608947754, 0.7627695202827454, 0.9677751064300537, 0.8710458278656006, 0.8713462352752686, 0.556591808795929, 0.923401951789856, 0.5428187847137451, 0.25486671924591064, 0.17142295837402344, 0.8519683480262756, 0.3026929199695587, 0.1727503538131714, 0.12793593108654022, 0.5789303183555603, 0.5555700063705444, 0.46973758935928345, 0.6246514320373535, 0.3352579176425934, 0.3445183336734772, 0.6425905227661133, 0.1615520417690277, 0.24470186233520508, 0.1336221545934677, 0.3753184378147125, 0.10829254239797592, 0.10773944109678268, 0.228158101439476, 0.6213152408599854, 0.3308415114879608, 0.2606143355369568, 0.14541099965572357, 0.2391044646501541, 0.2155875861644745, 0.41498690843582153, 0.2002226710319519, 0.24381817877292633, 0.1014191061258316, 0.11219743639230728, 0.3814372718334198, 0.6977686285972595, 0.7268932461738586, 0.7745835781097412, 0.42336246371269226, 0.3899030089378357, 0.3068840503692627, 0.22342316806316376, 0.20435701310634613, 0.08867426216602325, 0.2707405388355255, 0.2233704924583435, 0.33845648169517517, 0.3835313320159912, 0.5857316851615906, 0.2536810636520386, 0.19539335370063782, 0.1100013479590416, 0.56626957654953, 0.6766790747642517, 0.42112353444099426, 0.2986583709716797, 0.3146207928657532, 0.19451963901519775, 0.20353074371814728, 0.23922263085842133, 0.12059830129146576, 0.3616260290145874, 0.5294802188873291, 0.5408003330230713, 0.6139801144599915, 0.5829175114631653, 0.8369010090827942, 0.1717555671930313, 0.13956761360168457, 0.2047196626663208, 0.3674086332321167, 0.33152127265930176, 0.7068583369255066, 0.7407103180885315, 0.46053606271743774, 0.18916922807693481, 0.2655797004699707, 0.6933220028877258, 0.35479438304901123, 0.5704221129417419, 0.6722467541694641, 0.6807060837745667, 0.3255499601364136, 0.5000240206718445, 0.6157482266426086, 0.5651828050613403, 0.5762864947319031, 0.8584944009780884, 0.5334787964820862, 0.2995501160621643, 0.13147369027137756, 0.7324373722076416, 0.9441490769386292, 0.9044795036315918, 0.7936187982559204, 0.9098907709121704, 0.7791743278503418, 0.6532308459281921, 0.42890191078186035, 0.5318724513053894, 0.5608197450637817, 0.11694569885730743, 0.30787381529808044, 0.12696410715579987, 0.12707829475402832, 0.13802537322044373, 0.5558205246925354, 0.6758952736854553, 0.8483891487121582, 0.9774153828620911, 0.35232022404670715, 0.9149027466773987, 0.9140520691871643]</t>
+          <t>[0.8108948469161987, 0.48751652240753174, 0.8705195188522339, 0.6674247980117798, 0.5532099008560181, 0.3938806354999542, 0.31194373965263367, 0.5108587145805359, 0.4959908425807953, 0.3674442172050476, 0.03699888661503792, 0.153261199593544, 0.19203881919384003, 0.8453409075737, 0.7581700086593628, 0.8465783596038818, 0.98625248670578, 0.9541922807693481, 0.9360382556915283, 0.8041400909423828, 0.9576951861381531, 0.6888719201087952, 0.30544373393058777, 0.2861398160457611, 0.8991316556930542, 0.444449782371521, 0.23898708820343018, 0.17854711413383484, 0.802227795124054, 0.6485172510147095, 0.6696815490722656, 0.7579532861709595, 0.3055401146411896, 0.14163468778133392, 0.4730837047100067, 0.08781328797340393, 0.1975211352109909, 0.08160389214754105, 0.3800882399082184, 0.051530320197343826, 0.03812812641263008, 0.08587649464607239, 0.4306168854236603, 0.16567304730415344, 0.14762145280838013, 0.05755936726927757, 0.07384330779314041, 0.10962739586830139, 0.23852506279945374, 0.06953193247318268, 0.10955590754747391, 0.06185914948582649, 0.0700455754995346, 0.3686310946941376, 0.674244225025177, 0.7568238973617554, 0.7419917583465576, 0.48403170704841614, 0.39903584122657776, 0.2667943239212036, 0.18365755677223206, 0.17603354156017303, 0.06342893838882446, 0.20191936194896698, 0.14800718426704407, 0.2389834076166153, 0.3089298605918884, 0.5594515800476074, 0.1796242892742157, 0.08190227299928665, 0.04633837565779686, 0.25120577216148376, 0.3425378203392029, 0.23828263580799103, 0.14542217552661896, 0.20110464096069336, 0.12973521649837494, 0.14710502326488495, 0.18835259974002838, 0.05942225083708763, 0.27407392859458923, 0.49102500081062317, 0.5088207721710205, 0.5925750136375427, 0.5369346737861633, 0.7324472069740295, 0.09794866293668747, 0.12451296299695969, 0.15781842172145844, 0.3598988652229309, 0.3109108507633209, 0.7766135334968567, 0.69971764087677, 0.5709395408630371, 0.19862590730190277, 0.26796630024909973, 0.6323528289794922, 0.17568568885326385, 0.5804304480552673, 0.7172076106071472, 0.7291537523269653, 0.2743360102176666, 0.5459116697311401, 0.6147727966308594, 0.5506975054740906, 0.5607463717460632, 0.8792605996131897, 0.6592049598693848, 0.3675042688846588, 0.15224121510982513, 0.884739339351654, 0.9817783832550049, 0.9416131973266602, 0.8545900583267212, 0.954566240310669, 0.8677529096603394, 0.8327261805534363, 0.613632321357727, 0.8050722479820251, 0.8099510669708252, 0.15759152173995972, 0.520788311958313, 0.13271550834178925, 0.06896249949932098, 0.14617902040481567, 0.642881453037262, 0.7152866721153259, 0.9061727523803711, 0.9936422109603882, 0.6274228692054749, 0.9676523208618164, 0.9672967195510864]</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.9774153828620911</v>
+        <v>0.9936422109603882</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
@@ -6623,10 +6623,10 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0.7485159000207204</v>
+        <v>0.7517128000035882</v>
       </c>
       <c r="J152" t="n">
-        <v>0.005670575000156973</v>
+        <v>0.005694793939421123</v>
       </c>
     </row>
     <row r="153">
@@ -6645,11 +6645,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>[0.38221457600593567, 0.48794665932655334, 0.3965936601161957, 0.7597723007202148, 0.9023029804229736, 0.8237044215202332, 0.5765404105186462, 0.7813781499862671, 0.8805215954780579, 0.9271050691604614, 0.9359237551689148, 0.9625189900398254, 0.7918722629547119, 0.556067168712616, 0.3663201630115509, 0.634549081325531, 0.8242368698120117, 0.6534363627433777, 0.9187067151069641, 0.980022668838501, 0.9522658586502075, 0.8615099787712097, 0.6740180253982544, 0.908935546875, 0.8520420789718628, 0.8766875863075256, 0.6973113417625427, 0.8160789012908936, 0.7437530159950256, 0.44212770462036133, 0.43656519055366516, 0.40044721961021423, 0.467199444770813, 0.7197879552841187, 0.9111250638961792, 0.7636602520942688, 0.803071916103363, 0.6618345975875854, 0.4643411636352539, 0.2337024211883545, 0.6103628873825073, 0.395670622587204, 0.40983808040618896, 0.9616314172744751, 0.8070873618125916, 0.81612628698349, 0.5128752589225769, 0.30800577998161316, 0.2660554349422455, 0.35584452748298645, 0.6325416564941406, 0.6054303050041199, 0.7636925578117371, 0.8735544681549072, 0.8357040882110596, 0.6482098698616028, 0.4649016559123993, 0.44703608751296997, 0.8304758071899414, 0.8742544651031494, 0.8056503534317017, 0.815636932849884, 0.608660876750946, 0.38295966386795044, 0.1990402191877365, 0.2408183068037033, 0.3920726478099823, 0.4805346429347992, 0.4257291555404663, 0.6037846803665161, 0.850894570350647, 0.8693855404853821, 0.880281388759613, 0.7449280023574829, 0.7836072444915771, 0.8500588536262512, 0.91438227891922, 0.7214141488075256, 0.5336916446685791, 0.7735324501991272, 0.7653188705444336, 0.8921217322349548, 0.9161640405654907, 0.9463271498680115, 0.9195191860198975, 0.9278815984725952, 0.8999705910682678, 0.9147475361824036, 0.9136229157447815, 0.8355478644371033, 0.5762733817100525, 0.9119851589202881, 0.9523345232009888, 0.933156430721283, 0.9348913431167603, 0.9150659441947937, 0.9634048938751221, 0.9624645113945007, 0.9291203618049622, 0.7861778140068054, 0.9353650212287903, 0.9213452339172363, 0.9248440861701965, 0.6945061087608337, 0.7147437930107117, 0.9204196333885193, 0.7727876901626587, 0.8926207423210144, 0.8854395151138306, 0.7517673969268799, 0.8670307993888855, 0.9124321937561035, 0.6661549806594849, 0.7890191078186035, 0.8217163681983948, 0.7381227612495422, 0.8148230314254761, 0.818128764629364, 0.8390417695045471, 0.9008265733718872, 0.8967060446739197, 0.8393153548240662, 0.8845468759536743, 0.9047302007675171, 0.8797730803489685, 0.7880767583847046, 0.8093665838241577, 0.786489725112915, 0.8085750341415405, 0.9705188870429993, 0.912777304649353, 0.9122582674026489]</t>
+          <t>[0.40192312002182007, 0.45385652780532837, 0.4610692262649536, 0.8324812650680542, 0.9250956177711487, 0.8139175772666931, 0.5848038792610168, 0.7420045137405396, 0.9060100317001343, 0.9329061508178711, 0.9438856244087219, 0.9748936295509338, 0.8589365482330322, 0.5506565570831299, 0.38852840662002563, 0.6819536685943604, 0.8664332032203674, 0.6279926896095276, 0.9232103824615479, 0.9858871102333069, 0.9631574153900146, 0.9034362435340881, 0.7767879366874695, 0.9314989447593689, 0.8658723831176758, 0.8692758083343506, 0.7620830535888672, 0.862416684627533, 0.7201641201972961, 0.5769841074943542, 0.5711531043052673, 0.5771625638008118, 0.5792828798294067, 0.9003270268440247, 0.9592816233634949, 0.8913338780403137, 0.9080474972724915, 0.8224310278892517, 0.6806772947311401, 0.3347477316856384, 0.7939066290855408, 0.5962669849395752, 0.6795082688331604, 0.9833393096923828, 0.942270040512085, 0.8926999568939209, 0.6777275800704956, 0.3737849295139313, 0.3755693733692169, 0.5196477174758911, 0.7904561758041382, 0.7893699407577515, 0.8985375165939331, 0.9396302103996277, 0.9210276007652283, 0.7914045453071594, 0.6842108368873596, 0.5966072082519531, 0.8977149724960327, 0.9092894792556763, 0.8787054419517517, 0.8743785619735718, 0.7012514472007751, 0.5413244962692261, 0.26183199882507324, 0.3278336822986603, 0.5653676986694336, 0.5170912742614746, 0.5261627435684204, 0.7069565653800964, 0.8989349007606506, 0.9048174619674683, 0.928648054599762, 0.8233678340911865, 0.8181813359260559, 0.886387825012207, 0.9392287731170654, 0.7436847686767578, 0.8019136190414429, 0.8749792575836182, 0.8344995379447937, 0.919516384601593, 0.9449086785316467, 0.9578972458839417, 0.9517602324485779, 0.9580581784248352, 0.9432278275489807, 0.9442940950393677, 0.9494167566299438, 0.8959887623786926, 0.6700906157493591, 0.9541380405426025, 0.9767875075340271, 0.9548619985580444, 0.9617152214050293, 0.9403247833251953, 0.9667391180992126, 0.9723083972930908, 0.9607334136962891, 0.8383952975273132, 0.9520071148872375, 0.9420713186264038, 0.9405638575553894, 0.767881453037262, 0.8136841654777527, 0.9271481037139893, 0.791281521320343, 0.9044926166534424, 0.8953256011009216, 0.7993590235710144, 0.8820392489433289, 0.9342928528785706, 0.7995432615280151, 0.8710604310035706, 0.8703917860984802, 0.8723083138465881, 0.8343373537063599, 0.8236495852470398, 0.8651120066642761, 0.9058186411857605, 0.8923615217208862, 0.8507476449012756, 0.8797643780708313, 0.9208501577377319, 0.9111961126327515, 0.8378710150718689, 0.8570215106010437, 0.8343261480331421, 0.8466874361038208, 0.9784404039382935, 0.9381004571914673, 0.9375590682029724]</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.980022668838501</v>
+        <v>0.9858871102333069</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
@@ -6663,10 +6663,10 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0.7648519000213128</v>
+        <v>0.7462075999937952</v>
       </c>
       <c r="J153" t="n">
-        <v>0.005794332575919036</v>
+        <v>0.005653087878740873</v>
       </c>
     </row>
     <row r="154">
@@ -6685,11 +6685,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[0.15042345225811005, 0.10999457538127899, 0.09789030253887177, 0.11354847997426987, 0.13204030692577362, 0.1704091727733612, 0.249741330742836, 0.20586955547332764, 0.20124812424182892, 0.2173093557357788, 0.20828388631343842, 0.16690021753311157, 0.18617264926433563, 0.11683691293001175, 0.14044269919395447, 0.14186526834964752, 0.07432791590690613, 0.09651539474725723, 0.11593112349510193, 0.19449308514595032, 0.1507652848958969, 0.3299083709716797, 0.14388364553451538, 0.12308252602815628, 0.17113322019577026, 0.31487396359443665, 0.2510134279727936, 0.212861105799675, 0.2022867649793625, 0.2671316862106323, 0.2264707386493683, 0.2507212162017822, 0.15173572301864624, 0.16910897195339203, 0.22499752044677734, 0.12593749165534973, 0.08627870678901672, 0.10355064272880554, 0.09256629645824432, 0.09441150724887848, 0.07413241267204285, 0.09039532393217087, 0.07864537090063095, 0.07025671005249023, 0.08583437651395798, 0.0627790242433548, 0.08476904779672623, 0.07964356243610382, 0.07868613302707672, 0.09670435637235641, 0.15513968467712402, 0.10310209542512894, 0.09945336729288101, 0.08336427062749863, 0.05917726084589958, 0.0884612575173378, 0.160069540143013, 0.1763574182987213, 0.16576407849788666, 0.1306973695755005, 0.09690312296152115, 0.06489718705415726, 0.11004071682691574, 0.10805334895849228, 0.07933887839317322, 0.05868367478251457, 0.07687187939882278, 0.14897727966308594, 0.15337535738945007, 0.15245628356933594, 0.1882772445678711, 0.12180519104003906, 0.06954537332057953, 0.07572828233242035, 0.08740702271461487, 0.1457558274269104, 0.17328223586082458, 0.16135628521442413, 0.16627401113510132, 0.11338046193122864, 0.1586509793996811, 0.13527773320674896, 0.17454098165035248, 0.21665433049201965, 0.1897703856229782, 0.1903533786535263, 0.20886050164699554, 0.20537574589252472, 0.11190461367368698, 0.15490034222602844, 0.11505144834518433, 0.09923839569091797, 0.06580058485269547, 0.381123811006546, 0.567192018032074, 0.34877315163612366, 0.1926649510860443, 0.2084861844778061, 0.33650636672973633, 0.11529268324375153, 0.7192426323890686, 0.5477930307388306, 0.9608452916145325, 0.7202871441841125, 0.9802128672599792, 0.23542797565460205, 0.8877747058868408, 0.902941882610321, 0.993506669998169, 0.9932788014411926, 0.9902718663215637, 0.845376193523407, 0.17644789814949036, 0.24658815562725067, 0.22535580396652222, 0.12406762689352036, 0.9393685460090637, 0.5980387330055237, 0.6265032291412354, 0.3019815981388092, 0.13836297392845154, 0.27521705627441406, 0.43831294775009155, 0.1278529018163681, 0.18716058135032654, 0.21575486660003662, 0.21850374341011047]</t>
+          <t>[0.03878822177648544, 0.04080355912446976, 0.03198704496026039, 0.04144974797964096, 0.03762628138065338, 0.06557796150445938, 0.12239516526460648, 0.084335096180439, 0.13862238824367523, 0.12042926251888275, 0.1714850515127182, 0.1291973888874054, 0.1055915579199791, 0.053089797496795654, 0.10440163314342499, 0.09557006508111954, 0.028248921036720276, 0.054516952484846115, 0.07295887917280197, 0.10762324184179306, 0.0730472058057785, 0.18216584622859955, 0.05506717041134834, 0.057286232709884644, 0.10702879726886749, 0.23626896739006042, 0.14759689569473267, 0.12250187993049622, 0.1124429777264595, 0.18427102267742157, 0.14827074110507965, 0.1881687492132187, 0.0954178050160408, 0.10807474702596664, 0.12577447295188904, 0.08682190626859665, 0.0599985271692276, 0.04993671551346779, 0.06345668435096741, 0.050740595906972885, 0.036285679787397385, 0.05925587937235832, 0.03198143467307091, 0.026457199826836586, 0.040137678384780884, 0.0203112680464983, 0.02735818736255169, 0.024306759238243103, 0.028274469077587128, 0.04672796279191971, 0.11081033200025558, 0.030705630779266357, 0.05582420900464058, 0.0357787162065506, 0.034544095396995544, 0.04318302869796753, 0.11295291781425476, 0.16509461402893066, 0.1862364411354065, 0.11671604961156845, 0.07782655209302902, 0.03221823647618294, 0.06150064989924431, 0.04036955162882805, 0.038248833268880844, 0.021375250071287155, 0.042012181133031845, 0.11396569758653641, 0.12477659434080124, 0.08291161060333252, 0.12761349976062775, 0.058310024440288544, 0.02118135802447796, 0.04179782420396805, 0.05857498198747635, 0.10060779005289078, 0.11896597594022751, 0.08770227432250977, 0.09107669442892075, 0.05434050410985947, 0.05801369622349739, 0.057109590619802475, 0.07690645009279251, 0.10178221017122269, 0.14454811811447144, 0.10374640673398972, 0.11215231567621231, 0.10373643785715103, 0.05542197823524475, 0.10534927994012833, 0.06362800300121307, 0.05101974308490753, 0.047428447753190994, 0.7126871347427368, 0.9234832525253296, 0.6704369187355042, 0.3740275800228119, 0.41328176856040955, 0.7092058062553406, 0.11080169677734375, 0.905023455619812, 0.906374454498291, 0.9883294105529785, 0.8178148865699768, 0.9925025701522827, 0.365898460149765, 0.9537639021873474, 0.9704674482345581, 0.9964900612831116, 0.9974533915519714, 0.9949901700019836, 0.9428774118423462, 0.4067681133747101, 0.3448498845100403, 0.33751460909843445, 0.14385616779327393, 0.9687511324882507, 0.7565591335296631, 0.7769693732261658, 0.5428658127784729, 0.1706516295671463, 0.24600738286972046, 0.5094289779663086, 0.12343210726976395, 0.2012040615081787, 0.13528884947299957, 0.13934120535850525]</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.9935066699981689</v>
+        <v>0.9974533915519714</v>
       </c>
       <c r="F154" t="n">
         <v>1</v>
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0.7051928000000771</v>
+        <v>0.7113002999976743</v>
       </c>
       <c r="J154" t="n">
-        <v>0.005552699212599032</v>
+        <v>0.005600789763761215</v>
       </c>
     </row>
     <row r="155">
@@ -6725,11 +6725,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[0.9795596599578857, 0.9940259456634521, 0.9863153100013733, 0.9869123697280884, 0.990339457988739, 0.979148268699646, 0.9839711785316467, 0.9899547100067139, 0.6152190566062927, 0.9870913028717041, 0.9944654107093811, 0.954682469367981, 0.9637328386306763, 0.813129723072052, 0.7998319864273071, 0.8434948921203613, 0.6365053057670593, 0.713354229927063, 0.984869122505188, 0.9860856533050537, 0.9926390647888184, 0.9933155179023743, 0.9909098744392395, 0.9932218790054321, 0.9921770691871643, 0.9951013922691345, 0.9955462217330933, 0.9945852160453796, 0.9951791763305664, 0.9950866103172302, 0.997345507144928, 0.9971597194671631, 0.9967259168624878, 0.9974341988563538, 0.9975371360778809, 0.9958914518356323, 0.9948429465293884, 0.9971421360969543, 0.9974262118339539, 0.9977401494979858, 0.9985443353652954, 0.9977461695671082, 0.9967193007469177, 0.9972924590110779, 0.9982656836509705, 0.9985044002532959, 0.9976024031639099, 0.9977990984916687, 0.9981581568717957, 0.9980903267860413, 0.9968767166137695, 0.9980173110961914, 0.9976510405540466, 0.9979801774024963, 0.9979671835899353, 0.9972981810569763, 0.9969263672828674, 0.9970924854278564, 0.9960910677909851, 0.9910010695457458, 0.9902933835983276, 0.9903509020805359, 0.9965329170227051, 0.9953455328941345, 0.9970656037330627, 0.9968423843383789, 0.9960058331489563, 0.9960358738899231, 0.9961108565330505, 0.9941985607147217, 0.9953328967094421, 0.9962551593780518, 0.9916313290596008, 0.9898111820220947, 0.9948268532752991, 0.9964612126350403, 0.9977346658706665, 0.9970654845237732, 0.9962014555931091, 0.997347354888916, 0.9974294304847717, 0.9966992735862732, 0.9971598386764526, 0.9964229464530945, 0.9956349730491638, 0.996006190776825, 0.9977074861526489, 0.9834877848625183, 0.9558486342430115, 0.9477609992027283, 0.9439483880996704, 0.9866286516189575, 0.9816296100616455, 0.9941927790641785, 0.9819521307945251, 0.991995096206665, 0.9805033206939697, 0.9920610189437866, 0.993471622467041, 0.9896166324615479, 0.9451956152915955, 0.9970730543136597, 0.9955846667289734, 0.9941810965538025, 0.9942629933357239, 0.9948301911354065, 0.9840577244758606, 0.9772282242774963, 0.955376386642456, 0.9866729974746704, 0.9733123183250427, 0.9400039911270142, 0.9431064128875732, 0.969145655632019, 0.9970107078552246, 0.9979531764984131, 0.997858464717865, 0.9976179003715515, 0.9985961318016052, 0.9982936978340149, 0.9982293248176575, 0.996322512626648, 0.9979375600814819, 0.9971708655357361, 0.9966103434562683, 0.9953826069831848, 0.9968581199645996, 0.9974048733711243, 0.9980558156967163, 0.9986967444419861, 0.9987000226974487]</t>
+          <t>[0.9927276372909546, 0.9975070357322693, 0.9937195777893066, 0.9933253526687622, 0.9941003918647766, 0.9872496724128723, 0.9908362627029419, 0.9937583208084106, 0.8160748481750488, 0.9932543635368347, 0.9972094893455505, 0.9622200131416321, 0.968185305595398, 0.8336886763572693, 0.7975904941558838, 0.8747329711914062, 0.6665876507759094, 0.80687016248703, 0.9910705089569092, 0.9921457171440125, 0.9965123534202576, 0.9970888495445251, 0.9962984919548035, 0.9972109198570251, 0.9969358444213867, 0.9980096220970154, 0.99826979637146, 0.997226893901825, 0.9978439807891846, 0.9976972937583923, 0.9989966750144958, 0.9989548921585083, 0.998688280582428, 0.9988960027694702, 0.998984158039093, 0.9984132051467896, 0.9982901215553284, 0.9990180730819702, 0.999200165271759, 0.9993168115615845, 0.9994995594024658, 0.9992184638977051, 0.9986153841018677, 0.9989318251609802, 0.999433696269989, 0.9994968175888062, 0.9992460012435913, 0.9992930889129639, 0.999404788017273, 0.999396562576294, 0.998829185962677, 0.9991257786750793, 0.9990696310997009, 0.9992313385009766, 0.999143123626709, 0.9988407492637634, 0.998653769493103, 0.9988589286804199, 0.9982825517654419, 0.9948193430900574, 0.9947323799133301, 0.9955636262893677, 0.9983249306678772, 0.9976625442504883, 0.99874347448349, 0.998802900314331, 0.9986483454704285, 0.9988275170326233, 0.9987327456474304, 0.9977037310600281, 0.9985154271125793, 0.998794436454773, 0.9971750974655151, 0.9971312284469604, 0.9984127283096313, 0.9987925291061401, 0.999301552772522, 0.9989595413208008, 0.998555600643158, 0.9990354776382446, 0.9990593791007996, 0.9986186027526855, 0.9989450573921204, 0.9986936450004578, 0.9982385635375977, 0.9984806180000305, 0.999138593673706, 0.9894756078720093, 0.9732444286346436, 0.9720130562782288, 0.9672927260398865, 0.9881979823112488, 0.9796909689903259, 0.9953314661979675, 0.9883213639259338, 0.9948775768280029, 0.9861868619918823, 0.9959979057312012, 0.9969160556793213, 0.9949937462806702, 0.9755452275276184, 0.9987595081329346, 0.9978846907615662, 0.9974324107170105, 0.9976423382759094, 0.9977120161056519, 0.9904307723045349, 0.9877755641937256, 0.9821299910545349, 0.9927605390548706, 0.9885511994361877, 0.975526750087738, 0.9799585938453674, 0.9905107617378235, 0.9988842606544495, 0.9992988109588623, 0.9993081092834473, 0.9992548823356628, 0.9996240139007568, 0.999460756778717, 0.9993289709091187, 0.9985829591751099, 0.9992388486862183, 0.9986957907676697, 0.9984561204910278, 0.9978752136230469, 0.9984356760978699, 0.9989989399909973, 0.9993000030517578, 0.9995887875556946, 0.9995893836021423]</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9996240139007568</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -6743,10 +6743,10 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0.7390131000138354</v>
+        <v>0.7433294999937061</v>
       </c>
       <c r="J155" t="n">
-        <v>0.005641321374151415</v>
+        <v>0.005674270992318368</v>
       </c>
     </row>
     <row r="156">
@@ -6765,11 +6765,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[0.995932400226593, 0.994562566280365, 0.9925618767738342, 0.9858616590499878, 0.9881293177604675, 0.9908565282821655, 0.9818673133850098, 0.9906885623931885, 0.9922972321510315, 0.991137683391571, 0.9895541667938232, 0.98194420337677, 0.9883225560188293, 0.9942551255226135, 0.9968543648719788, 0.9958194494247437, 0.9904914498329163, 0.9930599927902222, 0.9892834424972534, 0.9842774868011475, 0.9033355712890625, 0.9279329776763916, 0.958562970161438, 0.9745829701423645, 0.9879437685012817, 0.9872401356697083, 0.9962408542633057, 0.9962079524993896, 0.9925064444541931, 0.9857975840568542, 0.997980535030365, 0.9981397390365601, 0.9976582527160645, 0.9950342178344727, 0.9957873225212097, 0.9944520592689514, 0.9853290915489197, 0.9957232475280762, 0.9918465614318848, 0.9472991824150085, 0.8868100047111511, 0.9805326461791992, 0.9818618297576904, 0.9855258464813232, 0.9724711179733276, 0.9323590993881226, 0.9871402382850647, 0.9897554516792297, 0.9899425506591797, 0.9553235173225403, 0.9426245093345642, 0.9311825037002563, 0.8561816811561584, 0.5984066724777222, 0.8948356509208679, 0.6878729462623596, 0.5984421372413635, 0.7469044327735901, 0.6058102250099182, 0.8716765642166138, 0.8556148409843445, 0.5737298130989075, 0.9686480164527893, 0.9335039854049683, 0.7976402640342712, 0.8644827604293823, 0.970419704914093, 0.9929701685905457, 0.9937306642532349, 0.9961912631988525, 0.998184859752655, 0.9985363483428955, 0.9970445036888123, 0.997965931892395, 0.9973504543304443, 0.9968572854995728, 0.9969344139099121, 0.9975584745407104, 0.9958782196044922, 0.9936584830284119, 0.994776725769043, 0.9801160097122192, 0.9813777804374695, 0.8862921595573425, 0.9291945099830627, 0.9758155345916748, 0.9762766361236572, 0.930107831954956, 0.9694384336471558, 0.9681193232536316, 0.9912260174751282, 0.9809001684188843, 0.9881471991539001, 0.9906585216522217, 0.9918555021286011, 0.9881000518798828, 0.992106556892395, 0.9943634271621704, 0.9922243356704712, 0.9866761565208435, 0.9889222383499146, 0.9723418354988098, 0.943587064743042, 0.9183315634727478, 0.990543782711029, 0.7990038990974426, 0.8339317440986633, 0.9206900596618652, 0.5951595306396484, 0.21461538970470428, 0.33446717262268066, 0.48494666814804077, 0.4324805736541748, 0.21030062437057495, 0.23263472318649292, 0.4509231448173523, 0.7769668698310852, 0.20265498757362366, 0.6818462014198303, 0.42677217721939087, 0.15152564644813538, 0.24928319454193115, 0.7422289848327637, 0.7098522186279297, 0.24641254544258118, 0.28439292311668396, 0.5345132350921631, 0.44237130880355835, 0.6414998769760132, 0.9611165523529053, 0.9893112182617188, 0.9893636703491211]</t>
+          <t>[0.9976975321769714, 0.9969965219497681, 0.9939204454421997, 0.9903428554534912, 0.994088888168335, 0.9965196847915649, 0.9908722043037415, 0.9960676431655884, 0.9971285462379456, 0.9947776794433594, 0.9930031895637512, 0.9872534871101379, 0.990587055683136, 0.9965073466300964, 0.9982171654701233, 0.9972768425941467, 0.9929783940315247, 0.9910315275192261, 0.9897689819335938, 0.9861494302749634, 0.9326257705688477, 0.9471640586853027, 0.957240104675293, 0.9684348702430725, 0.9830628633499146, 0.9852986335754395, 0.9964632391929626, 0.9969393014907837, 0.9957291483879089, 0.9917572140693665, 0.999035120010376, 0.9990972280502319, 0.9989932179450989, 0.9972054362297058, 0.99748295545578, 0.9947108030319214, 0.990742027759552, 0.9971444010734558, 0.9952788352966309, 0.9622276425361633, 0.8990075588226318, 0.9846066236495972, 0.9832204580307007, 0.9927899837493896, 0.9856999516487122, 0.9518882036209106, 0.9888187050819397, 0.9903678894042969, 0.9897097945213318, 0.9652998447418213, 0.9502371549606323, 0.9625148773193359, 0.9215171337127686, 0.7868514060974121, 0.9524363875389099, 0.8711609244346619, 0.7458375692367554, 0.8405670523643494, 0.6276242136955261, 0.912406325340271, 0.9551371932029724, 0.8050016164779663, 0.9868971705436707, 0.9823481440544128, 0.9392231702804565, 0.9182242155075073, 0.9795159697532654, 0.9955254197120667, 0.9971319437026978, 0.9982321858406067, 0.9990484118461609, 0.9993357062339783, 0.9984452128410339, 0.9988539218902588, 0.9988481998443604, 0.9987917542457581, 0.9989196062088013, 0.9991913437843323, 0.9984890222549438, 0.9975652694702148, 0.9974778294563293, 0.9926707744598389, 0.9878265261650085, 0.8870205879211426, 0.930307924747467, 0.9745482206344604, 0.9795302748680115, 0.9298574924468994, 0.9630416631698608, 0.9768993258476257, 0.9953179359436035, 0.9876192808151245, 0.9920834302902222, 0.995693027973175, 0.9949995279312134, 0.9956797361373901, 0.9966622591018677, 0.9975076913833618, 0.9962908029556274, 0.994899332523346, 0.9952747821807861, 0.9812986254692078, 0.9640803933143616, 0.9465520977973938, 0.9919530749320984, 0.936549961566925, 0.9643063545227051, 0.979665219783783, 0.8162425756454468, 0.3624304234981537, 0.7400962710380554, 0.6700286269187927, 0.5835158228874207, 0.3072507977485657, 0.3161386251449585, 0.6249257922172546, 0.8204968571662903, 0.3263501226902008, 0.8492297530174255, 0.5236096382141113, 0.18232233822345734, 0.30308276414871216, 0.7994189262390137, 0.8706209659576416, 0.28824058175086975, 0.23660244047641754, 0.7591908574104309, 0.5922170877456665, 0.9223939776420593, 0.9901081323623657, 0.9980291724205017, 0.9980363249778748]</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.9985363483428955</v>
+        <v>0.9993357062339783</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -6783,10 +6783,10 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0.7875979999953415</v>
+        <v>0.7585850000032224</v>
       </c>
       <c r="J156" t="n">
-        <v>0.005966651515116224</v>
+        <v>0.005746856060630473</v>
       </c>
     </row>
     <row r="157">
@@ -6805,11 +6805,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>[0.995380163192749, 0.995699405670166, 0.9959676265716553, 0.9949933886528015, 0.9949936270713806, 0.9979085922241211, 0.9978228807449341, 0.993958592414856, 0.9914097189903259, 0.985517680644989, 0.9954355359077454, 0.9953318238258362, 0.9870562553405762, 0.9969351291656494, 0.9955169558525085, 0.9943687319755554, 0.9955331087112427, 0.9946053624153137, 0.9967683553695679, 0.996944010257721, 0.997319757938385, 0.9978389143943787, 0.9974400997161865, 0.9978052973747253, 0.9976460337638855, 0.997479259967804, 0.9967017769813538, 0.9968417882919312, 0.9966078996658325, 0.9968389272689819, 0.9982869029045105, 0.9986003041267395, 0.9989247918128967, 0.9986763596534729, 0.9980403780937195, 0.9971094727516174, 0.9949660897254944, 0.9903627038002014, 0.9897356033325195, 0.9499255418777466, 0.9105610847473145, 0.9653993844985962, 0.9912920594215393, 0.9754580855369568, 0.9610064625740051, 0.9902340173721313, 0.9751173853874207, 0.9877480268478394, 0.9002454876899719, 0.8123831748962402, 0.9467964768409729, 0.9383770227432251, 0.8756836652755737, 0.838289737701416, 0.7026227712631226, 0.7799774408340454, 0.7200230360031128, 0.5691397190093994, 0.441115140914917, 0.20161330699920654, 0.6537289619445801, 0.38915035128593445, 0.7179437279701233, 0.839712917804718, 0.5713255405426025, 0.3630920648574829, 0.18711060285568237, 0.07991591095924377, 0.14907006919384003, 0.26236692070961, 0.4909001886844635, 0.39339208602905273, 0.8085185289382935, 0.9286935329437256, 0.846617579460144, 0.4234011173248291, 0.19861848652362823, 0.8259600400924683, 0.9407644867897034, 0.98514324426651, 0.9897856116294861, 0.9950107336044312, 0.9964679479598999, 0.993769109249115, 0.9918006062507629, 0.9926226139068604, 0.9956192374229431, 0.9967976212501526, 0.9966268539428711, 0.9907902479171753, 0.9887815117835999, 0.9924843907356262, 0.9831171035766602, 0.9827002286911011, 0.9798349738121033, 0.9791960716247559, 0.8588300347328186, 0.39624688029289246, 0.25191551446914673, 0.1314467191696167, 0.21353353559970856, 0.23410047590732574, 0.6394605040550232, 0.9639614224433899, 0.9956067204475403, 0.9975226521492004, 0.9984782338142395, 0.9981107711791992, 0.9958304762840271, 0.9973102807998657, 0.9921085238456726, 0.997177004814148, 0.9949747323989868, 0.9975619316101074, 0.9966142773628235, 0.9947182536125183, 0.9966878294944763, 0.995320737361908, 0.994958221912384, 0.9950644373893738, 0.9970778226852417, 0.9945059418678284, 0.9931013584136963, 0.9863567352294922, 0.9358466267585754, 0.8901432752609253, 0.9190988540649414, 0.9287853240966797, 0.9656976461410522, 0.967289924621582, 0.9684090614318848, 0.9683145880699158]</t>
+          <t>[0.9979901313781738, 0.9976509213447571, 0.9976199269294739, 0.9976244568824768, 0.9974045157432556, 0.9991219639778137, 0.9990725517272949, 0.9976392984390259, 0.9961035251617432, 0.9951999187469482, 0.9976596832275391, 0.9973465204238892, 0.9928635954856873, 0.9982784986495972, 0.9978255033493042, 0.9977555871009827, 0.9987059831619263, 0.9978717565536499, 0.9985761642456055, 0.9986158609390259, 0.9988473653793335, 0.9991084933280945, 0.9984387755393982, 0.9988478422164917, 0.9988219141960144, 0.9987492561340332, 0.9981062412261963, 0.9984435439109802, 0.998163640499115, 0.9981977343559265, 0.9990980625152588, 0.9992434978485107, 0.9994274377822876, 0.9994082450866699, 0.9991251826286316, 0.9987119436264038, 0.997533917427063, 0.9968955516815186, 0.9962485432624817, 0.9834391474723816, 0.9299031496047974, 0.9787099361419678, 0.9942995309829712, 0.9861758351325989, 0.9807102680206299, 0.9922348260879517, 0.9895321130752563, 0.9936668276786804, 0.9550393223762512, 0.94760662317276, 0.9551277160644531, 0.9582160115242004, 0.9235690832138062, 0.9241211414337158, 0.8207650780677795, 0.9149860739707947, 0.880743145942688, 0.7619181871414185, 0.6510369777679443, 0.27015209197998047, 0.8667464852333069, 0.6130303740501404, 0.9180365800857544, 0.9487581253051758, 0.7194974422454834, 0.6800361275672913, 0.30174005031585693, 0.06709882616996765, 0.1535007655620575, 0.30768367648124695, 0.48583391308784485, 0.6578677892684937, 0.9491731524467468, 0.9830458164215088, 0.9712130427360535, 0.6917314529418945, 0.41678112745285034, 0.9675498604774475, 0.9858766794204712, 0.9955251812934875, 0.9971731901168823, 0.9986807703971863, 0.9988425970077515, 0.9981459379196167, 0.9973005652427673, 0.9976457953453064, 0.9986652135848999, 0.9989176988601685, 0.9981122016906738, 0.9911646246910095, 0.9917309880256653, 0.9936461448669434, 0.9878041744232178, 0.9875077605247498, 0.9794278740882874, 0.978356659412384, 0.7759563326835632, 0.3035953640937805, 0.2605052888393402, 0.06220891699194908, 0.06884759664535522, 0.15312741696834564, 0.7635258436203003, 0.9675828814506531, 0.9976521134376526, 0.9985830783843994, 0.9993276596069336, 0.9990955591201782, 0.9975690245628357, 0.998878538608551, 0.9969419836997986, 0.9991480112075806, 0.99753737449646, 0.9991133809089661, 0.9986748695373535, 0.9977887868881226, 0.9975966811180115, 0.9976430535316467, 0.9970009922981262, 0.9977594614028931, 0.9991600513458252, 0.9984477758407593, 0.9986050724983215, 0.9965079426765442, 0.9744739532470703, 0.9464327096939087, 0.9715084433555603, 0.9837416410446167, 0.9907193779945374, 0.9907037615776062, 0.9937946796417236, 0.9938050508499146]</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.9989247918128967</v>
+        <v>0.9994274377822876</v>
       </c>
       <c r="F157" t="n">
         <v>1</v>
@@ -6823,10 +6823,10 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0.7658320000045933</v>
+        <v>0.7781762000086019</v>
       </c>
       <c r="J157" t="n">
-        <v>0.005801757575792373</v>
+        <v>0.005895274242489409</v>
       </c>
     </row>
     <row r="158">
@@ -6845,11 +6845,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>[0.889091432094574, 0.9013652801513672, 0.9361860752105713, 0.9734826683998108, 0.955946147441864, 0.9730193614959717, 0.9354381561279297, 0.7300922870635986, 0.9584176540374756, 0.9583695530891418, 0.9821577072143555, 0.9891524314880371, 0.9794594645500183, 0.9843288660049438, 0.9890539646148682, 0.9906580448150635, 0.9855800867080688, 0.5534851551055908, 0.8431277275085449, 0.8391956686973572, 0.9881405830383301, 0.9967507123947144, 0.9976093769073486, 0.9971755743026733, 0.9954858422279358, 0.9975231289863586, 0.9960326552391052, 0.9786391258239746, 0.9772312641143799, 0.9763996601104736, 0.9854065179824829, 0.9816333651542664, 0.9951459765434265, 0.9934125542640686, 0.9894428253173828, 0.9695452451705933, 0.9941997528076172, 0.9743951559066772, 0.9869987368583679, 0.968957245349884, 0.9785400629043579, 0.9889985918998718, 0.9669952988624573, 0.8919317126274109, 0.9828727841377258, 0.6230159401893616, 0.9288098216056824, 0.9724444150924683, 0.9836254715919495, 0.9761949181556702, 0.9712806344032288, 0.9741449952125549, 0.9310030341148376, 0.47935569286346436, 0.47006887197494507, 0.10726048052310944, 0.1528695672750473, 0.10709594935178757, 0.14487004280090332, 0.9455321431159973, 0.9784151911735535, 0.9828060269355774, 0.9872041344642639, 0.9853192567825317, 0.9558043479919434, 0.9810265302658081, 0.9307383298873901, 0.9763808250427246, 0.9862361550331116, 0.9908644556999207, 0.9883078932762146, 0.9708390831947327, 0.9805964231491089, 0.99228435754776, 0.9790647029876709, 0.9214897751808167, 0.9785417914390564, 0.9586583971977234, 0.9460589289665222, 0.9939131140708923, 0.9922851324081421, 0.9560414552688599, 0.9200061559677124, 0.9886947274208069, 0.9965780377388, 0.991780698299408, 0.9919588565826416, 0.986234188079834, 0.9903302192687988, 0.9858086705207825, 0.9857419729232788, 0.9851096868515015, 0.9848474860191345, 0.9784917831420898, 0.9937653541564941, 0.9854785203933716, 0.9920761585235596, 0.9963032007217407, 0.995945394039154, 0.9932346940040588, 0.9961972236633301, 0.9984429478645325, 0.9963358640670776, 0.9879578948020935, 0.9899120926856995, 0.9911003708839417, 0.9916080236434937, 0.994263231754303, 0.9945933222770691, 0.9895235896110535, 0.9948573112487793, 0.9951748251914978, 0.995935320854187, 0.9955604076385498, 0.9948163628578186, 0.996126115322113, 0.9933731555938721, 0.9943946599960327, 0.9947788715362549, 0.9945093989372253, 0.9828982353210449, 0.9934090375900269, 0.99400794506073, 0.9925035238265991, 0.9885629415512085, 0.9890212416648865, 0.9915444850921631, 0.9721415042877197, 0.9759104251861572, 0.9905723929405212, 0.9724584221839905, 0.9723743200302124]</t>
+          <t>[0.935126781463623, 0.9418326616287231, 0.9752303957939148, 0.9850141406059265, 0.9720099568367004, 0.9885263442993164, 0.9671781659126282, 0.7356248497962952, 0.9799512624740601, 0.9810669422149658, 0.9937494993209839, 0.9972272515296936, 0.9937738180160522, 0.9916901588439941, 0.9950026869773865, 0.9949127435684204, 0.9896845817565918, 0.8631500005722046, 0.9553126692771912, 0.8698838353157043, 0.9936382174491882, 0.9978163242340088, 0.9985243678092957, 0.998701810836792, 0.9981654286384583, 0.9990330934524536, 0.998075008392334, 0.992521345615387, 0.991486132144928, 0.9905643463134766, 0.9940944314002991, 0.9924646615982056, 0.9973940849304199, 0.9974128603935242, 0.9944071769714355, 0.9883777499198914, 0.9971616268157959, 0.9899560213088989, 0.9945111274719238, 0.9902225732803345, 0.9931279420852661, 0.9950851798057556, 0.9839335083961487, 0.975661039352417, 0.9936124682426453, 0.7980981469154358, 0.9557937383651733, 0.9897825717926025, 0.9912494421005249, 0.9825998544692993, 0.9724152088165283, 0.9612652659416199, 0.9542307257652283, 0.5554556846618652, 0.4431307017803192, 0.08653612434864044, 0.08641798049211502, 0.04639466106891632, 0.1545611321926117, 0.9568833708763123, 0.9882859587669373, 0.9910715222358704, 0.995049774646759, 0.9938401579856873, 0.9853434562683105, 0.9958932399749756, 0.9843199849128723, 0.9899234175682068, 0.9954904913902283, 0.9965345859527588, 0.995959460735321, 0.9878256916999817, 0.9923898577690125, 0.9964224100112915, 0.9911023378372192, 0.9534866809844971, 0.9925888776779175, 0.9809134602546692, 0.9762033224105835, 0.9982109069824219, 0.9969322681427002, 0.984502375125885, 0.968636691570282, 0.9976767897605896, 0.9991732239723206, 0.998130738735199, 0.9984322190284729, 0.9956336617469788, 0.9953203797340393, 0.9923940896987915, 0.992606520652771, 0.9849559664726257, 0.9851796627044678, 0.989773690700531, 0.9966042041778564, 0.9900768399238586, 0.9954511523246765, 0.9981247782707214, 0.9977860450744629, 0.9967051148414612, 0.9979801774024963, 0.9994687438011169, 0.9989883303642273, 0.9969385862350464, 0.9956432580947876, 0.9962078332901001, 0.9954018592834473, 0.9970347881317139, 0.9974538683891296, 0.9953692555427551, 0.9970306158065796, 0.9965595602989197, 0.9971740245819092, 0.996245801448822, 0.9979367256164551, 0.9978942275047302, 0.9965013265609741, 0.9982056617736816, 0.9973594546318054, 0.9977288842201233, 0.9948300719261169, 0.9974014759063721, 0.9968074560165405, 0.9942559599876404, 0.9889156818389893, 0.9897933006286621, 0.9924936294555664, 0.9856861233711243, 0.9912195801734924, 0.99471515417099, 0.9830675721168518, 0.9830510020256042]</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.9984429478645325</v>
+        <v>0.9994687438011169</v>
       </c>
       <c r="F158" t="n">
         <v>1</v>
@@ -6863,10 +6863,10 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0.7443916999909561</v>
+        <v>0.7629073000134667</v>
       </c>
       <c r="J158" t="n">
-        <v>0.005639331060537546</v>
+        <v>0.005779600757677778</v>
       </c>
     </row>
     <row r="159">
@@ -6885,11 +6885,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>[0.9952479004859924, 0.9973549842834473, 0.997414231300354, 0.9975626468658447, 0.9956250786781311, 0.9974452257156372, 0.9976621866226196, 0.9862251281738281, 0.9882017970085144, 0.9890561103820801, 0.9923297762870789, 0.9900426864624023, 0.9880852699279785, 0.9759972095489502, 0.9902940988540649, 0.9912376999855042, 0.9924557209014893, 0.9961726069450378, 0.9931893348693848, 0.9926307201385498, 0.9938640594482422, 0.9960293769836426, 0.9861030578613281, 0.9904578924179077, 0.9895010590553284, 0.9879393577575684, 0.9938679337501526, 0.9874663949012756, 0.9909472465515137, 0.9931902289390564, 0.9932344555854797, 0.8638821840286255, 0.8914850950241089, 0.972293496131897, 0.9923761487007141, 0.9713281989097595, 0.9919330477714539, 0.9774346351623535, 0.9912221431732178, 0.9798031449317932, 0.9973586201667786, 0.9975186586380005, 0.9979411959648132, 0.9974422454833984, 0.9980863332748413, 0.9984757304191589, 0.9985185265541077, 0.9978272318840027, 0.9966490864753723, 0.9973449110984802, 0.9972946047782898, 0.9940847754478455, 0.9886431097984314, 0.9936479926109314, 0.9855976700782776, 0.9959266185760498, 0.995474636554718, 0.9955679774284363, 0.9963496923446655, 0.9938696622848511, 0.99456787109375, 0.9973903298377991, 0.9979766011238098, 0.9960170388221741, 0.9977201819419861, 0.9986971020698547, 0.9983862638473511, 0.9984090924263, 0.9985923171043396, 0.9985383749008179, 0.9963775277137756, 0.9712091088294983, 0.9722895622253418, 0.9608022570610046, 0.9838843941688538, 0.9976620674133301, 0.9944355487823486, 0.9807501435279846, 0.9877136945724487, 0.9868157505989075, 0.9929070472717285, 0.9980064034461975, 0.9975905418395996, 0.9932610392570496, 0.9920110106468201, 0.9922370314598083, 0.9936079978942871, 0.9919384121894836, 0.9933273792266846, 0.9911229610443115, 0.994971513748169, 0.9980983138084412, 0.995324969291687, 0.9966456294059753, 0.9930950999259949, 0.9965733289718628, 0.9966577291488647, 0.9950641989707947, 0.9945080876350403, 0.9927932024002075, 0.9925409555435181, 0.9968384504318237, 0.9974187612533569, 0.9965934157371521, 0.9954041242599487, 0.9949089884757996, 0.9979820251464844, 0.9987647533416748, 0.9986497759819031, 0.9985077977180481, 0.9967989921569824, 0.9959576725959778, 0.9941051006317139, 0.9901002049446106, 0.9945433139801025, 0.994451105594635, 0.9800515174865723, 0.9709587693214417, 0.9836175441741943, 0.9965932965278625, 0.995349109172821, 0.9950422048568726, 0.9952216744422913, 0.9937149882316589, 0.9844446182250977, 0.9953224062919617, 0.9962871074676514, 0.9940594434738159, 0.9907754063606262, 0.9920382499694824, 0.99204421043396]</t>
+          <t>[0.9985938668251038, 0.999211311340332, 0.9988810420036316, 0.9988725781440735, 0.9975380897521973, 0.9987744688987732, 0.9989919066429138, 0.9916011691093445, 0.994749128818512, 0.9919271469116211, 0.9962802529335022, 0.9948594570159912, 0.9946377873420715, 0.9836971163749695, 0.9954728484153748, 0.9961872696876526, 0.9971686005592346, 0.9988760352134705, 0.998140811920166, 0.9974648952484131, 0.9983304142951965, 0.9988534450531006, 0.9969379901885986, 0.9972436428070068, 0.9967911839485168, 0.9955145716667175, 0.9976012110710144, 0.9938191771507263, 0.9956166744232178, 0.9964545965194702, 0.996516227722168, 0.7622746229171753, 0.922244131565094, 0.9917505383491516, 0.9964162111282349, 0.9837206602096558, 0.9968523383140564, 0.9935150146484375, 0.996321439743042, 0.9939091205596924, 0.9990737438201904, 0.9992251396179199, 0.9994893074035645, 0.9992597699165344, 0.9994468092918396, 0.9996048808097839, 0.9994997978210449, 0.9990348815917969, 0.9988555908203125, 0.9990869760513306, 0.9991752505302429, 0.9978678226470947, 0.9957159161567688, 0.9976916313171387, 0.9965260624885559, 0.998853325843811, 0.9985365867614746, 0.998521625995636, 0.9984056353569031, 0.9969788789749146, 0.9971713423728943, 0.9987748265266418, 0.9991509914398193, 0.9983555674552917, 0.9990893602371216, 0.9995556473731995, 0.999605119228363, 0.9995020627975464, 0.9995536208152771, 0.9995669722557068, 0.9987744688987732, 0.9871190786361694, 0.9897168278694153, 0.9789712429046631, 0.9928818941116333, 0.999029278755188, 0.9983661770820618, 0.9906492829322815, 0.9965487122535706, 0.9958761930465698, 0.9975729584693909, 0.9993763566017151, 0.9991687536239624, 0.9974159002304077, 0.9966626763343811, 0.9962400197982788, 0.996601939201355, 0.9962069988250732, 0.9977770447731018, 0.995413601398468, 0.9979593753814697, 0.9993415474891663, 0.9983798265457153, 0.9986523985862732, 0.9973841309547424, 0.9990167617797852, 0.9986798167228699, 0.9974944591522217, 0.9977326393127441, 0.9962053894996643, 0.9962188601493835, 0.9984676241874695, 0.9987959861755371, 0.9981657862663269, 0.9975500702857971, 0.9985816478729248, 0.9993639588356018, 0.9996383190155029, 0.9995529055595398, 0.9994637370109558, 0.99836665391922, 0.9979280233383179, 0.9969196319580078, 0.9954764246940613, 0.9983661770820618, 0.9978725910186768, 0.9909824728965759, 0.9886099100112915, 0.99399733543396, 0.9987504482269287, 0.9980612397193909, 0.9981839060783386, 0.9973644614219666, 0.9967893958091736, 0.9935994148254395, 0.9982122182846069, 0.9982094764709473, 0.9975314140319824, 0.9967275857925415, 0.9970266222953796, 0.9970223307609558]</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.9987647533416748</v>
+        <v>0.9996383190155029</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -6903,10 +6903,10 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0.7526137999957427</v>
+        <v>0.788046800007578</v>
       </c>
       <c r="J159" t="n">
-        <v>0.005745143511417883</v>
+        <v>0.006015624427538763</v>
       </c>
     </row>
     <row r="160">
@@ -6925,11 +6925,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[0.9814660549163818, 0.9779991507530212, 0.9788875579833984, 0.9887344241142273, 0.9860566854476929, 0.9830917716026306, 0.9728018045425415, 0.9885778427124023, 0.9911534190177917, 0.9936221241950989, 0.9926324486732483, 0.9678022265434265, 0.989497184753418, 0.993408203125, 0.9933757185935974, 0.9922370314598083, 0.9936273097991943, 0.9955046772956848, 0.9938307404518127, 0.9937469959259033, 0.9899972677230835, 0.9866515398025513, 0.9854352474212646, 0.9832820296287537, 0.9819252490997314, 0.9811823964118958, 0.9923366904258728, 0.9861404895782471, 0.9887330532073975, 0.9825189113616943, 0.9739010334014893, 0.9720762968063354, 0.9634432792663574, 0.9581212401390076, 0.9259492754936218, 0.9634016752243042, 0.9519935250282288, 0.96098792552948, 0.9774008393287659, 0.7749438285827637, 0.5795482993125916, 0.7944020628929138, 0.7954319715499878, 0.7880569696426392, 0.7392101883888245, 0.7359922528266907, 0.9169207215309143, 0.932102382183075, 0.8801235556602478, 0.8773148059844971, 0.6658492088317871, 0.495183527469635, 0.6479890942573547, 0.4737052619457245, 0.73691326379776, 0.9125027060508728, 0.9186179637908936, 0.8724509477615356, 0.7565796375274658, 0.7478308081626892, 0.8473098278045654, 0.9103416204452515, 0.790507972240448, 0.7790740132331848, 0.5049141049385071, 0.666686475276947, 0.7637859582901001, 0.8623319268226624, 0.9386308789253235, 0.7370098233222961, 0.572765588760376, 0.3106244206428528, 0.3473301827907562, 0.37333518266677856, 0.7837702631950378, 0.7821326851844788, 0.9376718401908875, 0.8248803019523621, 0.7120563983917236, 0.8061331510543823, 0.8681283593177795, 0.8924643397331238, 0.8662805557250977, 0.9536682367324829, 0.47319725155830383, 0.20904161036014557, 0.2530413568019867, 0.2472350299358368, 0.291587233543396, 0.8427363634109497, 0.943954586982727, 0.9669731259346008, 0.9593076109886169, 0.97032231092453, 0.9817928671836853, 0.9874629378318787, 0.98373943567276, 0.9814887642860413, 0.9707094430923462, 0.8910877108573914, 0.8741174340248108, 0.8010312914848328, 0.6977905631065369, 0.7284306883811951, 0.603705883026123, 0.45807528495788574, 0.7204176783561707, 0.7130839228630066, 0.4554254710674286, 0.3408941924571991, 0.8583351969718933, 0.24465246498584747, 0.3078370988368988, 0.3092208802700043, 0.3788602948188782, 0.26378944516181946, 0.2981117069721222, 0.18220484256744385, 0.24936673045158386, 0.37768039107322693, 0.3024638295173645, 0.27397677302360535, 0.25788360834121704, 0.32565489411354065, 0.6747258305549622, 0.6979430913925171, 0.7802727222442627, 0.8573815226554871, 0.9629722237586975, 0.9066785573959351, 0.9165323376655579, 0.9163654446601868]</t>
+          <t>[0.9813762903213501, 0.9808128476142883, 0.9823525547981262, 0.9927000403404236, 0.9868583679199219, 0.9850422739982605, 0.9660332798957825, 0.9923974871635437, 0.9965692758560181, 0.9968407154083252, 0.9951632022857666, 0.9773597121238708, 0.9941245913505554, 0.9970954656600952, 0.9971852898597717, 0.9957787990570068, 0.9959192872047424, 0.9963248372077942, 0.9965090155601501, 0.9962379932403564, 0.9932138919830322, 0.9918681979179382, 0.987998366355896, 0.9880843758583069, 0.981582760810852, 0.9764335751533508, 0.9930334091186523, 0.9907594919204712, 0.992590069770813, 0.9883105754852295, 0.9675114750862122, 0.9745922684669495, 0.9667952656745911, 0.9595634341239929, 0.9328177571296692, 0.9642143845558167, 0.9527410864830017, 0.9721086025238037, 0.9850164651870728, 0.8446747064590454, 0.7714545726776123, 0.9381001591682434, 0.8814365863800049, 0.832208514213562, 0.7890340685844421, 0.7773202657699585, 0.9418864250183105, 0.9278284311294556, 0.914249837398529, 0.9440894722938538, 0.8003166913986206, 0.4713084399700165, 0.6678081750869751, 0.5244472622871399, 0.8336504101753235, 0.9709983468055725, 0.9532651901245117, 0.9564250707626343, 0.8507513403892517, 0.9272503852844238, 0.9587118625640869, 0.9717982411384583, 0.9050390720367432, 0.78141188621521, 0.48104438185691833, 0.598224937915802, 0.8187094926834106, 0.8867654800415039, 0.9524170160293579, 0.6915024518966675, 0.37411800026893616, 0.1378079652786255, 0.2825164496898651, 0.30704671144485474, 0.8672147989273071, 0.7076866626739502, 0.9408491253852844, 0.8308545351028442, 0.687868058681488, 0.8563286066055298, 0.9000709056854248, 0.9040547013282776, 0.8988323211669922, 0.9676832556724548, 0.5986543893814087, 0.2551112771034241, 0.25355854630470276, 0.3692760765552521, 0.421242356300354, 0.9064300060272217, 0.9782425761222839, 0.9653571248054504, 0.9835609197616577, 0.979663074016571, 0.9893592596054077, 0.9940979480743408, 0.9909342527389526, 0.9943495392799377, 0.9899369478225708, 0.9374591708183289, 0.9393807649612427, 0.9110615849494934, 0.8425337672233582, 0.9247409105300903, 0.8558576107025146, 0.5688489675521851, 0.8328412175178528, 0.9221007823944092, 0.34742969274520874, 0.19501662254333496, 0.8477614521980286, 0.46815067529678345, 0.5945771932601929, 0.4859183132648468, 0.34730052947998047, 0.32471027970314026, 0.3638833165168762, 0.13174280524253845, 0.16050049662590027, 0.37587878108024597, 0.226556196808815, 0.20683622360229492, 0.22378414869308472, 0.3451186716556549, 0.6544435620307922, 0.6007071733474731, 0.7059370279312134, 0.7629126906394958, 0.9565019011497498, 0.9108325839042664, 0.9324780702590942, 0.932259202003479]</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.9955046772956848</v>
+        <v>0.9971852898597717</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
@@ -6943,10 +6943,10 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0.7349211999971885</v>
+        <v>0.8744918000011239</v>
       </c>
       <c r="J160" t="n">
-        <v>0.00556758484846355</v>
+        <v>0.006624937878796393</v>
       </c>
     </row>
     <row r="161">
@@ -6965,11 +6965,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[0.41739314794540405, 0.17974483966827393, 0.29803162813186646, 0.6428064703941345, 0.35371363162994385, 0.20019635558128357, 0.17745095491409302, 0.23269031941890717, 0.26995694637298584, 0.8356834650039673, 0.7710036635398865, 0.8953766226768494, 0.6828290224075317, 0.7530131340026855, 0.6042104959487915, 0.5369055867195129, 0.8001068234443665, 0.5886869430541992, 0.7019006609916687, 0.8110840320587158, 0.9610462784767151, 0.9063584208488464, 0.7204152941703796, 0.8684129118919373, 0.8397634029388428, 0.8894115090370178, 0.9222778677940369, 0.9592413902282715, 0.9369031190872192, 0.9240655303001404, 0.9659088253974915, 0.9742230772972107, 0.9605980515480042, 0.7929553389549255, 0.8656491041183472, 0.6381993293762207, 0.8741880655288696, 0.9043985605239868, 0.6864999532699585, 0.49171167612075806, 0.5168881416320801, 0.47892388701438904, 0.7672787308692932, 0.8851792216300964, 0.9056107401847839, 0.9478055238723755, 0.9221611022949219, 0.8941510915756226, 0.8837291598320007, 0.96860271692276, 0.9846618175506592, 0.969840943813324, 0.922338604927063, 0.9547244310379028, 0.8440294861793518, 0.8721519708633423, 0.947797417640686, 0.9779832363128662, 0.976925790309906, 0.9639301896095276, 0.9527605772018433, 0.9182327389717102, 0.9131483435630798, 0.873516321182251, 0.964931070804596, 0.9652376174926758, 0.9759060144424438, 0.9594470858573914, 0.9684121608734131, 0.9712092280387878, 0.9725224375724792, 0.9458649754524231, 0.9227763414382935, 0.9597793817520142, 0.9627152681350708, 0.9529445767402649, 0.9132512211799622, 0.9288856983184814, 0.8360568881034851, 0.672793984413147, 0.7431054711341858, 0.8821147680282593, 0.6576400399208069, 0.7944431900978088, 0.8555856347084045, 0.7403473854064941, 0.9536229372024536, 0.8689237236976624, 0.7898648977279663, 0.8021535873413086, 0.4600467085838318, 0.3550555408000946, 0.5213241577148438, 0.6642800569534302, 0.5644521713256836, 0.5929015874862671, 0.9278459548950195, 0.9301753640174866, 0.9177383780479431, 0.9233869910240173, 0.9210650324821472, 0.9660517573356628, 0.9783308506011963, 0.967826247215271, 0.9717711210250854, 0.9628177881240845, 0.9319131970405579, 0.9134214520454407, 0.9276816844940186, 0.7634713053703308, 0.8319664597511292, 0.8336007595062256, 0.8871691226959229, 0.8341535329818726, 0.772282600402832, 0.6891521215438843, 0.5603891015052795, 0.8544528484344482, 0.776918351650238, 0.7457863092422485, 0.9107425212860107, 0.9845614433288574, 0.9414424300193787, 0.9650590419769287, 0.9581018686294556, 0.9374865293502808, 0.9592381715774536, 0.9818918108940125, 0.9297568798065186, 0.9564197063446045, 0.9584065675735474, 0.9585244059562683]</t>
+          <t>[0.2801411747932434, 0.14123116433620453, 0.20385578274726868, 0.5568420886993408, 0.2980066239833832, 0.16061389446258545, 0.09484507888555527, 0.20969602465629578, 0.19751837849617004, 0.8310557007789612, 0.8146143555641174, 0.9116577506065369, 0.6490625739097595, 0.6939824819564819, 0.5650753974914551, 0.6195088028907776, 0.8199198246002197, 0.5787217617034912, 0.6577802300453186, 0.7412204742431641, 0.9591701626777649, 0.9325835704803467, 0.7763894200325012, 0.8707556128501892, 0.8901354670524597, 0.9171156883239746, 0.9507486820220947, 0.9731586575508118, 0.958556056022644, 0.9553195834159851, 0.9762274026870728, 0.9757341742515564, 0.9465488195419312, 0.8025944232940674, 0.878250241279602, 0.5741804838180542, 0.8396860361099243, 0.8843945860862732, 0.5576141476631165, 0.3769068419933319, 0.390118271112442, 0.4359930455684662, 0.8143855929374695, 0.8884676098823547, 0.9230099320411682, 0.9496853947639465, 0.9245773553848267, 0.8929843902587891, 0.8563550114631653, 0.9694507718086243, 0.9862853288650513, 0.966045618057251, 0.9326615333557129, 0.9310251474380493, 0.753322422504425, 0.7981655597686768, 0.9060530662536621, 0.9728659987449646, 0.9695936441421509, 0.9380525350570679, 0.934943437576294, 0.9113339185714722, 0.8834626078605652, 0.8046437501907349, 0.9531285166740417, 0.942192018032074, 0.9713802933692932, 0.941261887550354, 0.9524543285369873, 0.9600392580032349, 0.9685851335525513, 0.9061021208763123, 0.8827337026596069, 0.9435203075408936, 0.9356998205184937, 0.9257598519325256, 0.8620801568031311, 0.9092804789543152, 0.8238007426261902, 0.5335002541542053, 0.6467090845108032, 0.8469162583351135, 0.505079984664917, 0.6947419047355652, 0.8358898162841797, 0.761805534362793, 0.9316632151603699, 0.8170340657234192, 0.5939549803733826, 0.7308403253555298, 0.2869168221950531, 0.36357396841049194, 0.45393091440200806, 0.6298758387565613, 0.52047199010849, 0.5205193758010864, 0.9026616215705872, 0.9078963994979858, 0.9186114072799683, 0.9350662231445312, 0.9329483509063721, 0.9756245017051697, 0.9795323014259338, 0.9668185710906982, 0.9761933088302612, 0.9664981961250305, 0.9393512606620789, 0.8991323113441467, 0.9133656620979309, 0.6862328052520752, 0.7902352809906006, 0.7983919978141785, 0.8844815492630005, 0.8014844059944153, 0.6897623538970947, 0.5780185461044312, 0.36828669905662537, 0.7574353814125061, 0.5682368278503418, 0.4987834393978119, 0.8876675963401794, 0.985131561756134, 0.9254961013793945, 0.9387466311454773, 0.9333105087280273, 0.9100470542907715, 0.9571718573570251, 0.9849228858947754, 0.9219855666160583, 0.9572954773902893, 0.9652811884880066, 0.9654297232627869]</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.9846618175506592</v>
+        <v>0.9862853288650513</v>
       </c>
       <c r="F161" t="n">
         <v>1</v>
@@ -6983,10 +6983,10 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0.786970500019379</v>
+        <v>0.8078195999987656</v>
       </c>
       <c r="J161" t="n">
-        <v>0.005961897727419538</v>
+        <v>0.006119845454536103</v>
       </c>
     </row>
     <row r="162">
@@ -7005,11 +7005,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>[0.9749007821083069, 0.8810037970542908, 0.7836626768112183, 0.6777225136756897, 0.73980712890625, 0.6831092834472656, 0.9081782102584839, 0.9712193608283997, 0.9657401442527771, 0.981685996055603, 0.9502325057983398, 0.8826165795326233, 0.7127019166946411, 0.7097457051277161, 0.7082294821739197, 0.666776180267334, 0.8656038641929626, 0.9137612581253052, 0.9664320349693298, 0.9388547539710999, 0.9721332788467407, 0.9352138042449951, 0.9367356300354004, 0.9252617359161377, 0.8903310298919678, 0.9187853932380676, 0.910800576210022, 0.8361477255821228, 0.9569005966186523, 0.8645780086517334, 0.7207417488098145, 0.7331966757774353, 0.8796745538711548, 0.6106463670730591, 0.4952988624572754, 0.5749495625495911, 0.9390286803245544, 0.7880715131759644, 0.8147472143173218, 0.7917349934577942, 0.6689353585243225, 0.8850928544998169, 0.8203460574150085, 0.7963843941688538, 0.8210614919662476, 0.8637973070144653, 0.6735122203826904, 0.45991384983062744, 0.5968552827835083, 0.8835645914077759, 0.890321671962738, 0.6839919090270996, 0.6556499004364014, 0.8661123514175415, 0.6443947553634644, 0.6226300597190857, 0.8561903238296509, 0.8365225791931152, 0.7974587082862854, 0.9171692728996277, 0.9681290984153748, 0.9170675873756409, 0.8640171885490417, 0.8042325377464294, 0.8950005173683167, 0.9347798824310303, 0.7949418425559998, 0.9351328015327454, 0.9312433004379272, 0.858299732208252, 0.7300870418548584, 0.871303141117096, 0.9639189839363098, 0.9618197679519653, 0.9579294323921204, 0.9382945895195007, 0.898221492767334, 0.811767578125, 0.6536610126495361, 0.656324565410614, 0.8837054967880249, 0.7642056941986084, 0.8894215822219849, 0.7578536868095398, 0.5869188904762268, 0.42268937826156616, 0.7521580457687378, 0.9672749638557434, 0.7593709826469421, 0.9646821618080139, 0.983119547367096, 0.9531835317611694, 0.9763487577438354, 0.9643982648849487, 0.9860338568687439, 0.9829216003417969, 0.9752762913703918, 0.9867736101150513, 0.982953667640686, 0.9787434935569763, 0.9819029569625854, 0.9731754660606384, 0.9678789973258972, 0.966727614402771, 0.9363835453987122, 0.9468955397605896, 0.9287142753601074, 0.43386006355285645, 0.6848430037498474, 0.8509049415588379, 0.8884475231170654, 0.9272431135177612, 0.9284306764602661, 0.8818517923355103, 0.9118362665176392, 0.9333934187889099, 0.7893564701080322, 0.6463782787322998, 0.8095230460166931, 0.8054375052452087, 0.47876161336898804, 0.6168400645256042, 0.5650684237480164, 0.7358303666114807, 0.47927579283714294, 0.6812033653259277, 0.8390437364578247, 0.7599722146987915, 0.6732807159423828, 0.8781445026397705, 0.9353093504905701, 0.9349483251571655]</t>
+          <t>[0.9507623910903931, 0.7965227365493774, 0.5821486711502075, 0.5907488465309143, 0.5041882395744324, 0.48395347595214844, 0.7962294816970825, 0.8873263001441956, 0.8997226357460022, 0.9387636780738831, 0.8474311828613281, 0.674598217010498, 0.40687671303749084, 0.33838602900505066, 0.3528132140636444, 0.3777436912059784, 0.6484640836715698, 0.7649951577186584, 0.9145508408546448, 0.8506820201873779, 0.9434067010879517, 0.8001965284347534, 0.8682779669761658, 0.8429431915283203, 0.7143896222114563, 0.799510657787323, 0.6979540586471558, 0.3526274263858795, 0.8099507689476013, 0.5927749872207642, 0.2882794141769409, 0.30682373046875, 0.6624513268470764, 0.28208446502685547, 0.11803905665874481, 0.2511241137981415, 0.895697295665741, 0.566947340965271, 0.6406426429748535, 0.5826584696769714, 0.3603988289833069, 0.810180127620697, 0.6203855872154236, 0.6157745122909546, 0.6164762377738953, 0.6898068189620972, 0.3973666727542877, 0.16536839306354523, 0.3276699185371399, 0.8511629700660706, 0.8237171173095703, 0.5004841089248657, 0.3876335322856903, 0.7272268533706665, 0.37767112255096436, 0.3842167258262634, 0.7668358683586121, 0.6778308749198914, 0.6511372327804565, 0.8762735724449158, 0.9611049890518188, 0.8226990699768066, 0.7492015957832336, 0.5625036358833313, 0.7831626534461975, 0.8329571485519409, 0.6040352582931519, 0.9018728733062744, 0.8621442317962646, 0.6708944439888, 0.5440646409988403, 0.7776181101799011, 0.9030656814575195, 0.9076135158538818, 0.9239217638969421, 0.8178220987319946, 0.8832680583000183, 0.6199933290481567, 0.471420019865036, 0.437319815158844, 0.8211159110069275, 0.6106337308883667, 0.775519609451294, 0.41090816259384155, 0.2831958532333374, 0.17836441099643707, 0.475673109292984, 0.9341884851455688, 0.5842481255531311, 0.922064483165741, 0.9738300442695618, 0.9129781126976013, 0.946799099445343, 0.8952382206916809, 0.9659436345100403, 0.9380701780319214, 0.9331375360488892, 0.9714301228523254, 0.945867657661438, 0.9377282857894897, 0.9642861485481262, 0.9150514602661133, 0.922262966632843, 0.9316263794898987, 0.8780490159988403, 0.8955180644989014, 0.8618434071540833, 0.23005342483520508, 0.4914954602718353, 0.7948850393295288, 0.792141854763031, 0.9027493596076965, 0.8758934140205383, 0.7694607973098755, 0.8298619985580444, 0.8619986772537231, 0.6621177792549133, 0.5493461489677429, 0.7400722503662109, 0.6624143123626709, 0.31920793652534485, 0.3353683352470398, 0.36118796467781067, 0.49958598613739014, 0.25368502736091614, 0.5624151229858398, 0.7469760775566101, 0.6488114595413208, 0.5904025435447693, 0.7803983688354492, 0.8967205286026001, 0.8959223628044128]</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.9867736101150513</v>
+        <v>0.9738300442695618</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0.7589392999943811</v>
+        <v>0.8397882999997819</v>
       </c>
       <c r="J162" t="n">
-        <v>0.005749540151472585</v>
+        <v>0.006362032575755923</v>
       </c>
     </row>
     <row r="163">
@@ -7045,11 +7045,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>[0.9269595742225647, 0.9430390000343323, 0.9431716203689575, 0.9433546662330627, 0.9610167145729065, 0.8664045929908752, 0.8544049859046936, 0.9649810194969177, 0.9307554960250854, 0.9583600759506226, 0.9074300527572632, 0.8587538599967957, 0.8523219227790833, 0.9394010305404663, 0.8721100091934204, 0.912009596824646, 0.9574464559555054, 0.9416932463645935, 0.9155307412147522, 0.8804838061332703, 0.9484201073646545, 0.8698170781135559, 0.914675235748291, 0.9132409691810608, 0.8556011319160461, 0.8784081339836121, 0.9776087999343872, 0.9642655849456787, 0.8850721716880798, 0.8961887359619141, 0.9722031354904175, 0.9407722353935242, 0.6948018074035645, 0.9262252449989319, 0.9489951133728027, 0.8728041648864746, 0.7587498426437378, 0.6807520985603333, 0.7126700282096863, 0.8638895153999329, 0.6956509947776794, 0.7080843448638916, 0.6500031352043152, 0.8841304183006287, 0.7432981729507446, 0.7007452845573425, 0.6765578389167786, 0.7649886012077332, 0.9040120244026184, 0.6476384997367859, 0.8209666013717651, 0.8474553823471069, 0.8869001865386963, 0.8227172493934631, 0.8936073780059814, 0.9433971047401428, 0.8879334330558777, 0.9303593039512634, 0.947903037071228, 0.9555345177650452, 0.965981662273407, 0.9697723984718323, 0.9679480791091919, 0.9647954702377319, 0.9567612409591675, 0.9649288654327393, 0.8340023756027222, 0.8769938349723816, 0.9250389933586121, 0.9003415107727051, 0.9105044007301331, 0.9074273705482483, 0.8923962712287903, 0.9445900917053223, 0.9244382977485657, 0.8968526124954224, 0.9693986773490906, 0.9426213502883911, 0.9389054179191589, 0.925025224685669, 0.8975446820259094, 0.9419494271278381, 0.9811723828315735, 0.9660635590553284, 0.9720322489738464, 0.9648221135139465, 0.9743872284889221, 0.9556674361228943, 0.9534959197044373, 0.9366903305053711, 0.8020318746566772, 0.9663606882095337, 0.9171652793884277, 0.9196046590805054, 0.6888543367385864, 0.7501919269561768, 0.9260034561157227, 0.7618682384490967, 0.7269374132156372, 0.5500170588493347, 0.8365676999092102, 0.9579307436943054, 0.9024338126182556, 0.9302003383636475, 0.8696252107620239, 0.9466870427131653, 0.9492160677909851, 0.7195554971694946, 0.8859626650810242, 0.9014270305633545, 0.9532884955406189, 0.9368659853935242, 0.9371148347854614, 0.9286683201789856, 0.7419950366020203, 0.817355751991272, 0.7897881269454956, 0.9489175081253052, 0.8841443061828613, 0.861208975315094, 0.8993173241615295, 0.8441656231880188, 0.5657960176467896, 0.9474533796310425, 0.9435681700706482, 0.9549758434295654, 0.9565167427062988, 0.9192451238632202, 0.970069169998169, 0.9546831250190735, 0.9494982361793518, 0.9496459364891052]</t>
+          <t>[0.8490251302719116, 0.8920446634292603, 0.8918269276618958, 0.8536462187767029, 0.9207839369773865, 0.7580350041389465, 0.8197399377822876, 0.95881587266922, 0.8844093084335327, 0.9395859241485596, 0.8342715501785278, 0.7376784682273865, 0.6748782992362976, 0.8789739012718201, 0.6933802366256714, 0.7721138000488281, 0.9025159478187561, 0.8387954831123352, 0.7995007634162903, 0.7579715847969055, 0.8806272149085999, 0.6615720987319946, 0.8181155920028687, 0.7992712259292603, 0.6595571637153625, 0.7117744088172913, 0.9586130380630493, 0.9473461508750916, 0.7774813175201416, 0.8598648309707642, 0.9484357833862305, 0.8569431304931641, 0.4797430634498596, 0.8521360754966736, 0.8924638628959656, 0.784437894821167, 0.5548145174980164, 0.461698979139328, 0.5116501450538635, 0.7835390567779541, 0.579334020614624, 0.5361945629119873, 0.43570736050605774, 0.7196040153503418, 0.4579717218875885, 0.3418530821800232, 0.35871946811676025, 0.41936394572257996, 0.7890515923500061, 0.37642061710357666, 0.6047734618186951, 0.6675133109092712, 0.7543173432350159, 0.6143139600753784, 0.8027415871620178, 0.8971422910690308, 0.7896656394004822, 0.8930109143257141, 0.9157333374023438, 0.9547939896583557, 0.9517385363578796, 0.9654872417449951, 0.953664243221283, 0.9673256278038025, 0.9488431811332703, 0.9462270140647888, 0.742480993270874, 0.8150837421417236, 0.894334614276886, 0.8367444276809692, 0.8489057421684265, 0.8406646251678467, 0.8502686023712158, 0.9074340462684631, 0.8710436224937439, 0.8048837780952454, 0.9450689554214478, 0.9260676503181458, 0.9204327464103699, 0.890401303768158, 0.8531779050827026, 0.9208316802978516, 0.9752233624458313, 0.9525142312049866, 0.9532407522201538, 0.9441590905189514, 0.968155562877655, 0.9287208318710327, 0.9353131055831909, 0.8600800037384033, 0.6251938939094543, 0.9250772595405579, 0.880805253982544, 0.9036006927490234, 0.5560752153396606, 0.6166001558303833, 0.8427802324295044, 0.5121574997901917, 0.4406791031360626, 0.2666487991809845, 0.7435829639434814, 0.9450388550758362, 0.8750885128974915, 0.8855457305908203, 0.8645769357681274, 0.935659646987915, 0.9362883567810059, 0.5080639123916626, 0.7782120108604431, 0.8335492014884949, 0.924456000328064, 0.8794494867324829, 0.9058265686035156, 0.896901547908783, 0.475571870803833, 0.4973714053630829, 0.4318288564682007, 0.8401122093200684, 0.6480895280838013, 0.5686031579971313, 0.7062467336654663, 0.5534753203392029, 0.20932871103286743, 0.9120696187019348, 0.9039387106895447, 0.9205530881881714, 0.9169678688049316, 0.8869560956954956, 0.960157036781311, 0.9265321493148804, 0.9302096366882324, 0.9304935932159424]</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.9811723828315735</v>
+        <v>0.9752233624458313</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -7063,10 +7063,10 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0.7499070000194479</v>
+        <v>0.8278782999987016</v>
       </c>
       <c r="J163" t="n">
-        <v>0.005681113636510969</v>
+        <v>0.006271805303020466</v>
       </c>
     </row>
     <row r="164">
@@ -7085,11 +7085,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>[0.658153772354126, 0.6941719055175781, 0.7049850225448608, 0.7991441488265991, 0.8808916807174683, 0.978120744228363, 0.9557769894599915, 0.9871217608451843, 0.9821966886520386, 0.9628303050994873, 0.9485967755317688, 0.9739028215408325, 0.9785792231559753, 0.909457802772522, 0.7557074427604675, 0.8016456961631775, 0.8634063005447388, 0.8610149025917053, 0.8020070791244507, 0.644705593585968, 0.8123650550842285, 0.8445184826850891, 0.8127222061157227, 0.9140376448631287, 0.8928568363189697, 0.792668342590332, 0.6575037837028503, 0.9414465427398682, 0.9196479916572571, 0.8270143866539001, 0.9420254826545715, 0.9169833660125732, 0.9537237882614136, 0.9833501577377319, 0.9834489226341248, 0.966948390007019, 0.972944438457489, 0.9802393317222595, 0.9686706066131592, 0.893581211566925, 0.8956155180931091, 0.9283670783042908, 0.9343023300170898, 0.9756876230239868, 0.957629919052124, 0.9477260708808899, 0.9753507971763611, 0.9385728240013123, 0.9399837851524353, 0.9859280586242676, 0.977246105670929, 0.9603761434555054, 0.922734797000885, 0.9524206519126892, 0.9761289358139038, 0.977152943611145, 0.9837179780006409, 0.9531438946723938, 0.9210512638092041, 0.9821228384971619, 0.8620404601097107, 0.9512560963630676, 0.9252244830131531, 0.8049380779266357, 0.8740158081054688, 0.8685393333435059, 0.7601681351661682, 0.7485451698303223, 0.8331418633460999, 0.6072892546653748, 0.8206654787063599, 0.836609959602356, 0.9045825004577637, 0.9579141139984131, 0.8957988619804382, 0.9487687349319458, 0.943166196346283, 0.9150336980819702, 0.9269205927848816, 0.8966101408004761, 0.9452254176139832, 0.6918030977249146, 0.926997184753418, 0.9852579236030579, 0.885788083076477, 0.9817503690719604, 0.8882675766944885, 0.9414815306663513, 0.9302091002464294, 0.9483352899551392, 0.8992041349411011, 0.8732672929763794, 0.7913867831230164, 0.8228115439414978, 0.7928385734558105, 0.8165215253829956, 0.9636379480361938, 0.9757398366928101, 0.9599248766899109, 0.9594151377677917, 0.958524227142334, 0.9254793524742126, 0.9648964405059814, 0.9824716448783875, 0.9866513013839722, 0.9730211496353149, 0.9355913996696472, 0.9303517937660217, 0.9132253527641296, 0.9384811520576477, 0.867201566696167, 0.8553523421287537, 0.8355705738067627, 0.9106485843658447, 0.9478843808174133, 0.8310469388961792, 0.8038521409034729, 0.9935646653175354, 0.9868818521499634, 0.8687421679496765, 0.8957580327987671, 0.9131181240081787, 0.883210301399231, 0.9441969990730286, 0.9652836322784424, 0.9385737776756287, 0.9198065400123596, 0.9578770399093628, 0.9839233756065369, 0.9826860427856445, 0.9440222382545471, 0.9439775347709656]</t>
+          <t>[0.25389328598976135, 0.39037859439849854, 0.5049601197242737, 0.5877120494842529, 0.7775226831436157, 0.9528341293334961, 0.8842336535453796, 0.971256673336029, 0.9685547351837158, 0.9437107443809509, 0.9180989861488342, 0.9640365242958069, 0.9698714017868042, 0.8215325474739075, 0.6133489608764648, 0.6746170520782471, 0.7980285286903381, 0.802937388420105, 0.6425337791442871, 0.43717437982559204, 0.6843066215515137, 0.7923092842102051, 0.7455414533615112, 0.9282124042510986, 0.8261986970901489, 0.6934972405433655, 0.5924525856971741, 0.9398354887962341, 0.9054124355316162, 0.8093730807304382, 0.922279417514801, 0.8989598751068115, 0.9319355487823486, 0.9849410653114319, 0.9699076414108276, 0.947483241558075, 0.9534580707550049, 0.9659536480903625, 0.937390923500061, 0.8016672730445862, 0.8572123646736145, 0.8953642845153809, 0.8738530874252319, 0.9642353057861328, 0.9322407245635986, 0.9017288684844971, 0.9516206979751587, 0.8679332733154297, 0.8778138756752014, 0.976137101650238, 0.9554008841514587, 0.9253159165382385, 0.8072290420532227, 0.9150090217590332, 0.9659723043441772, 0.97203528881073, 0.9805381894111633, 0.9324806332588196, 0.893240749835968, 0.9837316274642944, 0.8237743377685547, 0.9583380222320557, 0.9304700493812561, 0.801873505115509, 0.8860871195793152, 0.8664376139640808, 0.628715455532074, 0.7070109844207764, 0.8583078384399414, 0.652420163154602, 0.807057797908783, 0.8092962503433228, 0.9330645799636841, 0.9679895639419556, 0.9115808606147766, 0.9628787040710449, 0.944612443447113, 0.9191709756851196, 0.9487585425376892, 0.8233780264854431, 0.9312391877174377, 0.5789726376533508, 0.9199771881103516, 0.9888862371444702, 0.8579574823379517, 0.9867886304855347, 0.8851609826087952, 0.9353446960449219, 0.9403086304664612, 0.9472936391830444, 0.8875852227210999, 0.7927678227424622, 0.5677555799484253, 0.728143036365509, 0.656183123588562, 0.701028048992157, 0.9394943714141846, 0.9561364650726318, 0.923633337020874, 0.9307154417037964, 0.9431056380271912, 0.9058453440666199, 0.9514778256416321, 0.9775245189666748, 0.9876712560653687, 0.9520511031150818, 0.9177793860435486, 0.8603197336196899, 0.8694450855255127, 0.9060181379318237, 0.8070477843284607, 0.8054916858673096, 0.7287607789039612, 0.8975046277046204, 0.9465145468711853, 0.7083554863929749, 0.6999390721321106, 0.9938061237335205, 0.983712911605835, 0.8251713514328003, 0.863885223865509, 0.8946847319602966, 0.8666962385177612, 0.9420788288116455, 0.9624930024147034, 0.9480888843536377, 0.9226706624031067, 0.959767758846283, 0.9851816296577454, 0.9797739386558533, 0.9430214762687683, 0.9429616928100586]</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.9935646653175354</v>
+        <v>0.9938061237335205</v>
       </c>
       <c r="F164" t="n">
         <v>1</v>
@@ -7103,10 +7103,10 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0.7624913000036031</v>
+        <v>0.7855111999961082</v>
       </c>
       <c r="J164" t="n">
-        <v>0.005776449242451538</v>
+        <v>0.00595084242421294</v>
       </c>
     </row>
     <row r="165">
@@ -7125,11 +7125,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>[0.10401429235935211, 0.14889833331108093, 0.21816584467887878, 0.24130965769290924, 0.19538675248622894, 0.16436247527599335, 0.20940765738487244, 0.1775742918252945, 0.2514215409755707, 0.13662953674793243, 0.16920219361782074, 0.12425290793180466, 0.0697985514998436, 0.14692749083042145, 0.13044002652168274, 0.2971319854259491, 0.2016541063785553, 0.1262596696615219, 0.24172337353229523, 0.11690550297498703, 0.09079552441835403, 0.15556062757968903, 0.25894853472709656, 0.26628950238227844, 0.21604275703430176, 0.26003801822662354, 0.21301782131195068, 0.23923994600772858, 0.19044281542301178, 0.14831411838531494, 0.29279258847236633, 0.15228445827960968, 0.09775452315807343, 0.23440715670585632, 0.13438338041305542, 0.14051072299480438, 0.19221411645412445, 0.1744091957807541, 0.3176005184650421, 0.19272258877754211, 0.12224994599819183, 0.18857119977474213, 0.27424439787864685, 0.11179831624031067, 0.15796802937984467, 0.41286373138427734, 0.33322373032569885, 0.5076649188995361, 0.4462645947933197, 0.36971959471702576, 0.3572157323360443, 0.32970643043518066, 0.23623976111412048, 0.6642950773239136, 0.4984131157398224, 0.5259785652160645, 0.6907893419265747, 0.36982792615890503, 0.22382429242134094, 0.17985181510448456, 0.1681147664785385, 0.2543613612651825, 0.34859246015548706, 0.30799734592437744, 0.5555925369262695, 0.4504324197769165, 0.530266284942627, 0.701881468296051, 0.45324066281318665, 0.3322715163230896, 0.5578579902648926, 0.4159216582775116, 0.2622005343437195, 0.3027421534061432, 0.21308660507202148, 0.20587916672229767, 0.21686354279518127, 0.398885041475296, 0.47618019580841064, 0.4346129596233368, 0.6934413909912109, 0.35960692167282104, 0.7787740230560303, 0.7010822892189026, 0.6926940679550171, 0.38879814743995667, 0.45107606053352356, 0.35226669907569885, 0.4521265923976898, 0.6582403182983398, 0.30862540006637573, 0.23271356523036957, 0.26506108045578003, 0.33421382308006287, 0.25823166966438293, 0.16919325292110443, 0.22576798498630524, 0.4084379971027374, 0.22517170011997223, 0.24633969366550446, 0.18901872634887695, 0.16639743745326996, 0.24594269692897797, 0.2274714559316635, 0.11260513961315155, 0.16134676337242126, 0.22977787256240845, 0.2576567828655243, 0.292843759059906, 0.2380153238773346, 0.23859921097755432]</t>
+          <t>[0.05560297146439552, 0.09001095592975616, 0.15659767389297485, 0.14856617152690887, 0.08992708474397659, 0.11566989868879318, 0.11066730320453644, 0.09421234577894211, 0.13138554990291595, 0.0729767307639122, 0.08298169821500778, 0.07790271192789078, 0.03295811265707016, 0.09214350581169128, 0.0762762799859047, 0.2800753116607666, 0.16288213431835175, 0.08847512304782867, 0.15610116720199585, 0.06727215647697449, 0.05598815903067589, 0.16227194666862488, 0.172678604722023, 0.19177459180355072, 0.15344548225402832, 0.1744665652513504, 0.1140613704919815, 0.2486220747232437, 0.19141270220279694, 0.15303729474544525, 0.21865800023078918, 0.08347874134778976, 0.053793858736753464, 0.1354368031024933, 0.06481582671403885, 0.09383369982242584, 0.1396506279706955, 0.09007737040519714, 0.23447827994823456, 0.13397762179374695, 0.062011267989873886, 0.07191898673772812, 0.1323624700307846, 0.06266960501670837, 0.09247448295354843, 0.24173997342586517, 0.23045098781585693, 0.37212321162223816, 0.344661146402359, 0.19892577826976776, 0.2059737741947174, 0.23523633182048798, 0.14271318912506104, 0.513688862323761, 0.3649696111679077, 0.3119196593761444, 0.5597841739654541, 0.3215268850326538, 0.20156165957450867, 0.11956333369016647, 0.13331656157970428, 0.20988641679286957, 0.23887765407562256, 0.22030526399612427, 0.4749182462692261, 0.32594892382621765, 0.4560983180999756, 0.6016543507575989, 0.292209267616272, 0.21337847411632538, 0.3714368939399719, 0.28674834966659546, 0.16175393760204315, 0.26696154475212097, 0.16082003712654114, 0.18397516012191772, 0.161302849650383, 0.2679521441459656, 0.43825510144233704, 0.39789432287216187, 0.6443642973899841, 0.25327715277671814, 0.6684742569923401, 0.6831103563308716, 0.5744335651397705, 0.28143200278282166, 0.2957006096839905, 0.17831118404865265, 0.2864522635936737, 0.5635116696357727, 0.2417159080505371, 0.12241364270448685, 0.19078661501407623, 0.2539900839328766, 0.18689309060573578, 0.10294075310230255, 0.15465471148490906, 0.27692750096321106, 0.17633862793445587, 0.23472803831100464, 0.15924859046936035, 0.12780028581619263, 0.18432195484638214, 0.17582011222839355, 0.05926024541258812, 0.14181587100028992, 0.16862840950489044, 0.2002284675836563, 0.24001997709274292, 0.21728971600532532, 0.21804235875606537]</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.7787740230560303</v>
+        <v>0.6831103563308716</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
@@ -7143,10 +7143,10 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0.6339456999849062</v>
+        <v>0.6358393000118667</v>
       </c>
       <c r="J165" t="n">
-        <v>0.005711222522386543</v>
+        <v>0.005728281982088889</v>
       </c>
     </row>
     <row r="166">
@@ -7165,11 +7165,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>[0.12038031220436096, 0.13264207541942596, 0.10540296137332916, 0.11088120937347412, 0.11959294229745865, 0.09109564125537872, 0.10538230091333389, 0.2290961891412735, 0.17129449546337128, 0.15398354828357697, 0.12410205602645874, 0.13297560811042786, 0.1425233632326126, 0.1462976038455963, 0.20911633968353271, 0.14144301414489746, 0.2162378877401352, 0.1725674867630005, 0.20465534925460815, 0.10506629943847656, 0.1558108776807785, 0.1949300467967987, 0.37650302052497864, 0.21772311627864838, 0.0973355770111084, 0.154767245054245, 0.13649071753025055, 0.17946630716323853, 0.16788730025291443, 0.2391824871301651, 0.12691320478916168, 0.289195716381073, 0.27760830521583557, 0.3580116033554077, 0.24539917707443237, 0.2727890908718109, 0.37914741039276123, 0.17542369663715363, 0.2048599272966385, 0.23257926106452942, 0.5564879179000854, 0.741972804069519, 0.6678881049156189, 0.5763784050941467, 0.3827286660671234, 0.4746846854686737, 0.1564599722623825, 0.34475943446159363, 0.16157406568527222, 0.1853928118944168, 0.10172003507614136, 0.10651645809412003, 0.07489481568336487, 0.11292552202939987, 0.10671404749155045, 0.20852498710155487, 0.1917070895433426, 0.1751834601163864, 0.13143743574619293, 0.13073115050792694, 0.3456270396709442, 0.38126340508461, 0.19408251345157623, 0.10673674941062927, 0.1176440417766571, 0.08812561631202698, 0.0856647938489914, 0.217024028301239, 0.17236094176769257, 0.11450102180242538, 0.2095409780740738, 0.15707330405712128, 0.1271257996559143, 0.08157356083393097, 0.24869264662265778, 0.08613652735948563, 0.1109115406870842, 0.3657774031162262, 0.21679779887199402, 0.154887393116951, 0.08439979702234268, 0.15277911722660065, 0.1604251116514206, 0.5077570676803589, 0.4270875155925751, 0.28366395831108093, 0.2570267915725708, 0.35991838574409485, 0.181669682264328, 0.12336667627096176, 0.1044440045952797, 0.19310902059078217, 0.1632080227136612, 0.16015899181365967, 0.20303137600421906, 0.30790871381759644, 0.3241700530052185, 0.28042566776275635, 0.328652024269104, 0.2020098865032196, 0.2651452422142029, 0.13146145641803741, 0.0878579244017601, 0.10707420110702515, 0.12709778547286987, 0.13419808447360992, 0.129649817943573, 0.15364931523799896, 0.09601998329162598, 0.13257773220539093, 0.1430121809244156, 0.14308753609657288]</t>
+          <t>[0.08590086549520493, 0.08404398709535599, 0.07210490107536316, 0.06745272129774094, 0.06990183144807816, 0.04541362449526787, 0.056868456304073334, 0.17360329627990723, 0.09711089730262756, 0.07137817144393921, 0.08701875805854797, 0.14097170531749725, 0.0782318264245987, 0.08254437148571014, 0.18964168429374695, 0.10937565565109253, 0.14527559280395508, 0.12490870803594589, 0.15954236686229706, 0.07876081764698029, 0.12395456433296204, 0.12042225152254105, 0.31982943415641785, 0.16258637607097626, 0.05371392145752907, 0.09400004893541336, 0.06720404326915741, 0.07832994312047958, 0.07453376799821854, 0.1301111876964569, 0.04733406752347946, 0.15110847353935242, 0.17168296873569489, 0.1758222132921219, 0.13184858858585358, 0.1350579410791397, 0.20431175827980042, 0.06616523116827011, 0.10898701101541519, 0.18483729660511017, 0.3927891254425049, 0.7251675128936768, 0.6867943406105042, 0.5406116247177124, 0.18347007036209106, 0.3908270597457886, 0.08211518079042435, 0.3228961229324341, 0.08836919814348221, 0.08611323684453964, 0.0361049622297287, 0.05464297905564308, 0.02877996303141117, 0.03392961248755455, 0.032394181936979294, 0.08414901793003082, 0.06387365609407425, 0.04424327239394188, 0.03378845378756523, 0.03964301571249962, 0.1875060349702835, 0.19586677849292755, 0.07111784815788269, 0.02640252560377121, 0.03191285580396652, 0.022973330691456795, 0.028536774218082428, 0.1343555897474289, 0.08224362134933472, 0.04366295784711838, 0.08065611124038696, 0.04952561482787132, 0.05278216302394867, 0.01942411996424198, 0.0817013531923294, 0.026848161593079567, 0.038264621049165726, 0.36249062418937683, 0.0627526193857193, 0.052052609622478485, 0.022129498422145844, 0.046173568814992905, 0.048501040786504745, 0.3600778877735138, 0.200822651386261, 0.13221284747123718, 0.13531020283699036, 0.15062224864959717, 0.05631324276328087, 0.036831241101026535, 0.029633404687047005, 0.050870899111032486, 0.044307027012109756, 0.05448196828365326, 0.0702095627784729, 0.10089138895273209, 0.1451512575149536, 0.11690886318683624, 0.13717465102672577, 0.06614655256271362, 0.1063745766878128, 0.04029429331421852, 0.02356400527060032, 0.024446073919534683, 0.038937363773584366, 0.04777555167675018, 0.04321080818772316, 0.06107835844159126, 0.03164856508374214, 0.043262992054224014, 0.04598010703921318, 0.045889757573604584]</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.741972804069519</v>
+        <v>0.7251675128936768</v>
       </c>
       <c r="F166" t="n">
         <v>1</v>
@@ -7183,10 +7183,10 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0.643600300012622</v>
+        <v>0.6380081000097562</v>
       </c>
       <c r="J166" t="n">
-        <v>0.005746431250112697</v>
+        <v>0.005696500892944252</v>
       </c>
     </row>
     <row r="167">
@@ -7205,11 +7205,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>[0.2376166433095932, 0.22095324099063873, 0.21538898348808289, 0.3176273703575134, 0.3834833800792694, 0.49433740973472595, 0.8485814929008484, 0.5924827456474304, 0.5929169654846191, 0.8181050419807434, 0.5478389859199524, 0.8896717429161072, 0.9659916758537292, 0.2481992095708847, 0.5355516076087952, 0.9691213965415955, 0.9481416344642639, 0.8533444404602051, 0.8982481360435486, 0.9180557727813721, 0.9247993230819702, 0.9490204453468323, 0.8548637628555298, 0.7679886817932129, 0.8104907274246216, 0.9615183472633362, 0.9194666743278503, 0.8179268836975098, 0.7635613083839417, 0.9201185703277588, 0.9043517708778381, 0.8076997995376587, 0.889506995677948, 0.7293537259101868, 0.6916249990463257, 0.9493986964225769, 0.9664216041564941, 0.903285562992096, 0.6448577642440796, 0.600305438041687, 0.6021865606307983, 0.5749923586845398, 0.35313674807548523, 0.6137738227844238, 0.5999851226806641, 0.6247907280921936, 0.6537180542945862, 0.5725015997886658, 0.5996295213699341, 0.29815250635147095, 0.4543951153755188, 0.7987685203552246, 0.7620912194252014, 0.43495383858680725, 0.25753718614578247, 0.38367652893066406, 0.1673377901315689, 0.26921015977859497, 0.6593857407569885, 0.5826588869094849, 0.18415169417858124, 0.6421024203300476, 0.8936238288879395, 0.8791037201881409, 0.8813061714172363, 0.9459368586540222, 0.9506803154945374, 0.6924721002578735, 0.5327364206314087, 0.6570429801940918, 0.40435293316841125, 0.7424608469009399, 0.4359663128852844, 0.44160374999046326, 0.48013874888420105, 0.44100791215896606, 0.8319733738899231, 0.8734098076820374, 0.7902635931968689, 0.9212271571159363, 0.8841440081596375, 0.9285566806793213, 0.9465597867965698, 0.8897045850753784, 0.8344617486000061, 0.8854707479476929, 0.8546698093414307, 0.7903116345405579, 0.3768223226070404, 0.29059576988220215, 0.24673794209957123, 0.2587428092956543, 0.45932602882385254, 0.5005924701690674, 0.5318950414657593, 0.3400926887989044, 0.43479105830192566, 0.20803338289260864, 0.8807463645935059, 0.6916285157203674, 0.6811313629150391, 0.29597559571266174, 0.24026480317115784, 0.5366153120994568, 0.8656708002090454, 0.9140119552612305, 0.7145416736602783, 0.40127649903297424, 0.6266815066337585, 0.6543284058570862, 0.9323365688323975, 0.9325808882713318]</t>
+          <t>[0.20749787986278534, 0.1236247792840004, 0.13123629987239838, 0.24537956714630127, 0.33803319931030273, 0.5512812733650208, 0.8113883137702942, 0.6016969680786133, 0.6711415648460388, 0.8840243816375732, 0.5539030432701111, 0.9290078282356262, 0.9732855558395386, 0.28735408186912537, 0.584143340587616, 0.9675777554512024, 0.9525658488273621, 0.894405722618103, 0.9351468086242676, 0.9372850060462952, 0.9335564970970154, 0.9472718834877014, 0.8936417698860168, 0.821819007396698, 0.8567192554473877, 0.9802049994468689, 0.9651859998703003, 0.8762166500091553, 0.8402552604675293, 0.9005186557769775, 0.9315485954284668, 0.8220458626747131, 0.8955862522125244, 0.7417442798614502, 0.7360708713531494, 0.9433917999267578, 0.9749650359153748, 0.9205392599105835, 0.47722989320755005, 0.6413700580596924, 0.6887871026992798, 0.566338300704956, 0.2961660921573639, 0.6154162883758545, 0.5547361969947815, 0.5917640328407288, 0.5977839827537537, 0.46804577112197876, 0.5115853548049927, 0.2297116070985794, 0.3786577582359314, 0.8397353887557983, 0.7257883548736572, 0.4441400170326233, 0.18999722599983215, 0.39470285177230835, 0.16448332369327545, 0.3428119421005249, 0.7861689329147339, 0.6634288430213928, 0.19564712047576904, 0.6166988611221313, 0.9088301062583923, 0.9073004722595215, 0.9274534583091736, 0.9537288546562195, 0.9641985893249512, 0.6822130084037781, 0.4896830916404724, 0.670514702796936, 0.4365016520023346, 0.7834649682044983, 0.38363808393478394, 0.4371371567249298, 0.42018193006515503, 0.3524933457374573, 0.8671419620513916, 0.9193869829177856, 0.827662467956543, 0.9388729333877563, 0.8672629594802856, 0.9390122890472412, 0.9672605991363525, 0.926490068435669, 0.8328618407249451, 0.9224746227264404, 0.8987249732017517, 0.8840824961662292, 0.41800791025161743, 0.35248154401779175, 0.16635757684707642, 0.18609365820884705, 0.5662870407104492, 0.6172497272491455, 0.5866164565086365, 0.26122069358825684, 0.484859436750412, 0.18239179253578186, 0.9163171052932739, 0.7747009992599487, 0.7903518676757812, 0.24581193923950195, 0.21874186396598816, 0.6181670427322388, 0.9196447730064392, 0.965613842010498, 0.7485425472259521, 0.4222915470600128, 0.6517180800437927, 0.5898602604866028, 0.9404217600822449, 0.9407099485397339]</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.9691213965415955</v>
+        <v>0.9802049994468689</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
@@ -7223,10 +7223,10 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>0.6524921999953222</v>
+        <v>0.6434221000090474</v>
       </c>
       <c r="J167" t="n">
-        <v>0.005825823214243948</v>
+        <v>0.00574484017865221</v>
       </c>
     </row>
     <row r="168">
@@ -7245,11 +7245,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>[0.18053343892097473, 0.24920594692230225, 0.16942523419857025, 0.17504280805587769, 0.21568232774734497, 0.36933568120002747, 0.3732704818248749, 0.3854537308216095, 0.14134888350963593, 0.17660026252269745, 0.48139771819114685, 0.3112943172454834, 0.16965703666210175, 0.5048347115516663, 0.39713597297668457, 0.3493119776248932, 0.3961561322212219, 0.4972072243690491, 0.5231777429580688, 0.3662336766719818, 0.26395609974861145, 0.2565116882324219, 0.3937753140926361, 0.1900736391544342, 0.6503223180770874, 0.4529120624065399, 0.266387939453125, 0.40593013167381287, 0.42286381125450134, 0.6217111349105835, 0.8120772242546082, 0.381037175655365, 0.23220549523830414, 0.5283706784248352, 0.31528759002685547, 0.2249176800251007, 0.45776960253715515, 0.34699952602386475, 0.2944384813308716, 0.13915488123893738, 0.1688169538974762, 0.2311467081308365, 0.6448692083358765, 0.43275344371795654, 0.3014080822467804, 0.4904746413230896, 0.5149878263473511, 0.32156291604042053, 0.6159749627113342, 0.7011656165122986, 0.3798414170742035, 0.4397803246974945, 0.7183635234832764, 0.6634455323219299, 0.6199132204055786, 0.808978796005249, 0.7341267466545105, 0.6753242015838623, 0.6570591926574707, 0.7460116744041443, 0.5296802520751953, 0.447540819644928, 0.21187075972557068, 0.2132190614938736, 0.3321789503097534, 0.2667340338230133, 0.1718631535768509, 0.27900776267051697, 0.3338613510131836, 0.4583820104598999, 0.568236768245697, 0.4179580807685852, 0.4100973904132843, 0.7453718185424805, 0.45124873518943787, 0.8285214304924011, 0.9295573234558105, 0.4658055305480957, 0.46764248609542847, 0.17260929942131042, 0.19148072600364685, 0.48921459913253784, 0.3601405918598175, 0.3435075879096985, 0.3190293610095978, 0.7309176921844482, 0.11299509555101395, 0.2342885285615921, 0.44750407338142395, 0.14140509068965912, 0.734510064125061, 0.7253233194351196, 0.42726263403892517, 0.5745355486869812, 0.2776300609111786, 0.5272848606109619, 0.6710647344589233, 0.8504594564437866, 0.6257903575897217, 0.47096386551856995, 0.48993104696273804, 0.6893166899681091, 0.7775264978408813, 0.9107245206832886, 0.5614370703697205, 0.7545096278190613, 0.5243212580680847, 0.4544213116168976, 0.36632323265075684, 0.6796020269393921, 0.7506151795387268, 0.7506151795387268]</t>
+          <t>[0.11643289774656296, 0.11528346687555313, 0.11699312925338745, 0.18282367289066315, 0.19404028356075287, 0.4127400815486908, 0.34279319643974304, 0.29290419816970825, 0.08116468042135239, 0.10154922306537628, 0.5008358955383301, 0.4448317885398865, 0.09346991777420044, 0.5028361678123474, 0.3652382791042328, 0.2530921399593353, 0.3142774999141693, 0.37816816568374634, 0.4611680209636688, 0.2508716881275177, 0.22820281982421875, 0.1900644153356552, 0.2565237879753113, 0.13797935843467712, 0.669655978679657, 0.40536653995513916, 0.2560064494609833, 0.362353652715683, 0.3916180431842804, 0.5254697203636169, 0.8681893944740295, 0.3557789921760559, 0.285974383354187, 0.4911811649799347, 0.2495342642068863, 0.13591524958610535, 0.35874709486961365, 0.24976158142089844, 0.22159229218959808, 0.08664070814847946, 0.14051982760429382, 0.24720607697963715, 0.6909927129745483, 0.3731388449668884, 0.3883132040500641, 0.5213690400123596, 0.5349000692367554, 0.27313482761383057, 0.5853360891342163, 0.7543810606002808, 0.32880738377571106, 0.409900039434433, 0.6765822172164917, 0.6780855655670166, 0.51364666223526, 0.8099962472915649, 0.7373532056808472, 0.6941137313842773, 0.6759901642799377, 0.7173038721084595, 0.45108193159103394, 0.4613260328769684, 0.13026277720928192, 0.12211065739393234, 0.20994171500205994, 0.13855823874473572, 0.09904245287179947, 0.21540458500385284, 0.20628221333026886, 0.4617241322994232, 0.6384125351905823, 0.28106826543807983, 0.3165297508239746, 0.7607704401016235, 0.40145787596702576, 0.8360216021537781, 0.9176397919654846, 0.4014038145542145, 0.375285804271698, 0.20467223227024078, 0.15870338678359985, 0.5875933170318604, 0.3547229468822479, 0.33634594082832336, 0.2722262740135193, 0.7278438806533813, 0.0844779685139656, 0.22302702069282532, 0.46417149901390076, 0.09898663312196732, 0.6461265087127686, 0.8164079189300537, 0.42796647548675537, 0.4959985911846161, 0.2338973879814148, 0.3673582077026367, 0.7189350724220276, 0.8755078911781311, 0.5913769602775574, 0.42280563712120056, 0.44440722465515137, 0.7085859775543213, 0.8806873559951782, 0.9292926788330078, 0.6362428069114685, 0.7536209225654602, 0.554733157157898, 0.48446938395500183, 0.2535270154476166, 0.5974510312080383, 0.6398727893829346, 0.6398727893829346]</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.9295573234558105</v>
+        <v>0.9292926788330078</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
@@ -7263,10 +7263,10 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0.647141699999338</v>
+        <v>0.6467979000008199</v>
       </c>
       <c r="J168" t="n">
-        <v>0.005778050892851232</v>
+        <v>0.005774981250007321</v>
       </c>
     </row>
     <row r="169">
@@ -7285,11 +7285,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>[0.5063248872756958, 0.8394064903259277, 0.9019699096679688, 0.8812837600708008, 0.949587881565094, 0.8887676000595093, 0.7833041548728943, 0.2655504643917084, 0.27653253078460693, 0.19844424724578857, 0.16451790928840637, 0.22556816041469574, 0.5245500802993774, 0.5896721482276917, 0.8629555702209473, 0.990562379360199, 0.9792833924293518, 0.9688186049461365, 0.9641799926757812, 0.8276264071464539, 0.6939117312431335, 0.724229097366333, 0.6268885731697083, 0.47112536430358887, 0.54978346824646, 0.4007890820503235, 0.4896335005760193, 0.9638803005218506, 0.9223267436027527, 0.7225092053413391, 0.8279270529747009, 0.8905967473983765, 0.8044576644897461, 0.7401411533355713, 0.4851050078868866, 0.7780762910842896, 0.9185580015182495, 0.6830023527145386, 0.6888513565063477, 0.7472055554389954, 0.8174935579299927, 0.8685787916183472, 0.8367099761962891, 0.45918798446655273, 0.5767624378204346, 0.6592466831207275, 0.7551491856575012, 0.8568193912506104, 0.7391917109489441, 0.647219717502594, 0.5705851912498474, 0.5384429097175598, 0.33640050888061523, 0.6896814703941345, 0.6511960029602051, 0.49315014481544495, 0.6474327445030212, 0.8938716053962708, 0.7036017775535583, 0.7547908425331116, 0.6367253661155701, 0.28181779384613037, 0.3187040090560913, 0.7526660561561584, 0.5583852529525757, 0.38524535298347473, 0.383554071187973, 0.27808600664138794, 0.18544287979602814, 0.4278547167778015, 0.7205955386161804, 0.6675264239311218, 0.8707728981971741, 0.9191569685935974, 0.8787438273429871, 0.8938354253768921, 0.7101784348487854, 0.531028687953949, 0.6128016710281372, 0.49992844462394714, 0.9096245169639587, 0.9138928651809692, 0.8936459422111511, 0.8502817749977112, 0.5539678931236267, 0.7162570357322693, 0.3804938495159149, 0.503525972366333, 0.5701513886451721, 0.3888106048107147, 0.45120224356651306, 0.5316205024719238, 0.6160340309143066, 0.8024643659591675, 0.22589297592639923, 0.7408220171928406, 0.7262692451477051, 0.8751869201660156, 0.881485641002655, 0.8699911832809448, 0.6720670461654663, 0.6618690490722656, 0.8905487060546875, 0.668859601020813, 0.6078794002532959, 0.7496621012687683, 0.9028095006942749, 0.752685546875, 0.9007560014724731, 0.7603124380111694, 0.7597848176956177]</t>
+          <t>[0.4201289713382721, 0.758370578289032, 0.8489570021629333, 0.8856688141822815, 0.946902871131897, 0.7681226134300232, 0.6932990550994873, 0.20212125778198242, 0.1736995428800583, 0.13566933572292328, 0.0901770293712616, 0.16715338826179504, 0.5834312438964844, 0.6648730039596558, 0.9223114252090454, 0.9936214089393616, 0.9752029776573181, 0.9674752354621887, 0.9695327877998352, 0.8134109377861023, 0.6524190902709961, 0.692308247089386, 0.6455633640289307, 0.47262486815452576, 0.6985565423965454, 0.47710952162742615, 0.5419510006904602, 0.9794731736183167, 0.8820103406906128, 0.6503588557243347, 0.7484215497970581, 0.868092954158783, 0.7956525683403015, 0.7361507415771484, 0.37638571858406067, 0.6910527944564819, 0.8562855124473572, 0.637433648109436, 0.6441217660903931, 0.6579796075820923, 0.7726803421974182, 0.8076667189598083, 0.8112667798995972, 0.38722923398017883, 0.50741046667099, 0.6195515394210815, 0.7078850865364075, 0.8226284384727478, 0.7160425782203674, 0.5635048151016235, 0.4972285032272339, 0.4782213270664215, 0.29846054315567017, 0.7073274850845337, 0.520305335521698, 0.4370209574699402, 0.5312574505805969, 0.8706263899803162, 0.5698633790016174, 0.7288404703140259, 0.5951493978500366, 0.2363108992576599, 0.2793636620044708, 0.7284754514694214, 0.4843886196613312, 0.2547764778137207, 0.48082128167152405, 0.28272882103919983, 0.2201782763004303, 0.45512551069259644, 0.6634554862976074, 0.7624855637550354, 0.8976535201072693, 0.9087548851966858, 0.8938917517662048, 0.9308024644851685, 0.691308319568634, 0.5856085419654846, 0.4696911573410034, 0.584906280040741, 0.9328842163085938, 0.9326390624046326, 0.9257558584213257, 0.8850785493850708, 0.5885044932365417, 0.7046350836753845, 0.444211483001709, 0.5272058844566345, 0.612890362739563, 0.23296613991260529, 0.3731844425201416, 0.4481274485588074, 0.4589352309703827, 0.7698234915733337, 0.23768875002861023, 0.7733005285263062, 0.7512190341949463, 0.8227776288986206, 0.8375579714775085, 0.8413249850273132, 0.6265469193458557, 0.6932333707809448, 0.8708232641220093, 0.7344715595245361, 0.6680999398231506, 0.7870221734046936, 0.931434154510498, 0.81687992811203, 0.9083034992218018, 0.7702433466911316, 0.7698056697845459]</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.990562379360199</v>
+        <v>0.9936214089393616</v>
       </c>
       <c r="F169" t="n">
         <v>1</v>
@@ -7303,10 +7303,10 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0.6398182999982964</v>
+        <v>0.6393669999961276</v>
       </c>
       <c r="J169" t="n">
-        <v>0.005764128828813482</v>
+        <v>0.005760063063028177</v>
       </c>
     </row>
     <row r="170">
@@ -7325,11 +7325,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>[0.7438711524009705, 0.14652281999588013, 0.23038256168365479, 0.08549073338508606, 0.13089995086193085, 0.174010768532753, 0.26540714502334595, 0.5236340761184692, 0.20374447107315063, 0.1882532835006714, 0.14172124862670898, 0.12750455737113953, 0.06620094180107117, 0.07150803506374359, 0.08891372382640839, 0.07477548718452454, 0.07768890261650085, 0.09544402360916138, 0.11774734407663345, 0.37486955523490906, 0.1119154691696167, 0.17285378277301788, 0.18934817612171173, 0.2426649034023285, 0.13238033652305603, 0.4724379777908325, 0.312407910823822, 0.32933396100997925, 0.4387494921684265, 0.6176580786705017, 0.7733306884765625, 0.7407077550888062, 0.7943815588951111, 0.8691108822822571, 0.5601348280906677, 0.28808271884918213, 0.21846869587898254, 0.28535518050193787, 0.7531014084815979, 0.9124772548675537, 0.9323726296424866, 0.7385208606719971, 0.6627566814422607, 0.4624798893928528, 0.5964730978012085, 0.7475830316543579, 0.48526936769485474, 0.2668618857860565, 0.23715254664421082, 0.25011110305786133, 0.1585720330476761, 0.16440758109092712, 0.18846681714057922, 0.4585237503051758, 0.6305990219116211, 0.14769574999809265, 0.2269890457391739, 0.09969920665025711, 0.5586958527565002, 0.3172541856765747, 0.16298311948776245, 0.09789691120386124, 0.0493117980659008, 0.037879932671785355, 0.05299513787031174, 0.038903992623090744, 0.12070018798112869, 0.10126864910125732, 0.11012692004442215, 0.07701735198497772, 0.0704265907406807, 0.08465498685836792, 0.28070831298828125, 0.288461834192276, 0.14611831307411194, 0.20652633905410767, 0.3723360598087311, 0.2907177805900574, 0.3454277813434601, 0.09017693996429443, 0.0968892052769661, 0.17312149703502655, 0.20871810615062714, 0.25198060274124146, 0.18184851109981537, 0.3063696324825287, 0.47982409596443176, 0.1743866503238678, 0.4359734058380127, 0.5826328992843628, 0.4701680839061737, 0.47659850120544434, 0.30214187502861023, 0.31517672538757324, 0.4193592071533203, 0.8655439019203186, 0.6188063621520996, 0.5192964673042297, 0.2367413491010666, 0.41183173656463623, 0.2324191927909851, 0.5050983428955078, 0.17600959539413452, 0.2628917992115021, 0.3151738941669464, 0.34010306000709534, 0.18780674040317535, 0.2106030285358429, 0.29077208042144775, 0.34594589471817017, 0.21069584786891937, 0.21076862514019012]</t>
+          <t>[0.555606484413147, 0.09644285589456558, 0.1423904150724411, 0.0395294651389122, 0.08402025699615479, 0.132807195186615, 0.20124049484729767, 0.502589762210846, 0.16634038090705872, 0.14427517354488373, 0.13780033588409424, 0.09036072343587875, 0.026624318212270737, 0.02619870938360691, 0.04953606426715851, 0.03621459752321243, 0.03633967787027359, 0.060754936188459396, 0.10653785616159439, 0.4828721880912781, 0.07457640022039413, 0.06104244291782379, 0.1362106055021286, 0.1777462214231491, 0.06770970672369003, 0.4852709472179413, 0.3078378438949585, 0.2588556706905365, 0.38327398896217346, 0.6644808650016785, 0.7615410089492798, 0.7787954211235046, 0.8755231499671936, 0.8661690950393677, 0.5768449902534485, 0.33228999376296997, 0.15564705431461334, 0.20481804013252258, 0.722420871257782, 0.8989503383636475, 0.9239481091499329, 0.7015196084976196, 0.6934725642204285, 0.3499950170516968, 0.4701259136199951, 0.6395871043205261, 0.527126669883728, 0.2073689103126526, 0.13428787887096405, 0.1644943803548813, 0.11487888544797897, 0.09138704836368561, 0.1074136346578598, 0.2732381224632263, 0.5081555843353271, 0.09099267423152924, 0.14337986707687378, 0.04860301688313484, 0.4731156527996063, 0.2922714352607727, 0.07323379069566727, 0.04733051359653473, 0.01575830578804016, 0.01496964693069458, 0.025743210688233376, 0.018731920048594475, 0.06195921450853348, 0.05397980660200119, 0.05770226940512657, 0.025509994477033615, 0.024686172604560852, 0.037223439663648605, 0.16164512932300568, 0.19797761738300323, 0.1053714007139206, 0.22125661373138428, 0.2514917850494385, 0.16907860338687897, 0.2803886830806732, 0.050620708614587784, 0.04411204159259796, 0.10160613805055618, 0.19652950763702393, 0.17450229823589325, 0.1139356940984726, 0.21350446343421936, 0.39541569352149963, 0.13367386162281036, 0.2866611182689667, 0.43162423372268677, 0.33492401242256165, 0.4043753743171692, 0.27245423197746277, 0.23874111473560333, 0.36793214082717896, 0.8506073355674744, 0.5683308839797974, 0.5505017638206482, 0.2631937265396118, 0.4752127528190613, 0.2554500997066498, 0.5089975595474243, 0.1353546679019928, 0.24152544140815735, 0.4039365351200104, 0.4109501242637634, 0.2039589136838913, 0.25825998187065125, 0.36624714732170105, 0.4467464089393616, 0.13473786413669586, 0.13411357998847961]</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.9323726296424866</v>
+        <v>0.9239481091499329</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>0.6433748999843374</v>
+        <v>0.6430243999930099</v>
       </c>
       <c r="J170" t="n">
-        <v>0.005744418749860155</v>
+        <v>0.005741289285651874</v>
       </c>
     </row>
     <row r="171">
@@ -7365,11 +7365,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>[0.2549712657928467, 0.38173410296440125, 0.2924153804779053, 0.17709696292877197, 0.29174700379371643, 0.5015327334403992, 0.3683466911315918, 0.13620160520076752, 0.20368295907974243, 0.09022670984268188, 0.16331042349338531, 0.18404999375343323, 0.25075510144233704, 0.27098432183265686, 0.29863524436950684, 0.2766963243484497, 0.30449867248535156, 0.20314191281795502, 0.20166684687137604, 0.41722267866134644, 0.16853512823581696, 0.13432395458221436, 0.11051622033119202, 0.10438081622123718, 0.25961992144584656, 0.20698188245296478, 0.15025371313095093, 0.12002064287662506, 0.22910311818122864, 0.21679480373859406, 0.2690325379371643, 0.16669107973575592, 0.18110661208629608, 0.221624955534935, 0.2455919086933136, 0.1834242194890976, 0.11823029816150665, 0.13365349173545837, 0.14037083089351654, 0.19419774413108826, 0.18268318474292755, 0.2522589862346649, 0.19632965326309204, 0.17641304433345795, 0.18724201619625092, 0.14777472615242004, 0.14983388781547546, 0.2552255690097809, 0.22709037363529205, 0.2023630440235138, 0.32409897446632385, 0.27978193759918213, 0.2845539152622223, 0.4292076528072357, 0.21999403834342957, 0.23676297068595886, 0.2875377833843231, 0.2856006324291229, 0.4588894248008728, 0.5316363573074341, 0.5276079177856445, 0.4463765621185303, 0.23286207020282745, 0.281851589679718, 0.2508810758590698, 0.38538238406181335, 0.27221745252609253, 0.41002553701400757, 0.23690897226333618, 0.23909804224967957, 0.2575645446777344, 0.16897690296173096, 0.20417334139347076, 0.16191230714321136, 0.303092896938324, 0.2912200689315796, 0.50597083568573, 0.27164730429649353, 0.3106163740158081, 0.2533862292766571, 0.3265189230442047, 0.35660064220428467, 0.22747710347175598, 0.18855123221874237, 0.21457317471504211, 0.1876581311225891, 0.19233886897563934, 0.10338817536830902, 0.06300635635852814, 0.07597842812538147, 0.1214798241853714, 0.11779120564460754, 0.17231671512126923, 0.19589588046073914, 0.10616099089384079, 0.175706148147583, 0.25442788004875183, 0.2326521873474121, 0.2862929105758667, 0.5637720823287964, 0.336379736661911, 0.19110964238643646, 0.18838372826576233, 0.15931400656700134, 0.143405482172966, 0.11627127975225449, 0.2365475594997406, 0.2583921551704407, 0.30504879355430603, 0.20782412588596344, 0.20816625654697418]</t>
+          <t>[0.2587328255176544, 0.3961780369281769, 0.3013957440853119, 0.1947229951620102, 0.3307322859764099, 0.5053080320358276, 0.35060012340545654, 0.09673678129911423, 0.19185906648635864, 0.05392583832144737, 0.0889623761177063, 0.13464811444282532, 0.2909052073955536, 0.24157069623470306, 0.2266874462366104, 0.24211254715919495, 0.2747285068035126, 0.19161416590213776, 0.24133774638175964, 0.5203892588615417, 0.16562175750732422, 0.15164713561534882, 0.074786476790905, 0.09593559056520462, 0.2891315519809723, 0.22065140306949615, 0.21546600759029388, 0.0951271802186966, 0.20873871445655823, 0.2346208244562149, 0.28902173042297363, 0.16952289640903473, 0.15512517094612122, 0.24506060779094696, 0.27306538820266724, 0.19341929256916046, 0.10596635937690735, 0.1252436488866806, 0.14916840195655823, 0.21025338768959045, 0.18151572346687317, 0.38505589962005615, 0.279674232006073, 0.1921560913324356, 0.28743696212768555, 0.17474418878555298, 0.13113443553447723, 0.19308489561080933, 0.17806239426136017, 0.18946915864944458, 0.22153902053833008, 0.15816737711429596, 0.17174576222896576, 0.3303477466106415, 0.164661705493927, 0.211150124669075, 0.26828300952911377, 0.25471973419189453, 0.33332574367523193, 0.44880738854408264, 0.3900776505470276, 0.25559303164482117, 0.13850226998329163, 0.18796713650226593, 0.16189458966255188, 0.2152363359928131, 0.15930771827697754, 0.24508889019489288, 0.17820937931537628, 0.13572542369365692, 0.15874646604061127, 0.10457898676395416, 0.1218290850520134, 0.08571439981460571, 0.19554190337657928, 0.19054165482521057, 0.41350165009498596, 0.20092026889324188, 0.28045740723609924, 0.16769737005233765, 0.24478121101856232, 0.26823151111602783, 0.1550440937280655, 0.13363495469093323, 0.13516728579998016, 0.14207102358341217, 0.10444094240665436, 0.06292684376239777, 0.028518298640847206, 0.03615610674023628, 0.05865480378270149, 0.056268155574798584, 0.10289909690618515, 0.1135689914226532, 0.058556634932756424, 0.15442617237567902, 0.16839180886745453, 0.2006237506866455, 0.24220459163188934, 0.49984559416770935, 0.2716338634490967, 0.16385138034820557, 0.17161507904529572, 0.13233664631843567, 0.12430798262357712, 0.08105653524398804, 0.20920312404632568, 0.21244657039642334, 0.19612696766853333, 0.1134050115942955, 0.11353228986263275]</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.5637720823287964</v>
+        <v>0.5203892588615417</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -7383,10 +7383,10 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0.7711384999856818</v>
+        <v>0.7624493000039365</v>
       </c>
       <c r="J171" t="n">
-        <v>0.006947193693564701</v>
+        <v>0.006868912612648077</v>
       </c>
     </row>
     <row r="172">
@@ -7405,11 +7405,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>[0.5025566816329956, 0.07157804816961288, 0.09756012260913849, 0.08558015525341034, 0.05485371872782707, 0.05033136531710625, 0.04336823895573616, 0.051650404930114746, 0.08688674867153168, 0.052184801548719406, 0.0838131308555603, 0.11221195757389069, 0.36952656507492065, 0.1141943633556366, 0.16434012353420258, 0.12341868132352829, 0.169826939702034, 0.1672503501176834, 0.2700273096561432, 0.08546864241361618, 0.1032271757721901, 0.1120389923453331, 0.44593241810798645, 0.14223136007785797, 0.09895265847444534, 0.24314117431640625, 0.45011603832244873, 0.2711956202983856, 0.13976524770259857, 0.13453227281570435, 0.12238334864377975, 0.201642706990242, 0.26945555210113525, 0.2175009697675705, 0.086356520652771, 0.06912744045257568, 0.08650857955217361, 0.25707533955574036, 0.3109143078327179, 0.2713984251022339, 0.2969358563423157, 0.09358514845371246, 0.05640586465597153, 0.20354203879833221, 0.27860763669013977, 0.2856011390686035, 0.1846095770597458, 0.20975543558597565, 0.41922369599342346, 0.29761725664138794, 0.07775299996137619, 0.07193583995103836, 0.046033166348934174, 0.049966875463724136, 0.23996759951114655, 0.15601515769958496, 0.11718054115772247, 0.06227220222353935, 0.20978106558322906, 0.08529218286275864, 0.06545557081699371, 0.07064783573150635, 0.028312768787145615, 0.05046698823571205, 0.03457503393292427, 0.028158364817500114, 0.11110495775938034, 0.24116946756839752, 0.0787855014204979, 0.4420913755893707, 0.38381779193878174, 0.13763228058815002, 0.2814731299877167, 0.14073456823825836, 0.03789277374744415, 0.1221906915307045, 0.13496676087379456, 0.12174641340970993, 0.24025410413742065, 0.16935811936855316, 0.1356479525566101, 0.3526434004306793, 0.3350505232810974, 0.4142211377620697, 0.4900425374507904, 0.431875616312027, 0.16643568873405457, 0.21538403630256653, 0.1787697821855545, 0.12954437732696533, 0.09324099868535995, 0.24244871735572815, 0.08484096080064774, 0.07817298918962479, 0.05986524000763893, 0.08297403156757355, 0.11093258112668991, 0.1886388063430786, 0.1313801109790802, 0.16859577596187592, 0.12073227763175964, 0.38783320784568787, 0.08015662431716919, 0.3229582607746124, 0.05667689070105553, 0.14840000867843628, 0.05253840610384941, 0.26378557085990906, 0.06005941703915596, 0.091741643846035, 0.39560365676879883, 0.6529713273048401, 0.44715645909309387, 0.09538094699382782, 0.11917153745889664, 0.2912885546684265, 0.09233909845352173, 0.27228277921676636, 0.14039838314056396, 0.10533979535102844, 0.2457527369260788, 0.5956252813339233, 0.1313122808933258, 0.13469938933849335, 0.07486695051193237, 0.05068105831742287, 0.15187466144561768, 0.08816749602556229, 0.1602344810962677, 0.138580322265625, 0.06712612509727478, 0.19794806838035583, 0.2460031360387802, 0.309932142496109, 0.3014369606971741, 0.39692288637161255, 0.12673020362854004, 0.05877428501844406, 0.0589410662651062]</t>
+          <t>[0.2753308415412903, 0.04341007396578789, 0.052255626767873764, 0.047976285219192505, 0.03734539821743965, 0.03317632898688316, 0.02530599758028984, 0.03059903346002102, 0.03882233053445816, 0.040217526257038116, 0.0658293217420578, 0.09108172357082367, 0.3298006057739258, 0.07621163129806519, 0.1093984991312027, 0.09184607863426208, 0.14204756915569305, 0.12938007712364197, 0.24692022800445557, 0.07199904322624207, 0.0626162439584732, 0.06419353187084198, 0.27733585238456726, 0.055177923291921616, 0.06927380710840225, 0.1792783886194229, 0.272629052400589, 0.20838041603565216, 0.08163168281316757, 0.06551875919103622, 0.0650084987282753, 0.10404851287603378, 0.12437918782234192, 0.10466621071100235, 0.04140463471412659, 0.03931231051683426, 0.05999959260225296, 0.139400914311409, 0.24219094216823578, 0.24452999234199524, 0.21728335320949554, 0.048670850694179535, 0.02106228470802307, 0.11719879508018494, 0.20292137563228607, 0.128386989235878, 0.13918380439281464, 0.12255711853504181, 0.1784854233264923, 0.11934054642915726, 0.043563809245824814, 0.03655810281634331, 0.02663540467619896, 0.024091966450214386, 0.1526334434747696, 0.09574940800666809, 0.06182505190372467, 0.04949162155389786, 0.13191421329975128, 0.07104561477899551, 0.08586225658655167, 0.0807020515203476, 0.015890976414084435, 0.03400062769651413, 0.02189463935792446, 0.025846006348729134, 0.06230946257710457, 0.17286545038223267, 0.10293982923030853, 0.3575748801231384, 0.2095034122467041, 0.05949479714035988, 0.1421930342912674, 0.05852282792329788, 0.014390739612281322, 0.05653294920921326, 0.07319796830415726, 0.06497303396463394, 0.06567024439573288, 0.04700203239917755, 0.04254118725657463, 0.1677313894033432, 0.17850925028324127, 0.21046128869056702, 0.15296730399131775, 0.15452483296394348, 0.09385938942432404, 0.12164907902479172, 0.09948834031820297, 0.07970449328422546, 0.04823420196771622, 0.12304231524467468, 0.045968133956193924, 0.040969546884298325, 0.025033025071024895, 0.04908090457320213, 0.050426021218299866, 0.1205676719546318, 0.10755391418933868, 0.07480087131261826, 0.058396998792886734, 0.15503908693790436, 0.02736775577068329, 0.12214155495166779, 0.02290034294128418, 0.03742758929729462, 0.016842741519212723, 0.07408720999956131, 0.02287476509809494, 0.08360818773508072, 0.26530683040618896, 0.5118473768234253, 0.4192940592765808, 0.058214034885168076, 0.09981392323970795, 0.1403742879629135, 0.06344247609376907, 0.17011258006095886, 0.055591560900211334, 0.03591888025403023, 0.1324213296175003, 0.3028593361377716, 0.07007776200771332, 0.10129306465387344, 0.0494164414703846, 0.025287460535764694, 0.05527791008353233, 0.028909943997859955, 0.056589655578136444, 0.05365421250462532, 0.03163488209247589, 0.0804205909371376, 0.12075627595186234, 0.19444596767425537, 0.14341230690479279, 0.1336291879415512, 0.06759797781705856, 0.02827484905719757, 0.028207991272211075]</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.6529713273048401</v>
+        <v>0.5118473768234253</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -7423,10 +7423,10 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0.7984878999995999</v>
+        <v>0.8011220000043977</v>
       </c>
       <c r="J172" t="n">
-        <v>0.005744517266184172</v>
+        <v>0.005763467625930919</v>
       </c>
     </row>
     <row r="173">
@@ -7445,11 +7445,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>[0.12212903797626495, 0.1397918313741684, 0.06854674965143204, 0.07252828031778336, 0.11051619052886963, 0.08830779045820236, 0.21603140234947205, 0.10950326919555664, 0.04265900328755379, 0.057470064610242844, 0.04299832880496979, 0.04559868201613426, 0.03201694414019585, 0.02983156591653824, 0.0357939675450325, 0.02911350689828396, 0.026142766699194908, 0.0396127849817276, 0.05922606959939003, 0.03291245549917221, 0.02689407765865326, 0.03978089615702629, 0.03967176005244255, 0.04859892278909683, 0.047879189252853394, 0.04529062286019325, 0.04775006324052811, 0.051267847418785095, 0.049444425851106644, 0.06480451673269272, 0.041728027164936066, 0.03968594968318939, 0.0514855720102787, 0.09260009229183197, 0.1409657597541809, 0.06659035384654999, 0.058813516050577164, 0.10652387887239456, 0.06875833868980408, 0.07292655110359192, 0.06870090216398239, 0.04587557539343834, 0.0550454817712307, 0.07585335522890091, 0.08626076579093933, 0.16514810919761658, 0.06332483887672424, 0.046919289976358414, 0.042082466185092926, 0.03938160836696625, 0.03961692005395889, 0.04682211950421333, 0.04003069922327995, 0.046537309885025024, 0.05846456438302994, 0.043256767094135284, 0.07453684508800507, 0.05672060325741768, 0.07018635421991348, 0.09309858083724976, 0.05422276258468628, 0.07266965508460999, 0.12320128083229065, 0.13182401657104492, 0.08192139863967896, 0.07441088557243347, 0.07917728275060654, 0.05851639062166214, 0.04099061340093613, 0.03790256381034851, 0.03480254113674164, 0.04147768393158913, 0.08975744992494583, 0.04259553551673889, 0.0643593892455101, 0.08081396669149399, 0.0701308324933052, 0.08852187544107437, 0.055035147815942764, 0.13167472183704376, 0.1446348875761032, 0.09560304880142212, 0.08587919175624847, 0.09751497954130173, 0.07297054678201675, 0.13416199386119843, 0.06716885417699814, 0.03264623135328293, 0.051827896386384964, 0.07150924950838089, 0.050008948892354965, 0.031488560140132904, 0.06926856935024261, 0.04026417434215546, 0.04677237570285797, 0.07350139319896698, 0.07280492037534714, 0.0342366024851799, 0.06588606536388397, 0.03830490633845329, 0.22718305885791779, 0.2193794548511505, 0.11454392224550247, 0.1408170908689499, 0.07296030223369598, 0.07611148059368134, 0.06909526139497757, 0.08493512868881226, 0.05517725646495819, 0.05231279134750366, 0.1500062197446823, 0.1510695368051529, 0.1374136507511139, 0.16216140985488892, 0.04484962671995163, 0.03710951656103134, 0.07612600922584534, 0.05529308319091797, 0.07620710134506226, 0.05738268420100212, 0.04694261774420738, 0.058842699974775314, 0.036952484399080276, 0.027166876941919327, 0.04318850114941597, 0.05025438964366913, 0.11499319970607758, 0.07497584074735641, 0.1424362063407898, 0.13316656649112701, 0.10169751197099686, 0.07080666720867157, 0.07667596638202667, 0.08211963623762131, 0.19771693646907806, 0.160776287317276, 0.09443118423223495, 0.0523257777094841, 0.05218365788459778]</t>
+          <t>[0.15316809713840485, 0.2340705394744873, 0.06567059457302094, 0.07854904979467392, 0.11819042265415192, 0.11732225865125656, 0.27518323063850403, 0.1061355471611023, 0.02436913549900055, 0.0586763434112072, 0.027815602719783783, 0.033053137362003326, 0.02596714347600937, 0.01887768693268299, 0.03339916095137596, 0.019915619865059853, 0.0132273705676198, 0.03541993722319603, 0.040626682341098785, 0.021836888045072556, 0.015577253885567188, 0.03391494229435921, 0.02877362072467804, 0.028405170887708664, 0.030942313373088837, 0.041769325733184814, 0.03839310631155968, 0.04285159334540367, 0.04403172433376312, 0.09928391873836517, 0.03549686074256897, 0.033547692000865936, 0.05036136507987976, 0.07170625030994415, 0.13390876352787018, 0.06309375911951065, 0.0612504817545414, 0.120499387383461, 0.07555770874023438, 0.072322316467762, 0.06193055212497711, 0.03166147321462631, 0.043764714151620865, 0.06346782296895981, 0.07750552892684937, 0.1983143538236618, 0.047349702566862106, 0.03014642931520939, 0.03706679865717888, 0.043476514518260956, 0.033134277909994125, 0.03684493899345398, 0.03268183767795563, 0.04303222522139549, 0.05288013070821762, 0.03229027986526489, 0.06766775250434875, 0.04716278985142708, 0.057161085307598114, 0.11096922308206558, 0.03780364245176315, 0.06047628074884415, 0.1429857611656189, 0.09792277216911316, 0.0694270208477974, 0.059213198721408844, 0.03431476280093193, 0.027885090559720993, 0.032785989344120026, 0.032259613275527954, 0.02779816836118698, 0.024946296587586403, 0.08394397795200348, 0.03297174349427223, 0.040410734713077545, 0.07364662736654282, 0.0633794516324997, 0.08823374658823013, 0.05278266593813896, 0.11941586434841156, 0.1525118350982666, 0.08823125064373016, 0.0771540179848671, 0.0716819316148758, 0.044909510761499405, 0.1871393620967865, 0.08449214696884155, 0.024936791509389877, 0.04020315408706665, 0.0705578625202179, 0.05035504698753357, 0.02315446175634861, 0.05651736259460449, 0.036964915692806244, 0.03401435539126396, 0.05862279608845711, 0.06748701632022858, 0.030503423884510994, 0.06853030622005463, 0.04084090515971184, 0.2196178138256073, 0.19750221073627472, 0.13421261310577393, 0.16476380825042725, 0.06471948325634003, 0.05379100516438484, 0.06029314175248146, 0.07292280346155167, 0.05094621703028679, 0.04117637500166893, 0.18503955006599426, 0.19721411168575287, 0.21007078886032104, 0.26763129234313965, 0.05601673945784569, 0.032652348279953, 0.09149835258722305, 0.0684724822640419, 0.09961244463920593, 0.0680762231349945, 0.04785505309700966, 0.07330407202243805, 0.05988647788763046, 0.03005785122513771, 0.0632544457912445, 0.05519624799489975, 0.06819407641887665, 0.04599124938249588, 0.14331062138080597, 0.08619596064090729, 0.11521743983030319, 0.05632728338241577, 0.061742544174194336, 0.0597907118499279, 0.12895901501178741, 0.15691092610359192, 0.09698746353387833, 0.03508903086185455, 0.03450367972254753]</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.2271830588579178</v>
+        <v>0.275183230638504</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
@@ -7463,10 +7463,10 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0.7796735000156332</v>
+        <v>0.7923102000058861</v>
       </c>
       <c r="J173" t="n">
-        <v>0.005609161870616066</v>
+        <v>0.005700073381337311</v>
       </c>
     </row>
     <row r="174">
@@ -7485,11 +7485,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>[0.8690593242645264, 0.3441518545150757, 0.35934850573539734, 0.4865425229072571, 0.22807563841342926, 0.46405741572380066, 0.3444458246231079, 0.9260912537574768, 0.9212133288383484, 0.9545958042144775, 0.9807482957839966, 0.9221593737602234, 0.7491153478622437, 0.21638314425945282, 0.8636749386787415, 0.7509467005729675, 0.39775970578193665, 0.3397630751132965, 0.625112771987915, 0.2314232885837555, 0.2826574146747589, 0.7117826342582703, 0.5186405777931213, 0.8491827249526978, 0.6045016646385193, 0.43820491433143616, 0.48492714762687683, 0.24509330093860626, 0.3302268385887146, 0.13886596262454987, 0.1473705768585205, 0.2601272761821747, 0.4544205069541931, 0.22309374809265137, 0.2698611617088318, 0.23782879114151, 0.5859898328781128, 0.20084434747695923, 0.22112679481506348, 0.1951693445444107, 0.2064184993505478, 0.3552892506122589, 0.4965715706348419, 0.5859639048576355, 0.903393030166626, 0.8108060956001282, 0.8852599263191223, 0.8510612845420837, 0.8158226013183594, 0.6047015190124512, 0.1732574701309204, 0.24674981832504272, 0.32222646474838257, 0.8193241953849792, 0.5740190744400024, 0.3992367386817932, 0.674457848072052, 0.8326665163040161, 0.6053017973899841, 0.631693959236145, 0.40226078033447266, 0.5518902540206909, 0.44776397943496704, 0.297542929649353, 0.6875735521316528, 0.26030492782592773, 0.39086011052131653, 0.26302629709243774, 0.517738401889801, 0.2613525986671448, 0.3358801007270813, 0.07780586183071136, 0.13581395149230957, 0.057793959975242615, 0.13574855029582977, 0.3109108805656433, 0.2249966412782669, 0.4652007818222046, 0.3270246386528015, 0.3302958905696869, 0.21682113409042358, 0.3949716091156006, 0.06835521757602692, 0.11981649696826935, 0.240851491689682, 0.5043472647666931, 0.7189885377883911, 0.2843269407749176, 0.3296339213848114, 0.10812175273895264, 0.10545788705348969, 0.23224830627441406, 0.41441112756729126, 0.13381005823612213, 0.17568151652812958, 0.3341186046600342, 0.5638246536254883, 0.6535159945487976, 0.4717148244380951, 0.6532526612281799, 0.6661633253097534, 0.23589098453521729, 0.7365559339523315, 0.7144730091094971, 0.33260953426361084, 0.6657607555389404, 0.6147006154060364, 0.7453515529632568, 0.39949604868888855, 0.3253078758716583, 0.21742764115333557, 0.43558448553085327, 0.6883450746536255, 0.7376722693443298, 0.2994873821735382, 0.16690197587013245, 0.2872914671897888, 0.661446213722229, 0.191900372505188, 0.28359654545783997, 0.12410841882228851, 0.6768847703933716, 0.13740088045597076, 0.3035648763179779, 0.5670525431632996, 0.7349992990493774, 0.21261557936668396, 0.3741534948348999, 0.24286966025829315, 0.18063735961914062, 0.21614868938922882, 0.11819428950548172, 0.598720908164978, 0.3331747353076935, 0.06397417187690735, 0.16130883991718292, 0.1603042185306549, 0.3117835223674774, 0.3107787072658539]</t>
+          <t>[0.8617206811904907, 0.30332687497138977, 0.28177183866500854, 0.4292891323566437, 0.2263622283935547, 0.49846482276916504, 0.3197990655899048, 0.8862812519073486, 0.8790671229362488, 0.943665623664856, 0.9802240133285522, 0.9241711497306824, 0.724580705165863, 0.14326070249080658, 0.7835469245910645, 0.7004838585853577, 0.2456502765417099, 0.2698274850845337, 0.36957940459251404, 0.18923203647136688, 0.3099835515022278, 0.7200512886047363, 0.42585352063179016, 0.8445176482200623, 0.6592054963111877, 0.5015625357627869, 0.6603577136993408, 0.4147690534591675, 0.43817657232284546, 0.17294344305992126, 0.14686249196529388, 0.2569841146469116, 0.49361130595207214, 0.24892020225524902, 0.25168269872665405, 0.18953104317188263, 0.5883960127830505, 0.29956838488578796, 0.36560311913490295, 0.22750914096832275, 0.26898419857025146, 0.31250935792922974, 0.4492040276527405, 0.596566915512085, 0.9215437173843384, 0.8390264511108398, 0.915808916091919, 0.8965153694152832, 0.8714646697044373, 0.5979214906692505, 0.23166829347610474, 0.29288777709007263, 0.3442392647266388, 0.8228796720504761, 0.5796153545379639, 0.4258383512496948, 0.7355366945266724, 0.8294802904129028, 0.6714860796928406, 0.7023403644561768, 0.4607672095298767, 0.6656278371810913, 0.4774445593357086, 0.26846787333488464, 0.5845743417739868, 0.20690201222896576, 0.338606059551239, 0.17688310146331787, 0.3802829682826996, 0.22942638397216797, 0.24572792649269104, 0.049580786377191544, 0.12978079915046692, 0.05429466441273689, 0.09882332384586334, 0.30858930945396423, 0.15733550488948822, 0.3505820035934448, 0.270280659198761, 0.2788291871547699, 0.1513165682554245, 0.25128406286239624, 0.049514949321746826, 0.05481516942381859, 0.1475905328989029, 0.3415508568286896, 0.55970299243927, 0.30793723464012146, 0.22173669934272766, 0.054138101637363434, 0.034728314727544785, 0.1294267475605011, 0.3308039605617523, 0.08739285916090012, 0.07591529190540314, 0.22761018574237823, 0.27961859107017517, 0.5597053170204163, 0.30896320939064026, 0.6644898056983948, 0.6487475633621216, 0.2677551209926605, 0.6730764508247375, 0.6179969906806946, 0.2584448754787445, 0.7032864689826965, 0.7022554278373718, 0.5628345012664795, 0.43750521540641785, 0.3489750027656555, 0.26875999569892883, 0.623590886592865, 0.7912789583206177, 0.8326553702354431, 0.3349939286708832, 0.2213975042104721, 0.3873361051082611, 0.6023176312446594, 0.2377016246318817, 0.32835790514945984, 0.15895554423332214, 0.8000697493553162, 0.2406570315361023, 0.4085052013397217, 0.7360511422157288, 0.8118584156036377, 0.3326803147792816, 0.5004816651344299, 0.4264126420021057, 0.22689276933670044, 0.32609400153160095, 0.3107960522174835, 0.747351348400116, 0.5360618233680725, 0.10522158443927765, 0.35895296931266785, 0.19495271146297455, 0.4375455677509308, 0.4369533061981201]</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.9807482957839966</v>
+        <v>0.9802240133285522</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -7503,10 +7503,10 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0.7943269000097644</v>
+        <v>0.7976545999990776</v>
       </c>
       <c r="J174" t="n">
-        <v>0.005714582014458736</v>
+        <v>0.005738522302151637</v>
       </c>
     </row>
     <row r="175">
@@ -7525,11 +7525,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>[0.3331046402454376, 0.13255135715007782, 0.1221746951341629, 0.6098212003707886, 0.49069204926490784, 0.6832100749015808, 0.07837840169668198, 0.42890116572380066, 0.3895464837551117, 0.3742801547050476, 0.27491915225982666, 0.8989980220794678, 0.31756341457366943, 0.5047783851623535, 0.1943400651216507, 0.8778432011604309, 0.17545336484909058, 0.1661643385887146, 0.05151376873254776, 0.05545484647154808, 0.06292536854743958, 0.06648407131433487, 0.20961757004261017, 0.18499740958213806, 0.12443126738071442, 0.13119177520275116, 0.170641228556633, 0.16977885365486145, 0.334764301776886, 0.5878481864929199, 0.34967437386512756, 0.33875539898872375, 0.10950221866369247, 0.3545668125152588, 0.29922354221343994, 0.11335631459951401, 0.3858690559864044, 0.6786539554595947, 0.439801424741745, 0.4909486472606659, 0.7219817638397217, 0.7279413342475891, 0.529489278793335, 0.9040213227272034, 0.6792007684707642, 0.9234811067581177, 0.9678419232368469, 0.9338462352752686, 0.8513624668121338, 0.48045921325683594, 0.27380290627479553, 0.15852639079093933, 0.5889454483985901, 0.7687005996704102, 0.9166635274887085, 0.21296855807304382, 0.22651952505111694, 0.3732800781726837, 0.5642158389091492, 0.8694288730621338, 0.49909651279449463, 0.6350091695785522, 0.6278537511825562, 0.9647326469421387, 0.9247596859931946, 0.9191220998764038, 0.5184322595596313, 0.7043921947479248, 0.2579246759414673, 0.8499471545219421, 0.8529227375984192, 0.5654534101486206, 0.9625617265701294, 0.9682117700576782, 0.823752760887146, 0.8652454018592834, 0.9365650415420532, 0.6787447333335876, 0.4721340835094452, 0.6853147149085999, 0.24183645844459534, 0.537680983543396, 0.3983500301837921, 0.5728357434272766, 0.9501802921295166, 0.976325273513794, 0.9589853286743164, 0.9709464907646179, 0.8627038598060608, 0.9475186467170715, 0.9543247222900391, 0.7406540513038635, 0.9149363040924072, 0.9238829612731934, 0.7024555802345276, 0.553669273853302, 0.10657957941293716, 0.0678858682513237, 0.256995290517807, 0.11550423502922058, 0.4012012183666229, 0.3745262622833252, 0.4358278214931488, 0.3268515169620514, 0.32656973600387573, 0.665899395942688, 0.8871815204620361, 0.633668839931488, 0.7703157663345337, 0.37996408343315125, 0.9112993478775024, 0.8572739958763123, 0.7832731008529663, 0.9326324462890625, 0.8952127695083618, 0.7305124402046204, 0.3097369074821472, 0.46847081184387207, 0.9629326462745667, 0.9542315006256104, 0.8017318248748779, 0.8308072090148926, 0.7821897268295288, 0.8620484471321106, 0.5446025133132935, 0.5410568118095398, 0.12163129448890686, 0.40964221954345703, 0.7175130844116211, 0.374918133020401, 0.25843366980552673, 0.06914733350276947, 0.12861567735671997, 0.08162608742713928, 0.45739445090293884, 0.4950779378414154, 0.4703972041606903, 0.37324222922325134, 0.11227667331695557, 0.11242670565843582]</t>
+          <t>[0.43567121028900146, 0.19558052718639374, 0.16919434070587158, 0.6877179145812988, 0.5837396383285522, 0.7776896953582764, 0.08585020154714584, 0.5554563999176025, 0.6015105247497559, 0.4564414918422699, 0.3209560215473175, 0.9451720714569092, 0.2890315353870392, 0.6728954315185547, 0.2697325348854065, 0.8938249349594116, 0.25355860590934753, 0.18148985505104065, 0.050469253212213516, 0.061026327311992645, 0.04108208790421486, 0.050264548510313034, 0.16778720915317535, 0.16521847248077393, 0.18838317692279816, 0.1165342628955841, 0.2192133516073227, 0.15040747821331024, 0.3664841651916504, 0.8002942204475403, 0.5119693279266357, 0.41683512926101685, 0.15372584760189056, 0.4829341173171997, 0.41377943754196167, 0.12535209953784943, 0.6057878732681274, 0.8422519564628601, 0.6280116438865662, 0.4733927249908447, 0.7287628650665283, 0.7785135507583618, 0.673577606678009, 0.9575973153114319, 0.7790616154670715, 0.9405117630958557, 0.9618849158287048, 0.9281429648399353, 0.8342123031616211, 0.5415026545524597, 0.363352507352829, 0.21521416306495667, 0.6671505570411682, 0.8452451825141907, 0.9483916759490967, 0.24182704091072083, 0.27387940883636475, 0.30757051706314087, 0.5758569240570068, 0.8817651271820068, 0.5083194375038147, 0.5851008892059326, 0.7252053618431091, 0.9622306227684021, 0.8803461194038391, 0.8835113644599915, 0.4303286075592041, 0.712921142578125, 0.29821133613586426, 0.8049360513687134, 0.8019758462905884, 0.5165834426879883, 0.9545543193817139, 0.9537104368209839, 0.7336435914039612, 0.8562031984329224, 0.9412446022033691, 0.6628872156143188, 0.4785236418247223, 0.6196709275245667, 0.23986338078975677, 0.48279067873954773, 0.3401326835155487, 0.567870020866394, 0.9626104235649109, 0.9673616290092468, 0.9106415510177612, 0.9786146879196167, 0.8636514544487, 0.9571910500526428, 0.9744033217430115, 0.8607233166694641, 0.962812602519989, 0.9683605432510376, 0.8295705318450928, 0.5225672721862793, 0.09806954115629196, 0.07108226418495178, 0.31576210260391235, 0.09668176621198654, 0.3688524067401886, 0.4595324695110321, 0.40809985995292664, 0.3867138624191284, 0.31340670585632324, 0.7364472150802612, 0.8816384077072144, 0.5816078782081604, 0.7578544616699219, 0.3365386128425598, 0.8599375486373901, 0.8591614961624146, 0.7761868834495544, 0.9186622500419617, 0.8142215013504028, 0.6295455098152161, 0.24121366441249847, 0.38808202743530273, 0.9393905997276306, 0.9531226754188538, 0.8206716179847717, 0.8392074108123779, 0.7133747339248657, 0.8849811553955078, 0.502243161201477, 0.468224436044693, 0.14814171195030212, 0.5074654817581177, 0.7253279685974121, 0.4252484142780304, 0.2691827416419983, 0.09216653555631638, 0.15718798339366913, 0.10504724830389023, 0.42925402522087097, 0.5354476571083069, 0.5244824290275574, 0.4134379029273987, 0.26880934834480286, 0.26954948902130127]</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.9763252735137939</v>
+        <v>0.9786146879196167</v>
       </c>
       <c r="F175" t="n">
         <v>1</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0.779450200003339</v>
+        <v>0.7929651000013109</v>
       </c>
       <c r="J175" t="n">
-        <v>0.005567501428595278</v>
+        <v>0.005664036428580792</v>
       </c>
     </row>
     <row r="176">
@@ -7565,11 +7565,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>[0.31109413504600525, 0.22099415957927704, 0.18367847800254822, 0.16148065030574799, 0.17191387712955475, 0.13155041635036469, 0.22061371803283691, 0.2845720052719116, 0.20966529846191406, 0.18181703984737396, 0.24163807928562164, 0.12520286440849304, 0.1155075803399086, 0.13803733885288239, 0.22708414494991302, 0.14137494564056396, 0.16793513298034668, 0.12777802348136902, 0.1518714874982834, 0.09309068322181702, 0.24108818173408508, 0.16678856313228607, 0.11207449436187744, 0.15858837962150574, 0.17805282771587372, 0.19408568739891052, 0.23079267144203186, 0.2572179436683655, 0.27432742714881897, 0.3606639504432678, 0.4608818292617798, 0.2781837582588196, 0.40014809370040894, 0.33715182542800903, 0.2672521770000458, 0.25847768783569336, 0.3260417580604553, 0.15693682432174683, 0.14590862393379211, 0.14537020027637482, 0.12315298616886139, 0.12277840077877045, 0.18272754549980164, 0.15024176239967346, 0.5017173290252686, 0.1787950098514557, 0.15756140649318695, 0.1502854973077774, 0.25477874279022217, 0.30862730741500854, 0.2126142978668213, 0.3216888904571533, 0.2651412785053253, 0.34025272727012634, 0.19575411081314087, 0.2538183033466339, 0.37567606568336487, 0.10235948860645294, 0.3414536118507385, 0.29473018646240234, 0.1901450753211975, 0.14695072174072266, 0.1571531444787979, 0.12282093614339828, 0.13090847432613373, 0.09572006016969681, 0.10566631704568863, 0.10977882146835327, 0.10465006530284882, 0.15503054857254028, 0.14608845114707947, 0.14745521545410156, 0.16952654719352722, 0.15456607937812805, 0.27267956733703613, 0.14751099050045013, 0.12393548339605331, 0.14591842889785767, 0.14664000272750854, 0.0993671864271164, 0.1107678934931755, 0.13914698362350464, 0.15925176441669464, 0.17774730920791626, 0.23226554691791534, 0.2711031436920166, 0.19613291323184967, 0.20575174689292908, 0.2047143280506134, 0.1951534003019333, 0.1661536991596222, 0.1410277783870697, 0.20994886755943298, 0.285062700510025, 0.24319852888584137, 0.2403160035610199, 0.28895285725593567, 0.17761020362377167, 0.15589860081672668, 0.1904938668012619, 0.3230874836444855, 0.2680162489414215, 0.20581796765327454, 0.25251778960227966, 0.3153893053531647, 0.13203021883964539, 0.1791522204875946, 0.29552125930786133]</t>
+          <t>[0.29609745740890503, 0.18027909100055695, 0.1360008865594864, 0.10592059791088104, 0.11830881983041763, 0.08721427619457245, 0.20182621479034424, 0.23697243630886078, 0.15834364295005798, 0.16174012422561646, 0.2767251133918762, 0.07326246798038483, 0.05988746136426926, 0.11254224181175232, 0.25576525926589966, 0.11516229808330536, 0.113055020570755, 0.08771908283233643, 0.1121256873011589, 0.05753807723522186, 0.3092770278453827, 0.15488073229789734, 0.07954608649015427, 0.1319378912448883, 0.1926928460597992, 0.21085333824157715, 0.24593967199325562, 0.2742472290992737, 0.2618124783039093, 0.404981791973114, 0.6396735310554504, 0.38046571612358093, 0.5031936168670654, 0.40591078996658325, 0.2610965669155121, 0.25829067826271057, 0.34753480553627014, 0.10444030165672302, 0.08274893462657928, 0.0842340886592865, 0.059066832065582275, 0.05846360698342323, 0.10953538864850998, 0.11545349657535553, 0.5849050879478455, 0.2566487193107605, 0.1846395581960678, 0.15389882028102875, 0.22131715714931488, 0.37793612480163574, 0.2040272206068039, 0.3590106666088104, 0.3135853409767151, 0.4121129512786865, 0.19939380884170532, 0.2748669981956482, 0.35891470313072205, 0.07534529268741608, 0.38601306080818176, 0.321720689535141, 0.21598535776138306, 0.10882547497749329, 0.1211429163813591, 0.06494564563035965, 0.08364520221948624, 0.04428960382938385, 0.049756038933992386, 0.07337722182273865, 0.05773472785949707, 0.09828297793865204, 0.0965571478009224, 0.08238194137811661, 0.08824768662452698, 0.0801396518945694, 0.32009363174438477, 0.1053033396601677, 0.0572860948741436, 0.07925674319267273, 0.09839892387390137, 0.046337079256772995, 0.052383437752723694, 0.09545942395925522, 0.10918079316616058, 0.13867707550525665, 0.20700564980506897, 0.30683133006095886, 0.17444506287574768, 0.17000989615917206, 0.12690402567386627, 0.1934249997138977, 0.14768320322036743, 0.09459139406681061, 0.17110906541347504, 0.3384150564670563, 0.24507971107959747, 0.28417420387268066, 0.21709436178207397, 0.1157907098531723, 0.0861729308962822, 0.11632026731967926, 0.2475476711988449, 0.1774468868970871, 0.14575262367725372, 0.21768949925899506, 0.2643371522426605, 0.06428901106119156, 0.11106769740581512, 0.1840541958808899]</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.5017173290252686</v>
+        <v>0.6396735310554504</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0.617055300011998</v>
+        <v>0.6520423000038136</v>
       </c>
       <c r="J176" t="n">
-        <v>0.005713475000111093</v>
+        <v>0.006037428703739015</v>
       </c>
     </row>
     <row r="177">
@@ -7605,11 +7605,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>[0.1110486313700676, 0.235911563038826, 0.07920416444540024, 0.10868792235851288, 0.6178557872772217, 0.9542805552482605, 0.9814280271530151, 0.9733192920684814, 0.9821003079414368, 0.987266480922699, 0.9906073808670044, 0.9880826473236084, 0.9920788407325745, 0.9916579127311707, 0.9682776927947998, 0.9874221086502075, 0.978950560092926, 0.9902542233467102, 0.9887173175811768, 0.9791960716247559, 0.9606391787528992, 0.9849029183387756, 0.9713600277900696, 0.9849427938461304, 0.9881701469421387, 0.9884709119796753, 0.9839813113212585, 0.9734300971031189, 0.9576101303100586, 0.9740798473358154, 0.9096021056175232, 0.8534908890724182, 0.648078978061676, 0.653723418712616, 0.6119691133499146, 0.2859700620174408, 0.47535422444343567, 0.3615845739841461, 0.21992811560630798, 0.434419184923172, 0.04460998252034187, 0.12123087793588638, 0.17438656091690063, 0.26118847727775574, 0.6713975667953491, 0.7909162640571594, 0.8408920764923096, 0.875342071056366, 0.67342209815979, 0.9769594073295593, 0.8908902406692505, 0.9215289354324341, 0.9698041677474976, 0.9734779000282288, 0.985375702381134, 0.9893029928207397, 0.9878061413764954, 0.9783594012260437, 0.8918123245239258, 0.9245194792747498, 0.9202667474746704, 0.92237788438797, 0.9832072257995605, 0.9708978533744812, 0.955810546875, 0.9778609871864319, 0.9650244116783142, 0.9906098246574402, 0.9886061549186707, 0.9898075461387634, 0.9749912023544312, 0.968695878982544, 0.6492303609848022, 0.7973058819770813, 0.7552689909934998, 0.6012197136878967, 0.6461969017982483, 0.801314115524292, 0.9867658615112305, 0.9882209300994873, 0.9800801873207092, 0.988080620765686, 0.9670127034187317, 0.9875400066375732, 0.9688395261764526, 0.9923014640808105, 0.955549418926239, 0.9875088334083557, 0.8507469892501831, 0.7861704230308533, 0.8989403247833252, 0.842363178730011, 0.8797008991241455, 0.8927376866340637, 0.5972287654876709, 0.9113602638244629, 0.9375771880149841, 0.9377655982971191, 0.8867075443267822, 0.8559932708740234, 0.9063537120819092, 0.9588373303413391, 0.9338933229446411, 0.867329478263855, 0.9729039072990417, 0.8914651870727539, 0.8302847146987915, 0.8669281005859375, 0.8335532546043396, 0.8866481184959412, 0.9706177115440369, 0.9638593792915344, 0.9357799887657166, 0.9365560412406921, 0.9581801891326904, 0.9614594578742981, 0.9500382542610168, 0.9615893959999084, 0.8366803526878357, 0.9455970525741577, 0.9296861290931702, 0.8838779330253601, 0.9326159358024597, 0.9061436653137207, 0.9674898386001587, 0.9709308743476868, 0.9340910911560059, 0.9077146649360657, 0.9669121503829956, 0.9680292010307312, 0.8551217913627625, 0.32179591059684753, 0.2423449009656906, 0.1551281213760376, 0.0753290131688118, 0.11604255437850952, 0.5448513031005859, 0.8228154182434082, 0.9743809103965759, 0.9850223660469055, 0.9792836308479309, 0.9792364835739136, 0.982658863067627, 0.949651837348938, 0.9877810478210449, 0.9590450525283813, 0.9631519913673401, 0.906884491443634, 0.973589301109314, 0.9670397043228149, 0.9458997845649719, 0.9121653437614441]</t>
+          <t>[0.04478598013520241, 0.14614573121070862, 0.03889211639761925, 0.06486839801073074, 0.6194177865982056, 0.9651519060134888, 0.988507866859436, 0.9880412817001343, 0.9882776141166687, 0.9938845038414001, 0.9956259727478027, 0.9947170615196228, 0.9964205026626587, 0.9952750205993652, 0.9683253169059753, 0.9933510422706604, 0.9852125644683838, 0.9950201511383057, 0.9952086806297302, 0.9931156039237976, 0.9774292707443237, 0.9935532808303833, 0.9885426759719849, 0.9937021732330322, 0.995516836643219, 0.9948752522468567, 0.9924569129943848, 0.9685519337654114, 0.9597944021224976, 0.9660859107971191, 0.8773177862167358, 0.8691623210906982, 0.45111700892448425, 0.5135023593902588, 0.3121342360973358, 0.1852489709854126, 0.45684614777565, 0.4016493558883667, 0.15772566199302673, 0.4570468068122864, 0.041968073695898056, 0.1654004454612732, 0.268009215593338, 0.2639347016811371, 0.5028265714645386, 0.7086864113807678, 0.7952470779418945, 0.8693615794181824, 0.4640054404735565, 0.9770219922065735, 0.7745165824890137, 0.861396849155426, 0.9748486876487732, 0.9761729836463928, 0.992976188659668, 0.9947943091392517, 0.9920724034309387, 0.9857412576675415, 0.8855915069580078, 0.9286952614784241, 0.9133708477020264, 0.9115344285964966, 0.9884465932846069, 0.9810729026794434, 0.9708279967308044, 0.9904654026031494, 0.9845351576805115, 0.9950777292251587, 0.9937220215797424, 0.9934449195861816, 0.9850568175315857, 0.976836085319519, 0.6501542925834656, 0.835506021976471, 0.8090401291847229, 0.6283968687057495, 0.705071747303009, 0.8332451581954956, 0.9918572902679443, 0.9923378825187683, 0.9836910963058472, 0.9904650449752808, 0.9738761782646179, 0.9932032823562622, 0.9816209673881531, 0.9961961507797241, 0.9622288346290588, 0.991289496421814, 0.8289658427238464, 0.8213033080101013, 0.9025031328201294, 0.8265486359596252, 0.8652880191802979, 0.8656504154205322, 0.5565791130065918, 0.9294916987419128, 0.9315865635871887, 0.9257625937461853, 0.8851701617240906, 0.8086243271827698, 0.896414577960968, 0.9519862532615662, 0.9239312410354614, 0.8204530477523804, 0.9772770404815674, 0.907559335231781, 0.7922055125236511, 0.8427768349647522, 0.8121584057807922, 0.8239529132843018, 0.9825317859649658, 0.9718554019927979, 0.9175970554351807, 0.9429378509521484, 0.9649861454963684, 0.972217857837677, 0.9695819616317749, 0.9802026748657227, 0.8797539472579956, 0.9459391236305237, 0.9443648457527161, 0.9142683744430542, 0.9532468914985657, 0.943229615688324, 0.9903979301452637, 0.9881327748298645, 0.9663509130477905, 0.9449191689491272, 0.9884229302406311, 0.9859592318534851, 0.8226890563964844, 0.3853705823421478, 0.20922498404979706, 0.12194634974002838, 0.04528336599469185, 0.085187628865242, 0.6247052550315857, 0.9000146389007568, 0.9904789328575134, 0.9961189031600952, 0.9914520978927612, 0.9921360015869141, 0.9936809539794922, 0.9733086824417114, 0.9929112792015076, 0.9701641798019409, 0.9667532444000244, 0.9086138010025024, 0.9825387001037598, 0.9764312505722046, 0.9575238823890686, 0.9073317050933838]</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.9923014640808105</v>
+        <v>0.9964205026626587</v>
       </c>
       <c r="F177" t="n">
         <v>1</v>
@@ -7623,10 +7623,10 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0.8410909000085667</v>
+        <v>0.8475646000006236</v>
       </c>
       <c r="J177" t="n">
-        <v>0.005533492763214254</v>
+        <v>0.005576082894740945</v>
       </c>
     </row>
     <row r="178">
@@ -7645,11 +7645,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[0.9937942028045654, 0.9889822602272034, 0.9901118874549866, 0.9907214641571045, 0.9796246290206909, 0.9842718243598938, 0.9793030619621277, 0.979079008102417, 0.9624900221824646, 0.872926652431488, 0.9861811995506287, 0.9815858602523804, 0.9942017197608948, 0.9949312806129456, 0.9879258871078491, 0.986862301826477, 0.9905210733413696, 0.9889500737190247, 0.9850738048553467, 0.9607313871383667, 0.9804691672325134, 0.9822713136672974, 0.9936760067939758, 0.9885038733482361, 0.9922398328781128, 0.9874982237815857, 0.9924373030662537, 0.9819866418838501, 0.9859083294868469, 0.9736600518226624, 0.9723420739173889, 0.964664101600647, 0.9092706441879272, 0.9641629457473755, 0.9728638529777527, 0.8811545372009277, 0.2966773808002472, 0.5216231942176819, 0.5702316164970398, 0.5250194668769836, 0.30386319756507874, 0.8613579273223877, 0.9197406768798828, 0.9499823451042175, 0.9501957297325134, 0.9012272357940674, 0.9426445364952087, 0.9578019976615906, 0.9184633493423462, 0.6093683242797852, 0.7049527764320374, 0.9378367066383362, 0.9670170545578003, 0.984315812587738, 0.9893074631690979, 0.9926770925521851, 0.987689733505249, 0.9868502616882324, 0.9847216010093689, 0.9802212715148926, 0.9405564665794373, 0.8796103596687317, 0.9773620963096619, 0.9605532884597778, 0.9552976489067078, 0.9743484258651733, 0.9789829254150391, 0.9797348380088806, 0.9790962934494019, 0.960259735584259, 0.9617576599121094, 0.9700278639793396, 0.9707162976264954, 0.9766204357147217, 0.9625192284584045, 0.9621602892875671, 0.9859145879745483, 0.9865608811378479, 0.9827653765678406, 0.9761703014373779, 0.9674854874610901, 0.9755141139030457, 0.9870456457138062, 0.9848885536193848, 0.9834743142127991, 0.971822202205658, 0.9815016388893127, 0.9772160053253174, 0.9699013829231262, 0.9866833090782166, 0.9726408123970032, 0.9636380672454834, 0.9636361598968506, 0.9669821858406067, 0.9818737506866455, 0.9705765843391418, 0.9717896580696106, 0.9598214030265808, 0.9726679921150208, 0.9538670182228088, 0.9641014337539673, 0.9796184301376343, 0.9667161703109741, 0.9228375554084778, 0.9701218605041504, 0.9810175895690918, 0.9797422289848328, 0.9927379488945007, 0.9716745018959045, 0.9695586562156677, 0.9777331352233887, 0.9764960408210754, 0.9756431579589844, 0.9762853384017944, 0.9859535098075867, 0.9909530878067017, 0.9837417602539062, 0.9721511006355286, 0.9615331888198853, 0.9841026663780212, 0.9849114418029785, 0.9854323267936707, 0.9777267575263977, 0.9789876937866211, 0.9820203185081482, 0.9823076725006104, 0.9898934960365295, 0.9878764152526855, 0.9886212944984436, 0.9765961170196533, 0.9564001560211182, 0.9571177959442139, 0.9636045098304749, 0.9462822675704956, 0.9477249383926392, 0.9722275733947754, 0.9782096147537231, 0.9649696946144104, 0.9817149639129639, 0.9726344347000122, 0.9676480889320374, 0.9474214911460876, 0.9833780527114868, 0.9894914627075195, 0.9909861087799072, 0.9754289388656616, 0.9724707007408142, 0.984782874584198, 0.9760745167732239, 0.9725691080093384, 0.974147379398346, 0.922735333442688]</t>
+          <t>[0.993790328502655, 0.9892504215240479, 0.9918493032455444, 0.9917759895324707, 0.9793732166290283, 0.9786146879196167, 0.9819839596748352, 0.9790244102478027, 0.9696828722953796, 0.8865696787834167, 0.9899967908859253, 0.987652063369751, 0.9956603646278381, 0.9960137605667114, 0.9803504943847656, 0.9761360883712769, 0.9836322069168091, 0.9778287410736084, 0.9721484780311584, 0.8953584432601929, 0.9618297815322876, 0.9656577706336975, 0.9879234433174133, 0.9788128137588501, 0.9901280999183655, 0.9803285598754883, 0.9871975779533386, 0.9693111777305603, 0.9819823503494263, 0.9567914605140686, 0.9627306461334229, 0.9357714653015137, 0.8422452211380005, 0.9547862410545349, 0.9727067947387695, 0.8767063617706299, 0.1448308229446411, 0.2926196753978729, 0.5493731498718262, 0.5000238418579102, 0.23913754522800446, 0.8469448685646057, 0.9324102401733398, 0.969804048538208, 0.9642532467842102, 0.9238940477371216, 0.9642500281333923, 0.9560369849205017, 0.9302142858505249, 0.6353794932365417, 0.7736145853996277, 0.9247368574142456, 0.9245374798774719, 0.9781288504600525, 0.985160231590271, 0.9900619983673096, 0.9759489297866821, 0.9793890118598938, 0.9720010161399841, 0.9593744277954102, 0.8344650864601135, 0.7224013209342957, 0.9295602440834045, 0.8818677067756653, 0.8745236992835999, 0.9320897459983826, 0.9522164463996887, 0.9511134028434753, 0.947922945022583, 0.8447846174240112, 0.8399748802185059, 0.8836736679077148, 0.9058549404144287, 0.9404147863388062, 0.9002955555915833, 0.919996976852417, 0.9663785099983215, 0.9564958214759827, 0.9558057188987732, 0.9349440932273865, 0.9205935597419739, 0.9513707756996155, 0.9816787838935852, 0.976984977722168, 0.9696057438850403, 0.9415106773376465, 0.9611753821372986, 0.9393347501754761, 0.944420576095581, 0.9715104699134827, 0.9312419295310974, 0.9220604300498962, 0.9155941009521484, 0.9271851778030396, 0.9707165360450745, 0.9476732015609741, 0.9523310661315918, 0.9129069447517395, 0.9492715001106262, 0.920337438583374, 0.9114130139350891, 0.9667412042617798, 0.9517067670822144, 0.8758542537689209, 0.955577552318573, 0.9780741930007935, 0.9559506177902222, 0.9912257790565491, 0.9214715361595154, 0.928051769733429, 0.9638947248458862, 0.9526724815368652, 0.8776106238365173, 0.9339852333068848, 0.9836840629577637, 0.9868857860565186, 0.975262463092804, 0.9285765290260315, 0.9189028143882751, 0.9740463495254517, 0.9801074266433716, 0.9805750846862793, 0.97479647397995, 0.9648984670639038, 0.9711876511573792, 0.9685367345809937, 0.9848921298980713, 0.9815183877944946, 0.9856167435646057, 0.970625638961792, 0.9175954461097717, 0.8856373429298401, 0.8799643516540527, 0.8651236295700073, 0.8391753435134888, 0.9522953629493713, 0.9658676385879517, 0.9314283728599548, 0.9707685112953186, 0.936375617980957, 0.9409675598144531, 0.9185266494750977, 0.9721192121505737, 0.9861466288566589, 0.9883514046669006, 0.9672433137893677, 0.9595305919647217, 0.9782955050468445, 0.9643436074256897, 0.9472944736480713, 0.9294764995574951, 0.793816328048706]</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.9949312806129456</v>
+        <v>0.9960137605667114</v>
       </c>
       <c r="F178" t="n">
         <v>1</v>
@@ -7663,10 +7663,10 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0.8611065000004601</v>
+        <v>0.8779590999911306</v>
       </c>
       <c r="J178" t="n">
-        <v>0.00566517434210829</v>
+        <v>0.005776046710467965</v>
       </c>
     </row>
     <row r="179">
@@ -7685,11 +7685,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[0.9786914587020874, 0.984592854976654, 0.9537420868873596, 0.9539557695388794, 0.9133530259132385, 0.7321392297744751, 0.8676372170448303, 0.8073569536209106, 0.7044740915298462, 0.8427484035491943, 0.8887580037117004, 0.901810884475708, 0.9216693639755249, 0.9563344120979309, 0.8180882334709167, 0.8727275133132935, 0.6681393384933472, 0.7362884283065796, 0.8536238074302673, 0.8895953297615051, 0.9525517821311951, 0.969992995262146, 0.9694617390632629, 0.9589717388153076, 0.9716832041740417, 0.972467839717865, 0.9678454399108887, 0.9483716487884521, 0.9672903418540955, 0.9426739811897278, 0.8688539266586304, 0.9351510405540466, 0.9521005749702454, 0.9629490971565247, 0.9738759398460388, 0.9315605759620667, 0.8175983428955078, 0.7259463667869568, 0.8845560550689697, 0.85017329454422, 0.7621186971664429, 0.7941251397132874, 0.7314095497131348, 0.7232264280319214, 0.9226459264755249, 0.9374967813491821, 0.9639341235160828, 0.9809386730194092, 0.9842048287391663, 0.9845420122146606, 0.9861875772476196, 0.9851579070091248, 0.9479111433029175, 0.9332671165466309, 0.9377201199531555, 0.9208434224128723, 0.9656462073326111, 0.8920040130615234, 0.8593651652336121, 0.7279329299926758, 0.8763405084609985, 0.9334239363670349, 0.837105393409729, 0.8228327035903931, 0.8010196685791016, 0.9018705487251282, 0.7092831134796143, 0.6983256936073303, 0.7025903463363647, 0.6471166610717773, 0.8120021820068359, 0.86385577917099, 0.871697723865509, 0.7155366539955139, 0.872165322303772, 0.8851233720779419, 0.8453012108802795, 0.9478779435157776, 0.9855287671089172, 0.9861353635787964, 0.9815949201583862, 0.9806344509124756, 0.9810008406639099, 0.9721411466598511, 0.9538302421569824, 0.9635523557662964, 0.8898178339004517, 0.900688648223877, 0.7228573560714722, 0.7702609896659851, 0.6761877536773682, 0.7124549150466919, 0.7387220859527588, 0.6628316640853882, 0.7290899157524109, 0.45918896794319153, 0.530561089515686, 0.8173633217811584, 0.7186358571052551, 0.5586487650871277, 0.8443566560745239, 0.8565055727958679, 0.8494746685028076, 0.8746669292449951, 0.9263244271278381, 0.9642037153244019, 0.9684491753578186, 0.9585602283477783, 0.9663704633712769, 0.9822748899459839, 0.9582700729370117, 0.8540055751800537, 0.7453102469444275, 0.7438634634017944, 0.8446892499923706, 0.5827127695083618, 0.8653990626335144, 0.8000975251197815, 0.6910513639450073, 0.7291907668113708, 0.6843937039375305, 0.7798465490341187, 0.8214218616485596, 0.7813152074813843, 0.8964976072311401, 0.8591077327728271, 0.7081668376922607, 0.6843997240066528, 0.838648796081543, 0.8553760647773743, 0.8398224115371704, 0.8716180324554443, 0.8710682988166809, 0.8933295011520386, 0.8310248851776123, 0.9188230037689209, 0.9208117723464966, 0.9743155837059021, 0.9895738959312439, 0.9879216551780701, 0.9805044531822205, 0.969135046005249, 0.9692534804344177, 0.967111349105835, 0.9362154006958008, 0.9523309469223022, 0.9283065795898438, 0.9407233595848083, 0.9731276035308838, 0.9776914119720459, 0.9200723767280579, 0.9004867076873779]</t>
+          <t>[0.9813170433044434, 0.9827341437339783, 0.9382256269454956, 0.9361882209777832, 0.8812805414199829, 0.6856454610824585, 0.8828188180923462, 0.8054215312004089, 0.5701497197151184, 0.7361829280853271, 0.8468814492225647, 0.8640471696853638, 0.8927882313728333, 0.931047260761261, 0.6619307994842529, 0.788823127746582, 0.5264033079147339, 0.7208176851272583, 0.8699868321418762, 0.9097731709480286, 0.9568127393722534, 0.9733875393867493, 0.9707992076873779, 0.9598885178565979, 0.9670314192771912, 0.9658330678939819, 0.957420825958252, 0.9175654053688049, 0.9527214765548706, 0.8985209465026855, 0.8124932646751404, 0.9173209071159363, 0.9106265306472778, 0.930925726890564, 0.9589389562606812, 0.9189223647117615, 0.8204042315483093, 0.7182617783546448, 0.8633413910865784, 0.7766972184181213, 0.6574588418006897, 0.6708717942237854, 0.6998322606086731, 0.6196449398994446, 0.9111282825469971, 0.9340367913246155, 0.9572288393974304, 0.978974461555481, 0.9815717935562134, 0.9880096316337585, 0.9881172776222229, 0.9835566282272339, 0.9479383826255798, 0.9292371273040771, 0.9171766042709351, 0.8727859854698181, 0.9460428953170776, 0.8412365913391113, 0.7813249230384827, 0.6390861868858337, 0.8119603991508484, 0.8887895941734314, 0.7953615188598633, 0.7778035402297974, 0.6859197616577148, 0.8426339626312256, 0.5365368127822876, 0.5472925305366516, 0.6243435144424438, 0.4953612685203552, 0.7374991774559021, 0.8123816847801208, 0.8353312611579895, 0.6910163164138794, 0.874960720539093, 0.8304480314254761, 0.8388987183570862, 0.9517601132392883, 0.9860237836837769, 0.9855989217758179, 0.9830172061920166, 0.9785937070846558, 0.9797333478927612, 0.956613302230835, 0.9268926382064819, 0.9473633766174316, 0.833946168422699, 0.817228376865387, 0.623803973197937, 0.6123456954956055, 0.5490054488182068, 0.5037180781364441, 0.576190173625946, 0.5588968992233276, 0.5115193128585815, 0.3191356360912323, 0.3589530289173126, 0.7100167274475098, 0.713809609413147, 0.5243520736694336, 0.7745569348335266, 0.7930228114128113, 0.7835282683372498, 0.8427127003669739, 0.8840065002441406, 0.9440149068832397, 0.9651250243186951, 0.9517607688903809, 0.9531857967376709, 0.9801672101020813, 0.9359867572784424, 0.7442057132720947, 0.6247473955154419, 0.6653343439102173, 0.7876723408699036, 0.5127993226051331, 0.841995120048523, 0.7720955610275269, 0.591878354549408, 0.6589003205299377, 0.6709197163581848, 0.7036779522895813, 0.7657095193862915, 0.7085320949554443, 0.8513165712356567, 0.818423867225647, 0.6658981442451477, 0.663495659828186, 0.7860908508300781, 0.7842303514480591, 0.8309803009033203, 0.8724018335342407, 0.8351401686668396, 0.8623374104499817, 0.8357298970222473, 0.9016212224960327, 0.9303388595581055, 0.9796438217163086, 0.9900862574577332, 0.9885833263397217, 0.9755269289016724, 0.9554327726364136, 0.9495494961738586, 0.9522406458854675, 0.9036798477172852, 0.9238823652267456, 0.8823514580726624, 0.9015777111053467, 0.9596511125564575, 0.9570627212524414, 0.8454769849777222, 0.856065034866333]</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.9895738959312439</v>
+        <v>0.9900862574577332</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0.8599450000037905</v>
+        <v>0.8727343000064138</v>
       </c>
       <c r="J179" t="n">
-        <v>0.005657532894761779</v>
+        <v>0.005741673026357985</v>
       </c>
     </row>
     <row r="180">
@@ -7725,11 +7725,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[0.27187448740005493, 0.21827280521392822, 0.21773777902126312, 0.40819573402404785, 0.5786311030387878, 0.5425482988357544, 0.30139243602752686, 0.37213319540023804, 0.6722167730331421, 0.36818698048591614, 0.5787734985351562, 0.3440816402435303, 0.5716883540153503, 0.5301908254623413, 0.8617502450942993, 0.9424216151237488, 0.7082282900810242, 0.5543063879013062, 0.778673529624939, 0.9103813767433167, 0.4038219451904297, 0.520195484161377, 0.8017740249633789, 0.9430506229400635, 0.8882082104682922, 0.8725965023040771, 0.9160862565040588, 0.8022587299346924, 0.8478108048439026, 0.9500280618667603, 0.8869705200195312, 0.9226614236831665, 0.9019496440887451, 0.8807709813117981, 0.8267654776573181, 0.8331964015960693, 0.8960127234458923, 0.9126963019371033, 0.6533279418945312, 0.6425517201423645, 0.7113843560218811, 0.9465700387954712, 0.6930129528045654, 0.8175675868988037, 0.6911779046058655, 0.7786768674850464, 0.7941350936889648, 0.885530948638916, 0.708814263343811, 0.9480354189872742, 0.9037334322929382, 0.8561220765113831, 0.952427089214325, 0.7941914796829224, 0.7758431434631348, 0.9309393763542175, 0.9300476908683777, 0.900621235370636, 0.8140057921409607, 0.6932098865509033, 0.6357323527336121, 0.6167594194412231, 0.8416998386383057, 0.8995037078857422, 0.9096156358718872, 0.8384032845497131, 0.93442302942276]</t>
+          <t>[0.44444969296455383, 0.34014493227005005, 0.3515070974826813, 0.3706926703453064, 0.6549690365791321, 0.6409218311309814, 0.29660096764564514, 0.32286620140075684, 0.5101125836372375, 0.3055996298789978, 0.6998940706253052, 0.3896072804927826, 0.4975261688232422, 0.4130533039569855, 0.8709297180175781, 0.9426160454750061, 0.7153815031051636, 0.5630387663841248, 0.7781957983970642, 0.9298799633979797, 0.5356112122535706, 0.6893078684806824, 0.8702409863471985, 0.9566338062286377, 0.9210567474365234, 0.885591983795166, 0.9210759401321411, 0.8078752160072327, 0.8587155342102051, 0.9540860652923584, 0.9000216126441956, 0.9294578433036804, 0.8882781863212585, 0.8778743147850037, 0.7389639616012573, 0.7023312449455261, 0.8882336020469666, 0.8944542407989502, 0.6200565695762634, 0.6929998397827148, 0.69814532995224, 0.9415733814239502, 0.6866686940193176, 0.8129189014434814, 0.6853486895561218, 0.8184022903442383, 0.8078299760818481, 0.924659788608551, 0.7998991012573242, 0.964599072933197, 0.906390905380249, 0.835053026676178, 0.9523770809173584, 0.7581608891487122, 0.7746587991714478, 0.931992769241333, 0.9144577383995056, 0.8729164004325867, 0.7453402876853943, 0.62566077709198, 0.6373888254165649, 0.6803286671638489, 0.8842229247093201, 0.9311141967773438, 0.9337579607963562, 0.8682764172554016, 0.9496355056762695]</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.952427089214325</v>
+        <v>0.964599072933197</v>
       </c>
       <c r="F180" t="n">
         <v>1</v>
@@ -7743,10 +7743,10 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0.4038353000069037</v>
+        <v>0.4079185000009602</v>
       </c>
       <c r="J180" t="n">
-        <v>0.006027392537416474</v>
+        <v>0.006088335820909853</v>
       </c>
     </row>
     <row r="181">
@@ -7765,11 +7765,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>[0.812498152256012, 0.5944113731384277, 0.6904340982437134, 0.7707223296165466, 0.7075579166412354, 0.4766291677951813, 0.44661834836006165, 0.6698974967002869, 0.7073621153831482, 0.8301136493682861, 0.7914701700210571, 0.8621464967727661, 0.8582468032836914, 0.4989430606365204, 0.8657621741294861, 0.5706282258033752, 0.22980649769306183, 0.2789962589740753, 0.5073335766792297, 0.7642885446548462, 0.8991689682006836, 0.9062601923942566, 0.5540828108787537, 0.6731687188148499, 0.24687997996807098, 0.6524641513824463, 0.7757187485694885, 0.9102217555046082, 0.42543262243270874, 0.6915928721427917, 0.743025004863739, 0.7009512782096863, 0.6752734780311584, 0.62575763463974, 0.6356362104415894, 0.7527877688407898, 0.8857463002204895, 0.803537905216217, 0.6471778750419617, 0.8029230833053589, 0.7629964351654053, 0.7498798966407776, 0.7144270539283752, 0.7724100351333618, 0.8665530681610107, 0.631248950958252, 0.9297308325767517, 0.9071801900863647, 0.8981838822364807, 0.8061214685440063, 0.6617162227630615, 0.4964631497859955, 0.5635370016098022, 0.6235015988349915, 0.7566472887992859, 0.7786726951599121, 0.8521644473075867, 0.8585590720176697, 0.6310392618179321, 0.5274314284324646, 0.5948615670204163, 0.5238453149795532, 0.7003597617149353, 0.7092536091804504, 0.7457227110862732, 0.8274142742156982, 0.8210543990135193, 0.6768197417259216, 0.6938227415084839, 0.7214983105659485, 0.9191799163818359, 0.6727540493011475, 0.6378246545791626, 0.6343516707420349, 0.3873773515224457, 0.32243576645851135, 0.27246329188346863, 0.16239036619663239, 0.19067589938640594, 0.2897309958934784, 0.3073453903198242, 0.35257622599601746, 0.2592555582523346, 0.686750590801239, 0.6160785555839539, 0.4708279073238373, 0.6021726131439209, 0.6057351231575012, 0.8482797741889954, 0.5729865431785583, 0.742856502532959, 0.7103980779647827, 0.41755855083465576, 0.39156073331832886, 0.4656301438808441, 0.4351380169391632, 0.4786558151245117, 0.40511080622673035, 0.5570133924484253, 0.3809109330177307, 0.6857542395591736, 0.6600586175918579, 0.7988409996032715, 0.8693872690200806, 0.8309481739997864, 0.6792141795158386, 0.6266774535179138, 0.4466414749622345, 0.5585996508598328, 0.24662959575653076, 0.5174976587295532, 0.5969955921173096, 0.41598641872406006, 0.3681422472000122, 0.6198002696037292, 0.5112191438674927, 0.4417259097099304, 0.3333319425582886, 0.27089759707450867, 0.25318410992622375, 0.35153666138648987, 0.27526766061782837, 0.34565964341163635, 0.182211771607399, 0.2481377124786377, 0.3886539936065674, 0.25551849603652954, 0.4321673810482025, 0.5414243340492249, 0.5098774433135986, 0.47766822576522827, 0.3960554599761963, 0.4498324990272522, 0.4538590908050537, 0.39422300457954407, 0.2196296900510788, 0.2962140738964081, 0.3448657691478729, 0.27723684906959534, 0.2947686016559601, 0.3557095229625702, 0.3026295006275177, 0.2546745538711548, 0.39680996537208557, 0.622201681137085, 0.5032495260238647, 0.6380112171173096, 0.5077610015869141, 0.5725530982017517, 0.6217020153999329, 0.40858760476112366, 0.5100206136703491]</t>
+          <t>[0.8486270308494568, 0.5162573456764221, 0.6141401529312134, 0.771269679069519, 0.5978308320045471, 0.41630056500434875, 0.44185417890548706, 0.618617057800293, 0.6702306866645813, 0.8237240314483643, 0.7855713963508606, 0.9171591401100159, 0.8851329684257507, 0.5394507646560669, 0.8821774125099182, 0.5210968852043152, 0.19835634529590607, 0.2641058564186096, 0.5398767590522766, 0.8410030603408813, 0.9316525459289551, 0.9325150847434998, 0.7203381657600403, 0.7235876321792603, 0.27208706736564636, 0.7006649971008301, 0.7156407833099365, 0.8671719431877136, 0.27082812786102295, 0.544078528881073, 0.5925288200378418, 0.5976353287696838, 0.5948936343193054, 0.4393443465232849, 0.44622448086738586, 0.6737409234046936, 0.8067342042922974, 0.7111193537712097, 0.43621447682380676, 0.7182693481445312, 0.6238508820533752, 0.5537631511688232, 0.49489954113960266, 0.6401498317718506, 0.8017767071723938, 0.4654541313648224, 0.9070135354995728, 0.860142707824707, 0.8067244291305542, 0.7481623888015747, 0.5835486054420471, 0.33494600653648376, 0.29815220832824707, 0.3147178292274475, 0.4641711413860321, 0.49013200402259827, 0.7346042990684509, 0.6220263242721558, 0.37401849031448364, 0.22326217591762543, 0.30459702014923096, 0.26650792360305786, 0.5817528367042542, 0.5209921598434448, 0.5910306572914124, 0.6105536818504333, 0.6708624362945557, 0.48179569840431213, 0.45280733704566956, 0.5301315784454346, 0.8601746559143066, 0.5941780209541321, 0.4764825403690338, 0.4217599332332611, 0.225632444024086, 0.1736576110124588, 0.15219689905643463, 0.06375253945589066, 0.07550524920225143, 0.14735852181911469, 0.16087175905704498, 0.1601831018924713, 0.0902084931731224, 0.4813549816608429, 0.4093845784664154, 0.30034947395324707, 0.4453977942466736, 0.5222689509391785, 0.7387006878852844, 0.3957131505012512, 0.7207270264625549, 0.607403039932251, 0.2486133724451065, 0.2439284771680832, 0.315415620803833, 0.2893437445163727, 0.27858132123947144, 0.2151457518339157, 0.3417219817638397, 0.1544262319803238, 0.5857844352722168, 0.5640586614608765, 0.7702922224998474, 0.8125762343406677, 0.7318537831306458, 0.5344734787940979, 0.5887480974197388, 0.385646790266037, 0.42790788412094116, 0.07854676991701126, 0.2630055546760559, 0.3364162743091583, 0.23833101987838745, 0.2405465841293335, 0.3120206892490387, 0.267983078956604, 0.2395663857460022, 0.14177097380161285, 0.12076880037784576, 0.11405185610055923, 0.21349962055683136, 0.166930690407753, 0.21258457005023956, 0.060662299394607544, 0.07998310029506683, 0.19481471180915833, 0.09622174501419067, 0.2405044287443161, 0.40642356872558594, 0.3320358693599701, 0.2788817584514618, 0.24375946819782257, 0.22649115324020386, 0.2349342256784439, 0.23994570970535278, 0.09078743308782578, 0.12303294986486435, 0.14216174185276031, 0.13524237275123596, 0.13305893540382385, 0.21249280869960785, 0.20476537942886353, 0.16376645863056183, 0.2677886486053467, 0.5338073968887329, 0.35327282547950745, 0.48275265097618103, 0.32122114300727844, 0.3826236426830292, 0.5036568641662598, 0.2408909946680069, 0.3631843328475952]</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.9297308325767517</v>
+        <v>0.9325150847434998</v>
       </c>
       <c r="F181" t="n">
         <v>1</v>
@@ -7783,10 +7783,10 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>0.8714083999802824</v>
+        <v>0.8929868999985047</v>
       </c>
       <c r="J181" t="n">
-        <v>0.005732949999870279</v>
+        <v>0.005874913815779636</v>
       </c>
     </row>
     <row r="182">
@@ -7805,11 +7805,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>[0.6996333599090576, 0.6315889358520508, 0.6557592153549194, 0.7143774628639221, 0.7722958922386169, 0.9578888416290283, 0.8214971423149109, 0.8670809864997864, 0.9206658005714417, 0.699774980545044, 0.7892955541610718, 0.8255650997161865, 0.8656077980995178, 0.9003745913505554, 0.8802837133407593, 0.8760800361633301, 0.8558332324028015, 0.8932305574417114, 0.8017624616622925, 0.9219618439674377, 0.899886429309845, 0.6423810124397278, 0.8165098428726196, 0.8661243319511414, 0.9494674801826477, 0.8503711819648743, 0.6930145025253296, 0.9537369012832642, 0.49817922711372375, 0.750315248966217, 0.8239347338676453, 0.8422070741653442, 0.5214817523956299, 0.6140112280845642, 0.7627764940261841, 0.9278223514556885, 0.8380781412124634, 0.5284069180488586, 0.6690013408660889, 0.8158164620399475, 0.6095378398895264, 0.6793423295021057, 0.7644650340080261, 0.6920516490936279, 0.7371118068695068, 0.6961929202079773, 0.7565067410469055, 0.7231219410896301, 0.7445016503334045, 0.7517687678337097, 0.8559767603874207, 0.7351502180099487, 0.6183152198791504, 0.8662639260292053, 0.874923825263977, 0.8629743456840515, 0.7711522579193115, 0.9083478450775146, 0.9373323321342468, 0.8595715165138245, 0.6705379486083984, 0.8339788317680359, 0.6970414519309998, 0.5067249536514282, 0.7799957394599915, 0.5831042528152466, 0.6956872344017029, 0.5270612239837646, 0.5819163918495178, 0.5153953433036804, 0.5852864980697632, 0.6965785622596741, 0.8465020656585693, 0.7326173186302185, 0.6513532400131226, 0.8728109002113342, 0.9196780323982239, 0.9124161601066589, 0.9485925436019897, 0.863142192363739, 0.8734211921691895, 0.7651410102844238, 0.6755309104919434, 0.8395147919654846, 0.7925020456314087, 0.4227735102176666, 0.7902542948722839, 0.8426648378372192, 0.7865037322044373, 0.6708780527114868, 0.8404842019081116, 0.8591741919517517, 0.5379552841186523, 0.7347107529640198, 0.6156355142593384, 0.8667281270027161, 0.8291906118392944, 0.9057760238647461, 0.658897340297699, 0.6370993256568909, 0.7437089681625366, 0.7735370397567749, 0.7642938494682312, 0.8489431142807007, 0.7760399580001831, 0.7840572595596313, 0.766780436038971, 0.7358298301696777, 0.6762188673019409, 0.6574848294258118, 0.9300198554992676, 0.9454363584518433, 0.9250016808509827, 0.9217621684074402, 0.6856836080551147, 0.34103915095329285, 0.48879000544548035, 0.830925703048706, 0.7446565628051758, 0.911583662033081, 0.9393651485443115, 0.9415140748023987, 0.8058287501335144, 0.7241373658180237, 0.5128428936004639, 0.8513820767402649, 0.9392331838607788, 0.892451822757721, 0.4468223452568054, 0.36595791578292847, 0.7874738574028015, 0.45273908972740173, 0.7300898432731628, 0.7921581864356995, 0.7992830872535706, 0.7634081840515137, 0.7722698450088501, 0.7079707384109497, 0.4724463224411011, 0.5589207410812378, 0.5139369964599609, 0.6919444799423218, 0.556618332862854, 0.24576736986637115, 0.2896285653114319, 0.22787819802761078, 0.29431381821632385, 0.7298649549484253, 0.8208596706390381, 0.8109744787216187, 0.65557461977005, 0.41782623529434204]</t>
+          <t>[0.720062792301178, 0.6479039192199707, 0.6654452681541443, 0.7078230381011963, 0.7412531971931458, 0.9578968286514282, 0.8938028812408447, 0.91661536693573, 0.935654878616333, 0.6705485582351685, 0.796562135219574, 0.8625400066375732, 0.8818217515945435, 0.8921046257019043, 0.8428861498832703, 0.8117233514785767, 0.8472458124160767, 0.8979791402816772, 0.6844993829727173, 0.9218593239784241, 0.9058846831321716, 0.667725682258606, 0.8386726975440979, 0.8528146147727966, 0.9378223419189453, 0.8344671726226807, 0.6686307787895203, 0.9207062721252441, 0.49578994512557983, 0.7462748289108276, 0.8051674365997314, 0.7674823999404907, 0.5840079188346863, 0.6507824659347534, 0.8257923722267151, 0.9326218366622925, 0.8562818765640259, 0.5887848138809204, 0.7410877346992493, 0.8460073471069336, 0.6519683599472046, 0.7422763705253601, 0.7652547955513, 0.6585657000541687, 0.6719385981559753, 0.6649020314216614, 0.7317542433738708, 0.7249982953071594, 0.7218078374862671, 0.7491304874420166, 0.8700035214424133, 0.6813955307006836, 0.5801750421524048, 0.8740734457969666, 0.8966054320335388, 0.9100285768508911, 0.8129677176475525, 0.879787802696228, 0.9401785731315613, 0.8619236350059509, 0.7551055550575256, 0.8707491755485535, 0.725334882736206, 0.5039120316505432, 0.7738879323005676, 0.5908309817314148, 0.7556831240653992, 0.6834080815315247, 0.618605375289917, 0.5182058811187744, 0.6090327501296997, 0.6867516040802002, 0.861577570438385, 0.7266704440116882, 0.6293666958808899, 0.8841657042503357, 0.9182999134063721, 0.895896315574646, 0.9258124828338623, 0.8612591624259949, 0.905800461769104, 0.8391168713569641, 0.6568652391433716, 0.8682775497436523, 0.8700693845748901, 0.408136248588562, 0.7472522854804993, 0.8804446458816528, 0.855313241481781, 0.6870309710502625, 0.8298282623291016, 0.8412405252456665, 0.5506932735443115, 0.7458359599113464, 0.7156953811645508, 0.8621932864189148, 0.843009352684021, 0.9111087918281555, 0.7140914797782898, 0.6730819940567017, 0.7314898371696472, 0.7374047040939331, 0.734613835811615, 0.8508382439613342, 0.7919232249259949, 0.782071590423584, 0.7935670018196106, 0.7471497654914856, 0.647024393081665, 0.6590229868888855, 0.9564411044120789, 0.945584774017334, 0.9113412499427795, 0.9071320295333862, 0.681359589099884, 0.3581439256668091, 0.5679318308830261, 0.8630165457725525, 0.7850895524024963, 0.9222150444984436, 0.9256255030632019, 0.9369805455207825, 0.8499675989151001, 0.7246959209442139, 0.6088254451751709, 0.876128613948822, 0.9188088178634644, 0.8461721539497375, 0.48471054434776306, 0.37994444370269775, 0.8053480386734009, 0.4417317807674408, 0.7279294729232788, 0.7747570872306824, 0.7443250417709351, 0.710026741027832, 0.8049083948135376, 0.6475472450256348, 0.39774706959724426, 0.48882171511650085, 0.4535767734050751, 0.7143110632896423, 0.6323598623275757, 0.24265162646770477, 0.30556434392929077, 0.20926757156848907, 0.281912624835968, 0.7669700384140015, 0.8264117240905762, 0.84595787525177, 0.75062096118927, 0.5727183818817139]</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.9578888416290283</v>
+        <v>0.9578968286514282</v>
       </c>
       <c r="F182" t="n">
         <v>1</v>
@@ -7823,10 +7823,10 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>0.8722807000158355</v>
+        <v>0.9024648000049638</v>
       </c>
       <c r="J182" t="n">
-        <v>0.005738688815893654</v>
+        <v>0.005937268421085288</v>
       </c>
     </row>
     <row r="183">
@@ -7845,11 +7845,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[0.9846431016921997, 0.9943774342536926, 0.9965466856956482, 0.992998480796814, 0.9925947785377502, 0.9949060678482056, 0.9942033886909485, 0.9900879263877869, 0.9815983772277832, 0.9761542677879333, 0.973393976688385, 0.9866577982902527, 0.9899622201919556, 0.988949179649353, 0.9900557994842529, 0.9940645098686218, 0.992567777633667, 0.9927788376808167, 0.9956308603286743, 0.9958904385566711, 0.9901623725891113, 0.990260899066925, 0.9749286770820618, 0.9922410249710083, 0.9942366480827332, 0.9697468280792236, 0.9897807836532593, 0.9802170395851135, 0.9369816184043884, 0.973945677280426, 0.9781766533851624, 0.9615563750267029, 0.9626019597053528, 0.9208780527114868, 0.9007583260536194, 0.9761438369750977, 0.9930394291877747, 0.9875942468643188, 0.994594395160675, 0.9906062483787537, 0.9877321720123291, 0.9864691495895386, 0.9892336130142212, 0.9790500998497009, 0.9846216440200806, 0.9833893179893494, 0.9786267876625061, 0.9945960640907288, 0.9945333003997803, 0.9947070479393005, 0.9865041971206665, 0.9471936225891113, 0.9680976867675781, 0.9576729536056519, 0.9700988531112671, 0.9536612033843994, 0.9499015212059021, 0.9804362654685974, 0.9904300570487976, 0.9892746806144714, 0.9660752415657043, 0.9786344766616821, 0.9539737701416016, 0.9524573683738708, 0.9527068734169006, 0.9918015599250793, 0.9938400387763977, 0.9940720200538635, 0.9879286885261536, 0.9891355037689209, 0.9915995597839355, 0.9896087050437927, 0.9880605936050415, 0.9902371764183044, 0.9837289452552795, 0.9924659729003906, 0.9897047877311707, 0.9809030294418335, 0.9913098812103271, 0.9853153228759766, 0.9797759056091309, 0.9867047071456909, 0.9826095104217529, 0.9897539615631104, 0.992493212223053, 0.9934711456298828, 0.9924883842468262, 0.9836048483848572, 0.9902832508087158, 0.9891742467880249, 0.9925389885902405, 0.9902003407478333, 0.9841952323913574, 0.9708611369132996, 0.9669168591499329, 0.9592958688735962, 0.9818981289863586, 0.9840966463088989, 0.9593139886856079, 0.989068329334259, 0.9883274435997009, 0.9910727143287659, 0.991992712020874, 0.9914306998252869, 0.9923267960548401, 0.9914210438728333, 0.9898157119750977, 0.9783130884170532, 0.9741573333740234, 0.9757475256919861, 0.9802045226097107, 0.9919438362121582, 0.9862527251243591, 0.9930440783500671, 0.985945999622345, 0.9864198565483093, 0.99174565076828, 0.9889925122261047, 0.9819391369819641, 0.9690975546836853, 0.9802587032318115, 0.9419806599617004, 0.9787231683731079, 0.9848561882972717, 0.9877404570579529, 0.986277163028717, 0.9846973419189453, 0.9865569472312927, 0.9924359917640686, 0.985944926738739, 0.9843169450759888, 0.9660736918449402, 0.9329202175140381, 0.9760056138038635, 0.9030898213386536, 0.9898748397827148, 0.9443690180778503, 0.9621273875236511, 0.9808887839317322, 0.9858506321907043, 0.9883956909179688, 0.9863333106040955, 0.9447043538093567, 0.9723605513572693, 0.9864470958709717, 0.9935938715934753, 0.9928719401359558, 0.9910515546798706, 0.9949234127998352, 0.97929847240448, 0.9803730249404907]</t>
+          <t>[0.9749787449836731, 0.9935187697410583, 0.9972260594367981, 0.9930577278137207, 0.9942882061004639, 0.9944432377815247, 0.9949837923049927, 0.9930633902549744, 0.9821184873580933, 0.9689652323722839, 0.9627830982208252, 0.982422947883606, 0.9839531779289246, 0.987552285194397, 0.9904183745384216, 0.9955708384513855, 0.9919692873954773, 0.9939382076263428, 0.9957553148269653, 0.9954408407211304, 0.9892164468765259, 0.9837346076965332, 0.9660462737083435, 0.9933792352676392, 0.9938333034515381, 0.9740846157073975, 0.9925123453140259, 0.9813176989555359, 0.9546615481376648, 0.9795007705688477, 0.9793460369110107, 0.9723309278488159, 0.9673771262168884, 0.9197499752044678, 0.8963937759399414, 0.9823169708251953, 0.9954487681388855, 0.989342451095581, 0.9954559803009033, 0.9931080341339111, 0.9928163290023804, 0.9893656969070435, 0.9910334944725037, 0.9855377078056335, 0.987036943435669, 0.9854244589805603, 0.9833198189735413, 0.9964806437492371, 0.9957818984985352, 0.9961757659912109, 0.9878518581390381, 0.9307499527931213, 0.9654529094696045, 0.9507625102996826, 0.9667385816574097, 0.9514360427856445, 0.9394394159317017, 0.9855201840400696, 0.9908043146133423, 0.986096203327179, 0.9555395245552063, 0.9719486832618713, 0.9481685161590576, 0.9355552792549133, 0.9547579288482666, 0.990777850151062, 0.9943631887435913, 0.9938462376594543, 0.9839707016944885, 0.9878998398780823, 0.9917114973068237, 0.9862174987792969, 0.9857178926467896, 0.9896289706230164, 0.9831067323684692, 0.9941469430923462, 0.9910635948181152, 0.9794502854347229, 0.9913612008094788, 0.9785203337669373, 0.9760662317276001, 0.9864881634712219, 0.9750801920890808, 0.9862630367279053, 0.991773784160614, 0.9947119951248169, 0.9940206408500671, 0.9839184284210205, 0.991212785243988, 0.990832507610321, 0.992976725101471, 0.9897945523262024, 0.9793673157691956, 0.963167130947113, 0.9662068486213684, 0.9651237726211548, 0.9820969700813293, 0.9895534515380859, 0.9731804132461548, 0.9903706908226013, 0.9880879521369934, 0.9929699301719666, 0.9934112429618835, 0.9900194406509399, 0.9898723363876343, 0.9885289072990417, 0.9878645539283752, 0.971662700176239, 0.9691033363342285, 0.977202832698822, 0.983116090297699, 0.9929574728012085, 0.9900130033493042, 0.9928296208381653, 0.9840291142463684, 0.9855837821960449, 0.9937904477119446, 0.9920476078987122, 0.986598014831543, 0.9789011478424072, 0.983439028263092, 0.9356330633163452, 0.9656202793121338, 0.9832931756973267, 0.9867987036705017, 0.9884530901908875, 0.9772899150848389, 0.9880774021148682, 0.9925132393836975, 0.9872221350669861, 0.9788632988929749, 0.9670644402503967, 0.9175629019737244, 0.9699371457099915, 0.9001158475875854, 0.9886550903320312, 0.9187045097351074, 0.9789096713066101, 0.9894697666168213, 0.9875626564025879, 0.9922274947166443, 0.9932843446731567, 0.9636858701705933, 0.9774575233459473, 0.9895917773246765, 0.9951006770133972, 0.9943318367004395, 0.9932077527046204, 0.9957236051559448, 0.9846182465553284, 0.9900960922241211]</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.9965466856956482</v>
+        <v>0.9972260594367981</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>0.8961492000089493</v>
+        <v>0.9061319000029471</v>
       </c>
       <c r="J183" t="n">
-        <v>0.005934762913966551</v>
+        <v>0.006000873509953292</v>
       </c>
     </row>
     <row r="184">
@@ -7885,11 +7885,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>[0.7551689743995667, 0.8304914236068726, 0.8528677225112915, 0.798534631729126, 0.6389341354370117, 0.715297281742096, 0.7083424925804138, 0.8571541905403137, 0.8253650665283203, 0.6305418014526367, 0.6381313800811768, 0.8217962980270386, 0.7527545690536499, 0.7272434830665588, 0.7964739203453064, 0.7496095895767212, 0.8838251233100891, 0.7268090844154358, 0.7655843496322632, 0.5029658675193787, 0.8745458722114563, 0.8337082862854004, 0.43267297744750977, 0.353477418422699, 0.44939252734184265, 0.5299895405769348, 0.4226720631122589, 0.6427226662635803, 0.6547443270683289, 0.780356764793396, 0.5919327139854431, 0.27989909052848816, 0.6493428349494934, 0.3801282048225403, 0.5595634579658508, 0.35826146602630615, 0.49393823742866516, 0.15009452402591705, 0.10578425228595734, 0.15819226205348969, 0.11039804667234421, 0.1605900526046753, 0.10063555836677551, 0.11176546663045883, 0.2714402675628662, 0.30721554160118103, 0.39566612243652344, 0.11935847252607346, 0.32180196046829224, 0.14635702967643738, 0.16784536838531494, 0.16806715726852417, 0.14209146797657013, 0.11903145909309387, 0.18123461306095123, 0.14006048440933228, 0.08860567212104797, 0.07399795204401016, 0.12299824506044388, 0.1664760559797287, 0.17509329319000244, 0.6755158305168152, 0.46394097805023193, 0.24846182763576508, 0.17871178686618805, 0.1394728571176529, 0.1528312861919403, 0.3612537384033203, 0.6467200517654419, 0.18864232301712036, 0.5354087352752686, 0.3203025162220001, 0.14467424154281616, 0.13551805913448334, 0.11596070975065231, 0.17681509256362915, 0.427997350692749, 0.4145416021347046, 0.9147758483886719, 0.5259931087493896, 0.5834466218948364, 0.49477264285087585, 0.659069836139679, 0.7014771699905396, 0.6721096634864807, 0.8948304653167725, 0.8946701288223267, 0.9060134291648865, 0.8854844570159912, 0.898317277431488, 0.9581348896026611, 0.9439012408256531, 0.5017638206481934, 0.8746760487556458, 0.660794734954834, 0.861734926700592, 0.7651883363723755, 0.48089849948883057, 0.4320870637893677, 0.3443182110786438, 0.1916852593421936, 0.3825474679470062, 0.35142403841018677, 0.33789780735969543, 0.20871877670288086, 0.08595724403858185, 0.17802362143993378, 0.17563557624816895, 0.19144631922245026, 0.24374525249004364, 0.26838046312332153, 0.21210286021232605, 0.213440403342247, 0.1530565619468689, 0.14280015230178833, 0.2014368772506714, 0.17788873612880707, 0.20460547506809235, 0.21464170515537262, 0.2525922656059265, 0.1886022388935089, 0.299983948469162, 0.3334970474243164, 0.3401578664779663, 0.4112366735935211, 0.4128941297531128, 0.21407000720500946, 0.2033998966217041, 0.14053156971931458, 0.5208030939102173, 0.8544743657112122, 0.9222005009651184, 0.7240768074989319, 0.7391634583473206, 0.4562349021434784, 0.3928651809692383, 0.31205374002456665, 0.2346135377883911, 0.3313003480434418, 0.6537243723869324, 0.42584455013275146, 0.4701765775680542, 0.39789095520973206, 0.37234631180763245, 0.36586976051330566, 0.45386573672294617, 0.43266069889068604, 0.6662857532501221, 0.19385945796966553, 0.32448258996009827, 0.5013273358345032, 0.5051928758621216]</t>
+          <t>[0.6566894054412842, 0.6393474340438843, 0.681033730506897, 0.6058601140975952, 0.4024707078933716, 0.4545072615146637, 0.39299893379211426, 0.6999250054359436, 0.6341703534126282, 0.34750866889953613, 0.5029669404029846, 0.7810579538345337, 0.6905303001403809, 0.649998664855957, 0.719351589679718, 0.6159396171569824, 0.8467902541160583, 0.5512324571609497, 0.5931922197341919, 0.4590705335140228, 0.8497378826141357, 0.743381917476654, 0.1982559710741043, 0.21541129052639008, 0.4316047132015228, 0.4193927049636841, 0.37713223695755005, 0.6280326843261719, 0.39911508560180664, 0.6754437685012817, 0.4672384560108185, 0.16801297664642334, 0.5872848629951477, 0.1488131731748581, 0.2770579159259796, 0.23847627639770508, 0.3267742097377777, 0.0978533998131752, 0.04988221824169159, 0.1252063363790512, 0.06501033902168274, 0.09514203667640686, 0.04708827659487724, 0.09085363149642944, 0.31829527020454407, 0.25639665126800537, 0.26615962386131287, 0.11418606340885162, 0.30120524764060974, 0.1125132292509079, 0.16540059447288513, 0.19393299520015717, 0.11441775411367416, 0.10136143118143082, 0.19840210676193237, 0.13574685156345367, 0.061469871550798416, 0.0542772077023983, 0.10275011509656906, 0.15984724462032318, 0.19478192925453186, 0.6976478695869446, 0.519382894039154, 0.2771192789077759, 0.18123884499073029, 0.10538744181394577, 0.13160312175750732, 0.295602947473526, 0.5938922166824341, 0.1938018649816513, 0.46652519702911377, 0.3023081421852112, 0.10535256564617157, 0.08784667402505875, 0.07591793686151505, 0.12178585678339005, 0.23850347101688385, 0.280204176902771, 0.91412353515625, 0.5024248361587524, 0.3668496906757355, 0.2692343592643738, 0.3981071412563324, 0.5420387983322144, 0.540103018283844, 0.8384126424789429, 0.8176117539405823, 0.8179148435592651, 0.8388935327529907, 0.7921024560928345, 0.9320794939994812, 0.9081810116767883, 0.31763532757759094, 0.7640594840049744, 0.5470189452171326, 0.8072231411933899, 0.5615222454071045, 0.32659435272216797, 0.332278311252594, 0.21849726140499115, 0.1523238867521286, 0.3509594202041626, 0.3105304539203644, 0.25078284740448, 0.17333708703517914, 0.08941323310136795, 0.188484326004982, 0.12499994784593582, 0.15833483636379242, 0.21831153333187103, 0.26269105076789856, 0.15377584099769592, 0.14345479011535645, 0.15321838855743408, 0.1237628310918808, 0.20587779581546783, 0.16304288804531097, 0.2007998824119568, 0.1538417935371399, 0.2203364074230194, 0.1620885580778122, 0.2340262532234192, 0.20432302355766296, 0.20535625517368317, 0.350568562746048, 0.40775686502456665, 0.214166060090065, 0.21064306795597076, 0.12341302633285522, 0.5305853486061096, 0.7920984625816345, 0.9238760471343994, 0.655714213848114, 0.5897939801216125, 0.2988913953304291, 0.3039260804653168, 0.2903546392917633, 0.13642801344394684, 0.1778702437877655, 0.43830204010009766, 0.30436959862709045, 0.4050639867782593, 0.377371609210968, 0.36204710602760315, 0.3022339642047882, 0.4554676413536072, 0.3615696132183075, 0.6836012601852417, 0.10129525512456894, 0.23504650592803955, 0.39903175830841064, 0.37642037868499756]</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.9581348896026611</v>
+        <v>0.9320794939994812</v>
       </c>
       <c r="F184" t="n">
         <v>1</v>
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0.8682428000029176</v>
+        <v>0.8809517000045162</v>
       </c>
       <c r="J184" t="n">
-        <v>0.005712123684229721</v>
+        <v>0.005795734868450764</v>
       </c>
     </row>
     <row r="185">
@@ -7925,11 +7925,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>[0.25393232703208923, 0.2193567156791687, 0.08091957867145538, 0.042510490864515305, 0.05773872882127762, 0.04995768889784813, 0.030627122148871422, 0.028866803273558617, 0.06130509078502655, 0.05145913362503052, 0.07503078132867813, 0.6342318058013916, 0.07900404930114746, 0.11124686151742935, 0.1320304274559021, 0.050240177661180496, 0.06849817931652069, 0.10413972288370132, 0.08175089210271835, 0.05011449381709099, 0.19628356397151947, 0.04712984710931778, 0.03827454522252083, 0.09169311821460724, 0.041194360703229904, 0.08043735474348068, 0.15788762271404266, 0.06536561250686646, 0.06882767379283905, 0.14315500855445862, 0.06220410391688347, 0.1196141391992569, 0.07853854447603226, 0.08646576851606369, 0.4389686584472656, 0.1648791879415512, 0.0800781324505806, 0.06459417939186096, 0.2235497087240219, 0.10202176123857498, 0.11016739159822464, 0.09801837801933289, 0.1434875726699829, 0.13169321417808533, 0.11377628892660141, 0.09557444602251053, 0.0503070242702961, 0.0627739205956459, 0.05461936444044113, 0.12499628216028214, 0.12250042706727982, 0.07188031077384949, 0.048491816967725754, 0.16815513372421265, 0.21625404059886932, 0.19338950514793396, 0.08668237924575806, 0.10002197325229645, 0.05547858402132988, 0.16478502750396729, 0.1811167150735855, 0.11442555487155914, 0.18392536044120789, 0.06083934009075165, 0.07871785014867783, 0.2735455632209778, 0.25680920481681824, 0.4295767843723297, 0.10654770582914352, 0.14431209862232208, 0.14090849459171295, 0.24274371564388275, 0.059341445565223694, 0.04259120672941208, 0.08584366738796234, 0.08856368809938431, 0.08441106230020523, 0.15377825498580933, 0.17972809076309204, 0.06793782114982605, 0.029807064682245255, 0.06343834847211838, 0.06533835083246231, 0.18131642043590546, 0.21057134866714478, 0.30528774857521057, 0.21758589148521423, 0.10031027346849442, 0.13061358034610748, 0.3152390122413635, 0.07179774343967438, 0.16266922652721405, 0.0823618471622467, 0.07235391438007355, 0.1844012588262558, 0.11581617593765259, 0.13051830232143402, 0.06731962412595749, 0.07608248293399811, 0.08534189313650131, 0.1428026705980301, 0.07696627080440521, 0.1671917736530304, 0.13333408534526825, 0.09264767915010452, 0.1785932332277298, 0.1816607415676117, 0.07625120878219604, 0.0931767001748085, 0.06648124754428864, 0.1054283156991005, 0.10181878507137299, 0.11899153143167496, 0.07861047983169556, 0.04926390200853348, 0.05660596117377281, 0.05710507556796074, 0.14011888206005096, 0.3291347026824951, 0.3786274790763855, 0.20827342569828033, 0.3003813922405243, 0.3844165503978729, 0.2247157245874405, 0.10165777057409286, 0.09553822129964828, 0.1646658182144165, 0.07969515025615692, 0.2545974850654602, 0.13301320374011993, 0.031479425728321075, 0.030460525304079056, 0.04111246392130852, 0.071827732026577, 0.05571778863668442, 0.08469321578741074, 0.056218963116407394, 0.04625862091779709, 0.04514051228761673, 0.08662298321723938, 0.08101373165845871, 0.1007264107465744, 0.06595754623413086, 0.14457941055297852, 0.32874494791030884, 0.15682071447372437, 0.2971138656139374, 0.05788252875208855, 0.10475821048021317, 0.0652182400226593, 0.12951597571372986, 0.1989320069551468]</t>
+          <t>[0.2656572759151459, 0.18003679811954498, 0.06135331094264984, 0.017769349738955498, 0.07513990998268127, 0.041978269815444946, 0.014156486839056015, 0.013097163289785385, 0.04255230724811554, 0.020147548988461494, 0.031045308336615562, 0.38671794533729553, 0.050338417291641235, 0.04939248040318489, 0.06041814386844635, 0.018579252064228058, 0.03459060192108154, 0.06098369508981705, 0.03904145956039429, 0.036415401846170425, 0.09126011282205582, 0.01855696178972721, 0.02643604762852192, 0.12855397164821625, 0.034908782690763474, 0.08302000164985657, 0.21458487212657928, 0.04165268316864967, 0.0496881827712059, 0.128496453166008, 0.04194282367825508, 0.1368492692708969, 0.08193793892860413, 0.08643006533384323, 0.6000019311904907, 0.13424663245677948, 0.05356818810105324, 0.04258231818675995, 0.2629222571849823, 0.12492113560438156, 0.08762393146753311, 0.06788522005081177, 0.13724185526371002, 0.11040975898504257, 0.10906348377466202, 0.12362079322338104, 0.04312913492321968, 0.057498373091220856, 0.031174972653388977, 0.14532022178173065, 0.07779136300086975, 0.04345383495092392, 0.03828505426645279, 0.17433296144008636, 0.15633121132850647, 0.1750430166721344, 0.05064938962459564, 0.0801447182893753, 0.027827085927128792, 0.11063165217638016, 0.3114326298236847, 0.0888795480132103, 0.19395408034324646, 0.03214070573449135, 0.05170946940779686, 0.31170132756233215, 0.28569626808166504, 0.37290722131729126, 0.09852771461009979, 0.09335462749004364, 0.11700549721717834, 0.25431180000305176, 0.045367445796728134, 0.019886091351509094, 0.07404749095439911, 0.04043474420905113, 0.05165214464068413, 0.13422882556915283, 0.23092035949230194, 0.11496566981077194, 0.0212541650980711, 0.06357081979513168, 0.07598917186260223, 0.2680993676185608, 0.31080928444862366, 0.26001638174057007, 0.2249673753976822, 0.06747367978096008, 0.11013191193342209, 0.37825751304626465, 0.06248266249895096, 0.334186315536499, 0.16822604835033417, 0.09108784049749374, 0.32800018787384033, 0.216547891497612, 0.2214668244123459, 0.051777277141809464, 0.07096214592456818, 0.11095774173736572, 0.18011820316314697, 0.06474903225898743, 0.2395450472831726, 0.12767033278942108, 0.09547175467014313, 0.22677645087242126, 0.17501047253608704, 0.08001919835805893, 0.06642145663499832, 0.04744824767112732, 0.0690493956208229, 0.0817897766828537, 0.17348402738571167, 0.058222878724336624, 0.0320473350584507, 0.04561616852879524, 0.05249156802892685, 0.13429883122444153, 0.32500413060188293, 0.3221607208251953, 0.2116263061761856, 0.20394355058670044, 0.3196079134941101, 0.19476766884326935, 0.08664520829916, 0.06724799424409866, 0.258108913898468, 0.07870501279830933, 0.34223800897598267, 0.1979294866323471, 0.020464308559894562, 0.017312828451395035, 0.042539797723293304, 0.07991980761289597, 0.04821724072098732, 0.0890171006321907, 0.058226410299539566, 0.03682776913046837, 0.03666555508971214, 0.10348561406135559, 0.07313205301761627, 0.08059123158454895, 0.06302274763584137, 0.11284787207841873, 0.5558194518089294, 0.19751636683940887, 0.28710123896598816, 0.04082108289003372, 0.10262462496757507, 0.06808775663375854, 0.07381610572338104, 0.2722336947917938]</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.6342318058013916</v>
+        <v>0.6000019311904907</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
@@ -7943,10 +7943,10 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0.8430471000028774</v>
+        <v>0.8700941999995848</v>
       </c>
       <c r="J185" t="n">
-        <v>0.005546362500018931</v>
+        <v>0.005724303947365689</v>
       </c>
     </row>
     <row r="186">
@@ -7965,11 +7965,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>[0.1433926373720169, 0.10743150860071182, 0.11028235405683517, 0.028736144304275513, 0.024903548881411552, 0.0415007621049881, 0.019258011132478714, 0.011472067795693874, 0.028290143236517906, 0.02029263786971569, 0.041912954300642014, 0.023617954924702644, 0.1909806728363037, 0.17830254137516022, 0.059746578335762024, 0.02761698141694069, 0.03773093223571777, 0.08840543031692505, 0.031120629981160164, 0.28986451029777527, 0.11145664006471634, 0.22803756594657898, 0.5921574831008911, 0.396589457988739, 0.7045298218727112, 0.4308275580406189, 0.83211350440979, 0.7563155889511108, 0.5133403539657593, 0.7666874527931213, 0.8183284997940063, 0.831773579120636, 0.6055841445922852, 0.38677528500556946, 0.3349904716014862, 0.18170590698719025, 0.45700803399086, 0.5566522479057312, 0.7877019047737122, 0.8090819716453552, 0.26856639981269836, 0.34473717212677, 0.26362308859825134, 0.5198122262954712, 0.5928089618682861, 0.48952773213386536, 0.27766919136047363, 0.16313473880290985, 0.47520795464515686, 0.777332603931427, 0.48993271589279175, 0.5139277577400208, 0.389697790145874, 0.3159051239490509, 0.10537798702716827, 0.13668957352638245, 0.09027314931154251, 0.05378613993525505, 0.07892914116382599, 0.12457528710365295, 0.22669409215450287, 0.12410765886306763, 0.09452766180038452, 0.03980693593621254, 0.051212649792432785, 0.08378293365240097, 0.027468713000416756, 0.01911218650639057, 0.01666259579360485, 0.02267962507903576, 0.015654858201742172, 0.019874779507517815, 0.031935203820466995, 0.049823712557554245, 0.04317138344049454, 0.04486307129263878, 0.0454740896821022, 0.026381919160485268, 0.017679749056696892, 0.01745651289820671, 0.043538257479667664, 0.02983340434730053, 0.05097465217113495, 0.014625060372054577, 0.018842285498976707, 0.014708111993968487, 0.03526730090379715, 0.016777094453573227, 0.011567207053303719, 0.04380350932478905, 0.084170401096344, 0.21297486126422882, 0.025943687185645103, 0.03821109980344772, 0.023040615022182465, 0.07469210028648376, 0.02311551198363304, 0.02194616012275219, 0.05320724844932556, 0.04496954381465912, 0.05921413376927376, 0.06164739280939102, 0.09150973707437515, 0.14912286400794983, 0.14196328818798065, 0.22341130673885345, 0.04237286001443863, 0.3945719599723816, 0.7817421555519104, 0.39241495728492737, 0.5324774384498596, 0.3485138416290283, 0.5272812247276306, 0.8553071618080139, 0.4172936975955963, 0.4535062909126282, 0.5199597477912903, 0.6504769325256348, 0.8361560106277466, 0.24785077571868896, 0.2962155342102051, 0.8231691122055054, 0.32884708046913147, 0.7362824082374573, 0.8214834928512573, 0.6694464087486267, 0.9226829409599304, 0.9636092782020569, 0.40711450576782227, 0.8364573121070862, 0.8982176184654236, 0.8449939489364624, 0.8131447434425354, 0.705010712146759, 0.6417558789253235, 0.27153778076171875, 0.8710632920265198, 0.8724363446235657, 0.9538532495498657, 0.9301835298538208, 0.8621759414672852, 0.7975754737854004, 0.6031636595726013, 0.5692104697227478, 0.6788783669471741, 0.6049299240112305, 0.43087393045425415, 0.5104147791862488, 0.5114670395851135, 0.6286178231239319, 0.8716047406196594, 0.5895621180534363]</t>
+          <t>[0.126774400472641, 0.2087993621826172, 0.12136740237474442, 0.024122096598148346, 0.021221963688731194, 0.03383682295680046, 0.007838069461286068, 0.0039259144105017185, 0.018318725749850273, 0.013140537776052952, 0.04908745735883713, 0.010925759561359882, 0.15506304800510406, 0.10462146252393723, 0.05726727098226547, 0.014495158568024635, 0.021117832511663437, 0.09070779383182526, 0.013001728802919388, 0.4384949803352356, 0.15324120223522186, 0.2660750150680542, 0.6964036226272583, 0.6280978918075562, 0.6767404079437256, 0.39808353781700134, 0.8570576906204224, 0.7560200691223145, 0.5692259073257446, 0.829698383808136, 0.8864166736602783, 0.9271540641784668, 0.7201710343360901, 0.7923368215560913, 0.6695713400840759, 0.3845529556274414, 0.6975796222686768, 0.7710056900978088, 0.8642678260803223, 0.8893316984176636, 0.3198091685771942, 0.4896455407142639, 0.5298606753349304, 0.7187719941139221, 0.8543029427528381, 0.7605376839637756, 0.5957868099212646, 0.1796245127916336, 0.7748206257820129, 0.9185017943382263, 0.6497067213058472, 0.5690271854400635, 0.533309817314148, 0.34182098507881165, 0.08768105506896973, 0.1351596713066101, 0.10246217250823975, 0.04254725202918053, 0.04044653847813606, 0.1642421931028366, 0.43032288551330566, 0.16800321638584137, 0.07226373255252838, 0.04316193237900734, 0.06659476459026337, 0.06095699593424797, 0.02210758812725544, 0.012635807506740093, 0.006738405674695969, 0.012148991227149963, 0.005391797050833702, 0.008417024277150631, 0.020385337993502617, 0.03896091878414154, 0.04478604346513748, 0.024245601147413254, 0.01980702579021454, 0.013972105458378792, 0.007951783016324043, 0.012805219739675522, 0.042033322155475616, 0.014603669755160809, 0.08305767178535461, 0.006649195682257414, 0.008552085608243942, 0.008539472706615925, 0.02597607485949993, 0.016319967806339264, 0.020790988579392433, 0.08163973689079285, 0.2582395374774933, 0.3247718811035156, 0.03299752622842789, 0.038079213351011276, 0.017799710854887962, 0.0893334224820137, 0.027087558060884476, 0.016899125650525093, 0.04194439947605133, 0.04214517027139664, 0.026610013097524643, 0.04243995621800423, 0.044997695833444595, 0.13561561703681946, 0.3455254137516022, 0.2994615137577057, 0.06925592571496964, 0.5016291737556458, 0.9082227945327759, 0.6730391383171082, 0.7761191725730896, 0.5503015518188477, 0.5678489208221436, 0.9263121485710144, 0.590839147567749, 0.6398348212242126, 0.5831304788589478, 0.735271155834198, 0.9150136113166809, 0.5276052355766296, 0.5036503672599792, 0.9113396406173706, 0.5575069189071655, 0.8326334357261658, 0.9437721371650696, 0.8385648727416992, 0.9694679975509644, 0.9857332706451416, 0.6946420669555664, 0.9317576885223389, 0.9398452043533325, 0.9287320375442505, 0.9122875332832336, 0.805415689945221, 0.7754349708557129, 0.5926382541656494, 0.9544023871421814, 0.9445656538009644, 0.9888661503791809, 0.9803311228752136, 0.9628601670265198, 0.9417913556098938, 0.8251133561134338, 0.8720528483390808, 0.8773018717765808, 0.859661877155304, 0.5517339110374451, 0.7298412322998047, 0.757411777973175, 0.8670069575309753, 0.9717063903808594, 0.765319287776947]</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.9636092782020569</v>
+        <v>0.9888661503791809</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
@@ -7983,10 +7983,10 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0.8582062000059523</v>
+        <v>0.8667697999917436</v>
       </c>
       <c r="J186" t="n">
-        <v>0.005646093421091791</v>
+        <v>0.005702432894682524</v>
       </c>
     </row>
     <row r="187">
@@ -8005,11 +8005,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>[0.2577064633369446, 0.21655648946762085, 0.307503879070282, 0.28598111867904663, 0.2817929983139038, 0.1994595229625702, 0.2917191982269287, 0.235545352101326, 0.23367416858673096, 0.10994163155555725, 0.10994060337543488, 0.16186021268367767, 0.17300811409950256, 0.14405490458011627, 0.16210830211639404, 0.10851618647575378, 0.12791454792022705, 0.1732049137353897, 0.10646641254425049, 0.16620555520057678, 0.174022376537323, 0.12346967309713364, 0.20791089534759521, 0.3129494786262512, 0.21236619353294373, 0.24964293837547302, 0.3190115988254547, 0.25940534472465515, 0.303661584854126, 0.3106919825077057, 0.19446538388729095, 0.2153157889842987, 0.22832730412483215, 0.23214584589004517, 0.24520906805992126, 0.12345228344202042, 0.12321147322654724, 0.15035618841648102, 0.1020401120185852, 0.06196530535817146, 0.0750400498509407, 0.09250668436288834, 0.08506033569574356, 0.08664928376674652, 0.12868502736091614, 0.12103155255317688, 0.13276344537734985, 0.1261032074689865, 0.05166562274098396, 0.07619836181402206, 0.10284508764743805, 0.14956457912921906, 0.12742316722869873, 0.19399088621139526, 0.11527650058269501, 0.21866457164287567, 0.21549151837825775, 0.20027436316013336, 0.28586456179618835, 0.3551069498062134, 0.27465349435806274, 0.14670781791210175, 0.08494433760643005, 0.09092895686626434, 0.04903382435441017, 0.05447734519839287, 0.07459250837564468, 0.0851060301065445, 0.06617766618728638, 0.04966087266802788, 0.034327663481235504, 0.08034765720367432, 0.12441031634807587, 0.16333316266536713, 0.06269437819719315, 0.07742132991552353, 0.07591135054826736, 0.06702133268117905, 0.06080947071313858, 0.032052140682935715, 0.10356208682060242, 0.05876924842596054, 0.10185398161411285, 0.06941185146570206, 0.14322499930858612, 0.12095672637224197, 0.1411457657814026, 0.15290617942810059, 0.13839051127433777, 0.16001924872398376, 0.09497250616550446, 0.1195913702249527, 0.23310419917106628, 0.3002530336380005, 0.30354541540145874, 0.34513524174690247, 0.21628440916538239, 0.17580077052116394, 0.15543600916862488, 0.22483091056346893, 0.2774428129196167, 0.2881375551223755, 0.17163442075252533, 0.1777735948562622, 0.19299452006816864, 0.2108832448720932, 0.22417770326137543, 0.11125493049621582, 0.1838456094264984, 0.2222856730222702, 0.150925412774086, 0.16558219492435455, 0.17126169800758362, 0.31010258197784424, 0.2137753963470459, 0.2243022322654724, 0.27935558557510376, 0.17078468203544617, 0.17622947692871094, 0.18550235033035278, 0.1886664479970932, 0.12543249130249023, 0.09209232032299042, 0.1022147461771965, 0.10092630237340927, 0.09867309033870697, 0.20156335830688477, 0.25680962204933167, 0.16064295172691345, 0.17011867463588715, 0.20077693462371826, 0.2112126350402832, 0.16227053105831146, 0.20934712886810303, 0.20871345698833466, 0.28470760583877563, 0.3095873296260834, 0.23975664377212524, 0.22633469104766846, 0.22233985364437103, 0.2466902732849121, 0.30053672194480896, 0.18517795205116272, 0.15677410364151, 0.13601452112197876, 0.1920444518327713, 0.14234617352485657, 0.18105486035346985, 0.16915616393089294, 0.13298700749874115, 0.13705036044120789, 0.11052609980106354]</t>
+          <t>[0.26273706555366516, 0.19283132255077362, 0.28150683641433716, 0.24262483417987823, 0.243382528424263, 0.1820642352104187, 0.24327433109283447, 0.2042105793952942, 0.2156195491552353, 0.08860492706298828, 0.07404248416423798, 0.15170042216777802, 0.1256900578737259, 0.11673642694950104, 0.11256906390190125, 0.08311929553747177, 0.13285262882709503, 0.1965780258178711, 0.08807427436113358, 0.10728434473276138, 0.1273990124464035, 0.0656498372554779, 0.15319323539733887, 0.28413209319114685, 0.17604902386665344, 0.16559208929538727, 0.25547468662261963, 0.20186077058315277, 0.25402337312698364, 0.26339417695999146, 0.15956410765647888, 0.1927727609872818, 0.17237156629562378, 0.1802314966917038, 0.2647121548652649, 0.08578268438577652, 0.07842385023832321, 0.07130534946918488, 0.052476465702056885, 0.02845986746251583, 0.0323089063167572, 0.05759759992361069, 0.059486374258995056, 0.0678042322397232, 0.1100831925868988, 0.07910195738077164, 0.07268284261226654, 0.07185813039541245, 0.021607941016554832, 0.03503534197807312, 0.06972132623195648, 0.09602592140436172, 0.12404964864253998, 0.19424594938755035, 0.09283211827278137, 0.20408877730369568, 0.17627568542957306, 0.14831414818763733, 0.2614206373691559, 0.32614994049072266, 0.22613927721977234, 0.08754269778728485, 0.05342902988195419, 0.05200456082820892, 0.035740382969379425, 0.04036693274974823, 0.05257001146674156, 0.0649663656949997, 0.05780963599681854, 0.041829660534858704, 0.03993137180805206, 0.07552241533994675, 0.1570921391248703, 0.25881877541542053, 0.07717843353748322, 0.09817596524953842, 0.07284070551395416, 0.05024135485291481, 0.05181366577744484, 0.036508917808532715, 0.09873664379119873, 0.07161436975002289, 0.08798076212406158, 0.044400688260793686, 0.14423435926437378, 0.06871628016233444, 0.09233462065458298, 0.09550785273313522, 0.11796962469816208, 0.10784188657999039, 0.08920803666114807, 0.1012318953871727, 0.20693449676036835, 0.35254189372062683, 0.32806533575057983, 0.3855561316013336, 0.1774975210428238, 0.1499878168106079, 0.16663552820682526, 0.28375911712646484, 0.3491241931915283, 0.30826711654663086, 0.2525644898414612, 0.2406638264656067, 0.30375608801841736, 0.3038363754749298, 0.31764712929725647, 0.14380493760108948, 0.2922342121601105, 0.3756222426891327, 0.2601487934589386, 0.28682276606559753, 0.26603350043296814, 0.5155878067016602, 0.25373145937919617, 0.2507631480693817, 0.41636309027671814, 0.2819293439388275, 0.28167882561683655, 0.2585265040397644, 0.2902393937110901, 0.18715080618858337, 0.1444469839334488, 0.08689167350530624, 0.0850692018866539, 0.12608061730861664, 0.28950002789497375, 0.2542584240436554, 0.16356071829795837, 0.22733817994594574, 0.30628129839897156, 0.3169296085834503, 0.2289666384458542, 0.30652058124542236, 0.28498178720474243, 0.5454046726226807, 0.5339444279670715, 0.36777159571647644, 0.34283360838890076, 0.4256756901741028, 0.45342108607292175, 0.49171438813209534, 0.3148582875728607, 0.27099207043647766, 0.2295076549053192, 0.2546185851097107, 0.17690283060073853, 0.2281966209411621, 0.23843614757061005, 0.15978321433067322, 0.17809239029884338, 0.1572609543800354]</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.3551069498062134</v>
+        <v>0.5454046726226807</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
@@ -8023,10 +8023,10 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0.8562644000048749</v>
+        <v>0.8830164999963017</v>
       </c>
       <c r="J187" t="n">
-        <v>0.005633318421084704</v>
+        <v>0.005809319078923038</v>
       </c>
     </row>
     <row r="188">
@@ -8045,11 +8045,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>[0.2634298503398895, 0.23554997146129608, 0.25944238901138306, 0.3406064212322235, 0.23017627000808716, 0.21109233796596527, 0.14607101678848267, 0.26230546832084656, 0.31550532579421997, 0.2974509596824646, 0.24597206711769104, 0.30925294756889343, 0.2598596513271332, 0.2747018337249756, 0.19846530258655548, 0.13445071876049042, 0.10132180154323578, 0.13323217630386353, 0.11193406581878662, 0.11277297139167786, 0.11247403174638748, 0.15020336210727692, 0.19143810868263245, 0.175377756357193, 0.2653358280658722, 0.20255479216575623, 0.19056478142738342, 0.36046162247657776, 0.36198052763938904, 0.275434672832489, 0.2077801376581192, 0.1940625160932541, 0.19543150067329407, 0.13868896663188934, 0.26463907957077026, 0.2550826072692871, 0.2325773984193802, 0.27293649315834045, 0.2486601322889328, 0.321865051984787, 0.5229178071022034, 0.40011703968048096, 0.3658112585544586, 0.30233779549598694, 0.415283739566803, 0.4071161448955536, 0.2564181685447693, 0.19313645362854004, 0.1891634464263916, 0.19216598570346832, 0.3596707284450531, 0.2570829689502716, 0.21491888165473938, 0.2936958074569702, 0.261213093996048, 0.22220678627490997, 0.2070516049861908, 0.2757418155670166, 0.26525652408599854, 0.17161890864372253, 0.23405463993549347, 0.16781024634838104, 0.2563561499118805, 0.23280277848243713, 0.1658487468957901, 0.15992915630340576, 0.13837561011314392, 0.2775614559650421, 0.14248408377170563, 0.16260936856269836, 0.22238576412200928, 0.17841441929340363, 0.24558083713054657, 0.29499757289886475, 0.22119072079658508, 0.13501012325286865, 0.1338113397359848, 0.1629340946674347, 0.2215929925441742, 0.27409037947654724, 0.3027842938899994, 0.18162864446640015, 0.3092561662197113, 0.28711608052253723, 0.24845167994499207, 0.26744937896728516, 0.20417603850364685, 0.2920394539833069, 0.18265190720558167, 0.1805577427148819, 0.2038002759218216, 0.15360668301582336, 0.180904358625412, 0.1898885816335678, 0.29953980445861816, 0.22011934220790863, 0.1447572559118271, 0.27548906207084656, 0.24493460357189178, 0.19202640652656555, 0.18757419288158417, 0.16641950607299805, 0.14094623923301697, 0.09670498222112656, 0.1232403889298439, 0.122323177754879, 0.07778759300708771, 0.1684674322605133, 0.2600874900817871, 0.08466587215662003, 0.10612481087446213, 0.14705266058444977, 0.07774022221565247, 0.1413741409778595, 0.19042079150676727, 0.15134182572364807, 0.15195180475711823, 0.08316944539546967, 0.13944269716739655, 0.07080306112766266, 0.07110395282506943, 0.1642298698425293, 0.06131642311811447, 0.09944009780883789, 0.10457917302846909, 0.10535778105258942, 0.11767106503248215, 0.1924937516450882, 0.1364828199148178, 0.05579271540045738, 0.2335309535264969, 0.08311308175325394, 0.1545221209526062, 0.08720598369836807, 0.21783223748207092, 0.13824747502803802, 0.09001508355140686, 0.048066750168800354, 0.061386510729789734, 0.07227180153131485, 0.14876225590705872, 0.10301907360553741, 0.19460967183113098, 0.19219106435775757, 0.20290541648864746, 0.2014874517917633, 0.17997805774211884, 0.18735261261463165, 0.19101879000663757, 0.18812310695648193, 0.18230201303958893]</t>
+          <t>[0.28526708483695984, 0.1749311089515686, 0.21647566556930542, 0.3634590208530426, 0.20972754061222076, 0.1913290172815323, 0.15514877438545227, 0.28394004702568054, 0.31600746512413025, 0.3232491612434387, 0.2274477183818817, 0.27784326672554016, 0.3059100806713104, 0.3276962339878082, 0.2227209210395813, 0.09254457801580429, 0.12198969721794128, 0.1257583051919937, 0.08421961963176727, 0.09039702266454697, 0.10378361493349075, 0.17810823023319244, 0.16930486261844635, 0.11677048355340958, 0.25359851121902466, 0.17428992688655853, 0.16658763587474823, 0.2693254053592682, 0.4248289465904236, 0.2942808270454407, 0.2096385955810547, 0.20991812646389008, 0.18479229509830475, 0.11729326099157333, 0.23058126866817474, 0.2911747395992279, 0.24496296048164368, 0.30637413263320923, 0.31939706206321716, 0.39437758922576904, 0.7006024718284607, 0.5590416193008423, 0.4311833381652832, 0.3580111563205719, 0.5199497938156128, 0.5056317448616028, 0.2545652389526367, 0.16523326933383942, 0.1765843629837036, 0.21905875205993652, 0.4245555102825165, 0.29044654965400696, 0.237607941031456, 0.3319186270236969, 0.2768600285053253, 0.2399175465106964, 0.18313127756118774, 0.3367193341255188, 0.29947465658187866, 0.16864565014839172, 0.20232327282428741, 0.12425481528043747, 0.29048141837120056, 0.2857193648815155, 0.2433299869298935, 0.2145463079214096, 0.13493461906909943, 0.3177485167980194, 0.16196364164352417, 0.17470820248126984, 0.33064553141593933, 0.2277914583683014, 0.2617240846157074, 0.3854619264602661, 0.31791624426841736, 0.15803927183151245, 0.1199464425444603, 0.13236002624034882, 0.2797851860523224, 0.33551058173179626, 0.4476984739303589, 0.2571708559989929, 0.41957566142082214, 0.3900754153728485, 0.27826863527297974, 0.26327434182167053, 0.21336176991462708, 0.3133927285671234, 0.18080124258995056, 0.16976924240589142, 0.24986259639263153, 0.18905262649059296, 0.19765986502170563, 0.20015494525432587, 0.30352479219436646, 0.2474401593208313, 0.18996061384677887, 0.280644953250885, 0.2846686840057373, 0.27138444781303406, 0.2580634355545044, 0.15141527354717255, 0.19777622818946838, 0.1044173389673233, 0.1893080174922943, 0.11696002632379532, 0.0698871910572052, 0.11263266950845718, 0.25219297409057617, 0.04800949618220329, 0.07121135294437408, 0.09789102524518967, 0.0342370942234993, 0.08824385702610016, 0.1128804162144661, 0.13267797231674194, 0.08677574247121811, 0.050332989543676376, 0.11731857806444168, 0.044923458248376846, 0.03900495171546936, 0.1499122679233551, 0.0385839082300663, 0.05776314064860344, 0.06537579745054245, 0.06819941103458405, 0.11294472962617874, 0.16558247804641724, 0.11538051068782806, 0.02859330177307129, 0.18633385002613068, 0.04774199426174164, 0.13169482350349426, 0.03190944343805313, 0.19457712769508362, 0.1025165393948555, 0.055776916444301605, 0.014408864080905914, 0.03624622896313667, 0.03642901033163071, 0.17912474274635315, 0.053200818598270416, 0.08803244680166245, 0.08873305469751358, 0.09434619545936584, 0.0959748774766922, 0.0790715292096138, 0.08603961765766144, 0.08995194733142853, 0.08781588822603226, 0.08466751873493195]</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.5229178071022034</v>
+        <v>0.7006024718284607</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
@@ -8063,10 +8063,10 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0.8384594999952242</v>
+        <v>0.8314684999932069</v>
       </c>
       <c r="J188" t="n">
-        <v>0.005552711920498173</v>
+        <v>0.005506413907239781</v>
       </c>
     </row>
     <row r="189">
@@ -8085,11 +8085,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[0.9903311729431152, 0.9729827642440796, 0.9964483976364136, 0.9945074915885925, 0.9885638952255249, 0.9971966743469238, 0.9964057207107544, 0.9940516352653503, 0.9951310157775879, 0.9981288313865662, 0.9976805448532104, 0.9971605539321899, 0.9957363605499268, 0.9969381093978882, 0.9969760179519653, 0.9955702424049377, 0.9977169036865234, 0.9979000091552734, 0.9977553486824036, 0.9977802634239197, 0.9980225563049316, 0.9971119165420532, 0.9959328770637512, 0.9877875447273254, 0.9846553802490234, 0.9654551148414612, 0.9620075821876526, 0.9898632764816284, 0.9252423644065857, 0.9760735034942627, 0.9895644187927246, 0.9936978220939636, 0.9962204098701477, 0.9973005652427673, 0.9973213076591492, 0.996616542339325, 0.9940014481544495, 0.9833690524101257, 0.9922924041748047, 0.9878697991371155, 0.9815173745155334, 0.9774596691131592, 0.9626092314720154, 0.9890897870063782, 0.986756443977356, 0.9604490399360657, 0.9682010412216187, 0.9910338521003723, 0.9903590083122253, 0.9937900900840759, 0.9930429458618164, 0.9960207343101501, 0.9922439455986023, 0.9941771030426025, 0.9945821166038513, 0.9939196109771729, 0.9955582618713379, 0.9973512887954712, 0.9957336783409119, 0.9876061081886292, 0.9966208934783936, 0.9974789023399353, 0.996935248374939, 0.9952343106269836, 0.9959462285041809, 0.9975622892379761, 0.9978123903274536, 0.9981239438056946, 0.9979117512702942, 0.9985370635986328, 0.9981156587600708, 0.998028576374054, 0.9976047277450562, 0.9976293444633484, 0.997519314289093, 0.9973520040512085, 0.9967106580734253, 0.9963178634643555, 0.9913374185562134, 0.9948413968086243, 0.9925035238265991, 0.992425799369812, 0.9948959946632385, 0.9968591928482056, 0.9964385032653809, 0.9946236610412598, 0.9953550100326538, 0.9978912472724915, 0.9975244402885437, 0.9976727366447449, 0.9963012933731079, 0.9976587295532227, 0.9938323497772217, 0.9841147661209106, 0.9925746917724609, 0.9855608344078064, 0.9951915740966797, 0.9930692911148071, 0.9934855103492737, 0.9892691969871521, 0.9948099851608276, 0.9970042109489441, 0.9944791793823242, 0.9973549842834473, 0.9977607727050781, 0.9958598017692566, 0.9943063855171204, 0.993005096912384, 0.9973089694976807, 0.9927883744239807, 0.9926131963729858, 0.9683979749679565, 0.9465525150299072, 0.9860235452651978, 0.9927911758422852, 0.9937106370925903, 0.9962260723114014, 0.9962276220321655]</t>
+          <t>[0.9920039772987366, 0.9650787115097046, 0.9977627992630005, 0.9971042275428772, 0.9926816821098328, 0.9983931183815002, 0.9977253079414368, 0.995491087436676, 0.9944303631782532, 0.9989116191864014, 0.9986377358436584, 0.9987467527389526, 0.9976490139961243, 0.9985631108283997, 0.9985883831977844, 0.9966490864753723, 0.9984560012817383, 0.9986026883125305, 0.998465895652771, 0.9986246824264526, 0.9989663362503052, 0.9983232617378235, 0.9972075819969177, 0.9918369650840759, 0.9867417216300964, 0.9620708227157593, 0.9130323529243469, 0.9889339804649353, 0.8482790589332581, 0.9692960381507874, 0.9896149635314941, 0.9961804151535034, 0.9980480670928955, 0.9987311959266663, 0.9987704157829285, 0.9979531764984131, 0.9944374561309814, 0.9749241471290588, 0.992797315120697, 0.9901691675186157, 0.9854602217674255, 0.9781726598739624, 0.961584210395813, 0.99124675989151, 0.987557053565979, 0.9662006497383118, 0.984226644039154, 0.994662880897522, 0.994209885597229, 0.9957793951034546, 0.9951137900352478, 0.9977917671203613, 0.9947887659072876, 0.9959365129470825, 0.996105968952179, 0.993923008441925, 0.9965007305145264, 0.9983373880386353, 0.9966094493865967, 0.9869087338447571, 0.9979526996612549, 0.998601496219635, 0.9983702301979065, 0.9968619346618652, 0.9971300959587097, 0.9982171654701233, 0.9987404942512512, 0.9987903237342834, 0.9986336827278137, 0.9992458820343018, 0.9990333318710327, 0.9990411400794983, 0.9987820982933044, 0.9988321661949158, 0.9987078905105591, 0.998404324054718, 0.998315691947937, 0.9981020092964172, 0.9953194260597229, 0.9969326257705688, 0.9961714148521423, 0.9961814880371094, 0.9974791407585144, 0.9984847903251648, 0.9975994229316711, 0.9960534572601318, 0.9968070983886719, 0.9988020658493042, 0.9986782670021057, 0.9985049962997437, 0.9977059364318848, 0.998594343662262, 0.9945229291915894, 0.9859269857406616, 0.992660641670227, 0.9801416397094727, 0.9970837235450745, 0.9944109320640564, 0.9932056665420532, 0.9871942400932312, 0.9957495927810669, 0.998542308807373, 0.996269702911377, 0.9986122846603394, 0.9988045692443848, 0.9974876642227173, 0.9964738488197327, 0.9965278506278992, 0.998690664768219, 0.9965830445289612, 0.9959895014762878, 0.9843661785125732, 0.9495675563812256, 0.9916369318962097, 0.9963811039924622, 0.996222734451294, 0.9973878264427185, 0.9973880648612976]</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.9985370635986328</v>
+        <v>0.9992458820343018</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -8103,10 +8103,10 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0.6766448999987915</v>
+        <v>0.6915415999974357</v>
       </c>
       <c r="J189" t="n">
-        <v>0.00573427881354908</v>
+        <v>0.005860522033876573</v>
       </c>
     </row>
     <row r="190">
@@ -8125,11 +8125,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[0.06034514307975769, 0.05253440514206886, 0.05411446467041969, 0.09144376963376999, 0.06197696924209595, 0.058764759451150894, 0.04140452295541763, 0.035608790814876556, 0.04548918083310127, 0.04293028637766838, 0.054160844534635544, 0.039898909628391266, 0.025992680341005325, 0.023527178913354874, 0.054094310849905014, 0.047689225524663925, 0.037396542727947235, 0.05959486961364746, 0.0602140873670578, 0.07971923053264618, 0.061545126140117645, 0.08856823295354843, 0.17872193455696106, 0.14461567997932434, 0.08290988951921463, 0.07852726429700851, 0.1039680689573288, 0.0919085219502449, 0.12262894958257675, 0.23500372469425201, 0.12943127751350403, 0.1146429255604744, 0.07839100062847137, 0.13677474856376648, 0.08314720541238785, 0.06899198144674301, 0.0499601773917675, 0.08113785833120346, 0.057311370968818665, 0.05524376779794693, 0.04751446843147278, 0.06804744899272919, 0.1075320765376091, 0.11927711963653564, 0.10002519190311432, 0.05955066531896591, 0.043160103261470795, 0.05213133245706558, 0.0739641785621643, 0.05881655961275101, 0.056429702788591385, 0.0710747092962265, 0.07784631848335266, 0.08760594576597214, 0.0784325823187828, 0.06325910240411758, 0.057002853602170944, 0.06828555464744568, 0.061146508902311325, 0.05147924646735191, 0.0965365469455719, 0.11661440879106522, 0.09321106225252151, 0.06999266892671585, 0.061856381595134735, 0.08942858129739761, 0.13595616817474365, 0.08770265430212021, 0.05830700322985649, 0.07357172667980194, 0.07800883799791336, 0.09831392765045166, 0.08715541660785675, 0.09823261201381683, 0.1603759378194809, 0.12114754319190979, 0.08617055416107178, 0.07089652866125107, 0.08710528910160065, 0.05038313567638397, 0.06002209335565567, 0.07763830572366714, 0.06241616606712341, 0.07266570627689362, 0.056399520486593246, 0.08232210576534271, 0.06345458328723907, 0.05945968255400658, 0.06159266084432602, 0.05313699692487717, 0.051977887749671936, 0.07129515707492828, 0.06820827722549438, 0.0742621123790741, 0.07626421749591827, 0.07311704009771347, 0.07858918607234955, 0.11763933300971985, 0.08701778948307037, 0.09423301368951797, 0.08170220255851746, 0.0831766203045845, 0.10207513719797134, 0.06614517420530319, 0.04412102699279785, 0.04244155064225197, 0.06103457510471344, 0.04267941415309906, 0.04393552243709564, 0.050582025200128555, 0.05066746100783348, 0.0915440022945404, 0.1259215772151947, 0.08375702053308487, 0.11066454648971558, 0.15254901349544525, 0.09126784652471542, 0.09410956501960754]</t>
+          <t>[0.017109189182519913, 0.016771448776125908, 0.017981501296162605, 0.043198250234127045, 0.02030615508556366, 0.015577670186758041, 0.011886218562722206, 0.009944927878677845, 0.012545913457870483, 0.017830349504947662, 0.014219764620065689, 0.01407433021813631, 0.010639462620019913, 0.006408334709703922, 0.012965070083737373, 0.012760473415255547, 0.010632357560098171, 0.024664640426635742, 0.02440625987946987, 0.024401744827628136, 0.017134947702288628, 0.02602904848754406, 0.06925717741250992, 0.05370914936065674, 0.028378460556268692, 0.03267668932676315, 0.028822176158428192, 0.024030540138483047, 0.03284012898802757, 0.08141117542982101, 0.04537983983755112, 0.03143242374062538, 0.026068611070513725, 0.03655119985342026, 0.018779149278998375, 0.020658565685153008, 0.01798420399427414, 0.023819245398044586, 0.021771477535367012, 0.017500076442956924, 0.021558387205004692, 0.03720761835575104, 0.04190170392394066, 0.045266684144735336, 0.03460226580500603, 0.01984321139752865, 0.01359690260142088, 0.016476372256875038, 0.02856452390551567, 0.0195621270686388, 0.01924249902367592, 0.026660410687327385, 0.032485753297805786, 0.03117273561656475, 0.03252948820590973, 0.025395436212420464, 0.032110635191202164, 0.03281579166650772, 0.019414233043789864, 0.0228903666138649, 0.04844148829579353, 0.032188914716243744, 0.03725351765751839, 0.03291091322898865, 0.03794682398438454, 0.04132897034287453, 0.05495058745145798, 0.028096577152609825, 0.018718170002102852, 0.017591388896107674, 0.02258209139108658, 0.029598869383335114, 0.031687017530202866, 0.035325102508068085, 0.061916451901197433, 0.045432668179273605, 0.03681332990527153, 0.021773066371679306, 0.04212643951177597, 0.023651210591197014, 0.029851535335183144, 0.04555893689393997, 0.028006363660097122, 0.020448721945285797, 0.01633507013320923, 0.036471739411354065, 0.028957078233361244, 0.03041553497314453, 0.02183222770690918, 0.015200109221041203, 0.016810912638902664, 0.026645395904779434, 0.03830726817250252, 0.02807050198316574, 0.03542545065283775, 0.026864076033234596, 0.01818842999637127, 0.028885522857308388, 0.020904114469885826, 0.0399111732840538, 0.026626288890838623, 0.04037399962544441, 0.03923822566866875, 0.04170365631580353, 0.016885945573449135, 0.016758156940340996, 0.024798737838864326, 0.013333545066416264, 0.01554261427372694, 0.026092134416103363, 0.013266481459140778, 0.02334005944430828, 0.03386763855814934, 0.023831306025385857, 0.03561756759881973, 0.06744091957807541, 0.03897802531719208, 0.04128257557749748]</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.235003724694252</v>
+        <v>0.08141117542982101</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0.6570247999916319</v>
+        <v>0.6640244000009261</v>
       </c>
       <c r="J190" t="n">
-        <v>0.0055680067795901</v>
+        <v>0.005627325423736662</v>
       </c>
     </row>
     <row r="191">
@@ -8165,11 +8165,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>[0.9922898411750793, 0.9853288531303406, 0.9950981736183167, 0.9978795051574707, 0.9978400468826294, 0.9968411922454834, 0.9971509575843811, 0.9960781931877136, 0.9964792132377625, 0.9960299134254456, 0.9972531199455261, 0.9978882670402527, 0.9966772794723511, 0.9978070855140686, 0.9972907900810242, 0.9964256882667542, 0.9961440563201904, 0.9936944842338562, 0.9948535561561584, 0.9959912896156311, 0.9979952573776245, 0.9959567189216614, 0.9948817491531372, 0.9960618615150452, 0.9947414398193359, 0.9963796734809875, 0.9958209991455078, 0.9983615279197693, 0.997300922870636, 0.9979985356330872, 0.9979546070098877, 0.9974104762077332, 0.9973564147949219, 0.9981306195259094, 0.9979281425476074, 0.9987959861755371, 0.9977611303329468, 0.9959851503372192, 0.9979408383369446, 0.9979958534240723, 0.9979528188705444, 0.9978423118591309, 0.9985502362251282, 0.9979280233383179, 0.9981460571289062, 0.9982782602310181, 0.9954028129577637, 0.9978664517402649, 0.9962311387062073, 0.9969448447227478, 0.9979526996612549, 0.9975245594978333, 0.9976988434791565, 0.9981669187545776, 0.998100221157074, 0.9982288479804993, 0.9979426264762878, 0.9980960488319397, 0.9984579086303711, 0.9982753992080688, 0.9981580376625061, 0.9973815083503723, 0.9977092742919922, 0.9987335801124573, 0.9980373978614807, 0.9988177418708801, 0.9986478686332703, 0.9983205199241638, 0.99815434217453, 0.9985511898994446, 0.9986263513565063, 0.998805046081543, 0.998704195022583, 0.9983617663383484, 0.9969876408576965, 0.9972177743911743, 0.9978983402252197, 0.9981014132499695, 0.9962563514709473, 0.9976525902748108, 0.99793940782547, 0.9967722296714783, 0.998062789440155, 0.9987375140190125, 0.9981234669685364, 0.9986453652381897, 0.9984276294708252, 0.9961129426956177, 0.9971325397491455, 0.9979695677757263, 0.997840166091919, 0.9980576634407043, 0.9979519248008728, 0.9953575730323792, 0.9980395436286926, 0.9985781908035278, 0.9967185854911804, 0.996565043926239, 0.9962579011917114, 0.9977113008499146, 0.9976471066474915, 0.9969436526298523, 0.9972094893455505, 0.9973539113998413, 0.9975906610488892, 0.9968830943107605, 0.9973836541175842, 0.9982470273971558, 0.9974727034568787, 0.9966753721237183, 0.9941091537475586, 0.99327552318573, 0.9931326508522034, 0.997266411781311, 0.9985563158988953, 0.998282790184021, 0.9977622032165527, 0.9977565407752991]</t>
+          <t>[0.9930332899093628, 0.989241898059845, 0.996916651725769, 0.9989041090011597, 0.9988420605659485, 0.9976134300231934, 0.9981871247291565, 0.9970324039459229, 0.9973477125167847, 0.9967239499092102, 0.9974084496498108, 0.9985871315002441, 0.9976263642311096, 0.9985039234161377, 0.9985066056251526, 0.9979068040847778, 0.9977828860282898, 0.9952883720397949, 0.9962782263755798, 0.9969289898872375, 0.9986457228660583, 0.9960755705833435, 0.9960834980010986, 0.9973637461662292, 0.995456337928772, 0.997124969959259, 0.9959540367126465, 0.9990473389625549, 0.9982043504714966, 0.9987150430679321, 0.9989364743232727, 0.9984005093574524, 0.997914731502533, 0.9989593029022217, 0.9988844990730286, 0.9993658661842346, 0.998928964138031, 0.9974945783615112, 0.9989014863967896, 0.998880922794342, 0.9984179735183716, 0.9986409544944763, 0.9992257356643677, 0.998965859413147, 0.9989131689071655, 0.9989392161369324, 0.9956710338592529, 0.9982190728187561, 0.9965358972549438, 0.9973787069320679, 0.9984832406044006, 0.9980600476264954, 0.9984094500541687, 0.9988401532173157, 0.9987275004386902, 0.9989243149757385, 0.9985805749893188, 0.9987919926643372, 0.9988207221031189, 0.9988957643508911, 0.9987275004386902, 0.9980744123458862, 0.9984585046768188, 0.9992928504943848, 0.9987244009971619, 0.99930739402771, 0.9992460012435913, 0.9989655017852783, 0.9991335272789001, 0.9992897510528564, 0.9992473125457764, 0.9995094537734985, 0.9992744326591492, 0.9991959929466248, 0.998456597328186, 0.9980427026748657, 0.998778760433197, 0.9989209175109863, 0.9964463114738464, 0.9979015588760376, 0.9982238411903381, 0.9977771639823914, 0.9987666606903076, 0.9990155696868896, 0.9984845519065857, 0.9990729093551636, 0.9987772107124329, 0.9961932897567749, 0.9972223043441772, 0.9984391331672668, 0.9984241724014282, 0.9985737800598145, 0.998258650302887, 0.9962981343269348, 0.9987188577651978, 0.9993578791618347, 0.9974954724311829, 0.9970898628234863, 0.9978649020195007, 0.9987595081329346, 0.9987834095954895, 0.998085618019104, 0.9983575940132141, 0.9985970854759216, 0.9982799291610718, 0.9980698227882385, 0.9985061287879944, 0.9990409016609192, 0.9983574748039246, 0.9981162548065186, 0.9957119226455688, 0.995814859867096, 0.9945210218429565, 0.9983476400375366, 0.9993485808372498, 0.9989722967147827, 0.9977549910545349, 0.9977478384971619]</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.9988177418708801</v>
+        <v>0.9995094537734985</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
@@ -8183,10 +8183,10 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0.6867344999918714</v>
+        <v>0.6829682000097819</v>
       </c>
       <c r="J191" t="n">
-        <v>0.005819783898236198</v>
+        <v>0.005787866101777813</v>
       </c>
     </row>
     <row r="192">
@@ -8205,11 +8205,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>[0.9962510466575623, 0.9944071769714355, 0.9940609335899353, 0.9914631247520447, 0.9922325611114502, 0.9946039319038391, 0.9938861727714539, 0.9941858053207397, 0.9964728951454163, 0.9953294992446899, 0.9953312277793884]</t>
+          <t>[0.9971743822097778, 0.9953356385231018, 0.9946511387825012, 0.9922148585319519, 0.9929445385932922, 0.9954881072044373, 0.9960229396820068, 0.9964712858200073, 0.9973740577697754, 0.9957939386367798, 0.9958053827285767]</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.9964728951454163</v>
+        <v>0.9973740577697754</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
@@ -8223,10 +8223,10 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0.2140116000082344</v>
+        <v>0.2094095999927958</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01945560000074858</v>
+        <v>0.01903723636298144</v>
       </c>
     </row>
     <row r="193">
@@ -8245,11 +8245,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[0.9935457110404968, 0.9946687817573547, 0.9839019179344177, 0.9684426784515381, 0.9137240648269653, 0.9822508692741394, 0.9921074509620667, 0.9930570125579834, 0.9955982565879822, 0.9853583574295044, 0.9122167229652405, 0.93586665391922, 0.9856849908828735, 0.9861212372779846, 0.9692320227622986, 0.9913713932037354, 0.9867651462554932, 0.9920921921730042, 0.9933290481567383, 0.9928096532821655, 0.9955534338951111, 0.976455807685852, 0.9930627942085266, 0.992591381072998, 0.9969570636749268, 0.9955767393112183, 0.9955911636352539, 0.9965541362762451, 0.9966115355491638, 0.9917106628417969, 0.9752734899520874, 0.9935490489006042, 0.9744283556938171, 0.9835793375968933, 0.9909013509750366, 0.9966132044792175, 0.9980794191360474, 0.997337281703949, 0.9983922839164734, 0.9884875416755676, 0.9900944828987122, 0.9953241944313049, 0.996833860874176, 0.9869705438613892, 0.9951179027557373, 0.9864547252655029, 0.9337539076805115, 0.9653360247612, 0.986211895942688, 0.9959982633590698, 0.9874761700630188, 0.8140323758125305, 0.977570652961731, 0.9852193593978882, 0.9903969764709473, 0.9777556657791138, 0.9808382391929626, 0.9866408705711365, 0.9665948748588562, 0.9926230907440186, 0.9792153835296631, 0.9942806959152222, 0.9936878085136414, 0.9957447648048401, 0.9893634915351868, 0.9829732179641724, 0.9790658950805664, 0.9750493764877319, 0.9876235723495483, 0.9948844313621521, 0.9942512512207031, 0.9889904260635376, 0.9841835498809814, 0.9953998923301697, 0.9861219525337219, 0.9967314004898071, 0.9956295490264893, 0.9891570806503296, 0.9815619587898254, 0.989450991153717, 0.9852868318557739, 0.9938963055610657, 0.9878625869750977, 0.9930717349052429, 0.9913391470909119, 0.982918381690979, 0.991154670715332, 0.9883143901824951, 0.9892460703849792, 0.9805139899253845, 0.9785639047622681, 0.99151211977005, 0.993299126625061, 0.9970110654830933, 0.9965705871582031, 0.9974387884140015, 0.9950887560844421, 0.9964361190795898, 0.9972881078720093, 0.9904208183288574, 0.9825465679168701, 0.9894146919250488, 0.9944202303886414, 0.9866006970405579, 0.9923717975616455, 0.9963913559913635, 0.9964283108711243, 0.9902865886688232, 0.9930310845375061, 0.997170627117157, 0.9959302544593811, 0.9943404197692871, 0.9911544322967529, 0.9913172721862793, 0.9869533181190491, 0.9756818413734436, 0.9903863668441772, 0.9903895258903503]</t>
+          <t>[0.9956890940666199, 0.9971349239349365, 0.9858932495117188, 0.9827081561088562, 0.9122303128242493, 0.9870238304138184, 0.9939591884613037, 0.992620587348938, 0.9964454770088196, 0.9797178506851196, 0.8931974172592163, 0.9447877407073975, 0.9789653420448303, 0.982144832611084, 0.9578267931938171, 0.9903897643089294, 0.9879326224327087, 0.9934051632881165, 0.9945435523986816, 0.9935638308525085, 0.9964229464530945, 0.9704726338386536, 0.9931724667549133, 0.9959050416946411, 0.9981597065925598, 0.996834933757782, 0.9976052045822144, 0.9983689188957214, 0.9982170462608337, 0.9951102137565613, 0.9875685572624207, 0.9948951601982117, 0.9731865525245667, 0.9841274619102478, 0.9946547746658325, 0.9979669451713562, 0.999000608921051, 0.9988288283348083, 0.9993501305580139, 0.9952129125595093, 0.9937751293182373, 0.9975976347923279, 0.9979432225227356, 0.9923359751701355, 0.9964067339897156, 0.9933491349220276, 0.9223345518112183, 0.9730807542800903, 0.9897111058235168, 0.9968031644821167, 0.9887903928756714, 0.6763896942138672, 0.9734838604927063, 0.9831127524375916, 0.9903236627578735, 0.9722874164581299, 0.9800752401351929, 0.9841768741607666, 0.9485734701156616, 0.990675687789917, 0.9780735373497009, 0.9956606030464172, 0.995267391204834, 0.9966938495635986, 0.9909380674362183, 0.9869042038917542, 0.9786182641983032, 0.9664065837860107, 0.9871602058410645, 0.9952865242958069, 0.9968658089637756, 0.9952502250671387, 0.9904518127441406, 0.9970882534980774, 0.9889791011810303, 0.9979402422904968, 0.9972787499427795, 0.9936275482177734, 0.9882135391235352, 0.9924910664558411, 0.9893905520439148, 0.9954516291618347, 0.9904954433441162, 0.9959444403648376, 0.994762122631073, 0.9884722232818604, 0.9932337403297424, 0.9802663922309875, 0.9841728210449219, 0.9648836851119995, 0.9672572612762451, 0.9894378185272217, 0.9929823875427246, 0.9973921775817871, 0.9968106150627136, 0.9972957968711853, 0.9953191876411438, 0.997275173664093, 0.9976859092712402, 0.9897197484970093, 0.9776009321212769, 0.9853726029396057, 0.9951689839363098, 0.98618084192276, 0.9930686950683594, 0.9969415068626404, 0.9974731802940369, 0.9925729036331177, 0.995790958404541, 0.9984134435653687, 0.9971837401390076, 0.995782732963562, 0.9924865961074829, 0.9939478635787964, 0.9908072352409363, 0.9813684821128845, 0.9924511313438416, 0.9924625158309937]</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.9983922839164734</v>
+        <v>0.9993501305580139</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
@@ -8263,10 +8263,10 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>0.6792021000001114</v>
+        <v>0.7175595000007888</v>
       </c>
       <c r="J193" t="n">
-        <v>0.005755950000000944</v>
+        <v>0.006081012711871092</v>
       </c>
     </row>
     <row r="194">
@@ -8285,11 +8285,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>[0.6320009231567383, 0.44822996854782104, 0.7151290774345398, 0.6361495852470398, 0.5625830292701721, 0.48476406931877136, 0.7153045535087585, 0.40629374980926514, 0.6911947727203369, 0.7402400374412537, 0.23831604421138763, 0.3150002062320709, 0.5199454426765442, 0.47121772170066833, 0.5417885780334473, 0.3477669954299927, 0.2157888412475586, 0.20915564894676208, 0.26706376671791077, 0.4030225872993469, 0.3724968731403351, 0.8822239637374878, 0.547660768032074, 0.8742148280143738, 0.397065132856369, 0.4325822591781616, 0.6316567063331604, 0.5498211979866028, 0.2537759840488434, 0.5640572309494019, 0.32494521141052246, 0.16321919858455658, 0.46450138092041016, 0.38591018319129944, 0.8094080090522766, 0.7664573192596436, 0.48731380701065063, 0.6805437207221985, 0.39319342374801636, 0.3365831673145294, 0.4612533450126648, 0.3329624533653259, 0.5611544251441956, 0.285009503364563, 0.4013667106628418, 0.69661545753479, 0.5679850578308105, 0.549347460269928, 0.5541732311248779, 0.4409828782081604, 0.36839672923088074, 0.23153235018253326, 0.17019635438919067, 0.1413262039422989, 0.16705778241157532, 0.13608333468437195, 0.1419469118118286, 0.14525943994522095, 0.6603544354438782, 0.4940667748451233, 0.7387796640396118, 0.6750086545944214, 0.6282508969306946, 0.6528888940811157, 0.6334004402160645, 0.4072602391242981, 0.7602158784866333, 0.6931313872337341, 0.4670376181602478, 0.20851977169513702, 0.6907375454902649, 0.5678035616874695, 0.496329665184021, 0.5660439133644104, 0.5014058351516724, 0.4954778254032135, 0.5669039487838745, 0.6450864672660828, 0.791618287563324, 0.3347112536430359, 0.3842589259147644, 0.29227375984191895, 0.3064362406730652, 0.32835257053375244, 0.3393539488315582, 0.2938612699508667, 0.16828526556491852, 0.18364253640174866, 0.10698549449443817, 0.13783374428749084, 0.21421295404434204, 0.2692369818687439, 0.18945123255252838, 0.16752968728542328, 0.3465880751609802, 0.4962199628353119, 0.3768388032913208, 0.4800821840763092, 0.3390355110168457, 0.4908754825592041, 0.6687793135643005, 0.4225456416606903, 0.21929916739463806, 0.4930337071418762, 0.24187593162059784, 0.14329421520233154, 0.1957276314496994, 0.15519744157791138, 0.26626908779144287, 0.11416462808847427, 0.1359306126832962, 0.09215062856674194, 0.42429614067077637, 0.40533536672592163, 0.43467262387275696, 0.27745816111564636, 0.3438149392604828, 0.34441375732421875]</t>
+          <t>[0.5331807732582092, 0.23027075827121735, 0.5873130559921265, 0.3485117256641388, 0.32194194197654724, 0.14456428587436676, 0.409261554479599, 0.175184965133667, 0.40937793254852295, 0.6687294244766235, 0.05830998718738556, 0.0872025340795517, 0.3698387145996094, 0.2528855502605438, 0.23107773065567017, 0.116285540163517, 0.03574998676776886, 0.046663105487823486, 0.09765399247407913, 0.1633099913597107, 0.20269045233726501, 0.820578396320343, 0.30541640520095825, 0.7318337559700012, 0.25654706358909607, 0.24941076338291168, 0.4597605764865875, 0.359635591506958, 0.08939237892627716, 0.2435540407896042, 0.10250148177146912, 0.039086923003196716, 0.1952446550130844, 0.16478992998600006, 0.6454980969429016, 0.7385715246200562, 0.36584097146987915, 0.5965689420700073, 0.22961480915546417, 0.1535416841506958, 0.4263521730899811, 0.2219361662864685, 0.3179948925971985, 0.1066182404756546, 0.1500263810157776, 0.44568735361099243, 0.37764766812324524, 0.1947629451751709, 0.18181072175502777, 0.11359073966741562, 0.08366615325212479, 0.03120727278292179, 0.022334299981594086, 0.024670489132404327, 0.030932148918509483, 0.02401592582464218, 0.03652982786297798, 0.03889046236872673, 0.5418352484703064, 0.3205413520336151, 0.7467089891433716, 0.5797748565673828, 0.44120192527770996, 0.5087237358093262, 0.5538456439971924, 0.20397329330444336, 0.5387493371963501, 0.3807619512081146, 0.15618100762367249, 0.07109308242797852, 0.4219878315925598, 0.2532595992088318, 0.14372727274894714, 0.22353997826576233, 0.2718246877193451, 0.2515708804130554, 0.2909059226512909, 0.39029183983802795, 0.6734634041786194, 0.11825865507125854, 0.17082491517066956, 0.11174911260604858, 0.0910198837518692, 0.1235806867480278, 0.0880148783326149, 0.07115856558084488, 0.027537396177649498, 0.02872205153107643, 0.014158342033624649, 0.023431677371263504, 0.04911363869905472, 0.06845556944608688, 0.037640590220689774, 0.030593397095799446, 0.10267283767461777, 0.31058400869369507, 0.15568426251411438, 0.25487175583839417, 0.13763661682605743, 0.2878825068473816, 0.4277128577232361, 0.15860126912593842, 0.04566620662808418, 0.16200678050518036, 0.0507170669734478, 0.04210805892944336, 0.05611968785524368, 0.027136921882629395, 0.050496309995651245, 0.014242160134017467, 0.02276173233985901, 0.014389663934707642, 0.19551952183246613, 0.1817713975906372, 0.21467143297195435, 0.07896756380796432, 0.13346153497695923, 0.13397130370140076]</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.8822239637374878</v>
+        <v>0.820578396320343</v>
       </c>
       <c r="F194" t="n">
         <v>1</v>
@@ -8303,10 +8303,10 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0.6811298999818973</v>
+        <v>0.6824669000052381</v>
       </c>
       <c r="J194" t="n">
-        <v>0.005772287287982181</v>
+        <v>0.00578361779665456</v>
       </c>
     </row>
     <row r="195">
@@ -8325,11 +8325,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>[0.5100302696228027, 0.885186493396759, 0.9196224212646484, 0.8758920431137085, 0.7647510766983032, 0.7870144844055176, 0.8433888554573059, 0.7482707500457764, 0.7821999788284302, 0.6933186054229736, 0.7171986699104309, 0.700799286365509, 0.7040743231773376, 0.7082210779190063, 0.5507014393806458, 0.7277167439460754, 0.8049381971359253, 0.8028714656829834, 0.6646630167961121, 0.7145060300827026, 0.44194138050079346, 0.5903714299201965, 0.7640053033828735, 0.4904232621192932, 0.8387210965156555, 0.5191941261291504, 0.8586539030075073, 0.8574375510215759, 0.37358057498931885, 0.4157907962799072, 0.33671849966049194, 0.813841700553894, 0.634731113910675, 0.7261557579040527, 0.7850318551063538, 0.8018925786018372, 0.7036261558532715, 0.453692227602005, 0.8531875014305115, 0.6864551901817322, 0.6137334108352661, 0.4545426666736603, 0.6105760335922241, 0.8461363315582275, 0.80670565366745, 0.8879720568656921, 0.8753995299339294, 0.6844348311424255, 0.8179634809494019, 0.794125497341156, 0.7819987535476685, 0.7886072993278503, 0.5368767976760864, 0.6197693347930908, 0.6723125576972961, 0.259571373462677, 0.608582615852356, 0.3691808879375458, 0.607664167881012, 0.38790228962898254, 0.3740404546260834, 0.90952467918396, 0.9339805841445923, 0.5045581459999084, 0.41005316376686096, 0.5228865742683411, 0.7484409809112549, 0.6626970171928406, 0.8593681454658508, 0.8176699876785278, 0.8415666222572327, 0.7740820646286011, 0.6404951214790344, 0.7562742829322815, 0.7999205589294434, 0.7639491558074951, 0.8903659582138062, 0.8140577673912048, 0.8730199933052063, 0.681925356388092, 0.5942139029502869, 0.7878456711769104, 0.3642544150352478, 0.458853155374527, 0.49129635095596313, 0.7589412331581116, 0.5526024699211121, 0.6080771684646606, 0.5932961106300354, 0.8255713582038879, 0.650568962097168, 0.5741074681282043, 0.6751245260238647, 0.6507381200790405, 0.8506283164024353, 0.587432861328125, 0.8022393584251404, 0.49343937635421753, 0.5043968558311462, 0.2211511731147766, 0.6271211504936218, 0.7447755932807922, 0.7801064848899841, 0.649208128452301, 0.32479962706565857, 0.5683116912841797, 0.28118377923965454, 0.4207881987094879, 0.4264327883720398, 0.5456366539001465, 0.7262945771217346, 0.645522952079773, 0.718597948551178, 0.8808255195617676, 0.7535712718963623, 0.8193655610084534, 0.8045797348022461, 0.8043085932731628]</t>
+          <t>[0.26284322142601013, 0.7441394925117493, 0.7244575619697571, 0.6506599187850952, 0.513508677482605, 0.5350326299667358, 0.6972676515579224, 0.6817695498466492, 0.659239649772644, 0.3177722990512848, 0.540567934513092, 0.28343093395233154, 0.46520817279815674, 0.4427480697631836, 0.2753487527370453, 0.5935453176498413, 0.6414306163787842, 0.6585433483123779, 0.4618030786514282, 0.4487060606479645, 0.24350334703922272, 0.40260109305381775, 0.703830361366272, 0.2819807529449463, 0.7636968493461609, 0.3070846498012543, 0.6615748405456543, 0.7161108255386353, 0.1763642281293869, 0.20006398856639862, 0.07977684587240219, 0.6284608840942383, 0.457381010055542, 0.5858122110366821, 0.4910184442996979, 0.5976224541664124, 0.5262423753738403, 0.23610718548297882, 0.8016740083694458, 0.5169016718864441, 0.4253906309604645, 0.17614206671714783, 0.3282703757286072, 0.7115179896354675, 0.7183260917663574, 0.7265332937240601, 0.7157691717147827, 0.49061089754104614, 0.47339174151420593, 0.612675130367279, 0.6128445863723755, 0.6104143261909485, 0.3283611238002777, 0.44557106494903564, 0.4534258246421814, 0.13419589400291443, 0.5051078200340271, 0.16779516637325287, 0.4601099491119385, 0.21237704157829285, 0.19540920853614807, 0.8509486317634583, 0.9011995792388916, 0.3830699920654297, 0.4920475482940674, 0.30691418051719666, 0.6533102989196777, 0.6014857888221741, 0.8321938514709473, 0.7814789414405823, 0.6771950125694275, 0.7491943836212158, 0.572426974773407, 0.633010983467102, 0.6884670853614807, 0.600322961807251, 0.837830126285553, 0.7817428112030029, 0.8057276010513306, 0.5273473858833313, 0.38221076130867004, 0.7877821922302246, 0.20723484456539154, 0.3422870337963104, 0.3454650938510895, 0.735889196395874, 0.5078737139701843, 0.5394210815429688, 0.44042372703552246, 0.7017815709114075, 0.6604015827178955, 0.38822314143180847, 0.3628658652305603, 0.511898398399353, 0.8601242899894714, 0.6057959198951721, 0.8342886567115784, 0.47921115159988403, 0.42505696415901184, 0.09842793643474579, 0.5697180032730103, 0.7663726806640625, 0.8854113817214966, 0.5218797326087952, 0.23168259859085083, 0.46052083373069763, 0.1497795581817627, 0.33581259846687317, 0.45003819465637207, 0.5471233129501343, 0.5711038708686829, 0.47256094217300415, 0.7166465520858765, 0.8376582860946655, 0.7456908822059631, 0.8152920007705688, 0.7228350639343262, 0.7234117984771729]</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.9339805841445923</v>
+        <v>0.9011995792388916</v>
       </c>
       <c r="F195" t="n">
         <v>1</v>
@@ -8343,10 +8343,10 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0.6680587999871932</v>
+        <v>0.6845814999978757</v>
       </c>
       <c r="J195" t="n">
-        <v>0.005661515254128756</v>
+        <v>0.005801538135575217</v>
       </c>
     </row>
     <row r="196">
@@ -8365,11 +8365,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[0.7984036803245544, 0.8785298466682434, 0.9381954073905945, 0.8628364205360413, 0.8655636310577393, 0.6230725646018982, 0.6242246627807617, 0.7238348722457886, 0.9782544374465942, 0.9643234014511108, 0.9688069820404053, 0.958315372467041, 0.9741891026496887, 0.9859121441841125, 0.9863828420639038, 0.9823731184005737, 0.9510924816131592, 0.9120070338249207, 0.9856635332107544, 0.9920118451118469, 0.9932304620742798, 0.9891029596328735, 0.9674509167671204, 0.8928385972976685, 0.9802941083908081, 0.9453779458999634, 0.7974518537521362, 0.95900559425354, 0.9538488984107971, 0.9679386019706726, 0.9642080664634705, 0.966206431388855, 0.8637984991073608, 0.6674391627311707, 0.7991598844528198, 0.5837913155555725, 0.7570142149925232, 0.5976621508598328, 0.7742956876754761, 0.876629114151001, 0.7407544851303101, 0.8838598728179932, 0.799168586730957, 0.7860639691352844, 0.9095159769058228, 0.8937077522277832, 0.6406106352806091, 0.7450965642929077, 0.9480950832366943, 0.7996891736984253, 0.7184751033782959, 0.8306459784507751, 0.9916424751281738, 0.9874407052993774, 0.9792922735214233, 0.9911413192749023, 0.992678165435791, 0.9466761350631714, 0.9822465181350708, 0.9778333306312561, 0.9607985019683838, 0.857751727104187, 0.9437387585639954, 0.9857034087181091, 0.9774518609046936, 0.9739406108856201, 0.9339718222618103, 0.9889096617698669, 0.97212153673172, 0.9851654767990112, 0.9927211403846741, 0.9393119215965271, 0.9029635190963745, 0.9058589339256287, 0.9154688715934753, 0.8231911659240723, 0.9075825214385986, 0.9682098627090454, 0.8733093738555908, 0.8700233697891235, 0.6634988784790039, 0.5646684765815735, 0.7121156454086304, 0.9141058921813965, 0.7939061522483826, 0.5505940914154053, 0.8264991641044617, 0.9022155404090881, 0.8936293721199036, 0.950796902179718, 0.865673840045929, 0.7826545238494873, 0.9522370100021362, 0.9125779271125793, 0.9073991775512695, 0.6742628812789917, 0.9357534050941467, 0.9874464273452759, 0.992649495601654, 0.9614538550376892, 0.9590529799461365, 0.9169699549674988, 0.8177697062492371, 0.9242423176765442, 0.9114035964012146, 0.8862831592559814, 0.725332498550415, 0.7747764587402344, 0.6310309767723083, 0.5262569189071655, 0.8906029462814331, 0.7646835446357727, 0.6807862520217896, 0.9816903471946716, 0.9834862947463989, 0.9893933534622192, 0.9543678164482117, 0.9540748596191406]</t>
+          <t>[0.7890887260437012, 0.8817845582962036, 0.8889340162277222, 0.827031672000885, 0.8231818079948425, 0.4555506706237793, 0.5205113291740417, 0.6559831500053406, 0.9847381114959717, 0.9691388607025146, 0.9786120653152466, 0.9792147874832153, 0.9716766476631165, 0.9817650318145752, 0.982519268989563, 0.9848185777664185, 0.9631335139274597, 0.8892898559570312, 0.991023063659668, 0.9938540458679199, 0.9955920577049255, 0.9932655096054077, 0.9641935229301453, 0.9356448650360107, 0.9840123653411865, 0.9254907369613647, 0.695112407207489, 0.9600622057914734, 0.9611913561820984, 0.9689933061599731, 0.9711469411849976, 0.9725850224494934, 0.8490188121795654, 0.6316361427307129, 0.660776674747467, 0.1470765620470047, 0.49118927121162415, 0.3239307105541229, 0.6177121996879578, 0.8589433431625366, 0.6304683685302734, 0.8764876127243042, 0.7559448480606079, 0.7429838180541992, 0.8290978670120239, 0.8359839916229248, 0.4492156505584717, 0.6561509370803833, 0.917496383190155, 0.5667083263397217, 0.49696803092956543, 0.7942500114440918, 0.9932697415351868, 0.9848427772521973, 0.9671894311904907, 0.9903468489646912, 0.9953176975250244, 0.9530472159385681, 0.9802603125572205, 0.9750950336456299, 0.967913806438446, 0.837735116481781, 0.9015382528305054, 0.9864413142204285, 0.9762542247772217, 0.9789895415306091, 0.9346210360527039, 0.9899753928184509, 0.9721856713294983, 0.9825785160064697, 0.9910804629325867, 0.9393112063407898, 0.8775295615196228, 0.8527064323425293, 0.8043970465660095, 0.6556491255760193, 0.849631130695343, 0.9465720057487488, 0.6826217174530029, 0.5353621244430542, 0.22598882019519806, 0.28344953060150146, 0.3826152980327606, 0.8365402221679688, 0.5229878425598145, 0.2690075933933258, 0.6506890654563904, 0.7042838931083679, 0.758256733417511, 0.933087944984436, 0.7367908358573914, 0.5869024395942688, 0.9506978392601013, 0.8953856229782104, 0.8725373148918152, 0.4836311340332031, 0.9345828294754028, 0.9908834099769592, 0.993113100528717, 0.9685559868812561, 0.9694933295249939, 0.9083175659179688, 0.7944340109825134, 0.9074915051460266, 0.9086598753929138, 0.8184580206871033, 0.5241466164588928, 0.5770235061645508, 0.3414475917816162, 0.3127993941307068, 0.8493112325668335, 0.6308737397193909, 0.42144477367401123, 0.9612488150596619, 0.9741560816764832, 0.9890323281288147, 0.9412220120429993, 0.9407328367233276]</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.9932304620742798</v>
+        <v>0.9955920577049255</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -8383,10 +8383,10 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0.6654280000075232</v>
+        <v>0.6840910000028089</v>
       </c>
       <c r="J196" t="n">
-        <v>0.005639220339046807</v>
+        <v>0.005797381355956008</v>
       </c>
     </row>
     <row r="197">
@@ -8405,11 +8405,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>[0.5321357846260071, 0.3945869207382202, 0.7594555020332336, 0.5897291302680969, 0.4673910140991211, 0.33767953515052795, 0.40234607458114624, 0.5990708470344543, 0.8708481788635254, 0.81259685754776, 0.9602445363998413, 0.9052651524543762, 0.7181145548820496, 0.6590809226036072, 0.819028377532959, 0.8691940307617188, 0.9664673209190369, 0.9435084462165833, 0.9587559103965759, 0.9759255647659302, 0.9849622249603271, 0.9720897674560547, 0.9498841166496277, 0.8561488389968872, 0.7811149954795837, 0.8505281805992126, 0.6859682202339172, 0.7761366367340088, 0.9595376253128052, 0.949940025806427, 0.986156702041626, 0.9708026647567749, 0.9698082804679871, 0.9599943161010742, 0.8921869993209839, 0.4631669223308563, 0.479112833738327, 0.6986426711082458, 0.7597824931144714, 0.4609115719795227, 0.34604308009147644, 0.2847896218299866, 0.36500850319862366, 0.3057171702384949, 0.339870810508728, 0.4748813509941101, 0.4762527346611023, 0.8078337907791138, 0.9672520160675049, 0.6977462768554688, 0.7412083745002747, 0.7095910906791687, 0.41081300377845764, 0.5028587579727173, 0.757914662361145, 0.7830595970153809, 0.9699459075927734, 0.8769677877426147, 0.991179883480072, 0.989737331867218, 0.9547954201698303, 0.7441156506538391, 0.4176519811153412, 0.38087865710258484, 0.6368803977966309, 0.39651113748550415, 0.5393056273460388, 0.5033727884292603, 0.9915398955345154, 0.9871649742126465, 0.9784958958625793, 0.9425100684165955, 0.9515683650970459, 0.9919725656509399, 0.9929088354110718, 0.9199745655059814, 0.967521071434021, 0.9932449460029602, 0.9604445099830627, 0.5734654664993286, 0.6055494546890259, 0.3596758544445038, 0.7853124141693115, 0.7440712451934814, 0.3455964922904968, 0.5357163548469543, 0.3651849925518036, 0.5123922228813171, 0.3950781524181366, 0.6437533497810364, 0.564769446849823, 0.47594740986824036, 0.7072634100914001, 0.5523692965507507, 0.7778241634368896, 0.5268654823303223, 0.7390044331550598, 0.6698407530784607, 0.5372230410575867, 0.5686423182487488, 0.9879443645477295, 0.989372193813324, 0.9925105571746826, 0.8212055563926697, 0.9160150289535522, 0.8857517242431641, 0.6617712378501892, 0.5660961270332336, 0.5738275051116943, 0.7816691994667053, 0.8906660079956055, 0.8399865627288818, 0.6560537219047546, 0.7988949418067932, 0.9249531030654907, 0.9758791923522949, 0.9872406125068665, 0.9872385263442993]</t>
+          <t>[0.49142587184906006, 0.33495840430259705, 0.792045533657074, 0.5871810913085938, 0.5902109742164612, 0.3922824263572693, 0.4116114377975464, 0.6375240683555603, 0.8790790438652039, 0.8551139235496521, 0.964288055896759, 0.9232191443443298, 0.7620818018913269, 0.7016240954399109, 0.8360539078712463, 0.8952641487121582, 0.9759599566459656, 0.9534822106361389, 0.9749327301979065, 0.9801682233810425, 0.9892292022705078, 0.9802291393280029, 0.9716281294822693, 0.9260097146034241, 0.8456280827522278, 0.8699541687965393, 0.7656685709953308, 0.8580282926559448, 0.9773598313331604, 0.965023398399353, 0.9919673800468445, 0.9857686161994934, 0.984589159488678, 0.9734365344047546, 0.9536330103874207, 0.5530659556388855, 0.5280136466026306, 0.8244092464447021, 0.8231698870658875, 0.5000684857368469, 0.2938264012336731, 0.2150527983903885, 0.28494319319725037, 0.22312884032726288, 0.30103909969329834, 0.5510404109954834, 0.526909589767456, 0.762799859046936, 0.9793319702148438, 0.7633281350135803, 0.7870412468910217, 0.863630473613739, 0.3626166582107544, 0.534473180770874, 0.6994008421897888, 0.7993997931480408, 0.9771468043327332, 0.9090470671653748, 0.9949606657028198, 0.9939549565315247, 0.9720134139060974, 0.7588238716125488, 0.39563098549842834, 0.5137435793876648, 0.7190616726875305, 0.37175092101097107, 0.5524154901504517, 0.5146600604057312, 0.9958347082138062, 0.994337260723114, 0.9924325942993164, 0.9798957109451294, 0.964099645614624, 0.9955728054046631, 0.9953010082244873, 0.9569501876831055, 0.9811858534812927, 0.9955689311027527, 0.967835545539856, 0.6560641527175903, 0.6173256039619446, 0.3632063567638397, 0.8018317222595215, 0.7359654903411865, 0.2498115748167038, 0.38335421681404114, 0.2091580629348755, 0.3636550307273865, 0.21692433953285217, 0.7550201416015625, 0.4215730130672455, 0.43110403418540955, 0.7026172876358032, 0.6097005009651184, 0.8949581980705261, 0.6607042551040649, 0.8157268762588501, 0.728847861289978, 0.39375051856040955, 0.54258131980896, 0.9883887767791748, 0.9919003248214722, 0.9941073656082153, 0.8753960728645325, 0.9373129606246948, 0.9055067300796509, 0.6145124435424805, 0.5543982982635498, 0.5531575679779053, 0.8843888640403748, 0.9356774091720581, 0.8343073129653931, 0.5825026631355286, 0.816282331943512, 0.9538789391517639, 0.9856577515602112, 0.9924548864364624, 0.9924532771110535]</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.9932449460029602</v>
+        <v>0.9958347082138062</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -8423,10 +8423,10 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>0.653610099980142</v>
+        <v>0.709396199992625</v>
       </c>
       <c r="J197" t="n">
-        <v>0.005539068643899508</v>
+        <v>0.006011832203327331</v>
       </c>
     </row>
     <row r="198">
@@ -8445,11 +8445,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>[0.043947119265794754, 0.04455304145812988, 0.03841383382678032, 0.03776443004608154, 0.13641420006752014, 0.12206202745437622, 0.05469932407140732, 0.06290910392999649, 0.05676593631505966, 0.041031189262866974, 0.044562313705682755, 0.047518596053123474, 0.04897026717662811, 0.07639186829328537, 0.09338127076625824, 0.15370632708072662, 0.07764756679534912, 0.042400237172842026, 0.043416526168584824, 0.15784014761447906, 0.15021644532680511, 0.12990941107273102, 0.08670791983604431, 0.17936185002326965, 0.5265282392501831, 0.445005863904953, 0.28892090916633606, 0.11430850625038147, 0.0880911648273468, 0.20344306528568268, 0.5305131673812866, 0.28393155336380005, 0.19784905016422272, 0.1740039736032486, 0.4327238202095032, 0.30264395475387573, 0.1209331825375557, 0.08199793100357056, 0.2646121382713318, 0.43071603775024414, 0.11834842711687088, 0.5373355746269226, 0.4399527609348297, 0.2594948709011078, 0.449301540851593, 0.3705405592918396, 0.2894833981990814, 0.1443631649017334, 0.2971281409263611, 0.2360900491476059, 0.11182691901922226, 0.10925954580307007, 0.04920760914683342, 0.26983630657196045, 0.5026774406433105, 0.3488885462284088, 0.5103317499160767, 0.6596785187721252, 0.45987391471862793, 0.1753973513841629, 0.06298615783452988, 0.1942092478275299, 0.06917057931423187, 0.06334841251373291, 0.11152941733598709, 0.22372698783874512, 0.8003027439117432, 0.22923466563224792, 0.09514930099248886, 0.09066100418567657, 0.0815703496336937, 0.056769367307424545, 0.044949717819690704, 0.03746401518583298, 0.06775174289941788, 0.10410622507333755, 0.09273544698953629, 0.20483429729938507, 0.13778169453144073, 0.09605756402015686, 0.10012978315353394, 0.21352921426296234, 0.11500131338834763, 0.1662556529045105, 0.20030008256435394, 0.0498606339097023, 0.10594107955694199, 0.0633336529135704, 0.06732907146215439, 0.2619633972644806, 0.26735082268714905, 0.13619519770145416, 0.11012904345989227, 0.08023109287023544, 0.051314182579517365, 0.028286127373576164, 0.043151985853910446, 0.07032079249620438, 0.04885706305503845, 0.06824013590812683, 0.05338406562805176, 0.06020931527018547, 0.056706029921770096, 0.05502859503030777, 0.10651236772537231, 0.14574436843395233, 0.119888074696064, 0.08886974304914474, 0.055778924375772476, 0.041078414767980576, 0.05808131769299507, 0.09428321570158005, 0.17707273364067078, 0.18577104806900024, 0.08754067122936249, 0.11235550045967102, 0.06982093304395676, 0.07036798447370529]</t>
+          <t>[0.014776964671909809, 0.01580640859901905, 0.014839238487184048, 0.012531694956123829, 0.12169864773750305, 0.07445676624774933, 0.023596039041876793, 0.034264519810676575, 0.021241502836346626, 0.017062213271856308, 0.016146084293723106, 0.01829429529607296, 0.015703890472650528, 0.024423522874712944, 0.07314445078372955, 0.12665149569511414, 0.04046018049120903, 0.014684302732348442, 0.01926586590707302, 0.12850238382816315, 0.1853504776954651, 0.21293357014656067, 0.09915928542613983, 0.19996300339698792, 0.6494479775428772, 0.4670575261116028, 0.23729178309440613, 0.07558384537696838, 0.06856446713209152, 0.2369484007358551, 0.6715508699417114, 0.32203394174575806, 0.22431662678718567, 0.2364184856414795, 0.6001273989677429, 0.47494685649871826, 0.1344679445028305, 0.05958249047398567, 0.2225540280342102, 0.3914709687232971, 0.0672362744808197, 0.5588504672050476, 0.5113865733146667, 0.25666695833206177, 0.44943588972091675, 0.4955589473247528, 0.33963948488235474, 0.14524027705192566, 0.3518558144569397, 0.3587639331817627, 0.0736466571688652, 0.08635356277227402, 0.021002259105443954, 0.29979756474494934, 0.658316969871521, 0.4678064286708832, 0.5364693403244019, 0.5450112223625183, 0.5675691366195679, 0.16275431215763092, 0.034424737095832825, 0.18129076063632965, 0.05067996308207512, 0.024023136124014854, 0.0554102286696434, 0.2641925513744354, 0.8723261952400208, 0.3220519721508026, 0.1193612813949585, 0.057240165770053864, 0.05724765732884407, 0.028027363121509552, 0.020734749734401703, 0.012613898143172264, 0.041791900992393494, 0.05761441960930824, 0.05517633631825447, 0.31227564811706543, 0.1490623503923416, 0.17088092863559723, 0.09909642487764359, 0.3580138385295868, 0.11885400861501694, 0.15142317116260529, 0.24866361916065216, 0.02710907906293869, 0.08968065679073334, 0.04627677798271179, 0.039541661739349365, 0.4393642544746399, 0.5283851623535156, 0.2744540572166443, 0.09907840937376022, 0.08074598014354706, 0.03512003272771835, 0.01069999486207962, 0.03380640223622322, 0.08777066320180893, 0.04008321091532707, 0.061249297112226486, 0.029725031927227974, 0.045573726296424866, 0.050406232476234436, 0.033057212829589844, 0.09881941229104996, 0.18041841685771942, 0.13129138946533203, 0.10740446299314499, 0.042309101670980453, 0.015269242227077484, 0.02420857548713684, 0.0610501728951931, 0.23883529007434845, 0.17372870445251465, 0.053057681769132614, 0.17528598010540009, 0.04900595545768738, 0.05024866759777069]</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.8003027439117432</v>
+        <v>0.8723261952400208</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -8463,10 +8463,10 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>0.7144935000105761</v>
+        <v>0.7051680000004126</v>
       </c>
       <c r="J198" t="n">
-        <v>0.006055029661106577</v>
+        <v>0.005976000000003497</v>
       </c>
     </row>
     <row r="199">
@@ -8485,11 +8485,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[0.0504937507212162, 0.0464698001742363, 0.03584584221243858, 0.029754629358649254, 0.06025040149688721, 0.06454060971736908, 0.04229526221752167, 0.04083842784166336, 0.025032933801412582, 0.08902455121278763, 0.09163682907819748, 0.07623584568500519, 0.05663971230387688, 0.025328027084469795, 0.05217771232128143, 0.0827241986989975, 0.038067784160375595, 0.19957780838012695, 0.0559287928044796, 0.04642339423298836, 0.04299622029066086, 0.040435630828142166, 0.1018948033452034, 0.1491279900074005, 0.08010873943567276, 0.0730535164475441, 0.06832028180360794, 0.0804775059223175, 0.05946633964776993, 0.03228165581822395, 0.03977871686220169, 0.031579192727804184, 0.03497341647744179, 0.05403413623571396, 0.03485426679253578, 0.03157966956496239, 0.048779331147670746, 0.048682801425457, 0.08557283133268356, 0.07933119684457779, 0.06824507564306259, 0.04674161225557327, 0.05365779250860214, 0.04332204535603523, 0.059882376343011856, 0.05848998948931694, 0.025760440155863762, 0.02885783649981022, 0.028459491208195686, 0.034449249505996704, 0.037750449031591415, 0.02980785071849823, 0.02325334958732128, 0.017155060544610023, 0.02024907059967518, 0.022417090833187103, 0.016669003292918205, 0.020766930654644966, 0.018488232046365738, 0.018938593566417694, 0.016926437616348267, 0.016018304973840714, 0.017540639266371727, 0.02238325960934162, 0.025053491815924644, 0.03185658901929855, 0.030202854424715042, 0.03237604722380638, 0.029290564358234406, 0.030182845890522003, 0.027888821437954903, 0.025277812033891678, 0.020990392193198204, 0.020557614043354988, 0.026212362572550774, 0.023859398439526558, 0.022956497967243195, 0.020736537873744965, 0.021710369735956192, 0.021322544664144516, 0.019368844106793404, 0.020091146230697632, 0.03188270702958107, 0.0380118153989315, 0.037692341953516006, 0.023287776857614517, 0.02338654361665249, 0.020503083243966103, 0.02054438553750515, 0.026945626363158226, 0.022980812937021255, 0.05572850629687309, 0.04544873908162117, 0.025342846289277077, 0.030301133170723915, 0.06666332483291626, 0.022104324772953987, 0.02582542784512043, 0.02597043663263321, 0.03392374515533447, 0.021681547164916992, 0.02281128615140915, 0.02569274790585041, 0.029188266023993492, 0.04136969521641731, 0.03857869654893875, 0.043829578906297684, 0.05148601904511452, 0.05914385989308357, 0.060129597783088684, 0.04856637492775917, 0.044013455510139465, 0.054047100245952606, 0.053776174783706665, 0.0430024079978466, 0.042423274368047714, 0.046827346086502075, 0.047496408224105835]</t>
+          <t>[0.02234991267323494, 0.021989133208990097, 0.02014496736228466, 0.011654972098767757, 0.027096813544631004, 0.02398538775742054, 0.016340358182787895, 0.00841617677360773, 0.009120636619627476, 0.03901375085115433, 0.03160901367664337, 0.030839048326015472, 0.03107188642024994, 0.012157891876995564, 0.027433250099420547, 0.054828014224767685, 0.02234317734837532, 0.11918877810239792, 0.028932135552167892, 0.01932121068239212, 0.02084207721054554, 0.027595145627856255, 0.06775867193937302, 0.07931219786405563, 0.05234259366989136, 0.04525082930922508, 0.04956214874982834, 0.045049551874399185, 0.03614238649606705, 0.014364211820065975, 0.015805568546056747, 0.015456041321158409, 0.015361742116510868, 0.032796021550893784, 0.01754923164844513, 0.015674740076065063, 0.023638594895601273, 0.023351110517978668, 0.04124917462468147, 0.026845790445804596, 0.02890612930059433, 0.020566260442137718, 0.020855683833360672, 0.030686721205711365, 0.03697182238101959, 0.031465932726860046, 0.012356440536677837, 0.013583498075604439, 0.015710977837443352, 0.016738196834921837, 0.012677079066634178, 0.0111547177657485, 0.009397733956575394, 0.005452824756503105, 0.007628703955560923, 0.008381166495382786, 0.004851400386542082, 0.008778362534940243, 0.005917275790125132, 0.007084652315825224, 0.0064809732139110565, 0.005872282665222883, 0.006657121237367392, 0.008191228844225407, 0.008578162640333176, 0.011177492327988148, 0.008970648981630802, 0.012169775553047657, 0.012973952107131481, 0.013036971911787987, 0.00916200876235962, 0.008562481962144375, 0.006363868713378906, 0.006702942308038473, 0.0073973750695586205, 0.008960635401308537, 0.009032311849296093, 0.0076391007751226425, 0.007288960739970207, 0.007600368000566959, 0.006080385763198137, 0.005242209881544113, 0.008321947418153286, 0.010577322915196419, 0.012096231803297997, 0.006909437011927366, 0.008639533072710037, 0.006301249843090773, 0.005913535598665476, 0.007533606141805649, 0.009907975792884827, 0.023599078878760338, 0.02464267984032631, 0.012562334537506104, 0.014461588114500046, 0.024392126128077507, 0.00978141836822033, 0.012444735504686832, 0.011655576527118683, 0.01628985069692135, 0.010457364842295647, 0.010046367533504963, 0.008996241725981236, 0.01345078181475401, 0.012579255737364292, 0.013865180313587189, 0.013857919722795486, 0.016187943518161774, 0.020527275279164314, 0.024279963225126266, 0.018987935036420822, 0.014850892126560211, 0.020427104085683823, 0.028424520045518875, 0.01957779750227928, 0.017328044399619102, 0.01857636868953705, 0.018829304724931717]</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.199577808380127</v>
+        <v>0.1191887781023979</v>
       </c>
       <c r="F199" t="n">
         <v>1</v>
@@ -8503,10 +8503,10 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>0.6906038000015542</v>
+        <v>0.6713425999914762</v>
       </c>
       <c r="J199" t="n">
-        <v>0.005852574576284357</v>
+        <v>0.005689344067724375</v>
       </c>
     </row>
     <row r="200">
@@ -8525,11 +8525,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>[0.4341883361339569, 0.37095996737480164, 0.16340091824531555, 0.12596042454242706, 0.050823550671339035, 0.09572965651750565, 0.1395850032567978, 0.07592452317476273, 0.07362686842679977, 0.1460869312286377, 0.11948413401842117, 0.22584667801856995, 0.626371443271637, 0.6552659273147583, 0.15301945805549622, 0.10213883221149445, 0.07440141588449478, 0.12627536058425903, 0.08868585526943207, 0.12279627472162247, 0.05939968675374985, 0.07394608855247498, 0.09316539019346237, 0.09483836591243744, 0.1425904631614685, 0.1402566283941269, 0.14041461050510406, 0.05922294780611992, 0.06211065128445625, 0.09795236587524414, 0.08204230666160583, 0.07532593607902527, 0.08971700072288513, 0.06868108361959457, 0.08178334683179855, 0.09795235097408295, 0.09017525613307953, 0.38109782338142395, 0.33142268657684326, 0.15479904413223267, 0.31529781222343445, 0.37435272336006165, 0.19903823733329773, 0.3741004168987274, 0.17360661923885345, 0.13972201943397522, 0.3315645158290863, 0.22617533802986145, 0.22422219812870026, 0.27247002720832825, 0.45794111490249634, 0.7987356781959534, 0.3269804120063782, 0.25963059067726135, 0.34039750695228577, 0.23646420240402222, 0.2838357985019684, 0.34983938932418823, 0.32476016879081726, 0.48658373951911926, 0.4937848746776581, 0.602974534034729, 0.4544593393802643, 0.3773390054702759, 0.18212279677391052, 0.15092583000659943, 0.16321972012519836, 0.29326868057250977, 0.4057009220123291, 0.18402622640132904, 0.21462903916835785, 0.18169793486595154, 0.3865513801574707, 0.667772650718689, 0.5084244012832642, 0.8134826421737671, 0.7154447436332703, 0.6710525751113892, 0.422250896692276, 0.3139376640319824, 0.38776761293411255, 0.5096153020858765, 0.2540030777454376, 0.30132347345352173, 0.19341407716274261, 0.21068264544010162, 0.20990145206451416, 0.2078283727169037, 0.2886759638786316, 0.2732328474521637, 0.3033654987812042, 0.22912649810314178, 0.17764008045196533, 0.16742905974388123, 0.1299537569284439, 0.11655223369598389, 0.11813341081142426, 0.1018332690000534, 0.1034410297870636, 0.1321457326412201, 0.12114033848047256, 0.11340146511793137, 0.09953027963638306, 0.09158404916524887, 0.09639730304479599, 0.12242290377616882, 0.13294284045696259, 0.17989270389080048, 0.1239146888256073, 0.11022735387086868, 0.10873386263847351, 0.06654521822929382, 0.06030535325407982, 0.09044467657804489, 0.10001529008150101, 0.15020237863063812, 0.28348466753959656, 0.28148823976516724]</t>
+          <t>[0.3716332018375397, 0.2732001543045044, 0.04532751441001892, 0.0395207405090332, 0.00833453331142664, 0.023791339248418808, 0.06272890418767929, 0.022231746464967728, 0.02034960314631462, 0.055807847529649734, 0.042015716433525085, 0.08972498029470444, 0.5779204368591309, 0.546609103679657, 0.08618289977312088, 0.040299031883478165, 0.037678029388189316, 0.06460193544626236, 0.052394669502973557, 0.0915980115532875, 0.02453461103141308, 0.020015008747577667, 0.03193505480885506, 0.05064677819609642, 0.042701464146375656, 0.06420540064573288, 0.046447884291410446, 0.019760018214583397, 0.014407278969883919, 0.02030791901051998, 0.02284969575703144, 0.026417894288897514, 0.028355032205581665, 0.020283889025449753, 0.023391759023070335, 0.03090149164199829, 0.028560930863022804, 0.21623481810092926, 0.16850821673870087, 0.06275969743728638, 0.16293655335903168, 0.20777729153633118, 0.08966689556837082, 0.24656198918819427, 0.05159315466880798, 0.04781874269247055, 0.196237251162529, 0.12374401092529297, 0.1065850704908371, 0.15869159996509552, 0.495868057012558, 0.7062065601348877, 0.1408311128616333, 0.13075503706932068, 0.25712165236473083, 0.10025812685489655, 0.11555745452642441, 0.12302784621715546, 0.10547861456871033, 0.20627310872077942, 0.3116426467895508, 0.4814576804637909, 0.2723461985588074, 0.22259315848350525, 0.08893435448408127, 0.05132254213094711, 0.0572076253592968, 0.12654246389865875, 0.30525559186935425, 0.0484599731862545, 0.06251748651266098, 0.05907158926129341, 0.1711745411157608, 0.5153979063034058, 0.287054181098938, 0.7603757381439209, 0.623185932636261, 0.5730531215667725, 0.23893390595912933, 0.15528766810894012, 0.21622397005558014, 0.4674545228481293, 0.1225619837641716, 0.13431881368160248, 0.06465940177440643, 0.056663740426301956, 0.056601911783218384, 0.05477700009942055, 0.1070280447602272, 0.09658704698085785, 0.12452013045549393, 0.09205948561429977, 0.05497440695762634, 0.05478530749678612, 0.03242281824350357, 0.03057057596743107, 0.0252818763256073, 0.018778568133711815, 0.018264377489686012, 0.026143500581383705, 0.04072006791830063, 0.03461819514632225, 0.024700194597244263, 0.013380885124206543, 0.020451543852686882, 0.03504456952214241, 0.03289182111620903, 0.06537767499685287, 0.03405183181166649, 0.03794443979859352, 0.03412703797221184, 0.012212084606289864, 0.008927691727876663, 0.02097402513027191, 0.019735975190997124, 0.031528402119874954, 0.13971276581287384, 0.13787566125392914]</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.8134826421737671</v>
+        <v>0.7603757381439209</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -8543,10 +8543,10 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0.6780360999982804</v>
+        <v>0.6869599000056041</v>
       </c>
       <c r="J200" t="n">
-        <v>0.005746068644053224</v>
+        <v>0.005821694067844103</v>
       </c>
     </row>
     <row r="201">
@@ -8565,11 +8565,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>[0.25635409355163574, 0.23311050236225128, 0.1906033605337143, 0.3782316744327545, 0.8393114805221558, 0.5986580848693848, 0.3855745196342468, 0.5446921586990356, 0.8494170308113098, 0.9465979337692261, 0.8266511559486389, 0.7697766423225403, 0.2817590534687042, 0.8633480072021484, 0.6686692237854004, 0.8161836266517639, 0.8653420805931091, 0.669642448425293, 0.8808919191360474, 0.8799686431884766, 0.8594107031822205, 0.833253026008606, 0.8491761088371277, 0.9650413990020752, 0.7285308241844177, 0.4278738498687744, 0.7281932234764099, 0.7480106949806213, 0.7959226965904236, 0.6350586414337158, 0.6630954146385193, 0.5866349935531616, 0.399578332901001, 0.2655634582042694, 0.28319066762924194, 0.2729286849498749, 0.5028923749923706, 0.34619173407554626, 0.5003355741500854, 0.5226225256919861, 0.44709375500679016, 0.6925820708274841, 0.8543712496757507, 0.9236154556274414, 0.8640792369842529, 0.3484700322151184, 0.3235284388065338, 0.4461311399936676, 0.19811618328094482, 0.28366485238075256, 0.6045554280281067, 0.45045822858810425, 0.2691899538040161, 0.2910294532775879, 0.2396175116300583, 0.2703872621059418, 0.1562705934047699, 0.07976239174604416, 0.09708013385534286, 0.18795570731163025, 0.05534437298774719, 0.12291937321424484, 0.16109111905097961, 0.08540830761194229, 0.24631869792938232, 0.07416082918643951, 0.03990929573774338, 0.03506818786263466, 0.03247513249516487, 0.04449198395013809, 0.048158518970012665, 0.037699539214372635, 0.03389483317732811, 0.03755432739853859, 0.03402860090136528, 0.046124719083309174, 0.054625947028398514, 0.06881831586360931, 0.07507718354463577, 0.0690627247095108, 0.042157191783189774, 0.04556595906615257, 0.04421395808458328, 0.05297928676009178, 0.035707440227270126, 0.05751515179872513, 0.05405057966709137, 0.03275086358189583, 0.03905903175473213, 0.048220664262771606, 0.08736974000930786, 0.09633227437734604, 0.06061752140522003, 0.06702917814254761, 0.10755502432584763, 0.04026377946138382, 0.07483160495758057, 0.03693362697958946, 0.029826391488313675, 0.033216897398233414, 0.02997976914048195, 0.040222253650426865, 0.03373454138636589, 0.03369175270199776, 0.03398806229233742, 0.037809617817401886, 0.03704799711704254, 0.04027717933058739, 0.03315584734082222, 0.030920900404453278, 0.030994514003396034, 0.03637528046965599, 0.03446103632450104, 0.0513884499669075, 0.04846588894724846, 0.058497462421655655, 0.06912459433078766, 0.06898084282875061]</t>
+          <t>[0.6295607686042786, 0.5230849981307983, 0.44203686714172363, 0.44969916343688965, 0.884608805179596, 0.7163956761360168, 0.6851758360862732, 0.691814124584198, 0.9144283533096313, 0.9808112382888794, 0.9500404000282288, 0.8554746508598328, 0.3641248941421509, 0.8758782148361206, 0.7893185019493103, 0.8677362203598022, 0.8739755749702454, 0.6704259514808655, 0.9071170091629028, 0.8849214911460876, 0.8437077403068542, 0.90055251121521, 0.8976756930351257, 0.9729542136192322, 0.7575634717941284, 0.38240230083465576, 0.7645865678787231, 0.8325490951538086, 0.7916058897972107, 0.576143205165863, 0.6133838295936584, 0.6755441427230835, 0.485602468252182, 0.33388203382492065, 0.333351194858551, 0.24791771173477173, 0.4580062925815582, 0.2763125002384186, 0.6370216608047485, 0.6669206619262695, 0.553010106086731, 0.762062668800354, 0.8319198489189148, 0.9342172145843506, 0.9489997029304504, 0.579886257648468, 0.4469699263572693, 0.528329610824585, 0.22153471410274506, 0.33372101187705994, 0.8092919588088989, 0.6412278413772583, 0.2458193153142929, 0.3343588709831238, 0.15842711925506592, 0.16956183314323425, 0.09021495282649994, 0.03085213527083397, 0.03629963845014572, 0.18174318969249725, 0.07439784705638885, 0.18386855721473694, 0.19699200987815857, 0.0835583433508873, 0.3590918779373169, 0.05134251341223717, 0.01739705726504326, 0.01744518056511879, 0.015938550233840942, 0.023611856624484062, 0.031693413853645325, 0.02571742981672287, 0.020932279527187347, 0.03279082849621773, 0.02103482373058796, 0.026678338646888733, 0.03387775644659996, 0.05060804262757301, 0.04902784153819084, 0.072293721139431, 0.02359159290790558, 0.03347909823060036, 0.030690796673297882, 0.043000318109989166, 0.0229472778737545, 0.043231938034296036, 0.038826655596494675, 0.02387755736708641, 0.029060307890176773, 0.036288220435380936, 0.058623675256967545, 0.08897840976715088, 0.07933323085308075, 0.09134350717067719, 0.08672232180833817, 0.0324702151119709, 0.07383530586957932, 0.023632247000932693, 0.012832710519433022, 0.0137068722397089, 0.012818367220461369, 0.018687978386878967, 0.01538728829473257, 0.012320302426815033, 0.012455318123102188, 0.014086490496993065, 0.013244697824120522, 0.026039790362119675, 0.012981109321117401, 0.008774172514677048, 0.009356296621263027, 0.011167790740728378, 0.012729107402265072, 0.02350892499089241, 0.019662024453282356, 0.02547447569668293, 0.02629844844341278, 0.026139287278056145]</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.9650413990020752</v>
+        <v>0.9808112382888794</v>
       </c>
       <c r="F201" t="n">
         <v>1</v>
@@ -8583,10 +8583,10 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0.6788539999979548</v>
+        <v>0.6763936999923317</v>
       </c>
       <c r="J201" t="n">
-        <v>0.005752999999982668</v>
+        <v>0.005732149999935014</v>
       </c>
     </row>
     <row r="202">
@@ -8605,11 +8605,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[0.9076150059700012, 0.7866063714027405, 0.8478768467903137, 0.760277509689331, 0.9372508525848389, 0.830726146697998, 0.834756076335907, 0.8188777565956116, 0.8294535279273987, 0.6987135410308838, 0.07967958599328995, 0.2513960301876068, 0.12276018410921097, 0.0836634486913681, 0.2788996398448944, 0.11165956407785416, 0.29887160658836365, 0.20317715406417847, 0.1430852860212326, 0.4264099597930908, 0.5743383765220642, 0.2710125744342804, 0.09728991240262985, 0.1318645030260086, 0.2955588698387146, 0.0822073444724083, 0.07383933663368225, 0.08156583458185196, 0.13347680866718292, 0.2974282503128052, 0.28206324577331543, 0.2173866629600525, 0.18657159805297852, 0.08626886457204819, 0.10049674659967422, 0.25710931420326233, 0.11826037615537643, 0.194600448012352, 0.12948323786258698, 0.1309700459241867, 0.08996438980102539, 0.07349993288516998, 0.06383746862411499, 0.06398354470729828, 0.05380753427743912, 0.058160897344350815, 0.04833212494850159, 0.03826376423239708, 0.04438261315226555, 0.06189548596739769, 0.07888306677341461, 0.07861168682575226, 0.06994148343801498, 0.05397539585828781, 0.05773190036416054, 0.044141754508018494, 0.06975260376930237, 0.07365531474351883, 0.08583103865385056, 0.07814198732376099, 0.055786386132240295, 0.06260474026203156, 0.06400500237941742, 0.05764578655362129, 0.05680695176124573, 0.06763703376054764, 0.04676169529557228, 0.07199086993932724, 0.05913741514086723, 0.04507187381386757, 0.08659373968839645, 0.0714394599199295, 0.05593697354197502, 0.04134814813733101, 0.03990209847688675, 0.05789150297641754, 0.04539553448557854, 0.053042396903038025, 0.0680086687207222, 0.0557379387319088, 0.07750410586595535, 0.052498698234558105, 0.05889730155467987, 0.046169430017471313, 0.06730126589536667, 0.07822523266077042, 0.10471197962760925, 0.07273811101913452, 0.049999844282865524, 0.0846123918890953, 0.07975246757268906, 0.07774214446544647, 0.059406887739896774, 0.08556310087442398, 0.05683506280183792, 0.05328594148159027, 0.08912639319896698, 0.06030476465821266, 0.08730973303318024, 0.08662623167037964, 0.10737434029579163, 0.1185123473405838, 0.08417974412441254, 0.07801266759634018, 0.062435001134872437, 0.11687884479761124, 0.09969137609004974, 0.09124904125928879, 0.09575650840997696, 0.12192456424236298, 0.09057296812534332, 0.08918061852455139, 0.06136854737997055, 0.08461317420005798, 0.10664921998977661, 0.0630844458937645, 0.055805325508117676, 0.055636484175920486]</t>
+          <t>[0.9493773579597473, 0.9129524827003479, 0.9098349213600159, 0.8620299100875854, 0.9653563499450684, 0.9309380054473877, 0.9031832814216614, 0.9378098845481873, 0.9525131583213806, 0.8626524209976196, 0.06435108184814453, 0.3781568706035614, 0.19318725168704987, 0.09537067264318466, 0.4422094523906708, 0.17492586374282837, 0.4898868501186371, 0.41846388578414917, 0.2409333884716034, 0.7136096358299255, 0.6422821879386902, 0.2577284872531891, 0.06011839956045151, 0.15531578660011292, 0.2956782281398773, 0.07225082814693451, 0.06523895263671875, 0.07707349210977554, 0.20383161306381226, 0.4422215521335602, 0.4262787103652954, 0.2161078155040741, 0.2287619262933731, 0.06297694146633148, 0.07696488499641418, 0.21870115399360657, 0.07717735320329666, 0.18637841939926147, 0.08436036109924316, 0.1505097597837448, 0.06800315529108047, 0.04796643182635307, 0.03624708950519562, 0.03059367835521698, 0.022609461098909378, 0.025336597114801407, 0.022703994065523148, 0.017421739175915718, 0.026800183579325676, 0.027693135663866997, 0.0356312058866024, 0.054603006690740585, 0.04299187660217285, 0.022491859272122383, 0.030743058770895004, 0.019956838339567184, 0.03625951707363129, 0.038294728845357895, 0.0392632931470871, 0.04689672589302063, 0.031180696561932564, 0.038471512496471405, 0.03580012917518616, 0.039652019739151, 0.038739606738090515, 0.043362148106098175, 0.02592618577182293, 0.041913509368896484, 0.027381720021367073, 0.022868920117616653, 0.05125568062067032, 0.031587082892656326, 0.02336016856133938, 0.016133660450577736, 0.016752546653151512, 0.03030058741569519, 0.01954115368425846, 0.022859783843159676, 0.06174570694565773, 0.030500615015625954, 0.04360020160675049, 0.03843700513243675, 0.03262706845998764, 0.02081831730902195, 0.037382036447525024, 0.04803439602255821, 0.09869491308927536, 0.040724851191043854, 0.02580713853240013, 0.049270424991846085, 0.05752689018845558, 0.054465193301439285, 0.02965819090604782, 0.03945039585232735, 0.020790670067071915, 0.02110709808766842, 0.07461678236722946, 0.028465190902352333, 0.04403715208172798, 0.036458570510149, 0.06325378268957138, 0.05526312068104744, 0.03877662122249603, 0.03352976217865944, 0.023379309102892876, 0.06990697979927063, 0.044395383447408676, 0.047411106526851654, 0.038705747574567795, 0.06578588485717773, 0.03498323634266853, 0.041481465101242065, 0.025785306468605995, 0.03520771861076355, 0.05069452151656151, 0.028757590800523758, 0.025832781568169594, 0.02575257234275341]</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.9372508525848389</v>
+        <v>0.9653563499450684</v>
       </c>
       <c r="F202" t="n">
         <v>1</v>
@@ -8623,10 +8623,10 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0.6629446999868378</v>
+        <v>0.6903628000000026</v>
       </c>
       <c r="J202" t="n">
-        <v>0.005618175423617269</v>
+        <v>0.005850532203389853</v>
       </c>
     </row>
     <row r="203">
@@ -8645,11 +8645,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>[0.02870851382613182, 0.04353183135390282, 0.028810713440179825, 0.04932039603590965, 0.03027641773223877, 0.02720734104514122, 0.035872913897037506, 0.05262678489089012, 0.07324974983930588, 0.04853518679738045, 0.03219503164291382, 0.05749288946390152, 0.0458354651927948, 0.03529956191778183, 0.051861654967069626, 0.05247664451599121, 0.07323475927114487, 0.061700593680143356, 0.06344685703516006, 0.061814192682504654, 0.039959292858839035, 0.06303906440734863, 0.053459689021110535, 0.0680551752448082, 0.055111344903707504, 0.04672274738550186, 0.03912742808461189, 0.029093828052282333, 0.0466926135122776, 0.03799216076731682, 0.0404651053249836, 0.05364113673567772, 0.05726486071944237, 0.03878345340490341, 0.03218426927924156, 0.0410027951002121, 0.05664585158228874, 0.040890686213970184, 0.04089925065636635, 0.059251755475997925, 0.05356212332844734, 0.045864690095186234, 0.03745395690202713, 0.04287344962358475, 0.06600277125835419, 0.08132745325565338, 0.06325516849756241, 0.04169822856783867, 0.033004146069288254, 0.048817623406648636, 0.04654073342680931, 0.04273413494229317, 0.0440436489880085, 0.07484903186559677, 0.053245555609464645, 0.07231704890727997, 0.11602995544672012, 0.08917585015296936, 0.10109531134366989, 0.14602486789226532, 0.0873350128531456, 0.09354885667562485, 0.10544470697641373, 0.1371166855096817, 0.07500692456960678, 0.1048215925693512, 0.08351260423660278, 0.08217370510101318, 0.16649501025676727, 0.07737456262111664, 0.0932452380657196, 0.08664674311876297, 0.051380500197410583, 0.061248261481523514, 0.07592011243104935, 0.08055981248617172, 0.07418779283761978, 0.04298936203122139, 0.06588786840438843, 0.07187805324792862, 0.06253571063280106, 0.12396176159381866, 0.05594911798834801, 0.049449265003204346, 0.032654933631420135, 0.03664650768041611, 0.03519904240965843, 0.03732529655098915, 0.03356198966503143, 0.07708825916051865, 0.1330084204673767, 0.09742595255374908, 0.08960888534784317, 0.053711988031864166, 0.04246899113059044, 0.03704501688480377, 0.0344555638730526, 0.05668652430176735, 0.048681844025850296, 0.04843563959002495, 0.03735675662755966, 0.05771102011203766, 0.04752685874700546, 0.030541226267814636, 0.055057499557733536, 0.08871595561504364, 0.10089505463838577, 0.1059916764497757, 0.09133844077587128, 0.06774889677762985, 0.11201643198728561, 0.09178511798381805, 0.08309610933065414, 0.12337065488100052, 0.12037352472543716, 0.17568866908550262, 0.11671004444360733, 0.19649119675159454, 0.19630734622478485]</t>
+          <t>[0.02399139665067196, 0.05222618579864502, 0.02194203995168209, 0.055630989372730255, 0.015075192786753178, 0.01265460904687643, 0.022632908076047897, 0.02400229685008526, 0.0347520187497139, 0.021417289972305298, 0.01333354040980339, 0.0341222807765007, 0.030511783435940742, 0.018382743000984192, 0.028889654204249382, 0.033018894493579865, 0.04958246648311615, 0.0410374253988266, 0.0391145683825016, 0.03288643807172775, 0.02169622667133808, 0.036722779273986816, 0.0294505525380373, 0.04741199314594269, 0.03700811415910721, 0.035850804299116135, 0.017267610877752304, 0.011306939646601677, 0.022408246994018555, 0.01625058241188526, 0.013548390008509159, 0.02060723304748535, 0.02259662374854088, 0.01489600446075201, 0.011082184500992298, 0.013942187651991844, 0.028692908585071564, 0.02225608006119728, 0.021630676463246346, 0.029744388535618782, 0.043916620314121246, 0.0338568389415741, 0.030055640265345573, 0.031059810891747475, 0.04043596610426903, 0.05320212244987488, 0.042251456528902054, 0.021241221576929092, 0.012308483012020588, 0.026122327893972397, 0.027952490374445915, 0.028208494186401367, 0.03196766972541809, 0.07617852091789246, 0.04878176003694534, 0.056924182921648026, 0.1269017457962036, 0.08702398091554642, 0.13050617277622223, 0.16526439785957336, 0.07278978824615479, 0.09874992072582245, 0.08370836079120636, 0.12811720371246338, 0.06178349256515503, 0.06603506952524185, 0.05890790745615959, 0.0651770606637001, 0.22892709076404572, 0.04943789541721344, 0.08968169242143631, 0.06250298768281937, 0.037121400237083435, 0.03735294193029404, 0.0484451986849308, 0.05079318583011627, 0.048899076879024506, 0.021105362102389336, 0.03496905788779259, 0.055459436029195786, 0.038558922708034515, 0.07901454716920853, 0.022913014516234398, 0.017667662352323532, 0.010860873386263847, 0.019415367394685745, 0.022539610043168068, 0.02204722911119461, 0.018137412145733833, 0.038119979202747345, 0.08993414044380188, 0.07252389937639236, 0.05547196790575981, 0.03023081086575985, 0.022753706201910973, 0.020443491637706757, 0.01913241483271122, 0.047429800033569336, 0.03266966715455055, 0.031181953847408295, 0.023280981928110123, 0.03231559321284294, 0.0369449146091938, 0.018866287544369698, 0.06422185897827148, 0.08744533360004425, 0.10969888418912888, 0.08134078234434128, 0.05336500331759453, 0.04632929712533951, 0.06984354555606842, 0.09716625511646271, 0.08045526593923569, 0.10726471245288849, 0.13058891892433167, 0.14032390713691711, 0.09153173118829727, 0.16998259723186493, 0.16961276531219482]</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.1964911967515945</v>
+        <v>0.2289270907640457</v>
       </c>
       <c r="F203" t="n">
         <v>1</v>
@@ -8663,10 +8663,10 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>0.6747983999957796</v>
+        <v>0.6954372000036528</v>
       </c>
       <c r="J203" t="n">
-        <v>0.005670574789880501</v>
+        <v>0.00584401008406431</v>
       </c>
     </row>
     <row r="204">
@@ -8685,11 +8685,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[0.02896827459335327, 0.021571127697825432, 0.04564949870109558, 0.06011490523815155, 0.10045599192380905, 0.09290499240159988, 0.07399764657020569, 0.0843210518360138, 0.03074740618467331, 0.08069077134132385, 0.07299667596817017, 0.07099048793315887, 0.08041241765022278, 0.06084776669740677, 0.06552330404520035, 0.051854025572538376, 0.05669497326016426, 0.06840036064386368, 0.044024694710969925, 0.03773517534136772, 0.04127471521496773, 0.09153742343187332, 0.076622374355793, 0.05052949860692024, 0.04415753483772278, 0.038467008620500565, 0.06212419271469116, 0.06189492344856262, 0.04242297261953354, 0.04361739382147789, 0.08136186003684998, 0.06524794548749924, 0.04807357117533684, 0.09926074743270874, 0.10477759689092636, 0.21304187178611755, 0.16349880397319794, 0.09147457778453827, 0.0722862258553505, 0.11232195794582367, 0.24029481410980225, 0.11246756464242935, 0.08189298212528229, 0.11181798577308655, 0.15161491930484772, 0.13332483172416687, 0.08091654628515244, 0.08965729922056198, 0.04733719304203987, 0.07163748145103455, 0.04582015797495842, 0.0697944164276123, 0.08757643401622772, 0.09138548374176025, 0.21310646831989288, 0.14045964181423187, 0.0729813426733017, 0.06226139888167381, 0.0675601214170456, 0.0845288634300232, 0.04158331826329231, 0.04348931461572647, 0.045241862535476685, 0.06282715499401093, 0.0832214206457138, 0.0759744793176651, 0.07602572441101074, 0.04823187738656998, 0.10344533622264862, 0.060851894319057465, 0.07437515258789062, 0.05727677047252655, 0.07389697432518005, 0.15803444385528564, 0.06296838819980621, 0.05073471739888191, 0.04892325401306152, 0.09671895205974579, 0.05145829916000366, 0.16485562920570374, 0.10735657066106796, 0.10542730987071991, 0.08258220553398132, 0.09329061955213547, 0.08576104789972305, 0.07035303115844727, 0.11465253680944443, 0.21264226734638214, 0.05138971284031868, 0.05376112088561058, 0.04345320910215378, 0.03770849108695984, 0.051552314311265945, 0.05732303112745285, 0.04958557337522507, 0.048293087631464005, 0.08765192329883575, 0.05645294487476349, 0.0931270495057106, 0.05820024758577347, 0.09268022328615189, 0.04734313488006592, 0.06616690009832382, 0.05324065312743187, 0.05289745330810547, 0.03832700848579407, 0.06569826602935791, 0.0727883130311966, 0.061293236911296844, 0.15954452753067017, 0.09139299392700195, 0.08573571592569351, 0.056062787771224976, 0.07626855373382568, 0.07539831101894379, 0.04058640077710152, 0.044355981051921844, 0.04423796758055687]</t>
+          <t>[0.008585729636251926, 0.007735223043709993, 0.02242789790034294, 0.023327656090259552, 0.0444038063287735, 0.036961037665605545, 0.030399829149246216, 0.0436401441693306, 0.013625942170619965, 0.035237718373537064, 0.05422688275575638, 0.025710487738251686, 0.04789680987596512, 0.02466910518705845, 0.025259174406528473, 0.021343372762203217, 0.025017449632287025, 0.03341440111398697, 0.019668031483888626, 0.014977037906646729, 0.014727811329066753, 0.045445069670677185, 0.030635805800557137, 0.019134536385536194, 0.015611291863024235, 0.01399573590606451, 0.020537205040454865, 0.023658813908696175, 0.012083672918379307, 0.015998348593711853, 0.03895609825849533, 0.0503050796687603, 0.018430380150675774, 0.043275102972984314, 0.042088545858860016, 0.15226078033447266, 0.1092132180929184, 0.05291401222348213, 0.025391960516572, 0.056068286299705505, 0.20773112773895264, 0.07328367233276367, 0.03809131309390068, 0.055353447794914246, 0.11907070130109787, 0.10571553558111191, 0.04293461889028549, 0.035802606493234634, 0.016514433547854424, 0.03638307377696037, 0.0200952161103487, 0.03281215578317642, 0.04378757253289223, 0.05890057981014252, 0.1837635189294815, 0.20161989331245422, 0.048360347747802734, 0.026372935622930527, 0.03442878648638725, 0.06052440032362938, 0.015840647742152214, 0.013984402641654015, 0.015929322689771652, 0.019282694905996323, 0.03733519837260246, 0.03328515589237213, 0.0356111153960228, 0.01689404807984829, 0.044933218508958817, 0.02023036777973175, 0.0248767901211977, 0.018134312704205513, 0.029403895139694214, 0.19777975976467133, 0.03448818624019623, 0.02182949334383011, 0.022515270859003067, 0.06446626782417297, 0.02559897117316723, 0.14748920500278473, 0.06337138265371323, 0.05402948707342148, 0.03561198711395264, 0.03565715625882149, 0.044678255915641785, 0.03976507484912872, 0.08105644583702087, 0.17218053340911865, 0.02592899277806282, 0.018624380230903625, 0.011845778673887253, 0.012364274822175503, 0.01884494349360466, 0.029612619429826736, 0.02597735822200775, 0.02500658668577671, 0.07031320035457611, 0.02670990489423275, 0.043175775557756424, 0.0192599855363369, 0.059537310153245926, 0.024527983739972115, 0.04201317951083183, 0.017530374228954315, 0.01988872140645981, 0.014091185294091702, 0.026280231773853302, 0.0315617173910141, 0.026928067207336426, 0.18446901440620422, 0.05096980556845665, 0.03286284953355789, 0.017854103818535805, 0.03380105271935463, 0.02367323637008667, 0.010751805268228054, 0.012629992328584194, 0.012598834000527859]</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.2402948141098022</v>
+        <v>0.2077311277389526</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -8703,10 +8703,10 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>0.6641813000023831</v>
+        <v>0.6786907999921823</v>
       </c>
       <c r="J204" t="n">
-        <v>0.005628655084765958</v>
+        <v>0.005751616949086291</v>
       </c>
     </row>
     <row r="205">
@@ -8725,11 +8725,11 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[0.1479235589504242, 0.17143653333187103, 0.385444700717926, 0.4893500804901123, 0.36285290122032166, 0.1934485137462616, 0.2641923129558563, 0.2685784101486206, 0.3066091239452362, 0.24834570288658142, 0.5299447774887085, 0.13113389909267426, 0.20703621208667755, 0.12129537761211395, 0.12644155323505402, 0.251007080078125, 0.38435807824134827, 0.3576754033565521, 0.23230119049549103, 0.22371482849121094, 0.1846124678850174, 0.14604441821575165, 0.11397227644920349, 0.09336350858211517, 0.10479099303483963, 0.07151590287685394, 0.1068185493350029, 0.14491528272628784, 0.08114337176084518, 0.10717319697141647, 0.12020871788263321, 0.10347215086221695, 0.1468985229730606, 0.19276335835456848, 0.19954168796539307, 0.14612652361392975, 0.14117854833602905, 0.11089258641004562, 0.3222983479499817, 0.24376723170280457, 0.14964233338832855, 0.1547570824623108, 0.25068095326423645, 0.24595189094543457, 0.396738737821579, 0.21214473247528076, 0.10763618350028992, 0.08852475881576538, 0.06460646539926529, 0.08011503517627716, 0.06677215546369553, 0.1049727201461792, 0.11518135666847229, 0.10229258239269257, 0.19914637506008148, 0.21162149310112, 0.5364773273468018, 0.549125075340271, 0.7274482250213623, 0.33277663588523865, 0.5467610955238342, 0.6387900114059448, 0.25282102823257446, 0.23982152342796326, 0.11933013796806335, 0.3898516595363617, 0.15823452174663544, 0.12243068218231201, 0.10605135560035706, 0.04058850556612015, 0.0592813678085804, 0.04226807504892349, 0.034880369901657104, 0.05382932722568512, 0.06533779203891754, 0.06602615863084793, 0.10006535798311234, 0.09171534329652786, 0.08966905623674393, 0.26773515343666077, 0.3900931179523468, 0.5241994857788086, 0.6377531886100769, 0.6550643444061279, 0.275132417678833, 0.2456795871257782, 0.3473939895629883, 0.2626397907733917, 0.14706309139728546, 0.262378454208374, 0.3878646492958069, 0.3103000819683075, 0.1854609251022339, 0.10641556978225708, 0.09546706825494766, 0.05938676372170448, 0.09976999461650848, 0.15602152049541473, 0.08944050967693329, 0.18326616287231445, 0.2634282112121582, 0.2777579724788666, 0.08917631953954697, 0.10332337021827698, 0.06864173710346222, 0.07611940056085587, 0.22648851573467255, 0.15728653967380524, 0.1465730220079422, 0.10118640214204788, 0.07731785625219345, 0.10428918153047562, 0.16019278764724731, 0.16595448553562164, 0.10620372742414474, 0.060871295630931854, 0.04806899651885033, 0.048396069556474686]</t>
+          <t>[0.15187101066112518, 0.17387257516384125, 0.5994755625724792, 0.6272263526916504, 0.45392683148384094, 0.2802126705646515, 0.40512362122535706, 0.27759677171707153, 0.3051515519618988, 0.19263723492622375, 0.4097565710544586, 0.09209726750850677, 0.1629776805639267, 0.11685062199831009, 0.0960952416062355, 0.23031292855739594, 0.31322866678237915, 0.25041136145591736, 0.1373853087425232, 0.10227447748184204, 0.1081366315484047, 0.08741088956594467, 0.07712691277265549, 0.0666857361793518, 0.0628022849559784, 0.04840882495045662, 0.07304589450359344, 0.0884326621890068, 0.054798949509859085, 0.08131053298711777, 0.13174651563167572, 0.10247504711151123, 0.11279827356338501, 0.17160767316818237, 0.27070632576942444, 0.13815493881702423, 0.15337516367435455, 0.09016650915145874, 0.4768664538860321, 0.2894885540008545, 0.14486518502235413, 0.16471268236637115, 0.3532075881958008, 0.4335992634296417, 0.5387530326843262, 0.35555022954940796, 0.1920047253370285, 0.07659630477428436, 0.04875192418694496, 0.0578824020922184, 0.04417802393436432, 0.09297268092632294, 0.09055749326944351, 0.07854634523391724, 0.31658777594566345, 0.30978164076805115, 0.6974931359291077, 0.5989476442337036, 0.8224808573722839, 0.5158654451370239, 0.6180577874183655, 0.6878125071525574, 0.2824666202068329, 0.2536274790763855, 0.08688341081142426, 0.4927222728729248, 0.18275479972362518, 0.2519599199295044, 0.22113646566867828, 0.03334301710128784, 0.05456897243857384, 0.03767557069659233, 0.018413109704852104, 0.04154904931783676, 0.06464170664548874, 0.1028754785656929, 0.15192966163158417, 0.14260967075824738, 0.13935555517673492, 0.5206249952316284, 0.6293820738792419, 0.7670217752456665, 0.8730394244194031, 0.8594515323638916, 0.4202767610549927, 0.34727752208709717, 0.5315394401550293, 0.4721725881099701, 0.2750641405582428, 0.49368569254875183, 0.6364956498146057, 0.5744405388832092, 0.33862730860710144, 0.13992729783058167, 0.12757152318954468, 0.06774947047233582, 0.15608088672161102, 0.2859266698360443, 0.14153559505939484, 0.29852741956710815, 0.5173400044441223, 0.4391745328903198, 0.12731042504310608, 0.17412202060222626, 0.0904320627450943, 0.08564020693302155, 0.4222888946533203, 0.28510594367980957, 0.23051249980926514, 0.1129424124956131, 0.07026385515928268, 0.13198110461235046, 0.2561756670475006, 0.22927041351795197, 0.16275574266910553, 0.05229815095663071, 0.05262983962893486, 0.05310036242008209]</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.7274482250213623</v>
+        <v>0.8730394244194031</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -8743,10 +8743,10 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0.6715259999909904</v>
+        <v>0.6716096999880392</v>
       </c>
       <c r="J205" t="n">
-        <v>0.005690898305008393</v>
+        <v>0.005691607627017281</v>
       </c>
     </row>
     <row r="206">
@@ -8765,11 +8765,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>[0.057093940675258636, 0.05688166990876198, 0.05054313316941261, 0.052244219928979874, 0.0429483987390995, 0.046298280358314514, 0.03693375736474991, 0.03914756327867508, 0.04067692160606384, 0.034178659319877625, 0.04739001765847206, 0.046798523515462875, 0.04598955065011978, 0.0427473820745945, 0.07353146374225616, 0.0675937682390213, 0.07012264430522919, 0.04201216623187065, 0.044666189700365067, 0.04359697178006172, 0.05796977877616882, 0.05641147866845131, 0.037942491471767426, 0.04406173527240753, 0.04818785563111305, 0.06398975849151611, 0.048100899904966354, 0.04073090851306915, 0.04014487564563751, 0.04860910773277283, 0.06073266640305519, 0.06477106362581253, 0.0470648929476738, 0.06106501817703247, 0.07809355854988098, 0.06744660437107086, 0.05332988500595093, 0.05722896754741669, 0.07049835473299026, 0.04118308052420616, 0.039162665605545044, 0.052989374846220016, 0.08133088797330856, 0.05421247333288193, 0.035081807523965836, 0.05238267779350281, 0.05106215924024582, 0.036974940448999405, 0.03364606574177742, 0.032389212399721146, 0.03716646134853363, 0.044964373111724854, 0.04438604414463043, 0.034454960376024246, 0.035722389817237854, 0.029098333790898323, 0.034996818751096725, 0.032136306166648865, 0.024720028042793274, 0.025754036381840706, 0.029430676251649857, 0.03428986296057701, 0.04341907426714897, 0.04264130815863609, 0.04342229291796684, 0.05700592324137688, 0.06292282044887543, 0.061411723494529724, 0.059859856963157654, 0.053576160222291946, 0.050107404589653015, 0.05215190351009369, 0.04647576063871384, 0.03445678949356079, 0.02586059831082821, 0.045209214091300964, 0.05052918940782547, 0.0432642363011837, 0.0543297715485096, 0.04720817506313324, 0.054464563727378845, 0.04501165449619293, 0.04216328635811806, 0.0464126355946064, 0.03661720082163811, 0.050530802458524704, 0.039936620742082596, 0.04567505046725273, 0.04416269809007645, 0.038807645440101624, 0.038884487003088, 0.04405318200588226, 0.038318175822496414, 0.03842400386929512, 0.054430603981018066, 0.046764396131038666, 0.03571058809757233, 0.038243602961301804, 0.04390064254403114, 0.05150460824370384, 0.05842097848653793, 0.047446537762880325, 0.049446992576122284, 0.04248904436826706, 0.045014336705207825, 0.04041704908013344, 0.04753236845135689, 0.04794283211231232, 0.029048459604382515, 0.03424732759594917, 0.05043948441743851, 0.04952704533934593, 0.036334048956632614, 0.03404167294502258, 0.03493528440594673, 0.041237831115722656, 0.04259679839015007, 0.04256375879049301]</t>
+          <t>[0.013508172705769539, 0.010818341746926308, 0.009014775045216084, 0.010377947241067886, 0.008534678258001804, 0.00871417298913002, 0.00685115484520793, 0.007207088638097048, 0.008801682852208614, 0.007078616414219141, 0.013170573860406876, 0.010697249323129654, 0.009988146834075451, 0.008499725721776485, 0.01489016879349947, 0.018704408779740334, 0.01732933521270752, 0.01052572950720787, 0.016889303922653198, 0.014263096265494823, 0.019341029226779938, 0.016036715358495712, 0.010511772707104683, 0.013142651878297329, 0.020009411498904228, 0.02584974840283394, 0.0165388360619545, 0.011414340697228909, 0.010835402645170689, 0.013234511017799377, 0.021225769072771072, 0.021838735789060593, 0.012120512314140797, 0.018847357481718063, 0.0411200113594532, 0.03252069279551506, 0.019256340339779854, 0.022339360788464546, 0.018992990255355835, 0.008926398120820522, 0.0135507732629776, 0.015781976282596588, 0.025275591760873795, 0.01494989451020956, 0.008935458958148956, 0.015968648716807365, 0.016154145821928978, 0.010354939848184586, 0.00908923614770174, 0.007355993613600731, 0.01072312705218792, 0.016980493441224098, 0.015381690114736557, 0.008750676177442074, 0.009633188135921955, 0.006304149515926838, 0.009682420641183853, 0.007837935350835323, 0.006985255051404238, 0.006892045959830284, 0.00825469009578228, 0.011746947653591633, 0.015791259706020355, 0.013909905217587948, 0.01164549496024847, 0.019069531932473183, 0.024339688941836357, 0.020213639363646507, 0.016348157078027725, 0.018724575638771057, 0.01696227677166462, 0.015686573460698128, 0.012364180758595467, 0.009122386574745178, 0.005862602964043617, 0.015224461443722248, 0.011985297314822674, 0.010626374743878841, 0.01922605000436306, 0.010827679187059402, 0.01088037807494402, 0.009521326050162315, 0.007510395720601082, 0.008808518759906292, 0.006253989413380623, 0.010318798013031483, 0.008988061919808388, 0.009374129585921764, 0.009949824772775173, 0.007929190993309021, 0.008437213487923145, 0.009806483052670956, 0.006647029425948858, 0.006809453945606947, 0.00922464206814766, 0.008381091058254242, 0.005412508733570576, 0.00492105633020401, 0.005412692669779062, 0.0077821495942771435, 0.010486180894076824, 0.00914004910737276, 0.010532394982874393, 0.008466209284961224, 0.007258838973939419, 0.006700822152197361, 0.009044338017702103, 0.008263254538178444, 0.005483740009367466, 0.006913502234965563, 0.010224263183772564, 0.008634021505713463, 0.006441837176680565, 0.006140975281596184, 0.006147270556539297, 0.007853335700929165, 0.009215359576046467, 0.009206073358654976]</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.08133088797330856</v>
+        <v>0.0411200113594532</v>
       </c>
       <c r="F206" t="n">
         <v>1</v>
@@ -8783,10 +8783,10 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0.6591144000121858</v>
+        <v>0.6817412999953376</v>
       </c>
       <c r="J206" t="n">
-        <v>0.005585715254340558</v>
+        <v>0.005777468644028285</v>
       </c>
     </row>
     <row r="207">
@@ -8805,11 +8805,11 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>[0.04471135511994362, 0.052159372717142105, 0.03812313824892044, 0.028121361508965492, 0.030957384034991264, 0.029744813218712807, 0.025781625881791115, 0.053834982216358185, 0.06690139323472977, 0.04964722692966461, 0.0637015625834465, 0.07687969505786896, 0.05217251181602478, 0.06863222271203995, 0.05586531385779381, 0.07170253247022629, 0.11230210959911346, 0.06487803161144257, 0.04933488368988037, 0.051822230219841, 0.03628768026828766, 0.0776703804731369, 0.09940344840288162, 0.0532430075109005, 0.07997013628482819, 0.04997415468096733, 0.03423511981964111, 0.03266298398375511, 0.05150922015309334, 0.05963775888085365, 0.06433949619531631, 0.06798867136240005, 0.0602499395608902, 0.07242823392152786, 0.06876756995916367, 0.0687808021903038, 0.062085554003715515, 0.055432818830013275, 0.06074211746454239, 0.055597178637981415, 0.0629919022321701, 0.092497818171978, 0.06457982212305069, 0.09301356971263885, 0.11123061925172806, 0.13705092668533325, 0.0640685185790062, 0.06791165471076965, 0.1115010604262352, 0.06415687501430511, 0.0867573693394661, 0.04139022156596184, 0.037249982357025146, 0.030462639406323433, 0.06680420786142349, 0.10554070770740509, 0.22716408967971802, 0.2855987250804901, 0.20205287635326385, 0.16591008007526398, 0.11351370066404343, 0.07707951217889786, 0.07834500074386597, 0.07399982959032059, 0.07596520334482193, 0.07887739688158035, 0.07429367303848267, 0.06537464261054993, 0.06597098708152771, 0.18097606301307678, 0.06617909669876099, 0.04086817428469658, 0.038056906312704086, 0.030573343858122826, 0.04917297884821892, 0.03506823629140854, 0.044838204979896545, 0.046114593744277954, 0.04859670624136925, 0.05195003002882004, 0.05047159269452095, 0.05086459591984749, 0.0319051593542099, 0.02408183366060257, 0.06048089638352394, 0.06573505699634552, 0.05726649984717369, 0.14434422552585602, 0.04005210101604462, 0.08694199472665787, 0.10905598849058151, 0.17798441648483276, 0.12552492320537567, 0.08494925498962402, 0.06022990122437477, 0.07423577457666397, 0.08801417052745819, 0.12478611618280411, 0.0631939023733139, 0.05584225431084633, 0.048552580177783966, 0.0887199267745018, 0.05810704827308655, 0.07867953181266785, 0.05741635337471962, 0.05410206690430641, 0.05857807397842407, 0.05919203162193298, 0.03827103599905968, 0.03935064747929573, 0.04105854779481888, 0.023831533268094063, 0.03064628876745701, 0.03562187775969505, 0.05444515496492386, 0.07152151316404343, 0.05944906547665596, 0.05953972786664963]</t>
+          <t>[0.014432469382882118, 0.022739602252840996, 0.011707263067364693, 0.010224011726677418, 0.017338132485747337, 0.014164441265165806, 0.013777956366539001, 0.03674329072237015, 0.04318559914827347, 0.02272081933915615, 0.03369775041937828, 0.05179252475500107, 0.02149958908557892, 0.025328833609819412, 0.018163589760661125, 0.015872159972786903, 0.07006742805242538, 0.03013315051794052, 0.018754174932837486, 0.02133718878030777, 0.01569976657629013, 0.03451764956116676, 0.08420396596193314, 0.03719623386859894, 0.0317855179309845, 0.013281451538205147, 0.009398248977959156, 0.013931302353739738, 0.02393146976828575, 0.024989185854792595, 0.03303217887878418, 0.03047666884958744, 0.021938245743513107, 0.023363202810287476, 0.03177492320537567, 0.024969905614852905, 0.03568689525127411, 0.023244019597768784, 0.02582167647778988, 0.015238121151924133, 0.019107259809970856, 0.036459870636463165, 0.028367213904857635, 0.03872760385274887, 0.028517229482531548, 0.04017624258995056, 0.02293812297284603, 0.04883565008640289, 0.09341336786746979, 0.04380364343523979, 0.06699401140213013, 0.02471286617219448, 0.021171914413571358, 0.016196200624108315, 0.02388894185423851, 0.047630470246076584, 0.13637179136276245, 0.229902446269989, 0.1407540738582611, 0.1494589000940323, 0.08793531358242035, 0.035518307238817215, 0.034149665385484695, 0.02652634307742119, 0.027269670739769936, 0.030951552093029022, 0.03006906807422638, 0.017878957092761993, 0.02778172865509987, 0.12136856466531754, 0.030680781230330467, 0.015412694774568081, 0.011361141689121723, 0.008490467444062233, 0.021805377677083015, 0.011848174035549164, 0.018171723932027817, 0.024536825716495514, 0.020752616226673126, 0.0275967326015234, 0.035750970244407654, 0.027523864060640335, 0.018203578889369965, 0.009757469408214092, 0.023803269490599632, 0.06367766112089157, 0.02048904076218605, 0.06478609144687653, 0.01909627765417099, 0.10665789991617203, 0.09483761340379715, 0.3017074167728424, 0.09325985610485077, 0.047225985676050186, 0.02890956774353981, 0.03569995239377022, 0.03637225553393364, 0.05680833384394646, 0.016218971461057663, 0.020843565464019775, 0.023655110970139503, 0.08681296557188034, 0.02444155514240265, 0.034192297607660294, 0.031085526570677757, 0.030794208869338036, 0.029785210266709328, 0.038624152541160583, 0.017720215022563934, 0.017190728336572647, 0.015204534865915775, 0.007389395963400602, 0.010825416073203087, 0.012757224030792713, 0.02418806590139866, 0.03358416631817818, 0.021630365401506424, 0.02174600586295128]</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.2855987250804901</v>
+        <v>0.3017074167728424</v>
       </c>
       <c r="F207" t="n">
         <v>1</v>
@@ -8823,10 +8823,10 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0.6667169999855105</v>
+        <v>0.6667945999943186</v>
       </c>
       <c r="J207" t="n">
-        <v>0.005650144067673817</v>
+        <v>0.005650801694867106</v>
       </c>
     </row>
     <row r="208">
@@ -8845,11 +8845,11 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[0.03972386196255684, 0.03014189563691616, 0.03715015575289726, 0.03475520387291908, 0.01918945647776127, 0.03914370760321617, 0.03234740346670151, 0.024278631433844566, 0.033826399594545364, 0.031083444133400917, 0.029783014208078384, 0.033611953258514404, 0.025046033784747124, 0.03499368578195572, 0.03674393147230148, 0.06444808095693588, 0.0732506513595581, 0.09382130950689316, 0.08378931879997253, 0.05594155564904213, 0.03917129337787628, 0.03458605706691742, 0.050077419728040695, 0.03423193842172623, 0.034409765154123306, 0.02912816032767296, 0.033017903566360474, 0.027986370027065277, 0.032937273383140564, 0.029948491603136063, 0.039699167013168335, 0.052720073610544205, 0.04452697932720184, 0.02452300488948822, 0.02257077395915985, 0.03188173100352287, 0.028801413252949715, 0.04198315739631653, 0.043384794145822525, 0.043666400015354156, 0.039745595306158066, 0.04990529641509056, 0.0364481545984745, 0.031176693737506866, 0.04026688635349274, 0.04253079369664192, 0.03846530243754387, 0.024352723732590675, 0.0379677377641201, 0.027918489649891853, 0.03018033131957054, 0.030895764008164406, 0.05281144753098488, 0.06001643091440201, 0.0519450344145298, 0.05250798538327217, 0.060826197266578674, 0.06726982444524765, 0.05064503476023674, 0.045760054141283035, 0.055708084255456924, 0.05148383975028992, 0.048786599189043045, 0.04404585808515549, 0.03307520970702171, 0.034987933933734894, 0.03666641190648079, 0.04099255055189133, 0.06357700377702713, 0.15504583716392517, 0.14985333383083344, 0.18055203557014465, 0.10711313784122467, 0.12678349018096924, 0.12643107771873474, 0.10494234412908554, 0.160007506608963, 0.2121320366859436, 0.3326256573200226, 0.1351214349269867, 0.07778706401586533, 0.07184536010026932, 0.05418029800057411, 0.040032219141721725, 0.059875719249248505, 0.06125275045633316, 0.06318730860948563, 0.06249270588159561, 0.0690896138548851, 0.05473845824599266, 0.046464137732982635, 0.051990874111652374, 0.06589949876070023, 0.04498179256916046, 0.040135707706213, 0.0494190976023674, 0.04914432391524315, 0.05032652989029884, 0.0380408950150013, 0.04012631997466087, 0.03570927307009697, 0.03438723459839821, 0.03825760260224342, 0.030248034745454788, 0.03021903708577156, 0.027186226099729538, 0.03574725240468979, 0.04221731051802635, 0.03620658442378044, 0.033886440098285675, 0.03387288376688957, 0.04444156587123871, 0.04508525878190994, 0.039227280765771866, 0.03716091066598892, 0.028381243348121643, 0.03718220815062523, 0.03732185438275337]</t>
+          <t>[0.011804463341832161, 0.007766879629343748, 0.010494428686797619, 0.011288090609014034, 0.004914944525808096, 0.013431981205940247, 0.007641967386007309, 0.005657365079969168, 0.009500796906650066, 0.006363763473927975, 0.0060731228440999985, 0.009506919421255589, 0.006925704888999462, 0.011246215552091599, 0.00939300749450922, 0.020518451929092407, 0.03115583211183548, 0.042237915098667145, 0.04461267217993736, 0.02058219164609909, 0.013210359029471874, 0.009413857012987137, 0.010871554724872112, 0.007983982563018799, 0.0061790477484464645, 0.006669212132692337, 0.008119226433336735, 0.006773808505386114, 0.009746919386088848, 0.008019591681659222, 0.008431858383119106, 0.012719611637294292, 0.013322415761649609, 0.007050943095237017, 0.008585131727159023, 0.008633298799395561, 0.0070516811683773994, 0.011371825821697712, 0.009516779333353043, 0.010720871388912201, 0.011603070423007011, 0.019877050071954727, 0.011526922695338726, 0.0090169133618474, 0.022256121039390564, 0.0268531683832407, 0.015112689696252346, 0.0061606536619365215, 0.01407106127589941, 0.007883796468377113, 0.008742643520236015, 0.007652088534086943, 0.012863105162978172, 0.018509121611714363, 0.015385338105261326, 0.014012433588504791, 0.014762003906071186, 0.012714900076389313, 0.010157573968172073, 0.01055886596441269, 0.01250773947685957, 0.013522177934646606, 0.01427688729017973, 0.01575631834566593, 0.011959859170019627, 0.011658597737550735, 0.012237494811415672, 0.014688422903418541, 0.024624859914183617, 0.09004830569028854, 0.0871935710310936, 0.10584462434053421, 0.05067010968923569, 0.06832046806812286, 0.06406936049461365, 0.0476083979010582, 0.06348070502281189, 0.10055503994226456, 0.22723127901554108, 0.07210365682840347, 0.032156072556972504, 0.027414044365286827, 0.018802931532263756, 0.013695530593395233, 0.018262622877955437, 0.022099336609244347, 0.015738660469651222, 0.016698377206921577, 0.01853376254439354, 0.015408788807690144, 0.013943564146757126, 0.011514822952449322, 0.015217220410704613, 0.0092351408675313, 0.010452980175614357, 0.012848854064941406, 0.014531373977661133, 0.012206085957586765, 0.009472648613154888, 0.011435926891863346, 0.008584924973547459, 0.007722968701273203, 0.009356866590678692, 0.009012265130877495, 0.009650385938584805, 0.013191958889365196, 0.013772036880254745, 0.013683505356311798, 0.01223042979836464, 0.01293256226927042, 0.01164549496024847, 0.01486495416611433, 0.01561181340366602, 0.017238641157746315, 0.015458277426660061, 0.011284391395747662, 0.014145005494356155, 0.014201396144926548]</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.3326256573200226</v>
+        <v>0.2272312790155411</v>
       </c>
       <c r="F208" t="n">
         <v>1</v>
@@ -8863,10 +8863,10 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0.656110300013097</v>
+        <v>0.6578015999984927</v>
       </c>
       <c r="J208" t="n">
-        <v>0.005560256779772009</v>
+        <v>0.005574589830495701</v>
       </c>
     </row>
     <row r="209">
@@ -8885,11 +8885,11 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[0.8889312744140625, 0.7960948944091797, 0.8011877536773682, 0.8210868835449219, 0.634743332862854, 0.7723466753959656, 0.43641501665115356, 0.54683518409729, 0.7610705494880676, 0.5737734436988831, 0.8081759810447693, 0.6284481287002563, 0.7930237054824829, 0.7631579637527466, 0.7615192532539368, 0.41672196984291077, 0.1777772754430771, 0.2868771255016327, 0.1933145374059677, 0.3001689910888672, 0.5060607194900513, 0.47590139508247375, 0.8126786351203918, 0.8974376320838928, 0.7597559094429016, 0.4970235526561737, 0.7419475317001343, 0.6648878455162048, 0.3570292890071869, 0.3461013734340668, 0.582896888256073, 0.4882347285747528, 0.5942667126655579, 0.33642786741256714, 0.42593514919281006, 0.2737831771373749, 0.3592671751976013, 0.5271286368370056, 0.19024811685085297, 0.24944454431533813, 0.18849153816699982, 0.4085808992385864, 0.7428910136222839, 0.7285003066062927, 0.8946148753166199, 0.5945417284965515, 0.7572678923606873, 0.671973705291748, 0.8526598215103149, 0.6077271103858948, 0.33630141615867615, 0.2917559742927551, 0.3671664893627167, 0.43730032444000244, 0.2138153463602066, 0.46426305174827576, 0.8479619026184082, 0.5712462067604065, 0.5457723736763, 0.5200060606002808, 0.5026201009750366, 0.7108463644981384, 0.6738418936729431, 0.6335932016372681, 0.5240796208381653, 0.34619802236557007, 0.4546481668949127, 0.3915095329284668, 0.5892091393470764, 0.3080103099346161, 0.5735829472541809, 0.5136139392852783, 0.4183199107646942, 0.2799292802810669, 0.20917238295078278, 0.1376935988664627, 0.1433955878019333, 0.1711772084236145, 0.10139939188957214, 0.042831383645534515, 0.04280468448996544, 0.12481660395860672, 0.10661914944648743, 0.05142189562320709, 0.050056230276823044, 0.05346708744764328, 0.08973539620637894, 0.12478736788034439, 0.1821347326040268, 0.1297728419303894, 0.20085497200489044, 0.4735565185546875, 0.11961875855922699, 0.13872388005256653, 0.1405159831047058, 0.2538488209247589, 0.0627838745713234, 0.041448015719652176, 0.031721387058496475, 0.03217856585979462, 0.02707020565867424, 0.029234452173113823, 0.02146998606622219, 0.02699093706905842, 0.0224385317414999, 0.0288995448499918, 0.02505197376012802, 0.0221394170075655, 0.020531408488750458, 0.022630790248513222, 0.020747454836964607, 0.03441188111901283, 0.030141688883304596, 0.045383207499980927, 0.05830879136919975, 0.037789154797792435, 0.03405316174030304, 0.03385536000132561]</t>
+          <t>[0.9023232460021973, 0.8050870895385742, 0.7886635661125183, 0.843082845211029, 0.5680177211761475, 0.7001020312309265, 0.4534386992454529, 0.5171305537223816, 0.7177543640136719, 0.49708712100982666, 0.7478649616241455, 0.5018584132194519, 0.7646071910858154, 0.7546630501747131, 0.806226372718811, 0.3770454525947571, 0.12176357954740524, 0.2171824425458908, 0.17193135619163513, 0.2001558095216751, 0.5178737044334412, 0.4627936780452728, 0.8370134830474854, 0.8959193229675293, 0.748322069644928, 0.4210762679576874, 0.694287896156311, 0.525830864906311, 0.31192919611930847, 0.2880125045776367, 0.649450421333313, 0.5149376392364502, 0.551421582698822, 0.3774300217628479, 0.504863440990448, 0.35993731021881104, 0.35261863470077515, 0.5416850447654724, 0.18219421803951263, 0.17985433340072632, 0.12664423882961273, 0.22765178978443146, 0.5241856575012207, 0.786737859249115, 0.9425761103630066, 0.5969086289405823, 0.746872067451477, 0.664086639881134, 0.8503157496452332, 0.6077864766120911, 0.3840734362602234, 0.3318961560726166, 0.4703921973705292, 0.44169312715530396, 0.22119353711605072, 0.4687061309814453, 0.8619472980499268, 0.5740185379981995, 0.41326797008514404, 0.38291817903518677, 0.40850114822387695, 0.5861729979515076, 0.572460412979126, 0.548791766166687, 0.3843005895614624, 0.27627745270729065, 0.35077834129333496, 0.272803395986557, 0.4149669110774994, 0.14195561408996582, 0.36294811964035034, 0.3596324622631073, 0.2834438383579254, 0.3301778733730316, 0.26665520668029785, 0.18459972739219666, 0.1107625886797905, 0.18197424709796906, 0.05999311804771423, 0.017661215737462044, 0.01697310246527195, 0.06377408653497696, 0.05720115825533867, 0.01666196994483471, 0.012834607623517513, 0.0221590343862772, 0.07004964351654053, 0.11020439863204956, 0.13083982467651367, 0.08615689724683762, 0.19604842364788055, 0.42175018787384033, 0.05684881657361984, 0.049132972955703735, 0.08607535064220428, 0.21703216433525085, 0.029853932559490204, 0.015149789862334728, 0.017951542511582375, 0.010321334935724735, 0.011033158749341965, 0.009996311739087105, 0.007801937870681286, 0.006894242949783802, 0.007002491969615221, 0.009718392975628376, 0.00788265559822321, 0.004919069353491068, 0.0041540395468473434, 0.004582506138831377, 0.005036058835685253, 0.010542656295001507, 0.007552953902631998, 0.015129748731851578, 0.01938433013856411, 0.00955035537481308, 0.007796695921570063, 0.0077875591814517975]</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.8974376320838928</v>
+        <v>0.9425761103630066</v>
       </c>
       <c r="F209" t="n">
         <v>1</v>
@@ -8903,10 +8903,10 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0.6699958000099286</v>
+        <v>0.6747145999979693</v>
       </c>
       <c r="J209" t="n">
-        <v>0.005677930508558717</v>
+        <v>0.005717920338965842</v>
       </c>
     </row>
     <row r="210">
@@ -8925,11 +8925,11 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[0.8834056258201599, 0.9111769199371338, 0.8688832521438599, 0.9303135871887207, 0.9690941572189331, 0.968936026096344, 0.9614343643188477, 0.917851984500885, 0.9440391063690186, 0.9182882308959961, 0.9207214117050171, 0.848416268825531, 0.8775983452796936, 0.9177777767181396, 0.8868023753166199, 0.852226972579956, 0.8745802044868469, 0.7526988387107849, 0.8979858160018921, 0.9075130820274353, 0.9134659171104431, 0.9431649446487427, 0.8125578761100769, 0.7461546659469604, 0.6288011074066162, 0.5847972631454468, 0.7976906895637512, 0.8998956680297852, 0.9297395944595337, 0.8676400780677795, 0.9221932291984558, 0.8871277570724487, 0.8086071014404297, 0.6722784042358398, 0.8502311706542969, 0.8611183166503906, 0.80940181016922, 0.828635573387146, 0.7935871481895447, 0.9015358686447144, 0.8617730140686035, 0.892228364944458, 0.6632863283157349, 0.8668612837791443, 0.892257809638977, 0.5888012051582336, 0.637837827205658, 0.9534473419189453, 0.8738113045692444, 0.9147225022315979, 0.8189315795898438, 0.9371868968009949, 0.8755109310150146, 0.9264395236968994, 0.792159378528595, 0.951661229133606, 0.8136199712753296, 0.9436649084091187, 0.9063830971717834, 0.9638137817382812, 0.9728155732154846, 0.8960503935813904, 0.9738067388534546, 0.964522123336792, 0.9537053108215332, 0.9760410189628601, 0.9846252202987671, 0.9596396088600159, 0.9625914096832275, 0.9025658965110779, 0.8974822759628296, 0.9290778636932373, 0.9619385004043579, 0.8545260429382324, 0.7080416083335876, 0.8062123656272888, 0.8668076395988464, 0.9450452327728271, 0.9575973153114319, 0.9119017720222473, 0.8844679594039917, 0.8656110167503357, 0.9753665924072266, 0.9925770163536072, 0.9914793372154236, 0.9674732089042664, 0.9642094969749451, 0.9880934357643127, 0.9483025074005127, 0.9889310002326965, 0.9321101307868958, 0.9615901708602905, 0.9752203822135925, 0.9843846559524536, 0.9896999597549438, 0.9821258783340454, 0.9492073059082031, 0.9784678220748901, 0.9719766974449158, 0.9782894253730774, 0.9385349154472351, 0.9735914468765259, 0.9570841193199158, 0.9115002751350403, 0.8978202939033508, 0.9431027173995972, 0.932994544506073, 0.9569965600967407, 0.9362363815307617, 0.9695674180984497, 0.9646623134613037, 0.941250205039978, 0.8940739631652832, 0.907228946685791, 0.9847613573074341, 0.9636216759681702, 0.9817013740539551, 0.9180901646614075, 0.9542007446289062, 0.9818253517150879, 0.9436324238777161, 0.9543971419334412, 0.7894319891929626, 0.923585832118988, 0.86614990234375, 0.9219751954078674, 0.7345669865608215, 0.7748532891273499, 0.7103597521781921, 0.9588491916656494, 0.8300426006317139, 0.9279361963272095, 0.9003087878227234, 0.9662315845489502, 0.947144627571106, 0.9516198635101318, 0.9399740099906921, 0.96220463514328, 0.9271818995475769, 0.9270991086959839]</t>
+          <t>[0.8600308895111084, 0.8657121658325195, 0.8473066687583923, 0.9137899279594421, 0.959665834903717, 0.9638509750366211, 0.9664021134376526, 0.9046148061752319, 0.9330552220344543, 0.8876953125, 0.878023087978363, 0.7865703701972961, 0.845564603805542, 0.8833540081977844, 0.841810405254364, 0.7978103756904602, 0.8231558203697205, 0.6913900375366211, 0.9019807577133179, 0.9092634320259094, 0.8997126817703247, 0.9500872492790222, 0.587145209312439, 0.4977518618106842, 0.4108768105506897, 0.4614166021347046, 0.7032257914543152, 0.8637822866439819, 0.873633861541748, 0.8276344537734985, 0.9211398959159851, 0.8541398048400879, 0.7468221187591553, 0.5642567276954651, 0.8505511283874512, 0.8010175824165344, 0.746063232421875, 0.786656379699707, 0.7489604949951172, 0.8614348769187927, 0.8785881996154785, 0.9019855260848999, 0.6362026333808899, 0.8161112666130066, 0.8197794556617737, 0.4327220022678375, 0.509387195110321, 0.8874644041061401, 0.7843297719955444, 0.8606574535369873, 0.7645988464355469, 0.9415232539176941, 0.8009847402572632, 0.8945390582084656, 0.6771863698959351, 0.9308775067329407, 0.7209874987602234, 0.9079138040542603, 0.8482253551483154, 0.9456321001052856, 0.9679392576217651, 0.8525115847587585, 0.9612109661102295, 0.9305018186569214, 0.8809792995452881, 0.9646356701850891, 0.9738723039627075, 0.9154524207115173, 0.9204525947570801, 0.8396413326263428, 0.7745292782783508, 0.883463978767395, 0.900594174861908, 0.6644700765609741, 0.5793474316596985, 0.6020097136497498, 0.691115140914917, 0.8202436566352844, 0.9290303587913513, 0.8501986265182495, 0.8061482906341553, 0.7005405426025391, 0.9595403671264648, 0.9926068782806396, 0.9920841455459595, 0.9508352279663086, 0.9539409875869751, 0.9847906231880188, 0.9328425526618958, 0.9846328496932983, 0.8961707353591919, 0.9520353078842163, 0.9737721681594849, 0.9745784401893616, 0.987728476524353, 0.9774920344352722, 0.9292454123497009, 0.9653111696243286, 0.9609591364860535, 0.9722180962562561, 0.9158394932746887, 0.9605958461761475, 0.9149154424667358, 0.8580383062362671, 0.7812746167182922, 0.8831449747085571, 0.8644968271255493, 0.9043675065040588, 0.8258083462715149, 0.9442508816719055, 0.9206202626228333, 0.830547034740448, 0.7246436476707458, 0.8452527523040771, 0.9835024476051331, 0.9464284777641296, 0.976891815662384, 0.8727020025253296, 0.8998457789421082, 0.9760373830795288, 0.8949315547943115, 0.9315319061279297, 0.6765896081924438, 0.8905951380729675, 0.8523029685020447, 0.9054268598556519, 0.5752389430999756, 0.6236468553543091, 0.5440301299095154, 0.9396201968193054, 0.7152341604232788, 0.8821404576301575, 0.8126434087753296, 0.9324712157249451, 0.8909624814987183, 0.9326463341712952, 0.9202080368995667, 0.9424594044685364, 0.8719558119773865, 0.8718035817146301]</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.9925770163536072</v>
+        <v>0.9926068782806396</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
@@ -8943,10 +8943,10 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>0.7972582000074908</v>
+        <v>0.8281378999963636</v>
       </c>
       <c r="J210" t="n">
-        <v>0.005694701428624934</v>
+        <v>0.005915270714259739</v>
       </c>
     </row>
     <row r="211">
@@ -8965,11 +8965,11 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[0.95485919713974, 0.9642291069030762, 0.9024018049240112, 0.761529266834259, 0.5955342054367065, 0.8297624588012695, 0.6923356652259827, 0.8196907639503479, 0.9110414981842041, 0.8833537101745605, 0.8813149929046631, 0.9656418561935425, 0.9752126932144165, 0.9615971446037292, 0.955124020576477, 0.9310884475708008, 0.9669509530067444, 0.9575671553611755, 0.9479402899742126, 0.9722379446029663, 0.9844844341278076, 0.9788588285446167, 0.9818731546401978, 0.9850532412528992, 0.979042649269104, 0.9674311280250549, 0.9670385718345642, 0.9515495896339417, 0.9255121350288391, 0.900178849697113, 0.9313045144081116, 0.9335361123085022, 0.9127887487411499, 0.9307727217674255, 0.9009354114532471, 0.8963093757629395, 0.7724898457527161, 0.7774667143821716, 0.8987548351287842, 0.5856496095657349, 0.9199534058570862, 0.9644845128059387, 0.9038359522819519, 0.9727916121482849, 0.9003825783729553, 0.9636155962944031, 0.9479060173034668, 0.9294856786727905, 0.9062344431877136, 0.9524182081222534, 0.962192177772522, 0.973236083984375, 0.9649258255958557, 0.960084080696106, 0.9458854794502258, 0.9782408475875854, 0.9717077016830444, 0.9560609459877014, 0.9431637525558472, 0.9538918733596802, 0.9529733657836914, 0.9520061612129211, 0.9638195037841797, 0.9651647806167603, 0.9818384647369385, 0.9824816584587097, 0.982882559299469, 0.9756773114204407, 0.8598507642745972, 0.9653186202049255, 0.9246968030929565, 0.9021419286727905, 0.7882201671600342, 0.7187499403953552, 0.8976927995681763, 0.7629576325416565, 0.9276958107948303, 0.7909963726997375, 0.7089161276817322, 0.6321477890014648, 0.8992354869842529, 0.7161761522293091, 0.8239802122116089, 0.9013479948043823, 0.9166935086250305, 0.8511578440666199, 0.7283312678337097, 0.9418343901634216, 0.9677528142929077, 0.9445198178291321, 0.9478928446769714, 0.9267564415931702, 0.929297924041748, 0.8756160736083984, 0.9444801211357117, 0.8317417502403259, 0.7947643399238586, 0.6197000741958618, 0.9616485238075256, 0.9745420813560486, 0.9528439044952393, 0.9357390999794006, 0.7084954977035522, 0.9183894991874695, 0.912339448928833, 0.9024345278739929, 0.9624160528182983, 0.9428582787513733, 0.9577544331550598, 0.9506842494010925, 0.927914023399353, 0.879223644733429, 0.8926600813865662, 0.796842634677887, 0.8740328550338745, 0.9504823088645935, 0.9438436627388, 0.9302143454551697, 0.9850906133651733, 0.9745006561279297, 0.9406077265739441, 0.9616732001304626, 0.8818431496620178, 0.8819417953491211]</t>
+          <t>[0.9510815739631653, 0.9637420177459717, 0.8500001430511475, 0.5934746265411377, 0.374345064163208, 0.6987248063087463, 0.4977274537086487, 0.696409285068512, 0.7980263233184814, 0.7471942901611328, 0.7501062750816345, 0.9399174451828003, 0.9727915525436401, 0.9622809290885925, 0.9530412554740906, 0.8855447769165039, 0.9436585307121277, 0.9179649353027344, 0.9076944589614868, 0.9610567688941956, 0.9760658740997314, 0.9610528945922852, 0.9734859466552734, 0.9808417558670044, 0.9643513560295105, 0.9538435935974121, 0.9550845623016357, 0.9053345322608948, 0.8606403470039368, 0.859070897102356, 0.9173978567123413, 0.913205623626709, 0.9106626510620117, 0.9237208962440491, 0.8472822904586792, 0.8252883553504944, 0.6809690594673157, 0.6438812017440796, 0.7398982644081116, 0.4092210531234741, 0.8461617231369019, 0.920730471611023, 0.7887899279594421, 0.9367885589599609, 0.8104621171951294, 0.9326037168502808, 0.9383954405784607, 0.9137160778045654, 0.8638210892677307, 0.9080016016960144, 0.9055773019790649, 0.9516099095344543, 0.9399473667144775, 0.935428261756897, 0.9014244079589844, 0.9657372236251831, 0.958964467048645, 0.9322226047515869, 0.9130289554595947, 0.9251590967178345, 0.8974729776382446, 0.9314292073249817, 0.9597559571266174, 0.9514807462692261, 0.9731404781341553, 0.9809580445289612, 0.9740753173828125, 0.9723539352416992, 0.753554105758667, 0.9180606007575989, 0.8622781038284302, 0.8495158553123474, 0.6898394227027893, 0.6006502509117126, 0.798264741897583, 0.6629100441932678, 0.8045780658721924, 0.6279373168945312, 0.4858338534832001, 0.5516932010650635, 0.8140235543251038, 0.5116900205612183, 0.7100428342819214, 0.8429833054542542, 0.8603885769844055, 0.7685343027114868, 0.57122403383255, 0.901841938495636, 0.9566478729248047, 0.8886592984199524, 0.9019113183021545, 0.8869647979736328, 0.8547327518463135, 0.7764170169830322, 0.9020044207572937, 0.7174634337425232, 0.6956855058670044, 0.5304650664329529, 0.9345772862434387, 0.962919294834137, 0.9326379895210266, 0.8741925358772278, 0.5935563445091248, 0.8936833739280701, 0.8067305088043213, 0.8266831040382385, 0.9379861354827881, 0.8832977414131165, 0.9371094107627869, 0.9187242984771729, 0.8358389139175415, 0.8080868124961853, 0.8071005344390869, 0.7410323619842529, 0.8113430738449097, 0.9135563373565674, 0.8617626428604126, 0.8489828705787659, 0.9804946184158325, 0.9594044089317322, 0.8940830230712891, 0.937983512878418, 0.7509137392044067, 0.7506052255630493]</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.9850906133651733</v>
+        <v>0.9809580445289612</v>
       </c>
       <c r="F211" t="n">
         <v>1</v>
@@ -8983,10 +8983,10 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>0.6980816000141203</v>
+        <v>0.7088490000023739</v>
       </c>
       <c r="J211" t="n">
-        <v>0.005629690322694519</v>
+        <v>0.005716524193567532</v>
       </c>
     </row>
     <row r="212">
@@ -9005,11 +9005,11 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[0.14981062710285187, 0.25511184334754944, 0.24947550892829895, 0.10252607613801956, 0.10738232731819153, 0.13255566358566284, 0.1457948237657547, 0.28659212589263916, 0.13859404623508453, 0.13033148646354675, 0.3906192481517792, 0.17744959890842438, 0.1483958512544632, 0.24842672049999237, 0.10750208795070648, 0.09955985844135284, 0.07559768110513687, 0.12812182307243347, 0.1136130839586258, 0.09512491524219513, 0.12191373109817505, 0.14341941475868225, 0.2370413988828659, 0.3087111711502075, 0.1531931459903717, 0.162259042263031, 0.1808752417564392, 0.1716190129518509, 0.12961317598819733, 0.19469723105430603, 0.12293335050344467, 0.14024117588996887, 0.17034165561199188, 0.349963903427124, 0.27895525097846985, 0.18644770979881287, 0.09781544655561447, 0.09502432495355606, 0.1641983687877655, 0.10707570612430573, 0.14921940863132477, 0.19685254991054535, 0.1113860234618187, 0.11818258464336395, 0.11480265855789185, 0.11372251808643341, 0.10217692703008652, 0.33474281430244446, 0.2511724829673767, 0.19855332374572754, 0.49448418617248535, 0.223367840051651, 0.20496609807014465, 0.15070971846580505, 0.09755641222000122, 0.09625215828418732, 0.2066778987646103, 0.20085853338241577, 0.15345856547355652, 0.08082140237092972, 0.07530691474676132, 0.10079807788133621, 0.09241332113742828, 0.14745520055294037, 0.14657260477542877, 0.1443987786769867, 0.12431123107671738, 0.11538848280906677, 0.17779062688350677, 0.11732826381921768, 0.10860742628574371, 0.12594792246818542, 0.11859853565692902, 0.13643622398376465, 0.1613973081111908, 0.23821350932121277, 0.11473456025123596, 0.12759536504745483, 0.18624228239059448, 0.10584542155265808, 0.12597109377384186, 0.16936245560646057, 0.12005434930324554, 0.16541726887226105, 0.09896790981292725, 0.08545303344726562, 0.08163371682167053, 0.0726897269487381, 0.10722548514604568, 0.5408924221992493, 0.6150678396224976, 0.26069939136505127, 0.255504310131073, 0.19803333282470703, 0.23771531879901886, 0.24527643620967865, 0.18575938045978546, 0.16106173396110535, 0.11508198827505112, 0.14373895525932312, 0.17573249340057373, 0.18411478400230408, 0.13848328590393066, 0.16269619762897491, 0.11965309083461761, 0.11733365058898926, 0.19446736574172974, 0.20532192289829254, 0.2198311984539032, 0.13490425050258636, 0.2214997559785843, 0.16022296249866486, 0.18062838912010193, 0.17742103338241577, 0.1768713742494583, 0.16872848570346832, 0.13545142114162445, 0.1953374445438385, 0.18939174711704254, 0.17891669273376465, 0.2843131124973297, 0.15690159797668457, 0.1780741959810257, 0.17783236503601074]</t>
+          <t>[0.10514441132545471, 0.2229289412498474, 0.1804303377866745, 0.04688742011785507, 0.059688299894332886, 0.06035574525594711, 0.05616147816181183, 0.12063319236040115, 0.06748011708259583, 0.06338277459144592, 0.32749611139297485, 0.08648670464754105, 0.06872979551553726, 0.18477417528629303, 0.07154353708028793, 0.06287727504968643, 0.054781991988420486, 0.09339170157909393, 0.0619518868625164, 0.0523829460144043, 0.07316074520349503, 0.12398716062307358, 0.24928395450115204, 0.33728092908859253, 0.12440629303455353, 0.15136279165744781, 0.17712676525115967, 0.21964573860168457, 0.11549974232912064, 0.18262812495231628, 0.1307544708251953, 0.12187544256448746, 0.17393659055233002, 0.42264777421951294, 0.29799968004226685, 0.22232893109321594, 0.07451795041561127, 0.07094237953424454, 0.18581508100032806, 0.12341149151325226, 0.1730760633945465, 0.2377081662416458, 0.1007959395647049, 0.14423413574695587, 0.16846753656864166, 0.1305278241634369, 0.1384853720664978, 0.47280773520469666, 0.3197990655899048, 0.23127496242523193, 0.6954204440116882, 0.3434516191482544, 0.2613324224948883, 0.1929890364408493, 0.10360538959503174, 0.06942372769117355, 0.22006133198738098, 0.18912504613399506, 0.1037772074341774, 0.039611078798770905, 0.03654742240905762, 0.05145411938428879, 0.04898272082209587, 0.1049468144774437, 0.09490545839071274, 0.09277912974357605, 0.06615486741065979, 0.05993659794330597, 0.09912696480751038, 0.07802988588809967, 0.07332485914230347, 0.08624082803726196, 0.0785384252667427, 0.08962336927652359, 0.11820743978023529, 0.18789801001548767, 0.09050984680652618, 0.09915737062692642, 0.16606125235557556, 0.07413412630558014, 0.08458218723535538, 0.10567186027765274, 0.081942617893219, 0.1239989846944809, 0.06520993262529373, 0.04690128564834595, 0.040162794291973114, 0.044702526181936264, 0.08564820140600204, 0.5950400233268738, 0.5642158389091492, 0.2248675376176834, 0.29115909337997437, 0.17097081243991852, 0.26278451085090637, 0.2921667695045471, 0.17528191208839417, 0.16560275852680206, 0.10184454917907715, 0.12026648968458176, 0.14254502952098846, 0.2053431272506714, 0.09820166975259781, 0.1178695559501648, 0.09468185156583786, 0.09207901358604431, 0.2572082579135895, 0.17317967116832733, 0.1801149845123291, 0.09127037972211838, 0.20701034367084503, 0.11365015804767609, 0.09213266521692276, 0.11254717409610748, 0.12043581902980804, 0.0975063145160675, 0.07182248681783676, 0.110872782766819, 0.10864686220884323, 0.14164339005947113, 0.31230637431144714, 0.109673872590065, 0.15150275826454163, 0.15151891112327576]</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.6150678396224976</v>
+        <v>0.6954204440116882</v>
       </c>
       <c r="F212" t="n">
         <v>1</v>
@@ -9023,10 +9023,10 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0.8379217000037897</v>
+        <v>0.8306583999947179</v>
       </c>
       <c r="J212" t="n">
-        <v>0.006757433064546691</v>
+        <v>0.006698858064473532</v>
       </c>
     </row>
     <row r="213">
@@ -9045,11 +9045,11 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>[0.6691235303878784, 0.8343396782875061, 0.764521062374115, 0.8218227624893188, 0.622722327709198, 0.7127743363380432, 0.7650887966156006, 0.3842696249485016, 0.4923924207687378, 0.4396657645702362, 0.5997549295425415, 0.35792145133018494, 0.28915512561798096, 0.5472025871276855, 0.3628476858139038, 0.31195157766342163, 0.2697611451148987, 0.4253527522087097, 0.5842106938362122, 0.41575294733047485, 0.5685055255889893, 0.5820849537849426, 0.4137156903743744, 0.41854438185691833, 0.5989847779273987, 0.43454158306121826, 0.7390449643135071, 0.6896592974662781, 0.5684801340103149, 0.5211925506591797, 0.7428181767463684, 0.3691425621509552, 0.2646924555301666, 0.2936917245388031, 0.40740540623664856, 0.6131908893585205, 0.5365948677062988, 0.586934506893158, 0.5044492483139038, 0.5636979341506958, 0.7269280552864075, 0.5189915895462036, 0.38200643658638, 0.4209919273853302, 0.2955368757247925, 0.2861741781234741, 0.4276992082595825, 0.6057385206222534, 0.4947609603404999, 0.36688780784606934, 0.5666722059249878, 0.5777772665023804, 0.49312588572502136, 0.14860565960407257, 0.32234257459640503, 0.5292084217071533, 0.47849661111831665, 0.26909175515174866, 0.34722834825515747, 0.21455006301403046, 0.13616320490837097, 0.2188449651002884, 0.14209169149398804, 0.12036468833684921, 0.18747375905513763, 0.15170587599277496, 0.16756485402584076, 0.23640629649162292, 0.14550890028476715, 0.21648156642913818, 0.18530023097991943, 0.2594566345214844, 0.4252565801143646, 0.5004528760910034, 0.3302919566631317, 0.3443315923213959, 0.698470413684845, 0.4848487675189972, 0.4871136248111725, 0.6148675084114075, 0.7364108562469482, 0.5084481239318848, 0.35623782873153687, 0.3848513066768646, 0.4262303411960602, 0.28205761313438416, 0.26361191272735596, 0.3228165805339813, 0.2591545581817627, 0.2431049793958664, 0.16631890833377838, 0.167260080575943, 0.1691543161869049, 0.19420225918293, 0.19134052097797394, 0.2435130625963211, 0.1758628487586975, 0.21994122862815857, 0.48779264092445374, 0.36714428663253784, 0.4323449730873108, 0.5365282297134399, 0.38927626609802246, 0.38690704107284546, 0.2512652277946472, 0.2911650240421295, 0.5690157413482666, 0.6952279210090637, 0.6610351800918579, 0.8126910924911499, 0.5933374166488647, 0.4763520061969757, 0.6394396424293518, 0.6548163890838623, 0.44016221165657043, 0.4640601575374603, 0.42303141951560974, 0.417875736951828, 0.4129442274570465, 0.6745527386665344, 0.7505062222480774, 0.7749709486961365, 0.5720667243003845, 0.5757341384887695]</t>
+          <t>[0.5874680876731873, 0.8099798560142517, 0.6640390157699585, 0.7720799446105957, 0.410721093416214, 0.5274889469146729, 0.562869668006897, 0.17080248892307281, 0.24486461281776428, 0.21432344615459442, 0.4145405888557434, 0.21900177001953125, 0.20216313004493713, 0.389975905418396, 0.18634678423404694, 0.16786807775497437, 0.15430735051631927, 0.24812014400959015, 0.39745694398880005, 0.20830166339874268, 0.3768238425254822, 0.4436534643173218, 0.31698477268218994, 0.2676040530204773, 0.3904213309288025, 0.38078734278678894, 0.6256237030029297, 0.542918860912323, 0.48567384481430054, 0.39206552505493164, 0.5661046504974365, 0.26203635334968567, 0.12291862815618515, 0.1384001076221466, 0.2029585838317871, 0.39741960167884827, 0.3241983950138092, 0.32765674591064453, 0.3178873062133789, 0.3638235628604889, 0.5614147186279297, 0.3092590272426605, 0.21175284683704376, 0.21691329777240753, 0.14691966772079468, 0.14889700710773468, 0.23136232793331146, 0.41465646028518677, 0.38207510113716125, 0.2746546268463135, 0.44320449233055115, 0.5107640027999878, 0.37692683935165405, 0.07607204467058182, 0.14518481492996216, 0.3125838041305542, 0.32607144117355347, 0.11571350693702698, 0.17275866866111755, 0.12169492989778519, 0.060572657734155655, 0.12775899469852448, 0.08030947297811508, 0.07517286390066147, 0.1094372496008873, 0.0894990786910057, 0.08168519288301468, 0.14295879006385803, 0.08068346232175827, 0.11270176619291306, 0.11100401729345322, 0.1568830907344818, 0.20704209804534912, 0.24512821435928345, 0.14160293340682983, 0.1643035113811493, 0.44458791613578796, 0.20811527967453003, 0.29551035165786743, 0.42823347449302673, 0.5282449722290039, 0.3253566324710846, 0.256259948015213, 0.28186285495758057, 0.3316393196582794, 0.20325814187526703, 0.21772728860378265, 0.21112599968910217, 0.2248997688293457, 0.1659170687198639, 0.09996682405471802, 0.1072785034775734, 0.10678675025701523, 0.16053007543087006, 0.10517815500497818, 0.1476808339357376, 0.14384280145168304, 0.20753343403339386, 0.3956470489501953, 0.2981615960597992, 0.37903040647506714, 0.418644517660141, 0.24580800533294678, 0.24082139134407043, 0.20365741848945618, 0.23049673438072205, 0.40502750873565674, 0.5599387288093567, 0.3441224694252014, 0.7207149863243103, 0.4341995418071747, 0.2602168619632721, 0.42090651392936707, 0.5490845441818237, 0.2554836571216583, 0.32608574628829956, 0.25420060753822327, 0.24331311881542206, 0.27233660221099854, 0.523212194442749, 0.7069492340087891, 0.6221546530723572, 0.2969452738761902, 0.3004698157310486]</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.8343396782875061</v>
+        <v>0.8099798560142517</v>
       </c>
       <c r="F213" t="n">
         <v>1</v>
@@ -9063,10 +9063,10 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0.7247672000085004</v>
+        <v>0.7092602999910014</v>
       </c>
       <c r="J213" t="n">
-        <v>0.005844896774262099</v>
+        <v>0.005719841128959688</v>
       </c>
     </row>
     <row r="214">
@@ -9085,11 +9085,11 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>[0.9659382700920105, 0.9700470566749573, 0.9644339680671692, 0.9908431768417358, 0.9533189535140991, 0.8623694181442261, 0.9527016878128052, 0.9664842486381531, 0.9426723122596741, 0.9153560996055603, 0.9509487748146057, 0.9564169645309448, 0.9421986937522888, 0.8752609491348267, 0.9025030732154846, 0.8933596014976501, 0.9454877972602844, 0.9120116829872131, 0.9139754176139832, 0.8738457560539246, 0.9330391883850098, 0.9474625587463379, 0.9627602696418762, 0.9003384113311768, 0.960576057434082, 0.9855068922042847, 0.9759894609451294, 0.9670918583869934, 0.9223576188087463, 0.850782036781311, 0.9305311441421509, 0.9592328071594238, 0.979066789150238, 0.9579795002937317, 0.9315400123596191, 0.8670740723609924, 0.8935058116912842, 0.9900345206260681, 0.9828841686248779, 0.9770722389221191, 0.9861609935760498, 0.9815504550933838, 0.9893836379051208, 0.9884344339370728, 0.9785445928573608, 0.9727395176887512, 0.9712333083152771, 0.9655017256736755, 0.9815791845321655, 0.9876294136047363, 0.9888124465942383, 0.9785972237586975, 0.9606581330299377, 0.9319730997085571, 0.8944411277770996, 0.9358025789260864, 0.9742431044578552, 0.9680876135826111, 0.9686010479927063, 0.9815658330917358, 0.9893682599067688, 0.9849159717559814, 0.9844227433204651, 0.9922155737876892, 0.964301347732544, 0.9359645247459412, 0.9776018857955933, 0.9839140176773071, 0.9725770354270935, 0.9304652810096741, 0.843612790107727, 0.8628582954406738, 0.8729525804519653, 0.899271547794342, 0.9229164123535156, 0.9052911400794983, 0.9365593194961548, 0.9769887328147888, 0.9826425313949585, 0.9928334951400757, 0.9777379035949707, 0.9415220022201538, 0.9444652199745178, 0.9256884455680847, 0.9357253313064575, 0.9334730505943298, 0.8921597599983215, 0.8190730810165405, 0.7262085676193237, 0.6936049461364746, 0.7770914435386658, 0.7704443335533142, 0.8345980644226074, 0.8181541562080383, 0.8759497404098511, 0.9804025888442993, 0.9603516459465027, 0.9414050579071045, 0.9478002786636353, 0.9343327879905701, 0.9108684062957764, 0.9597830176353455, 0.9682340025901794, 0.9248035550117493, 0.8986929655075073, 0.9056193232536316, 0.919259786605835, 0.96551513671875, 0.960654079914093, 0.9525632262229919, 0.8763099312782288, 0.9464573860168457, 0.9418215751647949, 0.8995363116264343, 0.9155570864677429, 0.9490787386894226, 0.9768357276916504, 0.8672536611557007, 0.9682988524436951, 0.9509276151657104, 0.8911547660827637, 0.9391104578971863, 0.9267256855964661, 0.9254176020622253]</t>
+          <t>[0.9795836806297302, 0.9830628633499146, 0.9748575091362, 0.9927639365196228, 0.9713603854179382, 0.9309645891189575, 0.9834778904914856, 0.9893565773963928, 0.9694458246231079, 0.9426918029785156, 0.9721906185150146, 0.9721323847770691, 0.9718485474586487, 0.9289722442626953, 0.9258315563201904, 0.9192737936973572, 0.9537765979766846, 0.9282323122024536, 0.9434382915496826, 0.9255427718162537, 0.966479480266571, 0.9572763442993164, 0.9740598201751709, 0.927914023399353, 0.9750722646713257, 0.9892131686210632, 0.9820682406425476, 0.9762271046638489, 0.9446169137954712, 0.916728138923645, 0.9617475271224976, 0.9795193076133728, 0.9866956472396851, 0.969266951084137, 0.9506084322929382, 0.888841986656189, 0.9100692868232727, 0.9940239787101746, 0.9882645606994629, 0.9838479161262512, 0.9931778907775879, 0.9901272058486938, 0.9923918843269348, 0.9915736317634583, 0.9860745072364807, 0.9845422506332397, 0.9834288954734802, 0.9788452386856079, 0.988430380821228, 0.9922509789466858, 0.9917026162147522, 0.9840607047080994, 0.9694346189498901, 0.9515232443809509, 0.9151111841201782, 0.9509757161140442, 0.9855898022651672, 0.9786929488182068, 0.9772944450378418, 0.984356701374054, 0.9929454922676086, 0.9887194037437439, 0.9877298474311829, 0.9947893619537354, 0.9717103242874146, 0.9377256631851196, 0.9823203086853027, 0.988906741142273, 0.9748101830482483, 0.9383388757705688, 0.8761652708053589, 0.8635041117668152, 0.896234393119812, 0.9189372658729553, 0.9387903213500977, 0.8920513987541199, 0.9447234869003296, 0.9849480986595154, 0.989355206489563, 0.9947868585586548, 0.9816981554031372, 0.9514750838279724, 0.9632958769798279, 0.9525822401046753, 0.9523260593414307, 0.939513623714447, 0.902163565158844, 0.8463531136512756, 0.6956749558448792, 0.710548996925354, 0.8185546398162842, 0.7770728468894958, 0.820490837097168, 0.8255652189254761, 0.9235926866531372, 0.987272322177887, 0.9697792530059814, 0.9431895613670349, 0.9561743140220642, 0.9153943657875061, 0.8912366628646851, 0.9492670297622681, 0.9559324979782104, 0.9005327224731445, 0.8820821046829224, 0.8666948080062866, 0.8935531377792358, 0.9609056115150452, 0.933729887008667, 0.9408696889877319, 0.891314685344696, 0.9562874436378479, 0.9484809041023254, 0.9105158448219299, 0.9142937064170837, 0.9333001375198364, 0.9693886041641235, 0.8745837807655334, 0.9651088118553162, 0.9623081684112549, 0.9205971360206604, 0.9258246421813965, 0.8830760717391968, 0.8807413578033447]</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.9928334951400757</v>
+        <v>0.9947893619537354</v>
       </c>
       <c r="F214" t="n">
         <v>1</v>
@@ -9103,10 +9103,10 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>0.7008646999893244</v>
+        <v>0.7159716999885859</v>
       </c>
       <c r="J214" t="n">
-        <v>0.005652134677333261</v>
+        <v>0.005773965322488596</v>
       </c>
     </row>
     <row r="215">
@@ -9125,11 +9125,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>[0.9195502400398254, 0.9007132053375244, 0.8763613700866699, 0.8826424479484558, 0.8985044360160828, 0.9455973505973816, 0.8981111645698547, 0.935488760471344, 0.9395580291748047, 0.8420355319976807, 0.9800792336463928, 0.9711735844612122, 0.9569299817085266, 0.9907653331756592, 0.9945693016052246, 0.9955400824546814, 0.9940687417984009, 0.9948208332061768, 0.9954984188079834, 0.9965159893035889, 0.9945365190505981, 0.9910430908203125, 0.9922888875007629, 0.9894492626190186, 0.9883185625076294, 0.9937269687652588, 0.9916666150093079, 0.9946094751358032, 0.9908192753791809, 0.9921004176139832, 0.9913970232009888, 0.9933068156242371, 0.995899498462677, 0.991019070148468, 0.9905217885971069, 0.989468514919281, 0.9829856753349304, 0.9591483473777771, 0.9618667364120483, 0.982053279876709, 0.9813880920410156, 0.9699713587760925, 0.9711478352546692, 0.9689964652061462, 0.9544276595115662, 0.9711976647377014, 0.9762324094772339, 0.9658001661300659, 0.9656193852424622, 0.9677497744560242, 0.9842327833175659, 0.9830030798912048, 0.9772453904151917, 0.9852057099342346, 0.982905387878418, 0.9764395952224731, 0.9301046133041382, 0.924633800983429, 0.9548892974853516, 0.9531384706497192, 0.9641225934028625, 0.9650968313217163, 0.9768933653831482, 0.9692182540893555, 0.9636543393135071, 0.982353925704956, 0.9830070734024048, 0.9862977266311646, 0.9834330081939697, 0.9569876194000244, 0.9077319502830505, 0.9362356662750244, 0.9730238318443298, 0.9221499562263489, 0.9186974167823792, 0.8722444772720337, 0.8833072185516357, 0.8478628396987915, 0.8933234214782715, 0.8694526553153992, 0.9505797624588013, 0.9517462849617004, 0.9694064259529114, 0.987950325012207, 0.9467155337333679, 0.9010629057884216, 0.8274476528167725, 0.6724952459335327, 0.9352370500564575, 0.9821146726608276, 0.9632505178451538, 0.9496219754219055, 0.9200543165206909, 0.9200354218482971, 0.9136090874671936, 0.9624544978141785, 0.897991955280304, 0.9026654362678528, 0.8985307216644287, 0.9407314658164978, 0.9135341048240662, 0.888327956199646, 0.8868170976638794, 0.900501549243927, 0.9022246599197388, 0.8701865673065186, 0.9006708860397339, 0.902990460395813, 0.9506263136863708, 0.9674065113067627, 0.9741025567054749, 0.9424445033073425, 0.8271731734275818, 0.8949426412582397, 0.9492796659469604, 0.9392012357711792, 0.930565595626831, 0.9434818029403687, 0.8635817170143127, 0.797063410282135, 0.746052086353302, 0.5581623315811157, 0.9128754734992981, 0.9127607345581055]</t>
+          <t>[0.9193387031555176, 0.8941449522972107, 0.8741963505744934, 0.87705397605896, 0.9129642844200134, 0.9562962651252747, 0.9346871972084045, 0.9590340852737427, 0.9504764676094055, 0.8401849269866943, 0.9856401681900024, 0.9698665142059326, 0.9631170630455017, 0.9944173097610474, 0.9969391822814941, 0.9970666766166687, 0.9962276220321655, 0.9965837001800537, 0.9973063468933105, 0.9980286955833435, 0.9960988759994507, 0.9923620223999023, 0.993686854839325, 0.9884843230247498, 0.9859218001365662, 0.9950751662254333, 0.9916400909423828, 0.9963326454162598, 0.9929297566413879, 0.9948181509971619, 0.9943417310714722, 0.995107889175415, 0.9969350099563599, 0.9916375279426575, 0.9920961856842041, 0.9907873272895813, 0.982693612575531, 0.9438230991363525, 0.9402083158493042, 0.9767791032791138, 0.9834075570106506, 0.9668548703193665, 0.965435802936554, 0.967961847782135, 0.9560744762420654, 0.9702094197273254, 0.9757546782493591, 0.9589397311210632, 0.9617964625358582, 0.9628044366836548, 0.9853891730308533, 0.985648512840271, 0.9827948212623596, 0.9863815307617188, 0.985017716884613, 0.9758256077766418, 0.9023352861404419, 0.8969541192054749, 0.9489522576332092, 0.9259046316146851, 0.941288411617279, 0.9456166625022888, 0.9647604823112488, 0.9567126631736755, 0.9354210495948792, 0.9684774875640869, 0.9803580045700073, 0.9856336712837219, 0.9839029312133789, 0.9445602297782898, 0.8986750841140747, 0.926861047744751, 0.9678375124931335, 0.9122092723846436, 0.903211772441864, 0.8036860823631287, 0.8378657698631287, 0.7782340049743652, 0.8460980653762817, 0.7361718416213989, 0.9186359643936157, 0.9244145154953003, 0.9432105422019958, 0.9777039289474487, 0.8954357504844666, 0.8694952130317688, 0.7238596081733704, 0.5886227488517761, 0.9104189872741699, 0.9726431965827942, 0.9363343119621277, 0.9264083504676819, 0.838438868522644, 0.882658839225769, 0.8909556865692139, 0.9558736085891724, 0.8410497903823853, 0.862652599811554, 0.855802059173584, 0.9218887686729431, 0.8886299133300781, 0.8196044564247131, 0.7718336582183838, 0.7639366388320923, 0.809794545173645, 0.7915507555007935, 0.8282675743103027, 0.8055896162986755, 0.895481288433075, 0.9329554438591003, 0.9525624513626099, 0.876044511795044, 0.6473350524902344, 0.7734231948852539, 0.9223199486732483, 0.9045809507369995, 0.8668924570083618, 0.8948770761489868, 0.7838705778121948, 0.6217988729476929, 0.539565920829773, 0.35460159182548523, 0.8587334156036377, 0.8586713075637817]</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.9965159893035889</v>
+        <v>0.9980286955833435</v>
       </c>
       <c r="F215" t="n">
         <v>1</v>
@@ -9143,10 +9143,10 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>0.7338154000171926</v>
+        <v>0.7103984999994282</v>
       </c>
       <c r="J215" t="n">
-        <v>0.005917866129170908</v>
+        <v>0.005729020161285711</v>
       </c>
     </row>
     <row r="216">
@@ -9165,11 +9165,11 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>[0.3999732434749603, 0.8804053664207458, 0.4388420581817627, 0.5861623287200928, 0.5049536824226379, 0.7349473237991333, 0.5506585836410522, 0.2692849636077881, 0.41152626276016235, 0.5910475850105286, 0.7533418536186218, 0.49450311064720154, 0.8942891359329224, 0.8556339740753174, 0.5986335873603821, 0.6886004209518433, 0.6996487379074097, 0.8144559264183044, 0.7574954032897949, 0.7262261509895325, 0.8729575872421265, 0.5680733323097229, 0.717654287815094, 0.8032260537147522, 0.5142075419425964, 0.4442954957485199, 0.5098212957382202, 0.571556568145752, 0.6240285038948059, 0.5991154313087463, 0.41990941762924194, 0.47590509057044983, 0.3982643783092499, 0.18555814027786255, 0.307060182094574, 0.3638160228729248, 0.39418989419937134, 0.4249976873397827, 0.47693777084350586, 0.5139874815940857, 0.5001860857009888, 0.4473263621330261, 0.40497004985809326, 0.5752221941947937, 0.2621925175189972, 0.6450623273849487, 0.8219603300094604, 0.4019694924354553, 0.5523082613945007, 0.7035848498344421, 0.603645384311676, 0.2567490339279175, 0.4366942048072815, 0.6956601142883301, 0.5097619295120239, 0.7245803475379944, 0.5914508104324341, 0.44279956817626953, 0.46276625990867615, 0.3487735688686371, 0.7294149994850159, 0.7914956212043762, 0.7319309115409851, 0.7899866104125977, 0.8885422348976135, 0.7326285243034363, 0.5755928754806519, 0.5860913991928101, 0.5531091094017029, 0.8948704600334167, 0.7447869181632996, 0.7173216342926025, 0.7882908582687378, 0.8354583382606506, 0.9017053246498108, 0.8840265870094299, 0.7761127948760986, 0.5876011848449707, 0.8069365620613098, 0.8861140012741089, 0.7091735005378723, 0.6305691599845886, 0.6142674088478088, 0.8179395198822021, 0.7787668704986572, 0.7706731557846069, 0.9385156631469727, 0.6265577077865601, 0.8190593719482422, 0.6201651692390442, 0.696273148059845, 0.7245601415634155, 0.5147603154182434, 0.6076878309249878, 0.45339885354042053, 0.6851352453231812, 0.556623637676239, 0.614867627620697, 0.3520239591598511, 0.5037944912910461, 0.22149598598480225, 0.21622246503829956, 0.4733608663082123, 0.35264551639556885, 0.35303232073783875, 0.24291165173053741, 0.46387889981269836, 0.3009088337421417, 0.8500663638114929, 0.8397312760353088, 0.8320804834365845, 0.7170774340629578, 0.4941558539867401, 0.37360990047454834, 0.6951440572738647, 0.5690793395042419, 0.7238404750823975, 0.8178564310073853, 0.5572987794876099, 0.7183696627616882, 0.6029419302940369, 0.5591699481010437, 0.6664901971817017, 0.6664945483207703]</t>
+          <t>[0.3714542090892792, 0.8664460778236389, 0.37054479122161865, 0.4218936860561371, 0.39215242862701416, 0.6485400795936584, 0.3915926516056061, 0.11826606094837189, 0.2358986884355545, 0.55327308177948, 0.6879718899726868, 0.3220692276954651, 0.8793435096740723, 0.8286377191543579, 0.4462943375110626, 0.6712905168533325, 0.6033874750137329, 0.7526974081993103, 0.6826151013374329, 0.5853337049484253, 0.8165291547775269, 0.5115221738815308, 0.6881332993507385, 0.8464692831039429, 0.5046536922454834, 0.3876897692680359, 0.38016656041145325, 0.43878012895584106, 0.4056473672389984, 0.2990674376487732, 0.17631325125694275, 0.2669530212879181, 0.22262603044509888, 0.09162527322769165, 0.16650259494781494, 0.1996704339981079, 0.2809065878391266, 0.25843262672424316, 0.4193290174007416, 0.4094473421573639, 0.3621463179588318, 0.3613588809967041, 0.33611881732940674, 0.4551551342010498, 0.20340967178344727, 0.4896666407585144, 0.7046453952789307, 0.38950666785240173, 0.5669345855712891, 0.6314815878868103, 0.39623624086380005, 0.22191603481769562, 0.3133763372898102, 0.6182548403739929, 0.3641858696937561, 0.5589191913604736, 0.3125006854534149, 0.2514227032661438, 0.2229064255952835, 0.18532362580299377, 0.636080801486969, 0.7100565433502197, 0.5703314542770386, 0.7368877530097961, 0.8560638427734375, 0.711932361125946, 0.4742284417152405, 0.5739742517471313, 0.2920242249965668, 0.8626958131790161, 0.6998037695884705, 0.6464813947677612, 0.6059387922286987, 0.8091078996658325, 0.8971677422523499, 0.8553049564361572, 0.7812371253967285, 0.42454802989959717, 0.6486856341362, 0.79364413022995, 0.5144643187522888, 0.42706170678138733, 0.5164919495582581, 0.6409555077552795, 0.6602444648742676, 0.7570132613182068, 0.9049422144889832, 0.48847442865371704, 0.7229117751121521, 0.5736975073814392, 0.6221528053283691, 0.5267710089683533, 0.3446139991283417, 0.3773130774497986, 0.2898375689983368, 0.5970423221588135, 0.5064523220062256, 0.47932562232017517, 0.21740107238292694, 0.35113269090652466, 0.10973408818244934, 0.10229016840457916, 0.2751225233078003, 0.270752876996994, 0.20280158519744873, 0.11568893492221832, 0.23070460557937622, 0.27011314034461975, 0.7562998533248901, 0.7573469877243042, 0.6681256294250488, 0.4240383505821228, 0.21708674728870392, 0.1493895947933197, 0.5212001204490662, 0.3019285798072815, 0.5121574401855469, 0.6207910776138306, 0.30327552556991577, 0.4716288447380066, 0.3526037931442261, 0.33394306898117065, 0.5135840177536011, 0.5134192109107971]</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.9385156631469727</v>
+        <v>0.9049422144889832</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
@@ -9183,10 +9183,10 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0.7092552999965847</v>
+        <v>0.7102673000044888</v>
       </c>
       <c r="J216" t="n">
-        <v>0.00571980080642407</v>
+        <v>0.005727962096810394</v>
       </c>
     </row>
     <row r="217">
@@ -9205,11 +9205,11 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>[0.5671960115432739, 0.5264134407043457, 0.8855360746383667, 0.8649262189865112, 0.8469209671020508, 0.5319386124610901, 0.6194568872451782, 0.5006404519081116, 0.5615343451499939, 0.5133433938026428, 0.7789207696914673, 0.7616707682609558, 0.6350945234298706, 0.8151227831840515, 0.5619274973869324, 0.4356027841567993, 0.44071465730667114, 0.4879569709300995, 0.36022648215293884, 0.293444961309433, 0.33195760846138, 0.3939046263694763, 0.4685676693916321, 0.3440597951412201, 0.3175630569458008, 0.3285551965236664, 0.3405809998512268, 0.5464121103286743, 0.5265482664108276, 0.5708995461463928, 0.5530754327774048, 0.3964812755584717, 0.45926952362060547, 0.5677255988121033, 0.5136937499046326, 0.5009301900863647, 0.4502567946910858, 0.7532252669334412, 0.8928079009056091, 0.8583385348320007, 0.7019156813621521, 0.7704498767852783, 0.7875890135765076, 0.6024990081787109, 0.563663125038147, 0.6813238859176636, 0.624395489692688, 0.6224849820137024, 0.8090319633483887, 0.7869576215744019, 0.8313899040222168, 0.9198219776153564, 0.9359784126281738, 0.9431498646736145, 0.9275292754173279, 0.7637262344360352, 0.7789480686187744, 0.5976988673210144, 0.722946047782898, 0.7788877487182617, 0.5720649361610413, 0.6636547446250916, 0.5837569236755371, 0.7530959844589233, 0.8268353939056396, 0.9102060198783875, 0.9406546950340271, 0.9312372803688049, 0.9055187702178955, 0.7013161778450012, 0.7336623668670654, 0.7600571513175964, 0.4922829568386078, 0.3472352623939514, 0.4940163195133209, 0.29585888981819153, 0.31449204683303833, 0.4731295704841614, 0.36799901723861694, 0.29221540689468384, 0.41986897587776184, 0.44297489523887634, 0.6730599999427795, 0.6430461406707764, 0.6530340909957886, 0.5496949553489685, 0.48375093936920166, 0.6991499662399292, 0.7171558141708374, 0.9069464206695557, 0.8927243947982788, 0.9732784628868103, 0.9271217584609985, 0.8134068846702576, 0.5047169327735901, 0.5826054811477661, 0.7396015524864197, 0.8028867244720459, 0.8137877583503723, 0.6659346222877502, 0.6339566707611084, 0.8485778570175171, 0.567607581615448, 0.7250040769577026, 0.7674346566200256, 0.8122495412826538, 0.6254081726074219, 0.7230933904647827, 0.896081805229187, 0.919399082660675, 0.9404041171073914, 0.9487219452857971, 0.8878694176673889, 0.828639030456543, 0.9031292796134949, 0.885931134223938, 0.9193852543830872, 0.9355296492576599, 0.896415114402771, 0.9246848821640015, 0.9319635629653931, 0.960536003112793, 0.9404500722885132, 0.9406626224517822]</t>
+          <t>[0.4813922345638275, 0.5551344156265259, 0.8702170848846436, 0.8294510841369629, 0.8352664113044739, 0.49266353249549866, 0.6373579502105713, 0.4507085680961609, 0.5156951546669006, 0.4763734042644501, 0.7734254598617554, 0.7776100635528564, 0.6196828484535217, 0.7963643074035645, 0.47083771228790283, 0.33484017848968506, 0.3123817443847656, 0.4136519134044647, 0.2926117479801178, 0.1929449588060379, 0.26313096284866333, 0.29323065280914307, 0.40023931860923767, 0.23695291578769684, 0.2562704086303711, 0.2707054316997528, 0.2562907934188843, 0.4995935559272766, 0.5210976004600525, 0.5195890069007874, 0.5253704786300659, 0.3256658613681793, 0.33604881167411804, 0.48209571838378906, 0.3561815023422241, 0.29417118430137634, 0.29519474506378174, 0.5901489853858948, 0.8338466882705688, 0.7806757092475891, 0.5827613472938538, 0.6617574095726013, 0.706038236618042, 0.43872904777526855, 0.36686399579048157, 0.4295612573623657, 0.47937437891960144, 0.42391014099121094, 0.6079664826393127, 0.6621595621109009, 0.7641903162002563, 0.8849203586578369, 0.8826228380203247, 0.9330841898918152, 0.9258596897125244, 0.7068536281585693, 0.7724310159683228, 0.6066068410873413, 0.7298808097839355, 0.8052247166633606, 0.5658534169197083, 0.6423714756965637, 0.48127037286758423, 0.7191954255104065, 0.7669365406036377, 0.8531733751296997, 0.9291712045669556, 0.9090921878814697, 0.8856020569801331, 0.6859893202781677, 0.7075433135032654, 0.7343091368675232, 0.38448330760002136, 0.2749467194080353, 0.4570581912994385, 0.22857233881950378, 0.27084270119667053, 0.3791193962097168, 0.28314414620399475, 0.21324016153812408, 0.35299184918403625, 0.36930570006370544, 0.6039912700653076, 0.5712622404098511, 0.5900406837463379, 0.541973888874054, 0.3721994161605835, 0.7184816598892212, 0.7148706912994385, 0.8984789252281189, 0.8558435440063477, 0.9724329113960266, 0.8987861275672913, 0.7566407918930054, 0.37413570284843445, 0.5340439677238464, 0.7016834020614624, 0.7353043556213379, 0.8260816335678101, 0.6687338352203369, 0.5970182418823242, 0.7801875472068787, 0.38061490654945374, 0.5933433175086975, 0.6303582191467285, 0.7509233355522156, 0.665778398513794, 0.6540034413337708, 0.8688640594482422, 0.8955071568489075, 0.9352592825889587, 0.9400089383125305, 0.8928006887435913, 0.7919777035713196, 0.9029707312583923, 0.9022955894470215, 0.9238845109939575, 0.9400912523269653, 0.8795748353004456, 0.9053133130073547, 0.9269310235977173, 0.9463274478912354, 0.9210234880447388, 0.9210618734359741]</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.9732784628868103</v>
+        <v>0.9724329113960266</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
@@ -9223,10 +9223,10 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>0.6966351000010036</v>
+        <v>0.6993726000073366</v>
       </c>
       <c r="J217" t="n">
-        <v>0.005618025000008094</v>
+        <v>0.005640101612962392</v>
       </c>
     </row>
     <row r="218">
@@ -9245,11 +9245,11 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>[0.968949556350708, 0.9629145264625549, 0.9286091923713684, 0.9637364745140076, 0.9771671891212463, 0.9710349440574646, 0.9666669368743896, 0.9971086382865906, 0.9931936860084534, 0.9723857045173645, 0.951481819152832, 0.9437057375907898, 0.9408255815505981, 0.9439078569412231, 0.9077818393707275, 0.9056234359741211, 0.9312105178833008, 0.96343594789505, 0.9743179678916931, 0.9354683756828308, 0.9241790771484375, 0.9667032361030579, 0.9374422430992126, 0.8917289972305298, 0.8682000637054443, 0.9456475973129272, 0.8950197100639343, 0.922699511051178, 0.9476792812347412, 0.9502484202384949, 0.9310561418533325, 0.8655432462692261, 0.9468080997467041, 0.9146259427070618, 0.8965217471122742, 0.8236299753189087, 0.8996666669845581, 0.9649139642715454, 0.9839338660240173, 0.9743822813034058, 0.9557335376739502, 0.9218677282333374, 0.8975405693054199, 0.907618522644043, 0.909369707107544, 0.9046926498413086, 0.6983967423439026, 0.9319385290145874, 0.9507849216461182, 0.9357910752296448, 0.939284086227417, 0.9231497049331665, 0.9359033107757568, 0.9622483849525452, 0.856349527835846, 0.9441479444503784, 0.8954234719276428, 0.9203864336013794, 0.9269901514053345, 0.786051332950592, 0.8494443893432617, 0.7944017648696899, 0.9270738959312439, 0.8637239336967468, 0.9041898846626282, 0.8869066834449768, 0.9486809372901917, 0.9214968681335449, 0.9866589307785034, 0.9260368943214417, 0.9660469889640808, 0.974200427532196, 0.9585111737251282, 0.9208285212516785, 0.9512016177177429, 0.9224241375923157, 0.89191073179245, 0.9427573680877686, 0.9752877354621887, 0.9644472599029541, 0.9482966065406799, 0.9640517830848694, 0.9549236297607422, 0.9604068398475647, 0.9563350677490234, 0.9476417303085327, 0.9083036184310913, 0.9326339960098267, 0.9501588940620422, 0.8946501016616821, 0.8974488377571106, 0.9484545588493347, 0.930553674697876, 0.9553586840629578, 0.9604966640472412, 0.9493383169174194, 0.9552823901176453, 0.9760568141937256, 0.9440229535102844, 0.9427734613418579, 0.9433035850524902, 0.9326306581497192, 0.9257006645202637, 0.9272368550300598, 0.9169284701347351, 0.939702033996582, 0.9615671634674072, 0.9807217121124268, 0.9752150774002075, 0.9692426323890686, 0.9489428997039795, 0.9590662121772766, 0.9432987570762634, 0.9281979203224182, 0.9307067394256592, 0.9630656242370605, 0.8654686212539673, 0.9628729820251465, 0.9723832011222839, 0.9574626684188843, 0.9548408389091492, 0.970931351184845, 0.9813776612281799, 0.9814338088035583]</t>
+          <t>[0.9531193971633911, 0.9395719170570374, 0.873266875743866, 0.9469137787818909, 0.9775571823120117, 0.9654144644737244, 0.9646767377853394, 0.9971100687980652, 0.9924373030662537, 0.9609858393669128, 0.9302893877029419, 0.9285485744476318, 0.9414901733398438, 0.9401840567588806, 0.899753212928772, 0.8972684144973755, 0.9129663705825806, 0.9359566569328308, 0.9573594927787781, 0.8991269469261169, 0.8820148706436157, 0.9442151784896851, 0.9408899545669556, 0.8485486507415771, 0.829979419708252, 0.9391483068466187, 0.8873588442802429, 0.9337860345840454, 0.9256373643875122, 0.9441142678260803, 0.9098140001296997, 0.828770101070404, 0.9455704092979431, 0.8938737511634827, 0.8725665807723999, 0.7698420286178589, 0.8792961239814758, 0.9533222913742065, 0.9860756993293762, 0.9727645516395569, 0.9472337365150452, 0.8642041087150574, 0.874591052532196, 0.857746958732605, 0.8587965369224548, 0.8642358183860779, 0.6440291404724121, 0.9013572931289673, 0.9272922873497009, 0.8998187780380249, 0.9190980792045593, 0.8947715759277344, 0.9288380146026611, 0.9679020047187805, 0.8597887754440308, 0.942768931388855, 0.8713112473487854, 0.9069526195526123, 0.9173194169998169, 0.79611736536026, 0.8914294838905334, 0.8412610292434692, 0.9445096850395203, 0.8765833377838135, 0.8734933137893677, 0.8691788911819458, 0.9465134739875793, 0.897904098033905, 0.9876877665519714, 0.8943957090377808, 0.959337055683136, 0.96645587682724, 0.947624683380127, 0.9316633939743042, 0.9390933513641357, 0.91233891248703, 0.9055655598640442, 0.9465274214744568, 0.9687889814376831, 0.9435703158378601, 0.9234036803245544, 0.9504861831665039, 0.9494948983192444, 0.9402393698692322, 0.9394567012786865, 0.9311618208885193, 0.8579558730125427, 0.9101967215538025, 0.9279512763023376, 0.8695856332778931, 0.8294508457183838, 0.9413763284683228, 0.8716471791267395, 0.9435179829597473, 0.9392728209495544, 0.9358252882957458, 0.9572672843933105, 0.9772451519966125, 0.9486203193664551, 0.938685417175293, 0.9551094770431519, 0.9454251527786255, 0.9445109367370605, 0.926878809928894, 0.9087463021278381, 0.9243128895759583, 0.9564934372901917, 0.9782736897468567, 0.9758450388908386, 0.952483057975769, 0.9279575347900391, 0.9375145435333252, 0.9292932152748108, 0.9089266061782837, 0.9220711588859558, 0.961628794670105, 0.8519427180290222, 0.9361402988433838, 0.9421980977058411, 0.9175756573677063, 0.8924099206924438, 0.9564378261566162, 0.9704083800315857, 0.9704930186271667]</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.9971086382865906</v>
+        <v>0.9971100687980652</v>
       </c>
       <c r="F218" t="n">
         <v>1</v>
@@ -9263,10 +9263,10 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>0.693430699990131</v>
+        <v>0.7051462000090396</v>
       </c>
       <c r="J218" t="n">
-        <v>0.00559218306443654</v>
+        <v>0.005686662903298706</v>
       </c>
     </row>
     <row r="219">
@@ -9285,11 +9285,11 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>[0.9203195571899414, 0.8137763738632202, 0.8240780830383301, 0.9475731253623962, 0.8682214617729187, 0.9701406359672546, 0.9608848094940186, 0.9849574565887451, 0.8886898159980774, 0.7550527453422546, 0.9501826763153076, 0.9844028949737549, 0.9847389459609985, 0.9957059025764465, 0.9952400922775269, 0.992514431476593, 0.9167180061340332, 0.9718925952911377, 0.9749485850334167, 0.985836386680603, 0.9696348905563354, 0.9517896771430969, 0.9688681960105896, 0.9965574741363525, 0.9964912533760071, 0.9970861077308655, 0.994950532913208, 0.9934906959533691, 0.9267372488975525, 0.6669914722442627, 0.44851499795913696, 0.31249651312828064, 0.178182914853096, 0.40411725640296936, 0.6582080721855164, 0.9443260431289673, 0.8777362704277039, 0.9295823574066162, 0.9816976189613342, 0.9841204285621643, 0.9680933356285095, 0.9622522592544556, 0.9641825556755066, 0.9643451571464539, 0.9101824164390564, 0.991787850856781, 0.9970409274101257, 0.9936805963516235, 0.9932739734649658, 0.9938983917236328, 0.9950093030929565, 0.9829114675521851, 0.9640471339225769, 0.9810376763343811, 0.9512026906013489, 0.9586887359619141, 0.9555395245552063, 0.9695168733596802, 0.9592605829238892, 0.9822888374328613, 0.9460756778717041, 0.9336346983909607, 0.9653079509735107, 0.962919294834137, 0.9866227507591248, 0.9585931897163391, 0.8853148818016052, 0.9927948117256165, 0.9926170706748962, 0.9927934408187866, 0.9961450099945068, 0.9940029978752136, 0.9036704897880554, 0.8639720678329468, 0.9537897109985352, 0.9301331639289856, 0.9634272456169128, 0.9174182415008545, 0.9878331422805786, 0.9838688969612122, 0.9611033201217651, 0.9845580458641052, 0.9962984919548035, 0.9752046465873718, 0.9715486168861389, 0.9601739645004272, 0.9845603704452515, 0.9868632555007935, 0.996040940284729, 0.9858627915382385, 0.9486660361289978, 0.9219328761100769, 0.864247739315033, 0.8498647809028625, 0.8537417650222778, 0.8405813574790955, 0.8321078419685364, 0.9516139030456543, 0.9867618083953857, 0.9905757904052734, 0.9631686806678772, 0.9692384004592896, 0.9640675187110901, 0.9495509266853333, 0.929911732673645, 0.9941129088401794, 0.9980432987213135, 0.9959245920181274, 0.9925991296768188, 0.9917401075363159, 0.9917870163917542, 0.9956656098365784, 0.9967396855354309, 0.9977655410766602, 0.995614767074585, 0.961468517780304, 0.9128350615501404, 0.8493309020996094, 0.8989309668540955, 0.7488890290260315, 0.7563708424568176, 0.8738154172897339, 0.756970226764679, 0.7431541681289673, 0.7416599988937378]</t>
+          <t>[0.9470502138137817, 0.866888701915741, 0.8972111940383911, 0.9712706208229065, 0.8965898752212524, 0.97606360912323, 0.9529097080230713, 0.9762124419212341, 0.8793512582778931, 0.696331799030304, 0.945622444152832, 0.9818528294563293, 0.9841477870941162, 0.9967057108879089, 0.9952113032341003, 0.9925627112388611, 0.9273584485054016, 0.9802259206771851, 0.9752927422523499, 0.9883577227592468, 0.9597036242485046, 0.9424097537994385, 0.9720378518104553, 0.996661901473999, 0.9963172674179077, 0.997837483882904, 0.9961302280426025, 0.9941752552986145, 0.9582469463348389, 0.8130894303321838, 0.5122655034065247, 0.34957826137542725, 0.16396959125995636, 0.42114609479904175, 0.6907391548156738, 0.9401490688323975, 0.8909684419631958, 0.9118004441261292, 0.9858090281486511, 0.99009108543396, 0.9859431982040405, 0.9818382263183594, 0.9829323291778564, 0.9749307036399841, 0.9320248961448669, 0.9923277497291565, 0.9977989792823792, 0.9966586828231812, 0.9946736693382263, 0.9943504929542542, 0.9968235492706299, 0.9901902675628662, 0.9666792750358582, 0.989962637424469, 0.9541937112808228, 0.966529130935669, 0.9658593535423279, 0.9827837944030762, 0.9604403376579285, 0.9833404421806335, 0.9642582535743713, 0.9504215717315674, 0.9709540605545044, 0.9670233130455017, 0.992743730545044, 0.9767149090766907, 0.9401528835296631, 0.9944679737091064, 0.9949823021888733, 0.9943786263465881, 0.9975606203079224, 0.9951043128967285, 0.9371257424354553, 0.9007617831230164, 0.9494352340698242, 0.9359388947486877, 0.980346143245697, 0.937877893447876, 0.9922288060188293, 0.987261176109314, 0.9709847569465637, 0.9889003038406372, 0.9969095587730408, 0.9846668243408203, 0.9821688532829285, 0.9667820334434509, 0.992641270160675, 0.9923107624053955, 0.9976001381874084, 0.9894384741783142, 0.9625505805015564, 0.9187576174736023, 0.9366620779037476, 0.862659215927124, 0.9163258075714111, 0.8449166417121887, 0.8905237317085266, 0.9630501866340637, 0.9911880493164062, 0.993277370929718, 0.9724551439285278, 0.9588999152183533, 0.9574171900749207, 0.9373577833175659, 0.9363827109336853, 0.9964374303817749, 0.9991132616996765, 0.9975467324256897, 0.9949297308921814, 0.9952154159545898, 0.9934442043304443, 0.9977279305458069, 0.998543381690979, 0.9990150928497314, 0.997445821762085, 0.9675756692886353, 0.915690004825592, 0.8956245183944702, 0.9178528785705566, 0.7531720995903015, 0.7779978513717651, 0.865610659122467, 0.7945981621742249, 0.8043574690818787, 0.8034377098083496]</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.9980432987213135</v>
+        <v>0.9991132616996765</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
@@ -9303,10 +9303,10 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>0.6951077999838162</v>
+        <v>0.7002190000057453</v>
       </c>
       <c r="J219" t="n">
-        <v>0.00556086239987053</v>
+        <v>0.005601752000045963</v>
       </c>
     </row>
     <row r="220">
@@ -9325,11 +9325,11 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[0.9878796935081482, 0.8954142928123474, 0.9704621434211731, 0.8958318829536438, 0.9204622507095337, 0.9174433350563049, 0.865545928478241, 0.9868527054786682, 0.9643793106079102, 0.9367437958717346, 0.9384242296218872, 0.8946400880813599, 0.7442288994789124, 0.847018837928772, 0.954440176486969, 0.9332941174507141, 0.9049869179725647, 0.902481198310852, 0.9470697641372681, 0.9377134442329407, 0.9260120391845703, 0.9855097532272339, 0.9680068492889404, 0.9150160551071167, 0.9419596195220947, 0.9502439498901367, 0.9542074203491211, 0.9655781388282776, 0.984195351600647, 0.9659717679023743, 0.9602351784706116, 0.9500812888145447, 0.9013614654541016, 0.9333934783935547, 0.8399726152420044, 0.9240779876708984, 0.9265422821044922, 0.9188826084136963, 0.9124032258987427, 0.9086942076683044, 0.9508026838302612, 0.9716641902923584, 0.9717509746551514, 0.9677560329437256, 0.9376505613327026, 0.964931070804596, 0.9439645409584045, 0.9786933660507202, 0.9684867262840271, 0.9844610095024109, 0.9796797633171082, 0.978129506111145, 0.9726821184158325, 0.9687517285346985, 0.9837548136711121, 0.9888755083084106, 0.9771436452865601, 0.9893290400505066, 0.9731046557426453, 0.9730124473571777, 0.9863384366035461, 0.9777398705482483, 0.9385254383087158, 0.8831436634063721, 0.9466414451599121, 0.9581291079521179, 0.9826854467391968, 0.9553895592689514, 0.9742739796638489, 0.9564893841743469, 0.9047071933746338, 0.9330347776412964, 0.9488318562507629, 0.9003341794013977, 0.933987021446228, 0.9601172804832458, 0.9610706567764282, 0.9684016704559326, 0.9626034498214722, 0.9697307348251343, 0.9390526413917542, 0.8992559909820557, 0.8329960107803345, 0.9534797668457031, 0.9520126581192017, 0.8045018315315247, 0.8454451560974121, 0.9299237728118896, 0.9601425528526306, 0.9489645957946777, 0.9212107062339783, 0.8325640559196472, 0.8080276250839233, 0.8641525506973267, 0.9304113984107971, 0.9320881366729736, 0.9346705079078674, 0.962202787399292, 0.9659953713417053, 0.9814695119857788, 0.9666606783866882, 0.9720154404640198, 0.9251980781555176, 0.960273027420044, 0.9754154682159424, 0.9852508306503296, 0.9852907657623291, 0.9811278581619263, 0.9558945298194885, 0.9879122376441956, 0.9878407120704651, 0.9796278476715088, 0.963281512260437, 0.9243776798248291, 0.9546696543693542, 0.9599970579147339, 0.9773812294006348, 0.9794435501098633, 0.9561830163002014, 0.9353644251823425, 0.8941572904586792, 0.9824733734130859, 0.9896504878997803, 0.9895972609519958]</t>
+          <t>[0.977897584438324, 0.8022274971008301, 0.9077281355857849, 0.8173184990882874, 0.8776379823684692, 0.8576326370239258, 0.8055672645568848, 0.978690505027771, 0.9376214146614075, 0.8978042602539062, 0.9046822190284729, 0.855654239654541, 0.7381545901298523, 0.8301011323928833, 0.9382055997848511, 0.8827441334724426, 0.8673306703567505, 0.8629496693611145, 0.9142575860023499, 0.8935418725013733, 0.8665643334388733, 0.9613875150680542, 0.9214114546775818, 0.7747485041618347, 0.8822764754295349, 0.8764984607696533, 0.9102312326431274, 0.9219415783882141, 0.9674142003059387, 0.9451265931129456, 0.9362046718597412, 0.9038471579551697, 0.7979668378829956, 0.876934289932251, 0.7647765874862671, 0.8957436680793762, 0.8733907341957092, 0.8701788187026978, 0.8632336258888245, 0.803299605846405, 0.8908928632736206, 0.9360964894294739, 0.9484896063804626, 0.9355565309524536, 0.8995985388755798, 0.9323747158050537, 0.8809406161308289, 0.9569474458694458, 0.940839409828186, 0.9646530151367188, 0.9537072777748108, 0.9282779097557068, 0.8939838409423828, 0.907988429069519, 0.9616352915763855, 0.9746272563934326, 0.9438516497612, 0.9757810235023499, 0.9302140474319458, 0.9369319081306458, 0.9784996509552002, 0.9409809708595276, 0.8487063050270081, 0.751874566078186, 0.8971465229988098, 0.9055320620536804, 0.974159836769104, 0.9351276159286499, 0.9559618234634399, 0.9173973798751831, 0.8282037377357483, 0.8787553310394287, 0.9127503037452698, 0.8494020700454712, 0.9045052528381348, 0.9219433665275574, 0.9165969491004944, 0.8991119861602783, 0.8942524194717407, 0.9427762627601624, 0.8802725076675415, 0.8075171709060669, 0.7823266386985779, 0.9028738141059875, 0.9057760238647461, 0.7481270432472229, 0.7669364809989929, 0.8726828694343567, 0.9418817758560181, 0.9272862672805786, 0.8828600645065308, 0.7804684638977051, 0.7927032709121704, 0.8329133987426758, 0.9114195704460144, 0.914741039276123, 0.9094773530960083, 0.9417100548744202, 0.9554973840713501, 0.9739605188369751, 0.9545537829399109, 0.9637976884841919, 0.9007645845413208, 0.9595961570739746, 0.9619815349578857, 0.9771677851676941, 0.9739713668823242, 0.9700769782066345, 0.9379749298095703, 0.9778119921684265, 0.9876090288162231, 0.9781097769737244, 0.962317168712616, 0.9396103024482727, 0.9561419486999512, 0.9479315280914307, 0.9699857831001282, 0.9736827611923218, 0.9594936370849609, 0.9280010461807251, 0.8945973515510559, 0.9715366363525391, 0.9853057265281677, 0.9852313995361328]</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.9896504878997803</v>
+        <v>0.9876090288162231</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>0.6830996000207961</v>
+        <v>0.701532799997949</v>
       </c>
       <c r="J220" t="n">
-        <v>0.005508867742103194</v>
+        <v>0.005657522580628621</v>
       </c>
     </row>
     <row r="221">
@@ -9365,11 +9365,11 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>[0.3159783184528351, 0.6502734422683716, 0.3005991280078888, 0.35644179582595825, 0.3616579473018646, 0.4899263083934784, 0.7153732180595398, 0.49280765652656555, 0.31355613470077515, 0.4146834909915924, 0.5587993264198303, 0.46511197090148926, 0.4391479790210724, 0.4583761394023895, 0.27346232533454895, 0.26577579975128174, 0.39774224162101746, 0.7080224752426147, 0.268694669008255, 0.5020743608474731, 0.4532931447029114, 0.5118062496185303, 0.33644431829452515, 0.25324931740760803, 0.21275819838047028, 0.3388730585575104, 0.5289613008499146, 0.44349461793899536, 0.5817545056343079, 0.5009922385215759, 0.5683038234710693, 0.5232405662536621, 0.3103152811527252, 0.5113052725791931, 0.3588767945766449, 0.37318155169487, 0.3047019839286804, 0.24574945867061615, 0.29751497507095337, 0.19902463257312775, 0.38555803894996643, 0.3605153560638428, 0.34563159942626953, 0.6249104738235474, 0.4735938012599945, 0.33078712224960327, 0.4026206135749817, 0.33126115798950195, 0.22836603224277496, 0.4718617796897888, 0.509591817855835, 0.627068281173706, 0.5241268873214722, 0.27372729778289795, 0.3498304486274719, 0.28941068053245544, 0.35170185565948486, 0.4104349613189697, 0.6239491105079651, 0.5436088442802429, 0.4617481827735901, 0.30228355526924133, 0.3265741765499115, 0.36216118931770325, 0.408968061208725, 0.3794941008090973, 0.3778071999549866, 0.3165964186191559, 0.33337485790252686, 0.665457010269165, 0.7176551222801208, 0.48337361216545105, 0.41473299264907837, 0.20086510479450226, 0.1342250257730484, 0.24270793795585632, 0.7367385029792786, 0.8165748119354248, 0.6247126460075378, 0.4004584550857544, 0.48743516206741333, 0.48255655169487, 0.36995819211006165, 0.47636574506759644, 0.4104795455932617, 0.4738375246524811, 0.26191622018814087, 0.133869469165802, 0.34016773104667664, 0.38048219680786133, 0.3920050263404846, 0.5921216011047363, 0.6533960103988647, 0.5772019624710083, 0.4365028440952301, 0.46883276104927063, 0.49247249960899353, 0.3534705340862274, 0.31756776571273804, 0.5102576613426208, 0.7025960683822632, 0.6006941795349121, 0.4233013689517975, 0.7126572132110596, 0.48819226026535034, 0.8245799541473389, 0.7073739767074585, 0.5579906105995178, 0.5882269144058228, 0.3211976885795593, 0.27643489837646484, 0.44277504086494446, 0.28207099437713623, 0.25337404012680054, 0.309709757566452, 0.24861761927604675, 0.29688146710395813, 0.4354889392852783, 0.7708101868629456, 0.6525195240974426, 0.5246365666389465, 0.6032682657241821, 0.5737236142158508, 0.5749810338020325]</t>
+          <t>[0.3041854202747345, 0.5722253918647766, 0.339047372341156, 0.33778268098831177, 0.3842191696166992, 0.4409363269805908, 0.6326820850372314, 0.49452370405197144, 0.2920536994934082, 0.3443189263343811, 0.4857312738895416, 0.46556055545806885, 0.3533680737018585, 0.35571974515914917, 0.27000173926353455, 0.1900869607925415, 0.29387012124061584, 0.5947180986404419, 0.3301008641719818, 0.3644355535507202, 0.3976641297340393, 0.37322285771369934, 0.211720272898674, 0.1951896846294403, 0.1601153165102005, 0.3551972806453705, 0.54642254114151, 0.3880752921104431, 0.4462912976741791, 0.42194274067878723, 0.5240429639816284, 0.36058759689331055, 0.18414686620235443, 0.4130955636501312, 0.3659748136997223, 0.3534700870513916, 0.25368034839630127, 0.19886498153209686, 0.25448283553123474, 0.19269010424613953, 0.3437292277812958, 0.3211527168750763, 0.30881214141845703, 0.6849151849746704, 0.46348798274993896, 0.31847473978996277, 0.35629406571388245, 0.31355640292167664, 0.21885129809379578, 0.4947398602962494, 0.5384130477905273, 0.6204164028167725, 0.41848987340927124, 0.24976254999637604, 0.30878135561943054, 0.21079982817173004, 0.2920473515987396, 0.3872374892234802, 0.5466435551643372, 0.366388738155365, 0.3728884756565094, 0.2513003647327423, 0.25038501620292664, 0.3193325400352478, 0.45100095868110657, 0.29468274116516113, 0.27414312958717346, 0.24855472147464752, 0.3137129843235016, 0.650930643081665, 0.5892479419708252, 0.3978918194770813, 0.3611575663089752, 0.13296589255332947, 0.10853744298219681, 0.23774544894695282, 0.6851916909217834, 0.7502617835998535, 0.5427423715591431, 0.29423344135284424, 0.3435167968273163, 0.4346720576286316, 0.3733474016189575, 0.4575996994972229, 0.45949143171310425, 0.5834926962852478, 0.22216477990150452, 0.12373810261487961, 0.2929343283176422, 0.34708866477012634, 0.3541337549686432, 0.5073060393333435, 0.6145218014717102, 0.3882836699485779, 0.29950517416000366, 0.35783523321151733, 0.41008126735687256, 0.3098280429840088, 0.3286404609680176, 0.43074890971183777, 0.7120276093482971, 0.5234018564224243, 0.29662856459617615, 0.5318850874900818, 0.3950284719467163, 0.7106327414512634, 0.5707328915596008, 0.5786811113357544, 0.500980794429779, 0.2608015239238739, 0.20245619118213654, 0.3198571503162384, 0.2853585481643677, 0.22420118749141693, 0.27099910378456116, 0.17597945034503937, 0.31732919812202454, 0.41703978180885315, 0.668281614780426, 0.5873854756355286, 0.4394354522228241, 0.6095147132873535, 0.6020602583885193, 0.6006084680557251]</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.8245799541473389</v>
+        <v>0.7502617835998535</v>
       </c>
       <c r="F221" t="n">
         <v>1</v>
@@ -9383,10 +9383,10 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>0.69949539998197</v>
+        <v>0.6982437999977265</v>
       </c>
       <c r="J221" t="n">
-        <v>0.005641091935338467</v>
+        <v>0.00563099838707844</v>
       </c>
     </row>
     <row r="222">
@@ -9405,11 +9405,11 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>[0.7714653015136719, 0.8310444951057434, 0.8742718696594238, 0.829712986946106, 0.7471756935119629, 0.7161648869514465, 0.5552423000335693, 0.8202673196792603, 0.7925362586975098, 0.7698360681533813, 0.8013321757316589, 0.7939720153808594, 0.7387871742248535, 0.7039501070976257, 0.747169554233551, 0.5235296487808228, 0.39673495292663574, 0.30831947922706604, 0.5412588119506836, 0.6580731868743896, 0.5449170470237732, 0.6210261583328247, 0.3197217583656311, 0.3333589434623718, 0.6339204907417297, 0.8494139909744263, 0.8401076793670654, 0.4418885111808777, 0.5305334329605103, 0.6751089692115784, 0.5492769479751587, 0.7039640545845032, 0.6994232535362244, 0.6256642937660217, 0.3424808084964752, 0.37788504362106323, 0.2431822270154953, 0.4782538414001465, 0.4655593931674957, 0.5229609608650208, 0.7467185258865356, 0.584135115146637, 0.41139522194862366, 0.47869017720222473, 0.49905505776405334, 0.6780726313591003, 0.6089880466461182, 0.7249134182929993, 0.6167092323303223, 0.7293712496757507, 0.4468420147895813, 0.6296969056129456, 0.470734566450119, 0.5870745182037354, 0.6220220327377319, 0.735876202583313, 0.5559273362159729, 0.6866321563720703, 0.36940518021583557, 0.4035662114620209, 0.3934146463871002, 0.5654289722442627, 0.585965096950531, 0.6797024011611938, 0.5868831276893616, 0.7897633910179138, 0.484686940908432, 0.8240718245506287, 0.4861564040184021, 0.4711639881134033, 0.43840086460113525, 0.6164335012435913, 0.637439489364624, 0.8320375680923462, 0.8399683237075806, 0.6630616188049316, 0.7678356766700745, 0.31106242537498474, 0.42478662729263306, 0.4551798701286316, 0.35586777329444885, 0.42494845390319824, 0.44996410608291626, 0.2879153788089752, 0.23546089231967926, 0.4509979784488678, 0.610255241394043, 0.7399672865867615, 0.581797182559967, 0.5233454704284668, 0.729529082775116, 0.7952298521995544, 0.8831783533096313, 0.8886626958847046, 0.7688513994216919, 0.6744690537452698, 0.7769036889076233, 0.923772394657135, 0.9593555927276611, 0.8473608493804932, 0.6404207348823547, 0.6805412173271179, 0.5195142030715942, 0.493388831615448, 0.6943183541297913, 0.5851151943206787, 0.8945648074150085, 0.6440245509147644, 0.6282609701156616, 0.9023250937461853, 0.828925609588623, 0.8020280003547668, 0.8018832206726074, 0.7130637168884277, 0.8721218705177307, 0.8102635145187378, 0.7339949607849121, 0.8449273705482483, 0.7787467837333679, 0.7119329571723938, 0.8428962230682373, 0.8920212388038635, 0.6786729693412781, 0.6756717562675476]</t>
+          <t>[0.6884949207305908, 0.7710469961166382, 0.8627054691314697, 0.8339654803276062, 0.6735603213310242, 0.5405417680740356, 0.34960228204727173, 0.7573577165603638, 0.7039632201194763, 0.6453495025634766, 0.7172629833221436, 0.617014467716217, 0.5418370366096497, 0.5686066746711731, 0.6226325631141663, 0.3922966718673706, 0.2531844973564148, 0.1533188372850418, 0.35160762071609497, 0.6292948126792908, 0.3238811194896698, 0.4380508363246918, 0.16475097835063934, 0.16348031163215637, 0.46554720401763916, 0.7633417844772339, 0.7786659598350525, 0.2217683643102646, 0.4809730052947998, 0.5973527431488037, 0.3306101858615875, 0.6560377478599548, 0.6180934906005859, 0.4519030451774597, 0.18975335359573364, 0.20973673462867737, 0.1482277512550354, 0.3026222586631775, 0.28506267070770264, 0.3249305784702301, 0.6692028641700745, 0.3860262930393219, 0.1689949333667755, 0.23412229120731354, 0.26224955916404724, 0.5555048584938049, 0.499891996383667, 0.6369683146476746, 0.41375303268432617, 0.6462692022323608, 0.30107295513153076, 0.5272610783576965, 0.34177517890930176, 0.37604987621307373, 0.4554795026779175, 0.6277653574943542, 0.4222370386123657, 0.6993712782859802, 0.2167779952287674, 0.24587208032608032, 0.22363519668579102, 0.47325530648231506, 0.4692850708961487, 0.6076717972755432, 0.5087397694587708, 0.5493411421775818, 0.3051176965236664, 0.7481611967086792, 0.2743370234966278, 0.23828724026679993, 0.25240689516067505, 0.397977352142334, 0.4301753044128418, 0.7419537901878357, 0.7749819159507751, 0.451567143201828, 0.49319586157798767, 0.15169863402843475, 0.2664337754249573, 0.3448571562767029, 0.1430089920759201, 0.28614240884780884, 0.2899729609489441, 0.20637427270412445, 0.09854716807603836, 0.2731427550315857, 0.45096468925476074, 0.5764712691307068, 0.4886621832847595, 0.31146493554115295, 0.47402921319007874, 0.6386810541152954, 0.7899588942527771, 0.8595626950263977, 0.7457464337348938, 0.540823221206665, 0.4758349359035492, 0.8541167974472046, 0.9154481887817383, 0.7626485824584961, 0.4850013554096222, 0.6130092740058899, 0.32354792952537537, 0.34685155749320984, 0.4995454251766205, 0.37664201855659485, 0.9120712876319885, 0.4162590801715851, 0.3151485025882721, 0.8068015575408936, 0.7163257002830505, 0.6713429093360901, 0.7224871516227722, 0.5764861702919006, 0.7543222308158875, 0.7814645767211914, 0.5707247853279114, 0.816775381565094, 0.615148663520813, 0.5448447465896606, 0.8264042139053345, 0.8976486325263977, 0.5634468793869019, 0.5563462972640991]</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.9593555927276611</v>
+        <v>0.9154481887817383</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -9423,10 +9423,10 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>0.7215420000138693</v>
+        <v>0.7385684000037145</v>
       </c>
       <c r="J222" t="n">
-        <v>0.005818887096886043</v>
+        <v>0.005956196774223504</v>
       </c>
     </row>
     <row r="223">
@@ -9445,11 +9445,11 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>[0.9258180856704712, 0.9405120015144348, 0.8294499516487122, 0.976729691028595, 0.9381223917007446, 0.9406640529632568, 0.8832880854606628, 0.9592782258987427, 0.8717418313026428, 0.9569362998008728, 0.9514613151550293, 0.9645093679428101, 0.9226459860801697, 0.9354841709136963, 0.8732302784919739, 0.9009335041046143, 0.9494405388832092, 0.9561454057693481, 0.911198079586029, 0.9372653365135193, 0.9793253540992737, 0.9722598195075989, 0.9026763439178467, 0.982399046421051, 0.9828236103057861, 0.9660394191741943, 0.9825730323791504, 0.9757830500602722, 0.9237825870513916, 0.9364330768585205, 0.9377433061599731, 0.9248719215393066, 0.857012927532196, 0.9409463405609131, 0.7788484692573547, 0.9153649210929871, 0.9396551847457886, 0.9200971126556396, 0.9545314908027649, 0.984618604183197, 0.8703535199165344, 0.9467251896858215, 0.7775047421455383, 0.9451444745063782, 0.862615168094635, 0.9558144211769104, 0.8643470406532288, 0.9676192998886108, 0.8886152505874634, 0.7618139982223511, 0.9061317443847656, 0.9690754413604736, 0.9476398229598999, 0.9682213664054871, 0.9349180459976196, 0.9543114900588989, 0.9099160432815552, 0.9505892395973206, 0.9235787391662598, 0.9223213791847229, 0.8563984036445618, 0.7782228589057922, 0.6543679237365723, 0.7563902735710144, 0.6018726825714111, 0.7442958950996399, 0.8267725706100464, 0.926633358001709, 0.9563835263252258, 0.9292982220649719, 0.9227811694145203, 0.9496092796325684, 0.9279524087905884, 0.9557772278785706, 0.8821174502372742, 0.8712601065635681, 0.824229896068573, 0.8682036399841309, 0.6270577311515808, 0.7350733280181885, 0.7868455648422241, 0.8805510401725769, 0.6989976763725281, 0.8411322832107544, 0.9483487010002136, 0.9238206148147583, 0.9799491763114929, 0.9156610369682312, 0.9737347364425659, 0.9535773992538452, 0.9488884806632996, 0.9390988945960999, 0.9348126649856567, 0.9252383708953857, 0.9439547657966614, 0.9830979704856873, 0.9800952672958374, 0.9847760796546936, 0.9774484038352966, 0.9813004732131958, 0.9478689432144165, 0.9457228183746338, 0.9405670166015625, 0.9384374618530273, 0.9157466292381287, 0.9643557667732239, 0.9501325488090515, 0.9549503922462463, 0.8724660873413086, 0.9259399175643921, 0.7831836342811584, 0.8890153169631958, 0.9212369918823242, 0.9293844103813171, 0.8519484996795654, 0.8547921776771545, 0.850409209728241, 0.8911784887313843, 0.8799582123756409, 0.9120084643363953, 0.7651856541633606, 0.8054965138435364, 0.6632271409034729, 0.6637797951698303, 0.6634876132011414]</t>
+          <t>[0.9519233107566833, 0.96977698802948, 0.9042439460754395, 0.9867368340492249, 0.9612685441970825, 0.9705139398574829, 0.9136108756065369, 0.9714078307151794, 0.9161961078643799, 0.9750359654426575, 0.9638264775276184, 0.9739425182342529, 0.9356319904327393, 0.9676593542098999, 0.8829988837242126, 0.9147586822509766, 0.9477131366729736, 0.9706329703330994, 0.9434345960617065, 0.9585654735565186, 0.983608067035675, 0.9829978942871094, 0.907394289970398, 0.9858351349830627, 0.9872857928276062, 0.9779768586158752, 0.9895156621932983, 0.9808737635612488, 0.952393114566803, 0.956760048866272, 0.9513015151023865, 0.9552236795425415, 0.9328070878982544, 0.9767178893089294, 0.855150043964386, 0.9404981732368469, 0.9373174905776978, 0.9526849389076233, 0.9773702025413513, 0.9892654418945312, 0.91884446144104, 0.9675094485282898, 0.8677117228507996, 0.967154324054718, 0.921930730342865, 0.9710614085197449, 0.9467462301254272, 0.9838393926620483, 0.9238829016685486, 0.8407785892486572, 0.9578734040260315, 0.9809580445289612, 0.9599390625953674, 0.9774873852729797, 0.9425380825996399, 0.9653290510177612, 0.9098452925682068, 0.9650460481643677, 0.9295207858085632, 0.9310588836669922, 0.9112405180931091, 0.8621184229850769, 0.6918734908103943, 0.7507938742637634, 0.5808201432228088, 0.7967239022254944, 0.8741355538368225, 0.9396830797195435, 0.9638621807098389, 0.9573573470115662, 0.9482784867286682, 0.9706649780273438, 0.944347620010376, 0.979107141494751, 0.9014859199523926, 0.9127405881881714, 0.8645915389060974, 0.8959749937057495, 0.5552181601524353, 0.7809526920318604, 0.8091294169425964, 0.9279636144638062, 0.7332501411437988, 0.936072826385498, 0.9679985642433167, 0.9642605781555176, 0.9923991560935974, 0.972007691860199, 0.9909289479255676, 0.9792038202285767, 0.9830825328826904, 0.9701529741287231, 0.9668704867362976, 0.9575920701026917, 0.9542875289916992, 0.9876642823219299, 0.9851306080818176, 0.9911563396453857, 0.9831074476242065, 0.9885184168815613, 0.9672854542732239, 0.9642813205718994, 0.9452653527259827, 0.9483940601348877, 0.9526190161705017, 0.9756709337234497, 0.9498602151870728, 0.9533486366271973, 0.8541370630264282, 0.9328030347824097, 0.8015151619911194, 0.8961101174354553, 0.9106611609458923, 0.9114283323287964, 0.8217876553535461, 0.8772915005683899, 0.8605241775512695, 0.8940826654434204, 0.8978399038314819, 0.898674726486206, 0.6908281445503235, 0.7907984256744385, 0.6332130432128906, 0.5810181498527527, 0.5822210311889648]</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.9847760796546936</v>
+        <v>0.9923991560935974</v>
       </c>
       <c r="F223" t="n">
         <v>1</v>
@@ -9463,10 +9463,10 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>0.7186001000227407</v>
+        <v>0.7237199999945005</v>
       </c>
       <c r="J223" t="n">
-        <v>0.005748800800181925</v>
+        <v>0.005789759999956005</v>
       </c>
     </row>
     <row r="224">
@@ -9485,11 +9485,11 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>[0.983674943447113, 0.9869042038917542, 0.9955300688743591, 0.9964507818222046, 0.9951311349868774, 0.995505690574646, 0.9927298426628113, 0.9943022727966309, 0.9914679527282715, 0.9942171573638916, 0.9911871552467346, 0.9875118732452393, 0.9921446442604065, 0.9890111684799194, 0.9921735525131226, 0.9912989735603333, 0.992854654788971, 0.9879531264305115, 0.9853295683860779, 0.9870972633361816, 0.9854575395584106, 0.9869757294654846, 0.9829509854316711, 0.9896941184997559, 0.975013792514801, 0.9857444167137146, 0.9625226259231567, 0.9852541089057922, 0.9515554308891296, 0.9400259256362915, 0.9518564343452454, 0.9467628002166748, 0.9678212404251099, 0.958500325679779, 0.9721179604530334, 0.9724953770637512, 0.9555975794792175, 0.8791435956954956, 0.9280808568000793, 0.9047157168388367, 0.7678490281105042, 0.8933104872703552, 0.7731192708015442, 0.8046652674674988, 0.8455637693405151, 0.9205138683319092, 0.8796484470367432, 0.8868952989578247, 0.8099230527877808, 0.9456883072853088, 0.937945544719696, 0.8858736753463745, 0.9589098691940308, 0.9737235307693481, 0.9644851684570312, 0.9145844578742981, 0.956573486328125, 0.985645592212677, 0.9741332530975342, 0.9845603704452515, 0.9805506467819214, 0.9692212343215942, 0.9115733504295349, 0.8760265111923218, 0.9022000432014465, 0.9772591590881348, 0.9823764562606812, 0.9838463068008423, 0.9906524419784546, 0.9543206095695496, 0.9493046998977661, 0.9721827507019043, 0.9601165056228638, 0.9662558436393738, 0.9524170160293579, 0.9551690816879272, 0.9046013355255127, 0.9214177131652832, 0.9740936160087585, 0.970112681388855, 0.8578961491584778, 0.9095927476882935, 0.9358490109443665, 0.8932298421859741, 0.9380929470062256, 0.9471913576126099, 0.9309498071670532, 0.961830198764801, 0.9803966283798218, 0.9398378133773804, 0.9793158173561096, 0.9765304923057556, 0.9688858389854431, 0.9806383848190308, 0.9643080234527588, 0.9411459565162659, 0.8869563341140747, 0.9544761180877686, 0.9903584122657776, 0.9785394668579102, 0.9586563110351562, 0.9751821160316467, 0.9882314801216125, 0.9702596664428711, 0.9940225481987, 0.9757155179977417, 0.9404304623603821, 0.9792948961257935, 0.9877853393554688, 0.9833014011383057, 0.9714794158935547, 0.970858097076416, 0.9532952308654785, 0.9636718034744263, 0.9738308191299438, 0.9811424612998962, 0.9679392576217651, 0.9595290422439575, 0.8950419425964355, 0.9574347734451294, 0.883927047252655, 0.8867799043655396, 0.8794596195220947, 0.8898233771324158]</t>
+          <t>[0.9934513568878174, 0.9955854415893555, 0.9982118606567383, 0.998704195022583, 0.9978830218315125, 0.9978106617927551, 0.9960590600967407, 0.9976657629013062, 0.9968271851539612, 0.9970445036888123, 0.9947939515113831, 0.9931240677833557, 0.9956501126289368, 0.9926432967185974, 0.9957380294799805, 0.9954618811607361, 0.9958980679512024, 0.9906540513038635, 0.9913056492805481, 0.9935524463653564, 0.9934715032577515, 0.99207603931427, 0.9878448843955994, 0.9950588941574097, 0.9831901788711548, 0.993614137172699, 0.9799838662147522, 0.992345929145813, 0.9775260090827942, 0.9724032878875732, 0.9787035584449768, 0.9632208943367004, 0.9809828400611877, 0.9785082340240479, 0.9879178404808044, 0.9895055890083313, 0.9782480597496033, 0.9294878244400024, 0.9682543277740479, 0.9526931643486023, 0.867422878742218, 0.9571982622146606, 0.8794856667518616, 0.8848819136619568, 0.9006101489067078, 0.9510543942451477, 0.939791202545166, 0.9147588014602661, 0.8517534732818604, 0.9709646105766296, 0.9716666340827942, 0.9527251720428467, 0.9742909669876099, 0.9836633205413818, 0.979945719242096, 0.9463309645652771, 0.9629194736480713, 0.9910503625869751, 0.9843798875808716, 0.9908734560012817, 0.9883529543876648, 0.9829533100128174, 0.9071112275123596, 0.8596635460853577, 0.8810071349143982, 0.9866033792495728, 0.9876438975334167, 0.9898874163627625, 0.9943985342979431, 0.971538245677948, 0.9705515503883362, 0.9824167490005493, 0.9693865776062012, 0.9734569787979126, 0.9591185450553894, 0.9668903350830078, 0.911303699016571, 0.8911227583885193, 0.9679678678512573, 0.9612402319908142, 0.7864022850990295, 0.8653382658958435, 0.9092899560928345, 0.8535112142562866, 0.9472998380661011, 0.9604153633117676, 0.9507486820220947, 0.9700354933738708, 0.9794924259185791, 0.9451029300689697, 0.9847011566162109, 0.9844599962234497, 0.9782884120941162, 0.9871532320976257, 0.9733796119689941, 0.9516458511352539, 0.9213798642158508, 0.9618415832519531, 0.9937921166419983, 0.9827960133552551, 0.9707698822021484, 0.9842233061790466, 0.9932122230529785, 0.978718638420105, 0.9962565898895264, 0.9760873317718506, 0.9534530639648438, 0.9809237718582153, 0.9906147718429565, 0.9839708209037781, 0.9780279994010925, 0.9706172347068787, 0.9564961194992065, 0.9489006400108337, 0.9688363075256348, 0.9762601256370544, 0.9498285055160522, 0.9367387890815735, 0.7766764163970947, 0.9462613463401794, 0.7363705039024353, 0.8366073369979858, 0.853681743144989, 0.8634862303733826]</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.9964507818222046</v>
+        <v>0.998704195022583</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -9503,10 +9503,10 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>0.69842620001873</v>
+        <v>0.7077201999927638</v>
       </c>
       <c r="J224" t="n">
-        <v>0.005632469354989758</v>
+        <v>0.005707420967683579</v>
       </c>
     </row>
     <row r="225">
@@ -9525,11 +9525,11 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>[0.14192374050617218, 0.16959674656391144, 0.20831848680973053, 0.13529980182647705, 0.1602126955986023, 0.17979459464550018, 0.16039443016052246, 0.21614685654640198, 0.14089661836624146, 0.15362127125263214, 0.1495445817708969, 0.2213371992111206, 0.1989029496908188, 0.19107967615127563, 0.24860994517803192, 0.29349949955940247, 0.30446818470954895, 0.5644373297691345, 0.7250731587409973, 0.8609609007835388, 0.8054636716842651, 0.802760660648346, 0.6530618071556091, 0.490206778049469, 0.3377820551395416, 0.5109711289405823, 0.46005409955978394, 0.49316611886024475, 0.3740006685256958, 0.5452998876571655, 0.44946861267089844, 0.5884038805961609, 0.4588130712509155, 0.734440803527832, 0.6220196485519409, 0.7880435585975647, 0.80970698595047, 0.6740284562110901, 0.4286147952079773, 0.19767549633979797, 0.16455338895320892, 0.16501617431640625, 0.15714071691036224, 0.17467011511325836, 0.2825363278388977, 0.37588080763816833, 0.3037547469139099, 0.24106909334659576, 0.22147119045257568, 0.21704678237438202, 0.17681685090065002, 0.16281747817993164, 0.18099604547023773, 0.1489902287721634, 0.15000633895397186, 0.1638428419828415, 0.20746004581451416, 0.2843845784664154, 0.2564171850681305, 0.27334463596343994, 0.2654804289340973, 0.28964295983314514, 0.3161090016365051, 0.32176855206489563, 0.2732922434806824, 0.20195803046226501, 0.16111637651920319, 0.17603838443756104, 0.15757037699222565, 0.18191617727279663, 0.19784137606620789, 0.2044077068567276, 0.1977595090866089, 0.27388128638267517, 0.25964656472206116, 0.20066072046756744, 0.21665117144584656, 0.25435659289360046, 0.2073734551668167, 0.40143343806266785, 0.34151607751846313, 0.215565025806427, 0.18239563703536987, 0.2720353305339813, 0.4574930965900421, 0.5353007316589355, 0.4071008563041687, 0.6081188321113586, 0.629737377166748, 0.6368245482444763, 0.3820827007293701, 0.4755116105079651, 0.3778786361217499, 0.4037497043609619, 0.297610342502594, 0.3985135853290558, 0.4575206935405731, 0.38431286811828613, 0.5012145638465881, 0.6906952261924744, 0.5393487811088562, 0.5597788095474243, 0.5772006511688232, 0.5004416108131409, 0.5186501741409302, 0.6433728933334351, 0.5664100050926208, 0.4440489709377289, 0.313312828540802, 0.3960704803466797, 0.3960558772087097]</t>
+          <t>[0.09139268845319748, 0.12269143015146255, 0.14898242056369781, 0.08451592177152634, 0.10967369377613068, 0.12023940682411194, 0.10724900662899017, 0.1667269468307495, 0.08629091829061508, 0.10309381037950516, 0.10675238817930222, 0.19054080545902252, 0.17311015725135803, 0.16704873740673065, 0.27330365777015686, 0.3185557425022125, 0.34174373745918274, 0.7291088104248047, 0.8437913060188293, 0.9432067275047302, 0.8849193453788757, 0.8464879393577576, 0.7342360615730286, 0.583916187286377, 0.3357982635498047, 0.4769704341888428, 0.46153756976127625, 0.4700864553451538, 0.37596264481544495, 0.6269701719284058, 0.5224782228469849, 0.6920559406280518, 0.6413283348083496, 0.8599167466163635, 0.6623136401176453, 0.8151023387908936, 0.8647010326385498, 0.7265120148658752, 0.45885416865348816, 0.18466970324516296, 0.12670281529426575, 0.1311763972043991, 0.15305830538272858, 0.13980711996555328, 0.2627270519733429, 0.32830506563186646, 0.2769147455692291, 0.24378111958503723, 0.22562311589717865, 0.22586339712142944, 0.15840193629264832, 0.13043808937072754, 0.13841462135314941, 0.09049637615680695, 0.09714940935373306, 0.12607154250144958, 0.16623874008655548, 0.22781367599964142, 0.1639898717403412, 0.19501610100269318, 0.20047666132450104, 0.24176056683063507, 0.3072498142719269, 0.28022074699401855, 0.2196088582277298, 0.15520060062408447, 0.12954089045524597, 0.13604925572872162, 0.12009364366531372, 0.1695527732372284, 0.20212578773498535, 0.19387663900852203, 0.19617357850074768, 0.2716020941734314, 0.3086676299571991, 0.18828438222408295, 0.21439902484416962, 0.2615034878253937, 0.2049054503440857, 0.38285255432128906, 0.3228208124637604, 0.15531931817531586, 0.16036340594291687, 0.2409326434135437, 0.4927464723587036, 0.6168369054794312, 0.4159030616283417, 0.6999017000198364, 0.7899088859558105, 0.7710550427436829, 0.5127782821655273, 0.5824112892150879, 0.5154179930686951, 0.563200831413269, 0.44112637639045715, 0.5570118427276611, 0.700271725654602, 0.4503360092639923, 0.6701104044914246, 0.7527545094490051, 0.580342173576355, 0.5665578842163086, 0.6171013712882996, 0.5865181088447571, 0.542943000793457, 0.681373119354248, 0.5781150460243225, 0.4305861294269562, 0.31228864192962646, 0.3924442231655121, 0.3921501636505127]</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.8609609007835388</v>
+        <v>0.9432067275047302</v>
       </c>
       <c r="F225" t="n">
         <v>1</v>
@@ -9543,10 +9543,10 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>0.634006699983729</v>
+        <v>0.6430577999999514</v>
       </c>
       <c r="J225" t="n">
-        <v>0.005711772071925487</v>
+        <v>0.005793313513513075</v>
       </c>
     </row>
     <row r="226">
@@ -9565,11 +9565,11 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[0.30247461795806885, 0.39253655076026917, 0.40336373448371887, 0.47863104939460754, 0.473061740398407, 0.40561604499816895, 0.5256871581077576, 0.4219852089881897, 0.24463047087192535, 0.3245268762111664, 0.27454516291618347, 0.32321393489837646, 0.2889971137046814, 0.33373358845710754, 0.28310754895210266, 0.28930044174194336, 0.3827155530452728, 0.34014052152633667, 0.30122292041778564, 0.2972499132156372, 0.28134721517562866, 0.36840298771858215, 0.30610087513923645, 0.16555233299732208, 0.30411088466644287, 0.28808534145355225, 0.3073744475841522, 0.3267975449562073, 0.5089443325996399, 0.6142294406890869, 0.29050377011299133, 0.3909973204135895, 0.44842761754989624, 0.35489335656166077, 0.25902822613716125, 0.2394132763147354, 0.22825412452220917, 0.30613258481025696, 0.3413143455982208, 0.36533066630363464, 0.2644713222980499, 0.4700947403907776, 0.25700828433036804, 0.21608974039554596, 0.2778814733028412, 0.37826991081237793, 0.2961660623550415, 0.2599879205226898, 0.14493270218372345, 0.21009492874145508, 0.2984902858734131, 0.2639000117778778, 0.20895175635814667, 0.16057667136192322, 0.1452881097793579, 0.16779018938541412, 0.1687183678150177, 0.1327926069498062, 0.11267296969890594, 0.11348363757133484, 0.10574184358119965, 0.13214677572250366, 0.122012659907341, 0.13883869349956512, 0.11263445764780045, 0.09757757186889648, 0.08906089514493942, 0.09888338297605515, 0.11040223389863968, 0.12161599844694138, 0.09955915808677673, 0.12454204261302948, 0.1239711195230484, 0.2162153124809265, 0.18579941987991333, 0.26448068022727966, 0.2868528664112091, 0.21691280603408813, 0.24501967430114746, 0.22021761536598206, 0.2825879156589508, 0.23687975108623505, 0.29902130365371704, 0.3191397190093994, 0.21337155997753143, 0.4843219220638275, 0.38180890679359436, 0.41534796357154846, 0.5991913080215454, 0.4157163202762604, 0.44786176085472107, 0.459414541721344, 0.3308938145637512, 0.3369747996330261, 0.2834733724594116, 0.25988563895225525, 0.2543679475784302, 0.393426775932312, 0.3001450300216675, 0.3836659789085388, 0.3765054941177368, 0.4059580862522125, 0.17196500301361084, 0.32957518100738525, 0.2944987118244171, 0.347583532333374, 0.47304391860961914, 0.31600072979927063, 0.3441750407218933, 0.4600888192653656, 0.35226449370384216, 0.35564523935317993]</t>
+          <t>[0.2698153257369995, 0.3725009262561798, 0.34796470403671265, 0.45921701192855835, 0.5070178508758545, 0.41647276282310486, 0.6592468023300171, 0.4876648783683777, 0.27387022972106934, 0.35033488273620605, 0.39868760108947754, 0.3451605439186096, 0.3062680959701538, 0.3921867311000824, 0.308676540851593, 0.3024325668811798, 0.45534104108810425, 0.4074385166168213, 0.3281117081642151, 0.29835355281829834, 0.2654290795326233, 0.4659240245819092, 0.43994489312171936, 0.1705491691827774, 0.3818405568599701, 0.23962050676345825, 0.32066309452056885, 0.3453526496887207, 0.5664880275726318, 0.6741459369659424, 0.3095509707927704, 0.4326540231704712, 0.48286184668540955, 0.31424883008003235, 0.19522283971309662, 0.20128744840621948, 0.18691493570804596, 0.2587689161300659, 0.30285072326660156, 0.39802423119544983, 0.26928016543388367, 0.5129724144935608, 0.26002034544944763, 0.1929786652326584, 0.2818218767642975, 0.34850654006004333, 0.31583172082901, 0.2243114560842514, 0.11268939077854156, 0.17457494139671326, 0.23846977949142456, 0.17591440677642822, 0.18286259472370148, 0.10911300033330917, 0.1102222129702568, 0.1334332823753357, 0.15514621138572693, 0.10301004350185394, 0.08237120509147644, 0.08173811435699463, 0.0873759388923645, 0.10080350190401077, 0.08171992003917694, 0.0974019467830658, 0.07926463335752487, 0.06689401715993881, 0.06501113623380661, 0.06517574191093445, 0.0848413035273552, 0.10660391300916672, 0.09271906316280365, 0.1150231882929802, 0.0968858078122139, 0.15274065732955933, 0.12770991027355194, 0.22447635233402252, 0.22634989023208618, 0.2000696212053299, 0.23270736634731293, 0.19843928515911102, 0.28518515825271606, 0.18088233470916748, 0.2863812744617462, 0.2376939207315445, 0.17914554476737976, 0.5277884602546692, 0.412170946598053, 0.47324299812316895, 0.7330607175827026, 0.4414719045162201, 0.5637054443359375, 0.5852710604667664, 0.3834666311740875, 0.35814085602760315, 0.29909804463386536, 0.28206560015678406, 0.2391861230134964, 0.4450107216835022, 0.32269445061683655, 0.40456482768058777, 0.3987957239151001, 0.4700735807418823, 0.16854409873485565, 0.33950796723365784, 0.25526729226112366, 0.2880731523036957, 0.4717749059200287, 0.24197281897068024, 0.32920271158218384, 0.4432884454727173, 0.32734644412994385, 0.3330061733722687]</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.6142294406890869</v>
+        <v>0.7330607175827026</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
@@ -9583,10 +9583,10 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>0.6408679000160191</v>
+        <v>0.6530378000024939</v>
       </c>
       <c r="J226" t="n">
-        <v>0.005722034821571599</v>
+        <v>0.005830694642879409</v>
       </c>
     </row>
     <row r="227">
@@ -9605,11 +9605,11 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[0.331631064414978, 0.4028657376766205, 0.30777034163475037, 0.46906888484954834, 0.39514487981796265, 0.3336544334888458, 0.29993364214897156, 0.3290746510028839, 0.2801877558231354, 0.29792746901512146, 0.5058238506317139, 0.22969835996627808, 0.22789503633975983, 0.3294723331928253, 0.3214479684829712, 0.3789292871952057, 0.342853307723999, 0.375055730342865, 0.6390442848205566, 0.42808932065963745, 0.37860754132270813, 0.273633748292923, 0.23967738449573517, 0.1866166591644287, 0.1597798466682434, 0.19694511592388153, 0.17956671118736267, 0.20922580361366272, 0.20885464549064636, 0.2218383550643921, 0.28590214252471924, 0.251718133687973, 0.32729461789131165, 0.259117990732193, 0.5878429412841797, 0.26331883668899536, 0.3025262951850891, 0.21979638934135437, 0.29180052876472473, 0.30758026242256165, 0.44286492466926575, 0.3289893567562103, 0.2925220727920532, 0.4598499834537506, 0.5002808570861816, 0.4405342936515808, 0.32066383957862854, 0.25498872995376587, 0.3431679308414459, 0.38117581605911255, 0.3137342929840088, 0.40238651633262634, 0.34607991576194763, 0.41997385025024414, 0.36402639746665955, 0.3856021761894226, 0.4861622154712677, 0.26683175563812256, 0.2966485321521759, 0.2823476493358612, 0.5819745659828186, 0.49544718861579895, 0.416611909866333, 0.36737683415412903, 0.3018060028553009, 0.2894882559776306, 0.30343112349510193, 0.31810781359672546, 0.43029358983039856, 0.37974339723587036, 0.22785210609436035, 0.176313579082489, 0.28024694323539734, 0.25184857845306396, 0.3256821036338806, 0.2373131513595581, 0.21983900666236877, 0.37210017442703247, 0.4802156388759613, 0.36050230264663696, 0.42165127396583557, 0.36355069279670715, 0.2846739590167999, 0.3698527216911316, 0.25358960032463074, 0.31294262409210205, 0.3849405348300934, 0.46041783690452576, 0.26414433121681213, 0.3386774957180023, 0.37294501066207886, 0.35522156953811646, 0.4953418970108032, 0.5517355799674988, 0.4508303999900818, 0.5927764177322388, 0.4029596149921417, 0.3365449607372284, 0.3287545442581177, 0.33801764249801636, 0.68549644947052, 0.3993106484413147, 0.35189539194107056, 0.4746778905391693, 0.5343126654624939, 0.375741571187973, 0.3307252526283264, 0.37850314378738403, 0.4412524402141571, 0.32036495208740234, 0.24435673654079437, 0.24428531527519226]</t>
+          <t>[0.37026447057724, 0.6541743278503418, 0.5310325622558594, 0.6724069118499756, 0.47234803438186646, 0.43171191215515137, 0.31788620352745056, 0.2917928695678711, 0.19706663489341736, 0.32566455006599426, 0.5097461342811584, 0.13513079285621643, 0.15938574075698853, 0.3548394739627838, 0.31224822998046875, 0.3755652904510498, 0.32761815190315247, 0.34981560707092285, 0.5881985425949097, 0.3949662744998932, 0.44273465871810913, 0.2020871788263321, 0.12670622766017914, 0.13873222470283508, 0.11642155051231384, 0.12043856084346771, 0.09541460126638412, 0.1078810915350914, 0.1569628119468689, 0.12750372290611267, 0.26190441846847534, 0.11830899119377136, 0.2600616216659546, 0.24081990122795105, 0.7356975674629211, 0.23381361365318298, 0.2955814003944397, 0.1953270584344864, 0.26817092299461365, 0.2607477903366089, 0.4127010107040405, 0.37284910678863525, 0.36483049392700195, 0.5582185387611389, 0.4793587327003479, 0.46072816848754883, 0.2875567376613617, 0.24249902367591858, 0.3932047188282013, 0.4566993713378906, 0.33967190980911255, 0.4369684159755707, 0.3148462474346161, 0.38746631145477295, 0.29705944657325745, 0.3556617796421051, 0.47717130184173584, 0.28514179587364197, 0.289546936750412, 0.3095964789390564, 0.7317618131637573, 0.5612632036209106, 0.452564001083374, 0.41666871309280396, 0.3780597150325775, 0.3142842650413513, 0.2848372459411621, 0.28561681509017944, 0.40196284651756287, 0.3657219111919403, 0.15728788077831268, 0.12058472633361816, 0.23218761384487152, 0.3030221462249756, 0.4338739812374115, 0.18506592512130737, 0.1381056159734726, 0.3800479471683502, 0.5384150743484497, 0.38482600450515747, 0.5463315844535828, 0.49426335096359253, 0.21971121430397034, 0.44094914197921753, 0.2002544403076172, 0.3271430432796478, 0.4551505148410797, 0.7773082256317139, 0.34109973907470703, 0.5225160121917725, 0.4560993015766144, 0.40792977809906006, 0.7339859008789062, 0.7492259740829468, 0.5203471779823303, 0.6466977000236511, 0.3911975026130676, 0.4083462655544281, 0.5621840357780457, 0.4252259433269501, 0.871339738368988, 0.3941592872142792, 0.30074426531791687, 0.600771963596344, 0.48107317090034485, 0.3084222078323364, 0.24782507121562958, 0.3739435374736786, 0.5177808403968811, 0.45479026436805725, 0.21542459726333618, 0.21536709368228912]</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.68549644947052</v>
+        <v>0.871339738368988</v>
       </c>
       <c r="F227" t="n">
         <v>1</v>
@@ -9623,10 +9623,10 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>0.6396011000033468</v>
+        <v>0.6455661999934819</v>
       </c>
       <c r="J227" t="n">
-        <v>0.005710724107172739</v>
+        <v>0.005763983928513231</v>
       </c>
     </row>
     <row r="228">
@@ -9645,11 +9645,11 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[0.4544770419597626, 0.6355563402175903, 0.9008357524871826, 0.8619232177734375, 0.7969796657562256, 0.5368710160255432, 0.3572845757007599, 0.6203891634941101, 0.5178513526916504, 0.8013496398925781, 0.5791012644767761, 0.7241714596748352, 0.6417407989501953, 0.6923234462738037, 0.6153524518013, 0.7827069759368896, 0.8022211194038391, 0.7495459914207458, 0.7887508869171143, 0.674895167350769, 0.7821031212806702, 0.7942727208137512, 0.848482072353363, 0.5761715173721313, 0.42252764105796814, 0.5033586621284485, 0.7162739634513855, 0.5258499979972839, 0.4595926105976105, 0.5101169347763062, 0.5728672742843628, 0.6286860108375549, 0.6591224670410156, 0.7856971025466919, 0.604303240776062, 0.5658702850341797, 0.6057771444320679, 0.4815272390842438, 0.5861935615539551, 0.5570266246795654, 0.4188678562641144, 0.29699090123176575, 0.2182254195213318, 0.3526756167411804, 0.38888758420944214, 0.28519386053085327, 0.1611599177122116, 0.35093727707862854, 0.4086025357246399, 0.5067253708839417, 0.35120323300361633, 0.28458523750305176, 0.3812600374221802, 0.3869502544403076, 0.634623646736145, 0.5906739234924316, 0.3454539477825165, 0.30554842948913574, 0.3746626079082489, 0.4170031249523163, 0.5827327370643616, 0.41943228244781494, 0.23118019104003906, 0.4217328727245331, 0.5349856615066528, 0.4904817044734955, 0.6481152772903442, 0.4469369947910309, 0.38010209798812866, 0.5134806036949158, 0.6221605539321899, 0.7084129452705383, 0.7548191547393799, 0.6559368968009949, 0.5335303544998169, 0.3616030514240265, 0.6859134435653687, 0.41364794969558716, 0.6069176197052002, 0.6013670563697815, 0.9177671074867249, 0.8587456345558167, 0.8102973103523254, 0.8002047538757324, 0.7616589665412903, 0.8626213669776917, 0.8385339379310608, 0.7903501987457275, 0.7810383439064026, 0.729780375957489, 0.6601611375808716, 0.8874466419219971, 0.662554919719696, 0.8024802803993225, 0.668045163154602, 0.8528124094009399, 0.8791075944900513, 0.7947415113449097, 0.8761353492736816, 0.6295035481452942, 0.6311529278755188, 0.6519546508789062, 0.600662887096405, 0.5439815521240234, 0.7820388078689575, 0.736551821231842, 0.6500230431556702, 0.5759032368659973, 0.5775547623634338, 0.6756319403648376, 0.7362729907035828, 0.7360147833824158]</t>
+          <t>[0.4086301922798157, 0.741521954536438, 0.936409056186676, 0.9146174788475037, 0.8638248443603516, 0.6277629137039185, 0.3537192940711975, 0.6653156280517578, 0.48173967003822327, 0.8291648626327515, 0.6748499274253845, 0.7765204906463623, 0.7808746099472046, 0.8232935667037964, 0.7253592014312744, 0.8571373820304871, 0.8661758303642273, 0.8097610473632812, 0.8799153566360474, 0.7350583076477051, 0.8428172469139099, 0.8182123303413391, 0.8990389704704285, 0.6878952980041504, 0.37853577733039856, 0.5000811219215393, 0.7784072756767273, 0.6560106873512268, 0.5675061941146851, 0.7005943655967712, 0.7617563009262085, 0.7788949012756348, 0.8374552726745605, 0.9007552266120911, 0.7992122173309326, 0.6771591305732727, 0.7032910585403442, 0.5844170451164246, 0.6390949487686157, 0.554713249206543, 0.4882841110229492, 0.3867855668067932, 0.24687866866588593, 0.44950735569000244, 0.4970736503601074, 0.33997395634651184, 0.14911869168281555, 0.4443579912185669, 0.5232600569725037, 0.5365052819252014, 0.3595797121524811, 0.2987250089645386, 0.3662382960319519, 0.33726975321769714, 0.635004460811615, 0.7033169269561768, 0.41466209292411804, 0.40021252632141113, 0.5487185716629028, 0.5497373938560486, 0.6775583624839783, 0.529125988483429, 0.26558420062065125, 0.49062395095825195, 0.6826426982879639, 0.6282259225845337, 0.7234289646148682, 0.4802074730396271, 0.4991154372692108, 0.6912961006164551, 0.7031227946281433, 0.8492348790168762, 0.8687397241592407, 0.6849690675735474, 0.6252632737159729, 0.440047025680542, 0.7885326147079468, 0.5357526540756226, 0.6710588932037354, 0.6683076024055481, 0.9234598875045776, 0.9044808149337769, 0.8927326798439026, 0.8803095817565918, 0.7818193435668945, 0.9055818319320679, 0.8895049691200256, 0.886170506477356, 0.9110370874404907, 0.9072588682174683, 0.8662710785865784, 0.9616537094116211, 0.8269444704055786, 0.9238289594650269, 0.814049482345581, 0.9489901661872864, 0.9307278990745544, 0.9140554070472717, 0.9378125667572021, 0.7801193594932556, 0.6968927383422852, 0.7669960856437683, 0.7704203724861145, 0.7541378140449524, 0.9071633219718933, 0.8955039381980896, 0.8140631318092346, 0.7613319158554077, 0.7234596610069275, 0.7893900871276855, 0.8584413528442383, 0.8583232760429382]</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.9177671074867249</v>
+        <v>0.9616537094116211</v>
       </c>
       <c r="F228" t="n">
         <v>1</v>
@@ -9663,10 +9663,10 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>0.6379767000034917</v>
+        <v>0.6455793000059202</v>
       </c>
       <c r="J228" t="n">
-        <v>0.005696220535745462</v>
+        <v>0.005764100892910002</v>
       </c>
     </row>
     <row r="229">
@@ -9685,11 +9685,11 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[0.5406379699707031, 0.554882287979126, 0.5597912669181824, 0.3766508996486664, 0.4284084737300873, 0.5890109539031982, 0.3767056465148926, 0.48179978132247925, 0.7113302946090698, 0.5207310914993286, 0.4326596260070801, 0.5401190519332886, 0.4875561594963074, 0.519286572933197, 0.561863362789154, 0.40770143270492554, 0.3339938223361969, 0.6369606852531433, 0.3942181468009949, 0.340640127658844, 0.28272175788879395, 0.22089771926403046, 0.2577145993709564, 0.23455029726028442, 0.33698466420173645, 0.2522473931312561, 0.16952471435070038, 0.30016377568244934, 0.3008382320404053, 0.28343942761421204, 0.2647821605205536, 0.278852254152298, 0.3970916271209717, 0.308618426322937, 0.37902334332466125, 0.4103342890739441, 0.3818070590496063, 0.4247385561466217, 0.3586485683917999, 0.30993157625198364, 0.3002205193042755, 0.44721758365631104, 0.5386088490486145, 0.33305469155311584, 0.37780195474624634, 0.4162936806678772, 0.3989401161670685, 0.409410297870636, 0.3667628765106201, 0.5200848579406738, 0.46643534302711487, 0.3780099153518677, 0.4013840854167938, 0.4147505462169647, 0.3692654073238373, 0.4313427805900574, 0.5734862089157104, 0.5507513284683228, 0.6121971607208252, 0.4544578790664673, 0.543350100517273, 0.4393608868122101, 0.3266983926296234, 0.3483296036720276, 0.21405309438705444, 0.25430920720100403, 0.3030906617641449, 0.21988162398338318, 0.18696558475494385, 0.270011305809021, 0.307045578956604, 0.35932475328445435, 0.3990417420864105, 0.5625203847885132, 0.5431370735168457, 0.5800848603248596, 0.6937738656997681, 0.5090693235397339, 0.5393878817558289, 0.386953741312027, 0.26601913571357727, 0.2522720396518707, 0.17213714122772217, 0.15695443749427795, 0.1515164077281952, 0.10732388496398926, 0.196196049451828, 0.17114534974098206, 0.1735071986913681, 0.11785325407981873, 0.1970704197883606, 0.1700778752565384, 0.178670734167099, 0.23287208378314972, 0.20496505498886108, 0.2080557644367218, 0.2193206250667572, 0.21428608894348145, 0.24648937582969666, 0.19357925653457642, 0.2438793033361435, 0.18850694596767426, 0.22318024933338165, 0.21701982617378235, 0.18457016348838806, 0.23106840252876282, 0.19238658249378204, 0.14931704103946686, 0.13633576035499573, 0.23896856606006622, 0.2376617044210434]</t>
+          <t>[0.6360315084457397, 0.6328924894332886, 0.6728770136833191, 0.4221223294734955, 0.36934393644332886, 0.6846104860305786, 0.3877290189266205, 0.4539003372192383, 0.6945618987083435, 0.3759137988090515, 0.40651851892471313, 0.5487541556358337, 0.4826863408088684, 0.5562748908996582, 0.5182543992996216, 0.33186081051826477, 0.34134575724601746, 0.6514143347740173, 0.4439380168914795, 0.3114618957042694, 0.32170358300209045, 0.21419769525527954, 0.2626449167728424, 0.252294659614563, 0.3309800624847412, 0.18052394688129425, 0.11342117190361023, 0.24497577548027039, 0.2593843936920166, 0.2767447233200073, 0.2159123718738556, 0.2558433413505554, 0.4593612551689148, 0.37803778052330017, 0.4224861264228821, 0.44943422079086304, 0.4409079849720001, 0.4506897032260895, 0.3485165238380432, 0.38709166646003723, 0.3064446747303009, 0.4475890100002289, 0.6003031134605408, 0.2952604591846466, 0.4182462990283966, 0.37939316034317017, 0.3546222150325775, 0.37508732080459595, 0.3637906014919281, 0.5334756970405579, 0.5233725309371948, 0.3590430021286011, 0.4332044720649719, 0.41086795926094055, 0.29460716247558594, 0.46982643008232117, 0.5970292091369629, 0.49652889370918274, 0.6513291001319885, 0.38281896710395813, 0.4110419750213623, 0.39549222588539124, 0.28446584939956665, 0.2908978760242462, 0.12711913883686066, 0.19985872507095337, 0.1918674260377884, 0.1821962594985962, 0.14788052439689636, 0.17299102246761322, 0.25879716873168945, 0.4026905596256256, 0.4374189078807831, 0.569724440574646, 0.4558945298194885, 0.5559486746788025, 0.6445760130882263, 0.5199716687202454, 0.34739720821380615, 0.35080868005752563, 0.2088298499584198, 0.22936667501926422, 0.1659090518951416, 0.10414590686559677, 0.12100304663181305, 0.06455963104963303, 0.16205009818077087, 0.11677613854408264, 0.10087968409061432, 0.08109856396913528, 0.10697216540575027, 0.1189364567399025, 0.12395252287387848, 0.20146450400352478, 0.1588926911354065, 0.14265510439872742, 0.14648622274398804, 0.160561665892601, 0.21006131172180176, 0.1325119137763977, 0.2412244826555252, 0.16990253329277039, 0.20276471972465515, 0.20362059772014618, 0.14703115820884705, 0.21350990235805511, 0.11459262669086456, 0.0876537337899208, 0.07500430196523666, 0.19435198605060577, 0.19506287574768066]</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.7113302946090698</v>
+        <v>0.6945618987083435</v>
       </c>
       <c r="F229" t="n">
         <v>1</v>
@@ -9703,10 +9703,10 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>0.6478235999820754</v>
+        <v>0.6397124000068288</v>
       </c>
       <c r="J229" t="n">
-        <v>0.005836248648487165</v>
+        <v>0.005763174774836296</v>
       </c>
     </row>
     <row r="230">
@@ -9725,11 +9725,11 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[0.6635465025901794, 0.40107524394989014, 0.16807688772678375, 0.397500604391098, 0.2855946719646454, 0.3840782344341278, 0.2075573056936264, 0.10370232164859772, 0.33047905564308167, 0.6390228867530823, 0.5354117751121521, 0.3589291274547577, 0.29896336793899536, 0.7410057783126831, 0.3911515772342682, 0.9036254286766052, 0.5552076101303101, 0.7594440579414368, 0.4161069095134735, 0.4756184220314026, 0.537329375743866, 0.2586926221847534, 0.12397796660661697, 0.45805349946022034, 0.8483200669288635, 0.7061172723770142, 0.6405596137046814, 0.5830404162406921, 0.7745757102966309, 0.8377271890640259, 0.66505366563797, 0.24158912897109985, 0.36182403564453125, 0.2529166340827942, 0.4839264154434204, 0.23870070278644562, 0.8116099238395691, 0.8903010487556458, 0.39287859201431274, 0.8734915852546692, 0.7384987473487854, 0.6535289287567139, 0.19979409873485565, 0.21512995660305023, 0.22223487496376038, 0.23289501667022705, 0.2274724543094635, 0.34843429923057556, 0.22599786520004272, 0.5117492079734802, 0.3137984871864319, 0.5015775561332703, 0.30623430013656616, 0.34858354926109314, 0.578477144241333, 0.2034776359796524, 0.19124780595302582, 0.3346363604068756, 0.36435666680336, 0.26938575506210327, 0.2361636608839035, 0.21357537806034088, 0.15123169124126434, 0.16817131638526917, 0.12552312016487122, 0.3921040892601013, 0.27218109369277954, 0.36497119069099426, 0.18826353549957275, 0.08560425788164139, 0.1394292563199997, 0.17580629885196686, 0.569814145565033, 0.7244069576263428, 0.8932288885116577, 0.9001220464706421, 0.9619879722595215, 0.9780035018920898, 0.9759902358055115, 0.8552865982055664, 0.7456293106079102, 0.7904828786849976, 0.8267797231674194, 0.9237101078033447, 0.9776079058647156, 0.9636021852493286, 0.8395971059799194, 0.6227144598960876, 0.835842490196228, 0.6158387660980225, 0.7207006216049194, 0.7592102885246277, 0.8103774189949036, 0.9247856736183167, 0.7724672555923462, 0.634076714515686, 0.9270623326301575, 0.9797379970550537, 0.9871860146522522, 0.895645260810852, 0.7579502463340759, 0.7433755397796631, 0.5515055656433105, 0.7119024991989136, 0.6783789992332458, 0.8556771874427795, 0.9112395644187927, 0.9328890442848206, 0.8577625155448914, 0.7154484391212463, 0.8868297934532166, 0.8864356279373169]</t>
+          <t>[0.5474855899810791, 0.415974885225296, 0.141312375664711, 0.37944334745407104, 0.1992194652557373, 0.2930847406387329, 0.1408349871635437, 0.047272611409425735, 0.2834242880344391, 0.5093522667884827, 0.41694799065589905, 0.31505393981933594, 0.24118858575820923, 0.6079224944114685, 0.4384993612766266, 0.8988037109375, 0.6260374784469604, 0.8416260480880737, 0.5098574757575989, 0.6198022961616516, 0.4570384919643402, 0.24031859636306763, 0.09114955365657806, 0.45313185453414917, 0.8409945964813232, 0.7499554753303528, 0.7262635231018066, 0.6060658693313599, 0.8088865876197815, 0.8952761888504028, 0.7747949361801147, 0.4244093596935272, 0.4987730383872986, 0.4325714409351349, 0.6675251126289368, 0.2538093030452728, 0.8080613017082214, 0.9450868368148804, 0.609168291091919, 0.9444966316223145, 0.8165355920791626, 0.7489632368087769, 0.17787396907806396, 0.19874578714370728, 0.1865951269865036, 0.32101526856422424, 0.2907916009426117, 0.38105353713035583, 0.22102133929729462, 0.5264526605606079, 0.362768292427063, 0.6183647513389587, 0.2927592992782593, 0.31245407462120056, 0.5888404250144958, 0.1814044713973999, 0.212625190615654, 0.35191595554351807, 0.2762957811355591, 0.21698084473609924, 0.2492351233959198, 0.18375445902347565, 0.0993446558713913, 0.13336443901062012, 0.11094965785741806, 0.3634256422519684, 0.2943069040775299, 0.3063737750053406, 0.13727141916751862, 0.026586296036839485, 0.06347224116325378, 0.1395585983991623, 0.42117881774902344, 0.6311360001564026, 0.9163221716880798, 0.934604287147522, 0.9857146143913269, 0.991797685623169, 0.9850924611091614, 0.9359802603721619, 0.8941418528556824, 0.8654387593269348, 0.8506256937980652, 0.931014895439148, 0.9721806049346924, 0.9699203372001648, 0.9025681018829346, 0.7012597322463989, 0.9146698117256165, 0.7532601356506348, 0.7630393505096436, 0.8593125939369202, 0.8295212388038635, 0.9588744044303894, 0.8468422293663025, 0.6639032363891602, 0.9341272115707397, 0.9807780981063843, 0.9809443950653076, 0.890696108341217, 0.7686732411384583, 0.7113006114959717, 0.3750956356525421, 0.5811811089515686, 0.44860178232192993, 0.5888710618019104, 0.7388367652893066, 0.8077073693275452, 0.7120389938354492, 0.5642043948173523, 0.797990083694458, 0.7965920567512512]</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.9871860146522522</v>
+        <v>0.9917976856231689</v>
       </c>
       <c r="F230" t="n">
         <v>1</v>
@@ -9743,10 +9743,10 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>0.6384873000206426</v>
+        <v>0.6444734999968205</v>
       </c>
       <c r="J230" t="n">
-        <v>0.005700779464470023</v>
+        <v>0.00575422767854304</v>
       </c>
     </row>
     <row r="231">
@@ -9765,11 +9765,11 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[0.44414955377578735, 0.8310447335243225, 0.9352638721466064, 0.901399552822113, 0.8855285048484802, 0.5290974378585815, 0.719868540763855, 0.8232924938201904, 0.9493539333343506, 0.9416018128395081, 0.7304183840751648, 0.26531195640563965, 0.2689579725265503, 0.6722341179847717, 0.892921507358551, 0.8496896028518677, 0.7009155750274658, 0.4171237647533417, 0.8932345509529114, 0.95148104429245, 0.8719025254249573, 0.8147217631340027, 0.676268458366394, 0.7343217134475708, 0.7989877462387085, 0.5694836378097534, 0.30277711153030396, 0.35936591029167175, 0.5162892937660217, 0.7853870987892151, 0.8826385140419006, 0.7075024843215942, 0.471424400806427, 0.375651478767395, 0.6127053499221802, 0.4602794647216797, 0.49995073676109314, 0.7192619442939758, 0.9252786040306091, 0.9205073118209839, 0.8823423385620117, 0.8513389825820923, 0.7898507118225098, 0.6376153230667114, 0.5879821181297302, 0.7117812037467957, 0.9502375721931458, 0.9526758193969727, 0.9341909885406494, 0.9490867853164673, 0.9017055034637451, 0.967688798904419, 0.960928201675415, 0.8653079867362976, 0.6657086610794067, 0.8543336987495422, 0.40304240584373474, 0.3234296143054962, 0.5137124061584473, 0.6140654683113098, 0.4581162631511688, 0.5631600022315979, 0.5888209342956543, 0.5663586854934692, 0.41926631331443787, 0.5658308863639832, 0.5706053972244263, 0.9077170491218567, 0.7227488160133362, 0.8800560235977173, 0.9769458174705505, 0.623513400554657, 0.6890439391136169, 0.9473882913589478, 0.7835587859153748, 0.774308979511261, 0.758294939994812, 0.7108293175697327, 0.8444197773933411, 0.8712342977523804, 0.8237371444702148, 0.8391347527503967, 0.8611366748809814, 0.9198893308639526, 0.8944368958473206, 0.721062183380127, 0.8474040627479553, 0.6921954154968262, 0.8828853368759155, 0.933085560798645, 0.7549134492874146, 0.6291429996490479, 0.7388074398040771, 0.7924221754074097, 0.8973923921585083, 0.7117089629173279, 0.7420550584793091, 0.8887621164321899, 0.7735122442245483, 0.8400229811668396, 0.7874643206596375, 0.880667507648468, 0.763784646987915, 0.7963678240776062, 0.9160847067832947, 0.7789390683174133, 0.8096305727958679, 0.6977320909500122, 0.6195188760757446, 0.7618417739868164, 0.338803768157959, 0.34019455313682556]</t>
+          <t>[0.47894516587257385, 0.8969535231590271, 0.9046361446380615, 0.8653313517570496, 0.8486445546150208, 0.504119873046875, 0.770389974117279, 0.8909791707992554, 0.9412079453468323, 0.9034799337387085, 0.5401357412338257, 0.20115534961223602, 0.13992224633693695, 0.50148606300354, 0.816955029964447, 0.7749281525611877, 0.5220831632614136, 0.22875581681728363, 0.8334070444107056, 0.9234119057655334, 0.8226699233055115, 0.7267078161239624, 0.4773007333278656, 0.5988123416900635, 0.5756964087486267, 0.42296549677848816, 0.28261861205101013, 0.25533148646354675, 0.31357064843177795, 0.6467477679252625, 0.7089844942092896, 0.5412923693656921, 0.3430403769016266, 0.3046800494194031, 0.36336901783943176, 0.48959288001060486, 0.43585020303726196, 0.6978901624679565, 0.9171797633171082, 0.9101834893226624, 0.7489446997642517, 0.7330530881881714, 0.5643870830535889, 0.6199527382850647, 0.601803183555603, 0.7824596166610718, 0.913775622844696, 0.9435980916023254, 0.9201027154922485, 0.9241210222244263, 0.8637871742248535, 0.9765631556510925, 0.970463752746582, 0.8780781626701355, 0.7714446187019348, 0.7826502323150635, 0.4150199890136719, 0.292432576417923, 0.6189575791358948, 0.6103569269180298, 0.3933185636997223, 0.5869280695915222, 0.5411431789398193, 0.5758944153785706, 0.3980245590209961, 0.48861122131347656, 0.49249693751335144, 0.9047561883926392, 0.7899497747421265, 0.8953939080238342, 0.9772099852561951, 0.5660595297813416, 0.7233676314353943, 0.8888075351715088, 0.8564670085906982, 0.7054571509361267, 0.6684253215789795, 0.8428997993469238, 0.8290755748748779, 0.867862343788147, 0.8511528372764587, 0.813900887966156, 0.8106858134269714, 0.8660251498222351, 0.8742186427116394, 0.6895257830619812, 0.7790175080299377, 0.6021146178245544, 0.8616675138473511, 0.9190890192985535, 0.6333196759223938, 0.45780685544013977, 0.6464359164237976, 0.7343342304229736, 0.8913330435752869, 0.6977196931838989, 0.6785162091255188, 0.7321939468383789, 0.5526297688484192, 0.7806791067123413, 0.6782976984977722, 0.8680793046951294, 0.8374530673027039, 0.8461401462554932, 0.9242007732391357, 0.7792860865592957, 0.7343800663948059, 0.7048968076705933, 0.5507439970970154, 0.8281705975532532, 0.3238261640071869, 0.3223932385444641]</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.9769458174705505</v>
+        <v>0.9772099852561951</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
@@ -9783,10 +9783,10 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>0.6399409000005107</v>
+        <v>0.6410304999881191</v>
       </c>
       <c r="J231" t="n">
-        <v>0.005713758035718846</v>
+        <v>0.005723486607036777</v>
       </c>
     </row>
     <row r="232">
@@ -9805,11 +9805,11 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[0.605085551738739, 0.925792932510376, 0.8945430517196655, 0.9041450619697571, 0.723114013671875, 0.5652074217796326, 0.6270317435264587, 0.8486694693565369, 0.4904133379459381, 0.6213169097900391, 0.5026558637619019, 0.4545446038246155, 0.8931206464767456, 0.6272152662277222, 0.6652008295059204, 0.6599138975143433, 0.750160813331604, 0.6383136510848999, 0.866419792175293, 0.668676495552063, 0.5466896891593933, 0.676454484462738, 0.5544193983078003, 0.7743846774101257, 0.7555479407310486, 0.7718275785446167, 0.7916012406349182, 0.9371066093444824, 0.6867756843566895, 0.8493920564651489, 0.6992101073265076, 0.8619809150695801, 0.6569631695747375, 0.8595634698867798, 0.7791506052017212, 0.5792015194892883, 0.40052953362464905, 0.7564058899879456, 0.8138245344161987, 0.7721507549285889, 0.8914060592651367, 0.9451230764389038, 0.8527311682701111, 0.7707315683364868, 0.6670620441436768, 0.7975191473960876, 0.7391511797904968, 0.8964297771453857, 0.7461416721343994, 0.47076740860939026, 0.7512146830558777, 0.8206106424331665, 0.5073636770248413, 0.4760299623012543, 0.6144772171974182, 0.8611003756523132, 0.804489254951477, 0.8303096294403076, 0.757561981678009, 0.7066673636436462, 0.7124660015106201, 0.7658792734146118, 0.7239677309989929, 0.8302087783813477, 0.7354844808578491, 0.8069702386856079, 0.7095744609832764, 0.8162474632263184, 0.7396168112754822, 0.8666907548904419, 0.7057092189788818, 0.8679251074790955, 0.7994318008422852, 0.786275327205658, 0.8388437628746033, 0.8729241490364075, 0.8362658023834229, 0.8910858035087585, 0.8898670077323914, 0.9249095916748047, 0.8110066652297974, 0.851802408695221, 0.7883605360984802, 0.843528151512146, 0.7534857392311096, 0.9459146857261658, 0.874306857585907, 0.8426672220230103, 0.8576247692108154, 0.8536069393157959, 0.8412454724311829, 0.852301836013794, 0.6817065477371216, 0.9095705151557922, 0.8710163831710815, 0.8999118804931641, 0.9479158520698547, 0.8483710289001465, 0.7384157180786133, 0.6587046980857849, 0.9063963890075684, 0.8398948907852173, 0.7671087980270386, 0.9157239198684692, 0.784387469291687, 0.8684725761413574, 0.8058590888977051, 0.9433577656745911, 0.8873895406723022, 0.8541189432144165, 0.8529089689254761]</t>
+          <t>[0.6764906048774719, 0.9216471910476685, 0.8993895649909973, 0.9015117883682251, 0.6776726841926575, 0.6089836359024048, 0.766676127910614, 0.8518866300582886, 0.6178936958312988, 0.5935890078544617, 0.6197859644889832, 0.6983808279037476, 0.9303076267242432, 0.6998186111450195, 0.8137878179550171, 0.8038807511329651, 0.8497561812400818, 0.8209012150764465, 0.9072598218917847, 0.8065447211265564, 0.7210785150527954, 0.8011521697044373, 0.7272618412971497, 0.8431082367897034, 0.8476831316947937, 0.8509448170661926, 0.8761553168296814, 0.9462062120437622, 0.8256975412368774, 0.9330273270606995, 0.8454414010047913, 0.9065291881561279, 0.7684749364852905, 0.9298173189163208, 0.9118797779083252, 0.7843496203422546, 0.6508366465568542, 0.864444375038147, 0.8762236833572388, 0.8513399362564087, 0.9338634610176086, 0.9477747082710266, 0.8718478679656982, 0.8775144219398499, 0.8249106407165527, 0.8873851299285889, 0.7895687818527222, 0.906606137752533, 0.8011270761489868, 0.5960261821746826, 0.8492348194122314, 0.8415820002555847, 0.6483087539672852, 0.5950109362602234, 0.6883304715156555, 0.9154697060585022, 0.8752689361572266, 0.7768117189407349, 0.7481433153152466, 0.6840660572052002, 0.6634514331817627, 0.7391650676727295, 0.8006423115730286, 0.8992326855659485, 0.8350740671157837, 0.8802028894424438, 0.8281157612800598, 0.8232674598693848, 0.6256343722343445, 0.8670210242271423, 0.7582337260246277, 0.8743568062782288, 0.8246486186981201, 0.8226621747016907, 0.8823206424713135, 0.849298357963562, 0.8145312666893005, 0.9026327729225159, 0.9220516085624695, 0.9220854640007019, 0.8360002040863037, 0.8599600195884705, 0.8451108932495117, 0.8933014273643494, 0.7906070351600647, 0.9526888132095337, 0.922984778881073, 0.8941947221755981, 0.8624001145362854, 0.8606319427490234, 0.8713701367378235, 0.8477091193199158, 0.73524010181427, 0.8621111512184143, 0.8586121201515198, 0.8970517516136169, 0.9547531008720398, 0.8657676577568054, 0.7756600379943848, 0.7266385555267334, 0.9359239935874939, 0.8536219596862793, 0.846513032913208, 0.9330794215202332, 0.8401806950569153, 0.901004433631897, 0.872263491153717, 0.9477962255477905, 0.9266267418861389, 0.9128537178039551, 0.9122694134712219]</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.9479158520698547</v>
+        <v>0.9547531008720398</v>
       </c>
       <c r="F232" t="n">
         <v>1</v>
@@ -9823,10 +9823,10 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>0.6298162000020966</v>
+        <v>0.6311167000094429</v>
       </c>
       <c r="J232" t="n">
-        <v>0.005674019819838708</v>
+        <v>0.005685736036121107</v>
       </c>
     </row>
     <row r="233">
@@ -9845,11 +9845,11 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>[0.19055378437042236, 0.1793031543493271, 0.2955676317214966, 0.29959923028945923, 0.29886868596076965, 0.22264692187309265, 0.21706682443618774, 0.1951293796300888, 0.1466214805841446, 0.17891943454742432, 0.2507907748222351, 0.1971692591905594, 0.1836775839328766, 0.10931136459112167, 0.13514697551727295, 0.14229430258274078, 0.22683118283748627, 0.3958472013473511, 0.31993961334228516, 0.13751725852489471, 0.08612825721502304, 0.2134891301393509, 0.1861390918493271, 0.19206371903419495, 0.2832583487033844, 0.3534539043903351, 0.28258800506591797, 0.2608526349067688, 0.3058316707611084, 0.40879926085472107, 0.26650935411453247, 0.23992763459682465, 0.22110576927661896, 0.37263429164886475, 0.4622120261192322, 0.2861451804637909, 0.1472318172454834, 0.3302173912525177, 0.15259741246700287, 0.23906578123569489, 0.20089712738990784, 0.36951324343681335, 0.14201073348522186, 0.10053664445877075, 0.08802488446235657, 0.2270127385854721, 0.20962323248386383, 0.26177242398262024, 0.2217908501625061, 0.20082564651966095, 0.1452733427286148, 0.2547312378883362, 0.48500770330429077, 0.38312098383903503, 0.18820437788963318, 0.1100185438990593, 0.13299989700317383, 0.16441047191619873, 0.10794602334499359, 0.12198196351528168, 0.1102718934416771, 0.17654620110988617, 0.22213906049728394, 0.3202509582042694, 0.3875889182090759, 0.1872854083776474, 0.15326644480228424, 0.18462716042995453, 0.1236817017197609, 0.11172837018966675, 0.17022360861301422, 0.16672705113887787, 0.16623368859291077, 0.1861092895269394, 0.11885915696620941, 0.15152986347675323, 0.13984766602516174, 0.1551089882850647, 0.0661776140332222, 0.13920612633228302, 0.19966091215610504, 0.21621309220790863, 0.143107607960701, 0.137181356549263, 0.2692027986049652, 0.17272840440273285, 0.4942529797554016, 0.27377399802207947, 0.18901070952415466, 0.17402857542037964, 0.24459078907966614, 0.24303968250751495, 0.38395553827285767, 0.405947208404541, 0.1846194565296173, 0.13781026005744934, 0.25285857915878296, 0.33368319272994995, 0.18835781514644623, 0.38932958245277405, 0.24237486720085144, 0.22279521822929382, 0.259944885969162, 0.5095669031143188, 0.47578486800193787, 0.3185413181781769, 0.15203841030597687, 0.2569754421710968, 0.27132168412208557, 0.2902028560638428, 0.2856910824775696]</t>
+          <t>[0.2493966817855835, 0.1738567352294922, 0.36335593461990356, 0.4012787938117981, 0.38875237107276917, 0.26234757900238037, 0.24525806307792664, 0.28647682070732117, 0.2042616456747055, 0.2638930082321167, 0.3154454529285431, 0.2811565101146698, 0.2607968747615814, 0.1257748007774353, 0.1407405585050583, 0.1117541491985321, 0.3484625816345215, 0.5182571411132812, 0.44526466727256775, 0.18350228667259216, 0.08937466144561768, 0.2675694525241852, 0.19042645394802094, 0.1974729299545288, 0.38260847330093384, 0.3795362710952759, 0.45007050037384033, 0.3800126314163208, 0.5426090359687805, 0.5954739451408386, 0.38705727458000183, 0.3579714596271515, 0.348995178937912, 0.5965132117271423, 0.5837745666503906, 0.34709373116493225, 0.24351519346237183, 0.46736401319503784, 0.2401193529367447, 0.32765620946884155, 0.2925102412700653, 0.5246120691299438, 0.21564753353595734, 0.16854996979236603, 0.1481243073940277, 0.36180490255355835, 0.3077406585216522, 0.38193395733833313, 0.3228722810745239, 0.3599138855934143, 0.2523080110549927, 0.34082046151161194, 0.4933028817176819, 0.4643600881099701, 0.27813759446144104, 0.15717943012714386, 0.18042241036891937, 0.28067746758461, 0.19176170229911804, 0.20866093039512634, 0.1525517702102661, 0.3016822636127472, 0.27838003635406494, 0.4086015522480011, 0.5371518135070801, 0.27528202533721924, 0.2281014323234558, 0.31649935245513916, 0.20735235512256622, 0.22589927911758423, 0.2983667850494385, 0.2781951427459717, 0.2698521316051483, 0.29971906542778015, 0.18522639572620392, 0.2788194715976715, 0.206198588013649, 0.23894095420837402, 0.07460004091262817, 0.2175293117761612, 0.3400995135307312, 0.37240827083587646, 0.2864397466182709, 0.2546292245388031, 0.4303298890590668, 0.27933797240257263, 0.6904004216194153, 0.5044321417808533, 0.36988556385040283, 0.3195648193359375, 0.4649461507797241, 0.4810451567173004, 0.559251070022583, 0.6142210364341736, 0.24834159016609192, 0.18487152457237244, 0.4066789746284485, 0.47114336490631104, 0.27089908719062805, 0.47518715262413025, 0.33469972014427185, 0.3580508828163147, 0.3395383358001709, 0.6490617394447327, 0.554165780544281, 0.3447289764881134, 0.18845084309577942, 0.27431830763816833, 0.3395329415798187, 0.4426073133945465, 0.43229249119758606]</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.5095669031143188</v>
+        <v>0.6904004216194153</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
@@ -9863,10 +9863,10 @@
         </is>
       </c>
       <c r="I233" t="n">
-        <v>0.625982199999271</v>
+        <v>0.6464828000025591</v>
       </c>
       <c r="J233" t="n">
-        <v>0.005639479279272711</v>
+        <v>0.005824169369392424</v>
       </c>
     </row>
     <row r="234">
@@ -9885,11 +9885,11 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[0.27883556485176086, 0.6894980669021606, 0.9007164239883423, 0.7310945987701416, 0.30802518129348755, 0.22227779030799866, 0.15672428905963898, 0.2749360501766205, 0.32268026471138, 0.2522408068180084, 0.20226655900478363, 0.2119750827550888, 0.20711620151996613, 0.32265380024909973, 0.41970282793045044, 0.3658781051635742, 0.2050902545452118, 0.2124590426683426, 0.21510565280914307, 0.12666141986846924, 0.1666281670331955, 0.2676805257797241, 0.19086049497127533, 0.16888418793678284, 0.1853456348180771, 0.17399847507476807, 0.21346335113048553, 0.1802309900522232, 0.27433475852012634, 0.30358338356018066, 0.24733862280845642, 0.28922897577285767, 0.34769493341445923, 0.26111897826194763, 0.33061063289642334, 0.23598171770572662, 0.2566531300544739, 0.36215901374816895, 0.21412135660648346, 0.49610844254493713, 0.2857349216938019, 0.26680290699005127, 0.2307559698820114, 0.44332629442214966, 0.25057485699653625, 0.306659460067749, 0.2628246247768402, 0.5390727519989014, 0.5523539781570435, 0.42284443974494934, 0.43801063299179077, 0.4930400848388672, 0.3588167130947113, 0.30332425236701965, 0.3753781020641327, 0.5090484023094177, 0.43512436747550964, 0.38172879815101624, 0.45760801434516907, 0.17911873757839203, 0.2510867118835449, 0.3262850344181061, 0.6486820578575134, 0.4388329088687897, 0.5858003497123718, 0.5020110607147217, 0.4313257336616516, 0.4451213777065277, 0.221596360206604, 0.45451921224594116, 0.44764092564582825, 0.3926278054714203, 0.3684992790222168, 0.5784333944320679, 0.44928720593452454, 0.6604833006858826, 0.5850921273231506, 0.7366425395011902, 0.40060320496559143, 0.6368898749351501, 0.5205181241035461, 0.5006001591682434, 0.4758296012878418, 0.4413146376609802, 0.44511908292770386, 0.5319637060165405, 0.4173492193222046, 0.4132017493247986, 0.34245654940605164, 0.37609750032424927, 0.7274723649024963, 0.49810683727264404, 0.5001246929168701, 0.46499186754226685, 0.2203284353017807, 0.4192681610584259, 0.3810737431049347, 0.4594777524471283, 0.249890998005867, 0.4262115955352783, 0.4304121136665344, 0.3547438681125641, 0.2983604073524475, 0.43311217427253723, 0.3067589998245239, 0.6770405173301697, 0.6639130711555481, 0.7093226909637451, 0.4176000654697418, 0.3111831545829773, 0.3143327832221985]</t>
+          <t>[0.21270854771137238, 0.5631014704704285, 0.7792070508003235, 0.7420519590377808, 0.2999245226383209, 0.2107844352722168, 0.17440961301326752, 0.3393092155456543, 0.26554176211357117, 0.212605282664299, 0.16297543048858643, 0.17285321652889252, 0.15593647956848145, 0.35830673575401306, 0.4402608871459961, 0.35202229022979736, 0.1623305231332779, 0.19034510850906372, 0.19572678208351135, 0.10788850486278534, 0.15683753788471222, 0.24123917520046234, 0.24742813408374786, 0.14302386343479156, 0.15537093579769135, 0.16806583106517792, 0.17839564383029938, 0.17995962500572205, 0.2365603893995285, 0.2196848839521408, 0.24368496239185333, 0.24186405539512634, 0.23916344344615936, 0.20212042331695557, 0.28148847818374634, 0.17119570076465607, 0.24599185585975647, 0.3157161474227905, 0.19765973091125488, 0.49632149934768677, 0.21798186004161835, 0.22207559645175934, 0.16266855597496033, 0.3580378592014313, 0.13804371654987335, 0.19582092761993408, 0.22547291219234467, 0.3614862263202667, 0.42494887113571167, 0.3482327163219452, 0.34752780199050903, 0.3863505721092224, 0.2652154564857483, 0.18264436721801758, 0.254040002822876, 0.4091739356517792, 0.42716604471206665, 0.32827240228652954, 0.3649396300315857, 0.1382269263267517, 0.18048512935638428, 0.22806739807128906, 0.5192690491676331, 0.33204546570777893, 0.4844621419906616, 0.346235454082489, 0.32681623101234436, 0.3019863963127136, 0.12997928261756897, 0.29190346598625183, 0.2970847189426422, 0.21810035407543182, 0.20436856150627136, 0.35969024896621704, 0.272228866815567, 0.33663153648376465, 0.3259851336479187, 0.5181954503059387, 0.2290879338979721, 0.4066910743713379, 0.29288578033447266, 0.32963648438453674, 0.33685705065727234, 0.3422752618789673, 0.34931692481040955, 0.3869360387325287, 0.35486462712287903, 0.3424794673919678, 0.2911129891872406, 0.25782036781311035, 0.5305851697921753, 0.3405163288116455, 0.4153468906879425, 0.3821747601032257, 0.17239132523536682, 0.42346125841140747, 0.3583677113056183, 0.43687567114830017, 0.20445069670677185, 0.29267221689224243, 0.34187883138656616, 0.24354833364486694, 0.22818264365196228, 0.2488807886838913, 0.17918595671653748, 0.4676474332809448, 0.4890882670879364, 0.5452203750610352, 0.26449474692344666, 0.20560094714164734, 0.210859477519989]</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.9007164239883423</v>
+        <v>0.7792070508003235</v>
       </c>
       <c r="F234" t="n">
         <v>1</v>
@@ -9903,10 +9903,10 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>0.6229282999993302</v>
+        <v>0.627560299995821</v>
       </c>
       <c r="J234" t="n">
-        <v>0.005611966666660632</v>
+        <v>0.005653696396358748</v>
       </c>
     </row>
     <row r="235">
@@ -9925,11 +9925,11 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[0.10216494649648666, 0.12183339148759842, 0.13050314784049988, 0.13938431441783905, 0.10527331382036209, 0.08747229725122452, 0.05277382582426071, 0.17208701372146606, 0.18079178035259247, 0.1245158240199089, 0.08253621309995651, 0.11195816099643707, 0.0740845575928688, 0.10998374968767166, 0.07540535181760788, 0.09074121713638306, 0.10704267770051956, 0.07905833423137665, 0.062042493373155594, 0.06315790116786957, 0.077998086810112, 0.044943131506443024, 0.06577245146036148, 0.04977084696292877, 0.04654558002948761, 0.06790803372859955, 0.07826659828424454, 0.09025507420301437, 0.06432300806045532, 0.07027828693389893, 0.06707626581192017, 0.1265418827533722, 0.1033257320523262, 0.08205221593379974, 0.05355089530348778, 0.04972429573535919, 0.06094788759946823, 0.060295235365629196, 0.0567692294716835, 0.07801461964845657, 0.06931286305189133, 0.0905853807926178, 0.07273837178945541, 0.08316516131162643, 0.08344393968582153, 0.12891046702861786, 0.07646384835243225, 0.0643889307975769, 0.06796281784772873, 0.06710640341043472, 0.07757139205932617, 0.06233343482017517, 0.07011064141988754, 0.06164350360631943, 0.06500186026096344, 0.1060742512345314, 0.09900598973035812, 0.12111037224531174, 0.09031226485967636, 0.08209692686796188, 0.07888395339250565, 0.15439806878566742, 0.3226786255836487, 0.11785978823900223, 0.15600915253162384, 0.12573106586933136, 0.10972580313682556, 0.17490269243717194, 0.16898420453071594, 0.20955424010753632, 0.1504795253276825, 0.12524637579917908, 0.11639802902936935, 0.13073697686195374, 0.13372540473937988, 0.14495287835597992, 0.09970315545797348, 0.16880178451538086, 0.09421718120574951, 0.06818127632141113, 0.0669364333152771, 0.0930502638220787, 0.0928335189819336, 0.10404013842344284, 0.10007255524396896, 0.0969717800617218, 0.07866166532039642, 0.12667280435562134, 0.11488723754882812, 0.08865179866552353, 0.09551312029361725, 0.11495865136384964, 0.13584794104099274, 0.13033181428909302, 0.11478888988494873, 0.08661875873804092, 0.08919143676757812, 0.13307073712348938, 0.12094767391681671, 0.24782899022102356, 0.12649354338645935, 0.08220543712377548, 0.2945356070995331, 0.08174336701631546, 0.10516352206468582, 0.1199960708618164, 0.12804512679576874, 0.15096911787986755, 0.14300893247127533, 0.08409010618925095, 0.08430351316928864]</t>
+          <t>[0.09207402914762497, 0.10248754918575287, 0.15324153006076813, 0.13061946630477905, 0.07704861462116241, 0.07493237406015396, 0.03779398277401924, 0.255638986825943, 0.2535024583339691, 0.18149971961975098, 0.07026169449090958, 0.17627489566802979, 0.060157909989356995, 0.1011543795466423, 0.05792256072163582, 0.07706715911626816, 0.13507351279258728, 0.06486033648252487, 0.04646184295415878, 0.06637974828481674, 0.064858078956604, 0.030832193791866302, 0.04625437408685684, 0.03656049445271492, 0.04202112555503845, 0.06080283224582672, 0.07957270741462708, 0.0932534858584404, 0.05282965302467346, 0.05094904825091362, 0.06380267441272736, 0.10534485429525375, 0.1202935129404068, 0.06789832562208176, 0.039021819829940796, 0.036199528723955154, 0.04646432772278786, 0.0657007098197937, 0.06545613706111908, 0.06507287174463272, 0.043770186603069305, 0.07464573532342911, 0.07663897424936295, 0.08622939139604568, 0.08611024916172028, 0.1740809828042984, 0.07194829732179642, 0.05547885224223137, 0.07608895748853683, 0.0537722185254097, 0.06356945633888245, 0.05389328673481941, 0.061085764318704605, 0.05344173312187195, 0.06157056614756584, 0.1094091460108757, 0.08828694373369217, 0.10911189764738083, 0.0641905814409256, 0.060973767191171646, 0.07178875803947449, 0.13905726373195648, 0.5046562552452087, 0.10658949613571167, 0.10567663609981537, 0.11788388341665268, 0.11728321015834808, 0.20546628534793854, 0.1524813324213028, 0.16564513742923737, 0.17836089432239532, 0.13177213072776794, 0.10440012812614441, 0.1426430642604828, 0.09879462420940399, 0.12426301836967468, 0.1278875172138214, 0.16938814520835876, 0.09928769618272781, 0.05231313407421112, 0.050370361655950546, 0.07939012348651886, 0.07546884566545486, 0.09046448022127151, 0.08308468014001846, 0.10665636509656906, 0.0750836655497551, 0.1365688145160675, 0.12134872376918793, 0.07987722009420395, 0.07998115569353104, 0.12007138878107071, 0.11002805829048157, 0.11093253642320633, 0.11447285860776901, 0.06660157442092896, 0.06589324027299881, 0.12887676060199738, 0.11927542835474014, 0.33952951431274414, 0.1596255600452423, 0.10040614008903503, 0.3508307933807373, 0.06731820106506348, 0.10805758833885193, 0.1340753436088562, 0.11628375947475433, 0.1862124353647232, 0.13341324031352997, 0.07652314752340317, 0.07849407196044922]</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.3226786255836487</v>
+        <v>0.5046562552452087</v>
       </c>
       <c r="F235" t="n">
         <v>1</v>
@@ -9943,10 +9943,10 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>0.627372099988861</v>
+        <v>0.6296680000086781</v>
       </c>
       <c r="J235" t="n">
-        <v>0.00565200090080055</v>
+        <v>0.005672684684762865</v>
       </c>
     </row>
     <row r="236">
@@ -9965,11 +9965,11 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[0.12155013531446457, 0.1356116533279419, 0.18294142186641693, 0.23319320380687714, 0.21686197817325592, 0.24275289475917816, 0.21815767884254456, 0.33245161175727844, 0.2327970564365387, 0.12557771801948547, 0.12060867249965668, 0.11691779643297195, 0.1476639062166214, 0.12980644404888153, 0.20725017786026, 0.29071325063705444, 0.27223795652389526, 0.1592085063457489, 0.12329228967428207, 0.15118546783924103, 0.13172966241836548, 0.17184461653232574, 0.268130898475647, 0.28734347224235535, 0.3099554777145386, 0.2718501687049866, 0.2596819996833801, 0.26998448371887207, 0.35996636748313904, 0.40166860818862915, 0.2933599650859833, 0.34692224860191345, 0.3468836545944214, 0.4790806472301483, 0.2958846390247345, 0.2988432049751282, 0.2956937551498413, 0.23532691597938538, 0.18425408005714417, 0.14766426384449005, 0.23955072462558746, 0.25229713320732117, 0.16486313939094543, 0.1306200623512268, 0.180575430393219, 0.1421608179807663, 0.10570847988128662, 0.18869350850582123, 0.24017782509326935, 0.19874230027198792, 0.13853365182876587, 0.2271505445241928, 0.19716401398181915, 0.1861560046672821, 0.14117473363876343, 0.18022635579109192, 0.1311800479888916, 0.12073610723018646, 0.1189870610833168, 0.11242404580116272, 0.11806345731019974, 0.14520826935768127, 0.09578553587198257, 0.18624410033226013, 0.20292773842811584, 0.19228284060955048, 0.5332797169685364, 0.8450697064399719, 0.8690059185028076, 0.7577229142189026, 0.36428508162498474, 0.6652352213859558, 0.3234903812408447, 0.39739471673965454, 0.5923299789428711, 0.5498553514480591, 0.5566421747207642, 0.7900345921516418, 0.6102400422096252, 0.5114517211914062, 0.2696826756000519, 0.22218097746372223, 0.43184301257133484, 0.3662826716899872, 0.31589600443840027, 0.371720552444458, 0.33069518208503723, 0.6087155938148499, 0.3441168963909149, 0.37978804111480713, 0.23421704769134521, 0.40006014704704285, 0.5029730796813965, 0.5703650712966919, 0.4950544834136963, 0.8075956106185913, 0.44077301025390625, 0.5444141030311584, 0.22172296047210693, 0.19357700645923615, 0.34011146426200867, 0.398681640625, 0.13963660597801208, 0.17003333568572998, 0.18500421941280365, 0.25115033984184265, 0.24415022134780884, 0.4311448037624359, 0.2491503804922104, 0.35008910298347473, 0.4743129014968872, 0.47928789258003235, 0.4576859176158905, 0.6021737456321716, 0.7205097079277039, 0.5550186634063721, 0.6537843942642212, 0.597095251083374, 0.42657503485679626, 0.2513365149497986, 0.17491494119167328, 0.18709787726402283, 0.1268538236618042, 0.31866469979286194, 0.30326199531555176]</t>
+          <t>[0.17157073318958282, 0.18785637617111206, 0.24761107563972473, 0.31081414222717285, 0.20298771560192108, 0.24612155556678772, 0.21190688014030457, 0.3343410789966583, 0.17224468290805817, 0.1180894523859024, 0.10051865875720978, 0.11366531997919083, 0.1749081164598465, 0.1937389373779297, 0.1864052414894104, 0.27621549367904663, 0.2465292364358902, 0.2239997535943985, 0.11998061835765839, 0.2002832591533661, 0.16661427915096283, 0.23909009993076324, 0.37408119440078735, 0.3428899943828583, 0.3769662380218506, 0.34607481956481934, 0.2693857252597809, 0.3389706313610077, 0.4131307005882263, 0.45582616329193115, 0.3273923099040985, 0.4692295491695404, 0.40869319438934326, 0.587520956993103, 0.4392395317554474, 0.5322000980377197, 0.5001499652862549, 0.36846739053726196, 0.31089308857917786, 0.24055053293704987, 0.4855702519416809, 0.4652089476585388, 0.38881051540374756, 0.2949709892272949, 0.3857421875, 0.25409644842147827, 0.19264374673366547, 0.30515819787979126, 0.43009281158447266, 0.3591223955154419, 0.22253403067588806, 0.36472761631011963, 0.2711486220359802, 0.2780190110206604, 0.21205481886863708, 0.24809417128562927, 0.1554657518863678, 0.14336901903152466, 0.13035738468170166, 0.12456284463405609, 0.16446709632873535, 0.1793869286775589, 0.11819377541542053, 0.3041341006755829, 0.3608561158180237, 0.37798261642456055, 0.5707497000694275, 0.8596715331077576, 0.8639019727706909, 0.8623278737068176, 0.5377866625785828, 0.7661898136138916, 0.5484716296195984, 0.5598916411399841, 0.6104433536529541, 0.5808016061782837, 0.569301187992096, 0.8375150561332703, 0.7209011316299438, 0.6403247117996216, 0.4295586943626404, 0.32571592926979065, 0.48521074652671814, 0.3335840702056885, 0.4178745150566101, 0.4926885664463043, 0.42407795786857605, 0.6764570474624634, 0.44076287746429443, 0.4080817401409149, 0.25793206691741943, 0.3673117458820343, 0.45075783133506775, 0.5810614228248596, 0.5559911131858826, 0.8276154398918152, 0.5295112729072571, 0.5695279836654663, 0.4175374507904053, 0.29791927337646484, 0.5165117979049683, 0.5796838998794556, 0.23340101540088654, 0.24598734080791473, 0.25269392132759094, 0.3644064962863922, 0.34561410546302795, 0.6334890127182007, 0.44020047783851624, 0.531911313533783, 0.6388285160064697, 0.6585776805877686, 0.632844090461731, 0.7628465890884399, 0.846460223197937, 0.703151524066925, 0.7723918557167053, 0.712602436542511, 0.565939724445343, 0.33948463201522827, 0.21876579523086548, 0.2666575312614441, 0.1921529322862625, 0.44661372900009155, 0.4312317371368408]</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.8690059185028076</v>
+        <v>0.8639019727706909</v>
       </c>
       <c r="F236" t="n">
         <v>1</v>
@@ -9983,10 +9983,10 @@
         </is>
       </c>
       <c r="I236" t="n">
-        <v>0.8445708999934141</v>
+        <v>0.8820291000010911</v>
       </c>
       <c r="J236" t="n">
-        <v>0.006756567199947313</v>
+        <v>0.007056232800008729</v>
       </c>
     </row>
     <row r="237">
@@ -10005,11 +10005,11 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>[0.8590422868728638, 0.9218041896820068, 0.9520424604415894, 0.9498741030693054, 0.8978068232536316, 0.9152153134346008, 0.7680080533027649, 0.6510303616523743, 0.59503573179245, 0.4997767508029938, 0.5997840762138367, 0.7707912921905518, 0.8084012269973755, 0.9144089818000793, 0.9503964781761169, 0.939605712890625, 0.9440956711769104, 0.9096004962921143, 0.839169979095459, 0.9012473821640015, 0.9093994498252869, 0.8912574648857117, 0.8689053654670715, 0.6585275530815125, 0.5670772194862366, 0.614514172077179, 0.567638099193573, 0.884257435798645, 0.7961465120315552, 0.8054567575454712, 0.8320282697677612, 0.9050756692886353, 0.8745529055595398, 0.8843567371368408, 0.9155183434486389, 0.8706841468811035, 0.774834930896759, 0.6503639817237854, 0.7439800500869751, 0.8033286929130554, 0.8248438835144043, 0.8944787979125977, 0.9204882979393005, 0.9041682481765747, 0.9297537207603455, 0.9269381761550903, 0.9226705431938171, 0.9559097290039062, 0.975456178188324, 0.9806241393089294, 0.9738532304763794, 0.944525420665741, 0.9028041362762451, 0.9362836480140686, 0.9428805112838745, 0.9453855156898499, 0.9108719825744629, 0.9225614070892334, 0.9247972369194031, 0.9703611135482788, 0.9512912631034851, 0.913447916507721, 0.9311720728874207, 0.9181275963783264, 0.7909578084945679, 0.9141430258750916, 0.9390408992767334, 0.9149078726768494, 0.9061889052391052, 0.8987039923667908, 0.9617868661880493, 0.9775822758674622, 0.9760529398918152, 0.9428662061691284, 0.8811100125312805, 0.866853654384613, 0.894497275352478, 0.9648275375366211, 0.9202726483345032, 0.9391027092933655, 0.8877986669540405, 0.8045254945755005, 0.8536881804466248, 0.6903971433639526, 0.5559617877006531, 0.7937222123146057, 0.6680377721786499, 0.8255519270896912, 0.7807971239089966, 0.8577592968940735, 0.8013172149658203, 0.9088757634162903, 0.9171848297119141, 0.9011003375053406, 0.7609100341796875, 0.7837172150611877, 0.8401890397071838, 0.8110692501068115, 0.800483763217926, 0.8370109796524048, 0.825683057308197, 0.737307608127594, 0.7324866652488708, 0.9211966395378113, 0.7544177770614624, 0.7698154449462891, 0.6961360573768616, 0.8568962216377258, 0.9023445248603821, 0.9735912084579468, 0.9681999087333679, 0.9614961743354797, 0.9536356329917908, 0.9148496985435486, 0.838033139705658, 0.8441590666770935, 0.9159737825393677, 0.9424698948860168, 0.9107519388198853, 0.8135192394256592, 0.9408795237541199, 0.9285166263580322, 0.881415843963623, 0.9300499558448792, 0.9311305284500122]</t>
+          <t>[0.9003467559814453, 0.9490704536437988, 0.9661877155303955, 0.9408188462257385, 0.8861007690429688, 0.9297207593917847, 0.8205793499946594, 0.7374802827835083, 0.6880395412445068, 0.6764561533927917, 0.6915899515151978, 0.8705693483352661, 0.8629953265190125, 0.964245617389679, 0.9822367429733276, 0.975985586643219, 0.9733223915100098, 0.9543800950050354, 0.9161194562911987, 0.937453031539917, 0.9550886750221252, 0.9464917778968811, 0.9215899705886841, 0.813789427280426, 0.7797654271125793, 0.7890185117721558, 0.7602764368057251, 0.9253005981445312, 0.880484402179718, 0.8989107608795166, 0.9119207859039307, 0.9438758492469788, 0.9291900396347046, 0.9413847327232361, 0.9466493129730225, 0.9147337675094604, 0.8595312237739563, 0.6932905912399292, 0.7521994113922119, 0.7883395552635193, 0.8464625477790833, 0.9080097079277039, 0.9359506964683533, 0.9157804250717163, 0.9459507465362549, 0.932457447052002, 0.9302183985710144, 0.9532933831214905, 0.9777036309242249, 0.9847384691238403, 0.9786747694015503, 0.949997067451477, 0.9010120034217834, 0.9474120736122131, 0.9461313486099243, 0.9485704898834229, 0.9252046942710876, 0.935775637626648, 0.937054455280304, 0.9750848412513733, 0.9549081921577454, 0.9245129227638245, 0.9311070442199707, 0.9272682070732117, 0.8319518566131592, 0.9340255856513977, 0.952578604221344, 0.9425996541976929, 0.9132755994796753, 0.9361340999603271, 0.9743221998214722, 0.9839881062507629, 0.9840357899665833, 0.9631120562553406, 0.9225034713745117, 0.9064603447914124, 0.9152793288230896, 0.976867139339447, 0.9298411011695862, 0.9438550472259521, 0.8926144242286682, 0.8120723962783813, 0.8422779440879822, 0.6395395994186401, 0.5832043886184692, 0.8623301386833191, 0.7647335529327393, 0.8793753981590271, 0.808097779750824, 0.8209090828895569, 0.8328974843025208, 0.8775155544281006, 0.8896327614784241, 0.8989700078964233, 0.7305428981781006, 0.7740144729614258, 0.8579387664794922, 0.8259854912757874, 0.831244945526123, 0.8823836445808411, 0.8670032024383545, 0.794853925704956, 0.7461376786231995, 0.919780433177948, 0.7615112066268921, 0.7519727945327759, 0.673627495765686, 0.8350833058357239, 0.9044092297554016, 0.9728599786758423, 0.9709793329238892, 0.961891233921051, 0.9470709562301636, 0.9353256225585938, 0.8619319796562195, 0.8695432543754578, 0.930755078792572, 0.9567013382911682, 0.9289154410362244, 0.8350951075553894, 0.9494155645370483, 0.9428897500038147, 0.913386881351471, 0.9366521835327148, 0.9379634857177734]</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.9806241393089294</v>
+        <v>0.9847384691238403</v>
       </c>
       <c r="F237" t="n">
         <v>1</v>
@@ -10023,10 +10023,10 @@
         </is>
       </c>
       <c r="I237" t="n">
-        <v>0.7080858999979682</v>
+        <v>0.7232191999937641</v>
       </c>
       <c r="J237" t="n">
-        <v>0.005664687199983746</v>
+        <v>0.005785753599950112</v>
       </c>
     </row>
     <row r="238">
@@ -10045,11 +10045,11 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[0.8668208718299866, 0.9604660868644714, 0.9590635895729065, 0.9894193410873413, 0.9837965369224548, 0.9575580954551697, 0.8274412751197815, 0.91966313123703, 0.8122096061706543, 0.9184750318527222, 0.8683550953865051, 0.955764889717102, 0.9497054815292358, 0.9759977459907532, 0.987380862236023, 0.9775786399841309, 0.9808711409568787, 0.9736701250076294, 0.9508270621299744, 0.9709802269935608, 0.9451847076416016, 0.9202260971069336, 0.8832610845565796, 0.9261115193367004, 0.9633079767227173, 0.9044575691223145, 0.9205430746078491, 0.9556098580360413, 0.8953851461410522, 0.740206778049469, 0.8266611099243164, 0.8765483498573303, 0.7787836194038391, 0.9157150387763977, 0.772118866443634, 0.5830749869346619, 0.7881114482879639, 0.5918893814086914, 0.8467115759849548, 0.7622324824333191, 0.8469679951667786, 0.9065513610839844, 0.8924020528793335, 0.7907630801200867, 0.8879292607307434, 0.8366808295249939, 0.8724625706672668, 0.7460123896598816, 0.6548646092414856, 0.8513863682746887, 0.8185603618621826, 0.9666954278945923, 0.9073711037635803, 0.961432933807373, 0.890692412853241, 0.8037987947463989, 0.9307972192764282, 0.8899192810058594, 0.9413021206855774, 0.9288458824157715, 0.9051530361175537, 0.9086125493049622, 0.7947564125061035, 0.8111091256141663, 0.7663319110870361, 0.9556271433830261, 0.9324802160263062, 0.8693594932556152, 0.9506409764289856, 0.9397801160812378, 0.9216894507408142, 0.9760540723800659, 0.9768457412719727, 0.9420212507247925, 0.9560806751251221, 0.9783498048782349, 0.9501250982284546, 0.9672539830207825, 0.9816635847091675, 0.9905176758766174, 0.9897109866142273, 0.8682129979133606, 0.9740619659423828, 0.967246413230896, 0.9515236616134644, 0.9533169865608215, 0.9474778771400452, 0.9281914234161377, 0.8081755638122559, 0.7853826284408569, 0.8941532969474792, 0.9363659024238586, 0.8418914675712585, 0.945385754108429, 0.962548017501831, 0.8661633729934692, 0.764156699180603, 0.6800287961959839, 0.7717604041099548, 0.9295636415481567, 0.9645164608955383, 0.9132733941078186, 0.833846390247345, 0.8033056855201721, 0.7332913875579834, 0.6499296426773071, 0.6218718886375427, 0.8268904685974121, 0.6394827365875244, 0.5333514213562012, 0.46893370151519775, 0.8189555406570435, 0.8295637369155884, 0.7274042963981628, 0.8216444849967957, 0.823907196521759, 0.8717880845069885, 0.900765061378479, 0.9409648776054382, 0.9784623384475708, 0.9717804193496704, 0.9605652689933777, 0.9100753664970398, 0.9811505675315857, 0.9818093776702881]</t>
+          <t>[0.856194257736206, 0.9448143839836121, 0.9496738910675049, 0.9840579628944397, 0.9833488464355469, 0.9514135718345642, 0.8172991275787354, 0.9325389266014099, 0.8534058332443237, 0.9330224394798279, 0.8822729587554932, 0.9517217874526978, 0.948907732963562, 0.9734655022621155, 0.9866238236427307, 0.9754933714866638, 0.9771623015403748, 0.9730175137519836, 0.9466219544410706, 0.9602833390235901, 0.9505488872528076, 0.9252790808677673, 0.8578518629074097, 0.9393625259399414, 0.9654778242111206, 0.9071820378303528, 0.9117870926856995, 0.9559798240661621, 0.9138292670249939, 0.7889677882194519, 0.8207285404205322, 0.865412712097168, 0.8012634515762329, 0.869059681892395, 0.7777602672576904, 0.5704102516174316, 0.8173732161521912, 0.6947169899940491, 0.8244051933288574, 0.7080844640731812, 0.8154590129852295, 0.8516080379486084, 0.8498662114143372, 0.7566551566123962, 0.8370535373687744, 0.8401166796684265, 0.877109169960022, 0.7460559010505676, 0.5918723344802856, 0.8227742314338684, 0.8201250433921814, 0.9653753638267517, 0.9042012095451355, 0.9484818577766418, 0.8630306720733643, 0.8041920065879822, 0.9014011025428772, 0.8777220249176025, 0.936286985874176, 0.8916899561882019, 0.8430253267288208, 0.8808295130729675, 0.7575401067733765, 0.7594112753868103, 0.715232253074646, 0.9302986264228821, 0.9017081260681152, 0.8522690534591675, 0.9206076264381409, 0.9085972905158997, 0.9019069671630859, 0.9568338394165039, 0.9407432079315186, 0.8814700841903687, 0.9305202960968018, 0.9677442908287048, 0.9236418604850769, 0.9361082911491394, 0.9723438620567322, 0.9840942025184631, 0.9859080910682678, 0.845473051071167, 0.9605907201766968, 0.9565441608428955, 0.9401392936706543, 0.9342367649078369, 0.912447988986969, 0.9131714105606079, 0.8438679575920105, 0.7875632047653198, 0.8504776358604431, 0.8886117935180664, 0.7798461318016052, 0.9272171854972839, 0.9651232361793518, 0.8666263818740845, 0.729428231716156, 0.681932806968689, 0.7562774419784546, 0.8883495330810547, 0.9497014284133911, 0.8975486159324646, 0.80141681432724, 0.7951913475990295, 0.7409946918487549, 0.7255055904388428, 0.6872766017913818, 0.8441433906555176, 0.6439228057861328, 0.482094943523407, 0.4660520553588867, 0.809184730052948, 0.8442350029945374, 0.7432116270065308, 0.788381814956665, 0.8067623376846313, 0.8452318906784058, 0.9019634127616882, 0.9181553721427917, 0.9487872123718262, 0.9191082119941711, 0.950191855430603, 0.9032439589500427, 0.9745340943336487, 0.9753392338752747]</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.9905176758766174</v>
+        <v>0.9866238236427307</v>
       </c>
       <c r="F238" t="n">
         <v>1</v>
@@ -10063,10 +10063,10 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>0.7049316000193357</v>
+        <v>0.6939252000011038</v>
       </c>
       <c r="J238" t="n">
-        <v>0.005639452800154686</v>
+        <v>0.00555140160000883</v>
       </c>
     </row>
     <row r="239">
@@ -10085,11 +10085,11 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[0.500519335269928, 0.5988303422927856, 0.7006093263626099, 0.679895281791687, 0.5145029425621033, 0.5116361379623413, 0.5579604506492615, 0.686455488204956, 0.8086420297622681, 0.8147084712982178, 0.7298395037651062, 0.8750081062316895, 0.8628394603729248, 0.8018815517425537, 0.6491739749908447, 0.7817213535308838, 0.9040076732635498, 0.9245418906211853, 0.8845674395561218, 0.911412239074707, 0.90279620885849, 0.9157122373580933, 0.8640953898429871, 0.9080240726470947, 0.8860286474227905, 0.7483822703361511, 0.6105911731719971, 0.7558163404464722, 0.7844546437263489, 0.7445899248123169, 0.5892230868339539, 0.7180975675582886, 0.8097866177558899, 0.8813316226005554, 0.8419883847236633, 0.8544979691505432, 0.8543211817741394, 0.8591158986091614, 0.719912052154541, 0.8155739903450012, 0.9002813100814819, 0.8665345311164856, 0.9687868356704712, 0.9755529165267944, 0.8654869198799133, 0.7873681783676147, 0.7443066239356995, 0.5550278425216675, 0.5904641151428223, 0.5766268968582153, 0.4878467619419098, 0.4877508878707886, 0.5287574529647827, 0.4356835186481476, 0.517102062702179, 0.5218625068664551, 0.3416471779346466, 0.5031418204307556, 0.4631291329860687, 0.4122011363506317, 0.5075097680091858, 0.43928036093711853, 0.4009438753128052, 0.41556668281555176, 0.48955753445625305, 0.47030460834503174, 0.4619305431842804, 0.38361477851867676, 0.3891756236553192, 0.4257403612136841, 0.4155791401863098, 0.37950554490089417, 0.34591051936149597, 0.3622143566608429, 0.31921863555908203, 0.5495815277099609, 0.7403056025505066, 0.8954822421073914, 0.7425949573516846, 0.818713903427124, 0.5760728120803833, 0.6016190648078918, 0.7434020042419434, 0.8883548974990845, 0.9072079658508301, 0.7282828688621521, 0.8828864693641663, 0.7516763210296631, 0.8515463471412659, 0.885864794254303, 0.8355457186698914, 0.8715937733650208, 0.8936259746551514, 0.9234395623207092, 0.9297398924827576, 0.9415614008903503, 0.9086777567863464, 0.8624979853630066, 0.536119282245636, 0.7467756271362305, 0.9338951110839844, 0.8991644382476807, 0.8202007412910461, 0.844032347202301, 0.5686832666397095, 0.6519132256507874, 0.7469668984413147, 0.8372036218643188, 0.640792191028595, 0.7653356790542603, 0.9324706196784973, 0.9535249471664429, 0.9494917988777161, 0.964487612247467, 0.9472705125808716, 0.8989740014076233, 0.7820014953613281, 0.7049238681793213, 0.7005357146263123, 0.7534131407737732, 0.5855215787887573, 0.7090422511100769, 0.6404624581336975, 0.6439388990402222]</t>
+          <t>[0.5674434304237366, 0.6826122403144836, 0.7425938844680786, 0.6743013858795166, 0.6264876127243042, 0.6200414896011353, 0.6440955996513367, 0.7838588356971741, 0.8689373135566711, 0.8869755864143372, 0.831625759601593, 0.9160209894180298, 0.8944535851478577, 0.884174644947052, 0.7520884275436401, 0.8259668946266174, 0.9393740296363831, 0.9411143660545349, 0.8827032446861267, 0.9299464225769043, 0.9139620661735535, 0.9504437446594238, 0.909770667552948, 0.9382163286209106, 0.9255416393280029, 0.8767722845077515, 0.7647422552108765, 0.8783623576164246, 0.9169243574142456, 0.8287453651428223, 0.7742525935173035, 0.8289670944213867, 0.9188728332519531, 0.9447888135910034, 0.9190572500228882, 0.9136945009231567, 0.9219900965690613, 0.9022744297981262, 0.8541890382766724, 0.8840284943580627, 0.9466028809547424, 0.9102705121040344, 0.9819113612174988, 0.9877726435661316, 0.9395331144332886, 0.8927712440490723, 0.8781914114952087, 0.7726886868476868, 0.748836874961853, 0.7559940814971924, 0.7395157217979431, 0.6920504570007324, 0.7108392119407654, 0.654413640499115, 0.7118139863014221, 0.6912243962287903, 0.5659641027450562, 0.6931031346321106, 0.673506498336792, 0.6056510806083679, 0.716457188129425, 0.6418600678443909, 0.5936170816421509, 0.6398640275001526, 0.6984647512435913, 0.6579761505126953, 0.6529386043548584, 0.5633431077003479, 0.5862862467765808, 0.5755522847175598, 0.6109974980354309, 0.5165996551513672, 0.5540853142738342, 0.5899785757064819, 0.5184239149093628, 0.6606740951538086, 0.8398846387863159, 0.9406920075416565, 0.8660898208618164, 0.8882393836975098, 0.7849269509315491, 0.8217713236808777, 0.9062350392341614, 0.9565373659133911, 0.9420926570892334, 0.8110491037368774, 0.9098379611968994, 0.8368851542472839, 0.9319556355476379, 0.9470285177230835, 0.9046393632888794, 0.925987720489502, 0.9457146525382996, 0.9529741406440735, 0.9528087377548218, 0.9676344394683838, 0.9478768706321716, 0.9014150500297546, 0.6712555885314941, 0.823113739490509, 0.9517098069190979, 0.9363592267036438, 0.8947638273239136, 0.9282635450363159, 0.824491560459137, 0.8288818001747131, 0.8883650302886963, 0.9435800909996033, 0.8687660098075867, 0.8855689167976379, 0.9531230926513672, 0.9578821659088135, 0.9594612121582031, 0.9737202525138855, 0.9697734117507935, 0.93756502866745, 0.8200038075447083, 0.7972385883331299, 0.802152156829834, 0.8529022932052612, 0.7714307904243469, 0.8366924524307251, 0.7856327891349792, 0.7892786264419556]</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.9755529165267944</v>
+        <v>0.9877726435661316</v>
       </c>
       <c r="F239" t="n">
         <v>1</v>
@@ -10103,10 +10103,10 @@
         </is>
       </c>
       <c r="I239" t="n">
-        <v>0.6957037000101991</v>
+        <v>0.7024504999862984</v>
       </c>
       <c r="J239" t="n">
-        <v>0.00561051370975967</v>
+        <v>0.005664923386986277</v>
       </c>
     </row>
     <row r="240">
@@ -10125,11 +10125,11 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[0.3079375922679901, 0.36353737115859985, 0.4992409348487854, 0.6399951577186584, 0.2343183308839798, 0.3067633807659149, 0.2767704129219055, 0.3184487521648407, 0.16290855407714844, 0.273438036441803, 0.1668197065591812, 0.22267916798591614, 0.2605430483818054, 0.26136115193367004, 0.2804509401321411, 0.2531907260417938, 0.5494710206985474, 0.37273702025413513, 0.19310109317302704, 0.4792885482311249, 0.4583297073841095, 0.635898232460022, 0.6415758728981018, 0.479842871427536, 0.2138506919145584, 0.3326682150363922, 0.3061612844467163, 0.8089608550071716, 0.8560349941253662, 0.4014638364315033, 0.3917389512062073, 0.49371129274368286, 0.3978165090084076, 0.5176054239273071, 0.5758833289146423, 0.8533409833908081, 0.7202924489974976, 0.5164526104927063, 0.2549130916595459, 0.33188822865486145, 0.4010576903820038, 0.5569079518318176, 0.3592662215232849, 0.42321521043777466, 0.35236743092536926, 0.33456870913505554, 0.3510129153728485, 0.4575341045856476, 0.44957441091537476, 0.4396438002586365, 0.27738916873931885, 0.42156752943992615, 0.40414026379585266, 0.24462707340717316, 0.19643110036849976, 0.19809144735336304, 0.28210484981536865, 0.26010432839393616, 0.20364925265312195, 0.21710151433944702, 0.30316662788391113, 0.43364885449409485, 0.7288979887962341, 0.8193144798278809, 0.898058295249939, 0.9055176973342896, 0.8854991793632507, 0.8771403431892395, 0.6765210628509521, 0.5780931711196899, 0.6230303049087524, 0.736951470375061, 0.7830770015716553, 0.801712155342102, 0.44379758834838867, 0.7430130839347839, 0.4374839663505554, 0.39335399866104126, 0.25696510076522827, 0.4414500296115875, 0.36484459042549133, 0.3662600815296173, 0.22198115289211273, 0.32534825801849365, 0.38639402389526367, 0.258906751871109, 0.20623888075351715, 0.28488659858703613, 0.4504477381706238, 0.2698851227760315, 0.2117825299501419, 0.26385751366615295, 0.21436357498168945, 0.19026677310466766, 0.19387686252593994, 0.29870980978012085, 0.21104168891906738, 0.3268685042858124, 0.2782609164714813, 0.28595784306526184, 0.26928138732910156, 0.3439472019672394, 0.3029610812664032, 0.25429219007492065, 0.27423736453056335, 0.3044573664665222, 0.29950475692749023, 0.3787771165370941, 0.35393232107162476, 0.46133700013160706, 0.3557295501232147, 0.3597249388694763, 0.3810918629169464, 0.33368727564811707, 0.3078479468822479, 0.32309970259666443, 0.3263970911502838, 0.5757817029953003, 0.20672501623630524, 0.2513807415962219, 0.27823683619499207, 0.3063283860683441, 0.28719452023506165, 0.275221049785614]</t>
+          <t>[0.27425017952919006, 0.3351387679576874, 0.41923367977142334, 0.6446742415428162, 0.21813921630382538, 0.2690768539905548, 0.28020939230918884, 0.2698251008987427, 0.12362432479858398, 0.23490175604820251, 0.1196151152253151, 0.1696169376373291, 0.2888050377368927, 0.2068886160850525, 0.2700779438018799, 0.28875914216041565, 0.6393188834190369, 0.452391654253006, 0.16480091214179993, 0.4403955340385437, 0.48940160870552063, 0.7184204459190369, 0.7212771773338318, 0.6179417967796326, 0.26904743909835815, 0.42378324270248413, 0.41543689370155334, 0.8844303488731384, 0.9239928722381592, 0.434918075799942, 0.36728280782699585, 0.4507276117801666, 0.3566475212574005, 0.47220736742019653, 0.6875271201133728, 0.9206303358078003, 0.8251398205757141, 0.5983759760856628, 0.2611669898033142, 0.311249703168869, 0.3787941038608551, 0.6490292549133301, 0.3568589389324188, 0.31919825077056885, 0.29050174355506897, 0.314946711063385, 0.4153604209423065, 0.5022463202476501, 0.5840703845024109, 0.5964521765708923, 0.3727514147758484, 0.547605037689209, 0.46307435631752014, 0.2573107182979584, 0.22823230922222137, 0.21217080950737, 0.2647348642349243, 0.23567081987857819, 0.19480586051940918, 0.20978641510009766, 0.25159499049186707, 0.4102095365524292, 0.8506119251251221, 0.8901849389076233, 0.9580686688423157, 0.9536944031715393, 0.9460853934288025, 0.9358806610107422, 0.8137106895446777, 0.7172029614448547, 0.8261508941650391, 0.8383560180664062, 0.8771346807479858, 0.9062750935554504, 0.5873600244522095, 0.8250740766525269, 0.37296074628829956, 0.2987467050552368, 0.24964405596256256, 0.44014647603034973, 0.29426902532577515, 0.37806224822998047, 0.25284597277641296, 0.3534749746322632, 0.4709339141845703, 0.28729763627052307, 0.15200275182724, 0.24050138890743256, 0.41712573170661926, 0.2128676474094391, 0.1590668112039566, 0.24028363823890686, 0.1535014510154724, 0.12571850419044495, 0.12602312862873077, 0.23358593881130219, 0.13641361892223358, 0.2800021469593048, 0.18140017986297607, 0.22777344286441803, 0.24082650244235992, 0.3349244296550751, 0.3415614664554596, 0.210222527384758, 0.25020986795425415, 0.2608967423439026, 0.30681943893432617, 0.4502038359642029, 0.3969835638999939, 0.46359825134277344, 0.3488858640193939, 0.34324195981025696, 0.3963847756385803, 0.34332260489463806, 0.35344430804252625, 0.3610896170139313, 0.2953653931617737, 0.6099944114685059, 0.19044926762580872, 0.22999577224254608, 0.2761673033237457, 0.2998030185699463, 0.26712334156036377, 0.25290346145629883]</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.9055176973342896</v>
+        <v>0.9580686688423157</v>
       </c>
       <c r="F240" t="n">
         <v>1</v>
@@ -10143,10 +10143,10 @@
         </is>
       </c>
       <c r="I240" t="n">
-        <v>0.7020625000004657</v>
+        <v>0.7167458000039915</v>
       </c>
       <c r="J240" t="n">
-        <v>0.005661794354842465</v>
+        <v>0.005780208064548318</v>
       </c>
     </row>
     <row r="241">
@@ -10165,11 +10165,11 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>[0.8802501559257507, 0.8213549852371216, 0.8666659593582153, 0.9203647971153259, 0.871954619884491, 0.9039949178695679, 0.805530309677124, 0.8819626569747925, 0.9012300372123718, 0.8599225282669067, 0.8342512249946594, 0.8202274441719055, 0.6209606528282166, 0.6136487126350403, 0.5085738897323608, 0.6730890274047852, 0.6705531477928162, 0.37871915102005005, 0.37395694851875305, 0.6566039323806763, 0.8433476686477661, 0.9317091703414917, 0.8178592324256897, 0.6072173118591309, 0.7151145339012146, 0.8397219181060791, 0.9138057827949524, 0.9215795993804932, 0.8570780754089355, 0.7845414280891418, 0.6628522872924805, 0.8573459386825562, 0.7950747609138489, 0.8815045356750488, 0.7623758912086487, 0.7551326751708984, 0.8369836807250977, 0.8322755694389343, 0.8422102928161621, 0.8618931770324707, 0.8409726619720459, 0.8985544443130493, 0.7840224504470825, 0.8312509655952454, 0.7391648888587952, 0.9135827422142029, 0.9147056341171265, 0.910394012928009, 0.8724122643470764, 0.8908379077911377, 0.8897606134414673, 0.8185679316520691, 0.8238200545310974, 0.7698619365692139, 0.6518082618713379, 0.5374186635017395, 0.6192833781242371, 0.6889151930809021, 0.6638108491897583, 0.6067619323730469, 0.6552808284759521, 0.7080232501029968, 0.4990414083003998, 0.818889319896698, 0.7532588839530945, 0.6146321892738342, 0.3866243064403534, 0.6174542903900146, 0.6695230007171631, 0.7222065329551697, 0.605509340763092, 0.6782089471817017, 0.60728919506073, 0.6033653616905212, 0.7252074480056763, 0.9176868200302124, 0.7742239832878113, 0.7064473032951355, 0.8097962141036987, 0.9293320178985596, 0.9020311236381531, 0.8672072291374207, 0.9040095806121826, 0.913747251033783, 0.9104243516921997, 0.8502728939056396, 0.6654989719390869, 0.6025643348693848, 0.5177814960479736, 0.5616922974586487, 0.8545280694961548, 0.8809693455696106, 0.7884369492530823, 0.8476393818855286, 0.8334137201309204, 0.715276300907135, 0.5377387404441833, 0.6343362331390381, 0.8808550238609314, 0.8840184211730957, 0.8492298126220703, 0.9627093076705933, 0.8373488783836365, 0.9315025210380554, 0.8895819187164307, 0.9206610918045044, 0.9737213850021362, 0.9759010076522827, 0.9225101470947266, 0.855441153049469, 0.8122733235359192, 0.7404278516769409, 0.5173035860061646, 0.6647332906723022, 0.6941732168197632, 0.7707556486129761, 0.6904907822608948, 0.8161914348602295, 0.7470738291740417, 0.7276192903518677, 0.7737941741943359, 0.79925537109375, 0.7286190390586853, 0.7269529104232788]</t>
+          <t>[0.8198102116584778, 0.7785752415657043, 0.848476767539978, 0.8992061614990234, 0.8466914892196655, 0.8960425853729248, 0.8569349050521851, 0.8778337240219116, 0.8744138479232788, 0.8208106756210327, 0.8638133406639099, 0.862037718296051, 0.655299723148346, 0.6905598640441895, 0.5470735430717468, 0.768757164478302, 0.7842910885810852, 0.47933608293533325, 0.4321203827857971, 0.7533012628555298, 0.8820323944091797, 0.9356961846351624, 0.7937849760055542, 0.6351471543312073, 0.6999499797821045, 0.7946228981018066, 0.903031587600708, 0.9117628931999207, 0.8678591251373291, 0.7927329540252686, 0.7408576607704163, 0.9021562933921814, 0.8539696335792542, 0.8646004796028137, 0.771278977394104, 0.7880250215530396, 0.8382828831672668, 0.8622111082077026, 0.8492981791496277, 0.8469229936599731, 0.8457688093185425, 0.9011194109916687, 0.7494534850120544, 0.8568421602249146, 0.7847533226013184, 0.9189698696136475, 0.9158651828765869, 0.8897848129272461, 0.8259209990501404, 0.8867321014404297, 0.8940773010253906, 0.8292837142944336, 0.8087801337242126, 0.7609366178512573, 0.6734640598297119, 0.5846757292747498, 0.67256760597229, 0.7366799116134644, 0.7112585306167603, 0.6867198944091797, 0.7507092952728271, 0.786870539188385, 0.5815600156784058, 0.8720832467079163, 0.7630338072776794, 0.6370695233345032, 0.42317646741867065, 0.600549042224884, 0.589042067527771, 0.6313509941101074, 0.6462104916572571, 0.6389415264129639, 0.6693035364151001, 0.5843642950057983, 0.6963697075843811, 0.9200989007949829, 0.765337347984314, 0.6195085644721985, 0.7664315104484558, 0.9110459089279175, 0.8830866813659668, 0.8858206272125244, 0.9200212359428406, 0.9382762312889099, 0.9275936484336853, 0.8696834444999695, 0.7192121744155884, 0.6560838222503662, 0.6153534054756165, 0.6208913922309875, 0.8957421183586121, 0.9034081101417542, 0.8659972548484802, 0.8841232061386108, 0.8533048033714294, 0.7386770844459534, 0.5690159797668457, 0.6925947666168213, 0.8285135626792908, 0.8795180916786194, 0.8372713923454285, 0.9457812905311584, 0.8566135764122009, 0.925728976726532, 0.8896188139915466, 0.9153465032577515, 0.9771875739097595, 0.9773624539375305, 0.9331264495849609, 0.8775590658187866, 0.8290172815322876, 0.7799949049949646, 0.5123501420021057, 0.6199616193771362, 0.6004989743232727, 0.7309831976890564, 0.6895434260368347, 0.820188045501709, 0.7647699117660522, 0.7672402858734131, 0.8026395440101624, 0.828379213809967, 0.7228655815124512, 0.7204337120056152]</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.9759010076522827</v>
+        <v>0.9773624539375305</v>
       </c>
       <c r="F241" t="n">
         <v>1</v>
@@ -10183,10 +10183,10 @@
         </is>
       </c>
       <c r="I241" t="n">
-        <v>0.7097494000045117</v>
+        <v>0.7047832999960519</v>
       </c>
       <c r="J241" t="n">
-        <v>0.005723785483907352</v>
+        <v>0.005683736290290741</v>
       </c>
     </row>
     <row r="242">
@@ -10205,11 +10205,11 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>[0.7205834984779358, 0.8613235354423523, 0.7884259819984436, 0.5877414345741272, 0.545791745185852, 0.5912990570068359, 0.45770159363746643, 0.3907316327095032, 0.4628438651561737, 0.49026253819465637, 0.4466806948184967, 0.4638919234275818, 0.516426146030426, 0.7747564911842346, 0.7137241959571838, 0.4675396978855133, 0.44943949580192566, 0.4925783574581146, 0.4400874674320221, 0.32692623138427734, 0.3918773829936981, 0.4030873775482178, 0.48971304297447205, 0.3698235750198364, 0.665858268737793, 0.40904805064201355, 0.49353137612342834, 0.6666191816329956, 0.597161591053009, 0.5515471696853638, 0.4496995508670807, 0.5531386137008667, 0.6531844735145569, 0.6985493898391724, 0.7000539898872375, 0.624045193195343, 0.4804396331310272, 0.6386563181877136, 0.7343947887420654, 0.5790662169456482, 0.42331209778785706, 0.45047956705093384, 0.3419746160507202, 0.4416988790035248, 0.39196309447288513, 0.6197728514671326, 0.7858112454414368, 0.7254498600959778, 0.6690480709075928, 0.8223540782928467, 0.7321990728378296, 0.8708720803260803, 0.7624139785766602, 0.8082521557807922, 0.752155065536499, 0.9177836775779724, 0.7431466579437256, 0.7081916332244873, 0.7641799449920654, 0.815264105796814, 0.6753494739532471, 0.8025935292243958, 0.6602236032485962, 0.803943932056427, 0.8259403705596924, 0.8795494437217712, 0.7912104725837708, 0.6874948143959045, 0.49044373631477356, 0.5806860327720642, 0.652588963508606, 0.3856769800186157, 0.3730088174343109, 0.39458203315734863, 0.36166873574256897, 0.6098758578300476, 0.31725627183914185, 0.37010687589645386, 0.47357580065727234, 0.475754052400589, 0.4866870939731598, 0.49242979288101196, 0.4555937647819519, 0.37577390670776367, 0.5253715515136719, 0.49265360832214355, 0.5029640197753906, 0.5065997242927551, 0.32109296321868896, 0.5646156668663025, 0.6581281423568726, 0.7097278833389282, 0.5068644285202026, 0.5227777361869812, 0.3522476851940155, 0.41694843769073486, 0.36352622509002686, 0.5522275567054749, 0.38805192708969116, 0.2815244197845459, 0.27715855836868286, 0.272737056016922, 0.2741525173187256, 0.3526899516582489, 0.45152589678764343, 0.4046294093132019, 0.39986735582351685, 0.41465163230895996, 0.28525418043136597, 0.3079887330532074, 0.28227171301841736, 0.32450565695762634, 0.3497844636440277, 0.24956485629081726, 0.18792489171028137, 0.24691203236579895, 0.24733377993106842, 0.33615049719810486, 0.3268163800239563, 0.45290446281433105, 0.47043511271476746, 0.4079952836036682, 0.3559487760066986, 0.35793131589889526]</t>
+          <t>[0.5954151153564453, 0.7765545845031738, 0.6600608825683594, 0.41098618507385254, 0.422134131193161, 0.5286076068878174, 0.3967875838279724, 0.36878708004951477, 0.38603338599205017, 0.38947638869285583, 0.4032488465309143, 0.436949223279953, 0.5520991683006287, 0.8392043709754944, 0.7118398547172546, 0.38424620032310486, 0.4008464515209198, 0.3889225423336029, 0.4273233413696289, 0.24433213472366333, 0.2950967848300934, 0.31468552350997925, 0.40257492661476135, 0.24419531226158142, 0.5272740721702576, 0.3170686960220337, 0.38440045714378357, 0.5368281602859497, 0.46826818585395813, 0.45253533124923706, 0.3286892771720886, 0.43996697664260864, 0.5069360136985779, 0.5765886902809143, 0.4899941086769104, 0.4153363108634949, 0.3088180124759674, 0.4578743278980255, 0.5968290567398071, 0.364518940448761, 0.28852641582489014, 0.33211225271224976, 0.2190503627061844, 0.27225542068481445, 0.24774231016635895, 0.40504637360572815, 0.5697152614593506, 0.4427642226219177, 0.484979510307312, 0.6710686087608337, 0.5945318937301636, 0.8084393739700317, 0.5639848709106445, 0.6825124621391296, 0.6162188053131104, 0.8894371390342712, 0.6566116213798523, 0.5873274803161621, 0.6201296448707581, 0.7025113105773926, 0.5951873064041138, 0.7381278872489929, 0.5613037347793579, 0.6937658786773682, 0.7045392394065857, 0.8306271433830261, 0.6728618741035461, 0.6110206842422485, 0.35974106192588806, 0.5113037824630737, 0.6437222957611084, 0.39526084065437317, 0.4050097167491913, 0.4577334523200989, 0.4006069600582123, 0.6086170673370361, 0.31853437423706055, 0.37499555945396423, 0.49705666303634644, 0.45449817180633545, 0.4355016052722931, 0.3872705101966858, 0.41742587089538574, 0.38639459013938904, 0.5809347033500671, 0.4337862730026245, 0.48195838928222656, 0.5548095107078552, 0.3308487832546234, 0.5597661137580872, 0.5574741363525391, 0.6414980888366699, 0.45821863412857056, 0.4672333896160126, 0.3636740744113922, 0.3702397048473358, 0.2982199490070343, 0.4648270308971405, 0.3773636817932129, 0.2526398003101349, 0.2576758861541748, 0.22044992446899414, 0.21173125505447388, 0.23073002696037292, 0.3235549032688141, 0.2512066960334778, 0.27370402216911316, 0.29003778100013733, 0.1840529441833496, 0.2113785445690155, 0.21232418715953827, 0.3081355392932892, 0.3290875256061554, 0.2082415372133255, 0.13837142288684845, 0.18419130146503448, 0.2007928490638733, 0.380900502204895, 0.2974144220352173, 0.4511212110519409, 0.55937260389328, 0.43215978145599365, 0.3289923369884491, 0.333355575799942]</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.9177836775779724</v>
+        <v>0.8894371390342712</v>
       </c>
       <c r="F242" t="n">
         <v>1</v>
@@ -10223,10 +10223,10 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>0.705453899980057</v>
+        <v>0.7064058000105433</v>
       </c>
       <c r="J242" t="n">
-        <v>0.005689144354677879</v>
+        <v>0.005696820967826962</v>
       </c>
     </row>
     <row r="243">
@@ -10245,11 +10245,11 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>[0.26304206252098083, 0.3715388774871826, 0.3950427174568176, 0.3499734401702881, 0.20029385387897491, 0.20946688950061798, 0.3122931122779846, 0.22498483955860138, 0.17455698549747467, 0.19438210129737854, 0.1745608150959015, 0.24095556139945984, 0.19090835750102997, 0.19014617800712585, 0.18352577090263367, 0.2451266646385193, 0.17310991883277893, 0.15648862719535828, 0.1690654754638672, 0.20774389803409576, 0.22345483303070068, 0.30517423152923584, 0.3386111855506897, 0.2854065001010895, 0.28496918082237244, 0.39269179105758667, 0.23669268190860748, 0.3105106055736542, 0.39440152049064636, 0.2913641929626465, 0.34822264313697815, 0.5968455076217651, 0.5590934753417969, 0.6247066855430603, 0.8284249901771545, 0.6041750311851501, 0.2556820511817932, 0.36127182841300964, 0.6303480863571167, 0.6271796226501465, 0.3309265077114105, 0.5079193115234375, 0.37953174114227295, 0.28646087646484375, 0.2745395004749298, 0.31621167063713074, 0.42041656374931335, 0.3644758462905884, 0.41772207617759705, 0.5257622599601746, 0.5207062363624573, 0.3190951645374298, 0.47557297348976135, 0.6510841846466064, 0.6534696221351624, 0.39978548884391785, 0.25306999683380127, 0.21661439538002014, 0.1851535588502884, 0.23317275941371918, 0.19965429604053497, 0.2388118952512741, 0.2981095612049103, 0.26762905716896057, 0.2423498034477234, 0.305952250957489, 0.22155241668224335, 0.24223464727401733, 0.20259574055671692, 0.2932973802089691, 0.2949776351451874, 0.23445899784564972, 0.20675654709339142, 0.32073697447776794, 0.3309715986251831, 0.2790280282497406, 0.24686571955680847, 0.16772522032260895, 0.18058082461357117, 0.2130153924226761, 0.21266460418701172, 0.277086079120636, 0.32982680201530457, 0.21684898436069489, 0.14030104875564575, 0.22499613463878632, 0.1678546965122223, 0.3852454423904419, 0.5590096116065979, 0.3887784481048584, 0.2996766269207001, 0.439942330121994, 0.34879180788993835, 0.4165606200695038, 0.2778507173061371, 0.21717506647109985, 0.23861807584762573, 0.26662343740463257, 0.2557488679885864, 0.30906933546066284, 0.19208018481731415, 0.21843701601028442, 0.1993020474910736, 0.21277517080307007, 0.23153594136238098, 0.2276911437511444, 0.23478485643863678, 0.29919758439064026, 0.3421059250831604, 0.3882649838924408, 0.32592740654945374, 0.25860413908958435, 0.3899451494216919, 0.49505218863487244, 0.32654616236686707, 0.32382169365882874, 0.199080690741539, 0.372995525598526, 0.21970807015895844, 0.22794368863105774, 0.3201640248298645, 0.3357967138290405, 0.2595089375972748, 0.2595416307449341]</t>
+          <t>[0.23074674606323242, 0.3339402973651886, 0.262037068605423, 0.23700010776519775, 0.14635729789733887, 0.1548357605934143, 0.28217336535453796, 0.18193309009075165, 0.11761614680290222, 0.12286442518234253, 0.16861867904663086, 0.2192310392856598, 0.1610632985830307, 0.15419241786003113, 0.1431494504213333, 0.19181238114833832, 0.12182729691267014, 0.10203001648187637, 0.11258205026388168, 0.15862007439136505, 0.16092559695243835, 0.24397510290145874, 0.29002806544303894, 0.2620059847831726, 0.23231753706932068, 0.5205716490745544, 0.21960020065307617, 0.2249571532011032, 0.41594210267066956, 0.26206114888191223, 0.34552276134490967, 0.6338390111923218, 0.6719573140144348, 0.6262803673744202, 0.868683397769928, 0.6922640800476074, 0.2272077351808548, 0.4311472177505493, 0.6871498227119446, 0.5925533175468445, 0.33262884616851807, 0.5425485372543335, 0.4679148495197296, 0.3026886284351349, 0.3205723762512207, 0.3477083742618561, 0.4516357183456421, 0.36842116713523865, 0.39335760474205017, 0.5559793710708618, 0.4901856482028961, 0.2877408564090729, 0.5363548994064331, 0.6936532258987427, 0.7385299801826477, 0.5258541703224182, 0.3034736216068268, 0.2097628116607666, 0.167939230799675, 0.22335129976272583, 0.1963711977005005, 0.25279501080513, 0.35845351219177246, 0.3287416994571686, 0.2903043329715729, 0.3472338020801544, 0.27255234122276306, 0.2770194709300995, 0.2283860296010971, 0.3283024728298187, 0.3907223045825958, 0.3120402693748474, 0.27006080746650696, 0.4418790936470032, 0.39759233593940735, 0.33490562438964844, 0.2977413833141327, 0.1576341837644577, 0.18545140326023102, 0.21029114723205566, 0.18737901747226715, 0.277553528547287, 0.33565497398376465, 0.21377010643482208, 0.12694051861763, 0.20904003083705902, 0.17580720782279968, 0.3411698043346405, 0.5521600842475891, 0.4105209708213806, 0.3461892902851105, 0.4371674656867981, 0.30898383259773254, 0.36856964230537415, 0.27697300910949707, 0.21305006742477417, 0.19673492014408112, 0.24097397923469543, 0.21403324604034424, 0.22675064206123352, 0.15828751027584076, 0.1977359503507614, 0.17036370933055878, 0.2095862329006195, 0.23239265382289886, 0.21670177578926086, 0.25315308570861816, 0.31638622283935547, 0.3370855152606964, 0.40189987421035767, 0.3765338957309723, 0.2770569622516632, 0.5217534899711609, 0.6213794946670532, 0.4051070213317871, 0.39763352274894714, 0.22492074966430664, 0.5078966617584229, 0.260452002286911, 0.23806476593017578, 0.44219595193862915, 0.3960830271244049, 0.28289595246315, 0.2830294072628021]</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.8284249901771545</v>
+        <v>0.868683397769928</v>
       </c>
       <c r="F243" t="n">
         <v>1</v>
@@ -10263,10 +10263,10 @@
         </is>
       </c>
       <c r="I243" t="n">
-        <v>0.7079430999874603</v>
+        <v>0.7115239999984624</v>
       </c>
       <c r="J243" t="n">
-        <v>0.00570921854828597</v>
+        <v>0.005738096774181149</v>
       </c>
     </row>
     <row r="244">
@@ -10285,11 +10285,11 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>[0.908848762512207, 0.9528728127479553, 0.9133228063583374, 0.9278971552848816, 0.8971372246742249, 0.9399478435516357, 0.8158824443817139, 0.9238298535346985, 0.9512403607368469, 0.9491851329803467, 0.8359835743904114, 0.8381160497665405, 0.784427285194397, 0.3897703289985657, 0.6971697211265564, 0.7389827966690063, 0.5950227975845337, 0.606500506401062, 0.7125281095504761, 0.939662516117096, 0.7830371260643005, 0.9529008269309998, 0.7252364158630371, 0.7516729235649109, 0.6511033177375793, 0.9063811898231506, 0.8471294045448303, 0.6432093977928162, 0.7229056358337402, 0.9061731696128845, 0.9399682879447937, 0.9407953023910522, 0.8837098479270935, 0.8905407786369324, 0.6023548245429993, 0.9073441624641418, 0.923331618309021, 0.9557567238807678, 0.9569364190101624, 0.9135461449623108, 0.8016502261161804, 0.8753584027290344, 0.9718459844589233, 0.9900301694869995, 0.9727506041526794, 0.9761571288108826, 0.9435559511184692, 0.9756566286087036, 0.9831296801567078, 0.9737975001335144, 0.9583641886711121, 0.9306979775428772, 0.8770644068717957, 0.9634352922439575, 0.9531397819519043, 0.9378213882446289, 0.857206404209137, 0.9849188327789307, 0.9670750498771667, 0.9839314818382263, 0.9877558946609497, 0.9534416198730469, 0.8363889455795288, 0.9538522958755493, 0.8967610597610474, 0.9024544954299927, 0.6098142862319946, 0.47412994503974915, 0.6058238744735718, 0.6223942637443542, 0.49975526332855225, 0.6327911019325256, 0.7003230452537537, 0.8566462993621826, 0.8133134245872498, 0.8507698774337769, 0.8465030193328857, 0.683793306350708, 0.7830156087875366, 0.6900935769081116, 0.49275723099708557, 0.5190640091896057, 0.7227024435997009, 0.8824547529220581, 0.8362450003623962, 0.9394172430038452, 0.9551688432693481, 0.9388240575790405, 0.9000674486160278, 0.9564462900161743, 0.9552326798439026, 0.9746647477149963, 0.982054591178894, 0.9727044701576233, 0.9784107208251953, 0.9921321272850037, 0.9886022210121155, 0.9943331480026245, 0.9957977533340454, 0.9953352808952332, 0.994345486164093, 0.9952254295349121, 0.9781115055084229, 0.9756576418876648, 0.9763487577438354, 0.9633871912956238, 0.9760487675666809, 0.9744330644607544, 0.9203004837036133, 0.9902461767196655, 0.9918366074562073, 0.9892286062240601, 0.9672419428825378, 0.9625824689865112, 0.9724959135055542, 0.957109272480011, 0.8809193968772888, 0.9802623987197876, 0.9932010769844055, 0.9798151254653931, 0.9935775399208069, 0.9961344003677368, 0.991626501083374, 0.9945166707038879, 0.9944926500320435]</t>
+          <t>[0.9176429510116577, 0.9428509473800659, 0.9119047522544861, 0.9089996814727783, 0.9062075018882751, 0.9489744901657104, 0.8321681022644043, 0.9289354681968689, 0.9511823058128357, 0.9578527212142944, 0.8649123311042786, 0.8323721289634705, 0.8296598196029663, 0.3989256024360657, 0.7409624457359314, 0.7990983724594116, 0.610339343547821, 0.6202268600463867, 0.7242375016212463, 0.9494476318359375, 0.8079459071159363, 0.9606173038482666, 0.7461957931518555, 0.7664011120796204, 0.7155452370643616, 0.9069316387176514, 0.7945507168769836, 0.6483486294746399, 0.7429268956184387, 0.8765552043914795, 0.9384821057319641, 0.9376162886619568, 0.9168355464935303, 0.9045738577842712, 0.5159866809844971, 0.8561690449714661, 0.935364842414856, 0.9451749324798584, 0.9554616212844849, 0.9052823781967163, 0.8319428563117981, 0.8961593508720398, 0.9739903807640076, 0.9880759716033936, 0.9664290547370911, 0.9701738357543945, 0.9530984163284302, 0.9796882271766663, 0.9891048073768616, 0.9846835732460022, 0.9743106365203857, 0.9410894513130188, 0.8815789222717285, 0.9558266401290894, 0.9473766088485718, 0.8707613945007324, 0.846693217754364, 0.9793601036071777, 0.9373345375061035, 0.9809149503707886, 0.9848220944404602, 0.955943763256073, 0.844576895236969, 0.9469781517982483, 0.8487358689308167, 0.9213188290596008, 0.6186701655387878, 0.38819724321365356, 0.49676209688186646, 0.4348364770412445, 0.35835695266723633, 0.47249025106430054, 0.5671009421348572, 0.7719401717185974, 0.6771613359451294, 0.7510994076728821, 0.7290456891059875, 0.5419061779975891, 0.6326997876167297, 0.509900689125061, 0.3761149048805237, 0.4463375508785248, 0.6068027019500732, 0.8419617414474487, 0.7667543292045593, 0.916513204574585, 0.9496027231216431, 0.8994236588478088, 0.847072422504425, 0.9306835532188416, 0.9300753474235535, 0.9638749957084656, 0.9794954657554626, 0.9630956053733826, 0.9566304087638855, 0.9825823307037354, 0.981799304485321, 0.994040310382843, 0.9960002303123474, 0.9934518337249756, 0.9902369379997253, 0.9943088889122009, 0.9775195121765137, 0.9816861152648926, 0.9714008569717407, 0.9450091123580933, 0.9631378650665283, 0.9645597338676453, 0.9084509611129761, 0.9904705286026001, 0.9927423000335693, 0.9883325695991516, 0.9591654539108276, 0.9558566808700562, 0.9750494956970215, 0.9439809322357178, 0.8496099710464478, 0.9698590636253357, 0.9929611086845398, 0.9794212579727173, 0.9951555728912354, 0.9968805313110352, 0.9906682372093201, 0.9913660287857056, 0.9912990927696228]</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.9961344003677368</v>
+        <v>0.9968805313110352</v>
       </c>
       <c r="F244" t="n">
         <v>1</v>
@@ -10303,10 +10303,10 @@
         </is>
       </c>
       <c r="I244" t="n">
-        <v>0.7481824999849778</v>
+        <v>0.7217446000140626</v>
       </c>
       <c r="J244" t="n">
-        <v>0.005985459999879822</v>
+        <v>0.005773956800112501</v>
       </c>
     </row>
     <row r="245">
@@ -10325,11 +10325,11 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>[0.2778092920780182, 0.4483124613761902, 0.5263770222663879, 0.5885913968086243, 0.3864124119281769, 0.40126973390579224, 0.5783548951148987, 0.5945753455162048, 0.6015287041664124, 0.7712235450744629, 0.5933574438095093, 0.6117811799049377, 0.5694876313209534, 0.4519128203392029, 0.566635251045227, 0.7346726059913635, 0.5216719508171082, 0.5941969156265259, 0.6500879526138306, 0.7624041438102722, 0.6840153336524963, 0.7667635679244995, 0.6034610271453857, 0.6426396369934082, 0.7356303930282593, 0.8270319104194641, 0.7964273691177368, 0.7889367341995239, 0.8964205980300903, 0.8166099786758423, 0.6203936338424683, 0.817028820514679, 0.79740971326828, 0.846751868724823, 0.7489836812019348, 0.8084388375282288, 0.8651790022850037, 0.8663796186447144, 0.8809845447540283, 0.9178866147994995, 0.8818920850753784, 0.841517448425293, 0.6735211610794067, 0.8552130460739136, 0.7958316206932068, 0.8146229982376099, 0.7495672702789307, 0.6576825976371765, 0.5668160319328308, 0.6261009573936462, 0.6908966898918152, 0.8722838163375854, 0.879273533821106, 0.7225314378738403, 0.7083097100257874, 0.7178537845611572, 0.7417036294937134, 0.6901115775108337, 0.5527454614639282, 0.7505965828895569, 0.6702848076820374, 0.5354150533676147, 0.6415473818778992, 0.8722547292709351, 0.7278435230255127, 0.8738502860069275, 0.8091705441474915, 0.7034928798675537, 0.7188684940338135, 0.325512558221817, 0.8009287118911743, 0.8630923628807068, 0.6505493521690369, 0.5891306400299072, 0.8453407883644104, 0.6867231726646423, 0.38080939650535583, 0.22385799884796143, 0.5722140669822693, 0.5927988886833191, 0.2227405309677124, 0.22578537464141846, 0.19389164447784424, 0.5691840052604675, 0.28595173358917236, 0.2675822377204895, 0.22292020916938782, 0.3466942012310028, 0.39407894015312195, 0.27984902262687683, 0.18657587468624115, 0.23557965457439423, 0.17354245483875275, 0.22096435725688934, 0.20882128179073334, 0.2526034414768219, 0.3052579164505005, 0.347852885723114, 0.331815242767334, 0.6177276968955994, 0.6145278811454773, 0.5157696604728699, 0.2905804216861725, 0.41743791103363037, 0.3332647383213043, 0.3672110140323639, 0.549721360206604, 0.5848849415779114, 0.41214945912361145, 0.2917976379394531, 0.31651440262794495, 0.3141096532344818, 0.24047917127609253, 0.19266614317893982, 0.3983430564403534, 0.4690653383731842, 0.562039315700531, 0.42529526352882385, 0.4735085368156433, 0.4480576515197754, 0.8721314072608948, 0.7712119221687317, 0.8556616902351379, 0.7692738175392151, 0.8079785704612732, 0.8515559434890747, 0.7723601460456848, 0.9582222104072571, 0.9376275539398193, 0.9255387187004089, 0.895828127861023, 0.9676658511161804, 0.9206691384315491, 0.9787569642066956, 0.9685417413711548, 0.8947410583496094, 0.777188777923584, 0.9119962453842163, 0.9044690728187561, 0.9532067179679871, 0.9411841630935669, 0.9702081680297852, 0.9748368859291077, 0.9815342426300049, 0.9732943773269653, 0.9225276708602905, 0.9562073349952698, 0.9441308975219727, 0.9432203769683838]</t>
+          <t>[0.23297032713890076, 0.43036743998527527, 0.600393533706665, 0.5356108546257019, 0.3491373062133789, 0.380052775144577, 0.5946466326713562, 0.6480680704116821, 0.6775181293487549, 0.7991374135017395, 0.6484042406082153, 0.6725029349327087, 0.6177411079406738, 0.5257904529571533, 0.6379790306091309, 0.8282948136329651, 0.6300830245018005, 0.6597044467926025, 0.7258405685424805, 0.7826036214828491, 0.7901759147644043, 0.8760573863983154, 0.7794830799102783, 0.7867483496665955, 0.850103497505188, 0.8935688138008118, 0.8614248633384705, 0.8400262594223022, 0.92925626039505, 0.8936805725097656, 0.7571709156036377, 0.8726263046264648, 0.8488132953643799, 0.888202965259552, 0.7535616159439087, 0.8401808738708496, 0.8750821352005005, 0.911710262298584, 0.9021937251091003, 0.9219216108322144, 0.9198713898658752, 0.86881422996521, 0.7300167679786682, 0.8452143669128418, 0.7675091028213501, 0.802943229675293, 0.7675979733467102, 0.6522613763809204, 0.4868987202644348, 0.5691215991973877, 0.518770158290863, 0.8249622583389282, 0.8570308089256287, 0.6623498797416687, 0.5747339725494385, 0.6646081209182739, 0.6825485825538635, 0.651218831539154, 0.638627290725708, 0.6477553248405457, 0.5171879529953003, 0.5743916034698486, 0.5938961505889893, 0.8317195177078247, 0.5725745558738708, 0.7850043773651123, 0.7243699431419373, 0.6427611708641052, 0.5138325691223145, 0.2675532102584839, 0.714064359664917, 0.8005395531654358, 0.4217498004436493, 0.40792056918144226, 0.7324187755584717, 0.6313480734825134, 0.35576364398002625, 0.22273942828178406, 0.48337721824645996, 0.5392826795578003, 0.16274258494377136, 0.2515830099582672, 0.1849328875541687, 0.661198616027832, 0.34765586256980896, 0.30792832374572754, 0.20620541274547577, 0.42846816778182983, 0.4741363227367401, 0.34748369455337524, 0.19980211555957794, 0.2566204071044922, 0.1731649786233902, 0.241426020860672, 0.19609224796295166, 0.27538445591926575, 0.33558931946754456, 0.387739360332489, 0.37398579716682434, 0.7143392562866211, 0.6785297989845276, 0.5701737999916077, 0.29146477580070496, 0.4155982732772827, 0.2930423617362976, 0.44553831219673157, 0.6178447604179382, 0.6541303396224976, 0.436397522687912, 0.3259228467941284, 0.29974544048309326, 0.35439738631248474, 0.22470523416996002, 0.1616205871105194, 0.3657251298427582, 0.512787938117981, 0.6079961657524109, 0.47701725363731384, 0.44334152340888977, 0.4773666262626648, 0.8421891331672668, 0.7032722234725952, 0.7898615598678589, 0.6973287463188171, 0.6658391356468201, 0.7454162836074829, 0.7251788377761841, 0.9402021765708923, 0.8827301859855652, 0.8674936294555664, 0.8390263319015503, 0.9474989175796509, 0.868787407875061, 0.9737528562545776, 0.9540724158287048, 0.8429918885231018, 0.7184520363807678, 0.8986436128616333, 0.8803225159645081, 0.9279707670211792, 0.9257106781005859, 0.9555392265319824, 0.9606983065605164, 0.9755034446716309, 0.9630177617073059, 0.8773301243782043, 0.9528983235359192, 0.9283514618873596, 0.9267351031303406]</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.9815342426300049</v>
+        <v>0.9755034446716309</v>
       </c>
       <c r="F245" t="n">
         <v>1</v>
@@ -10343,10 +10343,10 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>0.8889861000061501</v>
+        <v>0.8611027000006288</v>
       </c>
       <c r="J245" t="n">
-        <v>0.005966349664470806</v>
+        <v>0.005779212751682073</v>
       </c>
     </row>
     <row r="246">
@@ -10365,11 +10365,11 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>[0.48019903898239136, 0.7651789784431458, 0.5531010627746582, 0.4356735646724701, 0.52486252784729, 0.31355762481689453, 0.5140711665153503, 0.3637031614780426, 0.5306422710418701, 0.665893018245697, 0.7212111949920654, 0.8520320057868958, 0.6739349365234375, 0.5586779117584229, 0.4196415841579437, 0.2736569046974182, 0.49506962299346924, 0.15942049026489258, 0.1292801946401596, 0.27964091300964355, 0.1861010491847992, 0.39696699380874634, 0.27176493406295776, 0.10844454169273376, 0.17041999101638794, 0.19844472408294678, 0.3525577485561371, 0.5057101845741272, 0.28722360730171204, 0.2656989097595215, 0.42144104838371277, 0.32843488454818726, 0.2879593074321747, 0.35136672854423523, 0.4415530860424042, 0.46671515703201294, 0.49070027470588684, 0.5929793119430542, 0.43221524357795715, 0.3513834774494171, 0.4180850684642792, 0.2870016098022461, 0.31920918822288513, 0.45478299260139465, 0.4296262264251709, 0.3719603419303894, 0.19724662601947784, 0.3297887146472931, 0.6177676916122437, 0.5484158396720886, 0.34567245841026306, 0.5147395133972168, 0.2670111358165741, 0.5124954581260681, 0.5984592437744141, 0.6238735318183899, 0.5590912103652954, 0.22107793390750885, 0.18347153067588806, 0.2118649184703827, 0.30313971638679504, 0.4404881000518799, 0.5721457600593567, 0.5817286372184753, 0.4018446207046509, 0.5962390303611755, 0.5142792463302612, 0.31422388553619385, 0.19492359459400177, 0.2596667408943176, 0.3386805057525635, 0.47345003485679626, 0.6169098615646362, 0.6735600233078003, 0.6712506413459778, 0.47596004605293274, 0.21918079257011414, 0.3503614366054535, 0.20805546641349792, 0.24660710990428925, 0.19948898255825043, 0.3733479380607605, 0.21586832404136658, 0.15207459032535553, 0.3667661249637604, 0.6833662986755371, 0.36532062292099, 0.286435604095459, 0.216103196144104, 0.3127037584781647, 0.20555192232131958, 0.26224440336227417, 0.21582947671413422, 0.49798837304115295, 0.46678680181503296, 0.46717268228530884, 0.6505534648895264, 0.5731126666069031, 0.19256338477134705, 0.1797924041748047, 0.3061562180519104, 0.628664493560791, 0.4997658431529999, 0.4591183364391327, 0.2031320184469223, 0.33256441354751587, 0.39594873785972595, 0.47994959354400635, 0.35859227180480957, 0.3189343512058258, 0.18948890268802643, 0.1994653046131134, 0.19313165545463562, 0.16309437155723572, 0.11876773834228516, 0.1697787046432495, 0.2982639670372009, 0.13854913413524628, 0.25118064880371094, 0.12748779356479645, 0.06793276220560074, 0.07878934592008591, 0.0956588014960289, 0.12781286239624023, 0.1409989446401596, 0.3875768482685089, 0.5913963913917542, 0.5597620606422424, 0.603839635848999, 0.3600817024707794, 0.5844367146492004, 0.37380293011665344, 0.8064175844192505, 0.6829687356948853, 0.685871958732605, 0.9023019075393677, 0.8862078785896301, 0.8007630705833435, 0.8182865977287292, 0.9332900643348694, 0.9710520505905151, 0.956954300403595, 0.9185410141944885, 0.8860994577407837, 0.8959468603134155, 0.9456550478935242, 0.8648593425750732, 0.8633870482444763]</t>
+          <t>[0.32464051246643066, 0.7143868207931519, 0.5035378336906433, 0.3462602496147156, 0.3181934654712677, 0.1716102957725525, 0.4172981381416321, 0.273516446352005, 0.4196891188621521, 0.6306253671646118, 0.6146529912948608, 0.8337827324867249, 0.6917950510978699, 0.47979670763015747, 0.30998554825782776, 0.24193215370178223, 0.49767380952835083, 0.12228234112262726, 0.07460466772317886, 0.23478269577026367, 0.19947975873947144, 0.43335258960723877, 0.21205435693264008, 0.07367786020040512, 0.12777796387672424, 0.1259356141090393, 0.334769606590271, 0.4438755512237549, 0.24975885450839996, 0.31832659244537354, 0.5797147154808044, 0.4540327787399292, 0.3398017883300781, 0.42355868220329285, 0.5262491106987, 0.5381003618240356, 0.5861468315124512, 0.6956350207328796, 0.4394553005695343, 0.38890349864959717, 0.46571028232574463, 0.27720001339912415, 0.38655897974967957, 0.59225994348526, 0.5486804842948914, 0.5623998641967773, 0.32172131538391113, 0.5726327300071716, 0.7361236810684204, 0.6419368982315063, 0.417045533657074, 0.5304097533226013, 0.2013169676065445, 0.5074531435966492, 0.6258409023284912, 0.6539875268936157, 0.5330867767333984, 0.17827163636684418, 0.16995178163051605, 0.1906084567308426, 0.25979653000831604, 0.40293407440185547, 0.5275794863700867, 0.5726179480552673, 0.37012019753456116, 0.5184996128082275, 0.4164843261241913, 0.22524037957191467, 0.1640491783618927, 0.2506580054759979, 0.3384336829185486, 0.5853683948516846, 0.6732985377311707, 0.7659255266189575, 0.7374606728553772, 0.43107888102531433, 0.2212039679288864, 0.33151987195014954, 0.16230182349681854, 0.2517358660697937, 0.20069453120231628, 0.4128265678882599, 0.2697486877441406, 0.18362686038017273, 0.4131849408149719, 0.7494385242462158, 0.38798490166664124, 0.29270827770233154, 0.19428454339504242, 0.3231140077114105, 0.18835362792015076, 0.2312537282705307, 0.19583463668823242, 0.4419357478618622, 0.37214359641075134, 0.4047016501426697, 0.6860958337783813, 0.594704270362854, 0.12026136368513107, 0.1089916005730629, 0.2672464847564697, 0.4817201793193817, 0.33590084314346313, 0.3316715657711029, 0.13961181044578552, 0.31821152567863464, 0.4670678675174713, 0.4874397814273834, 0.3177410960197449, 0.27192211151123047, 0.14918629825115204, 0.17465358972549438, 0.14644382894039154, 0.14238397777080536, 0.08989282697439194, 0.09810668230056763, 0.23474951088428497, 0.070227712392807, 0.11083023995161057, 0.05943004786968231, 0.03845860809087753, 0.049677323549985886, 0.0631001889705658, 0.06769099831581116, 0.10363373160362244, 0.38130277395248413, 0.6909945607185364, 0.6309375762939453, 0.6062300801277161, 0.29672154784202576, 0.35960692167282104, 0.2738907039165497, 0.7427765130996704, 0.5812362432479858, 0.5908512473106384, 0.8777444362640381, 0.8633751273155212, 0.756531834602356, 0.736318826675415, 0.9121547341346741, 0.9528591632843018, 0.927727460861206, 0.8475027680397034, 0.7777405977249146, 0.8152607083320618, 0.930992066860199, 0.7810220122337341, 0.7771148085594177]</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.9710520505905151</v>
+        <v>0.9528591632843018</v>
       </c>
       <c r="F246" t="n">
         <v>1</v>
@@ -10383,10 +10383,10 @@
         </is>
       </c>
       <c r="I246" t="n">
-        <v>0.8371259999985341</v>
+        <v>0.8501816999923903</v>
       </c>
       <c r="J246" t="n">
-        <v>0.005656256756746852</v>
+        <v>0.005744470945894529</v>
       </c>
     </row>
     <row r="247">
@@ -10405,11 +10405,11 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>[0.7041328549385071, 0.9328699111938477, 0.9458379149436951, 0.9460271596908569, 0.8441920280456543, 0.7462903261184692, 0.8267412781715393, 0.7370229959487915, 0.8269727230072021, 0.7893778681755066, 0.5023416876792908, 0.6597090363502502, 0.8203538656234741, 0.8632156252861023, 0.7811222672462463, 0.8103939890861511, 0.9024972319602966, 0.9567423462867737, 0.7351011037826538, 0.7887851595878601, 0.7831644415855408, 0.8503867983818054, 0.6461108326911926, 0.650950014591217, 0.6496138572692871, 0.7665144205093384, 0.5550529360771179, 0.5074852108955383, 0.46902647614479065, 0.5043357014656067, 0.35226649045944214, 0.4402197003364563, 0.4231308400630951, 0.5605154037475586, 0.33470773696899414, 0.7879400253295898, 0.4949025809764862, 0.4268189072608948, 0.22428441047668457, 0.2896830439567566, 0.5284661054611206, 0.6941872835159302, 0.5637035369873047, 0.6927345395088196, 0.5121782422065735, 0.5044265389442444, 0.626591145992279, 0.8284380435943604, 0.8411315083503723, 0.9047578573226929, 0.8841509222984314, 0.8446456789970398, 0.6283884048461914, 0.4573042094707489, 0.6685645580291748, 0.5970792174339294, 0.5515005588531494, 0.5797527432441711, 0.45060646533966064, 0.4575427770614624, 0.4999469518661499, 0.8429944515228271, 0.9379037022590637, 0.974454939365387, 0.6315025687217712, 0.5144602060317993, 0.558584988117218, 0.8398321270942688, 0.8588107228279114, 0.9260576367378235, 0.7617917060852051, 0.34923869371414185, 0.3357248306274414, 0.3711029887199402, 0.30579209327697754, 0.33449292182922363, 0.24565069377422333, 0.30658048391342163, 0.25118762254714966, 0.22489523887634277, 0.32788270711898804, 0.2604510486125946, 0.3886348605155945, 0.631196141242981, 0.5358140468597412, 0.4461551308631897, 0.29376840591430664, 0.4610190689563751, 0.4545723497867584, 0.6524106860160828, 0.6520776152610779, 0.8627533912658691, 0.5737174153327942, 0.6127271056175232, 0.4694674015045166, 0.5777295231819153, 0.6519239544868469, 0.611190676689148, 0.7089366912841797, 0.653578519821167, 0.5432684421539307, 0.7052131295204163, 0.6500051021575928, 0.7755163311958313, 0.774956464767456, 0.9089154601097107, 0.8793315291404724, 0.8271311521530151, 0.8047096729278564, 0.8052705526351929, 0.904920220375061, 0.7828288674354553, 0.8368709683418274, 0.9457631707191467, 0.8532657027244568, 0.8884001970291138, 0.9169776439666748, 0.8809540271759033, 0.6105409264564514, 0.43239396810531616, 0.7210604548454285, 0.8394762277603149, 0.9257750511169434, 0.8844508528709412, 0.5782387852668762, 0.7017838954925537, 0.7145646810531616, 0.4514477849006653, 0.7649365663528442, 0.893661379814148, 0.8966367840766907, 0.86835777759552, 0.4790916442871094, 0.5402877926826477, 0.3260221481323242, 0.3921082317829132, 0.3525783121585846, 0.3132381737232208, 0.20178286731243134, 0.31260934472084045, 0.27951785922050476, 0.2821788191795349, 0.2272084653377533, 0.21363838016986847, 0.32986658811569214, 0.3750813603401184, 0.5602275133132935, 0.559617817401886]</t>
+          <t>[0.67592453956604, 0.9352090358734131, 0.964163601398468, 0.9523078203201294, 0.8249096274375916, 0.7951885461807251, 0.8436060547828674, 0.7676749229431152, 0.8638326525688171, 0.8475432991981506, 0.6087833046913147, 0.7439258694648743, 0.8390429019927979, 0.8666228652000427, 0.8049148917198181, 0.8810967206954956, 0.8967107534408569, 0.9562241435050964, 0.8155237436294556, 0.8290167450904846, 0.7595936059951782, 0.8308179974555969, 0.6365150809288025, 0.6101795434951782, 0.5780508518218994, 0.7499010562896729, 0.5277349948883057, 0.5044984221458435, 0.40265119075775146, 0.5614482760429382, 0.41155654191970825, 0.5377172231674194, 0.4913289248943329, 0.6195311546325684, 0.3458879590034485, 0.7501732110977173, 0.5284116864204407, 0.47364342212677, 0.22751474380493164, 0.27254658937454224, 0.5032507181167603, 0.7561166882514954, 0.650354266166687, 0.7664974331855774, 0.6269506216049194, 0.6318247318267822, 0.7988169193267822, 0.8977331519126892, 0.8958088159561157, 0.9529405832290649, 0.9426160454750061, 0.930613100528717, 0.761013925075531, 0.4962993264198303, 0.6311399340629578, 0.6844553351402283, 0.637891948223114, 0.7119987607002258, 0.5640137195587158, 0.5294734835624695, 0.6121606826782227, 0.9001421928405762, 0.9530410170555115, 0.9800471663475037, 0.7113378643989563, 0.7030929327011108, 0.6814523935317993, 0.9060187339782715, 0.8864949941635132, 0.9519596099853516, 0.8676092028617859, 0.5543461441993713, 0.5479303002357483, 0.5672324299812317, 0.5068619847297668, 0.5538636445999146, 0.3820286691188812, 0.44842496514320374, 0.43262094259262085, 0.43175262212753296, 0.6174455881118774, 0.4680158793926239, 0.6382529139518738, 0.8274722695350647, 0.6221949458122253, 0.6673606038093567, 0.5435760021209717, 0.6200452446937561, 0.5547808408737183, 0.812171220779419, 0.7816259264945984, 0.9226466417312622, 0.7049580216407776, 0.78512042760849, 0.5961028933525085, 0.6297165751457214, 0.7327898144721985, 0.7431231737136841, 0.8182173371315002, 0.7955268621444702, 0.6518988013267517, 0.7890485525131226, 0.7344467043876648, 0.8542507290840149, 0.8263434171676636, 0.9493218064308167, 0.9140958189964294, 0.8956331014633179, 0.8689665198326111, 0.8706921935081482, 0.9408479928970337, 0.8089473843574524, 0.9134418964385986, 0.9735265970230103, 0.8905640840530396, 0.9169908761978149, 0.9203729033470154, 0.8957847952842712, 0.6144670844078064, 0.4901762306690216, 0.7057405114173889, 0.8796029686927795, 0.9379624128341675, 0.9280720949172974, 0.7146064639091492, 0.8699576258659363, 0.8353585004806519, 0.5932663083076477, 0.8322659134864807, 0.9222632050514221, 0.9416021108627319, 0.9360328912734985, 0.4823092222213745, 0.669408917427063, 0.5099375247955322, 0.5971543192863464, 0.44629967212677, 0.4153413474559784, 0.22576169669628143, 0.4567851424217224, 0.4842776656150818, 0.43587854504585266, 0.3156685531139374, 0.38266825675964355, 0.642365574836731, 0.5869896411895752, 0.7265425324440002, 0.7266994118690491]</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.974454939365387</v>
+        <v>0.9800471663475037</v>
       </c>
       <c r="F247" t="n">
         <v>1</v>
@@ -10423,10 +10423,10 @@
         </is>
       </c>
       <c r="I247" t="n">
-        <v>0.8558389999961946</v>
+        <v>0.8560396000102628</v>
       </c>
       <c r="J247" t="n">
-        <v>0.005782695945920234</v>
+        <v>0.005784051351420695</v>
       </c>
     </row>
     <row r="248">
@@ -10445,11 +10445,11 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>[0.920939028263092, 0.911956787109375, 0.7349309325218201, 0.9759414196014404, 0.877503514289856, 0.8411007523536682, 0.8963882327079773, 0.8211127519607544, 0.6865020990371704, 0.7868005633354187, 0.7363004088401794, 0.959226131439209, 0.8843145966529846, 0.9660114645957947, 0.8858082890510559, 0.8813849687576294, 0.7954987287521362, 0.901242733001709, 0.7424256205558777, 0.8210432529449463, 0.8918078541755676, 0.8971964120864868, 0.7537537813186646, 0.6903765797615051, 0.3916996121406555, 0.4290379583835602, 0.6551176309585571, 0.7998363971710205, 0.4550447165966034, 0.3857307434082031, 0.3587062656879425, 0.44462138414382935, 0.5703054666519165, 0.7676358819007874, 0.7682448625564575, 0.9400027394294739, 0.935968279838562, 0.8609713315963745, 0.8884902596473694, 0.8406402468681335, 0.8786974549293518, 0.83463454246521, 0.8504594564437866, 0.6434608101844788, 0.7804533839225769, 0.7643178701400757, 0.6982023119926453, 0.9181530475616455, 0.8882595896720886, 0.9361300468444824, 0.8988163471221924, 0.9581860899925232, 0.7891086935997009, 0.8326393365859985, 0.6121245622634888, 0.5162047147750854, 0.2888442873954773, 0.28567877411842346, 0.3568429946899414, 0.5248919129371643, 0.6210712194442749, 0.6295254826545715, 0.69059818983078, 0.5665796995162964, 0.6714847683906555, 0.4859735369682312, 0.5522785782814026, 0.43381717801094055, 0.37441083788871765, 0.33009201288223267, 0.3864087462425232, 0.3403454124927521, 0.32569557428359985, 0.21641388535499573, 0.2981480360031128, 0.2958570718765259, 0.4492550492286682, 0.49940890073776245, 0.5013953447341919, 0.4830664396286011, 0.5182309746742249, 0.4313179850578308, 0.40402960777282715, 0.49464958906173706, 0.785048246383667, 0.9244785904884338, 0.7161963582038879, 0.6861034631729126, 0.768391489982605, 0.7562494277954102, 0.8414270877838135, 0.7860848903656006, 0.8124809861183167, 0.6911934018135071, 0.3954438865184784, 0.4336480498313904, 0.2977384626865387, 0.18777619302272797, 0.2821981608867645, 0.2842665910720825, 0.1249198317527771, 0.19814936816692352, 0.13056683540344238, 0.16384850442409515, 0.1485351175069809, 0.30336442589759827, 0.4319004714488983, 0.5416688919067383, 0.5114359855651855, 0.6538717150688171, 0.666355311870575, 0.7348098754882812, 0.3517738878726959, 0.445652037858963, 0.35879284143447876, 0.376059353351593, 0.5306529402732849, 0.4344153106212616, 0.31941744685173035, 0.4710516631603241, 0.6166294813156128, 0.6387941837310791, 0.5815929174423218, 0.5367443561553955, 0.5856112837791443, 0.5625438690185547, 0.4064662456512451, 0.548747718334198, 0.3515554964542389, 0.47428634762763977, 0.4278280436992645, 0.5380362868309021, 0.6700642704963684, 0.562505841255188, 0.28195762634277344, 0.24984678626060486, 0.3826487958431244, 0.7874488234519958, 0.6750288009643555, 0.5549467206001282, 0.41462141275405884, 0.5115225911140442, 0.4998365044593811, 0.531927764415741, 0.4624579846858978, 0.25151389837265015, 0.5344663858413696, 0.5330708026885986]</t>
+          <t>[0.839077889919281, 0.9289402365684509, 0.716923177242279, 0.9737247824668884, 0.8373714685440063, 0.8278390169143677, 0.8909775614738464, 0.8260619640350342, 0.7073349952697754, 0.7934337258338928, 0.785123348236084, 0.9614173769950867, 0.9076111912727356, 0.9590942859649658, 0.9070152640342712, 0.9083284735679626, 0.8167758584022522, 0.8748652935028076, 0.7247582077980042, 0.8413571119308472, 0.9146555662155151, 0.893306314945221, 0.8530439138412476, 0.8017033934593201, 0.5441893935203552, 0.625701904296875, 0.725357711315155, 0.860405445098877, 0.5466286540031433, 0.4907401204109192, 0.48625293374061584, 0.5439990758895874, 0.7142201066017151, 0.8374902606010437, 0.8256116509437561, 0.9402349591255188, 0.926544725894928, 0.9044353365898132, 0.903730571269989, 0.8560352921485901, 0.8584290146827698, 0.8352013826370239, 0.8209532499313354, 0.6704660654067993, 0.8028615117073059, 0.7794824838638306, 0.7627390027046204, 0.9261415600776672, 0.8966019749641418, 0.9443967342376709, 0.9236642718315125, 0.9733253121376038, 0.8750500679016113, 0.8677623271942139, 0.7150924205780029, 0.5985814332962036, 0.27117595076560974, 0.2809511125087738, 0.36659184098243713, 0.523525595664978, 0.6115890145301819, 0.5647282004356384, 0.5901423692703247, 0.5472436547279358, 0.6912734508514404, 0.5500898957252502, 0.5854167938232422, 0.44193339347839355, 0.3256959915161133, 0.2967261075973511, 0.3106037676334381, 0.25843796133995056, 0.25903818011283875, 0.186950221657753, 0.286620557308197, 0.2913094758987427, 0.4690817892551422, 0.5333908200263977, 0.49191510677337646, 0.48123741149902344, 0.4822436273097992, 0.41086986660957336, 0.3880746066570282, 0.48221516609191895, 0.8152976632118225, 0.9230974912643433, 0.7038708329200745, 0.6957045197486877, 0.7099622488021851, 0.6406323909759521, 0.7542302012443542, 0.7669553756713867, 0.7181895971298218, 0.6565147638320923, 0.45612338185310364, 0.44442203640937805, 0.3165973722934723, 0.20667879283428192, 0.2931068539619446, 0.30345961451530457, 0.12877656519412994, 0.25496557354927063, 0.12982138991355896, 0.16624043881893158, 0.16148604452610016, 0.3233707547187805, 0.43148741126060486, 0.49086326360702515, 0.5263891816139221, 0.7390113472938538, 0.7526962161064148, 0.8018646836280823, 0.4238651692867279, 0.5175332427024841, 0.501216471195221, 0.43948233127593994, 0.512262761592865, 0.5068078637123108, 0.4721636474132538, 0.6705604791641235, 0.642518937587738, 0.6251917481422424, 0.5442264676094055, 0.572131872177124, 0.5942056775093079, 0.64508056640625, 0.5317590236663818, 0.6594884991645813, 0.369764119386673, 0.5438222289085388, 0.5168905854225159, 0.6807483434677124, 0.7176940441131592, 0.7058801054954529, 0.3885354995727539, 0.3400771915912628, 0.4509434103965759, 0.829824686050415, 0.7635659575462341, 0.6495361924171448, 0.43398138880729675, 0.6388593912124634, 0.5295994877815247, 0.6661905646324158, 0.5268812775611877, 0.33960026502609253, 0.5841802954673767, 0.5846551656723022]</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.9759414196014404</v>
+        <v>0.9737247824668884</v>
       </c>
       <c r="F248" t="n">
         <v>1</v>
@@ -10463,10 +10463,10 @@
         </is>
       </c>
       <c r="I248" t="n">
-        <v>0.8466555000049993</v>
+        <v>0.8388647999963723</v>
       </c>
       <c r="J248" t="n">
-        <v>0.00572064527030405</v>
+        <v>0.005668005405380894</v>
       </c>
     </row>
   </sheetData>
